--- a/2023/brazil_serie-a_2023.xlsx
+++ b/2023/brazil_serie-a_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V251"/>
+  <dimension ref="A1:V252"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1953,22 +1953,22 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Santos</t>
+          <t>Vasco</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Atletico-MG</t>
+          <t>Palmeiras</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J17" t="n">
-        <v>3.42</v>
+        <v>3.35</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -1976,15 +1976,15 @@
         </is>
       </c>
       <c r="L17" t="n">
-        <v>3.42</v>
+        <v>3.28</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>23/04/2023 20:32</t>
+          <t>23/04/2023 20:56</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>3.27</v>
+        <v>3.39</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1992,15 +1992,15 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>3.13</v>
+        <v>3.19</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>23/04/2023 20:26</t>
+          <t>23/04/2023 20:51</t>
         </is>
       </c>
       <c r="R17" t="n">
-        <v>2.31</v>
+        <v>2.28</v>
       </c>
       <c r="S17" t="inlineStr">
         <is>
@@ -2008,16 +2008,16 @@
         </is>
       </c>
       <c r="T17" t="n">
-        <v>2.41</v>
+        <v>2.44</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>23/04/2023 20:26</t>
+          <t>23/04/2023 20:53</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/santos-atletico-mg/pzVMHOa5/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/vasco-palmeiras/xAREJpVh/</t>
         </is>
       </c>
     </row>
@@ -2045,22 +2045,22 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Vasco</t>
+          <t>Santos</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Palmeiras</t>
+          <t>Atletico-MG</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>3.35</v>
+        <v>3.42</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -2068,15 +2068,15 @@
         </is>
       </c>
       <c r="L18" t="n">
-        <v>3.28</v>
+        <v>3.42</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>23/04/2023 20:56</t>
+          <t>23/04/2023 20:32</t>
         </is>
       </c>
       <c r="N18" t="n">
-        <v>3.39</v>
+        <v>3.27</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -2084,15 +2084,15 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>3.19</v>
+        <v>3.13</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>23/04/2023 20:51</t>
+          <t>23/04/2023 20:26</t>
         </is>
       </c>
       <c r="R18" t="n">
-        <v>2.28</v>
+        <v>2.31</v>
       </c>
       <c r="S18" t="inlineStr">
         <is>
@@ -2100,16 +2100,16 @@
         </is>
       </c>
       <c r="T18" t="n">
-        <v>2.44</v>
+        <v>2.41</v>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>23/04/2023 20:53</t>
+          <t>23/04/2023 20:26</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/vasco-palmeiras/xAREJpVh/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/santos-atletico-mg/pzVMHOa5/</t>
         </is>
       </c>
     </row>
@@ -2597,71 +2597,71 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Santos</t>
+          <t>Bragantino</t>
         </is>
       </c>
       <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Cruzeiro</t>
+        </is>
+      </c>
+      <c r="I24" t="n">
         <v>3</v>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>America MG</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
-        <v>2</v>
-      </c>
       <c r="J24" t="n">
-        <v>2.04</v>
+        <v>1.75</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>24/04/2023 05:42</t>
+          <t>23/04/2023 05:13</t>
         </is>
       </c>
       <c r="L24" t="n">
-        <v>2.41</v>
+        <v>1.82</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>29/04/2023 23:26</t>
+          <t>29/04/2023 23:29</t>
         </is>
       </c>
       <c r="N24" t="n">
-        <v>3.54</v>
+        <v>3.77</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>24/04/2023 05:42</t>
+          <t>23/04/2023 05:13</t>
         </is>
       </c>
       <c r="P24" t="n">
-        <v>3.22</v>
+        <v>3.67</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>29/04/2023 23:26</t>
+          <t>29/04/2023 23:29</t>
         </is>
       </c>
       <c r="R24" t="n">
-        <v>3.73</v>
+        <v>5.06</v>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>24/04/2023 05:42</t>
+          <t>23/04/2023 05:13</t>
         </is>
       </c>
       <c r="T24" t="n">
-        <v>3.31</v>
+        <v>4.81</v>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>29/04/2023 23:26</t>
+          <t>29/04/2023 23:29</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/santos-america-mg/63b4U1qB/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/bragantino-cruzeiro/0Qc8TLbH/</t>
         </is>
       </c>
     </row>
@@ -2689,71 +2689,71 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Palmeiras</t>
+          <t>Santos</t>
         </is>
       </c>
       <c r="G25" t="n">
+        <v>3</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>America MG</t>
+        </is>
+      </c>
+      <c r="I25" t="n">
         <v>2</v>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>Corinthians</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
-        <v>1</v>
-      </c>
       <c r="J25" t="n">
-        <v>1.68</v>
+        <v>2.04</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>24/04/2023 00:12</t>
+          <t>24/04/2023 05:42</t>
         </is>
       </c>
       <c r="L25" t="n">
-        <v>1.5</v>
+        <v>2.41</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>29/04/2023 23:06</t>
+          <t>29/04/2023 23:26</t>
         </is>
       </c>
       <c r="N25" t="n">
-        <v>3.88</v>
+        <v>3.54</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>24/04/2023 00:12</t>
+          <t>24/04/2023 05:42</t>
         </is>
       </c>
       <c r="P25" t="n">
-        <v>4.07</v>
+        <v>3.22</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>29/04/2023 22:36</t>
+          <t>29/04/2023 23:26</t>
         </is>
       </c>
       <c r="R25" t="n">
-        <v>5.49</v>
+        <v>3.73</v>
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>24/04/2023 00:12</t>
+          <t>24/04/2023 05:42</t>
         </is>
       </c>
       <c r="T25" t="n">
-        <v>8.26</v>
+        <v>3.31</v>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>29/04/2023 23:06</t>
+          <t>29/04/2023 23:26</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/palmeiras-corinthians/SCa0VsU4/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/santos-america-mg/63b4U1qB/</t>
         </is>
       </c>
     </row>
@@ -2781,71 +2781,71 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Bragantino</t>
+          <t>Palmeiras</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Cruzeiro</t>
+          <t>Corinthians</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J26" t="n">
-        <v>1.75</v>
+        <v>1.68</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>23/04/2023 05:13</t>
+          <t>24/04/2023 00:12</t>
         </is>
       </c>
       <c r="L26" t="n">
-        <v>1.82</v>
+        <v>1.5</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>29/04/2023 23:29</t>
+          <t>29/04/2023 23:06</t>
         </is>
       </c>
       <c r="N26" t="n">
-        <v>3.77</v>
+        <v>3.88</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>23/04/2023 05:13</t>
+          <t>24/04/2023 00:12</t>
         </is>
       </c>
       <c r="P26" t="n">
-        <v>3.67</v>
+        <v>4.07</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>29/04/2023 23:29</t>
+          <t>29/04/2023 22:36</t>
         </is>
       </c>
       <c r="R26" t="n">
-        <v>5.06</v>
+        <v>5.49</v>
       </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t>23/04/2023 05:13</t>
+          <t>24/04/2023 00:12</t>
         </is>
       </c>
       <c r="T26" t="n">
-        <v>4.81</v>
+        <v>8.26</v>
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>29/04/2023 23:29</t>
+          <t>29/04/2023 23:06</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/bragantino-cruzeiro/0Qc8TLbH/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/palmeiras-corinthians/SCa0VsU4/</t>
         </is>
       </c>
     </row>
@@ -3885,22 +3885,22 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Goias</t>
+          <t>Botafogo RJ</t>
         </is>
       </c>
       <c r="G38" t="n">
+        <v>2</v>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Atletico-MG</t>
+        </is>
+      </c>
+      <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>Palmeiras</t>
-        </is>
-      </c>
-      <c r="I38" t="n">
-        <v>5</v>
-      </c>
       <c r="J38" t="n">
-        <v>4.55</v>
+        <v>2.85</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -3908,15 +3908,15 @@
         </is>
       </c>
       <c r="L38" t="n">
-        <v>5.53</v>
+        <v>3.72</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>07/05/2023 23:20</t>
+          <t>07/05/2023 23:29</t>
         </is>
       </c>
       <c r="N38" t="n">
-        <v>3.7</v>
+        <v>3.66</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
@@ -3924,15 +3924,15 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>3.99</v>
+        <v>3.33</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>07/05/2023 23:20</t>
+          <t>07/05/2023 23:29</t>
         </is>
       </c>
       <c r="R38" t="n">
-        <v>1.81</v>
+        <v>2.46</v>
       </c>
       <c r="S38" t="inlineStr">
         <is>
@@ -3940,16 +3940,16 @@
         </is>
       </c>
       <c r="T38" t="n">
-        <v>1.67</v>
+        <v>2.18</v>
       </c>
       <c r="U38" t="inlineStr">
         <is>
-          <t>07/05/2023 23:20</t>
+          <t>07/05/2023 23:29</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/goias-palmeiras/jFCjtarN/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/botafogo-rj-atletico-mg/0QJwq1b4/</t>
         </is>
       </c>
     </row>
@@ -4069,22 +4069,22 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Botafogo RJ</t>
+          <t>Goias</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Atletico-MG</t>
+          <t>Palmeiras</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J40" t="n">
-        <v>2.85</v>
+        <v>4.55</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -4092,15 +4092,15 @@
         </is>
       </c>
       <c r="L40" t="n">
-        <v>3.72</v>
+        <v>5.53</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>07/05/2023 23:29</t>
+          <t>07/05/2023 23:20</t>
         </is>
       </c>
       <c r="N40" t="n">
-        <v>3.66</v>
+        <v>3.7</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
@@ -4108,15 +4108,15 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>3.33</v>
+        <v>3.99</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>07/05/2023 23:29</t>
+          <t>07/05/2023 23:20</t>
         </is>
       </c>
       <c r="R40" t="n">
-        <v>2.46</v>
+        <v>1.81</v>
       </c>
       <c r="S40" t="inlineStr">
         <is>
@@ -4124,16 +4124,16 @@
         </is>
       </c>
       <c r="T40" t="n">
-        <v>2.18</v>
+        <v>1.67</v>
       </c>
       <c r="U40" t="inlineStr">
         <is>
-          <t>07/05/2023 23:29</t>
+          <t>07/05/2023 23:20</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/botafogo-rj-atletico-mg/0QJwq1b4/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/goias-palmeiras/jFCjtarN/</t>
         </is>
       </c>
     </row>
@@ -4253,71 +4253,71 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Internacional</t>
+          <t>Bragantino</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Athletico-PR</t>
+          <t>America MG</t>
         </is>
       </c>
       <c r="I42" t="n">
         <v>2</v>
       </c>
       <c r="J42" t="n">
-        <v>1.79</v>
+        <v>1.86</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>07/05/2023 21:12</t>
+          <t>07/05/2023 23:42</t>
         </is>
       </c>
       <c r="L42" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>10/05/2023 23:55</t>
+          <t>10/05/2023 23:45</t>
         </is>
       </c>
       <c r="N42" t="n">
-        <v>3.69</v>
+        <v>3.68</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>07/05/2023 21:12</t>
+          <t>07/05/2023 23:42</t>
         </is>
       </c>
       <c r="P42" t="n">
-        <v>3.61</v>
+        <v>3.77</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>10/05/2023 23:55</t>
+          <t>10/05/2023 23:45</t>
         </is>
       </c>
       <c r="R42" t="n">
-        <v>4.86</v>
+        <v>4.31</v>
       </c>
       <c r="S42" t="inlineStr">
         <is>
-          <t>07/05/2023 21:12</t>
+          <t>07/05/2023 23:42</t>
         </is>
       </c>
       <c r="T42" t="n">
-        <v>4.93</v>
+        <v>4.62</v>
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>10/05/2023 23:55</t>
+          <t>10/05/2023 23:48</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/internacional-athletico-pr/61gdmGkj/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/bragantino-america-mg/xWzYhxSS/</t>
         </is>
       </c>
     </row>
@@ -4345,71 +4345,71 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Bragantino</t>
+          <t>Santos</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>America MG</t>
+          <t>Bahia</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>1.86</v>
+        <v>1.95</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>07/05/2023 23:42</t>
+          <t>07/05/2023 21:12</t>
         </is>
       </c>
       <c r="L43" t="n">
-        <v>1.83</v>
+        <v>2.3</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>10/05/2023 23:45</t>
+          <t>10/05/2023 23:51</t>
         </is>
       </c>
       <c r="N43" t="n">
-        <v>3.68</v>
+        <v>3.64</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>07/05/2023 23:42</t>
+          <t>07/05/2023 21:12</t>
         </is>
       </c>
       <c r="P43" t="n">
-        <v>3.77</v>
+        <v>3.14</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>10/05/2023 23:45</t>
+          <t>10/05/2023 23:59</t>
         </is>
       </c>
       <c r="R43" t="n">
-        <v>4.31</v>
+        <v>3.93</v>
       </c>
       <c r="S43" t="inlineStr">
         <is>
-          <t>07/05/2023 23:42</t>
+          <t>07/05/2023 21:12</t>
         </is>
       </c>
       <c r="T43" t="n">
-        <v>4.62</v>
+        <v>3.65</v>
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>10/05/2023 23:48</t>
+          <t>10/05/2023 23:59</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/bragantino-america-mg/xWzYhxSS/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/santos-bahia/r9yUgICM/</t>
         </is>
       </c>
     </row>
@@ -4437,22 +4437,22 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Santos</t>
+          <t>Internacional</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Bahia</t>
+          <t>Athletico-PR</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J44" t="n">
-        <v>1.95</v>
+        <v>1.79</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
@@ -4460,15 +4460,15 @@
         </is>
       </c>
       <c r="L44" t="n">
-        <v>2.3</v>
+        <v>1.82</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>10/05/2023 23:51</t>
+          <t>10/05/2023 23:55</t>
         </is>
       </c>
       <c r="N44" t="n">
-        <v>3.64</v>
+        <v>3.69</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
@@ -4476,15 +4476,15 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>3.14</v>
+        <v>3.61</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>10/05/2023 23:59</t>
+          <t>10/05/2023 23:55</t>
         </is>
       </c>
       <c r="R44" t="n">
-        <v>3.93</v>
+        <v>4.86</v>
       </c>
       <c r="S44" t="inlineStr">
         <is>
@@ -4492,16 +4492,16 @@
         </is>
       </c>
       <c r="T44" t="n">
-        <v>3.65</v>
+        <v>4.93</v>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>10/05/2023 23:59</t>
+          <t>10/05/2023 23:55</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/santos-bahia/r9yUgICM/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/internacional-athletico-pr/61gdmGkj/</t>
         </is>
       </c>
     </row>
@@ -4529,22 +4529,22 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Flamengo RJ</t>
+          <t>Cuiaba</t>
         </is>
       </c>
       <c r="G45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Goias</t>
+          <t>Atletico-MG</t>
         </is>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J45" t="n">
-        <v>1.32</v>
+        <v>3.36</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
@@ -4552,15 +4552,15 @@
         </is>
       </c>
       <c r="L45" t="n">
-        <v>1.25</v>
+        <v>3.86</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>11/05/2023 00:43</t>
+          <t>11/05/2023 00:59</t>
         </is>
       </c>
       <c r="N45" t="n">
-        <v>5.65</v>
+        <v>3.3</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
@@ -4568,15 +4568,15 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>6.22</v>
+        <v>3.3</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>11/05/2023 00:58</t>
+          <t>11/05/2023 00:57</t>
         </is>
       </c>
       <c r="R45" t="n">
-        <v>9.16</v>
+        <v>2.32</v>
       </c>
       <c r="S45" t="inlineStr">
         <is>
@@ -4584,16 +4584,16 @@
         </is>
       </c>
       <c r="T45" t="n">
-        <v>12.58</v>
+        <v>2.15</v>
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>11/05/2023 00:58</t>
+          <t>11/05/2023 00:59</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/flamengo-rj-goias/8jqHdKS3/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/cuiaba-atletico-mg/CbpnAwc3/</t>
         </is>
       </c>
     </row>
@@ -4621,22 +4621,22 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Cuiaba</t>
+          <t>Flamengo RJ</t>
         </is>
       </c>
       <c r="G46" t="n">
+        <v>2</v>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Goias</t>
+        </is>
+      </c>
+      <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>Atletico-MG</t>
-        </is>
-      </c>
-      <c r="I46" t="n">
-        <v>4</v>
-      </c>
       <c r="J46" t="n">
-        <v>3.36</v>
+        <v>1.32</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
@@ -4644,15 +4644,15 @@
         </is>
       </c>
       <c r="L46" t="n">
-        <v>3.86</v>
+        <v>1.25</v>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>11/05/2023 00:59</t>
+          <t>11/05/2023 00:43</t>
         </is>
       </c>
       <c r="N46" t="n">
-        <v>3.3</v>
+        <v>5.65</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
@@ -4660,15 +4660,15 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>3.3</v>
+        <v>6.22</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>11/05/2023 00:57</t>
+          <t>11/05/2023 00:58</t>
         </is>
       </c>
       <c r="R46" t="n">
-        <v>2.32</v>
+        <v>9.16</v>
       </c>
       <c r="S46" t="inlineStr">
         <is>
@@ -4676,16 +4676,16 @@
         </is>
       </c>
       <c r="T46" t="n">
-        <v>2.15</v>
+        <v>12.58</v>
       </c>
       <c r="U46" t="inlineStr">
         <is>
-          <t>11/05/2023 00:59</t>
+          <t>11/05/2023 00:58</t>
         </is>
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/cuiaba-atletico-mg/CbpnAwc3/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/flamengo-rj-goias/8jqHdKS3/</t>
         </is>
       </c>
     </row>
@@ -5541,22 +5541,22 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Corinthians</t>
+          <t>Gremio</t>
         </is>
       </c>
       <c r="G56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Sao Paulo</t>
+          <t>Fortaleza</t>
         </is>
       </c>
       <c r="I56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J56" t="n">
-        <v>2.42</v>
+        <v>2.26</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
@@ -5564,15 +5564,15 @@
         </is>
       </c>
       <c r="L56" t="n">
-        <v>2.57</v>
+        <v>1.9</v>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>14/05/2023 20:57</t>
+          <t>14/05/2023 20:59</t>
         </is>
       </c>
       <c r="N56" t="n">
-        <v>3.24</v>
+        <v>3.44</v>
       </c>
       <c r="O56" t="inlineStr">
         <is>
@@ -5580,15 +5580,15 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>3.02</v>
+        <v>3.64</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>14/05/2023 20:57</t>
+          <t>14/05/2023 20:59</t>
         </is>
       </c>
       <c r="R56" t="n">
-        <v>3.23</v>
+        <v>3.27</v>
       </c>
       <c r="S56" t="inlineStr">
         <is>
@@ -5596,16 +5596,16 @@
         </is>
       </c>
       <c r="T56" t="n">
-        <v>3.25</v>
+        <v>4.38</v>
       </c>
       <c r="U56" t="inlineStr">
         <is>
-          <t>14/05/2023 20:57</t>
+          <t>14/05/2023 20:59</t>
         </is>
       </c>
       <c r="V56" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/corinthians-sao-paulo/vD0Sk9Bl/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/gremio-fortaleza/SYhum7e7/</t>
         </is>
       </c>
     </row>
@@ -5633,22 +5633,22 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Gremio</t>
+          <t>Corinthians</t>
         </is>
       </c>
       <c r="G57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Fortaleza</t>
+          <t>Sao Paulo</t>
         </is>
       </c>
       <c r="I57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J57" t="n">
-        <v>2.26</v>
+        <v>2.42</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
@@ -5656,15 +5656,15 @@
         </is>
       </c>
       <c r="L57" t="n">
-        <v>1.9</v>
+        <v>2.57</v>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>14/05/2023 20:59</t>
+          <t>14/05/2023 20:57</t>
         </is>
       </c>
       <c r="N57" t="n">
-        <v>3.44</v>
+        <v>3.24</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
@@ -5672,15 +5672,15 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>3.64</v>
+        <v>3.02</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>14/05/2023 20:59</t>
+          <t>14/05/2023 20:57</t>
         </is>
       </c>
       <c r="R57" t="n">
-        <v>3.27</v>
+        <v>3.23</v>
       </c>
       <c r="S57" t="inlineStr">
         <is>
@@ -5688,16 +5688,16 @@
         </is>
       </c>
       <c r="T57" t="n">
-        <v>4.38</v>
+        <v>3.25</v>
       </c>
       <c r="U57" t="inlineStr">
         <is>
-          <t>14/05/2023 20:59</t>
+          <t>14/05/2023 20:57</t>
         </is>
       </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/gremio-fortaleza/SYhum7e7/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/corinthians-sao-paulo/vD0Sk9Bl/</t>
         </is>
       </c>
     </row>
@@ -5817,30 +5817,30 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Athletico-PR</t>
+          <t>Goias</t>
         </is>
       </c>
       <c r="G59" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Coritiba</t>
+          <t>Botafogo RJ</t>
         </is>
       </c>
       <c r="I59" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J59" t="n">
-        <v>1.68</v>
+        <v>2.91</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>12/05/2023 00:12</t>
+          <t>12/05/2023 00:42</t>
         </is>
       </c>
       <c r="L59" t="n">
-        <v>1.63</v>
+        <v>3.27</v>
       </c>
       <c r="M59" t="inlineStr">
         <is>
@@ -5848,15 +5848,15 @@
         </is>
       </c>
       <c r="N59" t="n">
-        <v>3.98</v>
+        <v>3.46</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>12/05/2023 00:12</t>
+          <t>12/05/2023 00:42</t>
         </is>
       </c>
       <c r="P59" t="n">
-        <v>3.83</v>
+        <v>3.29</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
@@ -5864,15 +5864,15 @@
         </is>
       </c>
       <c r="R59" t="n">
-        <v>5.07</v>
+        <v>2.5</v>
       </c>
       <c r="S59" t="inlineStr">
         <is>
-          <t>12/05/2023 00:12</t>
+          <t>12/05/2023 00:42</t>
         </is>
       </c>
       <c r="T59" t="n">
-        <v>6.41</v>
+        <v>2.4</v>
       </c>
       <c r="U59" t="inlineStr">
         <is>
@@ -5881,7 +5881,7 @@
       </c>
       <c r="V59" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/athletico-pr-coritiba/6PiqnRAD/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/goias-botafogo-rj/MyjXlTQf/</t>
         </is>
       </c>
     </row>
@@ -6001,30 +6001,30 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Goias</t>
+          <t>Athletico-PR</t>
         </is>
       </c>
       <c r="G61" t="n">
+        <v>3</v>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>Coritiba</t>
+        </is>
+      </c>
+      <c r="I61" t="n">
         <v>2</v>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>Botafogo RJ</t>
-        </is>
-      </c>
-      <c r="I61" t="n">
-        <v>1</v>
-      </c>
       <c r="J61" t="n">
-        <v>2.91</v>
+        <v>1.68</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>12/05/2023 00:42</t>
+          <t>12/05/2023 00:12</t>
         </is>
       </c>
       <c r="L61" t="n">
-        <v>3.27</v>
+        <v>1.63</v>
       </c>
       <c r="M61" t="inlineStr">
         <is>
@@ -6032,15 +6032,15 @@
         </is>
       </c>
       <c r="N61" t="n">
-        <v>3.46</v>
+        <v>3.98</v>
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>12/05/2023 00:42</t>
+          <t>12/05/2023 00:12</t>
         </is>
       </c>
       <c r="P61" t="n">
-        <v>3.29</v>
+        <v>3.83</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
@@ -6048,15 +6048,15 @@
         </is>
       </c>
       <c r="R61" t="n">
-        <v>2.5</v>
+        <v>5.07</v>
       </c>
       <c r="S61" t="inlineStr">
         <is>
-          <t>12/05/2023 00:42</t>
+          <t>12/05/2023 00:12</t>
         </is>
       </c>
       <c r="T61" t="n">
-        <v>2.4</v>
+        <v>6.41</v>
       </c>
       <c r="U61" t="inlineStr">
         <is>
@@ -6065,7 +6065,7 @@
       </c>
       <c r="V61" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/goias-botafogo-rj/MyjXlTQf/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/athletico-pr-coritiba/6PiqnRAD/</t>
         </is>
       </c>
     </row>
@@ -6185,22 +6185,22 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Sao Paulo</t>
+          <t>Coritiba</t>
         </is>
       </c>
       <c r="G63" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Vasco</t>
+          <t>Atletico-MG</t>
         </is>
       </c>
       <c r="I63" t="n">
         <v>2</v>
       </c>
       <c r="J63" t="n">
-        <v>1.94</v>
+        <v>4.39</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
@@ -6208,7 +6208,7 @@
         </is>
       </c>
       <c r="L63" t="n">
-        <v>1.87</v>
+        <v>4.83</v>
       </c>
       <c r="M63" t="inlineStr">
         <is>
@@ -6216,7 +6216,7 @@
         </is>
       </c>
       <c r="N63" t="n">
-        <v>3.59</v>
+        <v>3.46</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
@@ -6224,7 +6224,7 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>3.44</v>
+        <v>3.45</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
@@ -6232,7 +6232,7 @@
         </is>
       </c>
       <c r="R63" t="n">
-        <v>4.03</v>
+        <v>1.91</v>
       </c>
       <c r="S63" t="inlineStr">
         <is>
@@ -6240,7 +6240,7 @@
         </is>
       </c>
       <c r="T63" t="n">
-        <v>4.88</v>
+        <v>1.88</v>
       </c>
       <c r="U63" t="inlineStr">
         <is>
@@ -6249,7 +6249,7 @@
       </c>
       <c r="V63" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/sao-paulo-vasco/zuG63Sul/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/coritiba-atletico-mg/dE6Rb4fJ/</t>
         </is>
       </c>
     </row>
@@ -6277,71 +6277,71 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Coritiba</t>
+          <t>Bragantino</t>
         </is>
       </c>
       <c r="G64" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Atletico-MG</t>
+          <t>Athletico-PR</t>
         </is>
       </c>
       <c r="I64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J64" t="n">
-        <v>4.39</v>
+        <v>2.05</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>15/05/2023 04:42</t>
+          <t>14/05/2023 23:42</t>
         </is>
       </c>
       <c r="L64" t="n">
-        <v>4.83</v>
+        <v>1.85</v>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>20/05/2023 23:29</t>
+          <t>20/05/2023 23:06</t>
         </is>
       </c>
       <c r="N64" t="n">
-        <v>3.46</v>
+        <v>3.43</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>15/05/2023 04:42</t>
+          <t>14/05/2023 23:42</t>
         </is>
       </c>
       <c r="P64" t="n">
-        <v>3.45</v>
+        <v>3.64</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>20/05/2023 23:29</t>
+          <t>20/05/2023 23:28</t>
         </is>
       </c>
       <c r="R64" t="n">
-        <v>1.91</v>
+        <v>3.83</v>
       </c>
       <c r="S64" t="inlineStr">
         <is>
-          <t>15/05/2023 04:42</t>
+          <t>14/05/2023 23:42</t>
         </is>
       </c>
       <c r="T64" t="n">
-        <v>1.88</v>
+        <v>4.63</v>
       </c>
       <c r="U64" t="inlineStr">
         <is>
-          <t>20/05/2023 23:29</t>
+          <t>20/05/2023 23:28</t>
         </is>
       </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/coritiba-atletico-mg/dE6Rb4fJ/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/bragantino-athletico-pr/MeEE16A0/</t>
         </is>
       </c>
     </row>
@@ -6369,22 +6369,22 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Bragantino</t>
+          <t>Botafogo RJ</t>
         </is>
       </c>
       <c r="G65" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Athletico-PR</t>
+          <t>Fluminense</t>
         </is>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
       <c r="J65" t="n">
-        <v>2.05</v>
+        <v>2.78</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
@@ -6392,15 +6392,15 @@
         </is>
       </c>
       <c r="L65" t="n">
-        <v>1.85</v>
+        <v>2.77</v>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>20/05/2023 23:06</t>
+          <t>20/05/2023 23:29</t>
         </is>
       </c>
       <c r="N65" t="n">
-        <v>3.43</v>
+        <v>3.31</v>
       </c>
       <c r="O65" t="inlineStr">
         <is>
@@ -6408,15 +6408,15 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>3.64</v>
+        <v>3.32</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>20/05/2023 23:28</t>
+          <t>20/05/2023 23:29</t>
         </is>
       </c>
       <c r="R65" t="n">
-        <v>3.83</v>
+        <v>2.72</v>
       </c>
       <c r="S65" t="inlineStr">
         <is>
@@ -6424,16 +6424,16 @@
         </is>
       </c>
       <c r="T65" t="n">
-        <v>4.63</v>
+        <v>2.74</v>
       </c>
       <c r="U65" t="inlineStr">
         <is>
-          <t>20/05/2023 23:28</t>
+          <t>20/05/2023 22:51</t>
         </is>
       </c>
       <c r="V65" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/bragantino-athletico-pr/MeEE16A0/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/botafogo-rj-fluminense/hGQ148Qs/</t>
         </is>
       </c>
     </row>
@@ -6461,30 +6461,30 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Botafogo RJ</t>
+          <t>Sao Paulo</t>
         </is>
       </c>
       <c r="G66" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Fluminense</t>
+          <t>Vasco</t>
         </is>
       </c>
       <c r="I66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J66" t="n">
-        <v>2.78</v>
+        <v>1.94</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>14/05/2023 23:42</t>
+          <t>15/05/2023 04:42</t>
         </is>
       </c>
       <c r="L66" t="n">
-        <v>2.77</v>
+        <v>1.87</v>
       </c>
       <c r="M66" t="inlineStr">
         <is>
@@ -6492,15 +6492,15 @@
         </is>
       </c>
       <c r="N66" t="n">
-        <v>3.31</v>
+        <v>3.59</v>
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>14/05/2023 23:42</t>
+          <t>15/05/2023 04:42</t>
         </is>
       </c>
       <c r="P66" t="n">
-        <v>3.32</v>
+        <v>3.44</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
@@ -6508,24 +6508,24 @@
         </is>
       </c>
       <c r="R66" t="n">
-        <v>2.72</v>
+        <v>4.03</v>
       </c>
       <c r="S66" t="inlineStr">
         <is>
-          <t>14/05/2023 23:42</t>
+          <t>15/05/2023 04:42</t>
         </is>
       </c>
       <c r="T66" t="n">
-        <v>2.74</v>
+        <v>4.88</v>
       </c>
       <c r="U66" t="inlineStr">
         <is>
-          <t>20/05/2023 22:51</t>
+          <t>20/05/2023 23:29</t>
         </is>
       </c>
       <c r="V66" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/botafogo-rj-fluminense/hGQ148Qs/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/sao-paulo-vasco/zuG63Sul/</t>
         </is>
       </c>
     </row>
@@ -7473,7 +7473,7 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Internacional</t>
+          <t>Corinthians</t>
         </is>
       </c>
       <c r="G77" t="n">
@@ -7481,14 +7481,14 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Bahia</t>
+          <t>Fluminense</t>
         </is>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
       <c r="J77" t="n">
-        <v>1.75</v>
+        <v>2.79</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -7496,15 +7496,15 @@
         </is>
       </c>
       <c r="L77" t="n">
-        <v>2.12</v>
+        <v>2.81</v>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>28/05/2023 20:51</t>
+          <t>28/05/2023 20:59</t>
         </is>
       </c>
       <c r="N77" t="n">
-        <v>3.98</v>
+        <v>3.2</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
@@ -7512,15 +7512,15 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>3.52</v>
+        <v>3.19</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>28/05/2023 20:51</t>
+          <t>28/05/2023 20:59</t>
         </is>
       </c>
       <c r="R77" t="n">
-        <v>4.58</v>
+        <v>2.73</v>
       </c>
       <c r="S77" t="inlineStr">
         <is>
@@ -7528,16 +7528,16 @@
         </is>
       </c>
       <c r="T77" t="n">
-        <v>3.67</v>
+        <v>2.79</v>
       </c>
       <c r="U77" t="inlineStr">
         <is>
-          <t>28/05/2023 20:51</t>
+          <t>28/05/2023 20:57</t>
         </is>
       </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/internacional-bahia/jko4CNOI/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/corinthians-fluminense/00hiFPv0/</t>
         </is>
       </c>
     </row>
@@ -7565,7 +7565,7 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Corinthians</t>
+          <t>Internacional</t>
         </is>
       </c>
       <c r="G78" t="n">
@@ -7573,14 +7573,14 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Fluminense</t>
+          <t>Bahia</t>
         </is>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
       <c r="J78" t="n">
-        <v>2.79</v>
+        <v>1.75</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
@@ -7588,15 +7588,15 @@
         </is>
       </c>
       <c r="L78" t="n">
-        <v>2.81</v>
+        <v>2.12</v>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>28/05/2023 20:59</t>
+          <t>28/05/2023 20:51</t>
         </is>
       </c>
       <c r="N78" t="n">
-        <v>3.2</v>
+        <v>3.98</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
@@ -7604,15 +7604,15 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>3.19</v>
+        <v>3.52</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>28/05/2023 20:59</t>
+          <t>28/05/2023 20:51</t>
         </is>
       </c>
       <c r="R78" t="n">
-        <v>2.73</v>
+        <v>4.58</v>
       </c>
       <c r="S78" t="inlineStr">
         <is>
@@ -7620,16 +7620,16 @@
         </is>
       </c>
       <c r="T78" t="n">
-        <v>2.79</v>
+        <v>3.67</v>
       </c>
       <c r="U78" t="inlineStr">
         <is>
-          <t>28/05/2023 20:57</t>
+          <t>28/05/2023 20:51</t>
         </is>
       </c>
       <c r="V78" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/corinthians-fluminense/00hiFPv0/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/internacional-bahia/jko4CNOI/</t>
         </is>
       </c>
     </row>
@@ -7657,71 +7657,71 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Atletico-MG</t>
+          <t>Bragantino</t>
         </is>
       </c>
       <c r="G79" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Palmeiras</t>
+          <t>Santos</t>
         </is>
       </c>
       <c r="I79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J79" t="n">
-        <v>2.19</v>
+        <v>1.75</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>22/05/2023 03:42</t>
+          <t>21/05/2023 09:12</t>
         </is>
       </c>
       <c r="L79" t="n">
-        <v>2.29</v>
+        <v>1.78</v>
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>28/05/2023 23:29</t>
+          <t>28/05/2023 23:27</t>
         </is>
       </c>
       <c r="N79" t="n">
-        <v>3.38</v>
+        <v>3.71</v>
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>22/05/2023 03:42</t>
+          <t>21/05/2023 09:12</t>
         </is>
       </c>
       <c r="P79" t="n">
-        <v>3.3</v>
+        <v>3.52</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>28/05/2023 23:29</t>
+          <t>28/05/2023 23:15</t>
         </is>
       </c>
       <c r="R79" t="n">
-        <v>3.58</v>
+        <v>5.18</v>
       </c>
       <c r="S79" t="inlineStr">
         <is>
-          <t>22/05/2023 03:42</t>
+          <t>21/05/2023 09:12</t>
         </is>
       </c>
       <c r="T79" t="n">
-        <v>3.43</v>
+        <v>5.46</v>
       </c>
       <c r="U79" t="inlineStr">
         <is>
-          <t>28/05/2023 23:21</t>
+          <t>28/05/2023 23:27</t>
         </is>
       </c>
       <c r="V79" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/atletico-mg-palmeiras/MFt0D39C/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/bragantino-santos/rPsdEqf6/</t>
         </is>
       </c>
     </row>
@@ -7749,71 +7749,71 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Bragantino</t>
+          <t>Atletico-MG</t>
         </is>
       </c>
       <c r="G80" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Santos</t>
+          <t>Palmeiras</t>
         </is>
       </c>
       <c r="I80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J80" t="n">
-        <v>1.75</v>
+        <v>2.19</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>21/05/2023 09:12</t>
+          <t>22/05/2023 03:42</t>
         </is>
       </c>
       <c r="L80" t="n">
-        <v>1.78</v>
+        <v>2.29</v>
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>28/05/2023 23:27</t>
+          <t>28/05/2023 23:29</t>
         </is>
       </c>
       <c r="N80" t="n">
-        <v>3.71</v>
+        <v>3.38</v>
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>21/05/2023 09:12</t>
+          <t>22/05/2023 03:42</t>
         </is>
       </c>
       <c r="P80" t="n">
-        <v>3.52</v>
+        <v>3.3</v>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>28/05/2023 23:15</t>
+          <t>28/05/2023 23:29</t>
         </is>
       </c>
       <c r="R80" t="n">
-        <v>5.18</v>
+        <v>3.58</v>
       </c>
       <c r="S80" t="inlineStr">
         <is>
-          <t>21/05/2023 09:12</t>
+          <t>22/05/2023 03:42</t>
         </is>
       </c>
       <c r="T80" t="n">
-        <v>5.46</v>
+        <v>3.43</v>
       </c>
       <c r="U80" t="inlineStr">
         <is>
-          <t>28/05/2023 23:27</t>
+          <t>28/05/2023 23:21</t>
         </is>
       </c>
       <c r="V80" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/bragantino-santos/rPsdEqf6/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/atletico-mg-palmeiras/MFt0D39C/</t>
         </is>
       </c>
     </row>
@@ -8577,71 +8577,71 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Goias</t>
+          <t>Palmeiras</t>
         </is>
       </c>
       <c r="G89" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Cuiaba</t>
+          <t>Coritiba</t>
         </is>
       </c>
       <c r="I89" t="n">
         <v>1</v>
       </c>
       <c r="J89" t="n">
-        <v>2.12</v>
+        <v>1.22</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>29/05/2023 06:42</t>
+          <t>28/05/2023 23:42</t>
         </is>
       </c>
       <c r="L89" t="n">
-        <v>2.35</v>
+        <v>1.29</v>
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>04/06/2023 23:12</t>
+          <t>04/06/2023 23:26</t>
         </is>
       </c>
       <c r="N89" t="n">
-        <v>3.38</v>
+        <v>6.52</v>
       </c>
       <c r="O89" t="inlineStr">
         <is>
-          <t>29/05/2023 06:42</t>
+          <t>28/05/2023 23:42</t>
         </is>
       </c>
       <c r="P89" t="n">
-        <v>3.02</v>
+        <v>5.88</v>
       </c>
       <c r="Q89" t="inlineStr">
         <is>
-          <t>04/06/2023 23:09</t>
+          <t>04/06/2023 23:26</t>
         </is>
       </c>
       <c r="R89" t="n">
-        <v>3.69</v>
+        <v>12.83</v>
       </c>
       <c r="S89" t="inlineStr">
         <is>
-          <t>29/05/2023 06:42</t>
+          <t>28/05/2023 23:42</t>
         </is>
       </c>
       <c r="T89" t="n">
-        <v>3.68</v>
+        <v>11.94</v>
       </c>
       <c r="U89" t="inlineStr">
         <is>
-          <t>04/06/2023 23:13</t>
+          <t>04/06/2023 23:26</t>
         </is>
       </c>
       <c r="V89" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/goias-cuiaba/dCFTAV4B/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/palmeiras-coritiba/ObHLCiza/</t>
         </is>
       </c>
     </row>
@@ -8669,71 +8669,71 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Palmeiras</t>
+          <t>Goias</t>
         </is>
       </c>
       <c r="G90" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Coritiba</t>
+          <t>Cuiaba</t>
         </is>
       </c>
       <c r="I90" t="n">
         <v>1</v>
       </c>
       <c r="J90" t="n">
-        <v>1.22</v>
+        <v>2.12</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>28/05/2023 23:42</t>
+          <t>29/05/2023 06:42</t>
         </is>
       </c>
       <c r="L90" t="n">
-        <v>1.29</v>
+        <v>2.35</v>
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>04/06/2023 23:26</t>
+          <t>04/06/2023 23:12</t>
         </is>
       </c>
       <c r="N90" t="n">
-        <v>6.52</v>
+        <v>3.38</v>
       </c>
       <c r="O90" t="inlineStr">
         <is>
-          <t>28/05/2023 23:42</t>
+          <t>29/05/2023 06:42</t>
         </is>
       </c>
       <c r="P90" t="n">
-        <v>5.88</v>
+        <v>3.02</v>
       </c>
       <c r="Q90" t="inlineStr">
         <is>
-          <t>04/06/2023 23:26</t>
+          <t>04/06/2023 23:09</t>
         </is>
       </c>
       <c r="R90" t="n">
-        <v>12.83</v>
+        <v>3.69</v>
       </c>
       <c r="S90" t="inlineStr">
         <is>
-          <t>28/05/2023 23:42</t>
+          <t>29/05/2023 06:42</t>
         </is>
       </c>
       <c r="T90" t="n">
-        <v>11.94</v>
+        <v>3.68</v>
       </c>
       <c r="U90" t="inlineStr">
         <is>
-          <t>04/06/2023 23:26</t>
+          <t>04/06/2023 23:13</t>
         </is>
       </c>
       <c r="V90" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/palmeiras-coritiba/ObHLCiza/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/goias-cuiaba/dCFTAV4B/</t>
         </is>
       </c>
     </row>
@@ -9037,71 +9037,71 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Bahia</t>
+          <t>Atletico-MG</t>
         </is>
       </c>
       <c r="G94" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Cruzeiro</t>
+          <t>Bragantino</t>
         </is>
       </c>
       <c r="I94" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J94" t="n">
-        <v>2.29</v>
+        <v>1.62</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>03/06/2023 23:42</t>
+          <t>05/06/2023 02:42</t>
         </is>
       </c>
       <c r="L94" t="n">
-        <v>2.87</v>
+        <v>1.82</v>
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>10/06/2023 23:28</t>
+          <t>10/06/2023 23:25</t>
         </is>
       </c>
       <c r="N94" t="n">
-        <v>3.38</v>
+        <v>4.04</v>
       </c>
       <c r="O94" t="inlineStr">
         <is>
-          <t>03/06/2023 23:42</t>
+          <t>05/06/2023 02:42</t>
         </is>
       </c>
       <c r="P94" t="n">
-        <v>3.27</v>
+        <v>3.43</v>
       </c>
       <c r="Q94" t="inlineStr">
         <is>
-          <t>10/06/2023 23:21</t>
+          <t>10/06/2023 23:25</t>
         </is>
       </c>
       <c r="R94" t="n">
-        <v>3.27</v>
+        <v>5.9</v>
       </c>
       <c r="S94" t="inlineStr">
         <is>
-          <t>03/06/2023 23:42</t>
+          <t>05/06/2023 02:42</t>
         </is>
       </c>
       <c r="T94" t="n">
-        <v>2.68</v>
+        <v>5.3</v>
       </c>
       <c r="U94" t="inlineStr">
         <is>
-          <t>10/06/2023 23:28</t>
+          <t>10/06/2023 23:29</t>
         </is>
       </c>
       <c r="V94" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/bahia-cruzeiro/hxvWS3Qd/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/atletico-mg-bragantino/r7du6tJq/</t>
         </is>
       </c>
     </row>
@@ -9129,71 +9129,71 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Atletico-MG</t>
+          <t>Bahia</t>
         </is>
       </c>
       <c r="G95" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Bragantino</t>
+          <t>Cruzeiro</t>
         </is>
       </c>
       <c r="I95" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J95" t="n">
-        <v>1.62</v>
+        <v>2.29</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>05/06/2023 02:42</t>
+          <t>03/06/2023 23:42</t>
         </is>
       </c>
       <c r="L95" t="n">
-        <v>1.82</v>
+        <v>2.87</v>
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>10/06/2023 23:25</t>
+          <t>10/06/2023 23:28</t>
         </is>
       </c>
       <c r="N95" t="n">
-        <v>4.04</v>
+        <v>3.38</v>
       </c>
       <c r="O95" t="inlineStr">
         <is>
-          <t>05/06/2023 02:42</t>
+          <t>03/06/2023 23:42</t>
         </is>
       </c>
       <c r="P95" t="n">
-        <v>3.43</v>
+        <v>3.27</v>
       </c>
       <c r="Q95" t="inlineStr">
         <is>
-          <t>10/06/2023 23:25</t>
+          <t>10/06/2023 23:21</t>
         </is>
       </c>
       <c r="R95" t="n">
-        <v>5.9</v>
+        <v>3.27</v>
       </c>
       <c r="S95" t="inlineStr">
         <is>
-          <t>05/06/2023 02:42</t>
+          <t>03/06/2023 23:42</t>
         </is>
       </c>
       <c r="T95" t="n">
-        <v>5.3</v>
+        <v>2.68</v>
       </c>
       <c r="U95" t="inlineStr">
         <is>
-          <t>10/06/2023 23:29</t>
+          <t>10/06/2023 23:28</t>
         </is>
       </c>
       <c r="V95" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/atletico-mg-bragantino/r7du6tJq/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/bahia-cruzeiro/hxvWS3Qd/</t>
         </is>
       </c>
     </row>
@@ -9405,71 +9405,71 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Sao Paulo</t>
+          <t>Internacional</t>
         </is>
       </c>
       <c r="G98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Palmeiras</t>
+          <t>Vasco</t>
         </is>
       </c>
       <c r="I98" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J98" t="n">
-        <v>3.39</v>
+        <v>1.86</v>
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>05/06/2023 02:42</t>
+          <t>06/06/2023 07:41</t>
         </is>
       </c>
       <c r="L98" t="n">
-        <v>3.19</v>
+        <v>1.83</v>
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>11/06/2023 20:58</t>
+          <t>11/06/2023 20:49</t>
         </is>
       </c>
       <c r="N98" t="n">
-        <v>3.33</v>
+        <v>3.65</v>
       </c>
       <c r="O98" t="inlineStr">
         <is>
-          <t>05/06/2023 02:42</t>
+          <t>06/06/2023 07:41</t>
         </is>
       </c>
       <c r="P98" t="n">
-        <v>3.25</v>
+        <v>3.55</v>
       </c>
       <c r="Q98" t="inlineStr">
         <is>
-          <t>11/06/2023 20:58</t>
+          <t>11/06/2023 20:49</t>
         </is>
       </c>
       <c r="R98" t="n">
-        <v>2.29</v>
+        <v>4.58</v>
       </c>
       <c r="S98" t="inlineStr">
         <is>
-          <t>05/06/2023 02:42</t>
+          <t>06/06/2023 07:41</t>
         </is>
       </c>
       <c r="T98" t="n">
-        <v>2.47</v>
+        <v>4.98</v>
       </c>
       <c r="U98" t="inlineStr">
         <is>
-          <t>11/06/2023 20:58</t>
+          <t>11/06/2023 20:57</t>
         </is>
       </c>
       <c r="V98" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/sao-paulo-palmeiras/AFu3PUJ4/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/internacional-vasco/xUeq50Yk/</t>
         </is>
       </c>
     </row>
@@ -9497,71 +9497,71 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Internacional</t>
+          <t>Sao Paulo</t>
         </is>
       </c>
       <c r="G99" t="n">
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>Palmeiras</t>
+        </is>
+      </c>
+      <c r="I99" t="n">
         <v>2</v>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>Vasco</t>
-        </is>
-      </c>
-      <c r="I99" t="n">
-        <v>1</v>
-      </c>
       <c r="J99" t="n">
-        <v>1.86</v>
+        <v>3.39</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>06/06/2023 07:41</t>
+          <t>05/06/2023 02:42</t>
         </is>
       </c>
       <c r="L99" t="n">
-        <v>1.83</v>
+        <v>3.19</v>
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>11/06/2023 20:49</t>
+          <t>11/06/2023 20:58</t>
         </is>
       </c>
       <c r="N99" t="n">
-        <v>3.65</v>
+        <v>3.33</v>
       </c>
       <c r="O99" t="inlineStr">
         <is>
-          <t>06/06/2023 07:41</t>
+          <t>05/06/2023 02:42</t>
         </is>
       </c>
       <c r="P99" t="n">
-        <v>3.55</v>
+        <v>3.25</v>
       </c>
       <c r="Q99" t="inlineStr">
         <is>
-          <t>11/06/2023 20:49</t>
+          <t>11/06/2023 20:58</t>
         </is>
       </c>
       <c r="R99" t="n">
-        <v>4.58</v>
+        <v>2.29</v>
       </c>
       <c r="S99" t="inlineStr">
         <is>
-          <t>06/06/2023 07:41</t>
+          <t>05/06/2023 02:42</t>
         </is>
       </c>
       <c r="T99" t="n">
-        <v>4.98</v>
+        <v>2.47</v>
       </c>
       <c r="U99" t="inlineStr">
         <is>
-          <t>11/06/2023 20:57</t>
+          <t>11/06/2023 20:58</t>
         </is>
       </c>
       <c r="V99" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/internacional-vasco/xUeq50Yk/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/sao-paulo-palmeiras/AFu3PUJ4/</t>
         </is>
       </c>
     </row>
@@ -10049,7 +10049,7 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Bahia</t>
+          <t>Fluminense</t>
         </is>
       </c>
       <c r="G105" t="n">
@@ -10057,22 +10057,22 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Palmeiras</t>
+          <t>Atletico-MG</t>
         </is>
       </c>
       <c r="I105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J105" t="n">
-        <v>4.31</v>
+        <v>2.06</v>
       </c>
       <c r="K105" t="inlineStr">
         <is>
-          <t>14/06/2023 10:42</t>
+          <t>14/06/2023 13:12</t>
         </is>
       </c>
       <c r="L105" t="n">
-        <v>3.68</v>
+        <v>2.97</v>
       </c>
       <c r="M105" t="inlineStr">
         <is>
@@ -10080,15 +10080,15 @@
         </is>
       </c>
       <c r="N105" t="n">
-        <v>3.63</v>
+        <v>3.47</v>
       </c>
       <c r="O105" t="inlineStr">
         <is>
-          <t>14/06/2023 10:42</t>
+          <t>14/06/2023 13:12</t>
         </is>
       </c>
       <c r="P105" t="n">
-        <v>3.5</v>
+        <v>3.22</v>
       </c>
       <c r="Q105" t="inlineStr">
         <is>
@@ -10096,15 +10096,15 @@
         </is>
       </c>
       <c r="R105" t="n">
-        <v>1.9</v>
+        <v>3.74</v>
       </c>
       <c r="S105" t="inlineStr">
         <is>
-          <t>14/06/2023 10:42</t>
+          <t>14/06/2023 13:12</t>
         </is>
       </c>
       <c r="T105" t="n">
-        <v>2.12</v>
+        <v>2.63</v>
       </c>
       <c r="U105" t="inlineStr">
         <is>
@@ -10113,7 +10113,7 @@
       </c>
       <c r="V105" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/bahia-palmeiras/6NCCusA2/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/fluminense-atletico-mg/Q3iwRse9/</t>
         </is>
       </c>
     </row>
@@ -10141,7 +10141,7 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Fluminense</t>
+          <t>Bahia</t>
         </is>
       </c>
       <c r="G106" t="n">
@@ -10149,22 +10149,22 @@
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Atletico-MG</t>
+          <t>Palmeiras</t>
         </is>
       </c>
       <c r="I106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J106" t="n">
-        <v>2.06</v>
+        <v>4.31</v>
       </c>
       <c r="K106" t="inlineStr">
         <is>
-          <t>14/06/2023 13:12</t>
+          <t>14/06/2023 10:42</t>
         </is>
       </c>
       <c r="L106" t="n">
-        <v>2.97</v>
+        <v>3.68</v>
       </c>
       <c r="M106" t="inlineStr">
         <is>
@@ -10172,15 +10172,15 @@
         </is>
       </c>
       <c r="N106" t="n">
-        <v>3.47</v>
+        <v>3.63</v>
       </c>
       <c r="O106" t="inlineStr">
         <is>
-          <t>14/06/2023 13:12</t>
+          <t>14/06/2023 10:42</t>
         </is>
       </c>
       <c r="P106" t="n">
-        <v>3.22</v>
+        <v>3.5</v>
       </c>
       <c r="Q106" t="inlineStr">
         <is>
@@ -10188,15 +10188,15 @@
         </is>
       </c>
       <c r="R106" t="n">
-        <v>3.74</v>
+        <v>1.9</v>
       </c>
       <c r="S106" t="inlineStr">
         <is>
-          <t>14/06/2023 13:12</t>
+          <t>14/06/2023 10:42</t>
         </is>
       </c>
       <c r="T106" t="n">
-        <v>2.63</v>
+        <v>2.12</v>
       </c>
       <c r="U106" t="inlineStr">
         <is>
@@ -10205,7 +10205,7 @@
       </c>
       <c r="V106" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/fluminense-atletico-mg/Q3iwRse9/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/bahia-palmeiras/6NCCusA2/</t>
         </is>
       </c>
     </row>
@@ -10785,7 +10785,7 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>Fluminense</t>
+          <t>Fortaleza</t>
         </is>
       </c>
       <c r="G113" t="n">
@@ -10793,14 +10793,14 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Bahia</t>
+          <t>Atletico-MG</t>
         </is>
       </c>
       <c r="I113" t="n">
         <v>1</v>
       </c>
       <c r="J113" t="n">
-        <v>1.68</v>
+        <v>2.56</v>
       </c>
       <c r="K113" t="inlineStr">
         <is>
@@ -10808,48 +10808,48 @@
         </is>
       </c>
       <c r="L113" t="n">
-        <v>1.55</v>
+        <v>2.86</v>
       </c>
       <c r="M113" t="inlineStr">
         <is>
+          <t>24/06/2023 23:21</t>
+        </is>
+      </c>
+      <c r="N113" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="O113" t="inlineStr">
+        <is>
+          <t>22/06/2023 02:42</t>
+        </is>
+      </c>
+      <c r="P113" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="Q113" t="inlineStr">
+        <is>
+          <t>24/06/2023 23:28</t>
+        </is>
+      </c>
+      <c r="R113" t="n">
+        <v>3</v>
+      </c>
+      <c r="S113" t="inlineStr">
+        <is>
+          <t>22/06/2023 02:42</t>
+        </is>
+      </c>
+      <c r="T113" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="U113" t="inlineStr">
+        <is>
           <t>24/06/2023 23:25</t>
         </is>
       </c>
-      <c r="N113" t="n">
-        <v>3.93</v>
-      </c>
-      <c r="O113" t="inlineStr">
-        <is>
-          <t>22/06/2023 02:42</t>
-        </is>
-      </c>
-      <c r="P113" t="n">
-        <v>4.18</v>
-      </c>
-      <c r="Q113" t="inlineStr">
-        <is>
-          <t>24/06/2023 23:29</t>
-        </is>
-      </c>
-      <c r="R113" t="n">
-        <v>5.18</v>
-      </c>
-      <c r="S113" t="inlineStr">
-        <is>
-          <t>22/06/2023 02:42</t>
-        </is>
-      </c>
-      <c r="T113" t="n">
-        <v>6.78</v>
-      </c>
-      <c r="U113" t="inlineStr">
-        <is>
-          <t>24/06/2023 23:25</t>
-        </is>
-      </c>
       <c r="V113" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/fluminense-bahia/0M5LwLvF/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/fortaleza-atletico-mg/vThmhKg8/</t>
         </is>
       </c>
     </row>
@@ -10877,7 +10877,7 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>Fortaleza</t>
+          <t>Fluminense</t>
         </is>
       </c>
       <c r="G114" t="n">
@@ -10885,14 +10885,14 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Atletico-MG</t>
+          <t>Bahia</t>
         </is>
       </c>
       <c r="I114" t="n">
         <v>1</v>
       </c>
       <c r="J114" t="n">
-        <v>2.56</v>
+        <v>1.68</v>
       </c>
       <c r="K114" t="inlineStr">
         <is>
@@ -10900,15 +10900,15 @@
         </is>
       </c>
       <c r="L114" t="n">
-        <v>2.86</v>
+        <v>1.55</v>
       </c>
       <c r="M114" t="inlineStr">
         <is>
-          <t>24/06/2023 23:21</t>
+          <t>24/06/2023 23:25</t>
         </is>
       </c>
       <c r="N114" t="n">
-        <v>3.18</v>
+        <v>3.93</v>
       </c>
       <c r="O114" t="inlineStr">
         <is>
@@ -10916,15 +10916,15 @@
         </is>
       </c>
       <c r="P114" t="n">
-        <v>3.12</v>
+        <v>4.18</v>
       </c>
       <c r="Q114" t="inlineStr">
         <is>
-          <t>24/06/2023 23:28</t>
+          <t>24/06/2023 23:29</t>
         </is>
       </c>
       <c r="R114" t="n">
-        <v>3</v>
+        <v>5.18</v>
       </c>
       <c r="S114" t="inlineStr">
         <is>
@@ -10932,7 +10932,7 @@
         </is>
       </c>
       <c r="T114" t="n">
-        <v>2.81</v>
+        <v>6.78</v>
       </c>
       <c r="U114" t="inlineStr">
         <is>
@@ -10941,7 +10941,7 @@
       </c>
       <c r="V114" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/fortaleza-atletico-mg/vThmhKg8/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/fluminense-bahia/0M5LwLvF/</t>
         </is>
       </c>
     </row>
@@ -11245,7 +11245,7 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>Bragantino</t>
+          <t>Santos</t>
         </is>
       </c>
       <c r="G118" t="n">
@@ -11253,38 +11253,38 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Goias</t>
+          <t>Flamengo RJ</t>
         </is>
       </c>
       <c r="I118" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J118" t="n">
-        <v>1.43</v>
+        <v>3.96</v>
       </c>
       <c r="K118" t="inlineStr">
         <is>
-          <t>18/06/2023 23:41</t>
+          <t>23/06/2023 02:42</t>
         </is>
       </c>
       <c r="L118" t="n">
-        <v>1.43</v>
+        <v>3.48</v>
       </c>
       <c r="M118" t="inlineStr">
         <is>
-          <t>25/06/2023 23:26</t>
+          <t>25/06/2023 23:29</t>
         </is>
       </c>
       <c r="N118" t="n">
-        <v>4.8</v>
+        <v>3.4</v>
       </c>
       <c r="O118" t="inlineStr">
         <is>
-          <t>18/06/2023 23:41</t>
+          <t>23/06/2023 02:42</t>
         </is>
       </c>
       <c r="P118" t="n">
-        <v>4.79</v>
+        <v>3.21</v>
       </c>
       <c r="Q118" t="inlineStr">
         <is>
@@ -11292,15 +11292,15 @@
         </is>
       </c>
       <c r="R118" t="n">
-        <v>7.69</v>
+        <v>2.03</v>
       </c>
       <c r="S118" t="inlineStr">
         <is>
-          <t>18/06/2023 23:41</t>
+          <t>23/06/2023 02:42</t>
         </is>
       </c>
       <c r="T118" t="n">
-        <v>8.140000000000001</v>
+        <v>2.33</v>
       </c>
       <c r="U118" t="inlineStr">
         <is>
@@ -11309,7 +11309,7 @@
       </c>
       <c r="V118" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/bragantino-goias/hKp0WxXl/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/santos-flamengo-rj/AeeeXIHr/</t>
         </is>
       </c>
     </row>
@@ -11337,62 +11337,62 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>America MG</t>
+          <t>Bragantino</t>
         </is>
       </c>
       <c r="G119" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Internacional</t>
+          <t>Goias</t>
         </is>
       </c>
       <c r="I119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J119" t="n">
-        <v>2.43</v>
+        <v>1.43</v>
       </c>
       <c r="K119" t="inlineStr">
         <is>
-          <t>23/06/2023 01:11</t>
+          <t>18/06/2023 23:41</t>
         </is>
       </c>
       <c r="L119" t="n">
-        <v>2.01</v>
+        <v>1.43</v>
       </c>
       <c r="M119" t="inlineStr">
         <is>
-          <t>25/06/2023 23:25</t>
+          <t>25/06/2023 23:26</t>
         </is>
       </c>
       <c r="N119" t="n">
-        <v>3.32</v>
+        <v>4.8</v>
       </c>
       <c r="O119" t="inlineStr">
         <is>
-          <t>23/06/2023 01:11</t>
+          <t>18/06/2023 23:41</t>
         </is>
       </c>
       <c r="P119" t="n">
-        <v>3.46</v>
+        <v>4.79</v>
       </c>
       <c r="Q119" t="inlineStr">
         <is>
-          <t>25/06/2023 23:27</t>
+          <t>25/06/2023 23:28</t>
         </is>
       </c>
       <c r="R119" t="n">
-        <v>3.13</v>
+        <v>7.69</v>
       </c>
       <c r="S119" t="inlineStr">
         <is>
-          <t>23/06/2023 01:11</t>
+          <t>18/06/2023 23:41</t>
         </is>
       </c>
       <c r="T119" t="n">
-        <v>4.14</v>
+        <v>8.140000000000001</v>
       </c>
       <c r="U119" t="inlineStr">
         <is>
@@ -11401,7 +11401,7 @@
       </c>
       <c r="V119" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/america-mg-internacional/IJiiiv9E/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/bragantino-goias/hKp0WxXl/</t>
         </is>
       </c>
     </row>
@@ -11429,71 +11429,71 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>Santos</t>
+          <t>America MG</t>
         </is>
       </c>
       <c r="G120" t="n">
+        <v>1</v>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>Internacional</t>
+        </is>
+      </c>
+      <c r="I120" t="n">
         <v>2</v>
       </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>Flamengo RJ</t>
-        </is>
-      </c>
-      <c r="I120" t="n">
-        <v>3</v>
-      </c>
       <c r="J120" t="n">
-        <v>3.96</v>
+        <v>2.43</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>
-          <t>23/06/2023 02:42</t>
+          <t>23/06/2023 01:11</t>
         </is>
       </c>
       <c r="L120" t="n">
-        <v>3.48</v>
+        <v>2.01</v>
       </c>
       <c r="M120" t="inlineStr">
         <is>
-          <t>25/06/2023 23:29</t>
+          <t>25/06/2023 23:25</t>
         </is>
       </c>
       <c r="N120" t="n">
-        <v>3.4</v>
+        <v>3.32</v>
       </c>
       <c r="O120" t="inlineStr">
         <is>
-          <t>23/06/2023 02:42</t>
+          <t>23/06/2023 01:11</t>
         </is>
       </c>
       <c r="P120" t="n">
-        <v>3.21</v>
+        <v>3.46</v>
       </c>
       <c r="Q120" t="inlineStr">
         <is>
+          <t>25/06/2023 23:27</t>
+        </is>
+      </c>
+      <c r="R120" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="S120" t="inlineStr">
+        <is>
+          <t>23/06/2023 01:11</t>
+        </is>
+      </c>
+      <c r="T120" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="U120" t="inlineStr">
+        <is>
           <t>25/06/2023 23:28</t>
         </is>
       </c>
-      <c r="R120" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="S120" t="inlineStr">
-        <is>
-          <t>23/06/2023 02:42</t>
-        </is>
-      </c>
-      <c r="T120" t="n">
-        <v>2.33</v>
-      </c>
-      <c r="U120" t="inlineStr">
-        <is>
-          <t>25/06/2023 23:28</t>
-        </is>
-      </c>
       <c r="V120" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/santos-flamengo-rj/AeeeXIHr/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/america-mg-internacional/IJiiiv9E/</t>
         </is>
       </c>
     </row>
@@ -12073,7 +12073,7 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>Atletico-MG</t>
+          <t>Botafogo RJ</t>
         </is>
       </c>
       <c r="G127" t="n">
@@ -12081,63 +12081,63 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>America MG</t>
+          <t>Vasco</t>
         </is>
       </c>
       <c r="I127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J127" t="n">
-        <v>1.37</v>
+        <v>1.75</v>
       </c>
       <c r="K127" t="inlineStr">
         <is>
-          <t>25/06/2023 23:41</t>
+          <t>27/06/2023 02:11</t>
         </is>
       </c>
       <c r="L127" t="n">
-        <v>1.54</v>
+        <v>1.97</v>
       </c>
       <c r="M127" t="inlineStr">
         <is>
-          <t>02/07/2023 20:53</t>
+          <t>02/07/2023 20:58</t>
         </is>
       </c>
       <c r="N127" t="n">
-        <v>5.28</v>
+        <v>3.68</v>
       </c>
       <c r="O127" t="inlineStr">
         <is>
-          <t>25/06/2023 23:41</t>
+          <t>27/06/2023 02:11</t>
         </is>
       </c>
       <c r="P127" t="n">
-        <v>4.01</v>
+        <v>3.41</v>
       </c>
       <c r="Q127" t="inlineStr">
         <is>
-          <t>02/07/2023 20:54</t>
+          <t>02/07/2023 20:58</t>
         </is>
       </c>
       <c r="R127" t="n">
-        <v>8.81</v>
+        <v>5.27</v>
       </c>
       <c r="S127" t="inlineStr">
         <is>
-          <t>25/06/2023 23:41</t>
+          <t>27/06/2023 02:11</t>
         </is>
       </c>
       <c r="T127" t="n">
-        <v>7.6</v>
+        <v>4.37</v>
       </c>
       <c r="U127" t="inlineStr">
         <is>
-          <t>02/07/2023 20:54</t>
+          <t>02/07/2023 20:58</t>
         </is>
       </c>
       <c r="V127" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/atletico-mg-america-mg/IszvrzW0/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/botafogo-rj-vasco/QqeakIwR/</t>
         </is>
       </c>
     </row>
@@ -12165,7 +12165,7 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>Botafogo RJ</t>
+          <t>Atletico-MG</t>
         </is>
       </c>
       <c r="G128" t="n">
@@ -12173,63 +12173,63 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Vasco</t>
+          <t>America MG</t>
         </is>
       </c>
       <c r="I128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J128" t="n">
-        <v>1.75</v>
+        <v>1.37</v>
       </c>
       <c r="K128" t="inlineStr">
         <is>
-          <t>27/06/2023 02:11</t>
+          <t>25/06/2023 23:41</t>
         </is>
       </c>
       <c r="L128" t="n">
-        <v>1.97</v>
+        <v>1.54</v>
       </c>
       <c r="M128" t="inlineStr">
         <is>
-          <t>02/07/2023 20:58</t>
+          <t>02/07/2023 20:53</t>
         </is>
       </c>
       <c r="N128" t="n">
-        <v>3.68</v>
+        <v>5.28</v>
       </c>
       <c r="O128" t="inlineStr">
         <is>
-          <t>27/06/2023 02:11</t>
+          <t>25/06/2023 23:41</t>
         </is>
       </c>
       <c r="P128" t="n">
-        <v>3.41</v>
+        <v>4.01</v>
       </c>
       <c r="Q128" t="inlineStr">
         <is>
-          <t>02/07/2023 20:58</t>
+          <t>02/07/2023 20:54</t>
         </is>
       </c>
       <c r="R128" t="n">
-        <v>5.27</v>
+        <v>8.81</v>
       </c>
       <c r="S128" t="inlineStr">
         <is>
-          <t>27/06/2023 02:11</t>
+          <t>25/06/2023 23:41</t>
         </is>
       </c>
       <c r="T128" t="n">
-        <v>4.37</v>
+        <v>7.6</v>
       </c>
       <c r="U128" t="inlineStr">
         <is>
-          <t>02/07/2023 20:58</t>
+          <t>02/07/2023 20:54</t>
         </is>
       </c>
       <c r="V128" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/botafogo-rj-vasco/QqeakIwR/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/atletico-mg-america-mg/IszvrzW0/</t>
         </is>
       </c>
     </row>
@@ -13269,22 +13269,22 @@
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>Gremio</t>
+          <t>Fortaleza</t>
         </is>
       </c>
       <c r="G140" t="n">
+        <v>1</v>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>Athletico-PR</t>
+        </is>
+      </c>
+      <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>Botafogo RJ</t>
-        </is>
-      </c>
-      <c r="I140" t="n">
-        <v>2</v>
-      </c>
       <c r="J140" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="K140" t="inlineStr">
         <is>
@@ -13292,15 +13292,15 @@
         </is>
       </c>
       <c r="L140" t="n">
-        <v>1.85</v>
+        <v>1.53</v>
       </c>
       <c r="M140" t="inlineStr">
         <is>
-          <t>09/07/2023 23:28</t>
+          <t>09/07/2023 23:26</t>
         </is>
       </c>
       <c r="N140" t="n">
-        <v>3.66</v>
+        <v>3.6</v>
       </c>
       <c r="O140" t="inlineStr">
         <is>
@@ -13308,15 +13308,15 @@
         </is>
       </c>
       <c r="P140" t="n">
-        <v>3.69</v>
+        <v>4.11</v>
       </c>
       <c r="Q140" t="inlineStr">
         <is>
-          <t>09/07/2023 23:06</t>
+          <t>09/07/2023 23:26</t>
         </is>
       </c>
       <c r="R140" t="n">
-        <v>4.27</v>
+        <v>4.51</v>
       </c>
       <c r="S140" t="inlineStr">
         <is>
@@ -13324,16 +13324,16 @@
         </is>
       </c>
       <c r="T140" t="n">
-        <v>4.76</v>
+        <v>7.49</v>
       </c>
       <c r="U140" t="inlineStr">
         <is>
-          <t>09/07/2023 23:04</t>
+          <t>09/07/2023 23:26</t>
         </is>
       </c>
       <c r="V140" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/gremio-botafogo-rj/ny3PgXUC/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/fortaleza-athletico-pr/Q54y1lxt/</t>
         </is>
       </c>
     </row>
@@ -13361,71 +13361,71 @@
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>Fortaleza</t>
+          <t>Gremio</t>
         </is>
       </c>
       <c r="G141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>Athletico-PR</t>
+          <t>Botafogo RJ</t>
         </is>
       </c>
       <c r="I141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J141" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>02/07/2023 21:12</t>
+        </is>
+      </c>
+      <c r="L141" t="n">
         <v>1.85</v>
       </c>
-      <c r="K141" t="inlineStr">
+      <c r="M141" t="inlineStr">
+        <is>
+          <t>09/07/2023 23:28</t>
+        </is>
+      </c>
+      <c r="N141" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="O141" t="inlineStr">
         <is>
           <t>02/07/2023 21:12</t>
         </is>
       </c>
-      <c r="L141" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="M141" t="inlineStr">
-        <is>
-          <t>09/07/2023 23:26</t>
-        </is>
-      </c>
-      <c r="N141" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="O141" t="inlineStr">
+      <c r="P141" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="Q141" t="inlineStr">
+        <is>
+          <t>09/07/2023 23:06</t>
+        </is>
+      </c>
+      <c r="R141" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="S141" t="inlineStr">
         <is>
           <t>02/07/2023 21:12</t>
         </is>
       </c>
-      <c r="P141" t="n">
-        <v>4.11</v>
-      </c>
-      <c r="Q141" t="inlineStr">
-        <is>
-          <t>09/07/2023 23:26</t>
-        </is>
-      </c>
-      <c r="R141" t="n">
-        <v>4.51</v>
-      </c>
-      <c r="S141" t="inlineStr">
-        <is>
-          <t>02/07/2023 21:12</t>
-        </is>
-      </c>
       <c r="T141" t="n">
-        <v>7.49</v>
+        <v>4.76</v>
       </c>
       <c r="U141" t="inlineStr">
         <is>
-          <t>09/07/2023 23:26</t>
+          <t>09/07/2023 23:04</t>
         </is>
       </c>
       <c r="V141" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/fortaleza-athletico-pr/Q54y1lxt/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/gremio-botafogo-rj/ny3PgXUC/</t>
         </is>
       </c>
     </row>
@@ -20077,22 +20077,22 @@
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>Fluminense</t>
+          <t>Corinthians</t>
         </is>
       </c>
       <c r="G214" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>Fortaleza</t>
+          <t>Palmeiras</t>
         </is>
       </c>
       <c r="I214" t="n">
         <v>0</v>
       </c>
       <c r="J214" t="n">
-        <v>1.84</v>
+        <v>3.34</v>
       </c>
       <c r="K214" t="inlineStr">
         <is>
@@ -20100,39 +20100,39 @@
         </is>
       </c>
       <c r="L214" t="n">
-        <v>1.95</v>
+        <v>4.92</v>
       </c>
       <c r="M214" t="inlineStr">
         <is>
+          <t>03/09/2023 20:58</t>
+        </is>
+      </c>
+      <c r="N214" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="O214" t="inlineStr">
+        <is>
+          <t>27/08/2023 22:42</t>
+        </is>
+      </c>
+      <c r="P214" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q214" t="inlineStr">
+        <is>
           <t>03/09/2023 20:56</t>
         </is>
       </c>
-      <c r="N214" t="n">
-        <v>3.66</v>
-      </c>
-      <c r="O214" t="inlineStr">
+      <c r="R214" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="S214" t="inlineStr">
         <is>
           <t>27/08/2023 22:42</t>
         </is>
       </c>
-      <c r="P214" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="Q214" t="inlineStr">
-        <is>
-          <t>03/09/2023 20:55</t>
-        </is>
-      </c>
-      <c r="R214" t="n">
-        <v>4.62</v>
-      </c>
-      <c r="S214" t="inlineStr">
-        <is>
-          <t>27/08/2023 22:42</t>
-        </is>
-      </c>
       <c r="T214" t="n">
-        <v>4.41</v>
+        <v>1.93</v>
       </c>
       <c r="U214" t="inlineStr">
         <is>
@@ -20141,7 +20141,7 @@
       </c>
       <c r="V214" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/fluminense-fortaleza/jogngFdh/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/corinthians-palmeiras/x2ebjDtB/</t>
         </is>
       </c>
     </row>
@@ -20169,22 +20169,22 @@
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>Corinthians</t>
+          <t>Fluminense</t>
         </is>
       </c>
       <c r="G215" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>Palmeiras</t>
+          <t>Fortaleza</t>
         </is>
       </c>
       <c r="I215" t="n">
         <v>0</v>
       </c>
       <c r="J215" t="n">
-        <v>3.34</v>
+        <v>1.84</v>
       </c>
       <c r="K215" t="inlineStr">
         <is>
@@ -20192,15 +20192,15 @@
         </is>
       </c>
       <c r="L215" t="n">
-        <v>4.92</v>
+        <v>1.95</v>
       </c>
       <c r="M215" t="inlineStr">
         <is>
-          <t>03/09/2023 20:58</t>
+          <t>03/09/2023 20:56</t>
         </is>
       </c>
       <c r="N215" t="n">
-        <v>3.13</v>
+        <v>3.66</v>
       </c>
       <c r="O215" t="inlineStr">
         <is>
@@ -20208,32 +20208,32 @@
         </is>
       </c>
       <c r="P215" t="n">
-        <v>3.25</v>
+        <v>3.45</v>
       </c>
       <c r="Q215" t="inlineStr">
         <is>
+          <t>03/09/2023 20:55</t>
+        </is>
+      </c>
+      <c r="R215" t="n">
+        <v>4.62</v>
+      </c>
+      <c r="S215" t="inlineStr">
+        <is>
+          <t>27/08/2023 22:42</t>
+        </is>
+      </c>
+      <c r="T215" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="U215" t="inlineStr">
+        <is>
           <t>03/09/2023 20:56</t>
         </is>
       </c>
-      <c r="R215" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="S215" t="inlineStr">
-        <is>
-          <t>27/08/2023 22:42</t>
-        </is>
-      </c>
-      <c r="T215" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="U215" t="inlineStr">
-        <is>
-          <t>03/09/2023 20:56</t>
-        </is>
-      </c>
       <c r="V215" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/corinthians-palmeiras/x2ebjDtB/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/fluminense-fortaleza/jogngFdh/</t>
         </is>
       </c>
     </row>
@@ -20261,71 +20261,71 @@
       </c>
       <c r="F216" t="inlineStr">
         <is>
-          <t>Bahia</t>
+          <t>Cruzeiro</t>
         </is>
       </c>
       <c r="G216" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>Vasco</t>
+          <t>Bragantino</t>
         </is>
       </c>
       <c r="I216" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J216" t="n">
-        <v>2.02</v>
+        <v>2.26</v>
       </c>
       <c r="K216" t="inlineStr">
         <is>
-          <t>27/08/2023 22:42</t>
+          <t>27/08/2023 23:12</t>
         </is>
       </c>
       <c r="L216" t="n">
-        <v>2.11</v>
+        <v>2.47</v>
       </c>
       <c r="M216" t="inlineStr">
         <is>
-          <t>03/09/2023 23:26</t>
+          <t>03/09/2023 23:19</t>
         </is>
       </c>
       <c r="N216" t="n">
-        <v>3.43</v>
+        <v>3.32</v>
       </c>
       <c r="O216" t="inlineStr">
         <is>
-          <t>27/08/2023 22:42</t>
+          <t>27/08/2023 23:12</t>
         </is>
       </c>
       <c r="P216" t="n">
-        <v>3.33</v>
+        <v>3.14</v>
       </c>
       <c r="Q216" t="inlineStr">
         <is>
-          <t>03/09/2023 23:29</t>
+          <t>03/09/2023 23:09</t>
         </is>
       </c>
       <c r="R216" t="n">
-        <v>4.04</v>
+        <v>3.47</v>
       </c>
       <c r="S216" t="inlineStr">
         <is>
-          <t>27/08/2023 22:42</t>
+          <t>27/08/2023 23:12</t>
         </is>
       </c>
       <c r="T216" t="n">
-        <v>3.95</v>
+        <v>3.29</v>
       </c>
       <c r="U216" t="inlineStr">
         <is>
-          <t>03/09/2023 23:29</t>
+          <t>03/09/2023 23:07</t>
         </is>
       </c>
       <c r="V216" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/bahia-vasco/4lJL7EBo/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/cruzeiro-bragantino/YTl7liBN/</t>
         </is>
       </c>
     </row>
@@ -20353,71 +20353,71 @@
       </c>
       <c r="F217" t="inlineStr">
         <is>
-          <t>America MG</t>
+          <t>Bahia</t>
         </is>
       </c>
       <c r="G217" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>Santos</t>
+          <t>Vasco</t>
         </is>
       </c>
       <c r="I217" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J217" t="n">
-        <v>2.1</v>
+        <v>2.02</v>
       </c>
       <c r="K217" t="inlineStr">
         <is>
-          <t>27/08/2023 20:12</t>
+          <t>27/08/2023 22:42</t>
         </is>
       </c>
       <c r="L217" t="n">
-        <v>2.21</v>
+        <v>2.11</v>
       </c>
       <c r="M217" t="inlineStr">
         <is>
-          <t>03/09/2023 23:28</t>
+          <t>03/09/2023 23:26</t>
         </is>
       </c>
       <c r="N217" t="n">
-        <v>3.35</v>
+        <v>3.43</v>
       </c>
       <c r="O217" t="inlineStr">
         <is>
-          <t>27/08/2023 20:12</t>
+          <t>27/08/2023 22:42</t>
         </is>
       </c>
       <c r="P217" t="n">
-        <v>3.2</v>
+        <v>3.33</v>
       </c>
       <c r="Q217" t="inlineStr">
         <is>
-          <t>03/09/2023 23:28</t>
+          <t>03/09/2023 23:29</t>
         </is>
       </c>
       <c r="R217" t="n">
-        <v>3.88</v>
+        <v>4.04</v>
       </c>
       <c r="S217" t="inlineStr">
         <is>
-          <t>27/08/2023 20:12</t>
+          <t>27/08/2023 22:42</t>
         </is>
       </c>
       <c r="T217" t="n">
-        <v>3.8</v>
+        <v>3.95</v>
       </c>
       <c r="U217" t="inlineStr">
         <is>
-          <t>03/09/2023 23:28</t>
+          <t>03/09/2023 23:29</t>
         </is>
       </c>
       <c r="V217" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/america-mg-santos/ruIP6YQi/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/bahia-vasco/4lJL7EBo/</t>
         </is>
       </c>
     </row>
@@ -20445,71 +20445,71 @@
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t>Cruzeiro</t>
+          <t>America MG</t>
         </is>
       </c>
       <c r="G218" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>Bragantino</t>
+          <t>Santos</t>
         </is>
       </c>
       <c r="I218" t="n">
         <v>0</v>
       </c>
       <c r="J218" t="n">
-        <v>2.26</v>
+        <v>2.1</v>
       </c>
       <c r="K218" t="inlineStr">
         <is>
-          <t>27/08/2023 23:12</t>
+          <t>27/08/2023 20:12</t>
         </is>
       </c>
       <c r="L218" t="n">
-        <v>2.47</v>
+        <v>2.21</v>
       </c>
       <c r="M218" t="inlineStr">
         <is>
-          <t>03/09/2023 23:19</t>
+          <t>03/09/2023 23:28</t>
         </is>
       </c>
       <c r="N218" t="n">
-        <v>3.32</v>
+        <v>3.35</v>
       </c>
       <c r="O218" t="inlineStr">
         <is>
-          <t>27/08/2023 23:12</t>
+          <t>27/08/2023 20:12</t>
         </is>
       </c>
       <c r="P218" t="n">
-        <v>3.14</v>
+        <v>3.2</v>
       </c>
       <c r="Q218" t="inlineStr">
         <is>
-          <t>03/09/2023 23:09</t>
+          <t>03/09/2023 23:28</t>
         </is>
       </c>
       <c r="R218" t="n">
-        <v>3.47</v>
+        <v>3.88</v>
       </c>
       <c r="S218" t="inlineStr">
         <is>
-          <t>27/08/2023 23:12</t>
+          <t>27/08/2023 20:12</t>
         </is>
       </c>
       <c r="T218" t="n">
-        <v>3.29</v>
+        <v>3.8</v>
       </c>
       <c r="U218" t="inlineStr">
         <is>
-          <t>03/09/2023 23:07</t>
+          <t>03/09/2023 23:28</t>
         </is>
       </c>
       <c r="V218" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/cruzeiro-bragantino/YTl7liBN/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/america-mg-santos/ruIP6YQi/</t>
         </is>
       </c>
     </row>
@@ -23546,6 +23546,98 @@
       <c r="V251" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/brazil/serie-a/botafogo-rj-goias/YLGjHtoR/</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="1" t="n">
+        <v>251</v>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>brazil</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>serie-a</t>
+        </is>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E252" s="2" t="n">
+        <v>45206.875</v>
+      </c>
+      <c r="F252" t="inlineStr">
+        <is>
+          <t>Goias</t>
+        </is>
+      </c>
+      <c r="G252" t="n">
+        <v>4</v>
+      </c>
+      <c r="H252" t="inlineStr">
+        <is>
+          <t>Bahia</t>
+        </is>
+      </c>
+      <c r="I252" t="n">
+        <v>6</v>
+      </c>
+      <c r="J252" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>03/10/2023 00:13</t>
+        </is>
+      </c>
+      <c r="L252" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="M252" t="inlineStr">
+        <is>
+          <t>07/10/2023 20:56</t>
+        </is>
+      </c>
+      <c r="N252" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="O252" t="inlineStr">
+        <is>
+          <t>03/10/2023 00:13</t>
+        </is>
+      </c>
+      <c r="P252" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="Q252" t="inlineStr">
+        <is>
+          <t>07/10/2023 20:13</t>
+        </is>
+      </c>
+      <c r="R252" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="S252" t="inlineStr">
+        <is>
+          <t>03/10/2023 00:13</t>
+        </is>
+      </c>
+      <c r="T252" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="U252" t="inlineStr">
+        <is>
+          <t>07/10/2023 20:56</t>
+        </is>
+      </c>
+      <c r="V252" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/goias-bahia/0x69NH70/</t>
         </is>
       </c>
     </row>

--- a/2023/brazil_serie-a_2023.xlsx
+++ b/2023/brazil_serie-a_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V252"/>
+  <dimension ref="A1:V254"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7197,7 +7197,7 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Flamengo RJ</t>
+          <t>Cuiaba</t>
         </is>
       </c>
       <c r="G74" t="n">
@@ -7205,14 +7205,14 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Cruzeiro</t>
+          <t>Coritiba</t>
         </is>
       </c>
       <c r="I74" t="n">
         <v>1</v>
       </c>
       <c r="J74" t="n">
-        <v>1.59</v>
+        <v>1.96</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
@@ -7220,15 +7220,15 @@
         </is>
       </c>
       <c r="L74" t="n">
-        <v>1.7</v>
+        <v>1.89</v>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>27/05/2023 23:28</t>
+          <t>27/05/2023 23:29</t>
         </is>
       </c>
       <c r="N74" t="n">
-        <v>4.27</v>
+        <v>3.49</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
@@ -7236,15 +7236,15 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>3.77</v>
+        <v>3.44</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>27/05/2023 23:28</t>
+          <t>27/05/2023 23:29</t>
         </is>
       </c>
       <c r="R74" t="n">
-        <v>5.56</v>
+        <v>4.09</v>
       </c>
       <c r="S74" t="inlineStr">
         <is>
@@ -7252,16 +7252,16 @@
         </is>
       </c>
       <c r="T74" t="n">
-        <v>5.63</v>
+        <v>4.74</v>
       </c>
       <c r="U74" t="inlineStr">
         <is>
-          <t>27/05/2023 23:28</t>
+          <t>27/05/2023 23:29</t>
         </is>
       </c>
       <c r="V74" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/flamengo-rj-cruzeiro/U1ytIRfs/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/cuiaba-coritiba/AZ1GFgjt/</t>
         </is>
       </c>
     </row>
@@ -7289,7 +7289,7 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Cuiaba</t>
+          <t>Flamengo RJ</t>
         </is>
       </c>
       <c r="G75" t="n">
@@ -7297,14 +7297,14 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Coritiba</t>
+          <t>Cruzeiro</t>
         </is>
       </c>
       <c r="I75" t="n">
         <v>1</v>
       </c>
       <c r="J75" t="n">
-        <v>1.96</v>
+        <v>1.59</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
@@ -7312,15 +7312,15 @@
         </is>
       </c>
       <c r="L75" t="n">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>27/05/2023 23:29</t>
+          <t>27/05/2023 23:28</t>
         </is>
       </c>
       <c r="N75" t="n">
-        <v>3.49</v>
+        <v>4.27</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
@@ -7328,15 +7328,15 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>3.44</v>
+        <v>3.77</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>27/05/2023 23:29</t>
+          <t>27/05/2023 23:28</t>
         </is>
       </c>
       <c r="R75" t="n">
-        <v>4.09</v>
+        <v>5.56</v>
       </c>
       <c r="S75" t="inlineStr">
         <is>
@@ -7344,16 +7344,16 @@
         </is>
       </c>
       <c r="T75" t="n">
-        <v>4.74</v>
+        <v>5.63</v>
       </c>
       <c r="U75" t="inlineStr">
         <is>
-          <t>27/05/2023 23:29</t>
+          <t>27/05/2023 23:28</t>
         </is>
       </c>
       <c r="V75" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/cuiaba-coritiba/AZ1GFgjt/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/flamengo-rj-cruzeiro/U1ytIRfs/</t>
         </is>
       </c>
     </row>
@@ -23638,6 +23638,190 @@
       <c r="V252" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/brazil/serie-a/goias-bahia/0x69NH70/</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="1" t="n">
+        <v>252</v>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>brazil</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>serie-a</t>
+        </is>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E253" s="2" t="n">
+        <v>45206.97916666666</v>
+      </c>
+      <c r="F253" t="inlineStr">
+        <is>
+          <t>Vasco</t>
+        </is>
+      </c>
+      <c r="G253" t="n">
+        <v>0</v>
+      </c>
+      <c r="H253" t="inlineStr">
+        <is>
+          <t>Sao Paulo</t>
+        </is>
+      </c>
+      <c r="I253" t="n">
+        <v>0</v>
+      </c>
+      <c r="J253" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>01/10/2023 20:12</t>
+        </is>
+      </c>
+      <c r="L253" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="M253" t="inlineStr">
+        <is>
+          <t>07/10/2023 23:28</t>
+        </is>
+      </c>
+      <c r="N253" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="O253" t="inlineStr">
+        <is>
+          <t>01/10/2023 20:12</t>
+        </is>
+      </c>
+      <c r="P253" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="Q253" t="inlineStr">
+        <is>
+          <t>07/10/2023 23:27</t>
+        </is>
+      </c>
+      <c r="R253" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="S253" t="inlineStr">
+        <is>
+          <t>01/10/2023 20:12</t>
+        </is>
+      </c>
+      <c r="T253" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="U253" t="inlineStr">
+        <is>
+          <t>07/10/2023 23:27</t>
+        </is>
+      </c>
+      <c r="V253" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/vasco-sao-paulo/CGDdQJNs/</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="1" t="n">
+        <v>253</v>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>brazil</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>serie-a</t>
+        </is>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E254" s="2" t="n">
+        <v>45207.08333333334</v>
+      </c>
+      <c r="F254" t="inlineStr">
+        <is>
+          <t>Corinthians</t>
+        </is>
+      </c>
+      <c r="G254" t="n">
+        <v>1</v>
+      </c>
+      <c r="H254" t="inlineStr">
+        <is>
+          <t>Flamengo RJ</t>
+        </is>
+      </c>
+      <c r="I254" t="n">
+        <v>1</v>
+      </c>
+      <c r="J254" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>30/09/2023 22:42</t>
+        </is>
+      </c>
+      <c r="L254" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="M254" t="inlineStr">
+        <is>
+          <t>08/10/2023 01:49</t>
+        </is>
+      </c>
+      <c r="N254" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="O254" t="inlineStr">
+        <is>
+          <t>30/09/2023 22:42</t>
+        </is>
+      </c>
+      <c r="P254" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="Q254" t="inlineStr">
+        <is>
+          <t>08/10/2023 01:51</t>
+        </is>
+      </c>
+      <c r="R254" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="S254" t="inlineStr">
+        <is>
+          <t>30/09/2023 22:42</t>
+        </is>
+      </c>
+      <c r="T254" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="U254" t="inlineStr">
+        <is>
+          <t>08/10/2023 01:56</t>
+        </is>
+      </c>
+      <c r="V254" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/corinthians-flamengo-rj/IDG4Ochf/</t>
         </is>
       </c>
     </row>

--- a/2023/brazil_serie-a_2023.xlsx
+++ b/2023/brazil_serie-a_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V254"/>
+  <dimension ref="A1:V257"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -941,7 +941,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Athletico-PR</t>
+          <t>Botafogo RJ</t>
         </is>
       </c>
       <c r="G6" t="n">
@@ -949,63 +949,63 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Goias</t>
+          <t>Sao Paulo</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>1.64</v>
+        <v>2.69</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>09/04/2023 08:36</t>
+          <t>08/04/2023 23:42</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>1.64</v>
+        <v>2.46</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>15/04/2023 23:27</t>
+          <t>15/04/2023 23:22</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>4.15</v>
+        <v>3.05</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>09/04/2023 08:36</t>
+          <t>08/04/2023 23:42</t>
         </is>
       </c>
       <c r="P6" t="n">
-        <v>3.69</v>
+        <v>3.17</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>15/04/2023 23:27</t>
+          <t>15/04/2023 23:25</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>5.21</v>
+        <v>3</v>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>09/04/2023 08:36</t>
+          <t>08/04/2023 23:42</t>
         </is>
       </c>
       <c r="T6" t="n">
-        <v>6.64</v>
+        <v>3.26</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>15/04/2023 23:28</t>
+          <t>15/04/2023 23:25</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/athletico-pr-goias/Sv02EkgD/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/botafogo-rj-sao-paulo/vFRENgWQ/</t>
         </is>
       </c>
     </row>
@@ -1033,7 +1033,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Botafogo RJ</t>
+          <t>Athletico-PR</t>
         </is>
       </c>
       <c r="G7" t="n">
@@ -1041,63 +1041,63 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Sao Paulo</t>
+          <t>Goias</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>2.69</v>
+        <v>1.64</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>08/04/2023 23:42</t>
+          <t>09/04/2023 08:36</t>
         </is>
       </c>
       <c r="L7" t="n">
-        <v>2.46</v>
+        <v>1.64</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>15/04/2023 23:22</t>
+          <t>15/04/2023 23:27</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>3.05</v>
+        <v>4.15</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>08/04/2023 23:42</t>
+          <t>09/04/2023 08:36</t>
         </is>
       </c>
       <c r="P7" t="n">
-        <v>3.17</v>
+        <v>3.69</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>15/04/2023 23:25</t>
+          <t>15/04/2023 23:27</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>3</v>
+        <v>5.21</v>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>08/04/2023 23:42</t>
+          <t>09/04/2023 08:36</t>
         </is>
       </c>
       <c r="T7" t="n">
-        <v>3.26</v>
+        <v>6.64</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>15/04/2023 23:25</t>
+          <t>15/04/2023 23:28</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/botafogo-rj-sao-paulo/vFRENgWQ/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/athletico-pr-goias/Sv02EkgD/</t>
         </is>
       </c>
     </row>
@@ -1953,22 +1953,22 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Vasco</t>
+          <t>Santos</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Palmeiras</t>
+          <t>Atletico-MG</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>3.35</v>
+        <v>3.42</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -1976,15 +1976,15 @@
         </is>
       </c>
       <c r="L17" t="n">
-        <v>3.28</v>
+        <v>3.42</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>23/04/2023 20:56</t>
+          <t>23/04/2023 20:32</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>3.39</v>
+        <v>3.27</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1992,15 +1992,15 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>3.19</v>
+        <v>3.13</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>23/04/2023 20:51</t>
+          <t>23/04/2023 20:26</t>
         </is>
       </c>
       <c r="R17" t="n">
-        <v>2.28</v>
+        <v>2.31</v>
       </c>
       <c r="S17" t="inlineStr">
         <is>
@@ -2008,16 +2008,16 @@
         </is>
       </c>
       <c r="T17" t="n">
-        <v>2.44</v>
+        <v>2.41</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>23/04/2023 20:53</t>
+          <t>23/04/2023 20:26</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/vasco-palmeiras/xAREJpVh/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/santos-atletico-mg/pzVMHOa5/</t>
         </is>
       </c>
     </row>
@@ -2045,22 +2045,22 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Santos</t>
+          <t>Vasco</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Atletico-MG</t>
+          <t>Palmeiras</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J18" t="n">
-        <v>3.42</v>
+        <v>3.35</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -2068,15 +2068,15 @@
         </is>
       </c>
       <c r="L18" t="n">
-        <v>3.42</v>
+        <v>3.28</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>23/04/2023 20:32</t>
+          <t>23/04/2023 20:56</t>
         </is>
       </c>
       <c r="N18" t="n">
-        <v>3.27</v>
+        <v>3.39</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -2084,15 +2084,15 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>3.13</v>
+        <v>3.19</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>23/04/2023 20:26</t>
+          <t>23/04/2023 20:51</t>
         </is>
       </c>
       <c r="R18" t="n">
-        <v>2.31</v>
+        <v>2.28</v>
       </c>
       <c r="S18" t="inlineStr">
         <is>
@@ -2100,16 +2100,16 @@
         </is>
       </c>
       <c r="T18" t="n">
-        <v>2.41</v>
+        <v>2.44</v>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>23/04/2023 20:26</t>
+          <t>23/04/2023 20:53</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/santos-atletico-mg/pzVMHOa5/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/vasco-palmeiras/xAREJpVh/</t>
         </is>
       </c>
     </row>
@@ -2597,71 +2597,71 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Bragantino</t>
+          <t>Santos</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Cruzeiro</t>
+          <t>America MG</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J24" t="n">
-        <v>1.75</v>
+        <v>2.04</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>23/04/2023 05:13</t>
+          <t>24/04/2023 05:42</t>
         </is>
       </c>
       <c r="L24" t="n">
-        <v>1.82</v>
+        <v>2.41</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>29/04/2023 23:29</t>
+          <t>29/04/2023 23:26</t>
         </is>
       </c>
       <c r="N24" t="n">
-        <v>3.77</v>
+        <v>3.54</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>23/04/2023 05:13</t>
+          <t>24/04/2023 05:42</t>
         </is>
       </c>
       <c r="P24" t="n">
-        <v>3.67</v>
+        <v>3.22</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>29/04/2023 23:29</t>
+          <t>29/04/2023 23:26</t>
         </is>
       </c>
       <c r="R24" t="n">
-        <v>5.06</v>
+        <v>3.73</v>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>23/04/2023 05:13</t>
+          <t>24/04/2023 05:42</t>
         </is>
       </c>
       <c r="T24" t="n">
-        <v>4.81</v>
+        <v>3.31</v>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>29/04/2023 23:29</t>
+          <t>29/04/2023 23:26</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/bragantino-cruzeiro/0Qc8TLbH/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/santos-america-mg/63b4U1qB/</t>
         </is>
       </c>
     </row>
@@ -2689,71 +2689,71 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Santos</t>
+          <t>Palmeiras</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>America MG</t>
+          <t>Corinthians</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J25" t="n">
-        <v>2.04</v>
+        <v>1.68</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>24/04/2023 05:42</t>
+          <t>24/04/2023 00:12</t>
         </is>
       </c>
       <c r="L25" t="n">
-        <v>2.41</v>
+        <v>1.5</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>29/04/2023 23:26</t>
+          <t>29/04/2023 23:06</t>
         </is>
       </c>
       <c r="N25" t="n">
-        <v>3.54</v>
+        <v>3.88</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>24/04/2023 05:42</t>
+          <t>24/04/2023 00:12</t>
         </is>
       </c>
       <c r="P25" t="n">
-        <v>3.22</v>
+        <v>4.07</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>29/04/2023 23:26</t>
+          <t>29/04/2023 22:36</t>
         </is>
       </c>
       <c r="R25" t="n">
-        <v>3.73</v>
+        <v>5.49</v>
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>24/04/2023 05:42</t>
+          <t>24/04/2023 00:12</t>
         </is>
       </c>
       <c r="T25" t="n">
-        <v>3.31</v>
+        <v>8.26</v>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>29/04/2023 23:26</t>
+          <t>29/04/2023 23:06</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/santos-america-mg/63b4U1qB/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/palmeiras-corinthians/SCa0VsU4/</t>
         </is>
       </c>
     </row>
@@ -2781,71 +2781,71 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Palmeiras</t>
+          <t>Bragantino</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Corinthians</t>
+          <t>Cruzeiro</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J26" t="n">
-        <v>1.68</v>
+        <v>1.75</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>24/04/2023 00:12</t>
+          <t>23/04/2023 05:13</t>
         </is>
       </c>
       <c r="L26" t="n">
-        <v>1.5</v>
+        <v>1.82</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>29/04/2023 23:06</t>
+          <t>29/04/2023 23:29</t>
         </is>
       </c>
       <c r="N26" t="n">
-        <v>3.88</v>
+        <v>3.77</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>24/04/2023 00:12</t>
+          <t>23/04/2023 05:13</t>
         </is>
       </c>
       <c r="P26" t="n">
-        <v>4.07</v>
+        <v>3.67</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>29/04/2023 22:36</t>
+          <t>29/04/2023 23:29</t>
         </is>
       </c>
       <c r="R26" t="n">
-        <v>5.49</v>
+        <v>5.06</v>
       </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t>24/04/2023 00:12</t>
+          <t>23/04/2023 05:13</t>
         </is>
       </c>
       <c r="T26" t="n">
-        <v>8.26</v>
+        <v>4.81</v>
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>29/04/2023 23:06</t>
+          <t>29/04/2023 23:29</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/palmeiras-corinthians/SCa0VsU4/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/bragantino-cruzeiro/0Qc8TLbH/</t>
         </is>
       </c>
     </row>
@@ -3885,22 +3885,22 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Botafogo RJ</t>
+          <t>Goias</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Atletico-MG</t>
+          <t>Palmeiras</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J38" t="n">
-        <v>2.85</v>
+        <v>4.55</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -3908,15 +3908,15 @@
         </is>
       </c>
       <c r="L38" t="n">
-        <v>3.72</v>
+        <v>5.53</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>07/05/2023 23:29</t>
+          <t>07/05/2023 23:20</t>
         </is>
       </c>
       <c r="N38" t="n">
-        <v>3.66</v>
+        <v>3.7</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
@@ -3924,15 +3924,15 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>3.33</v>
+        <v>3.99</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>07/05/2023 23:29</t>
+          <t>07/05/2023 23:20</t>
         </is>
       </c>
       <c r="R38" t="n">
-        <v>2.46</v>
+        <v>1.81</v>
       </c>
       <c r="S38" t="inlineStr">
         <is>
@@ -3940,16 +3940,16 @@
         </is>
       </c>
       <c r="T38" t="n">
-        <v>2.18</v>
+        <v>1.67</v>
       </c>
       <c r="U38" t="inlineStr">
         <is>
-          <t>07/05/2023 23:29</t>
+          <t>07/05/2023 23:20</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/botafogo-rj-atletico-mg/0QJwq1b4/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/goias-palmeiras/jFCjtarN/</t>
         </is>
       </c>
     </row>
@@ -4069,22 +4069,22 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Goias</t>
+          <t>Botafogo RJ</t>
         </is>
       </c>
       <c r="G40" t="n">
+        <v>2</v>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Atletico-MG</t>
+        </is>
+      </c>
+      <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>Palmeiras</t>
-        </is>
-      </c>
-      <c r="I40" t="n">
-        <v>5</v>
-      </c>
       <c r="J40" t="n">
-        <v>4.55</v>
+        <v>2.85</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -4092,15 +4092,15 @@
         </is>
       </c>
       <c r="L40" t="n">
-        <v>5.53</v>
+        <v>3.72</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>07/05/2023 23:20</t>
+          <t>07/05/2023 23:29</t>
         </is>
       </c>
       <c r="N40" t="n">
-        <v>3.7</v>
+        <v>3.66</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
@@ -4108,15 +4108,15 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>3.99</v>
+        <v>3.33</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>07/05/2023 23:20</t>
+          <t>07/05/2023 23:29</t>
         </is>
       </c>
       <c r="R40" t="n">
-        <v>1.81</v>
+        <v>2.46</v>
       </c>
       <c r="S40" t="inlineStr">
         <is>
@@ -4124,16 +4124,16 @@
         </is>
       </c>
       <c r="T40" t="n">
-        <v>1.67</v>
+        <v>2.18</v>
       </c>
       <c r="U40" t="inlineStr">
         <is>
-          <t>07/05/2023 23:20</t>
+          <t>07/05/2023 23:29</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/goias-palmeiras/jFCjtarN/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/botafogo-rj-atletico-mg/0QJwq1b4/</t>
         </is>
       </c>
     </row>
@@ -4529,22 +4529,22 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Cuiaba</t>
+          <t>Flamengo RJ</t>
         </is>
       </c>
       <c r="G45" t="n">
+        <v>2</v>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Goias</t>
+        </is>
+      </c>
+      <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>Atletico-MG</t>
-        </is>
-      </c>
-      <c r="I45" t="n">
-        <v>4</v>
-      </c>
       <c r="J45" t="n">
-        <v>3.36</v>
+        <v>1.32</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
@@ -4552,15 +4552,15 @@
         </is>
       </c>
       <c r="L45" t="n">
-        <v>3.86</v>
+        <v>1.25</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>11/05/2023 00:59</t>
+          <t>11/05/2023 00:43</t>
         </is>
       </c>
       <c r="N45" t="n">
-        <v>3.3</v>
+        <v>5.65</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
@@ -4568,15 +4568,15 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>3.3</v>
+        <v>6.22</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>11/05/2023 00:57</t>
+          <t>11/05/2023 00:58</t>
         </is>
       </c>
       <c r="R45" t="n">
-        <v>2.32</v>
+        <v>9.16</v>
       </c>
       <c r="S45" t="inlineStr">
         <is>
@@ -4584,16 +4584,16 @@
         </is>
       </c>
       <c r="T45" t="n">
-        <v>2.15</v>
+        <v>12.58</v>
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>11/05/2023 00:59</t>
+          <t>11/05/2023 00:58</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/cuiaba-atletico-mg/CbpnAwc3/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/flamengo-rj-goias/8jqHdKS3/</t>
         </is>
       </c>
     </row>
@@ -4621,22 +4621,22 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Flamengo RJ</t>
+          <t>Cuiaba</t>
         </is>
       </c>
       <c r="G46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Goias</t>
+          <t>Atletico-MG</t>
         </is>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J46" t="n">
-        <v>1.32</v>
+        <v>3.36</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
@@ -4644,15 +4644,15 @@
         </is>
       </c>
       <c r="L46" t="n">
-        <v>1.25</v>
+        <v>3.86</v>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>11/05/2023 00:43</t>
+          <t>11/05/2023 00:59</t>
         </is>
       </c>
       <c r="N46" t="n">
-        <v>5.65</v>
+        <v>3.3</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
@@ -4660,15 +4660,15 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>6.22</v>
+        <v>3.3</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>11/05/2023 00:58</t>
+          <t>11/05/2023 00:57</t>
         </is>
       </c>
       <c r="R46" t="n">
-        <v>9.16</v>
+        <v>2.32</v>
       </c>
       <c r="S46" t="inlineStr">
         <is>
@@ -4676,16 +4676,16 @@
         </is>
       </c>
       <c r="T46" t="n">
-        <v>12.58</v>
+        <v>2.15</v>
       </c>
       <c r="U46" t="inlineStr">
         <is>
-          <t>11/05/2023 00:58</t>
+          <t>11/05/2023 00:59</t>
         </is>
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/flamengo-rj-goias/8jqHdKS3/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/cuiaba-atletico-mg/CbpnAwc3/</t>
         </is>
       </c>
     </row>
@@ -5633,71 +5633,71 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Corinthians</t>
+          <t>Vasco</t>
         </is>
       </c>
       <c r="G57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Sao Paulo</t>
+          <t>Santos</t>
         </is>
       </c>
       <c r="I57" t="n">
         <v>1</v>
       </c>
       <c r="J57" t="n">
-        <v>2.42</v>
+        <v>1.74</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>12/05/2023 01:12</t>
+          <t>12/05/2023 00:12</t>
         </is>
       </c>
       <c r="L57" t="n">
-        <v>2.57</v>
+        <v>1.93</v>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>14/05/2023 20:57</t>
+          <t>14/05/2023 20:50</t>
         </is>
       </c>
       <c r="N57" t="n">
-        <v>3.24</v>
+        <v>3.77</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>12/05/2023 01:12</t>
+          <t>12/05/2023 00:12</t>
         </is>
       </c>
       <c r="P57" t="n">
-        <v>3.02</v>
+        <v>3.33</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>14/05/2023 20:57</t>
+          <t>14/05/2023 20:58</t>
         </is>
       </c>
       <c r="R57" t="n">
-        <v>3.23</v>
+        <v>4.95</v>
       </c>
       <c r="S57" t="inlineStr">
         <is>
-          <t>12/05/2023 01:12</t>
+          <t>12/05/2023 00:12</t>
         </is>
       </c>
       <c r="T57" t="n">
-        <v>3.25</v>
+        <v>4.73</v>
       </c>
       <c r="U57" t="inlineStr">
         <is>
-          <t>14/05/2023 20:57</t>
+          <t>14/05/2023 20:58</t>
         </is>
       </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/corinthians-sao-paulo/vD0Sk9Bl/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/vasco-santos/YDYf8HRF/</t>
         </is>
       </c>
     </row>
@@ -5725,71 +5725,71 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Vasco</t>
+          <t>Corinthians</t>
         </is>
       </c>
       <c r="G58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Santos</t>
+          <t>Sao Paulo</t>
         </is>
       </c>
       <c r="I58" t="n">
         <v>1</v>
       </c>
       <c r="J58" t="n">
-        <v>1.74</v>
+        <v>2.42</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>12/05/2023 00:12</t>
+          <t>12/05/2023 01:12</t>
         </is>
       </c>
       <c r="L58" t="n">
-        <v>1.93</v>
+        <v>2.57</v>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>14/05/2023 20:50</t>
+          <t>14/05/2023 20:57</t>
         </is>
       </c>
       <c r="N58" t="n">
-        <v>3.77</v>
+        <v>3.24</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>12/05/2023 00:12</t>
+          <t>12/05/2023 01:12</t>
         </is>
       </c>
       <c r="P58" t="n">
-        <v>3.33</v>
+        <v>3.02</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>14/05/2023 20:58</t>
+          <t>14/05/2023 20:57</t>
         </is>
       </c>
       <c r="R58" t="n">
-        <v>4.95</v>
+        <v>3.23</v>
       </c>
       <c r="S58" t="inlineStr">
         <is>
-          <t>12/05/2023 00:12</t>
+          <t>12/05/2023 01:12</t>
         </is>
       </c>
       <c r="T58" t="n">
-        <v>4.73</v>
+        <v>3.25</v>
       </c>
       <c r="U58" t="inlineStr">
         <is>
-          <t>14/05/2023 20:58</t>
+          <t>14/05/2023 20:57</t>
         </is>
       </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/vasco-santos/YDYf8HRF/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/corinthians-sao-paulo/vD0Sk9Bl/</t>
         </is>
       </c>
     </row>
@@ -5909,46 +5909,46 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>America MG</t>
+          <t>Athletico-PR</t>
         </is>
       </c>
       <c r="G60" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Cruzeiro</t>
+          <t>Coritiba</t>
         </is>
       </c>
       <c r="I60" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J60" t="n">
-        <v>2.16</v>
+        <v>1.68</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>11/05/2023 02:42</t>
+          <t>12/05/2023 00:12</t>
         </is>
       </c>
       <c r="L60" t="n">
-        <v>2.56</v>
+        <v>1.63</v>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>14/05/2023 23:27</t>
+          <t>14/05/2023 23:29</t>
         </is>
       </c>
       <c r="N60" t="n">
-        <v>3.59</v>
+        <v>3.98</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>11/05/2023 02:42</t>
+          <t>12/05/2023 00:12</t>
         </is>
       </c>
       <c r="P60" t="n">
-        <v>3.47</v>
+        <v>3.83</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
@@ -5956,24 +5956,24 @@
         </is>
       </c>
       <c r="R60" t="n">
-        <v>3.44</v>
+        <v>5.07</v>
       </c>
       <c r="S60" t="inlineStr">
         <is>
-          <t>11/05/2023 02:42</t>
+          <t>12/05/2023 00:12</t>
         </is>
       </c>
       <c r="T60" t="n">
-        <v>2.87</v>
+        <v>6.41</v>
       </c>
       <c r="U60" t="inlineStr">
         <is>
-          <t>14/05/2023 23:27</t>
+          <t>14/05/2023 23:29</t>
         </is>
       </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/america-mg-cruzeiro/MXZV9U2K/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/athletico-pr-coritiba/6PiqnRAD/</t>
         </is>
       </c>
     </row>
@@ -6001,71 +6001,71 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Athletico-PR</t>
+          <t>America MG</t>
         </is>
       </c>
       <c r="G61" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Coritiba</t>
+          <t>Cruzeiro</t>
         </is>
       </c>
       <c r="I61" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J61" t="n">
-        <v>1.68</v>
+        <v>2.16</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>12/05/2023 00:12</t>
+          <t>11/05/2023 02:42</t>
         </is>
       </c>
       <c r="L61" t="n">
-        <v>1.63</v>
+        <v>2.56</v>
       </c>
       <c r="M61" t="inlineStr">
         <is>
+          <t>14/05/2023 23:27</t>
+        </is>
+      </c>
+      <c r="N61" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>11/05/2023 02:42</t>
+        </is>
+      </c>
+      <c r="P61" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="Q61" t="inlineStr">
+        <is>
           <t>14/05/2023 23:29</t>
         </is>
       </c>
-      <c r="N61" t="n">
-        <v>3.98</v>
-      </c>
-      <c r="O61" t="inlineStr">
-        <is>
-          <t>12/05/2023 00:12</t>
-        </is>
-      </c>
-      <c r="P61" t="n">
-        <v>3.83</v>
-      </c>
-      <c r="Q61" t="inlineStr">
-        <is>
-          <t>14/05/2023 23:29</t>
-        </is>
-      </c>
       <c r="R61" t="n">
-        <v>5.07</v>
+        <v>3.44</v>
       </c>
       <c r="S61" t="inlineStr">
         <is>
-          <t>12/05/2023 00:12</t>
+          <t>11/05/2023 02:42</t>
         </is>
       </c>
       <c r="T61" t="n">
-        <v>6.41</v>
+        <v>2.87</v>
       </c>
       <c r="U61" t="inlineStr">
         <is>
-          <t>14/05/2023 23:29</t>
+          <t>14/05/2023 23:27</t>
         </is>
       </c>
       <c r="V61" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/athletico-pr-coritiba/6PiqnRAD/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/america-mg-cruzeiro/MXZV9U2K/</t>
         </is>
       </c>
     </row>
@@ -6185,22 +6185,22 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Coritiba</t>
+          <t>Sao Paulo</t>
         </is>
       </c>
       <c r="G63" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Atletico-MG</t>
+          <t>Vasco</t>
         </is>
       </c>
       <c r="I63" t="n">
         <v>2</v>
       </c>
       <c r="J63" t="n">
-        <v>4.39</v>
+        <v>1.94</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
@@ -6208,7 +6208,7 @@
         </is>
       </c>
       <c r="L63" t="n">
-        <v>4.83</v>
+        <v>1.87</v>
       </c>
       <c r="M63" t="inlineStr">
         <is>
@@ -6216,7 +6216,7 @@
         </is>
       </c>
       <c r="N63" t="n">
-        <v>3.46</v>
+        <v>3.59</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
@@ -6224,7 +6224,7 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>3.45</v>
+        <v>3.44</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
@@ -6232,7 +6232,7 @@
         </is>
       </c>
       <c r="R63" t="n">
-        <v>1.91</v>
+        <v>4.03</v>
       </c>
       <c r="S63" t="inlineStr">
         <is>
@@ -6240,7 +6240,7 @@
         </is>
       </c>
       <c r="T63" t="n">
-        <v>1.88</v>
+        <v>4.88</v>
       </c>
       <c r="U63" t="inlineStr">
         <is>
@@ -6249,7 +6249,7 @@
       </c>
       <c r="V63" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/coritiba-atletico-mg/dE6Rb4fJ/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/sao-paulo-vasco/zuG63Sul/</t>
         </is>
       </c>
     </row>
@@ -6277,71 +6277,71 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Bragantino</t>
+          <t>Coritiba</t>
         </is>
       </c>
       <c r="G64" t="n">
+        <v>1</v>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>Atletico-MG</t>
+        </is>
+      </c>
+      <c r="I64" t="n">
         <v>2</v>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>Athletico-PR</t>
-        </is>
-      </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
       <c r="J64" t="n">
-        <v>2.05</v>
+        <v>4.39</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>14/05/2023 23:42</t>
+          <t>15/05/2023 04:42</t>
         </is>
       </c>
       <c r="L64" t="n">
-        <v>1.85</v>
+        <v>4.83</v>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>20/05/2023 23:06</t>
+          <t>20/05/2023 23:29</t>
         </is>
       </c>
       <c r="N64" t="n">
-        <v>3.43</v>
+        <v>3.46</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>14/05/2023 23:42</t>
+          <t>15/05/2023 04:42</t>
         </is>
       </c>
       <c r="P64" t="n">
-        <v>3.64</v>
+        <v>3.45</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>20/05/2023 23:28</t>
+          <t>20/05/2023 23:29</t>
         </is>
       </c>
       <c r="R64" t="n">
-        <v>3.83</v>
+        <v>1.91</v>
       </c>
       <c r="S64" t="inlineStr">
         <is>
-          <t>14/05/2023 23:42</t>
+          <t>15/05/2023 04:42</t>
         </is>
       </c>
       <c r="T64" t="n">
-        <v>4.63</v>
+        <v>1.88</v>
       </c>
       <c r="U64" t="inlineStr">
         <is>
-          <t>20/05/2023 23:28</t>
+          <t>20/05/2023 23:29</t>
         </is>
       </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/bragantino-athletico-pr/MeEE16A0/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/coritiba-atletico-mg/dE6Rb4fJ/</t>
         </is>
       </c>
     </row>
@@ -6369,22 +6369,22 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Botafogo RJ</t>
+          <t>Bragantino</t>
         </is>
       </c>
       <c r="G65" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Fluminense</t>
+          <t>Athletico-PR</t>
         </is>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
       <c r="J65" t="n">
-        <v>2.78</v>
+        <v>2.05</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
@@ -6392,15 +6392,15 @@
         </is>
       </c>
       <c r="L65" t="n">
-        <v>2.77</v>
+        <v>1.85</v>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>20/05/2023 23:29</t>
+          <t>20/05/2023 23:06</t>
         </is>
       </c>
       <c r="N65" t="n">
-        <v>3.31</v>
+        <v>3.43</v>
       </c>
       <c r="O65" t="inlineStr">
         <is>
@@ -6408,15 +6408,15 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>3.32</v>
+        <v>3.64</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>20/05/2023 23:29</t>
+          <t>20/05/2023 23:28</t>
         </is>
       </c>
       <c r="R65" t="n">
-        <v>2.72</v>
+        <v>3.83</v>
       </c>
       <c r="S65" t="inlineStr">
         <is>
@@ -6424,16 +6424,16 @@
         </is>
       </c>
       <c r="T65" t="n">
-        <v>2.74</v>
+        <v>4.63</v>
       </c>
       <c r="U65" t="inlineStr">
         <is>
-          <t>20/05/2023 22:51</t>
+          <t>20/05/2023 23:28</t>
         </is>
       </c>
       <c r="V65" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/botafogo-rj-fluminense/hGQ148Qs/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/bragantino-athletico-pr/MeEE16A0/</t>
         </is>
       </c>
     </row>
@@ -6461,30 +6461,30 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Sao Paulo</t>
+          <t>Botafogo RJ</t>
         </is>
       </c>
       <c r="G66" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Vasco</t>
+          <t>Fluminense</t>
         </is>
       </c>
       <c r="I66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J66" t="n">
-        <v>1.94</v>
+        <v>2.78</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>15/05/2023 04:42</t>
+          <t>14/05/2023 23:42</t>
         </is>
       </c>
       <c r="L66" t="n">
-        <v>1.87</v>
+        <v>2.77</v>
       </c>
       <c r="M66" t="inlineStr">
         <is>
@@ -6492,15 +6492,15 @@
         </is>
       </c>
       <c r="N66" t="n">
-        <v>3.59</v>
+        <v>3.31</v>
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>15/05/2023 04:42</t>
+          <t>14/05/2023 23:42</t>
         </is>
       </c>
       <c r="P66" t="n">
-        <v>3.44</v>
+        <v>3.32</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
@@ -6508,24 +6508,24 @@
         </is>
       </c>
       <c r="R66" t="n">
-        <v>4.03</v>
+        <v>2.72</v>
       </c>
       <c r="S66" t="inlineStr">
         <is>
-          <t>15/05/2023 04:42</t>
+          <t>14/05/2023 23:42</t>
         </is>
       </c>
       <c r="T66" t="n">
-        <v>4.88</v>
+        <v>2.74</v>
       </c>
       <c r="U66" t="inlineStr">
         <is>
-          <t>20/05/2023 23:29</t>
+          <t>20/05/2023 22:51</t>
         </is>
       </c>
       <c r="V66" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/sao-paulo-vasco/zuG63Sul/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/botafogo-rj-fluminense/hGQ148Qs/</t>
         </is>
       </c>
     </row>
@@ -7013,22 +7013,22 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Fortaleza</t>
+          <t>Athletico-PR</t>
         </is>
       </c>
       <c r="G72" t="n">
+        <v>1</v>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>Gremio</t>
+        </is>
+      </c>
+      <c r="I72" t="n">
         <v>2</v>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>Vasco</t>
-        </is>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
       <c r="J72" t="n">
-        <v>1.75</v>
+        <v>2.02</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
@@ -7036,15 +7036,15 @@
         </is>
       </c>
       <c r="L72" t="n">
-        <v>1.68</v>
+        <v>1.64</v>
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>27/05/2023 20:28</t>
+          <t>27/05/2023 20:54</t>
         </is>
       </c>
       <c r="N72" t="n">
-        <v>3.77</v>
+        <v>3.5</v>
       </c>
       <c r="O72" t="inlineStr">
         <is>
@@ -7052,15 +7052,15 @@
         </is>
       </c>
       <c r="P72" t="n">
-        <v>4.03</v>
+        <v>4</v>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>27/05/2023 20:29</t>
+          <t>27/05/2023 20:54</t>
         </is>
       </c>
       <c r="R72" t="n">
-        <v>5.06</v>
+        <v>3.97</v>
       </c>
       <c r="S72" t="inlineStr">
         <is>
@@ -7068,16 +7068,16 @@
         </is>
       </c>
       <c r="T72" t="n">
-        <v>5.3</v>
+        <v>5.9</v>
       </c>
       <c r="U72" t="inlineStr">
         <is>
-          <t>27/05/2023 20:29</t>
+          <t>27/05/2023 20:54</t>
         </is>
       </c>
       <c r="V72" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/fortaleza-vasco/YDAlKZsP/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/athletico-pr-gremio/Uup8BsvP/</t>
         </is>
       </c>
     </row>
@@ -7105,22 +7105,22 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Athletico-PR</t>
+          <t>Fortaleza</t>
         </is>
       </c>
       <c r="G73" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Gremio</t>
+          <t>Vasco</t>
         </is>
       </c>
       <c r="I73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J73" t="n">
-        <v>2.02</v>
+        <v>1.75</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
@@ -7128,15 +7128,15 @@
         </is>
       </c>
       <c r="L73" t="n">
-        <v>1.64</v>
+        <v>1.68</v>
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>27/05/2023 20:54</t>
+          <t>27/05/2023 20:28</t>
         </is>
       </c>
       <c r="N73" t="n">
-        <v>3.5</v>
+        <v>3.77</v>
       </c>
       <c r="O73" t="inlineStr">
         <is>
@@ -7144,15 +7144,15 @@
         </is>
       </c>
       <c r="P73" t="n">
-        <v>4</v>
+        <v>4.03</v>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>27/05/2023 20:54</t>
+          <t>27/05/2023 20:29</t>
         </is>
       </c>
       <c r="R73" t="n">
-        <v>3.97</v>
+        <v>5.06</v>
       </c>
       <c r="S73" t="inlineStr">
         <is>
@@ -7160,16 +7160,16 @@
         </is>
       </c>
       <c r="T73" t="n">
-        <v>5.9</v>
+        <v>5.3</v>
       </c>
       <c r="U73" t="inlineStr">
         <is>
-          <t>27/05/2023 20:54</t>
+          <t>27/05/2023 20:29</t>
         </is>
       </c>
       <c r="V73" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/athletico-pr-gremio/Uup8BsvP/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/fortaleza-vasco/YDAlKZsP/</t>
         </is>
       </c>
     </row>
@@ -7197,7 +7197,7 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Cuiaba</t>
+          <t>Flamengo RJ</t>
         </is>
       </c>
       <c r="G74" t="n">
@@ -7205,14 +7205,14 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Coritiba</t>
+          <t>Cruzeiro</t>
         </is>
       </c>
       <c r="I74" t="n">
         <v>1</v>
       </c>
       <c r="J74" t="n">
-        <v>1.96</v>
+        <v>1.59</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
@@ -7220,15 +7220,15 @@
         </is>
       </c>
       <c r="L74" t="n">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>27/05/2023 23:29</t>
+          <t>27/05/2023 23:28</t>
         </is>
       </c>
       <c r="N74" t="n">
-        <v>3.49</v>
+        <v>4.27</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
@@ -7236,15 +7236,15 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>3.44</v>
+        <v>3.77</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>27/05/2023 23:29</t>
+          <t>27/05/2023 23:28</t>
         </is>
       </c>
       <c r="R74" t="n">
-        <v>4.09</v>
+        <v>5.56</v>
       </c>
       <c r="S74" t="inlineStr">
         <is>
@@ -7252,16 +7252,16 @@
         </is>
       </c>
       <c r="T74" t="n">
-        <v>4.74</v>
+        <v>5.63</v>
       </c>
       <c r="U74" t="inlineStr">
         <is>
-          <t>27/05/2023 23:29</t>
+          <t>27/05/2023 23:28</t>
         </is>
       </c>
       <c r="V74" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/cuiaba-coritiba/AZ1GFgjt/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/flamengo-rj-cruzeiro/U1ytIRfs/</t>
         </is>
       </c>
     </row>
@@ -7289,7 +7289,7 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Flamengo RJ</t>
+          <t>Cuiaba</t>
         </is>
       </c>
       <c r="G75" t="n">
@@ -7297,14 +7297,14 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Cruzeiro</t>
+          <t>Coritiba</t>
         </is>
       </c>
       <c r="I75" t="n">
         <v>1</v>
       </c>
       <c r="J75" t="n">
-        <v>1.59</v>
+        <v>1.96</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
@@ -7312,15 +7312,15 @@
         </is>
       </c>
       <c r="L75" t="n">
-        <v>1.7</v>
+        <v>1.89</v>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>27/05/2023 23:28</t>
+          <t>27/05/2023 23:29</t>
         </is>
       </c>
       <c r="N75" t="n">
-        <v>4.27</v>
+        <v>3.49</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
@@ -7328,15 +7328,15 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>3.77</v>
+        <v>3.44</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>27/05/2023 23:28</t>
+          <t>27/05/2023 23:29</t>
         </is>
       </c>
       <c r="R75" t="n">
-        <v>5.56</v>
+        <v>4.09</v>
       </c>
       <c r="S75" t="inlineStr">
         <is>
@@ -7344,16 +7344,16 @@
         </is>
       </c>
       <c r="T75" t="n">
-        <v>5.63</v>
+        <v>4.74</v>
       </c>
       <c r="U75" t="inlineStr">
         <is>
-          <t>27/05/2023 23:28</t>
+          <t>27/05/2023 23:29</t>
         </is>
       </c>
       <c r="V75" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/flamengo-rj-cruzeiro/U1ytIRfs/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/cuiaba-coritiba/AZ1GFgjt/</t>
         </is>
       </c>
     </row>
@@ -7473,7 +7473,7 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Corinthians</t>
+          <t>Internacional</t>
         </is>
       </c>
       <c r="G77" t="n">
@@ -7481,14 +7481,14 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Fluminense</t>
+          <t>Bahia</t>
         </is>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
       <c r="J77" t="n">
-        <v>2.79</v>
+        <v>1.75</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -7496,15 +7496,15 @@
         </is>
       </c>
       <c r="L77" t="n">
-        <v>2.81</v>
+        <v>2.12</v>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>28/05/2023 20:59</t>
+          <t>28/05/2023 20:51</t>
         </is>
       </c>
       <c r="N77" t="n">
-        <v>3.2</v>
+        <v>3.98</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
@@ -7512,15 +7512,15 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>3.19</v>
+        <v>3.52</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>28/05/2023 20:59</t>
+          <t>28/05/2023 20:51</t>
         </is>
       </c>
       <c r="R77" t="n">
-        <v>2.73</v>
+        <v>4.58</v>
       </c>
       <c r="S77" t="inlineStr">
         <is>
@@ -7528,16 +7528,16 @@
         </is>
       </c>
       <c r="T77" t="n">
-        <v>2.79</v>
+        <v>3.67</v>
       </c>
       <c r="U77" t="inlineStr">
         <is>
-          <t>28/05/2023 20:57</t>
+          <t>28/05/2023 20:51</t>
         </is>
       </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/corinthians-fluminense/00hiFPv0/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/internacional-bahia/jko4CNOI/</t>
         </is>
       </c>
     </row>
@@ -7565,7 +7565,7 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Internacional</t>
+          <t>Corinthians</t>
         </is>
       </c>
       <c r="G78" t="n">
@@ -7573,14 +7573,14 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Bahia</t>
+          <t>Fluminense</t>
         </is>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
       <c r="J78" t="n">
-        <v>1.75</v>
+        <v>2.79</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
@@ -7588,15 +7588,15 @@
         </is>
       </c>
       <c r="L78" t="n">
-        <v>2.12</v>
+        <v>2.81</v>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>28/05/2023 20:51</t>
+          <t>28/05/2023 20:59</t>
         </is>
       </c>
       <c r="N78" t="n">
-        <v>3.98</v>
+        <v>3.2</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
@@ -7604,15 +7604,15 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>3.52</v>
+        <v>3.19</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>28/05/2023 20:51</t>
+          <t>28/05/2023 20:59</t>
         </is>
       </c>
       <c r="R78" t="n">
-        <v>4.58</v>
+        <v>2.73</v>
       </c>
       <c r="S78" t="inlineStr">
         <is>
@@ -7620,16 +7620,16 @@
         </is>
       </c>
       <c r="T78" t="n">
-        <v>3.67</v>
+        <v>2.79</v>
       </c>
       <c r="U78" t="inlineStr">
         <is>
-          <t>28/05/2023 20:51</t>
+          <t>28/05/2023 20:57</t>
         </is>
       </c>
       <c r="V78" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/internacional-bahia/jko4CNOI/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/corinthians-fluminense/00hiFPv0/</t>
         </is>
       </c>
     </row>
@@ -7657,71 +7657,71 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Bragantino</t>
+          <t>Atletico-MG</t>
         </is>
       </c>
       <c r="G79" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Santos</t>
+          <t>Palmeiras</t>
         </is>
       </c>
       <c r="I79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J79" t="n">
-        <v>1.75</v>
+        <v>2.19</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>21/05/2023 09:12</t>
+          <t>22/05/2023 03:42</t>
         </is>
       </c>
       <c r="L79" t="n">
-        <v>1.78</v>
+        <v>2.29</v>
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>28/05/2023 23:27</t>
+          <t>28/05/2023 23:29</t>
         </is>
       </c>
       <c r="N79" t="n">
-        <v>3.71</v>
+        <v>3.38</v>
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>21/05/2023 09:12</t>
+          <t>22/05/2023 03:42</t>
         </is>
       </c>
       <c r="P79" t="n">
-        <v>3.52</v>
+        <v>3.3</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>28/05/2023 23:15</t>
+          <t>28/05/2023 23:29</t>
         </is>
       </c>
       <c r="R79" t="n">
-        <v>5.18</v>
+        <v>3.58</v>
       </c>
       <c r="S79" t="inlineStr">
         <is>
-          <t>21/05/2023 09:12</t>
+          <t>22/05/2023 03:42</t>
         </is>
       </c>
       <c r="T79" t="n">
-        <v>5.46</v>
+        <v>3.43</v>
       </c>
       <c r="U79" t="inlineStr">
         <is>
-          <t>28/05/2023 23:27</t>
+          <t>28/05/2023 23:21</t>
         </is>
       </c>
       <c r="V79" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/bragantino-santos/rPsdEqf6/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/atletico-mg-palmeiras/MFt0D39C/</t>
         </is>
       </c>
     </row>
@@ -7749,71 +7749,71 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Atletico-MG</t>
+          <t>Bragantino</t>
         </is>
       </c>
       <c r="G80" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Palmeiras</t>
+          <t>Santos</t>
         </is>
       </c>
       <c r="I80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J80" t="n">
-        <v>2.19</v>
+        <v>1.75</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>22/05/2023 03:42</t>
+          <t>21/05/2023 09:12</t>
         </is>
       </c>
       <c r="L80" t="n">
-        <v>2.29</v>
+        <v>1.78</v>
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>28/05/2023 23:29</t>
+          <t>28/05/2023 23:27</t>
         </is>
       </c>
       <c r="N80" t="n">
-        <v>3.38</v>
+        <v>3.71</v>
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>22/05/2023 03:42</t>
+          <t>21/05/2023 09:12</t>
         </is>
       </c>
       <c r="P80" t="n">
-        <v>3.3</v>
+        <v>3.52</v>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>28/05/2023 23:29</t>
+          <t>28/05/2023 23:15</t>
         </is>
       </c>
       <c r="R80" t="n">
-        <v>3.58</v>
+        <v>5.18</v>
       </c>
       <c r="S80" t="inlineStr">
         <is>
-          <t>22/05/2023 03:42</t>
+          <t>21/05/2023 09:12</t>
         </is>
       </c>
       <c r="T80" t="n">
-        <v>3.43</v>
+        <v>5.46</v>
       </c>
       <c r="U80" t="inlineStr">
         <is>
-          <t>28/05/2023 23:21</t>
+          <t>28/05/2023 23:27</t>
         </is>
       </c>
       <c r="V80" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/atletico-mg-palmeiras/MFt0D39C/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/bragantino-santos/rPsdEqf6/</t>
         </is>
       </c>
     </row>
@@ -8577,71 +8577,71 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Palmeiras</t>
+          <t>Goias</t>
         </is>
       </c>
       <c r="G89" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Coritiba</t>
+          <t>Cuiaba</t>
         </is>
       </c>
       <c r="I89" t="n">
         <v>1</v>
       </c>
       <c r="J89" t="n">
-        <v>1.22</v>
+        <v>2.12</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>28/05/2023 23:42</t>
+          <t>29/05/2023 06:42</t>
         </is>
       </c>
       <c r="L89" t="n">
-        <v>1.29</v>
+        <v>2.35</v>
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>04/06/2023 23:26</t>
+          <t>04/06/2023 23:12</t>
         </is>
       </c>
       <c r="N89" t="n">
-        <v>6.52</v>
+        <v>3.38</v>
       </c>
       <c r="O89" t="inlineStr">
         <is>
-          <t>28/05/2023 23:42</t>
+          <t>29/05/2023 06:42</t>
         </is>
       </c>
       <c r="P89" t="n">
-        <v>5.88</v>
+        <v>3.02</v>
       </c>
       <c r="Q89" t="inlineStr">
         <is>
-          <t>04/06/2023 23:26</t>
+          <t>04/06/2023 23:09</t>
         </is>
       </c>
       <c r="R89" t="n">
-        <v>12.83</v>
+        <v>3.69</v>
       </c>
       <c r="S89" t="inlineStr">
         <is>
-          <t>28/05/2023 23:42</t>
+          <t>29/05/2023 06:42</t>
         </is>
       </c>
       <c r="T89" t="n">
-        <v>11.94</v>
+        <v>3.68</v>
       </c>
       <c r="U89" t="inlineStr">
         <is>
-          <t>04/06/2023 23:26</t>
+          <t>04/06/2023 23:13</t>
         </is>
       </c>
       <c r="V89" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/palmeiras-coritiba/ObHLCiza/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/goias-cuiaba/dCFTAV4B/</t>
         </is>
       </c>
     </row>
@@ -8669,71 +8669,71 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Goias</t>
+          <t>Palmeiras</t>
         </is>
       </c>
       <c r="G90" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Cuiaba</t>
+          <t>Coritiba</t>
         </is>
       </c>
       <c r="I90" t="n">
         <v>1</v>
       </c>
       <c r="J90" t="n">
-        <v>2.12</v>
+        <v>1.22</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>29/05/2023 06:42</t>
+          <t>28/05/2023 23:42</t>
         </is>
       </c>
       <c r="L90" t="n">
-        <v>2.35</v>
+        <v>1.29</v>
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>04/06/2023 23:12</t>
+          <t>04/06/2023 23:26</t>
         </is>
       </c>
       <c r="N90" t="n">
-        <v>3.38</v>
+        <v>6.52</v>
       </c>
       <c r="O90" t="inlineStr">
         <is>
-          <t>29/05/2023 06:42</t>
+          <t>28/05/2023 23:42</t>
         </is>
       </c>
       <c r="P90" t="n">
-        <v>3.02</v>
+        <v>5.88</v>
       </c>
       <c r="Q90" t="inlineStr">
         <is>
-          <t>04/06/2023 23:09</t>
+          <t>04/06/2023 23:26</t>
         </is>
       </c>
       <c r="R90" t="n">
-        <v>3.69</v>
+        <v>12.83</v>
       </c>
       <c r="S90" t="inlineStr">
         <is>
-          <t>29/05/2023 06:42</t>
+          <t>28/05/2023 23:42</t>
         </is>
       </c>
       <c r="T90" t="n">
-        <v>3.68</v>
+        <v>11.94</v>
       </c>
       <c r="U90" t="inlineStr">
         <is>
-          <t>04/06/2023 23:13</t>
+          <t>04/06/2023 23:26</t>
         </is>
       </c>
       <c r="V90" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/goias-cuiaba/dCFTAV4B/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/palmeiras-coritiba/ObHLCiza/</t>
         </is>
       </c>
     </row>
@@ -9037,71 +9037,71 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Atletico-MG</t>
+          <t>Bahia</t>
         </is>
       </c>
       <c r="G94" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Bragantino</t>
+          <t>Cruzeiro</t>
         </is>
       </c>
       <c r="I94" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J94" t="n">
-        <v>1.62</v>
+        <v>2.29</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>05/06/2023 02:42</t>
+          <t>03/06/2023 23:42</t>
         </is>
       </c>
       <c r="L94" t="n">
-        <v>1.82</v>
+        <v>2.87</v>
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>10/06/2023 23:25</t>
+          <t>10/06/2023 23:28</t>
         </is>
       </c>
       <c r="N94" t="n">
-        <v>4.04</v>
+        <v>3.38</v>
       </c>
       <c r="O94" t="inlineStr">
         <is>
-          <t>05/06/2023 02:42</t>
+          <t>03/06/2023 23:42</t>
         </is>
       </c>
       <c r="P94" t="n">
-        <v>3.43</v>
+        <v>3.27</v>
       </c>
       <c r="Q94" t="inlineStr">
         <is>
-          <t>10/06/2023 23:25</t>
+          <t>10/06/2023 23:21</t>
         </is>
       </c>
       <c r="R94" t="n">
-        <v>5.9</v>
+        <v>3.27</v>
       </c>
       <c r="S94" t="inlineStr">
         <is>
-          <t>05/06/2023 02:42</t>
+          <t>03/06/2023 23:42</t>
         </is>
       </c>
       <c r="T94" t="n">
-        <v>5.3</v>
+        <v>2.68</v>
       </c>
       <c r="U94" t="inlineStr">
         <is>
-          <t>10/06/2023 23:29</t>
+          <t>10/06/2023 23:28</t>
         </is>
       </c>
       <c r="V94" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/atletico-mg-bragantino/r7du6tJq/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/bahia-cruzeiro/hxvWS3Qd/</t>
         </is>
       </c>
     </row>
@@ -9129,71 +9129,71 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Bahia</t>
+          <t>Atletico-MG</t>
         </is>
       </c>
       <c r="G95" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Cruzeiro</t>
+          <t>Bragantino</t>
         </is>
       </c>
       <c r="I95" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J95" t="n">
-        <v>2.29</v>
+        <v>1.62</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>03/06/2023 23:42</t>
+          <t>05/06/2023 02:42</t>
         </is>
       </c>
       <c r="L95" t="n">
-        <v>2.87</v>
+        <v>1.82</v>
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>10/06/2023 23:28</t>
+          <t>10/06/2023 23:25</t>
         </is>
       </c>
       <c r="N95" t="n">
-        <v>3.38</v>
+        <v>4.04</v>
       </c>
       <c r="O95" t="inlineStr">
         <is>
-          <t>03/06/2023 23:42</t>
+          <t>05/06/2023 02:42</t>
         </is>
       </c>
       <c r="P95" t="n">
-        <v>3.27</v>
+        <v>3.43</v>
       </c>
       <c r="Q95" t="inlineStr">
         <is>
-          <t>10/06/2023 23:21</t>
+          <t>10/06/2023 23:25</t>
         </is>
       </c>
       <c r="R95" t="n">
-        <v>3.27</v>
+        <v>5.9</v>
       </c>
       <c r="S95" t="inlineStr">
         <is>
-          <t>03/06/2023 23:42</t>
+          <t>05/06/2023 02:42</t>
         </is>
       </c>
       <c r="T95" t="n">
-        <v>2.68</v>
+        <v>5.3</v>
       </c>
       <c r="U95" t="inlineStr">
         <is>
-          <t>10/06/2023 23:28</t>
+          <t>10/06/2023 23:29</t>
         </is>
       </c>
       <c r="V95" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/bahia-cruzeiro/hxvWS3Qd/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/atletico-mg-bragantino/r7du6tJq/</t>
         </is>
       </c>
     </row>
@@ -9405,71 +9405,71 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Internacional</t>
+          <t>Sao Paulo</t>
         </is>
       </c>
       <c r="G98" t="n">
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>Palmeiras</t>
+        </is>
+      </c>
+      <c r="I98" t="n">
         <v>2</v>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>Vasco</t>
-        </is>
-      </c>
-      <c r="I98" t="n">
-        <v>1</v>
-      </c>
       <c r="J98" t="n">
-        <v>1.86</v>
+        <v>3.39</v>
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>06/06/2023 07:41</t>
+          <t>05/06/2023 02:42</t>
         </is>
       </c>
       <c r="L98" t="n">
-        <v>1.83</v>
+        <v>3.19</v>
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>11/06/2023 20:49</t>
+          <t>11/06/2023 20:58</t>
         </is>
       </c>
       <c r="N98" t="n">
-        <v>3.65</v>
+        <v>3.33</v>
       </c>
       <c r="O98" t="inlineStr">
         <is>
-          <t>06/06/2023 07:41</t>
+          <t>05/06/2023 02:42</t>
         </is>
       </c>
       <c r="P98" t="n">
-        <v>3.55</v>
+        <v>3.25</v>
       </c>
       <c r="Q98" t="inlineStr">
         <is>
-          <t>11/06/2023 20:49</t>
+          <t>11/06/2023 20:58</t>
         </is>
       </c>
       <c r="R98" t="n">
-        <v>4.58</v>
+        <v>2.29</v>
       </c>
       <c r="S98" t="inlineStr">
         <is>
-          <t>06/06/2023 07:41</t>
+          <t>05/06/2023 02:42</t>
         </is>
       </c>
       <c r="T98" t="n">
-        <v>4.98</v>
+        <v>2.47</v>
       </c>
       <c r="U98" t="inlineStr">
         <is>
-          <t>11/06/2023 20:57</t>
+          <t>11/06/2023 20:58</t>
         </is>
       </c>
       <c r="V98" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/internacional-vasco/xUeq50Yk/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/sao-paulo-palmeiras/AFu3PUJ4/</t>
         </is>
       </c>
     </row>
@@ -9497,71 +9497,71 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Sao Paulo</t>
+          <t>Internacional</t>
         </is>
       </c>
       <c r="G99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Palmeiras</t>
+          <t>Vasco</t>
         </is>
       </c>
       <c r="I99" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J99" t="n">
-        <v>3.39</v>
+        <v>1.86</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>05/06/2023 02:42</t>
+          <t>06/06/2023 07:41</t>
         </is>
       </c>
       <c r="L99" t="n">
-        <v>3.19</v>
+        <v>1.83</v>
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>11/06/2023 20:58</t>
+          <t>11/06/2023 20:49</t>
         </is>
       </c>
       <c r="N99" t="n">
-        <v>3.33</v>
+        <v>3.65</v>
       </c>
       <c r="O99" t="inlineStr">
         <is>
-          <t>05/06/2023 02:42</t>
+          <t>06/06/2023 07:41</t>
         </is>
       </c>
       <c r="P99" t="n">
-        <v>3.25</v>
+        <v>3.55</v>
       </c>
       <c r="Q99" t="inlineStr">
         <is>
-          <t>11/06/2023 20:58</t>
+          <t>11/06/2023 20:49</t>
         </is>
       </c>
       <c r="R99" t="n">
-        <v>2.29</v>
+        <v>4.58</v>
       </c>
       <c r="S99" t="inlineStr">
         <is>
-          <t>05/06/2023 02:42</t>
+          <t>06/06/2023 07:41</t>
         </is>
       </c>
       <c r="T99" t="n">
-        <v>2.47</v>
+        <v>4.98</v>
       </c>
       <c r="U99" t="inlineStr">
         <is>
-          <t>11/06/2023 20:58</t>
+          <t>11/06/2023 20:57</t>
         </is>
       </c>
       <c r="V99" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/sao-paulo-palmeiras/AFu3PUJ4/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/internacional-vasco/xUeq50Yk/</t>
         </is>
       </c>
     </row>
@@ -10049,7 +10049,7 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Fluminense</t>
+          <t>Bahia</t>
         </is>
       </c>
       <c r="G105" t="n">
@@ -10057,22 +10057,22 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Atletico-MG</t>
+          <t>Palmeiras</t>
         </is>
       </c>
       <c r="I105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J105" t="n">
-        <v>2.06</v>
+        <v>4.31</v>
       </c>
       <c r="K105" t="inlineStr">
         <is>
-          <t>14/06/2023 13:12</t>
+          <t>14/06/2023 10:42</t>
         </is>
       </c>
       <c r="L105" t="n">
-        <v>2.97</v>
+        <v>3.68</v>
       </c>
       <c r="M105" t="inlineStr">
         <is>
@@ -10080,15 +10080,15 @@
         </is>
       </c>
       <c r="N105" t="n">
-        <v>3.47</v>
+        <v>3.63</v>
       </c>
       <c r="O105" t="inlineStr">
         <is>
-          <t>14/06/2023 13:12</t>
+          <t>14/06/2023 10:42</t>
         </is>
       </c>
       <c r="P105" t="n">
-        <v>3.22</v>
+        <v>3.5</v>
       </c>
       <c r="Q105" t="inlineStr">
         <is>
@@ -10096,15 +10096,15 @@
         </is>
       </c>
       <c r="R105" t="n">
-        <v>3.74</v>
+        <v>1.9</v>
       </c>
       <c r="S105" t="inlineStr">
         <is>
-          <t>14/06/2023 13:12</t>
+          <t>14/06/2023 10:42</t>
         </is>
       </c>
       <c r="T105" t="n">
-        <v>2.63</v>
+        <v>2.12</v>
       </c>
       <c r="U105" t="inlineStr">
         <is>
@@ -10113,7 +10113,7 @@
       </c>
       <c r="V105" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/fluminense-atletico-mg/Q3iwRse9/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/bahia-palmeiras/6NCCusA2/</t>
         </is>
       </c>
     </row>
@@ -10141,7 +10141,7 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Bahia</t>
+          <t>Fluminense</t>
         </is>
       </c>
       <c r="G106" t="n">
@@ -10149,22 +10149,22 @@
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Palmeiras</t>
+          <t>Atletico-MG</t>
         </is>
       </c>
       <c r="I106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J106" t="n">
-        <v>4.31</v>
+        <v>2.06</v>
       </c>
       <c r="K106" t="inlineStr">
         <is>
-          <t>14/06/2023 10:42</t>
+          <t>14/06/2023 13:12</t>
         </is>
       </c>
       <c r="L106" t="n">
-        <v>3.68</v>
+        <v>2.97</v>
       </c>
       <c r="M106" t="inlineStr">
         <is>
@@ -10172,15 +10172,15 @@
         </is>
       </c>
       <c r="N106" t="n">
-        <v>3.63</v>
+        <v>3.47</v>
       </c>
       <c r="O106" t="inlineStr">
         <is>
-          <t>14/06/2023 10:42</t>
+          <t>14/06/2023 13:12</t>
         </is>
       </c>
       <c r="P106" t="n">
-        <v>3.5</v>
+        <v>3.22</v>
       </c>
       <c r="Q106" t="inlineStr">
         <is>
@@ -10188,15 +10188,15 @@
         </is>
       </c>
       <c r="R106" t="n">
-        <v>1.9</v>
+        <v>3.74</v>
       </c>
       <c r="S106" t="inlineStr">
         <is>
-          <t>14/06/2023 10:42</t>
+          <t>14/06/2023 13:12</t>
         </is>
       </c>
       <c r="T106" t="n">
-        <v>2.12</v>
+        <v>2.63</v>
       </c>
       <c r="U106" t="inlineStr">
         <is>
@@ -10205,7 +10205,7 @@
       </c>
       <c r="V106" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/bahia-palmeiras/6NCCusA2/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/fluminense-atletico-mg/Q3iwRse9/</t>
         </is>
       </c>
     </row>
@@ -10785,7 +10785,7 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>Fortaleza</t>
+          <t>Fluminense</t>
         </is>
       </c>
       <c r="G113" t="n">
@@ -10793,14 +10793,14 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Atletico-MG</t>
+          <t>Bahia</t>
         </is>
       </c>
       <c r="I113" t="n">
         <v>1</v>
       </c>
       <c r="J113" t="n">
-        <v>2.56</v>
+        <v>1.68</v>
       </c>
       <c r="K113" t="inlineStr">
         <is>
@@ -10808,15 +10808,15 @@
         </is>
       </c>
       <c r="L113" t="n">
-        <v>2.86</v>
+        <v>1.55</v>
       </c>
       <c r="M113" t="inlineStr">
         <is>
-          <t>24/06/2023 23:21</t>
+          <t>24/06/2023 23:25</t>
         </is>
       </c>
       <c r="N113" t="n">
-        <v>3.18</v>
+        <v>3.93</v>
       </c>
       <c r="O113" t="inlineStr">
         <is>
@@ -10824,15 +10824,15 @@
         </is>
       </c>
       <c r="P113" t="n">
-        <v>3.12</v>
+        <v>4.18</v>
       </c>
       <c r="Q113" t="inlineStr">
         <is>
-          <t>24/06/2023 23:28</t>
+          <t>24/06/2023 23:29</t>
         </is>
       </c>
       <c r="R113" t="n">
-        <v>3</v>
+        <v>5.18</v>
       </c>
       <c r="S113" t="inlineStr">
         <is>
@@ -10840,7 +10840,7 @@
         </is>
       </c>
       <c r="T113" t="n">
-        <v>2.81</v>
+        <v>6.78</v>
       </c>
       <c r="U113" t="inlineStr">
         <is>
@@ -10849,7 +10849,7 @@
       </c>
       <c r="V113" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/fortaleza-atletico-mg/vThmhKg8/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/fluminense-bahia/0M5LwLvF/</t>
         </is>
       </c>
     </row>
@@ -10877,7 +10877,7 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>Fluminense</t>
+          <t>Fortaleza</t>
         </is>
       </c>
       <c r="G114" t="n">
@@ -10885,14 +10885,14 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Bahia</t>
+          <t>Atletico-MG</t>
         </is>
       </c>
       <c r="I114" t="n">
         <v>1</v>
       </c>
       <c r="J114" t="n">
-        <v>1.68</v>
+        <v>2.56</v>
       </c>
       <c r="K114" t="inlineStr">
         <is>
@@ -10900,48 +10900,48 @@
         </is>
       </c>
       <c r="L114" t="n">
-        <v>1.55</v>
+        <v>2.86</v>
       </c>
       <c r="M114" t="inlineStr">
         <is>
+          <t>24/06/2023 23:21</t>
+        </is>
+      </c>
+      <c r="N114" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="O114" t="inlineStr">
+        <is>
+          <t>22/06/2023 02:42</t>
+        </is>
+      </c>
+      <c r="P114" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="Q114" t="inlineStr">
+        <is>
+          <t>24/06/2023 23:28</t>
+        </is>
+      </c>
+      <c r="R114" t="n">
+        <v>3</v>
+      </c>
+      <c r="S114" t="inlineStr">
+        <is>
+          <t>22/06/2023 02:42</t>
+        </is>
+      </c>
+      <c r="T114" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="U114" t="inlineStr">
+        <is>
           <t>24/06/2023 23:25</t>
         </is>
       </c>
-      <c r="N114" t="n">
-        <v>3.93</v>
-      </c>
-      <c r="O114" t="inlineStr">
-        <is>
-          <t>22/06/2023 02:42</t>
-        </is>
-      </c>
-      <c r="P114" t="n">
-        <v>4.18</v>
-      </c>
-      <c r="Q114" t="inlineStr">
-        <is>
-          <t>24/06/2023 23:29</t>
-        </is>
-      </c>
-      <c r="R114" t="n">
-        <v>5.18</v>
-      </c>
-      <c r="S114" t="inlineStr">
-        <is>
-          <t>22/06/2023 02:42</t>
-        </is>
-      </c>
-      <c r="T114" t="n">
-        <v>6.78</v>
-      </c>
-      <c r="U114" t="inlineStr">
-        <is>
-          <t>24/06/2023 23:25</t>
-        </is>
-      </c>
       <c r="V114" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/fluminense-bahia/0M5LwLvF/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/fortaleza-atletico-mg/vThmhKg8/</t>
         </is>
       </c>
     </row>
@@ -11245,7 +11245,7 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>Santos</t>
+          <t>Bragantino</t>
         </is>
       </c>
       <c r="G118" t="n">
@@ -11253,38 +11253,38 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Flamengo RJ</t>
+          <t>Goias</t>
         </is>
       </c>
       <c r="I118" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J118" t="n">
-        <v>3.96</v>
+        <v>1.43</v>
       </c>
       <c r="K118" t="inlineStr">
         <is>
-          <t>23/06/2023 02:42</t>
+          <t>18/06/2023 23:41</t>
         </is>
       </c>
       <c r="L118" t="n">
-        <v>3.48</v>
+        <v>1.43</v>
       </c>
       <c r="M118" t="inlineStr">
         <is>
-          <t>25/06/2023 23:29</t>
+          <t>25/06/2023 23:26</t>
         </is>
       </c>
       <c r="N118" t="n">
-        <v>3.4</v>
+        <v>4.8</v>
       </c>
       <c r="O118" t="inlineStr">
         <is>
-          <t>23/06/2023 02:42</t>
+          <t>18/06/2023 23:41</t>
         </is>
       </c>
       <c r="P118" t="n">
-        <v>3.21</v>
+        <v>4.79</v>
       </c>
       <c r="Q118" t="inlineStr">
         <is>
@@ -11292,15 +11292,15 @@
         </is>
       </c>
       <c r="R118" t="n">
-        <v>2.03</v>
+        <v>7.69</v>
       </c>
       <c r="S118" t="inlineStr">
         <is>
-          <t>23/06/2023 02:42</t>
+          <t>18/06/2023 23:41</t>
         </is>
       </c>
       <c r="T118" t="n">
-        <v>2.33</v>
+        <v>8.140000000000001</v>
       </c>
       <c r="U118" t="inlineStr">
         <is>
@@ -11309,7 +11309,7 @@
       </c>
       <c r="V118" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/santos-flamengo-rj/AeeeXIHr/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/bragantino-goias/hKp0WxXl/</t>
         </is>
       </c>
     </row>
@@ -11337,71 +11337,71 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>Bragantino</t>
+          <t>America MG</t>
         </is>
       </c>
       <c r="G119" t="n">
+        <v>1</v>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>Internacional</t>
+        </is>
+      </c>
+      <c r="I119" t="n">
         <v>2</v>
       </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>Goias</t>
-        </is>
-      </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
       <c r="J119" t="n">
-        <v>1.43</v>
+        <v>2.43</v>
       </c>
       <c r="K119" t="inlineStr">
         <is>
-          <t>18/06/2023 23:41</t>
+          <t>23/06/2023 01:11</t>
         </is>
       </c>
       <c r="L119" t="n">
-        <v>1.43</v>
+        <v>2.01</v>
       </c>
       <c r="M119" t="inlineStr">
         <is>
-          <t>25/06/2023 23:26</t>
+          <t>25/06/2023 23:25</t>
         </is>
       </c>
       <c r="N119" t="n">
-        <v>4.8</v>
+        <v>3.32</v>
       </c>
       <c r="O119" t="inlineStr">
         <is>
-          <t>18/06/2023 23:41</t>
+          <t>23/06/2023 01:11</t>
         </is>
       </c>
       <c r="P119" t="n">
-        <v>4.79</v>
+        <v>3.46</v>
       </c>
       <c r="Q119" t="inlineStr">
         <is>
+          <t>25/06/2023 23:27</t>
+        </is>
+      </c>
+      <c r="R119" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="S119" t="inlineStr">
+        <is>
+          <t>23/06/2023 01:11</t>
+        </is>
+      </c>
+      <c r="T119" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="U119" t="inlineStr">
+        <is>
           <t>25/06/2023 23:28</t>
         </is>
       </c>
-      <c r="R119" t="n">
-        <v>7.69</v>
-      </c>
-      <c r="S119" t="inlineStr">
-        <is>
-          <t>18/06/2023 23:41</t>
-        </is>
-      </c>
-      <c r="T119" t="n">
-        <v>8.140000000000001</v>
-      </c>
-      <c r="U119" t="inlineStr">
-        <is>
-          <t>25/06/2023 23:28</t>
-        </is>
-      </c>
       <c r="V119" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/bragantino-goias/hKp0WxXl/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/america-mg-internacional/IJiiiv9E/</t>
         </is>
       </c>
     </row>
@@ -11429,62 +11429,62 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>America MG</t>
+          <t>Santos</t>
         </is>
       </c>
       <c r="G120" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Internacional</t>
+          <t>Flamengo RJ</t>
         </is>
       </c>
       <c r="I120" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J120" t="n">
-        <v>2.43</v>
+        <v>3.96</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>
-          <t>23/06/2023 01:11</t>
+          <t>23/06/2023 02:42</t>
         </is>
       </c>
       <c r="L120" t="n">
-        <v>2.01</v>
+        <v>3.48</v>
       </c>
       <c r="M120" t="inlineStr">
         <is>
-          <t>25/06/2023 23:25</t>
+          <t>25/06/2023 23:29</t>
         </is>
       </c>
       <c r="N120" t="n">
-        <v>3.32</v>
+        <v>3.4</v>
       </c>
       <c r="O120" t="inlineStr">
         <is>
-          <t>23/06/2023 01:11</t>
+          <t>23/06/2023 02:42</t>
         </is>
       </c>
       <c r="P120" t="n">
-        <v>3.46</v>
+        <v>3.21</v>
       </c>
       <c r="Q120" t="inlineStr">
         <is>
-          <t>25/06/2023 23:27</t>
+          <t>25/06/2023 23:28</t>
         </is>
       </c>
       <c r="R120" t="n">
-        <v>3.13</v>
+        <v>2.03</v>
       </c>
       <c r="S120" t="inlineStr">
         <is>
-          <t>23/06/2023 01:11</t>
+          <t>23/06/2023 02:42</t>
         </is>
       </c>
       <c r="T120" t="n">
-        <v>4.14</v>
+        <v>2.33</v>
       </c>
       <c r="U120" t="inlineStr">
         <is>
@@ -11493,7 +11493,7 @@
       </c>
       <c r="V120" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/america-mg-internacional/IJiiiv9E/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/santos-flamengo-rj/AeeeXIHr/</t>
         </is>
       </c>
     </row>
@@ -12073,7 +12073,7 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>Botafogo RJ</t>
+          <t>Atletico-MG</t>
         </is>
       </c>
       <c r="G127" t="n">
@@ -12081,63 +12081,63 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Vasco</t>
+          <t>America MG</t>
         </is>
       </c>
       <c r="I127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J127" t="n">
-        <v>1.75</v>
+        <v>1.37</v>
       </c>
       <c r="K127" t="inlineStr">
         <is>
-          <t>27/06/2023 02:11</t>
+          <t>25/06/2023 23:41</t>
         </is>
       </c>
       <c r="L127" t="n">
-        <v>1.97</v>
+        <v>1.54</v>
       </c>
       <c r="M127" t="inlineStr">
         <is>
-          <t>02/07/2023 20:58</t>
+          <t>02/07/2023 20:53</t>
         </is>
       </c>
       <c r="N127" t="n">
-        <v>3.68</v>
+        <v>5.28</v>
       </c>
       <c r="O127" t="inlineStr">
         <is>
-          <t>27/06/2023 02:11</t>
+          <t>25/06/2023 23:41</t>
         </is>
       </c>
       <c r="P127" t="n">
-        <v>3.41</v>
+        <v>4.01</v>
       </c>
       <c r="Q127" t="inlineStr">
         <is>
-          <t>02/07/2023 20:58</t>
+          <t>02/07/2023 20:54</t>
         </is>
       </c>
       <c r="R127" t="n">
-        <v>5.27</v>
+        <v>8.81</v>
       </c>
       <c r="S127" t="inlineStr">
         <is>
-          <t>27/06/2023 02:11</t>
+          <t>25/06/2023 23:41</t>
         </is>
       </c>
       <c r="T127" t="n">
-        <v>4.37</v>
+        <v>7.6</v>
       </c>
       <c r="U127" t="inlineStr">
         <is>
-          <t>02/07/2023 20:58</t>
+          <t>02/07/2023 20:54</t>
         </is>
       </c>
       <c r="V127" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/botafogo-rj-vasco/QqeakIwR/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/atletico-mg-america-mg/IszvrzW0/</t>
         </is>
       </c>
     </row>
@@ -12165,7 +12165,7 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>Atletico-MG</t>
+          <t>Botafogo RJ</t>
         </is>
       </c>
       <c r="G128" t="n">
@@ -12173,63 +12173,63 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>America MG</t>
+          <t>Vasco</t>
         </is>
       </c>
       <c r="I128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J128" t="n">
-        <v>1.37</v>
+        <v>1.75</v>
       </c>
       <c r="K128" t="inlineStr">
         <is>
-          <t>25/06/2023 23:41</t>
+          <t>27/06/2023 02:11</t>
         </is>
       </c>
       <c r="L128" t="n">
-        <v>1.54</v>
+        <v>1.97</v>
       </c>
       <c r="M128" t="inlineStr">
         <is>
-          <t>02/07/2023 20:53</t>
+          <t>02/07/2023 20:58</t>
         </is>
       </c>
       <c r="N128" t="n">
-        <v>5.28</v>
+        <v>3.68</v>
       </c>
       <c r="O128" t="inlineStr">
         <is>
-          <t>25/06/2023 23:41</t>
+          <t>27/06/2023 02:11</t>
         </is>
       </c>
       <c r="P128" t="n">
-        <v>4.01</v>
+        <v>3.41</v>
       </c>
       <c r="Q128" t="inlineStr">
         <is>
-          <t>02/07/2023 20:54</t>
+          <t>02/07/2023 20:58</t>
         </is>
       </c>
       <c r="R128" t="n">
-        <v>8.81</v>
+        <v>5.27</v>
       </c>
       <c r="S128" t="inlineStr">
         <is>
-          <t>25/06/2023 23:41</t>
+          <t>27/06/2023 02:11</t>
         </is>
       </c>
       <c r="T128" t="n">
-        <v>7.6</v>
+        <v>4.37</v>
       </c>
       <c r="U128" t="inlineStr">
         <is>
-          <t>02/07/2023 20:54</t>
+          <t>02/07/2023 20:58</t>
         </is>
       </c>
       <c r="V128" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/atletico-mg-america-mg/IszvrzW0/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/botafogo-rj-vasco/QqeakIwR/</t>
         </is>
       </c>
     </row>
@@ -13269,71 +13269,71 @@
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>Fortaleza</t>
+          <t>Gremio</t>
         </is>
       </c>
       <c r="G140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Athletico-PR</t>
+          <t>Botafogo RJ</t>
         </is>
       </c>
       <c r="I140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J140" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>02/07/2023 21:12</t>
+        </is>
+      </c>
+      <c r="L140" t="n">
         <v>1.85</v>
       </c>
-      <c r="K140" t="inlineStr">
+      <c r="M140" t="inlineStr">
+        <is>
+          <t>09/07/2023 23:28</t>
+        </is>
+      </c>
+      <c r="N140" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="O140" t="inlineStr">
         <is>
           <t>02/07/2023 21:12</t>
         </is>
       </c>
-      <c r="L140" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="M140" t="inlineStr">
-        <is>
-          <t>09/07/2023 23:26</t>
-        </is>
-      </c>
-      <c r="N140" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="O140" t="inlineStr">
+      <c r="P140" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="Q140" t="inlineStr">
+        <is>
+          <t>09/07/2023 23:06</t>
+        </is>
+      </c>
+      <c r="R140" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="S140" t="inlineStr">
         <is>
           <t>02/07/2023 21:12</t>
         </is>
       </c>
-      <c r="P140" t="n">
-        <v>4.11</v>
-      </c>
-      <c r="Q140" t="inlineStr">
-        <is>
-          <t>09/07/2023 23:26</t>
-        </is>
-      </c>
-      <c r="R140" t="n">
-        <v>4.51</v>
-      </c>
-      <c r="S140" t="inlineStr">
-        <is>
-          <t>02/07/2023 21:12</t>
-        </is>
-      </c>
       <c r="T140" t="n">
-        <v>7.49</v>
+        <v>4.76</v>
       </c>
       <c r="U140" t="inlineStr">
         <is>
-          <t>09/07/2023 23:26</t>
+          <t>09/07/2023 23:04</t>
         </is>
       </c>
       <c r="V140" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/fortaleza-athletico-pr/Q54y1lxt/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/gremio-botafogo-rj/ny3PgXUC/</t>
         </is>
       </c>
     </row>
@@ -13361,22 +13361,22 @@
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>Gremio</t>
+          <t>Fortaleza</t>
         </is>
       </c>
       <c r="G141" t="n">
+        <v>1</v>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>Athletico-PR</t>
+        </is>
+      </c>
+      <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>Botafogo RJ</t>
-        </is>
-      </c>
-      <c r="I141" t="n">
-        <v>2</v>
-      </c>
       <c r="J141" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="K141" t="inlineStr">
         <is>
@@ -13384,15 +13384,15 @@
         </is>
       </c>
       <c r="L141" t="n">
-        <v>1.85</v>
+        <v>1.53</v>
       </c>
       <c r="M141" t="inlineStr">
         <is>
-          <t>09/07/2023 23:28</t>
+          <t>09/07/2023 23:26</t>
         </is>
       </c>
       <c r="N141" t="n">
-        <v>3.66</v>
+        <v>3.6</v>
       </c>
       <c r="O141" t="inlineStr">
         <is>
@@ -13400,15 +13400,15 @@
         </is>
       </c>
       <c r="P141" t="n">
-        <v>3.69</v>
+        <v>4.11</v>
       </c>
       <c r="Q141" t="inlineStr">
         <is>
-          <t>09/07/2023 23:06</t>
+          <t>09/07/2023 23:26</t>
         </is>
       </c>
       <c r="R141" t="n">
-        <v>4.27</v>
+        <v>4.51</v>
       </c>
       <c r="S141" t="inlineStr">
         <is>
@@ -13416,16 +13416,16 @@
         </is>
       </c>
       <c r="T141" t="n">
-        <v>4.76</v>
+        <v>7.49</v>
       </c>
       <c r="U141" t="inlineStr">
         <is>
-          <t>09/07/2023 23:04</t>
+          <t>09/07/2023 23:26</t>
         </is>
       </c>
       <c r="V141" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/gremio-botafogo-rj/ny3PgXUC/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/fortaleza-athletico-pr/Q54y1lxt/</t>
         </is>
       </c>
     </row>
@@ -20077,22 +20077,22 @@
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>Corinthians</t>
+          <t>Fluminense</t>
         </is>
       </c>
       <c r="G214" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>Palmeiras</t>
+          <t>Fortaleza</t>
         </is>
       </c>
       <c r="I214" t="n">
         <v>0</v>
       </c>
       <c r="J214" t="n">
-        <v>3.34</v>
+        <v>1.84</v>
       </c>
       <c r="K214" t="inlineStr">
         <is>
@@ -20100,15 +20100,15 @@
         </is>
       </c>
       <c r="L214" t="n">
-        <v>4.92</v>
+        <v>1.95</v>
       </c>
       <c r="M214" t="inlineStr">
         <is>
-          <t>03/09/2023 20:58</t>
+          <t>03/09/2023 20:56</t>
         </is>
       </c>
       <c r="N214" t="n">
-        <v>3.13</v>
+        <v>3.66</v>
       </c>
       <c r="O214" t="inlineStr">
         <is>
@@ -20116,32 +20116,32 @@
         </is>
       </c>
       <c r="P214" t="n">
-        <v>3.25</v>
+        <v>3.45</v>
       </c>
       <c r="Q214" t="inlineStr">
         <is>
+          <t>03/09/2023 20:55</t>
+        </is>
+      </c>
+      <c r="R214" t="n">
+        <v>4.62</v>
+      </c>
+      <c r="S214" t="inlineStr">
+        <is>
+          <t>27/08/2023 22:42</t>
+        </is>
+      </c>
+      <c r="T214" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="U214" t="inlineStr">
+        <is>
           <t>03/09/2023 20:56</t>
         </is>
       </c>
-      <c r="R214" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="S214" t="inlineStr">
-        <is>
-          <t>27/08/2023 22:42</t>
-        </is>
-      </c>
-      <c r="T214" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="U214" t="inlineStr">
-        <is>
-          <t>03/09/2023 20:56</t>
-        </is>
-      </c>
       <c r="V214" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/corinthians-palmeiras/x2ebjDtB/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/fluminense-fortaleza/jogngFdh/</t>
         </is>
       </c>
     </row>
@@ -20169,22 +20169,22 @@
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>Fluminense</t>
+          <t>Corinthians</t>
         </is>
       </c>
       <c r="G215" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>Fortaleza</t>
+          <t>Palmeiras</t>
         </is>
       </c>
       <c r="I215" t="n">
         <v>0</v>
       </c>
       <c r="J215" t="n">
-        <v>1.84</v>
+        <v>3.34</v>
       </c>
       <c r="K215" t="inlineStr">
         <is>
@@ -20192,39 +20192,39 @@
         </is>
       </c>
       <c r="L215" t="n">
-        <v>1.95</v>
+        <v>4.92</v>
       </c>
       <c r="M215" t="inlineStr">
         <is>
+          <t>03/09/2023 20:58</t>
+        </is>
+      </c>
+      <c r="N215" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="O215" t="inlineStr">
+        <is>
+          <t>27/08/2023 22:42</t>
+        </is>
+      </c>
+      <c r="P215" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q215" t="inlineStr">
+        <is>
           <t>03/09/2023 20:56</t>
         </is>
       </c>
-      <c r="N215" t="n">
-        <v>3.66</v>
-      </c>
-      <c r="O215" t="inlineStr">
+      <c r="R215" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="S215" t="inlineStr">
         <is>
           <t>27/08/2023 22:42</t>
         </is>
       </c>
-      <c r="P215" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="Q215" t="inlineStr">
-        <is>
-          <t>03/09/2023 20:55</t>
-        </is>
-      </c>
-      <c r="R215" t="n">
-        <v>4.62</v>
-      </c>
-      <c r="S215" t="inlineStr">
-        <is>
-          <t>27/08/2023 22:42</t>
-        </is>
-      </c>
       <c r="T215" t="n">
-        <v>4.41</v>
+        <v>1.93</v>
       </c>
       <c r="U215" t="inlineStr">
         <is>
@@ -20233,7 +20233,7 @@
       </c>
       <c r="V215" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/fluminense-fortaleza/jogngFdh/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/corinthians-palmeiras/x2ebjDtB/</t>
         </is>
       </c>
     </row>
@@ -20261,71 +20261,71 @@
       </c>
       <c r="F216" t="inlineStr">
         <is>
-          <t>Cruzeiro</t>
+          <t>Bahia</t>
         </is>
       </c>
       <c r="G216" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>Bragantino</t>
+          <t>Vasco</t>
         </is>
       </c>
       <c r="I216" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J216" t="n">
-        <v>2.26</v>
+        <v>2.02</v>
       </c>
       <c r="K216" t="inlineStr">
         <is>
-          <t>27/08/2023 23:12</t>
+          <t>27/08/2023 22:42</t>
         </is>
       </c>
       <c r="L216" t="n">
-        <v>2.47</v>
+        <v>2.11</v>
       </c>
       <c r="M216" t="inlineStr">
         <is>
-          <t>03/09/2023 23:19</t>
+          <t>03/09/2023 23:26</t>
         </is>
       </c>
       <c r="N216" t="n">
-        <v>3.32</v>
+        <v>3.43</v>
       </c>
       <c r="O216" t="inlineStr">
         <is>
-          <t>27/08/2023 23:12</t>
+          <t>27/08/2023 22:42</t>
         </is>
       </c>
       <c r="P216" t="n">
-        <v>3.14</v>
+        <v>3.33</v>
       </c>
       <c r="Q216" t="inlineStr">
         <is>
-          <t>03/09/2023 23:09</t>
+          <t>03/09/2023 23:29</t>
         </is>
       </c>
       <c r="R216" t="n">
-        <v>3.47</v>
+        <v>4.04</v>
       </c>
       <c r="S216" t="inlineStr">
         <is>
-          <t>27/08/2023 23:12</t>
+          <t>27/08/2023 22:42</t>
         </is>
       </c>
       <c r="T216" t="n">
-        <v>3.29</v>
+        <v>3.95</v>
       </c>
       <c r="U216" t="inlineStr">
         <is>
-          <t>03/09/2023 23:07</t>
+          <t>03/09/2023 23:29</t>
         </is>
       </c>
       <c r="V216" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/cruzeiro-bragantino/YTl7liBN/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/bahia-vasco/4lJL7EBo/</t>
         </is>
       </c>
     </row>
@@ -20353,71 +20353,71 @@
       </c>
       <c r="F217" t="inlineStr">
         <is>
-          <t>Bahia</t>
+          <t>America MG</t>
         </is>
       </c>
       <c r="G217" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>Vasco</t>
+          <t>Santos</t>
         </is>
       </c>
       <c r="I217" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J217" t="n">
-        <v>2.02</v>
+        <v>2.1</v>
       </c>
       <c r="K217" t="inlineStr">
         <is>
-          <t>27/08/2023 22:42</t>
+          <t>27/08/2023 20:12</t>
         </is>
       </c>
       <c r="L217" t="n">
-        <v>2.11</v>
+        <v>2.21</v>
       </c>
       <c r="M217" t="inlineStr">
         <is>
-          <t>03/09/2023 23:26</t>
+          <t>03/09/2023 23:28</t>
         </is>
       </c>
       <c r="N217" t="n">
-        <v>3.43</v>
+        <v>3.35</v>
       </c>
       <c r="O217" t="inlineStr">
         <is>
-          <t>27/08/2023 22:42</t>
+          <t>27/08/2023 20:12</t>
         </is>
       </c>
       <c r="P217" t="n">
-        <v>3.33</v>
+        <v>3.2</v>
       </c>
       <c r="Q217" t="inlineStr">
         <is>
-          <t>03/09/2023 23:29</t>
+          <t>03/09/2023 23:28</t>
         </is>
       </c>
       <c r="R217" t="n">
-        <v>4.04</v>
+        <v>3.88</v>
       </c>
       <c r="S217" t="inlineStr">
         <is>
-          <t>27/08/2023 22:42</t>
+          <t>27/08/2023 20:12</t>
         </is>
       </c>
       <c r="T217" t="n">
-        <v>3.95</v>
+        <v>3.8</v>
       </c>
       <c r="U217" t="inlineStr">
         <is>
-          <t>03/09/2023 23:29</t>
+          <t>03/09/2023 23:28</t>
         </is>
       </c>
       <c r="V217" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/bahia-vasco/4lJL7EBo/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/america-mg-santos/ruIP6YQi/</t>
         </is>
       </c>
     </row>
@@ -20445,71 +20445,71 @@
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t>America MG</t>
+          <t>Cruzeiro</t>
         </is>
       </c>
       <c r="G218" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>Santos</t>
+          <t>Bragantino</t>
         </is>
       </c>
       <c r="I218" t="n">
         <v>0</v>
       </c>
       <c r="J218" t="n">
-        <v>2.1</v>
+        <v>2.26</v>
       </c>
       <c r="K218" t="inlineStr">
         <is>
-          <t>27/08/2023 20:12</t>
+          <t>27/08/2023 23:12</t>
         </is>
       </c>
       <c r="L218" t="n">
-        <v>2.21</v>
+        <v>2.47</v>
       </c>
       <c r="M218" t="inlineStr">
         <is>
-          <t>03/09/2023 23:28</t>
+          <t>03/09/2023 23:19</t>
         </is>
       </c>
       <c r="N218" t="n">
-        <v>3.35</v>
+        <v>3.32</v>
       </c>
       <c r="O218" t="inlineStr">
         <is>
-          <t>27/08/2023 20:12</t>
+          <t>27/08/2023 23:12</t>
         </is>
       </c>
       <c r="P218" t="n">
-        <v>3.2</v>
+        <v>3.14</v>
       </c>
       <c r="Q218" t="inlineStr">
         <is>
-          <t>03/09/2023 23:28</t>
+          <t>03/09/2023 23:09</t>
         </is>
       </c>
       <c r="R218" t="n">
-        <v>3.88</v>
+        <v>3.47</v>
       </c>
       <c r="S218" t="inlineStr">
         <is>
-          <t>27/08/2023 20:12</t>
+          <t>27/08/2023 23:12</t>
         </is>
       </c>
       <c r="T218" t="n">
-        <v>3.8</v>
+        <v>3.29</v>
       </c>
       <c r="U218" t="inlineStr">
         <is>
-          <t>03/09/2023 23:28</t>
+          <t>03/09/2023 23:07</t>
         </is>
       </c>
       <c r="V218" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/america-mg-santos/ruIP6YQi/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/cruzeiro-bragantino/YTl7liBN/</t>
         </is>
       </c>
     </row>
@@ -23113,71 +23113,71 @@
       </c>
       <c r="F247" t="inlineStr">
         <is>
-          <t>Coritiba</t>
+          <t>Santos</t>
         </is>
       </c>
       <c r="G247" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H247" t="inlineStr">
         <is>
-          <t>Athletico-PR</t>
+          <t>Vasco</t>
         </is>
       </c>
       <c r="I247" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J247" t="n">
-        <v>3.07</v>
+        <v>2.25</v>
       </c>
       <c r="K247" t="inlineStr">
         <is>
-          <t>27/09/2023 23:12</t>
+          <t>26/09/2023 00:12</t>
         </is>
       </c>
       <c r="L247" t="n">
-        <v>3.68</v>
+        <v>2.6</v>
       </c>
       <c r="M247" t="inlineStr">
         <is>
-          <t>01/10/2023 20:56</t>
+          <t>01/10/2023 20:30</t>
         </is>
       </c>
       <c r="N247" t="n">
-        <v>3.23</v>
+        <v>3.29</v>
       </c>
       <c r="O247" t="inlineStr">
         <is>
-          <t>27/09/2023 23:12</t>
+          <t>26/09/2023 00:12</t>
         </is>
       </c>
       <c r="P247" t="n">
-        <v>3.26</v>
+        <v>3.11</v>
       </c>
       <c r="Q247" t="inlineStr">
         <is>
-          <t>01/10/2023 20:29</t>
+          <t>01/10/2023 20:57</t>
         </is>
       </c>
       <c r="R247" t="n">
-        <v>2.48</v>
+        <v>3.44</v>
       </c>
       <c r="S247" t="inlineStr">
         <is>
-          <t>27/09/2023 23:12</t>
+          <t>26/09/2023 00:12</t>
         </is>
       </c>
       <c r="T247" t="n">
-        <v>2.22</v>
+        <v>3.11</v>
       </c>
       <c r="U247" t="inlineStr">
         <is>
-          <t>01/10/2023 20:56</t>
+          <t>01/10/2023 20:30</t>
         </is>
       </c>
       <c r="V247" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/coritiba-athletico-pr/0xpv8x8D/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/santos-vasco/IghNBK8l/</t>
         </is>
       </c>
     </row>
@@ -23297,71 +23297,71 @@
       </c>
       <c r="F249" t="inlineStr">
         <is>
-          <t>Santos</t>
+          <t>Coritiba</t>
         </is>
       </c>
       <c r="G249" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H249" t="inlineStr">
         <is>
-          <t>Vasco</t>
+          <t>Athletico-PR</t>
         </is>
       </c>
       <c r="I249" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J249" t="n">
-        <v>2.25</v>
+        <v>3.07</v>
       </c>
       <c r="K249" t="inlineStr">
         <is>
-          <t>26/09/2023 00:12</t>
+          <t>27/09/2023 23:12</t>
         </is>
       </c>
       <c r="L249" t="n">
-        <v>2.6</v>
+        <v>3.68</v>
       </c>
       <c r="M249" t="inlineStr">
         <is>
-          <t>01/10/2023 20:30</t>
+          <t>01/10/2023 20:56</t>
         </is>
       </c>
       <c r="N249" t="n">
-        <v>3.29</v>
+        <v>3.23</v>
       </c>
       <c r="O249" t="inlineStr">
         <is>
-          <t>26/09/2023 00:12</t>
+          <t>27/09/2023 23:12</t>
         </is>
       </c>
       <c r="P249" t="n">
-        <v>3.11</v>
+        <v>3.26</v>
       </c>
       <c r="Q249" t="inlineStr">
         <is>
-          <t>01/10/2023 20:57</t>
+          <t>01/10/2023 20:29</t>
         </is>
       </c>
       <c r="R249" t="n">
-        <v>3.44</v>
+        <v>2.48</v>
       </c>
       <c r="S249" t="inlineStr">
         <is>
-          <t>26/09/2023 00:12</t>
+          <t>27/09/2023 23:12</t>
         </is>
       </c>
       <c r="T249" t="n">
-        <v>3.11</v>
+        <v>2.22</v>
       </c>
       <c r="U249" t="inlineStr">
         <is>
-          <t>01/10/2023 20:30</t>
+          <t>01/10/2023 20:56</t>
         </is>
       </c>
       <c r="V249" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/santos-vasco/IghNBK8l/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/coritiba-athletico-pr/0xpv8x8D/</t>
         </is>
       </c>
     </row>
@@ -23822,6 +23822,282 @@
       <c r="V254" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/brazil/serie-a/corinthians-flamengo-rj/IDG4Ochf/</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="1" t="n">
+        <v>254</v>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>brazil</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>serie-a</t>
+        </is>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E255" s="2" t="n">
+        <v>45207.875</v>
+      </c>
+      <c r="F255" t="inlineStr">
+        <is>
+          <t>Internacional</t>
+        </is>
+      </c>
+      <c r="G255" t="n">
+        <v>3</v>
+      </c>
+      <c r="H255" t="inlineStr">
+        <is>
+          <t>Gremio</t>
+        </is>
+      </c>
+      <c r="I255" t="n">
+        <v>2</v>
+      </c>
+      <c r="J255" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>01/10/2023 01:12</t>
+        </is>
+      </c>
+      <c r="L255" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="M255" t="inlineStr">
+        <is>
+          <t>08/10/2023 20:56</t>
+        </is>
+      </c>
+      <c r="N255" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="O255" t="inlineStr">
+        <is>
+          <t>01/10/2023 01:12</t>
+        </is>
+      </c>
+      <c r="P255" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="Q255" t="inlineStr">
+        <is>
+          <t>08/10/2023 20:51</t>
+        </is>
+      </c>
+      <c r="R255" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="S255" t="inlineStr">
+        <is>
+          <t>01/10/2023 01:12</t>
+        </is>
+      </c>
+      <c r="T255" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="U255" t="inlineStr">
+        <is>
+          <t>08/10/2023 20:56</t>
+        </is>
+      </c>
+      <c r="V255" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/internacional-gremio/829HLexD/</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="1" t="n">
+        <v>255</v>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>brazil</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>serie-a</t>
+        </is>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E256" s="2" t="n">
+        <v>45207.875</v>
+      </c>
+      <c r="F256" t="inlineStr">
+        <is>
+          <t>Fluminense</t>
+        </is>
+      </c>
+      <c r="G256" t="n">
+        <v>0</v>
+      </c>
+      <c r="H256" t="inlineStr">
+        <is>
+          <t>Botafogo RJ</t>
+        </is>
+      </c>
+      <c r="I256" t="n">
+        <v>2</v>
+      </c>
+      <c r="J256" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>03/10/2023 00:13</t>
+        </is>
+      </c>
+      <c r="L256" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="M256" t="inlineStr">
+        <is>
+          <t>08/10/2023 20:59</t>
+        </is>
+      </c>
+      <c r="N256" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="O256" t="inlineStr">
+        <is>
+          <t>03/10/2023 00:13</t>
+        </is>
+      </c>
+      <c r="P256" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="Q256" t="inlineStr">
+        <is>
+          <t>08/10/2023 20:59</t>
+        </is>
+      </c>
+      <c r="R256" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="S256" t="inlineStr">
+        <is>
+          <t>03/10/2023 00:13</t>
+        </is>
+      </c>
+      <c r="T256" t="n">
+        <v>4.29</v>
+      </c>
+      <c r="U256" t="inlineStr">
+        <is>
+          <t>08/10/2023 20:59</t>
+        </is>
+      </c>
+      <c r="V256" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/fluminense-botafogo-rj/A7RUUaFQ/</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="1" t="n">
+        <v>256</v>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>brazil</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>serie-a</t>
+        </is>
+      </c>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E257" s="2" t="n">
+        <v>45207.875</v>
+      </c>
+      <c r="F257" t="inlineStr">
+        <is>
+          <t>Palmeiras</t>
+        </is>
+      </c>
+      <c r="G257" t="n">
+        <v>1</v>
+      </c>
+      <c r="H257" t="inlineStr">
+        <is>
+          <t>Santos</t>
+        </is>
+      </c>
+      <c r="I257" t="n">
+        <v>2</v>
+      </c>
+      <c r="J257" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>01/10/2023 22:42</t>
+        </is>
+      </c>
+      <c r="L257" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="M257" t="inlineStr">
+        <is>
+          <t>08/10/2023 20:49</t>
+        </is>
+      </c>
+      <c r="N257" t="n">
+        <v>5.12</v>
+      </c>
+      <c r="O257" t="inlineStr">
+        <is>
+          <t>01/10/2023 22:42</t>
+        </is>
+      </c>
+      <c r="P257" t="n">
+        <v>4.48</v>
+      </c>
+      <c r="Q257" t="inlineStr">
+        <is>
+          <t>08/10/2023 20:58</t>
+        </is>
+      </c>
+      <c r="R257" t="n">
+        <v>9.890000000000001</v>
+      </c>
+      <c r="S257" t="inlineStr">
+        <is>
+          <t>01/10/2023 22:42</t>
+        </is>
+      </c>
+      <c r="T257" t="n">
+        <v>8.73</v>
+      </c>
+      <c r="U257" t="inlineStr">
+        <is>
+          <t>08/10/2023 20:58</t>
+        </is>
+      </c>
+      <c r="V257" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/palmeiras-santos/6wD0Pwwl/</t>
         </is>
       </c>
     </row>

--- a/2023/brazil_serie-a_2023.xlsx
+++ b/2023/brazil_serie-a_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V257"/>
+  <dimension ref="A1:V260"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1585,22 +1585,22 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Sao Paulo</t>
+          <t>Cuiaba</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>America MG</t>
+          <t>Bragantino</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" t="n">
-        <v>1.66</v>
+        <v>2.32</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
@@ -1608,15 +1608,15 @@
         </is>
       </c>
       <c r="L13" t="n">
-        <v>1.94</v>
+        <v>2.65</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>22/04/2023 23:18</t>
+          <t>22/04/2023 22:56</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>3.92</v>
+        <v>3.25</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1624,32 +1624,32 @@
         </is>
       </c>
       <c r="P13" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>22/04/2023 20:05</t>
+        </is>
+      </c>
+      <c r="R13" t="n">
         <v>3.42</v>
       </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>22/04/2023 23:18</t>
-        </is>
-      </c>
-      <c r="R13" t="n">
-        <v>5.68</v>
-      </c>
       <c r="S13" t="inlineStr">
         <is>
           <t>17/04/2023 18:42</t>
         </is>
       </c>
       <c r="T13" t="n">
-        <v>4.51</v>
+        <v>3.04</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>22/04/2023 23:18</t>
+          <t>22/04/2023 22:54</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/sao-paulo-america-mg/WWQII4pa/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/cuiaba-bragantino/xO6mYqpn/</t>
         </is>
       </c>
     </row>
@@ -1677,22 +1677,22 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Cuiaba</t>
+          <t>Sao Paulo</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Bragantino</t>
+          <t>America MG</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>2.32</v>
+        <v>1.66</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
@@ -1700,15 +1700,15 @@
         </is>
       </c>
       <c r="L14" t="n">
-        <v>2.65</v>
+        <v>1.94</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>22/04/2023 22:56</t>
+          <t>22/04/2023 23:18</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>3.25</v>
+        <v>3.92</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1716,15 +1716,15 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>3.11</v>
+        <v>3.42</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>22/04/2023 20:05</t>
+          <t>22/04/2023 23:18</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>3.42</v>
+        <v>5.68</v>
       </c>
       <c r="S14" t="inlineStr">
         <is>
@@ -1732,16 +1732,16 @@
         </is>
       </c>
       <c r="T14" t="n">
-        <v>3.04</v>
+        <v>4.51</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>22/04/2023 22:54</t>
+          <t>22/04/2023 23:18</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/cuiaba-bragantino/xO6mYqpn/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/sao-paulo-america-mg/WWQII4pa/</t>
         </is>
       </c>
     </row>
@@ -1953,22 +1953,22 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Santos</t>
+          <t>Vasco</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Atletico-MG</t>
+          <t>Palmeiras</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J17" t="n">
-        <v>3.42</v>
+        <v>3.35</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -1976,15 +1976,15 @@
         </is>
       </c>
       <c r="L17" t="n">
-        <v>3.42</v>
+        <v>3.28</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>23/04/2023 20:32</t>
+          <t>23/04/2023 20:56</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>3.27</v>
+        <v>3.39</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1992,15 +1992,15 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>3.13</v>
+        <v>3.19</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>23/04/2023 20:26</t>
+          <t>23/04/2023 20:51</t>
         </is>
       </c>
       <c r="R17" t="n">
-        <v>2.31</v>
+        <v>2.28</v>
       </c>
       <c r="S17" t="inlineStr">
         <is>
@@ -2008,16 +2008,16 @@
         </is>
       </c>
       <c r="T17" t="n">
-        <v>2.41</v>
+        <v>2.44</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>23/04/2023 20:26</t>
+          <t>23/04/2023 20:53</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/santos-atletico-mg/pzVMHOa5/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/vasco-palmeiras/xAREJpVh/</t>
         </is>
       </c>
     </row>
@@ -2045,22 +2045,22 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Vasco</t>
+          <t>Santos</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Palmeiras</t>
+          <t>Atletico-MG</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>3.35</v>
+        <v>3.42</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -2068,15 +2068,15 @@
         </is>
       </c>
       <c r="L18" t="n">
-        <v>3.28</v>
+        <v>3.42</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>23/04/2023 20:56</t>
+          <t>23/04/2023 20:32</t>
         </is>
       </c>
       <c r="N18" t="n">
-        <v>3.39</v>
+        <v>3.27</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -2084,15 +2084,15 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>3.19</v>
+        <v>3.13</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>23/04/2023 20:51</t>
+          <t>23/04/2023 20:26</t>
         </is>
       </c>
       <c r="R18" t="n">
-        <v>2.28</v>
+        <v>2.31</v>
       </c>
       <c r="S18" t="inlineStr">
         <is>
@@ -2100,16 +2100,16 @@
         </is>
       </c>
       <c r="T18" t="n">
-        <v>2.44</v>
+        <v>2.41</v>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>23/04/2023 20:53</t>
+          <t>23/04/2023 20:26</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/vasco-palmeiras/xAREJpVh/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/santos-atletico-mg/pzVMHOa5/</t>
         </is>
       </c>
     </row>
@@ -2413,71 +2413,71 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Fortaleza</t>
+          <t>Coritiba</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Fluminense</t>
+          <t>Sao Paulo</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J22" t="n">
-        <v>2.69</v>
+        <v>3.08</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>24/04/2023 05:12</t>
+          <t>23/04/2023 23:42</t>
         </is>
       </c>
       <c r="L22" t="n">
-        <v>2.16</v>
+        <v>3.03</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>29/04/2023 21:29</t>
+          <t>29/04/2023 21:23</t>
         </is>
       </c>
       <c r="N22" t="n">
-        <v>3.27</v>
+        <v>3.36</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>24/04/2023 05:12</t>
+          <t>23/04/2023 23:42</t>
         </is>
       </c>
       <c r="P22" t="n">
-        <v>3.34</v>
+        <v>3.18</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>29/04/2023 21:29</t>
+          <t>29/04/2023 21:16</t>
         </is>
       </c>
       <c r="R22" t="n">
-        <v>2.77</v>
+        <v>2.4</v>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>24/04/2023 05:12</t>
+          <t>23/04/2023 23:42</t>
         </is>
       </c>
       <c r="T22" t="n">
-        <v>3.76</v>
+        <v>2.61</v>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>29/04/2023 21:29</t>
+          <t>29/04/2023 21:23</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/fortaleza-fluminense/Q7RQo3Eo/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/coritiba-sao-paulo/b1wqNJyo/</t>
         </is>
       </c>
     </row>
@@ -2505,71 +2505,71 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Coritiba</t>
+          <t>Fortaleza</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Sao Paulo</t>
+          <t>Fluminense</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J23" t="n">
-        <v>3.08</v>
+        <v>2.69</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>23/04/2023 23:42</t>
+          <t>24/04/2023 05:12</t>
         </is>
       </c>
       <c r="L23" t="n">
-        <v>3.03</v>
+        <v>2.16</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>29/04/2023 21:23</t>
+          <t>29/04/2023 21:29</t>
         </is>
       </c>
       <c r="N23" t="n">
-        <v>3.36</v>
+        <v>3.27</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>23/04/2023 23:42</t>
+          <t>24/04/2023 05:12</t>
         </is>
       </c>
       <c r="P23" t="n">
-        <v>3.18</v>
+        <v>3.34</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>29/04/2023 21:16</t>
+          <t>29/04/2023 21:29</t>
         </is>
       </c>
       <c r="R23" t="n">
-        <v>2.4</v>
+        <v>2.77</v>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>23/04/2023 23:42</t>
+          <t>24/04/2023 05:12</t>
         </is>
       </c>
       <c r="T23" t="n">
-        <v>2.61</v>
+        <v>3.76</v>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>29/04/2023 21:23</t>
+          <t>29/04/2023 21:29</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/coritiba-sao-paulo/b1wqNJyo/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/fortaleza-fluminense/Q7RQo3Eo/</t>
         </is>
       </c>
     </row>
@@ -2597,71 +2597,71 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Santos</t>
+          <t>Palmeiras</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>America MG</t>
+          <t>Corinthians</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J24" t="n">
-        <v>2.04</v>
+        <v>1.68</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>24/04/2023 05:42</t>
+          <t>24/04/2023 00:12</t>
         </is>
       </c>
       <c r="L24" t="n">
-        <v>2.41</v>
+        <v>1.5</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>29/04/2023 23:26</t>
+          <t>29/04/2023 23:06</t>
         </is>
       </c>
       <c r="N24" t="n">
-        <v>3.54</v>
+        <v>3.88</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>24/04/2023 05:42</t>
+          <t>24/04/2023 00:12</t>
         </is>
       </c>
       <c r="P24" t="n">
-        <v>3.22</v>
+        <v>4.07</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>29/04/2023 23:26</t>
+          <t>29/04/2023 22:36</t>
         </is>
       </c>
       <c r="R24" t="n">
-        <v>3.73</v>
+        <v>5.49</v>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>24/04/2023 05:42</t>
+          <t>24/04/2023 00:12</t>
         </is>
       </c>
       <c r="T24" t="n">
-        <v>3.31</v>
+        <v>8.26</v>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>29/04/2023 23:26</t>
+          <t>29/04/2023 23:06</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/santos-america-mg/63b4U1qB/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/palmeiras-corinthians/SCa0VsU4/</t>
         </is>
       </c>
     </row>
@@ -2689,71 +2689,71 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Palmeiras</t>
+          <t>Bragantino</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Corinthians</t>
+          <t>Cruzeiro</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J25" t="n">
-        <v>1.68</v>
+        <v>1.75</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>24/04/2023 00:12</t>
+          <t>23/04/2023 05:13</t>
         </is>
       </c>
       <c r="L25" t="n">
-        <v>1.5</v>
+        <v>1.82</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>29/04/2023 23:06</t>
+          <t>29/04/2023 23:29</t>
         </is>
       </c>
       <c r="N25" t="n">
-        <v>3.88</v>
+        <v>3.77</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>24/04/2023 00:12</t>
+          <t>23/04/2023 05:13</t>
         </is>
       </c>
       <c r="P25" t="n">
-        <v>4.07</v>
+        <v>3.67</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>29/04/2023 22:36</t>
+          <t>29/04/2023 23:29</t>
         </is>
       </c>
       <c r="R25" t="n">
-        <v>5.49</v>
+        <v>5.06</v>
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>24/04/2023 00:12</t>
+          <t>23/04/2023 05:13</t>
         </is>
       </c>
       <c r="T25" t="n">
-        <v>8.26</v>
+        <v>4.81</v>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>29/04/2023 23:06</t>
+          <t>29/04/2023 23:29</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/palmeiras-corinthians/SCa0VsU4/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/bragantino-cruzeiro/0Qc8TLbH/</t>
         </is>
       </c>
     </row>
@@ -2781,71 +2781,71 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Bragantino</t>
+          <t>Santos</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Cruzeiro</t>
+          <t>America MG</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J26" t="n">
-        <v>1.75</v>
+        <v>2.04</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>23/04/2023 05:13</t>
+          <t>24/04/2023 05:42</t>
         </is>
       </c>
       <c r="L26" t="n">
-        <v>1.82</v>
+        <v>2.41</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>29/04/2023 23:29</t>
+          <t>29/04/2023 23:26</t>
         </is>
       </c>
       <c r="N26" t="n">
-        <v>3.77</v>
+        <v>3.54</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>23/04/2023 05:13</t>
+          <t>24/04/2023 05:42</t>
         </is>
       </c>
       <c r="P26" t="n">
-        <v>3.67</v>
+        <v>3.22</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>29/04/2023 23:29</t>
+          <t>29/04/2023 23:26</t>
         </is>
       </c>
       <c r="R26" t="n">
-        <v>5.06</v>
+        <v>3.73</v>
       </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t>23/04/2023 05:13</t>
+          <t>24/04/2023 05:42</t>
         </is>
       </c>
       <c r="T26" t="n">
-        <v>4.81</v>
+        <v>3.31</v>
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>29/04/2023 23:29</t>
+          <t>29/04/2023 23:26</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/bragantino-cruzeiro/0Qc8TLbH/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/santos-america-mg/63b4U1qB/</t>
         </is>
       </c>
     </row>
@@ -3885,22 +3885,22 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Goias</t>
+          <t>Gremio</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Palmeiras</t>
+          <t>Bragantino</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J38" t="n">
-        <v>4.55</v>
+        <v>1.88</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -3908,15 +3908,15 @@
         </is>
       </c>
       <c r="L38" t="n">
-        <v>5.53</v>
+        <v>1.91</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>07/05/2023 23:20</t>
+          <t>07/05/2023 23:27</t>
         </is>
       </c>
       <c r="N38" t="n">
-        <v>3.7</v>
+        <v>3.71</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
@@ -3924,15 +3924,15 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>3.99</v>
+        <v>3.6</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>07/05/2023 23:20</t>
+          <t>07/05/2023 23:23</t>
         </is>
       </c>
       <c r="R38" t="n">
-        <v>1.81</v>
+        <v>4.19</v>
       </c>
       <c r="S38" t="inlineStr">
         <is>
@@ -3940,16 +3940,16 @@
         </is>
       </c>
       <c r="T38" t="n">
-        <v>1.67</v>
+        <v>4.41</v>
       </c>
       <c r="U38" t="inlineStr">
         <is>
-          <t>07/05/2023 23:20</t>
+          <t>07/05/2023 23:27</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/goias-palmeiras/jFCjtarN/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/gremio-bragantino/nobMzw6p/</t>
         </is>
       </c>
     </row>
@@ -3977,22 +3977,22 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Gremio</t>
+          <t>Goias</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Bragantino</t>
+          <t>Palmeiras</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J39" t="n">
-        <v>1.88</v>
+        <v>4.55</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -4000,15 +4000,15 @@
         </is>
       </c>
       <c r="L39" t="n">
-        <v>1.91</v>
+        <v>5.53</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>07/05/2023 23:27</t>
+          <t>07/05/2023 23:20</t>
         </is>
       </c>
       <c r="N39" t="n">
-        <v>3.71</v>
+        <v>3.7</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
@@ -4016,15 +4016,15 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>3.6</v>
+        <v>3.99</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>07/05/2023 23:23</t>
+          <t>07/05/2023 23:20</t>
         </is>
       </c>
       <c r="R39" t="n">
-        <v>4.19</v>
+        <v>1.81</v>
       </c>
       <c r="S39" t="inlineStr">
         <is>
@@ -4032,16 +4032,16 @@
         </is>
       </c>
       <c r="T39" t="n">
-        <v>4.41</v>
+        <v>1.67</v>
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>07/05/2023 23:27</t>
+          <t>07/05/2023 23:20</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/gremio-bragantino/nobMzw6p/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/goias-palmeiras/jFCjtarN/</t>
         </is>
       </c>
     </row>
@@ -4253,71 +4253,71 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Bragantino</t>
+          <t>Internacional</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>America MG</t>
+          <t>Athletico-PR</t>
         </is>
       </c>
       <c r="I42" t="n">
         <v>2</v>
       </c>
       <c r="J42" t="n">
-        <v>1.86</v>
+        <v>1.79</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>07/05/2023 23:42</t>
+          <t>07/05/2023 21:12</t>
         </is>
       </c>
       <c r="L42" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>10/05/2023 23:45</t>
+          <t>10/05/2023 23:55</t>
         </is>
       </c>
       <c r="N42" t="n">
-        <v>3.68</v>
+        <v>3.69</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>07/05/2023 23:42</t>
+          <t>07/05/2023 21:12</t>
         </is>
       </c>
       <c r="P42" t="n">
-        <v>3.77</v>
+        <v>3.61</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>10/05/2023 23:45</t>
+          <t>10/05/2023 23:55</t>
         </is>
       </c>
       <c r="R42" t="n">
-        <v>4.31</v>
+        <v>4.86</v>
       </c>
       <c r="S42" t="inlineStr">
         <is>
-          <t>07/05/2023 23:42</t>
+          <t>07/05/2023 21:12</t>
         </is>
       </c>
       <c r="T42" t="n">
-        <v>4.62</v>
+        <v>4.93</v>
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>10/05/2023 23:48</t>
+          <t>10/05/2023 23:55</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/bragantino-america-mg/xWzYhxSS/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/internacional-athletico-pr/61gdmGkj/</t>
         </is>
       </c>
     </row>
@@ -4345,71 +4345,71 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Santos</t>
+          <t>Bragantino</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Bahia</t>
+          <t>America MG</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J43" t="n">
-        <v>1.95</v>
+        <v>1.86</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>07/05/2023 21:12</t>
+          <t>07/05/2023 23:42</t>
         </is>
       </c>
       <c r="L43" t="n">
-        <v>2.3</v>
+        <v>1.83</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>10/05/2023 23:51</t>
+          <t>10/05/2023 23:45</t>
         </is>
       </c>
       <c r="N43" t="n">
-        <v>3.64</v>
+        <v>3.68</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>07/05/2023 21:12</t>
+          <t>07/05/2023 23:42</t>
         </is>
       </c>
       <c r="P43" t="n">
-        <v>3.14</v>
+        <v>3.77</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>10/05/2023 23:59</t>
+          <t>10/05/2023 23:45</t>
         </is>
       </c>
       <c r="R43" t="n">
-        <v>3.93</v>
+        <v>4.31</v>
       </c>
       <c r="S43" t="inlineStr">
         <is>
-          <t>07/05/2023 21:12</t>
+          <t>07/05/2023 23:42</t>
         </is>
       </c>
       <c r="T43" t="n">
-        <v>3.65</v>
+        <v>4.62</v>
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>10/05/2023 23:59</t>
+          <t>10/05/2023 23:48</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/santos-bahia/r9yUgICM/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/bragantino-america-mg/xWzYhxSS/</t>
         </is>
       </c>
     </row>
@@ -4437,22 +4437,22 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Internacional</t>
+          <t>Santos</t>
         </is>
       </c>
       <c r="G44" t="n">
+        <v>3</v>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Bahia</t>
+        </is>
+      </c>
+      <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>Athletico-PR</t>
-        </is>
-      </c>
-      <c r="I44" t="n">
-        <v>2</v>
-      </c>
       <c r="J44" t="n">
-        <v>1.79</v>
+        <v>1.95</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
@@ -4460,15 +4460,15 @@
         </is>
       </c>
       <c r="L44" t="n">
-        <v>1.82</v>
+        <v>2.3</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>10/05/2023 23:55</t>
+          <t>10/05/2023 23:51</t>
         </is>
       </c>
       <c r="N44" t="n">
-        <v>3.69</v>
+        <v>3.64</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
@@ -4476,15 +4476,15 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>3.61</v>
+        <v>3.14</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>10/05/2023 23:55</t>
+          <t>10/05/2023 23:59</t>
         </is>
       </c>
       <c r="R44" t="n">
-        <v>4.86</v>
+        <v>3.93</v>
       </c>
       <c r="S44" t="inlineStr">
         <is>
@@ -4492,16 +4492,16 @@
         </is>
       </c>
       <c r="T44" t="n">
-        <v>4.93</v>
+        <v>3.65</v>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>10/05/2023 23:55</t>
+          <t>10/05/2023 23:59</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/internacional-athletico-pr/61gdmGkj/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/santos-bahia/r9yUgICM/</t>
         </is>
       </c>
     </row>
@@ -4713,71 +4713,71 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Cruzeiro</t>
+          <t>Palmeiras</t>
         </is>
       </c>
       <c r="G47" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Fluminense</t>
+          <t>Gremio</t>
         </is>
       </c>
       <c r="I47" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J47" t="n">
-        <v>2.76</v>
+        <v>1.45</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>07/05/2023 02:12</t>
+          <t>07/05/2023 23:42</t>
         </is>
       </c>
       <c r="L47" t="n">
-        <v>2.74</v>
+        <v>1.41</v>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>11/05/2023 02:27</t>
+          <t>11/05/2023 02:29</t>
         </is>
       </c>
       <c r="N47" t="n">
-        <v>3.42</v>
+        <v>4.72</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>07/05/2023 02:12</t>
+          <t>07/05/2023 23:42</t>
         </is>
       </c>
       <c r="P47" t="n">
-        <v>3.21</v>
+        <v>4.71</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>11/05/2023 02:25</t>
+          <t>11/05/2023 02:12</t>
         </is>
       </c>
       <c r="R47" t="n">
-        <v>2.6</v>
+        <v>7.37</v>
       </c>
       <c r="S47" t="inlineStr">
         <is>
-          <t>07/05/2023 02:12</t>
+          <t>07/05/2023 23:42</t>
         </is>
       </c>
       <c r="T47" t="n">
-        <v>2.85</v>
+        <v>8.65</v>
       </c>
       <c r="U47" t="inlineStr">
         <is>
-          <t>11/05/2023 02:27</t>
+          <t>11/05/2023 02:12</t>
         </is>
       </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/cruzeiro-fluminense/vuNaldzp/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/palmeiras-gremio/U5XPfbcG/</t>
         </is>
       </c>
     </row>
@@ -4805,71 +4805,71 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Palmeiras</t>
+          <t>Cruzeiro</t>
         </is>
       </c>
       <c r="G48" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Gremio</t>
+          <t>Fluminense</t>
         </is>
       </c>
       <c r="I48" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J48" t="n">
-        <v>1.45</v>
+        <v>2.76</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>07/05/2023 23:42</t>
+          <t>07/05/2023 02:12</t>
         </is>
       </c>
       <c r="L48" t="n">
-        <v>1.41</v>
+        <v>2.74</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>11/05/2023 02:29</t>
+          <t>11/05/2023 02:27</t>
         </is>
       </c>
       <c r="N48" t="n">
-        <v>4.72</v>
+        <v>3.42</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>07/05/2023 23:42</t>
+          <t>07/05/2023 02:12</t>
         </is>
       </c>
       <c r="P48" t="n">
-        <v>4.71</v>
+        <v>3.21</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>11/05/2023 02:12</t>
+          <t>11/05/2023 02:25</t>
         </is>
       </c>
       <c r="R48" t="n">
-        <v>7.37</v>
+        <v>2.6</v>
       </c>
       <c r="S48" t="inlineStr">
         <is>
-          <t>07/05/2023 23:42</t>
+          <t>07/05/2023 02:12</t>
         </is>
       </c>
       <c r="T48" t="n">
-        <v>8.65</v>
+        <v>2.85</v>
       </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t>11/05/2023 02:12</t>
+          <t>11/05/2023 02:27</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/palmeiras-gremio/U5XPfbcG/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/cruzeiro-fluminense/vuNaldzp/</t>
         </is>
       </c>
     </row>
@@ -5541,7 +5541,7 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Gremio</t>
+          <t>Vasco</t>
         </is>
       </c>
       <c r="G56" t="n">
@@ -5549,63 +5549,63 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Fortaleza</t>
+          <t>Santos</t>
         </is>
       </c>
       <c r="I56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J56" t="n">
-        <v>2.26</v>
+        <v>1.74</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>12/05/2023 01:12</t>
+          <t>12/05/2023 00:12</t>
         </is>
       </c>
       <c r="L56" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>14/05/2023 20:59</t>
+          <t>14/05/2023 20:50</t>
         </is>
       </c>
       <c r="N56" t="n">
-        <v>3.44</v>
+        <v>3.77</v>
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>12/05/2023 01:12</t>
+          <t>12/05/2023 00:12</t>
         </is>
       </c>
       <c r="P56" t="n">
-        <v>3.64</v>
+        <v>3.33</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>14/05/2023 20:59</t>
+          <t>14/05/2023 20:58</t>
         </is>
       </c>
       <c r="R56" t="n">
-        <v>3.27</v>
+        <v>4.95</v>
       </c>
       <c r="S56" t="inlineStr">
         <is>
-          <t>12/05/2023 01:12</t>
+          <t>12/05/2023 00:12</t>
         </is>
       </c>
       <c r="T56" t="n">
-        <v>4.38</v>
+        <v>4.73</v>
       </c>
       <c r="U56" t="inlineStr">
         <is>
-          <t>14/05/2023 20:59</t>
+          <t>14/05/2023 20:58</t>
         </is>
       </c>
       <c r="V56" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/gremio-fortaleza/SYhum7e7/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/vasco-santos/YDYf8HRF/</t>
         </is>
       </c>
     </row>
@@ -5633,71 +5633,71 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Vasco</t>
+          <t>Corinthians</t>
         </is>
       </c>
       <c r="G57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Santos</t>
+          <t>Sao Paulo</t>
         </is>
       </c>
       <c r="I57" t="n">
         <v>1</v>
       </c>
       <c r="J57" t="n">
-        <v>1.74</v>
+        <v>2.42</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>12/05/2023 00:12</t>
+          <t>12/05/2023 01:12</t>
         </is>
       </c>
       <c r="L57" t="n">
-        <v>1.93</v>
+        <v>2.57</v>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>14/05/2023 20:50</t>
+          <t>14/05/2023 20:57</t>
         </is>
       </c>
       <c r="N57" t="n">
-        <v>3.77</v>
+        <v>3.24</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>12/05/2023 00:12</t>
+          <t>12/05/2023 01:12</t>
         </is>
       </c>
       <c r="P57" t="n">
-        <v>3.33</v>
+        <v>3.02</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>14/05/2023 20:58</t>
+          <t>14/05/2023 20:57</t>
         </is>
       </c>
       <c r="R57" t="n">
-        <v>4.95</v>
+        <v>3.23</v>
       </c>
       <c r="S57" t="inlineStr">
         <is>
-          <t>12/05/2023 00:12</t>
+          <t>12/05/2023 01:12</t>
         </is>
       </c>
       <c r="T57" t="n">
-        <v>4.73</v>
+        <v>3.25</v>
       </c>
       <c r="U57" t="inlineStr">
         <is>
-          <t>14/05/2023 20:58</t>
+          <t>14/05/2023 20:57</t>
         </is>
       </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/vasco-santos/YDYf8HRF/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/corinthians-sao-paulo/vD0Sk9Bl/</t>
         </is>
       </c>
     </row>
@@ -5725,22 +5725,22 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Corinthians</t>
+          <t>Gremio</t>
         </is>
       </c>
       <c r="G58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Sao Paulo</t>
+          <t>Fortaleza</t>
         </is>
       </c>
       <c r="I58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J58" t="n">
-        <v>2.42</v>
+        <v>2.26</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
@@ -5748,15 +5748,15 @@
         </is>
       </c>
       <c r="L58" t="n">
-        <v>2.57</v>
+        <v>1.9</v>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>14/05/2023 20:57</t>
+          <t>14/05/2023 20:59</t>
         </is>
       </c>
       <c r="N58" t="n">
-        <v>3.24</v>
+        <v>3.44</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
@@ -5764,15 +5764,15 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>3.02</v>
+        <v>3.64</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>14/05/2023 20:57</t>
+          <t>14/05/2023 20:59</t>
         </is>
       </c>
       <c r="R58" t="n">
-        <v>3.23</v>
+        <v>3.27</v>
       </c>
       <c r="S58" t="inlineStr">
         <is>
@@ -5780,16 +5780,16 @@
         </is>
       </c>
       <c r="T58" t="n">
-        <v>3.25</v>
+        <v>4.38</v>
       </c>
       <c r="U58" t="inlineStr">
         <is>
-          <t>14/05/2023 20:57</t>
+          <t>14/05/2023 20:59</t>
         </is>
       </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/corinthians-sao-paulo/vD0Sk9Bl/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/gremio-fortaleza/SYhum7e7/</t>
         </is>
       </c>
     </row>
@@ -7013,22 +7013,22 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Athletico-PR</t>
+          <t>Fortaleza</t>
         </is>
       </c>
       <c r="G72" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Gremio</t>
+          <t>Vasco</t>
         </is>
       </c>
       <c r="I72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J72" t="n">
-        <v>2.02</v>
+        <v>1.75</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
@@ -7036,15 +7036,15 @@
         </is>
       </c>
       <c r="L72" t="n">
-        <v>1.64</v>
+        <v>1.68</v>
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>27/05/2023 20:54</t>
+          <t>27/05/2023 20:28</t>
         </is>
       </c>
       <c r="N72" t="n">
-        <v>3.5</v>
+        <v>3.77</v>
       </c>
       <c r="O72" t="inlineStr">
         <is>
@@ -7052,15 +7052,15 @@
         </is>
       </c>
       <c r="P72" t="n">
-        <v>4</v>
+        <v>4.03</v>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>27/05/2023 20:54</t>
+          <t>27/05/2023 20:29</t>
         </is>
       </c>
       <c r="R72" t="n">
-        <v>3.97</v>
+        <v>5.06</v>
       </c>
       <c r="S72" t="inlineStr">
         <is>
@@ -7068,16 +7068,16 @@
         </is>
       </c>
       <c r="T72" t="n">
-        <v>5.9</v>
+        <v>5.3</v>
       </c>
       <c r="U72" t="inlineStr">
         <is>
-          <t>27/05/2023 20:54</t>
+          <t>27/05/2023 20:29</t>
         </is>
       </c>
       <c r="V72" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/athletico-pr-gremio/Uup8BsvP/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/fortaleza-vasco/YDAlKZsP/</t>
         </is>
       </c>
     </row>
@@ -7105,22 +7105,22 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Fortaleza</t>
+          <t>Athletico-PR</t>
         </is>
       </c>
       <c r="G73" t="n">
+        <v>1</v>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>Gremio</t>
+        </is>
+      </c>
+      <c r="I73" t="n">
         <v>2</v>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>Vasco</t>
-        </is>
-      </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
       <c r="J73" t="n">
-        <v>1.75</v>
+        <v>2.02</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
@@ -7128,15 +7128,15 @@
         </is>
       </c>
       <c r="L73" t="n">
-        <v>1.68</v>
+        <v>1.64</v>
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>27/05/2023 20:28</t>
+          <t>27/05/2023 20:54</t>
         </is>
       </c>
       <c r="N73" t="n">
-        <v>3.77</v>
+        <v>3.5</v>
       </c>
       <c r="O73" t="inlineStr">
         <is>
@@ -7144,15 +7144,15 @@
         </is>
       </c>
       <c r="P73" t="n">
-        <v>4.03</v>
+        <v>4</v>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>27/05/2023 20:29</t>
+          <t>27/05/2023 20:54</t>
         </is>
       </c>
       <c r="R73" t="n">
-        <v>5.06</v>
+        <v>3.97</v>
       </c>
       <c r="S73" t="inlineStr">
         <is>
@@ -7160,16 +7160,16 @@
         </is>
       </c>
       <c r="T73" t="n">
-        <v>5.3</v>
+        <v>5.9</v>
       </c>
       <c r="U73" t="inlineStr">
         <is>
-          <t>27/05/2023 20:29</t>
+          <t>27/05/2023 20:54</t>
         </is>
       </c>
       <c r="V73" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/fortaleza-vasco/YDAlKZsP/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/athletico-pr-gremio/Uup8BsvP/</t>
         </is>
       </c>
     </row>
@@ -7657,71 +7657,71 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Atletico-MG</t>
+          <t>Bragantino</t>
         </is>
       </c>
       <c r="G79" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Palmeiras</t>
+          <t>Santos</t>
         </is>
       </c>
       <c r="I79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J79" t="n">
-        <v>2.19</v>
+        <v>1.75</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>22/05/2023 03:42</t>
+          <t>21/05/2023 09:12</t>
         </is>
       </c>
       <c r="L79" t="n">
-        <v>2.29</v>
+        <v>1.78</v>
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>28/05/2023 23:29</t>
+          <t>28/05/2023 23:27</t>
         </is>
       </c>
       <c r="N79" t="n">
-        <v>3.38</v>
+        <v>3.71</v>
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>22/05/2023 03:42</t>
+          <t>21/05/2023 09:12</t>
         </is>
       </c>
       <c r="P79" t="n">
-        <v>3.3</v>
+        <v>3.52</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>28/05/2023 23:29</t>
+          <t>28/05/2023 23:15</t>
         </is>
       </c>
       <c r="R79" t="n">
-        <v>3.58</v>
+        <v>5.18</v>
       </c>
       <c r="S79" t="inlineStr">
         <is>
-          <t>22/05/2023 03:42</t>
+          <t>21/05/2023 09:12</t>
         </is>
       </c>
       <c r="T79" t="n">
-        <v>3.43</v>
+        <v>5.46</v>
       </c>
       <c r="U79" t="inlineStr">
         <is>
-          <t>28/05/2023 23:21</t>
+          <t>28/05/2023 23:27</t>
         </is>
       </c>
       <c r="V79" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/atletico-mg-palmeiras/MFt0D39C/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/bragantino-santos/rPsdEqf6/</t>
         </is>
       </c>
     </row>
@@ -7749,71 +7749,71 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Bragantino</t>
+          <t>Atletico-MG</t>
         </is>
       </c>
       <c r="G80" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Santos</t>
+          <t>Palmeiras</t>
         </is>
       </c>
       <c r="I80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J80" t="n">
-        <v>1.75</v>
+        <v>2.19</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>21/05/2023 09:12</t>
+          <t>22/05/2023 03:42</t>
         </is>
       </c>
       <c r="L80" t="n">
-        <v>1.78</v>
+        <v>2.29</v>
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>28/05/2023 23:27</t>
+          <t>28/05/2023 23:29</t>
         </is>
       </c>
       <c r="N80" t="n">
-        <v>3.71</v>
+        <v>3.38</v>
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>21/05/2023 09:12</t>
+          <t>22/05/2023 03:42</t>
         </is>
       </c>
       <c r="P80" t="n">
-        <v>3.52</v>
+        <v>3.3</v>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>28/05/2023 23:15</t>
+          <t>28/05/2023 23:29</t>
         </is>
       </c>
       <c r="R80" t="n">
-        <v>5.18</v>
+        <v>3.58</v>
       </c>
       <c r="S80" t="inlineStr">
         <is>
-          <t>21/05/2023 09:12</t>
+          <t>22/05/2023 03:42</t>
         </is>
       </c>
       <c r="T80" t="n">
-        <v>5.46</v>
+        <v>3.43</v>
       </c>
       <c r="U80" t="inlineStr">
         <is>
-          <t>28/05/2023 23:27</t>
+          <t>28/05/2023 23:21</t>
         </is>
       </c>
       <c r="V80" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/bragantino-santos/rPsdEqf6/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/atletico-mg-palmeiras/MFt0D39C/</t>
         </is>
       </c>
     </row>
@@ -8025,71 +8025,71 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Cruzeiro</t>
+          <t>America MG</t>
         </is>
       </c>
       <c r="G83" t="n">
+        <v>2</v>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>Corinthians</t>
+        </is>
+      </c>
+      <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>Atletico-MG</t>
-        </is>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
       <c r="J83" t="n">
-        <v>3.12</v>
+        <v>2.32</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>29/05/2023 07:12</t>
+          <t>29/05/2023 00:12</t>
         </is>
       </c>
       <c r="L83" t="n">
-        <v>3.53</v>
+        <v>2.93</v>
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>03/06/2023 23:26</t>
+          <t>03/06/2023 23:20</t>
         </is>
       </c>
       <c r="N83" t="n">
-        <v>3.3</v>
+        <v>3.34</v>
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>29/05/2023 07:12</t>
+          <t>29/05/2023 00:12</t>
         </is>
       </c>
       <c r="P83" t="n">
-        <v>3.11</v>
+        <v>3.14</v>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>03/06/2023 23:29</t>
+          <t>03/06/2023 23:20</t>
         </is>
       </c>
       <c r="R83" t="n">
-        <v>2.41</v>
+        <v>3.24</v>
       </c>
       <c r="S83" t="inlineStr">
         <is>
-          <t>29/05/2023 07:12</t>
+          <t>29/05/2023 00:12</t>
         </is>
       </c>
       <c r="T83" t="n">
-        <v>2.37</v>
+        <v>2.72</v>
       </c>
       <c r="U83" t="inlineStr">
         <is>
-          <t>03/06/2023 23:26</t>
+          <t>03/06/2023 23:20</t>
         </is>
       </c>
       <c r="V83" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/cruzeiro-atletico-mg/AFJX9kKH/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/america-mg-corinthians/MgmjSWZo/</t>
         </is>
       </c>
     </row>
@@ -8209,71 +8209,71 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>America MG</t>
+          <t>Cruzeiro</t>
         </is>
       </c>
       <c r="G85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Corinthians</t>
+          <t>Atletico-MG</t>
         </is>
       </c>
       <c r="I85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J85" t="n">
-        <v>2.32</v>
+        <v>3.12</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>29/05/2023 00:12</t>
+          <t>29/05/2023 07:12</t>
         </is>
       </c>
       <c r="L85" t="n">
-        <v>2.93</v>
+        <v>3.53</v>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>03/06/2023 23:20</t>
+          <t>03/06/2023 23:26</t>
         </is>
       </c>
       <c r="N85" t="n">
-        <v>3.34</v>
+        <v>3.3</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>29/05/2023 00:12</t>
+          <t>29/05/2023 07:12</t>
         </is>
       </c>
       <c r="P85" t="n">
-        <v>3.14</v>
+        <v>3.11</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>03/06/2023 23:20</t>
+          <t>03/06/2023 23:29</t>
         </is>
       </c>
       <c r="R85" t="n">
-        <v>3.24</v>
+        <v>2.41</v>
       </c>
       <c r="S85" t="inlineStr">
         <is>
-          <t>29/05/2023 00:12</t>
+          <t>29/05/2023 07:12</t>
         </is>
       </c>
       <c r="T85" t="n">
-        <v>2.72</v>
+        <v>2.37</v>
       </c>
       <c r="U85" t="inlineStr">
         <is>
-          <t>03/06/2023 23:20</t>
+          <t>03/06/2023 23:26</t>
         </is>
       </c>
       <c r="V85" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/america-mg-corinthians/MgmjSWZo/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/cruzeiro-atletico-mg/AFJX9kKH/</t>
         </is>
       </c>
     </row>
@@ -8577,71 +8577,71 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Goias</t>
+          <t>Palmeiras</t>
         </is>
       </c>
       <c r="G89" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Cuiaba</t>
+          <t>Coritiba</t>
         </is>
       </c>
       <c r="I89" t="n">
         <v>1</v>
       </c>
       <c r="J89" t="n">
-        <v>2.12</v>
+        <v>1.22</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>29/05/2023 06:42</t>
+          <t>28/05/2023 23:42</t>
         </is>
       </c>
       <c r="L89" t="n">
-        <v>2.35</v>
+        <v>1.29</v>
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>04/06/2023 23:12</t>
+          <t>04/06/2023 23:26</t>
         </is>
       </c>
       <c r="N89" t="n">
-        <v>3.38</v>
+        <v>6.52</v>
       </c>
       <c r="O89" t="inlineStr">
         <is>
-          <t>29/05/2023 06:42</t>
+          <t>28/05/2023 23:42</t>
         </is>
       </c>
       <c r="P89" t="n">
-        <v>3.02</v>
+        <v>5.88</v>
       </c>
       <c r="Q89" t="inlineStr">
         <is>
-          <t>04/06/2023 23:09</t>
+          <t>04/06/2023 23:26</t>
         </is>
       </c>
       <c r="R89" t="n">
-        <v>3.69</v>
+        <v>12.83</v>
       </c>
       <c r="S89" t="inlineStr">
         <is>
-          <t>29/05/2023 06:42</t>
+          <t>28/05/2023 23:42</t>
         </is>
       </c>
       <c r="T89" t="n">
-        <v>3.68</v>
+        <v>11.94</v>
       </c>
       <c r="U89" t="inlineStr">
         <is>
-          <t>04/06/2023 23:13</t>
+          <t>04/06/2023 23:26</t>
         </is>
       </c>
       <c r="V89" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/goias-cuiaba/dCFTAV4B/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/palmeiras-coritiba/ObHLCiza/</t>
         </is>
       </c>
     </row>
@@ -8669,71 +8669,71 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Palmeiras</t>
+          <t>Goias</t>
         </is>
       </c>
       <c r="G90" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Coritiba</t>
+          <t>Cuiaba</t>
         </is>
       </c>
       <c r="I90" t="n">
         <v>1</v>
       </c>
       <c r="J90" t="n">
-        <v>1.22</v>
+        <v>2.12</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>28/05/2023 23:42</t>
+          <t>29/05/2023 06:42</t>
         </is>
       </c>
       <c r="L90" t="n">
-        <v>1.29</v>
+        <v>2.35</v>
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>04/06/2023 23:26</t>
+          <t>04/06/2023 23:12</t>
         </is>
       </c>
       <c r="N90" t="n">
-        <v>6.52</v>
+        <v>3.38</v>
       </c>
       <c r="O90" t="inlineStr">
         <is>
-          <t>28/05/2023 23:42</t>
+          <t>29/05/2023 06:42</t>
         </is>
       </c>
       <c r="P90" t="n">
-        <v>5.88</v>
+        <v>3.02</v>
       </c>
       <c r="Q90" t="inlineStr">
         <is>
-          <t>04/06/2023 23:26</t>
+          <t>04/06/2023 23:09</t>
         </is>
       </c>
       <c r="R90" t="n">
-        <v>12.83</v>
+        <v>3.69</v>
       </c>
       <c r="S90" t="inlineStr">
         <is>
-          <t>28/05/2023 23:42</t>
+          <t>29/05/2023 06:42</t>
         </is>
       </c>
       <c r="T90" t="n">
-        <v>11.94</v>
+        <v>3.68</v>
       </c>
       <c r="U90" t="inlineStr">
         <is>
-          <t>04/06/2023 23:26</t>
+          <t>04/06/2023 23:13</t>
         </is>
       </c>
       <c r="V90" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/palmeiras-coritiba/ObHLCiza/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/goias-cuiaba/dCFTAV4B/</t>
         </is>
       </c>
     </row>
@@ -9405,71 +9405,71 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Sao Paulo</t>
+          <t>Internacional</t>
         </is>
       </c>
       <c r="G98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Palmeiras</t>
+          <t>Vasco</t>
         </is>
       </c>
       <c r="I98" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J98" t="n">
-        <v>3.39</v>
+        <v>1.86</v>
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>05/06/2023 02:42</t>
+          <t>06/06/2023 07:41</t>
         </is>
       </c>
       <c r="L98" t="n">
-        <v>3.19</v>
+        <v>1.83</v>
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>11/06/2023 20:58</t>
+          <t>11/06/2023 20:49</t>
         </is>
       </c>
       <c r="N98" t="n">
-        <v>3.33</v>
+        <v>3.65</v>
       </c>
       <c r="O98" t="inlineStr">
         <is>
-          <t>05/06/2023 02:42</t>
+          <t>06/06/2023 07:41</t>
         </is>
       </c>
       <c r="P98" t="n">
-        <v>3.25</v>
+        <v>3.55</v>
       </c>
       <c r="Q98" t="inlineStr">
         <is>
-          <t>11/06/2023 20:58</t>
+          <t>11/06/2023 20:49</t>
         </is>
       </c>
       <c r="R98" t="n">
-        <v>2.29</v>
+        <v>4.58</v>
       </c>
       <c r="S98" t="inlineStr">
         <is>
-          <t>05/06/2023 02:42</t>
+          <t>06/06/2023 07:41</t>
         </is>
       </c>
       <c r="T98" t="n">
-        <v>2.47</v>
+        <v>4.98</v>
       </c>
       <c r="U98" t="inlineStr">
         <is>
-          <t>11/06/2023 20:58</t>
+          <t>11/06/2023 20:57</t>
         </is>
       </c>
       <c r="V98" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/sao-paulo-palmeiras/AFu3PUJ4/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/internacional-vasco/xUeq50Yk/</t>
         </is>
       </c>
     </row>
@@ -9497,71 +9497,71 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Internacional</t>
+          <t>Sao Paulo</t>
         </is>
       </c>
       <c r="G99" t="n">
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>Palmeiras</t>
+        </is>
+      </c>
+      <c r="I99" t="n">
         <v>2</v>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>Vasco</t>
-        </is>
-      </c>
-      <c r="I99" t="n">
-        <v>1</v>
-      </c>
       <c r="J99" t="n">
-        <v>1.86</v>
+        <v>3.39</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>06/06/2023 07:41</t>
+          <t>05/06/2023 02:42</t>
         </is>
       </c>
       <c r="L99" t="n">
-        <v>1.83</v>
+        <v>3.19</v>
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>11/06/2023 20:49</t>
+          <t>11/06/2023 20:58</t>
         </is>
       </c>
       <c r="N99" t="n">
-        <v>3.65</v>
+        <v>3.33</v>
       </c>
       <c r="O99" t="inlineStr">
         <is>
-          <t>06/06/2023 07:41</t>
+          <t>05/06/2023 02:42</t>
         </is>
       </c>
       <c r="P99" t="n">
-        <v>3.55</v>
+        <v>3.25</v>
       </c>
       <c r="Q99" t="inlineStr">
         <is>
-          <t>11/06/2023 20:49</t>
+          <t>11/06/2023 20:58</t>
         </is>
       </c>
       <c r="R99" t="n">
-        <v>4.58</v>
+        <v>2.29</v>
       </c>
       <c r="S99" t="inlineStr">
         <is>
-          <t>06/06/2023 07:41</t>
+          <t>05/06/2023 02:42</t>
         </is>
       </c>
       <c r="T99" t="n">
-        <v>4.98</v>
+        <v>2.47</v>
       </c>
       <c r="U99" t="inlineStr">
         <is>
-          <t>11/06/2023 20:57</t>
+          <t>11/06/2023 20:58</t>
         </is>
       </c>
       <c r="V99" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/internacional-vasco/xUeq50Yk/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/sao-paulo-palmeiras/AFu3PUJ4/</t>
         </is>
       </c>
     </row>
@@ -10049,7 +10049,7 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Bahia</t>
+          <t>Fluminense</t>
         </is>
       </c>
       <c r="G105" t="n">
@@ -10057,22 +10057,22 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Palmeiras</t>
+          <t>Atletico-MG</t>
         </is>
       </c>
       <c r="I105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J105" t="n">
-        <v>4.31</v>
+        <v>2.06</v>
       </c>
       <c r="K105" t="inlineStr">
         <is>
-          <t>14/06/2023 10:42</t>
+          <t>14/06/2023 13:12</t>
         </is>
       </c>
       <c r="L105" t="n">
-        <v>3.68</v>
+        <v>2.97</v>
       </c>
       <c r="M105" t="inlineStr">
         <is>
@@ -10080,15 +10080,15 @@
         </is>
       </c>
       <c r="N105" t="n">
-        <v>3.63</v>
+        <v>3.47</v>
       </c>
       <c r="O105" t="inlineStr">
         <is>
-          <t>14/06/2023 10:42</t>
+          <t>14/06/2023 13:12</t>
         </is>
       </c>
       <c r="P105" t="n">
-        <v>3.5</v>
+        <v>3.22</v>
       </c>
       <c r="Q105" t="inlineStr">
         <is>
@@ -10096,15 +10096,15 @@
         </is>
       </c>
       <c r="R105" t="n">
-        <v>1.9</v>
+        <v>3.74</v>
       </c>
       <c r="S105" t="inlineStr">
         <is>
-          <t>14/06/2023 10:42</t>
+          <t>14/06/2023 13:12</t>
         </is>
       </c>
       <c r="T105" t="n">
-        <v>2.12</v>
+        <v>2.63</v>
       </c>
       <c r="U105" t="inlineStr">
         <is>
@@ -10113,7 +10113,7 @@
       </c>
       <c r="V105" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/bahia-palmeiras/6NCCusA2/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/fluminense-atletico-mg/Q3iwRse9/</t>
         </is>
       </c>
     </row>
@@ -10141,7 +10141,7 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Fluminense</t>
+          <t>Bahia</t>
         </is>
       </c>
       <c r="G106" t="n">
@@ -10149,22 +10149,22 @@
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Atletico-MG</t>
+          <t>Palmeiras</t>
         </is>
       </c>
       <c r="I106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J106" t="n">
-        <v>2.06</v>
+        <v>4.31</v>
       </c>
       <c r="K106" t="inlineStr">
         <is>
-          <t>14/06/2023 13:12</t>
+          <t>14/06/2023 10:42</t>
         </is>
       </c>
       <c r="L106" t="n">
-        <v>2.97</v>
+        <v>3.68</v>
       </c>
       <c r="M106" t="inlineStr">
         <is>
@@ -10172,15 +10172,15 @@
         </is>
       </c>
       <c r="N106" t="n">
-        <v>3.47</v>
+        <v>3.63</v>
       </c>
       <c r="O106" t="inlineStr">
         <is>
-          <t>14/06/2023 13:12</t>
+          <t>14/06/2023 10:42</t>
         </is>
       </c>
       <c r="P106" t="n">
-        <v>3.22</v>
+        <v>3.5</v>
       </c>
       <c r="Q106" t="inlineStr">
         <is>
@@ -10188,15 +10188,15 @@
         </is>
       </c>
       <c r="R106" t="n">
-        <v>3.74</v>
+        <v>1.9</v>
       </c>
       <c r="S106" t="inlineStr">
         <is>
-          <t>14/06/2023 13:12</t>
+          <t>14/06/2023 10:42</t>
         </is>
       </c>
       <c r="T106" t="n">
-        <v>2.63</v>
+        <v>2.12</v>
       </c>
       <c r="U106" t="inlineStr">
         <is>
@@ -10205,7 +10205,7 @@
       </c>
       <c r="V106" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/fluminense-atletico-mg/Q3iwRse9/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/bahia-palmeiras/6NCCusA2/</t>
         </is>
       </c>
     </row>
@@ -10325,7 +10325,7 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Cuiaba</t>
+          <t>Vasco</t>
         </is>
       </c>
       <c r="G108" t="n">
@@ -10333,54 +10333,54 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Botafogo RJ</t>
+          <t>Goias</t>
         </is>
       </c>
       <c r="I108" t="n">
         <v>1</v>
       </c>
       <c r="J108" t="n">
-        <v>3.01</v>
+        <v>1.75</v>
       </c>
       <c r="K108" t="inlineStr">
         <is>
-          <t>17/06/2023 22:12</t>
+          <t>19/06/2023 02:11</t>
         </is>
       </c>
       <c r="L108" t="n">
-        <v>2.73</v>
+        <v>1.99</v>
       </c>
       <c r="M108" t="inlineStr">
         <is>
+          <t>23/06/2023 00:56</t>
+        </is>
+      </c>
+      <c r="N108" t="n">
+        <v>3.73</v>
+      </c>
+      <c r="O108" t="inlineStr">
+        <is>
+          <t>19/06/2023 02:11</t>
+        </is>
+      </c>
+      <c r="P108" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="Q108" t="inlineStr">
+        <is>
           <t>23/06/2023 00:59</t>
         </is>
       </c>
-      <c r="N108" t="n">
-        <v>3.16</v>
-      </c>
-      <c r="O108" t="inlineStr">
-        <is>
-          <t>17/06/2023 22:12</t>
-        </is>
-      </c>
-      <c r="P108" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="Q108" t="inlineStr">
-        <is>
-          <t>23/06/2023 00:58</t>
-        </is>
-      </c>
       <c r="R108" t="n">
-        <v>2.61</v>
+        <v>5.14</v>
       </c>
       <c r="S108" t="inlineStr">
         <is>
-          <t>17/06/2023 22:12</t>
+          <t>19/06/2023 02:11</t>
         </is>
       </c>
       <c r="T108" t="n">
-        <v>3.08</v>
+        <v>4.46</v>
       </c>
       <c r="U108" t="inlineStr">
         <is>
@@ -10389,7 +10389,7 @@
       </c>
       <c r="V108" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/cuiaba-botafogo-rj/IcGGv1P8/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/vasco-goias/4fjsQ1AF/</t>
         </is>
       </c>
     </row>
@@ -10417,7 +10417,7 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>Coritiba</t>
+          <t>Cuiaba</t>
         </is>
       </c>
       <c r="G109" t="n">
@@ -10425,22 +10425,22 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Internacional</t>
+          <t>Botafogo RJ</t>
         </is>
       </c>
       <c r="I109" t="n">
         <v>1</v>
       </c>
       <c r="J109" t="n">
-        <v>3</v>
+        <v>3.01</v>
       </c>
       <c r="K109" t="inlineStr">
         <is>
-          <t>19/06/2023 02:11</t>
+          <t>17/06/2023 22:12</t>
         </is>
       </c>
       <c r="L109" t="n">
-        <v>2.75</v>
+        <v>2.73</v>
       </c>
       <c r="M109" t="inlineStr">
         <is>
@@ -10448,15 +10448,15 @@
         </is>
       </c>
       <c r="N109" t="n">
-        <v>3.12</v>
+        <v>3.16</v>
       </c>
       <c r="O109" t="inlineStr">
         <is>
-          <t>19/06/2023 02:11</t>
+          <t>17/06/2023 22:12</t>
         </is>
       </c>
       <c r="P109" t="n">
-        <v>3.01</v>
+        <v>2.98</v>
       </c>
       <c r="Q109" t="inlineStr">
         <is>
@@ -10464,15 +10464,15 @@
         </is>
       </c>
       <c r="R109" t="n">
-        <v>2.6</v>
+        <v>2.61</v>
       </c>
       <c r="S109" t="inlineStr">
         <is>
-          <t>19/06/2023 02:11</t>
+          <t>17/06/2023 22:12</t>
         </is>
       </c>
       <c r="T109" t="n">
-        <v>3.02</v>
+        <v>3.08</v>
       </c>
       <c r="U109" t="inlineStr">
         <is>
@@ -10481,7 +10481,7 @@
       </c>
       <c r="V109" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/coritiba-internacional/hKOUGcX1/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/cuiaba-botafogo-rj/IcGGv1P8/</t>
         </is>
       </c>
     </row>
@@ -10509,7 +10509,7 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>Vasco</t>
+          <t>Coritiba</t>
         </is>
       </c>
       <c r="G110" t="n">
@@ -10517,14 +10517,14 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Goias</t>
+          <t>Internacional</t>
         </is>
       </c>
       <c r="I110" t="n">
         <v>1</v>
       </c>
       <c r="J110" t="n">
-        <v>1.75</v>
+        <v>3</v>
       </c>
       <c r="K110" t="inlineStr">
         <is>
@@ -10532,15 +10532,15 @@
         </is>
       </c>
       <c r="L110" t="n">
-        <v>1.99</v>
+        <v>2.75</v>
       </c>
       <c r="M110" t="inlineStr">
         <is>
-          <t>23/06/2023 00:56</t>
+          <t>23/06/2023 00:59</t>
         </is>
       </c>
       <c r="N110" t="n">
-        <v>3.73</v>
+        <v>3.12</v>
       </c>
       <c r="O110" t="inlineStr">
         <is>
@@ -10548,32 +10548,32 @@
         </is>
       </c>
       <c r="P110" t="n">
-        <v>3.31</v>
+        <v>3.01</v>
       </c>
       <c r="Q110" t="inlineStr">
         <is>
+          <t>23/06/2023 00:58</t>
+        </is>
+      </c>
+      <c r="R110" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="S110" t="inlineStr">
+        <is>
+          <t>19/06/2023 02:11</t>
+        </is>
+      </c>
+      <c r="T110" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="U110" t="inlineStr">
+        <is>
           <t>23/06/2023 00:59</t>
         </is>
       </c>
-      <c r="R110" t="n">
-        <v>5.14</v>
-      </c>
-      <c r="S110" t="inlineStr">
-        <is>
-          <t>19/06/2023 02:11</t>
-        </is>
-      </c>
-      <c r="T110" t="n">
-        <v>4.46</v>
-      </c>
-      <c r="U110" t="inlineStr">
-        <is>
-          <t>23/06/2023 00:59</t>
-        </is>
-      </c>
       <c r="V110" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/vasco-goias/4fjsQ1AF/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/coritiba-internacional/hKOUGcX1/</t>
         </is>
       </c>
     </row>
@@ -11245,7 +11245,7 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>Bragantino</t>
+          <t>Santos</t>
         </is>
       </c>
       <c r="G118" t="n">
@@ -11253,38 +11253,38 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Goias</t>
+          <t>Flamengo RJ</t>
         </is>
       </c>
       <c r="I118" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J118" t="n">
-        <v>1.43</v>
+        <v>3.96</v>
       </c>
       <c r="K118" t="inlineStr">
         <is>
-          <t>18/06/2023 23:41</t>
+          <t>23/06/2023 02:42</t>
         </is>
       </c>
       <c r="L118" t="n">
-        <v>1.43</v>
+        <v>3.48</v>
       </c>
       <c r="M118" t="inlineStr">
         <is>
-          <t>25/06/2023 23:26</t>
+          <t>25/06/2023 23:29</t>
         </is>
       </c>
       <c r="N118" t="n">
-        <v>4.8</v>
+        <v>3.4</v>
       </c>
       <c r="O118" t="inlineStr">
         <is>
-          <t>18/06/2023 23:41</t>
+          <t>23/06/2023 02:42</t>
         </is>
       </c>
       <c r="P118" t="n">
-        <v>4.79</v>
+        <v>3.21</v>
       </c>
       <c r="Q118" t="inlineStr">
         <is>
@@ -11292,15 +11292,15 @@
         </is>
       </c>
       <c r="R118" t="n">
-        <v>7.69</v>
+        <v>2.03</v>
       </c>
       <c r="S118" t="inlineStr">
         <is>
-          <t>18/06/2023 23:41</t>
+          <t>23/06/2023 02:42</t>
         </is>
       </c>
       <c r="T118" t="n">
-        <v>8.140000000000001</v>
+        <v>2.33</v>
       </c>
       <c r="U118" t="inlineStr">
         <is>
@@ -11309,7 +11309,7 @@
       </c>
       <c r="V118" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/bragantino-goias/hKp0WxXl/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/santos-flamengo-rj/AeeeXIHr/</t>
         </is>
       </c>
     </row>
@@ -11337,62 +11337,62 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>America MG</t>
+          <t>Bragantino</t>
         </is>
       </c>
       <c r="G119" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Internacional</t>
+          <t>Goias</t>
         </is>
       </c>
       <c r="I119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J119" t="n">
-        <v>2.43</v>
+        <v>1.43</v>
       </c>
       <c r="K119" t="inlineStr">
         <is>
-          <t>23/06/2023 01:11</t>
+          <t>18/06/2023 23:41</t>
         </is>
       </c>
       <c r="L119" t="n">
-        <v>2.01</v>
+        <v>1.43</v>
       </c>
       <c r="M119" t="inlineStr">
         <is>
-          <t>25/06/2023 23:25</t>
+          <t>25/06/2023 23:26</t>
         </is>
       </c>
       <c r="N119" t="n">
-        <v>3.32</v>
+        <v>4.8</v>
       </c>
       <c r="O119" t="inlineStr">
         <is>
-          <t>23/06/2023 01:11</t>
+          <t>18/06/2023 23:41</t>
         </is>
       </c>
       <c r="P119" t="n">
-        <v>3.46</v>
+        <v>4.79</v>
       </c>
       <c r="Q119" t="inlineStr">
         <is>
-          <t>25/06/2023 23:27</t>
+          <t>25/06/2023 23:28</t>
         </is>
       </c>
       <c r="R119" t="n">
-        <v>3.13</v>
+        <v>7.69</v>
       </c>
       <c r="S119" t="inlineStr">
         <is>
-          <t>23/06/2023 01:11</t>
+          <t>18/06/2023 23:41</t>
         </is>
       </c>
       <c r="T119" t="n">
-        <v>4.14</v>
+        <v>8.140000000000001</v>
       </c>
       <c r="U119" t="inlineStr">
         <is>
@@ -11401,7 +11401,7 @@
       </c>
       <c r="V119" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/america-mg-internacional/IJiiiv9E/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/bragantino-goias/hKp0WxXl/</t>
         </is>
       </c>
     </row>
@@ -11429,71 +11429,71 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>Santos</t>
+          <t>America MG</t>
         </is>
       </c>
       <c r="G120" t="n">
+        <v>1</v>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>Internacional</t>
+        </is>
+      </c>
+      <c r="I120" t="n">
         <v>2</v>
       </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>Flamengo RJ</t>
-        </is>
-      </c>
-      <c r="I120" t="n">
-        <v>3</v>
-      </c>
       <c r="J120" t="n">
-        <v>3.96</v>
+        <v>2.43</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>
-          <t>23/06/2023 02:42</t>
+          <t>23/06/2023 01:11</t>
         </is>
       </c>
       <c r="L120" t="n">
-        <v>3.48</v>
+        <v>2.01</v>
       </c>
       <c r="M120" t="inlineStr">
         <is>
-          <t>25/06/2023 23:29</t>
+          <t>25/06/2023 23:25</t>
         </is>
       </c>
       <c r="N120" t="n">
-        <v>3.4</v>
+        <v>3.32</v>
       </c>
       <c r="O120" t="inlineStr">
         <is>
-          <t>23/06/2023 02:42</t>
+          <t>23/06/2023 01:11</t>
         </is>
       </c>
       <c r="P120" t="n">
-        <v>3.21</v>
+        <v>3.46</v>
       </c>
       <c r="Q120" t="inlineStr">
         <is>
+          <t>25/06/2023 23:27</t>
+        </is>
+      </c>
+      <c r="R120" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="S120" t="inlineStr">
+        <is>
+          <t>23/06/2023 01:11</t>
+        </is>
+      </c>
+      <c r="T120" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="U120" t="inlineStr">
+        <is>
           <t>25/06/2023 23:28</t>
         </is>
       </c>
-      <c r="R120" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="S120" t="inlineStr">
-        <is>
-          <t>23/06/2023 02:42</t>
-        </is>
-      </c>
-      <c r="T120" t="n">
-        <v>2.33</v>
-      </c>
-      <c r="U120" t="inlineStr">
-        <is>
-          <t>25/06/2023 23:28</t>
-        </is>
-      </c>
       <c r="V120" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/santos-flamengo-rj/AeeeXIHr/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/america-mg-internacional/IJiiiv9E/</t>
         </is>
       </c>
     </row>
@@ -12073,7 +12073,7 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>Atletico-MG</t>
+          <t>Botafogo RJ</t>
         </is>
       </c>
       <c r="G127" t="n">
@@ -12081,63 +12081,63 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>America MG</t>
+          <t>Vasco</t>
         </is>
       </c>
       <c r="I127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J127" t="n">
-        <v>1.37</v>
+        <v>1.75</v>
       </c>
       <c r="K127" t="inlineStr">
         <is>
-          <t>25/06/2023 23:41</t>
+          <t>27/06/2023 02:11</t>
         </is>
       </c>
       <c r="L127" t="n">
-        <v>1.54</v>
+        <v>1.97</v>
       </c>
       <c r="M127" t="inlineStr">
         <is>
-          <t>02/07/2023 20:53</t>
+          <t>02/07/2023 20:58</t>
         </is>
       </c>
       <c r="N127" t="n">
-        <v>5.28</v>
+        <v>3.68</v>
       </c>
       <c r="O127" t="inlineStr">
         <is>
-          <t>25/06/2023 23:41</t>
+          <t>27/06/2023 02:11</t>
         </is>
       </c>
       <c r="P127" t="n">
-        <v>4.01</v>
+        <v>3.41</v>
       </c>
       <c r="Q127" t="inlineStr">
         <is>
-          <t>02/07/2023 20:54</t>
+          <t>02/07/2023 20:58</t>
         </is>
       </c>
       <c r="R127" t="n">
-        <v>8.81</v>
+        <v>5.27</v>
       </c>
       <c r="S127" t="inlineStr">
         <is>
-          <t>25/06/2023 23:41</t>
+          <t>27/06/2023 02:11</t>
         </is>
       </c>
       <c r="T127" t="n">
-        <v>7.6</v>
+        <v>4.37</v>
       </c>
       <c r="U127" t="inlineStr">
         <is>
-          <t>02/07/2023 20:54</t>
+          <t>02/07/2023 20:58</t>
         </is>
       </c>
       <c r="V127" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/atletico-mg-america-mg/IszvrzW0/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/botafogo-rj-vasco/QqeakIwR/</t>
         </is>
       </c>
     </row>
@@ -12165,7 +12165,7 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>Botafogo RJ</t>
+          <t>Athletico-PR</t>
         </is>
       </c>
       <c r="G128" t="n">
@@ -12173,63 +12173,63 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Vasco</t>
+          <t>Palmeiras</t>
         </is>
       </c>
       <c r="I128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J128" t="n">
-        <v>1.75</v>
+        <v>2.99</v>
       </c>
       <c r="K128" t="inlineStr">
         <is>
-          <t>27/06/2023 02:11</t>
+          <t>25/06/2023 21:11</t>
         </is>
       </c>
       <c r="L128" t="n">
-        <v>1.97</v>
+        <v>2.35</v>
       </c>
       <c r="M128" t="inlineStr">
         <is>
-          <t>02/07/2023 20:58</t>
+          <t>02/07/2023 20:59</t>
         </is>
       </c>
       <c r="N128" t="n">
-        <v>3.68</v>
+        <v>3.23</v>
       </c>
       <c r="O128" t="inlineStr">
         <is>
-          <t>27/06/2023 02:11</t>
+          <t>25/06/2023 21:11</t>
         </is>
       </c>
       <c r="P128" t="n">
-        <v>3.41</v>
+        <v>3.24</v>
       </c>
       <c r="Q128" t="inlineStr">
         <is>
-          <t>02/07/2023 20:58</t>
+          <t>02/07/2023 20:55</t>
         </is>
       </c>
       <c r="R128" t="n">
-        <v>5.27</v>
+        <v>2.53</v>
       </c>
       <c r="S128" t="inlineStr">
         <is>
-          <t>27/06/2023 02:11</t>
+          <t>25/06/2023 21:11</t>
         </is>
       </c>
       <c r="T128" t="n">
-        <v>4.37</v>
+        <v>3.4</v>
       </c>
       <c r="U128" t="inlineStr">
         <is>
-          <t>02/07/2023 20:58</t>
+          <t>02/07/2023 20:59</t>
         </is>
       </c>
       <c r="V128" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/botafogo-rj-vasco/QqeakIwR/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/athletico-pr-palmeiras/birntE0D/</t>
         </is>
       </c>
     </row>
@@ -12257,7 +12257,7 @@
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>Athletico-PR</t>
+          <t>Atletico-MG</t>
         </is>
       </c>
       <c r="G129" t="n">
@@ -12265,63 +12265,63 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>Palmeiras</t>
+          <t>America MG</t>
         </is>
       </c>
       <c r="I129" t="n">
         <v>2</v>
       </c>
       <c r="J129" t="n">
-        <v>2.99</v>
+        <v>1.37</v>
       </c>
       <c r="K129" t="inlineStr">
         <is>
-          <t>25/06/2023 21:11</t>
+          <t>25/06/2023 23:41</t>
         </is>
       </c>
       <c r="L129" t="n">
-        <v>2.35</v>
+        <v>1.54</v>
       </c>
       <c r="M129" t="inlineStr">
         <is>
-          <t>02/07/2023 20:59</t>
+          <t>02/07/2023 20:53</t>
         </is>
       </c>
       <c r="N129" t="n">
-        <v>3.23</v>
+        <v>5.28</v>
       </c>
       <c r="O129" t="inlineStr">
         <is>
-          <t>25/06/2023 21:11</t>
+          <t>25/06/2023 23:41</t>
         </is>
       </c>
       <c r="P129" t="n">
-        <v>3.24</v>
+        <v>4.01</v>
       </c>
       <c r="Q129" t="inlineStr">
         <is>
-          <t>02/07/2023 20:55</t>
+          <t>02/07/2023 20:54</t>
         </is>
       </c>
       <c r="R129" t="n">
-        <v>2.53</v>
+        <v>8.81</v>
       </c>
       <c r="S129" t="inlineStr">
         <is>
-          <t>25/06/2023 21:11</t>
+          <t>25/06/2023 23:41</t>
         </is>
       </c>
       <c r="T129" t="n">
-        <v>3.4</v>
+        <v>7.6</v>
       </c>
       <c r="U129" t="inlineStr">
         <is>
-          <t>02/07/2023 20:59</t>
+          <t>02/07/2023 20:54</t>
         </is>
       </c>
       <c r="V129" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/athletico-pr-palmeiras/birntE0D/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/atletico-mg-america-mg/IszvrzW0/</t>
         </is>
       </c>
     </row>
@@ -12533,71 +12533,71 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>Vasco</t>
+          <t>Cuiaba</t>
         </is>
       </c>
       <c r="G132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Cruzeiro</t>
+          <t>Bahia</t>
         </is>
       </c>
       <c r="I132" t="n">
         <v>1</v>
       </c>
       <c r="J132" t="n">
-        <v>2.67</v>
+        <v>2.16</v>
       </c>
       <c r="K132" t="inlineStr">
         <is>
-          <t>02/07/2023 21:12</t>
+          <t>02/07/2023 23:42</t>
         </is>
       </c>
       <c r="L132" t="n">
-        <v>2.98</v>
+        <v>1.79</v>
       </c>
       <c r="M132" t="inlineStr">
         <is>
-          <t>08/07/2023 20:59</t>
+          <t>08/07/2023 20:43</t>
         </is>
       </c>
       <c r="N132" t="n">
-        <v>3.29</v>
+        <v>3.45</v>
       </c>
       <c r="O132" t="inlineStr">
         <is>
-          <t>02/07/2023 21:12</t>
+          <t>02/07/2023 23:42</t>
         </is>
       </c>
       <c r="P132" t="n">
-        <v>3.23</v>
+        <v>3.5</v>
       </c>
       <c r="Q132" t="inlineStr">
         <is>
-          <t>08/07/2023 20:51</t>
+          <t>08/07/2023 20:58</t>
         </is>
       </c>
       <c r="R132" t="n">
-        <v>2.77</v>
+        <v>3.48</v>
       </c>
       <c r="S132" t="inlineStr">
         <is>
-          <t>02/07/2023 21:12</t>
+          <t>02/07/2023 23:42</t>
         </is>
       </c>
       <c r="T132" t="n">
-        <v>2.61</v>
+        <v>5.39</v>
       </c>
       <c r="U132" t="inlineStr">
         <is>
-          <t>08/07/2023 20:57</t>
+          <t>08/07/2023 20:58</t>
         </is>
       </c>
       <c r="V132" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/vasco-cruzeiro/AVB4beGs/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/cuiaba-bahia/v98u08in/</t>
         </is>
       </c>
     </row>
@@ -12625,71 +12625,71 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>Cuiaba</t>
+          <t>Vasco</t>
         </is>
       </c>
       <c r="G133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Bahia</t>
+          <t>Cruzeiro</t>
         </is>
       </c>
       <c r="I133" t="n">
         <v>1</v>
       </c>
       <c r="J133" t="n">
-        <v>2.16</v>
+        <v>2.67</v>
       </c>
       <c r="K133" t="inlineStr">
         <is>
-          <t>02/07/2023 23:42</t>
+          <t>02/07/2023 21:12</t>
         </is>
       </c>
       <c r="L133" t="n">
-        <v>1.79</v>
+        <v>2.98</v>
       </c>
       <c r="M133" t="inlineStr">
         <is>
-          <t>08/07/2023 20:43</t>
+          <t>08/07/2023 20:59</t>
         </is>
       </c>
       <c r="N133" t="n">
-        <v>3.45</v>
+        <v>3.29</v>
       </c>
       <c r="O133" t="inlineStr">
         <is>
-          <t>02/07/2023 23:42</t>
+          <t>02/07/2023 21:12</t>
         </is>
       </c>
       <c r="P133" t="n">
-        <v>3.5</v>
+        <v>3.23</v>
       </c>
       <c r="Q133" t="inlineStr">
         <is>
-          <t>08/07/2023 20:58</t>
+          <t>08/07/2023 20:51</t>
         </is>
       </c>
       <c r="R133" t="n">
-        <v>3.48</v>
+        <v>2.77</v>
       </c>
       <c r="S133" t="inlineStr">
         <is>
-          <t>02/07/2023 23:42</t>
+          <t>02/07/2023 21:12</t>
         </is>
       </c>
       <c r="T133" t="n">
-        <v>5.39</v>
+        <v>2.61</v>
       </c>
       <c r="U133" t="inlineStr">
         <is>
-          <t>08/07/2023 20:58</t>
+          <t>08/07/2023 20:57</t>
         </is>
       </c>
       <c r="V133" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/cuiaba-bahia/v98u08in/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/vasco-cruzeiro/AVB4beGs/</t>
         </is>
       </c>
     </row>
@@ -12717,71 +12717,71 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>Coritiba</t>
+          <t>Atletico-MG</t>
         </is>
       </c>
       <c r="G134" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>America MG</t>
+          <t>Corinthians</t>
         </is>
       </c>
       <c r="I134" t="n">
         <v>1</v>
       </c>
       <c r="J134" t="n">
-        <v>2.35</v>
+        <v>1.55</v>
       </c>
       <c r="K134" t="inlineStr">
         <is>
-          <t>04/07/2023 01:12</t>
+          <t>02/07/2023 21:12</t>
         </is>
       </c>
       <c r="L134" t="n">
-        <v>2.17</v>
+        <v>1.79</v>
       </c>
       <c r="M134" t="inlineStr">
         <is>
-          <t>08/07/2023 23:29</t>
+          <t>08/07/2023 23:26</t>
         </is>
       </c>
       <c r="N134" t="n">
-        <v>3.25</v>
+        <v>4.02</v>
       </c>
       <c r="O134" t="inlineStr">
         <is>
-          <t>04/07/2023 01:12</t>
+          <t>02/07/2023 21:12</t>
         </is>
       </c>
       <c r="P134" t="n">
-        <v>3.41</v>
+        <v>3.32</v>
       </c>
       <c r="Q134" t="inlineStr">
         <is>
-          <t>08/07/2023 23:29</t>
+          <t>08/07/2023 23:27</t>
         </is>
       </c>
       <c r="R134" t="n">
-        <v>3.35</v>
+        <v>6.72</v>
       </c>
       <c r="S134" t="inlineStr">
         <is>
-          <t>04/07/2023 01:12</t>
+          <t>02/07/2023 21:12</t>
         </is>
       </c>
       <c r="T134" t="n">
-        <v>3.64</v>
+        <v>5.91</v>
       </c>
       <c r="U134" t="inlineStr">
         <is>
-          <t>08/07/2023 23:29</t>
+          <t>08/07/2023 23:27</t>
         </is>
       </c>
       <c r="V134" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/coritiba-america-mg/QR1ThipJ/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/atletico-mg-corinthians/vB3LfDF6/</t>
         </is>
       </c>
     </row>
@@ -12809,71 +12809,71 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>Atletico-MG</t>
+          <t>Coritiba</t>
         </is>
       </c>
       <c r="G135" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Corinthians</t>
+          <t>America MG</t>
         </is>
       </c>
       <c r="I135" t="n">
         <v>1</v>
       </c>
       <c r="J135" t="n">
-        <v>1.55</v>
+        <v>2.35</v>
       </c>
       <c r="K135" t="inlineStr">
         <is>
-          <t>02/07/2023 21:12</t>
+          <t>04/07/2023 01:12</t>
         </is>
       </c>
       <c r="L135" t="n">
-        <v>1.79</v>
+        <v>2.17</v>
       </c>
       <c r="M135" t="inlineStr">
         <is>
-          <t>08/07/2023 23:26</t>
+          <t>08/07/2023 23:29</t>
         </is>
       </c>
       <c r="N135" t="n">
-        <v>4.02</v>
+        <v>3.25</v>
       </c>
       <c r="O135" t="inlineStr">
         <is>
-          <t>02/07/2023 21:12</t>
+          <t>04/07/2023 01:12</t>
         </is>
       </c>
       <c r="P135" t="n">
-        <v>3.32</v>
+        <v>3.41</v>
       </c>
       <c r="Q135" t="inlineStr">
         <is>
-          <t>08/07/2023 23:27</t>
+          <t>08/07/2023 23:29</t>
         </is>
       </c>
       <c r="R135" t="n">
-        <v>6.72</v>
+        <v>3.35</v>
       </c>
       <c r="S135" t="inlineStr">
         <is>
-          <t>02/07/2023 21:12</t>
+          <t>04/07/2023 01:12</t>
         </is>
       </c>
       <c r="T135" t="n">
-        <v>5.91</v>
+        <v>3.64</v>
       </c>
       <c r="U135" t="inlineStr">
         <is>
-          <t>08/07/2023 23:27</t>
+          <t>08/07/2023 23:29</t>
         </is>
       </c>
       <c r="V135" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/atletico-mg-corinthians/vB3LfDF6/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/coritiba-america-mg/QR1ThipJ/</t>
         </is>
       </c>
     </row>
@@ -13913,71 +13913,71 @@
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>Internacional</t>
+          <t>Athletico-PR</t>
         </is>
       </c>
       <c r="G147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>Palmeiras</t>
+          <t>Bahia</t>
         </is>
       </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
       <c r="J147" t="n">
-        <v>3.15</v>
+        <v>1.67</v>
       </c>
       <c r="K147" t="inlineStr">
         <is>
-          <t>09/07/2023 22:42</t>
+          <t>09/07/2023 23:42</t>
         </is>
       </c>
       <c r="L147" t="n">
-        <v>2.83</v>
+        <v>1.59</v>
       </c>
       <c r="M147" t="inlineStr">
         <is>
-          <t>16/07/2023 23:28</t>
+          <t>16/07/2023 23:16</t>
         </is>
       </c>
       <c r="N147" t="n">
-        <v>3.32</v>
+        <v>3.93</v>
       </c>
       <c r="O147" t="inlineStr">
         <is>
-          <t>09/07/2023 22:42</t>
+          <t>09/07/2023 23:42</t>
         </is>
       </c>
       <c r="P147" t="n">
-        <v>3.15</v>
+        <v>4.14</v>
       </c>
       <c r="Q147" t="inlineStr">
         <is>
-          <t>16/07/2023 23:28</t>
+          <t>16/07/2023 23:29</t>
         </is>
       </c>
       <c r="R147" t="n">
-        <v>2.38</v>
+        <v>5.5</v>
       </c>
       <c r="S147" t="inlineStr">
         <is>
-          <t>09/07/2023 22:42</t>
+          <t>09/07/2023 23:42</t>
         </is>
       </c>
       <c r="T147" t="n">
-        <v>2.8</v>
+        <v>6.25</v>
       </c>
       <c r="U147" t="inlineStr">
         <is>
-          <t>16/07/2023 23:28</t>
+          <t>16/07/2023 23:29</t>
         </is>
       </c>
       <c r="V147" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/internacional-palmeiras/dAh9gOzU/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/athletico-pr-bahia/bJvykrqo/</t>
         </is>
       </c>
     </row>
@@ -14005,71 +14005,71 @@
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>Athletico-PR</t>
+          <t>Internacional</t>
         </is>
       </c>
       <c r="G148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>Bahia</t>
+          <t>Palmeiras</t>
         </is>
       </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
       <c r="J148" t="n">
-        <v>1.67</v>
+        <v>3.15</v>
       </c>
       <c r="K148" t="inlineStr">
         <is>
-          <t>09/07/2023 23:42</t>
+          <t>09/07/2023 22:42</t>
         </is>
       </c>
       <c r="L148" t="n">
-        <v>1.59</v>
+        <v>2.83</v>
       </c>
       <c r="M148" t="inlineStr">
         <is>
-          <t>16/07/2023 23:16</t>
+          <t>16/07/2023 23:28</t>
         </is>
       </c>
       <c r="N148" t="n">
-        <v>3.93</v>
+        <v>3.32</v>
       </c>
       <c r="O148" t="inlineStr">
         <is>
-          <t>09/07/2023 23:42</t>
+          <t>09/07/2023 22:42</t>
         </is>
       </c>
       <c r="P148" t="n">
-        <v>4.14</v>
+        <v>3.15</v>
       </c>
       <c r="Q148" t="inlineStr">
         <is>
-          <t>16/07/2023 23:29</t>
+          <t>16/07/2023 23:28</t>
         </is>
       </c>
       <c r="R148" t="n">
-        <v>5.5</v>
+        <v>2.38</v>
       </c>
       <c r="S148" t="inlineStr">
         <is>
-          <t>09/07/2023 23:42</t>
+          <t>09/07/2023 22:42</t>
         </is>
       </c>
       <c r="T148" t="n">
-        <v>6.25</v>
+        <v>2.8</v>
       </c>
       <c r="U148" t="inlineStr">
         <is>
-          <t>16/07/2023 23:29</t>
+          <t>16/07/2023 23:28</t>
         </is>
       </c>
       <c r="V148" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/athletico-pr-bahia/bJvykrqo/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/internacional-palmeiras/dAh9gOzU/</t>
         </is>
       </c>
     </row>
@@ -14373,30 +14373,30 @@
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>Bahia</t>
+          <t>Cuiaba</t>
         </is>
       </c>
       <c r="G152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>Corinthians</t>
+          <t>Sao Paulo</t>
         </is>
       </c>
       <c r="I152" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J152" t="n">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="K152" t="inlineStr">
         <is>
-          <t>16/07/2023 23:42</t>
+          <t>16/07/2023 21:12</t>
         </is>
       </c>
       <c r="L152" t="n">
-        <v>2.28</v>
+        <v>2.86</v>
       </c>
       <c r="M152" t="inlineStr">
         <is>
@@ -14404,15 +14404,15 @@
         </is>
       </c>
       <c r="N152" t="n">
-        <v>3.13</v>
+        <v>3.2</v>
       </c>
       <c r="O152" t="inlineStr">
         <is>
-          <t>16/07/2023 23:42</t>
+          <t>16/07/2023 21:12</t>
         </is>
       </c>
       <c r="P152" t="n">
-        <v>3.11</v>
+        <v>3.01</v>
       </c>
       <c r="Q152" t="inlineStr">
         <is>
@@ -14420,15 +14420,15 @@
         </is>
       </c>
       <c r="R152" t="n">
-        <v>3.32</v>
+        <v>2.81</v>
       </c>
       <c r="S152" t="inlineStr">
         <is>
-          <t>16/07/2023 23:42</t>
+          <t>16/07/2023 21:12</t>
         </is>
       </c>
       <c r="T152" t="n">
-        <v>3.74</v>
+        <v>2.9</v>
       </c>
       <c r="U152" t="inlineStr">
         <is>
@@ -14437,7 +14437,7 @@
       </c>
       <c r="V152" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/bahia-corinthians/Y5OhQ45i/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/cuiaba-sao-paulo/CdNdPOKc/</t>
         </is>
       </c>
     </row>
@@ -14465,30 +14465,30 @@
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>Cuiaba</t>
+          <t>Bahia</t>
         </is>
       </c>
       <c r="G153" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>Sao Paulo</t>
+          <t>Corinthians</t>
         </is>
       </c>
       <c r="I153" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J153" t="n">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="K153" t="inlineStr">
         <is>
-          <t>16/07/2023 21:12</t>
+          <t>16/07/2023 23:42</t>
         </is>
       </c>
       <c r="L153" t="n">
-        <v>2.86</v>
+        <v>2.28</v>
       </c>
       <c r="M153" t="inlineStr">
         <is>
@@ -14496,15 +14496,15 @@
         </is>
       </c>
       <c r="N153" t="n">
-        <v>3.2</v>
+        <v>3.13</v>
       </c>
       <c r="O153" t="inlineStr">
         <is>
-          <t>16/07/2023 21:12</t>
+          <t>16/07/2023 23:42</t>
         </is>
       </c>
       <c r="P153" t="n">
-        <v>3.01</v>
+        <v>3.11</v>
       </c>
       <c r="Q153" t="inlineStr">
         <is>
@@ -14512,15 +14512,15 @@
         </is>
       </c>
       <c r="R153" t="n">
-        <v>2.81</v>
+        <v>3.32</v>
       </c>
       <c r="S153" t="inlineStr">
         <is>
-          <t>16/07/2023 21:12</t>
+          <t>16/07/2023 23:42</t>
         </is>
       </c>
       <c r="T153" t="n">
-        <v>2.9</v>
+        <v>3.74</v>
       </c>
       <c r="U153" t="inlineStr">
         <is>
@@ -14529,7 +14529,7 @@
       </c>
       <c r="V153" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/cuiaba-sao-paulo/CdNdPOKc/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/bahia-corinthians/Y5OhQ45i/</t>
         </is>
       </c>
     </row>
@@ -14649,30 +14649,30 @@
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>Santos</t>
+          <t>Bragantino</t>
         </is>
       </c>
       <c r="G155" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>Botafogo RJ</t>
+          <t>Internacional</t>
         </is>
       </c>
       <c r="I155" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J155" t="n">
-        <v>2.87</v>
+        <v>1.83</v>
       </c>
       <c r="K155" t="inlineStr">
         <is>
-          <t>16/07/2023 21:12</t>
+          <t>16/07/2023 23:42</t>
         </is>
       </c>
       <c r="L155" t="n">
-        <v>2.99</v>
+        <v>1.75</v>
       </c>
       <c r="M155" t="inlineStr">
         <is>
@@ -14680,40 +14680,40 @@
         </is>
       </c>
       <c r="N155" t="n">
-        <v>3</v>
+        <v>3.62</v>
       </c>
       <c r="O155" t="inlineStr">
         <is>
-          <t>16/07/2023 21:12</t>
+          <t>16/07/2023 23:42</t>
         </is>
       </c>
       <c r="P155" t="n">
-        <v>2.97</v>
+        <v>3.72</v>
       </c>
       <c r="Q155" t="inlineStr">
         <is>
-          <t>23/07/2023 20:48</t>
+          <t>23/07/2023 20:59</t>
         </is>
       </c>
       <c r="R155" t="n">
-        <v>2.8</v>
+        <v>4.59</v>
       </c>
       <c r="S155" t="inlineStr">
         <is>
-          <t>16/07/2023 21:12</t>
+          <t>16/07/2023 23:42</t>
         </is>
       </c>
       <c r="T155" t="n">
-        <v>2.81</v>
+        <v>5.31</v>
       </c>
       <c r="U155" t="inlineStr">
         <is>
-          <t>23/07/2023 20:58</t>
+          <t>23/07/2023 20:59</t>
         </is>
       </c>
       <c r="V155" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/santos-botafogo-rj/f5Ow93zH/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/bragantino-internacional/MRfz8NkN/</t>
         </is>
       </c>
     </row>
@@ -14741,71 +14741,71 @@
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>Cruzeiro</t>
+          <t>Santos</t>
         </is>
       </c>
       <c r="G156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>Goias</t>
+          <t>Botafogo RJ</t>
         </is>
       </c>
       <c r="I156" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J156" t="n">
-        <v>1.63</v>
+        <v>2.87</v>
       </c>
       <c r="K156" t="inlineStr">
         <is>
-          <t>18/07/2023 01:12</t>
+          <t>16/07/2023 21:12</t>
         </is>
       </c>
       <c r="L156" t="n">
-        <v>1.54</v>
+        <v>2.99</v>
       </c>
       <c r="M156" t="inlineStr">
         <is>
-          <t>23/07/2023 20:53</t>
+          <t>23/07/2023 20:59</t>
         </is>
       </c>
       <c r="N156" t="n">
-        <v>3.82</v>
+        <v>3</v>
       </c>
       <c r="O156" t="inlineStr">
         <is>
-          <t>18/07/2023 01:12</t>
+          <t>16/07/2023 21:12</t>
         </is>
       </c>
       <c r="P156" t="n">
-        <v>4.05</v>
+        <v>2.97</v>
       </c>
       <c r="Q156" t="inlineStr">
         <is>
-          <t>23/07/2023 20:55</t>
+          <t>23/07/2023 20:48</t>
         </is>
       </c>
       <c r="R156" t="n">
-        <v>5.9</v>
+        <v>2.8</v>
       </c>
       <c r="S156" t="inlineStr">
         <is>
-          <t>18/07/2023 01:12</t>
+          <t>16/07/2023 21:12</t>
         </is>
       </c>
       <c r="T156" t="n">
-        <v>7.32</v>
+        <v>2.81</v>
       </c>
       <c r="U156" t="inlineStr">
         <is>
-          <t>23/07/2023 20:55</t>
+          <t>23/07/2023 20:58</t>
         </is>
       </c>
       <c r="V156" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/cruzeiro-goias/0Igv7s5T/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/santos-botafogo-rj/f5Ow93zH/</t>
         </is>
       </c>
     </row>
@@ -14833,7 +14833,7 @@
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>Bragantino</t>
+          <t>Cruzeiro</t>
         </is>
       </c>
       <c r="G157" t="n">
@@ -14841,63 +14841,63 @@
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>Internacional</t>
+          <t>Goias</t>
         </is>
       </c>
       <c r="I157" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J157" t="n">
-        <v>1.83</v>
+        <v>1.63</v>
       </c>
       <c r="K157" t="inlineStr">
         <is>
-          <t>16/07/2023 23:42</t>
+          <t>18/07/2023 01:12</t>
         </is>
       </c>
       <c r="L157" t="n">
-        <v>1.75</v>
+        <v>1.54</v>
       </c>
       <c r="M157" t="inlineStr">
         <is>
-          <t>23/07/2023 20:59</t>
+          <t>23/07/2023 20:53</t>
         </is>
       </c>
       <c r="N157" t="n">
-        <v>3.62</v>
+        <v>3.82</v>
       </c>
       <c r="O157" t="inlineStr">
         <is>
-          <t>16/07/2023 23:42</t>
+          <t>18/07/2023 01:12</t>
         </is>
       </c>
       <c r="P157" t="n">
-        <v>3.72</v>
+        <v>4.05</v>
       </c>
       <c r="Q157" t="inlineStr">
         <is>
-          <t>23/07/2023 20:59</t>
+          <t>23/07/2023 20:55</t>
         </is>
       </c>
       <c r="R157" t="n">
-        <v>4.59</v>
+        <v>5.9</v>
       </c>
       <c r="S157" t="inlineStr">
         <is>
-          <t>16/07/2023 23:42</t>
+          <t>18/07/2023 01:12</t>
         </is>
       </c>
       <c r="T157" t="n">
-        <v>5.31</v>
+        <v>7.32</v>
       </c>
       <c r="U157" t="inlineStr">
         <is>
-          <t>23/07/2023 20:59</t>
+          <t>23/07/2023 20:55</t>
         </is>
       </c>
       <c r="V157" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/bragantino-internacional/MRfz8NkN/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/cruzeiro-goias/0Igv7s5T/</t>
         </is>
       </c>
     </row>
@@ -15109,71 +15109,71 @@
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>Athletico-PR</t>
+          <t>Fluminense</t>
         </is>
       </c>
       <c r="G160" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>Cruzeiro</t>
+          <t>Santos</t>
         </is>
       </c>
       <c r="I160" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J160" t="n">
-        <v>2.03</v>
+        <v>1.62</v>
       </c>
       <c r="K160" t="inlineStr">
         <is>
-          <t>23/07/2023 23:42</t>
+          <t>25/07/2023 00:12</t>
         </is>
       </c>
       <c r="L160" t="n">
-        <v>1.86</v>
+        <v>1.55</v>
       </c>
       <c r="M160" t="inlineStr">
         <is>
-          <t>29/07/2023 20:45</t>
+          <t>29/07/2023 20:58</t>
         </is>
       </c>
       <c r="N160" t="n">
-        <v>3.38</v>
+        <v>3.83</v>
       </c>
       <c r="O160" t="inlineStr">
         <is>
-          <t>23/07/2023 23:42</t>
+          <t>25/07/2023 00:12</t>
         </is>
       </c>
       <c r="P160" t="n">
-        <v>3.49</v>
+        <v>3.98</v>
       </c>
       <c r="Q160" t="inlineStr">
         <is>
-          <t>29/07/2023 20:45</t>
+          <t>29/07/2023 20:59</t>
         </is>
       </c>
       <c r="R160" t="n">
-        <v>3.98</v>
+        <v>6.02</v>
       </c>
       <c r="S160" t="inlineStr">
         <is>
-          <t>23/07/2023 23:42</t>
+          <t>25/07/2023 00:12</t>
         </is>
       </c>
       <c r="T160" t="n">
-        <v>4.87</v>
+        <v>7.47</v>
       </c>
       <c r="U160" t="inlineStr">
         <is>
-          <t>29/07/2023 20:58</t>
+          <t>29/07/2023 20:59</t>
         </is>
       </c>
       <c r="V160" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/athletico-pr-cruzeiro/6JbhEbCd/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/fluminense-santos/tWR0Orz4/</t>
         </is>
       </c>
     </row>
@@ -15201,71 +15201,71 @@
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>Internacional</t>
+          <t>Athletico-PR</t>
         </is>
       </c>
       <c r="G161" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>Cuiaba</t>
+          <t>Cruzeiro</t>
         </is>
       </c>
       <c r="I161" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J161" t="n">
-        <v>1.88</v>
+        <v>2.03</v>
       </c>
       <c r="K161" t="inlineStr">
         <is>
-          <t>23/07/2023 21:12</t>
+          <t>23/07/2023 23:42</t>
         </is>
       </c>
       <c r="L161" t="n">
-        <v>1.81</v>
+        <v>1.86</v>
       </c>
       <c r="M161" t="inlineStr">
         <is>
-          <t>29/07/2023 20:51</t>
+          <t>29/07/2023 20:45</t>
         </is>
       </c>
       <c r="N161" t="n">
-        <v>3.23</v>
+        <v>3.38</v>
       </c>
       <c r="O161" t="inlineStr">
         <is>
-          <t>23/07/2023 21:12</t>
+          <t>23/07/2023 23:42</t>
         </is>
       </c>
       <c r="P161" t="n">
-        <v>3.44</v>
+        <v>3.49</v>
       </c>
       <c r="Q161" t="inlineStr">
         <is>
-          <t>29/07/2023 20:59</t>
+          <t>29/07/2023 20:45</t>
         </is>
       </c>
       <c r="R161" t="n">
-        <v>4.99</v>
+        <v>3.98</v>
       </c>
       <c r="S161" t="inlineStr">
         <is>
-          <t>23/07/2023 21:12</t>
+          <t>23/07/2023 23:42</t>
         </is>
       </c>
       <c r="T161" t="n">
-        <v>5.41</v>
+        <v>4.87</v>
       </c>
       <c r="U161" t="inlineStr">
         <is>
-          <t>29/07/2023 20:59</t>
+          <t>29/07/2023 20:58</t>
         </is>
       </c>
       <c r="V161" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/internacional-cuiaba/SSalFvcj/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/athletico-pr-cruzeiro/6JbhEbCd/</t>
         </is>
       </c>
     </row>
@@ -15293,7 +15293,7 @@
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>Fluminense</t>
+          <t>Internacional</t>
         </is>
       </c>
       <c r="G162" t="n">
@@ -15301,38 +15301,38 @@
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>Santos</t>
+          <t>Cuiaba</t>
         </is>
       </c>
       <c r="I162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J162" t="n">
-        <v>1.62</v>
+        <v>1.88</v>
       </c>
       <c r="K162" t="inlineStr">
         <is>
-          <t>25/07/2023 00:12</t>
+          <t>23/07/2023 21:12</t>
         </is>
       </c>
       <c r="L162" t="n">
-        <v>1.55</v>
+        <v>1.81</v>
       </c>
       <c r="M162" t="inlineStr">
         <is>
-          <t>29/07/2023 20:58</t>
+          <t>29/07/2023 20:51</t>
         </is>
       </c>
       <c r="N162" t="n">
-        <v>3.83</v>
+        <v>3.23</v>
       </c>
       <c r="O162" t="inlineStr">
         <is>
-          <t>25/07/2023 00:12</t>
+          <t>23/07/2023 21:12</t>
         </is>
       </c>
       <c r="P162" t="n">
-        <v>3.98</v>
+        <v>3.44</v>
       </c>
       <c r="Q162" t="inlineStr">
         <is>
@@ -15340,15 +15340,15 @@
         </is>
       </c>
       <c r="R162" t="n">
-        <v>6.02</v>
+        <v>4.99</v>
       </c>
       <c r="S162" t="inlineStr">
         <is>
-          <t>25/07/2023 00:12</t>
+          <t>23/07/2023 21:12</t>
         </is>
       </c>
       <c r="T162" t="n">
-        <v>7.47</v>
+        <v>5.41</v>
       </c>
       <c r="U162" t="inlineStr">
         <is>
@@ -15357,7 +15357,7 @@
       </c>
       <c r="V162" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/fluminense-santos/tWR0Orz4/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/internacional-cuiaba/SSalFvcj/</t>
         </is>
       </c>
     </row>
@@ -15385,30 +15385,30 @@
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>Corinthians</t>
+          <t>Fortaleza</t>
         </is>
       </c>
       <c r="G163" t="n">
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>Bragantino</t>
+        </is>
+      </c>
+      <c r="I163" t="n">
         <v>3</v>
       </c>
-      <c r="H163" t="inlineStr">
-        <is>
-          <t>Vasco</t>
-        </is>
-      </c>
-      <c r="I163" t="n">
-        <v>1</v>
-      </c>
       <c r="J163" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="K163" t="inlineStr">
         <is>
-          <t>23/07/2023 23:42</t>
+          <t>24/07/2023 04:12</t>
         </is>
       </c>
       <c r="L163" t="n">
-        <v>2.1</v>
+        <v>2.22</v>
       </c>
       <c r="M163" t="inlineStr">
         <is>
@@ -15416,15 +15416,15 @@
         </is>
       </c>
       <c r="N163" t="n">
-        <v>3.33</v>
+        <v>3.49</v>
       </c>
       <c r="O163" t="inlineStr">
         <is>
-          <t>23/07/2023 23:42</t>
+          <t>24/07/2023 04:12</t>
         </is>
       </c>
       <c r="P163" t="n">
-        <v>3.13</v>
+        <v>3.35</v>
       </c>
       <c r="Q163" t="inlineStr">
         <is>
@@ -15432,24 +15432,24 @@
         </is>
       </c>
       <c r="R163" t="n">
-        <v>4.66</v>
+        <v>4.2</v>
       </c>
       <c r="S163" t="inlineStr">
         <is>
-          <t>23/07/2023 23:42</t>
+          <t>24/07/2023 04:12</t>
         </is>
       </c>
       <c r="T163" t="n">
-        <v>4.32</v>
+        <v>3.59</v>
       </c>
       <c r="U163" t="inlineStr">
         <is>
-          <t>29/07/2023 23:26</t>
+          <t>29/07/2023 23:28</t>
         </is>
       </c>
       <c r="V163" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/corinthians-vasco/ELJDLtKM/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/fortaleza-bragantino/KMnzwrkc/</t>
         </is>
       </c>
     </row>
@@ -15477,30 +15477,30 @@
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>Fortaleza</t>
+          <t>Corinthians</t>
         </is>
       </c>
       <c r="G164" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>Bragantino</t>
+          <t>Vasco</t>
         </is>
       </c>
       <c r="I164" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J164" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="K164" t="inlineStr">
         <is>
-          <t>24/07/2023 04:12</t>
+          <t>23/07/2023 23:42</t>
         </is>
       </c>
       <c r="L164" t="n">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="M164" t="inlineStr">
         <is>
@@ -15508,15 +15508,15 @@
         </is>
       </c>
       <c r="N164" t="n">
-        <v>3.49</v>
+        <v>3.33</v>
       </c>
       <c r="O164" t="inlineStr">
         <is>
-          <t>24/07/2023 04:12</t>
+          <t>23/07/2023 23:42</t>
         </is>
       </c>
       <c r="P164" t="n">
-        <v>3.35</v>
+        <v>3.13</v>
       </c>
       <c r="Q164" t="inlineStr">
         <is>
@@ -15524,24 +15524,24 @@
         </is>
       </c>
       <c r="R164" t="n">
-        <v>4.2</v>
+        <v>4.66</v>
       </c>
       <c r="S164" t="inlineStr">
         <is>
-          <t>24/07/2023 04:12</t>
+          <t>23/07/2023 23:42</t>
         </is>
       </c>
       <c r="T164" t="n">
-        <v>3.59</v>
+        <v>4.32</v>
       </c>
       <c r="U164" t="inlineStr">
         <is>
-          <t>29/07/2023 23:28</t>
+          <t>29/07/2023 23:26</t>
         </is>
       </c>
       <c r="V164" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/fortaleza-bragantino/KMnzwrkc/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/corinthians-vasco/ELJDLtKM/</t>
         </is>
       </c>
     </row>
@@ -16121,22 +16121,22 @@
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>Internacional</t>
+          <t>Goias</t>
         </is>
       </c>
       <c r="G171" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>Corinthians</t>
+          <t>Fortaleza</t>
         </is>
       </c>
       <c r="I171" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J171" t="n">
-        <v>1.98</v>
+        <v>2.76</v>
       </c>
       <c r="K171" t="inlineStr">
         <is>
@@ -16144,15 +16144,15 @@
         </is>
       </c>
       <c r="L171" t="n">
-        <v>2.32</v>
+        <v>2.73</v>
       </c>
       <c r="M171" t="inlineStr">
         <is>
-          <t>05/08/2023 23:25</t>
+          <t>05/08/2023 23:21</t>
         </is>
       </c>
       <c r="N171" t="n">
-        <v>3.23</v>
+        <v>3.35</v>
       </c>
       <c r="O171" t="inlineStr">
         <is>
@@ -16160,15 +16160,15 @@
         </is>
       </c>
       <c r="P171" t="n">
-        <v>2.97</v>
+        <v>3.05</v>
       </c>
       <c r="Q171" t="inlineStr">
         <is>
-          <t>05/08/2023 23:25</t>
+          <t>05/08/2023 23:21</t>
         </is>
       </c>
       <c r="R171" t="n">
-        <v>4.45</v>
+        <v>2.65</v>
       </c>
       <c r="S171" t="inlineStr">
         <is>
@@ -16176,16 +16176,16 @@
         </is>
       </c>
       <c r="T171" t="n">
-        <v>3.83</v>
+        <v>3</v>
       </c>
       <c r="U171" t="inlineStr">
         <is>
-          <t>05/08/2023 23:29</t>
+          <t>05/08/2023 23:28</t>
         </is>
       </c>
       <c r="V171" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/internacional-corinthians/f3JVRHtd/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/goias-fortaleza/nwGNTwCq/</t>
         </is>
       </c>
     </row>
@@ -16213,22 +16213,22 @@
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>Goias</t>
+          <t>Internacional</t>
         </is>
       </c>
       <c r="G172" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>Fortaleza</t>
+          <t>Corinthians</t>
         </is>
       </c>
       <c r="I172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J172" t="n">
-        <v>2.76</v>
+        <v>1.98</v>
       </c>
       <c r="K172" t="inlineStr">
         <is>
@@ -16236,15 +16236,15 @@
         </is>
       </c>
       <c r="L172" t="n">
-        <v>2.73</v>
+        <v>2.32</v>
       </c>
       <c r="M172" t="inlineStr">
         <is>
-          <t>05/08/2023 23:21</t>
+          <t>05/08/2023 23:25</t>
         </is>
       </c>
       <c r="N172" t="n">
-        <v>3.35</v>
+        <v>3.23</v>
       </c>
       <c r="O172" t="inlineStr">
         <is>
@@ -16252,15 +16252,15 @@
         </is>
       </c>
       <c r="P172" t="n">
-        <v>3.05</v>
+        <v>2.97</v>
       </c>
       <c r="Q172" t="inlineStr">
         <is>
-          <t>05/08/2023 23:21</t>
+          <t>05/08/2023 23:25</t>
         </is>
       </c>
       <c r="R172" t="n">
-        <v>2.65</v>
+        <v>4.45</v>
       </c>
       <c r="S172" t="inlineStr">
         <is>
@@ -16268,16 +16268,16 @@
         </is>
       </c>
       <c r="T172" t="n">
-        <v>3</v>
+        <v>3.83</v>
       </c>
       <c r="U172" t="inlineStr">
         <is>
-          <t>05/08/2023 23:28</t>
+          <t>05/08/2023 23:29</t>
         </is>
       </c>
       <c r="V172" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/goias-fortaleza/nwGNTwCq/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/internacional-corinthians/f3JVRHtd/</t>
         </is>
       </c>
     </row>
@@ -16397,71 +16397,71 @@
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>Sao Paulo</t>
+          <t>Vasco</t>
         </is>
       </c>
       <c r="G174" t="n">
+        <v>1</v>
+      </c>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>Gremio</t>
+        </is>
+      </c>
+      <c r="I174" t="n">
         <v>0</v>
       </c>
-      <c r="H174" t="inlineStr">
-        <is>
-          <t>Atletico-MG</t>
-        </is>
-      </c>
-      <c r="I174" t="n">
-        <v>2</v>
-      </c>
       <c r="J174" t="n">
-        <v>2.21</v>
+        <v>2.82</v>
       </c>
       <c r="K174" t="inlineStr">
         <is>
-          <t>31/07/2023 02:12</t>
+          <t>30/07/2023 23:41</t>
         </is>
       </c>
       <c r="L174" t="n">
-        <v>1.99</v>
+        <v>2.74</v>
       </c>
       <c r="M174" t="inlineStr">
         <is>
-          <t>06/08/2023 20:31</t>
+          <t>06/08/2023 20:58</t>
         </is>
       </c>
       <c r="N174" t="n">
-        <v>3.17</v>
+        <v>3.24</v>
       </c>
       <c r="O174" t="inlineStr">
         <is>
-          <t>31/07/2023 02:12</t>
+          <t>30/07/2023 23:41</t>
         </is>
       </c>
       <c r="P174" t="n">
-        <v>3.36</v>
+        <v>3.11</v>
       </c>
       <c r="Q174" t="inlineStr">
         <is>
-          <t>06/08/2023 20:55</t>
+          <t>06/08/2023 20:59</t>
         </is>
       </c>
       <c r="R174" t="n">
-        <v>3.7</v>
+        <v>2.72</v>
       </c>
       <c r="S174" t="inlineStr">
         <is>
-          <t>31/07/2023 02:12</t>
+          <t>30/07/2023 23:41</t>
         </is>
       </c>
       <c r="T174" t="n">
-        <v>4.7</v>
+        <v>2.93</v>
       </c>
       <c r="U174" t="inlineStr">
         <is>
-          <t>06/08/2023 20:57</t>
+          <t>06/08/2023 20:58</t>
         </is>
       </c>
       <c r="V174" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/sao-paulo-atletico-mg/25viZalM/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/vasco-gremio/fuumztZF/</t>
         </is>
       </c>
     </row>
@@ -16489,71 +16489,71 @@
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>Vasco</t>
+          <t>Sao Paulo</t>
         </is>
       </c>
       <c r="G175" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>Gremio</t>
+          <t>Atletico-MG</t>
         </is>
       </c>
       <c r="I175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J175" t="n">
-        <v>2.82</v>
+        <v>2.21</v>
       </c>
       <c r="K175" t="inlineStr">
         <is>
-          <t>30/07/2023 23:41</t>
+          <t>31/07/2023 02:12</t>
         </is>
       </c>
       <c r="L175" t="n">
-        <v>2.74</v>
+        <v>1.99</v>
       </c>
       <c r="M175" t="inlineStr">
         <is>
-          <t>06/08/2023 20:58</t>
+          <t>06/08/2023 20:31</t>
         </is>
       </c>
       <c r="N175" t="n">
-        <v>3.24</v>
+        <v>3.17</v>
       </c>
       <c r="O175" t="inlineStr">
         <is>
-          <t>30/07/2023 23:41</t>
+          <t>31/07/2023 02:12</t>
         </is>
       </c>
       <c r="P175" t="n">
-        <v>3.11</v>
+        <v>3.36</v>
       </c>
       <c r="Q175" t="inlineStr">
         <is>
-          <t>06/08/2023 20:59</t>
+          <t>06/08/2023 20:55</t>
         </is>
       </c>
       <c r="R175" t="n">
-        <v>2.72</v>
+        <v>3.7</v>
       </c>
       <c r="S175" t="inlineStr">
         <is>
-          <t>30/07/2023 23:41</t>
+          <t>31/07/2023 02:12</t>
         </is>
       </c>
       <c r="T175" t="n">
-        <v>2.93</v>
+        <v>4.7</v>
       </c>
       <c r="U175" t="inlineStr">
         <is>
-          <t>06/08/2023 20:58</t>
+          <t>06/08/2023 20:57</t>
         </is>
       </c>
       <c r="V175" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/vasco-gremio/fuumztZF/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/sao-paulo-atletico-mg/25viZalM/</t>
         </is>
       </c>
     </row>
@@ -17133,62 +17133,62 @@
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>Gremio</t>
+          <t>America MG</t>
         </is>
       </c>
       <c r="G182" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>Fluminense</t>
+          <t>Goias</t>
         </is>
       </c>
       <c r="I182" t="n">
         <v>1</v>
       </c>
       <c r="J182" t="n">
-        <v>2.26</v>
+        <v>1.8</v>
       </c>
       <c r="K182" t="inlineStr">
         <is>
-          <t>06/08/2023 21:12</t>
+          <t>06/08/2023 23:42</t>
         </is>
       </c>
       <c r="L182" t="n">
-        <v>2.32</v>
+        <v>2</v>
       </c>
       <c r="M182" t="inlineStr">
         <is>
-          <t>13/08/2023 20:51</t>
+          <t>13/08/2023 20:58</t>
         </is>
       </c>
       <c r="N182" t="n">
-        <v>3.52</v>
+        <v>3.73</v>
       </c>
       <c r="O182" t="inlineStr">
         <is>
-          <t>06/08/2023 21:12</t>
+          <t>06/08/2023 23:42</t>
         </is>
       </c>
       <c r="P182" t="n">
-        <v>3.35</v>
+        <v>3.46</v>
       </c>
       <c r="Q182" t="inlineStr">
         <is>
-          <t>13/08/2023 20:55</t>
+          <t>13/08/2023 20:58</t>
         </is>
       </c>
       <c r="R182" t="n">
-        <v>3.19</v>
+        <v>4.59</v>
       </c>
       <c r="S182" t="inlineStr">
         <is>
-          <t>06/08/2023 21:12</t>
+          <t>06/08/2023 23:42</t>
         </is>
       </c>
       <c r="T182" t="n">
-        <v>3.36</v>
+        <v>4.17</v>
       </c>
       <c r="U182" t="inlineStr">
         <is>
@@ -17197,7 +17197,7 @@
       </c>
       <c r="V182" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/gremio-fluminense/hGACBHDC/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/america-mg-goias/bD12YvLP/</t>
         </is>
       </c>
     </row>
@@ -17317,71 +17317,71 @@
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>America MG</t>
+          <t>Gremio</t>
         </is>
       </c>
       <c r="G184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>Goias</t>
+          <t>Fluminense</t>
         </is>
       </c>
       <c r="I184" t="n">
         <v>1</v>
       </c>
       <c r="J184" t="n">
-        <v>1.8</v>
+        <v>2.26</v>
       </c>
       <c r="K184" t="inlineStr">
         <is>
-          <t>06/08/2023 23:42</t>
+          <t>06/08/2023 21:12</t>
         </is>
       </c>
       <c r="L184" t="n">
-        <v>2</v>
+        <v>2.32</v>
       </c>
       <c r="M184" t="inlineStr">
         <is>
+          <t>13/08/2023 20:51</t>
+        </is>
+      </c>
+      <c r="N184" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="O184" t="inlineStr">
+        <is>
+          <t>06/08/2023 21:12</t>
+        </is>
+      </c>
+      <c r="P184" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="Q184" t="inlineStr">
+        <is>
+          <t>13/08/2023 20:55</t>
+        </is>
+      </c>
+      <c r="R184" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="S184" t="inlineStr">
+        <is>
+          <t>06/08/2023 21:12</t>
+        </is>
+      </c>
+      <c r="T184" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="U184" t="inlineStr">
+        <is>
           <t>13/08/2023 20:58</t>
         </is>
       </c>
-      <c r="N184" t="n">
-        <v>3.73</v>
-      </c>
-      <c r="O184" t="inlineStr">
-        <is>
-          <t>06/08/2023 23:42</t>
-        </is>
-      </c>
-      <c r="P184" t="n">
-        <v>3.46</v>
-      </c>
-      <c r="Q184" t="inlineStr">
-        <is>
-          <t>13/08/2023 20:58</t>
-        </is>
-      </c>
-      <c r="R184" t="n">
-        <v>4.59</v>
-      </c>
-      <c r="S184" t="inlineStr">
-        <is>
-          <t>06/08/2023 23:42</t>
-        </is>
-      </c>
-      <c r="T184" t="n">
-        <v>4.17</v>
-      </c>
-      <c r="U184" t="inlineStr">
-        <is>
-          <t>13/08/2023 20:58</t>
-        </is>
-      </c>
       <c r="V184" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/america-mg-goias/bD12YvLP/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/gremio-fluminense/hGACBHDC/</t>
         </is>
       </c>
     </row>
@@ -17409,71 +17409,71 @@
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>Fortaleza</t>
+          <t>Flamengo RJ</t>
         </is>
       </c>
       <c r="G185" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>Santos</t>
+          <t>Sao Paulo</t>
         </is>
       </c>
       <c r="I185" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J185" t="n">
-        <v>1.6</v>
+        <v>1.79</v>
       </c>
       <c r="K185" t="inlineStr">
         <is>
-          <t>10/08/2023 22:32</t>
+          <t>07/08/2023 03:42</t>
         </is>
       </c>
       <c r="L185" t="n">
-        <v>1.55</v>
+        <v>1.8</v>
       </c>
       <c r="M185" t="inlineStr">
         <is>
+          <t>13/08/2023 23:28</t>
+        </is>
+      </c>
+      <c r="N185" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="O185" t="inlineStr">
+        <is>
+          <t>07/08/2023 03:42</t>
+        </is>
+      </c>
+      <c r="P185" t="n">
+        <v>3.73</v>
+      </c>
+      <c r="Q185" t="inlineStr">
+        <is>
           <t>13/08/2023 23:29</t>
         </is>
       </c>
-      <c r="N185" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="O185" t="inlineStr">
-        <is>
-          <t>10/08/2023 22:32</t>
-        </is>
-      </c>
-      <c r="P185" t="n">
-        <v>3.98</v>
-      </c>
-      <c r="Q185" t="inlineStr">
+      <c r="R185" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="S185" t="inlineStr">
+        <is>
+          <t>07/08/2023 03:42</t>
+        </is>
+      </c>
+      <c r="T185" t="n">
+        <v>4.87</v>
+      </c>
+      <c r="U185" t="inlineStr">
         <is>
           <t>13/08/2023 23:29</t>
         </is>
       </c>
-      <c r="R185" t="n">
-        <v>6.23</v>
-      </c>
-      <c r="S185" t="inlineStr">
-        <is>
-          <t>10/08/2023 22:32</t>
-        </is>
-      </c>
-      <c r="T185" t="n">
-        <v>7.47</v>
-      </c>
-      <c r="U185" t="inlineStr">
-        <is>
-          <t>13/08/2023 23:29</t>
-        </is>
-      </c>
       <c r="V185" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/fortaleza-santos/KM2bZK5J/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/flamengo-rj-sao-paulo/phnOX7UE/</t>
         </is>
       </c>
     </row>
@@ -17501,46 +17501,46 @@
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>Flamengo RJ</t>
+          <t>Fortaleza</t>
         </is>
       </c>
       <c r="G186" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>Sao Paulo</t>
+          <t>Santos</t>
         </is>
       </c>
       <c r="I186" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J186" t="n">
-        <v>1.79</v>
+        <v>1.6</v>
       </c>
       <c r="K186" t="inlineStr">
         <is>
-          <t>07/08/2023 03:42</t>
+          <t>10/08/2023 22:32</t>
         </is>
       </c>
       <c r="L186" t="n">
-        <v>1.8</v>
+        <v>1.55</v>
       </c>
       <c r="M186" t="inlineStr">
         <is>
-          <t>13/08/2023 23:28</t>
+          <t>13/08/2023 23:29</t>
         </is>
       </c>
       <c r="N186" t="n">
-        <v>3.43</v>
+        <v>3.9</v>
       </c>
       <c r="O186" t="inlineStr">
         <is>
-          <t>07/08/2023 03:42</t>
+          <t>10/08/2023 22:32</t>
         </is>
       </c>
       <c r="P186" t="n">
-        <v>3.73</v>
+        <v>3.98</v>
       </c>
       <c r="Q186" t="inlineStr">
         <is>
@@ -17548,15 +17548,15 @@
         </is>
       </c>
       <c r="R186" t="n">
-        <v>5.16</v>
+        <v>6.23</v>
       </c>
       <c r="S186" t="inlineStr">
         <is>
-          <t>07/08/2023 03:42</t>
+          <t>10/08/2023 22:32</t>
         </is>
       </c>
       <c r="T186" t="n">
-        <v>4.87</v>
+        <v>7.47</v>
       </c>
       <c r="U186" t="inlineStr">
         <is>
@@ -17565,7 +17565,7 @@
       </c>
       <c r="V186" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/flamengo-rj-sao-paulo/phnOX7UE/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/fortaleza-santos/KM2bZK5J/</t>
         </is>
       </c>
     </row>
@@ -18053,30 +18053,30 @@
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>Fluminense</t>
+          <t>Cuiaba</t>
         </is>
       </c>
       <c r="G192" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>America MG</t>
+          <t>Palmeiras</t>
         </is>
       </c>
       <c r="I192" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J192" t="n">
-        <v>1.51</v>
+        <v>3.13</v>
       </c>
       <c r="K192" t="inlineStr">
         <is>
-          <t>13/08/2023 20:12</t>
+          <t>16/08/2023 00:12</t>
         </is>
       </c>
       <c r="L192" t="n">
-        <v>1.5</v>
+        <v>3.46</v>
       </c>
       <c r="M192" t="inlineStr">
         <is>
@@ -18084,40 +18084,40 @@
         </is>
       </c>
       <c r="N192" t="n">
-        <v>4.35</v>
+        <v>3.13</v>
       </c>
       <c r="O192" t="inlineStr">
         <is>
-          <t>13/08/2023 20:12</t>
+          <t>16/08/2023 00:12</t>
         </is>
       </c>
       <c r="P192" t="n">
-        <v>4.34</v>
+        <v>3.13</v>
       </c>
       <c r="Q192" t="inlineStr">
         <is>
+          <t>19/08/2023 23:24</t>
+        </is>
+      </c>
+      <c r="R192" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="S192" t="inlineStr">
+        <is>
+          <t>16/08/2023 00:12</t>
+        </is>
+      </c>
+      <c r="T192" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U192" t="inlineStr">
+        <is>
           <t>19/08/2023 23:29</t>
         </is>
       </c>
-      <c r="R192" t="n">
-        <v>6.82</v>
-      </c>
-      <c r="S192" t="inlineStr">
-        <is>
-          <t>13/08/2023 20:12</t>
-        </is>
-      </c>
-      <c r="T192" t="n">
-        <v>7.55</v>
-      </c>
-      <c r="U192" t="inlineStr">
-        <is>
-          <t>19/08/2023 23:29</t>
-        </is>
-      </c>
       <c r="V192" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/fluminense-america-mg/2s6NTbTt/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/cuiaba-palmeiras/fyV0sIct/</t>
         </is>
       </c>
     </row>
@@ -18145,30 +18145,30 @@
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>Cuiaba</t>
+          <t>Fluminense</t>
         </is>
       </c>
       <c r="G193" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>Palmeiras</t>
+          <t>America MG</t>
         </is>
       </c>
       <c r="I193" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J193" t="n">
-        <v>3.13</v>
+        <v>1.51</v>
       </c>
       <c r="K193" t="inlineStr">
         <is>
-          <t>16/08/2023 00:12</t>
+          <t>13/08/2023 20:12</t>
         </is>
       </c>
       <c r="L193" t="n">
-        <v>3.46</v>
+        <v>1.5</v>
       </c>
       <c r="M193" t="inlineStr">
         <is>
@@ -18176,31 +18176,31 @@
         </is>
       </c>
       <c r="N193" t="n">
-        <v>3.13</v>
+        <v>4.35</v>
       </c>
       <c r="O193" t="inlineStr">
         <is>
-          <t>16/08/2023 00:12</t>
+          <t>13/08/2023 20:12</t>
         </is>
       </c>
       <c r="P193" t="n">
-        <v>3.13</v>
+        <v>4.34</v>
       </c>
       <c r="Q193" t="inlineStr">
         <is>
-          <t>19/08/2023 23:24</t>
+          <t>19/08/2023 23:29</t>
         </is>
       </c>
       <c r="R193" t="n">
-        <v>2.54</v>
+        <v>6.82</v>
       </c>
       <c r="S193" t="inlineStr">
         <is>
-          <t>16/08/2023 00:12</t>
+          <t>13/08/2023 20:12</t>
         </is>
       </c>
       <c r="T193" t="n">
-        <v>2.38</v>
+        <v>7.55</v>
       </c>
       <c r="U193" t="inlineStr">
         <is>
@@ -18209,7 +18209,7 @@
       </c>
       <c r="V193" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/cuiaba-palmeiras/fyV0sIct/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/fluminense-america-mg/2s6NTbTt/</t>
         </is>
       </c>
     </row>
@@ -20077,22 +20077,22 @@
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>Fluminense</t>
+          <t>Corinthians</t>
         </is>
       </c>
       <c r="G214" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>Fortaleza</t>
+          <t>Palmeiras</t>
         </is>
       </c>
       <c r="I214" t="n">
         <v>0</v>
       </c>
       <c r="J214" t="n">
-        <v>1.84</v>
+        <v>3.34</v>
       </c>
       <c r="K214" t="inlineStr">
         <is>
@@ -20100,39 +20100,39 @@
         </is>
       </c>
       <c r="L214" t="n">
-        <v>1.95</v>
+        <v>4.92</v>
       </c>
       <c r="M214" t="inlineStr">
         <is>
+          <t>03/09/2023 20:58</t>
+        </is>
+      </c>
+      <c r="N214" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="O214" t="inlineStr">
+        <is>
+          <t>27/08/2023 22:42</t>
+        </is>
+      </c>
+      <c r="P214" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q214" t="inlineStr">
+        <is>
           <t>03/09/2023 20:56</t>
         </is>
       </c>
-      <c r="N214" t="n">
-        <v>3.66</v>
-      </c>
-      <c r="O214" t="inlineStr">
+      <c r="R214" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="S214" t="inlineStr">
         <is>
           <t>27/08/2023 22:42</t>
         </is>
       </c>
-      <c r="P214" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="Q214" t="inlineStr">
-        <is>
-          <t>03/09/2023 20:55</t>
-        </is>
-      </c>
-      <c r="R214" t="n">
-        <v>4.62</v>
-      </c>
-      <c r="S214" t="inlineStr">
-        <is>
-          <t>27/08/2023 22:42</t>
-        </is>
-      </c>
       <c r="T214" t="n">
-        <v>4.41</v>
+        <v>1.93</v>
       </c>
       <c r="U214" t="inlineStr">
         <is>
@@ -20141,7 +20141,7 @@
       </c>
       <c r="V214" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/fluminense-fortaleza/jogngFdh/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/corinthians-palmeiras/x2ebjDtB/</t>
         </is>
       </c>
     </row>
@@ -20169,22 +20169,22 @@
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>Corinthians</t>
+          <t>Fluminense</t>
         </is>
       </c>
       <c r="G215" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>Palmeiras</t>
+          <t>Fortaleza</t>
         </is>
       </c>
       <c r="I215" t="n">
         <v>0</v>
       </c>
       <c r="J215" t="n">
-        <v>3.34</v>
+        <v>1.84</v>
       </c>
       <c r="K215" t="inlineStr">
         <is>
@@ -20192,15 +20192,15 @@
         </is>
       </c>
       <c r="L215" t="n">
-        <v>4.92</v>
+        <v>1.95</v>
       </c>
       <c r="M215" t="inlineStr">
         <is>
-          <t>03/09/2023 20:58</t>
+          <t>03/09/2023 20:56</t>
         </is>
       </c>
       <c r="N215" t="n">
-        <v>3.13</v>
+        <v>3.66</v>
       </c>
       <c r="O215" t="inlineStr">
         <is>
@@ -20208,32 +20208,32 @@
         </is>
       </c>
       <c r="P215" t="n">
-        <v>3.25</v>
+        <v>3.45</v>
       </c>
       <c r="Q215" t="inlineStr">
         <is>
+          <t>03/09/2023 20:55</t>
+        </is>
+      </c>
+      <c r="R215" t="n">
+        <v>4.62</v>
+      </c>
+      <c r="S215" t="inlineStr">
+        <is>
+          <t>27/08/2023 22:42</t>
+        </is>
+      </c>
+      <c r="T215" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="U215" t="inlineStr">
+        <is>
           <t>03/09/2023 20:56</t>
         </is>
       </c>
-      <c r="R215" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="S215" t="inlineStr">
-        <is>
-          <t>27/08/2023 22:42</t>
-        </is>
-      </c>
-      <c r="T215" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="U215" t="inlineStr">
-        <is>
-          <t>03/09/2023 20:56</t>
-        </is>
-      </c>
       <c r="V215" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/corinthians-palmeiras/x2ebjDtB/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/fluminense-fortaleza/jogngFdh/</t>
         </is>
       </c>
     </row>
@@ -20261,71 +20261,71 @@
       </c>
       <c r="F216" t="inlineStr">
         <is>
-          <t>Bahia</t>
+          <t>Cruzeiro</t>
         </is>
       </c>
       <c r="G216" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>Vasco</t>
+          <t>Bragantino</t>
         </is>
       </c>
       <c r="I216" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J216" t="n">
-        <v>2.02</v>
+        <v>2.26</v>
       </c>
       <c r="K216" t="inlineStr">
         <is>
-          <t>27/08/2023 22:42</t>
+          <t>27/08/2023 23:12</t>
         </is>
       </c>
       <c r="L216" t="n">
-        <v>2.11</v>
+        <v>2.47</v>
       </c>
       <c r="M216" t="inlineStr">
         <is>
-          <t>03/09/2023 23:26</t>
+          <t>03/09/2023 23:19</t>
         </is>
       </c>
       <c r="N216" t="n">
-        <v>3.43</v>
+        <v>3.32</v>
       </c>
       <c r="O216" t="inlineStr">
         <is>
-          <t>27/08/2023 22:42</t>
+          <t>27/08/2023 23:12</t>
         </is>
       </c>
       <c r="P216" t="n">
-        <v>3.33</v>
+        <v>3.14</v>
       </c>
       <c r="Q216" t="inlineStr">
         <is>
-          <t>03/09/2023 23:29</t>
+          <t>03/09/2023 23:09</t>
         </is>
       </c>
       <c r="R216" t="n">
-        <v>4.04</v>
+        <v>3.47</v>
       </c>
       <c r="S216" t="inlineStr">
         <is>
-          <t>27/08/2023 22:42</t>
+          <t>27/08/2023 23:12</t>
         </is>
       </c>
       <c r="T216" t="n">
-        <v>3.95</v>
+        <v>3.29</v>
       </c>
       <c r="U216" t="inlineStr">
         <is>
-          <t>03/09/2023 23:29</t>
+          <t>03/09/2023 23:07</t>
         </is>
       </c>
       <c r="V216" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/bahia-vasco/4lJL7EBo/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/cruzeiro-bragantino/YTl7liBN/</t>
         </is>
       </c>
     </row>
@@ -20353,71 +20353,71 @@
       </c>
       <c r="F217" t="inlineStr">
         <is>
-          <t>America MG</t>
+          <t>Bahia</t>
         </is>
       </c>
       <c r="G217" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>Santos</t>
+          <t>Vasco</t>
         </is>
       </c>
       <c r="I217" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J217" t="n">
-        <v>2.1</v>
+        <v>2.02</v>
       </c>
       <c r="K217" t="inlineStr">
         <is>
-          <t>27/08/2023 20:12</t>
+          <t>27/08/2023 22:42</t>
         </is>
       </c>
       <c r="L217" t="n">
-        <v>2.21</v>
+        <v>2.11</v>
       </c>
       <c r="M217" t="inlineStr">
         <is>
-          <t>03/09/2023 23:28</t>
+          <t>03/09/2023 23:26</t>
         </is>
       </c>
       <c r="N217" t="n">
-        <v>3.35</v>
+        <v>3.43</v>
       </c>
       <c r="O217" t="inlineStr">
         <is>
-          <t>27/08/2023 20:12</t>
+          <t>27/08/2023 22:42</t>
         </is>
       </c>
       <c r="P217" t="n">
-        <v>3.2</v>
+        <v>3.33</v>
       </c>
       <c r="Q217" t="inlineStr">
         <is>
-          <t>03/09/2023 23:28</t>
+          <t>03/09/2023 23:29</t>
         </is>
       </c>
       <c r="R217" t="n">
-        <v>3.88</v>
+        <v>4.04</v>
       </c>
       <c r="S217" t="inlineStr">
         <is>
-          <t>27/08/2023 20:12</t>
+          <t>27/08/2023 22:42</t>
         </is>
       </c>
       <c r="T217" t="n">
-        <v>3.8</v>
+        <v>3.95</v>
       </c>
       <c r="U217" t="inlineStr">
         <is>
-          <t>03/09/2023 23:28</t>
+          <t>03/09/2023 23:29</t>
         </is>
       </c>
       <c r="V217" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/america-mg-santos/ruIP6YQi/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/bahia-vasco/4lJL7EBo/</t>
         </is>
       </c>
     </row>
@@ -20445,71 +20445,71 @@
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t>Cruzeiro</t>
+          <t>America MG</t>
         </is>
       </c>
       <c r="G218" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>Bragantino</t>
+          <t>Santos</t>
         </is>
       </c>
       <c r="I218" t="n">
         <v>0</v>
       </c>
       <c r="J218" t="n">
-        <v>2.26</v>
+        <v>2.1</v>
       </c>
       <c r="K218" t="inlineStr">
         <is>
-          <t>27/08/2023 23:12</t>
+          <t>27/08/2023 20:12</t>
         </is>
       </c>
       <c r="L218" t="n">
-        <v>2.47</v>
+        <v>2.21</v>
       </c>
       <c r="M218" t="inlineStr">
         <is>
-          <t>03/09/2023 23:19</t>
+          <t>03/09/2023 23:28</t>
         </is>
       </c>
       <c r="N218" t="n">
-        <v>3.32</v>
+        <v>3.35</v>
       </c>
       <c r="O218" t="inlineStr">
         <is>
-          <t>27/08/2023 23:12</t>
+          <t>27/08/2023 20:12</t>
         </is>
       </c>
       <c r="P218" t="n">
-        <v>3.14</v>
+        <v>3.2</v>
       </c>
       <c r="Q218" t="inlineStr">
         <is>
-          <t>03/09/2023 23:09</t>
+          <t>03/09/2023 23:28</t>
         </is>
       </c>
       <c r="R218" t="n">
-        <v>3.47</v>
+        <v>3.88</v>
       </c>
       <c r="S218" t="inlineStr">
         <is>
-          <t>27/08/2023 23:12</t>
+          <t>27/08/2023 20:12</t>
         </is>
       </c>
       <c r="T218" t="n">
-        <v>3.29</v>
+        <v>3.8</v>
       </c>
       <c r="U218" t="inlineStr">
         <is>
-          <t>03/09/2023 23:07</t>
+          <t>03/09/2023 23:28</t>
         </is>
       </c>
       <c r="V218" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/cruzeiro-bragantino/YTl7liBN/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/america-mg-santos/ruIP6YQi/</t>
         </is>
       </c>
     </row>
@@ -22653,7 +22653,7 @@
       </c>
       <c r="F242" t="inlineStr">
         <is>
-          <t>Flamengo RJ</t>
+          <t>Fortaleza</t>
         </is>
       </c>
       <c r="G242" t="n">
@@ -22661,14 +22661,14 @@
       </c>
       <c r="H242" t="inlineStr">
         <is>
-          <t>Bahia</t>
+          <t>Gremio</t>
         </is>
       </c>
       <c r="I242" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J242" t="n">
-        <v>1.37</v>
+        <v>2</v>
       </c>
       <c r="K242" t="inlineStr">
         <is>
@@ -22676,15 +22676,15 @@
         </is>
       </c>
       <c r="L242" t="n">
-        <v>1.54</v>
+        <v>2.64</v>
       </c>
       <c r="M242" t="inlineStr">
         <is>
-          <t>30/09/2023 20:37</t>
+          <t>30/09/2023 20:46</t>
         </is>
       </c>
       <c r="N242" t="n">
-        <v>5.38</v>
+        <v>3.55</v>
       </c>
       <c r="O242" t="inlineStr">
         <is>
@@ -22692,15 +22692,15 @@
         </is>
       </c>
       <c r="P242" t="n">
-        <v>4.35</v>
+        <v>3.29</v>
       </c>
       <c r="Q242" t="inlineStr">
         <is>
-          <t>30/09/2023 20:56</t>
+          <t>30/09/2023 19:43</t>
         </is>
       </c>
       <c r="R242" t="n">
-        <v>7.89</v>
+        <v>3.86</v>
       </c>
       <c r="S242" t="inlineStr">
         <is>
@@ -22708,16 +22708,16 @@
         </is>
       </c>
       <c r="T242" t="n">
-        <v>6.51</v>
+        <v>2.9</v>
       </c>
       <c r="U242" t="inlineStr">
         <is>
-          <t>30/09/2023 20:46</t>
+          <t>30/09/2023 20:55</t>
         </is>
       </c>
       <c r="V242" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/flamengo-rj-bahia/KICnIMVK/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/fortaleza-gremio/EuYLWLpE/</t>
         </is>
       </c>
     </row>
@@ -22745,7 +22745,7 @@
       </c>
       <c r="F243" t="inlineStr">
         <is>
-          <t>Fortaleza</t>
+          <t>Flamengo RJ</t>
         </is>
       </c>
       <c r="G243" t="n">
@@ -22753,14 +22753,14 @@
       </c>
       <c r="H243" t="inlineStr">
         <is>
-          <t>Gremio</t>
+          <t>Bahia</t>
         </is>
       </c>
       <c r="I243" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J243" t="n">
-        <v>2</v>
+        <v>1.37</v>
       </c>
       <c r="K243" t="inlineStr">
         <is>
@@ -22768,48 +22768,48 @@
         </is>
       </c>
       <c r="L243" t="n">
-        <v>2.64</v>
+        <v>1.54</v>
       </c>
       <c r="M243" t="inlineStr">
         <is>
+          <t>30/09/2023 20:37</t>
+        </is>
+      </c>
+      <c r="N243" t="n">
+        <v>5.38</v>
+      </c>
+      <c r="O243" t="inlineStr">
+        <is>
+          <t>22/09/2023 20:42</t>
+        </is>
+      </c>
+      <c r="P243" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="Q243" t="inlineStr">
+        <is>
+          <t>30/09/2023 20:56</t>
+        </is>
+      </c>
+      <c r="R243" t="n">
+        <v>7.89</v>
+      </c>
+      <c r="S243" t="inlineStr">
+        <is>
+          <t>22/09/2023 20:42</t>
+        </is>
+      </c>
+      <c r="T243" t="n">
+        <v>6.51</v>
+      </c>
+      <c r="U243" t="inlineStr">
+        <is>
           <t>30/09/2023 20:46</t>
         </is>
       </c>
-      <c r="N243" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="O243" t="inlineStr">
-        <is>
-          <t>22/09/2023 20:42</t>
-        </is>
-      </c>
-      <c r="P243" t="n">
-        <v>3.29</v>
-      </c>
-      <c r="Q243" t="inlineStr">
-        <is>
-          <t>30/09/2023 19:43</t>
-        </is>
-      </c>
-      <c r="R243" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="S243" t="inlineStr">
-        <is>
-          <t>22/09/2023 20:42</t>
-        </is>
-      </c>
-      <c r="T243" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="U243" t="inlineStr">
-        <is>
-          <t>30/09/2023 20:55</t>
-        </is>
-      </c>
       <c r="V243" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/fortaleza-gremio/EuYLWLpE/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/flamengo-rj-bahia/KICnIMVK/</t>
         </is>
       </c>
     </row>
@@ -22837,71 +22837,71 @@
       </c>
       <c r="F244" t="inlineStr">
         <is>
-          <t>Cuiaba</t>
+          <t>Sao Paulo</t>
         </is>
       </c>
       <c r="G244" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H244" t="inlineStr">
         <is>
-          <t>Fluminense</t>
+          <t>Corinthians</t>
         </is>
       </c>
       <c r="I244" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J244" t="n">
-        <v>2.64</v>
+        <v>1.64</v>
       </c>
       <c r="K244" t="inlineStr">
         <is>
-          <t>24/09/2023 01:12</t>
+          <t>27/09/2023 23:12</t>
         </is>
       </c>
       <c r="L244" t="n">
-        <v>2.33</v>
+        <v>1.52</v>
       </c>
       <c r="M244" t="inlineStr">
         <is>
-          <t>30/09/2023 23:04</t>
+          <t>30/09/2023 23:20</t>
         </is>
       </c>
       <c r="N244" t="n">
-        <v>3.09</v>
+        <v>3.73</v>
       </c>
       <c r="O244" t="inlineStr">
         <is>
-          <t>24/09/2023 01:12</t>
+          <t>27/09/2023 23:12</t>
         </is>
       </c>
       <c r="P244" t="n">
-        <v>3.1</v>
+        <v>3.96</v>
       </c>
       <c r="Q244" t="inlineStr">
         <is>
-          <t>30/09/2023 23:04</t>
+          <t>30/09/2023 23:26</t>
         </is>
       </c>
       <c r="R244" t="n">
-        <v>3.04</v>
+        <v>6.33</v>
       </c>
       <c r="S244" t="inlineStr">
         <is>
-          <t>24/09/2023 01:12</t>
+          <t>27/09/2023 23:12</t>
         </is>
       </c>
       <c r="T244" t="n">
-        <v>3.62</v>
+        <v>8.24</v>
       </c>
       <c r="U244" t="inlineStr">
         <is>
-          <t>30/09/2023 23:04</t>
+          <t>30/09/2023 23:28</t>
         </is>
       </c>
       <c r="V244" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/cuiaba-fluminense/hWWPVu0K/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/sao-paulo-corinthians/v3gJC0gr/</t>
         </is>
       </c>
     </row>
@@ -22929,71 +22929,71 @@
       </c>
       <c r="F245" t="inlineStr">
         <is>
-          <t>Sao Paulo</t>
+          <t>Cuiaba</t>
         </is>
       </c>
       <c r="G245" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H245" t="inlineStr">
         <is>
-          <t>Corinthians</t>
+          <t>Fluminense</t>
         </is>
       </c>
       <c r="I245" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J245" t="n">
-        <v>1.64</v>
+        <v>2.64</v>
       </c>
       <c r="K245" t="inlineStr">
         <is>
-          <t>27/09/2023 23:12</t>
+          <t>24/09/2023 01:12</t>
         </is>
       </c>
       <c r="L245" t="n">
-        <v>1.52</v>
+        <v>2.33</v>
       </c>
       <c r="M245" t="inlineStr">
         <is>
-          <t>30/09/2023 23:20</t>
+          <t>30/09/2023 23:04</t>
         </is>
       </c>
       <c r="N245" t="n">
-        <v>3.73</v>
+        <v>3.09</v>
       </c>
       <c r="O245" t="inlineStr">
         <is>
-          <t>27/09/2023 23:12</t>
+          <t>24/09/2023 01:12</t>
         </is>
       </c>
       <c r="P245" t="n">
-        <v>3.96</v>
+        <v>3.1</v>
       </c>
       <c r="Q245" t="inlineStr">
         <is>
-          <t>30/09/2023 23:26</t>
+          <t>30/09/2023 23:04</t>
         </is>
       </c>
       <c r="R245" t="n">
-        <v>6.33</v>
+        <v>3.04</v>
       </c>
       <c r="S245" t="inlineStr">
         <is>
-          <t>27/09/2023 23:12</t>
+          <t>24/09/2023 01:12</t>
         </is>
       </c>
       <c r="T245" t="n">
-        <v>8.24</v>
+        <v>3.62</v>
       </c>
       <c r="U245" t="inlineStr">
         <is>
-          <t>30/09/2023 23:28</t>
+          <t>30/09/2023 23:04</t>
         </is>
       </c>
       <c r="V245" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/sao-paulo-corinthians/v3gJC0gr/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/cuiaba-fluminense/hWWPVu0K/</t>
         </is>
       </c>
     </row>
@@ -23113,22 +23113,22 @@
       </c>
       <c r="F247" t="inlineStr">
         <is>
-          <t>Santos</t>
+          <t>Cruzeiro</t>
         </is>
       </c>
       <c r="G247" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H247" t="inlineStr">
         <is>
-          <t>Vasco</t>
+          <t>America MG</t>
         </is>
       </c>
       <c r="I247" t="n">
         <v>1</v>
       </c>
       <c r="J247" t="n">
-        <v>2.25</v>
+        <v>1.71</v>
       </c>
       <c r="K247" t="inlineStr">
         <is>
@@ -23136,15 +23136,15 @@
         </is>
       </c>
       <c r="L247" t="n">
-        <v>2.6</v>
+        <v>1.74</v>
       </c>
       <c r="M247" t="inlineStr">
         <is>
-          <t>01/10/2023 20:30</t>
+          <t>01/10/2023 20:59</t>
         </is>
       </c>
       <c r="N247" t="n">
-        <v>3.29</v>
+        <v>3.88</v>
       </c>
       <c r="O247" t="inlineStr">
         <is>
@@ -23152,15 +23152,15 @@
         </is>
       </c>
       <c r="P247" t="n">
-        <v>3.11</v>
+        <v>3.8</v>
       </c>
       <c r="Q247" t="inlineStr">
         <is>
-          <t>01/10/2023 20:57</t>
+          <t>01/10/2023 20:59</t>
         </is>
       </c>
       <c r="R247" t="n">
-        <v>3.44</v>
+        <v>5.17</v>
       </c>
       <c r="S247" t="inlineStr">
         <is>
@@ -23168,16 +23168,16 @@
         </is>
       </c>
       <c r="T247" t="n">
-        <v>3.11</v>
+        <v>5.18</v>
       </c>
       <c r="U247" t="inlineStr">
         <is>
-          <t>01/10/2023 20:30</t>
+          <t>01/10/2023 20:59</t>
         </is>
       </c>
       <c r="V247" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/santos-vasco/IghNBK8l/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/cruzeiro-america-mg/4AjV9bw1/</t>
         </is>
       </c>
     </row>
@@ -23205,71 +23205,71 @@
       </c>
       <c r="F248" t="inlineStr">
         <is>
-          <t>Cruzeiro</t>
+          <t>Coritiba</t>
         </is>
       </c>
       <c r="G248" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H248" t="inlineStr">
         <is>
-          <t>America MG</t>
+          <t>Athletico-PR</t>
         </is>
       </c>
       <c r="I248" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J248" t="n">
-        <v>1.71</v>
+        <v>3.07</v>
       </c>
       <c r="K248" t="inlineStr">
         <is>
-          <t>26/09/2023 00:12</t>
+          <t>27/09/2023 23:12</t>
         </is>
       </c>
       <c r="L248" t="n">
-        <v>1.74</v>
+        <v>3.68</v>
       </c>
       <c r="M248" t="inlineStr">
         <is>
-          <t>01/10/2023 20:59</t>
+          <t>01/10/2023 20:56</t>
         </is>
       </c>
       <c r="N248" t="n">
-        <v>3.88</v>
+        <v>3.23</v>
       </c>
       <c r="O248" t="inlineStr">
         <is>
-          <t>26/09/2023 00:12</t>
+          <t>27/09/2023 23:12</t>
         </is>
       </c>
       <c r="P248" t="n">
-        <v>3.8</v>
+        <v>3.26</v>
       </c>
       <c r="Q248" t="inlineStr">
         <is>
-          <t>01/10/2023 20:59</t>
+          <t>01/10/2023 20:29</t>
         </is>
       </c>
       <c r="R248" t="n">
-        <v>5.17</v>
+        <v>2.48</v>
       </c>
       <c r="S248" t="inlineStr">
         <is>
-          <t>26/09/2023 00:12</t>
+          <t>27/09/2023 23:12</t>
         </is>
       </c>
       <c r="T248" t="n">
-        <v>5.18</v>
+        <v>2.22</v>
       </c>
       <c r="U248" t="inlineStr">
         <is>
-          <t>01/10/2023 20:59</t>
+          <t>01/10/2023 20:56</t>
         </is>
       </c>
       <c r="V248" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/cruzeiro-america-mg/4AjV9bw1/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/coritiba-athletico-pr/0xpv8x8D/</t>
         </is>
       </c>
     </row>
@@ -23297,71 +23297,71 @@
       </c>
       <c r="F249" t="inlineStr">
         <is>
-          <t>Coritiba</t>
+          <t>Santos</t>
         </is>
       </c>
       <c r="G249" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H249" t="inlineStr">
         <is>
-          <t>Athletico-PR</t>
+          <t>Vasco</t>
         </is>
       </c>
       <c r="I249" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J249" t="n">
-        <v>3.07</v>
+        <v>2.25</v>
       </c>
       <c r="K249" t="inlineStr">
         <is>
-          <t>27/09/2023 23:12</t>
+          <t>26/09/2023 00:12</t>
         </is>
       </c>
       <c r="L249" t="n">
-        <v>3.68</v>
+        <v>2.6</v>
       </c>
       <c r="M249" t="inlineStr">
         <is>
-          <t>01/10/2023 20:56</t>
+          <t>01/10/2023 20:30</t>
         </is>
       </c>
       <c r="N249" t="n">
-        <v>3.23</v>
+        <v>3.29</v>
       </c>
       <c r="O249" t="inlineStr">
         <is>
-          <t>27/09/2023 23:12</t>
+          <t>26/09/2023 00:12</t>
         </is>
       </c>
       <c r="P249" t="n">
-        <v>3.26</v>
+        <v>3.11</v>
       </c>
       <c r="Q249" t="inlineStr">
         <is>
-          <t>01/10/2023 20:29</t>
+          <t>01/10/2023 20:57</t>
         </is>
       </c>
       <c r="R249" t="n">
-        <v>2.48</v>
+        <v>3.44</v>
       </c>
       <c r="S249" t="inlineStr">
         <is>
-          <t>27/09/2023 23:12</t>
+          <t>26/09/2023 00:12</t>
         </is>
       </c>
       <c r="T249" t="n">
-        <v>2.22</v>
+        <v>3.11</v>
       </c>
       <c r="U249" t="inlineStr">
         <is>
-          <t>01/10/2023 20:56</t>
+          <t>01/10/2023 20:30</t>
         </is>
       </c>
       <c r="V249" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/coritiba-athletico-pr/0xpv8x8D/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/santos-vasco/IghNBK8l/</t>
         </is>
       </c>
     </row>
@@ -23849,71 +23849,71 @@
       </c>
       <c r="F255" t="inlineStr">
         <is>
-          <t>Internacional</t>
+          <t>Fluminense</t>
         </is>
       </c>
       <c r="G255" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H255" t="inlineStr">
         <is>
-          <t>Gremio</t>
+          <t>Botafogo RJ</t>
         </is>
       </c>
       <c r="I255" t="n">
         <v>2</v>
       </c>
       <c r="J255" t="n">
-        <v>2.29</v>
+        <v>2.08</v>
       </c>
       <c r="K255" t="inlineStr">
         <is>
-          <t>01/10/2023 01:12</t>
+          <t>03/10/2023 00:13</t>
         </is>
       </c>
       <c r="L255" t="n">
-        <v>2.29</v>
+        <v>1.95</v>
       </c>
       <c r="M255" t="inlineStr">
         <is>
-          <t>08/10/2023 20:56</t>
+          <t>08/10/2023 20:59</t>
         </is>
       </c>
       <c r="N255" t="n">
-        <v>3.3</v>
+        <v>3.21</v>
       </c>
       <c r="O255" t="inlineStr">
         <is>
-          <t>01/10/2023 01:12</t>
+          <t>03/10/2023 00:13</t>
         </is>
       </c>
       <c r="P255" t="n">
-        <v>3.26</v>
+        <v>3.52</v>
       </c>
       <c r="Q255" t="inlineStr">
         <is>
-          <t>08/10/2023 20:51</t>
+          <t>08/10/2023 20:59</t>
         </is>
       </c>
       <c r="R255" t="n">
-        <v>3.43</v>
+        <v>4.03</v>
       </c>
       <c r="S255" t="inlineStr">
         <is>
-          <t>01/10/2023 01:12</t>
+          <t>03/10/2023 00:13</t>
         </is>
       </c>
       <c r="T255" t="n">
-        <v>3.53</v>
+        <v>4.29</v>
       </c>
       <c r="U255" t="inlineStr">
         <is>
-          <t>08/10/2023 20:56</t>
+          <t>08/10/2023 20:59</t>
         </is>
       </c>
       <c r="V255" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/internacional-gremio/829HLexD/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/fluminense-botafogo-rj/A7RUUaFQ/</t>
         </is>
       </c>
     </row>
@@ -23941,71 +23941,71 @@
       </c>
       <c r="F256" t="inlineStr">
         <is>
-          <t>Fluminense</t>
+          <t>Internacional</t>
         </is>
       </c>
       <c r="G256" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H256" t="inlineStr">
         <is>
-          <t>Botafogo RJ</t>
+          <t>Gremio</t>
         </is>
       </c>
       <c r="I256" t="n">
         <v>2</v>
       </c>
       <c r="J256" t="n">
-        <v>2.08</v>
+        <v>2.29</v>
       </c>
       <c r="K256" t="inlineStr">
         <is>
-          <t>03/10/2023 00:13</t>
+          <t>01/10/2023 01:12</t>
         </is>
       </c>
       <c r="L256" t="n">
-        <v>1.95</v>
+        <v>2.29</v>
       </c>
       <c r="M256" t="inlineStr">
         <is>
-          <t>08/10/2023 20:59</t>
+          <t>08/10/2023 20:56</t>
         </is>
       </c>
       <c r="N256" t="n">
-        <v>3.21</v>
+        <v>3.3</v>
       </c>
       <c r="O256" t="inlineStr">
         <is>
-          <t>03/10/2023 00:13</t>
+          <t>01/10/2023 01:12</t>
         </is>
       </c>
       <c r="P256" t="n">
-        <v>3.52</v>
+        <v>3.26</v>
       </c>
       <c r="Q256" t="inlineStr">
         <is>
-          <t>08/10/2023 20:59</t>
+          <t>08/10/2023 20:51</t>
         </is>
       </c>
       <c r="R256" t="n">
-        <v>4.03</v>
+        <v>3.43</v>
       </c>
       <c r="S256" t="inlineStr">
         <is>
-          <t>03/10/2023 00:13</t>
+          <t>01/10/2023 01:12</t>
         </is>
       </c>
       <c r="T256" t="n">
-        <v>4.29</v>
+        <v>3.53</v>
       </c>
       <c r="U256" t="inlineStr">
         <is>
-          <t>08/10/2023 20:59</t>
+          <t>08/10/2023 20:56</t>
         </is>
       </c>
       <c r="V256" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/fluminense-botafogo-rj/A7RUUaFQ/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/internacional-gremio/829HLexD/</t>
         </is>
       </c>
     </row>
@@ -24098,6 +24098,282 @@
       <c r="V257" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/brazil/serie-a/palmeiras-santos/6wD0Pwwl/</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="1" t="n">
+        <v>257</v>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>brazil</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>serie-a</t>
+        </is>
+      </c>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E258" s="2" t="n">
+        <v>45207.97916666666</v>
+      </c>
+      <c r="F258" t="inlineStr">
+        <is>
+          <t>Atletico-MG</t>
+        </is>
+      </c>
+      <c r="G258" t="n">
+        <v>1</v>
+      </c>
+      <c r="H258" t="inlineStr">
+        <is>
+          <t>Coritiba</t>
+        </is>
+      </c>
+      <c r="I258" t="n">
+        <v>2</v>
+      </c>
+      <c r="J258" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>01/10/2023 20:12</t>
+        </is>
+      </c>
+      <c r="L258" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="M258" t="inlineStr">
+        <is>
+          <t>08/10/2023 23:23</t>
+        </is>
+      </c>
+      <c r="N258" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="O258" t="inlineStr">
+        <is>
+          <t>01/10/2023 20:12</t>
+        </is>
+      </c>
+      <c r="P258" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="Q258" t="inlineStr">
+        <is>
+          <t>08/10/2023 23:23</t>
+        </is>
+      </c>
+      <c r="R258" t="n">
+        <v>10.08</v>
+      </c>
+      <c r="S258" t="inlineStr">
+        <is>
+          <t>01/10/2023 20:12</t>
+        </is>
+      </c>
+      <c r="T258" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="U258" t="inlineStr">
+        <is>
+          <t>08/10/2023 23:25</t>
+        </is>
+      </c>
+      <c r="V258" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/atletico-mg-coritiba/vT4DMyN6/</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="1" t="n">
+        <v>258</v>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>brazil</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>serie-a</t>
+        </is>
+      </c>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E259" s="2" t="n">
+        <v>45207.97916666666</v>
+      </c>
+      <c r="F259" t="inlineStr">
+        <is>
+          <t>Athletico-PR</t>
+        </is>
+      </c>
+      <c r="G259" t="n">
+        <v>1</v>
+      </c>
+      <c r="H259" t="inlineStr">
+        <is>
+          <t>Bragantino</t>
+        </is>
+      </c>
+      <c r="I259" t="n">
+        <v>1</v>
+      </c>
+      <c r="J259" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>01/10/2023 22:42</t>
+        </is>
+      </c>
+      <c r="L259" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="M259" t="inlineStr">
+        <is>
+          <t>08/10/2023 23:26</t>
+        </is>
+      </c>
+      <c r="N259" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="O259" t="inlineStr">
+        <is>
+          <t>01/10/2023 22:42</t>
+        </is>
+      </c>
+      <c r="P259" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="Q259" t="inlineStr">
+        <is>
+          <t>08/10/2023 23:26</t>
+        </is>
+      </c>
+      <c r="R259" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="S259" t="inlineStr">
+        <is>
+          <t>01/10/2023 22:42</t>
+        </is>
+      </c>
+      <c r="T259" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="U259" t="inlineStr">
+        <is>
+          <t>08/10/2023 23:26</t>
+        </is>
+      </c>
+      <c r="V259" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/athletico-pr-bragantino/ng8LKFiJ/</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="1" t="n">
+        <v>259</v>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>brazil</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>serie-a</t>
+        </is>
+      </c>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E260" s="2" t="n">
+        <v>45207.97916666666</v>
+      </c>
+      <c r="F260" t="inlineStr">
+        <is>
+          <t>Fortaleza</t>
+        </is>
+      </c>
+      <c r="G260" t="n">
+        <v>3</v>
+      </c>
+      <c r="H260" t="inlineStr">
+        <is>
+          <t>America MG</t>
+        </is>
+      </c>
+      <c r="I260" t="n">
+        <v>2</v>
+      </c>
+      <c r="J260" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>01/10/2023 20:12</t>
+        </is>
+      </c>
+      <c r="L260" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="M260" t="inlineStr">
+        <is>
+          <t>08/10/2023 22:46</t>
+        </is>
+      </c>
+      <c r="N260" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="O260" t="inlineStr">
+        <is>
+          <t>01/10/2023 20:12</t>
+        </is>
+      </c>
+      <c r="P260" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="Q260" t="inlineStr">
+        <is>
+          <t>08/10/2023 23:29</t>
+        </is>
+      </c>
+      <c r="R260" t="n">
+        <v>5.96</v>
+      </c>
+      <c r="S260" t="inlineStr">
+        <is>
+          <t>01/10/2023 20:12</t>
+        </is>
+      </c>
+      <c r="T260" t="n">
+        <v>6.46</v>
+      </c>
+      <c r="U260" t="inlineStr">
+        <is>
+          <t>08/10/2023 23:29</t>
+        </is>
+      </c>
+      <c r="V260" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/fortaleza-america-mg/lbn4qaUJ/</t>
         </is>
       </c>
     </row>

--- a/2023/brazil_serie-a_2023.xlsx
+++ b/2023/brazil_serie-a_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V260"/>
+  <dimension ref="A1:V261"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23113,22 +23113,22 @@
       </c>
       <c r="F247" t="inlineStr">
         <is>
-          <t>Cruzeiro</t>
+          <t>Santos</t>
         </is>
       </c>
       <c r="G247" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H247" t="inlineStr">
         <is>
-          <t>America MG</t>
+          <t>Vasco</t>
         </is>
       </c>
       <c r="I247" t="n">
         <v>1</v>
       </c>
       <c r="J247" t="n">
-        <v>1.71</v>
+        <v>2.25</v>
       </c>
       <c r="K247" t="inlineStr">
         <is>
@@ -23136,15 +23136,15 @@
         </is>
       </c>
       <c r="L247" t="n">
-        <v>1.74</v>
+        <v>2.6</v>
       </c>
       <c r="M247" t="inlineStr">
         <is>
-          <t>01/10/2023 20:59</t>
+          <t>01/10/2023 20:30</t>
         </is>
       </c>
       <c r="N247" t="n">
-        <v>3.88</v>
+        <v>3.29</v>
       </c>
       <c r="O247" t="inlineStr">
         <is>
@@ -23152,15 +23152,15 @@
         </is>
       </c>
       <c r="P247" t="n">
-        <v>3.8</v>
+        <v>3.11</v>
       </c>
       <c r="Q247" t="inlineStr">
         <is>
-          <t>01/10/2023 20:59</t>
+          <t>01/10/2023 20:57</t>
         </is>
       </c>
       <c r="R247" t="n">
-        <v>5.17</v>
+        <v>3.44</v>
       </c>
       <c r="S247" t="inlineStr">
         <is>
@@ -23168,16 +23168,16 @@
         </is>
       </c>
       <c r="T247" t="n">
-        <v>5.18</v>
+        <v>3.11</v>
       </c>
       <c r="U247" t="inlineStr">
         <is>
-          <t>01/10/2023 20:59</t>
+          <t>01/10/2023 20:30</t>
         </is>
       </c>
       <c r="V247" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/cruzeiro-america-mg/4AjV9bw1/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/santos-vasco/IghNBK8l/</t>
         </is>
       </c>
     </row>
@@ -23205,71 +23205,71 @@
       </c>
       <c r="F248" t="inlineStr">
         <is>
-          <t>Coritiba</t>
+          <t>Cruzeiro</t>
         </is>
       </c>
       <c r="G248" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H248" t="inlineStr">
         <is>
-          <t>Athletico-PR</t>
+          <t>America MG</t>
         </is>
       </c>
       <c r="I248" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J248" t="n">
-        <v>3.07</v>
+        <v>1.71</v>
       </c>
       <c r="K248" t="inlineStr">
         <is>
-          <t>27/09/2023 23:12</t>
+          <t>26/09/2023 00:12</t>
         </is>
       </c>
       <c r="L248" t="n">
-        <v>3.68</v>
+        <v>1.74</v>
       </c>
       <c r="M248" t="inlineStr">
         <is>
-          <t>01/10/2023 20:56</t>
+          <t>01/10/2023 20:59</t>
         </is>
       </c>
       <c r="N248" t="n">
-        <v>3.23</v>
+        <v>3.88</v>
       </c>
       <c r="O248" t="inlineStr">
         <is>
-          <t>27/09/2023 23:12</t>
+          <t>26/09/2023 00:12</t>
         </is>
       </c>
       <c r="P248" t="n">
-        <v>3.26</v>
+        <v>3.8</v>
       </c>
       <c r="Q248" t="inlineStr">
         <is>
-          <t>01/10/2023 20:29</t>
+          <t>01/10/2023 20:59</t>
         </is>
       </c>
       <c r="R248" t="n">
-        <v>2.48</v>
+        <v>5.17</v>
       </c>
       <c r="S248" t="inlineStr">
         <is>
-          <t>27/09/2023 23:12</t>
+          <t>26/09/2023 00:12</t>
         </is>
       </c>
       <c r="T248" t="n">
-        <v>2.22</v>
+        <v>5.18</v>
       </c>
       <c r="U248" t="inlineStr">
         <is>
-          <t>01/10/2023 20:56</t>
+          <t>01/10/2023 20:59</t>
         </is>
       </c>
       <c r="V248" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/coritiba-athletico-pr/0xpv8x8D/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/cruzeiro-america-mg/4AjV9bw1/</t>
         </is>
       </c>
     </row>
@@ -23297,71 +23297,71 @@
       </c>
       <c r="F249" t="inlineStr">
         <is>
-          <t>Santos</t>
+          <t>Coritiba</t>
         </is>
       </c>
       <c r="G249" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H249" t="inlineStr">
         <is>
-          <t>Vasco</t>
+          <t>Athletico-PR</t>
         </is>
       </c>
       <c r="I249" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J249" t="n">
-        <v>2.25</v>
+        <v>3.07</v>
       </c>
       <c r="K249" t="inlineStr">
         <is>
-          <t>26/09/2023 00:12</t>
+          <t>27/09/2023 23:12</t>
         </is>
       </c>
       <c r="L249" t="n">
-        <v>2.6</v>
+        <v>3.68</v>
       </c>
       <c r="M249" t="inlineStr">
         <is>
-          <t>01/10/2023 20:30</t>
+          <t>01/10/2023 20:56</t>
         </is>
       </c>
       <c r="N249" t="n">
-        <v>3.29</v>
+        <v>3.23</v>
       </c>
       <c r="O249" t="inlineStr">
         <is>
-          <t>26/09/2023 00:12</t>
+          <t>27/09/2023 23:12</t>
         </is>
       </c>
       <c r="P249" t="n">
-        <v>3.11</v>
+        <v>3.26</v>
       </c>
       <c r="Q249" t="inlineStr">
         <is>
-          <t>01/10/2023 20:57</t>
+          <t>01/10/2023 20:29</t>
         </is>
       </c>
       <c r="R249" t="n">
-        <v>3.44</v>
+        <v>2.48</v>
       </c>
       <c r="S249" t="inlineStr">
         <is>
-          <t>26/09/2023 00:12</t>
+          <t>27/09/2023 23:12</t>
         </is>
       </c>
       <c r="T249" t="n">
-        <v>3.11</v>
+        <v>2.22</v>
       </c>
       <c r="U249" t="inlineStr">
         <is>
-          <t>01/10/2023 20:30</t>
+          <t>01/10/2023 20:56</t>
         </is>
       </c>
       <c r="V249" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/santos-vasco/IghNBK8l/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/coritiba-athletico-pr/0xpv8x8D/</t>
         </is>
       </c>
     </row>
@@ -24125,7 +24125,7 @@
       </c>
       <c r="F258" t="inlineStr">
         <is>
-          <t>Atletico-MG</t>
+          <t>Athletico-PR</t>
         </is>
       </c>
       <c r="G258" t="n">
@@ -24133,63 +24133,63 @@
       </c>
       <c r="H258" t="inlineStr">
         <is>
-          <t>Coritiba</t>
+          <t>Bragantino</t>
         </is>
       </c>
       <c r="I258" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J258" t="n">
-        <v>1.35</v>
+        <v>2.09</v>
       </c>
       <c r="K258" t="inlineStr">
         <is>
-          <t>01/10/2023 20:12</t>
+          <t>01/10/2023 22:42</t>
         </is>
       </c>
       <c r="L258" t="n">
-        <v>1.39</v>
+        <v>2.76</v>
       </c>
       <c r="M258" t="inlineStr">
         <is>
-          <t>08/10/2023 23:23</t>
+          <t>08/10/2023 23:26</t>
         </is>
       </c>
       <c r="N258" t="n">
-        <v>4.9</v>
+        <v>3.44</v>
       </c>
       <c r="O258" t="inlineStr">
         <is>
-          <t>01/10/2023 20:12</t>
+          <t>01/10/2023 22:42</t>
         </is>
       </c>
       <c r="P258" t="n">
-        <v>4.75</v>
+        <v>3.22</v>
       </c>
       <c r="Q258" t="inlineStr">
         <is>
-          <t>08/10/2023 23:23</t>
+          <t>08/10/2023 23:26</t>
         </is>
       </c>
       <c r="R258" t="n">
-        <v>10.08</v>
+        <v>3.7</v>
       </c>
       <c r="S258" t="inlineStr">
         <is>
-          <t>01/10/2023 20:12</t>
+          <t>01/10/2023 22:42</t>
         </is>
       </c>
       <c r="T258" t="n">
-        <v>9.800000000000001</v>
+        <v>2.82</v>
       </c>
       <c r="U258" t="inlineStr">
         <is>
-          <t>08/10/2023 23:25</t>
+          <t>08/10/2023 23:26</t>
         </is>
       </c>
       <c r="V258" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/atletico-mg-coritiba/vT4DMyN6/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/athletico-pr-bragantino/ng8LKFiJ/</t>
         </is>
       </c>
     </row>
@@ -24217,7 +24217,7 @@
       </c>
       <c r="F259" t="inlineStr">
         <is>
-          <t>Athletico-PR</t>
+          <t>Atletico-MG</t>
         </is>
       </c>
       <c r="G259" t="n">
@@ -24225,63 +24225,63 @@
       </c>
       <c r="H259" t="inlineStr">
         <is>
-          <t>Bragantino</t>
+          <t>Coritiba</t>
         </is>
       </c>
       <c r="I259" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J259" t="n">
-        <v>2.09</v>
+        <v>1.35</v>
       </c>
       <c r="K259" t="inlineStr">
         <is>
-          <t>01/10/2023 22:42</t>
+          <t>01/10/2023 20:12</t>
         </is>
       </c>
       <c r="L259" t="n">
-        <v>2.76</v>
+        <v>1.39</v>
       </c>
       <c r="M259" t="inlineStr">
         <is>
-          <t>08/10/2023 23:26</t>
+          <t>08/10/2023 23:23</t>
         </is>
       </c>
       <c r="N259" t="n">
-        <v>3.44</v>
+        <v>4.9</v>
       </c>
       <c r="O259" t="inlineStr">
         <is>
-          <t>01/10/2023 22:42</t>
+          <t>01/10/2023 20:12</t>
         </is>
       </c>
       <c r="P259" t="n">
-        <v>3.22</v>
+        <v>4.75</v>
       </c>
       <c r="Q259" t="inlineStr">
         <is>
-          <t>08/10/2023 23:26</t>
+          <t>08/10/2023 23:23</t>
         </is>
       </c>
       <c r="R259" t="n">
-        <v>3.7</v>
+        <v>10.08</v>
       </c>
       <c r="S259" t="inlineStr">
         <is>
-          <t>01/10/2023 22:42</t>
+          <t>01/10/2023 20:12</t>
         </is>
       </c>
       <c r="T259" t="n">
-        <v>2.82</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="U259" t="inlineStr">
         <is>
-          <t>08/10/2023 23:26</t>
+          <t>08/10/2023 23:25</t>
         </is>
       </c>
       <c r="V259" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/athletico-pr-bragantino/ng8LKFiJ/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/atletico-mg-coritiba/vT4DMyN6/</t>
         </is>
       </c>
     </row>
@@ -24374,6 +24374,98 @@
       <c r="V260" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/brazil/serie-a/fortaleza-america-mg/lbn4qaUJ/</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="1" t="n">
+        <v>260</v>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>brazil</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>serie-a</t>
+        </is>
+      </c>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E261" s="2" t="n">
+        <v>45214.08333333334</v>
+      </c>
+      <c r="F261" t="inlineStr">
+        <is>
+          <t>Cuiaba</t>
+        </is>
+      </c>
+      <c r="G261" t="n">
+        <v>0</v>
+      </c>
+      <c r="H261" t="inlineStr">
+        <is>
+          <t>Cruzeiro</t>
+        </is>
+      </c>
+      <c r="I261" t="n">
+        <v>0</v>
+      </c>
+      <c r="J261" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>09/10/2023 13:54</t>
+        </is>
+      </c>
+      <c r="L261" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="M261" t="inlineStr">
+        <is>
+          <t>15/10/2023 01:55</t>
+        </is>
+      </c>
+      <c r="N261" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="O261" t="inlineStr">
+        <is>
+          <t>09/10/2023 13:54</t>
+        </is>
+      </c>
+      <c r="P261" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="Q261" t="inlineStr">
+        <is>
+          <t>15/10/2023 01:50</t>
+        </is>
+      </c>
+      <c r="R261" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="S261" t="inlineStr">
+        <is>
+          <t>09/10/2023 13:54</t>
+        </is>
+      </c>
+      <c r="T261" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="U261" t="inlineStr">
+        <is>
+          <t>15/10/2023 01:58</t>
+        </is>
+      </c>
+      <c r="V261" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/cuiaba-cruzeiro/21j8rJqQ/</t>
         </is>
       </c>
     </row>

--- a/2023/brazil_serie-a_2023.xlsx
+++ b/2023/brazil_serie-a_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V261"/>
+  <dimension ref="A1:V267"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2597,71 +2597,71 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Palmeiras</t>
+          <t>Santos</t>
         </is>
       </c>
       <c r="G24" t="n">
+        <v>3</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>America MG</t>
+        </is>
+      </c>
+      <c r="I24" t="n">
         <v>2</v>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>Corinthians</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
-        <v>1</v>
-      </c>
       <c r="J24" t="n">
-        <v>1.68</v>
+        <v>2.04</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>24/04/2023 00:12</t>
+          <t>24/04/2023 05:42</t>
         </is>
       </c>
       <c r="L24" t="n">
-        <v>1.5</v>
+        <v>2.41</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>29/04/2023 23:06</t>
+          <t>29/04/2023 23:26</t>
         </is>
       </c>
       <c r="N24" t="n">
-        <v>3.88</v>
+        <v>3.54</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>24/04/2023 00:12</t>
+          <t>24/04/2023 05:42</t>
         </is>
       </c>
       <c r="P24" t="n">
-        <v>4.07</v>
+        <v>3.22</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>29/04/2023 22:36</t>
+          <t>29/04/2023 23:26</t>
         </is>
       </c>
       <c r="R24" t="n">
-        <v>5.49</v>
+        <v>3.73</v>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>24/04/2023 00:12</t>
+          <t>24/04/2023 05:42</t>
         </is>
       </c>
       <c r="T24" t="n">
-        <v>8.26</v>
+        <v>3.31</v>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>29/04/2023 23:06</t>
+          <t>29/04/2023 23:26</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/palmeiras-corinthians/SCa0VsU4/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/santos-america-mg/63b4U1qB/</t>
         </is>
       </c>
     </row>
@@ -2781,71 +2781,71 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Santos</t>
+          <t>Palmeiras</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>America MG</t>
+          <t>Corinthians</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J26" t="n">
-        <v>2.04</v>
+        <v>1.68</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>24/04/2023 05:42</t>
+          <t>24/04/2023 00:12</t>
         </is>
       </c>
       <c r="L26" t="n">
-        <v>2.41</v>
+        <v>1.5</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>29/04/2023 23:26</t>
+          <t>29/04/2023 23:06</t>
         </is>
       </c>
       <c r="N26" t="n">
-        <v>3.54</v>
+        <v>3.88</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>24/04/2023 05:42</t>
+          <t>24/04/2023 00:12</t>
         </is>
       </c>
       <c r="P26" t="n">
-        <v>3.22</v>
+        <v>4.07</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>29/04/2023 23:26</t>
+          <t>29/04/2023 22:36</t>
         </is>
       </c>
       <c r="R26" t="n">
-        <v>3.73</v>
+        <v>5.49</v>
       </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t>24/04/2023 05:42</t>
+          <t>24/04/2023 00:12</t>
         </is>
       </c>
       <c r="T26" t="n">
-        <v>3.31</v>
+        <v>8.26</v>
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>29/04/2023 23:26</t>
+          <t>29/04/2023 23:06</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/santos-america-mg/63b4U1qB/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/palmeiras-corinthians/SCa0VsU4/</t>
         </is>
       </c>
     </row>
@@ -3701,7 +3701,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Athletico-PR</t>
+          <t>Sao Paulo</t>
         </is>
       </c>
       <c r="G36" t="n">
@@ -3709,63 +3709,63 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Flamengo RJ</t>
+          <t>Internacional</t>
         </is>
       </c>
       <c r="I36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>3.45</v>
+        <v>1.87</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>01/05/2023 02:12</t>
+          <t>01/05/2023 04:41</t>
         </is>
       </c>
       <c r="L36" t="n">
-        <v>3.01</v>
+        <v>2.05</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>07/05/2023 20:57</t>
+          <t>07/05/2023 20:59</t>
         </is>
       </c>
       <c r="N36" t="n">
-        <v>3.43</v>
+        <v>3.79</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>01/05/2023 02:12</t>
+          <t>01/05/2023 04:41</t>
         </is>
       </c>
       <c r="P36" t="n">
-        <v>3.22</v>
+        <v>3.47</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>07/05/2023 20:56</t>
+          <t>07/05/2023 20:59</t>
         </is>
       </c>
       <c r="R36" t="n">
-        <v>2.22</v>
+        <v>4.1</v>
       </c>
       <c r="S36" t="inlineStr">
         <is>
-          <t>01/05/2023 02:12</t>
+          <t>01/05/2023 04:41</t>
         </is>
       </c>
       <c r="T36" t="n">
-        <v>2.61</v>
+        <v>3.95</v>
       </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>07/05/2023 20:57</t>
+          <t>07/05/2023 20:59</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/athletico-pr-flamengo-rj/bL1QZdLj/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/sao-paulo-internacional/fmJsrLDA/</t>
         </is>
       </c>
     </row>
@@ -3793,7 +3793,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Sao Paulo</t>
+          <t>Athletico-PR</t>
         </is>
       </c>
       <c r="G37" t="n">
@@ -3801,63 +3801,63 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Internacional</t>
+          <t>Flamengo RJ</t>
         </is>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J37" t="n">
-        <v>1.87</v>
+        <v>3.45</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>01/05/2023 04:41</t>
+          <t>01/05/2023 02:12</t>
         </is>
       </c>
       <c r="L37" t="n">
-        <v>2.05</v>
+        <v>3.01</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>07/05/2023 20:59</t>
+          <t>07/05/2023 20:57</t>
         </is>
       </c>
       <c r="N37" t="n">
-        <v>3.79</v>
+        <v>3.43</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>01/05/2023 04:41</t>
+          <t>01/05/2023 02:12</t>
         </is>
       </c>
       <c r="P37" t="n">
-        <v>3.47</v>
+        <v>3.22</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>07/05/2023 20:59</t>
+          <t>07/05/2023 20:56</t>
         </is>
       </c>
       <c r="R37" t="n">
-        <v>4.1</v>
+        <v>2.22</v>
       </c>
       <c r="S37" t="inlineStr">
         <is>
-          <t>01/05/2023 04:41</t>
+          <t>01/05/2023 02:12</t>
         </is>
       </c>
       <c r="T37" t="n">
-        <v>3.95</v>
+        <v>2.61</v>
       </c>
       <c r="U37" t="inlineStr">
         <is>
-          <t>07/05/2023 20:59</t>
+          <t>07/05/2023 20:57</t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/sao-paulo-internacional/fmJsrLDA/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/athletico-pr-flamengo-rj/bL1QZdLj/</t>
         </is>
       </c>
     </row>
@@ -3885,22 +3885,22 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Gremio</t>
+          <t>Goias</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Bragantino</t>
+          <t>Palmeiras</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J38" t="n">
-        <v>1.88</v>
+        <v>4.55</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -3908,15 +3908,15 @@
         </is>
       </c>
       <c r="L38" t="n">
-        <v>1.91</v>
+        <v>5.53</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>07/05/2023 23:27</t>
+          <t>07/05/2023 23:20</t>
         </is>
       </c>
       <c r="N38" t="n">
-        <v>3.71</v>
+        <v>3.7</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
@@ -3924,15 +3924,15 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>3.6</v>
+        <v>3.99</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>07/05/2023 23:23</t>
+          <t>07/05/2023 23:20</t>
         </is>
       </c>
       <c r="R38" t="n">
-        <v>4.19</v>
+        <v>1.81</v>
       </c>
       <c r="S38" t="inlineStr">
         <is>
@@ -3940,16 +3940,16 @@
         </is>
       </c>
       <c r="T38" t="n">
-        <v>4.41</v>
+        <v>1.67</v>
       </c>
       <c r="U38" t="inlineStr">
         <is>
-          <t>07/05/2023 23:27</t>
+          <t>07/05/2023 23:20</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/gremio-bragantino/nobMzw6p/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/goias-palmeiras/jFCjtarN/</t>
         </is>
       </c>
     </row>
@@ -3977,22 +3977,22 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Goias</t>
+          <t>Gremio</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Palmeiras</t>
+          <t>Bragantino</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J39" t="n">
-        <v>4.55</v>
+        <v>1.88</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -4000,15 +4000,15 @@
         </is>
       </c>
       <c r="L39" t="n">
-        <v>5.53</v>
+        <v>1.91</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>07/05/2023 23:20</t>
+          <t>07/05/2023 23:27</t>
         </is>
       </c>
       <c r="N39" t="n">
-        <v>3.7</v>
+        <v>3.71</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
@@ -4016,15 +4016,15 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>3.99</v>
+        <v>3.6</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>07/05/2023 23:20</t>
+          <t>07/05/2023 23:23</t>
         </is>
       </c>
       <c r="R39" t="n">
-        <v>1.81</v>
+        <v>4.19</v>
       </c>
       <c r="S39" t="inlineStr">
         <is>
@@ -4032,16 +4032,16 @@
         </is>
       </c>
       <c r="T39" t="n">
-        <v>1.67</v>
+        <v>4.41</v>
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>07/05/2023 23:20</t>
+          <t>07/05/2023 23:27</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/goias-palmeiras/jFCjtarN/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/gremio-bragantino/nobMzw6p/</t>
         </is>
       </c>
     </row>
@@ -4253,22 +4253,22 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Internacional</t>
+          <t>Santos</t>
         </is>
       </c>
       <c r="G42" t="n">
+        <v>3</v>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Bahia</t>
+        </is>
+      </c>
+      <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>Athletico-PR</t>
-        </is>
-      </c>
-      <c r="I42" t="n">
-        <v>2</v>
-      </c>
       <c r="J42" t="n">
-        <v>1.79</v>
+        <v>1.95</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -4276,15 +4276,15 @@
         </is>
       </c>
       <c r="L42" t="n">
-        <v>1.82</v>
+        <v>2.3</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>10/05/2023 23:55</t>
+          <t>10/05/2023 23:51</t>
         </is>
       </c>
       <c r="N42" t="n">
-        <v>3.69</v>
+        <v>3.64</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
@@ -4292,15 +4292,15 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>3.61</v>
+        <v>3.14</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>10/05/2023 23:55</t>
+          <t>10/05/2023 23:59</t>
         </is>
       </c>
       <c r="R42" t="n">
-        <v>4.86</v>
+        <v>3.93</v>
       </c>
       <c r="S42" t="inlineStr">
         <is>
@@ -4308,16 +4308,16 @@
         </is>
       </c>
       <c r="T42" t="n">
-        <v>4.93</v>
+        <v>3.65</v>
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>10/05/2023 23:55</t>
+          <t>10/05/2023 23:59</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/internacional-athletico-pr/61gdmGkj/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/santos-bahia/r9yUgICM/</t>
         </is>
       </c>
     </row>
@@ -4345,71 +4345,71 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Bragantino</t>
+          <t>Internacional</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>America MG</t>
+          <t>Athletico-PR</t>
         </is>
       </c>
       <c r="I43" t="n">
         <v>2</v>
       </c>
       <c r="J43" t="n">
-        <v>1.86</v>
+        <v>1.79</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>07/05/2023 23:42</t>
+          <t>07/05/2023 21:12</t>
         </is>
       </c>
       <c r="L43" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>10/05/2023 23:45</t>
+          <t>10/05/2023 23:55</t>
         </is>
       </c>
       <c r="N43" t="n">
-        <v>3.68</v>
+        <v>3.69</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>07/05/2023 23:42</t>
+          <t>07/05/2023 21:12</t>
         </is>
       </c>
       <c r="P43" t="n">
-        <v>3.77</v>
+        <v>3.61</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>10/05/2023 23:45</t>
+          <t>10/05/2023 23:55</t>
         </is>
       </c>
       <c r="R43" t="n">
-        <v>4.31</v>
+        <v>4.86</v>
       </c>
       <c r="S43" t="inlineStr">
         <is>
-          <t>07/05/2023 23:42</t>
+          <t>07/05/2023 21:12</t>
         </is>
       </c>
       <c r="T43" t="n">
-        <v>4.62</v>
+        <v>4.93</v>
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>10/05/2023 23:48</t>
+          <t>10/05/2023 23:55</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/bragantino-america-mg/xWzYhxSS/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/internacional-athletico-pr/61gdmGkj/</t>
         </is>
       </c>
     </row>
@@ -4437,71 +4437,71 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Santos</t>
+          <t>Bragantino</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Bahia</t>
+          <t>America MG</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J44" t="n">
-        <v>1.95</v>
+        <v>1.86</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>07/05/2023 21:12</t>
+          <t>07/05/2023 23:42</t>
         </is>
       </c>
       <c r="L44" t="n">
-        <v>2.3</v>
+        <v>1.83</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>10/05/2023 23:51</t>
+          <t>10/05/2023 23:45</t>
         </is>
       </c>
       <c r="N44" t="n">
-        <v>3.64</v>
+        <v>3.68</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>07/05/2023 21:12</t>
+          <t>07/05/2023 23:42</t>
         </is>
       </c>
       <c r="P44" t="n">
-        <v>3.14</v>
+        <v>3.77</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>10/05/2023 23:59</t>
+          <t>10/05/2023 23:45</t>
         </is>
       </c>
       <c r="R44" t="n">
-        <v>3.93</v>
+        <v>4.31</v>
       </c>
       <c r="S44" t="inlineStr">
         <is>
-          <t>07/05/2023 21:12</t>
+          <t>07/05/2023 23:42</t>
         </is>
       </c>
       <c r="T44" t="n">
-        <v>3.65</v>
+        <v>4.62</v>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>10/05/2023 23:59</t>
+          <t>10/05/2023 23:48</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/santos-bahia/r9yUgICM/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/bragantino-america-mg/xWzYhxSS/</t>
         </is>
       </c>
     </row>
@@ -5541,7 +5541,7 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Vasco</t>
+          <t>Gremio</t>
         </is>
       </c>
       <c r="G56" t="n">
@@ -5549,63 +5549,63 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Santos</t>
+          <t>Fortaleza</t>
         </is>
       </c>
       <c r="I56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J56" t="n">
-        <v>1.74</v>
+        <v>2.26</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>12/05/2023 00:12</t>
+          <t>12/05/2023 01:12</t>
         </is>
       </c>
       <c r="L56" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>14/05/2023 20:50</t>
+          <t>14/05/2023 20:59</t>
         </is>
       </c>
       <c r="N56" t="n">
-        <v>3.77</v>
+        <v>3.44</v>
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>12/05/2023 00:12</t>
+          <t>12/05/2023 01:12</t>
         </is>
       </c>
       <c r="P56" t="n">
-        <v>3.33</v>
+        <v>3.64</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>14/05/2023 20:58</t>
+          <t>14/05/2023 20:59</t>
         </is>
       </c>
       <c r="R56" t="n">
-        <v>4.95</v>
+        <v>3.27</v>
       </c>
       <c r="S56" t="inlineStr">
         <is>
-          <t>12/05/2023 00:12</t>
+          <t>12/05/2023 01:12</t>
         </is>
       </c>
       <c r="T56" t="n">
-        <v>4.73</v>
+        <v>4.38</v>
       </c>
       <c r="U56" t="inlineStr">
         <is>
-          <t>14/05/2023 20:58</t>
+          <t>14/05/2023 20:59</t>
         </is>
       </c>
       <c r="V56" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/vasco-santos/YDYf8HRF/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/gremio-fortaleza/SYhum7e7/</t>
         </is>
       </c>
     </row>
@@ -5725,7 +5725,7 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Gremio</t>
+          <t>Vasco</t>
         </is>
       </c>
       <c r="G58" t="n">
@@ -5733,63 +5733,63 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Fortaleza</t>
+          <t>Santos</t>
         </is>
       </c>
       <c r="I58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J58" t="n">
-        <v>2.26</v>
+        <v>1.74</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>12/05/2023 01:12</t>
+          <t>12/05/2023 00:12</t>
         </is>
       </c>
       <c r="L58" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>14/05/2023 20:59</t>
+          <t>14/05/2023 20:50</t>
         </is>
       </c>
       <c r="N58" t="n">
-        <v>3.44</v>
+        <v>3.77</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>12/05/2023 01:12</t>
+          <t>12/05/2023 00:12</t>
         </is>
       </c>
       <c r="P58" t="n">
-        <v>3.64</v>
+        <v>3.33</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>14/05/2023 20:59</t>
+          <t>14/05/2023 20:58</t>
         </is>
       </c>
       <c r="R58" t="n">
-        <v>3.27</v>
+        <v>4.95</v>
       </c>
       <c r="S58" t="inlineStr">
         <is>
-          <t>12/05/2023 01:12</t>
+          <t>12/05/2023 00:12</t>
         </is>
       </c>
       <c r="T58" t="n">
-        <v>4.38</v>
+        <v>4.73</v>
       </c>
       <c r="U58" t="inlineStr">
         <is>
-          <t>14/05/2023 20:59</t>
+          <t>14/05/2023 20:58</t>
         </is>
       </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/gremio-fortaleza/SYhum7e7/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/vasco-santos/YDYf8HRF/</t>
         </is>
       </c>
     </row>
@@ -8025,71 +8025,71 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>America MG</t>
+          <t>Cruzeiro</t>
         </is>
       </c>
       <c r="G83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Corinthians</t>
+          <t>Atletico-MG</t>
         </is>
       </c>
       <c r="I83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J83" t="n">
-        <v>2.32</v>
+        <v>3.12</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>29/05/2023 00:12</t>
+          <t>29/05/2023 07:12</t>
         </is>
       </c>
       <c r="L83" t="n">
-        <v>2.93</v>
+        <v>3.53</v>
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>03/06/2023 23:20</t>
+          <t>03/06/2023 23:26</t>
         </is>
       </c>
       <c r="N83" t="n">
-        <v>3.34</v>
+        <v>3.3</v>
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>29/05/2023 00:12</t>
+          <t>29/05/2023 07:12</t>
         </is>
       </c>
       <c r="P83" t="n">
-        <v>3.14</v>
+        <v>3.11</v>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>03/06/2023 23:20</t>
+          <t>03/06/2023 23:29</t>
         </is>
       </c>
       <c r="R83" t="n">
-        <v>3.24</v>
+        <v>2.41</v>
       </c>
       <c r="S83" t="inlineStr">
         <is>
-          <t>29/05/2023 00:12</t>
+          <t>29/05/2023 07:12</t>
         </is>
       </c>
       <c r="T83" t="n">
-        <v>2.72</v>
+        <v>2.37</v>
       </c>
       <c r="U83" t="inlineStr">
         <is>
-          <t>03/06/2023 23:20</t>
+          <t>03/06/2023 23:26</t>
         </is>
       </c>
       <c r="V83" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/america-mg-corinthians/MgmjSWZo/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/cruzeiro-atletico-mg/AFJX9kKH/</t>
         </is>
       </c>
     </row>
@@ -8209,71 +8209,71 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Cruzeiro</t>
+          <t>America MG</t>
         </is>
       </c>
       <c r="G85" t="n">
+        <v>2</v>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>Corinthians</t>
+        </is>
+      </c>
+      <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>Atletico-MG</t>
-        </is>
-      </c>
-      <c r="I85" t="n">
-        <v>1</v>
-      </c>
       <c r="J85" t="n">
-        <v>3.12</v>
+        <v>2.32</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>29/05/2023 07:12</t>
+          <t>29/05/2023 00:12</t>
         </is>
       </c>
       <c r="L85" t="n">
-        <v>3.53</v>
+        <v>2.93</v>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>03/06/2023 23:26</t>
+          <t>03/06/2023 23:20</t>
         </is>
       </c>
       <c r="N85" t="n">
-        <v>3.3</v>
+        <v>3.34</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>29/05/2023 07:12</t>
+          <t>29/05/2023 00:12</t>
         </is>
       </c>
       <c r="P85" t="n">
-        <v>3.11</v>
+        <v>3.14</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>03/06/2023 23:29</t>
+          <t>03/06/2023 23:20</t>
         </is>
       </c>
       <c r="R85" t="n">
-        <v>2.41</v>
+        <v>3.24</v>
       </c>
       <c r="S85" t="inlineStr">
         <is>
-          <t>29/05/2023 07:12</t>
+          <t>29/05/2023 00:12</t>
         </is>
       </c>
       <c r="T85" t="n">
-        <v>2.37</v>
+        <v>2.72</v>
       </c>
       <c r="U85" t="inlineStr">
         <is>
-          <t>03/06/2023 23:26</t>
+          <t>03/06/2023 23:20</t>
         </is>
       </c>
       <c r="V85" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/cruzeiro-atletico-mg/AFJX9kKH/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/america-mg-corinthians/MgmjSWZo/</t>
         </is>
       </c>
     </row>
@@ -12165,7 +12165,7 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>Athletico-PR</t>
+          <t>Atletico-MG</t>
         </is>
       </c>
       <c r="G128" t="n">
@@ -12173,63 +12173,63 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Palmeiras</t>
+          <t>America MG</t>
         </is>
       </c>
       <c r="I128" t="n">
         <v>2</v>
       </c>
       <c r="J128" t="n">
-        <v>2.99</v>
+        <v>1.37</v>
       </c>
       <c r="K128" t="inlineStr">
         <is>
-          <t>25/06/2023 21:11</t>
+          <t>25/06/2023 23:41</t>
         </is>
       </c>
       <c r="L128" t="n">
-        <v>2.35</v>
+        <v>1.54</v>
       </c>
       <c r="M128" t="inlineStr">
         <is>
-          <t>02/07/2023 20:59</t>
+          <t>02/07/2023 20:53</t>
         </is>
       </c>
       <c r="N128" t="n">
-        <v>3.23</v>
+        <v>5.28</v>
       </c>
       <c r="O128" t="inlineStr">
         <is>
-          <t>25/06/2023 21:11</t>
+          <t>25/06/2023 23:41</t>
         </is>
       </c>
       <c r="P128" t="n">
-        <v>3.24</v>
+        <v>4.01</v>
       </c>
       <c r="Q128" t="inlineStr">
         <is>
-          <t>02/07/2023 20:55</t>
+          <t>02/07/2023 20:54</t>
         </is>
       </c>
       <c r="R128" t="n">
-        <v>2.53</v>
+        <v>8.81</v>
       </c>
       <c r="S128" t="inlineStr">
         <is>
-          <t>25/06/2023 21:11</t>
+          <t>25/06/2023 23:41</t>
         </is>
       </c>
       <c r="T128" t="n">
-        <v>3.4</v>
+        <v>7.6</v>
       </c>
       <c r="U128" t="inlineStr">
         <is>
-          <t>02/07/2023 20:59</t>
+          <t>02/07/2023 20:54</t>
         </is>
       </c>
       <c r="V128" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/athletico-pr-palmeiras/birntE0D/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/atletico-mg-america-mg/IszvrzW0/</t>
         </is>
       </c>
     </row>
@@ -12257,7 +12257,7 @@
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>Atletico-MG</t>
+          <t>Athletico-PR</t>
         </is>
       </c>
       <c r="G129" t="n">
@@ -12265,63 +12265,63 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>America MG</t>
+          <t>Palmeiras</t>
         </is>
       </c>
       <c r="I129" t="n">
         <v>2</v>
       </c>
       <c r="J129" t="n">
-        <v>1.37</v>
+        <v>2.99</v>
       </c>
       <c r="K129" t="inlineStr">
         <is>
-          <t>25/06/2023 23:41</t>
+          <t>25/06/2023 21:11</t>
         </is>
       </c>
       <c r="L129" t="n">
-        <v>1.54</v>
+        <v>2.35</v>
       </c>
       <c r="M129" t="inlineStr">
         <is>
-          <t>02/07/2023 20:53</t>
+          <t>02/07/2023 20:59</t>
         </is>
       </c>
       <c r="N129" t="n">
-        <v>5.28</v>
+        <v>3.23</v>
       </c>
       <c r="O129" t="inlineStr">
         <is>
-          <t>25/06/2023 23:41</t>
+          <t>25/06/2023 21:11</t>
         </is>
       </c>
       <c r="P129" t="n">
-        <v>4.01</v>
+        <v>3.24</v>
       </c>
       <c r="Q129" t="inlineStr">
         <is>
-          <t>02/07/2023 20:54</t>
+          <t>02/07/2023 20:55</t>
         </is>
       </c>
       <c r="R129" t="n">
-        <v>8.81</v>
+        <v>2.53</v>
       </c>
       <c r="S129" t="inlineStr">
         <is>
-          <t>25/06/2023 23:41</t>
+          <t>25/06/2023 21:11</t>
         </is>
       </c>
       <c r="T129" t="n">
-        <v>7.6</v>
+        <v>3.4</v>
       </c>
       <c r="U129" t="inlineStr">
         <is>
-          <t>02/07/2023 20:54</t>
+          <t>02/07/2023 20:59</t>
         </is>
       </c>
       <c r="V129" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/atletico-mg-america-mg/IszvrzW0/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/athletico-pr-palmeiras/birntE0D/</t>
         </is>
       </c>
     </row>
@@ -13637,71 +13637,71 @@
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>Fortaleza</t>
+          <t>Sao Paulo</t>
         </is>
       </c>
       <c r="G144" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>Cuiaba</t>
+          <t>Santos</t>
         </is>
       </c>
       <c r="I144" t="n">
         <v>1</v>
       </c>
       <c r="J144" t="n">
-        <v>1.66</v>
+        <v>1.64</v>
       </c>
       <c r="K144" t="inlineStr">
         <is>
-          <t>09/07/2023 23:42</t>
+          <t>09/07/2023 21:12</t>
         </is>
       </c>
       <c r="L144" t="n">
-        <v>1.79</v>
+        <v>1.65</v>
       </c>
       <c r="M144" t="inlineStr">
         <is>
-          <t>16/07/2023 20:58</t>
+          <t>16/07/2023 20:57</t>
         </is>
       </c>
       <c r="N144" t="n">
-        <v>3.9</v>
+        <v>3.82</v>
       </c>
       <c r="O144" t="inlineStr">
         <is>
-          <t>09/07/2023 23:42</t>
+          <t>09/07/2023 21:12</t>
         </is>
       </c>
       <c r="P144" t="n">
-        <v>3.5</v>
+        <v>3.67</v>
       </c>
       <c r="Q144" t="inlineStr">
         <is>
-          <t>16/07/2023 20:58</t>
+          <t>16/07/2023 20:57</t>
         </is>
       </c>
       <c r="R144" t="n">
-        <v>5.69</v>
+        <v>5.8</v>
       </c>
       <c r="S144" t="inlineStr">
         <is>
-          <t>09/07/2023 23:42</t>
+          <t>09/07/2023 21:12</t>
         </is>
       </c>
       <c r="T144" t="n">
-        <v>5.42</v>
+        <v>6.61</v>
       </c>
       <c r="U144" t="inlineStr">
         <is>
-          <t>16/07/2023 20:58</t>
+          <t>16/07/2023 20:57</t>
         </is>
       </c>
       <c r="V144" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/fortaleza-cuiaba/nZXIDRLo/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/sao-paulo-santos/Uc1hc6y5/</t>
         </is>
       </c>
     </row>
@@ -13729,7 +13729,7 @@
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>Fluminense</t>
+          <t>Fortaleza</t>
         </is>
       </c>
       <c r="G145" t="n">
@@ -13737,54 +13737,54 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>Flamengo RJ</t>
+          <t>Cuiaba</t>
         </is>
       </c>
       <c r="I145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J145" t="n">
-        <v>2.31</v>
+        <v>1.66</v>
       </c>
       <c r="K145" t="inlineStr">
         <is>
-          <t>09/07/2023 21:12</t>
+          <t>09/07/2023 23:42</t>
         </is>
       </c>
       <c r="L145" t="n">
-        <v>2.85</v>
+        <v>1.79</v>
       </c>
       <c r="M145" t="inlineStr">
         <is>
-          <t>16/07/2023 20:51</t>
+          <t>16/07/2023 20:58</t>
         </is>
       </c>
       <c r="N145" t="n">
-        <v>3.47</v>
+        <v>3.9</v>
       </c>
       <c r="O145" t="inlineStr">
         <is>
-          <t>09/07/2023 21:12</t>
+          <t>09/07/2023 23:42</t>
         </is>
       </c>
       <c r="P145" t="n">
-        <v>3.32</v>
+        <v>3.5</v>
       </c>
       <c r="Q145" t="inlineStr">
         <is>
-          <t>16/07/2023 20:55</t>
+          <t>16/07/2023 20:58</t>
         </is>
       </c>
       <c r="R145" t="n">
-        <v>3.22</v>
+        <v>5.69</v>
       </c>
       <c r="S145" t="inlineStr">
         <is>
-          <t>09/07/2023 21:12</t>
+          <t>09/07/2023 23:42</t>
         </is>
       </c>
       <c r="T145" t="n">
-        <v>2.66</v>
+        <v>5.42</v>
       </c>
       <c r="U145" t="inlineStr">
         <is>
@@ -13793,7 +13793,7 @@
       </c>
       <c r="V145" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/fluminense-flamengo-rj/YV7qaS6h/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/fortaleza-cuiaba/nZXIDRLo/</t>
         </is>
       </c>
     </row>
@@ -13821,22 +13821,22 @@
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>Sao Paulo</t>
+          <t>Fluminense</t>
         </is>
       </c>
       <c r="G146" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>Santos</t>
+          <t>Flamengo RJ</t>
         </is>
       </c>
       <c r="I146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J146" t="n">
-        <v>1.64</v>
+        <v>2.31</v>
       </c>
       <c r="K146" t="inlineStr">
         <is>
@@ -13844,15 +13844,15 @@
         </is>
       </c>
       <c r="L146" t="n">
-        <v>1.65</v>
+        <v>2.85</v>
       </c>
       <c r="M146" t="inlineStr">
         <is>
-          <t>16/07/2023 20:57</t>
+          <t>16/07/2023 20:51</t>
         </is>
       </c>
       <c r="N146" t="n">
-        <v>3.82</v>
+        <v>3.47</v>
       </c>
       <c r="O146" t="inlineStr">
         <is>
@@ -13860,15 +13860,15 @@
         </is>
       </c>
       <c r="P146" t="n">
-        <v>3.67</v>
+        <v>3.32</v>
       </c>
       <c r="Q146" t="inlineStr">
         <is>
-          <t>16/07/2023 20:57</t>
+          <t>16/07/2023 20:55</t>
         </is>
       </c>
       <c r="R146" t="n">
-        <v>5.8</v>
+        <v>3.22</v>
       </c>
       <c r="S146" t="inlineStr">
         <is>
@@ -13876,16 +13876,16 @@
         </is>
       </c>
       <c r="T146" t="n">
-        <v>6.61</v>
+        <v>2.66</v>
       </c>
       <c r="U146" t="inlineStr">
         <is>
-          <t>16/07/2023 20:57</t>
+          <t>16/07/2023 20:58</t>
         </is>
       </c>
       <c r="V146" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/sao-paulo-santos/Uc1hc6y5/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/fluminense-flamengo-rj/YV7qaS6h/</t>
         </is>
       </c>
     </row>
@@ -14373,30 +14373,30 @@
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>Cuiaba</t>
+          <t>Bahia</t>
         </is>
       </c>
       <c r="G152" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>Sao Paulo</t>
+          <t>Corinthians</t>
         </is>
       </c>
       <c r="I152" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J152" t="n">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="K152" t="inlineStr">
         <is>
-          <t>16/07/2023 21:12</t>
+          <t>16/07/2023 23:42</t>
         </is>
       </c>
       <c r="L152" t="n">
-        <v>2.86</v>
+        <v>2.28</v>
       </c>
       <c r="M152" t="inlineStr">
         <is>
@@ -14404,15 +14404,15 @@
         </is>
       </c>
       <c r="N152" t="n">
-        <v>3.2</v>
+        <v>3.13</v>
       </c>
       <c r="O152" t="inlineStr">
         <is>
-          <t>16/07/2023 21:12</t>
+          <t>16/07/2023 23:42</t>
         </is>
       </c>
       <c r="P152" t="n">
-        <v>3.01</v>
+        <v>3.11</v>
       </c>
       <c r="Q152" t="inlineStr">
         <is>
@@ -14420,15 +14420,15 @@
         </is>
       </c>
       <c r="R152" t="n">
-        <v>2.81</v>
+        <v>3.32</v>
       </c>
       <c r="S152" t="inlineStr">
         <is>
-          <t>16/07/2023 21:12</t>
+          <t>16/07/2023 23:42</t>
         </is>
       </c>
       <c r="T152" t="n">
-        <v>2.9</v>
+        <v>3.74</v>
       </c>
       <c r="U152" t="inlineStr">
         <is>
@@ -14437,7 +14437,7 @@
       </c>
       <c r="V152" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/cuiaba-sao-paulo/CdNdPOKc/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/bahia-corinthians/Y5OhQ45i/</t>
         </is>
       </c>
     </row>
@@ -14465,30 +14465,30 @@
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>Bahia</t>
+          <t>Cuiaba</t>
         </is>
       </c>
       <c r="G153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>Corinthians</t>
+          <t>Sao Paulo</t>
         </is>
       </c>
       <c r="I153" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J153" t="n">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="K153" t="inlineStr">
         <is>
-          <t>16/07/2023 23:42</t>
+          <t>16/07/2023 21:12</t>
         </is>
       </c>
       <c r="L153" t="n">
-        <v>2.28</v>
+        <v>2.86</v>
       </c>
       <c r="M153" t="inlineStr">
         <is>
@@ -14496,15 +14496,15 @@
         </is>
       </c>
       <c r="N153" t="n">
-        <v>3.13</v>
+        <v>3.2</v>
       </c>
       <c r="O153" t="inlineStr">
         <is>
-          <t>16/07/2023 23:42</t>
+          <t>16/07/2023 21:12</t>
         </is>
       </c>
       <c r="P153" t="n">
-        <v>3.11</v>
+        <v>3.01</v>
       </c>
       <c r="Q153" t="inlineStr">
         <is>
@@ -14512,15 +14512,15 @@
         </is>
       </c>
       <c r="R153" t="n">
-        <v>3.32</v>
+        <v>2.81</v>
       </c>
       <c r="S153" t="inlineStr">
         <is>
-          <t>16/07/2023 23:42</t>
+          <t>16/07/2023 21:12</t>
         </is>
       </c>
       <c r="T153" t="n">
-        <v>3.74</v>
+        <v>2.9</v>
       </c>
       <c r="U153" t="inlineStr">
         <is>
@@ -14529,7 +14529,7 @@
       </c>
       <c r="V153" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/bahia-corinthians/Y5OhQ45i/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/cuiaba-sao-paulo/CdNdPOKc/</t>
         </is>
       </c>
     </row>
@@ -14649,30 +14649,30 @@
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>Bragantino</t>
+          <t>Santos</t>
         </is>
       </c>
       <c r="G155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>Internacional</t>
+          <t>Botafogo RJ</t>
         </is>
       </c>
       <c r="I155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J155" t="n">
-        <v>1.83</v>
+        <v>2.87</v>
       </c>
       <c r="K155" t="inlineStr">
         <is>
-          <t>16/07/2023 23:42</t>
+          <t>16/07/2023 21:12</t>
         </is>
       </c>
       <c r="L155" t="n">
-        <v>1.75</v>
+        <v>2.99</v>
       </c>
       <c r="M155" t="inlineStr">
         <is>
@@ -14680,40 +14680,40 @@
         </is>
       </c>
       <c r="N155" t="n">
-        <v>3.62</v>
+        <v>3</v>
       </c>
       <c r="O155" t="inlineStr">
         <is>
-          <t>16/07/2023 23:42</t>
+          <t>16/07/2023 21:12</t>
         </is>
       </c>
       <c r="P155" t="n">
-        <v>3.72</v>
+        <v>2.97</v>
       </c>
       <c r="Q155" t="inlineStr">
         <is>
-          <t>23/07/2023 20:59</t>
+          <t>23/07/2023 20:48</t>
         </is>
       </c>
       <c r="R155" t="n">
-        <v>4.59</v>
+        <v>2.8</v>
       </c>
       <c r="S155" t="inlineStr">
         <is>
-          <t>16/07/2023 23:42</t>
+          <t>16/07/2023 21:12</t>
         </is>
       </c>
       <c r="T155" t="n">
-        <v>5.31</v>
+        <v>2.81</v>
       </c>
       <c r="U155" t="inlineStr">
         <is>
-          <t>23/07/2023 20:59</t>
+          <t>23/07/2023 20:58</t>
         </is>
       </c>
       <c r="V155" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/bragantino-internacional/MRfz8NkN/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/santos-botafogo-rj/f5Ow93zH/</t>
         </is>
       </c>
     </row>
@@ -14741,71 +14741,71 @@
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>Santos</t>
+          <t>Cruzeiro</t>
         </is>
       </c>
       <c r="G156" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>Botafogo RJ</t>
+          <t>Goias</t>
         </is>
       </c>
       <c r="I156" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J156" t="n">
-        <v>2.87</v>
+        <v>1.63</v>
       </c>
       <c r="K156" t="inlineStr">
         <is>
-          <t>16/07/2023 21:12</t>
+          <t>18/07/2023 01:12</t>
         </is>
       </c>
       <c r="L156" t="n">
-        <v>2.99</v>
+        <v>1.54</v>
       </c>
       <c r="M156" t="inlineStr">
         <is>
-          <t>23/07/2023 20:59</t>
+          <t>23/07/2023 20:53</t>
         </is>
       </c>
       <c r="N156" t="n">
-        <v>3</v>
+        <v>3.82</v>
       </c>
       <c r="O156" t="inlineStr">
         <is>
-          <t>16/07/2023 21:12</t>
+          <t>18/07/2023 01:12</t>
         </is>
       </c>
       <c r="P156" t="n">
-        <v>2.97</v>
+        <v>4.05</v>
       </c>
       <c r="Q156" t="inlineStr">
         <is>
-          <t>23/07/2023 20:48</t>
+          <t>23/07/2023 20:55</t>
         </is>
       </c>
       <c r="R156" t="n">
-        <v>2.8</v>
+        <v>5.9</v>
       </c>
       <c r="S156" t="inlineStr">
         <is>
-          <t>16/07/2023 21:12</t>
+          <t>18/07/2023 01:12</t>
         </is>
       </c>
       <c r="T156" t="n">
-        <v>2.81</v>
+        <v>7.32</v>
       </c>
       <c r="U156" t="inlineStr">
         <is>
-          <t>23/07/2023 20:58</t>
+          <t>23/07/2023 20:55</t>
         </is>
       </c>
       <c r="V156" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/santos-botafogo-rj/f5Ow93zH/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/cruzeiro-goias/0Igv7s5T/</t>
         </is>
       </c>
     </row>
@@ -14833,7 +14833,7 @@
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>Cruzeiro</t>
+          <t>Bragantino</t>
         </is>
       </c>
       <c r="G157" t="n">
@@ -14841,63 +14841,63 @@
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>Goias</t>
+          <t>Internacional</t>
         </is>
       </c>
       <c r="I157" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J157" t="n">
-        <v>1.63</v>
+        <v>1.83</v>
       </c>
       <c r="K157" t="inlineStr">
         <is>
-          <t>18/07/2023 01:12</t>
+          <t>16/07/2023 23:42</t>
         </is>
       </c>
       <c r="L157" t="n">
-        <v>1.54</v>
+        <v>1.75</v>
       </c>
       <c r="M157" t="inlineStr">
         <is>
-          <t>23/07/2023 20:53</t>
+          <t>23/07/2023 20:59</t>
         </is>
       </c>
       <c r="N157" t="n">
-        <v>3.82</v>
+        <v>3.62</v>
       </c>
       <c r="O157" t="inlineStr">
         <is>
-          <t>18/07/2023 01:12</t>
+          <t>16/07/2023 23:42</t>
         </is>
       </c>
       <c r="P157" t="n">
-        <v>4.05</v>
+        <v>3.72</v>
       </c>
       <c r="Q157" t="inlineStr">
         <is>
-          <t>23/07/2023 20:55</t>
+          <t>23/07/2023 20:59</t>
         </is>
       </c>
       <c r="R157" t="n">
-        <v>5.9</v>
+        <v>4.59</v>
       </c>
       <c r="S157" t="inlineStr">
         <is>
-          <t>18/07/2023 01:12</t>
+          <t>16/07/2023 23:42</t>
         </is>
       </c>
       <c r="T157" t="n">
-        <v>7.32</v>
+        <v>5.31</v>
       </c>
       <c r="U157" t="inlineStr">
         <is>
-          <t>23/07/2023 20:55</t>
+          <t>23/07/2023 20:59</t>
         </is>
       </c>
       <c r="V157" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/cruzeiro-goias/0Igv7s5T/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/bragantino-internacional/MRfz8NkN/</t>
         </is>
       </c>
     </row>
@@ -15109,7 +15109,7 @@
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>Fluminense</t>
+          <t>Internacional</t>
         </is>
       </c>
       <c r="G160" t="n">
@@ -15117,38 +15117,38 @@
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>Santos</t>
+          <t>Cuiaba</t>
         </is>
       </c>
       <c r="I160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J160" t="n">
-        <v>1.62</v>
+        <v>1.88</v>
       </c>
       <c r="K160" t="inlineStr">
         <is>
-          <t>25/07/2023 00:12</t>
+          <t>23/07/2023 21:12</t>
         </is>
       </c>
       <c r="L160" t="n">
-        <v>1.55</v>
+        <v>1.81</v>
       </c>
       <c r="M160" t="inlineStr">
         <is>
-          <t>29/07/2023 20:58</t>
+          <t>29/07/2023 20:51</t>
         </is>
       </c>
       <c r="N160" t="n">
-        <v>3.83</v>
+        <v>3.23</v>
       </c>
       <c r="O160" t="inlineStr">
         <is>
-          <t>25/07/2023 00:12</t>
+          <t>23/07/2023 21:12</t>
         </is>
       </c>
       <c r="P160" t="n">
-        <v>3.98</v>
+        <v>3.44</v>
       </c>
       <c r="Q160" t="inlineStr">
         <is>
@@ -15156,15 +15156,15 @@
         </is>
       </c>
       <c r="R160" t="n">
-        <v>6.02</v>
+        <v>4.99</v>
       </c>
       <c r="S160" t="inlineStr">
         <is>
-          <t>25/07/2023 00:12</t>
+          <t>23/07/2023 21:12</t>
         </is>
       </c>
       <c r="T160" t="n">
-        <v>7.47</v>
+        <v>5.41</v>
       </c>
       <c r="U160" t="inlineStr">
         <is>
@@ -15173,7 +15173,7 @@
       </c>
       <c r="V160" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/fluminense-santos/tWR0Orz4/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/internacional-cuiaba/SSalFvcj/</t>
         </is>
       </c>
     </row>
@@ -15201,71 +15201,71 @@
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>Athletico-PR</t>
+          <t>Fluminense</t>
         </is>
       </c>
       <c r="G161" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>Cruzeiro</t>
+          <t>Santos</t>
         </is>
       </c>
       <c r="I161" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J161" t="n">
-        <v>2.03</v>
+        <v>1.62</v>
       </c>
       <c r="K161" t="inlineStr">
         <is>
-          <t>23/07/2023 23:42</t>
+          <t>25/07/2023 00:12</t>
         </is>
       </c>
       <c r="L161" t="n">
-        <v>1.86</v>
+        <v>1.55</v>
       </c>
       <c r="M161" t="inlineStr">
         <is>
-          <t>29/07/2023 20:45</t>
+          <t>29/07/2023 20:58</t>
         </is>
       </c>
       <c r="N161" t="n">
-        <v>3.38</v>
+        <v>3.83</v>
       </c>
       <c r="O161" t="inlineStr">
         <is>
-          <t>23/07/2023 23:42</t>
+          <t>25/07/2023 00:12</t>
         </is>
       </c>
       <c r="P161" t="n">
-        <v>3.49</v>
+        <v>3.98</v>
       </c>
       <c r="Q161" t="inlineStr">
         <is>
-          <t>29/07/2023 20:45</t>
+          <t>29/07/2023 20:59</t>
         </is>
       </c>
       <c r="R161" t="n">
-        <v>3.98</v>
+        <v>6.02</v>
       </c>
       <c r="S161" t="inlineStr">
         <is>
-          <t>23/07/2023 23:42</t>
+          <t>25/07/2023 00:12</t>
         </is>
       </c>
       <c r="T161" t="n">
-        <v>4.87</v>
+        <v>7.47</v>
       </c>
       <c r="U161" t="inlineStr">
         <is>
-          <t>29/07/2023 20:58</t>
+          <t>29/07/2023 20:59</t>
         </is>
       </c>
       <c r="V161" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/athletico-pr-cruzeiro/6JbhEbCd/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/fluminense-santos/tWR0Orz4/</t>
         </is>
       </c>
     </row>
@@ -15293,71 +15293,71 @@
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>Internacional</t>
+          <t>Athletico-PR</t>
         </is>
       </c>
       <c r="G162" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>Cuiaba</t>
+          <t>Cruzeiro</t>
         </is>
       </c>
       <c r="I162" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J162" t="n">
-        <v>1.88</v>
+        <v>2.03</v>
       </c>
       <c r="K162" t="inlineStr">
         <is>
-          <t>23/07/2023 21:12</t>
+          <t>23/07/2023 23:42</t>
         </is>
       </c>
       <c r="L162" t="n">
-        <v>1.81</v>
+        <v>1.86</v>
       </c>
       <c r="M162" t="inlineStr">
         <is>
-          <t>29/07/2023 20:51</t>
+          <t>29/07/2023 20:45</t>
         </is>
       </c>
       <c r="N162" t="n">
-        <v>3.23</v>
+        <v>3.38</v>
       </c>
       <c r="O162" t="inlineStr">
         <is>
-          <t>23/07/2023 21:12</t>
+          <t>23/07/2023 23:42</t>
         </is>
       </c>
       <c r="P162" t="n">
-        <v>3.44</v>
+        <v>3.49</v>
       </c>
       <c r="Q162" t="inlineStr">
         <is>
-          <t>29/07/2023 20:59</t>
+          <t>29/07/2023 20:45</t>
         </is>
       </c>
       <c r="R162" t="n">
-        <v>4.99</v>
+        <v>3.98</v>
       </c>
       <c r="S162" t="inlineStr">
         <is>
-          <t>23/07/2023 21:12</t>
+          <t>23/07/2023 23:42</t>
         </is>
       </c>
       <c r="T162" t="n">
-        <v>5.41</v>
+        <v>4.87</v>
       </c>
       <c r="U162" t="inlineStr">
         <is>
-          <t>29/07/2023 20:59</t>
+          <t>29/07/2023 20:58</t>
         </is>
       </c>
       <c r="V162" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/internacional-cuiaba/SSalFvcj/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/athletico-pr-cruzeiro/6JbhEbCd/</t>
         </is>
       </c>
     </row>
@@ -16121,22 +16121,22 @@
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>Goias</t>
+          <t>Internacional</t>
         </is>
       </c>
       <c r="G171" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>Fortaleza</t>
+          <t>Corinthians</t>
         </is>
       </c>
       <c r="I171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J171" t="n">
-        <v>2.76</v>
+        <v>1.98</v>
       </c>
       <c r="K171" t="inlineStr">
         <is>
@@ -16144,15 +16144,15 @@
         </is>
       </c>
       <c r="L171" t="n">
-        <v>2.73</v>
+        <v>2.32</v>
       </c>
       <c r="M171" t="inlineStr">
         <is>
-          <t>05/08/2023 23:21</t>
+          <t>05/08/2023 23:25</t>
         </is>
       </c>
       <c r="N171" t="n">
-        <v>3.35</v>
+        <v>3.23</v>
       </c>
       <c r="O171" t="inlineStr">
         <is>
@@ -16160,15 +16160,15 @@
         </is>
       </c>
       <c r="P171" t="n">
-        <v>3.05</v>
+        <v>2.97</v>
       </c>
       <c r="Q171" t="inlineStr">
         <is>
-          <t>05/08/2023 23:21</t>
+          <t>05/08/2023 23:25</t>
         </is>
       </c>
       <c r="R171" t="n">
-        <v>2.65</v>
+        <v>4.45</v>
       </c>
       <c r="S171" t="inlineStr">
         <is>
@@ -16176,16 +16176,16 @@
         </is>
       </c>
       <c r="T171" t="n">
-        <v>3</v>
+        <v>3.83</v>
       </c>
       <c r="U171" t="inlineStr">
         <is>
-          <t>05/08/2023 23:28</t>
+          <t>05/08/2023 23:29</t>
         </is>
       </c>
       <c r="V171" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/goias-fortaleza/nwGNTwCq/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/internacional-corinthians/f3JVRHtd/</t>
         </is>
       </c>
     </row>
@@ -16213,22 +16213,22 @@
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>Internacional</t>
+          <t>Goias</t>
         </is>
       </c>
       <c r="G172" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>Corinthians</t>
+          <t>Fortaleza</t>
         </is>
       </c>
       <c r="I172" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J172" t="n">
-        <v>1.98</v>
+        <v>2.76</v>
       </c>
       <c r="K172" t="inlineStr">
         <is>
@@ -16236,15 +16236,15 @@
         </is>
       </c>
       <c r="L172" t="n">
-        <v>2.32</v>
+        <v>2.73</v>
       </c>
       <c r="M172" t="inlineStr">
         <is>
-          <t>05/08/2023 23:25</t>
+          <t>05/08/2023 23:21</t>
         </is>
       </c>
       <c r="N172" t="n">
-        <v>3.23</v>
+        <v>3.35</v>
       </c>
       <c r="O172" t="inlineStr">
         <is>
@@ -16252,15 +16252,15 @@
         </is>
       </c>
       <c r="P172" t="n">
-        <v>2.97</v>
+        <v>3.05</v>
       </c>
       <c r="Q172" t="inlineStr">
         <is>
-          <t>05/08/2023 23:25</t>
+          <t>05/08/2023 23:21</t>
         </is>
       </c>
       <c r="R172" t="n">
-        <v>4.45</v>
+        <v>2.65</v>
       </c>
       <c r="S172" t="inlineStr">
         <is>
@@ -16268,16 +16268,16 @@
         </is>
       </c>
       <c r="T172" t="n">
-        <v>3.83</v>
+        <v>3</v>
       </c>
       <c r="U172" t="inlineStr">
         <is>
-          <t>05/08/2023 23:29</t>
+          <t>05/08/2023 23:28</t>
         </is>
       </c>
       <c r="V172" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/internacional-corinthians/f3JVRHtd/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/goias-fortaleza/nwGNTwCq/</t>
         </is>
       </c>
     </row>
@@ -16673,71 +16673,71 @@
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>Coritiba</t>
+          <t>Bahia</t>
         </is>
       </c>
       <c r="G177" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>Bragantino</t>
+          <t>America MG</t>
         </is>
       </c>
       <c r="I177" t="n">
         <v>1</v>
       </c>
       <c r="J177" t="n">
-        <v>2.97</v>
+        <v>2.02</v>
       </c>
       <c r="K177" t="inlineStr">
         <is>
-          <t>30/07/2023 21:12</t>
+          <t>31/07/2023 03:12</t>
         </is>
       </c>
       <c r="L177" t="n">
-        <v>3.58</v>
+        <v>1.94</v>
       </c>
       <c r="M177" t="inlineStr">
         <is>
-          <t>06/08/2023 23:25</t>
+          <t>06/08/2023 23:29</t>
         </is>
       </c>
       <c r="N177" t="n">
-        <v>3.29</v>
+        <v>3.55</v>
       </c>
       <c r="O177" t="inlineStr">
         <is>
-          <t>30/07/2023 21:12</t>
+          <t>31/07/2023 03:12</t>
         </is>
       </c>
       <c r="P177" t="n">
-        <v>3.33</v>
+        <v>3.68</v>
       </c>
       <c r="Q177" t="inlineStr">
         <is>
-          <t>06/08/2023 23:26</t>
+          <t>06/08/2023 23:29</t>
         </is>
       </c>
       <c r="R177" t="n">
-        <v>2.51</v>
+        <v>3.92</v>
       </c>
       <c r="S177" t="inlineStr">
         <is>
-          <t>30/07/2023 21:12</t>
+          <t>31/07/2023 03:12</t>
         </is>
       </c>
       <c r="T177" t="n">
-        <v>2.23</v>
+        <v>4.12</v>
       </c>
       <c r="U177" t="inlineStr">
         <is>
-          <t>06/08/2023 23:22</t>
+          <t>06/08/2023 23:29</t>
         </is>
       </c>
       <c r="V177" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/coritiba-bragantino/YgIZQyd2/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/bahia-america-mg/CvlGZTa2/</t>
         </is>
       </c>
     </row>
@@ -16765,71 +16765,71 @@
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>Bahia</t>
+          <t>Coritiba</t>
         </is>
       </c>
       <c r="G178" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>America MG</t>
+          <t>Bragantino</t>
         </is>
       </c>
       <c r="I178" t="n">
         <v>1</v>
       </c>
       <c r="J178" t="n">
-        <v>2.02</v>
+        <v>2.97</v>
       </c>
       <c r="K178" t="inlineStr">
         <is>
-          <t>31/07/2023 03:12</t>
+          <t>30/07/2023 21:12</t>
         </is>
       </c>
       <c r="L178" t="n">
-        <v>1.94</v>
+        <v>3.58</v>
       </c>
       <c r="M178" t="inlineStr">
         <is>
-          <t>06/08/2023 23:29</t>
+          <t>06/08/2023 23:25</t>
         </is>
       </c>
       <c r="N178" t="n">
-        <v>3.55</v>
+        <v>3.29</v>
       </c>
       <c r="O178" t="inlineStr">
         <is>
-          <t>31/07/2023 03:12</t>
+          <t>30/07/2023 21:12</t>
         </is>
       </c>
       <c r="P178" t="n">
-        <v>3.68</v>
+        <v>3.33</v>
       </c>
       <c r="Q178" t="inlineStr">
         <is>
-          <t>06/08/2023 23:29</t>
+          <t>06/08/2023 23:26</t>
         </is>
       </c>
       <c r="R178" t="n">
-        <v>3.92</v>
+        <v>2.51</v>
       </c>
       <c r="S178" t="inlineStr">
         <is>
-          <t>31/07/2023 03:12</t>
+          <t>30/07/2023 21:12</t>
         </is>
       </c>
       <c r="T178" t="n">
-        <v>4.12</v>
+        <v>2.23</v>
       </c>
       <c r="U178" t="inlineStr">
         <is>
-          <t>06/08/2023 23:29</t>
+          <t>06/08/2023 23:22</t>
         </is>
       </c>
       <c r="V178" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/bahia-america-mg/CvlGZTa2/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/coritiba-bragantino/YgIZQyd2/</t>
         </is>
       </c>
     </row>
@@ -17225,34 +17225,34 @@
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>Corinthians</t>
+          <t>Gremio</t>
         </is>
       </c>
       <c r="G183" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>Coritiba</t>
+          <t>Fluminense</t>
         </is>
       </c>
       <c r="I183" t="n">
         <v>1</v>
       </c>
       <c r="J183" t="n">
-        <v>1.82</v>
+        <v>2.26</v>
       </c>
       <c r="K183" t="inlineStr">
         <is>
-          <t>06/08/2023 23:42</t>
+          <t>06/08/2023 21:12</t>
         </is>
       </c>
       <c r="L183" t="n">
-        <v>1.73</v>
+        <v>2.32</v>
       </c>
       <c r="M183" t="inlineStr">
         <is>
-          <t>13/08/2023 20:58</t>
+          <t>13/08/2023 20:51</t>
         </is>
       </c>
       <c r="N183" t="n">
@@ -17260,27 +17260,27 @@
       </c>
       <c r="O183" t="inlineStr">
         <is>
-          <t>06/08/2023 23:42</t>
+          <t>06/08/2023 21:12</t>
         </is>
       </c>
       <c r="P183" t="n">
-        <v>3.59</v>
+        <v>3.35</v>
       </c>
       <c r="Q183" t="inlineStr">
         <is>
-          <t>13/08/2023 20:56</t>
+          <t>13/08/2023 20:55</t>
         </is>
       </c>
       <c r="R183" t="n">
-        <v>4.82</v>
+        <v>3.19</v>
       </c>
       <c r="S183" t="inlineStr">
         <is>
-          <t>06/08/2023 23:42</t>
+          <t>06/08/2023 21:12</t>
         </is>
       </c>
       <c r="T183" t="n">
-        <v>5.72</v>
+        <v>3.36</v>
       </c>
       <c r="U183" t="inlineStr">
         <is>
@@ -17289,7 +17289,7 @@
       </c>
       <c r="V183" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/corinthians-coritiba/2RHaEJTg/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/gremio-fluminense/hGACBHDC/</t>
         </is>
       </c>
     </row>
@@ -17317,34 +17317,34 @@
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>Gremio</t>
+          <t>Corinthians</t>
         </is>
       </c>
       <c r="G184" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>Fluminense</t>
+          <t>Coritiba</t>
         </is>
       </c>
       <c r="I184" t="n">
         <v>1</v>
       </c>
       <c r="J184" t="n">
-        <v>2.26</v>
+        <v>1.82</v>
       </c>
       <c r="K184" t="inlineStr">
         <is>
-          <t>06/08/2023 21:12</t>
+          <t>06/08/2023 23:42</t>
         </is>
       </c>
       <c r="L184" t="n">
-        <v>2.32</v>
+        <v>1.73</v>
       </c>
       <c r="M184" t="inlineStr">
         <is>
-          <t>13/08/2023 20:51</t>
+          <t>13/08/2023 20:58</t>
         </is>
       </c>
       <c r="N184" t="n">
@@ -17352,27 +17352,27 @@
       </c>
       <c r="O184" t="inlineStr">
         <is>
-          <t>06/08/2023 21:12</t>
+          <t>06/08/2023 23:42</t>
         </is>
       </c>
       <c r="P184" t="n">
-        <v>3.35</v>
+        <v>3.59</v>
       </c>
       <c r="Q184" t="inlineStr">
         <is>
-          <t>13/08/2023 20:55</t>
+          <t>13/08/2023 20:56</t>
         </is>
       </c>
       <c r="R184" t="n">
-        <v>3.19</v>
+        <v>4.82</v>
       </c>
       <c r="S184" t="inlineStr">
         <is>
-          <t>06/08/2023 21:12</t>
+          <t>06/08/2023 23:42</t>
         </is>
       </c>
       <c r="T184" t="n">
-        <v>3.36</v>
+        <v>5.72</v>
       </c>
       <c r="U184" t="inlineStr">
         <is>
@@ -17381,7 +17381,7 @@
       </c>
       <c r="V184" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/gremio-fluminense/hGACBHDC/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/corinthians-coritiba/2RHaEJTg/</t>
         </is>
       </c>
     </row>
@@ -20077,22 +20077,22 @@
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>Corinthians</t>
+          <t>Fluminense</t>
         </is>
       </c>
       <c r="G214" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>Palmeiras</t>
+          <t>Fortaleza</t>
         </is>
       </c>
       <c r="I214" t="n">
         <v>0</v>
       </c>
       <c r="J214" t="n">
-        <v>3.34</v>
+        <v>1.84</v>
       </c>
       <c r="K214" t="inlineStr">
         <is>
@@ -20100,15 +20100,15 @@
         </is>
       </c>
       <c r="L214" t="n">
-        <v>4.92</v>
+        <v>1.95</v>
       </c>
       <c r="M214" t="inlineStr">
         <is>
-          <t>03/09/2023 20:58</t>
+          <t>03/09/2023 20:56</t>
         </is>
       </c>
       <c r="N214" t="n">
-        <v>3.13</v>
+        <v>3.66</v>
       </c>
       <c r="O214" t="inlineStr">
         <is>
@@ -20116,32 +20116,32 @@
         </is>
       </c>
       <c r="P214" t="n">
-        <v>3.25</v>
+        <v>3.45</v>
       </c>
       <c r="Q214" t="inlineStr">
         <is>
+          <t>03/09/2023 20:55</t>
+        </is>
+      </c>
+      <c r="R214" t="n">
+        <v>4.62</v>
+      </c>
+      <c r="S214" t="inlineStr">
+        <is>
+          <t>27/08/2023 22:42</t>
+        </is>
+      </c>
+      <c r="T214" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="U214" t="inlineStr">
+        <is>
           <t>03/09/2023 20:56</t>
         </is>
       </c>
-      <c r="R214" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="S214" t="inlineStr">
-        <is>
-          <t>27/08/2023 22:42</t>
-        </is>
-      </c>
-      <c r="T214" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="U214" t="inlineStr">
-        <is>
-          <t>03/09/2023 20:56</t>
-        </is>
-      </c>
       <c r="V214" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/corinthians-palmeiras/x2ebjDtB/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/fluminense-fortaleza/jogngFdh/</t>
         </is>
       </c>
     </row>
@@ -20169,22 +20169,22 @@
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>Fluminense</t>
+          <t>Corinthians</t>
         </is>
       </c>
       <c r="G215" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>Fortaleza</t>
+          <t>Palmeiras</t>
         </is>
       </c>
       <c r="I215" t="n">
         <v>0</v>
       </c>
       <c r="J215" t="n">
-        <v>1.84</v>
+        <v>3.34</v>
       </c>
       <c r="K215" t="inlineStr">
         <is>
@@ -20192,39 +20192,39 @@
         </is>
       </c>
       <c r="L215" t="n">
-        <v>1.95</v>
+        <v>4.92</v>
       </c>
       <c r="M215" t="inlineStr">
         <is>
+          <t>03/09/2023 20:58</t>
+        </is>
+      </c>
+      <c r="N215" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="O215" t="inlineStr">
+        <is>
+          <t>27/08/2023 22:42</t>
+        </is>
+      </c>
+      <c r="P215" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q215" t="inlineStr">
+        <is>
           <t>03/09/2023 20:56</t>
         </is>
       </c>
-      <c r="N215" t="n">
-        <v>3.66</v>
-      </c>
-      <c r="O215" t="inlineStr">
+      <c r="R215" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="S215" t="inlineStr">
         <is>
           <t>27/08/2023 22:42</t>
         </is>
       </c>
-      <c r="P215" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="Q215" t="inlineStr">
-        <is>
-          <t>03/09/2023 20:55</t>
-        </is>
-      </c>
-      <c r="R215" t="n">
-        <v>4.62</v>
-      </c>
-      <c r="S215" t="inlineStr">
-        <is>
-          <t>27/08/2023 22:42</t>
-        </is>
-      </c>
       <c r="T215" t="n">
-        <v>4.41</v>
+        <v>1.93</v>
       </c>
       <c r="U215" t="inlineStr">
         <is>
@@ -20233,7 +20233,7 @@
       </c>
       <c r="V215" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/fluminense-fortaleza/jogngFdh/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/corinthians-palmeiras/x2ebjDtB/</t>
         </is>
       </c>
     </row>
@@ -20261,71 +20261,71 @@
       </c>
       <c r="F216" t="inlineStr">
         <is>
-          <t>Cruzeiro</t>
+          <t>Bahia</t>
         </is>
       </c>
       <c r="G216" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>Bragantino</t>
+          <t>Vasco</t>
         </is>
       </c>
       <c r="I216" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J216" t="n">
-        <v>2.26</v>
+        <v>2.02</v>
       </c>
       <c r="K216" t="inlineStr">
         <is>
-          <t>27/08/2023 23:12</t>
+          <t>27/08/2023 22:42</t>
         </is>
       </c>
       <c r="L216" t="n">
-        <v>2.47</v>
+        <v>2.11</v>
       </c>
       <c r="M216" t="inlineStr">
         <is>
-          <t>03/09/2023 23:19</t>
+          <t>03/09/2023 23:26</t>
         </is>
       </c>
       <c r="N216" t="n">
-        <v>3.32</v>
+        <v>3.43</v>
       </c>
       <c r="O216" t="inlineStr">
         <is>
-          <t>27/08/2023 23:12</t>
+          <t>27/08/2023 22:42</t>
         </is>
       </c>
       <c r="P216" t="n">
-        <v>3.14</v>
+        <v>3.33</v>
       </c>
       <c r="Q216" t="inlineStr">
         <is>
-          <t>03/09/2023 23:09</t>
+          <t>03/09/2023 23:29</t>
         </is>
       </c>
       <c r="R216" t="n">
-        <v>3.47</v>
+        <v>4.04</v>
       </c>
       <c r="S216" t="inlineStr">
         <is>
-          <t>27/08/2023 23:12</t>
+          <t>27/08/2023 22:42</t>
         </is>
       </c>
       <c r="T216" t="n">
-        <v>3.29</v>
+        <v>3.95</v>
       </c>
       <c r="U216" t="inlineStr">
         <is>
-          <t>03/09/2023 23:07</t>
+          <t>03/09/2023 23:29</t>
         </is>
       </c>
       <c r="V216" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/cruzeiro-bragantino/YTl7liBN/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/bahia-vasco/4lJL7EBo/</t>
         </is>
       </c>
     </row>
@@ -20353,71 +20353,71 @@
       </c>
       <c r="F217" t="inlineStr">
         <is>
-          <t>Bahia</t>
+          <t>America MG</t>
         </is>
       </c>
       <c r="G217" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>Vasco</t>
+          <t>Santos</t>
         </is>
       </c>
       <c r="I217" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J217" t="n">
-        <v>2.02</v>
+        <v>2.1</v>
       </c>
       <c r="K217" t="inlineStr">
         <is>
-          <t>27/08/2023 22:42</t>
+          <t>27/08/2023 20:12</t>
         </is>
       </c>
       <c r="L217" t="n">
-        <v>2.11</v>
+        <v>2.21</v>
       </c>
       <c r="M217" t="inlineStr">
         <is>
-          <t>03/09/2023 23:26</t>
+          <t>03/09/2023 23:28</t>
         </is>
       </c>
       <c r="N217" t="n">
-        <v>3.43</v>
+        <v>3.35</v>
       </c>
       <c r="O217" t="inlineStr">
         <is>
-          <t>27/08/2023 22:42</t>
+          <t>27/08/2023 20:12</t>
         </is>
       </c>
       <c r="P217" t="n">
-        <v>3.33</v>
+        <v>3.2</v>
       </c>
       <c r="Q217" t="inlineStr">
         <is>
-          <t>03/09/2023 23:29</t>
+          <t>03/09/2023 23:28</t>
         </is>
       </c>
       <c r="R217" t="n">
-        <v>4.04</v>
+        <v>3.88</v>
       </c>
       <c r="S217" t="inlineStr">
         <is>
-          <t>27/08/2023 22:42</t>
+          <t>27/08/2023 20:12</t>
         </is>
       </c>
       <c r="T217" t="n">
-        <v>3.95</v>
+        <v>3.8</v>
       </c>
       <c r="U217" t="inlineStr">
         <is>
-          <t>03/09/2023 23:29</t>
+          <t>03/09/2023 23:28</t>
         </is>
       </c>
       <c r="V217" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/bahia-vasco/4lJL7EBo/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/america-mg-santos/ruIP6YQi/</t>
         </is>
       </c>
     </row>
@@ -20445,71 +20445,71 @@
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t>America MG</t>
+          <t>Cruzeiro</t>
         </is>
       </c>
       <c r="G218" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>Santos</t>
+          <t>Bragantino</t>
         </is>
       </c>
       <c r="I218" t="n">
         <v>0</v>
       </c>
       <c r="J218" t="n">
-        <v>2.1</v>
+        <v>2.26</v>
       </c>
       <c r="K218" t="inlineStr">
         <is>
-          <t>27/08/2023 20:12</t>
+          <t>27/08/2023 23:12</t>
         </is>
       </c>
       <c r="L218" t="n">
-        <v>2.21</v>
+        <v>2.47</v>
       </c>
       <c r="M218" t="inlineStr">
         <is>
-          <t>03/09/2023 23:28</t>
+          <t>03/09/2023 23:19</t>
         </is>
       </c>
       <c r="N218" t="n">
-        <v>3.35</v>
+        <v>3.32</v>
       </c>
       <c r="O218" t="inlineStr">
         <is>
-          <t>27/08/2023 20:12</t>
+          <t>27/08/2023 23:12</t>
         </is>
       </c>
       <c r="P218" t="n">
-        <v>3.2</v>
+        <v>3.14</v>
       </c>
       <c r="Q218" t="inlineStr">
         <is>
-          <t>03/09/2023 23:28</t>
+          <t>03/09/2023 23:09</t>
         </is>
       </c>
       <c r="R218" t="n">
-        <v>3.88</v>
+        <v>3.47</v>
       </c>
       <c r="S218" t="inlineStr">
         <is>
-          <t>27/08/2023 20:12</t>
+          <t>27/08/2023 23:12</t>
         </is>
       </c>
       <c r="T218" t="n">
-        <v>3.8</v>
+        <v>3.29</v>
       </c>
       <c r="U218" t="inlineStr">
         <is>
-          <t>03/09/2023 23:28</t>
+          <t>03/09/2023 23:07</t>
         </is>
       </c>
       <c r="V218" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/america-mg-santos/ruIP6YQi/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/cruzeiro-bragantino/YTl7liBN/</t>
         </is>
       </c>
     </row>
@@ -21825,7 +21825,7 @@
       </c>
       <c r="F233" t="inlineStr">
         <is>
-          <t>Fluminense</t>
+          <t>Sao Paulo</t>
         </is>
       </c>
       <c r="G233" t="n">
@@ -21833,63 +21833,63 @@
       </c>
       <c r="H233" t="inlineStr">
         <is>
-          <t>Cruzeiro</t>
+          <t>Fortaleza</t>
         </is>
       </c>
       <c r="I233" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J233" t="n">
-        <v>1.78</v>
+        <v>1.93</v>
       </c>
       <c r="K233" t="inlineStr">
         <is>
-          <t>16/09/2023 20:12</t>
+          <t>14/09/2023 23:13</t>
         </is>
       </c>
       <c r="L233" t="n">
-        <v>1.83</v>
+        <v>2.4</v>
       </c>
       <c r="M233" t="inlineStr">
         <is>
-          <t>21/09/2023 02:20</t>
+          <t>21/09/2023 02:22</t>
         </is>
       </c>
       <c r="N233" t="n">
-        <v>3.76</v>
+        <v>3.55</v>
       </c>
       <c r="O233" t="inlineStr">
         <is>
-          <t>16/09/2023 20:12</t>
+          <t>14/09/2023 23:13</t>
         </is>
       </c>
       <c r="P233" t="n">
-        <v>3.59</v>
+        <v>3.22</v>
       </c>
       <c r="Q233" t="inlineStr">
         <is>
-          <t>21/09/2023 02:20</t>
+          <t>21/09/2023 02:22</t>
         </is>
       </c>
       <c r="R233" t="n">
-        <v>4.66</v>
+        <v>4.3</v>
       </c>
       <c r="S233" t="inlineStr">
         <is>
-          <t>16/09/2023 20:12</t>
+          <t>14/09/2023 23:13</t>
         </is>
       </c>
       <c r="T233" t="n">
-        <v>4.9</v>
+        <v>3.3</v>
       </c>
       <c r="U233" t="inlineStr">
         <is>
-          <t>21/09/2023 02:22</t>
+          <t>21/09/2023 02:28</t>
         </is>
       </c>
       <c r="V233" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/fluminense-cruzeiro/niZ55qnF/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/sao-paulo-fortaleza/fHxE3NGR/</t>
         </is>
       </c>
     </row>
@@ -21917,7 +21917,7 @@
       </c>
       <c r="F234" t="inlineStr">
         <is>
-          <t>Sao Paulo</t>
+          <t>Fluminense</t>
         </is>
       </c>
       <c r="G234" t="n">
@@ -21925,63 +21925,63 @@
       </c>
       <c r="H234" t="inlineStr">
         <is>
-          <t>Fortaleza</t>
+          <t>Cruzeiro</t>
         </is>
       </c>
       <c r="I234" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J234" t="n">
-        <v>1.93</v>
+        <v>1.78</v>
       </c>
       <c r="K234" t="inlineStr">
         <is>
-          <t>14/09/2023 23:13</t>
+          <t>16/09/2023 20:12</t>
         </is>
       </c>
       <c r="L234" t="n">
-        <v>2.4</v>
+        <v>1.83</v>
       </c>
       <c r="M234" t="inlineStr">
         <is>
+          <t>21/09/2023 02:20</t>
+        </is>
+      </c>
+      <c r="N234" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="O234" t="inlineStr">
+        <is>
+          <t>16/09/2023 20:12</t>
+        </is>
+      </c>
+      <c r="P234" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="Q234" t="inlineStr">
+        <is>
+          <t>21/09/2023 02:20</t>
+        </is>
+      </c>
+      <c r="R234" t="n">
+        <v>4.66</v>
+      </c>
+      <c r="S234" t="inlineStr">
+        <is>
+          <t>16/09/2023 20:12</t>
+        </is>
+      </c>
+      <c r="T234" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="U234" t="inlineStr">
+        <is>
           <t>21/09/2023 02:22</t>
         </is>
       </c>
-      <c r="N234" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="O234" t="inlineStr">
-        <is>
-          <t>14/09/2023 23:13</t>
-        </is>
-      </c>
-      <c r="P234" t="n">
-        <v>3.22</v>
-      </c>
-      <c r="Q234" t="inlineStr">
-        <is>
-          <t>21/09/2023 02:22</t>
-        </is>
-      </c>
-      <c r="R234" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="S234" t="inlineStr">
-        <is>
-          <t>14/09/2023 23:13</t>
-        </is>
-      </c>
-      <c r="T234" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="U234" t="inlineStr">
-        <is>
-          <t>21/09/2023 02:28</t>
-        </is>
-      </c>
       <c r="V234" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/sao-paulo-fortaleza/fHxE3NGR/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/fluminense-cruzeiro/niZ55qnF/</t>
         </is>
       </c>
     </row>
@@ -24125,71 +24125,71 @@
       </c>
       <c r="F258" t="inlineStr">
         <is>
-          <t>Athletico-PR</t>
+          <t>Fortaleza</t>
         </is>
       </c>
       <c r="G258" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H258" t="inlineStr">
         <is>
-          <t>Bragantino</t>
+          <t>America MG</t>
         </is>
       </c>
       <c r="I258" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J258" t="n">
-        <v>2.09</v>
+        <v>1.57</v>
       </c>
       <c r="K258" t="inlineStr">
         <is>
-          <t>01/10/2023 22:42</t>
+          <t>01/10/2023 20:12</t>
         </is>
       </c>
       <c r="L258" t="n">
-        <v>2.76</v>
+        <v>1.53</v>
       </c>
       <c r="M258" t="inlineStr">
         <is>
-          <t>08/10/2023 23:26</t>
+          <t>08/10/2023 22:46</t>
         </is>
       </c>
       <c r="N258" t="n">
-        <v>3.44</v>
+        <v>4.3</v>
       </c>
       <c r="O258" t="inlineStr">
         <is>
-          <t>01/10/2023 22:42</t>
+          <t>01/10/2023 20:12</t>
         </is>
       </c>
       <c r="P258" t="n">
-        <v>3.22</v>
+        <v>4.43</v>
       </c>
       <c r="Q258" t="inlineStr">
         <is>
-          <t>08/10/2023 23:26</t>
+          <t>08/10/2023 23:29</t>
         </is>
       </c>
       <c r="R258" t="n">
-        <v>3.7</v>
+        <v>5.96</v>
       </c>
       <c r="S258" t="inlineStr">
         <is>
-          <t>01/10/2023 22:42</t>
+          <t>01/10/2023 20:12</t>
         </is>
       </c>
       <c r="T258" t="n">
-        <v>2.82</v>
+        <v>6.46</v>
       </c>
       <c r="U258" t="inlineStr">
         <is>
-          <t>08/10/2023 23:26</t>
+          <t>08/10/2023 23:29</t>
         </is>
       </c>
       <c r="V258" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/athletico-pr-bragantino/ng8LKFiJ/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/fortaleza-america-mg/lbn4qaUJ/</t>
         </is>
       </c>
     </row>
@@ -24217,7 +24217,7 @@
       </c>
       <c r="F259" t="inlineStr">
         <is>
-          <t>Atletico-MG</t>
+          <t>Athletico-PR</t>
         </is>
       </c>
       <c r="G259" t="n">
@@ -24225,63 +24225,63 @@
       </c>
       <c r="H259" t="inlineStr">
         <is>
-          <t>Coritiba</t>
+          <t>Bragantino</t>
         </is>
       </c>
       <c r="I259" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J259" t="n">
-        <v>1.35</v>
+        <v>2.09</v>
       </c>
       <c r="K259" t="inlineStr">
         <is>
-          <t>01/10/2023 20:12</t>
+          <t>01/10/2023 22:42</t>
         </is>
       </c>
       <c r="L259" t="n">
-        <v>1.39</v>
+        <v>2.76</v>
       </c>
       <c r="M259" t="inlineStr">
         <is>
-          <t>08/10/2023 23:23</t>
+          <t>08/10/2023 23:26</t>
         </is>
       </c>
       <c r="N259" t="n">
-        <v>4.9</v>
+        <v>3.44</v>
       </c>
       <c r="O259" t="inlineStr">
         <is>
-          <t>01/10/2023 20:12</t>
+          <t>01/10/2023 22:42</t>
         </is>
       </c>
       <c r="P259" t="n">
-        <v>4.75</v>
+        <v>3.22</v>
       </c>
       <c r="Q259" t="inlineStr">
         <is>
-          <t>08/10/2023 23:23</t>
+          <t>08/10/2023 23:26</t>
         </is>
       </c>
       <c r="R259" t="n">
-        <v>10.08</v>
+        <v>3.7</v>
       </c>
       <c r="S259" t="inlineStr">
         <is>
-          <t>01/10/2023 20:12</t>
+          <t>01/10/2023 22:42</t>
         </is>
       </c>
       <c r="T259" t="n">
-        <v>9.800000000000001</v>
+        <v>2.82</v>
       </c>
       <c r="U259" t="inlineStr">
         <is>
-          <t>08/10/2023 23:25</t>
+          <t>08/10/2023 23:26</t>
         </is>
       </c>
       <c r="V259" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/atletico-mg-coritiba/vT4DMyN6/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/athletico-pr-bragantino/ng8LKFiJ/</t>
         </is>
       </c>
     </row>
@@ -24309,22 +24309,22 @@
       </c>
       <c r="F260" t="inlineStr">
         <is>
-          <t>Fortaleza</t>
+          <t>Atletico-MG</t>
         </is>
       </c>
       <c r="G260" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H260" t="inlineStr">
         <is>
-          <t>America MG</t>
+          <t>Coritiba</t>
         </is>
       </c>
       <c r="I260" t="n">
         <v>2</v>
       </c>
       <c r="J260" t="n">
-        <v>1.57</v>
+        <v>1.35</v>
       </c>
       <c r="K260" t="inlineStr">
         <is>
@@ -24332,15 +24332,15 @@
         </is>
       </c>
       <c r="L260" t="n">
-        <v>1.53</v>
+        <v>1.39</v>
       </c>
       <c r="M260" t="inlineStr">
         <is>
-          <t>08/10/2023 22:46</t>
+          <t>08/10/2023 23:23</t>
         </is>
       </c>
       <c r="N260" t="n">
-        <v>4.3</v>
+        <v>4.9</v>
       </c>
       <c r="O260" t="inlineStr">
         <is>
@@ -24348,15 +24348,15 @@
         </is>
       </c>
       <c r="P260" t="n">
-        <v>4.43</v>
+        <v>4.75</v>
       </c>
       <c r="Q260" t="inlineStr">
         <is>
-          <t>08/10/2023 23:29</t>
+          <t>08/10/2023 23:23</t>
         </is>
       </c>
       <c r="R260" t="n">
-        <v>5.96</v>
+        <v>10.08</v>
       </c>
       <c r="S260" t="inlineStr">
         <is>
@@ -24364,16 +24364,16 @@
         </is>
       </c>
       <c r="T260" t="n">
-        <v>6.46</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="U260" t="inlineStr">
         <is>
-          <t>08/10/2023 23:29</t>
+          <t>08/10/2023 23:25</t>
         </is>
       </c>
       <c r="V260" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/fortaleza-america-mg/lbn4qaUJ/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/atletico-mg-coritiba/vT4DMyN6/</t>
         </is>
       </c>
     </row>
@@ -24466,6 +24466,558 @@
       <c r="V261" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/brazil/serie-a/cuiaba-cruzeiro/21j8rJqQ/</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="1" t="n">
+        <v>261</v>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>brazil</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>serie-a</t>
+        </is>
+      </c>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E262" s="2" t="n">
+        <v>45218</v>
+      </c>
+      <c r="F262" t="inlineStr">
+        <is>
+          <t>Gremio</t>
+        </is>
+      </c>
+      <c r="G262" t="n">
+        <v>1</v>
+      </c>
+      <c r="H262" t="inlineStr">
+        <is>
+          <t>Athletico-PR</t>
+        </is>
+      </c>
+      <c r="I262" t="n">
+        <v>2</v>
+      </c>
+      <c r="J262" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>09/10/2023 14:12</t>
+        </is>
+      </c>
+      <c r="L262" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="M262" t="inlineStr">
+        <is>
+          <t>18/10/2023 23:59</t>
+        </is>
+      </c>
+      <c r="N262" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="O262" t="inlineStr">
+        <is>
+          <t>09/10/2023 14:12</t>
+        </is>
+      </c>
+      <c r="P262" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="Q262" t="inlineStr">
+        <is>
+          <t>18/10/2023 23:59</t>
+        </is>
+      </c>
+      <c r="R262" t="n">
+        <v>3.97</v>
+      </c>
+      <c r="S262" t="inlineStr">
+        <is>
+          <t>09/10/2023 14:12</t>
+        </is>
+      </c>
+      <c r="T262" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="U262" t="inlineStr">
+        <is>
+          <t>18/10/2023 23:59</t>
+        </is>
+      </c>
+      <c r="V262" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/gremio-athletico-pr/fZaiYYLI/</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="1" t="n">
+        <v>262</v>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>brazil</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>serie-a</t>
+        </is>
+      </c>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E263" s="2" t="n">
+        <v>45218.04166666666</v>
+      </c>
+      <c r="F263" t="inlineStr">
+        <is>
+          <t>Coritiba</t>
+        </is>
+      </c>
+      <c r="G263" t="n">
+        <v>0</v>
+      </c>
+      <c r="H263" t="inlineStr">
+        <is>
+          <t>Cuiaba</t>
+        </is>
+      </c>
+      <c r="I263" t="n">
+        <v>3</v>
+      </c>
+      <c r="J263" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>15/10/2023 01:12</t>
+        </is>
+      </c>
+      <c r="L263" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="M263" t="inlineStr">
+        <is>
+          <t>19/10/2023 00:34</t>
+        </is>
+      </c>
+      <c r="N263" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="O263" t="inlineStr">
+        <is>
+          <t>15/10/2023 01:12</t>
+        </is>
+      </c>
+      <c r="P263" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="Q263" t="inlineStr">
+        <is>
+          <t>18/10/2023 23:34</t>
+        </is>
+      </c>
+      <c r="R263" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="S263" t="inlineStr">
+        <is>
+          <t>15/10/2023 01:12</t>
+        </is>
+      </c>
+      <c r="T263" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="U263" t="inlineStr">
+        <is>
+          <t>19/10/2023 00:06</t>
+        </is>
+      </c>
+      <c r="V263" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/coritiba-cuiaba/WbNKG6jo/</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="1" t="n">
+        <v>263</v>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>brazil</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>serie-a</t>
+        </is>
+      </c>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E264" s="2" t="n">
+        <v>45218.04166666666</v>
+      </c>
+      <c r="F264" t="inlineStr">
+        <is>
+          <t>America MG</t>
+        </is>
+      </c>
+      <c r="G264" t="n">
+        <v>1</v>
+      </c>
+      <c r="H264" t="inlineStr">
+        <is>
+          <t>Botafogo RJ</t>
+        </is>
+      </c>
+      <c r="I264" t="n">
+        <v>2</v>
+      </c>
+      <c r="J264" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>09/10/2023 14:12</t>
+        </is>
+      </c>
+      <c r="L264" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="M264" t="inlineStr">
+        <is>
+          <t>19/10/2023 00:53</t>
+        </is>
+      </c>
+      <c r="N264" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="O264" t="inlineStr">
+        <is>
+          <t>09/10/2023 14:12</t>
+        </is>
+      </c>
+      <c r="P264" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="Q264" t="inlineStr">
+        <is>
+          <t>19/10/2023 00:51</t>
+        </is>
+      </c>
+      <c r="R264" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S264" t="inlineStr">
+        <is>
+          <t>09/10/2023 14:12</t>
+        </is>
+      </c>
+      <c r="T264" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="U264" t="inlineStr">
+        <is>
+          <t>19/10/2023 00:51</t>
+        </is>
+      </c>
+      <c r="V264" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/america-mg-botafogo-rj/b5F6vArh/</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="1" t="n">
+        <v>264</v>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>brazil</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>serie-a</t>
+        </is>
+      </c>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E265" s="2" t="n">
+        <v>45218.10416666666</v>
+      </c>
+      <c r="F265" t="inlineStr">
+        <is>
+          <t>Bahia</t>
+        </is>
+      </c>
+      <c r="G265" t="n">
+        <v>1</v>
+      </c>
+      <c r="H265" t="inlineStr">
+        <is>
+          <t>Internacional</t>
+        </is>
+      </c>
+      <c r="I265" t="n">
+        <v>0</v>
+      </c>
+      <c r="J265" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>09/10/2023 14:12</t>
+        </is>
+      </c>
+      <c r="L265" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="M265" t="inlineStr">
+        <is>
+          <t>19/10/2023 02:29</t>
+        </is>
+      </c>
+      <c r="N265" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="O265" t="inlineStr">
+        <is>
+          <t>09/10/2023 14:12</t>
+        </is>
+      </c>
+      <c r="P265" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="Q265" t="inlineStr">
+        <is>
+          <t>19/10/2023 02:21</t>
+        </is>
+      </c>
+      <c r="R265" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="S265" t="inlineStr">
+        <is>
+          <t>09/10/2023 14:12</t>
+        </is>
+      </c>
+      <c r="T265" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="U265" t="inlineStr">
+        <is>
+          <t>19/10/2023 02:29</t>
+        </is>
+      </c>
+      <c r="V265" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/bahia-internacional/KEG2ujTo/</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="1" t="n">
+        <v>265</v>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>brazil</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>serie-a</t>
+        </is>
+      </c>
+      <c r="D266" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E266" s="2" t="n">
+        <v>45218.10416666666</v>
+      </c>
+      <c r="F266" t="inlineStr">
+        <is>
+          <t>Goias</t>
+        </is>
+      </c>
+      <c r="G266" t="n">
+        <v>2</v>
+      </c>
+      <c r="H266" t="inlineStr">
+        <is>
+          <t>Sao Paulo</t>
+        </is>
+      </c>
+      <c r="I266" t="n">
+        <v>0</v>
+      </c>
+      <c r="J266" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>09/10/2023 14:12</t>
+        </is>
+      </c>
+      <c r="L266" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="M266" t="inlineStr">
+        <is>
+          <t>19/10/2023 02:27</t>
+        </is>
+      </c>
+      <c r="N266" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="O266" t="inlineStr">
+        <is>
+          <t>09/10/2023 14:12</t>
+        </is>
+      </c>
+      <c r="P266" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="Q266" t="inlineStr">
+        <is>
+          <t>19/10/2023 02:27</t>
+        </is>
+      </c>
+      <c r="R266" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="S266" t="inlineStr">
+        <is>
+          <t>09/10/2023 14:12</t>
+        </is>
+      </c>
+      <c r="T266" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="U266" t="inlineStr">
+        <is>
+          <t>19/10/2023 02:27</t>
+        </is>
+      </c>
+      <c r="V266" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/goias-sao-paulo/b76rzei6/</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="1" t="n">
+        <v>266</v>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>brazil</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>serie-a</t>
+        </is>
+      </c>
+      <c r="D267" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E267" s="2" t="n">
+        <v>45218.10416666666</v>
+      </c>
+      <c r="F267" t="inlineStr">
+        <is>
+          <t>Vasco</t>
+        </is>
+      </c>
+      <c r="G267" t="n">
+        <v>1</v>
+      </c>
+      <c r="H267" t="inlineStr">
+        <is>
+          <t>Fortaleza</t>
+        </is>
+      </c>
+      <c r="I267" t="n">
+        <v>0</v>
+      </c>
+      <c r="J267" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>09/10/2023 14:12</t>
+        </is>
+      </c>
+      <c r="L267" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="M267" t="inlineStr">
+        <is>
+          <t>19/10/2023 02:28</t>
+        </is>
+      </c>
+      <c r="N267" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="O267" t="inlineStr">
+        <is>
+          <t>09/10/2023 14:12</t>
+        </is>
+      </c>
+      <c r="P267" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="Q267" t="inlineStr">
+        <is>
+          <t>19/10/2023 02:27</t>
+        </is>
+      </c>
+      <c r="R267" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="S267" t="inlineStr">
+        <is>
+          <t>09/10/2023 14:12</t>
+        </is>
+      </c>
+      <c r="T267" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="U267" t="inlineStr">
+        <is>
+          <t>19/10/2023 02:28</t>
+        </is>
+      </c>
+      <c r="V267" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/vasco-fortaleza/bXyvwc7m/</t>
         </is>
       </c>
     </row>

--- a/2023/brazil_serie-a_2023.xlsx
+++ b/2023/brazil_serie-a_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V267"/>
+  <dimension ref="A1:V271"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -941,7 +941,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Botafogo RJ</t>
+          <t>Athletico-PR</t>
         </is>
       </c>
       <c r="G6" t="n">
@@ -949,63 +949,63 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Sao Paulo</t>
+          <t>Goias</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>2.69</v>
+        <v>1.64</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>08/04/2023 23:42</t>
+          <t>09/04/2023 08:36</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>2.46</v>
+        <v>1.64</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>15/04/2023 23:22</t>
+          <t>15/04/2023 23:27</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>3.05</v>
+        <v>4.15</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>08/04/2023 23:42</t>
+          <t>09/04/2023 08:36</t>
         </is>
       </c>
       <c r="P6" t="n">
-        <v>3.17</v>
+        <v>3.69</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>15/04/2023 23:25</t>
+          <t>15/04/2023 23:27</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>3</v>
+        <v>5.21</v>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>08/04/2023 23:42</t>
+          <t>09/04/2023 08:36</t>
         </is>
       </c>
       <c r="T6" t="n">
-        <v>3.26</v>
+        <v>6.64</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>15/04/2023 23:25</t>
+          <t>15/04/2023 23:28</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/botafogo-rj-sao-paulo/vFRENgWQ/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/athletico-pr-goias/Sv02EkgD/</t>
         </is>
       </c>
     </row>
@@ -1033,7 +1033,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Athletico-PR</t>
+          <t>Botafogo RJ</t>
         </is>
       </c>
       <c r="G7" t="n">
@@ -1041,63 +1041,63 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Goias</t>
+          <t>Sao Paulo</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>1.64</v>
+        <v>2.69</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>09/04/2023 08:36</t>
+          <t>08/04/2023 23:42</t>
         </is>
       </c>
       <c r="L7" t="n">
-        <v>1.64</v>
+        <v>2.46</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>15/04/2023 23:27</t>
+          <t>15/04/2023 23:22</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>4.15</v>
+        <v>3.05</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>09/04/2023 08:36</t>
+          <t>08/04/2023 23:42</t>
         </is>
       </c>
       <c r="P7" t="n">
-        <v>3.69</v>
+        <v>3.17</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>15/04/2023 23:27</t>
+          <t>15/04/2023 23:25</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>5.21</v>
+        <v>3</v>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>09/04/2023 08:36</t>
+          <t>08/04/2023 23:42</t>
         </is>
       </c>
       <c r="T7" t="n">
-        <v>6.64</v>
+        <v>3.26</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>15/04/2023 23:28</t>
+          <t>15/04/2023 23:25</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/athletico-pr-goias/Sv02EkgD/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/botafogo-rj-sao-paulo/vFRENgWQ/</t>
         </is>
       </c>
     </row>
@@ -3701,7 +3701,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Sao Paulo</t>
+          <t>Athletico-PR</t>
         </is>
       </c>
       <c r="G36" t="n">
@@ -3709,63 +3709,63 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Internacional</t>
+          <t>Flamengo RJ</t>
         </is>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J36" t="n">
-        <v>1.87</v>
+        <v>3.45</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>01/05/2023 04:41</t>
+          <t>01/05/2023 02:12</t>
         </is>
       </c>
       <c r="L36" t="n">
-        <v>2.05</v>
+        <v>3.01</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>07/05/2023 20:59</t>
+          <t>07/05/2023 20:57</t>
         </is>
       </c>
       <c r="N36" t="n">
-        <v>3.79</v>
+        <v>3.43</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>01/05/2023 04:41</t>
+          <t>01/05/2023 02:12</t>
         </is>
       </c>
       <c r="P36" t="n">
-        <v>3.47</v>
+        <v>3.22</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>07/05/2023 20:59</t>
+          <t>07/05/2023 20:56</t>
         </is>
       </c>
       <c r="R36" t="n">
-        <v>4.1</v>
+        <v>2.22</v>
       </c>
       <c r="S36" t="inlineStr">
         <is>
-          <t>01/05/2023 04:41</t>
+          <t>01/05/2023 02:12</t>
         </is>
       </c>
       <c r="T36" t="n">
-        <v>3.95</v>
+        <v>2.61</v>
       </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>07/05/2023 20:59</t>
+          <t>07/05/2023 20:57</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/sao-paulo-internacional/fmJsrLDA/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/athletico-pr-flamengo-rj/bL1QZdLj/</t>
         </is>
       </c>
     </row>
@@ -3793,7 +3793,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Athletico-PR</t>
+          <t>Sao Paulo</t>
         </is>
       </c>
       <c r="G37" t="n">
@@ -3801,63 +3801,63 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Flamengo RJ</t>
+          <t>Internacional</t>
         </is>
       </c>
       <c r="I37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>3.45</v>
+        <v>1.87</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>01/05/2023 02:12</t>
+          <t>01/05/2023 04:41</t>
         </is>
       </c>
       <c r="L37" t="n">
-        <v>3.01</v>
+        <v>2.05</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>07/05/2023 20:57</t>
+          <t>07/05/2023 20:59</t>
         </is>
       </c>
       <c r="N37" t="n">
-        <v>3.43</v>
+        <v>3.79</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>01/05/2023 02:12</t>
+          <t>01/05/2023 04:41</t>
         </is>
       </c>
       <c r="P37" t="n">
-        <v>3.22</v>
+        <v>3.47</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>07/05/2023 20:56</t>
+          <t>07/05/2023 20:59</t>
         </is>
       </c>
       <c r="R37" t="n">
-        <v>2.22</v>
+        <v>4.1</v>
       </c>
       <c r="S37" t="inlineStr">
         <is>
-          <t>01/05/2023 02:12</t>
+          <t>01/05/2023 04:41</t>
         </is>
       </c>
       <c r="T37" t="n">
-        <v>2.61</v>
+        <v>3.95</v>
       </c>
       <c r="U37" t="inlineStr">
         <is>
-          <t>07/05/2023 20:57</t>
+          <t>07/05/2023 20:59</t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/athletico-pr-flamengo-rj/bL1QZdLj/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/sao-paulo-internacional/fmJsrLDA/</t>
         </is>
       </c>
     </row>
@@ -3885,22 +3885,22 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Goias</t>
+          <t>Botafogo RJ</t>
         </is>
       </c>
       <c r="G38" t="n">
+        <v>2</v>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Atletico-MG</t>
+        </is>
+      </c>
+      <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>Palmeiras</t>
-        </is>
-      </c>
-      <c r="I38" t="n">
-        <v>5</v>
-      </c>
       <c r="J38" t="n">
-        <v>4.55</v>
+        <v>2.85</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -3908,15 +3908,15 @@
         </is>
       </c>
       <c r="L38" t="n">
-        <v>5.53</v>
+        <v>3.72</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>07/05/2023 23:20</t>
+          <t>07/05/2023 23:29</t>
         </is>
       </c>
       <c r="N38" t="n">
-        <v>3.7</v>
+        <v>3.66</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
@@ -3924,15 +3924,15 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>3.99</v>
+        <v>3.33</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>07/05/2023 23:20</t>
+          <t>07/05/2023 23:29</t>
         </is>
       </c>
       <c r="R38" t="n">
-        <v>1.81</v>
+        <v>2.46</v>
       </c>
       <c r="S38" t="inlineStr">
         <is>
@@ -3940,16 +3940,16 @@
         </is>
       </c>
       <c r="T38" t="n">
-        <v>1.67</v>
+        <v>2.18</v>
       </c>
       <c r="U38" t="inlineStr">
         <is>
-          <t>07/05/2023 23:20</t>
+          <t>07/05/2023 23:29</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/goias-palmeiras/jFCjtarN/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/botafogo-rj-atletico-mg/0QJwq1b4/</t>
         </is>
       </c>
     </row>
@@ -4069,22 +4069,22 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Botafogo RJ</t>
+          <t>Goias</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Atletico-MG</t>
+          <t>Palmeiras</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J40" t="n">
-        <v>2.85</v>
+        <v>4.55</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -4092,15 +4092,15 @@
         </is>
       </c>
       <c r="L40" t="n">
-        <v>3.72</v>
+        <v>5.53</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>07/05/2023 23:29</t>
+          <t>07/05/2023 23:20</t>
         </is>
       </c>
       <c r="N40" t="n">
-        <v>3.66</v>
+        <v>3.7</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
@@ -4108,15 +4108,15 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>3.33</v>
+        <v>3.99</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>07/05/2023 23:29</t>
+          <t>07/05/2023 23:20</t>
         </is>
       </c>
       <c r="R40" t="n">
-        <v>2.46</v>
+        <v>1.81</v>
       </c>
       <c r="S40" t="inlineStr">
         <is>
@@ -4124,16 +4124,16 @@
         </is>
       </c>
       <c r="T40" t="n">
-        <v>2.18</v>
+        <v>1.67</v>
       </c>
       <c r="U40" t="inlineStr">
         <is>
-          <t>07/05/2023 23:29</t>
+          <t>07/05/2023 23:20</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/botafogo-rj-atletico-mg/0QJwq1b4/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/goias-palmeiras/jFCjtarN/</t>
         </is>
       </c>
     </row>
@@ -6461,30 +6461,30 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Botafogo RJ</t>
+          <t>America MG</t>
         </is>
       </c>
       <c r="G66" t="n">
+        <v>2</v>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>Fortaleza</t>
+        </is>
+      </c>
+      <c r="I66" t="n">
         <v>1</v>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>Fluminense</t>
-        </is>
-      </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
       <c r="J66" t="n">
-        <v>2.78</v>
+        <v>2.63</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>14/05/2023 23:42</t>
+          <t>15/05/2023 09:42</t>
         </is>
       </c>
       <c r="L66" t="n">
-        <v>2.77</v>
+        <v>3.05</v>
       </c>
       <c r="M66" t="inlineStr">
         <is>
@@ -6492,40 +6492,40 @@
         </is>
       </c>
       <c r="N66" t="n">
-        <v>3.31</v>
+        <v>3.48</v>
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>14/05/2023 23:42</t>
+          <t>15/05/2023 09:42</t>
         </is>
       </c>
       <c r="P66" t="n">
-        <v>3.32</v>
+        <v>3.39</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
+          <t>20/05/2023 23:26</t>
+        </is>
+      </c>
+      <c r="R66" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="S66" t="inlineStr">
+        <is>
+          <t>15/05/2023 09:42</t>
+        </is>
+      </c>
+      <c r="T66" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="U66" t="inlineStr">
+        <is>
           <t>20/05/2023 23:29</t>
         </is>
       </c>
-      <c r="R66" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="S66" t="inlineStr">
-        <is>
-          <t>14/05/2023 23:42</t>
-        </is>
-      </c>
-      <c r="T66" t="n">
-        <v>2.74</v>
-      </c>
-      <c r="U66" t="inlineStr">
-        <is>
-          <t>20/05/2023 22:51</t>
-        </is>
-      </c>
       <c r="V66" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/botafogo-rj-fluminense/hGQ148Qs/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/america-mg-fortaleza/l8gDM7nQ/</t>
         </is>
       </c>
     </row>
@@ -6553,30 +6553,30 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>America MG</t>
+          <t>Botafogo RJ</t>
         </is>
       </c>
       <c r="G67" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Fortaleza</t>
+          <t>Fluminense</t>
         </is>
       </c>
       <c r="I67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J67" t="n">
-        <v>2.63</v>
+        <v>2.78</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>15/05/2023 09:42</t>
+          <t>14/05/2023 23:42</t>
         </is>
       </c>
       <c r="L67" t="n">
-        <v>3.05</v>
+        <v>2.77</v>
       </c>
       <c r="M67" t="inlineStr">
         <is>
@@ -6584,40 +6584,40 @@
         </is>
       </c>
       <c r="N67" t="n">
-        <v>3.48</v>
+        <v>3.31</v>
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>15/05/2023 09:42</t>
+          <t>14/05/2023 23:42</t>
         </is>
       </c>
       <c r="P67" t="n">
-        <v>3.39</v>
+        <v>3.32</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>20/05/2023 23:26</t>
+          <t>20/05/2023 23:29</t>
         </is>
       </c>
       <c r="R67" t="n">
-        <v>2.69</v>
+        <v>2.72</v>
       </c>
       <c r="S67" t="inlineStr">
         <is>
-          <t>15/05/2023 09:42</t>
+          <t>14/05/2023 23:42</t>
         </is>
       </c>
       <c r="T67" t="n">
-        <v>2.47</v>
+        <v>2.74</v>
       </c>
       <c r="U67" t="inlineStr">
         <is>
-          <t>20/05/2023 23:29</t>
+          <t>20/05/2023 22:51</t>
         </is>
       </c>
       <c r="V67" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/america-mg-fortaleza/l8gDM7nQ/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/botafogo-rj-fluminense/hGQ148Qs/</t>
         </is>
       </c>
     </row>
@@ -20077,22 +20077,22 @@
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>Fluminense</t>
+          <t>Corinthians</t>
         </is>
       </c>
       <c r="G214" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>Fortaleza</t>
+          <t>Palmeiras</t>
         </is>
       </c>
       <c r="I214" t="n">
         <v>0</v>
       </c>
       <c r="J214" t="n">
-        <v>1.84</v>
+        <v>3.34</v>
       </c>
       <c r="K214" t="inlineStr">
         <is>
@@ -20100,39 +20100,39 @@
         </is>
       </c>
       <c r="L214" t="n">
-        <v>1.95</v>
+        <v>4.92</v>
       </c>
       <c r="M214" t="inlineStr">
         <is>
+          <t>03/09/2023 20:58</t>
+        </is>
+      </c>
+      <c r="N214" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="O214" t="inlineStr">
+        <is>
+          <t>27/08/2023 22:42</t>
+        </is>
+      </c>
+      <c r="P214" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q214" t="inlineStr">
+        <is>
           <t>03/09/2023 20:56</t>
         </is>
       </c>
-      <c r="N214" t="n">
-        <v>3.66</v>
-      </c>
-      <c r="O214" t="inlineStr">
+      <c r="R214" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="S214" t="inlineStr">
         <is>
           <t>27/08/2023 22:42</t>
         </is>
       </c>
-      <c r="P214" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="Q214" t="inlineStr">
-        <is>
-          <t>03/09/2023 20:55</t>
-        </is>
-      </c>
-      <c r="R214" t="n">
-        <v>4.62</v>
-      </c>
-      <c r="S214" t="inlineStr">
-        <is>
-          <t>27/08/2023 22:42</t>
-        </is>
-      </c>
       <c r="T214" t="n">
-        <v>4.41</v>
+        <v>1.93</v>
       </c>
       <c r="U214" t="inlineStr">
         <is>
@@ -20141,7 +20141,7 @@
       </c>
       <c r="V214" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/fluminense-fortaleza/jogngFdh/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/corinthians-palmeiras/x2ebjDtB/</t>
         </is>
       </c>
     </row>
@@ -20169,22 +20169,22 @@
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>Corinthians</t>
+          <t>Fluminense</t>
         </is>
       </c>
       <c r="G215" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>Palmeiras</t>
+          <t>Fortaleza</t>
         </is>
       </c>
       <c r="I215" t="n">
         <v>0</v>
       </c>
       <c r="J215" t="n">
-        <v>3.34</v>
+        <v>1.84</v>
       </c>
       <c r="K215" t="inlineStr">
         <is>
@@ -20192,15 +20192,15 @@
         </is>
       </c>
       <c r="L215" t="n">
-        <v>4.92</v>
+        <v>1.95</v>
       </c>
       <c r="M215" t="inlineStr">
         <is>
-          <t>03/09/2023 20:58</t>
+          <t>03/09/2023 20:56</t>
         </is>
       </c>
       <c r="N215" t="n">
-        <v>3.13</v>
+        <v>3.66</v>
       </c>
       <c r="O215" t="inlineStr">
         <is>
@@ -20208,32 +20208,32 @@
         </is>
       </c>
       <c r="P215" t="n">
-        <v>3.25</v>
+        <v>3.45</v>
       </c>
       <c r="Q215" t="inlineStr">
         <is>
+          <t>03/09/2023 20:55</t>
+        </is>
+      </c>
+      <c r="R215" t="n">
+        <v>4.62</v>
+      </c>
+      <c r="S215" t="inlineStr">
+        <is>
+          <t>27/08/2023 22:42</t>
+        </is>
+      </c>
+      <c r="T215" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="U215" t="inlineStr">
+        <is>
           <t>03/09/2023 20:56</t>
         </is>
       </c>
-      <c r="R215" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="S215" t="inlineStr">
-        <is>
-          <t>27/08/2023 22:42</t>
-        </is>
-      </c>
-      <c r="T215" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="U215" t="inlineStr">
-        <is>
-          <t>03/09/2023 20:56</t>
-        </is>
-      </c>
       <c r="V215" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/corinthians-palmeiras/x2ebjDtB/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/fluminense-fortaleza/jogngFdh/</t>
         </is>
       </c>
     </row>
@@ -20261,71 +20261,71 @@
       </c>
       <c r="F216" t="inlineStr">
         <is>
-          <t>Bahia</t>
+          <t>Cruzeiro</t>
         </is>
       </c>
       <c r="G216" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>Vasco</t>
+          <t>Bragantino</t>
         </is>
       </c>
       <c r="I216" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J216" t="n">
-        <v>2.02</v>
+        <v>2.26</v>
       </c>
       <c r="K216" t="inlineStr">
         <is>
-          <t>27/08/2023 22:42</t>
+          <t>27/08/2023 23:12</t>
         </is>
       </c>
       <c r="L216" t="n">
-        <v>2.11</v>
+        <v>2.47</v>
       </c>
       <c r="M216" t="inlineStr">
         <is>
-          <t>03/09/2023 23:26</t>
+          <t>03/09/2023 23:19</t>
         </is>
       </c>
       <c r="N216" t="n">
-        <v>3.43</v>
+        <v>3.32</v>
       </c>
       <c r="O216" t="inlineStr">
         <is>
-          <t>27/08/2023 22:42</t>
+          <t>27/08/2023 23:12</t>
         </is>
       </c>
       <c r="P216" t="n">
-        <v>3.33</v>
+        <v>3.14</v>
       </c>
       <c r="Q216" t="inlineStr">
         <is>
-          <t>03/09/2023 23:29</t>
+          <t>03/09/2023 23:09</t>
         </is>
       </c>
       <c r="R216" t="n">
-        <v>4.04</v>
+        <v>3.47</v>
       </c>
       <c r="S216" t="inlineStr">
         <is>
-          <t>27/08/2023 22:42</t>
+          <t>27/08/2023 23:12</t>
         </is>
       </c>
       <c r="T216" t="n">
-        <v>3.95</v>
+        <v>3.29</v>
       </c>
       <c r="U216" t="inlineStr">
         <is>
-          <t>03/09/2023 23:29</t>
+          <t>03/09/2023 23:07</t>
         </is>
       </c>
       <c r="V216" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/bahia-vasco/4lJL7EBo/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/cruzeiro-bragantino/YTl7liBN/</t>
         </is>
       </c>
     </row>
@@ -20445,71 +20445,71 @@
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t>Cruzeiro</t>
+          <t>Bahia</t>
         </is>
       </c>
       <c r="G218" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>Bragantino</t>
+          <t>Vasco</t>
         </is>
       </c>
       <c r="I218" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J218" t="n">
-        <v>2.26</v>
+        <v>2.02</v>
       </c>
       <c r="K218" t="inlineStr">
         <is>
-          <t>27/08/2023 23:12</t>
+          <t>27/08/2023 22:42</t>
         </is>
       </c>
       <c r="L218" t="n">
-        <v>2.47</v>
+        <v>2.11</v>
       </c>
       <c r="M218" t="inlineStr">
         <is>
-          <t>03/09/2023 23:19</t>
+          <t>03/09/2023 23:26</t>
         </is>
       </c>
       <c r="N218" t="n">
-        <v>3.32</v>
+        <v>3.43</v>
       </c>
       <c r="O218" t="inlineStr">
         <is>
-          <t>27/08/2023 23:12</t>
+          <t>27/08/2023 22:42</t>
         </is>
       </c>
       <c r="P218" t="n">
-        <v>3.14</v>
+        <v>3.33</v>
       </c>
       <c r="Q218" t="inlineStr">
         <is>
-          <t>03/09/2023 23:09</t>
+          <t>03/09/2023 23:29</t>
         </is>
       </c>
       <c r="R218" t="n">
-        <v>3.47</v>
+        <v>4.04</v>
       </c>
       <c r="S218" t="inlineStr">
         <is>
-          <t>27/08/2023 23:12</t>
+          <t>27/08/2023 22:42</t>
         </is>
       </c>
       <c r="T218" t="n">
-        <v>3.29</v>
+        <v>3.95</v>
       </c>
       <c r="U218" t="inlineStr">
         <is>
-          <t>03/09/2023 23:07</t>
+          <t>03/09/2023 23:29</t>
         </is>
       </c>
       <c r="V218" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/cruzeiro-bragantino/YTl7liBN/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/bahia-vasco/4lJL7EBo/</t>
         </is>
       </c>
     </row>
@@ -20537,62 +20537,62 @@
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t>Flamengo RJ</t>
+          <t>Internacional</t>
         </is>
       </c>
       <c r="G219" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H219" t="inlineStr">
         <is>
-          <t>Athletico-PR</t>
+          <t>Sao Paulo</t>
         </is>
       </c>
       <c r="I219" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J219" t="n">
-        <v>1.72</v>
+        <v>2.35</v>
       </c>
       <c r="K219" t="inlineStr">
         <is>
-          <t>04/09/2023 08:42</t>
+          <t>04/09/2023 18:12</t>
         </is>
       </c>
       <c r="L219" t="n">
-        <v>1.81</v>
+        <v>2.71</v>
       </c>
       <c r="M219" t="inlineStr">
         <is>
+          <t>14/09/2023 02:29</t>
+        </is>
+      </c>
+      <c r="N219" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="O219" t="inlineStr">
+        <is>
+          <t>04/09/2023 18:12</t>
+        </is>
+      </c>
+      <c r="P219" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="Q219" t="inlineStr">
+        <is>
           <t>14/09/2023 02:21</t>
         </is>
       </c>
-      <c r="N219" t="n">
-        <v>3.99</v>
-      </c>
-      <c r="O219" t="inlineStr">
-        <is>
-          <t>04/09/2023 08:42</t>
-        </is>
-      </c>
-      <c r="P219" t="n">
-        <v>3.58</v>
-      </c>
-      <c r="Q219" t="inlineStr">
-        <is>
-          <t>14/09/2023 02:22</t>
-        </is>
-      </c>
       <c r="R219" t="n">
-        <v>4.75</v>
+        <v>3.38</v>
       </c>
       <c r="S219" t="inlineStr">
         <is>
-          <t>04/09/2023 08:42</t>
+          <t>04/09/2023 18:12</t>
         </is>
       </c>
       <c r="T219" t="n">
-        <v>5.02</v>
+        <v>3.01</v>
       </c>
       <c r="U219" t="inlineStr">
         <is>
@@ -20601,7 +20601,7 @@
       </c>
       <c r="V219" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/flamengo-rj-athletico-pr/CEMT5htb/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/internacional-sao-paulo/bVhBq2Pe/</t>
         </is>
       </c>
     </row>
@@ -20629,71 +20629,71 @@
       </c>
       <c r="F220" t="inlineStr">
         <is>
-          <t>Internacional</t>
+          <t>Flamengo RJ</t>
         </is>
       </c>
       <c r="G220" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H220" t="inlineStr">
         <is>
-          <t>Sao Paulo</t>
+          <t>Athletico-PR</t>
         </is>
       </c>
       <c r="I220" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J220" t="n">
-        <v>2.35</v>
+        <v>1.72</v>
       </c>
       <c r="K220" t="inlineStr">
         <is>
-          <t>04/09/2023 18:12</t>
+          <t>04/09/2023 08:42</t>
         </is>
       </c>
       <c r="L220" t="n">
-        <v>2.71</v>
+        <v>1.81</v>
       </c>
       <c r="M220" t="inlineStr">
         <is>
+          <t>14/09/2023 02:21</t>
+        </is>
+      </c>
+      <c r="N220" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="O220" t="inlineStr">
+        <is>
+          <t>04/09/2023 08:42</t>
+        </is>
+      </c>
+      <c r="P220" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="Q220" t="inlineStr">
+        <is>
+          <t>14/09/2023 02:22</t>
+        </is>
+      </c>
+      <c r="R220" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="S220" t="inlineStr">
+        <is>
+          <t>04/09/2023 08:42</t>
+        </is>
+      </c>
+      <c r="T220" t="n">
+        <v>5.02</v>
+      </c>
+      <c r="U220" t="inlineStr">
+        <is>
           <t>14/09/2023 02:29</t>
         </is>
       </c>
-      <c r="N220" t="n">
-        <v>3.16</v>
-      </c>
-      <c r="O220" t="inlineStr">
-        <is>
-          <t>04/09/2023 18:12</t>
-        </is>
-      </c>
-      <c r="P220" t="n">
-        <v>3.06</v>
-      </c>
-      <c r="Q220" t="inlineStr">
-        <is>
-          <t>14/09/2023 02:21</t>
-        </is>
-      </c>
-      <c r="R220" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="S220" t="inlineStr">
-        <is>
-          <t>04/09/2023 18:12</t>
-        </is>
-      </c>
-      <c r="T220" t="n">
-        <v>3.01</v>
-      </c>
-      <c r="U220" t="inlineStr">
-        <is>
-          <t>14/09/2023 02:29</t>
-        </is>
-      </c>
       <c r="V220" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/internacional-sao-paulo/bVhBq2Pe/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/flamengo-rj-athletico-pr/CEMT5htb/</t>
         </is>
       </c>
     </row>
@@ -22653,7 +22653,7 @@
       </c>
       <c r="F242" t="inlineStr">
         <is>
-          <t>Fortaleza</t>
+          <t>Flamengo RJ</t>
         </is>
       </c>
       <c r="G242" t="n">
@@ -22661,14 +22661,14 @@
       </c>
       <c r="H242" t="inlineStr">
         <is>
-          <t>Gremio</t>
+          <t>Bahia</t>
         </is>
       </c>
       <c r="I242" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J242" t="n">
-        <v>2</v>
+        <v>1.37</v>
       </c>
       <c r="K242" t="inlineStr">
         <is>
@@ -22676,48 +22676,48 @@
         </is>
       </c>
       <c r="L242" t="n">
-        <v>2.64</v>
+        <v>1.54</v>
       </c>
       <c r="M242" t="inlineStr">
         <is>
+          <t>30/09/2023 20:37</t>
+        </is>
+      </c>
+      <c r="N242" t="n">
+        <v>5.38</v>
+      </c>
+      <c r="O242" t="inlineStr">
+        <is>
+          <t>22/09/2023 20:42</t>
+        </is>
+      </c>
+      <c r="P242" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="Q242" t="inlineStr">
+        <is>
+          <t>30/09/2023 20:56</t>
+        </is>
+      </c>
+      <c r="R242" t="n">
+        <v>7.89</v>
+      </c>
+      <c r="S242" t="inlineStr">
+        <is>
+          <t>22/09/2023 20:42</t>
+        </is>
+      </c>
+      <c r="T242" t="n">
+        <v>6.51</v>
+      </c>
+      <c r="U242" t="inlineStr">
+        <is>
           <t>30/09/2023 20:46</t>
         </is>
       </c>
-      <c r="N242" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="O242" t="inlineStr">
-        <is>
-          <t>22/09/2023 20:42</t>
-        </is>
-      </c>
-      <c r="P242" t="n">
-        <v>3.29</v>
-      </c>
-      <c r="Q242" t="inlineStr">
-        <is>
-          <t>30/09/2023 19:43</t>
-        </is>
-      </c>
-      <c r="R242" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="S242" t="inlineStr">
-        <is>
-          <t>22/09/2023 20:42</t>
-        </is>
-      </c>
-      <c r="T242" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="U242" t="inlineStr">
-        <is>
-          <t>30/09/2023 20:55</t>
-        </is>
-      </c>
       <c r="V242" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/fortaleza-gremio/EuYLWLpE/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/flamengo-rj-bahia/KICnIMVK/</t>
         </is>
       </c>
     </row>
@@ -22745,7 +22745,7 @@
       </c>
       <c r="F243" t="inlineStr">
         <is>
-          <t>Flamengo RJ</t>
+          <t>Fortaleza</t>
         </is>
       </c>
       <c r="G243" t="n">
@@ -22753,14 +22753,14 @@
       </c>
       <c r="H243" t="inlineStr">
         <is>
-          <t>Bahia</t>
+          <t>Gremio</t>
         </is>
       </c>
       <c r="I243" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J243" t="n">
-        <v>1.37</v>
+        <v>2</v>
       </c>
       <c r="K243" t="inlineStr">
         <is>
@@ -22768,15 +22768,15 @@
         </is>
       </c>
       <c r="L243" t="n">
-        <v>1.54</v>
+        <v>2.64</v>
       </c>
       <c r="M243" t="inlineStr">
         <is>
-          <t>30/09/2023 20:37</t>
+          <t>30/09/2023 20:46</t>
         </is>
       </c>
       <c r="N243" t="n">
-        <v>5.38</v>
+        <v>3.55</v>
       </c>
       <c r="O243" t="inlineStr">
         <is>
@@ -22784,15 +22784,15 @@
         </is>
       </c>
       <c r="P243" t="n">
-        <v>4.35</v>
+        <v>3.29</v>
       </c>
       <c r="Q243" t="inlineStr">
         <is>
-          <t>30/09/2023 20:56</t>
+          <t>30/09/2023 19:43</t>
         </is>
       </c>
       <c r="R243" t="n">
-        <v>7.89</v>
+        <v>3.86</v>
       </c>
       <c r="S243" t="inlineStr">
         <is>
@@ -22800,16 +22800,16 @@
         </is>
       </c>
       <c r="T243" t="n">
-        <v>6.51</v>
+        <v>2.9</v>
       </c>
       <c r="U243" t="inlineStr">
         <is>
-          <t>30/09/2023 20:46</t>
+          <t>30/09/2023 20:55</t>
         </is>
       </c>
       <c r="V243" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/flamengo-rj-bahia/KICnIMVK/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/fortaleza-gremio/EuYLWLpE/</t>
         </is>
       </c>
     </row>
@@ -22837,71 +22837,71 @@
       </c>
       <c r="F244" t="inlineStr">
         <is>
-          <t>Sao Paulo</t>
+          <t>Cuiaba</t>
         </is>
       </c>
       <c r="G244" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H244" t="inlineStr">
         <is>
-          <t>Corinthians</t>
+          <t>Fluminense</t>
         </is>
       </c>
       <c r="I244" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J244" t="n">
-        <v>1.64</v>
+        <v>2.64</v>
       </c>
       <c r="K244" t="inlineStr">
         <is>
-          <t>27/09/2023 23:12</t>
+          <t>24/09/2023 01:12</t>
         </is>
       </c>
       <c r="L244" t="n">
-        <v>1.52</v>
+        <v>2.33</v>
       </c>
       <c r="M244" t="inlineStr">
         <is>
-          <t>30/09/2023 23:20</t>
+          <t>30/09/2023 23:04</t>
         </is>
       </c>
       <c r="N244" t="n">
-        <v>3.73</v>
+        <v>3.09</v>
       </c>
       <c r="O244" t="inlineStr">
         <is>
-          <t>27/09/2023 23:12</t>
+          <t>24/09/2023 01:12</t>
         </is>
       </c>
       <c r="P244" t="n">
-        <v>3.96</v>
+        <v>3.1</v>
       </c>
       <c r="Q244" t="inlineStr">
         <is>
-          <t>30/09/2023 23:26</t>
+          <t>30/09/2023 23:04</t>
         </is>
       </c>
       <c r="R244" t="n">
-        <v>6.33</v>
+        <v>3.04</v>
       </c>
       <c r="S244" t="inlineStr">
         <is>
-          <t>27/09/2023 23:12</t>
+          <t>24/09/2023 01:12</t>
         </is>
       </c>
       <c r="T244" t="n">
-        <v>8.24</v>
+        <v>3.62</v>
       </c>
       <c r="U244" t="inlineStr">
         <is>
-          <t>30/09/2023 23:28</t>
+          <t>30/09/2023 23:04</t>
         </is>
       </c>
       <c r="V244" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/sao-paulo-corinthians/v3gJC0gr/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/cuiaba-fluminense/hWWPVu0K/</t>
         </is>
       </c>
     </row>
@@ -22929,71 +22929,71 @@
       </c>
       <c r="F245" t="inlineStr">
         <is>
-          <t>Cuiaba</t>
+          <t>Sao Paulo</t>
         </is>
       </c>
       <c r="G245" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H245" t="inlineStr">
         <is>
-          <t>Fluminense</t>
+          <t>Corinthians</t>
         </is>
       </c>
       <c r="I245" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J245" t="n">
-        <v>2.64</v>
+        <v>1.64</v>
       </c>
       <c r="K245" t="inlineStr">
         <is>
-          <t>24/09/2023 01:12</t>
+          <t>27/09/2023 23:12</t>
         </is>
       </c>
       <c r="L245" t="n">
-        <v>2.33</v>
+        <v>1.52</v>
       </c>
       <c r="M245" t="inlineStr">
         <is>
-          <t>30/09/2023 23:04</t>
+          <t>30/09/2023 23:20</t>
         </is>
       </c>
       <c r="N245" t="n">
-        <v>3.09</v>
+        <v>3.73</v>
       </c>
       <c r="O245" t="inlineStr">
         <is>
-          <t>24/09/2023 01:12</t>
+          <t>27/09/2023 23:12</t>
         </is>
       </c>
       <c r="P245" t="n">
-        <v>3.1</v>
+        <v>3.96</v>
       </c>
       <c r="Q245" t="inlineStr">
         <is>
-          <t>30/09/2023 23:04</t>
+          <t>30/09/2023 23:26</t>
         </is>
       </c>
       <c r="R245" t="n">
-        <v>3.04</v>
+        <v>6.33</v>
       </c>
       <c r="S245" t="inlineStr">
         <is>
-          <t>24/09/2023 01:12</t>
+          <t>27/09/2023 23:12</t>
         </is>
       </c>
       <c r="T245" t="n">
-        <v>3.62</v>
+        <v>8.24</v>
       </c>
       <c r="U245" t="inlineStr">
         <is>
-          <t>30/09/2023 23:04</t>
+          <t>30/09/2023 23:28</t>
         </is>
       </c>
       <c r="V245" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/cuiaba-fluminense/hWWPVu0K/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/sao-paulo-corinthians/v3gJC0gr/</t>
         </is>
       </c>
     </row>
@@ -23113,71 +23113,71 @@
       </c>
       <c r="F247" t="inlineStr">
         <is>
-          <t>Santos</t>
+          <t>Coritiba</t>
         </is>
       </c>
       <c r="G247" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H247" t="inlineStr">
         <is>
-          <t>Vasco</t>
+          <t>Athletico-PR</t>
         </is>
       </c>
       <c r="I247" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J247" t="n">
-        <v>2.25</v>
+        <v>3.07</v>
       </c>
       <c r="K247" t="inlineStr">
         <is>
-          <t>26/09/2023 00:12</t>
+          <t>27/09/2023 23:12</t>
         </is>
       </c>
       <c r="L247" t="n">
-        <v>2.6</v>
+        <v>3.68</v>
       </c>
       <c r="M247" t="inlineStr">
         <is>
-          <t>01/10/2023 20:30</t>
+          <t>01/10/2023 20:56</t>
         </is>
       </c>
       <c r="N247" t="n">
-        <v>3.29</v>
+        <v>3.23</v>
       </c>
       <c r="O247" t="inlineStr">
         <is>
-          <t>26/09/2023 00:12</t>
+          <t>27/09/2023 23:12</t>
         </is>
       </c>
       <c r="P247" t="n">
-        <v>3.11</v>
+        <v>3.26</v>
       </c>
       <c r="Q247" t="inlineStr">
         <is>
-          <t>01/10/2023 20:57</t>
+          <t>01/10/2023 20:29</t>
         </is>
       </c>
       <c r="R247" t="n">
-        <v>3.44</v>
+        <v>2.48</v>
       </c>
       <c r="S247" t="inlineStr">
         <is>
-          <t>26/09/2023 00:12</t>
+          <t>27/09/2023 23:12</t>
         </is>
       </c>
       <c r="T247" t="n">
-        <v>3.11</v>
+        <v>2.22</v>
       </c>
       <c r="U247" t="inlineStr">
         <is>
-          <t>01/10/2023 20:30</t>
+          <t>01/10/2023 20:56</t>
         </is>
       </c>
       <c r="V247" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/santos-vasco/IghNBK8l/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/coritiba-athletico-pr/0xpv8x8D/</t>
         </is>
       </c>
     </row>
@@ -23297,71 +23297,71 @@
       </c>
       <c r="F249" t="inlineStr">
         <is>
-          <t>Coritiba</t>
+          <t>Santos</t>
         </is>
       </c>
       <c r="G249" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H249" t="inlineStr">
         <is>
-          <t>Athletico-PR</t>
+          <t>Vasco</t>
         </is>
       </c>
       <c r="I249" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J249" t="n">
-        <v>3.07</v>
+        <v>2.25</v>
       </c>
       <c r="K249" t="inlineStr">
         <is>
-          <t>27/09/2023 23:12</t>
+          <t>26/09/2023 00:12</t>
         </is>
       </c>
       <c r="L249" t="n">
-        <v>3.68</v>
+        <v>2.6</v>
       </c>
       <c r="M249" t="inlineStr">
         <is>
-          <t>01/10/2023 20:56</t>
+          <t>01/10/2023 20:30</t>
         </is>
       </c>
       <c r="N249" t="n">
-        <v>3.23</v>
+        <v>3.29</v>
       </c>
       <c r="O249" t="inlineStr">
         <is>
-          <t>27/09/2023 23:12</t>
+          <t>26/09/2023 00:12</t>
         </is>
       </c>
       <c r="P249" t="n">
-        <v>3.26</v>
+        <v>3.11</v>
       </c>
       <c r="Q249" t="inlineStr">
         <is>
-          <t>01/10/2023 20:29</t>
+          <t>01/10/2023 20:57</t>
         </is>
       </c>
       <c r="R249" t="n">
-        <v>2.48</v>
+        <v>3.44</v>
       </c>
       <c r="S249" t="inlineStr">
         <is>
-          <t>27/09/2023 23:12</t>
+          <t>26/09/2023 00:12</t>
         </is>
       </c>
       <c r="T249" t="n">
-        <v>2.22</v>
+        <v>3.11</v>
       </c>
       <c r="U249" t="inlineStr">
         <is>
-          <t>01/10/2023 20:56</t>
+          <t>01/10/2023 20:30</t>
         </is>
       </c>
       <c r="V249" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/coritiba-athletico-pr/0xpv8x8D/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/santos-vasco/IghNBK8l/</t>
         </is>
       </c>
     </row>
@@ -24125,71 +24125,71 @@
       </c>
       <c r="F258" t="inlineStr">
         <is>
-          <t>Fortaleza</t>
+          <t>Athletico-PR</t>
         </is>
       </c>
       <c r="G258" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H258" t="inlineStr">
         <is>
-          <t>America MG</t>
+          <t>Bragantino</t>
         </is>
       </c>
       <c r="I258" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J258" t="n">
-        <v>1.57</v>
+        <v>2.09</v>
       </c>
       <c r="K258" t="inlineStr">
         <is>
-          <t>01/10/2023 20:12</t>
+          <t>01/10/2023 22:42</t>
         </is>
       </c>
       <c r="L258" t="n">
-        <v>1.53</v>
+        <v>2.76</v>
       </c>
       <c r="M258" t="inlineStr">
         <is>
-          <t>08/10/2023 22:46</t>
+          <t>08/10/2023 23:26</t>
         </is>
       </c>
       <c r="N258" t="n">
-        <v>4.3</v>
+        <v>3.44</v>
       </c>
       <c r="O258" t="inlineStr">
         <is>
-          <t>01/10/2023 20:12</t>
+          <t>01/10/2023 22:42</t>
         </is>
       </c>
       <c r="P258" t="n">
-        <v>4.43</v>
+        <v>3.22</v>
       </c>
       <c r="Q258" t="inlineStr">
         <is>
-          <t>08/10/2023 23:29</t>
+          <t>08/10/2023 23:26</t>
         </is>
       </c>
       <c r="R258" t="n">
-        <v>5.96</v>
+        <v>3.7</v>
       </c>
       <c r="S258" t="inlineStr">
         <is>
-          <t>01/10/2023 20:12</t>
+          <t>01/10/2023 22:42</t>
         </is>
       </c>
       <c r="T258" t="n">
-        <v>6.46</v>
+        <v>2.82</v>
       </c>
       <c r="U258" t="inlineStr">
         <is>
-          <t>08/10/2023 23:29</t>
+          <t>08/10/2023 23:26</t>
         </is>
       </c>
       <c r="V258" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/fortaleza-america-mg/lbn4qaUJ/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/athletico-pr-bragantino/ng8LKFiJ/</t>
         </is>
       </c>
     </row>
@@ -24217,7 +24217,7 @@
       </c>
       <c r="F259" t="inlineStr">
         <is>
-          <t>Athletico-PR</t>
+          <t>Atletico-MG</t>
         </is>
       </c>
       <c r="G259" t="n">
@@ -24225,63 +24225,63 @@
       </c>
       <c r="H259" t="inlineStr">
         <is>
-          <t>Bragantino</t>
+          <t>Coritiba</t>
         </is>
       </c>
       <c r="I259" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J259" t="n">
-        <v>2.09</v>
+        <v>1.35</v>
       </c>
       <c r="K259" t="inlineStr">
         <is>
-          <t>01/10/2023 22:42</t>
+          <t>01/10/2023 20:12</t>
         </is>
       </c>
       <c r="L259" t="n">
-        <v>2.76</v>
+        <v>1.39</v>
       </c>
       <c r="M259" t="inlineStr">
         <is>
-          <t>08/10/2023 23:26</t>
+          <t>08/10/2023 23:23</t>
         </is>
       </c>
       <c r="N259" t="n">
-        <v>3.44</v>
+        <v>4.9</v>
       </c>
       <c r="O259" t="inlineStr">
         <is>
-          <t>01/10/2023 22:42</t>
+          <t>01/10/2023 20:12</t>
         </is>
       </c>
       <c r="P259" t="n">
-        <v>3.22</v>
+        <v>4.75</v>
       </c>
       <c r="Q259" t="inlineStr">
         <is>
-          <t>08/10/2023 23:26</t>
+          <t>08/10/2023 23:23</t>
         </is>
       </c>
       <c r="R259" t="n">
-        <v>3.7</v>
+        <v>10.08</v>
       </c>
       <c r="S259" t="inlineStr">
         <is>
-          <t>01/10/2023 22:42</t>
+          <t>01/10/2023 20:12</t>
         </is>
       </c>
       <c r="T259" t="n">
-        <v>2.82</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="U259" t="inlineStr">
         <is>
-          <t>08/10/2023 23:26</t>
+          <t>08/10/2023 23:25</t>
         </is>
       </c>
       <c r="V259" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/athletico-pr-bragantino/ng8LKFiJ/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/atletico-mg-coritiba/vT4DMyN6/</t>
         </is>
       </c>
     </row>
@@ -24309,22 +24309,22 @@
       </c>
       <c r="F260" t="inlineStr">
         <is>
-          <t>Atletico-MG</t>
+          <t>Fortaleza</t>
         </is>
       </c>
       <c r="G260" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H260" t="inlineStr">
         <is>
-          <t>Coritiba</t>
+          <t>America MG</t>
         </is>
       </c>
       <c r="I260" t="n">
         <v>2</v>
       </c>
       <c r="J260" t="n">
-        <v>1.35</v>
+        <v>1.57</v>
       </c>
       <c r="K260" t="inlineStr">
         <is>
@@ -24332,15 +24332,15 @@
         </is>
       </c>
       <c r="L260" t="n">
-        <v>1.39</v>
+        <v>1.53</v>
       </c>
       <c r="M260" t="inlineStr">
         <is>
-          <t>08/10/2023 23:23</t>
+          <t>08/10/2023 22:46</t>
         </is>
       </c>
       <c r="N260" t="n">
-        <v>4.9</v>
+        <v>4.3</v>
       </c>
       <c r="O260" t="inlineStr">
         <is>
@@ -24348,15 +24348,15 @@
         </is>
       </c>
       <c r="P260" t="n">
-        <v>4.75</v>
+        <v>4.43</v>
       </c>
       <c r="Q260" t="inlineStr">
         <is>
-          <t>08/10/2023 23:23</t>
+          <t>08/10/2023 23:29</t>
         </is>
       </c>
       <c r="R260" t="n">
-        <v>10.08</v>
+        <v>5.96</v>
       </c>
       <c r="S260" t="inlineStr">
         <is>
@@ -24364,16 +24364,16 @@
         </is>
       </c>
       <c r="T260" t="n">
-        <v>9.800000000000001</v>
+        <v>6.46</v>
       </c>
       <c r="U260" t="inlineStr">
         <is>
-          <t>08/10/2023 23:25</t>
+          <t>08/10/2023 23:29</t>
         </is>
       </c>
       <c r="V260" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/atletico-mg-coritiba/vT4DMyN6/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/fortaleza-america-mg/lbn4qaUJ/</t>
         </is>
       </c>
     </row>
@@ -24585,71 +24585,71 @@
       </c>
       <c r="F263" t="inlineStr">
         <is>
-          <t>Coritiba</t>
+          <t>America MG</t>
         </is>
       </c>
       <c r="G263" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H263" t="inlineStr">
         <is>
-          <t>Cuiaba</t>
+          <t>Botafogo RJ</t>
         </is>
       </c>
       <c r="I263" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J263" t="n">
-        <v>2.53</v>
+        <v>3.13</v>
       </c>
       <c r="K263" t="inlineStr">
         <is>
-          <t>15/10/2023 01:12</t>
+          <t>09/10/2023 14:12</t>
         </is>
       </c>
       <c r="L263" t="n">
-        <v>2.61</v>
+        <v>2.9</v>
       </c>
       <c r="M263" t="inlineStr">
         <is>
-          <t>19/10/2023 00:34</t>
+          <t>19/10/2023 00:53</t>
         </is>
       </c>
       <c r="N263" t="n">
-        <v>3.12</v>
+        <v>3.31</v>
       </c>
       <c r="O263" t="inlineStr">
         <is>
-          <t>15/10/2023 01:12</t>
+          <t>09/10/2023 14:12</t>
         </is>
       </c>
       <c r="P263" t="n">
-        <v>2.94</v>
+        <v>3.26</v>
       </c>
       <c r="Q263" t="inlineStr">
         <is>
-          <t>18/10/2023 23:34</t>
+          <t>19/10/2023 00:51</t>
         </is>
       </c>
       <c r="R263" t="n">
-        <v>3.18</v>
+        <v>2.4</v>
       </c>
       <c r="S263" t="inlineStr">
         <is>
-          <t>15/10/2023 01:12</t>
+          <t>09/10/2023 14:12</t>
         </is>
       </c>
       <c r="T263" t="n">
-        <v>3.29</v>
+        <v>2.67</v>
       </c>
       <c r="U263" t="inlineStr">
         <is>
-          <t>19/10/2023 00:06</t>
+          <t>19/10/2023 00:51</t>
         </is>
       </c>
       <c r="V263" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/coritiba-cuiaba/WbNKG6jo/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/america-mg-botafogo-rj/b5F6vArh/</t>
         </is>
       </c>
     </row>
@@ -24677,71 +24677,71 @@
       </c>
       <c r="F264" t="inlineStr">
         <is>
-          <t>America MG</t>
+          <t>Coritiba</t>
         </is>
       </c>
       <c r="G264" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H264" t="inlineStr">
         <is>
-          <t>Botafogo RJ</t>
+          <t>Cuiaba</t>
         </is>
       </c>
       <c r="I264" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J264" t="n">
-        <v>3.13</v>
+        <v>2.53</v>
       </c>
       <c r="K264" t="inlineStr">
         <is>
-          <t>09/10/2023 14:12</t>
+          <t>15/10/2023 01:12</t>
         </is>
       </c>
       <c r="L264" t="n">
-        <v>2.9</v>
+        <v>2.61</v>
       </c>
       <c r="M264" t="inlineStr">
         <is>
-          <t>19/10/2023 00:53</t>
+          <t>19/10/2023 00:34</t>
         </is>
       </c>
       <c r="N264" t="n">
-        <v>3.31</v>
+        <v>3.12</v>
       </c>
       <c r="O264" t="inlineStr">
         <is>
-          <t>09/10/2023 14:12</t>
+          <t>15/10/2023 01:12</t>
         </is>
       </c>
       <c r="P264" t="n">
-        <v>3.26</v>
+        <v>2.94</v>
       </c>
       <c r="Q264" t="inlineStr">
         <is>
-          <t>19/10/2023 00:51</t>
+          <t>18/10/2023 23:34</t>
         </is>
       </c>
       <c r="R264" t="n">
-        <v>2.4</v>
+        <v>3.18</v>
       </c>
       <c r="S264" t="inlineStr">
         <is>
-          <t>09/10/2023 14:12</t>
+          <t>15/10/2023 01:12</t>
         </is>
       </c>
       <c r="T264" t="n">
-        <v>2.67</v>
+        <v>3.29</v>
       </c>
       <c r="U264" t="inlineStr">
         <is>
-          <t>19/10/2023 00:51</t>
+          <t>19/10/2023 00:06</t>
         </is>
       </c>
       <c r="V264" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/america-mg-botafogo-rj/b5F6vArh/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/coritiba-cuiaba/WbNKG6jo/</t>
         </is>
       </c>
     </row>
@@ -25018,6 +25018,374 @@
       <c r="V267" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/brazil/serie-a/vasco-fortaleza/bXyvwc7m/</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="1" t="n">
+        <v>267</v>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>brazil</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>serie-a</t>
+        </is>
+      </c>
+      <c r="D268" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E268" s="2" t="n">
+        <v>45219</v>
+      </c>
+      <c r="F268" t="inlineStr">
+        <is>
+          <t>Palmeiras</t>
+        </is>
+      </c>
+      <c r="G268" t="n">
+        <v>0</v>
+      </c>
+      <c r="H268" t="inlineStr">
+        <is>
+          <t>Atletico-MG</t>
+        </is>
+      </c>
+      <c r="I268" t="n">
+        <v>2</v>
+      </c>
+      <c r="J268" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>11/10/2023 23:42</t>
+        </is>
+      </c>
+      <c r="L268" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="M268" t="inlineStr">
+        <is>
+          <t>19/10/2023 23:59</t>
+        </is>
+      </c>
+      <c r="N268" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="O268" t="inlineStr">
+        <is>
+          <t>11/10/2023 23:42</t>
+        </is>
+      </c>
+      <c r="P268" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="Q268" t="inlineStr">
+        <is>
+          <t>19/10/2023 23:59</t>
+        </is>
+      </c>
+      <c r="R268" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="S268" t="inlineStr">
+        <is>
+          <t>11/10/2023 23:42</t>
+        </is>
+      </c>
+      <c r="T268" t="n">
+        <v>5.87</v>
+      </c>
+      <c r="U268" t="inlineStr">
+        <is>
+          <t>19/10/2023 23:59</t>
+        </is>
+      </c>
+      <c r="V268" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/palmeiras-atletico-mg/Qg8zxHMg/</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="1" t="n">
+        <v>268</v>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>brazil</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>serie-a</t>
+        </is>
+      </c>
+      <c r="D269" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E269" s="2" t="n">
+        <v>45219</v>
+      </c>
+      <c r="F269" t="inlineStr">
+        <is>
+          <t>Cruzeiro</t>
+        </is>
+      </c>
+      <c r="G269" t="n">
+        <v>0</v>
+      </c>
+      <c r="H269" t="inlineStr">
+        <is>
+          <t>Flamengo RJ</t>
+        </is>
+      </c>
+      <c r="I269" t="n">
+        <v>2</v>
+      </c>
+      <c r="J269" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>15/10/2023 01:12</t>
+        </is>
+      </c>
+      <c r="L269" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="M269" t="inlineStr">
+        <is>
+          <t>19/10/2023 23:33</t>
+        </is>
+      </c>
+      <c r="N269" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="O269" t="inlineStr">
+        <is>
+          <t>15/10/2023 01:12</t>
+        </is>
+      </c>
+      <c r="P269" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="Q269" t="inlineStr">
+        <is>
+          <t>19/10/2023 23:33</t>
+        </is>
+      </c>
+      <c r="R269" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="S269" t="inlineStr">
+        <is>
+          <t>15/10/2023 01:12</t>
+        </is>
+      </c>
+      <c r="T269" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="U269" t="inlineStr">
+        <is>
+          <t>19/10/2023 23:33</t>
+        </is>
+      </c>
+      <c r="V269" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/cruzeiro-flamengo-rj/CAAnZE6C/</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="1" t="n">
+        <v>269</v>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>brazil</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>serie-a</t>
+        </is>
+      </c>
+      <c r="D270" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E270" s="2" t="n">
+        <v>45219.04166666666</v>
+      </c>
+      <c r="F270" t="inlineStr">
+        <is>
+          <t>Santos</t>
+        </is>
+      </c>
+      <c r="G270" t="n">
+        <v>1</v>
+      </c>
+      <c r="H270" t="inlineStr">
+        <is>
+          <t>Bragantino</t>
+        </is>
+      </c>
+      <c r="I270" t="n">
+        <v>3</v>
+      </c>
+      <c r="J270" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>12/10/2023 00:42</t>
+        </is>
+      </c>
+      <c r="L270" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="M270" t="inlineStr">
+        <is>
+          <t>20/10/2023 00:55</t>
+        </is>
+      </c>
+      <c r="N270" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="O270" t="inlineStr">
+        <is>
+          <t>12/10/2023 00:42</t>
+        </is>
+      </c>
+      <c r="P270" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="Q270" t="inlineStr">
+        <is>
+          <t>20/10/2023 00:56</t>
+        </is>
+      </c>
+      <c r="R270" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="S270" t="inlineStr">
+        <is>
+          <t>12/10/2023 00:42</t>
+        </is>
+      </c>
+      <c r="T270" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U270" t="inlineStr">
+        <is>
+          <t>20/10/2023 00:55</t>
+        </is>
+      </c>
+      <c r="V270" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/santos-bragantino/4p7vyyx0/</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="1" t="n">
+        <v>270</v>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>brazil</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>serie-a</t>
+        </is>
+      </c>
+      <c r="D271" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E271" s="2" t="n">
+        <v>45219.10416666666</v>
+      </c>
+      <c r="F271" t="inlineStr">
+        <is>
+          <t>Fluminense</t>
+        </is>
+      </c>
+      <c r="G271" t="n">
+        <v>3</v>
+      </c>
+      <c r="H271" t="inlineStr">
+        <is>
+          <t>Corinthians</t>
+        </is>
+      </c>
+      <c r="I271" t="n">
+        <v>3</v>
+      </c>
+      <c r="J271" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>09/10/2023 14:12</t>
+        </is>
+      </c>
+      <c r="L271" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="M271" t="inlineStr">
+        <is>
+          <t>20/10/2023 02:28</t>
+        </is>
+      </c>
+      <c r="N271" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="O271" t="inlineStr">
+        <is>
+          <t>09/10/2023 14:12</t>
+        </is>
+      </c>
+      <c r="P271" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="Q271" t="inlineStr">
+        <is>
+          <t>20/10/2023 02:28</t>
+        </is>
+      </c>
+      <c r="R271" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="S271" t="inlineStr">
+        <is>
+          <t>09/10/2023 14:12</t>
+        </is>
+      </c>
+      <c r="T271" t="n">
+        <v>5.98</v>
+      </c>
+      <c r="U271" t="inlineStr">
+        <is>
+          <t>20/10/2023 02:28</t>
+        </is>
+      </c>
+      <c r="V271" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/fluminense-corinthians/Ktwzvwhs/</t>
         </is>
       </c>
     </row>

--- a/2023/brazil_serie-a_2023.xlsx
+++ b/2023/brazil_serie-a_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V271"/>
+  <dimension ref="A1:V274"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6277,71 +6277,71 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Coritiba</t>
+          <t>Bragantino</t>
         </is>
       </c>
       <c r="G64" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Atletico-MG</t>
+          <t>Athletico-PR</t>
         </is>
       </c>
       <c r="I64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J64" t="n">
-        <v>4.39</v>
+        <v>2.05</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>15/05/2023 04:42</t>
+          <t>14/05/2023 23:42</t>
         </is>
       </c>
       <c r="L64" t="n">
-        <v>4.83</v>
+        <v>1.85</v>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>20/05/2023 23:29</t>
+          <t>20/05/2023 23:06</t>
         </is>
       </c>
       <c r="N64" t="n">
-        <v>3.46</v>
+        <v>3.43</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>15/05/2023 04:42</t>
+          <t>14/05/2023 23:42</t>
         </is>
       </c>
       <c r="P64" t="n">
-        <v>3.45</v>
+        <v>3.64</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>20/05/2023 23:29</t>
+          <t>20/05/2023 23:28</t>
         </is>
       </c>
       <c r="R64" t="n">
-        <v>1.91</v>
+        <v>3.83</v>
       </c>
       <c r="S64" t="inlineStr">
         <is>
-          <t>15/05/2023 04:42</t>
+          <t>14/05/2023 23:42</t>
         </is>
       </c>
       <c r="T64" t="n">
-        <v>1.88</v>
+        <v>4.63</v>
       </c>
       <c r="U64" t="inlineStr">
         <is>
-          <t>20/05/2023 23:29</t>
+          <t>20/05/2023 23:28</t>
         </is>
       </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/coritiba-atletico-mg/dE6Rb4fJ/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/bragantino-athletico-pr/MeEE16A0/</t>
         </is>
       </c>
     </row>
@@ -6369,22 +6369,22 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Bragantino</t>
+          <t>Botafogo RJ</t>
         </is>
       </c>
       <c r="G65" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Athletico-PR</t>
+          <t>Fluminense</t>
         </is>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
       <c r="J65" t="n">
-        <v>2.05</v>
+        <v>2.78</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
@@ -6392,15 +6392,15 @@
         </is>
       </c>
       <c r="L65" t="n">
-        <v>1.85</v>
+        <v>2.77</v>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>20/05/2023 23:06</t>
+          <t>20/05/2023 23:29</t>
         </is>
       </c>
       <c r="N65" t="n">
-        <v>3.43</v>
+        <v>3.31</v>
       </c>
       <c r="O65" t="inlineStr">
         <is>
@@ -6408,15 +6408,15 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>3.64</v>
+        <v>3.32</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>20/05/2023 23:28</t>
+          <t>20/05/2023 23:29</t>
         </is>
       </c>
       <c r="R65" t="n">
-        <v>3.83</v>
+        <v>2.72</v>
       </c>
       <c r="S65" t="inlineStr">
         <is>
@@ -6424,16 +6424,16 @@
         </is>
       </c>
       <c r="T65" t="n">
-        <v>4.63</v>
+        <v>2.74</v>
       </c>
       <c r="U65" t="inlineStr">
         <is>
-          <t>20/05/2023 23:28</t>
+          <t>20/05/2023 22:51</t>
         </is>
       </c>
       <c r="V65" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/bragantino-athletico-pr/MeEE16A0/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/botafogo-rj-fluminense/hGQ148Qs/</t>
         </is>
       </c>
     </row>
@@ -6553,7 +6553,7 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Botafogo RJ</t>
+          <t>Coritiba</t>
         </is>
       </c>
       <c r="G67" t="n">
@@ -6561,22 +6561,22 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Fluminense</t>
+          <t>Atletico-MG</t>
         </is>
       </c>
       <c r="I67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J67" t="n">
-        <v>2.78</v>
+        <v>4.39</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>14/05/2023 23:42</t>
+          <t>15/05/2023 04:42</t>
         </is>
       </c>
       <c r="L67" t="n">
-        <v>2.77</v>
+        <v>4.83</v>
       </c>
       <c r="M67" t="inlineStr">
         <is>
@@ -6584,15 +6584,15 @@
         </is>
       </c>
       <c r="N67" t="n">
-        <v>3.31</v>
+        <v>3.46</v>
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>14/05/2023 23:42</t>
+          <t>15/05/2023 04:42</t>
         </is>
       </c>
       <c r="P67" t="n">
-        <v>3.32</v>
+        <v>3.45</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
@@ -6600,24 +6600,24 @@
         </is>
       </c>
       <c r="R67" t="n">
-        <v>2.72</v>
+        <v>1.91</v>
       </c>
       <c r="S67" t="inlineStr">
         <is>
-          <t>14/05/2023 23:42</t>
+          <t>15/05/2023 04:42</t>
         </is>
       </c>
       <c r="T67" t="n">
-        <v>2.74</v>
+        <v>1.88</v>
       </c>
       <c r="U67" t="inlineStr">
         <is>
-          <t>20/05/2023 22:51</t>
+          <t>20/05/2023 23:29</t>
         </is>
       </c>
       <c r="V67" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/botafogo-rj-fluminense/hGQ148Qs/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/coritiba-atletico-mg/dE6Rb4fJ/</t>
         </is>
       </c>
     </row>
@@ -21825,7 +21825,7 @@
       </c>
       <c r="F233" t="inlineStr">
         <is>
-          <t>Sao Paulo</t>
+          <t>Fluminense</t>
         </is>
       </c>
       <c r="G233" t="n">
@@ -21833,63 +21833,63 @@
       </c>
       <c r="H233" t="inlineStr">
         <is>
-          <t>Fortaleza</t>
+          <t>Cruzeiro</t>
         </is>
       </c>
       <c r="I233" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J233" t="n">
-        <v>1.93</v>
+        <v>1.78</v>
       </c>
       <c r="K233" t="inlineStr">
         <is>
-          <t>14/09/2023 23:13</t>
+          <t>16/09/2023 20:12</t>
         </is>
       </c>
       <c r="L233" t="n">
-        <v>2.4</v>
+        <v>1.83</v>
       </c>
       <c r="M233" t="inlineStr">
         <is>
+          <t>21/09/2023 02:20</t>
+        </is>
+      </c>
+      <c r="N233" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="O233" t="inlineStr">
+        <is>
+          <t>16/09/2023 20:12</t>
+        </is>
+      </c>
+      <c r="P233" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="Q233" t="inlineStr">
+        <is>
+          <t>21/09/2023 02:20</t>
+        </is>
+      </c>
+      <c r="R233" t="n">
+        <v>4.66</v>
+      </c>
+      <c r="S233" t="inlineStr">
+        <is>
+          <t>16/09/2023 20:12</t>
+        </is>
+      </c>
+      <c r="T233" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="U233" t="inlineStr">
+        <is>
           <t>21/09/2023 02:22</t>
         </is>
       </c>
-      <c r="N233" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="O233" t="inlineStr">
-        <is>
-          <t>14/09/2023 23:13</t>
-        </is>
-      </c>
-      <c r="P233" t="n">
-        <v>3.22</v>
-      </c>
-      <c r="Q233" t="inlineStr">
-        <is>
-          <t>21/09/2023 02:22</t>
-        </is>
-      </c>
-      <c r="R233" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="S233" t="inlineStr">
-        <is>
-          <t>14/09/2023 23:13</t>
-        </is>
-      </c>
-      <c r="T233" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="U233" t="inlineStr">
-        <is>
-          <t>21/09/2023 02:28</t>
-        </is>
-      </c>
       <c r="V233" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/sao-paulo-fortaleza/fHxE3NGR/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/fluminense-cruzeiro/niZ55qnF/</t>
         </is>
       </c>
     </row>
@@ -21917,7 +21917,7 @@
       </c>
       <c r="F234" t="inlineStr">
         <is>
-          <t>Fluminense</t>
+          <t>Sao Paulo</t>
         </is>
       </c>
       <c r="G234" t="n">
@@ -21925,63 +21925,63 @@
       </c>
       <c r="H234" t="inlineStr">
         <is>
-          <t>Cruzeiro</t>
+          <t>Fortaleza</t>
         </is>
       </c>
       <c r="I234" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J234" t="n">
-        <v>1.78</v>
+        <v>1.93</v>
       </c>
       <c r="K234" t="inlineStr">
         <is>
-          <t>16/09/2023 20:12</t>
+          <t>14/09/2023 23:13</t>
         </is>
       </c>
       <c r="L234" t="n">
-        <v>1.83</v>
+        <v>2.4</v>
       </c>
       <c r="M234" t="inlineStr">
         <is>
-          <t>21/09/2023 02:20</t>
+          <t>21/09/2023 02:22</t>
         </is>
       </c>
       <c r="N234" t="n">
-        <v>3.76</v>
+        <v>3.55</v>
       </c>
       <c r="O234" t="inlineStr">
         <is>
-          <t>16/09/2023 20:12</t>
+          <t>14/09/2023 23:13</t>
         </is>
       </c>
       <c r="P234" t="n">
-        <v>3.59</v>
+        <v>3.22</v>
       </c>
       <c r="Q234" t="inlineStr">
         <is>
-          <t>21/09/2023 02:20</t>
+          <t>21/09/2023 02:22</t>
         </is>
       </c>
       <c r="R234" t="n">
-        <v>4.66</v>
+        <v>4.3</v>
       </c>
       <c r="S234" t="inlineStr">
         <is>
-          <t>16/09/2023 20:12</t>
+          <t>14/09/2023 23:13</t>
         </is>
       </c>
       <c r="T234" t="n">
-        <v>4.9</v>
+        <v>3.3</v>
       </c>
       <c r="U234" t="inlineStr">
         <is>
-          <t>21/09/2023 02:22</t>
+          <t>21/09/2023 02:28</t>
         </is>
       </c>
       <c r="V234" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/fluminense-cruzeiro/niZ55qnF/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/sao-paulo-fortaleza/fHxE3NGR/</t>
         </is>
       </c>
     </row>
@@ -22653,7 +22653,7 @@
       </c>
       <c r="F242" t="inlineStr">
         <is>
-          <t>Flamengo RJ</t>
+          <t>Fortaleza</t>
         </is>
       </c>
       <c r="G242" t="n">
@@ -22661,14 +22661,14 @@
       </c>
       <c r="H242" t="inlineStr">
         <is>
-          <t>Bahia</t>
+          <t>Gremio</t>
         </is>
       </c>
       <c r="I242" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J242" t="n">
-        <v>1.37</v>
+        <v>2</v>
       </c>
       <c r="K242" t="inlineStr">
         <is>
@@ -22676,15 +22676,15 @@
         </is>
       </c>
       <c r="L242" t="n">
-        <v>1.54</v>
+        <v>2.64</v>
       </c>
       <c r="M242" t="inlineStr">
         <is>
-          <t>30/09/2023 20:37</t>
+          <t>30/09/2023 20:46</t>
         </is>
       </c>
       <c r="N242" t="n">
-        <v>5.38</v>
+        <v>3.55</v>
       </c>
       <c r="O242" t="inlineStr">
         <is>
@@ -22692,15 +22692,15 @@
         </is>
       </c>
       <c r="P242" t="n">
-        <v>4.35</v>
+        <v>3.29</v>
       </c>
       <c r="Q242" t="inlineStr">
         <is>
-          <t>30/09/2023 20:56</t>
+          <t>30/09/2023 19:43</t>
         </is>
       </c>
       <c r="R242" t="n">
-        <v>7.89</v>
+        <v>3.86</v>
       </c>
       <c r="S242" t="inlineStr">
         <is>
@@ -22708,16 +22708,16 @@
         </is>
       </c>
       <c r="T242" t="n">
-        <v>6.51</v>
+        <v>2.9</v>
       </c>
       <c r="U242" t="inlineStr">
         <is>
-          <t>30/09/2023 20:46</t>
+          <t>30/09/2023 20:55</t>
         </is>
       </c>
       <c r="V242" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/flamengo-rj-bahia/KICnIMVK/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/fortaleza-gremio/EuYLWLpE/</t>
         </is>
       </c>
     </row>
@@ -22745,7 +22745,7 @@
       </c>
       <c r="F243" t="inlineStr">
         <is>
-          <t>Fortaleza</t>
+          <t>Flamengo RJ</t>
         </is>
       </c>
       <c r="G243" t="n">
@@ -22753,14 +22753,14 @@
       </c>
       <c r="H243" t="inlineStr">
         <is>
-          <t>Gremio</t>
+          <t>Bahia</t>
         </is>
       </c>
       <c r="I243" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J243" t="n">
-        <v>2</v>
+        <v>1.37</v>
       </c>
       <c r="K243" t="inlineStr">
         <is>
@@ -22768,48 +22768,48 @@
         </is>
       </c>
       <c r="L243" t="n">
-        <v>2.64</v>
+        <v>1.54</v>
       </c>
       <c r="M243" t="inlineStr">
         <is>
+          <t>30/09/2023 20:37</t>
+        </is>
+      </c>
+      <c r="N243" t="n">
+        <v>5.38</v>
+      </c>
+      <c r="O243" t="inlineStr">
+        <is>
+          <t>22/09/2023 20:42</t>
+        </is>
+      </c>
+      <c r="P243" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="Q243" t="inlineStr">
+        <is>
+          <t>30/09/2023 20:56</t>
+        </is>
+      </c>
+      <c r="R243" t="n">
+        <v>7.89</v>
+      </c>
+      <c r="S243" t="inlineStr">
+        <is>
+          <t>22/09/2023 20:42</t>
+        </is>
+      </c>
+      <c r="T243" t="n">
+        <v>6.51</v>
+      </c>
+      <c r="U243" t="inlineStr">
+        <is>
           <t>30/09/2023 20:46</t>
         </is>
       </c>
-      <c r="N243" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="O243" t="inlineStr">
-        <is>
-          <t>22/09/2023 20:42</t>
-        </is>
-      </c>
-      <c r="P243" t="n">
-        <v>3.29</v>
-      </c>
-      <c r="Q243" t="inlineStr">
-        <is>
-          <t>30/09/2023 19:43</t>
-        </is>
-      </c>
-      <c r="R243" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="S243" t="inlineStr">
-        <is>
-          <t>22/09/2023 20:42</t>
-        </is>
-      </c>
-      <c r="T243" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="U243" t="inlineStr">
-        <is>
-          <t>30/09/2023 20:55</t>
-        </is>
-      </c>
       <c r="V243" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/fortaleza-gremio/EuYLWLpE/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/flamengo-rj-bahia/KICnIMVK/</t>
         </is>
       </c>
     </row>
@@ -22837,71 +22837,71 @@
       </c>
       <c r="F244" t="inlineStr">
         <is>
-          <t>Cuiaba</t>
+          <t>Sao Paulo</t>
         </is>
       </c>
       <c r="G244" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H244" t="inlineStr">
         <is>
-          <t>Fluminense</t>
+          <t>Corinthians</t>
         </is>
       </c>
       <c r="I244" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J244" t="n">
-        <v>2.64</v>
+        <v>1.64</v>
       </c>
       <c r="K244" t="inlineStr">
         <is>
-          <t>24/09/2023 01:12</t>
+          <t>27/09/2023 23:12</t>
         </is>
       </c>
       <c r="L244" t="n">
-        <v>2.33</v>
+        <v>1.52</v>
       </c>
       <c r="M244" t="inlineStr">
         <is>
-          <t>30/09/2023 23:04</t>
+          <t>30/09/2023 23:20</t>
         </is>
       </c>
       <c r="N244" t="n">
-        <v>3.09</v>
+        <v>3.73</v>
       </c>
       <c r="O244" t="inlineStr">
         <is>
-          <t>24/09/2023 01:12</t>
+          <t>27/09/2023 23:12</t>
         </is>
       </c>
       <c r="P244" t="n">
-        <v>3.1</v>
+        <v>3.96</v>
       </c>
       <c r="Q244" t="inlineStr">
         <is>
-          <t>30/09/2023 23:04</t>
+          <t>30/09/2023 23:26</t>
         </is>
       </c>
       <c r="R244" t="n">
-        <v>3.04</v>
+        <v>6.33</v>
       </c>
       <c r="S244" t="inlineStr">
         <is>
-          <t>24/09/2023 01:12</t>
+          <t>27/09/2023 23:12</t>
         </is>
       </c>
       <c r="T244" t="n">
-        <v>3.62</v>
+        <v>8.24</v>
       </c>
       <c r="U244" t="inlineStr">
         <is>
-          <t>30/09/2023 23:04</t>
+          <t>30/09/2023 23:28</t>
         </is>
       </c>
       <c r="V244" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/cuiaba-fluminense/hWWPVu0K/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/sao-paulo-corinthians/v3gJC0gr/</t>
         </is>
       </c>
     </row>
@@ -22929,71 +22929,71 @@
       </c>
       <c r="F245" t="inlineStr">
         <is>
-          <t>Sao Paulo</t>
+          <t>Cuiaba</t>
         </is>
       </c>
       <c r="G245" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H245" t="inlineStr">
         <is>
-          <t>Corinthians</t>
+          <t>Fluminense</t>
         </is>
       </c>
       <c r="I245" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J245" t="n">
-        <v>1.64</v>
+        <v>2.64</v>
       </c>
       <c r="K245" t="inlineStr">
         <is>
-          <t>27/09/2023 23:12</t>
+          <t>24/09/2023 01:12</t>
         </is>
       </c>
       <c r="L245" t="n">
-        <v>1.52</v>
+        <v>2.33</v>
       </c>
       <c r="M245" t="inlineStr">
         <is>
-          <t>30/09/2023 23:20</t>
+          <t>30/09/2023 23:04</t>
         </is>
       </c>
       <c r="N245" t="n">
-        <v>3.73</v>
+        <v>3.09</v>
       </c>
       <c r="O245" t="inlineStr">
         <is>
-          <t>27/09/2023 23:12</t>
+          <t>24/09/2023 01:12</t>
         </is>
       </c>
       <c r="P245" t="n">
-        <v>3.96</v>
+        <v>3.1</v>
       </c>
       <c r="Q245" t="inlineStr">
         <is>
-          <t>30/09/2023 23:26</t>
+          <t>30/09/2023 23:04</t>
         </is>
       </c>
       <c r="R245" t="n">
-        <v>6.33</v>
+        <v>3.04</v>
       </c>
       <c r="S245" t="inlineStr">
         <is>
-          <t>27/09/2023 23:12</t>
+          <t>24/09/2023 01:12</t>
         </is>
       </c>
       <c r="T245" t="n">
-        <v>8.24</v>
+        <v>3.62</v>
       </c>
       <c r="U245" t="inlineStr">
         <is>
-          <t>30/09/2023 23:28</t>
+          <t>30/09/2023 23:04</t>
         </is>
       </c>
       <c r="V245" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/sao-paulo-corinthians/v3gJC0gr/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/cuiaba-fluminense/hWWPVu0K/</t>
         </is>
       </c>
     </row>
@@ -23113,71 +23113,71 @@
       </c>
       <c r="F247" t="inlineStr">
         <is>
-          <t>Coritiba</t>
+          <t>Cruzeiro</t>
         </is>
       </c>
       <c r="G247" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H247" t="inlineStr">
         <is>
-          <t>Athletico-PR</t>
+          <t>America MG</t>
         </is>
       </c>
       <c r="I247" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J247" t="n">
-        <v>3.07</v>
+        <v>1.71</v>
       </c>
       <c r="K247" t="inlineStr">
         <is>
-          <t>27/09/2023 23:12</t>
+          <t>26/09/2023 00:12</t>
         </is>
       </c>
       <c r="L247" t="n">
-        <v>3.68</v>
+        <v>1.74</v>
       </c>
       <c r="M247" t="inlineStr">
         <is>
-          <t>01/10/2023 20:56</t>
+          <t>01/10/2023 20:59</t>
         </is>
       </c>
       <c r="N247" t="n">
-        <v>3.23</v>
+        <v>3.88</v>
       </c>
       <c r="O247" t="inlineStr">
         <is>
-          <t>27/09/2023 23:12</t>
+          <t>26/09/2023 00:12</t>
         </is>
       </c>
       <c r="P247" t="n">
-        <v>3.26</v>
+        <v>3.8</v>
       </c>
       <c r="Q247" t="inlineStr">
         <is>
-          <t>01/10/2023 20:29</t>
+          <t>01/10/2023 20:59</t>
         </is>
       </c>
       <c r="R247" t="n">
-        <v>2.48</v>
+        <v>5.17</v>
       </c>
       <c r="S247" t="inlineStr">
         <is>
-          <t>27/09/2023 23:12</t>
+          <t>26/09/2023 00:12</t>
         </is>
       </c>
       <c r="T247" t="n">
-        <v>2.22</v>
+        <v>5.18</v>
       </c>
       <c r="U247" t="inlineStr">
         <is>
-          <t>01/10/2023 20:56</t>
+          <t>01/10/2023 20:59</t>
         </is>
       </c>
       <c r="V247" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/coritiba-athletico-pr/0xpv8x8D/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/cruzeiro-america-mg/4AjV9bw1/</t>
         </is>
       </c>
     </row>
@@ -23205,71 +23205,71 @@
       </c>
       <c r="F248" t="inlineStr">
         <is>
-          <t>Cruzeiro</t>
+          <t>Coritiba</t>
         </is>
       </c>
       <c r="G248" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H248" t="inlineStr">
         <is>
-          <t>America MG</t>
+          <t>Athletico-PR</t>
         </is>
       </c>
       <c r="I248" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J248" t="n">
-        <v>1.71</v>
+        <v>3.07</v>
       </c>
       <c r="K248" t="inlineStr">
         <is>
-          <t>26/09/2023 00:12</t>
+          <t>27/09/2023 23:12</t>
         </is>
       </c>
       <c r="L248" t="n">
-        <v>1.74</v>
+        <v>3.68</v>
       </c>
       <c r="M248" t="inlineStr">
         <is>
-          <t>01/10/2023 20:59</t>
+          <t>01/10/2023 20:56</t>
         </is>
       </c>
       <c r="N248" t="n">
-        <v>3.88</v>
+        <v>3.23</v>
       </c>
       <c r="O248" t="inlineStr">
         <is>
-          <t>26/09/2023 00:12</t>
+          <t>27/09/2023 23:12</t>
         </is>
       </c>
       <c r="P248" t="n">
-        <v>3.8</v>
+        <v>3.26</v>
       </c>
       <c r="Q248" t="inlineStr">
         <is>
-          <t>01/10/2023 20:59</t>
+          <t>01/10/2023 20:29</t>
         </is>
       </c>
       <c r="R248" t="n">
-        <v>5.17</v>
+        <v>2.48</v>
       </c>
       <c r="S248" t="inlineStr">
         <is>
-          <t>26/09/2023 00:12</t>
+          <t>27/09/2023 23:12</t>
         </is>
       </c>
       <c r="T248" t="n">
-        <v>5.18</v>
+        <v>2.22</v>
       </c>
       <c r="U248" t="inlineStr">
         <is>
-          <t>01/10/2023 20:59</t>
+          <t>01/10/2023 20:56</t>
         </is>
       </c>
       <c r="V248" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/cruzeiro-america-mg/4AjV9bw1/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/coritiba-athletico-pr/0xpv8x8D/</t>
         </is>
       </c>
     </row>
@@ -23849,71 +23849,71 @@
       </c>
       <c r="F255" t="inlineStr">
         <is>
-          <t>Fluminense</t>
+          <t>Palmeiras</t>
         </is>
       </c>
       <c r="G255" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H255" t="inlineStr">
         <is>
-          <t>Botafogo RJ</t>
+          <t>Santos</t>
         </is>
       </c>
       <c r="I255" t="n">
         <v>2</v>
       </c>
       <c r="J255" t="n">
-        <v>2.08</v>
+        <v>1.35</v>
       </c>
       <c r="K255" t="inlineStr">
         <is>
-          <t>03/10/2023 00:13</t>
+          <t>01/10/2023 22:42</t>
         </is>
       </c>
       <c r="L255" t="n">
-        <v>1.95</v>
+        <v>1.44</v>
       </c>
       <c r="M255" t="inlineStr">
         <is>
-          <t>08/10/2023 20:59</t>
+          <t>08/10/2023 20:49</t>
         </is>
       </c>
       <c r="N255" t="n">
-        <v>3.21</v>
+        <v>5.12</v>
       </c>
       <c r="O255" t="inlineStr">
         <is>
-          <t>03/10/2023 00:13</t>
+          <t>01/10/2023 22:42</t>
         </is>
       </c>
       <c r="P255" t="n">
-        <v>3.52</v>
+        <v>4.48</v>
       </c>
       <c r="Q255" t="inlineStr">
         <is>
-          <t>08/10/2023 20:59</t>
+          <t>08/10/2023 20:58</t>
         </is>
       </c>
       <c r="R255" t="n">
-        <v>4.03</v>
+        <v>9.890000000000001</v>
       </c>
       <c r="S255" t="inlineStr">
         <is>
-          <t>03/10/2023 00:13</t>
+          <t>01/10/2023 22:42</t>
         </is>
       </c>
       <c r="T255" t="n">
-        <v>4.29</v>
+        <v>8.73</v>
       </c>
       <c r="U255" t="inlineStr">
         <is>
-          <t>08/10/2023 20:59</t>
+          <t>08/10/2023 20:58</t>
         </is>
       </c>
       <c r="V255" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/fluminense-botafogo-rj/A7RUUaFQ/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/palmeiras-santos/6wD0Pwwl/</t>
         </is>
       </c>
     </row>
@@ -23941,71 +23941,71 @@
       </c>
       <c r="F256" t="inlineStr">
         <is>
-          <t>Internacional</t>
+          <t>Fluminense</t>
         </is>
       </c>
       <c r="G256" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H256" t="inlineStr">
         <is>
-          <t>Gremio</t>
+          <t>Botafogo RJ</t>
         </is>
       </c>
       <c r="I256" t="n">
         <v>2</v>
       </c>
       <c r="J256" t="n">
-        <v>2.29</v>
+        <v>2.08</v>
       </c>
       <c r="K256" t="inlineStr">
         <is>
-          <t>01/10/2023 01:12</t>
+          <t>03/10/2023 00:13</t>
         </is>
       </c>
       <c r="L256" t="n">
-        <v>2.29</v>
+        <v>1.95</v>
       </c>
       <c r="M256" t="inlineStr">
         <is>
-          <t>08/10/2023 20:56</t>
+          <t>08/10/2023 20:59</t>
         </is>
       </c>
       <c r="N256" t="n">
-        <v>3.3</v>
+        <v>3.21</v>
       </c>
       <c r="O256" t="inlineStr">
         <is>
-          <t>01/10/2023 01:12</t>
+          <t>03/10/2023 00:13</t>
         </is>
       </c>
       <c r="P256" t="n">
-        <v>3.26</v>
+        <v>3.52</v>
       </c>
       <c r="Q256" t="inlineStr">
         <is>
-          <t>08/10/2023 20:51</t>
+          <t>08/10/2023 20:59</t>
         </is>
       </c>
       <c r="R256" t="n">
-        <v>3.43</v>
+        <v>4.03</v>
       </c>
       <c r="S256" t="inlineStr">
         <is>
-          <t>01/10/2023 01:12</t>
+          <t>03/10/2023 00:13</t>
         </is>
       </c>
       <c r="T256" t="n">
-        <v>3.53</v>
+        <v>4.29</v>
       </c>
       <c r="U256" t="inlineStr">
         <is>
-          <t>08/10/2023 20:56</t>
+          <t>08/10/2023 20:59</t>
         </is>
       </c>
       <c r="V256" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/internacional-gremio/829HLexD/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/fluminense-botafogo-rj/A7RUUaFQ/</t>
         </is>
       </c>
     </row>
@@ -24033,71 +24033,71 @@
       </c>
       <c r="F257" t="inlineStr">
         <is>
-          <t>Palmeiras</t>
+          <t>Internacional</t>
         </is>
       </c>
       <c r="G257" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H257" t="inlineStr">
         <is>
-          <t>Santos</t>
+          <t>Gremio</t>
         </is>
       </c>
       <c r="I257" t="n">
         <v>2</v>
       </c>
       <c r="J257" t="n">
-        <v>1.35</v>
+        <v>2.29</v>
       </c>
       <c r="K257" t="inlineStr">
         <is>
-          <t>01/10/2023 22:42</t>
+          <t>01/10/2023 01:12</t>
         </is>
       </c>
       <c r="L257" t="n">
-        <v>1.44</v>
+        <v>2.29</v>
       </c>
       <c r="M257" t="inlineStr">
         <is>
-          <t>08/10/2023 20:49</t>
+          <t>08/10/2023 20:56</t>
         </is>
       </c>
       <c r="N257" t="n">
-        <v>5.12</v>
+        <v>3.3</v>
       </c>
       <c r="O257" t="inlineStr">
         <is>
-          <t>01/10/2023 22:42</t>
+          <t>01/10/2023 01:12</t>
         </is>
       </c>
       <c r="P257" t="n">
-        <v>4.48</v>
+        <v>3.26</v>
       </c>
       <c r="Q257" t="inlineStr">
         <is>
-          <t>08/10/2023 20:58</t>
+          <t>08/10/2023 20:51</t>
         </is>
       </c>
       <c r="R257" t="n">
-        <v>9.890000000000001</v>
+        <v>3.43</v>
       </c>
       <c r="S257" t="inlineStr">
         <is>
-          <t>01/10/2023 22:42</t>
+          <t>01/10/2023 01:12</t>
         </is>
       </c>
       <c r="T257" t="n">
-        <v>8.73</v>
+        <v>3.53</v>
       </c>
       <c r="U257" t="inlineStr">
         <is>
-          <t>08/10/2023 20:58</t>
+          <t>08/10/2023 20:56</t>
         </is>
       </c>
       <c r="V257" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/palmeiras-santos/6wD0Pwwl/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/internacional-gremio/829HLexD/</t>
         </is>
       </c>
     </row>
@@ -24769,22 +24769,22 @@
       </c>
       <c r="F265" t="inlineStr">
         <is>
-          <t>Bahia</t>
+          <t>Goias</t>
         </is>
       </c>
       <c r="G265" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H265" t="inlineStr">
         <is>
-          <t>Internacional</t>
+          <t>Sao Paulo</t>
         </is>
       </c>
       <c r="I265" t="n">
         <v>0</v>
       </c>
       <c r="J265" t="n">
-        <v>2.23</v>
+        <v>3.02</v>
       </c>
       <c r="K265" t="inlineStr">
         <is>
@@ -24792,15 +24792,15 @@
         </is>
       </c>
       <c r="L265" t="n">
-        <v>2.07</v>
+        <v>3.79</v>
       </c>
       <c r="M265" t="inlineStr">
         <is>
-          <t>19/10/2023 02:29</t>
+          <t>19/10/2023 02:27</t>
         </is>
       </c>
       <c r="N265" t="n">
-        <v>3.32</v>
+        <v>3.09</v>
       </c>
       <c r="O265" t="inlineStr">
         <is>
@@ -24808,15 +24808,15 @@
         </is>
       </c>
       <c r="P265" t="n">
-        <v>3.37</v>
+        <v>3.19</v>
       </c>
       <c r="Q265" t="inlineStr">
         <is>
-          <t>19/10/2023 02:21</t>
+          <t>19/10/2023 02:27</t>
         </is>
       </c>
       <c r="R265" t="n">
-        <v>3.54</v>
+        <v>2.66</v>
       </c>
       <c r="S265" t="inlineStr">
         <is>
@@ -24824,16 +24824,16 @@
         </is>
       </c>
       <c r="T265" t="n">
-        <v>4.04</v>
+        <v>2.22</v>
       </c>
       <c r="U265" t="inlineStr">
         <is>
-          <t>19/10/2023 02:29</t>
+          <t>19/10/2023 02:27</t>
         </is>
       </c>
       <c r="V265" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/bahia-internacional/KEG2ujTo/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/goias-sao-paulo/b76rzei6/</t>
         </is>
       </c>
     </row>
@@ -24861,22 +24861,22 @@
       </c>
       <c r="F266" t="inlineStr">
         <is>
-          <t>Goias</t>
+          <t>Bahia</t>
         </is>
       </c>
       <c r="G266" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H266" t="inlineStr">
         <is>
-          <t>Sao Paulo</t>
+          <t>Internacional</t>
         </is>
       </c>
       <c r="I266" t="n">
         <v>0</v>
       </c>
       <c r="J266" t="n">
-        <v>3.02</v>
+        <v>2.23</v>
       </c>
       <c r="K266" t="inlineStr">
         <is>
@@ -24884,15 +24884,15 @@
         </is>
       </c>
       <c r="L266" t="n">
-        <v>3.79</v>
+        <v>2.07</v>
       </c>
       <c r="M266" t="inlineStr">
         <is>
-          <t>19/10/2023 02:27</t>
+          <t>19/10/2023 02:29</t>
         </is>
       </c>
       <c r="N266" t="n">
-        <v>3.09</v>
+        <v>3.32</v>
       </c>
       <c r="O266" t="inlineStr">
         <is>
@@ -24900,15 +24900,15 @@
         </is>
       </c>
       <c r="P266" t="n">
-        <v>3.19</v>
+        <v>3.37</v>
       </c>
       <c r="Q266" t="inlineStr">
         <is>
-          <t>19/10/2023 02:27</t>
+          <t>19/10/2023 02:21</t>
         </is>
       </c>
       <c r="R266" t="n">
-        <v>2.66</v>
+        <v>3.54</v>
       </c>
       <c r="S266" t="inlineStr">
         <is>
@@ -24916,16 +24916,16 @@
         </is>
       </c>
       <c r="T266" t="n">
-        <v>2.22</v>
+        <v>4.04</v>
       </c>
       <c r="U266" t="inlineStr">
         <is>
-          <t>19/10/2023 02:27</t>
+          <t>19/10/2023 02:29</t>
         </is>
       </c>
       <c r="V266" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/goias-sao-paulo/b76rzei6/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/bahia-internacional/KEG2ujTo/</t>
         </is>
       </c>
     </row>
@@ -25045,7 +25045,7 @@
       </c>
       <c r="F268" t="inlineStr">
         <is>
-          <t>Palmeiras</t>
+          <t>Cruzeiro</t>
         </is>
       </c>
       <c r="G268" t="n">
@@ -25053,63 +25053,63 @@
       </c>
       <c r="H268" t="inlineStr">
         <is>
-          <t>Atletico-MG</t>
+          <t>Flamengo RJ</t>
         </is>
       </c>
       <c r="I268" t="n">
         <v>2</v>
       </c>
       <c r="J268" t="n">
-        <v>1.84</v>
+        <v>3.04</v>
       </c>
       <c r="K268" t="inlineStr">
         <is>
-          <t>11/10/2023 23:42</t>
+          <t>15/10/2023 01:12</t>
         </is>
       </c>
       <c r="L268" t="n">
-        <v>1.74</v>
+        <v>3.55</v>
       </c>
       <c r="M268" t="inlineStr">
         <is>
-          <t>19/10/2023 23:59</t>
+          <t>19/10/2023 23:33</t>
         </is>
       </c>
       <c r="N268" t="n">
-        <v>3.49</v>
+        <v>3.3</v>
       </c>
       <c r="O268" t="inlineStr">
         <is>
-          <t>11/10/2023 23:42</t>
+          <t>15/10/2023 01:12</t>
         </is>
       </c>
       <c r="P268" t="n">
-        <v>3.51</v>
+        <v>3.22</v>
       </c>
       <c r="Q268" t="inlineStr">
         <is>
-          <t>19/10/2023 23:59</t>
+          <t>19/10/2023 23:33</t>
         </is>
       </c>
       <c r="R268" t="n">
-        <v>4.74</v>
+        <v>2.46</v>
       </c>
       <c r="S268" t="inlineStr">
         <is>
-          <t>11/10/2023 23:42</t>
+          <t>15/10/2023 01:12</t>
         </is>
       </c>
       <c r="T268" t="n">
-        <v>5.87</v>
+        <v>2.3</v>
       </c>
       <c r="U268" t="inlineStr">
         <is>
-          <t>19/10/2023 23:59</t>
+          <t>19/10/2023 23:33</t>
         </is>
       </c>
       <c r="V268" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/palmeiras-atletico-mg/Qg8zxHMg/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/cruzeiro-flamengo-rj/CAAnZE6C/</t>
         </is>
       </c>
     </row>
@@ -25137,7 +25137,7 @@
       </c>
       <c r="F269" t="inlineStr">
         <is>
-          <t>Cruzeiro</t>
+          <t>Palmeiras</t>
         </is>
       </c>
       <c r="G269" t="n">
@@ -25145,63 +25145,63 @@
       </c>
       <c r="H269" t="inlineStr">
         <is>
-          <t>Flamengo RJ</t>
+          <t>Atletico-MG</t>
         </is>
       </c>
       <c r="I269" t="n">
         <v>2</v>
       </c>
       <c r="J269" t="n">
-        <v>3.04</v>
+        <v>1.84</v>
       </c>
       <c r="K269" t="inlineStr">
         <is>
-          <t>15/10/2023 01:12</t>
+          <t>11/10/2023 23:42</t>
         </is>
       </c>
       <c r="L269" t="n">
-        <v>3.55</v>
+        <v>1.74</v>
       </c>
       <c r="M269" t="inlineStr">
         <is>
-          <t>19/10/2023 23:33</t>
+          <t>19/10/2023 23:59</t>
         </is>
       </c>
       <c r="N269" t="n">
-        <v>3.3</v>
+        <v>3.49</v>
       </c>
       <c r="O269" t="inlineStr">
         <is>
-          <t>15/10/2023 01:12</t>
+          <t>11/10/2023 23:42</t>
         </is>
       </c>
       <c r="P269" t="n">
-        <v>3.22</v>
+        <v>3.51</v>
       </c>
       <c r="Q269" t="inlineStr">
         <is>
-          <t>19/10/2023 23:33</t>
+          <t>19/10/2023 23:59</t>
         </is>
       </c>
       <c r="R269" t="n">
-        <v>2.46</v>
+        <v>4.74</v>
       </c>
       <c r="S269" t="inlineStr">
         <is>
-          <t>15/10/2023 01:12</t>
+          <t>11/10/2023 23:42</t>
         </is>
       </c>
       <c r="T269" t="n">
-        <v>2.3</v>
+        <v>5.87</v>
       </c>
       <c r="U269" t="inlineStr">
         <is>
-          <t>19/10/2023 23:33</t>
+          <t>19/10/2023 23:59</t>
         </is>
       </c>
       <c r="V269" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/cruzeiro-flamengo-rj/CAAnZE6C/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/palmeiras-atletico-mg/Qg8zxHMg/</t>
         </is>
       </c>
     </row>
@@ -25386,6 +25386,282 @@
       <c r="V271" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/brazil/serie-a/fluminense-corinthians/Ktwzvwhs/</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="1" t="n">
+        <v>271</v>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>brazil</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>serie-a</t>
+        </is>
+      </c>
+      <c r="D272" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E272" s="2" t="n">
+        <v>45220.97916666666</v>
+      </c>
+      <c r="F272" t="inlineStr">
+        <is>
+          <t>Cuiaba</t>
+        </is>
+      </c>
+      <c r="G272" t="n">
+        <v>1</v>
+      </c>
+      <c r="H272" t="inlineStr">
+        <is>
+          <t>Goias</t>
+        </is>
+      </c>
+      <c r="I272" t="n">
+        <v>1</v>
+      </c>
+      <c r="J272" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>19/10/2023 01:42</t>
+        </is>
+      </c>
+      <c r="L272" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="M272" t="inlineStr">
+        <is>
+          <t>21/10/2023 23:28</t>
+        </is>
+      </c>
+      <c r="N272" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="O272" t="inlineStr">
+        <is>
+          <t>19/10/2023 01:42</t>
+        </is>
+      </c>
+      <c r="P272" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="Q272" t="inlineStr">
+        <is>
+          <t>21/10/2023 23:28</t>
+        </is>
+      </c>
+      <c r="R272" t="n">
+        <v>4.93</v>
+      </c>
+      <c r="S272" t="inlineStr">
+        <is>
+          <t>19/10/2023 01:42</t>
+        </is>
+      </c>
+      <c r="T272" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="U272" t="inlineStr">
+        <is>
+          <t>21/10/2023 23:28</t>
+        </is>
+      </c>
+      <c r="V272" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/cuiaba-goias/ziGnydgc/</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="1" t="n">
+        <v>272</v>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>brazil</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>serie-a</t>
+        </is>
+      </c>
+      <c r="D273" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E273" s="2" t="n">
+        <v>45220.97916666666</v>
+      </c>
+      <c r="F273" t="inlineStr">
+        <is>
+          <t>Bahia</t>
+        </is>
+      </c>
+      <c r="G273" t="n">
+        <v>2</v>
+      </c>
+      <c r="H273" t="inlineStr">
+        <is>
+          <t>Fortaleza</t>
+        </is>
+      </c>
+      <c r="I273" t="n">
+        <v>0</v>
+      </c>
+      <c r="J273" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>19/10/2023 01:42</t>
+        </is>
+      </c>
+      <c r="L273" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="M273" t="inlineStr">
+        <is>
+          <t>21/10/2023 23:22</t>
+        </is>
+      </c>
+      <c r="N273" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="O273" t="inlineStr">
+        <is>
+          <t>19/10/2023 01:42</t>
+        </is>
+      </c>
+      <c r="P273" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="Q273" t="inlineStr">
+        <is>
+          <t>21/10/2023 23:18</t>
+        </is>
+      </c>
+      <c r="R273" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="S273" t="inlineStr">
+        <is>
+          <t>19/10/2023 01:42</t>
+        </is>
+      </c>
+      <c r="T273" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="U273" t="inlineStr">
+        <is>
+          <t>21/10/2023 23:22</t>
+        </is>
+      </c>
+      <c r="V273" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/bahia-fortaleza/d0Hrxxvi/</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="1" t="n">
+        <v>273</v>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>brazil</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>serie-a</t>
+        </is>
+      </c>
+      <c r="D274" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E274" s="2" t="n">
+        <v>45220.97916666666</v>
+      </c>
+      <c r="F274" t="inlineStr">
+        <is>
+          <t>Sao Paulo</t>
+        </is>
+      </c>
+      <c r="G274" t="n">
+        <v>3</v>
+      </c>
+      <c r="H274" t="inlineStr">
+        <is>
+          <t>Gremio</t>
+        </is>
+      </c>
+      <c r="I274" t="n">
+        <v>0</v>
+      </c>
+      <c r="J274" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>19/10/2023 01:42</t>
+        </is>
+      </c>
+      <c r="L274" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="M274" t="inlineStr">
+        <is>
+          <t>21/10/2023 23:29</t>
+        </is>
+      </c>
+      <c r="N274" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="O274" t="inlineStr">
+        <is>
+          <t>19/10/2023 01:42</t>
+        </is>
+      </c>
+      <c r="P274" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="Q274" t="inlineStr">
+        <is>
+          <t>21/10/2023 23:29</t>
+        </is>
+      </c>
+      <c r="R274" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="S274" t="inlineStr">
+        <is>
+          <t>19/10/2023 01:42</t>
+        </is>
+      </c>
+      <c r="T274" t="n">
+        <v>6.32</v>
+      </c>
+      <c r="U274" t="inlineStr">
+        <is>
+          <t>21/10/2023 23:29</t>
+        </is>
+      </c>
+      <c r="V274" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/sao-paulo-gremio/nR7Jy8SA/</t>
         </is>
       </c>
     </row>

--- a/2023/brazil_serie-a_2023.xlsx
+++ b/2023/brazil_serie-a_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V274"/>
+  <dimension ref="A1:V281"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -941,7 +941,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Athletico-PR</t>
+          <t>Botafogo RJ</t>
         </is>
       </c>
       <c r="G6" t="n">
@@ -949,63 +949,63 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Goias</t>
+          <t>Sao Paulo</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>1.64</v>
+        <v>2.69</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>09/04/2023 08:36</t>
+          <t>08/04/2023 23:42</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>1.64</v>
+        <v>2.46</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>15/04/2023 23:27</t>
+          <t>15/04/2023 23:22</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>4.15</v>
+        <v>3.05</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>09/04/2023 08:36</t>
+          <t>08/04/2023 23:42</t>
         </is>
       </c>
       <c r="P6" t="n">
-        <v>3.69</v>
+        <v>3.17</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>15/04/2023 23:27</t>
+          <t>15/04/2023 23:25</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>5.21</v>
+        <v>3</v>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>09/04/2023 08:36</t>
+          <t>08/04/2023 23:42</t>
         </is>
       </c>
       <c r="T6" t="n">
-        <v>6.64</v>
+        <v>3.26</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>15/04/2023 23:28</t>
+          <t>15/04/2023 23:25</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/athletico-pr-goias/Sv02EkgD/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/botafogo-rj-sao-paulo/vFRENgWQ/</t>
         </is>
       </c>
     </row>
@@ -1033,7 +1033,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Botafogo RJ</t>
+          <t>Athletico-PR</t>
         </is>
       </c>
       <c r="G7" t="n">
@@ -1041,63 +1041,63 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Sao Paulo</t>
+          <t>Goias</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>2.69</v>
+        <v>1.64</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>08/04/2023 23:42</t>
+          <t>09/04/2023 08:36</t>
         </is>
       </c>
       <c r="L7" t="n">
-        <v>2.46</v>
+        <v>1.64</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>15/04/2023 23:22</t>
+          <t>15/04/2023 23:27</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>3.05</v>
+        <v>4.15</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>08/04/2023 23:42</t>
+          <t>09/04/2023 08:36</t>
         </is>
       </c>
       <c r="P7" t="n">
-        <v>3.17</v>
+        <v>3.69</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>15/04/2023 23:25</t>
+          <t>15/04/2023 23:27</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>3</v>
+        <v>5.21</v>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>08/04/2023 23:42</t>
+          <t>09/04/2023 08:36</t>
         </is>
       </c>
       <c r="T7" t="n">
-        <v>3.26</v>
+        <v>6.64</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>15/04/2023 23:25</t>
+          <t>15/04/2023 23:28</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/botafogo-rj-sao-paulo/vFRENgWQ/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/athletico-pr-goias/Sv02EkgD/</t>
         </is>
       </c>
     </row>
@@ -1585,22 +1585,22 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Cuiaba</t>
+          <t>Sao Paulo</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Bragantino</t>
+          <t>America MG</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>2.32</v>
+        <v>1.66</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
@@ -1608,15 +1608,15 @@
         </is>
       </c>
       <c r="L13" t="n">
-        <v>2.65</v>
+        <v>1.94</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>22/04/2023 22:56</t>
+          <t>22/04/2023 23:18</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>3.25</v>
+        <v>3.92</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1624,15 +1624,15 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>3.11</v>
+        <v>3.42</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>22/04/2023 20:05</t>
+          <t>22/04/2023 23:18</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>3.42</v>
+        <v>5.68</v>
       </c>
       <c r="S13" t="inlineStr">
         <is>
@@ -1640,16 +1640,16 @@
         </is>
       </c>
       <c r="T13" t="n">
-        <v>3.04</v>
+        <v>4.51</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>22/04/2023 22:54</t>
+          <t>22/04/2023 23:18</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/cuiaba-bragantino/xO6mYqpn/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/sao-paulo-america-mg/WWQII4pa/</t>
         </is>
       </c>
     </row>
@@ -1677,22 +1677,22 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Sao Paulo</t>
+          <t>Cuiaba</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>America MG</t>
+          <t>Bragantino</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" t="n">
-        <v>1.66</v>
+        <v>2.32</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
@@ -1700,15 +1700,15 @@
         </is>
       </c>
       <c r="L14" t="n">
-        <v>1.94</v>
+        <v>2.65</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>22/04/2023 23:18</t>
+          <t>22/04/2023 22:56</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>3.92</v>
+        <v>3.25</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1716,32 +1716,32 @@
         </is>
       </c>
       <c r="P14" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>22/04/2023 20:05</t>
+        </is>
+      </c>
+      <c r="R14" t="n">
         <v>3.42</v>
       </c>
-      <c r="Q14" t="inlineStr">
-        <is>
-          <t>22/04/2023 23:18</t>
-        </is>
-      </c>
-      <c r="R14" t="n">
-        <v>5.68</v>
-      </c>
       <c r="S14" t="inlineStr">
         <is>
           <t>17/04/2023 18:42</t>
         </is>
       </c>
       <c r="T14" t="n">
-        <v>4.51</v>
+        <v>3.04</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>22/04/2023 23:18</t>
+          <t>22/04/2023 22:54</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/sao-paulo-america-mg/WWQII4pa/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/cuiaba-bragantino/xO6mYqpn/</t>
         </is>
       </c>
     </row>
@@ -1953,22 +1953,22 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Vasco</t>
+          <t>Santos</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Palmeiras</t>
+          <t>Atletico-MG</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>3.35</v>
+        <v>3.42</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -1976,15 +1976,15 @@
         </is>
       </c>
       <c r="L17" t="n">
-        <v>3.28</v>
+        <v>3.42</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>23/04/2023 20:56</t>
+          <t>23/04/2023 20:32</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>3.39</v>
+        <v>3.27</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1992,15 +1992,15 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>3.19</v>
+        <v>3.13</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>23/04/2023 20:51</t>
+          <t>23/04/2023 20:26</t>
         </is>
       </c>
       <c r="R17" t="n">
-        <v>2.28</v>
+        <v>2.31</v>
       </c>
       <c r="S17" t="inlineStr">
         <is>
@@ -2008,16 +2008,16 @@
         </is>
       </c>
       <c r="T17" t="n">
-        <v>2.44</v>
+        <v>2.41</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>23/04/2023 20:53</t>
+          <t>23/04/2023 20:26</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/vasco-palmeiras/xAREJpVh/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/santos-atletico-mg/pzVMHOa5/</t>
         </is>
       </c>
     </row>
@@ -2045,22 +2045,22 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Santos</t>
+          <t>Vasco</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Atletico-MG</t>
+          <t>Palmeiras</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J18" t="n">
-        <v>3.42</v>
+        <v>3.35</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -2068,15 +2068,15 @@
         </is>
       </c>
       <c r="L18" t="n">
-        <v>3.42</v>
+        <v>3.28</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>23/04/2023 20:32</t>
+          <t>23/04/2023 20:56</t>
         </is>
       </c>
       <c r="N18" t="n">
-        <v>3.27</v>
+        <v>3.39</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -2084,15 +2084,15 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>3.13</v>
+        <v>3.19</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>23/04/2023 20:26</t>
+          <t>23/04/2023 20:51</t>
         </is>
       </c>
       <c r="R18" t="n">
-        <v>2.31</v>
+        <v>2.28</v>
       </c>
       <c r="S18" t="inlineStr">
         <is>
@@ -2100,16 +2100,16 @@
         </is>
       </c>
       <c r="T18" t="n">
-        <v>2.41</v>
+        <v>2.44</v>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>23/04/2023 20:26</t>
+          <t>23/04/2023 20:53</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/santos-atletico-mg/pzVMHOa5/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/vasco-palmeiras/xAREJpVh/</t>
         </is>
       </c>
     </row>
@@ -2413,71 +2413,71 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Coritiba</t>
+          <t>Fortaleza</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Sao Paulo</t>
+          <t>Fluminense</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J22" t="n">
-        <v>3.08</v>
+        <v>2.69</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>23/04/2023 23:42</t>
+          <t>24/04/2023 05:12</t>
         </is>
       </c>
       <c r="L22" t="n">
-        <v>3.03</v>
+        <v>2.16</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>29/04/2023 21:23</t>
+          <t>29/04/2023 21:29</t>
         </is>
       </c>
       <c r="N22" t="n">
-        <v>3.36</v>
+        <v>3.27</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>23/04/2023 23:42</t>
+          <t>24/04/2023 05:12</t>
         </is>
       </c>
       <c r="P22" t="n">
-        <v>3.18</v>
+        <v>3.34</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>29/04/2023 21:16</t>
+          <t>29/04/2023 21:29</t>
         </is>
       </c>
       <c r="R22" t="n">
-        <v>2.4</v>
+        <v>2.77</v>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>23/04/2023 23:42</t>
+          <t>24/04/2023 05:12</t>
         </is>
       </c>
       <c r="T22" t="n">
-        <v>2.61</v>
+        <v>3.76</v>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>29/04/2023 21:23</t>
+          <t>29/04/2023 21:29</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/coritiba-sao-paulo/b1wqNJyo/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/fortaleza-fluminense/Q7RQo3Eo/</t>
         </is>
       </c>
     </row>
@@ -2505,71 +2505,71 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Fortaleza</t>
+          <t>Coritiba</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Fluminense</t>
+          <t>Sao Paulo</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J23" t="n">
-        <v>2.69</v>
+        <v>3.08</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>24/04/2023 05:12</t>
+          <t>23/04/2023 23:42</t>
         </is>
       </c>
       <c r="L23" t="n">
-        <v>2.16</v>
+        <v>3.03</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>29/04/2023 21:29</t>
+          <t>29/04/2023 21:23</t>
         </is>
       </c>
       <c r="N23" t="n">
-        <v>3.27</v>
+        <v>3.36</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>24/04/2023 05:12</t>
+          <t>23/04/2023 23:42</t>
         </is>
       </c>
       <c r="P23" t="n">
-        <v>3.34</v>
+        <v>3.18</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>29/04/2023 21:29</t>
+          <t>29/04/2023 21:16</t>
         </is>
       </c>
       <c r="R23" t="n">
-        <v>2.77</v>
+        <v>2.4</v>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>24/04/2023 05:12</t>
+          <t>23/04/2023 23:42</t>
         </is>
       </c>
       <c r="T23" t="n">
-        <v>3.76</v>
+        <v>2.61</v>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>29/04/2023 21:29</t>
+          <t>29/04/2023 21:23</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/fortaleza-fluminense/Q7RQo3Eo/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/coritiba-sao-paulo/b1wqNJyo/</t>
         </is>
       </c>
     </row>
@@ -2689,71 +2689,71 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Bragantino</t>
+          <t>Palmeiras</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Cruzeiro</t>
+          <t>Corinthians</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J25" t="n">
-        <v>1.75</v>
+        <v>1.68</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>23/04/2023 05:13</t>
+          <t>24/04/2023 00:12</t>
         </is>
       </c>
       <c r="L25" t="n">
-        <v>1.82</v>
+        <v>1.5</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>29/04/2023 23:29</t>
+          <t>29/04/2023 23:06</t>
         </is>
       </c>
       <c r="N25" t="n">
-        <v>3.77</v>
+        <v>3.88</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>23/04/2023 05:13</t>
+          <t>24/04/2023 00:12</t>
         </is>
       </c>
       <c r="P25" t="n">
-        <v>3.67</v>
+        <v>4.07</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>29/04/2023 23:29</t>
+          <t>29/04/2023 22:36</t>
         </is>
       </c>
       <c r="R25" t="n">
-        <v>5.06</v>
+        <v>5.49</v>
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>23/04/2023 05:13</t>
+          <t>24/04/2023 00:12</t>
         </is>
       </c>
       <c r="T25" t="n">
-        <v>4.81</v>
+        <v>8.26</v>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>29/04/2023 23:29</t>
+          <t>29/04/2023 23:06</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/bragantino-cruzeiro/0Qc8TLbH/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/palmeiras-corinthians/SCa0VsU4/</t>
         </is>
       </c>
     </row>
@@ -2781,71 +2781,71 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Palmeiras</t>
+          <t>Bragantino</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Corinthians</t>
+          <t>Cruzeiro</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J26" t="n">
-        <v>1.68</v>
+        <v>1.75</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>24/04/2023 00:12</t>
+          <t>23/04/2023 05:13</t>
         </is>
       </c>
       <c r="L26" t="n">
-        <v>1.5</v>
+        <v>1.82</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>29/04/2023 23:06</t>
+          <t>29/04/2023 23:29</t>
         </is>
       </c>
       <c r="N26" t="n">
-        <v>3.88</v>
+        <v>3.77</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>24/04/2023 00:12</t>
+          <t>23/04/2023 05:13</t>
         </is>
       </c>
       <c r="P26" t="n">
-        <v>4.07</v>
+        <v>3.67</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>29/04/2023 22:36</t>
+          <t>29/04/2023 23:29</t>
         </is>
       </c>
       <c r="R26" t="n">
-        <v>5.49</v>
+        <v>5.06</v>
       </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t>24/04/2023 00:12</t>
+          <t>23/04/2023 05:13</t>
         </is>
       </c>
       <c r="T26" t="n">
-        <v>8.26</v>
+        <v>4.81</v>
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>29/04/2023 23:06</t>
+          <t>29/04/2023 23:29</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/palmeiras-corinthians/SCa0VsU4/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/bragantino-cruzeiro/0Qc8TLbH/</t>
         </is>
       </c>
     </row>
@@ -3609,71 +3609,71 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Bahia</t>
+          <t>Athletico-PR</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Coritiba</t>
+          <t>Flamengo RJ</t>
         </is>
       </c>
       <c r="I35" t="n">
         <v>1</v>
       </c>
       <c r="J35" t="n">
-        <v>1.77</v>
+        <v>3.45</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>02/05/2023 01:11</t>
+          <t>01/05/2023 02:12</t>
         </is>
       </c>
       <c r="L35" t="n">
-        <v>1.74</v>
+        <v>3.01</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>07/05/2023 20:50</t>
+          <t>07/05/2023 20:57</t>
         </is>
       </c>
       <c r="N35" t="n">
-        <v>3.72</v>
+        <v>3.43</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>02/05/2023 01:11</t>
+          <t>01/05/2023 02:12</t>
         </is>
       </c>
       <c r="P35" t="n">
-        <v>3.76</v>
+        <v>3.22</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>07/05/2023 20:59</t>
+          <t>07/05/2023 20:56</t>
         </is>
       </c>
       <c r="R35" t="n">
-        <v>4.97</v>
+        <v>2.22</v>
       </c>
       <c r="S35" t="inlineStr">
         <is>
-          <t>02/05/2023 01:11</t>
+          <t>01/05/2023 02:12</t>
         </is>
       </c>
       <c r="T35" t="n">
-        <v>5.35</v>
+        <v>2.61</v>
       </c>
       <c r="U35" t="inlineStr">
         <is>
-          <t>07/05/2023 20:50</t>
+          <t>07/05/2023 20:57</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/bahia-coritiba/0Qu9btbi/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/athletico-pr-flamengo-rj/bL1QZdLj/</t>
         </is>
       </c>
     </row>
@@ -3701,7 +3701,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Athletico-PR</t>
+          <t>Sao Paulo</t>
         </is>
       </c>
       <c r="G36" t="n">
@@ -3709,63 +3709,63 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Flamengo RJ</t>
+          <t>Internacional</t>
         </is>
       </c>
       <c r="I36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>3.45</v>
+        <v>1.87</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>01/05/2023 02:12</t>
+          <t>01/05/2023 04:41</t>
         </is>
       </c>
       <c r="L36" t="n">
-        <v>3.01</v>
+        <v>2.05</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>07/05/2023 20:57</t>
+          <t>07/05/2023 20:59</t>
         </is>
       </c>
       <c r="N36" t="n">
-        <v>3.43</v>
+        <v>3.79</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>01/05/2023 02:12</t>
+          <t>01/05/2023 04:41</t>
         </is>
       </c>
       <c r="P36" t="n">
-        <v>3.22</v>
+        <v>3.47</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>07/05/2023 20:56</t>
+          <t>07/05/2023 20:59</t>
         </is>
       </c>
       <c r="R36" t="n">
-        <v>2.22</v>
+        <v>4.1</v>
       </c>
       <c r="S36" t="inlineStr">
         <is>
-          <t>01/05/2023 02:12</t>
+          <t>01/05/2023 04:41</t>
         </is>
       </c>
       <c r="T36" t="n">
-        <v>2.61</v>
+        <v>3.95</v>
       </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>07/05/2023 20:57</t>
+          <t>07/05/2023 20:59</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/athletico-pr-flamengo-rj/bL1QZdLj/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/sao-paulo-internacional/fmJsrLDA/</t>
         </is>
       </c>
     </row>
@@ -3793,71 +3793,71 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Sao Paulo</t>
+          <t>Bahia</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Internacional</t>
+          <t>Coritiba</t>
         </is>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J37" t="n">
-        <v>1.87</v>
+        <v>1.77</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>01/05/2023 04:41</t>
+          <t>02/05/2023 01:11</t>
         </is>
       </c>
       <c r="L37" t="n">
-        <v>2.05</v>
+        <v>1.74</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
+          <t>07/05/2023 20:50</t>
+        </is>
+      </c>
+      <c r="N37" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>02/05/2023 01:11</t>
+        </is>
+      </c>
+      <c r="P37" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="Q37" t="inlineStr">
+        <is>
           <t>07/05/2023 20:59</t>
         </is>
       </c>
-      <c r="N37" t="n">
-        <v>3.79</v>
-      </c>
-      <c r="O37" t="inlineStr">
-        <is>
-          <t>01/05/2023 04:41</t>
-        </is>
-      </c>
-      <c r="P37" t="n">
-        <v>3.47</v>
-      </c>
-      <c r="Q37" t="inlineStr">
-        <is>
-          <t>07/05/2023 20:59</t>
-        </is>
-      </c>
       <c r="R37" t="n">
-        <v>4.1</v>
+        <v>4.97</v>
       </c>
       <c r="S37" t="inlineStr">
         <is>
-          <t>01/05/2023 04:41</t>
+          <t>02/05/2023 01:11</t>
         </is>
       </c>
       <c r="T37" t="n">
-        <v>3.95</v>
+        <v>5.35</v>
       </c>
       <c r="U37" t="inlineStr">
         <is>
-          <t>07/05/2023 20:59</t>
+          <t>07/05/2023 20:50</t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/sao-paulo-internacional/fmJsrLDA/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/bahia-coritiba/0Qu9btbi/</t>
         </is>
       </c>
     </row>
@@ -3977,22 +3977,22 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Gremio</t>
+          <t>Goias</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Bragantino</t>
+          <t>Palmeiras</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J39" t="n">
-        <v>1.88</v>
+        <v>4.55</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -4000,15 +4000,15 @@
         </is>
       </c>
       <c r="L39" t="n">
-        <v>1.91</v>
+        <v>5.53</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>07/05/2023 23:27</t>
+          <t>07/05/2023 23:20</t>
         </is>
       </c>
       <c r="N39" t="n">
-        <v>3.71</v>
+        <v>3.7</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
@@ -4016,15 +4016,15 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>3.6</v>
+        <v>3.99</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>07/05/2023 23:23</t>
+          <t>07/05/2023 23:20</t>
         </is>
       </c>
       <c r="R39" t="n">
-        <v>4.19</v>
+        <v>1.81</v>
       </c>
       <c r="S39" t="inlineStr">
         <is>
@@ -4032,16 +4032,16 @@
         </is>
       </c>
       <c r="T39" t="n">
-        <v>4.41</v>
+        <v>1.67</v>
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>07/05/2023 23:27</t>
+          <t>07/05/2023 23:20</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/gremio-bragantino/nobMzw6p/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/goias-palmeiras/jFCjtarN/</t>
         </is>
       </c>
     </row>
@@ -4069,22 +4069,22 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Goias</t>
+          <t>Gremio</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Palmeiras</t>
+          <t>Bragantino</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J40" t="n">
-        <v>4.55</v>
+        <v>1.88</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -4092,15 +4092,15 @@
         </is>
       </c>
       <c r="L40" t="n">
-        <v>5.53</v>
+        <v>1.91</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>07/05/2023 23:20</t>
+          <t>07/05/2023 23:27</t>
         </is>
       </c>
       <c r="N40" t="n">
-        <v>3.7</v>
+        <v>3.71</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
@@ -4108,15 +4108,15 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>3.99</v>
+        <v>3.6</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>07/05/2023 23:20</t>
+          <t>07/05/2023 23:23</t>
         </is>
       </c>
       <c r="R40" t="n">
-        <v>1.81</v>
+        <v>4.19</v>
       </c>
       <c r="S40" t="inlineStr">
         <is>
@@ -4124,16 +4124,16 @@
         </is>
       </c>
       <c r="T40" t="n">
-        <v>1.67</v>
+        <v>4.41</v>
       </c>
       <c r="U40" t="inlineStr">
         <is>
-          <t>07/05/2023 23:20</t>
+          <t>07/05/2023 23:27</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/goias-palmeiras/jFCjtarN/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/gremio-bragantino/nobMzw6p/</t>
         </is>
       </c>
     </row>
@@ -5265,71 +5265,71 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Palmeiras</t>
+          <t>Fluminense</t>
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Bragantino</t>
+          <t>Cuiaba</t>
         </is>
       </c>
       <c r="I53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J53" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>11/05/2023 16:12</t>
+          <t>11/05/2023 02:42</t>
         </is>
       </c>
       <c r="L53" t="n">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>13/05/2023 23:23</t>
+          <t>13/05/2023 23:27</t>
         </is>
       </c>
       <c r="N53" t="n">
-        <v>4.95</v>
+        <v>5.05</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>11/05/2023 16:12</t>
+          <t>11/05/2023 02:42</t>
         </is>
       </c>
       <c r="P53" t="n">
-        <v>4.2</v>
+        <v>4.76</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>13/05/2023 23:23</t>
+          <t>13/05/2023 23:27</t>
         </is>
       </c>
       <c r="R53" t="n">
-        <v>8.949999999999999</v>
+        <v>8.529999999999999</v>
       </c>
       <c r="S53" t="inlineStr">
         <is>
-          <t>11/05/2023 16:12</t>
+          <t>11/05/2023 02:42</t>
         </is>
       </c>
       <c r="T53" t="n">
-        <v>5.91</v>
+        <v>8.029999999999999</v>
       </c>
       <c r="U53" t="inlineStr">
         <is>
-          <t>13/05/2023 23:23</t>
+          <t>13/05/2023 23:27</t>
         </is>
       </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/palmeiras-bragantino/0M1Ojkdr/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/fluminense-cuiaba/fNZj9cC9/</t>
         </is>
       </c>
     </row>
@@ -5357,71 +5357,71 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Fluminense</t>
+          <t>Palmeiras</t>
         </is>
       </c>
       <c r="G54" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Cuiaba</t>
+          <t>Bragantino</t>
         </is>
       </c>
       <c r="I54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J54" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>11/05/2023 02:42</t>
+          <t>11/05/2023 16:12</t>
         </is>
       </c>
       <c r="L54" t="n">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>13/05/2023 23:27</t>
+          <t>13/05/2023 23:23</t>
         </is>
       </c>
       <c r="N54" t="n">
-        <v>5.05</v>
+        <v>4.95</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>11/05/2023 02:42</t>
+          <t>11/05/2023 16:12</t>
         </is>
       </c>
       <c r="P54" t="n">
-        <v>4.76</v>
+        <v>4.2</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>13/05/2023 23:27</t>
+          <t>13/05/2023 23:23</t>
         </is>
       </c>
       <c r="R54" t="n">
-        <v>8.529999999999999</v>
+        <v>8.949999999999999</v>
       </c>
       <c r="S54" t="inlineStr">
         <is>
-          <t>11/05/2023 02:42</t>
+          <t>11/05/2023 16:12</t>
         </is>
       </c>
       <c r="T54" t="n">
-        <v>8.029999999999999</v>
+        <v>5.91</v>
       </c>
       <c r="U54" t="inlineStr">
         <is>
-          <t>13/05/2023 23:27</t>
+          <t>13/05/2023 23:23</t>
         </is>
       </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/fluminense-cuiaba/fNZj9cC9/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/palmeiras-bragantino/0M1Ojkdr/</t>
         </is>
       </c>
     </row>
@@ -5541,7 +5541,7 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Gremio</t>
+          <t>Vasco</t>
         </is>
       </c>
       <c r="G56" t="n">
@@ -5549,63 +5549,63 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Fortaleza</t>
+          <t>Santos</t>
         </is>
       </c>
       <c r="I56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J56" t="n">
-        <v>2.26</v>
+        <v>1.74</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>12/05/2023 01:12</t>
+          <t>12/05/2023 00:12</t>
         </is>
       </c>
       <c r="L56" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>14/05/2023 20:59</t>
+          <t>14/05/2023 20:50</t>
         </is>
       </c>
       <c r="N56" t="n">
-        <v>3.44</v>
+        <v>3.77</v>
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>12/05/2023 01:12</t>
+          <t>12/05/2023 00:12</t>
         </is>
       </c>
       <c r="P56" t="n">
-        <v>3.64</v>
+        <v>3.33</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>14/05/2023 20:59</t>
+          <t>14/05/2023 20:58</t>
         </is>
       </c>
       <c r="R56" t="n">
-        <v>3.27</v>
+        <v>4.95</v>
       </c>
       <c r="S56" t="inlineStr">
         <is>
-          <t>12/05/2023 01:12</t>
+          <t>12/05/2023 00:12</t>
         </is>
       </c>
       <c r="T56" t="n">
-        <v>4.38</v>
+        <v>4.73</v>
       </c>
       <c r="U56" t="inlineStr">
         <is>
-          <t>14/05/2023 20:59</t>
+          <t>14/05/2023 20:58</t>
         </is>
       </c>
       <c r="V56" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/gremio-fortaleza/SYhum7e7/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/vasco-santos/YDYf8HRF/</t>
         </is>
       </c>
     </row>
@@ -5633,22 +5633,22 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Corinthians</t>
+          <t>Gremio</t>
         </is>
       </c>
       <c r="G57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Sao Paulo</t>
+          <t>Fortaleza</t>
         </is>
       </c>
       <c r="I57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J57" t="n">
-        <v>2.42</v>
+        <v>2.26</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
@@ -5656,15 +5656,15 @@
         </is>
       </c>
       <c r="L57" t="n">
-        <v>2.57</v>
+        <v>1.9</v>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>14/05/2023 20:57</t>
+          <t>14/05/2023 20:59</t>
         </is>
       </c>
       <c r="N57" t="n">
-        <v>3.24</v>
+        <v>3.44</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
@@ -5672,15 +5672,15 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>3.02</v>
+        <v>3.64</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>14/05/2023 20:57</t>
+          <t>14/05/2023 20:59</t>
         </is>
       </c>
       <c r="R57" t="n">
-        <v>3.23</v>
+        <v>3.27</v>
       </c>
       <c r="S57" t="inlineStr">
         <is>
@@ -5688,16 +5688,16 @@
         </is>
       </c>
       <c r="T57" t="n">
-        <v>3.25</v>
+        <v>4.38</v>
       </c>
       <c r="U57" t="inlineStr">
         <is>
-          <t>14/05/2023 20:57</t>
+          <t>14/05/2023 20:59</t>
         </is>
       </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/corinthians-sao-paulo/vD0Sk9Bl/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/gremio-fortaleza/SYhum7e7/</t>
         </is>
       </c>
     </row>
@@ -5725,71 +5725,71 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Vasco</t>
+          <t>Corinthians</t>
         </is>
       </c>
       <c r="G58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Santos</t>
+          <t>Sao Paulo</t>
         </is>
       </c>
       <c r="I58" t="n">
         <v>1</v>
       </c>
       <c r="J58" t="n">
-        <v>1.74</v>
+        <v>2.42</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>12/05/2023 00:12</t>
+          <t>12/05/2023 01:12</t>
         </is>
       </c>
       <c r="L58" t="n">
-        <v>1.93</v>
+        <v>2.57</v>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>14/05/2023 20:50</t>
+          <t>14/05/2023 20:57</t>
         </is>
       </c>
       <c r="N58" t="n">
-        <v>3.77</v>
+        <v>3.24</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>12/05/2023 00:12</t>
+          <t>12/05/2023 01:12</t>
         </is>
       </c>
       <c r="P58" t="n">
-        <v>3.33</v>
+        <v>3.02</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>14/05/2023 20:58</t>
+          <t>14/05/2023 20:57</t>
         </is>
       </c>
       <c r="R58" t="n">
-        <v>4.95</v>
+        <v>3.23</v>
       </c>
       <c r="S58" t="inlineStr">
         <is>
-          <t>12/05/2023 00:12</t>
+          <t>12/05/2023 01:12</t>
         </is>
       </c>
       <c r="T58" t="n">
-        <v>4.73</v>
+        <v>3.25</v>
       </c>
       <c r="U58" t="inlineStr">
         <is>
-          <t>14/05/2023 20:58</t>
+          <t>14/05/2023 20:57</t>
         </is>
       </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/vasco-santos/YDYf8HRF/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/corinthians-sao-paulo/vD0Sk9Bl/</t>
         </is>
       </c>
     </row>
@@ -5909,71 +5909,71 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Athletico-PR</t>
+          <t>America MG</t>
         </is>
       </c>
       <c r="G60" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Coritiba</t>
+          <t>Cruzeiro</t>
         </is>
       </c>
       <c r="I60" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J60" t="n">
-        <v>1.68</v>
+        <v>2.16</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>12/05/2023 00:12</t>
+          <t>11/05/2023 02:42</t>
         </is>
       </c>
       <c r="L60" t="n">
-        <v>1.63</v>
+        <v>2.56</v>
       </c>
       <c r="M60" t="inlineStr">
         <is>
+          <t>14/05/2023 23:27</t>
+        </is>
+      </c>
+      <c r="N60" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>11/05/2023 02:42</t>
+        </is>
+      </c>
+      <c r="P60" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="Q60" t="inlineStr">
+        <is>
           <t>14/05/2023 23:29</t>
         </is>
       </c>
-      <c r="N60" t="n">
-        <v>3.98</v>
-      </c>
-      <c r="O60" t="inlineStr">
-        <is>
-          <t>12/05/2023 00:12</t>
-        </is>
-      </c>
-      <c r="P60" t="n">
-        <v>3.83</v>
-      </c>
-      <c r="Q60" t="inlineStr">
-        <is>
-          <t>14/05/2023 23:29</t>
-        </is>
-      </c>
       <c r="R60" t="n">
-        <v>5.07</v>
+        <v>3.44</v>
       </c>
       <c r="S60" t="inlineStr">
         <is>
-          <t>12/05/2023 00:12</t>
+          <t>11/05/2023 02:42</t>
         </is>
       </c>
       <c r="T60" t="n">
-        <v>6.41</v>
+        <v>2.87</v>
       </c>
       <c r="U60" t="inlineStr">
         <is>
-          <t>14/05/2023 23:29</t>
+          <t>14/05/2023 23:27</t>
         </is>
       </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/athletico-pr-coritiba/6PiqnRAD/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/america-mg-cruzeiro/MXZV9U2K/</t>
         </is>
       </c>
     </row>
@@ -6001,46 +6001,46 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>America MG</t>
+          <t>Athletico-PR</t>
         </is>
       </c>
       <c r="G61" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Cruzeiro</t>
+          <t>Coritiba</t>
         </is>
       </c>
       <c r="I61" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J61" t="n">
-        <v>2.16</v>
+        <v>1.68</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>11/05/2023 02:42</t>
+          <t>12/05/2023 00:12</t>
         </is>
       </c>
       <c r="L61" t="n">
-        <v>2.56</v>
+        <v>1.63</v>
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>14/05/2023 23:27</t>
+          <t>14/05/2023 23:29</t>
         </is>
       </c>
       <c r="N61" t="n">
-        <v>3.59</v>
+        <v>3.98</v>
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>11/05/2023 02:42</t>
+          <t>12/05/2023 00:12</t>
         </is>
       </c>
       <c r="P61" t="n">
-        <v>3.47</v>
+        <v>3.83</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
@@ -6048,24 +6048,24 @@
         </is>
       </c>
       <c r="R61" t="n">
-        <v>3.44</v>
+        <v>5.07</v>
       </c>
       <c r="S61" t="inlineStr">
         <is>
-          <t>11/05/2023 02:42</t>
+          <t>12/05/2023 00:12</t>
         </is>
       </c>
       <c r="T61" t="n">
-        <v>2.87</v>
+        <v>6.41</v>
       </c>
       <c r="U61" t="inlineStr">
         <is>
-          <t>14/05/2023 23:27</t>
+          <t>14/05/2023 23:29</t>
         </is>
       </c>
       <c r="V61" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/america-mg-cruzeiro/MXZV9U2K/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/athletico-pr-coritiba/6PiqnRAD/</t>
         </is>
       </c>
     </row>
@@ -6277,71 +6277,71 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Bragantino</t>
+          <t>Coritiba</t>
         </is>
       </c>
       <c r="G64" t="n">
+        <v>1</v>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>Atletico-MG</t>
+        </is>
+      </c>
+      <c r="I64" t="n">
         <v>2</v>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>Athletico-PR</t>
-        </is>
-      </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
       <c r="J64" t="n">
-        <v>2.05</v>
+        <v>4.39</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>14/05/2023 23:42</t>
+          <t>15/05/2023 04:42</t>
         </is>
       </c>
       <c r="L64" t="n">
-        <v>1.85</v>
+        <v>4.83</v>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>20/05/2023 23:06</t>
+          <t>20/05/2023 23:29</t>
         </is>
       </c>
       <c r="N64" t="n">
-        <v>3.43</v>
+        <v>3.46</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>14/05/2023 23:42</t>
+          <t>15/05/2023 04:42</t>
         </is>
       </c>
       <c r="P64" t="n">
-        <v>3.64</v>
+        <v>3.45</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>20/05/2023 23:28</t>
+          <t>20/05/2023 23:29</t>
         </is>
       </c>
       <c r="R64" t="n">
-        <v>3.83</v>
+        <v>1.91</v>
       </c>
       <c r="S64" t="inlineStr">
         <is>
-          <t>14/05/2023 23:42</t>
+          <t>15/05/2023 04:42</t>
         </is>
       </c>
       <c r="T64" t="n">
-        <v>4.63</v>
+        <v>1.88</v>
       </c>
       <c r="U64" t="inlineStr">
         <is>
-          <t>20/05/2023 23:28</t>
+          <t>20/05/2023 23:29</t>
         </is>
       </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/bragantino-athletico-pr/MeEE16A0/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/coritiba-atletico-mg/dE6Rb4fJ/</t>
         </is>
       </c>
     </row>
@@ -6369,22 +6369,22 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Botafogo RJ</t>
+          <t>Bragantino</t>
         </is>
       </c>
       <c r="G65" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Fluminense</t>
+          <t>Athletico-PR</t>
         </is>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
       <c r="J65" t="n">
-        <v>2.78</v>
+        <v>2.05</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
@@ -6392,15 +6392,15 @@
         </is>
       </c>
       <c r="L65" t="n">
-        <v>2.77</v>
+        <v>1.85</v>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>20/05/2023 23:29</t>
+          <t>20/05/2023 23:06</t>
         </is>
       </c>
       <c r="N65" t="n">
-        <v>3.31</v>
+        <v>3.43</v>
       </c>
       <c r="O65" t="inlineStr">
         <is>
@@ -6408,15 +6408,15 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>3.32</v>
+        <v>3.64</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>20/05/2023 23:29</t>
+          <t>20/05/2023 23:28</t>
         </is>
       </c>
       <c r="R65" t="n">
-        <v>2.72</v>
+        <v>3.83</v>
       </c>
       <c r="S65" t="inlineStr">
         <is>
@@ -6424,16 +6424,16 @@
         </is>
       </c>
       <c r="T65" t="n">
-        <v>2.74</v>
+        <v>4.63</v>
       </c>
       <c r="U65" t="inlineStr">
         <is>
-          <t>20/05/2023 22:51</t>
+          <t>20/05/2023 23:28</t>
         </is>
       </c>
       <c r="V65" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/botafogo-rj-fluminense/hGQ148Qs/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/bragantino-athletico-pr/MeEE16A0/</t>
         </is>
       </c>
     </row>
@@ -6461,30 +6461,30 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>America MG</t>
+          <t>Botafogo RJ</t>
         </is>
       </c>
       <c r="G66" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Fortaleza</t>
+          <t>Fluminense</t>
         </is>
       </c>
       <c r="I66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J66" t="n">
-        <v>2.63</v>
+        <v>2.78</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>15/05/2023 09:42</t>
+          <t>14/05/2023 23:42</t>
         </is>
       </c>
       <c r="L66" t="n">
-        <v>3.05</v>
+        <v>2.77</v>
       </c>
       <c r="M66" t="inlineStr">
         <is>
@@ -6492,40 +6492,40 @@
         </is>
       </c>
       <c r="N66" t="n">
-        <v>3.48</v>
+        <v>3.31</v>
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>15/05/2023 09:42</t>
+          <t>14/05/2023 23:42</t>
         </is>
       </c>
       <c r="P66" t="n">
-        <v>3.39</v>
+        <v>3.32</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>20/05/2023 23:26</t>
+          <t>20/05/2023 23:29</t>
         </is>
       </c>
       <c r="R66" t="n">
-        <v>2.69</v>
+        <v>2.72</v>
       </c>
       <c r="S66" t="inlineStr">
         <is>
-          <t>15/05/2023 09:42</t>
+          <t>14/05/2023 23:42</t>
         </is>
       </c>
       <c r="T66" t="n">
-        <v>2.47</v>
+        <v>2.74</v>
       </c>
       <c r="U66" t="inlineStr">
         <is>
-          <t>20/05/2023 23:29</t>
+          <t>20/05/2023 22:51</t>
         </is>
       </c>
       <c r="V66" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/america-mg-fortaleza/l8gDM7nQ/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/botafogo-rj-fluminense/hGQ148Qs/</t>
         </is>
       </c>
     </row>
@@ -6553,30 +6553,30 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Coritiba</t>
+          <t>America MG</t>
         </is>
       </c>
       <c r="G67" t="n">
+        <v>2</v>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>Fortaleza</t>
+        </is>
+      </c>
+      <c r="I67" t="n">
         <v>1</v>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>Atletico-MG</t>
-        </is>
-      </c>
-      <c r="I67" t="n">
-        <v>2</v>
-      </c>
       <c r="J67" t="n">
-        <v>4.39</v>
+        <v>2.63</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>15/05/2023 04:42</t>
+          <t>15/05/2023 09:42</t>
         </is>
       </c>
       <c r="L67" t="n">
-        <v>4.83</v>
+        <v>3.05</v>
       </c>
       <c r="M67" t="inlineStr">
         <is>
@@ -6584,40 +6584,40 @@
         </is>
       </c>
       <c r="N67" t="n">
-        <v>3.46</v>
+        <v>3.48</v>
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>15/05/2023 04:42</t>
+          <t>15/05/2023 09:42</t>
         </is>
       </c>
       <c r="P67" t="n">
-        <v>3.45</v>
+        <v>3.39</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
+          <t>20/05/2023 23:26</t>
+        </is>
+      </c>
+      <c r="R67" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="S67" t="inlineStr">
+        <is>
+          <t>15/05/2023 09:42</t>
+        </is>
+      </c>
+      <c r="T67" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="U67" t="inlineStr">
+        <is>
           <t>20/05/2023 23:29</t>
         </is>
       </c>
-      <c r="R67" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="S67" t="inlineStr">
-        <is>
-          <t>15/05/2023 04:42</t>
-        </is>
-      </c>
-      <c r="T67" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="U67" t="inlineStr">
-        <is>
-          <t>20/05/2023 23:29</t>
-        </is>
-      </c>
       <c r="V67" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/coritiba-atletico-mg/dE6Rb4fJ/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/america-mg-fortaleza/l8gDM7nQ/</t>
         </is>
       </c>
     </row>
@@ -7657,71 +7657,71 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Bragantino</t>
+          <t>Atletico-MG</t>
         </is>
       </c>
       <c r="G79" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Santos</t>
+          <t>Palmeiras</t>
         </is>
       </c>
       <c r="I79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J79" t="n">
-        <v>1.75</v>
+        <v>2.19</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>21/05/2023 09:12</t>
+          <t>22/05/2023 03:42</t>
         </is>
       </c>
       <c r="L79" t="n">
-        <v>1.78</v>
+        <v>2.29</v>
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>28/05/2023 23:27</t>
+          <t>28/05/2023 23:29</t>
         </is>
       </c>
       <c r="N79" t="n">
-        <v>3.71</v>
+        <v>3.38</v>
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>21/05/2023 09:12</t>
+          <t>22/05/2023 03:42</t>
         </is>
       </c>
       <c r="P79" t="n">
-        <v>3.52</v>
+        <v>3.3</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>28/05/2023 23:15</t>
+          <t>28/05/2023 23:29</t>
         </is>
       </c>
       <c r="R79" t="n">
-        <v>5.18</v>
+        <v>3.58</v>
       </c>
       <c r="S79" t="inlineStr">
         <is>
-          <t>21/05/2023 09:12</t>
+          <t>22/05/2023 03:42</t>
         </is>
       </c>
       <c r="T79" t="n">
-        <v>5.46</v>
+        <v>3.43</v>
       </c>
       <c r="U79" t="inlineStr">
         <is>
-          <t>28/05/2023 23:27</t>
+          <t>28/05/2023 23:21</t>
         </is>
       </c>
       <c r="V79" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/bragantino-santos/rPsdEqf6/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/atletico-mg-palmeiras/MFt0D39C/</t>
         </is>
       </c>
     </row>
@@ -7749,71 +7749,71 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Atletico-MG</t>
+          <t>Bragantino</t>
         </is>
       </c>
       <c r="G80" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Palmeiras</t>
+          <t>Santos</t>
         </is>
       </c>
       <c r="I80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J80" t="n">
-        <v>2.19</v>
+        <v>1.75</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>22/05/2023 03:42</t>
+          <t>21/05/2023 09:12</t>
         </is>
       </c>
       <c r="L80" t="n">
-        <v>2.29</v>
+        <v>1.78</v>
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>28/05/2023 23:29</t>
+          <t>28/05/2023 23:27</t>
         </is>
       </c>
       <c r="N80" t="n">
-        <v>3.38</v>
+        <v>3.71</v>
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>22/05/2023 03:42</t>
+          <t>21/05/2023 09:12</t>
         </is>
       </c>
       <c r="P80" t="n">
-        <v>3.3</v>
+        <v>3.52</v>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>28/05/2023 23:29</t>
+          <t>28/05/2023 23:15</t>
         </is>
       </c>
       <c r="R80" t="n">
-        <v>3.58</v>
+        <v>5.18</v>
       </c>
       <c r="S80" t="inlineStr">
         <is>
-          <t>22/05/2023 03:42</t>
+          <t>21/05/2023 09:12</t>
         </is>
       </c>
       <c r="T80" t="n">
-        <v>3.43</v>
+        <v>5.46</v>
       </c>
       <c r="U80" t="inlineStr">
         <is>
-          <t>28/05/2023 23:21</t>
+          <t>28/05/2023 23:27</t>
         </is>
       </c>
       <c r="V80" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/atletico-mg-palmeiras/MFt0D39C/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/bragantino-santos/rPsdEqf6/</t>
         </is>
       </c>
     </row>
@@ -10049,7 +10049,7 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Fluminense</t>
+          <t>Bahia</t>
         </is>
       </c>
       <c r="G105" t="n">
@@ -10057,22 +10057,22 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Atletico-MG</t>
+          <t>Palmeiras</t>
         </is>
       </c>
       <c r="I105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J105" t="n">
-        <v>2.06</v>
+        <v>4.31</v>
       </c>
       <c r="K105" t="inlineStr">
         <is>
-          <t>14/06/2023 13:12</t>
+          <t>14/06/2023 10:42</t>
         </is>
       </c>
       <c r="L105" t="n">
-        <v>2.97</v>
+        <v>3.68</v>
       </c>
       <c r="M105" t="inlineStr">
         <is>
@@ -10080,15 +10080,15 @@
         </is>
       </c>
       <c r="N105" t="n">
-        <v>3.47</v>
+        <v>3.63</v>
       </c>
       <c r="O105" t="inlineStr">
         <is>
-          <t>14/06/2023 13:12</t>
+          <t>14/06/2023 10:42</t>
         </is>
       </c>
       <c r="P105" t="n">
-        <v>3.22</v>
+        <v>3.5</v>
       </c>
       <c r="Q105" t="inlineStr">
         <is>
@@ -10096,15 +10096,15 @@
         </is>
       </c>
       <c r="R105" t="n">
-        <v>3.74</v>
+        <v>1.9</v>
       </c>
       <c r="S105" t="inlineStr">
         <is>
-          <t>14/06/2023 13:12</t>
+          <t>14/06/2023 10:42</t>
         </is>
       </c>
       <c r="T105" t="n">
-        <v>2.63</v>
+        <v>2.12</v>
       </c>
       <c r="U105" t="inlineStr">
         <is>
@@ -10113,7 +10113,7 @@
       </c>
       <c r="V105" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/fluminense-atletico-mg/Q3iwRse9/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/bahia-palmeiras/6NCCusA2/</t>
         </is>
       </c>
     </row>
@@ -10141,7 +10141,7 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Bahia</t>
+          <t>Fluminense</t>
         </is>
       </c>
       <c r="G106" t="n">
@@ -10149,22 +10149,22 @@
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Palmeiras</t>
+          <t>Atletico-MG</t>
         </is>
       </c>
       <c r="I106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J106" t="n">
-        <v>4.31</v>
+        <v>2.06</v>
       </c>
       <c r="K106" t="inlineStr">
         <is>
-          <t>14/06/2023 10:42</t>
+          <t>14/06/2023 13:12</t>
         </is>
       </c>
       <c r="L106" t="n">
-        <v>3.68</v>
+        <v>2.97</v>
       </c>
       <c r="M106" t="inlineStr">
         <is>
@@ -10172,15 +10172,15 @@
         </is>
       </c>
       <c r="N106" t="n">
-        <v>3.63</v>
+        <v>3.47</v>
       </c>
       <c r="O106" t="inlineStr">
         <is>
-          <t>14/06/2023 10:42</t>
+          <t>14/06/2023 13:12</t>
         </is>
       </c>
       <c r="P106" t="n">
-        <v>3.5</v>
+        <v>3.22</v>
       </c>
       <c r="Q106" t="inlineStr">
         <is>
@@ -10188,15 +10188,15 @@
         </is>
       </c>
       <c r="R106" t="n">
-        <v>1.9</v>
+        <v>3.74</v>
       </c>
       <c r="S106" t="inlineStr">
         <is>
-          <t>14/06/2023 10:42</t>
+          <t>14/06/2023 13:12</t>
         </is>
       </c>
       <c r="T106" t="n">
-        <v>2.12</v>
+        <v>2.63</v>
       </c>
       <c r="U106" t="inlineStr">
         <is>
@@ -10205,7 +10205,7 @@
       </c>
       <c r="V106" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/bahia-palmeiras/6NCCusA2/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/fluminense-atletico-mg/Q3iwRse9/</t>
         </is>
       </c>
     </row>
@@ -10785,7 +10785,7 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>Fluminense</t>
+          <t>Fortaleza</t>
         </is>
       </c>
       <c r="G113" t="n">
@@ -10793,14 +10793,14 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Bahia</t>
+          <t>Atletico-MG</t>
         </is>
       </c>
       <c r="I113" t="n">
         <v>1</v>
       </c>
       <c r="J113" t="n">
-        <v>1.68</v>
+        <v>2.56</v>
       </c>
       <c r="K113" t="inlineStr">
         <is>
@@ -10808,48 +10808,48 @@
         </is>
       </c>
       <c r="L113" t="n">
-        <v>1.55</v>
+        <v>2.86</v>
       </c>
       <c r="M113" t="inlineStr">
         <is>
+          <t>24/06/2023 23:21</t>
+        </is>
+      </c>
+      <c r="N113" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="O113" t="inlineStr">
+        <is>
+          <t>22/06/2023 02:42</t>
+        </is>
+      </c>
+      <c r="P113" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="Q113" t="inlineStr">
+        <is>
+          <t>24/06/2023 23:28</t>
+        </is>
+      </c>
+      <c r="R113" t="n">
+        <v>3</v>
+      </c>
+      <c r="S113" t="inlineStr">
+        <is>
+          <t>22/06/2023 02:42</t>
+        </is>
+      </c>
+      <c r="T113" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="U113" t="inlineStr">
+        <is>
           <t>24/06/2023 23:25</t>
         </is>
       </c>
-      <c r="N113" t="n">
-        <v>3.93</v>
-      </c>
-      <c r="O113" t="inlineStr">
-        <is>
-          <t>22/06/2023 02:42</t>
-        </is>
-      </c>
-      <c r="P113" t="n">
-        <v>4.18</v>
-      </c>
-      <c r="Q113" t="inlineStr">
-        <is>
-          <t>24/06/2023 23:29</t>
-        </is>
-      </c>
-      <c r="R113" t="n">
-        <v>5.18</v>
-      </c>
-      <c r="S113" t="inlineStr">
-        <is>
-          <t>22/06/2023 02:42</t>
-        </is>
-      </c>
-      <c r="T113" t="n">
-        <v>6.78</v>
-      </c>
-      <c r="U113" t="inlineStr">
-        <is>
-          <t>24/06/2023 23:25</t>
-        </is>
-      </c>
       <c r="V113" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/fluminense-bahia/0M5LwLvF/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/fortaleza-atletico-mg/vThmhKg8/</t>
         </is>
       </c>
     </row>
@@ -10877,7 +10877,7 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>Fortaleza</t>
+          <t>Fluminense</t>
         </is>
       </c>
       <c r="G114" t="n">
@@ -10885,14 +10885,14 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Atletico-MG</t>
+          <t>Bahia</t>
         </is>
       </c>
       <c r="I114" t="n">
         <v>1</v>
       </c>
       <c r="J114" t="n">
-        <v>2.56</v>
+        <v>1.68</v>
       </c>
       <c r="K114" t="inlineStr">
         <is>
@@ -10900,15 +10900,15 @@
         </is>
       </c>
       <c r="L114" t="n">
-        <v>2.86</v>
+        <v>1.55</v>
       </c>
       <c r="M114" t="inlineStr">
         <is>
-          <t>24/06/2023 23:21</t>
+          <t>24/06/2023 23:25</t>
         </is>
       </c>
       <c r="N114" t="n">
-        <v>3.18</v>
+        <v>3.93</v>
       </c>
       <c r="O114" t="inlineStr">
         <is>
@@ -10916,15 +10916,15 @@
         </is>
       </c>
       <c r="P114" t="n">
-        <v>3.12</v>
+        <v>4.18</v>
       </c>
       <c r="Q114" t="inlineStr">
         <is>
-          <t>24/06/2023 23:28</t>
+          <t>24/06/2023 23:29</t>
         </is>
       </c>
       <c r="R114" t="n">
-        <v>3</v>
+        <v>5.18</v>
       </c>
       <c r="S114" t="inlineStr">
         <is>
@@ -10932,7 +10932,7 @@
         </is>
       </c>
       <c r="T114" t="n">
-        <v>2.81</v>
+        <v>6.78</v>
       </c>
       <c r="U114" t="inlineStr">
         <is>
@@ -10941,7 +10941,7 @@
       </c>
       <c r="V114" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/fortaleza-atletico-mg/vThmhKg8/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/fluminense-bahia/0M5LwLvF/</t>
         </is>
       </c>
     </row>
@@ -11705,71 +11705,71 @@
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>Flamengo RJ</t>
+          <t>Bahia</t>
         </is>
       </c>
       <c r="G123" t="n">
+        <v>1</v>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>Gremio</t>
+        </is>
+      </c>
+      <c r="I123" t="n">
         <v>2</v>
       </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>Fortaleza</t>
-        </is>
-      </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
       <c r="J123" t="n">
-        <v>1.64</v>
+        <v>2.13</v>
       </c>
       <c r="K123" t="inlineStr">
         <is>
-          <t>25/06/2023 23:41</t>
+          <t>25/06/2023 21:11</t>
         </is>
       </c>
       <c r="L123" t="n">
-        <v>1.61</v>
+        <v>2.94</v>
       </c>
       <c r="M123" t="inlineStr">
         <is>
-          <t>01/07/2023 23:14</t>
+          <t>01/07/2023 23:27</t>
         </is>
       </c>
       <c r="N123" t="n">
-        <v>4.14</v>
+        <v>3.48</v>
       </c>
       <c r="O123" t="inlineStr">
         <is>
-          <t>25/06/2023 23:41</t>
+          <t>25/06/2023 21:11</t>
         </is>
       </c>
       <c r="P123" t="n">
-        <v>4.11</v>
+        <v>3.28</v>
       </c>
       <c r="Q123" t="inlineStr">
         <is>
-          <t>01/07/2023 23:14</t>
+          <t>01/07/2023 23:27</t>
         </is>
       </c>
       <c r="R123" t="n">
-        <v>5.44</v>
+        <v>3.55</v>
       </c>
       <c r="S123" t="inlineStr">
         <is>
-          <t>25/06/2023 23:41</t>
+          <t>25/06/2023 21:11</t>
         </is>
       </c>
       <c r="T123" t="n">
-        <v>6</v>
+        <v>2.62</v>
       </c>
       <c r="U123" t="inlineStr">
         <is>
-          <t>01/07/2023 23:14</t>
+          <t>01/07/2023 23:27</t>
         </is>
       </c>
       <c r="V123" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/flamengo-rj-fortaleza/CtiejbOK/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/bahia-gremio/CfWT4cwE/</t>
         </is>
       </c>
     </row>
@@ -11797,71 +11797,71 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>Bahia</t>
+          <t>Flamengo RJ</t>
         </is>
       </c>
       <c r="G124" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>Gremio</t>
+          <t>Fortaleza</t>
         </is>
       </c>
       <c r="I124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J124" t="n">
-        <v>2.13</v>
+        <v>1.64</v>
       </c>
       <c r="K124" t="inlineStr">
         <is>
-          <t>25/06/2023 21:11</t>
+          <t>25/06/2023 23:41</t>
         </is>
       </c>
       <c r="L124" t="n">
-        <v>2.94</v>
+        <v>1.61</v>
       </c>
       <c r="M124" t="inlineStr">
         <is>
-          <t>01/07/2023 23:27</t>
+          <t>01/07/2023 23:14</t>
         </is>
       </c>
       <c r="N124" t="n">
-        <v>3.48</v>
+        <v>4.14</v>
       </c>
       <c r="O124" t="inlineStr">
         <is>
-          <t>25/06/2023 21:11</t>
+          <t>25/06/2023 23:41</t>
         </is>
       </c>
       <c r="P124" t="n">
-        <v>3.28</v>
+        <v>4.11</v>
       </c>
       <c r="Q124" t="inlineStr">
         <is>
-          <t>01/07/2023 23:27</t>
+          <t>01/07/2023 23:14</t>
         </is>
       </c>
       <c r="R124" t="n">
-        <v>3.55</v>
+        <v>5.44</v>
       </c>
       <c r="S124" t="inlineStr">
         <is>
-          <t>25/06/2023 21:11</t>
+          <t>25/06/2023 23:41</t>
         </is>
       </c>
       <c r="T124" t="n">
-        <v>2.62</v>
+        <v>6</v>
       </c>
       <c r="U124" t="inlineStr">
         <is>
-          <t>01/07/2023 23:27</t>
+          <t>01/07/2023 23:14</t>
         </is>
       </c>
       <c r="V124" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/bahia-gremio/CfWT4cwE/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/flamengo-rj-fortaleza/CtiejbOK/</t>
         </is>
       </c>
     </row>
@@ -12533,71 +12533,71 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>Cuiaba</t>
+          <t>Vasco</t>
         </is>
       </c>
       <c r="G132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Bahia</t>
+          <t>Cruzeiro</t>
         </is>
       </c>
       <c r="I132" t="n">
         <v>1</v>
       </c>
       <c r="J132" t="n">
-        <v>2.16</v>
+        <v>2.67</v>
       </c>
       <c r="K132" t="inlineStr">
         <is>
-          <t>02/07/2023 23:42</t>
+          <t>02/07/2023 21:12</t>
         </is>
       </c>
       <c r="L132" t="n">
-        <v>1.79</v>
+        <v>2.98</v>
       </c>
       <c r="M132" t="inlineStr">
         <is>
-          <t>08/07/2023 20:43</t>
+          <t>08/07/2023 20:59</t>
         </is>
       </c>
       <c r="N132" t="n">
-        <v>3.45</v>
+        <v>3.29</v>
       </c>
       <c r="O132" t="inlineStr">
         <is>
-          <t>02/07/2023 23:42</t>
+          <t>02/07/2023 21:12</t>
         </is>
       </c>
       <c r="P132" t="n">
-        <v>3.5</v>
+        <v>3.23</v>
       </c>
       <c r="Q132" t="inlineStr">
         <is>
-          <t>08/07/2023 20:58</t>
+          <t>08/07/2023 20:51</t>
         </is>
       </c>
       <c r="R132" t="n">
-        <v>3.48</v>
+        <v>2.77</v>
       </c>
       <c r="S132" t="inlineStr">
         <is>
-          <t>02/07/2023 23:42</t>
+          <t>02/07/2023 21:12</t>
         </is>
       </c>
       <c r="T132" t="n">
-        <v>5.39</v>
+        <v>2.61</v>
       </c>
       <c r="U132" t="inlineStr">
         <is>
-          <t>08/07/2023 20:58</t>
+          <t>08/07/2023 20:57</t>
         </is>
       </c>
       <c r="V132" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/cuiaba-bahia/v98u08in/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/vasco-cruzeiro/AVB4beGs/</t>
         </is>
       </c>
     </row>
@@ -12625,71 +12625,71 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>Vasco</t>
+          <t>Cuiaba</t>
         </is>
       </c>
       <c r="G133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Cruzeiro</t>
+          <t>Bahia</t>
         </is>
       </c>
       <c r="I133" t="n">
         <v>1</v>
       </c>
       <c r="J133" t="n">
-        <v>2.67</v>
+        <v>2.16</v>
       </c>
       <c r="K133" t="inlineStr">
         <is>
-          <t>02/07/2023 21:12</t>
+          <t>02/07/2023 23:42</t>
         </is>
       </c>
       <c r="L133" t="n">
-        <v>2.98</v>
+        <v>1.79</v>
       </c>
       <c r="M133" t="inlineStr">
         <is>
-          <t>08/07/2023 20:59</t>
+          <t>08/07/2023 20:43</t>
         </is>
       </c>
       <c r="N133" t="n">
-        <v>3.29</v>
+        <v>3.45</v>
       </c>
       <c r="O133" t="inlineStr">
         <is>
-          <t>02/07/2023 21:12</t>
+          <t>02/07/2023 23:42</t>
         </is>
       </c>
       <c r="P133" t="n">
-        <v>3.23</v>
+        <v>3.5</v>
       </c>
       <c r="Q133" t="inlineStr">
         <is>
-          <t>08/07/2023 20:51</t>
+          <t>08/07/2023 20:58</t>
         </is>
       </c>
       <c r="R133" t="n">
-        <v>2.77</v>
+        <v>3.48</v>
       </c>
       <c r="S133" t="inlineStr">
         <is>
-          <t>02/07/2023 21:12</t>
+          <t>02/07/2023 23:42</t>
         </is>
       </c>
       <c r="T133" t="n">
-        <v>2.61</v>
+        <v>5.39</v>
       </c>
       <c r="U133" t="inlineStr">
         <is>
-          <t>08/07/2023 20:57</t>
+          <t>08/07/2023 20:58</t>
         </is>
       </c>
       <c r="V133" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/vasco-cruzeiro/AVB4beGs/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/cuiaba-bahia/v98u08in/</t>
         </is>
       </c>
     </row>
@@ -12717,71 +12717,71 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>Atletico-MG</t>
+          <t>Coritiba</t>
         </is>
       </c>
       <c r="G134" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Corinthians</t>
+          <t>America MG</t>
         </is>
       </c>
       <c r="I134" t="n">
         <v>1</v>
       </c>
       <c r="J134" t="n">
-        <v>1.55</v>
+        <v>2.35</v>
       </c>
       <c r="K134" t="inlineStr">
         <is>
-          <t>02/07/2023 21:12</t>
+          <t>04/07/2023 01:12</t>
         </is>
       </c>
       <c r="L134" t="n">
-        <v>1.79</v>
+        <v>2.17</v>
       </c>
       <c r="M134" t="inlineStr">
         <is>
-          <t>08/07/2023 23:26</t>
+          <t>08/07/2023 23:29</t>
         </is>
       </c>
       <c r="N134" t="n">
-        <v>4.02</v>
+        <v>3.25</v>
       </c>
       <c r="O134" t="inlineStr">
         <is>
-          <t>02/07/2023 21:12</t>
+          <t>04/07/2023 01:12</t>
         </is>
       </c>
       <c r="P134" t="n">
-        <v>3.32</v>
+        <v>3.41</v>
       </c>
       <c r="Q134" t="inlineStr">
         <is>
-          <t>08/07/2023 23:27</t>
+          <t>08/07/2023 23:29</t>
         </is>
       </c>
       <c r="R134" t="n">
-        <v>6.72</v>
+        <v>3.35</v>
       </c>
       <c r="S134" t="inlineStr">
         <is>
-          <t>02/07/2023 21:12</t>
+          <t>04/07/2023 01:12</t>
         </is>
       </c>
       <c r="T134" t="n">
-        <v>5.91</v>
+        <v>3.64</v>
       </c>
       <c r="U134" t="inlineStr">
         <is>
-          <t>08/07/2023 23:27</t>
+          <t>08/07/2023 23:29</t>
         </is>
       </c>
       <c r="V134" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/atletico-mg-corinthians/vB3LfDF6/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/coritiba-america-mg/QR1ThipJ/</t>
         </is>
       </c>
     </row>
@@ -12809,71 +12809,71 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>Coritiba</t>
+          <t>Atletico-MG</t>
         </is>
       </c>
       <c r="G135" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>America MG</t>
+          <t>Corinthians</t>
         </is>
       </c>
       <c r="I135" t="n">
         <v>1</v>
       </c>
       <c r="J135" t="n">
-        <v>2.35</v>
+        <v>1.55</v>
       </c>
       <c r="K135" t="inlineStr">
         <is>
-          <t>04/07/2023 01:12</t>
+          <t>02/07/2023 21:12</t>
         </is>
       </c>
       <c r="L135" t="n">
-        <v>2.17</v>
+        <v>1.79</v>
       </c>
       <c r="M135" t="inlineStr">
         <is>
-          <t>08/07/2023 23:29</t>
+          <t>08/07/2023 23:26</t>
         </is>
       </c>
       <c r="N135" t="n">
-        <v>3.25</v>
+        <v>4.02</v>
       </c>
       <c r="O135" t="inlineStr">
         <is>
-          <t>04/07/2023 01:12</t>
+          <t>02/07/2023 21:12</t>
         </is>
       </c>
       <c r="P135" t="n">
-        <v>3.41</v>
+        <v>3.32</v>
       </c>
       <c r="Q135" t="inlineStr">
         <is>
-          <t>08/07/2023 23:29</t>
+          <t>08/07/2023 23:27</t>
         </is>
       </c>
       <c r="R135" t="n">
-        <v>3.35</v>
+        <v>6.72</v>
       </c>
       <c r="S135" t="inlineStr">
         <is>
-          <t>04/07/2023 01:12</t>
+          <t>02/07/2023 21:12</t>
         </is>
       </c>
       <c r="T135" t="n">
-        <v>3.64</v>
+        <v>5.91</v>
       </c>
       <c r="U135" t="inlineStr">
         <is>
-          <t>08/07/2023 23:29</t>
+          <t>08/07/2023 23:27</t>
         </is>
       </c>
       <c r="V135" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/coritiba-america-mg/QR1ThipJ/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/atletico-mg-corinthians/vB3LfDF6/</t>
         </is>
       </c>
     </row>
@@ -13269,22 +13269,22 @@
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>Gremio</t>
+          <t>Fortaleza</t>
         </is>
       </c>
       <c r="G140" t="n">
+        <v>1</v>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>Athletico-PR</t>
+        </is>
+      </c>
+      <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>Botafogo RJ</t>
-        </is>
-      </c>
-      <c r="I140" t="n">
-        <v>2</v>
-      </c>
       <c r="J140" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="K140" t="inlineStr">
         <is>
@@ -13292,15 +13292,15 @@
         </is>
       </c>
       <c r="L140" t="n">
-        <v>1.85</v>
+        <v>1.53</v>
       </c>
       <c r="M140" t="inlineStr">
         <is>
-          <t>09/07/2023 23:28</t>
+          <t>09/07/2023 23:26</t>
         </is>
       </c>
       <c r="N140" t="n">
-        <v>3.66</v>
+        <v>3.6</v>
       </c>
       <c r="O140" t="inlineStr">
         <is>
@@ -13308,15 +13308,15 @@
         </is>
       </c>
       <c r="P140" t="n">
-        <v>3.69</v>
+        <v>4.11</v>
       </c>
       <c r="Q140" t="inlineStr">
         <is>
-          <t>09/07/2023 23:06</t>
+          <t>09/07/2023 23:26</t>
         </is>
       </c>
       <c r="R140" t="n">
-        <v>4.27</v>
+        <v>4.51</v>
       </c>
       <c r="S140" t="inlineStr">
         <is>
@@ -13324,16 +13324,16 @@
         </is>
       </c>
       <c r="T140" t="n">
-        <v>4.76</v>
+        <v>7.49</v>
       </c>
       <c r="U140" t="inlineStr">
         <is>
-          <t>09/07/2023 23:04</t>
+          <t>09/07/2023 23:26</t>
         </is>
       </c>
       <c r="V140" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/gremio-botafogo-rj/ny3PgXUC/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/fortaleza-athletico-pr/Q54y1lxt/</t>
         </is>
       </c>
     </row>
@@ -13361,71 +13361,71 @@
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>Fortaleza</t>
+          <t>Gremio</t>
         </is>
       </c>
       <c r="G141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>Athletico-PR</t>
+          <t>Botafogo RJ</t>
         </is>
       </c>
       <c r="I141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J141" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>02/07/2023 21:12</t>
+        </is>
+      </c>
+      <c r="L141" t="n">
         <v>1.85</v>
       </c>
-      <c r="K141" t="inlineStr">
+      <c r="M141" t="inlineStr">
+        <is>
+          <t>09/07/2023 23:28</t>
+        </is>
+      </c>
+      <c r="N141" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="O141" t="inlineStr">
         <is>
           <t>02/07/2023 21:12</t>
         </is>
       </c>
-      <c r="L141" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="M141" t="inlineStr">
-        <is>
-          <t>09/07/2023 23:26</t>
-        </is>
-      </c>
-      <c r="N141" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="O141" t="inlineStr">
+      <c r="P141" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="Q141" t="inlineStr">
+        <is>
+          <t>09/07/2023 23:06</t>
+        </is>
+      </c>
+      <c r="R141" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="S141" t="inlineStr">
         <is>
           <t>02/07/2023 21:12</t>
         </is>
       </c>
-      <c r="P141" t="n">
-        <v>4.11</v>
-      </c>
-      <c r="Q141" t="inlineStr">
-        <is>
-          <t>09/07/2023 23:26</t>
-        </is>
-      </c>
-      <c r="R141" t="n">
-        <v>4.51</v>
-      </c>
-      <c r="S141" t="inlineStr">
-        <is>
-          <t>02/07/2023 21:12</t>
-        </is>
-      </c>
       <c r="T141" t="n">
-        <v>7.49</v>
+        <v>4.76</v>
       </c>
       <c r="U141" t="inlineStr">
         <is>
-          <t>09/07/2023 23:26</t>
+          <t>09/07/2023 23:04</t>
         </is>
       </c>
       <c r="V141" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/fortaleza-athletico-pr/Q54y1lxt/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/gremio-botafogo-rj/ny3PgXUC/</t>
         </is>
       </c>
     </row>
@@ -13637,71 +13637,71 @@
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>Sao Paulo</t>
+          <t>Fortaleza</t>
         </is>
       </c>
       <c r="G144" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>Santos</t>
+          <t>Cuiaba</t>
         </is>
       </c>
       <c r="I144" t="n">
         <v>1</v>
       </c>
       <c r="J144" t="n">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="K144" t="inlineStr">
         <is>
-          <t>09/07/2023 21:12</t>
+          <t>09/07/2023 23:42</t>
         </is>
       </c>
       <c r="L144" t="n">
-        <v>1.65</v>
+        <v>1.79</v>
       </c>
       <c r="M144" t="inlineStr">
         <is>
-          <t>16/07/2023 20:57</t>
+          <t>16/07/2023 20:58</t>
         </is>
       </c>
       <c r="N144" t="n">
-        <v>3.82</v>
+        <v>3.9</v>
       </c>
       <c r="O144" t="inlineStr">
         <is>
-          <t>09/07/2023 21:12</t>
+          <t>09/07/2023 23:42</t>
         </is>
       </c>
       <c r="P144" t="n">
-        <v>3.67</v>
+        <v>3.5</v>
       </c>
       <c r="Q144" t="inlineStr">
         <is>
-          <t>16/07/2023 20:57</t>
+          <t>16/07/2023 20:58</t>
         </is>
       </c>
       <c r="R144" t="n">
-        <v>5.8</v>
+        <v>5.69</v>
       </c>
       <c r="S144" t="inlineStr">
         <is>
-          <t>09/07/2023 21:12</t>
+          <t>09/07/2023 23:42</t>
         </is>
       </c>
       <c r="T144" t="n">
-        <v>6.61</v>
+        <v>5.42</v>
       </c>
       <c r="U144" t="inlineStr">
         <is>
-          <t>16/07/2023 20:57</t>
+          <t>16/07/2023 20:58</t>
         </is>
       </c>
       <c r="V144" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/sao-paulo-santos/Uc1hc6y5/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/fortaleza-cuiaba/nZXIDRLo/</t>
         </is>
       </c>
     </row>
@@ -13729,7 +13729,7 @@
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>Fortaleza</t>
+          <t>Fluminense</t>
         </is>
       </c>
       <c r="G145" t="n">
@@ -13737,63 +13737,63 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>Cuiaba</t>
+          <t>Flamengo RJ</t>
         </is>
       </c>
       <c r="I145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J145" t="n">
-        <v>1.66</v>
+        <v>2.31</v>
       </c>
       <c r="K145" t="inlineStr">
         <is>
-          <t>09/07/2023 23:42</t>
+          <t>09/07/2023 21:12</t>
         </is>
       </c>
       <c r="L145" t="n">
-        <v>1.79</v>
+        <v>2.85</v>
       </c>
       <c r="M145" t="inlineStr">
         <is>
+          <t>16/07/2023 20:51</t>
+        </is>
+      </c>
+      <c r="N145" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="O145" t="inlineStr">
+        <is>
+          <t>09/07/2023 21:12</t>
+        </is>
+      </c>
+      <c r="P145" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="Q145" t="inlineStr">
+        <is>
+          <t>16/07/2023 20:55</t>
+        </is>
+      </c>
+      <c r="R145" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="S145" t="inlineStr">
+        <is>
+          <t>09/07/2023 21:12</t>
+        </is>
+      </c>
+      <c r="T145" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="U145" t="inlineStr">
+        <is>
           <t>16/07/2023 20:58</t>
         </is>
       </c>
-      <c r="N145" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="O145" t="inlineStr">
-        <is>
-          <t>09/07/2023 23:42</t>
-        </is>
-      </c>
-      <c r="P145" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q145" t="inlineStr">
-        <is>
-          <t>16/07/2023 20:58</t>
-        </is>
-      </c>
-      <c r="R145" t="n">
-        <v>5.69</v>
-      </c>
-      <c r="S145" t="inlineStr">
-        <is>
-          <t>09/07/2023 23:42</t>
-        </is>
-      </c>
-      <c r="T145" t="n">
-        <v>5.42</v>
-      </c>
-      <c r="U145" t="inlineStr">
-        <is>
-          <t>16/07/2023 20:58</t>
-        </is>
-      </c>
       <c r="V145" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/fortaleza-cuiaba/nZXIDRLo/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/fluminense-flamengo-rj/YV7qaS6h/</t>
         </is>
       </c>
     </row>
@@ -13821,22 +13821,22 @@
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>Fluminense</t>
+          <t>Sao Paulo</t>
         </is>
       </c>
       <c r="G146" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>Flamengo RJ</t>
+          <t>Santos</t>
         </is>
       </c>
       <c r="I146" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J146" t="n">
-        <v>2.31</v>
+        <v>1.64</v>
       </c>
       <c r="K146" t="inlineStr">
         <is>
@@ -13844,15 +13844,15 @@
         </is>
       </c>
       <c r="L146" t="n">
-        <v>2.85</v>
+        <v>1.65</v>
       </c>
       <c r="M146" t="inlineStr">
         <is>
-          <t>16/07/2023 20:51</t>
+          <t>16/07/2023 20:57</t>
         </is>
       </c>
       <c r="N146" t="n">
-        <v>3.47</v>
+        <v>3.82</v>
       </c>
       <c r="O146" t="inlineStr">
         <is>
@@ -13860,15 +13860,15 @@
         </is>
       </c>
       <c r="P146" t="n">
-        <v>3.32</v>
+        <v>3.67</v>
       </c>
       <c r="Q146" t="inlineStr">
         <is>
-          <t>16/07/2023 20:55</t>
+          <t>16/07/2023 20:57</t>
         </is>
       </c>
       <c r="R146" t="n">
-        <v>3.22</v>
+        <v>5.8</v>
       </c>
       <c r="S146" t="inlineStr">
         <is>
@@ -13876,16 +13876,16 @@
         </is>
       </c>
       <c r="T146" t="n">
-        <v>2.66</v>
+        <v>6.61</v>
       </c>
       <c r="U146" t="inlineStr">
         <is>
-          <t>16/07/2023 20:58</t>
+          <t>16/07/2023 20:57</t>
         </is>
       </c>
       <c r="V146" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/fluminense-flamengo-rj/YV7qaS6h/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/sao-paulo-santos/Uc1hc6y5/</t>
         </is>
       </c>
     </row>
@@ -13913,71 +13913,71 @@
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>Athletico-PR</t>
+          <t>Internacional</t>
         </is>
       </c>
       <c r="G147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>Bahia</t>
+          <t>Palmeiras</t>
         </is>
       </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
       <c r="J147" t="n">
-        <v>1.67</v>
+        <v>3.15</v>
       </c>
       <c r="K147" t="inlineStr">
         <is>
-          <t>09/07/2023 23:42</t>
+          <t>09/07/2023 22:42</t>
         </is>
       </c>
       <c r="L147" t="n">
-        <v>1.59</v>
+        <v>2.83</v>
       </c>
       <c r="M147" t="inlineStr">
         <is>
-          <t>16/07/2023 23:16</t>
+          <t>16/07/2023 23:28</t>
         </is>
       </c>
       <c r="N147" t="n">
-        <v>3.93</v>
+        <v>3.32</v>
       </c>
       <c r="O147" t="inlineStr">
         <is>
-          <t>09/07/2023 23:42</t>
+          <t>09/07/2023 22:42</t>
         </is>
       </c>
       <c r="P147" t="n">
-        <v>4.14</v>
+        <v>3.15</v>
       </c>
       <c r="Q147" t="inlineStr">
         <is>
-          <t>16/07/2023 23:29</t>
+          <t>16/07/2023 23:28</t>
         </is>
       </c>
       <c r="R147" t="n">
-        <v>5.5</v>
+        <v>2.38</v>
       </c>
       <c r="S147" t="inlineStr">
         <is>
-          <t>09/07/2023 23:42</t>
+          <t>09/07/2023 22:42</t>
         </is>
       </c>
       <c r="T147" t="n">
-        <v>6.25</v>
+        <v>2.8</v>
       </c>
       <c r="U147" t="inlineStr">
         <is>
-          <t>16/07/2023 23:29</t>
+          <t>16/07/2023 23:28</t>
         </is>
       </c>
       <c r="V147" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/athletico-pr-bahia/bJvykrqo/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/internacional-palmeiras/dAh9gOzU/</t>
         </is>
       </c>
     </row>
@@ -14005,71 +14005,71 @@
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>Internacional</t>
+          <t>Athletico-PR</t>
         </is>
       </c>
       <c r="G148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>Palmeiras</t>
+          <t>Bahia</t>
         </is>
       </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
       <c r="J148" t="n">
-        <v>3.15</v>
+        <v>1.67</v>
       </c>
       <c r="K148" t="inlineStr">
         <is>
-          <t>09/07/2023 22:42</t>
+          <t>09/07/2023 23:42</t>
         </is>
       </c>
       <c r="L148" t="n">
-        <v>2.83</v>
+        <v>1.59</v>
       </c>
       <c r="M148" t="inlineStr">
         <is>
-          <t>16/07/2023 23:28</t>
+          <t>16/07/2023 23:16</t>
         </is>
       </c>
       <c r="N148" t="n">
-        <v>3.32</v>
+        <v>3.93</v>
       </c>
       <c r="O148" t="inlineStr">
         <is>
-          <t>09/07/2023 22:42</t>
+          <t>09/07/2023 23:42</t>
         </is>
       </c>
       <c r="P148" t="n">
-        <v>3.15</v>
+        <v>4.14</v>
       </c>
       <c r="Q148" t="inlineStr">
         <is>
-          <t>16/07/2023 23:28</t>
+          <t>16/07/2023 23:29</t>
         </is>
       </c>
       <c r="R148" t="n">
-        <v>2.38</v>
+        <v>5.5</v>
       </c>
       <c r="S148" t="inlineStr">
         <is>
-          <t>09/07/2023 22:42</t>
+          <t>09/07/2023 23:42</t>
         </is>
       </c>
       <c r="T148" t="n">
-        <v>2.8</v>
+        <v>6.25</v>
       </c>
       <c r="U148" t="inlineStr">
         <is>
-          <t>16/07/2023 23:28</t>
+          <t>16/07/2023 23:29</t>
         </is>
       </c>
       <c r="V148" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/internacional-palmeiras/dAh9gOzU/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/athletico-pr-bahia/bJvykrqo/</t>
         </is>
       </c>
     </row>
@@ -14649,71 +14649,71 @@
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>Santos</t>
+          <t>Cruzeiro</t>
         </is>
       </c>
       <c r="G155" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>Botafogo RJ</t>
+          <t>Goias</t>
         </is>
       </c>
       <c r="I155" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J155" t="n">
-        <v>2.87</v>
+        <v>1.63</v>
       </c>
       <c r="K155" t="inlineStr">
         <is>
-          <t>16/07/2023 21:12</t>
+          <t>18/07/2023 01:12</t>
         </is>
       </c>
       <c r="L155" t="n">
-        <v>2.99</v>
+        <v>1.54</v>
       </c>
       <c r="M155" t="inlineStr">
         <is>
-          <t>23/07/2023 20:59</t>
+          <t>23/07/2023 20:53</t>
         </is>
       </c>
       <c r="N155" t="n">
-        <v>3</v>
+        <v>3.82</v>
       </c>
       <c r="O155" t="inlineStr">
         <is>
-          <t>16/07/2023 21:12</t>
+          <t>18/07/2023 01:12</t>
         </is>
       </c>
       <c r="P155" t="n">
-        <v>2.97</v>
+        <v>4.05</v>
       </c>
       <c r="Q155" t="inlineStr">
         <is>
-          <t>23/07/2023 20:48</t>
+          <t>23/07/2023 20:55</t>
         </is>
       </c>
       <c r="R155" t="n">
-        <v>2.8</v>
+        <v>5.9</v>
       </c>
       <c r="S155" t="inlineStr">
         <is>
-          <t>16/07/2023 21:12</t>
+          <t>18/07/2023 01:12</t>
         </is>
       </c>
       <c r="T155" t="n">
-        <v>2.81</v>
+        <v>7.32</v>
       </c>
       <c r="U155" t="inlineStr">
         <is>
-          <t>23/07/2023 20:58</t>
+          <t>23/07/2023 20:55</t>
         </is>
       </c>
       <c r="V155" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/santos-botafogo-rj/f5Ow93zH/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/cruzeiro-goias/0Igv7s5T/</t>
         </is>
       </c>
     </row>
@@ -14741,7 +14741,7 @@
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>Cruzeiro</t>
+          <t>Bragantino</t>
         </is>
       </c>
       <c r="G156" t="n">
@@ -14749,63 +14749,63 @@
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>Goias</t>
+          <t>Internacional</t>
         </is>
       </c>
       <c r="I156" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J156" t="n">
-        <v>1.63</v>
+        <v>1.83</v>
       </c>
       <c r="K156" t="inlineStr">
         <is>
-          <t>18/07/2023 01:12</t>
+          <t>16/07/2023 23:42</t>
         </is>
       </c>
       <c r="L156" t="n">
-        <v>1.54</v>
+        <v>1.75</v>
       </c>
       <c r="M156" t="inlineStr">
         <is>
-          <t>23/07/2023 20:53</t>
+          <t>23/07/2023 20:59</t>
         </is>
       </c>
       <c r="N156" t="n">
-        <v>3.82</v>
+        <v>3.62</v>
       </c>
       <c r="O156" t="inlineStr">
         <is>
-          <t>18/07/2023 01:12</t>
+          <t>16/07/2023 23:42</t>
         </is>
       </c>
       <c r="P156" t="n">
-        <v>4.05</v>
+        <v>3.72</v>
       </c>
       <c r="Q156" t="inlineStr">
         <is>
-          <t>23/07/2023 20:55</t>
+          <t>23/07/2023 20:59</t>
         </is>
       </c>
       <c r="R156" t="n">
-        <v>5.9</v>
+        <v>4.59</v>
       </c>
       <c r="S156" t="inlineStr">
         <is>
-          <t>18/07/2023 01:12</t>
+          <t>16/07/2023 23:42</t>
         </is>
       </c>
       <c r="T156" t="n">
-        <v>7.32</v>
+        <v>5.31</v>
       </c>
       <c r="U156" t="inlineStr">
         <is>
-          <t>23/07/2023 20:55</t>
+          <t>23/07/2023 20:59</t>
         </is>
       </c>
       <c r="V156" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/cruzeiro-goias/0Igv7s5T/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/bragantino-internacional/MRfz8NkN/</t>
         </is>
       </c>
     </row>
@@ -14833,30 +14833,30 @@
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>Bragantino</t>
+          <t>Santos</t>
         </is>
       </c>
       <c r="G157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>Internacional</t>
+          <t>Botafogo RJ</t>
         </is>
       </c>
       <c r="I157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J157" t="n">
-        <v>1.83</v>
+        <v>2.87</v>
       </c>
       <c r="K157" t="inlineStr">
         <is>
-          <t>16/07/2023 23:42</t>
+          <t>16/07/2023 21:12</t>
         </is>
       </c>
       <c r="L157" t="n">
-        <v>1.75</v>
+        <v>2.99</v>
       </c>
       <c r="M157" t="inlineStr">
         <is>
@@ -14864,40 +14864,40 @@
         </is>
       </c>
       <c r="N157" t="n">
-        <v>3.62</v>
+        <v>3</v>
       </c>
       <c r="O157" t="inlineStr">
         <is>
-          <t>16/07/2023 23:42</t>
+          <t>16/07/2023 21:12</t>
         </is>
       </c>
       <c r="P157" t="n">
-        <v>3.72</v>
+        <v>2.97</v>
       </c>
       <c r="Q157" t="inlineStr">
         <is>
-          <t>23/07/2023 20:59</t>
+          <t>23/07/2023 20:48</t>
         </is>
       </c>
       <c r="R157" t="n">
-        <v>4.59</v>
+        <v>2.8</v>
       </c>
       <c r="S157" t="inlineStr">
         <is>
-          <t>16/07/2023 23:42</t>
+          <t>16/07/2023 21:12</t>
         </is>
       </c>
       <c r="T157" t="n">
-        <v>5.31</v>
+        <v>2.81</v>
       </c>
       <c r="U157" t="inlineStr">
         <is>
-          <t>23/07/2023 20:59</t>
+          <t>23/07/2023 20:58</t>
         </is>
       </c>
       <c r="V157" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/bragantino-internacional/MRfz8NkN/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/santos-botafogo-rj/f5Ow93zH/</t>
         </is>
       </c>
     </row>
@@ -15109,71 +15109,71 @@
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>Internacional</t>
+          <t>Athletico-PR</t>
         </is>
       </c>
       <c r="G160" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>Cuiaba</t>
+          <t>Cruzeiro</t>
         </is>
       </c>
       <c r="I160" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J160" t="n">
-        <v>1.88</v>
+        <v>2.03</v>
       </c>
       <c r="K160" t="inlineStr">
         <is>
-          <t>23/07/2023 21:12</t>
+          <t>23/07/2023 23:42</t>
         </is>
       </c>
       <c r="L160" t="n">
-        <v>1.81</v>
+        <v>1.86</v>
       </c>
       <c r="M160" t="inlineStr">
         <is>
-          <t>29/07/2023 20:51</t>
+          <t>29/07/2023 20:45</t>
         </is>
       </c>
       <c r="N160" t="n">
-        <v>3.23</v>
+        <v>3.38</v>
       </c>
       <c r="O160" t="inlineStr">
         <is>
-          <t>23/07/2023 21:12</t>
+          <t>23/07/2023 23:42</t>
         </is>
       </c>
       <c r="P160" t="n">
-        <v>3.44</v>
+        <v>3.49</v>
       </c>
       <c r="Q160" t="inlineStr">
         <is>
-          <t>29/07/2023 20:59</t>
+          <t>29/07/2023 20:45</t>
         </is>
       </c>
       <c r="R160" t="n">
-        <v>4.99</v>
+        <v>3.98</v>
       </c>
       <c r="S160" t="inlineStr">
         <is>
-          <t>23/07/2023 21:12</t>
+          <t>23/07/2023 23:42</t>
         </is>
       </c>
       <c r="T160" t="n">
-        <v>5.41</v>
+        <v>4.87</v>
       </c>
       <c r="U160" t="inlineStr">
         <is>
-          <t>29/07/2023 20:59</t>
+          <t>29/07/2023 20:58</t>
         </is>
       </c>
       <c r="V160" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/internacional-cuiaba/SSalFvcj/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/athletico-pr-cruzeiro/6JbhEbCd/</t>
         </is>
       </c>
     </row>
@@ -15201,7 +15201,7 @@
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>Fluminense</t>
+          <t>Internacional</t>
         </is>
       </c>
       <c r="G161" t="n">
@@ -15209,38 +15209,38 @@
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>Santos</t>
+          <t>Cuiaba</t>
         </is>
       </c>
       <c r="I161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J161" t="n">
-        <v>1.62</v>
+        <v>1.88</v>
       </c>
       <c r="K161" t="inlineStr">
         <is>
-          <t>25/07/2023 00:12</t>
+          <t>23/07/2023 21:12</t>
         </is>
       </c>
       <c r="L161" t="n">
-        <v>1.55</v>
+        <v>1.81</v>
       </c>
       <c r="M161" t="inlineStr">
         <is>
-          <t>29/07/2023 20:58</t>
+          <t>29/07/2023 20:51</t>
         </is>
       </c>
       <c r="N161" t="n">
-        <v>3.83</v>
+        <v>3.23</v>
       </c>
       <c r="O161" t="inlineStr">
         <is>
-          <t>25/07/2023 00:12</t>
+          <t>23/07/2023 21:12</t>
         </is>
       </c>
       <c r="P161" t="n">
-        <v>3.98</v>
+        <v>3.44</v>
       </c>
       <c r="Q161" t="inlineStr">
         <is>
@@ -15248,15 +15248,15 @@
         </is>
       </c>
       <c r="R161" t="n">
-        <v>6.02</v>
+        <v>4.99</v>
       </c>
       <c r="S161" t="inlineStr">
         <is>
-          <t>25/07/2023 00:12</t>
+          <t>23/07/2023 21:12</t>
         </is>
       </c>
       <c r="T161" t="n">
-        <v>7.47</v>
+        <v>5.41</v>
       </c>
       <c r="U161" t="inlineStr">
         <is>
@@ -15265,7 +15265,7 @@
       </c>
       <c r="V161" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/fluminense-santos/tWR0Orz4/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/internacional-cuiaba/SSalFvcj/</t>
         </is>
       </c>
     </row>
@@ -15293,71 +15293,71 @@
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>Athletico-PR</t>
+          <t>Fluminense</t>
         </is>
       </c>
       <c r="G162" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>Cruzeiro</t>
+          <t>Santos</t>
         </is>
       </c>
       <c r="I162" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J162" t="n">
-        <v>2.03</v>
+        <v>1.62</v>
       </c>
       <c r="K162" t="inlineStr">
         <is>
-          <t>23/07/2023 23:42</t>
+          <t>25/07/2023 00:12</t>
         </is>
       </c>
       <c r="L162" t="n">
-        <v>1.86</v>
+        <v>1.55</v>
       </c>
       <c r="M162" t="inlineStr">
         <is>
-          <t>29/07/2023 20:45</t>
+          <t>29/07/2023 20:58</t>
         </is>
       </c>
       <c r="N162" t="n">
-        <v>3.38</v>
+        <v>3.83</v>
       </c>
       <c r="O162" t="inlineStr">
         <is>
-          <t>23/07/2023 23:42</t>
+          <t>25/07/2023 00:12</t>
         </is>
       </c>
       <c r="P162" t="n">
-        <v>3.49</v>
+        <v>3.98</v>
       </c>
       <c r="Q162" t="inlineStr">
         <is>
-          <t>29/07/2023 20:45</t>
+          <t>29/07/2023 20:59</t>
         </is>
       </c>
       <c r="R162" t="n">
-        <v>3.98</v>
+        <v>6.02</v>
       </c>
       <c r="S162" t="inlineStr">
         <is>
-          <t>23/07/2023 23:42</t>
+          <t>25/07/2023 00:12</t>
         </is>
       </c>
       <c r="T162" t="n">
-        <v>4.87</v>
+        <v>7.47</v>
       </c>
       <c r="U162" t="inlineStr">
         <is>
-          <t>29/07/2023 20:58</t>
+          <t>29/07/2023 20:59</t>
         </is>
       </c>
       <c r="V162" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/athletico-pr-cruzeiro/6JbhEbCd/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/fluminense-santos/tWR0Orz4/</t>
         </is>
       </c>
     </row>
@@ -15385,30 +15385,30 @@
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>Fortaleza</t>
+          <t>Corinthians</t>
         </is>
       </c>
       <c r="G163" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>Bragantino</t>
+          <t>Vasco</t>
         </is>
       </c>
       <c r="I163" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J163" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="K163" t="inlineStr">
         <is>
-          <t>24/07/2023 04:12</t>
+          <t>23/07/2023 23:42</t>
         </is>
       </c>
       <c r="L163" t="n">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="M163" t="inlineStr">
         <is>
@@ -15416,15 +15416,15 @@
         </is>
       </c>
       <c r="N163" t="n">
-        <v>3.49</v>
+        <v>3.33</v>
       </c>
       <c r="O163" t="inlineStr">
         <is>
-          <t>24/07/2023 04:12</t>
+          <t>23/07/2023 23:42</t>
         </is>
       </c>
       <c r="P163" t="n">
-        <v>3.35</v>
+        <v>3.13</v>
       </c>
       <c r="Q163" t="inlineStr">
         <is>
@@ -15432,24 +15432,24 @@
         </is>
       </c>
       <c r="R163" t="n">
-        <v>4.2</v>
+        <v>4.66</v>
       </c>
       <c r="S163" t="inlineStr">
         <is>
-          <t>24/07/2023 04:12</t>
+          <t>23/07/2023 23:42</t>
         </is>
       </c>
       <c r="T163" t="n">
-        <v>3.59</v>
+        <v>4.32</v>
       </c>
       <c r="U163" t="inlineStr">
         <is>
-          <t>29/07/2023 23:28</t>
+          <t>29/07/2023 23:26</t>
         </is>
       </c>
       <c r="V163" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/fortaleza-bragantino/KMnzwrkc/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/corinthians-vasco/ELJDLtKM/</t>
         </is>
       </c>
     </row>
@@ -15477,30 +15477,30 @@
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>Corinthians</t>
+          <t>Fortaleza</t>
         </is>
       </c>
       <c r="G164" t="n">
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t>Bragantino</t>
+        </is>
+      </c>
+      <c r="I164" t="n">
         <v>3</v>
       </c>
-      <c r="H164" t="inlineStr">
-        <is>
-          <t>Vasco</t>
-        </is>
-      </c>
-      <c r="I164" t="n">
-        <v>1</v>
-      </c>
       <c r="J164" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="K164" t="inlineStr">
         <is>
-          <t>23/07/2023 23:42</t>
+          <t>24/07/2023 04:12</t>
         </is>
       </c>
       <c r="L164" t="n">
-        <v>2.1</v>
+        <v>2.22</v>
       </c>
       <c r="M164" t="inlineStr">
         <is>
@@ -15508,15 +15508,15 @@
         </is>
       </c>
       <c r="N164" t="n">
-        <v>3.33</v>
+        <v>3.49</v>
       </c>
       <c r="O164" t="inlineStr">
         <is>
-          <t>23/07/2023 23:42</t>
+          <t>24/07/2023 04:12</t>
         </is>
       </c>
       <c r="P164" t="n">
-        <v>3.13</v>
+        <v>3.35</v>
       </c>
       <c r="Q164" t="inlineStr">
         <is>
@@ -15524,24 +15524,24 @@
         </is>
       </c>
       <c r="R164" t="n">
-        <v>4.66</v>
+        <v>4.2</v>
       </c>
       <c r="S164" t="inlineStr">
         <is>
-          <t>23/07/2023 23:42</t>
+          <t>24/07/2023 04:12</t>
         </is>
       </c>
       <c r="T164" t="n">
-        <v>4.32</v>
+        <v>3.59</v>
       </c>
       <c r="U164" t="inlineStr">
         <is>
-          <t>29/07/2023 23:26</t>
+          <t>29/07/2023 23:28</t>
         </is>
       </c>
       <c r="V164" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/corinthians-vasco/ELJDLtKM/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/fortaleza-bragantino/KMnzwrkc/</t>
         </is>
       </c>
     </row>
@@ -16397,71 +16397,71 @@
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>Vasco</t>
+          <t>Sao Paulo</t>
         </is>
       </c>
       <c r="G174" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>Gremio</t>
+          <t>Atletico-MG</t>
         </is>
       </c>
       <c r="I174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J174" t="n">
-        <v>2.82</v>
+        <v>2.21</v>
       </c>
       <c r="K174" t="inlineStr">
         <is>
-          <t>30/07/2023 23:41</t>
+          <t>31/07/2023 02:12</t>
         </is>
       </c>
       <c r="L174" t="n">
-        <v>2.74</v>
+        <v>1.99</v>
       </c>
       <c r="M174" t="inlineStr">
         <is>
-          <t>06/08/2023 20:58</t>
+          <t>06/08/2023 20:31</t>
         </is>
       </c>
       <c r="N174" t="n">
-        <v>3.24</v>
+        <v>3.17</v>
       </c>
       <c r="O174" t="inlineStr">
         <is>
-          <t>30/07/2023 23:41</t>
+          <t>31/07/2023 02:12</t>
         </is>
       </c>
       <c r="P174" t="n">
-        <v>3.11</v>
+        <v>3.36</v>
       </c>
       <c r="Q174" t="inlineStr">
         <is>
-          <t>06/08/2023 20:59</t>
+          <t>06/08/2023 20:55</t>
         </is>
       </c>
       <c r="R174" t="n">
-        <v>2.72</v>
+        <v>3.7</v>
       </c>
       <c r="S174" t="inlineStr">
         <is>
-          <t>30/07/2023 23:41</t>
+          <t>31/07/2023 02:12</t>
         </is>
       </c>
       <c r="T174" t="n">
-        <v>2.93</v>
+        <v>4.7</v>
       </c>
       <c r="U174" t="inlineStr">
         <is>
-          <t>06/08/2023 20:58</t>
+          <t>06/08/2023 20:57</t>
         </is>
       </c>
       <c r="V174" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/vasco-gremio/fuumztZF/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/sao-paulo-atletico-mg/25viZalM/</t>
         </is>
       </c>
     </row>
@@ -16489,71 +16489,71 @@
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>Sao Paulo</t>
+          <t>Vasco</t>
         </is>
       </c>
       <c r="G175" t="n">
+        <v>1</v>
+      </c>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>Gremio</t>
+        </is>
+      </c>
+      <c r="I175" t="n">
         <v>0</v>
       </c>
-      <c r="H175" t="inlineStr">
-        <is>
-          <t>Atletico-MG</t>
-        </is>
-      </c>
-      <c r="I175" t="n">
-        <v>2</v>
-      </c>
       <c r="J175" t="n">
-        <v>2.21</v>
+        <v>2.82</v>
       </c>
       <c r="K175" t="inlineStr">
         <is>
-          <t>31/07/2023 02:12</t>
+          <t>30/07/2023 23:41</t>
         </is>
       </c>
       <c r="L175" t="n">
-        <v>1.99</v>
+        <v>2.74</v>
       </c>
       <c r="M175" t="inlineStr">
         <is>
-          <t>06/08/2023 20:31</t>
+          <t>06/08/2023 20:58</t>
         </is>
       </c>
       <c r="N175" t="n">
-        <v>3.17</v>
+        <v>3.24</v>
       </c>
       <c r="O175" t="inlineStr">
         <is>
-          <t>31/07/2023 02:12</t>
+          <t>30/07/2023 23:41</t>
         </is>
       </c>
       <c r="P175" t="n">
-        <v>3.36</v>
+        <v>3.11</v>
       </c>
       <c r="Q175" t="inlineStr">
         <is>
-          <t>06/08/2023 20:55</t>
+          <t>06/08/2023 20:59</t>
         </is>
       </c>
       <c r="R175" t="n">
-        <v>3.7</v>
+        <v>2.72</v>
       </c>
       <c r="S175" t="inlineStr">
         <is>
-          <t>31/07/2023 02:12</t>
+          <t>30/07/2023 23:41</t>
         </is>
       </c>
       <c r="T175" t="n">
-        <v>4.7</v>
+        <v>2.93</v>
       </c>
       <c r="U175" t="inlineStr">
         <is>
-          <t>06/08/2023 20:57</t>
+          <t>06/08/2023 20:58</t>
         </is>
       </c>
       <c r="V175" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/sao-paulo-atletico-mg/25viZalM/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/vasco-gremio/fuumztZF/</t>
         </is>
       </c>
     </row>
@@ -16673,71 +16673,71 @@
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>Bahia</t>
+          <t>Coritiba</t>
         </is>
       </c>
       <c r="G177" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>America MG</t>
+          <t>Bragantino</t>
         </is>
       </c>
       <c r="I177" t="n">
         <v>1</v>
       </c>
       <c r="J177" t="n">
-        <v>2.02</v>
+        <v>2.97</v>
       </c>
       <c r="K177" t="inlineStr">
         <is>
-          <t>31/07/2023 03:12</t>
+          <t>30/07/2023 21:12</t>
         </is>
       </c>
       <c r="L177" t="n">
-        <v>1.94</v>
+        <v>3.58</v>
       </c>
       <c r="M177" t="inlineStr">
         <is>
-          <t>06/08/2023 23:29</t>
+          <t>06/08/2023 23:25</t>
         </is>
       </c>
       <c r="N177" t="n">
-        <v>3.55</v>
+        <v>3.29</v>
       </c>
       <c r="O177" t="inlineStr">
         <is>
-          <t>31/07/2023 03:12</t>
+          <t>30/07/2023 21:12</t>
         </is>
       </c>
       <c r="P177" t="n">
-        <v>3.68</v>
+        <v>3.33</v>
       </c>
       <c r="Q177" t="inlineStr">
         <is>
-          <t>06/08/2023 23:29</t>
+          <t>06/08/2023 23:26</t>
         </is>
       </c>
       <c r="R177" t="n">
-        <v>3.92</v>
+        <v>2.51</v>
       </c>
       <c r="S177" t="inlineStr">
         <is>
-          <t>31/07/2023 03:12</t>
+          <t>30/07/2023 21:12</t>
         </is>
       </c>
       <c r="T177" t="n">
-        <v>4.12</v>
+        <v>2.23</v>
       </c>
       <c r="U177" t="inlineStr">
         <is>
-          <t>06/08/2023 23:29</t>
+          <t>06/08/2023 23:22</t>
         </is>
       </c>
       <c r="V177" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/bahia-america-mg/CvlGZTa2/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/coritiba-bragantino/YgIZQyd2/</t>
         </is>
       </c>
     </row>
@@ -16765,71 +16765,71 @@
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>Coritiba</t>
+          <t>Bahia</t>
         </is>
       </c>
       <c r="G178" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>Bragantino</t>
+          <t>America MG</t>
         </is>
       </c>
       <c r="I178" t="n">
         <v>1</v>
       </c>
       <c r="J178" t="n">
-        <v>2.97</v>
+        <v>2.02</v>
       </c>
       <c r="K178" t="inlineStr">
         <is>
-          <t>30/07/2023 21:12</t>
+          <t>31/07/2023 03:12</t>
         </is>
       </c>
       <c r="L178" t="n">
-        <v>3.58</v>
+        <v>1.94</v>
       </c>
       <c r="M178" t="inlineStr">
         <is>
-          <t>06/08/2023 23:25</t>
+          <t>06/08/2023 23:29</t>
         </is>
       </c>
       <c r="N178" t="n">
-        <v>3.29</v>
+        <v>3.55</v>
       </c>
       <c r="O178" t="inlineStr">
         <is>
-          <t>30/07/2023 21:12</t>
+          <t>31/07/2023 03:12</t>
         </is>
       </c>
       <c r="P178" t="n">
-        <v>3.33</v>
+        <v>3.68</v>
       </c>
       <c r="Q178" t="inlineStr">
         <is>
-          <t>06/08/2023 23:26</t>
+          <t>06/08/2023 23:29</t>
         </is>
       </c>
       <c r="R178" t="n">
-        <v>2.51</v>
+        <v>3.92</v>
       </c>
       <c r="S178" t="inlineStr">
         <is>
-          <t>30/07/2023 21:12</t>
+          <t>31/07/2023 03:12</t>
         </is>
       </c>
       <c r="T178" t="n">
-        <v>2.23</v>
+        <v>4.12</v>
       </c>
       <c r="U178" t="inlineStr">
         <is>
-          <t>06/08/2023 23:22</t>
+          <t>06/08/2023 23:29</t>
         </is>
       </c>
       <c r="V178" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/coritiba-bragantino/YgIZQyd2/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/bahia-america-mg/CvlGZTa2/</t>
         </is>
       </c>
     </row>
@@ -17133,71 +17133,71 @@
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>America MG</t>
+          <t>Gremio</t>
         </is>
       </c>
       <c r="G182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>Goias</t>
+          <t>Fluminense</t>
         </is>
       </c>
       <c r="I182" t="n">
         <v>1</v>
       </c>
       <c r="J182" t="n">
-        <v>1.8</v>
+        <v>2.26</v>
       </c>
       <c r="K182" t="inlineStr">
         <is>
-          <t>06/08/2023 23:42</t>
+          <t>06/08/2023 21:12</t>
         </is>
       </c>
       <c r="L182" t="n">
-        <v>2</v>
+        <v>2.32</v>
       </c>
       <c r="M182" t="inlineStr">
         <is>
+          <t>13/08/2023 20:51</t>
+        </is>
+      </c>
+      <c r="N182" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="O182" t="inlineStr">
+        <is>
+          <t>06/08/2023 21:12</t>
+        </is>
+      </c>
+      <c r="P182" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="Q182" t="inlineStr">
+        <is>
+          <t>13/08/2023 20:55</t>
+        </is>
+      </c>
+      <c r="R182" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="S182" t="inlineStr">
+        <is>
+          <t>06/08/2023 21:12</t>
+        </is>
+      </c>
+      <c r="T182" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="U182" t="inlineStr">
+        <is>
           <t>13/08/2023 20:58</t>
         </is>
       </c>
-      <c r="N182" t="n">
-        <v>3.73</v>
-      </c>
-      <c r="O182" t="inlineStr">
-        <is>
-          <t>06/08/2023 23:42</t>
-        </is>
-      </c>
-      <c r="P182" t="n">
-        <v>3.46</v>
-      </c>
-      <c r="Q182" t="inlineStr">
-        <is>
-          <t>13/08/2023 20:58</t>
-        </is>
-      </c>
-      <c r="R182" t="n">
-        <v>4.59</v>
-      </c>
-      <c r="S182" t="inlineStr">
-        <is>
-          <t>06/08/2023 23:42</t>
-        </is>
-      </c>
-      <c r="T182" t="n">
-        <v>4.17</v>
-      </c>
-      <c r="U182" t="inlineStr">
-        <is>
-          <t>13/08/2023 20:58</t>
-        </is>
-      </c>
       <c r="V182" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/america-mg-goias/bD12YvLP/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/gremio-fluminense/hGACBHDC/</t>
         </is>
       </c>
     </row>
@@ -17225,34 +17225,34 @@
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>Gremio</t>
+          <t>Corinthians</t>
         </is>
       </c>
       <c r="G183" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>Fluminense</t>
+          <t>Coritiba</t>
         </is>
       </c>
       <c r="I183" t="n">
         <v>1</v>
       </c>
       <c r="J183" t="n">
-        <v>2.26</v>
+        <v>1.82</v>
       </c>
       <c r="K183" t="inlineStr">
         <is>
-          <t>06/08/2023 21:12</t>
+          <t>06/08/2023 23:42</t>
         </is>
       </c>
       <c r="L183" t="n">
-        <v>2.32</v>
+        <v>1.73</v>
       </c>
       <c r="M183" t="inlineStr">
         <is>
-          <t>13/08/2023 20:51</t>
+          <t>13/08/2023 20:58</t>
         </is>
       </c>
       <c r="N183" t="n">
@@ -17260,27 +17260,27 @@
       </c>
       <c r="O183" t="inlineStr">
         <is>
-          <t>06/08/2023 21:12</t>
+          <t>06/08/2023 23:42</t>
         </is>
       </c>
       <c r="P183" t="n">
-        <v>3.35</v>
+        <v>3.59</v>
       </c>
       <c r="Q183" t="inlineStr">
         <is>
-          <t>13/08/2023 20:55</t>
+          <t>13/08/2023 20:56</t>
         </is>
       </c>
       <c r="R183" t="n">
-        <v>3.19</v>
+        <v>4.82</v>
       </c>
       <c r="S183" t="inlineStr">
         <is>
-          <t>06/08/2023 21:12</t>
+          <t>06/08/2023 23:42</t>
         </is>
       </c>
       <c r="T183" t="n">
-        <v>3.36</v>
+        <v>5.72</v>
       </c>
       <c r="U183" t="inlineStr">
         <is>
@@ -17289,7 +17289,7 @@
       </c>
       <c r="V183" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/gremio-fluminense/hGACBHDC/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/corinthians-coritiba/2RHaEJTg/</t>
         </is>
       </c>
     </row>
@@ -17317,22 +17317,22 @@
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>Corinthians</t>
+          <t>America MG</t>
         </is>
       </c>
       <c r="G184" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>Coritiba</t>
+          <t>Goias</t>
         </is>
       </c>
       <c r="I184" t="n">
         <v>1</v>
       </c>
       <c r="J184" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="K184" t="inlineStr">
         <is>
@@ -17340,7 +17340,7 @@
         </is>
       </c>
       <c r="L184" t="n">
-        <v>1.73</v>
+        <v>2</v>
       </c>
       <c r="M184" t="inlineStr">
         <is>
@@ -17348,7 +17348,7 @@
         </is>
       </c>
       <c r="N184" t="n">
-        <v>3.52</v>
+        <v>3.73</v>
       </c>
       <c r="O184" t="inlineStr">
         <is>
@@ -17356,15 +17356,15 @@
         </is>
       </c>
       <c r="P184" t="n">
-        <v>3.59</v>
+        <v>3.46</v>
       </c>
       <c r="Q184" t="inlineStr">
         <is>
-          <t>13/08/2023 20:56</t>
+          <t>13/08/2023 20:58</t>
         </is>
       </c>
       <c r="R184" t="n">
-        <v>4.82</v>
+        <v>4.59</v>
       </c>
       <c r="S184" t="inlineStr">
         <is>
@@ -17372,7 +17372,7 @@
         </is>
       </c>
       <c r="T184" t="n">
-        <v>5.72</v>
+        <v>4.17</v>
       </c>
       <c r="U184" t="inlineStr">
         <is>
@@ -17381,7 +17381,7 @@
       </c>
       <c r="V184" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/corinthians-coritiba/2RHaEJTg/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/america-mg-goias/bD12YvLP/</t>
         </is>
       </c>
     </row>
@@ -17409,46 +17409,46 @@
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>Flamengo RJ</t>
+          <t>Fortaleza</t>
         </is>
       </c>
       <c r="G185" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>Sao Paulo</t>
+          <t>Santos</t>
         </is>
       </c>
       <c r="I185" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J185" t="n">
-        <v>1.79</v>
+        <v>1.6</v>
       </c>
       <c r="K185" t="inlineStr">
         <is>
-          <t>07/08/2023 03:42</t>
+          <t>10/08/2023 22:32</t>
         </is>
       </c>
       <c r="L185" t="n">
-        <v>1.8</v>
+        <v>1.55</v>
       </c>
       <c r="M185" t="inlineStr">
         <is>
-          <t>13/08/2023 23:28</t>
+          <t>13/08/2023 23:29</t>
         </is>
       </c>
       <c r="N185" t="n">
-        <v>3.43</v>
+        <v>3.9</v>
       </c>
       <c r="O185" t="inlineStr">
         <is>
-          <t>07/08/2023 03:42</t>
+          <t>10/08/2023 22:32</t>
         </is>
       </c>
       <c r="P185" t="n">
-        <v>3.73</v>
+        <v>3.98</v>
       </c>
       <c r="Q185" t="inlineStr">
         <is>
@@ -17456,15 +17456,15 @@
         </is>
       </c>
       <c r="R185" t="n">
-        <v>5.16</v>
+        <v>6.23</v>
       </c>
       <c r="S185" t="inlineStr">
         <is>
-          <t>07/08/2023 03:42</t>
+          <t>10/08/2023 22:32</t>
         </is>
       </c>
       <c r="T185" t="n">
-        <v>4.87</v>
+        <v>7.47</v>
       </c>
       <c r="U185" t="inlineStr">
         <is>
@@ -17473,7 +17473,7 @@
       </c>
       <c r="V185" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/flamengo-rj-sao-paulo/phnOX7UE/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/fortaleza-santos/KM2bZK5J/</t>
         </is>
       </c>
     </row>
@@ -17501,71 +17501,71 @@
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>Fortaleza</t>
+          <t>Flamengo RJ</t>
         </is>
       </c>
       <c r="G186" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>Santos</t>
+          <t>Sao Paulo</t>
         </is>
       </c>
       <c r="I186" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J186" t="n">
-        <v>1.6</v>
+        <v>1.79</v>
       </c>
       <c r="K186" t="inlineStr">
         <is>
-          <t>10/08/2023 22:32</t>
+          <t>07/08/2023 03:42</t>
         </is>
       </c>
       <c r="L186" t="n">
-        <v>1.55</v>
+        <v>1.8</v>
       </c>
       <c r="M186" t="inlineStr">
         <is>
+          <t>13/08/2023 23:28</t>
+        </is>
+      </c>
+      <c r="N186" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="O186" t="inlineStr">
+        <is>
+          <t>07/08/2023 03:42</t>
+        </is>
+      </c>
+      <c r="P186" t="n">
+        <v>3.73</v>
+      </c>
+      <c r="Q186" t="inlineStr">
+        <is>
           <t>13/08/2023 23:29</t>
         </is>
       </c>
-      <c r="N186" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="O186" t="inlineStr">
-        <is>
-          <t>10/08/2023 22:32</t>
-        </is>
-      </c>
-      <c r="P186" t="n">
-        <v>3.98</v>
-      </c>
-      <c r="Q186" t="inlineStr">
+      <c r="R186" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="S186" t="inlineStr">
+        <is>
+          <t>07/08/2023 03:42</t>
+        </is>
+      </c>
+      <c r="T186" t="n">
+        <v>4.87</v>
+      </c>
+      <c r="U186" t="inlineStr">
         <is>
           <t>13/08/2023 23:29</t>
         </is>
       </c>
-      <c r="R186" t="n">
-        <v>6.23</v>
-      </c>
-      <c r="S186" t="inlineStr">
-        <is>
-          <t>10/08/2023 22:32</t>
-        </is>
-      </c>
-      <c r="T186" t="n">
-        <v>7.47</v>
-      </c>
-      <c r="U186" t="inlineStr">
-        <is>
-          <t>13/08/2023 23:29</t>
-        </is>
-      </c>
       <c r="V186" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/fortaleza-santos/KM2bZK5J/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/flamengo-rj-sao-paulo/phnOX7UE/</t>
         </is>
       </c>
     </row>
@@ -18053,30 +18053,30 @@
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>Cuiaba</t>
+          <t>Fluminense</t>
         </is>
       </c>
       <c r="G192" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>Palmeiras</t>
+          <t>America MG</t>
         </is>
       </c>
       <c r="I192" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J192" t="n">
-        <v>3.13</v>
+        <v>1.51</v>
       </c>
       <c r="K192" t="inlineStr">
         <is>
-          <t>16/08/2023 00:12</t>
+          <t>13/08/2023 20:12</t>
         </is>
       </c>
       <c r="L192" t="n">
-        <v>3.46</v>
+        <v>1.5</v>
       </c>
       <c r="M192" t="inlineStr">
         <is>
@@ -18084,31 +18084,31 @@
         </is>
       </c>
       <c r="N192" t="n">
-        <v>3.13</v>
+        <v>4.35</v>
       </c>
       <c r="O192" t="inlineStr">
         <is>
-          <t>16/08/2023 00:12</t>
+          <t>13/08/2023 20:12</t>
         </is>
       </c>
       <c r="P192" t="n">
-        <v>3.13</v>
+        <v>4.34</v>
       </c>
       <c r="Q192" t="inlineStr">
         <is>
-          <t>19/08/2023 23:24</t>
+          <t>19/08/2023 23:29</t>
         </is>
       </c>
       <c r="R192" t="n">
-        <v>2.54</v>
+        <v>6.82</v>
       </c>
       <c r="S192" t="inlineStr">
         <is>
-          <t>16/08/2023 00:12</t>
+          <t>13/08/2023 20:12</t>
         </is>
       </c>
       <c r="T192" t="n">
-        <v>2.38</v>
+        <v>7.55</v>
       </c>
       <c r="U192" t="inlineStr">
         <is>
@@ -18117,7 +18117,7 @@
       </c>
       <c r="V192" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/cuiaba-palmeiras/fyV0sIct/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/fluminense-america-mg/2s6NTbTt/</t>
         </is>
       </c>
     </row>
@@ -18145,30 +18145,30 @@
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>Fluminense</t>
+          <t>Cuiaba</t>
         </is>
       </c>
       <c r="G193" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>America MG</t>
+          <t>Palmeiras</t>
         </is>
       </c>
       <c r="I193" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J193" t="n">
-        <v>1.51</v>
+        <v>3.13</v>
       </c>
       <c r="K193" t="inlineStr">
         <is>
-          <t>13/08/2023 20:12</t>
+          <t>16/08/2023 00:12</t>
         </is>
       </c>
       <c r="L193" t="n">
-        <v>1.5</v>
+        <v>3.46</v>
       </c>
       <c r="M193" t="inlineStr">
         <is>
@@ -18176,40 +18176,40 @@
         </is>
       </c>
       <c r="N193" t="n">
-        <v>4.35</v>
+        <v>3.13</v>
       </c>
       <c r="O193" t="inlineStr">
         <is>
-          <t>13/08/2023 20:12</t>
+          <t>16/08/2023 00:12</t>
         </is>
       </c>
       <c r="P193" t="n">
-        <v>4.34</v>
+        <v>3.13</v>
       </c>
       <c r="Q193" t="inlineStr">
         <is>
+          <t>19/08/2023 23:24</t>
+        </is>
+      </c>
+      <c r="R193" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="S193" t="inlineStr">
+        <is>
+          <t>16/08/2023 00:12</t>
+        </is>
+      </c>
+      <c r="T193" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U193" t="inlineStr">
+        <is>
           <t>19/08/2023 23:29</t>
         </is>
       </c>
-      <c r="R193" t="n">
-        <v>6.82</v>
-      </c>
-      <c r="S193" t="inlineStr">
-        <is>
-          <t>13/08/2023 20:12</t>
-        </is>
-      </c>
-      <c r="T193" t="n">
-        <v>7.55</v>
-      </c>
-      <c r="U193" t="inlineStr">
-        <is>
-          <t>19/08/2023 23:29</t>
-        </is>
-      </c>
       <c r="V193" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/fluminense-america-mg/2s6NTbTt/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/cuiaba-palmeiras/fyV0sIct/</t>
         </is>
       </c>
     </row>
@@ -20261,71 +20261,71 @@
       </c>
       <c r="F216" t="inlineStr">
         <is>
-          <t>Cruzeiro</t>
+          <t>Bahia</t>
         </is>
       </c>
       <c r="G216" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>Bragantino</t>
+          <t>Vasco</t>
         </is>
       </c>
       <c r="I216" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J216" t="n">
-        <v>2.26</v>
+        <v>2.02</v>
       </c>
       <c r="K216" t="inlineStr">
         <is>
-          <t>27/08/2023 23:12</t>
+          <t>27/08/2023 22:42</t>
         </is>
       </c>
       <c r="L216" t="n">
-        <v>2.47</v>
+        <v>2.11</v>
       </c>
       <c r="M216" t="inlineStr">
         <is>
-          <t>03/09/2023 23:19</t>
+          <t>03/09/2023 23:26</t>
         </is>
       </c>
       <c r="N216" t="n">
-        <v>3.32</v>
+        <v>3.43</v>
       </c>
       <c r="O216" t="inlineStr">
         <is>
-          <t>27/08/2023 23:12</t>
+          <t>27/08/2023 22:42</t>
         </is>
       </c>
       <c r="P216" t="n">
-        <v>3.14</v>
+        <v>3.33</v>
       </c>
       <c r="Q216" t="inlineStr">
         <is>
-          <t>03/09/2023 23:09</t>
+          <t>03/09/2023 23:29</t>
         </is>
       </c>
       <c r="R216" t="n">
-        <v>3.47</v>
+        <v>4.04</v>
       </c>
       <c r="S216" t="inlineStr">
         <is>
-          <t>27/08/2023 23:12</t>
+          <t>27/08/2023 22:42</t>
         </is>
       </c>
       <c r="T216" t="n">
-        <v>3.29</v>
+        <v>3.95</v>
       </c>
       <c r="U216" t="inlineStr">
         <is>
-          <t>03/09/2023 23:07</t>
+          <t>03/09/2023 23:29</t>
         </is>
       </c>
       <c r="V216" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/cruzeiro-bragantino/YTl7liBN/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/bahia-vasco/4lJL7EBo/</t>
         </is>
       </c>
     </row>
@@ -20445,71 +20445,71 @@
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t>Bahia</t>
+          <t>Cruzeiro</t>
         </is>
       </c>
       <c r="G218" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>Vasco</t>
+          <t>Bragantino</t>
         </is>
       </c>
       <c r="I218" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J218" t="n">
-        <v>2.02</v>
+        <v>2.26</v>
       </c>
       <c r="K218" t="inlineStr">
         <is>
-          <t>27/08/2023 22:42</t>
+          <t>27/08/2023 23:12</t>
         </is>
       </c>
       <c r="L218" t="n">
-        <v>2.11</v>
+        <v>2.47</v>
       </c>
       <c r="M218" t="inlineStr">
         <is>
-          <t>03/09/2023 23:26</t>
+          <t>03/09/2023 23:19</t>
         </is>
       </c>
       <c r="N218" t="n">
-        <v>3.43</v>
+        <v>3.32</v>
       </c>
       <c r="O218" t="inlineStr">
         <is>
-          <t>27/08/2023 22:42</t>
+          <t>27/08/2023 23:12</t>
         </is>
       </c>
       <c r="P218" t="n">
-        <v>3.33</v>
+        <v>3.14</v>
       </c>
       <c r="Q218" t="inlineStr">
         <is>
-          <t>03/09/2023 23:29</t>
+          <t>03/09/2023 23:09</t>
         </is>
       </c>
       <c r="R218" t="n">
-        <v>4.04</v>
+        <v>3.47</v>
       </c>
       <c r="S218" t="inlineStr">
         <is>
-          <t>27/08/2023 22:42</t>
+          <t>27/08/2023 23:12</t>
         </is>
       </c>
       <c r="T218" t="n">
-        <v>3.95</v>
+        <v>3.29</v>
       </c>
       <c r="U218" t="inlineStr">
         <is>
-          <t>03/09/2023 23:29</t>
+          <t>03/09/2023 23:07</t>
         </is>
       </c>
       <c r="V218" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/bahia-vasco/4lJL7EBo/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/cruzeiro-bragantino/YTl7liBN/</t>
         </is>
       </c>
     </row>
@@ -20721,22 +20721,22 @@
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t>Fortaleza</t>
+          <t>Santos</t>
         </is>
       </c>
       <c r="G221" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H221" t="inlineStr">
         <is>
-          <t>Corinthians</t>
+          <t>Cruzeiro</t>
         </is>
       </c>
       <c r="I221" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J221" t="n">
-        <v>1.74</v>
+        <v>2.7</v>
       </c>
       <c r="K221" t="inlineStr">
         <is>
@@ -20744,15 +20744,15 @@
         </is>
       </c>
       <c r="L221" t="n">
-        <v>1.6</v>
+        <v>2.4</v>
       </c>
       <c r="M221" t="inlineStr">
         <is>
-          <t>14/09/2023 23:53</t>
+          <t>14/09/2023 23:55</t>
         </is>
       </c>
       <c r="N221" t="n">
-        <v>3.74</v>
+        <v>3.08</v>
       </c>
       <c r="O221" t="inlineStr">
         <is>
@@ -20760,15 +20760,15 @@
         </is>
       </c>
       <c r="P221" t="n">
-        <v>3.87</v>
+        <v>3.12</v>
       </c>
       <c r="Q221" t="inlineStr">
         <is>
-          <t>14/09/2023 23:57</t>
+          <t>14/09/2023 23:55</t>
         </is>
       </c>
       <c r="R221" t="n">
-        <v>5.21</v>
+        <v>2.92</v>
       </c>
       <c r="S221" t="inlineStr">
         <is>
@@ -20776,16 +20776,16 @@
         </is>
       </c>
       <c r="T221" t="n">
-        <v>6.84</v>
+        <v>3.44</v>
       </c>
       <c r="U221" t="inlineStr">
         <is>
-          <t>14/09/2023 23:57</t>
+          <t>14/09/2023 23:54</t>
         </is>
       </c>
       <c r="V221" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/fortaleza-corinthians/jPuc75H2/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/santos-cruzeiro/nXEt3jQG/</t>
         </is>
       </c>
     </row>
@@ -20813,22 +20813,22 @@
       </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t>Santos</t>
+          <t>Fortaleza</t>
         </is>
       </c>
       <c r="G222" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H222" t="inlineStr">
         <is>
-          <t>Cruzeiro</t>
+          <t>Corinthians</t>
         </is>
       </c>
       <c r="I222" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J222" t="n">
-        <v>2.7</v>
+        <v>1.74</v>
       </c>
       <c r="K222" t="inlineStr">
         <is>
@@ -20836,15 +20836,15 @@
         </is>
       </c>
       <c r="L222" t="n">
-        <v>2.4</v>
+        <v>1.6</v>
       </c>
       <c r="M222" t="inlineStr">
         <is>
-          <t>14/09/2023 23:55</t>
+          <t>14/09/2023 23:53</t>
         </is>
       </c>
       <c r="N222" t="n">
-        <v>3.08</v>
+        <v>3.74</v>
       </c>
       <c r="O222" t="inlineStr">
         <is>
@@ -20852,15 +20852,15 @@
         </is>
       </c>
       <c r="P222" t="n">
-        <v>3.12</v>
+        <v>3.87</v>
       </c>
       <c r="Q222" t="inlineStr">
         <is>
-          <t>14/09/2023 23:55</t>
+          <t>14/09/2023 23:57</t>
         </is>
       </c>
       <c r="R222" t="n">
-        <v>2.92</v>
+        <v>5.21</v>
       </c>
       <c r="S222" t="inlineStr">
         <is>
@@ -20868,16 +20868,16 @@
         </is>
       </c>
       <c r="T222" t="n">
-        <v>3.44</v>
+        <v>6.84</v>
       </c>
       <c r="U222" t="inlineStr">
         <is>
-          <t>14/09/2023 23:54</t>
+          <t>14/09/2023 23:57</t>
         </is>
       </c>
       <c r="V222" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/santos-cruzeiro/nXEt3jQG/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/fortaleza-corinthians/jPuc75H2/</t>
         </is>
       </c>
     </row>
@@ -22653,7 +22653,7 @@
       </c>
       <c r="F242" t="inlineStr">
         <is>
-          <t>Fortaleza</t>
+          <t>Flamengo RJ</t>
         </is>
       </c>
       <c r="G242" t="n">
@@ -22661,14 +22661,14 @@
       </c>
       <c r="H242" t="inlineStr">
         <is>
-          <t>Gremio</t>
+          <t>Bahia</t>
         </is>
       </c>
       <c r="I242" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J242" t="n">
-        <v>2</v>
+        <v>1.37</v>
       </c>
       <c r="K242" t="inlineStr">
         <is>
@@ -22676,48 +22676,48 @@
         </is>
       </c>
       <c r="L242" t="n">
-        <v>2.64</v>
+        <v>1.54</v>
       </c>
       <c r="M242" t="inlineStr">
         <is>
+          <t>30/09/2023 20:37</t>
+        </is>
+      </c>
+      <c r="N242" t="n">
+        <v>5.38</v>
+      </c>
+      <c r="O242" t="inlineStr">
+        <is>
+          <t>22/09/2023 20:42</t>
+        </is>
+      </c>
+      <c r="P242" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="Q242" t="inlineStr">
+        <is>
+          <t>30/09/2023 20:56</t>
+        </is>
+      </c>
+      <c r="R242" t="n">
+        <v>7.89</v>
+      </c>
+      <c r="S242" t="inlineStr">
+        <is>
+          <t>22/09/2023 20:42</t>
+        </is>
+      </c>
+      <c r="T242" t="n">
+        <v>6.51</v>
+      </c>
+      <c r="U242" t="inlineStr">
+        <is>
           <t>30/09/2023 20:46</t>
         </is>
       </c>
-      <c r="N242" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="O242" t="inlineStr">
-        <is>
-          <t>22/09/2023 20:42</t>
-        </is>
-      </c>
-      <c r="P242" t="n">
-        <v>3.29</v>
-      </c>
-      <c r="Q242" t="inlineStr">
-        <is>
-          <t>30/09/2023 19:43</t>
-        </is>
-      </c>
-      <c r="R242" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="S242" t="inlineStr">
-        <is>
-          <t>22/09/2023 20:42</t>
-        </is>
-      </c>
-      <c r="T242" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="U242" t="inlineStr">
-        <is>
-          <t>30/09/2023 20:55</t>
-        </is>
-      </c>
       <c r="V242" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/fortaleza-gremio/EuYLWLpE/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/flamengo-rj-bahia/KICnIMVK/</t>
         </is>
       </c>
     </row>
@@ -22745,7 +22745,7 @@
       </c>
       <c r="F243" t="inlineStr">
         <is>
-          <t>Flamengo RJ</t>
+          <t>Fortaleza</t>
         </is>
       </c>
       <c r="G243" t="n">
@@ -22753,14 +22753,14 @@
       </c>
       <c r="H243" t="inlineStr">
         <is>
-          <t>Bahia</t>
+          <t>Gremio</t>
         </is>
       </c>
       <c r="I243" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J243" t="n">
-        <v>1.37</v>
+        <v>2</v>
       </c>
       <c r="K243" t="inlineStr">
         <is>
@@ -22768,15 +22768,15 @@
         </is>
       </c>
       <c r="L243" t="n">
-        <v>1.54</v>
+        <v>2.64</v>
       </c>
       <c r="M243" t="inlineStr">
         <is>
-          <t>30/09/2023 20:37</t>
+          <t>30/09/2023 20:46</t>
         </is>
       </c>
       <c r="N243" t="n">
-        <v>5.38</v>
+        <v>3.55</v>
       </c>
       <c r="O243" t="inlineStr">
         <is>
@@ -22784,15 +22784,15 @@
         </is>
       </c>
       <c r="P243" t="n">
-        <v>4.35</v>
+        <v>3.29</v>
       </c>
       <c r="Q243" t="inlineStr">
         <is>
-          <t>30/09/2023 20:56</t>
+          <t>30/09/2023 19:43</t>
         </is>
       </c>
       <c r="R243" t="n">
-        <v>7.89</v>
+        <v>3.86</v>
       </c>
       <c r="S243" t="inlineStr">
         <is>
@@ -22800,16 +22800,16 @@
         </is>
       </c>
       <c r="T243" t="n">
-        <v>6.51</v>
+        <v>2.9</v>
       </c>
       <c r="U243" t="inlineStr">
         <is>
-          <t>30/09/2023 20:46</t>
+          <t>30/09/2023 20:55</t>
         </is>
       </c>
       <c r="V243" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/flamengo-rj-bahia/KICnIMVK/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/fortaleza-gremio/EuYLWLpE/</t>
         </is>
       </c>
     </row>
@@ -23113,71 +23113,71 @@
       </c>
       <c r="F247" t="inlineStr">
         <is>
-          <t>Cruzeiro</t>
+          <t>Coritiba</t>
         </is>
       </c>
       <c r="G247" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H247" t="inlineStr">
         <is>
-          <t>America MG</t>
+          <t>Athletico-PR</t>
         </is>
       </c>
       <c r="I247" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J247" t="n">
-        <v>1.71</v>
+        <v>3.07</v>
       </c>
       <c r="K247" t="inlineStr">
         <is>
-          <t>26/09/2023 00:12</t>
+          <t>27/09/2023 23:12</t>
         </is>
       </c>
       <c r="L247" t="n">
-        <v>1.74</v>
+        <v>3.68</v>
       </c>
       <c r="M247" t="inlineStr">
         <is>
-          <t>01/10/2023 20:59</t>
+          <t>01/10/2023 20:56</t>
         </is>
       </c>
       <c r="N247" t="n">
-        <v>3.88</v>
+        <v>3.23</v>
       </c>
       <c r="O247" t="inlineStr">
         <is>
-          <t>26/09/2023 00:12</t>
+          <t>27/09/2023 23:12</t>
         </is>
       </c>
       <c r="P247" t="n">
-        <v>3.8</v>
+        <v>3.26</v>
       </c>
       <c r="Q247" t="inlineStr">
         <is>
-          <t>01/10/2023 20:59</t>
+          <t>01/10/2023 20:29</t>
         </is>
       </c>
       <c r="R247" t="n">
-        <v>5.17</v>
+        <v>2.48</v>
       </c>
       <c r="S247" t="inlineStr">
         <is>
-          <t>26/09/2023 00:12</t>
+          <t>27/09/2023 23:12</t>
         </is>
       </c>
       <c r="T247" t="n">
-        <v>5.18</v>
+        <v>2.22</v>
       </c>
       <c r="U247" t="inlineStr">
         <is>
-          <t>01/10/2023 20:59</t>
+          <t>01/10/2023 20:56</t>
         </is>
       </c>
       <c r="V247" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/cruzeiro-america-mg/4AjV9bw1/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/coritiba-athletico-pr/0xpv8x8D/</t>
         </is>
       </c>
     </row>
@@ -23205,71 +23205,71 @@
       </c>
       <c r="F248" t="inlineStr">
         <is>
-          <t>Coritiba</t>
+          <t>Cruzeiro</t>
         </is>
       </c>
       <c r="G248" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H248" t="inlineStr">
         <is>
-          <t>Athletico-PR</t>
+          <t>America MG</t>
         </is>
       </c>
       <c r="I248" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J248" t="n">
-        <v>3.07</v>
+        <v>1.71</v>
       </c>
       <c r="K248" t="inlineStr">
         <is>
-          <t>27/09/2023 23:12</t>
+          <t>26/09/2023 00:12</t>
         </is>
       </c>
       <c r="L248" t="n">
-        <v>3.68</v>
+        <v>1.74</v>
       </c>
       <c r="M248" t="inlineStr">
         <is>
-          <t>01/10/2023 20:56</t>
+          <t>01/10/2023 20:59</t>
         </is>
       </c>
       <c r="N248" t="n">
-        <v>3.23</v>
+        <v>3.88</v>
       </c>
       <c r="O248" t="inlineStr">
         <is>
-          <t>27/09/2023 23:12</t>
+          <t>26/09/2023 00:12</t>
         </is>
       </c>
       <c r="P248" t="n">
-        <v>3.26</v>
+        <v>3.8</v>
       </c>
       <c r="Q248" t="inlineStr">
         <is>
-          <t>01/10/2023 20:29</t>
+          <t>01/10/2023 20:59</t>
         </is>
       </c>
       <c r="R248" t="n">
-        <v>2.48</v>
+        <v>5.17</v>
       </c>
       <c r="S248" t="inlineStr">
         <is>
-          <t>27/09/2023 23:12</t>
+          <t>26/09/2023 00:12</t>
         </is>
       </c>
       <c r="T248" t="n">
-        <v>2.22</v>
+        <v>5.18</v>
       </c>
       <c r="U248" t="inlineStr">
         <is>
-          <t>01/10/2023 20:56</t>
+          <t>01/10/2023 20:59</t>
         </is>
       </c>
       <c r="V248" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/coritiba-athletico-pr/0xpv8x8D/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/cruzeiro-america-mg/4AjV9bw1/</t>
         </is>
       </c>
     </row>
@@ -23849,71 +23849,71 @@
       </c>
       <c r="F255" t="inlineStr">
         <is>
-          <t>Palmeiras</t>
+          <t>Fluminense</t>
         </is>
       </c>
       <c r="G255" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H255" t="inlineStr">
         <is>
-          <t>Santos</t>
+          <t>Botafogo RJ</t>
         </is>
       </c>
       <c r="I255" t="n">
         <v>2</v>
       </c>
       <c r="J255" t="n">
-        <v>1.35</v>
+        <v>2.08</v>
       </c>
       <c r="K255" t="inlineStr">
         <is>
-          <t>01/10/2023 22:42</t>
+          <t>03/10/2023 00:13</t>
         </is>
       </c>
       <c r="L255" t="n">
-        <v>1.44</v>
+        <v>1.95</v>
       </c>
       <c r="M255" t="inlineStr">
         <is>
-          <t>08/10/2023 20:49</t>
+          <t>08/10/2023 20:59</t>
         </is>
       </c>
       <c r="N255" t="n">
-        <v>5.12</v>
+        <v>3.21</v>
       </c>
       <c r="O255" t="inlineStr">
         <is>
-          <t>01/10/2023 22:42</t>
+          <t>03/10/2023 00:13</t>
         </is>
       </c>
       <c r="P255" t="n">
-        <v>4.48</v>
+        <v>3.52</v>
       </c>
       <c r="Q255" t="inlineStr">
         <is>
-          <t>08/10/2023 20:58</t>
+          <t>08/10/2023 20:59</t>
         </is>
       </c>
       <c r="R255" t="n">
-        <v>9.890000000000001</v>
+        <v>4.03</v>
       </c>
       <c r="S255" t="inlineStr">
         <is>
-          <t>01/10/2023 22:42</t>
+          <t>03/10/2023 00:13</t>
         </is>
       </c>
       <c r="T255" t="n">
-        <v>8.73</v>
+        <v>4.29</v>
       </c>
       <c r="U255" t="inlineStr">
         <is>
-          <t>08/10/2023 20:58</t>
+          <t>08/10/2023 20:59</t>
         </is>
       </c>
       <c r="V255" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/palmeiras-santos/6wD0Pwwl/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/fluminense-botafogo-rj/A7RUUaFQ/</t>
         </is>
       </c>
     </row>
@@ -23941,71 +23941,71 @@
       </c>
       <c r="F256" t="inlineStr">
         <is>
-          <t>Fluminense</t>
+          <t>Internacional</t>
         </is>
       </c>
       <c r="G256" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H256" t="inlineStr">
         <is>
-          <t>Botafogo RJ</t>
+          <t>Gremio</t>
         </is>
       </c>
       <c r="I256" t="n">
         <v>2</v>
       </c>
       <c r="J256" t="n">
-        <v>2.08</v>
+        <v>2.29</v>
       </c>
       <c r="K256" t="inlineStr">
         <is>
-          <t>03/10/2023 00:13</t>
+          <t>01/10/2023 01:12</t>
         </is>
       </c>
       <c r="L256" t="n">
-        <v>1.95</v>
+        <v>2.29</v>
       </c>
       <c r="M256" t="inlineStr">
         <is>
-          <t>08/10/2023 20:59</t>
+          <t>08/10/2023 20:56</t>
         </is>
       </c>
       <c r="N256" t="n">
-        <v>3.21</v>
+        <v>3.3</v>
       </c>
       <c r="O256" t="inlineStr">
         <is>
-          <t>03/10/2023 00:13</t>
+          <t>01/10/2023 01:12</t>
         </is>
       </c>
       <c r="P256" t="n">
-        <v>3.52</v>
+        <v>3.26</v>
       </c>
       <c r="Q256" t="inlineStr">
         <is>
-          <t>08/10/2023 20:59</t>
+          <t>08/10/2023 20:51</t>
         </is>
       </c>
       <c r="R256" t="n">
-        <v>4.03</v>
+        <v>3.43</v>
       </c>
       <c r="S256" t="inlineStr">
         <is>
-          <t>03/10/2023 00:13</t>
+          <t>01/10/2023 01:12</t>
         </is>
       </c>
       <c r="T256" t="n">
-        <v>4.29</v>
+        <v>3.53</v>
       </c>
       <c r="U256" t="inlineStr">
         <is>
-          <t>08/10/2023 20:59</t>
+          <t>08/10/2023 20:56</t>
         </is>
       </c>
       <c r="V256" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/fluminense-botafogo-rj/A7RUUaFQ/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/internacional-gremio/829HLexD/</t>
         </is>
       </c>
     </row>
@@ -24033,71 +24033,71 @@
       </c>
       <c r="F257" t="inlineStr">
         <is>
-          <t>Internacional</t>
+          <t>Palmeiras</t>
         </is>
       </c>
       <c r="G257" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H257" t="inlineStr">
         <is>
-          <t>Gremio</t>
+          <t>Santos</t>
         </is>
       </c>
       <c r="I257" t="n">
         <v>2</v>
       </c>
       <c r="J257" t="n">
-        <v>2.29</v>
+        <v>1.35</v>
       </c>
       <c r="K257" t="inlineStr">
         <is>
-          <t>01/10/2023 01:12</t>
+          <t>01/10/2023 22:42</t>
         </is>
       </c>
       <c r="L257" t="n">
-        <v>2.29</v>
+        <v>1.44</v>
       </c>
       <c r="M257" t="inlineStr">
         <is>
-          <t>08/10/2023 20:56</t>
+          <t>08/10/2023 20:49</t>
         </is>
       </c>
       <c r="N257" t="n">
-        <v>3.3</v>
+        <v>5.12</v>
       </c>
       <c r="O257" t="inlineStr">
         <is>
-          <t>01/10/2023 01:12</t>
+          <t>01/10/2023 22:42</t>
         </is>
       </c>
       <c r="P257" t="n">
-        <v>3.26</v>
+        <v>4.48</v>
       </c>
       <c r="Q257" t="inlineStr">
         <is>
-          <t>08/10/2023 20:51</t>
+          <t>08/10/2023 20:58</t>
         </is>
       </c>
       <c r="R257" t="n">
-        <v>3.43</v>
+        <v>9.890000000000001</v>
       </c>
       <c r="S257" t="inlineStr">
         <is>
-          <t>01/10/2023 01:12</t>
+          <t>01/10/2023 22:42</t>
         </is>
       </c>
       <c r="T257" t="n">
-        <v>3.53</v>
+        <v>8.73</v>
       </c>
       <c r="U257" t="inlineStr">
         <is>
-          <t>08/10/2023 20:56</t>
+          <t>08/10/2023 20:58</t>
         </is>
       </c>
       <c r="V257" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/internacional-gremio/829HLexD/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/palmeiras-santos/6wD0Pwwl/</t>
         </is>
       </c>
     </row>
@@ -24769,22 +24769,22 @@
       </c>
       <c r="F265" t="inlineStr">
         <is>
-          <t>Goias</t>
+          <t>Bahia</t>
         </is>
       </c>
       <c r="G265" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H265" t="inlineStr">
         <is>
-          <t>Sao Paulo</t>
+          <t>Internacional</t>
         </is>
       </c>
       <c r="I265" t="n">
         <v>0</v>
       </c>
       <c r="J265" t="n">
-        <v>3.02</v>
+        <v>2.23</v>
       </c>
       <c r="K265" t="inlineStr">
         <is>
@@ -24792,15 +24792,15 @@
         </is>
       </c>
       <c r="L265" t="n">
-        <v>3.79</v>
+        <v>2.07</v>
       </c>
       <c r="M265" t="inlineStr">
         <is>
-          <t>19/10/2023 02:27</t>
+          <t>19/10/2023 02:29</t>
         </is>
       </c>
       <c r="N265" t="n">
-        <v>3.09</v>
+        <v>3.32</v>
       </c>
       <c r="O265" t="inlineStr">
         <is>
@@ -24808,15 +24808,15 @@
         </is>
       </c>
       <c r="P265" t="n">
-        <v>3.19</v>
+        <v>3.37</v>
       </c>
       <c r="Q265" t="inlineStr">
         <is>
-          <t>19/10/2023 02:27</t>
+          <t>19/10/2023 02:21</t>
         </is>
       </c>
       <c r="R265" t="n">
-        <v>2.66</v>
+        <v>3.54</v>
       </c>
       <c r="S265" t="inlineStr">
         <is>
@@ -24824,16 +24824,16 @@
         </is>
       </c>
       <c r="T265" t="n">
-        <v>2.22</v>
+        <v>4.04</v>
       </c>
       <c r="U265" t="inlineStr">
         <is>
-          <t>19/10/2023 02:27</t>
+          <t>19/10/2023 02:29</t>
         </is>
       </c>
       <c r="V265" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/goias-sao-paulo/b76rzei6/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/bahia-internacional/KEG2ujTo/</t>
         </is>
       </c>
     </row>
@@ -24861,22 +24861,22 @@
       </c>
       <c r="F266" t="inlineStr">
         <is>
-          <t>Bahia</t>
+          <t>Goias</t>
         </is>
       </c>
       <c r="G266" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H266" t="inlineStr">
         <is>
-          <t>Internacional</t>
+          <t>Sao Paulo</t>
         </is>
       </c>
       <c r="I266" t="n">
         <v>0</v>
       </c>
       <c r="J266" t="n">
-        <v>2.23</v>
+        <v>3.02</v>
       </c>
       <c r="K266" t="inlineStr">
         <is>
@@ -24884,15 +24884,15 @@
         </is>
       </c>
       <c r="L266" t="n">
-        <v>2.07</v>
+        <v>3.79</v>
       </c>
       <c r="M266" t="inlineStr">
         <is>
-          <t>19/10/2023 02:29</t>
+          <t>19/10/2023 02:27</t>
         </is>
       </c>
       <c r="N266" t="n">
-        <v>3.32</v>
+        <v>3.09</v>
       </c>
       <c r="O266" t="inlineStr">
         <is>
@@ -24900,15 +24900,15 @@
         </is>
       </c>
       <c r="P266" t="n">
-        <v>3.37</v>
+        <v>3.19</v>
       </c>
       <c r="Q266" t="inlineStr">
         <is>
-          <t>19/10/2023 02:21</t>
+          <t>19/10/2023 02:27</t>
         </is>
       </c>
       <c r="R266" t="n">
-        <v>3.54</v>
+        <v>2.66</v>
       </c>
       <c r="S266" t="inlineStr">
         <is>
@@ -24916,16 +24916,16 @@
         </is>
       </c>
       <c r="T266" t="n">
-        <v>4.04</v>
+        <v>2.22</v>
       </c>
       <c r="U266" t="inlineStr">
         <is>
-          <t>19/10/2023 02:29</t>
+          <t>19/10/2023 02:27</t>
         </is>
       </c>
       <c r="V266" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/bahia-internacional/KEG2ujTo/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/goias-sao-paulo/b76rzei6/</t>
         </is>
       </c>
     </row>
@@ -25413,22 +25413,22 @@
       </c>
       <c r="F272" t="inlineStr">
         <is>
-          <t>Cuiaba</t>
+          <t>Bahia</t>
         </is>
       </c>
       <c r="G272" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H272" t="inlineStr">
         <is>
-          <t>Goias</t>
+          <t>Fortaleza</t>
         </is>
       </c>
       <c r="I272" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J272" t="n">
-        <v>1.81</v>
+        <v>2.3</v>
       </c>
       <c r="K272" t="inlineStr">
         <is>
@@ -25436,15 +25436,15 @@
         </is>
       </c>
       <c r="L272" t="n">
-        <v>2.05</v>
+        <v>2.09</v>
       </c>
       <c r="M272" t="inlineStr">
         <is>
-          <t>21/10/2023 23:28</t>
+          <t>21/10/2023 23:22</t>
         </is>
       </c>
       <c r="N272" t="n">
-        <v>3.48</v>
+        <v>3.33</v>
       </c>
       <c r="O272" t="inlineStr">
         <is>
@@ -25452,15 +25452,15 @@
         </is>
       </c>
       <c r="P272" t="n">
-        <v>3.18</v>
+        <v>3.39</v>
       </c>
       <c r="Q272" t="inlineStr">
         <is>
-          <t>21/10/2023 23:28</t>
+          <t>21/10/2023 23:18</t>
         </is>
       </c>
       <c r="R272" t="n">
-        <v>4.93</v>
+        <v>3.36</v>
       </c>
       <c r="S272" t="inlineStr">
         <is>
@@ -25468,16 +25468,16 @@
         </is>
       </c>
       <c r="T272" t="n">
-        <v>4.4</v>
+        <v>3.93</v>
       </c>
       <c r="U272" t="inlineStr">
         <is>
-          <t>21/10/2023 23:28</t>
+          <t>21/10/2023 23:22</t>
         </is>
       </c>
       <c r="V272" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/cuiaba-goias/ziGnydgc/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/bahia-fortaleza/d0Hrxxvi/</t>
         </is>
       </c>
     </row>
@@ -25505,22 +25505,22 @@
       </c>
       <c r="F273" t="inlineStr">
         <is>
-          <t>Bahia</t>
+          <t>Cuiaba</t>
         </is>
       </c>
       <c r="G273" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H273" t="inlineStr">
         <is>
-          <t>Fortaleza</t>
+          <t>Goias</t>
         </is>
       </c>
       <c r="I273" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J273" t="n">
-        <v>2.3</v>
+        <v>1.81</v>
       </c>
       <c r="K273" t="inlineStr">
         <is>
@@ -25528,15 +25528,15 @@
         </is>
       </c>
       <c r="L273" t="n">
-        <v>2.09</v>
+        <v>2.05</v>
       </c>
       <c r="M273" t="inlineStr">
         <is>
-          <t>21/10/2023 23:22</t>
+          <t>21/10/2023 23:28</t>
         </is>
       </c>
       <c r="N273" t="n">
-        <v>3.33</v>
+        <v>3.48</v>
       </c>
       <c r="O273" t="inlineStr">
         <is>
@@ -25544,15 +25544,15 @@
         </is>
       </c>
       <c r="P273" t="n">
-        <v>3.39</v>
+        <v>3.18</v>
       </c>
       <c r="Q273" t="inlineStr">
         <is>
-          <t>21/10/2023 23:18</t>
+          <t>21/10/2023 23:28</t>
         </is>
       </c>
       <c r="R273" t="n">
-        <v>3.36</v>
+        <v>4.93</v>
       </c>
       <c r="S273" t="inlineStr">
         <is>
@@ -25560,16 +25560,16 @@
         </is>
       </c>
       <c r="T273" t="n">
-        <v>3.93</v>
+        <v>4.4</v>
       </c>
       <c r="U273" t="inlineStr">
         <is>
-          <t>21/10/2023 23:22</t>
+          <t>21/10/2023 23:28</t>
         </is>
       </c>
       <c r="V273" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/bahia-fortaleza/d0Hrxxvi/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/cuiaba-goias/ziGnydgc/</t>
         </is>
       </c>
     </row>
@@ -25662,6 +25662,650 @@
       <c r="V274" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/brazil/serie-a/sao-paulo-gremio/nR7Jy8SA/</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="1" t="n">
+        <v>274</v>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>brazil</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>serie-a</t>
+        </is>
+      </c>
+      <c r="D275" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E275" s="2" t="n">
+        <v>45221.83333333334</v>
+      </c>
+      <c r="F275" t="inlineStr">
+        <is>
+          <t>Botafogo RJ</t>
+        </is>
+      </c>
+      <c r="G275" t="n">
+        <v>1</v>
+      </c>
+      <c r="H275" t="inlineStr">
+        <is>
+          <t>Athletico-PR</t>
+        </is>
+      </c>
+      <c r="I275" t="n">
+        <v>1</v>
+      </c>
+      <c r="J275" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>22/10/2023 01:59</t>
+        </is>
+      </c>
+      <c r="L275" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="M275" t="inlineStr">
+        <is>
+          <t>22/10/2023 01:59</t>
+        </is>
+      </c>
+      <c r="N275" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="O275" t="inlineStr">
+        <is>
+          <t>22/10/2023 01:59</t>
+        </is>
+      </c>
+      <c r="P275" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="Q275" t="inlineStr">
+        <is>
+          <t>22/10/2023 01:59</t>
+        </is>
+      </c>
+      <c r="R275" t="n">
+        <v>4.87</v>
+      </c>
+      <c r="S275" t="inlineStr">
+        <is>
+          <t>22/10/2023 01:59</t>
+        </is>
+      </c>
+      <c r="T275" t="n">
+        <v>4.87</v>
+      </c>
+      <c r="U275" t="inlineStr">
+        <is>
+          <t>22/10/2023 01:59</t>
+        </is>
+      </c>
+      <c r="V275" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/botafogo-rj-athletico-pr/h48FxlD4/</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="1" t="n">
+        <v>275</v>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>brazil</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>serie-a</t>
+        </is>
+      </c>
+      <c r="D276" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E276" s="2" t="n">
+        <v>45221.875</v>
+      </c>
+      <c r="F276" t="inlineStr">
+        <is>
+          <t>Flamengo RJ</t>
+        </is>
+      </c>
+      <c r="G276" t="n">
+        <v>1</v>
+      </c>
+      <c r="H276" t="inlineStr">
+        <is>
+          <t>Vasco</t>
+        </is>
+      </c>
+      <c r="I276" t="n">
+        <v>0</v>
+      </c>
+      <c r="J276" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>19/10/2023 23:13</t>
+        </is>
+      </c>
+      <c r="L276" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="M276" t="inlineStr">
+        <is>
+          <t>22/10/2023 20:53</t>
+        </is>
+      </c>
+      <c r="N276" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="O276" t="inlineStr">
+        <is>
+          <t>19/10/2023 23:13</t>
+        </is>
+      </c>
+      <c r="P276" t="n">
+        <v>3.77</v>
+      </c>
+      <c r="Q276" t="inlineStr">
+        <is>
+          <t>22/10/2023 20:53</t>
+        </is>
+      </c>
+      <c r="R276" t="n">
+        <v>5.59</v>
+      </c>
+      <c r="S276" t="inlineStr">
+        <is>
+          <t>19/10/2023 23:13</t>
+        </is>
+      </c>
+      <c r="T276" t="n">
+        <v>5.61</v>
+      </c>
+      <c r="U276" t="inlineStr">
+        <is>
+          <t>22/10/2023 20:53</t>
+        </is>
+      </c>
+      <c r="V276" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/flamengo-rj-vasco/tU4BwUcb/</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="1" t="n">
+        <v>276</v>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>brazil</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>serie-a</t>
+        </is>
+      </c>
+      <c r="D277" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E277" s="2" t="n">
+        <v>45221.875</v>
+      </c>
+      <c r="F277" t="inlineStr">
+        <is>
+          <t>Atletico-MG</t>
+        </is>
+      </c>
+      <c r="G277" t="n">
+        <v>0</v>
+      </c>
+      <c r="H277" t="inlineStr">
+        <is>
+          <t>Cruzeiro</t>
+        </is>
+      </c>
+      <c r="I277" t="n">
+        <v>1</v>
+      </c>
+      <c r="J277" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>19/10/2023 23:12</t>
+        </is>
+      </c>
+      <c r="L277" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="M277" t="inlineStr">
+        <is>
+          <t>22/10/2023 20:52</t>
+        </is>
+      </c>
+      <c r="N277" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="O277" t="inlineStr">
+        <is>
+          <t>19/10/2023 23:12</t>
+        </is>
+      </c>
+      <c r="P277" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="Q277" t="inlineStr">
+        <is>
+          <t>22/10/2023 20:52</t>
+        </is>
+      </c>
+      <c r="R277" t="n">
+        <v>5.43</v>
+      </c>
+      <c r="S277" t="inlineStr">
+        <is>
+          <t>19/10/2023 23:12</t>
+        </is>
+      </c>
+      <c r="T277" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="U277" t="inlineStr">
+        <is>
+          <t>22/10/2023 20:56</t>
+        </is>
+      </c>
+      <c r="V277" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/atletico-mg-cruzeiro/Mq0WY5CT/</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="1" t="n">
+        <v>277</v>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>brazil</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>serie-a</t>
+        </is>
+      </c>
+      <c r="D278" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E278" s="2" t="n">
+        <v>45221.875</v>
+      </c>
+      <c r="F278" t="inlineStr">
+        <is>
+          <t>Internacional</t>
+        </is>
+      </c>
+      <c r="G278" t="n">
+        <v>7</v>
+      </c>
+      <c r="H278" t="inlineStr">
+        <is>
+          <t>Santos</t>
+        </is>
+      </c>
+      <c r="I278" t="n">
+        <v>1</v>
+      </c>
+      <c r="J278" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>20/10/2023 00:12</t>
+        </is>
+      </c>
+      <c r="L278" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="M278" t="inlineStr">
+        <is>
+          <t>22/10/2023 20:51</t>
+        </is>
+      </c>
+      <c r="N278" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="O278" t="inlineStr">
+        <is>
+          <t>20/10/2023 00:12</t>
+        </is>
+      </c>
+      <c r="P278" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="Q278" t="inlineStr">
+        <is>
+          <t>22/10/2023 20:55</t>
+        </is>
+      </c>
+      <c r="R278" t="n">
+        <v>5.08</v>
+      </c>
+      <c r="S278" t="inlineStr">
+        <is>
+          <t>20/10/2023 00:12</t>
+        </is>
+      </c>
+      <c r="T278" t="n">
+        <v>7.28</v>
+      </c>
+      <c r="U278" t="inlineStr">
+        <is>
+          <t>22/10/2023 20:55</t>
+        </is>
+      </c>
+      <c r="V278" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/internacional-santos/vPnbUPKp/</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="1" t="n">
+        <v>278</v>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>brazil</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>serie-a</t>
+        </is>
+      </c>
+      <c r="D279" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E279" s="2" t="n">
+        <v>45221.97916666666</v>
+      </c>
+      <c r="F279" t="inlineStr">
+        <is>
+          <t>Bragantino</t>
+        </is>
+      </c>
+      <c r="G279" t="n">
+        <v>1</v>
+      </c>
+      <c r="H279" t="inlineStr">
+        <is>
+          <t>Fluminense</t>
+        </is>
+      </c>
+      <c r="I279" t="n">
+        <v>0</v>
+      </c>
+      <c r="J279" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>20/10/2023 01:42</t>
+        </is>
+      </c>
+      <c r="L279" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="M279" t="inlineStr">
+        <is>
+          <t>22/10/2023 23:24</t>
+        </is>
+      </c>
+      <c r="N279" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="O279" t="inlineStr">
+        <is>
+          <t>20/10/2023 01:42</t>
+        </is>
+      </c>
+      <c r="P279" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="Q279" t="inlineStr">
+        <is>
+          <t>22/10/2023 23:24</t>
+        </is>
+      </c>
+      <c r="R279" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="S279" t="inlineStr">
+        <is>
+          <t>20/10/2023 01:42</t>
+        </is>
+      </c>
+      <c r="T279" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="U279" t="inlineStr">
+        <is>
+          <t>22/10/2023 23:29</t>
+        </is>
+      </c>
+      <c r="V279" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/bragantino-fluminense/rg1SZocN/</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="1" t="n">
+        <v>279</v>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>brazil</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>serie-a</t>
+        </is>
+      </c>
+      <c r="D280" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E280" s="2" t="n">
+        <v>45221.97916666666</v>
+      </c>
+      <c r="F280" t="inlineStr">
+        <is>
+          <t>Corinthians</t>
+        </is>
+      </c>
+      <c r="G280" t="n">
+        <v>1</v>
+      </c>
+      <c r="H280" t="inlineStr">
+        <is>
+          <t>America MG</t>
+        </is>
+      </c>
+      <c r="I280" t="n">
+        <v>1</v>
+      </c>
+      <c r="J280" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>20/10/2023 01:42</t>
+        </is>
+      </c>
+      <c r="L280" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="M280" t="inlineStr">
+        <is>
+          <t>22/10/2023 23:25</t>
+        </is>
+      </c>
+      <c r="N280" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="O280" t="inlineStr">
+        <is>
+          <t>20/10/2023 01:42</t>
+        </is>
+      </c>
+      <c r="P280" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="Q280" t="inlineStr">
+        <is>
+          <t>22/10/2023 23:27</t>
+        </is>
+      </c>
+      <c r="R280" t="n">
+        <v>5.03</v>
+      </c>
+      <c r="S280" t="inlineStr">
+        <is>
+          <t>20/10/2023 01:42</t>
+        </is>
+      </c>
+      <c r="T280" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="U280" t="inlineStr">
+        <is>
+          <t>22/10/2023 23:29</t>
+        </is>
+      </c>
+      <c r="V280" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/corinthians-america-mg/QH6NzSsH/</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="1" t="n">
+        <v>280</v>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>brazil</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>serie-a</t>
+        </is>
+      </c>
+      <c r="D281" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E281" s="2" t="n">
+        <v>45221.97916666666</v>
+      </c>
+      <c r="F281" t="inlineStr">
+        <is>
+          <t>Coritiba</t>
+        </is>
+      </c>
+      <c r="G281" t="n">
+        <v>0</v>
+      </c>
+      <c r="H281" t="inlineStr">
+        <is>
+          <t>Palmeiras</t>
+        </is>
+      </c>
+      <c r="I281" t="n">
+        <v>2</v>
+      </c>
+      <c r="J281" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>19/10/2023 23:13</t>
+        </is>
+      </c>
+      <c r="L281" t="n">
+        <v>5.19</v>
+      </c>
+      <c r="M281" t="inlineStr">
+        <is>
+          <t>22/10/2023 23:29</t>
+        </is>
+      </c>
+      <c r="N281" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="O281" t="inlineStr">
+        <is>
+          <t>19/10/2023 23:13</t>
+        </is>
+      </c>
+      <c r="P281" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="Q281" t="inlineStr">
+        <is>
+          <t>22/10/2023 23:27</t>
+        </is>
+      </c>
+      <c r="R281" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="S281" t="inlineStr">
+        <is>
+          <t>19/10/2023 23:13</t>
+        </is>
+      </c>
+      <c r="T281" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="U281" t="inlineStr">
+        <is>
+          <t>22/10/2023 23:29</t>
+        </is>
+      </c>
+      <c r="V281" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/coritiba-palmeiras/hSj2Tqzi/</t>
         </is>
       </c>
     </row>

--- a/2023/brazil_serie-a_2023.xlsx
+++ b/2023/brazil_serie-a_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V281"/>
+  <dimension ref="A1:V288"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -941,7 +941,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Botafogo RJ</t>
+          <t>Athletico-PR</t>
         </is>
       </c>
       <c r="G6" t="n">
@@ -949,63 +949,63 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Sao Paulo</t>
+          <t>Goias</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>2.69</v>
+        <v>1.64</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>08/04/2023 23:42</t>
+          <t>09/04/2023 08:36</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>2.46</v>
+        <v>1.64</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>15/04/2023 23:22</t>
+          <t>15/04/2023 23:27</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>3.05</v>
+        <v>4.15</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>08/04/2023 23:42</t>
+          <t>09/04/2023 08:36</t>
         </is>
       </c>
       <c r="P6" t="n">
-        <v>3.17</v>
+        <v>3.69</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>15/04/2023 23:25</t>
+          <t>15/04/2023 23:27</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>3</v>
+        <v>5.21</v>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>08/04/2023 23:42</t>
+          <t>09/04/2023 08:36</t>
         </is>
       </c>
       <c r="T6" t="n">
-        <v>3.26</v>
+        <v>6.64</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>15/04/2023 23:25</t>
+          <t>15/04/2023 23:28</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/botafogo-rj-sao-paulo/vFRENgWQ/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/athletico-pr-goias/Sv02EkgD/</t>
         </is>
       </c>
     </row>
@@ -1033,7 +1033,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Athletico-PR</t>
+          <t>Botafogo RJ</t>
         </is>
       </c>
       <c r="G7" t="n">
@@ -1041,63 +1041,63 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Goias</t>
+          <t>Sao Paulo</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>1.64</v>
+        <v>2.69</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>09/04/2023 08:36</t>
+          <t>08/04/2023 23:42</t>
         </is>
       </c>
       <c r="L7" t="n">
-        <v>1.64</v>
+        <v>2.46</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>15/04/2023 23:27</t>
+          <t>15/04/2023 23:22</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>4.15</v>
+        <v>3.05</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>09/04/2023 08:36</t>
+          <t>08/04/2023 23:42</t>
         </is>
       </c>
       <c r="P7" t="n">
-        <v>3.69</v>
+        <v>3.17</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>15/04/2023 23:27</t>
+          <t>15/04/2023 23:25</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>5.21</v>
+        <v>3</v>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>09/04/2023 08:36</t>
+          <t>08/04/2023 23:42</t>
         </is>
       </c>
       <c r="T7" t="n">
-        <v>6.64</v>
+        <v>3.26</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>15/04/2023 23:28</t>
+          <t>15/04/2023 23:25</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/athletico-pr-goias/Sv02EkgD/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/botafogo-rj-sao-paulo/vFRENgWQ/</t>
         </is>
       </c>
     </row>
@@ -1585,22 +1585,22 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Sao Paulo</t>
+          <t>Cuiaba</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>America MG</t>
+          <t>Bragantino</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" t="n">
-        <v>1.66</v>
+        <v>2.32</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
@@ -1608,15 +1608,15 @@
         </is>
       </c>
       <c r="L13" t="n">
-        <v>1.94</v>
+        <v>2.65</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>22/04/2023 23:18</t>
+          <t>22/04/2023 22:56</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>3.92</v>
+        <v>3.25</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1624,32 +1624,32 @@
         </is>
       </c>
       <c r="P13" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>22/04/2023 20:05</t>
+        </is>
+      </c>
+      <c r="R13" t="n">
         <v>3.42</v>
       </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>22/04/2023 23:18</t>
-        </is>
-      </c>
-      <c r="R13" t="n">
-        <v>5.68</v>
-      </c>
       <c r="S13" t="inlineStr">
         <is>
           <t>17/04/2023 18:42</t>
         </is>
       </c>
       <c r="T13" t="n">
-        <v>4.51</v>
+        <v>3.04</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>22/04/2023 23:18</t>
+          <t>22/04/2023 22:54</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/sao-paulo-america-mg/WWQII4pa/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/cuiaba-bragantino/xO6mYqpn/</t>
         </is>
       </c>
     </row>
@@ -1677,22 +1677,22 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Cuiaba</t>
+          <t>Sao Paulo</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Bragantino</t>
+          <t>America MG</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>2.32</v>
+        <v>1.66</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
@@ -1700,15 +1700,15 @@
         </is>
       </c>
       <c r="L14" t="n">
-        <v>2.65</v>
+        <v>1.94</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>22/04/2023 22:56</t>
+          <t>22/04/2023 23:18</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>3.25</v>
+        <v>3.92</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1716,15 +1716,15 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>3.11</v>
+        <v>3.42</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>22/04/2023 20:05</t>
+          <t>22/04/2023 23:18</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>3.42</v>
+        <v>5.68</v>
       </c>
       <c r="S14" t="inlineStr">
         <is>
@@ -1732,16 +1732,16 @@
         </is>
       </c>
       <c r="T14" t="n">
-        <v>3.04</v>
+        <v>4.51</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>22/04/2023 22:54</t>
+          <t>22/04/2023 23:18</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/cuiaba-bragantino/xO6mYqpn/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/sao-paulo-america-mg/WWQII4pa/</t>
         </is>
       </c>
     </row>
@@ -1953,22 +1953,22 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Santos</t>
+          <t>Vasco</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Atletico-MG</t>
+          <t>Palmeiras</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J17" t="n">
-        <v>3.42</v>
+        <v>3.35</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -1976,15 +1976,15 @@
         </is>
       </c>
       <c r="L17" t="n">
-        <v>3.42</v>
+        <v>3.28</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>23/04/2023 20:32</t>
+          <t>23/04/2023 20:56</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>3.27</v>
+        <v>3.39</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1992,15 +1992,15 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>3.13</v>
+        <v>3.19</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>23/04/2023 20:26</t>
+          <t>23/04/2023 20:51</t>
         </is>
       </c>
       <c r="R17" t="n">
-        <v>2.31</v>
+        <v>2.28</v>
       </c>
       <c r="S17" t="inlineStr">
         <is>
@@ -2008,16 +2008,16 @@
         </is>
       </c>
       <c r="T17" t="n">
-        <v>2.41</v>
+        <v>2.44</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>23/04/2023 20:26</t>
+          <t>23/04/2023 20:53</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/santos-atletico-mg/pzVMHOa5/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/vasco-palmeiras/xAREJpVh/</t>
         </is>
       </c>
     </row>
@@ -2045,22 +2045,22 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Vasco</t>
+          <t>Santos</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Palmeiras</t>
+          <t>Atletico-MG</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>3.35</v>
+        <v>3.42</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -2068,15 +2068,15 @@
         </is>
       </c>
       <c r="L18" t="n">
-        <v>3.28</v>
+        <v>3.42</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>23/04/2023 20:56</t>
+          <t>23/04/2023 20:32</t>
         </is>
       </c>
       <c r="N18" t="n">
-        <v>3.39</v>
+        <v>3.27</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -2084,15 +2084,15 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>3.19</v>
+        <v>3.13</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>23/04/2023 20:51</t>
+          <t>23/04/2023 20:26</t>
         </is>
       </c>
       <c r="R18" t="n">
-        <v>2.28</v>
+        <v>2.31</v>
       </c>
       <c r="S18" t="inlineStr">
         <is>
@@ -2100,16 +2100,16 @@
         </is>
       </c>
       <c r="T18" t="n">
-        <v>2.44</v>
+        <v>2.41</v>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>23/04/2023 20:53</t>
+          <t>23/04/2023 20:26</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/vasco-palmeiras/xAREJpVh/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/santos-atletico-mg/pzVMHOa5/</t>
         </is>
       </c>
     </row>
@@ -2597,71 +2597,71 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Santos</t>
+          <t>Bragantino</t>
         </is>
       </c>
       <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Cruzeiro</t>
+        </is>
+      </c>
+      <c r="I24" t="n">
         <v>3</v>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>America MG</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
-        <v>2</v>
-      </c>
       <c r="J24" t="n">
-        <v>2.04</v>
+        <v>1.75</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>24/04/2023 05:42</t>
+          <t>23/04/2023 05:13</t>
         </is>
       </c>
       <c r="L24" t="n">
-        <v>2.41</v>
+        <v>1.82</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>29/04/2023 23:26</t>
+          <t>29/04/2023 23:29</t>
         </is>
       </c>
       <c r="N24" t="n">
-        <v>3.54</v>
+        <v>3.77</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>24/04/2023 05:42</t>
+          <t>23/04/2023 05:13</t>
         </is>
       </c>
       <c r="P24" t="n">
-        <v>3.22</v>
+        <v>3.67</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>29/04/2023 23:26</t>
+          <t>29/04/2023 23:29</t>
         </is>
       </c>
       <c r="R24" t="n">
-        <v>3.73</v>
+        <v>5.06</v>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>24/04/2023 05:42</t>
+          <t>23/04/2023 05:13</t>
         </is>
       </c>
       <c r="T24" t="n">
-        <v>3.31</v>
+        <v>4.81</v>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>29/04/2023 23:26</t>
+          <t>29/04/2023 23:29</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/santos-america-mg/63b4U1qB/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/bragantino-cruzeiro/0Qc8TLbH/</t>
         </is>
       </c>
     </row>
@@ -2689,71 +2689,71 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Palmeiras</t>
+          <t>Santos</t>
         </is>
       </c>
       <c r="G25" t="n">
+        <v>3</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>America MG</t>
+        </is>
+      </c>
+      <c r="I25" t="n">
         <v>2</v>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>Corinthians</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
-        <v>1</v>
-      </c>
       <c r="J25" t="n">
-        <v>1.68</v>
+        <v>2.04</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>24/04/2023 00:12</t>
+          <t>24/04/2023 05:42</t>
         </is>
       </c>
       <c r="L25" t="n">
-        <v>1.5</v>
+        <v>2.41</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>29/04/2023 23:06</t>
+          <t>29/04/2023 23:26</t>
         </is>
       </c>
       <c r="N25" t="n">
-        <v>3.88</v>
+        <v>3.54</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>24/04/2023 00:12</t>
+          <t>24/04/2023 05:42</t>
         </is>
       </c>
       <c r="P25" t="n">
-        <v>4.07</v>
+        <v>3.22</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>29/04/2023 22:36</t>
+          <t>29/04/2023 23:26</t>
         </is>
       </c>
       <c r="R25" t="n">
-        <v>5.49</v>
+        <v>3.73</v>
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>24/04/2023 00:12</t>
+          <t>24/04/2023 05:42</t>
         </is>
       </c>
       <c r="T25" t="n">
-        <v>8.26</v>
+        <v>3.31</v>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>29/04/2023 23:06</t>
+          <t>29/04/2023 23:26</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/palmeiras-corinthians/SCa0VsU4/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/santos-america-mg/63b4U1qB/</t>
         </is>
       </c>
     </row>
@@ -2781,71 +2781,71 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Bragantino</t>
+          <t>Palmeiras</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Cruzeiro</t>
+          <t>Corinthians</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J26" t="n">
-        <v>1.75</v>
+        <v>1.68</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>23/04/2023 05:13</t>
+          <t>24/04/2023 00:12</t>
         </is>
       </c>
       <c r="L26" t="n">
-        <v>1.82</v>
+        <v>1.5</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>29/04/2023 23:29</t>
+          <t>29/04/2023 23:06</t>
         </is>
       </c>
       <c r="N26" t="n">
-        <v>3.77</v>
+        <v>3.88</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>23/04/2023 05:13</t>
+          <t>24/04/2023 00:12</t>
         </is>
       </c>
       <c r="P26" t="n">
-        <v>3.67</v>
+        <v>4.07</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>29/04/2023 23:29</t>
+          <t>29/04/2023 22:36</t>
         </is>
       </c>
       <c r="R26" t="n">
-        <v>5.06</v>
+        <v>5.49</v>
       </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t>23/04/2023 05:13</t>
+          <t>24/04/2023 00:12</t>
         </is>
       </c>
       <c r="T26" t="n">
-        <v>4.81</v>
+        <v>8.26</v>
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>29/04/2023 23:29</t>
+          <t>29/04/2023 23:06</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/bragantino-cruzeiro/0Qc8TLbH/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/palmeiras-corinthians/SCa0VsU4/</t>
         </is>
       </c>
     </row>
@@ -3609,7 +3609,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Athletico-PR</t>
+          <t>Sao Paulo</t>
         </is>
       </c>
       <c r="G35" t="n">
@@ -3617,63 +3617,63 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Flamengo RJ</t>
+          <t>Internacional</t>
         </is>
       </c>
       <c r="I35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>3.45</v>
+        <v>1.87</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>01/05/2023 02:12</t>
+          <t>01/05/2023 04:41</t>
         </is>
       </c>
       <c r="L35" t="n">
-        <v>3.01</v>
+        <v>2.05</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>07/05/2023 20:57</t>
+          <t>07/05/2023 20:59</t>
         </is>
       </c>
       <c r="N35" t="n">
-        <v>3.43</v>
+        <v>3.79</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>01/05/2023 02:12</t>
+          <t>01/05/2023 04:41</t>
         </is>
       </c>
       <c r="P35" t="n">
-        <v>3.22</v>
+        <v>3.47</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>07/05/2023 20:56</t>
+          <t>07/05/2023 20:59</t>
         </is>
       </c>
       <c r="R35" t="n">
-        <v>2.22</v>
+        <v>4.1</v>
       </c>
       <c r="S35" t="inlineStr">
         <is>
-          <t>01/05/2023 02:12</t>
+          <t>01/05/2023 04:41</t>
         </is>
       </c>
       <c r="T35" t="n">
-        <v>2.61</v>
+        <v>3.95</v>
       </c>
       <c r="U35" t="inlineStr">
         <is>
-          <t>07/05/2023 20:57</t>
+          <t>07/05/2023 20:59</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/athletico-pr-flamengo-rj/bL1QZdLj/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/sao-paulo-internacional/fmJsrLDA/</t>
         </is>
       </c>
     </row>
@@ -3701,71 +3701,71 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Sao Paulo</t>
+          <t>Bahia</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Internacional</t>
+          <t>Coritiba</t>
         </is>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J36" t="n">
-        <v>1.87</v>
+        <v>1.77</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>01/05/2023 04:41</t>
+          <t>02/05/2023 01:11</t>
         </is>
       </c>
       <c r="L36" t="n">
-        <v>2.05</v>
+        <v>1.74</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
+          <t>07/05/2023 20:50</t>
+        </is>
+      </c>
+      <c r="N36" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>02/05/2023 01:11</t>
+        </is>
+      </c>
+      <c r="P36" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="Q36" t="inlineStr">
+        <is>
           <t>07/05/2023 20:59</t>
         </is>
       </c>
-      <c r="N36" t="n">
-        <v>3.79</v>
-      </c>
-      <c r="O36" t="inlineStr">
-        <is>
-          <t>01/05/2023 04:41</t>
-        </is>
-      </c>
-      <c r="P36" t="n">
-        <v>3.47</v>
-      </c>
-      <c r="Q36" t="inlineStr">
-        <is>
-          <t>07/05/2023 20:59</t>
-        </is>
-      </c>
       <c r="R36" t="n">
-        <v>4.1</v>
+        <v>4.97</v>
       </c>
       <c r="S36" t="inlineStr">
         <is>
-          <t>01/05/2023 04:41</t>
+          <t>02/05/2023 01:11</t>
         </is>
       </c>
       <c r="T36" t="n">
-        <v>3.95</v>
+        <v>5.35</v>
       </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>07/05/2023 20:59</t>
+          <t>07/05/2023 20:50</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/sao-paulo-internacional/fmJsrLDA/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/bahia-coritiba/0Qu9btbi/</t>
         </is>
       </c>
     </row>
@@ -3793,71 +3793,71 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Bahia</t>
+          <t>Athletico-PR</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Coritiba</t>
+          <t>Flamengo RJ</t>
         </is>
       </c>
       <c r="I37" t="n">
         <v>1</v>
       </c>
       <c r="J37" t="n">
-        <v>1.77</v>
+        <v>3.45</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>02/05/2023 01:11</t>
+          <t>01/05/2023 02:12</t>
         </is>
       </c>
       <c r="L37" t="n">
-        <v>1.74</v>
+        <v>3.01</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>07/05/2023 20:50</t>
+          <t>07/05/2023 20:57</t>
         </is>
       </c>
       <c r="N37" t="n">
-        <v>3.72</v>
+        <v>3.43</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>02/05/2023 01:11</t>
+          <t>01/05/2023 02:12</t>
         </is>
       </c>
       <c r="P37" t="n">
-        <v>3.76</v>
+        <v>3.22</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>07/05/2023 20:59</t>
+          <t>07/05/2023 20:56</t>
         </is>
       </c>
       <c r="R37" t="n">
-        <v>4.97</v>
+        <v>2.22</v>
       </c>
       <c r="S37" t="inlineStr">
         <is>
-          <t>02/05/2023 01:11</t>
+          <t>01/05/2023 02:12</t>
         </is>
       </c>
       <c r="T37" t="n">
-        <v>5.35</v>
+        <v>2.61</v>
       </c>
       <c r="U37" t="inlineStr">
         <is>
-          <t>07/05/2023 20:50</t>
+          <t>07/05/2023 20:57</t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/bahia-coritiba/0Qu9btbi/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/athletico-pr-flamengo-rj/bL1QZdLj/</t>
         </is>
       </c>
     </row>
@@ -3885,22 +3885,22 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Botafogo RJ</t>
+          <t>Gremio</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Atletico-MG</t>
+          <t>Bragantino</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J38" t="n">
-        <v>2.85</v>
+        <v>1.88</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -3908,15 +3908,15 @@
         </is>
       </c>
       <c r="L38" t="n">
-        <v>3.72</v>
+        <v>1.91</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>07/05/2023 23:29</t>
+          <t>07/05/2023 23:27</t>
         </is>
       </c>
       <c r="N38" t="n">
-        <v>3.66</v>
+        <v>3.71</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
@@ -3924,15 +3924,15 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>3.33</v>
+        <v>3.6</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>07/05/2023 23:29</t>
+          <t>07/05/2023 23:23</t>
         </is>
       </c>
       <c r="R38" t="n">
-        <v>2.46</v>
+        <v>4.19</v>
       </c>
       <c r="S38" t="inlineStr">
         <is>
@@ -3940,16 +3940,16 @@
         </is>
       </c>
       <c r="T38" t="n">
-        <v>2.18</v>
+        <v>4.41</v>
       </c>
       <c r="U38" t="inlineStr">
         <is>
-          <t>07/05/2023 23:29</t>
+          <t>07/05/2023 23:27</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/botafogo-rj-atletico-mg/0QJwq1b4/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/gremio-bragantino/nobMzw6p/</t>
         </is>
       </c>
     </row>
@@ -3977,22 +3977,22 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Goias</t>
+          <t>Botafogo RJ</t>
         </is>
       </c>
       <c r="G39" t="n">
+        <v>2</v>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Atletico-MG</t>
+        </is>
+      </c>
+      <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>Palmeiras</t>
-        </is>
-      </c>
-      <c r="I39" t="n">
-        <v>5</v>
-      </c>
       <c r="J39" t="n">
-        <v>4.55</v>
+        <v>2.85</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -4000,15 +4000,15 @@
         </is>
       </c>
       <c r="L39" t="n">
-        <v>5.53</v>
+        <v>3.72</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>07/05/2023 23:20</t>
+          <t>07/05/2023 23:29</t>
         </is>
       </c>
       <c r="N39" t="n">
-        <v>3.7</v>
+        <v>3.66</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
@@ -4016,15 +4016,15 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>3.99</v>
+        <v>3.33</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>07/05/2023 23:20</t>
+          <t>07/05/2023 23:29</t>
         </is>
       </c>
       <c r="R39" t="n">
-        <v>1.81</v>
+        <v>2.46</v>
       </c>
       <c r="S39" t="inlineStr">
         <is>
@@ -4032,16 +4032,16 @@
         </is>
       </c>
       <c r="T39" t="n">
-        <v>1.67</v>
+        <v>2.18</v>
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>07/05/2023 23:20</t>
+          <t>07/05/2023 23:29</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/goias-palmeiras/jFCjtarN/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/botafogo-rj-atletico-mg/0QJwq1b4/</t>
         </is>
       </c>
     </row>
@@ -4069,22 +4069,22 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Gremio</t>
+          <t>Goias</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Bragantino</t>
+          <t>Palmeiras</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J40" t="n">
-        <v>1.88</v>
+        <v>4.55</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -4092,15 +4092,15 @@
         </is>
       </c>
       <c r="L40" t="n">
-        <v>1.91</v>
+        <v>5.53</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>07/05/2023 23:27</t>
+          <t>07/05/2023 23:20</t>
         </is>
       </c>
       <c r="N40" t="n">
-        <v>3.71</v>
+        <v>3.7</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
@@ -4108,15 +4108,15 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>3.6</v>
+        <v>3.99</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>07/05/2023 23:23</t>
+          <t>07/05/2023 23:20</t>
         </is>
       </c>
       <c r="R40" t="n">
-        <v>4.19</v>
+        <v>1.81</v>
       </c>
       <c r="S40" t="inlineStr">
         <is>
@@ -4124,16 +4124,16 @@
         </is>
       </c>
       <c r="T40" t="n">
-        <v>4.41</v>
+        <v>1.67</v>
       </c>
       <c r="U40" t="inlineStr">
         <is>
-          <t>07/05/2023 23:27</t>
+          <t>07/05/2023 23:20</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/gremio-bragantino/nobMzw6p/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/goias-palmeiras/jFCjtarN/</t>
         </is>
       </c>
     </row>
@@ -4529,22 +4529,22 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Flamengo RJ</t>
+          <t>Cuiaba</t>
         </is>
       </c>
       <c r="G45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Goias</t>
+          <t>Atletico-MG</t>
         </is>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J45" t="n">
-        <v>1.32</v>
+        <v>3.36</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
@@ -4552,15 +4552,15 @@
         </is>
       </c>
       <c r="L45" t="n">
-        <v>1.25</v>
+        <v>3.86</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>11/05/2023 00:43</t>
+          <t>11/05/2023 00:59</t>
         </is>
       </c>
       <c r="N45" t="n">
-        <v>5.65</v>
+        <v>3.3</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
@@ -4568,15 +4568,15 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>6.22</v>
+        <v>3.3</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>11/05/2023 00:58</t>
+          <t>11/05/2023 00:57</t>
         </is>
       </c>
       <c r="R45" t="n">
-        <v>9.16</v>
+        <v>2.32</v>
       </c>
       <c r="S45" t="inlineStr">
         <is>
@@ -4584,16 +4584,16 @@
         </is>
       </c>
       <c r="T45" t="n">
-        <v>12.58</v>
+        <v>2.15</v>
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>11/05/2023 00:58</t>
+          <t>11/05/2023 00:59</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/flamengo-rj-goias/8jqHdKS3/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/cuiaba-atletico-mg/CbpnAwc3/</t>
         </is>
       </c>
     </row>
@@ -4621,22 +4621,22 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Cuiaba</t>
+          <t>Flamengo RJ</t>
         </is>
       </c>
       <c r="G46" t="n">
+        <v>2</v>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Goias</t>
+        </is>
+      </c>
+      <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>Atletico-MG</t>
-        </is>
-      </c>
-      <c r="I46" t="n">
-        <v>4</v>
-      </c>
       <c r="J46" t="n">
-        <v>3.36</v>
+        <v>1.32</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
@@ -4644,15 +4644,15 @@
         </is>
       </c>
       <c r="L46" t="n">
-        <v>3.86</v>
+        <v>1.25</v>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>11/05/2023 00:59</t>
+          <t>11/05/2023 00:43</t>
         </is>
       </c>
       <c r="N46" t="n">
-        <v>3.3</v>
+        <v>5.65</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
@@ -4660,15 +4660,15 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>3.3</v>
+        <v>6.22</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>11/05/2023 00:57</t>
+          <t>11/05/2023 00:58</t>
         </is>
       </c>
       <c r="R46" t="n">
-        <v>2.32</v>
+        <v>9.16</v>
       </c>
       <c r="S46" t="inlineStr">
         <is>
@@ -4676,16 +4676,16 @@
         </is>
       </c>
       <c r="T46" t="n">
-        <v>2.15</v>
+        <v>12.58</v>
       </c>
       <c r="U46" t="inlineStr">
         <is>
-          <t>11/05/2023 00:59</t>
+          <t>11/05/2023 00:58</t>
         </is>
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/cuiaba-atletico-mg/CbpnAwc3/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/flamengo-rj-goias/8jqHdKS3/</t>
         </is>
       </c>
     </row>
@@ -5265,71 +5265,71 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Fluminense</t>
+          <t>Palmeiras</t>
         </is>
       </c>
       <c r="G53" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Cuiaba</t>
+          <t>Bragantino</t>
         </is>
       </c>
       <c r="I53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J53" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>11/05/2023 02:42</t>
+          <t>11/05/2023 16:12</t>
         </is>
       </c>
       <c r="L53" t="n">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>13/05/2023 23:27</t>
+          <t>13/05/2023 23:23</t>
         </is>
       </c>
       <c r="N53" t="n">
-        <v>5.05</v>
+        <v>4.95</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>11/05/2023 02:42</t>
+          <t>11/05/2023 16:12</t>
         </is>
       </c>
       <c r="P53" t="n">
-        <v>4.76</v>
+        <v>4.2</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>13/05/2023 23:27</t>
+          <t>13/05/2023 23:23</t>
         </is>
       </c>
       <c r="R53" t="n">
-        <v>8.529999999999999</v>
+        <v>8.949999999999999</v>
       </c>
       <c r="S53" t="inlineStr">
         <is>
-          <t>11/05/2023 02:42</t>
+          <t>11/05/2023 16:12</t>
         </is>
       </c>
       <c r="T53" t="n">
-        <v>8.029999999999999</v>
+        <v>5.91</v>
       </c>
       <c r="U53" t="inlineStr">
         <is>
-          <t>13/05/2023 23:27</t>
+          <t>13/05/2023 23:23</t>
         </is>
       </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/fluminense-cuiaba/fNZj9cC9/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/palmeiras-bragantino/0M1Ojkdr/</t>
         </is>
       </c>
     </row>
@@ -5357,71 +5357,71 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Palmeiras</t>
+          <t>Fluminense</t>
         </is>
       </c>
       <c r="G54" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Bragantino</t>
+          <t>Cuiaba</t>
         </is>
       </c>
       <c r="I54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J54" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>11/05/2023 16:12</t>
+          <t>11/05/2023 02:42</t>
         </is>
       </c>
       <c r="L54" t="n">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>13/05/2023 23:23</t>
+          <t>13/05/2023 23:27</t>
         </is>
       </c>
       <c r="N54" t="n">
-        <v>4.95</v>
+        <v>5.05</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>11/05/2023 16:12</t>
+          <t>11/05/2023 02:42</t>
         </is>
       </c>
       <c r="P54" t="n">
-        <v>4.2</v>
+        <v>4.76</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>13/05/2023 23:23</t>
+          <t>13/05/2023 23:27</t>
         </is>
       </c>
       <c r="R54" t="n">
-        <v>8.949999999999999</v>
+        <v>8.529999999999999</v>
       </c>
       <c r="S54" t="inlineStr">
         <is>
-          <t>11/05/2023 16:12</t>
+          <t>11/05/2023 02:42</t>
         </is>
       </c>
       <c r="T54" t="n">
-        <v>5.91</v>
+        <v>8.029999999999999</v>
       </c>
       <c r="U54" t="inlineStr">
         <is>
-          <t>13/05/2023 23:23</t>
+          <t>13/05/2023 23:27</t>
         </is>
       </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/palmeiras-bragantino/0M1Ojkdr/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/fluminense-cuiaba/fNZj9cC9/</t>
         </is>
       </c>
     </row>
@@ -5633,22 +5633,22 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Gremio</t>
+          <t>Corinthians</t>
         </is>
       </c>
       <c r="G57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Fortaleza</t>
+          <t>Sao Paulo</t>
         </is>
       </c>
       <c r="I57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J57" t="n">
-        <v>2.26</v>
+        <v>2.42</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
@@ -5656,15 +5656,15 @@
         </is>
       </c>
       <c r="L57" t="n">
-        <v>1.9</v>
+        <v>2.57</v>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>14/05/2023 20:59</t>
+          <t>14/05/2023 20:57</t>
         </is>
       </c>
       <c r="N57" t="n">
-        <v>3.44</v>
+        <v>3.24</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
@@ -5672,15 +5672,15 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>3.64</v>
+        <v>3.02</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>14/05/2023 20:59</t>
+          <t>14/05/2023 20:57</t>
         </is>
       </c>
       <c r="R57" t="n">
-        <v>3.27</v>
+        <v>3.23</v>
       </c>
       <c r="S57" t="inlineStr">
         <is>
@@ -5688,16 +5688,16 @@
         </is>
       </c>
       <c r="T57" t="n">
-        <v>4.38</v>
+        <v>3.25</v>
       </c>
       <c r="U57" t="inlineStr">
         <is>
-          <t>14/05/2023 20:59</t>
+          <t>14/05/2023 20:57</t>
         </is>
       </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/gremio-fortaleza/SYhum7e7/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/corinthians-sao-paulo/vD0Sk9Bl/</t>
         </is>
       </c>
     </row>
@@ -5725,22 +5725,22 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Corinthians</t>
+          <t>Gremio</t>
         </is>
       </c>
       <c r="G58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Sao Paulo</t>
+          <t>Fortaleza</t>
         </is>
       </c>
       <c r="I58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J58" t="n">
-        <v>2.42</v>
+        <v>2.26</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
@@ -5748,15 +5748,15 @@
         </is>
       </c>
       <c r="L58" t="n">
-        <v>2.57</v>
+        <v>1.9</v>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>14/05/2023 20:57</t>
+          <t>14/05/2023 20:59</t>
         </is>
       </c>
       <c r="N58" t="n">
-        <v>3.24</v>
+        <v>3.44</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
@@ -5764,15 +5764,15 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>3.02</v>
+        <v>3.64</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>14/05/2023 20:57</t>
+          <t>14/05/2023 20:59</t>
         </is>
       </c>
       <c r="R58" t="n">
-        <v>3.23</v>
+        <v>3.27</v>
       </c>
       <c r="S58" t="inlineStr">
         <is>
@@ -5780,16 +5780,16 @@
         </is>
       </c>
       <c r="T58" t="n">
-        <v>3.25</v>
+        <v>4.38</v>
       </c>
       <c r="U58" t="inlineStr">
         <is>
-          <t>14/05/2023 20:57</t>
+          <t>14/05/2023 20:59</t>
         </is>
       </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/corinthians-sao-paulo/vD0Sk9Bl/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/gremio-fortaleza/SYhum7e7/</t>
         </is>
       </c>
     </row>
@@ -5909,46 +5909,46 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>America MG</t>
+          <t>Athletico-PR</t>
         </is>
       </c>
       <c r="G60" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Cruzeiro</t>
+          <t>Coritiba</t>
         </is>
       </c>
       <c r="I60" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J60" t="n">
-        <v>2.16</v>
+        <v>1.68</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>11/05/2023 02:42</t>
+          <t>12/05/2023 00:12</t>
         </is>
       </c>
       <c r="L60" t="n">
-        <v>2.56</v>
+        <v>1.63</v>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>14/05/2023 23:27</t>
+          <t>14/05/2023 23:29</t>
         </is>
       </c>
       <c r="N60" t="n">
-        <v>3.59</v>
+        <v>3.98</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>11/05/2023 02:42</t>
+          <t>12/05/2023 00:12</t>
         </is>
       </c>
       <c r="P60" t="n">
-        <v>3.47</v>
+        <v>3.83</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
@@ -5956,24 +5956,24 @@
         </is>
       </c>
       <c r="R60" t="n">
-        <v>3.44</v>
+        <v>5.07</v>
       </c>
       <c r="S60" t="inlineStr">
         <is>
-          <t>11/05/2023 02:42</t>
+          <t>12/05/2023 00:12</t>
         </is>
       </c>
       <c r="T60" t="n">
-        <v>2.87</v>
+        <v>6.41</v>
       </c>
       <c r="U60" t="inlineStr">
         <is>
-          <t>14/05/2023 23:27</t>
+          <t>14/05/2023 23:29</t>
         </is>
       </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/america-mg-cruzeiro/MXZV9U2K/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/athletico-pr-coritiba/6PiqnRAD/</t>
         </is>
       </c>
     </row>
@@ -6001,71 +6001,71 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Athletico-PR</t>
+          <t>America MG</t>
         </is>
       </c>
       <c r="G61" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Coritiba</t>
+          <t>Cruzeiro</t>
         </is>
       </c>
       <c r="I61" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J61" t="n">
-        <v>1.68</v>
+        <v>2.16</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>12/05/2023 00:12</t>
+          <t>11/05/2023 02:42</t>
         </is>
       </c>
       <c r="L61" t="n">
-        <v>1.63</v>
+        <v>2.56</v>
       </c>
       <c r="M61" t="inlineStr">
         <is>
+          <t>14/05/2023 23:27</t>
+        </is>
+      </c>
+      <c r="N61" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>11/05/2023 02:42</t>
+        </is>
+      </c>
+      <c r="P61" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="Q61" t="inlineStr">
+        <is>
           <t>14/05/2023 23:29</t>
         </is>
       </c>
-      <c r="N61" t="n">
-        <v>3.98</v>
-      </c>
-      <c r="O61" t="inlineStr">
-        <is>
-          <t>12/05/2023 00:12</t>
-        </is>
-      </c>
-      <c r="P61" t="n">
-        <v>3.83</v>
-      </c>
-      <c r="Q61" t="inlineStr">
-        <is>
-          <t>14/05/2023 23:29</t>
-        </is>
-      </c>
       <c r="R61" t="n">
-        <v>5.07</v>
+        <v>3.44</v>
       </c>
       <c r="S61" t="inlineStr">
         <is>
-          <t>12/05/2023 00:12</t>
+          <t>11/05/2023 02:42</t>
         </is>
       </c>
       <c r="T61" t="n">
-        <v>6.41</v>
+        <v>2.87</v>
       </c>
       <c r="U61" t="inlineStr">
         <is>
-          <t>14/05/2023 23:29</t>
+          <t>14/05/2023 23:27</t>
         </is>
       </c>
       <c r="V61" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/athletico-pr-coritiba/6PiqnRAD/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/america-mg-cruzeiro/MXZV9U2K/</t>
         </is>
       </c>
     </row>
@@ -6185,30 +6185,30 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Sao Paulo</t>
+          <t>America MG</t>
         </is>
       </c>
       <c r="G63" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Vasco</t>
+          <t>Fortaleza</t>
         </is>
       </c>
       <c r="I63" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J63" t="n">
-        <v>1.94</v>
+        <v>2.63</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>15/05/2023 04:42</t>
+          <t>15/05/2023 09:42</t>
         </is>
       </c>
       <c r="L63" t="n">
-        <v>1.87</v>
+        <v>3.05</v>
       </c>
       <c r="M63" t="inlineStr">
         <is>
@@ -6216,40 +6216,40 @@
         </is>
       </c>
       <c r="N63" t="n">
-        <v>3.59</v>
+        <v>3.48</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>15/05/2023 04:42</t>
+          <t>15/05/2023 09:42</t>
         </is>
       </c>
       <c r="P63" t="n">
-        <v>3.44</v>
+        <v>3.39</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
+          <t>20/05/2023 23:26</t>
+        </is>
+      </c>
+      <c r="R63" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="S63" t="inlineStr">
+        <is>
+          <t>15/05/2023 09:42</t>
+        </is>
+      </c>
+      <c r="T63" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="U63" t="inlineStr">
+        <is>
           <t>20/05/2023 23:29</t>
         </is>
       </c>
-      <c r="R63" t="n">
-        <v>4.03</v>
-      </c>
-      <c r="S63" t="inlineStr">
-        <is>
-          <t>15/05/2023 04:42</t>
-        </is>
-      </c>
-      <c r="T63" t="n">
-        <v>4.88</v>
-      </c>
-      <c r="U63" t="inlineStr">
-        <is>
-          <t>20/05/2023 23:29</t>
-        </is>
-      </c>
       <c r="V63" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/sao-paulo-vasco/zuG63Sul/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/america-mg-fortaleza/l8gDM7nQ/</t>
         </is>
       </c>
     </row>
@@ -6277,22 +6277,22 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Coritiba</t>
+          <t>Sao Paulo</t>
         </is>
       </c>
       <c r="G64" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Atletico-MG</t>
+          <t>Vasco</t>
         </is>
       </c>
       <c r="I64" t="n">
         <v>2</v>
       </c>
       <c r="J64" t="n">
-        <v>4.39</v>
+        <v>1.94</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
@@ -6300,7 +6300,7 @@
         </is>
       </c>
       <c r="L64" t="n">
-        <v>4.83</v>
+        <v>1.87</v>
       </c>
       <c r="M64" t="inlineStr">
         <is>
@@ -6308,7 +6308,7 @@
         </is>
       </c>
       <c r="N64" t="n">
-        <v>3.46</v>
+        <v>3.59</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
@@ -6316,7 +6316,7 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>3.45</v>
+        <v>3.44</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
@@ -6324,7 +6324,7 @@
         </is>
       </c>
       <c r="R64" t="n">
-        <v>1.91</v>
+        <v>4.03</v>
       </c>
       <c r="S64" t="inlineStr">
         <is>
@@ -6332,7 +6332,7 @@
         </is>
       </c>
       <c r="T64" t="n">
-        <v>1.88</v>
+        <v>4.88</v>
       </c>
       <c r="U64" t="inlineStr">
         <is>
@@ -6341,7 +6341,7 @@
       </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/coritiba-atletico-mg/dE6Rb4fJ/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/sao-paulo-vasco/zuG63Sul/</t>
         </is>
       </c>
     </row>
@@ -6369,71 +6369,71 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Bragantino</t>
+          <t>Coritiba</t>
         </is>
       </c>
       <c r="G65" t="n">
+        <v>1</v>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>Atletico-MG</t>
+        </is>
+      </c>
+      <c r="I65" t="n">
         <v>2</v>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>Athletico-PR</t>
-        </is>
-      </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
       <c r="J65" t="n">
-        <v>2.05</v>
+        <v>4.39</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>14/05/2023 23:42</t>
+          <t>15/05/2023 04:42</t>
         </is>
       </c>
       <c r="L65" t="n">
-        <v>1.85</v>
+        <v>4.83</v>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>20/05/2023 23:06</t>
+          <t>20/05/2023 23:29</t>
         </is>
       </c>
       <c r="N65" t="n">
-        <v>3.43</v>
+        <v>3.46</v>
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>14/05/2023 23:42</t>
+          <t>15/05/2023 04:42</t>
         </is>
       </c>
       <c r="P65" t="n">
-        <v>3.64</v>
+        <v>3.45</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>20/05/2023 23:28</t>
+          <t>20/05/2023 23:29</t>
         </is>
       </c>
       <c r="R65" t="n">
-        <v>3.83</v>
+        <v>1.91</v>
       </c>
       <c r="S65" t="inlineStr">
         <is>
-          <t>14/05/2023 23:42</t>
+          <t>15/05/2023 04:42</t>
         </is>
       </c>
       <c r="T65" t="n">
-        <v>4.63</v>
+        <v>1.88</v>
       </c>
       <c r="U65" t="inlineStr">
         <is>
-          <t>20/05/2023 23:28</t>
+          <t>20/05/2023 23:29</t>
         </is>
       </c>
       <c r="V65" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/bragantino-athletico-pr/MeEE16A0/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/coritiba-atletico-mg/dE6Rb4fJ/</t>
         </is>
       </c>
     </row>
@@ -6461,22 +6461,22 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Botafogo RJ</t>
+          <t>Bragantino</t>
         </is>
       </c>
       <c r="G66" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Fluminense</t>
+          <t>Athletico-PR</t>
         </is>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
       <c r="J66" t="n">
-        <v>2.78</v>
+        <v>2.05</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
@@ -6484,15 +6484,15 @@
         </is>
       </c>
       <c r="L66" t="n">
-        <v>2.77</v>
+        <v>1.85</v>
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>20/05/2023 23:29</t>
+          <t>20/05/2023 23:06</t>
         </is>
       </c>
       <c r="N66" t="n">
-        <v>3.31</v>
+        <v>3.43</v>
       </c>
       <c r="O66" t="inlineStr">
         <is>
@@ -6500,15 +6500,15 @@
         </is>
       </c>
       <c r="P66" t="n">
-        <v>3.32</v>
+        <v>3.64</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>20/05/2023 23:29</t>
+          <t>20/05/2023 23:28</t>
         </is>
       </c>
       <c r="R66" t="n">
-        <v>2.72</v>
+        <v>3.83</v>
       </c>
       <c r="S66" t="inlineStr">
         <is>
@@ -6516,16 +6516,16 @@
         </is>
       </c>
       <c r="T66" t="n">
-        <v>2.74</v>
+        <v>4.63</v>
       </c>
       <c r="U66" t="inlineStr">
         <is>
-          <t>20/05/2023 22:51</t>
+          <t>20/05/2023 23:28</t>
         </is>
       </c>
       <c r="V66" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/botafogo-rj-fluminense/hGQ148Qs/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/bragantino-athletico-pr/MeEE16A0/</t>
         </is>
       </c>
     </row>
@@ -6553,30 +6553,30 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>America MG</t>
+          <t>Botafogo RJ</t>
         </is>
       </c>
       <c r="G67" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Fortaleza</t>
+          <t>Fluminense</t>
         </is>
       </c>
       <c r="I67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J67" t="n">
-        <v>2.63</v>
+        <v>2.78</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>15/05/2023 09:42</t>
+          <t>14/05/2023 23:42</t>
         </is>
       </c>
       <c r="L67" t="n">
-        <v>3.05</v>
+        <v>2.77</v>
       </c>
       <c r="M67" t="inlineStr">
         <is>
@@ -6584,40 +6584,40 @@
         </is>
       </c>
       <c r="N67" t="n">
-        <v>3.48</v>
+        <v>3.31</v>
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>15/05/2023 09:42</t>
+          <t>14/05/2023 23:42</t>
         </is>
       </c>
       <c r="P67" t="n">
-        <v>3.39</v>
+        <v>3.32</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>20/05/2023 23:26</t>
+          <t>20/05/2023 23:29</t>
         </is>
       </c>
       <c r="R67" t="n">
-        <v>2.69</v>
+        <v>2.72</v>
       </c>
       <c r="S67" t="inlineStr">
         <is>
-          <t>15/05/2023 09:42</t>
+          <t>14/05/2023 23:42</t>
         </is>
       </c>
       <c r="T67" t="n">
-        <v>2.47</v>
+        <v>2.74</v>
       </c>
       <c r="U67" t="inlineStr">
         <is>
-          <t>20/05/2023 23:29</t>
+          <t>20/05/2023 22:51</t>
         </is>
       </c>
       <c r="V67" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/america-mg-fortaleza/l8gDM7nQ/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/botafogo-rj-fluminense/hGQ148Qs/</t>
         </is>
       </c>
     </row>
@@ -7013,22 +7013,22 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Fortaleza</t>
+          <t>Athletico-PR</t>
         </is>
       </c>
       <c r="G72" t="n">
+        <v>1</v>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>Gremio</t>
+        </is>
+      </c>
+      <c r="I72" t="n">
         <v>2</v>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>Vasco</t>
-        </is>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
       <c r="J72" t="n">
-        <v>1.75</v>
+        <v>2.02</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
@@ -7036,15 +7036,15 @@
         </is>
       </c>
       <c r="L72" t="n">
-        <v>1.68</v>
+        <v>1.64</v>
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>27/05/2023 20:28</t>
+          <t>27/05/2023 20:54</t>
         </is>
       </c>
       <c r="N72" t="n">
-        <v>3.77</v>
+        <v>3.5</v>
       </c>
       <c r="O72" t="inlineStr">
         <is>
@@ -7052,15 +7052,15 @@
         </is>
       </c>
       <c r="P72" t="n">
-        <v>4.03</v>
+        <v>4</v>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>27/05/2023 20:29</t>
+          <t>27/05/2023 20:54</t>
         </is>
       </c>
       <c r="R72" t="n">
-        <v>5.06</v>
+        <v>3.97</v>
       </c>
       <c r="S72" t="inlineStr">
         <is>
@@ -7068,16 +7068,16 @@
         </is>
       </c>
       <c r="T72" t="n">
-        <v>5.3</v>
+        <v>5.9</v>
       </c>
       <c r="U72" t="inlineStr">
         <is>
-          <t>27/05/2023 20:29</t>
+          <t>27/05/2023 20:54</t>
         </is>
       </c>
       <c r="V72" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/fortaleza-vasco/YDAlKZsP/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/athletico-pr-gremio/Uup8BsvP/</t>
         </is>
       </c>
     </row>
@@ -7105,22 +7105,22 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Athletico-PR</t>
+          <t>Fortaleza</t>
         </is>
       </c>
       <c r="G73" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Gremio</t>
+          <t>Vasco</t>
         </is>
       </c>
       <c r="I73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J73" t="n">
-        <v>2.02</v>
+        <v>1.75</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
@@ -7128,15 +7128,15 @@
         </is>
       </c>
       <c r="L73" t="n">
-        <v>1.64</v>
+        <v>1.68</v>
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>27/05/2023 20:54</t>
+          <t>27/05/2023 20:28</t>
         </is>
       </c>
       <c r="N73" t="n">
-        <v>3.5</v>
+        <v>3.77</v>
       </c>
       <c r="O73" t="inlineStr">
         <is>
@@ -7144,15 +7144,15 @@
         </is>
       </c>
       <c r="P73" t="n">
-        <v>4</v>
+        <v>4.03</v>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>27/05/2023 20:54</t>
+          <t>27/05/2023 20:29</t>
         </is>
       </c>
       <c r="R73" t="n">
-        <v>3.97</v>
+        <v>5.06</v>
       </c>
       <c r="S73" t="inlineStr">
         <is>
@@ -7160,16 +7160,16 @@
         </is>
       </c>
       <c r="T73" t="n">
-        <v>5.9</v>
+        <v>5.3</v>
       </c>
       <c r="U73" t="inlineStr">
         <is>
-          <t>27/05/2023 20:54</t>
+          <t>27/05/2023 20:29</t>
         </is>
       </c>
       <c r="V73" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/athletico-pr-gremio/Uup8BsvP/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/fortaleza-vasco/YDAlKZsP/</t>
         </is>
       </c>
     </row>
@@ -7473,7 +7473,7 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Internacional</t>
+          <t>Corinthians</t>
         </is>
       </c>
       <c r="G77" t="n">
@@ -7481,14 +7481,14 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Bahia</t>
+          <t>Fluminense</t>
         </is>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
       <c r="J77" t="n">
-        <v>1.75</v>
+        <v>2.79</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -7496,15 +7496,15 @@
         </is>
       </c>
       <c r="L77" t="n">
-        <v>2.12</v>
+        <v>2.81</v>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>28/05/2023 20:51</t>
+          <t>28/05/2023 20:59</t>
         </is>
       </c>
       <c r="N77" t="n">
-        <v>3.98</v>
+        <v>3.2</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
@@ -7512,15 +7512,15 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>3.52</v>
+        <v>3.19</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>28/05/2023 20:51</t>
+          <t>28/05/2023 20:59</t>
         </is>
       </c>
       <c r="R77" t="n">
-        <v>4.58</v>
+        <v>2.73</v>
       </c>
       <c r="S77" t="inlineStr">
         <is>
@@ -7528,16 +7528,16 @@
         </is>
       </c>
       <c r="T77" t="n">
-        <v>3.67</v>
+        <v>2.79</v>
       </c>
       <c r="U77" t="inlineStr">
         <is>
-          <t>28/05/2023 20:51</t>
+          <t>28/05/2023 20:57</t>
         </is>
       </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/internacional-bahia/jko4CNOI/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/corinthians-fluminense/00hiFPv0/</t>
         </is>
       </c>
     </row>
@@ -7565,7 +7565,7 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Corinthians</t>
+          <t>Internacional</t>
         </is>
       </c>
       <c r="G78" t="n">
@@ -7573,14 +7573,14 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Fluminense</t>
+          <t>Bahia</t>
         </is>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
       <c r="J78" t="n">
-        <v>2.79</v>
+        <v>1.75</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
@@ -7588,15 +7588,15 @@
         </is>
       </c>
       <c r="L78" t="n">
-        <v>2.81</v>
+        <v>2.12</v>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>28/05/2023 20:59</t>
+          <t>28/05/2023 20:51</t>
         </is>
       </c>
       <c r="N78" t="n">
-        <v>3.2</v>
+        <v>3.98</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
@@ -7604,15 +7604,15 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>3.19</v>
+        <v>3.52</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>28/05/2023 20:59</t>
+          <t>28/05/2023 20:51</t>
         </is>
       </c>
       <c r="R78" t="n">
-        <v>2.73</v>
+        <v>4.58</v>
       </c>
       <c r="S78" t="inlineStr">
         <is>
@@ -7620,16 +7620,16 @@
         </is>
       </c>
       <c r="T78" t="n">
-        <v>2.79</v>
+        <v>3.67</v>
       </c>
       <c r="U78" t="inlineStr">
         <is>
-          <t>28/05/2023 20:57</t>
+          <t>28/05/2023 20:51</t>
         </is>
       </c>
       <c r="V78" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/corinthians-fluminense/00hiFPv0/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/internacional-bahia/jko4CNOI/</t>
         </is>
       </c>
     </row>
@@ -7657,71 +7657,71 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Atletico-MG</t>
+          <t>Bragantino</t>
         </is>
       </c>
       <c r="G79" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Palmeiras</t>
+          <t>Santos</t>
         </is>
       </c>
       <c r="I79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J79" t="n">
-        <v>2.19</v>
+        <v>1.75</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>22/05/2023 03:42</t>
+          <t>21/05/2023 09:12</t>
         </is>
       </c>
       <c r="L79" t="n">
-        <v>2.29</v>
+        <v>1.78</v>
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>28/05/2023 23:29</t>
+          <t>28/05/2023 23:27</t>
         </is>
       </c>
       <c r="N79" t="n">
-        <v>3.38</v>
+        <v>3.71</v>
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>22/05/2023 03:42</t>
+          <t>21/05/2023 09:12</t>
         </is>
       </c>
       <c r="P79" t="n">
-        <v>3.3</v>
+        <v>3.52</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>28/05/2023 23:29</t>
+          <t>28/05/2023 23:15</t>
         </is>
       </c>
       <c r="R79" t="n">
-        <v>3.58</v>
+        <v>5.18</v>
       </c>
       <c r="S79" t="inlineStr">
         <is>
-          <t>22/05/2023 03:42</t>
+          <t>21/05/2023 09:12</t>
         </is>
       </c>
       <c r="T79" t="n">
-        <v>3.43</v>
+        <v>5.46</v>
       </c>
       <c r="U79" t="inlineStr">
         <is>
-          <t>28/05/2023 23:21</t>
+          <t>28/05/2023 23:27</t>
         </is>
       </c>
       <c r="V79" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/atletico-mg-palmeiras/MFt0D39C/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/bragantino-santos/rPsdEqf6/</t>
         </is>
       </c>
     </row>
@@ -7749,71 +7749,71 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Bragantino</t>
+          <t>Atletico-MG</t>
         </is>
       </c>
       <c r="G80" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Santos</t>
+          <t>Palmeiras</t>
         </is>
       </c>
       <c r="I80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J80" t="n">
-        <v>1.75</v>
+        <v>2.19</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>21/05/2023 09:12</t>
+          <t>22/05/2023 03:42</t>
         </is>
       </c>
       <c r="L80" t="n">
-        <v>1.78</v>
+        <v>2.29</v>
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>28/05/2023 23:27</t>
+          <t>28/05/2023 23:29</t>
         </is>
       </c>
       <c r="N80" t="n">
-        <v>3.71</v>
+        <v>3.38</v>
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>21/05/2023 09:12</t>
+          <t>22/05/2023 03:42</t>
         </is>
       </c>
       <c r="P80" t="n">
-        <v>3.52</v>
+        <v>3.3</v>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>28/05/2023 23:15</t>
+          <t>28/05/2023 23:29</t>
         </is>
       </c>
       <c r="R80" t="n">
-        <v>5.18</v>
+        <v>3.58</v>
       </c>
       <c r="S80" t="inlineStr">
         <is>
-          <t>21/05/2023 09:12</t>
+          <t>22/05/2023 03:42</t>
         </is>
       </c>
       <c r="T80" t="n">
-        <v>5.46</v>
+        <v>3.43</v>
       </c>
       <c r="U80" t="inlineStr">
         <is>
-          <t>28/05/2023 23:27</t>
+          <t>28/05/2023 23:21</t>
         </is>
       </c>
       <c r="V80" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/bragantino-santos/rPsdEqf6/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/atletico-mg-palmeiras/MFt0D39C/</t>
         </is>
       </c>
     </row>
@@ -8393,7 +8393,7 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Gremio</t>
+          <t>Fluminense</t>
         </is>
       </c>
       <c r="G87" t="n">
@@ -8401,63 +8401,63 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Sao Paulo</t>
+          <t>Bragantino</t>
         </is>
       </c>
       <c r="I87" t="n">
         <v>1</v>
       </c>
       <c r="J87" t="n">
-        <v>2.1</v>
+        <v>1.76</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>29/05/2023 20:12</t>
+          <t>29/05/2023 10:12</t>
         </is>
       </c>
       <c r="L87" t="n">
-        <v>2.09</v>
+        <v>1.77</v>
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>04/06/2023 20:59</t>
+          <t>04/06/2023 20:35</t>
         </is>
       </c>
       <c r="N87" t="n">
-        <v>3.36</v>
+        <v>3.97</v>
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>29/05/2023 20:12</t>
+          <t>29/05/2023 10:12</t>
         </is>
       </c>
       <c r="P87" t="n">
-        <v>3.32</v>
+        <v>3.73</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>04/06/2023 20:59</t>
+          <t>04/06/2023 20:58</t>
         </is>
       </c>
       <c r="R87" t="n">
-        <v>3.75</v>
+        <v>4.51</v>
       </c>
       <c r="S87" t="inlineStr">
         <is>
-          <t>29/05/2023 20:12</t>
+          <t>29/05/2023 10:12</t>
         </is>
       </c>
       <c r="T87" t="n">
-        <v>4.01</v>
+        <v>4.99</v>
       </c>
       <c r="U87" t="inlineStr">
         <is>
-          <t>04/06/2023 20:59</t>
+          <t>04/06/2023 20:36</t>
         </is>
       </c>
       <c r="V87" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/gremio-sao-paulo/hv9x99ZN/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/fluminense-bragantino/4d1KED5n/</t>
         </is>
       </c>
     </row>
@@ -8485,7 +8485,7 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Fluminense</t>
+          <t>Gremio</t>
         </is>
       </c>
       <c r="G88" t="n">
@@ -8493,63 +8493,63 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Bragantino</t>
+          <t>Sao Paulo</t>
         </is>
       </c>
       <c r="I88" t="n">
         <v>1</v>
       </c>
       <c r="J88" t="n">
-        <v>1.76</v>
+        <v>2.1</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>29/05/2023 10:12</t>
+          <t>29/05/2023 20:12</t>
         </is>
       </c>
       <c r="L88" t="n">
-        <v>1.77</v>
+        <v>2.09</v>
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>04/06/2023 20:35</t>
+          <t>04/06/2023 20:59</t>
         </is>
       </c>
       <c r="N88" t="n">
-        <v>3.97</v>
+        <v>3.36</v>
       </c>
       <c r="O88" t="inlineStr">
         <is>
-          <t>29/05/2023 10:12</t>
+          <t>29/05/2023 20:12</t>
         </is>
       </c>
       <c r="P88" t="n">
-        <v>3.73</v>
+        <v>3.32</v>
       </c>
       <c r="Q88" t="inlineStr">
         <is>
-          <t>04/06/2023 20:58</t>
+          <t>04/06/2023 20:59</t>
         </is>
       </c>
       <c r="R88" t="n">
-        <v>4.51</v>
+        <v>3.75</v>
       </c>
       <c r="S88" t="inlineStr">
         <is>
-          <t>29/05/2023 10:12</t>
+          <t>29/05/2023 20:12</t>
         </is>
       </c>
       <c r="T88" t="n">
-        <v>4.99</v>
+        <v>4.01</v>
       </c>
       <c r="U88" t="inlineStr">
         <is>
-          <t>04/06/2023 20:36</t>
+          <t>04/06/2023 20:59</t>
         </is>
       </c>
       <c r="V88" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/fluminense-bragantino/4d1KED5n/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/gremio-sao-paulo/hv9x99ZN/</t>
         </is>
       </c>
     </row>
@@ -8945,7 +8945,7 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Corinthians</t>
+          <t>Atletico-MG</t>
         </is>
       </c>
       <c r="G93" t="n">
@@ -8953,14 +8953,14 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Cuiaba</t>
+          <t>Bragantino</t>
         </is>
       </c>
       <c r="I93" t="n">
         <v>1</v>
       </c>
       <c r="J93" t="n">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
@@ -8972,11 +8972,11 @@
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>10/06/2023 23:28</t>
+          <t>10/06/2023 23:25</t>
         </is>
       </c>
       <c r="N93" t="n">
-        <v>3.65</v>
+        <v>4.04</v>
       </c>
       <c r="O93" t="inlineStr">
         <is>
@@ -8984,32 +8984,32 @@
         </is>
       </c>
       <c r="P93" t="n">
-        <v>3.29</v>
+        <v>3.43</v>
       </c>
       <c r="Q93" t="inlineStr">
         <is>
+          <t>10/06/2023 23:25</t>
+        </is>
+      </c>
+      <c r="R93" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="S93" t="inlineStr">
+        <is>
+          <t>05/06/2023 02:42</t>
+        </is>
+      </c>
+      <c r="T93" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="U93" t="inlineStr">
+        <is>
           <t>10/06/2023 23:29</t>
         </is>
       </c>
-      <c r="R93" t="n">
-        <v>5.08</v>
-      </c>
-      <c r="S93" t="inlineStr">
-        <is>
-          <t>05/06/2023 02:42</t>
-        </is>
-      </c>
-      <c r="T93" t="n">
-        <v>5.68</v>
-      </c>
-      <c r="U93" t="inlineStr">
-        <is>
-          <t>10/06/2023 23:29</t>
-        </is>
-      </c>
       <c r="V93" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/corinthians-cuiaba/l6v7OlZA/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/atletico-mg-bragantino/r7du6tJq/</t>
         </is>
       </c>
     </row>
@@ -9037,30 +9037,30 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Bahia</t>
+          <t>Corinthians</t>
         </is>
       </c>
       <c r="G94" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Cruzeiro</t>
+          <t>Cuiaba</t>
         </is>
       </c>
       <c r="I94" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J94" t="n">
-        <v>2.29</v>
+        <v>1.75</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>03/06/2023 23:42</t>
+          <t>05/06/2023 02:42</t>
         </is>
       </c>
       <c r="L94" t="n">
-        <v>2.87</v>
+        <v>1.82</v>
       </c>
       <c r="M94" t="inlineStr">
         <is>
@@ -9068,40 +9068,40 @@
         </is>
       </c>
       <c r="N94" t="n">
-        <v>3.38</v>
+        <v>3.65</v>
       </c>
       <c r="O94" t="inlineStr">
         <is>
-          <t>03/06/2023 23:42</t>
+          <t>05/06/2023 02:42</t>
         </is>
       </c>
       <c r="P94" t="n">
-        <v>3.27</v>
+        <v>3.29</v>
       </c>
       <c r="Q94" t="inlineStr">
         <is>
-          <t>10/06/2023 23:21</t>
+          <t>10/06/2023 23:29</t>
         </is>
       </c>
       <c r="R94" t="n">
-        <v>3.27</v>
+        <v>5.08</v>
       </c>
       <c r="S94" t="inlineStr">
         <is>
-          <t>03/06/2023 23:42</t>
+          <t>05/06/2023 02:42</t>
         </is>
       </c>
       <c r="T94" t="n">
-        <v>2.68</v>
+        <v>5.68</v>
       </c>
       <c r="U94" t="inlineStr">
         <is>
-          <t>10/06/2023 23:28</t>
+          <t>10/06/2023 23:29</t>
         </is>
       </c>
       <c r="V94" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/bahia-cruzeiro/hxvWS3Qd/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/corinthians-cuiaba/l6v7OlZA/</t>
         </is>
       </c>
     </row>
@@ -9129,71 +9129,71 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Atletico-MG</t>
+          <t>Bahia</t>
         </is>
       </c>
       <c r="G95" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Bragantino</t>
+          <t>Cruzeiro</t>
         </is>
       </c>
       <c r="I95" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J95" t="n">
-        <v>1.62</v>
+        <v>2.29</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>05/06/2023 02:42</t>
+          <t>03/06/2023 23:42</t>
         </is>
       </c>
       <c r="L95" t="n">
-        <v>1.82</v>
+        <v>2.87</v>
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>10/06/2023 23:25</t>
+          <t>10/06/2023 23:28</t>
         </is>
       </c>
       <c r="N95" t="n">
-        <v>4.04</v>
+        <v>3.38</v>
       </c>
       <c r="O95" t="inlineStr">
         <is>
-          <t>05/06/2023 02:42</t>
+          <t>03/06/2023 23:42</t>
         </is>
       </c>
       <c r="P95" t="n">
-        <v>3.43</v>
+        <v>3.27</v>
       </c>
       <c r="Q95" t="inlineStr">
         <is>
-          <t>10/06/2023 23:25</t>
+          <t>10/06/2023 23:21</t>
         </is>
       </c>
       <c r="R95" t="n">
-        <v>5.9</v>
+        <v>3.27</v>
       </c>
       <c r="S95" t="inlineStr">
         <is>
-          <t>05/06/2023 02:42</t>
+          <t>03/06/2023 23:42</t>
         </is>
       </c>
       <c r="T95" t="n">
-        <v>5.3</v>
+        <v>2.68</v>
       </c>
       <c r="U95" t="inlineStr">
         <is>
-          <t>10/06/2023 23:29</t>
+          <t>10/06/2023 23:28</t>
         </is>
       </c>
       <c r="V95" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/atletico-mg-bragantino/r7du6tJq/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/bahia-cruzeiro/hxvWS3Qd/</t>
         </is>
       </c>
     </row>
@@ -10049,7 +10049,7 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Bahia</t>
+          <t>Fluminense</t>
         </is>
       </c>
       <c r="G105" t="n">
@@ -10057,22 +10057,22 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Palmeiras</t>
+          <t>Atletico-MG</t>
         </is>
       </c>
       <c r="I105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J105" t="n">
-        <v>4.31</v>
+        <v>2.06</v>
       </c>
       <c r="K105" t="inlineStr">
         <is>
-          <t>14/06/2023 10:42</t>
+          <t>14/06/2023 13:12</t>
         </is>
       </c>
       <c r="L105" t="n">
-        <v>3.68</v>
+        <v>2.97</v>
       </c>
       <c r="M105" t="inlineStr">
         <is>
@@ -10080,15 +10080,15 @@
         </is>
       </c>
       <c r="N105" t="n">
-        <v>3.63</v>
+        <v>3.47</v>
       </c>
       <c r="O105" t="inlineStr">
         <is>
-          <t>14/06/2023 10:42</t>
+          <t>14/06/2023 13:12</t>
         </is>
       </c>
       <c r="P105" t="n">
-        <v>3.5</v>
+        <v>3.22</v>
       </c>
       <c r="Q105" t="inlineStr">
         <is>
@@ -10096,15 +10096,15 @@
         </is>
       </c>
       <c r="R105" t="n">
-        <v>1.9</v>
+        <v>3.74</v>
       </c>
       <c r="S105" t="inlineStr">
         <is>
-          <t>14/06/2023 10:42</t>
+          <t>14/06/2023 13:12</t>
         </is>
       </c>
       <c r="T105" t="n">
-        <v>2.12</v>
+        <v>2.63</v>
       </c>
       <c r="U105" t="inlineStr">
         <is>
@@ -10113,7 +10113,7 @@
       </c>
       <c r="V105" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/bahia-palmeiras/6NCCusA2/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/fluminense-atletico-mg/Q3iwRse9/</t>
         </is>
       </c>
     </row>
@@ -10141,7 +10141,7 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Fluminense</t>
+          <t>Bahia</t>
         </is>
       </c>
       <c r="G106" t="n">
@@ -10149,22 +10149,22 @@
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Atletico-MG</t>
+          <t>Palmeiras</t>
         </is>
       </c>
       <c r="I106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J106" t="n">
-        <v>2.06</v>
+        <v>4.31</v>
       </c>
       <c r="K106" t="inlineStr">
         <is>
-          <t>14/06/2023 13:12</t>
+          <t>14/06/2023 10:42</t>
         </is>
       </c>
       <c r="L106" t="n">
-        <v>2.97</v>
+        <v>3.68</v>
       </c>
       <c r="M106" t="inlineStr">
         <is>
@@ -10172,15 +10172,15 @@
         </is>
       </c>
       <c r="N106" t="n">
-        <v>3.47</v>
+        <v>3.63</v>
       </c>
       <c r="O106" t="inlineStr">
         <is>
-          <t>14/06/2023 13:12</t>
+          <t>14/06/2023 10:42</t>
         </is>
       </c>
       <c r="P106" t="n">
-        <v>3.22</v>
+        <v>3.5</v>
       </c>
       <c r="Q106" t="inlineStr">
         <is>
@@ -10188,15 +10188,15 @@
         </is>
       </c>
       <c r="R106" t="n">
-        <v>3.74</v>
+        <v>1.9</v>
       </c>
       <c r="S106" t="inlineStr">
         <is>
-          <t>14/06/2023 13:12</t>
+          <t>14/06/2023 10:42</t>
         </is>
       </c>
       <c r="T106" t="n">
-        <v>2.63</v>
+        <v>2.12</v>
       </c>
       <c r="U106" t="inlineStr">
         <is>
@@ -10205,7 +10205,7 @@
       </c>
       <c r="V106" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/fluminense-atletico-mg/Q3iwRse9/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/bahia-palmeiras/6NCCusA2/</t>
         </is>
       </c>
     </row>
@@ -10325,7 +10325,7 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Vasco</t>
+          <t>Cuiaba</t>
         </is>
       </c>
       <c r="G108" t="n">
@@ -10333,63 +10333,63 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Goias</t>
+          <t>Botafogo RJ</t>
         </is>
       </c>
       <c r="I108" t="n">
         <v>1</v>
       </c>
       <c r="J108" t="n">
-        <v>1.75</v>
+        <v>3.01</v>
       </c>
       <c r="K108" t="inlineStr">
         <is>
-          <t>19/06/2023 02:11</t>
+          <t>17/06/2023 22:12</t>
         </is>
       </c>
       <c r="L108" t="n">
-        <v>1.99</v>
+        <v>2.73</v>
       </c>
       <c r="M108" t="inlineStr">
         <is>
-          <t>23/06/2023 00:56</t>
+          <t>23/06/2023 00:59</t>
         </is>
       </c>
       <c r="N108" t="n">
-        <v>3.73</v>
+        <v>3.16</v>
       </c>
       <c r="O108" t="inlineStr">
         <is>
-          <t>19/06/2023 02:11</t>
+          <t>17/06/2023 22:12</t>
         </is>
       </c>
       <c r="P108" t="n">
-        <v>3.31</v>
+        <v>2.98</v>
       </c>
       <c r="Q108" t="inlineStr">
         <is>
+          <t>23/06/2023 00:58</t>
+        </is>
+      </c>
+      <c r="R108" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="S108" t="inlineStr">
+        <is>
+          <t>17/06/2023 22:12</t>
+        </is>
+      </c>
+      <c r="T108" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="U108" t="inlineStr">
+        <is>
           <t>23/06/2023 00:59</t>
         </is>
       </c>
-      <c r="R108" t="n">
-        <v>5.14</v>
-      </c>
-      <c r="S108" t="inlineStr">
-        <is>
-          <t>19/06/2023 02:11</t>
-        </is>
-      </c>
-      <c r="T108" t="n">
-        <v>4.46</v>
-      </c>
-      <c r="U108" t="inlineStr">
-        <is>
-          <t>23/06/2023 00:59</t>
-        </is>
-      </c>
       <c r="V108" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/vasco-goias/4fjsQ1AF/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/cuiaba-botafogo-rj/IcGGv1P8/</t>
         </is>
       </c>
     </row>
@@ -10417,7 +10417,7 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>Cuiaba</t>
+          <t>Coritiba</t>
         </is>
       </c>
       <c r="G109" t="n">
@@ -10425,63 +10425,63 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Botafogo RJ</t>
+          <t>Internacional</t>
         </is>
       </c>
       <c r="I109" t="n">
         <v>1</v>
       </c>
       <c r="J109" t="n">
+        <v>3</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>19/06/2023 02:11</t>
+        </is>
+      </c>
+      <c r="L109" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>23/06/2023 00:59</t>
+        </is>
+      </c>
+      <c r="N109" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="O109" t="inlineStr">
+        <is>
+          <t>19/06/2023 02:11</t>
+        </is>
+      </c>
+      <c r="P109" t="n">
         <v>3.01</v>
       </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>17/06/2023 22:12</t>
-        </is>
-      </c>
-      <c r="L109" t="n">
-        <v>2.73</v>
-      </c>
-      <c r="M109" t="inlineStr">
+      <c r="Q109" t="inlineStr">
+        <is>
+          <t>23/06/2023 00:58</t>
+        </is>
+      </c>
+      <c r="R109" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="S109" t="inlineStr">
+        <is>
+          <t>19/06/2023 02:11</t>
+        </is>
+      </c>
+      <c r="T109" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="U109" t="inlineStr">
         <is>
           <t>23/06/2023 00:59</t>
         </is>
       </c>
-      <c r="N109" t="n">
-        <v>3.16</v>
-      </c>
-      <c r="O109" t="inlineStr">
-        <is>
-          <t>17/06/2023 22:12</t>
-        </is>
-      </c>
-      <c r="P109" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="Q109" t="inlineStr">
-        <is>
-          <t>23/06/2023 00:58</t>
-        </is>
-      </c>
-      <c r="R109" t="n">
-        <v>2.61</v>
-      </c>
-      <c r="S109" t="inlineStr">
-        <is>
-          <t>17/06/2023 22:12</t>
-        </is>
-      </c>
-      <c r="T109" t="n">
-        <v>3.08</v>
-      </c>
-      <c r="U109" t="inlineStr">
-        <is>
-          <t>23/06/2023 00:59</t>
-        </is>
-      </c>
       <c r="V109" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/cuiaba-botafogo-rj/IcGGv1P8/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/coritiba-internacional/hKOUGcX1/</t>
         </is>
       </c>
     </row>
@@ -10509,7 +10509,7 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>Coritiba</t>
+          <t>Vasco</t>
         </is>
       </c>
       <c r="G110" t="n">
@@ -10517,14 +10517,14 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Internacional</t>
+          <t>Goias</t>
         </is>
       </c>
       <c r="I110" t="n">
         <v>1</v>
       </c>
       <c r="J110" t="n">
-        <v>3</v>
+        <v>1.75</v>
       </c>
       <c r="K110" t="inlineStr">
         <is>
@@ -10532,39 +10532,39 @@
         </is>
       </c>
       <c r="L110" t="n">
-        <v>2.75</v>
+        <v>1.99</v>
       </c>
       <c r="M110" t="inlineStr">
         <is>
+          <t>23/06/2023 00:56</t>
+        </is>
+      </c>
+      <c r="N110" t="n">
+        <v>3.73</v>
+      </c>
+      <c r="O110" t="inlineStr">
+        <is>
+          <t>19/06/2023 02:11</t>
+        </is>
+      </c>
+      <c r="P110" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="Q110" t="inlineStr">
+        <is>
           <t>23/06/2023 00:59</t>
         </is>
       </c>
-      <c r="N110" t="n">
-        <v>3.12</v>
-      </c>
-      <c r="O110" t="inlineStr">
+      <c r="R110" t="n">
+        <v>5.14</v>
+      </c>
+      <c r="S110" t="inlineStr">
         <is>
           <t>19/06/2023 02:11</t>
         </is>
       </c>
-      <c r="P110" t="n">
-        <v>3.01</v>
-      </c>
-      <c r="Q110" t="inlineStr">
-        <is>
-          <t>23/06/2023 00:58</t>
-        </is>
-      </c>
-      <c r="R110" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="S110" t="inlineStr">
-        <is>
-          <t>19/06/2023 02:11</t>
-        </is>
-      </c>
       <c r="T110" t="n">
-        <v>3.02</v>
+        <v>4.46</v>
       </c>
       <c r="U110" t="inlineStr">
         <is>
@@ -10573,7 +10573,7 @@
       </c>
       <c r="V110" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/coritiba-internacional/hKOUGcX1/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/vasco-goias/4fjsQ1AF/</t>
         </is>
       </c>
     </row>
@@ -11061,22 +11061,22 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>Palmeiras</t>
+          <t>Gremio</t>
         </is>
       </c>
       <c r="G116" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Botafogo RJ</t>
+          <t>Coritiba</t>
         </is>
       </c>
       <c r="I116" t="n">
         <v>1</v>
       </c>
       <c r="J116" t="n">
-        <v>1.58</v>
+        <v>1.61</v>
       </c>
       <c r="K116" t="inlineStr">
         <is>
@@ -11084,15 +11084,15 @@
         </is>
       </c>
       <c r="L116" t="n">
-        <v>1.45</v>
+        <v>1.53</v>
       </c>
       <c r="M116" t="inlineStr">
         <is>
-          <t>25/06/2023 20:59</t>
+          <t>25/06/2023 20:56</t>
         </is>
       </c>
       <c r="N116" t="n">
-        <v>4.24</v>
+        <v>4.14</v>
       </c>
       <c r="O116" t="inlineStr">
         <is>
@@ -11100,15 +11100,15 @@
         </is>
       </c>
       <c r="P116" t="n">
-        <v>4.73</v>
+        <v>4.33</v>
       </c>
       <c r="Q116" t="inlineStr">
         <is>
-          <t>25/06/2023 20:59</t>
+          <t>25/06/2023 20:56</t>
         </is>
       </c>
       <c r="R116" t="n">
-        <v>5.72</v>
+        <v>5.53</v>
       </c>
       <c r="S116" t="inlineStr">
         <is>
@@ -11116,16 +11116,16 @@
         </is>
       </c>
       <c r="T116" t="n">
-        <v>7.59</v>
+        <v>6.7</v>
       </c>
       <c r="U116" t="inlineStr">
         <is>
-          <t>25/06/2023 20:59</t>
+          <t>25/06/2023 20:56</t>
         </is>
       </c>
       <c r="V116" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/palmeiras-botafogo-rj/8n9Tya9R/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/gremio-coritiba/0pl8UG11/</t>
         </is>
       </c>
     </row>
@@ -11153,22 +11153,22 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>Gremio</t>
+          <t>Palmeiras</t>
         </is>
       </c>
       <c r="G117" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Coritiba</t>
+          <t>Botafogo RJ</t>
         </is>
       </c>
       <c r="I117" t="n">
         <v>1</v>
       </c>
       <c r="J117" t="n">
-        <v>1.61</v>
+        <v>1.58</v>
       </c>
       <c r="K117" t="inlineStr">
         <is>
@@ -11176,15 +11176,15 @@
         </is>
       </c>
       <c r="L117" t="n">
-        <v>1.53</v>
+        <v>1.45</v>
       </c>
       <c r="M117" t="inlineStr">
         <is>
-          <t>25/06/2023 20:56</t>
+          <t>25/06/2023 20:59</t>
         </is>
       </c>
       <c r="N117" t="n">
-        <v>4.14</v>
+        <v>4.24</v>
       </c>
       <c r="O117" t="inlineStr">
         <is>
@@ -11192,15 +11192,15 @@
         </is>
       </c>
       <c r="P117" t="n">
-        <v>4.33</v>
+        <v>4.73</v>
       </c>
       <c r="Q117" t="inlineStr">
         <is>
-          <t>25/06/2023 20:56</t>
+          <t>25/06/2023 20:59</t>
         </is>
       </c>
       <c r="R117" t="n">
-        <v>5.53</v>
+        <v>5.72</v>
       </c>
       <c r="S117" t="inlineStr">
         <is>
@@ -11208,16 +11208,16 @@
         </is>
       </c>
       <c r="T117" t="n">
-        <v>6.7</v>
+        <v>7.59</v>
       </c>
       <c r="U117" t="inlineStr">
         <is>
-          <t>25/06/2023 20:56</t>
+          <t>25/06/2023 20:59</t>
         </is>
       </c>
       <c r="V117" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/gremio-coritiba/0pl8UG11/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/palmeiras-botafogo-rj/8n9Tya9R/</t>
         </is>
       </c>
     </row>
@@ -11245,7 +11245,7 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>Santos</t>
+          <t>Bragantino</t>
         </is>
       </c>
       <c r="G118" t="n">
@@ -11253,38 +11253,38 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Flamengo RJ</t>
+          <t>Goias</t>
         </is>
       </c>
       <c r="I118" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J118" t="n">
-        <v>3.96</v>
+        <v>1.43</v>
       </c>
       <c r="K118" t="inlineStr">
         <is>
-          <t>23/06/2023 02:42</t>
+          <t>18/06/2023 23:41</t>
         </is>
       </c>
       <c r="L118" t="n">
-        <v>3.48</v>
+        <v>1.43</v>
       </c>
       <c r="M118" t="inlineStr">
         <is>
-          <t>25/06/2023 23:29</t>
+          <t>25/06/2023 23:26</t>
         </is>
       </c>
       <c r="N118" t="n">
-        <v>3.4</v>
+        <v>4.8</v>
       </c>
       <c r="O118" t="inlineStr">
         <is>
-          <t>23/06/2023 02:42</t>
+          <t>18/06/2023 23:41</t>
         </is>
       </c>
       <c r="P118" t="n">
-        <v>3.21</v>
+        <v>4.79</v>
       </c>
       <c r="Q118" t="inlineStr">
         <is>
@@ -11292,15 +11292,15 @@
         </is>
       </c>
       <c r="R118" t="n">
-        <v>2.03</v>
+        <v>7.69</v>
       </c>
       <c r="S118" t="inlineStr">
         <is>
-          <t>23/06/2023 02:42</t>
+          <t>18/06/2023 23:41</t>
         </is>
       </c>
       <c r="T118" t="n">
-        <v>2.33</v>
+        <v>8.140000000000001</v>
       </c>
       <c r="U118" t="inlineStr">
         <is>
@@ -11309,7 +11309,7 @@
       </c>
       <c r="V118" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/santos-flamengo-rj/AeeeXIHr/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/bragantino-goias/hKp0WxXl/</t>
         </is>
       </c>
     </row>
@@ -11337,71 +11337,71 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>Bragantino</t>
+          <t>America MG</t>
         </is>
       </c>
       <c r="G119" t="n">
+        <v>1</v>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>Internacional</t>
+        </is>
+      </c>
+      <c r="I119" t="n">
         <v>2</v>
       </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>Goias</t>
-        </is>
-      </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
       <c r="J119" t="n">
-        <v>1.43</v>
+        <v>2.43</v>
       </c>
       <c r="K119" t="inlineStr">
         <is>
-          <t>18/06/2023 23:41</t>
+          <t>23/06/2023 01:11</t>
         </is>
       </c>
       <c r="L119" t="n">
-        <v>1.43</v>
+        <v>2.01</v>
       </c>
       <c r="M119" t="inlineStr">
         <is>
-          <t>25/06/2023 23:26</t>
+          <t>25/06/2023 23:25</t>
         </is>
       </c>
       <c r="N119" t="n">
-        <v>4.8</v>
+        <v>3.32</v>
       </c>
       <c r="O119" t="inlineStr">
         <is>
-          <t>18/06/2023 23:41</t>
+          <t>23/06/2023 01:11</t>
         </is>
       </c>
       <c r="P119" t="n">
-        <v>4.79</v>
+        <v>3.46</v>
       </c>
       <c r="Q119" t="inlineStr">
         <is>
+          <t>25/06/2023 23:27</t>
+        </is>
+      </c>
+      <c r="R119" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="S119" t="inlineStr">
+        <is>
+          <t>23/06/2023 01:11</t>
+        </is>
+      </c>
+      <c r="T119" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="U119" t="inlineStr">
+        <is>
           <t>25/06/2023 23:28</t>
         </is>
       </c>
-      <c r="R119" t="n">
-        <v>7.69</v>
-      </c>
-      <c r="S119" t="inlineStr">
-        <is>
-          <t>18/06/2023 23:41</t>
-        </is>
-      </c>
-      <c r="T119" t="n">
-        <v>8.140000000000001</v>
-      </c>
-      <c r="U119" t="inlineStr">
-        <is>
-          <t>25/06/2023 23:28</t>
-        </is>
-      </c>
       <c r="V119" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/bragantino-goias/hKp0WxXl/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/america-mg-internacional/IJiiiv9E/</t>
         </is>
       </c>
     </row>
@@ -11429,62 +11429,62 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>America MG</t>
+          <t>Santos</t>
         </is>
       </c>
       <c r="G120" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Internacional</t>
+          <t>Flamengo RJ</t>
         </is>
       </c>
       <c r="I120" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J120" t="n">
-        <v>2.43</v>
+        <v>3.96</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>
-          <t>23/06/2023 01:11</t>
+          <t>23/06/2023 02:42</t>
         </is>
       </c>
       <c r="L120" t="n">
-        <v>2.01</v>
+        <v>3.48</v>
       </c>
       <c r="M120" t="inlineStr">
         <is>
-          <t>25/06/2023 23:25</t>
+          <t>25/06/2023 23:29</t>
         </is>
       </c>
       <c r="N120" t="n">
-        <v>3.32</v>
+        <v>3.4</v>
       </c>
       <c r="O120" t="inlineStr">
         <is>
-          <t>23/06/2023 01:11</t>
+          <t>23/06/2023 02:42</t>
         </is>
       </c>
       <c r="P120" t="n">
-        <v>3.46</v>
+        <v>3.21</v>
       </c>
       <c r="Q120" t="inlineStr">
         <is>
-          <t>25/06/2023 23:27</t>
+          <t>25/06/2023 23:28</t>
         </is>
       </c>
       <c r="R120" t="n">
-        <v>3.13</v>
+        <v>2.03</v>
       </c>
       <c r="S120" t="inlineStr">
         <is>
-          <t>23/06/2023 01:11</t>
+          <t>23/06/2023 02:42</t>
         </is>
       </c>
       <c r="T120" t="n">
-        <v>4.14</v>
+        <v>2.33</v>
       </c>
       <c r="U120" t="inlineStr">
         <is>
@@ -11493,7 +11493,7 @@
       </c>
       <c r="V120" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/america-mg-internacional/IJiiiv9E/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/santos-flamengo-rj/AeeeXIHr/</t>
         </is>
       </c>
     </row>
@@ -11705,71 +11705,71 @@
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>Bahia</t>
+          <t>Flamengo RJ</t>
         </is>
       </c>
       <c r="G123" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>Gremio</t>
+          <t>Fortaleza</t>
         </is>
       </c>
       <c r="I123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J123" t="n">
-        <v>2.13</v>
+        <v>1.64</v>
       </c>
       <c r="K123" t="inlineStr">
         <is>
-          <t>25/06/2023 21:11</t>
+          <t>25/06/2023 23:41</t>
         </is>
       </c>
       <c r="L123" t="n">
-        <v>2.94</v>
+        <v>1.61</v>
       </c>
       <c r="M123" t="inlineStr">
         <is>
-          <t>01/07/2023 23:27</t>
+          <t>01/07/2023 23:14</t>
         </is>
       </c>
       <c r="N123" t="n">
-        <v>3.48</v>
+        <v>4.14</v>
       </c>
       <c r="O123" t="inlineStr">
         <is>
-          <t>25/06/2023 21:11</t>
+          <t>25/06/2023 23:41</t>
         </is>
       </c>
       <c r="P123" t="n">
-        <v>3.28</v>
+        <v>4.11</v>
       </c>
       <c r="Q123" t="inlineStr">
         <is>
-          <t>01/07/2023 23:27</t>
+          <t>01/07/2023 23:14</t>
         </is>
       </c>
       <c r="R123" t="n">
-        <v>3.55</v>
+        <v>5.44</v>
       </c>
       <c r="S123" t="inlineStr">
         <is>
-          <t>25/06/2023 21:11</t>
+          <t>25/06/2023 23:41</t>
         </is>
       </c>
       <c r="T123" t="n">
-        <v>2.62</v>
+        <v>6</v>
       </c>
       <c r="U123" t="inlineStr">
         <is>
-          <t>01/07/2023 23:27</t>
+          <t>01/07/2023 23:14</t>
         </is>
       </c>
       <c r="V123" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/bahia-gremio/CfWT4cwE/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/flamengo-rj-fortaleza/CtiejbOK/</t>
         </is>
       </c>
     </row>
@@ -11797,71 +11797,71 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>Flamengo RJ</t>
+          <t>Bahia</t>
         </is>
       </c>
       <c r="G124" t="n">
+        <v>1</v>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>Gremio</t>
+        </is>
+      </c>
+      <c r="I124" t="n">
         <v>2</v>
       </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>Fortaleza</t>
-        </is>
-      </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
       <c r="J124" t="n">
-        <v>1.64</v>
+        <v>2.13</v>
       </c>
       <c r="K124" t="inlineStr">
         <is>
-          <t>25/06/2023 23:41</t>
+          <t>25/06/2023 21:11</t>
         </is>
       </c>
       <c r="L124" t="n">
-        <v>1.61</v>
+        <v>2.94</v>
       </c>
       <c r="M124" t="inlineStr">
         <is>
-          <t>01/07/2023 23:14</t>
+          <t>01/07/2023 23:27</t>
         </is>
       </c>
       <c r="N124" t="n">
-        <v>4.14</v>
+        <v>3.48</v>
       </c>
       <c r="O124" t="inlineStr">
         <is>
-          <t>25/06/2023 23:41</t>
+          <t>25/06/2023 21:11</t>
         </is>
       </c>
       <c r="P124" t="n">
-        <v>4.11</v>
+        <v>3.28</v>
       </c>
       <c r="Q124" t="inlineStr">
         <is>
-          <t>01/07/2023 23:14</t>
+          <t>01/07/2023 23:27</t>
         </is>
       </c>
       <c r="R124" t="n">
-        <v>5.44</v>
+        <v>3.55</v>
       </c>
       <c r="S124" t="inlineStr">
         <is>
-          <t>25/06/2023 23:41</t>
+          <t>25/06/2023 21:11</t>
         </is>
       </c>
       <c r="T124" t="n">
-        <v>6</v>
+        <v>2.62</v>
       </c>
       <c r="U124" t="inlineStr">
         <is>
-          <t>01/07/2023 23:14</t>
+          <t>01/07/2023 23:27</t>
         </is>
       </c>
       <c r="V124" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/flamengo-rj-fortaleza/CtiejbOK/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/bahia-gremio/CfWT4cwE/</t>
         </is>
       </c>
     </row>
@@ -12073,7 +12073,7 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>Botafogo RJ</t>
+          <t>Athletico-PR</t>
         </is>
       </c>
       <c r="G127" t="n">
@@ -12081,63 +12081,63 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Vasco</t>
+          <t>Palmeiras</t>
         </is>
       </c>
       <c r="I127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J127" t="n">
-        <v>1.75</v>
+        <v>2.99</v>
       </c>
       <c r="K127" t="inlineStr">
         <is>
-          <t>27/06/2023 02:11</t>
+          <t>25/06/2023 21:11</t>
         </is>
       </c>
       <c r="L127" t="n">
-        <v>1.97</v>
+        <v>2.35</v>
       </c>
       <c r="M127" t="inlineStr">
         <is>
-          <t>02/07/2023 20:58</t>
+          <t>02/07/2023 20:59</t>
         </is>
       </c>
       <c r="N127" t="n">
-        <v>3.68</v>
+        <v>3.23</v>
       </c>
       <c r="O127" t="inlineStr">
         <is>
-          <t>27/06/2023 02:11</t>
+          <t>25/06/2023 21:11</t>
         </is>
       </c>
       <c r="P127" t="n">
-        <v>3.41</v>
+        <v>3.24</v>
       </c>
       <c r="Q127" t="inlineStr">
         <is>
-          <t>02/07/2023 20:58</t>
+          <t>02/07/2023 20:55</t>
         </is>
       </c>
       <c r="R127" t="n">
-        <v>5.27</v>
+        <v>2.53</v>
       </c>
       <c r="S127" t="inlineStr">
         <is>
-          <t>27/06/2023 02:11</t>
+          <t>25/06/2023 21:11</t>
         </is>
       </c>
       <c r="T127" t="n">
-        <v>4.37</v>
+        <v>3.4</v>
       </c>
       <c r="U127" t="inlineStr">
         <is>
-          <t>02/07/2023 20:58</t>
+          <t>02/07/2023 20:59</t>
         </is>
       </c>
       <c r="V127" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/botafogo-rj-vasco/QqeakIwR/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/athletico-pr-palmeiras/birntE0D/</t>
         </is>
       </c>
     </row>
@@ -12257,7 +12257,7 @@
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>Athletico-PR</t>
+          <t>Botafogo RJ</t>
         </is>
       </c>
       <c r="G129" t="n">
@@ -12265,63 +12265,63 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>Palmeiras</t>
+          <t>Vasco</t>
         </is>
       </c>
       <c r="I129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J129" t="n">
-        <v>2.99</v>
+        <v>1.75</v>
       </c>
       <c r="K129" t="inlineStr">
         <is>
-          <t>25/06/2023 21:11</t>
+          <t>27/06/2023 02:11</t>
         </is>
       </c>
       <c r="L129" t="n">
-        <v>2.35</v>
+        <v>1.97</v>
       </c>
       <c r="M129" t="inlineStr">
         <is>
-          <t>02/07/2023 20:59</t>
+          <t>02/07/2023 20:58</t>
         </is>
       </c>
       <c r="N129" t="n">
-        <v>3.23</v>
+        <v>3.68</v>
       </c>
       <c r="O129" t="inlineStr">
         <is>
-          <t>25/06/2023 21:11</t>
+          <t>27/06/2023 02:11</t>
         </is>
       </c>
       <c r="P129" t="n">
-        <v>3.24</v>
+        <v>3.41</v>
       </c>
       <c r="Q129" t="inlineStr">
         <is>
-          <t>02/07/2023 20:55</t>
+          <t>02/07/2023 20:58</t>
         </is>
       </c>
       <c r="R129" t="n">
-        <v>2.53</v>
+        <v>5.27</v>
       </c>
       <c r="S129" t="inlineStr">
         <is>
-          <t>25/06/2023 21:11</t>
+          <t>27/06/2023 02:11</t>
         </is>
       </c>
       <c r="T129" t="n">
-        <v>3.4</v>
+        <v>4.37</v>
       </c>
       <c r="U129" t="inlineStr">
         <is>
-          <t>02/07/2023 20:59</t>
+          <t>02/07/2023 20:58</t>
         </is>
       </c>
       <c r="V129" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/athletico-pr-palmeiras/birntE0D/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/botafogo-rj-vasco/QqeakIwR/</t>
         </is>
       </c>
     </row>
@@ -13637,71 +13637,71 @@
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>Fortaleza</t>
+          <t>Sao Paulo</t>
         </is>
       </c>
       <c r="G144" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>Cuiaba</t>
+          <t>Santos</t>
         </is>
       </c>
       <c r="I144" t="n">
         <v>1</v>
       </c>
       <c r="J144" t="n">
-        <v>1.66</v>
+        <v>1.64</v>
       </c>
       <c r="K144" t="inlineStr">
         <is>
-          <t>09/07/2023 23:42</t>
+          <t>09/07/2023 21:12</t>
         </is>
       </c>
       <c r="L144" t="n">
-        <v>1.79</v>
+        <v>1.65</v>
       </c>
       <c r="M144" t="inlineStr">
         <is>
-          <t>16/07/2023 20:58</t>
+          <t>16/07/2023 20:57</t>
         </is>
       </c>
       <c r="N144" t="n">
-        <v>3.9</v>
+        <v>3.82</v>
       </c>
       <c r="O144" t="inlineStr">
         <is>
-          <t>09/07/2023 23:42</t>
+          <t>09/07/2023 21:12</t>
         </is>
       </c>
       <c r="P144" t="n">
-        <v>3.5</v>
+        <v>3.67</v>
       </c>
       <c r="Q144" t="inlineStr">
         <is>
-          <t>16/07/2023 20:58</t>
+          <t>16/07/2023 20:57</t>
         </is>
       </c>
       <c r="R144" t="n">
-        <v>5.69</v>
+        <v>5.8</v>
       </c>
       <c r="S144" t="inlineStr">
         <is>
-          <t>09/07/2023 23:42</t>
+          <t>09/07/2023 21:12</t>
         </is>
       </c>
       <c r="T144" t="n">
-        <v>5.42</v>
+        <v>6.61</v>
       </c>
       <c r="U144" t="inlineStr">
         <is>
-          <t>16/07/2023 20:58</t>
+          <t>16/07/2023 20:57</t>
         </is>
       </c>
       <c r="V144" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/fortaleza-cuiaba/nZXIDRLo/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/sao-paulo-santos/Uc1hc6y5/</t>
         </is>
       </c>
     </row>
@@ -13729,7 +13729,7 @@
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>Fluminense</t>
+          <t>Fortaleza</t>
         </is>
       </c>
       <c r="G145" t="n">
@@ -13737,54 +13737,54 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>Flamengo RJ</t>
+          <t>Cuiaba</t>
         </is>
       </c>
       <c r="I145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J145" t="n">
-        <v>2.31</v>
+        <v>1.66</v>
       </c>
       <c r="K145" t="inlineStr">
         <is>
-          <t>09/07/2023 21:12</t>
+          <t>09/07/2023 23:42</t>
         </is>
       </c>
       <c r="L145" t="n">
-        <v>2.85</v>
+        <v>1.79</v>
       </c>
       <c r="M145" t="inlineStr">
         <is>
-          <t>16/07/2023 20:51</t>
+          <t>16/07/2023 20:58</t>
         </is>
       </c>
       <c r="N145" t="n">
-        <v>3.47</v>
+        <v>3.9</v>
       </c>
       <c r="O145" t="inlineStr">
         <is>
-          <t>09/07/2023 21:12</t>
+          <t>09/07/2023 23:42</t>
         </is>
       </c>
       <c r="P145" t="n">
-        <v>3.32</v>
+        <v>3.5</v>
       </c>
       <c r="Q145" t="inlineStr">
         <is>
-          <t>16/07/2023 20:55</t>
+          <t>16/07/2023 20:58</t>
         </is>
       </c>
       <c r="R145" t="n">
-        <v>3.22</v>
+        <v>5.69</v>
       </c>
       <c r="S145" t="inlineStr">
         <is>
-          <t>09/07/2023 21:12</t>
+          <t>09/07/2023 23:42</t>
         </is>
       </c>
       <c r="T145" t="n">
-        <v>2.66</v>
+        <v>5.42</v>
       </c>
       <c r="U145" t="inlineStr">
         <is>
@@ -13793,7 +13793,7 @@
       </c>
       <c r="V145" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/fluminense-flamengo-rj/YV7qaS6h/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/fortaleza-cuiaba/nZXIDRLo/</t>
         </is>
       </c>
     </row>
@@ -13821,22 +13821,22 @@
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>Sao Paulo</t>
+          <t>Fluminense</t>
         </is>
       </c>
       <c r="G146" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>Santos</t>
+          <t>Flamengo RJ</t>
         </is>
       </c>
       <c r="I146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J146" t="n">
-        <v>1.64</v>
+        <v>2.31</v>
       </c>
       <c r="K146" t="inlineStr">
         <is>
@@ -13844,15 +13844,15 @@
         </is>
       </c>
       <c r="L146" t="n">
-        <v>1.65</v>
+        <v>2.85</v>
       </c>
       <c r="M146" t="inlineStr">
         <is>
-          <t>16/07/2023 20:57</t>
+          <t>16/07/2023 20:51</t>
         </is>
       </c>
       <c r="N146" t="n">
-        <v>3.82</v>
+        <v>3.47</v>
       </c>
       <c r="O146" t="inlineStr">
         <is>
@@ -13860,15 +13860,15 @@
         </is>
       </c>
       <c r="P146" t="n">
-        <v>3.67</v>
+        <v>3.32</v>
       </c>
       <c r="Q146" t="inlineStr">
         <is>
-          <t>16/07/2023 20:57</t>
+          <t>16/07/2023 20:55</t>
         </is>
       </c>
       <c r="R146" t="n">
-        <v>5.8</v>
+        <v>3.22</v>
       </c>
       <c r="S146" t="inlineStr">
         <is>
@@ -13876,16 +13876,16 @@
         </is>
       </c>
       <c r="T146" t="n">
-        <v>6.61</v>
+        <v>2.66</v>
       </c>
       <c r="U146" t="inlineStr">
         <is>
-          <t>16/07/2023 20:57</t>
+          <t>16/07/2023 20:58</t>
         </is>
       </c>
       <c r="V146" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/sao-paulo-santos/Uc1hc6y5/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/fluminense-flamengo-rj/YV7qaS6h/</t>
         </is>
       </c>
     </row>
@@ -14649,71 +14649,71 @@
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>Cruzeiro</t>
+          <t>Santos</t>
         </is>
       </c>
       <c r="G155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>Goias</t>
+          <t>Botafogo RJ</t>
         </is>
       </c>
       <c r="I155" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J155" t="n">
-        <v>1.63</v>
+        <v>2.87</v>
       </c>
       <c r="K155" t="inlineStr">
         <is>
-          <t>18/07/2023 01:12</t>
+          <t>16/07/2023 21:12</t>
         </is>
       </c>
       <c r="L155" t="n">
-        <v>1.54</v>
+        <v>2.99</v>
       </c>
       <c r="M155" t="inlineStr">
         <is>
-          <t>23/07/2023 20:53</t>
+          <t>23/07/2023 20:59</t>
         </is>
       </c>
       <c r="N155" t="n">
-        <v>3.82</v>
+        <v>3</v>
       </c>
       <c r="O155" t="inlineStr">
         <is>
-          <t>18/07/2023 01:12</t>
+          <t>16/07/2023 21:12</t>
         </is>
       </c>
       <c r="P155" t="n">
-        <v>4.05</v>
+        <v>2.97</v>
       </c>
       <c r="Q155" t="inlineStr">
         <is>
-          <t>23/07/2023 20:55</t>
+          <t>23/07/2023 20:48</t>
         </is>
       </c>
       <c r="R155" t="n">
-        <v>5.9</v>
+        <v>2.8</v>
       </c>
       <c r="S155" t="inlineStr">
         <is>
-          <t>18/07/2023 01:12</t>
+          <t>16/07/2023 21:12</t>
         </is>
       </c>
       <c r="T155" t="n">
-        <v>7.32</v>
+        <v>2.81</v>
       </c>
       <c r="U155" t="inlineStr">
         <is>
-          <t>23/07/2023 20:55</t>
+          <t>23/07/2023 20:58</t>
         </is>
       </c>
       <c r="V155" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/cruzeiro-goias/0Igv7s5T/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/santos-botafogo-rj/f5Ow93zH/</t>
         </is>
       </c>
     </row>
@@ -14741,7 +14741,7 @@
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>Bragantino</t>
+          <t>Cruzeiro</t>
         </is>
       </c>
       <c r="G156" t="n">
@@ -14749,63 +14749,63 @@
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>Internacional</t>
+          <t>Goias</t>
         </is>
       </c>
       <c r="I156" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J156" t="n">
-        <v>1.83</v>
+        <v>1.63</v>
       </c>
       <c r="K156" t="inlineStr">
         <is>
-          <t>16/07/2023 23:42</t>
+          <t>18/07/2023 01:12</t>
         </is>
       </c>
       <c r="L156" t="n">
-        <v>1.75</v>
+        <v>1.54</v>
       </c>
       <c r="M156" t="inlineStr">
         <is>
-          <t>23/07/2023 20:59</t>
+          <t>23/07/2023 20:53</t>
         </is>
       </c>
       <c r="N156" t="n">
-        <v>3.62</v>
+        <v>3.82</v>
       </c>
       <c r="O156" t="inlineStr">
         <is>
-          <t>16/07/2023 23:42</t>
+          <t>18/07/2023 01:12</t>
         </is>
       </c>
       <c r="P156" t="n">
-        <v>3.72</v>
+        <v>4.05</v>
       </c>
       <c r="Q156" t="inlineStr">
         <is>
-          <t>23/07/2023 20:59</t>
+          <t>23/07/2023 20:55</t>
         </is>
       </c>
       <c r="R156" t="n">
-        <v>4.59</v>
+        <v>5.9</v>
       </c>
       <c r="S156" t="inlineStr">
         <is>
-          <t>16/07/2023 23:42</t>
+          <t>18/07/2023 01:12</t>
         </is>
       </c>
       <c r="T156" t="n">
-        <v>5.31</v>
+        <v>7.32</v>
       </c>
       <c r="U156" t="inlineStr">
         <is>
-          <t>23/07/2023 20:59</t>
+          <t>23/07/2023 20:55</t>
         </is>
       </c>
       <c r="V156" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/bragantino-internacional/MRfz8NkN/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/cruzeiro-goias/0Igv7s5T/</t>
         </is>
       </c>
     </row>
@@ -14833,30 +14833,30 @@
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>Santos</t>
+          <t>Bragantino</t>
         </is>
       </c>
       <c r="G157" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>Botafogo RJ</t>
+          <t>Internacional</t>
         </is>
       </c>
       <c r="I157" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J157" t="n">
-        <v>2.87</v>
+        <v>1.83</v>
       </c>
       <c r="K157" t="inlineStr">
         <is>
-          <t>16/07/2023 21:12</t>
+          <t>16/07/2023 23:42</t>
         </is>
       </c>
       <c r="L157" t="n">
-        <v>2.99</v>
+        <v>1.75</v>
       </c>
       <c r="M157" t="inlineStr">
         <is>
@@ -14864,40 +14864,40 @@
         </is>
       </c>
       <c r="N157" t="n">
-        <v>3</v>
+        <v>3.62</v>
       </c>
       <c r="O157" t="inlineStr">
         <is>
-          <t>16/07/2023 21:12</t>
+          <t>16/07/2023 23:42</t>
         </is>
       </c>
       <c r="P157" t="n">
-        <v>2.97</v>
+        <v>3.72</v>
       </c>
       <c r="Q157" t="inlineStr">
         <is>
-          <t>23/07/2023 20:48</t>
+          <t>23/07/2023 20:59</t>
         </is>
       </c>
       <c r="R157" t="n">
-        <v>2.8</v>
+        <v>4.59</v>
       </c>
       <c r="S157" t="inlineStr">
         <is>
-          <t>16/07/2023 21:12</t>
+          <t>16/07/2023 23:42</t>
         </is>
       </c>
       <c r="T157" t="n">
-        <v>2.81</v>
+        <v>5.31</v>
       </c>
       <c r="U157" t="inlineStr">
         <is>
-          <t>23/07/2023 20:58</t>
+          <t>23/07/2023 20:59</t>
         </is>
       </c>
       <c r="V157" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/santos-botafogo-rj/f5Ow93zH/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/bragantino-internacional/MRfz8NkN/</t>
         </is>
       </c>
     </row>
@@ -16397,71 +16397,71 @@
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>Sao Paulo</t>
+          <t>Vasco</t>
         </is>
       </c>
       <c r="G174" t="n">
+        <v>1</v>
+      </c>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>Gremio</t>
+        </is>
+      </c>
+      <c r="I174" t="n">
         <v>0</v>
       </c>
-      <c r="H174" t="inlineStr">
-        <is>
-          <t>Atletico-MG</t>
-        </is>
-      </c>
-      <c r="I174" t="n">
-        <v>2</v>
-      </c>
       <c r="J174" t="n">
-        <v>2.21</v>
+        <v>2.82</v>
       </c>
       <c r="K174" t="inlineStr">
         <is>
-          <t>31/07/2023 02:12</t>
+          <t>30/07/2023 23:41</t>
         </is>
       </c>
       <c r="L174" t="n">
-        <v>1.99</v>
+        <v>2.74</v>
       </c>
       <c r="M174" t="inlineStr">
         <is>
-          <t>06/08/2023 20:31</t>
+          <t>06/08/2023 20:58</t>
         </is>
       </c>
       <c r="N174" t="n">
-        <v>3.17</v>
+        <v>3.24</v>
       </c>
       <c r="O174" t="inlineStr">
         <is>
-          <t>31/07/2023 02:12</t>
+          <t>30/07/2023 23:41</t>
         </is>
       </c>
       <c r="P174" t="n">
-        <v>3.36</v>
+        <v>3.11</v>
       </c>
       <c r="Q174" t="inlineStr">
         <is>
-          <t>06/08/2023 20:55</t>
+          <t>06/08/2023 20:59</t>
         </is>
       </c>
       <c r="R174" t="n">
-        <v>3.7</v>
+        <v>2.72</v>
       </c>
       <c r="S174" t="inlineStr">
         <is>
-          <t>31/07/2023 02:12</t>
+          <t>30/07/2023 23:41</t>
         </is>
       </c>
       <c r="T174" t="n">
-        <v>4.7</v>
+        <v>2.93</v>
       </c>
       <c r="U174" t="inlineStr">
         <is>
-          <t>06/08/2023 20:57</t>
+          <t>06/08/2023 20:58</t>
         </is>
       </c>
       <c r="V174" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/sao-paulo-atletico-mg/25viZalM/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/vasco-gremio/fuumztZF/</t>
         </is>
       </c>
     </row>
@@ -16489,71 +16489,71 @@
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>Vasco</t>
+          <t>Sao Paulo</t>
         </is>
       </c>
       <c r="G175" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>Gremio</t>
+          <t>Atletico-MG</t>
         </is>
       </c>
       <c r="I175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J175" t="n">
-        <v>2.82</v>
+        <v>2.21</v>
       </c>
       <c r="K175" t="inlineStr">
         <is>
-          <t>30/07/2023 23:41</t>
+          <t>31/07/2023 02:12</t>
         </is>
       </c>
       <c r="L175" t="n">
-        <v>2.74</v>
+        <v>1.99</v>
       </c>
       <c r="M175" t="inlineStr">
         <is>
-          <t>06/08/2023 20:58</t>
+          <t>06/08/2023 20:31</t>
         </is>
       </c>
       <c r="N175" t="n">
-        <v>3.24</v>
+        <v>3.17</v>
       </c>
       <c r="O175" t="inlineStr">
         <is>
-          <t>30/07/2023 23:41</t>
+          <t>31/07/2023 02:12</t>
         </is>
       </c>
       <c r="P175" t="n">
-        <v>3.11</v>
+        <v>3.36</v>
       </c>
       <c r="Q175" t="inlineStr">
         <is>
-          <t>06/08/2023 20:59</t>
+          <t>06/08/2023 20:55</t>
         </is>
       </c>
       <c r="R175" t="n">
-        <v>2.72</v>
+        <v>3.7</v>
       </c>
       <c r="S175" t="inlineStr">
         <is>
-          <t>30/07/2023 23:41</t>
+          <t>31/07/2023 02:12</t>
         </is>
       </c>
       <c r="T175" t="n">
-        <v>2.93</v>
+        <v>4.7</v>
       </c>
       <c r="U175" t="inlineStr">
         <is>
-          <t>06/08/2023 20:58</t>
+          <t>06/08/2023 20:57</t>
         </is>
       </c>
       <c r="V175" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/vasco-gremio/fuumztZF/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/sao-paulo-atletico-mg/25viZalM/</t>
         </is>
       </c>
     </row>
@@ -16581,7 +16581,7 @@
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>Cruzeiro</t>
+          <t>Coritiba</t>
         </is>
       </c>
       <c r="G176" t="n">
@@ -16589,22 +16589,22 @@
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>Botafogo RJ</t>
+          <t>Bragantino</t>
         </is>
       </c>
       <c r="I176" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J176" t="n">
-        <v>2.19</v>
+        <v>2.97</v>
       </c>
       <c r="K176" t="inlineStr">
         <is>
-          <t>31/07/2023 00:42</t>
+          <t>30/07/2023 21:12</t>
         </is>
       </c>
       <c r="L176" t="n">
-        <v>2.35</v>
+        <v>3.58</v>
       </c>
       <c r="M176" t="inlineStr">
         <is>
@@ -16612,40 +16612,40 @@
         </is>
       </c>
       <c r="N176" t="n">
-        <v>3.26</v>
+        <v>3.29</v>
       </c>
       <c r="O176" t="inlineStr">
         <is>
-          <t>31/07/2023 00:42</t>
+          <t>30/07/2023 21:12</t>
         </is>
       </c>
       <c r="P176" t="n">
-        <v>3.23</v>
+        <v>3.33</v>
       </c>
       <c r="Q176" t="inlineStr">
         <is>
-          <t>06/08/2023 23:29</t>
+          <t>06/08/2023 23:26</t>
         </is>
       </c>
       <c r="R176" t="n">
-        <v>3.71</v>
+        <v>2.51</v>
       </c>
       <c r="S176" t="inlineStr">
         <is>
-          <t>31/07/2023 00:42</t>
+          <t>30/07/2023 21:12</t>
         </is>
       </c>
       <c r="T176" t="n">
-        <v>3.41</v>
+        <v>2.23</v>
       </c>
       <c r="U176" t="inlineStr">
         <is>
-          <t>06/08/2023 23:25</t>
+          <t>06/08/2023 23:22</t>
         </is>
       </c>
       <c r="V176" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/cruzeiro-botafogo-rj/0tKRScRk/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/coritiba-bragantino/YgIZQyd2/</t>
         </is>
       </c>
     </row>
@@ -16673,7 +16673,7 @@
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>Coritiba</t>
+          <t>Cruzeiro</t>
         </is>
       </c>
       <c r="G177" t="n">
@@ -16681,22 +16681,22 @@
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>Bragantino</t>
+          <t>Botafogo RJ</t>
         </is>
       </c>
       <c r="I177" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J177" t="n">
-        <v>2.97</v>
+        <v>2.19</v>
       </c>
       <c r="K177" t="inlineStr">
         <is>
-          <t>30/07/2023 21:12</t>
+          <t>31/07/2023 00:42</t>
         </is>
       </c>
       <c r="L177" t="n">
-        <v>3.58</v>
+        <v>2.35</v>
       </c>
       <c r="M177" t="inlineStr">
         <is>
@@ -16704,40 +16704,40 @@
         </is>
       </c>
       <c r="N177" t="n">
-        <v>3.29</v>
+        <v>3.26</v>
       </c>
       <c r="O177" t="inlineStr">
         <is>
-          <t>30/07/2023 21:12</t>
+          <t>31/07/2023 00:42</t>
         </is>
       </c>
       <c r="P177" t="n">
-        <v>3.33</v>
+        <v>3.23</v>
       </c>
       <c r="Q177" t="inlineStr">
         <is>
-          <t>06/08/2023 23:26</t>
+          <t>06/08/2023 23:29</t>
         </is>
       </c>
       <c r="R177" t="n">
-        <v>2.51</v>
+        <v>3.71</v>
       </c>
       <c r="S177" t="inlineStr">
         <is>
-          <t>30/07/2023 21:12</t>
+          <t>31/07/2023 00:42</t>
         </is>
       </c>
       <c r="T177" t="n">
-        <v>2.23</v>
+        <v>3.41</v>
       </c>
       <c r="U177" t="inlineStr">
         <is>
-          <t>06/08/2023 23:22</t>
+          <t>06/08/2023 23:25</t>
         </is>
       </c>
       <c r="V177" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/coritiba-bragantino/YgIZQyd2/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/cruzeiro-botafogo-rj/0tKRScRk/</t>
         </is>
       </c>
     </row>
@@ -17869,7 +17869,7 @@
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>Sao Paulo</t>
+          <t>Internacional</t>
         </is>
       </c>
       <c r="G190" t="n">
@@ -17877,14 +17877,14 @@
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>Botafogo RJ</t>
+          <t>Fortaleza</t>
         </is>
       </c>
       <c r="I190" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J190" t="n">
-        <v>1.97</v>
+        <v>2.13</v>
       </c>
       <c r="K190" t="inlineStr">
         <is>
@@ -17892,15 +17892,15 @@
         </is>
       </c>
       <c r="L190" t="n">
-        <v>1.95</v>
+        <v>2.43</v>
       </c>
       <c r="M190" t="inlineStr">
         <is>
-          <t>19/08/2023 20:59</t>
+          <t>19/08/2023 20:56</t>
         </is>
       </c>
       <c r="N190" t="n">
-        <v>3.41</v>
+        <v>3.28</v>
       </c>
       <c r="O190" t="inlineStr">
         <is>
@@ -17908,15 +17908,15 @@
         </is>
       </c>
       <c r="P190" t="n">
-        <v>3.52</v>
+        <v>3.14</v>
       </c>
       <c r="Q190" t="inlineStr">
         <is>
-          <t>19/08/2023 20:59</t>
+          <t>19/08/2023 20:58</t>
         </is>
       </c>
       <c r="R190" t="n">
-        <v>4.31</v>
+        <v>3.88</v>
       </c>
       <c r="S190" t="inlineStr">
         <is>
@@ -17924,16 +17924,16 @@
         </is>
       </c>
       <c r="T190" t="n">
-        <v>4.28</v>
+        <v>3.37</v>
       </c>
       <c r="U190" t="inlineStr">
         <is>
-          <t>19/08/2023 20:59</t>
+          <t>19/08/2023 20:56</t>
         </is>
       </c>
       <c r="V190" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/sao-paulo-botafogo-rj/ze4VRxbg/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/internacional-fortaleza/vm1nOfcI/</t>
         </is>
       </c>
     </row>
@@ -17961,7 +17961,7 @@
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>Internacional</t>
+          <t>Sao Paulo</t>
         </is>
       </c>
       <c r="G191" t="n">
@@ -17969,14 +17969,14 @@
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>Fortaleza</t>
+          <t>Botafogo RJ</t>
         </is>
       </c>
       <c r="I191" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J191" t="n">
-        <v>2.13</v>
+        <v>1.97</v>
       </c>
       <c r="K191" t="inlineStr">
         <is>
@@ -17984,15 +17984,15 @@
         </is>
       </c>
       <c r="L191" t="n">
-        <v>2.43</v>
+        <v>1.95</v>
       </c>
       <c r="M191" t="inlineStr">
         <is>
-          <t>19/08/2023 20:56</t>
+          <t>19/08/2023 20:59</t>
         </is>
       </c>
       <c r="N191" t="n">
-        <v>3.28</v>
+        <v>3.41</v>
       </c>
       <c r="O191" t="inlineStr">
         <is>
@@ -18000,15 +18000,15 @@
         </is>
       </c>
       <c r="P191" t="n">
-        <v>3.14</v>
+        <v>3.52</v>
       </c>
       <c r="Q191" t="inlineStr">
         <is>
-          <t>19/08/2023 20:58</t>
+          <t>19/08/2023 20:59</t>
         </is>
       </c>
       <c r="R191" t="n">
-        <v>3.88</v>
+        <v>4.31</v>
       </c>
       <c r="S191" t="inlineStr">
         <is>
@@ -18016,16 +18016,16 @@
         </is>
       </c>
       <c r="T191" t="n">
-        <v>3.37</v>
+        <v>4.28</v>
       </c>
       <c r="U191" t="inlineStr">
         <is>
-          <t>19/08/2023 20:56</t>
+          <t>19/08/2023 20:59</t>
         </is>
       </c>
       <c r="V191" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/internacional-fortaleza/vm1nOfcI/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/sao-paulo-botafogo-rj/ze4VRxbg/</t>
         </is>
       </c>
     </row>
@@ -19341,71 +19341,71 @@
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>Athletico-PR</t>
+          <t>Fortaleza</t>
         </is>
       </c>
       <c r="G206" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>Fluminense</t>
+          <t>Coritiba</t>
         </is>
       </c>
       <c r="I206" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J206" t="n">
-        <v>2.23</v>
+        <v>1.53</v>
       </c>
       <c r="K206" t="inlineStr">
         <is>
-          <t>21/08/2023 08:50</t>
+          <t>20/08/2023 20:12</t>
         </is>
       </c>
       <c r="L206" t="n">
-        <v>1.81</v>
+        <v>1.53</v>
       </c>
       <c r="M206" t="inlineStr">
         <is>
-          <t>27/08/2023 23:21</t>
+          <t>27/08/2023 23:08</t>
         </is>
       </c>
       <c r="N206" t="n">
-        <v>3.35</v>
+        <v>4.22</v>
       </c>
       <c r="O206" t="inlineStr">
         <is>
-          <t>21/08/2023 08:50</t>
+          <t>20/08/2023 20:12</t>
         </is>
       </c>
       <c r="P206" t="n">
-        <v>3.59</v>
+        <v>4.17</v>
       </c>
       <c r="Q206" t="inlineStr">
         <is>
-          <t>27/08/2023 23:29</t>
+          <t>27/08/2023 23:28</t>
         </is>
       </c>
       <c r="R206" t="n">
-        <v>3.43</v>
+        <v>6.79</v>
       </c>
       <c r="S206" t="inlineStr">
         <is>
-          <t>21/08/2023 08:50</t>
+          <t>20/08/2023 20:12</t>
         </is>
       </c>
       <c r="T206" t="n">
-        <v>5.06</v>
+        <v>7.18</v>
       </c>
       <c r="U206" t="inlineStr">
         <is>
-          <t>27/08/2023 23:29</t>
+          <t>27/08/2023 23:28</t>
         </is>
       </c>
       <c r="V206" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/athletico-pr-fluminense/hdEYZidU/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/fortaleza-coritiba/UV4weySu/</t>
         </is>
       </c>
     </row>
@@ -19433,71 +19433,71 @@
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>Fortaleza</t>
+          <t>Palmeiras</t>
         </is>
       </c>
       <c r="G207" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>Coritiba</t>
+          <t>Vasco</t>
         </is>
       </c>
       <c r="I207" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J207" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="K207" t="inlineStr">
         <is>
-          <t>20/08/2023 20:12</t>
+          <t>19/08/2023 22:42</t>
         </is>
       </c>
       <c r="L207" t="n">
-        <v>1.53</v>
+        <v>1.38</v>
       </c>
       <c r="M207" t="inlineStr">
         <is>
-          <t>27/08/2023 23:08</t>
+          <t>27/08/2023 22:57</t>
         </is>
       </c>
       <c r="N207" t="n">
-        <v>4.22</v>
+        <v>4.75</v>
       </c>
       <c r="O207" t="inlineStr">
         <is>
-          <t>20/08/2023 20:12</t>
+          <t>19/08/2023 22:42</t>
         </is>
       </c>
       <c r="P207" t="n">
-        <v>4.17</v>
+        <v>4.87</v>
       </c>
       <c r="Q207" t="inlineStr">
         <is>
-          <t>27/08/2023 23:28</t>
+          <t>27/08/2023 22:57</t>
         </is>
       </c>
       <c r="R207" t="n">
-        <v>6.79</v>
+        <v>7.62</v>
       </c>
       <c r="S207" t="inlineStr">
         <is>
-          <t>20/08/2023 20:12</t>
+          <t>19/08/2023 22:42</t>
         </is>
       </c>
       <c r="T207" t="n">
-        <v>7.18</v>
+        <v>9.59</v>
       </c>
       <c r="U207" t="inlineStr">
         <is>
-          <t>27/08/2023 23:28</t>
+          <t>27/08/2023 23:01</t>
         </is>
       </c>
       <c r="V207" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/fortaleza-coritiba/UV4weySu/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/palmeiras-vasco/pQNDvGsa/</t>
         </is>
       </c>
     </row>
@@ -19525,71 +19525,71 @@
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>Palmeiras</t>
+          <t>Athletico-PR</t>
         </is>
       </c>
       <c r="G208" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>Vasco</t>
+          <t>Fluminense</t>
         </is>
       </c>
       <c r="I208" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J208" t="n">
-        <v>1.44</v>
+        <v>2.23</v>
       </c>
       <c r="K208" t="inlineStr">
         <is>
-          <t>19/08/2023 22:42</t>
+          <t>21/08/2023 08:50</t>
         </is>
       </c>
       <c r="L208" t="n">
-        <v>1.38</v>
+        <v>1.81</v>
       </c>
       <c r="M208" t="inlineStr">
         <is>
-          <t>27/08/2023 22:57</t>
+          <t>27/08/2023 23:21</t>
         </is>
       </c>
       <c r="N208" t="n">
-        <v>4.75</v>
+        <v>3.35</v>
       </c>
       <c r="O208" t="inlineStr">
         <is>
-          <t>19/08/2023 22:42</t>
+          <t>21/08/2023 08:50</t>
         </is>
       </c>
       <c r="P208" t="n">
-        <v>4.87</v>
+        <v>3.59</v>
       </c>
       <c r="Q208" t="inlineStr">
         <is>
-          <t>27/08/2023 22:57</t>
+          <t>27/08/2023 23:29</t>
         </is>
       </c>
       <c r="R208" t="n">
-        <v>7.62</v>
+        <v>3.43</v>
       </c>
       <c r="S208" t="inlineStr">
         <is>
-          <t>19/08/2023 22:42</t>
+          <t>21/08/2023 08:50</t>
         </is>
       </c>
       <c r="T208" t="n">
-        <v>9.59</v>
+        <v>5.06</v>
       </c>
       <c r="U208" t="inlineStr">
         <is>
-          <t>27/08/2023 23:01</t>
+          <t>27/08/2023 23:29</t>
         </is>
       </c>
       <c r="V208" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/palmeiras-vasco/pQNDvGsa/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/athletico-pr-fluminense/hdEYZidU/</t>
         </is>
       </c>
     </row>
@@ -20261,71 +20261,71 @@
       </c>
       <c r="F216" t="inlineStr">
         <is>
-          <t>Bahia</t>
+          <t>America MG</t>
         </is>
       </c>
       <c r="G216" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>Vasco</t>
+          <t>Santos</t>
         </is>
       </c>
       <c r="I216" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J216" t="n">
-        <v>2.02</v>
+        <v>2.1</v>
       </c>
       <c r="K216" t="inlineStr">
         <is>
-          <t>27/08/2023 22:42</t>
+          <t>27/08/2023 20:12</t>
         </is>
       </c>
       <c r="L216" t="n">
-        <v>2.11</v>
+        <v>2.21</v>
       </c>
       <c r="M216" t="inlineStr">
         <is>
-          <t>03/09/2023 23:26</t>
+          <t>03/09/2023 23:28</t>
         </is>
       </c>
       <c r="N216" t="n">
-        <v>3.43</v>
+        <v>3.35</v>
       </c>
       <c r="O216" t="inlineStr">
         <is>
-          <t>27/08/2023 22:42</t>
+          <t>27/08/2023 20:12</t>
         </is>
       </c>
       <c r="P216" t="n">
-        <v>3.33</v>
+        <v>3.2</v>
       </c>
       <c r="Q216" t="inlineStr">
         <is>
-          <t>03/09/2023 23:29</t>
+          <t>03/09/2023 23:28</t>
         </is>
       </c>
       <c r="R216" t="n">
-        <v>4.04</v>
+        <v>3.88</v>
       </c>
       <c r="S216" t="inlineStr">
         <is>
-          <t>27/08/2023 22:42</t>
+          <t>27/08/2023 20:12</t>
         </is>
       </c>
       <c r="T216" t="n">
-        <v>3.95</v>
+        <v>3.8</v>
       </c>
       <c r="U216" t="inlineStr">
         <is>
-          <t>03/09/2023 23:29</t>
+          <t>03/09/2023 23:28</t>
         </is>
       </c>
       <c r="V216" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/bahia-vasco/4lJL7EBo/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/america-mg-santos/ruIP6YQi/</t>
         </is>
       </c>
     </row>
@@ -20353,71 +20353,71 @@
       </c>
       <c r="F217" t="inlineStr">
         <is>
-          <t>America MG</t>
+          <t>Bahia</t>
         </is>
       </c>
       <c r="G217" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>Santos</t>
+          <t>Vasco</t>
         </is>
       </c>
       <c r="I217" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J217" t="n">
-        <v>2.1</v>
+        <v>2.02</v>
       </c>
       <c r="K217" t="inlineStr">
         <is>
-          <t>27/08/2023 20:12</t>
+          <t>27/08/2023 22:42</t>
         </is>
       </c>
       <c r="L217" t="n">
-        <v>2.21</v>
+        <v>2.11</v>
       </c>
       <c r="M217" t="inlineStr">
         <is>
-          <t>03/09/2023 23:28</t>
+          <t>03/09/2023 23:26</t>
         </is>
       </c>
       <c r="N217" t="n">
-        <v>3.35</v>
+        <v>3.43</v>
       </c>
       <c r="O217" t="inlineStr">
         <is>
-          <t>27/08/2023 20:12</t>
+          <t>27/08/2023 22:42</t>
         </is>
       </c>
       <c r="P217" t="n">
-        <v>3.2</v>
+        <v>3.33</v>
       </c>
       <c r="Q217" t="inlineStr">
         <is>
-          <t>03/09/2023 23:28</t>
+          <t>03/09/2023 23:29</t>
         </is>
       </c>
       <c r="R217" t="n">
-        <v>3.88</v>
+        <v>4.04</v>
       </c>
       <c r="S217" t="inlineStr">
         <is>
-          <t>27/08/2023 20:12</t>
+          <t>27/08/2023 22:42</t>
         </is>
       </c>
       <c r="T217" t="n">
-        <v>3.8</v>
+        <v>3.95</v>
       </c>
       <c r="U217" t="inlineStr">
         <is>
-          <t>03/09/2023 23:28</t>
+          <t>03/09/2023 23:29</t>
         </is>
       </c>
       <c r="V217" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/america-mg-santos/ruIP6YQi/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/bahia-vasco/4lJL7EBo/</t>
         </is>
       </c>
     </row>
@@ -20721,22 +20721,22 @@
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t>Santos</t>
+          <t>Fortaleza</t>
         </is>
       </c>
       <c r="G221" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H221" t="inlineStr">
         <is>
-          <t>Cruzeiro</t>
+          <t>Corinthians</t>
         </is>
       </c>
       <c r="I221" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J221" t="n">
-        <v>2.7</v>
+        <v>1.74</v>
       </c>
       <c r="K221" t="inlineStr">
         <is>
@@ -20744,15 +20744,15 @@
         </is>
       </c>
       <c r="L221" t="n">
-        <v>2.4</v>
+        <v>1.6</v>
       </c>
       <c r="M221" t="inlineStr">
         <is>
-          <t>14/09/2023 23:55</t>
+          <t>14/09/2023 23:53</t>
         </is>
       </c>
       <c r="N221" t="n">
-        <v>3.08</v>
+        <v>3.74</v>
       </c>
       <c r="O221" t="inlineStr">
         <is>
@@ -20760,15 +20760,15 @@
         </is>
       </c>
       <c r="P221" t="n">
-        <v>3.12</v>
+        <v>3.87</v>
       </c>
       <c r="Q221" t="inlineStr">
         <is>
-          <t>14/09/2023 23:55</t>
+          <t>14/09/2023 23:57</t>
         </is>
       </c>
       <c r="R221" t="n">
-        <v>2.92</v>
+        <v>5.21</v>
       </c>
       <c r="S221" t="inlineStr">
         <is>
@@ -20776,16 +20776,16 @@
         </is>
       </c>
       <c r="T221" t="n">
-        <v>3.44</v>
+        <v>6.84</v>
       </c>
       <c r="U221" t="inlineStr">
         <is>
-          <t>14/09/2023 23:54</t>
+          <t>14/09/2023 23:57</t>
         </is>
       </c>
       <c r="V221" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/santos-cruzeiro/nXEt3jQG/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/fortaleza-corinthians/jPuc75H2/</t>
         </is>
       </c>
     </row>
@@ -20813,22 +20813,22 @@
       </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t>Fortaleza</t>
+          <t>Santos</t>
         </is>
       </c>
       <c r="G222" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H222" t="inlineStr">
         <is>
-          <t>Corinthians</t>
+          <t>Cruzeiro</t>
         </is>
       </c>
       <c r="I222" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J222" t="n">
-        <v>1.74</v>
+        <v>2.7</v>
       </c>
       <c r="K222" t="inlineStr">
         <is>
@@ -20836,15 +20836,15 @@
         </is>
       </c>
       <c r="L222" t="n">
-        <v>1.6</v>
+        <v>2.4</v>
       </c>
       <c r="M222" t="inlineStr">
         <is>
-          <t>14/09/2023 23:53</t>
+          <t>14/09/2023 23:55</t>
         </is>
       </c>
       <c r="N222" t="n">
-        <v>3.74</v>
+        <v>3.08</v>
       </c>
       <c r="O222" t="inlineStr">
         <is>
@@ -20852,15 +20852,15 @@
         </is>
       </c>
       <c r="P222" t="n">
-        <v>3.87</v>
+        <v>3.12</v>
       </c>
       <c r="Q222" t="inlineStr">
         <is>
-          <t>14/09/2023 23:57</t>
+          <t>14/09/2023 23:55</t>
         </is>
       </c>
       <c r="R222" t="n">
-        <v>5.21</v>
+        <v>2.92</v>
       </c>
       <c r="S222" t="inlineStr">
         <is>
@@ -20868,16 +20868,16 @@
         </is>
       </c>
       <c r="T222" t="n">
-        <v>6.84</v>
+        <v>3.44</v>
       </c>
       <c r="U222" t="inlineStr">
         <is>
-          <t>14/09/2023 23:57</t>
+          <t>14/09/2023 23:54</t>
         </is>
       </c>
       <c r="V222" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/fortaleza-corinthians/jPuc75H2/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/santos-cruzeiro/nXEt3jQG/</t>
         </is>
       </c>
     </row>
@@ -21825,7 +21825,7 @@
       </c>
       <c r="F233" t="inlineStr">
         <is>
-          <t>Fluminense</t>
+          <t>Sao Paulo</t>
         </is>
       </c>
       <c r="G233" t="n">
@@ -21833,63 +21833,63 @@
       </c>
       <c r="H233" t="inlineStr">
         <is>
-          <t>Cruzeiro</t>
+          <t>Fortaleza</t>
         </is>
       </c>
       <c r="I233" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J233" t="n">
-        <v>1.78</v>
+        <v>1.93</v>
       </c>
       <c r="K233" t="inlineStr">
         <is>
-          <t>16/09/2023 20:12</t>
+          <t>14/09/2023 23:13</t>
         </is>
       </c>
       <c r="L233" t="n">
-        <v>1.83</v>
+        <v>2.4</v>
       </c>
       <c r="M233" t="inlineStr">
         <is>
-          <t>21/09/2023 02:20</t>
+          <t>21/09/2023 02:22</t>
         </is>
       </c>
       <c r="N233" t="n">
-        <v>3.76</v>
+        <v>3.55</v>
       </c>
       <c r="O233" t="inlineStr">
         <is>
-          <t>16/09/2023 20:12</t>
+          <t>14/09/2023 23:13</t>
         </is>
       </c>
       <c r="P233" t="n">
-        <v>3.59</v>
+        <v>3.22</v>
       </c>
       <c r="Q233" t="inlineStr">
         <is>
-          <t>21/09/2023 02:20</t>
+          <t>21/09/2023 02:22</t>
         </is>
       </c>
       <c r="R233" t="n">
-        <v>4.66</v>
+        <v>4.3</v>
       </c>
       <c r="S233" t="inlineStr">
         <is>
-          <t>16/09/2023 20:12</t>
+          <t>14/09/2023 23:13</t>
         </is>
       </c>
       <c r="T233" t="n">
-        <v>4.9</v>
+        <v>3.3</v>
       </c>
       <c r="U233" t="inlineStr">
         <is>
-          <t>21/09/2023 02:22</t>
+          <t>21/09/2023 02:28</t>
         </is>
       </c>
       <c r="V233" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/fluminense-cruzeiro/niZ55qnF/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/sao-paulo-fortaleza/fHxE3NGR/</t>
         </is>
       </c>
     </row>
@@ -21917,7 +21917,7 @@
       </c>
       <c r="F234" t="inlineStr">
         <is>
-          <t>Sao Paulo</t>
+          <t>Fluminense</t>
         </is>
       </c>
       <c r="G234" t="n">
@@ -21925,63 +21925,63 @@
       </c>
       <c r="H234" t="inlineStr">
         <is>
-          <t>Fortaleza</t>
+          <t>Cruzeiro</t>
         </is>
       </c>
       <c r="I234" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J234" t="n">
-        <v>1.93</v>
+        <v>1.78</v>
       </c>
       <c r="K234" t="inlineStr">
         <is>
-          <t>14/09/2023 23:13</t>
+          <t>16/09/2023 20:12</t>
         </is>
       </c>
       <c r="L234" t="n">
-        <v>2.4</v>
+        <v>1.83</v>
       </c>
       <c r="M234" t="inlineStr">
         <is>
+          <t>21/09/2023 02:20</t>
+        </is>
+      </c>
+      <c r="N234" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="O234" t="inlineStr">
+        <is>
+          <t>16/09/2023 20:12</t>
+        </is>
+      </c>
+      <c r="P234" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="Q234" t="inlineStr">
+        <is>
+          <t>21/09/2023 02:20</t>
+        </is>
+      </c>
+      <c r="R234" t="n">
+        <v>4.66</v>
+      </c>
+      <c r="S234" t="inlineStr">
+        <is>
+          <t>16/09/2023 20:12</t>
+        </is>
+      </c>
+      <c r="T234" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="U234" t="inlineStr">
+        <is>
           <t>21/09/2023 02:22</t>
         </is>
       </c>
-      <c r="N234" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="O234" t="inlineStr">
-        <is>
-          <t>14/09/2023 23:13</t>
-        </is>
-      </c>
-      <c r="P234" t="n">
-        <v>3.22</v>
-      </c>
-      <c r="Q234" t="inlineStr">
-        <is>
-          <t>21/09/2023 02:22</t>
-        </is>
-      </c>
-      <c r="R234" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="S234" t="inlineStr">
-        <is>
-          <t>14/09/2023 23:13</t>
-        </is>
-      </c>
-      <c r="T234" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="U234" t="inlineStr">
-        <is>
-          <t>21/09/2023 02:28</t>
-        </is>
-      </c>
       <c r="V234" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/sao-paulo-fortaleza/fHxE3NGR/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/fluminense-cruzeiro/niZ55qnF/</t>
         </is>
       </c>
     </row>
@@ -22653,7 +22653,7 @@
       </c>
       <c r="F242" t="inlineStr">
         <is>
-          <t>Flamengo RJ</t>
+          <t>Fortaleza</t>
         </is>
       </c>
       <c r="G242" t="n">
@@ -22661,14 +22661,14 @@
       </c>
       <c r="H242" t="inlineStr">
         <is>
-          <t>Bahia</t>
+          <t>Gremio</t>
         </is>
       </c>
       <c r="I242" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J242" t="n">
-        <v>1.37</v>
+        <v>2</v>
       </c>
       <c r="K242" t="inlineStr">
         <is>
@@ -22676,15 +22676,15 @@
         </is>
       </c>
       <c r="L242" t="n">
-        <v>1.54</v>
+        <v>2.64</v>
       </c>
       <c r="M242" t="inlineStr">
         <is>
-          <t>30/09/2023 20:37</t>
+          <t>30/09/2023 20:46</t>
         </is>
       </c>
       <c r="N242" t="n">
-        <v>5.38</v>
+        <v>3.55</v>
       </c>
       <c r="O242" t="inlineStr">
         <is>
@@ -22692,15 +22692,15 @@
         </is>
       </c>
       <c r="P242" t="n">
-        <v>4.35</v>
+        <v>3.29</v>
       </c>
       <c r="Q242" t="inlineStr">
         <is>
-          <t>30/09/2023 20:56</t>
+          <t>30/09/2023 19:43</t>
         </is>
       </c>
       <c r="R242" t="n">
-        <v>7.89</v>
+        <v>3.86</v>
       </c>
       <c r="S242" t="inlineStr">
         <is>
@@ -22708,16 +22708,16 @@
         </is>
       </c>
       <c r="T242" t="n">
-        <v>6.51</v>
+        <v>2.9</v>
       </c>
       <c r="U242" t="inlineStr">
         <is>
-          <t>30/09/2023 20:46</t>
+          <t>30/09/2023 20:55</t>
         </is>
       </c>
       <c r="V242" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/flamengo-rj-bahia/KICnIMVK/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/fortaleza-gremio/EuYLWLpE/</t>
         </is>
       </c>
     </row>
@@ -22745,7 +22745,7 @@
       </c>
       <c r="F243" t="inlineStr">
         <is>
-          <t>Fortaleza</t>
+          <t>Flamengo RJ</t>
         </is>
       </c>
       <c r="G243" t="n">
@@ -22753,14 +22753,14 @@
       </c>
       <c r="H243" t="inlineStr">
         <is>
-          <t>Gremio</t>
+          <t>Bahia</t>
         </is>
       </c>
       <c r="I243" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J243" t="n">
-        <v>2</v>
+        <v>1.37</v>
       </c>
       <c r="K243" t="inlineStr">
         <is>
@@ -22768,48 +22768,48 @@
         </is>
       </c>
       <c r="L243" t="n">
-        <v>2.64</v>
+        <v>1.54</v>
       </c>
       <c r="M243" t="inlineStr">
         <is>
+          <t>30/09/2023 20:37</t>
+        </is>
+      </c>
+      <c r="N243" t="n">
+        <v>5.38</v>
+      </c>
+      <c r="O243" t="inlineStr">
+        <is>
+          <t>22/09/2023 20:42</t>
+        </is>
+      </c>
+      <c r="P243" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="Q243" t="inlineStr">
+        <is>
+          <t>30/09/2023 20:56</t>
+        </is>
+      </c>
+      <c r="R243" t="n">
+        <v>7.89</v>
+      </c>
+      <c r="S243" t="inlineStr">
+        <is>
+          <t>22/09/2023 20:42</t>
+        </is>
+      </c>
+      <c r="T243" t="n">
+        <v>6.51</v>
+      </c>
+      <c r="U243" t="inlineStr">
+        <is>
           <t>30/09/2023 20:46</t>
         </is>
       </c>
-      <c r="N243" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="O243" t="inlineStr">
-        <is>
-          <t>22/09/2023 20:42</t>
-        </is>
-      </c>
-      <c r="P243" t="n">
-        <v>3.29</v>
-      </c>
-      <c r="Q243" t="inlineStr">
-        <is>
-          <t>30/09/2023 19:43</t>
-        </is>
-      </c>
-      <c r="R243" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="S243" t="inlineStr">
-        <is>
-          <t>22/09/2023 20:42</t>
-        </is>
-      </c>
-      <c r="T243" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="U243" t="inlineStr">
-        <is>
-          <t>30/09/2023 20:55</t>
-        </is>
-      </c>
       <c r="V243" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/fortaleza-gremio/EuYLWLpE/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/flamengo-rj-bahia/KICnIMVK/</t>
         </is>
       </c>
     </row>
@@ -23113,71 +23113,71 @@
       </c>
       <c r="F247" t="inlineStr">
         <is>
-          <t>Coritiba</t>
+          <t>Cruzeiro</t>
         </is>
       </c>
       <c r="G247" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H247" t="inlineStr">
         <is>
-          <t>Athletico-PR</t>
+          <t>America MG</t>
         </is>
       </c>
       <c r="I247" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J247" t="n">
-        <v>3.07</v>
+        <v>1.71</v>
       </c>
       <c r="K247" t="inlineStr">
         <is>
-          <t>27/09/2023 23:12</t>
+          <t>26/09/2023 00:12</t>
         </is>
       </c>
       <c r="L247" t="n">
-        <v>3.68</v>
+        <v>1.74</v>
       </c>
       <c r="M247" t="inlineStr">
         <is>
-          <t>01/10/2023 20:56</t>
+          <t>01/10/2023 20:59</t>
         </is>
       </c>
       <c r="N247" t="n">
-        <v>3.23</v>
+        <v>3.88</v>
       </c>
       <c r="O247" t="inlineStr">
         <is>
-          <t>27/09/2023 23:12</t>
+          <t>26/09/2023 00:12</t>
         </is>
       </c>
       <c r="P247" t="n">
-        <v>3.26</v>
+        <v>3.8</v>
       </c>
       <c r="Q247" t="inlineStr">
         <is>
-          <t>01/10/2023 20:29</t>
+          <t>01/10/2023 20:59</t>
         </is>
       </c>
       <c r="R247" t="n">
-        <v>2.48</v>
+        <v>5.17</v>
       </c>
       <c r="S247" t="inlineStr">
         <is>
-          <t>27/09/2023 23:12</t>
+          <t>26/09/2023 00:12</t>
         </is>
       </c>
       <c r="T247" t="n">
-        <v>2.22</v>
+        <v>5.18</v>
       </c>
       <c r="U247" t="inlineStr">
         <is>
-          <t>01/10/2023 20:56</t>
+          <t>01/10/2023 20:59</t>
         </is>
       </c>
       <c r="V247" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/coritiba-athletico-pr/0xpv8x8D/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/cruzeiro-america-mg/4AjV9bw1/</t>
         </is>
       </c>
     </row>
@@ -23205,22 +23205,22 @@
       </c>
       <c r="F248" t="inlineStr">
         <is>
-          <t>Cruzeiro</t>
+          <t>Santos</t>
         </is>
       </c>
       <c r="G248" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H248" t="inlineStr">
         <is>
-          <t>America MG</t>
+          <t>Vasco</t>
         </is>
       </c>
       <c r="I248" t="n">
         <v>1</v>
       </c>
       <c r="J248" t="n">
-        <v>1.71</v>
+        <v>2.25</v>
       </c>
       <c r="K248" t="inlineStr">
         <is>
@@ -23228,15 +23228,15 @@
         </is>
       </c>
       <c r="L248" t="n">
-        <v>1.74</v>
+        <v>2.6</v>
       </c>
       <c r="M248" t="inlineStr">
         <is>
-          <t>01/10/2023 20:59</t>
+          <t>01/10/2023 20:30</t>
         </is>
       </c>
       <c r="N248" t="n">
-        <v>3.88</v>
+        <v>3.29</v>
       </c>
       <c r="O248" t="inlineStr">
         <is>
@@ -23244,15 +23244,15 @@
         </is>
       </c>
       <c r="P248" t="n">
-        <v>3.8</v>
+        <v>3.11</v>
       </c>
       <c r="Q248" t="inlineStr">
         <is>
-          <t>01/10/2023 20:59</t>
+          <t>01/10/2023 20:57</t>
         </is>
       </c>
       <c r="R248" t="n">
-        <v>5.17</v>
+        <v>3.44</v>
       </c>
       <c r="S248" t="inlineStr">
         <is>
@@ -23260,16 +23260,16 @@
         </is>
       </c>
       <c r="T248" t="n">
-        <v>5.18</v>
+        <v>3.11</v>
       </c>
       <c r="U248" t="inlineStr">
         <is>
-          <t>01/10/2023 20:59</t>
+          <t>01/10/2023 20:30</t>
         </is>
       </c>
       <c r="V248" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/cruzeiro-america-mg/4AjV9bw1/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/santos-vasco/IghNBK8l/</t>
         </is>
       </c>
     </row>
@@ -23297,71 +23297,71 @@
       </c>
       <c r="F249" t="inlineStr">
         <is>
-          <t>Santos</t>
+          <t>Coritiba</t>
         </is>
       </c>
       <c r="G249" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H249" t="inlineStr">
         <is>
-          <t>Vasco</t>
+          <t>Athletico-PR</t>
         </is>
       </c>
       <c r="I249" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J249" t="n">
-        <v>2.25</v>
+        <v>3.07</v>
       </c>
       <c r="K249" t="inlineStr">
         <is>
-          <t>26/09/2023 00:12</t>
+          <t>27/09/2023 23:12</t>
         </is>
       </c>
       <c r="L249" t="n">
-        <v>2.6</v>
+        <v>3.68</v>
       </c>
       <c r="M249" t="inlineStr">
         <is>
-          <t>01/10/2023 20:30</t>
+          <t>01/10/2023 20:56</t>
         </is>
       </c>
       <c r="N249" t="n">
-        <v>3.29</v>
+        <v>3.23</v>
       </c>
       <c r="O249" t="inlineStr">
         <is>
-          <t>26/09/2023 00:12</t>
+          <t>27/09/2023 23:12</t>
         </is>
       </c>
       <c r="P249" t="n">
-        <v>3.11</v>
+        <v>3.26</v>
       </c>
       <c r="Q249" t="inlineStr">
         <is>
-          <t>01/10/2023 20:57</t>
+          <t>01/10/2023 20:29</t>
         </is>
       </c>
       <c r="R249" t="n">
-        <v>3.44</v>
+        <v>2.48</v>
       </c>
       <c r="S249" t="inlineStr">
         <is>
-          <t>26/09/2023 00:12</t>
+          <t>27/09/2023 23:12</t>
         </is>
       </c>
       <c r="T249" t="n">
-        <v>3.11</v>
+        <v>2.22</v>
       </c>
       <c r="U249" t="inlineStr">
         <is>
-          <t>01/10/2023 20:30</t>
+          <t>01/10/2023 20:56</t>
         </is>
       </c>
       <c r="V249" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/santos-vasco/IghNBK8l/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/coritiba-athletico-pr/0xpv8x8D/</t>
         </is>
       </c>
     </row>
@@ -24125,71 +24125,71 @@
       </c>
       <c r="F258" t="inlineStr">
         <is>
-          <t>Athletico-PR</t>
+          <t>Fortaleza</t>
         </is>
       </c>
       <c r="G258" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H258" t="inlineStr">
         <is>
-          <t>Bragantino</t>
+          <t>America MG</t>
         </is>
       </c>
       <c r="I258" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J258" t="n">
-        <v>2.09</v>
+        <v>1.57</v>
       </c>
       <c r="K258" t="inlineStr">
         <is>
-          <t>01/10/2023 22:42</t>
+          <t>01/10/2023 20:12</t>
         </is>
       </c>
       <c r="L258" t="n">
-        <v>2.76</v>
+        <v>1.53</v>
       </c>
       <c r="M258" t="inlineStr">
         <is>
-          <t>08/10/2023 23:26</t>
+          <t>08/10/2023 22:46</t>
         </is>
       </c>
       <c r="N258" t="n">
-        <v>3.44</v>
+        <v>4.3</v>
       </c>
       <c r="O258" t="inlineStr">
         <is>
-          <t>01/10/2023 22:42</t>
+          <t>01/10/2023 20:12</t>
         </is>
       </c>
       <c r="P258" t="n">
-        <v>3.22</v>
+        <v>4.43</v>
       </c>
       <c r="Q258" t="inlineStr">
         <is>
-          <t>08/10/2023 23:26</t>
+          <t>08/10/2023 23:29</t>
         </is>
       </c>
       <c r="R258" t="n">
-        <v>3.7</v>
+        <v>5.96</v>
       </c>
       <c r="S258" t="inlineStr">
         <is>
-          <t>01/10/2023 22:42</t>
+          <t>01/10/2023 20:12</t>
         </is>
       </c>
       <c r="T258" t="n">
-        <v>2.82</v>
+        <v>6.46</v>
       </c>
       <c r="U258" t="inlineStr">
         <is>
-          <t>08/10/2023 23:26</t>
+          <t>08/10/2023 23:29</t>
         </is>
       </c>
       <c r="V258" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/athletico-pr-bragantino/ng8LKFiJ/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/fortaleza-america-mg/lbn4qaUJ/</t>
         </is>
       </c>
     </row>
@@ -24217,7 +24217,7 @@
       </c>
       <c r="F259" t="inlineStr">
         <is>
-          <t>Atletico-MG</t>
+          <t>Athletico-PR</t>
         </is>
       </c>
       <c r="G259" t="n">
@@ -24225,63 +24225,63 @@
       </c>
       <c r="H259" t="inlineStr">
         <is>
-          <t>Coritiba</t>
+          <t>Bragantino</t>
         </is>
       </c>
       <c r="I259" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J259" t="n">
-        <v>1.35</v>
+        <v>2.09</v>
       </c>
       <c r="K259" t="inlineStr">
         <is>
-          <t>01/10/2023 20:12</t>
+          <t>01/10/2023 22:42</t>
         </is>
       </c>
       <c r="L259" t="n">
-        <v>1.39</v>
+        <v>2.76</v>
       </c>
       <c r="M259" t="inlineStr">
         <is>
-          <t>08/10/2023 23:23</t>
+          <t>08/10/2023 23:26</t>
         </is>
       </c>
       <c r="N259" t="n">
-        <v>4.9</v>
+        <v>3.44</v>
       </c>
       <c r="O259" t="inlineStr">
         <is>
-          <t>01/10/2023 20:12</t>
+          <t>01/10/2023 22:42</t>
         </is>
       </c>
       <c r="P259" t="n">
-        <v>4.75</v>
+        <v>3.22</v>
       </c>
       <c r="Q259" t="inlineStr">
         <is>
-          <t>08/10/2023 23:23</t>
+          <t>08/10/2023 23:26</t>
         </is>
       </c>
       <c r="R259" t="n">
-        <v>10.08</v>
+        <v>3.7</v>
       </c>
       <c r="S259" t="inlineStr">
         <is>
-          <t>01/10/2023 20:12</t>
+          <t>01/10/2023 22:42</t>
         </is>
       </c>
       <c r="T259" t="n">
-        <v>9.800000000000001</v>
+        <v>2.82</v>
       </c>
       <c r="U259" t="inlineStr">
         <is>
-          <t>08/10/2023 23:25</t>
+          <t>08/10/2023 23:26</t>
         </is>
       </c>
       <c r="V259" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/atletico-mg-coritiba/vT4DMyN6/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/athletico-pr-bragantino/ng8LKFiJ/</t>
         </is>
       </c>
     </row>
@@ -24309,22 +24309,22 @@
       </c>
       <c r="F260" t="inlineStr">
         <is>
-          <t>Fortaleza</t>
+          <t>Atletico-MG</t>
         </is>
       </c>
       <c r="G260" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H260" t="inlineStr">
         <is>
-          <t>America MG</t>
+          <t>Coritiba</t>
         </is>
       </c>
       <c r="I260" t="n">
         <v>2</v>
       </c>
       <c r="J260" t="n">
-        <v>1.57</v>
+        <v>1.35</v>
       </c>
       <c r="K260" t="inlineStr">
         <is>
@@ -24332,15 +24332,15 @@
         </is>
       </c>
       <c r="L260" t="n">
-        <v>1.53</v>
+        <v>1.39</v>
       </c>
       <c r="M260" t="inlineStr">
         <is>
-          <t>08/10/2023 22:46</t>
+          <t>08/10/2023 23:23</t>
         </is>
       </c>
       <c r="N260" t="n">
-        <v>4.3</v>
+        <v>4.9</v>
       </c>
       <c r="O260" t="inlineStr">
         <is>
@@ -24348,15 +24348,15 @@
         </is>
       </c>
       <c r="P260" t="n">
-        <v>4.43</v>
+        <v>4.75</v>
       </c>
       <c r="Q260" t="inlineStr">
         <is>
-          <t>08/10/2023 23:29</t>
+          <t>08/10/2023 23:23</t>
         </is>
       </c>
       <c r="R260" t="n">
-        <v>5.96</v>
+        <v>10.08</v>
       </c>
       <c r="S260" t="inlineStr">
         <is>
@@ -24364,16 +24364,16 @@
         </is>
       </c>
       <c r="T260" t="n">
-        <v>6.46</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="U260" t="inlineStr">
         <is>
-          <t>08/10/2023 23:29</t>
+          <t>08/10/2023 23:25</t>
         </is>
       </c>
       <c r="V260" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/fortaleza-america-mg/lbn4qaUJ/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/atletico-mg-coritiba/vT4DMyN6/</t>
         </is>
       </c>
     </row>
@@ -24769,7 +24769,7 @@
       </c>
       <c r="F265" t="inlineStr">
         <is>
-          <t>Bahia</t>
+          <t>Vasco</t>
         </is>
       </c>
       <c r="G265" t="n">
@@ -24777,14 +24777,14 @@
       </c>
       <c r="H265" t="inlineStr">
         <is>
-          <t>Internacional</t>
+          <t>Fortaleza</t>
         </is>
       </c>
       <c r="I265" t="n">
         <v>0</v>
       </c>
       <c r="J265" t="n">
-        <v>2.23</v>
+        <v>2.26</v>
       </c>
       <c r="K265" t="inlineStr">
         <is>
@@ -24792,15 +24792,15 @@
         </is>
       </c>
       <c r="L265" t="n">
-        <v>2.07</v>
+        <v>2.32</v>
       </c>
       <c r="M265" t="inlineStr">
         <is>
-          <t>19/10/2023 02:29</t>
+          <t>19/10/2023 02:28</t>
         </is>
       </c>
       <c r="N265" t="n">
-        <v>3.32</v>
+        <v>3.3</v>
       </c>
       <c r="O265" t="inlineStr">
         <is>
@@ -24808,15 +24808,15 @@
         </is>
       </c>
       <c r="P265" t="n">
-        <v>3.37</v>
+        <v>3.19</v>
       </c>
       <c r="Q265" t="inlineStr">
         <is>
-          <t>19/10/2023 02:21</t>
+          <t>19/10/2023 02:27</t>
         </is>
       </c>
       <c r="R265" t="n">
-        <v>3.54</v>
+        <v>3.49</v>
       </c>
       <c r="S265" t="inlineStr">
         <is>
@@ -24824,16 +24824,16 @@
         </is>
       </c>
       <c r="T265" t="n">
-        <v>4.04</v>
+        <v>3.53</v>
       </c>
       <c r="U265" t="inlineStr">
         <is>
-          <t>19/10/2023 02:29</t>
+          <t>19/10/2023 02:28</t>
         </is>
       </c>
       <c r="V265" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/bahia-internacional/KEG2ujTo/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/vasco-fortaleza/bXyvwc7m/</t>
         </is>
       </c>
     </row>
@@ -24861,22 +24861,22 @@
       </c>
       <c r="F266" t="inlineStr">
         <is>
-          <t>Goias</t>
+          <t>Bahia</t>
         </is>
       </c>
       <c r="G266" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H266" t="inlineStr">
         <is>
-          <t>Sao Paulo</t>
+          <t>Internacional</t>
         </is>
       </c>
       <c r="I266" t="n">
         <v>0</v>
       </c>
       <c r="J266" t="n">
-        <v>3.02</v>
+        <v>2.23</v>
       </c>
       <c r="K266" t="inlineStr">
         <is>
@@ -24884,15 +24884,15 @@
         </is>
       </c>
       <c r="L266" t="n">
-        <v>3.79</v>
+        <v>2.07</v>
       </c>
       <c r="M266" t="inlineStr">
         <is>
-          <t>19/10/2023 02:27</t>
+          <t>19/10/2023 02:29</t>
         </is>
       </c>
       <c r="N266" t="n">
-        <v>3.09</v>
+        <v>3.32</v>
       </c>
       <c r="O266" t="inlineStr">
         <is>
@@ -24900,15 +24900,15 @@
         </is>
       </c>
       <c r="P266" t="n">
-        <v>3.19</v>
+        <v>3.37</v>
       </c>
       <c r="Q266" t="inlineStr">
         <is>
-          <t>19/10/2023 02:27</t>
+          <t>19/10/2023 02:21</t>
         </is>
       </c>
       <c r="R266" t="n">
-        <v>2.66</v>
+        <v>3.54</v>
       </c>
       <c r="S266" t="inlineStr">
         <is>
@@ -24916,16 +24916,16 @@
         </is>
       </c>
       <c r="T266" t="n">
-        <v>2.22</v>
+        <v>4.04</v>
       </c>
       <c r="U266" t="inlineStr">
         <is>
-          <t>19/10/2023 02:27</t>
+          <t>19/10/2023 02:29</t>
         </is>
       </c>
       <c r="V266" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/goias-sao-paulo/b76rzei6/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/bahia-internacional/KEG2ujTo/</t>
         </is>
       </c>
     </row>
@@ -24953,22 +24953,22 @@
       </c>
       <c r="F267" t="inlineStr">
         <is>
-          <t>Vasco</t>
+          <t>Goias</t>
         </is>
       </c>
       <c r="G267" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H267" t="inlineStr">
         <is>
-          <t>Fortaleza</t>
+          <t>Sao Paulo</t>
         </is>
       </c>
       <c r="I267" t="n">
         <v>0</v>
       </c>
       <c r="J267" t="n">
-        <v>2.26</v>
+        <v>3.02</v>
       </c>
       <c r="K267" t="inlineStr">
         <is>
@@ -24976,15 +24976,15 @@
         </is>
       </c>
       <c r="L267" t="n">
-        <v>2.32</v>
+        <v>3.79</v>
       </c>
       <c r="M267" t="inlineStr">
         <is>
-          <t>19/10/2023 02:28</t>
+          <t>19/10/2023 02:27</t>
         </is>
       </c>
       <c r="N267" t="n">
-        <v>3.3</v>
+        <v>3.09</v>
       </c>
       <c r="O267" t="inlineStr">
         <is>
@@ -25000,7 +25000,7 @@
         </is>
       </c>
       <c r="R267" t="n">
-        <v>3.49</v>
+        <v>2.66</v>
       </c>
       <c r="S267" t="inlineStr">
         <is>
@@ -25008,16 +25008,16 @@
         </is>
       </c>
       <c r="T267" t="n">
-        <v>3.53</v>
+        <v>2.22</v>
       </c>
       <c r="U267" t="inlineStr">
         <is>
-          <t>19/10/2023 02:28</t>
+          <t>19/10/2023 02:27</t>
         </is>
       </c>
       <c r="V267" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/vasco-fortaleza/bXyvwc7m/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/goias-sao-paulo/b76rzei6/</t>
         </is>
       </c>
     </row>
@@ -25045,7 +25045,7 @@
       </c>
       <c r="F268" t="inlineStr">
         <is>
-          <t>Cruzeiro</t>
+          <t>Palmeiras</t>
         </is>
       </c>
       <c r="G268" t="n">
@@ -25053,63 +25053,63 @@
       </c>
       <c r="H268" t="inlineStr">
         <is>
-          <t>Flamengo RJ</t>
+          <t>Atletico-MG</t>
         </is>
       </c>
       <c r="I268" t="n">
         <v>2</v>
       </c>
       <c r="J268" t="n">
-        <v>3.04</v>
+        <v>1.84</v>
       </c>
       <c r="K268" t="inlineStr">
         <is>
-          <t>15/10/2023 01:12</t>
+          <t>11/10/2023 23:42</t>
         </is>
       </c>
       <c r="L268" t="n">
-        <v>3.55</v>
+        <v>1.74</v>
       </c>
       <c r="M268" t="inlineStr">
         <is>
-          <t>19/10/2023 23:33</t>
+          <t>19/10/2023 23:59</t>
         </is>
       </c>
       <c r="N268" t="n">
-        <v>3.3</v>
+        <v>3.49</v>
       </c>
       <c r="O268" t="inlineStr">
         <is>
-          <t>15/10/2023 01:12</t>
+          <t>11/10/2023 23:42</t>
         </is>
       </c>
       <c r="P268" t="n">
-        <v>3.22</v>
+        <v>3.51</v>
       </c>
       <c r="Q268" t="inlineStr">
         <is>
-          <t>19/10/2023 23:33</t>
+          <t>19/10/2023 23:59</t>
         </is>
       </c>
       <c r="R268" t="n">
-        <v>2.46</v>
+        <v>4.74</v>
       </c>
       <c r="S268" t="inlineStr">
         <is>
-          <t>15/10/2023 01:12</t>
+          <t>11/10/2023 23:42</t>
         </is>
       </c>
       <c r="T268" t="n">
-        <v>2.3</v>
+        <v>5.87</v>
       </c>
       <c r="U268" t="inlineStr">
         <is>
-          <t>19/10/2023 23:33</t>
+          <t>19/10/2023 23:59</t>
         </is>
       </c>
       <c r="V268" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/cruzeiro-flamengo-rj/CAAnZE6C/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/palmeiras-atletico-mg/Qg8zxHMg/</t>
         </is>
       </c>
     </row>
@@ -25137,7 +25137,7 @@
       </c>
       <c r="F269" t="inlineStr">
         <is>
-          <t>Palmeiras</t>
+          <t>Cruzeiro</t>
         </is>
       </c>
       <c r="G269" t="n">
@@ -25145,63 +25145,63 @@
       </c>
       <c r="H269" t="inlineStr">
         <is>
-          <t>Atletico-MG</t>
+          <t>Flamengo RJ</t>
         </is>
       </c>
       <c r="I269" t="n">
         <v>2</v>
       </c>
       <c r="J269" t="n">
-        <v>1.84</v>
+        <v>3.04</v>
       </c>
       <c r="K269" t="inlineStr">
         <is>
-          <t>11/10/2023 23:42</t>
+          <t>15/10/2023 01:12</t>
         </is>
       </c>
       <c r="L269" t="n">
-        <v>1.74</v>
+        <v>3.55</v>
       </c>
       <c r="M269" t="inlineStr">
         <is>
-          <t>19/10/2023 23:59</t>
+          <t>19/10/2023 23:33</t>
         </is>
       </c>
       <c r="N269" t="n">
-        <v>3.49</v>
+        <v>3.3</v>
       </c>
       <c r="O269" t="inlineStr">
         <is>
-          <t>11/10/2023 23:42</t>
+          <t>15/10/2023 01:12</t>
         </is>
       </c>
       <c r="P269" t="n">
-        <v>3.51</v>
+        <v>3.22</v>
       </c>
       <c r="Q269" t="inlineStr">
         <is>
-          <t>19/10/2023 23:59</t>
+          <t>19/10/2023 23:33</t>
         </is>
       </c>
       <c r="R269" t="n">
-        <v>4.74</v>
+        <v>2.46</v>
       </c>
       <c r="S269" t="inlineStr">
         <is>
-          <t>11/10/2023 23:42</t>
+          <t>15/10/2023 01:12</t>
         </is>
       </c>
       <c r="T269" t="n">
-        <v>5.87</v>
+        <v>2.3</v>
       </c>
       <c r="U269" t="inlineStr">
         <is>
-          <t>19/10/2023 23:59</t>
+          <t>19/10/2023 23:33</t>
         </is>
       </c>
       <c r="V269" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/palmeiras-atletico-mg/Qg8zxHMg/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/cruzeiro-flamengo-rj/CAAnZE6C/</t>
         </is>
       </c>
     </row>
@@ -25781,71 +25781,71 @@
       </c>
       <c r="F276" t="inlineStr">
         <is>
-          <t>Flamengo RJ</t>
+          <t>Atletico-MG</t>
         </is>
       </c>
       <c r="G276" t="n">
+        <v>0</v>
+      </c>
+      <c r="H276" t="inlineStr">
+        <is>
+          <t>Cruzeiro</t>
+        </is>
+      </c>
+      <c r="I276" t="n">
         <v>1</v>
       </c>
-      <c r="H276" t="inlineStr">
-        <is>
-          <t>Vasco</t>
-        </is>
-      </c>
-      <c r="I276" t="n">
-        <v>0</v>
-      </c>
       <c r="J276" t="n">
-        <v>1.61</v>
+        <v>1.75</v>
       </c>
       <c r="K276" t="inlineStr">
         <is>
-          <t>19/10/2023 23:13</t>
+          <t>19/10/2023 23:12</t>
         </is>
       </c>
       <c r="L276" t="n">
-        <v>1.7</v>
+        <v>1.92</v>
       </c>
       <c r="M276" t="inlineStr">
         <is>
-          <t>22/10/2023 20:53</t>
+          <t>22/10/2023 20:52</t>
         </is>
       </c>
       <c r="N276" t="n">
-        <v>4.1</v>
+        <v>3.66</v>
       </c>
       <c r="O276" t="inlineStr">
         <is>
-          <t>19/10/2023 23:13</t>
+          <t>19/10/2023 23:12</t>
         </is>
       </c>
       <c r="P276" t="n">
-        <v>3.77</v>
+        <v>3.17</v>
       </c>
       <c r="Q276" t="inlineStr">
         <is>
-          <t>22/10/2023 20:53</t>
+          <t>22/10/2023 20:52</t>
         </is>
       </c>
       <c r="R276" t="n">
-        <v>5.59</v>
+        <v>5.43</v>
       </c>
       <c r="S276" t="inlineStr">
         <is>
-          <t>19/10/2023 23:13</t>
+          <t>19/10/2023 23:12</t>
         </is>
       </c>
       <c r="T276" t="n">
-        <v>5.61</v>
+        <v>5.2</v>
       </c>
       <c r="U276" t="inlineStr">
         <is>
-          <t>22/10/2023 20:53</t>
+          <t>22/10/2023 20:56</t>
         </is>
       </c>
       <c r="V276" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/flamengo-rj-vasco/tU4BwUcb/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/atletico-mg-cruzeiro/Mq0WY5CT/</t>
         </is>
       </c>
     </row>
@@ -25873,71 +25873,71 @@
       </c>
       <c r="F277" t="inlineStr">
         <is>
-          <t>Atletico-MG</t>
+          <t>Flamengo RJ</t>
         </is>
       </c>
       <c r="G277" t="n">
+        <v>1</v>
+      </c>
+      <c r="H277" t="inlineStr">
+        <is>
+          <t>Vasco</t>
+        </is>
+      </c>
+      <c r="I277" t="n">
         <v>0</v>
       </c>
-      <c r="H277" t="inlineStr">
-        <is>
-          <t>Cruzeiro</t>
-        </is>
-      </c>
-      <c r="I277" t="n">
-        <v>1</v>
-      </c>
       <c r="J277" t="n">
-        <v>1.75</v>
+        <v>1.61</v>
       </c>
       <c r="K277" t="inlineStr">
         <is>
-          <t>19/10/2023 23:12</t>
+          <t>19/10/2023 23:13</t>
         </is>
       </c>
       <c r="L277" t="n">
-        <v>1.92</v>
+        <v>1.7</v>
       </c>
       <c r="M277" t="inlineStr">
         <is>
-          <t>22/10/2023 20:52</t>
+          <t>22/10/2023 20:53</t>
         </is>
       </c>
       <c r="N277" t="n">
-        <v>3.66</v>
+        <v>4.1</v>
       </c>
       <c r="O277" t="inlineStr">
         <is>
-          <t>19/10/2023 23:12</t>
+          <t>19/10/2023 23:13</t>
         </is>
       </c>
       <c r="P277" t="n">
-        <v>3.17</v>
+        <v>3.77</v>
       </c>
       <c r="Q277" t="inlineStr">
         <is>
-          <t>22/10/2023 20:52</t>
+          <t>22/10/2023 20:53</t>
         </is>
       </c>
       <c r="R277" t="n">
-        <v>5.43</v>
+        <v>5.59</v>
       </c>
       <c r="S277" t="inlineStr">
         <is>
-          <t>19/10/2023 23:12</t>
+          <t>19/10/2023 23:13</t>
         </is>
       </c>
       <c r="T277" t="n">
-        <v>5.2</v>
+        <v>5.61</v>
       </c>
       <c r="U277" t="inlineStr">
         <is>
-          <t>22/10/2023 20:56</t>
+          <t>22/10/2023 20:53</t>
         </is>
       </c>
       <c r="V277" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/atletico-mg-cruzeiro/Mq0WY5CT/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/flamengo-rj-vasco/tU4BwUcb/</t>
         </is>
       </c>
     </row>
@@ -26306,6 +26306,650 @@
       <c r="V281" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/brazil/serie-a/coritiba-palmeiras/hSj2Tqzi/</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="1" t="n">
+        <v>281</v>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>brazil</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>serie-a</t>
+        </is>
+      </c>
+      <c r="D282" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E282" s="2" t="n">
+        <v>45225</v>
+      </c>
+      <c r="F282" t="inlineStr">
+        <is>
+          <t>Bragantino</t>
+        </is>
+      </c>
+      <c r="G282" t="n">
+        <v>1</v>
+      </c>
+      <c r="H282" t="inlineStr">
+        <is>
+          <t>Atletico-MG</t>
+        </is>
+      </c>
+      <c r="I282" t="n">
+        <v>2</v>
+      </c>
+      <c r="J282" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>22/10/2023 22:42</t>
+        </is>
+      </c>
+      <c r="L282" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="M282" t="inlineStr">
+        <is>
+          <t>25/10/2023 23:59</t>
+        </is>
+      </c>
+      <c r="N282" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="O282" t="inlineStr">
+        <is>
+          <t>22/10/2023 22:42</t>
+        </is>
+      </c>
+      <c r="P282" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="Q282" t="inlineStr">
+        <is>
+          <t>25/10/2023 23:59</t>
+        </is>
+      </c>
+      <c r="R282" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="S282" t="inlineStr">
+        <is>
+          <t>22/10/2023 22:42</t>
+        </is>
+      </c>
+      <c r="T282" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="U282" t="inlineStr">
+        <is>
+          <t>25/10/2023 23:59</t>
+        </is>
+      </c>
+      <c r="V282" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/bragantino-atletico-mg/Cd77WX7S/</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="1" t="n">
+        <v>282</v>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>brazil</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>serie-a</t>
+        </is>
+      </c>
+      <c r="D283" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E283" s="2" t="n">
+        <v>45225</v>
+      </c>
+      <c r="F283" t="inlineStr">
+        <is>
+          <t>Athletico-PR</t>
+        </is>
+      </c>
+      <c r="G283" t="n">
+        <v>3</v>
+      </c>
+      <c r="H283" t="inlineStr">
+        <is>
+          <t>America MG</t>
+        </is>
+      </c>
+      <c r="I283" t="n">
+        <v>2</v>
+      </c>
+      <c r="J283" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>22/10/2023 22:42</t>
+        </is>
+      </c>
+      <c r="L283" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="M283" t="inlineStr">
+        <is>
+          <t>25/10/2023 23:27</t>
+        </is>
+      </c>
+      <c r="N283" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="O283" t="inlineStr">
+        <is>
+          <t>22/10/2023 22:42</t>
+        </is>
+      </c>
+      <c r="P283" t="n">
+        <v>4.31</v>
+      </c>
+      <c r="Q283" t="inlineStr">
+        <is>
+          <t>25/10/2023 23:33</t>
+        </is>
+      </c>
+      <c r="R283" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="S283" t="inlineStr">
+        <is>
+          <t>22/10/2023 22:42</t>
+        </is>
+      </c>
+      <c r="T283" t="n">
+        <v>6.03</v>
+      </c>
+      <c r="U283" t="inlineStr">
+        <is>
+          <t>25/10/2023 23:30</t>
+        </is>
+      </c>
+      <c r="V283" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/athletico-pr-america-mg/AXnrQVpd/</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="1" t="n">
+        <v>283</v>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>brazil</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>serie-a</t>
+        </is>
+      </c>
+      <c r="D284" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E284" s="2" t="n">
+        <v>45225</v>
+      </c>
+      <c r="F284" t="inlineStr">
+        <is>
+          <t>Fluminense</t>
+        </is>
+      </c>
+      <c r="G284" t="n">
+        <v>5</v>
+      </c>
+      <c r="H284" t="inlineStr">
+        <is>
+          <t>Goias</t>
+        </is>
+      </c>
+      <c r="I284" t="n">
+        <v>3</v>
+      </c>
+      <c r="J284" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>22/10/2023 22:42</t>
+        </is>
+      </c>
+      <c r="L284" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="M284" t="inlineStr">
+        <is>
+          <t>25/10/2023 23:34</t>
+        </is>
+      </c>
+      <c r="N284" t="n">
+        <v>4.28</v>
+      </c>
+      <c r="O284" t="inlineStr">
+        <is>
+          <t>22/10/2023 22:42</t>
+        </is>
+      </c>
+      <c r="P284" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="Q284" t="inlineStr">
+        <is>
+          <t>25/10/2023 23:34</t>
+        </is>
+      </c>
+      <c r="R284" t="n">
+        <v>6.81</v>
+      </c>
+      <c r="S284" t="inlineStr">
+        <is>
+          <t>22/10/2023 22:42</t>
+        </is>
+      </c>
+      <c r="T284" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="U284" t="inlineStr">
+        <is>
+          <t>25/10/2023 23:34</t>
+        </is>
+      </c>
+      <c r="V284" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/fluminense-goias/rHFjzG83/</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" s="1" t="n">
+        <v>284</v>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>brazil</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>serie-a</t>
+        </is>
+      </c>
+      <c r="D285" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E285" s="2" t="n">
+        <v>45225.04166666666</v>
+      </c>
+      <c r="F285" t="inlineStr">
+        <is>
+          <t>Palmeiras</t>
+        </is>
+      </c>
+      <c r="G285" t="n">
+        <v>5</v>
+      </c>
+      <c r="H285" t="inlineStr">
+        <is>
+          <t>Sao Paulo</t>
+        </is>
+      </c>
+      <c r="I285" t="n">
+        <v>0</v>
+      </c>
+      <c r="J285" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>22/10/2023 22:42</t>
+        </is>
+      </c>
+      <c r="L285" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="M285" t="inlineStr">
+        <is>
+          <t>26/10/2023 00:59</t>
+        </is>
+      </c>
+      <c r="N285" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="O285" t="inlineStr">
+        <is>
+          <t>22/10/2023 22:42</t>
+        </is>
+      </c>
+      <c r="P285" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q285" t="inlineStr">
+        <is>
+          <t>26/10/2023 00:59</t>
+        </is>
+      </c>
+      <c r="R285" t="n">
+        <v>5.03</v>
+      </c>
+      <c r="S285" t="inlineStr">
+        <is>
+          <t>22/10/2023 22:42</t>
+        </is>
+      </c>
+      <c r="T285" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="U285" t="inlineStr">
+        <is>
+          <t>26/10/2023 00:59</t>
+        </is>
+      </c>
+      <c r="V285" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/palmeiras-sao-paulo/4W3aYgwG/</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" s="1" t="n">
+        <v>285</v>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>brazil</t>
+        </is>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>serie-a</t>
+        </is>
+      </c>
+      <c r="D286" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E286" s="2" t="n">
+        <v>45225.04166666666</v>
+      </c>
+      <c r="F286" t="inlineStr">
+        <is>
+          <t>Cruzeiro</t>
+        </is>
+      </c>
+      <c r="G286" t="n">
+        <v>3</v>
+      </c>
+      <c r="H286" t="inlineStr">
+        <is>
+          <t>Bahia</t>
+        </is>
+      </c>
+      <c r="I286" t="n">
+        <v>0</v>
+      </c>
+      <c r="J286" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>22/10/2023 20:12</t>
+        </is>
+      </c>
+      <c r="L286" t="n">
+        <v>2</v>
+      </c>
+      <c r="M286" t="inlineStr">
+        <is>
+          <t>26/10/2023 00:54</t>
+        </is>
+      </c>
+      <c r="N286" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="O286" t="inlineStr">
+        <is>
+          <t>22/10/2023 20:12</t>
+        </is>
+      </c>
+      <c r="P286" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="Q286" t="inlineStr">
+        <is>
+          <t>26/10/2023 00:54</t>
+        </is>
+      </c>
+      <c r="R286" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="S286" t="inlineStr">
+        <is>
+          <t>22/10/2023 20:12</t>
+        </is>
+      </c>
+      <c r="T286" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="U286" t="inlineStr">
+        <is>
+          <t>26/10/2023 00:54</t>
+        </is>
+      </c>
+      <c r="V286" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/cruzeiro-bahia/E5gZRiGq/</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="1" t="n">
+        <v>286</v>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>brazil</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>serie-a</t>
+        </is>
+      </c>
+      <c r="D287" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E287" s="2" t="n">
+        <v>45225.10416666666</v>
+      </c>
+      <c r="F287" t="inlineStr">
+        <is>
+          <t>Cuiaba</t>
+        </is>
+      </c>
+      <c r="G287" t="n">
+        <v>0</v>
+      </c>
+      <c r="H287" t="inlineStr">
+        <is>
+          <t>Corinthians</t>
+        </is>
+      </c>
+      <c r="I287" t="n">
+        <v>1</v>
+      </c>
+      <c r="J287" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>22/10/2023 22:42</t>
+        </is>
+      </c>
+      <c r="L287" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="M287" t="inlineStr">
+        <is>
+          <t>26/10/2023 02:29</t>
+        </is>
+      </c>
+      <c r="N287" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="O287" t="inlineStr">
+        <is>
+          <t>22/10/2023 22:42</t>
+        </is>
+      </c>
+      <c r="P287" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Q287" t="inlineStr">
+        <is>
+          <t>26/10/2023 02:27</t>
+        </is>
+      </c>
+      <c r="R287" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="S287" t="inlineStr">
+        <is>
+          <t>22/10/2023 22:42</t>
+        </is>
+      </c>
+      <c r="T287" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="U287" t="inlineStr">
+        <is>
+          <t>26/10/2023 02:29</t>
+        </is>
+      </c>
+      <c r="V287" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/cuiaba-corinthians/MLgTmZx3/</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="1" t="n">
+        <v>287</v>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>brazil</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>serie-a</t>
+        </is>
+      </c>
+      <c r="D288" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E288" s="2" t="n">
+        <v>45225.10416666666</v>
+      </c>
+      <c r="F288" t="inlineStr">
+        <is>
+          <t>Gremio</t>
+        </is>
+      </c>
+      <c r="G288" t="n">
+        <v>3</v>
+      </c>
+      <c r="H288" t="inlineStr">
+        <is>
+          <t>Flamengo RJ</t>
+        </is>
+      </c>
+      <c r="I288" t="n">
+        <v>2</v>
+      </c>
+      <c r="J288" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>22/10/2023 20:12</t>
+        </is>
+      </c>
+      <c r="L288" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="M288" t="inlineStr">
+        <is>
+          <t>26/10/2023 02:27</t>
+        </is>
+      </c>
+      <c r="N288" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="O288" t="inlineStr">
+        <is>
+          <t>22/10/2023 20:12</t>
+        </is>
+      </c>
+      <c r="P288" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q288" t="inlineStr">
+        <is>
+          <t>26/10/2023 02:22</t>
+        </is>
+      </c>
+      <c r="R288" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="S288" t="inlineStr">
+        <is>
+          <t>22/10/2023 20:12</t>
+        </is>
+      </c>
+      <c r="T288" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="U288" t="inlineStr">
+        <is>
+          <t>26/10/2023 02:27</t>
+        </is>
+      </c>
+      <c r="V288" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/gremio-flamengo-rj/WtlvRBVk/</t>
         </is>
       </c>
     </row>

--- a/2023/brazil_serie-a_2023.xlsx
+++ b/2023/brazil_serie-a_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V288"/>
+  <dimension ref="A1:V290"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5541,7 +5541,7 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Vasco</t>
+          <t>Gremio</t>
         </is>
       </c>
       <c r="G56" t="n">
@@ -5549,63 +5549,63 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Santos</t>
+          <t>Fortaleza</t>
         </is>
       </c>
       <c r="I56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J56" t="n">
-        <v>1.74</v>
+        <v>2.26</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>12/05/2023 00:12</t>
+          <t>12/05/2023 01:12</t>
         </is>
       </c>
       <c r="L56" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>14/05/2023 20:50</t>
+          <t>14/05/2023 20:59</t>
         </is>
       </c>
       <c r="N56" t="n">
-        <v>3.77</v>
+        <v>3.44</v>
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>12/05/2023 00:12</t>
+          <t>12/05/2023 01:12</t>
         </is>
       </c>
       <c r="P56" t="n">
-        <v>3.33</v>
+        <v>3.64</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>14/05/2023 20:58</t>
+          <t>14/05/2023 20:59</t>
         </is>
       </c>
       <c r="R56" t="n">
-        <v>4.95</v>
+        <v>3.27</v>
       </c>
       <c r="S56" t="inlineStr">
         <is>
-          <t>12/05/2023 00:12</t>
+          <t>12/05/2023 01:12</t>
         </is>
       </c>
       <c r="T56" t="n">
-        <v>4.73</v>
+        <v>4.38</v>
       </c>
       <c r="U56" t="inlineStr">
         <is>
-          <t>14/05/2023 20:58</t>
+          <t>14/05/2023 20:59</t>
         </is>
       </c>
       <c r="V56" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/vasco-santos/YDYf8HRF/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/gremio-fortaleza/SYhum7e7/</t>
         </is>
       </c>
     </row>
@@ -5725,7 +5725,7 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Gremio</t>
+          <t>Vasco</t>
         </is>
       </c>
       <c r="G58" t="n">
@@ -5733,63 +5733,63 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Fortaleza</t>
+          <t>Santos</t>
         </is>
       </c>
       <c r="I58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J58" t="n">
-        <v>2.26</v>
+        <v>1.74</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>12/05/2023 01:12</t>
+          <t>12/05/2023 00:12</t>
         </is>
       </c>
       <c r="L58" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>14/05/2023 20:59</t>
+          <t>14/05/2023 20:50</t>
         </is>
       </c>
       <c r="N58" t="n">
-        <v>3.44</v>
+        <v>3.77</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>12/05/2023 01:12</t>
+          <t>12/05/2023 00:12</t>
         </is>
       </c>
       <c r="P58" t="n">
-        <v>3.64</v>
+        <v>3.33</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>14/05/2023 20:59</t>
+          <t>14/05/2023 20:58</t>
         </is>
       </c>
       <c r="R58" t="n">
-        <v>3.27</v>
+        <v>4.95</v>
       </c>
       <c r="S58" t="inlineStr">
         <is>
-          <t>12/05/2023 01:12</t>
+          <t>12/05/2023 00:12</t>
         </is>
       </c>
       <c r="T58" t="n">
-        <v>4.38</v>
+        <v>4.73</v>
       </c>
       <c r="U58" t="inlineStr">
         <is>
-          <t>14/05/2023 20:59</t>
+          <t>14/05/2023 20:58</t>
         </is>
       </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/gremio-fortaleza/SYhum7e7/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/vasco-santos/YDYf8HRF/</t>
         </is>
       </c>
     </row>
@@ -19341,71 +19341,71 @@
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>Fortaleza</t>
+          <t>Athletico-PR</t>
         </is>
       </c>
       <c r="G206" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>Coritiba</t>
+          <t>Fluminense</t>
         </is>
       </c>
       <c r="I206" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J206" t="n">
-        <v>1.53</v>
+        <v>2.23</v>
       </c>
       <c r="K206" t="inlineStr">
         <is>
-          <t>20/08/2023 20:12</t>
+          <t>21/08/2023 08:50</t>
         </is>
       </c>
       <c r="L206" t="n">
-        <v>1.53</v>
+        <v>1.81</v>
       </c>
       <c r="M206" t="inlineStr">
         <is>
-          <t>27/08/2023 23:08</t>
+          <t>27/08/2023 23:21</t>
         </is>
       </c>
       <c r="N206" t="n">
-        <v>4.22</v>
+        <v>3.35</v>
       </c>
       <c r="O206" t="inlineStr">
         <is>
-          <t>20/08/2023 20:12</t>
+          <t>21/08/2023 08:50</t>
         </is>
       </c>
       <c r="P206" t="n">
-        <v>4.17</v>
+        <v>3.59</v>
       </c>
       <c r="Q206" t="inlineStr">
         <is>
-          <t>27/08/2023 23:28</t>
+          <t>27/08/2023 23:29</t>
         </is>
       </c>
       <c r="R206" t="n">
-        <v>6.79</v>
+        <v>3.43</v>
       </c>
       <c r="S206" t="inlineStr">
         <is>
-          <t>20/08/2023 20:12</t>
+          <t>21/08/2023 08:50</t>
         </is>
       </c>
       <c r="T206" t="n">
-        <v>7.18</v>
+        <v>5.06</v>
       </c>
       <c r="U206" t="inlineStr">
         <is>
-          <t>27/08/2023 23:28</t>
+          <t>27/08/2023 23:29</t>
         </is>
       </c>
       <c r="V206" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/fortaleza-coritiba/UV4weySu/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/athletico-pr-fluminense/hdEYZidU/</t>
         </is>
       </c>
     </row>
@@ -19433,71 +19433,71 @@
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>Palmeiras</t>
+          <t>Fortaleza</t>
         </is>
       </c>
       <c r="G207" t="n">
+        <v>3</v>
+      </c>
+      <c r="H207" t="inlineStr">
+        <is>
+          <t>Coritiba</t>
+        </is>
+      </c>
+      <c r="I207" t="n">
         <v>1</v>
       </c>
-      <c r="H207" t="inlineStr">
-        <is>
-          <t>Vasco</t>
-        </is>
-      </c>
-      <c r="I207" t="n">
-        <v>0</v>
-      </c>
       <c r="J207" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="K207" t="inlineStr">
         <is>
-          <t>19/08/2023 22:42</t>
+          <t>20/08/2023 20:12</t>
         </is>
       </c>
       <c r="L207" t="n">
-        <v>1.38</v>
+        <v>1.53</v>
       </c>
       <c r="M207" t="inlineStr">
         <is>
-          <t>27/08/2023 22:57</t>
+          <t>27/08/2023 23:08</t>
         </is>
       </c>
       <c r="N207" t="n">
-        <v>4.75</v>
+        <v>4.22</v>
       </c>
       <c r="O207" t="inlineStr">
         <is>
-          <t>19/08/2023 22:42</t>
+          <t>20/08/2023 20:12</t>
         </is>
       </c>
       <c r="P207" t="n">
-        <v>4.87</v>
+        <v>4.17</v>
       </c>
       <c r="Q207" t="inlineStr">
         <is>
-          <t>27/08/2023 22:57</t>
+          <t>27/08/2023 23:28</t>
         </is>
       </c>
       <c r="R207" t="n">
-        <v>7.62</v>
+        <v>6.79</v>
       </c>
       <c r="S207" t="inlineStr">
         <is>
-          <t>19/08/2023 22:42</t>
+          <t>20/08/2023 20:12</t>
         </is>
       </c>
       <c r="T207" t="n">
-        <v>9.59</v>
+        <v>7.18</v>
       </c>
       <c r="U207" t="inlineStr">
         <is>
-          <t>27/08/2023 23:01</t>
+          <t>27/08/2023 23:28</t>
         </is>
       </c>
       <c r="V207" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/palmeiras-vasco/pQNDvGsa/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/fortaleza-coritiba/UV4weySu/</t>
         </is>
       </c>
     </row>
@@ -19525,71 +19525,71 @@
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>Athletico-PR</t>
+          <t>Palmeiras</t>
         </is>
       </c>
       <c r="G208" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>Fluminense</t>
+          <t>Vasco</t>
         </is>
       </c>
       <c r="I208" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J208" t="n">
-        <v>2.23</v>
+        <v>1.44</v>
       </c>
       <c r="K208" t="inlineStr">
         <is>
-          <t>21/08/2023 08:50</t>
+          <t>19/08/2023 22:42</t>
         </is>
       </c>
       <c r="L208" t="n">
-        <v>1.81</v>
+        <v>1.38</v>
       </c>
       <c r="M208" t="inlineStr">
         <is>
-          <t>27/08/2023 23:21</t>
+          <t>27/08/2023 22:57</t>
         </is>
       </c>
       <c r="N208" t="n">
-        <v>3.35</v>
+        <v>4.75</v>
       </c>
       <c r="O208" t="inlineStr">
         <is>
-          <t>21/08/2023 08:50</t>
+          <t>19/08/2023 22:42</t>
         </is>
       </c>
       <c r="P208" t="n">
-        <v>3.59</v>
+        <v>4.87</v>
       </c>
       <c r="Q208" t="inlineStr">
         <is>
-          <t>27/08/2023 23:29</t>
+          <t>27/08/2023 22:57</t>
         </is>
       </c>
       <c r="R208" t="n">
-        <v>3.43</v>
+        <v>7.62</v>
       </c>
       <c r="S208" t="inlineStr">
         <is>
-          <t>21/08/2023 08:50</t>
+          <t>19/08/2023 22:42</t>
         </is>
       </c>
       <c r="T208" t="n">
-        <v>5.06</v>
+        <v>9.59</v>
       </c>
       <c r="U208" t="inlineStr">
         <is>
-          <t>27/08/2023 23:29</t>
+          <t>27/08/2023 23:01</t>
         </is>
       </c>
       <c r="V208" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/athletico-pr-fluminense/hdEYZidU/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/palmeiras-vasco/pQNDvGsa/</t>
         </is>
       </c>
     </row>
@@ -20721,22 +20721,22 @@
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t>Fortaleza</t>
+          <t>Santos</t>
         </is>
       </c>
       <c r="G221" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H221" t="inlineStr">
         <is>
-          <t>Corinthians</t>
+          <t>Cruzeiro</t>
         </is>
       </c>
       <c r="I221" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J221" t="n">
-        <v>1.74</v>
+        <v>2.7</v>
       </c>
       <c r="K221" t="inlineStr">
         <is>
@@ -20744,15 +20744,15 @@
         </is>
       </c>
       <c r="L221" t="n">
-        <v>1.6</v>
+        <v>2.4</v>
       </c>
       <c r="M221" t="inlineStr">
         <is>
-          <t>14/09/2023 23:53</t>
+          <t>14/09/2023 23:55</t>
         </is>
       </c>
       <c r="N221" t="n">
-        <v>3.74</v>
+        <v>3.08</v>
       </c>
       <c r="O221" t="inlineStr">
         <is>
@@ -20760,15 +20760,15 @@
         </is>
       </c>
       <c r="P221" t="n">
-        <v>3.87</v>
+        <v>3.12</v>
       </c>
       <c r="Q221" t="inlineStr">
         <is>
-          <t>14/09/2023 23:57</t>
+          <t>14/09/2023 23:55</t>
         </is>
       </c>
       <c r="R221" t="n">
-        <v>5.21</v>
+        <v>2.92</v>
       </c>
       <c r="S221" t="inlineStr">
         <is>
@@ -20776,16 +20776,16 @@
         </is>
       </c>
       <c r="T221" t="n">
-        <v>6.84</v>
+        <v>3.44</v>
       </c>
       <c r="U221" t="inlineStr">
         <is>
-          <t>14/09/2023 23:57</t>
+          <t>14/09/2023 23:54</t>
         </is>
       </c>
       <c r="V221" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/fortaleza-corinthians/jPuc75H2/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/santos-cruzeiro/nXEt3jQG/</t>
         </is>
       </c>
     </row>
@@ -20813,22 +20813,22 @@
       </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t>Santos</t>
+          <t>Fortaleza</t>
         </is>
       </c>
       <c r="G222" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H222" t="inlineStr">
         <is>
-          <t>Cruzeiro</t>
+          <t>Corinthians</t>
         </is>
       </c>
       <c r="I222" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J222" t="n">
-        <v>2.7</v>
+        <v>1.74</v>
       </c>
       <c r="K222" t="inlineStr">
         <is>
@@ -20836,15 +20836,15 @@
         </is>
       </c>
       <c r="L222" t="n">
-        <v>2.4</v>
+        <v>1.6</v>
       </c>
       <c r="M222" t="inlineStr">
         <is>
-          <t>14/09/2023 23:55</t>
+          <t>14/09/2023 23:53</t>
         </is>
       </c>
       <c r="N222" t="n">
-        <v>3.08</v>
+        <v>3.74</v>
       </c>
       <c r="O222" t="inlineStr">
         <is>
@@ -20852,15 +20852,15 @@
         </is>
       </c>
       <c r="P222" t="n">
-        <v>3.12</v>
+        <v>3.87</v>
       </c>
       <c r="Q222" t="inlineStr">
         <is>
-          <t>14/09/2023 23:55</t>
+          <t>14/09/2023 23:57</t>
         </is>
       </c>
       <c r="R222" t="n">
-        <v>2.92</v>
+        <v>5.21</v>
       </c>
       <c r="S222" t="inlineStr">
         <is>
@@ -20868,16 +20868,16 @@
         </is>
       </c>
       <c r="T222" t="n">
-        <v>3.44</v>
+        <v>6.84</v>
       </c>
       <c r="U222" t="inlineStr">
         <is>
-          <t>14/09/2023 23:54</t>
+          <t>14/09/2023 23:57</t>
         </is>
       </c>
       <c r="V222" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/santos-cruzeiro/nXEt3jQG/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/fortaleza-corinthians/jPuc75H2/</t>
         </is>
       </c>
     </row>
@@ -23113,22 +23113,22 @@
       </c>
       <c r="F247" t="inlineStr">
         <is>
-          <t>Cruzeiro</t>
+          <t>Santos</t>
         </is>
       </c>
       <c r="G247" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H247" t="inlineStr">
         <is>
-          <t>America MG</t>
+          <t>Vasco</t>
         </is>
       </c>
       <c r="I247" t="n">
         <v>1</v>
       </c>
       <c r="J247" t="n">
-        <v>1.71</v>
+        <v>2.25</v>
       </c>
       <c r="K247" t="inlineStr">
         <is>
@@ -23136,15 +23136,15 @@
         </is>
       </c>
       <c r="L247" t="n">
-        <v>1.74</v>
+        <v>2.6</v>
       </c>
       <c r="M247" t="inlineStr">
         <is>
-          <t>01/10/2023 20:59</t>
+          <t>01/10/2023 20:30</t>
         </is>
       </c>
       <c r="N247" t="n">
-        <v>3.88</v>
+        <v>3.29</v>
       </c>
       <c r="O247" t="inlineStr">
         <is>
@@ -23152,15 +23152,15 @@
         </is>
       </c>
       <c r="P247" t="n">
-        <v>3.8</v>
+        <v>3.11</v>
       </c>
       <c r="Q247" t="inlineStr">
         <is>
-          <t>01/10/2023 20:59</t>
+          <t>01/10/2023 20:57</t>
         </is>
       </c>
       <c r="R247" t="n">
-        <v>5.17</v>
+        <v>3.44</v>
       </c>
       <c r="S247" t="inlineStr">
         <is>
@@ -23168,16 +23168,16 @@
         </is>
       </c>
       <c r="T247" t="n">
-        <v>5.18</v>
+        <v>3.11</v>
       </c>
       <c r="U247" t="inlineStr">
         <is>
-          <t>01/10/2023 20:59</t>
+          <t>01/10/2023 20:30</t>
         </is>
       </c>
       <c r="V247" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/cruzeiro-america-mg/4AjV9bw1/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/santos-vasco/IghNBK8l/</t>
         </is>
       </c>
     </row>
@@ -23205,22 +23205,22 @@
       </c>
       <c r="F248" t="inlineStr">
         <is>
-          <t>Santos</t>
+          <t>Cruzeiro</t>
         </is>
       </c>
       <c r="G248" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H248" t="inlineStr">
         <is>
-          <t>Vasco</t>
+          <t>America MG</t>
         </is>
       </c>
       <c r="I248" t="n">
         <v>1</v>
       </c>
       <c r="J248" t="n">
-        <v>2.25</v>
+        <v>1.71</v>
       </c>
       <c r="K248" t="inlineStr">
         <is>
@@ -23228,15 +23228,15 @@
         </is>
       </c>
       <c r="L248" t="n">
-        <v>2.6</v>
+        <v>1.74</v>
       </c>
       <c r="M248" t="inlineStr">
         <is>
-          <t>01/10/2023 20:30</t>
+          <t>01/10/2023 20:59</t>
         </is>
       </c>
       <c r="N248" t="n">
-        <v>3.29</v>
+        <v>3.88</v>
       </c>
       <c r="O248" t="inlineStr">
         <is>
@@ -23244,15 +23244,15 @@
         </is>
       </c>
       <c r="P248" t="n">
-        <v>3.11</v>
+        <v>3.8</v>
       </c>
       <c r="Q248" t="inlineStr">
         <is>
-          <t>01/10/2023 20:57</t>
+          <t>01/10/2023 20:59</t>
         </is>
       </c>
       <c r="R248" t="n">
-        <v>3.44</v>
+        <v>5.17</v>
       </c>
       <c r="S248" t="inlineStr">
         <is>
@@ -23260,16 +23260,16 @@
         </is>
       </c>
       <c r="T248" t="n">
-        <v>3.11</v>
+        <v>5.18</v>
       </c>
       <c r="U248" t="inlineStr">
         <is>
-          <t>01/10/2023 20:30</t>
+          <t>01/10/2023 20:59</t>
         </is>
       </c>
       <c r="V248" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/santos-vasco/IghNBK8l/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/cruzeiro-america-mg/4AjV9bw1/</t>
         </is>
       </c>
     </row>
@@ -23849,71 +23849,71 @@
       </c>
       <c r="F255" t="inlineStr">
         <is>
-          <t>Fluminense</t>
+          <t>Internacional</t>
         </is>
       </c>
       <c r="G255" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H255" t="inlineStr">
         <is>
-          <t>Botafogo RJ</t>
+          <t>Gremio</t>
         </is>
       </c>
       <c r="I255" t="n">
         <v>2</v>
       </c>
       <c r="J255" t="n">
-        <v>2.08</v>
+        <v>2.29</v>
       </c>
       <c r="K255" t="inlineStr">
         <is>
-          <t>03/10/2023 00:13</t>
+          <t>01/10/2023 01:12</t>
         </is>
       </c>
       <c r="L255" t="n">
-        <v>1.95</v>
+        <v>2.29</v>
       </c>
       <c r="M255" t="inlineStr">
         <is>
-          <t>08/10/2023 20:59</t>
+          <t>08/10/2023 20:56</t>
         </is>
       </c>
       <c r="N255" t="n">
-        <v>3.21</v>
+        <v>3.3</v>
       </c>
       <c r="O255" t="inlineStr">
         <is>
-          <t>03/10/2023 00:13</t>
+          <t>01/10/2023 01:12</t>
         </is>
       </c>
       <c r="P255" t="n">
-        <v>3.52</v>
+        <v>3.26</v>
       </c>
       <c r="Q255" t="inlineStr">
         <is>
-          <t>08/10/2023 20:59</t>
+          <t>08/10/2023 20:51</t>
         </is>
       </c>
       <c r="R255" t="n">
-        <v>4.03</v>
+        <v>3.43</v>
       </c>
       <c r="S255" t="inlineStr">
         <is>
-          <t>03/10/2023 00:13</t>
+          <t>01/10/2023 01:12</t>
         </is>
       </c>
       <c r="T255" t="n">
-        <v>4.29</v>
+        <v>3.53</v>
       </c>
       <c r="U255" t="inlineStr">
         <is>
-          <t>08/10/2023 20:59</t>
+          <t>08/10/2023 20:56</t>
         </is>
       </c>
       <c r="V255" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/fluminense-botafogo-rj/A7RUUaFQ/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/internacional-gremio/829HLexD/</t>
         </is>
       </c>
     </row>
@@ -23941,71 +23941,71 @@
       </c>
       <c r="F256" t="inlineStr">
         <is>
-          <t>Internacional</t>
+          <t>Palmeiras</t>
         </is>
       </c>
       <c r="G256" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H256" t="inlineStr">
         <is>
-          <t>Gremio</t>
+          <t>Santos</t>
         </is>
       </c>
       <c r="I256" t="n">
         <v>2</v>
       </c>
       <c r="J256" t="n">
-        <v>2.29</v>
+        <v>1.35</v>
       </c>
       <c r="K256" t="inlineStr">
         <is>
-          <t>01/10/2023 01:12</t>
+          <t>01/10/2023 22:42</t>
         </is>
       </c>
       <c r="L256" t="n">
-        <v>2.29</v>
+        <v>1.44</v>
       </c>
       <c r="M256" t="inlineStr">
         <is>
-          <t>08/10/2023 20:56</t>
+          <t>08/10/2023 20:49</t>
         </is>
       </c>
       <c r="N256" t="n">
-        <v>3.3</v>
+        <v>5.12</v>
       </c>
       <c r="O256" t="inlineStr">
         <is>
-          <t>01/10/2023 01:12</t>
+          <t>01/10/2023 22:42</t>
         </is>
       </c>
       <c r="P256" t="n">
-        <v>3.26</v>
+        <v>4.48</v>
       </c>
       <c r="Q256" t="inlineStr">
         <is>
-          <t>08/10/2023 20:51</t>
+          <t>08/10/2023 20:58</t>
         </is>
       </c>
       <c r="R256" t="n">
-        <v>3.43</v>
+        <v>9.890000000000001</v>
       </c>
       <c r="S256" t="inlineStr">
         <is>
-          <t>01/10/2023 01:12</t>
+          <t>01/10/2023 22:42</t>
         </is>
       </c>
       <c r="T256" t="n">
-        <v>3.53</v>
+        <v>8.73</v>
       </c>
       <c r="U256" t="inlineStr">
         <is>
-          <t>08/10/2023 20:56</t>
+          <t>08/10/2023 20:58</t>
         </is>
       </c>
       <c r="V256" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/internacional-gremio/829HLexD/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/palmeiras-santos/6wD0Pwwl/</t>
         </is>
       </c>
     </row>
@@ -24033,71 +24033,71 @@
       </c>
       <c r="F257" t="inlineStr">
         <is>
-          <t>Palmeiras</t>
+          <t>Fluminense</t>
         </is>
       </c>
       <c r="G257" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H257" t="inlineStr">
         <is>
-          <t>Santos</t>
+          <t>Botafogo RJ</t>
         </is>
       </c>
       <c r="I257" t="n">
         <v>2</v>
       </c>
       <c r="J257" t="n">
-        <v>1.35</v>
+        <v>2.08</v>
       </c>
       <c r="K257" t="inlineStr">
         <is>
-          <t>01/10/2023 22:42</t>
+          <t>03/10/2023 00:13</t>
         </is>
       </c>
       <c r="L257" t="n">
-        <v>1.44</v>
+        <v>1.95</v>
       </c>
       <c r="M257" t="inlineStr">
         <is>
-          <t>08/10/2023 20:49</t>
+          <t>08/10/2023 20:59</t>
         </is>
       </c>
       <c r="N257" t="n">
-        <v>5.12</v>
+        <v>3.21</v>
       </c>
       <c r="O257" t="inlineStr">
         <is>
-          <t>01/10/2023 22:42</t>
+          <t>03/10/2023 00:13</t>
         </is>
       </c>
       <c r="P257" t="n">
-        <v>4.48</v>
+        <v>3.52</v>
       </c>
       <c r="Q257" t="inlineStr">
         <is>
-          <t>08/10/2023 20:58</t>
+          <t>08/10/2023 20:59</t>
         </is>
       </c>
       <c r="R257" t="n">
-        <v>9.890000000000001</v>
+        <v>4.03</v>
       </c>
       <c r="S257" t="inlineStr">
         <is>
-          <t>01/10/2023 22:42</t>
+          <t>03/10/2023 00:13</t>
         </is>
       </c>
       <c r="T257" t="n">
-        <v>8.73</v>
+        <v>4.29</v>
       </c>
       <c r="U257" t="inlineStr">
         <is>
-          <t>08/10/2023 20:58</t>
+          <t>08/10/2023 20:59</t>
         </is>
       </c>
       <c r="V257" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/palmeiras-santos/6wD0Pwwl/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/fluminense-botafogo-rj/A7RUUaFQ/</t>
         </is>
       </c>
     </row>
@@ -24125,71 +24125,71 @@
       </c>
       <c r="F258" t="inlineStr">
         <is>
-          <t>Fortaleza</t>
+          <t>Athletico-PR</t>
         </is>
       </c>
       <c r="G258" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H258" t="inlineStr">
         <is>
-          <t>America MG</t>
+          <t>Bragantino</t>
         </is>
       </c>
       <c r="I258" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J258" t="n">
-        <v>1.57</v>
+        <v>2.09</v>
       </c>
       <c r="K258" t="inlineStr">
         <is>
-          <t>01/10/2023 20:12</t>
+          <t>01/10/2023 22:42</t>
         </is>
       </c>
       <c r="L258" t="n">
-        <v>1.53</v>
+        <v>2.76</v>
       </c>
       <c r="M258" t="inlineStr">
         <is>
-          <t>08/10/2023 22:46</t>
+          <t>08/10/2023 23:26</t>
         </is>
       </c>
       <c r="N258" t="n">
-        <v>4.3</v>
+        <v>3.44</v>
       </c>
       <c r="O258" t="inlineStr">
         <is>
-          <t>01/10/2023 20:12</t>
+          <t>01/10/2023 22:42</t>
         </is>
       </c>
       <c r="P258" t="n">
-        <v>4.43</v>
+        <v>3.22</v>
       </c>
       <c r="Q258" t="inlineStr">
         <is>
-          <t>08/10/2023 23:29</t>
+          <t>08/10/2023 23:26</t>
         </is>
       </c>
       <c r="R258" t="n">
-        <v>5.96</v>
+        <v>3.7</v>
       </c>
       <c r="S258" t="inlineStr">
         <is>
-          <t>01/10/2023 20:12</t>
+          <t>01/10/2023 22:42</t>
         </is>
       </c>
       <c r="T258" t="n">
-        <v>6.46</v>
+        <v>2.82</v>
       </c>
       <c r="U258" t="inlineStr">
         <is>
-          <t>08/10/2023 23:29</t>
+          <t>08/10/2023 23:26</t>
         </is>
       </c>
       <c r="V258" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/fortaleza-america-mg/lbn4qaUJ/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/athletico-pr-bragantino/ng8LKFiJ/</t>
         </is>
       </c>
     </row>
@@ -24217,7 +24217,7 @@
       </c>
       <c r="F259" t="inlineStr">
         <is>
-          <t>Athletico-PR</t>
+          <t>Atletico-MG</t>
         </is>
       </c>
       <c r="G259" t="n">
@@ -24225,63 +24225,63 @@
       </c>
       <c r="H259" t="inlineStr">
         <is>
-          <t>Bragantino</t>
+          <t>Coritiba</t>
         </is>
       </c>
       <c r="I259" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J259" t="n">
-        <v>2.09</v>
+        <v>1.35</v>
       </c>
       <c r="K259" t="inlineStr">
         <is>
-          <t>01/10/2023 22:42</t>
+          <t>01/10/2023 20:12</t>
         </is>
       </c>
       <c r="L259" t="n">
-        <v>2.76</v>
+        <v>1.39</v>
       </c>
       <c r="M259" t="inlineStr">
         <is>
-          <t>08/10/2023 23:26</t>
+          <t>08/10/2023 23:23</t>
         </is>
       </c>
       <c r="N259" t="n">
-        <v>3.44</v>
+        <v>4.9</v>
       </c>
       <c r="O259" t="inlineStr">
         <is>
-          <t>01/10/2023 22:42</t>
+          <t>01/10/2023 20:12</t>
         </is>
       </c>
       <c r="P259" t="n">
-        <v>3.22</v>
+        <v>4.75</v>
       </c>
       <c r="Q259" t="inlineStr">
         <is>
-          <t>08/10/2023 23:26</t>
+          <t>08/10/2023 23:23</t>
         </is>
       </c>
       <c r="R259" t="n">
-        <v>3.7</v>
+        <v>10.08</v>
       </c>
       <c r="S259" t="inlineStr">
         <is>
-          <t>01/10/2023 22:42</t>
+          <t>01/10/2023 20:12</t>
         </is>
       </c>
       <c r="T259" t="n">
-        <v>2.82</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="U259" t="inlineStr">
         <is>
-          <t>08/10/2023 23:26</t>
+          <t>08/10/2023 23:25</t>
         </is>
       </c>
       <c r="V259" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/athletico-pr-bragantino/ng8LKFiJ/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/atletico-mg-coritiba/vT4DMyN6/</t>
         </is>
       </c>
     </row>
@@ -24309,22 +24309,22 @@
       </c>
       <c r="F260" t="inlineStr">
         <is>
-          <t>Atletico-MG</t>
+          <t>Fortaleza</t>
         </is>
       </c>
       <c r="G260" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H260" t="inlineStr">
         <is>
-          <t>Coritiba</t>
+          <t>America MG</t>
         </is>
       </c>
       <c r="I260" t="n">
         <v>2</v>
       </c>
       <c r="J260" t="n">
-        <v>1.35</v>
+        <v>1.57</v>
       </c>
       <c r="K260" t="inlineStr">
         <is>
@@ -24332,15 +24332,15 @@
         </is>
       </c>
       <c r="L260" t="n">
-        <v>1.39</v>
+        <v>1.53</v>
       </c>
       <c r="M260" t="inlineStr">
         <is>
-          <t>08/10/2023 23:23</t>
+          <t>08/10/2023 22:46</t>
         </is>
       </c>
       <c r="N260" t="n">
-        <v>4.9</v>
+        <v>4.3</v>
       </c>
       <c r="O260" t="inlineStr">
         <is>
@@ -24348,15 +24348,15 @@
         </is>
       </c>
       <c r="P260" t="n">
-        <v>4.75</v>
+        <v>4.43</v>
       </c>
       <c r="Q260" t="inlineStr">
         <is>
-          <t>08/10/2023 23:23</t>
+          <t>08/10/2023 23:29</t>
         </is>
       </c>
       <c r="R260" t="n">
-        <v>10.08</v>
+        <v>5.96</v>
       </c>
       <c r="S260" t="inlineStr">
         <is>
@@ -24364,16 +24364,16 @@
         </is>
       </c>
       <c r="T260" t="n">
-        <v>9.800000000000001</v>
+        <v>6.46</v>
       </c>
       <c r="U260" t="inlineStr">
         <is>
-          <t>08/10/2023 23:25</t>
+          <t>08/10/2023 23:29</t>
         </is>
       </c>
       <c r="V260" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/atletico-mg-coritiba/vT4DMyN6/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/fortaleza-america-mg/lbn4qaUJ/</t>
         </is>
       </c>
     </row>
@@ -24769,7 +24769,7 @@
       </c>
       <c r="F265" t="inlineStr">
         <is>
-          <t>Vasco</t>
+          <t>Bahia</t>
         </is>
       </c>
       <c r="G265" t="n">
@@ -24777,14 +24777,14 @@
       </c>
       <c r="H265" t="inlineStr">
         <is>
-          <t>Fortaleza</t>
+          <t>Internacional</t>
         </is>
       </c>
       <c r="I265" t="n">
         <v>0</v>
       </c>
       <c r="J265" t="n">
-        <v>2.26</v>
+        <v>2.23</v>
       </c>
       <c r="K265" t="inlineStr">
         <is>
@@ -24792,15 +24792,15 @@
         </is>
       </c>
       <c r="L265" t="n">
-        <v>2.32</v>
+        <v>2.07</v>
       </c>
       <c r="M265" t="inlineStr">
         <is>
-          <t>19/10/2023 02:28</t>
+          <t>19/10/2023 02:29</t>
         </is>
       </c>
       <c r="N265" t="n">
-        <v>3.3</v>
+        <v>3.32</v>
       </c>
       <c r="O265" t="inlineStr">
         <is>
@@ -24808,15 +24808,15 @@
         </is>
       </c>
       <c r="P265" t="n">
-        <v>3.19</v>
+        <v>3.37</v>
       </c>
       <c r="Q265" t="inlineStr">
         <is>
-          <t>19/10/2023 02:27</t>
+          <t>19/10/2023 02:21</t>
         </is>
       </c>
       <c r="R265" t="n">
-        <v>3.49</v>
+        <v>3.54</v>
       </c>
       <c r="S265" t="inlineStr">
         <is>
@@ -24824,16 +24824,16 @@
         </is>
       </c>
       <c r="T265" t="n">
-        <v>3.53</v>
+        <v>4.04</v>
       </c>
       <c r="U265" t="inlineStr">
         <is>
-          <t>19/10/2023 02:28</t>
+          <t>19/10/2023 02:29</t>
         </is>
       </c>
       <c r="V265" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/vasco-fortaleza/bXyvwc7m/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/bahia-internacional/KEG2ujTo/</t>
         </is>
       </c>
     </row>
@@ -24861,22 +24861,22 @@
       </c>
       <c r="F266" t="inlineStr">
         <is>
-          <t>Bahia</t>
+          <t>Goias</t>
         </is>
       </c>
       <c r="G266" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H266" t="inlineStr">
         <is>
-          <t>Internacional</t>
+          <t>Sao Paulo</t>
         </is>
       </c>
       <c r="I266" t="n">
         <v>0</v>
       </c>
       <c r="J266" t="n">
-        <v>2.23</v>
+        <v>3.02</v>
       </c>
       <c r="K266" t="inlineStr">
         <is>
@@ -24884,15 +24884,15 @@
         </is>
       </c>
       <c r="L266" t="n">
-        <v>2.07</v>
+        <v>3.79</v>
       </c>
       <c r="M266" t="inlineStr">
         <is>
-          <t>19/10/2023 02:29</t>
+          <t>19/10/2023 02:27</t>
         </is>
       </c>
       <c r="N266" t="n">
-        <v>3.32</v>
+        <v>3.09</v>
       </c>
       <c r="O266" t="inlineStr">
         <is>
@@ -24900,15 +24900,15 @@
         </is>
       </c>
       <c r="P266" t="n">
-        <v>3.37</v>
+        <v>3.19</v>
       </c>
       <c r="Q266" t="inlineStr">
         <is>
-          <t>19/10/2023 02:21</t>
+          <t>19/10/2023 02:27</t>
         </is>
       </c>
       <c r="R266" t="n">
-        <v>3.54</v>
+        <v>2.66</v>
       </c>
       <c r="S266" t="inlineStr">
         <is>
@@ -24916,16 +24916,16 @@
         </is>
       </c>
       <c r="T266" t="n">
-        <v>4.04</v>
+        <v>2.22</v>
       </c>
       <c r="U266" t="inlineStr">
         <is>
-          <t>19/10/2023 02:29</t>
+          <t>19/10/2023 02:27</t>
         </is>
       </c>
       <c r="V266" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/bahia-internacional/KEG2ujTo/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/goias-sao-paulo/b76rzei6/</t>
         </is>
       </c>
     </row>
@@ -24953,22 +24953,22 @@
       </c>
       <c r="F267" t="inlineStr">
         <is>
-          <t>Goias</t>
+          <t>Vasco</t>
         </is>
       </c>
       <c r="G267" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H267" t="inlineStr">
         <is>
-          <t>Sao Paulo</t>
+          <t>Fortaleza</t>
         </is>
       </c>
       <c r="I267" t="n">
         <v>0</v>
       </c>
       <c r="J267" t="n">
-        <v>3.02</v>
+        <v>2.26</v>
       </c>
       <c r="K267" t="inlineStr">
         <is>
@@ -24976,15 +24976,15 @@
         </is>
       </c>
       <c r="L267" t="n">
-        <v>3.79</v>
+        <v>2.32</v>
       </c>
       <c r="M267" t="inlineStr">
         <is>
-          <t>19/10/2023 02:27</t>
+          <t>19/10/2023 02:28</t>
         </is>
       </c>
       <c r="N267" t="n">
-        <v>3.09</v>
+        <v>3.3</v>
       </c>
       <c r="O267" t="inlineStr">
         <is>
@@ -25000,7 +25000,7 @@
         </is>
       </c>
       <c r="R267" t="n">
-        <v>2.66</v>
+        <v>3.49</v>
       </c>
       <c r="S267" t="inlineStr">
         <is>
@@ -25008,16 +25008,16 @@
         </is>
       </c>
       <c r="T267" t="n">
-        <v>2.22</v>
+        <v>3.53</v>
       </c>
       <c r="U267" t="inlineStr">
         <is>
-          <t>19/10/2023 02:27</t>
+          <t>19/10/2023 02:28</t>
         </is>
       </c>
       <c r="V267" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/goias-sao-paulo/b76rzei6/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/vasco-fortaleza/bXyvwc7m/</t>
         </is>
       </c>
     </row>
@@ -26057,62 +26057,62 @@
       </c>
       <c r="F279" t="inlineStr">
         <is>
-          <t>Bragantino</t>
+          <t>Coritiba</t>
         </is>
       </c>
       <c r="G279" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H279" t="inlineStr">
         <is>
-          <t>Fluminense</t>
+          <t>Palmeiras</t>
         </is>
       </c>
       <c r="I279" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J279" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>19/10/2023 23:13</t>
+        </is>
+      </c>
+      <c r="L279" t="n">
+        <v>5.19</v>
+      </c>
+      <c r="M279" t="inlineStr">
+        <is>
+          <t>22/10/2023 23:29</t>
+        </is>
+      </c>
+      <c r="N279" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="O279" t="inlineStr">
+        <is>
+          <t>19/10/2023 23:13</t>
+        </is>
+      </c>
+      <c r="P279" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="Q279" t="inlineStr">
+        <is>
+          <t>22/10/2023 23:27</t>
+        </is>
+      </c>
+      <c r="R279" t="n">
         <v>1.84</v>
       </c>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t>20/10/2023 01:42</t>
-        </is>
-      </c>
-      <c r="L279" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="M279" t="inlineStr">
-        <is>
-          <t>22/10/2023 23:24</t>
-        </is>
-      </c>
-      <c r="N279" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="O279" t="inlineStr">
-        <is>
-          <t>20/10/2023 01:42</t>
-        </is>
-      </c>
-      <c r="P279" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="Q279" t="inlineStr">
-        <is>
-          <t>22/10/2023 23:24</t>
-        </is>
-      </c>
-      <c r="R279" t="n">
-        <v>4.55</v>
-      </c>
       <c r="S279" t="inlineStr">
         <is>
-          <t>20/10/2023 01:42</t>
+          <t>19/10/2023 23:13</t>
         </is>
       </c>
       <c r="T279" t="n">
-        <v>4.85</v>
+        <v>1.79</v>
       </c>
       <c r="U279" t="inlineStr">
         <is>
@@ -26121,7 +26121,7 @@
       </c>
       <c r="V279" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/bragantino-fluminense/rg1SZocN/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/coritiba-palmeiras/hSj2Tqzi/</t>
         </is>
       </c>
     </row>
@@ -26149,7 +26149,7 @@
       </c>
       <c r="F280" t="inlineStr">
         <is>
-          <t>Corinthians</t>
+          <t>Bragantino</t>
         </is>
       </c>
       <c r="G280" t="n">
@@ -26157,14 +26157,14 @@
       </c>
       <c r="H280" t="inlineStr">
         <is>
-          <t>America MG</t>
+          <t>Fluminense</t>
         </is>
       </c>
       <c r="I280" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J280" t="n">
-        <v>1.75</v>
+        <v>1.84</v>
       </c>
       <c r="K280" t="inlineStr">
         <is>
@@ -26172,15 +26172,15 @@
         </is>
       </c>
       <c r="L280" t="n">
-        <v>2.09</v>
+        <v>1.76</v>
       </c>
       <c r="M280" t="inlineStr">
         <is>
-          <t>22/10/2023 23:25</t>
+          <t>22/10/2023 23:24</t>
         </is>
       </c>
       <c r="N280" t="n">
-        <v>3.78</v>
+        <v>3.7</v>
       </c>
       <c r="O280" t="inlineStr">
         <is>
@@ -26188,15 +26188,15 @@
         </is>
       </c>
       <c r="P280" t="n">
-        <v>3.29</v>
+        <v>3.9</v>
       </c>
       <c r="Q280" t="inlineStr">
         <is>
-          <t>22/10/2023 23:27</t>
+          <t>22/10/2023 23:24</t>
         </is>
       </c>
       <c r="R280" t="n">
-        <v>5.03</v>
+        <v>4.55</v>
       </c>
       <c r="S280" t="inlineStr">
         <is>
@@ -26204,7 +26204,7 @@
         </is>
       </c>
       <c r="T280" t="n">
-        <v>4.08</v>
+        <v>4.85</v>
       </c>
       <c r="U280" t="inlineStr">
         <is>
@@ -26213,7 +26213,7 @@
       </c>
       <c r="V280" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/corinthians-america-mg/QH6NzSsH/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/bragantino-fluminense/rg1SZocN/</t>
         </is>
       </c>
     </row>
@@ -26241,71 +26241,71 @@
       </c>
       <c r="F281" t="inlineStr">
         <is>
-          <t>Coritiba</t>
+          <t>Corinthians</t>
         </is>
       </c>
       <c r="G281" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H281" t="inlineStr">
         <is>
-          <t>Palmeiras</t>
+          <t>America MG</t>
         </is>
       </c>
       <c r="I281" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J281" t="n">
-        <v>4.43</v>
+        <v>1.75</v>
       </c>
       <c r="K281" t="inlineStr">
         <is>
-          <t>19/10/2023 23:13</t>
+          <t>20/10/2023 01:42</t>
         </is>
       </c>
       <c r="L281" t="n">
-        <v>5.19</v>
+        <v>2.09</v>
       </c>
       <c r="M281" t="inlineStr">
         <is>
+          <t>22/10/2023 23:25</t>
+        </is>
+      </c>
+      <c r="N281" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="O281" t="inlineStr">
+        <is>
+          <t>20/10/2023 01:42</t>
+        </is>
+      </c>
+      <c r="P281" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="Q281" t="inlineStr">
+        <is>
+          <t>22/10/2023 23:27</t>
+        </is>
+      </c>
+      <c r="R281" t="n">
+        <v>5.03</v>
+      </c>
+      <c r="S281" t="inlineStr">
+        <is>
+          <t>20/10/2023 01:42</t>
+        </is>
+      </c>
+      <c r="T281" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="U281" t="inlineStr">
+        <is>
           <t>22/10/2023 23:29</t>
         </is>
       </c>
-      <c r="N281" t="n">
-        <v>3.67</v>
-      </c>
-      <c r="O281" t="inlineStr">
-        <is>
-          <t>19/10/2023 23:13</t>
-        </is>
-      </c>
-      <c r="P281" t="n">
-        <v>3.57</v>
-      </c>
-      <c r="Q281" t="inlineStr">
-        <is>
-          <t>22/10/2023 23:27</t>
-        </is>
-      </c>
-      <c r="R281" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="S281" t="inlineStr">
-        <is>
-          <t>19/10/2023 23:13</t>
-        </is>
-      </c>
-      <c r="T281" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="U281" t="inlineStr">
-        <is>
-          <t>22/10/2023 23:29</t>
-        </is>
-      </c>
       <c r="V281" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/coritiba-palmeiras/hSj2Tqzi/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/corinthians-america-mg/QH6NzSsH/</t>
         </is>
       </c>
     </row>
@@ -26333,22 +26333,22 @@
       </c>
       <c r="F282" t="inlineStr">
         <is>
-          <t>Bragantino</t>
+          <t>Athletico-PR</t>
         </is>
       </c>
       <c r="G282" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H282" t="inlineStr">
         <is>
-          <t>Atletico-MG</t>
+          <t>America MG</t>
         </is>
       </c>
       <c r="I282" t="n">
         <v>2</v>
       </c>
       <c r="J282" t="n">
-        <v>1.96</v>
+        <v>1.58</v>
       </c>
       <c r="K282" t="inlineStr">
         <is>
@@ -26356,15 +26356,15 @@
         </is>
       </c>
       <c r="L282" t="n">
-        <v>1.88</v>
+        <v>1.58</v>
       </c>
       <c r="M282" t="inlineStr">
         <is>
-          <t>25/10/2023 23:59</t>
+          <t>25/10/2023 23:27</t>
         </is>
       </c>
       <c r="N282" t="n">
-        <v>3.5</v>
+        <v>4.26</v>
       </c>
       <c r="O282" t="inlineStr">
         <is>
@@ -26372,15 +26372,15 @@
         </is>
       </c>
       <c r="P282" t="n">
-        <v>3.47</v>
+        <v>4.31</v>
       </c>
       <c r="Q282" t="inlineStr">
         <is>
-          <t>25/10/2023 23:59</t>
+          <t>25/10/2023 23:33</t>
         </is>
       </c>
       <c r="R282" t="n">
-        <v>4.2</v>
+        <v>6.01</v>
       </c>
       <c r="S282" t="inlineStr">
         <is>
@@ -26388,16 +26388,16 @@
         </is>
       </c>
       <c r="T282" t="n">
-        <v>4.8</v>
+        <v>6.03</v>
       </c>
       <c r="U282" t="inlineStr">
         <is>
-          <t>25/10/2023 23:59</t>
+          <t>25/10/2023 23:30</t>
         </is>
       </c>
       <c r="V282" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/bragantino-atletico-mg/Cd77WX7S/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/athletico-pr-america-mg/AXnrQVpd/</t>
         </is>
       </c>
     </row>
@@ -26425,22 +26425,22 @@
       </c>
       <c r="F283" t="inlineStr">
         <is>
-          <t>Athletico-PR</t>
+          <t>Bragantino</t>
         </is>
       </c>
       <c r="G283" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H283" t="inlineStr">
         <is>
-          <t>America MG</t>
+          <t>Atletico-MG</t>
         </is>
       </c>
       <c r="I283" t="n">
         <v>2</v>
       </c>
       <c r="J283" t="n">
-        <v>1.58</v>
+        <v>1.96</v>
       </c>
       <c r="K283" t="inlineStr">
         <is>
@@ -26448,15 +26448,15 @@
         </is>
       </c>
       <c r="L283" t="n">
-        <v>1.58</v>
+        <v>1.88</v>
       </c>
       <c r="M283" t="inlineStr">
         <is>
-          <t>25/10/2023 23:27</t>
+          <t>25/10/2023 23:59</t>
         </is>
       </c>
       <c r="N283" t="n">
-        <v>4.26</v>
+        <v>3.5</v>
       </c>
       <c r="O283" t="inlineStr">
         <is>
@@ -26464,15 +26464,15 @@
         </is>
       </c>
       <c r="P283" t="n">
-        <v>4.31</v>
+        <v>3.47</v>
       </c>
       <c r="Q283" t="inlineStr">
         <is>
-          <t>25/10/2023 23:33</t>
+          <t>25/10/2023 23:59</t>
         </is>
       </c>
       <c r="R283" t="n">
-        <v>6.01</v>
+        <v>4.2</v>
       </c>
       <c r="S283" t="inlineStr">
         <is>
@@ -26480,16 +26480,16 @@
         </is>
       </c>
       <c r="T283" t="n">
-        <v>6.03</v>
+        <v>4.8</v>
       </c>
       <c r="U283" t="inlineStr">
         <is>
-          <t>25/10/2023 23:30</t>
+          <t>25/10/2023 23:59</t>
         </is>
       </c>
       <c r="V283" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/athletico-pr-america-mg/AXnrQVpd/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/bragantino-atletico-mg/Cd77WX7S/</t>
         </is>
       </c>
     </row>
@@ -26950,6 +26950,190 @@
       <c r="V288" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/brazil/serie-a/gremio-flamengo-rj/WtlvRBVk/</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="1" t="n">
+        <v>288</v>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>brazil</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>serie-a</t>
+        </is>
+      </c>
+      <c r="D289" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E289" s="2" t="n">
+        <v>45226</v>
+      </c>
+      <c r="F289" t="inlineStr">
+        <is>
+          <t>Vasco</t>
+        </is>
+      </c>
+      <c r="G289" t="n">
+        <v>1</v>
+      </c>
+      <c r="H289" t="inlineStr">
+        <is>
+          <t>Internacional</t>
+        </is>
+      </c>
+      <c r="I289" t="n">
+        <v>2</v>
+      </c>
+      <c r="J289" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>22/10/2023 20:12</t>
+        </is>
+      </c>
+      <c r="L289" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="M289" t="inlineStr">
+        <is>
+          <t>26/10/2023 23:13</t>
+        </is>
+      </c>
+      <c r="N289" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="O289" t="inlineStr">
+        <is>
+          <t>22/10/2023 20:12</t>
+        </is>
+      </c>
+      <c r="P289" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Q289" t="inlineStr">
+        <is>
+          <t>26/10/2023 23:13</t>
+        </is>
+      </c>
+      <c r="R289" t="n">
+        <v>4.19</v>
+      </c>
+      <c r="S289" t="inlineStr">
+        <is>
+          <t>22/10/2023 20:12</t>
+        </is>
+      </c>
+      <c r="T289" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="U289" t="inlineStr">
+        <is>
+          <t>26/10/2023 23:27</t>
+        </is>
+      </c>
+      <c r="V289" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/vasco-internacional/M7EfZZN9/</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" s="1" t="n">
+        <v>289</v>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>brazil</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>serie-a</t>
+        </is>
+      </c>
+      <c r="D290" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E290" s="2" t="n">
+        <v>45226.10416666666</v>
+      </c>
+      <c r="F290" t="inlineStr">
+        <is>
+          <t>Santos</t>
+        </is>
+      </c>
+      <c r="G290" t="n">
+        <v>2</v>
+      </c>
+      <c r="H290" t="inlineStr">
+        <is>
+          <t>Coritiba</t>
+        </is>
+      </c>
+      <c r="I290" t="n">
+        <v>1</v>
+      </c>
+      <c r="J290" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>22/10/2023 22:42</t>
+        </is>
+      </c>
+      <c r="L290" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="M290" t="inlineStr">
+        <is>
+          <t>27/10/2023 02:14</t>
+        </is>
+      </c>
+      <c r="N290" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="O290" t="inlineStr">
+        <is>
+          <t>22/10/2023 22:42</t>
+        </is>
+      </c>
+      <c r="P290" t="n">
+        <v>4.09</v>
+      </c>
+      <c r="Q290" t="inlineStr">
+        <is>
+          <t>27/10/2023 02:14</t>
+        </is>
+      </c>
+      <c r="R290" t="n">
+        <v>4.91</v>
+      </c>
+      <c r="S290" t="inlineStr">
+        <is>
+          <t>22/10/2023 22:42</t>
+        </is>
+      </c>
+      <c r="T290" t="n">
+        <v>5.21</v>
+      </c>
+      <c r="U290" t="inlineStr">
+        <is>
+          <t>27/10/2023 02:14</t>
+        </is>
+      </c>
+      <c r="V290" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/santos-coritiba/IZ73XDhM/</t>
         </is>
       </c>
     </row>

--- a/2023/brazil_serie-a_2023.xlsx
+++ b/2023/brazil_serie-a_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V290"/>
+  <dimension ref="A1:V298"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1585,22 +1585,22 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Cuiaba</t>
+          <t>Sao Paulo</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Bragantino</t>
+          <t>America MG</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>2.32</v>
+        <v>1.66</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
@@ -1608,15 +1608,15 @@
         </is>
       </c>
       <c r="L13" t="n">
-        <v>2.65</v>
+        <v>1.94</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>22/04/2023 22:56</t>
+          <t>22/04/2023 23:18</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>3.25</v>
+        <v>3.92</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1624,15 +1624,15 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>3.11</v>
+        <v>3.42</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>22/04/2023 20:05</t>
+          <t>22/04/2023 23:18</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>3.42</v>
+        <v>5.68</v>
       </c>
       <c r="S13" t="inlineStr">
         <is>
@@ -1640,16 +1640,16 @@
         </is>
       </c>
       <c r="T13" t="n">
-        <v>3.04</v>
+        <v>4.51</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>22/04/2023 22:54</t>
+          <t>22/04/2023 23:18</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/cuiaba-bragantino/xO6mYqpn/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/sao-paulo-america-mg/WWQII4pa/</t>
         </is>
       </c>
     </row>
@@ -1677,22 +1677,22 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Sao Paulo</t>
+          <t>Cuiaba</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>America MG</t>
+          <t>Bragantino</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" t="n">
-        <v>1.66</v>
+        <v>2.32</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
@@ -1700,15 +1700,15 @@
         </is>
       </c>
       <c r="L14" t="n">
-        <v>1.94</v>
+        <v>2.65</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>22/04/2023 23:18</t>
+          <t>22/04/2023 22:56</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>3.92</v>
+        <v>3.25</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1716,32 +1716,32 @@
         </is>
       </c>
       <c r="P14" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>22/04/2023 20:05</t>
+        </is>
+      </c>
+      <c r="R14" t="n">
         <v>3.42</v>
       </c>
-      <c r="Q14" t="inlineStr">
-        <is>
-          <t>22/04/2023 23:18</t>
-        </is>
-      </c>
-      <c r="R14" t="n">
-        <v>5.68</v>
-      </c>
       <c r="S14" t="inlineStr">
         <is>
           <t>17/04/2023 18:42</t>
         </is>
       </c>
       <c r="T14" t="n">
-        <v>4.51</v>
+        <v>3.04</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>22/04/2023 23:18</t>
+          <t>22/04/2023 22:54</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/sao-paulo-america-mg/WWQII4pa/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/cuiaba-bragantino/xO6mYqpn/</t>
         </is>
       </c>
     </row>
@@ -2597,71 +2597,71 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Bragantino</t>
+          <t>Santos</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Cruzeiro</t>
+          <t>America MG</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J24" t="n">
-        <v>1.75</v>
+        <v>2.04</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>23/04/2023 05:13</t>
+          <t>24/04/2023 05:42</t>
         </is>
       </c>
       <c r="L24" t="n">
-        <v>1.82</v>
+        <v>2.41</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>29/04/2023 23:29</t>
+          <t>29/04/2023 23:26</t>
         </is>
       </c>
       <c r="N24" t="n">
-        <v>3.77</v>
+        <v>3.54</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>23/04/2023 05:13</t>
+          <t>24/04/2023 05:42</t>
         </is>
       </c>
       <c r="P24" t="n">
-        <v>3.67</v>
+        <v>3.22</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>29/04/2023 23:29</t>
+          <t>29/04/2023 23:26</t>
         </is>
       </c>
       <c r="R24" t="n">
-        <v>5.06</v>
+        <v>3.73</v>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>23/04/2023 05:13</t>
+          <t>24/04/2023 05:42</t>
         </is>
       </c>
       <c r="T24" t="n">
-        <v>4.81</v>
+        <v>3.31</v>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>29/04/2023 23:29</t>
+          <t>29/04/2023 23:26</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/bragantino-cruzeiro/0Qc8TLbH/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/santos-america-mg/63b4U1qB/</t>
         </is>
       </c>
     </row>
@@ -2689,71 +2689,71 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Santos</t>
+          <t>Palmeiras</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>America MG</t>
+          <t>Corinthians</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J25" t="n">
-        <v>2.04</v>
+        <v>1.68</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>24/04/2023 05:42</t>
+          <t>24/04/2023 00:12</t>
         </is>
       </c>
       <c r="L25" t="n">
-        <v>2.41</v>
+        <v>1.5</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>29/04/2023 23:26</t>
+          <t>29/04/2023 23:06</t>
         </is>
       </c>
       <c r="N25" t="n">
-        <v>3.54</v>
+        <v>3.88</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>24/04/2023 05:42</t>
+          <t>24/04/2023 00:12</t>
         </is>
       </c>
       <c r="P25" t="n">
-        <v>3.22</v>
+        <v>4.07</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>29/04/2023 23:26</t>
+          <t>29/04/2023 22:36</t>
         </is>
       </c>
       <c r="R25" t="n">
-        <v>3.73</v>
+        <v>5.49</v>
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>24/04/2023 05:42</t>
+          <t>24/04/2023 00:12</t>
         </is>
       </c>
       <c r="T25" t="n">
-        <v>3.31</v>
+        <v>8.26</v>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>29/04/2023 23:26</t>
+          <t>29/04/2023 23:06</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/santos-america-mg/63b4U1qB/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/palmeiras-corinthians/SCa0VsU4/</t>
         </is>
       </c>
     </row>
@@ -2781,71 +2781,71 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Palmeiras</t>
+          <t>Bragantino</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Corinthians</t>
+          <t>Cruzeiro</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J26" t="n">
-        <v>1.68</v>
+        <v>1.75</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>24/04/2023 00:12</t>
+          <t>23/04/2023 05:13</t>
         </is>
       </c>
       <c r="L26" t="n">
-        <v>1.5</v>
+        <v>1.82</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>29/04/2023 23:06</t>
+          <t>29/04/2023 23:29</t>
         </is>
       </c>
       <c r="N26" t="n">
-        <v>3.88</v>
+        <v>3.77</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>24/04/2023 00:12</t>
+          <t>23/04/2023 05:13</t>
         </is>
       </c>
       <c r="P26" t="n">
-        <v>4.07</v>
+        <v>3.67</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>29/04/2023 22:36</t>
+          <t>29/04/2023 23:29</t>
         </is>
       </c>
       <c r="R26" t="n">
-        <v>5.49</v>
+        <v>5.06</v>
       </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t>24/04/2023 00:12</t>
+          <t>23/04/2023 05:13</t>
         </is>
       </c>
       <c r="T26" t="n">
-        <v>8.26</v>
+        <v>4.81</v>
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>29/04/2023 23:06</t>
+          <t>29/04/2023 23:29</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/palmeiras-corinthians/SCa0VsU4/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/bragantino-cruzeiro/0Qc8TLbH/</t>
         </is>
       </c>
     </row>
@@ -3057,7 +3057,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Internacional</t>
+          <t>Cuiaba</t>
         </is>
       </c>
       <c r="G29" t="n">
@@ -3065,63 +3065,63 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Goias</t>
+          <t>Gremio</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J29" t="n">
-        <v>1.48</v>
+        <v>2.66</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>24/04/2023 00:12</t>
+          <t>23/04/2023 05:13</t>
         </is>
       </c>
       <c r="L29" t="n">
-        <v>1.64</v>
+        <v>2.79</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>30/04/2023 23:25</t>
+          <t>30/04/2023 23:26</t>
         </is>
       </c>
       <c r="N29" t="n">
-        <v>4.48</v>
+        <v>3.21</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>24/04/2023 00:12</t>
+          <t>23/04/2023 05:13</t>
         </is>
       </c>
       <c r="P29" t="n">
-        <v>3.98</v>
+        <v>3.12</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>30/04/2023 23:25</t>
+          <t>30/04/2023 23:20</t>
         </is>
       </c>
       <c r="R29" t="n">
-        <v>7.36</v>
+        <v>2.9</v>
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>24/04/2023 00:12</t>
+          <t>23/04/2023 05:13</t>
         </is>
       </c>
       <c r="T29" t="n">
-        <v>5.91</v>
+        <v>2.87</v>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>30/04/2023 23:25</t>
+          <t>30/04/2023 23:26</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/internacional-goias/dhiHRaTT/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/cuiaba-gremio/4bQUpNTi/</t>
         </is>
       </c>
     </row>
@@ -3149,7 +3149,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Cuiaba</t>
+          <t>Internacional</t>
         </is>
       </c>
       <c r="G30" t="n">
@@ -3157,63 +3157,63 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Gremio</t>
+          <t>Goias</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>2.66</v>
+        <v>1.48</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>23/04/2023 05:13</t>
+          <t>24/04/2023 00:12</t>
         </is>
       </c>
       <c r="L30" t="n">
-        <v>2.79</v>
+        <v>1.64</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>30/04/2023 23:26</t>
+          <t>30/04/2023 23:25</t>
         </is>
       </c>
       <c r="N30" t="n">
-        <v>3.21</v>
+        <v>4.48</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>23/04/2023 05:13</t>
+          <t>24/04/2023 00:12</t>
         </is>
       </c>
       <c r="P30" t="n">
-        <v>3.12</v>
+        <v>3.98</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>30/04/2023 23:20</t>
+          <t>30/04/2023 23:25</t>
         </is>
       </c>
       <c r="R30" t="n">
-        <v>2.9</v>
+        <v>7.36</v>
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>23/04/2023 05:13</t>
+          <t>24/04/2023 00:12</t>
         </is>
       </c>
       <c r="T30" t="n">
-        <v>2.87</v>
+        <v>5.91</v>
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>30/04/2023 23:26</t>
+          <t>30/04/2023 23:25</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/cuiaba-gremio/4bQUpNTi/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/internacional-goias/dhiHRaTT/</t>
         </is>
       </c>
     </row>
@@ -3609,71 +3609,71 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Sao Paulo</t>
+          <t>Bahia</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Internacional</t>
+          <t>Coritiba</t>
         </is>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35" t="n">
-        <v>1.87</v>
+        <v>1.77</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>01/05/2023 04:41</t>
+          <t>02/05/2023 01:11</t>
         </is>
       </c>
       <c r="L35" t="n">
-        <v>2.05</v>
+        <v>1.74</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
+          <t>07/05/2023 20:50</t>
+        </is>
+      </c>
+      <c r="N35" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>02/05/2023 01:11</t>
+        </is>
+      </c>
+      <c r="P35" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="Q35" t="inlineStr">
+        <is>
           <t>07/05/2023 20:59</t>
         </is>
       </c>
-      <c r="N35" t="n">
-        <v>3.79</v>
-      </c>
-      <c r="O35" t="inlineStr">
-        <is>
-          <t>01/05/2023 04:41</t>
-        </is>
-      </c>
-      <c r="P35" t="n">
-        <v>3.47</v>
-      </c>
-      <c r="Q35" t="inlineStr">
-        <is>
-          <t>07/05/2023 20:59</t>
-        </is>
-      </c>
       <c r="R35" t="n">
-        <v>4.1</v>
+        <v>4.97</v>
       </c>
       <c r="S35" t="inlineStr">
         <is>
-          <t>01/05/2023 04:41</t>
+          <t>02/05/2023 01:11</t>
         </is>
       </c>
       <c r="T35" t="n">
-        <v>3.95</v>
+        <v>5.35</v>
       </c>
       <c r="U35" t="inlineStr">
         <is>
-          <t>07/05/2023 20:59</t>
+          <t>07/05/2023 20:50</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/sao-paulo-internacional/fmJsrLDA/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/bahia-coritiba/0Qu9btbi/</t>
         </is>
       </c>
     </row>
@@ -3701,71 +3701,71 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Bahia</t>
+          <t>Athletico-PR</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Coritiba</t>
+          <t>Flamengo RJ</t>
         </is>
       </c>
       <c r="I36" t="n">
         <v>1</v>
       </c>
       <c r="J36" t="n">
-        <v>1.77</v>
+        <v>3.45</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>02/05/2023 01:11</t>
+          <t>01/05/2023 02:12</t>
         </is>
       </c>
       <c r="L36" t="n">
-        <v>1.74</v>
+        <v>3.01</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>07/05/2023 20:50</t>
+          <t>07/05/2023 20:57</t>
         </is>
       </c>
       <c r="N36" t="n">
-        <v>3.72</v>
+        <v>3.43</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>02/05/2023 01:11</t>
+          <t>01/05/2023 02:12</t>
         </is>
       </c>
       <c r="P36" t="n">
-        <v>3.76</v>
+        <v>3.22</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>07/05/2023 20:59</t>
+          <t>07/05/2023 20:56</t>
         </is>
       </c>
       <c r="R36" t="n">
-        <v>4.97</v>
+        <v>2.22</v>
       </c>
       <c r="S36" t="inlineStr">
         <is>
-          <t>02/05/2023 01:11</t>
+          <t>01/05/2023 02:12</t>
         </is>
       </c>
       <c r="T36" t="n">
-        <v>5.35</v>
+        <v>2.61</v>
       </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>07/05/2023 20:50</t>
+          <t>07/05/2023 20:57</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/bahia-coritiba/0Qu9btbi/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/athletico-pr-flamengo-rj/bL1QZdLj/</t>
         </is>
       </c>
     </row>
@@ -3793,7 +3793,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Athletico-PR</t>
+          <t>Sao Paulo</t>
         </is>
       </c>
       <c r="G37" t="n">
@@ -3801,63 +3801,63 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Flamengo RJ</t>
+          <t>Internacional</t>
         </is>
       </c>
       <c r="I37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>3.45</v>
+        <v>1.87</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>01/05/2023 02:12</t>
+          <t>01/05/2023 04:41</t>
         </is>
       </c>
       <c r="L37" t="n">
-        <v>3.01</v>
+        <v>2.05</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>07/05/2023 20:57</t>
+          <t>07/05/2023 20:59</t>
         </is>
       </c>
       <c r="N37" t="n">
-        <v>3.43</v>
+        <v>3.79</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>01/05/2023 02:12</t>
+          <t>01/05/2023 04:41</t>
         </is>
       </c>
       <c r="P37" t="n">
-        <v>3.22</v>
+        <v>3.47</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>07/05/2023 20:56</t>
+          <t>07/05/2023 20:59</t>
         </is>
       </c>
       <c r="R37" t="n">
-        <v>2.22</v>
+        <v>4.1</v>
       </c>
       <c r="S37" t="inlineStr">
         <is>
-          <t>01/05/2023 02:12</t>
+          <t>01/05/2023 04:41</t>
         </is>
       </c>
       <c r="T37" t="n">
-        <v>2.61</v>
+        <v>3.95</v>
       </c>
       <c r="U37" t="inlineStr">
         <is>
-          <t>07/05/2023 20:57</t>
+          <t>07/05/2023 20:59</t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/athletico-pr-flamengo-rj/bL1QZdLj/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/sao-paulo-internacional/fmJsrLDA/</t>
         </is>
       </c>
     </row>
@@ -3885,22 +3885,22 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Gremio</t>
+          <t>Goias</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Bragantino</t>
+          <t>Palmeiras</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J38" t="n">
-        <v>1.88</v>
+        <v>4.55</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -3908,15 +3908,15 @@
         </is>
       </c>
       <c r="L38" t="n">
-        <v>1.91</v>
+        <v>5.53</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>07/05/2023 23:27</t>
+          <t>07/05/2023 23:20</t>
         </is>
       </c>
       <c r="N38" t="n">
-        <v>3.71</v>
+        <v>3.7</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
@@ -3924,15 +3924,15 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>3.6</v>
+        <v>3.99</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>07/05/2023 23:23</t>
+          <t>07/05/2023 23:20</t>
         </is>
       </c>
       <c r="R38" t="n">
-        <v>4.19</v>
+        <v>1.81</v>
       </c>
       <c r="S38" t="inlineStr">
         <is>
@@ -3940,16 +3940,16 @@
         </is>
       </c>
       <c r="T38" t="n">
-        <v>4.41</v>
+        <v>1.67</v>
       </c>
       <c r="U38" t="inlineStr">
         <is>
-          <t>07/05/2023 23:27</t>
+          <t>07/05/2023 23:20</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/gremio-bragantino/nobMzw6p/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/goias-palmeiras/jFCjtarN/</t>
         </is>
       </c>
     </row>
@@ -4069,22 +4069,22 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Goias</t>
+          <t>Gremio</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Palmeiras</t>
+          <t>Bragantino</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J40" t="n">
-        <v>4.55</v>
+        <v>1.88</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -4092,15 +4092,15 @@
         </is>
       </c>
       <c r="L40" t="n">
-        <v>5.53</v>
+        <v>1.91</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>07/05/2023 23:20</t>
+          <t>07/05/2023 23:27</t>
         </is>
       </c>
       <c r="N40" t="n">
-        <v>3.7</v>
+        <v>3.71</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
@@ -4108,15 +4108,15 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>3.99</v>
+        <v>3.6</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>07/05/2023 23:20</t>
+          <t>07/05/2023 23:23</t>
         </is>
       </c>
       <c r="R40" t="n">
-        <v>1.81</v>
+        <v>4.19</v>
       </c>
       <c r="S40" t="inlineStr">
         <is>
@@ -4124,16 +4124,16 @@
         </is>
       </c>
       <c r="T40" t="n">
-        <v>1.67</v>
+        <v>4.41</v>
       </c>
       <c r="U40" t="inlineStr">
         <is>
-          <t>07/05/2023 23:20</t>
+          <t>07/05/2023 23:27</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/goias-palmeiras/jFCjtarN/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/gremio-bragantino/nobMzw6p/</t>
         </is>
       </c>
     </row>
@@ -4253,22 +4253,22 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Santos</t>
+          <t>Internacional</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Bahia</t>
+          <t>Athletico-PR</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J42" t="n">
-        <v>1.95</v>
+        <v>1.79</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -4276,15 +4276,15 @@
         </is>
       </c>
       <c r="L42" t="n">
-        <v>2.3</v>
+        <v>1.82</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>10/05/2023 23:51</t>
+          <t>10/05/2023 23:55</t>
         </is>
       </c>
       <c r="N42" t="n">
-        <v>3.64</v>
+        <v>3.69</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
@@ -4292,15 +4292,15 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>3.14</v>
+        <v>3.61</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>10/05/2023 23:59</t>
+          <t>10/05/2023 23:55</t>
         </is>
       </c>
       <c r="R42" t="n">
-        <v>3.93</v>
+        <v>4.86</v>
       </c>
       <c r="S42" t="inlineStr">
         <is>
@@ -4308,16 +4308,16 @@
         </is>
       </c>
       <c r="T42" t="n">
-        <v>3.65</v>
+        <v>4.93</v>
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>10/05/2023 23:59</t>
+          <t>10/05/2023 23:55</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/santos-bahia/r9yUgICM/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/internacional-athletico-pr/61gdmGkj/</t>
         </is>
       </c>
     </row>
@@ -4345,71 +4345,71 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Internacional</t>
+          <t>Bragantino</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Athletico-PR</t>
+          <t>America MG</t>
         </is>
       </c>
       <c r="I43" t="n">
         <v>2</v>
       </c>
       <c r="J43" t="n">
-        <v>1.79</v>
+        <v>1.86</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>07/05/2023 21:12</t>
+          <t>07/05/2023 23:42</t>
         </is>
       </c>
       <c r="L43" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>10/05/2023 23:55</t>
+          <t>10/05/2023 23:45</t>
         </is>
       </c>
       <c r="N43" t="n">
-        <v>3.69</v>
+        <v>3.68</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>07/05/2023 21:12</t>
+          <t>07/05/2023 23:42</t>
         </is>
       </c>
       <c r="P43" t="n">
-        <v>3.61</v>
+        <v>3.77</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>10/05/2023 23:55</t>
+          <t>10/05/2023 23:45</t>
         </is>
       </c>
       <c r="R43" t="n">
-        <v>4.86</v>
+        <v>4.31</v>
       </c>
       <c r="S43" t="inlineStr">
         <is>
-          <t>07/05/2023 21:12</t>
+          <t>07/05/2023 23:42</t>
         </is>
       </c>
       <c r="T43" t="n">
-        <v>4.93</v>
+        <v>4.62</v>
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>10/05/2023 23:55</t>
+          <t>10/05/2023 23:48</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/internacional-athletico-pr/61gdmGkj/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/bragantino-america-mg/xWzYhxSS/</t>
         </is>
       </c>
     </row>
@@ -4437,71 +4437,71 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Bragantino</t>
+          <t>Santos</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>America MG</t>
+          <t>Bahia</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>1.86</v>
+        <v>1.95</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>07/05/2023 23:42</t>
+          <t>07/05/2023 21:12</t>
         </is>
       </c>
       <c r="L44" t="n">
-        <v>1.83</v>
+        <v>2.3</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>10/05/2023 23:45</t>
+          <t>10/05/2023 23:51</t>
         </is>
       </c>
       <c r="N44" t="n">
-        <v>3.68</v>
+        <v>3.64</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>07/05/2023 23:42</t>
+          <t>07/05/2023 21:12</t>
         </is>
       </c>
       <c r="P44" t="n">
-        <v>3.77</v>
+        <v>3.14</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>10/05/2023 23:45</t>
+          <t>10/05/2023 23:59</t>
         </is>
       </c>
       <c r="R44" t="n">
-        <v>4.31</v>
+        <v>3.93</v>
       </c>
       <c r="S44" t="inlineStr">
         <is>
-          <t>07/05/2023 23:42</t>
+          <t>07/05/2023 21:12</t>
         </is>
       </c>
       <c r="T44" t="n">
-        <v>4.62</v>
+        <v>3.65</v>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>10/05/2023 23:48</t>
+          <t>10/05/2023 23:59</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/bragantino-america-mg/xWzYhxSS/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/santos-bahia/r9yUgICM/</t>
         </is>
       </c>
     </row>
@@ -4529,22 +4529,22 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Cuiaba</t>
+          <t>Flamengo RJ</t>
         </is>
       </c>
       <c r="G45" t="n">
+        <v>2</v>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Goias</t>
+        </is>
+      </c>
+      <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>Atletico-MG</t>
-        </is>
-      </c>
-      <c r="I45" t="n">
-        <v>4</v>
-      </c>
       <c r="J45" t="n">
-        <v>3.36</v>
+        <v>1.32</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
@@ -4552,15 +4552,15 @@
         </is>
       </c>
       <c r="L45" t="n">
-        <v>3.86</v>
+        <v>1.25</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>11/05/2023 00:59</t>
+          <t>11/05/2023 00:43</t>
         </is>
       </c>
       <c r="N45" t="n">
-        <v>3.3</v>
+        <v>5.65</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
@@ -4568,15 +4568,15 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>3.3</v>
+        <v>6.22</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>11/05/2023 00:57</t>
+          <t>11/05/2023 00:58</t>
         </is>
       </c>
       <c r="R45" t="n">
-        <v>2.32</v>
+        <v>9.16</v>
       </c>
       <c r="S45" t="inlineStr">
         <is>
@@ -4584,16 +4584,16 @@
         </is>
       </c>
       <c r="T45" t="n">
-        <v>2.15</v>
+        <v>12.58</v>
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>11/05/2023 00:59</t>
+          <t>11/05/2023 00:58</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/cuiaba-atletico-mg/CbpnAwc3/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/flamengo-rj-goias/8jqHdKS3/</t>
         </is>
       </c>
     </row>
@@ -4621,22 +4621,22 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Flamengo RJ</t>
+          <t>Cuiaba</t>
         </is>
       </c>
       <c r="G46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Goias</t>
+          <t>Atletico-MG</t>
         </is>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J46" t="n">
-        <v>1.32</v>
+        <v>3.36</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
@@ -4644,15 +4644,15 @@
         </is>
       </c>
       <c r="L46" t="n">
-        <v>1.25</v>
+        <v>3.86</v>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>11/05/2023 00:43</t>
+          <t>11/05/2023 00:59</t>
         </is>
       </c>
       <c r="N46" t="n">
-        <v>5.65</v>
+        <v>3.3</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
@@ -4660,15 +4660,15 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>6.22</v>
+        <v>3.3</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>11/05/2023 00:58</t>
+          <t>11/05/2023 00:57</t>
         </is>
       </c>
       <c r="R46" t="n">
-        <v>9.16</v>
+        <v>2.32</v>
       </c>
       <c r="S46" t="inlineStr">
         <is>
@@ -4676,16 +4676,16 @@
         </is>
       </c>
       <c r="T46" t="n">
-        <v>12.58</v>
+        <v>2.15</v>
       </c>
       <c r="U46" t="inlineStr">
         <is>
-          <t>11/05/2023 00:58</t>
+          <t>11/05/2023 00:59</t>
         </is>
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/flamengo-rj-goias/8jqHdKS3/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/cuiaba-atletico-mg/CbpnAwc3/</t>
         </is>
       </c>
     </row>
@@ -4713,71 +4713,71 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Palmeiras</t>
+          <t>Cruzeiro</t>
         </is>
       </c>
       <c r="G47" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Gremio</t>
+          <t>Fluminense</t>
         </is>
       </c>
       <c r="I47" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J47" t="n">
-        <v>1.45</v>
+        <v>2.76</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>07/05/2023 23:42</t>
+          <t>07/05/2023 02:12</t>
         </is>
       </c>
       <c r="L47" t="n">
-        <v>1.41</v>
+        <v>2.74</v>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>11/05/2023 02:29</t>
+          <t>11/05/2023 02:27</t>
         </is>
       </c>
       <c r="N47" t="n">
-        <v>4.72</v>
+        <v>3.42</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>07/05/2023 23:42</t>
+          <t>07/05/2023 02:12</t>
         </is>
       </c>
       <c r="P47" t="n">
-        <v>4.71</v>
+        <v>3.21</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>11/05/2023 02:12</t>
+          <t>11/05/2023 02:25</t>
         </is>
       </c>
       <c r="R47" t="n">
-        <v>7.37</v>
+        <v>2.6</v>
       </c>
       <c r="S47" t="inlineStr">
         <is>
-          <t>07/05/2023 23:42</t>
+          <t>07/05/2023 02:12</t>
         </is>
       </c>
       <c r="T47" t="n">
-        <v>8.65</v>
+        <v>2.85</v>
       </c>
       <c r="U47" t="inlineStr">
         <is>
-          <t>11/05/2023 02:12</t>
+          <t>11/05/2023 02:27</t>
         </is>
       </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/palmeiras-gremio/U5XPfbcG/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/cruzeiro-fluminense/vuNaldzp/</t>
         </is>
       </c>
     </row>
@@ -4805,71 +4805,71 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Cruzeiro</t>
+          <t>Palmeiras</t>
         </is>
       </c>
       <c r="G48" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Fluminense</t>
+          <t>Gremio</t>
         </is>
       </c>
       <c r="I48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J48" t="n">
-        <v>2.76</v>
+        <v>1.45</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>07/05/2023 02:12</t>
+          <t>07/05/2023 23:42</t>
         </is>
       </c>
       <c r="L48" t="n">
-        <v>2.74</v>
+        <v>1.41</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>11/05/2023 02:27</t>
+          <t>11/05/2023 02:29</t>
         </is>
       </c>
       <c r="N48" t="n">
-        <v>3.42</v>
+        <v>4.72</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>07/05/2023 02:12</t>
+          <t>07/05/2023 23:42</t>
         </is>
       </c>
       <c r="P48" t="n">
-        <v>3.21</v>
+        <v>4.71</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>11/05/2023 02:25</t>
+          <t>11/05/2023 02:12</t>
         </is>
       </c>
       <c r="R48" t="n">
-        <v>2.6</v>
+        <v>7.37</v>
       </c>
       <c r="S48" t="inlineStr">
         <is>
-          <t>07/05/2023 02:12</t>
+          <t>07/05/2023 23:42</t>
         </is>
       </c>
       <c r="T48" t="n">
-        <v>2.85</v>
+        <v>8.65</v>
       </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t>11/05/2023 02:27</t>
+          <t>11/05/2023 02:12</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/cruzeiro-fluminense/vuNaldzp/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/palmeiras-gremio/U5XPfbcG/</t>
         </is>
       </c>
     </row>
@@ -5541,7 +5541,7 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Gremio</t>
+          <t>Vasco</t>
         </is>
       </c>
       <c r="G56" t="n">
@@ -5549,63 +5549,63 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Fortaleza</t>
+          <t>Santos</t>
         </is>
       </c>
       <c r="I56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J56" t="n">
-        <v>2.26</v>
+        <v>1.74</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>12/05/2023 01:12</t>
+          <t>12/05/2023 00:12</t>
         </is>
       </c>
       <c r="L56" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>14/05/2023 20:59</t>
+          <t>14/05/2023 20:50</t>
         </is>
       </c>
       <c r="N56" t="n">
-        <v>3.44</v>
+        <v>3.77</v>
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>12/05/2023 01:12</t>
+          <t>12/05/2023 00:12</t>
         </is>
       </c>
       <c r="P56" t="n">
-        <v>3.64</v>
+        <v>3.33</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>14/05/2023 20:59</t>
+          <t>14/05/2023 20:58</t>
         </is>
       </c>
       <c r="R56" t="n">
-        <v>3.27</v>
+        <v>4.95</v>
       </c>
       <c r="S56" t="inlineStr">
         <is>
-          <t>12/05/2023 01:12</t>
+          <t>12/05/2023 00:12</t>
         </is>
       </c>
       <c r="T56" t="n">
-        <v>4.38</v>
+        <v>4.73</v>
       </c>
       <c r="U56" t="inlineStr">
         <is>
-          <t>14/05/2023 20:59</t>
+          <t>14/05/2023 20:58</t>
         </is>
       </c>
       <c r="V56" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/gremio-fortaleza/SYhum7e7/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/vasco-santos/YDYf8HRF/</t>
         </is>
       </c>
     </row>
@@ -5633,22 +5633,22 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Corinthians</t>
+          <t>Gremio</t>
         </is>
       </c>
       <c r="G57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Sao Paulo</t>
+          <t>Fortaleza</t>
         </is>
       </c>
       <c r="I57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J57" t="n">
-        <v>2.42</v>
+        <v>2.26</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
@@ -5656,15 +5656,15 @@
         </is>
       </c>
       <c r="L57" t="n">
-        <v>2.57</v>
+        <v>1.9</v>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>14/05/2023 20:57</t>
+          <t>14/05/2023 20:59</t>
         </is>
       </c>
       <c r="N57" t="n">
-        <v>3.24</v>
+        <v>3.44</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
@@ -5672,15 +5672,15 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>3.02</v>
+        <v>3.64</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>14/05/2023 20:57</t>
+          <t>14/05/2023 20:59</t>
         </is>
       </c>
       <c r="R57" t="n">
-        <v>3.23</v>
+        <v>3.27</v>
       </c>
       <c r="S57" t="inlineStr">
         <is>
@@ -5688,16 +5688,16 @@
         </is>
       </c>
       <c r="T57" t="n">
-        <v>3.25</v>
+        <v>4.38</v>
       </c>
       <c r="U57" t="inlineStr">
         <is>
-          <t>14/05/2023 20:57</t>
+          <t>14/05/2023 20:59</t>
         </is>
       </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/corinthians-sao-paulo/vD0Sk9Bl/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/gremio-fortaleza/SYhum7e7/</t>
         </is>
       </c>
     </row>
@@ -5725,71 +5725,71 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Vasco</t>
+          <t>Corinthians</t>
         </is>
       </c>
       <c r="G58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Santos</t>
+          <t>Sao Paulo</t>
         </is>
       </c>
       <c r="I58" t="n">
         <v>1</v>
       </c>
       <c r="J58" t="n">
-        <v>1.74</v>
+        <v>2.42</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>12/05/2023 00:12</t>
+          <t>12/05/2023 01:12</t>
         </is>
       </c>
       <c r="L58" t="n">
-        <v>1.93</v>
+        <v>2.57</v>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>14/05/2023 20:50</t>
+          <t>14/05/2023 20:57</t>
         </is>
       </c>
       <c r="N58" t="n">
-        <v>3.77</v>
+        <v>3.24</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>12/05/2023 00:12</t>
+          <t>12/05/2023 01:12</t>
         </is>
       </c>
       <c r="P58" t="n">
-        <v>3.33</v>
+        <v>3.02</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>14/05/2023 20:58</t>
+          <t>14/05/2023 20:57</t>
         </is>
       </c>
       <c r="R58" t="n">
-        <v>4.95</v>
+        <v>3.23</v>
       </c>
       <c r="S58" t="inlineStr">
         <is>
-          <t>12/05/2023 00:12</t>
+          <t>12/05/2023 01:12</t>
         </is>
       </c>
       <c r="T58" t="n">
-        <v>4.73</v>
+        <v>3.25</v>
       </c>
       <c r="U58" t="inlineStr">
         <is>
-          <t>14/05/2023 20:58</t>
+          <t>14/05/2023 20:57</t>
         </is>
       </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/vasco-santos/YDYf8HRF/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/corinthians-sao-paulo/vD0Sk9Bl/</t>
         </is>
       </c>
     </row>
@@ -5817,30 +5817,30 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Goias</t>
+          <t>Athletico-PR</t>
         </is>
       </c>
       <c r="G59" t="n">
+        <v>3</v>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>Coritiba</t>
+        </is>
+      </c>
+      <c r="I59" t="n">
         <v>2</v>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>Botafogo RJ</t>
-        </is>
-      </c>
-      <c r="I59" t="n">
-        <v>1</v>
-      </c>
       <c r="J59" t="n">
-        <v>2.91</v>
+        <v>1.68</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>12/05/2023 00:42</t>
+          <t>12/05/2023 00:12</t>
         </is>
       </c>
       <c r="L59" t="n">
-        <v>3.27</v>
+        <v>1.63</v>
       </c>
       <c r="M59" t="inlineStr">
         <is>
@@ -5848,15 +5848,15 @@
         </is>
       </c>
       <c r="N59" t="n">
-        <v>3.46</v>
+        <v>3.98</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>12/05/2023 00:42</t>
+          <t>12/05/2023 00:12</t>
         </is>
       </c>
       <c r="P59" t="n">
-        <v>3.29</v>
+        <v>3.83</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
@@ -5864,15 +5864,15 @@
         </is>
       </c>
       <c r="R59" t="n">
-        <v>2.5</v>
+        <v>5.07</v>
       </c>
       <c r="S59" t="inlineStr">
         <is>
-          <t>12/05/2023 00:42</t>
+          <t>12/05/2023 00:12</t>
         </is>
       </c>
       <c r="T59" t="n">
-        <v>2.4</v>
+        <v>6.41</v>
       </c>
       <c r="U59" t="inlineStr">
         <is>
@@ -5881,7 +5881,7 @@
       </c>
       <c r="V59" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/goias-botafogo-rj/MyjXlTQf/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/athletico-pr-coritiba/6PiqnRAD/</t>
         </is>
       </c>
     </row>
@@ -5909,30 +5909,30 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Athletico-PR</t>
+          <t>Goias</t>
         </is>
       </c>
       <c r="G60" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Coritiba</t>
+          <t>Botafogo RJ</t>
         </is>
       </c>
       <c r="I60" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J60" t="n">
-        <v>1.68</v>
+        <v>2.91</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>12/05/2023 00:12</t>
+          <t>12/05/2023 00:42</t>
         </is>
       </c>
       <c r="L60" t="n">
-        <v>1.63</v>
+        <v>3.27</v>
       </c>
       <c r="M60" t="inlineStr">
         <is>
@@ -5940,15 +5940,15 @@
         </is>
       </c>
       <c r="N60" t="n">
-        <v>3.98</v>
+        <v>3.46</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>12/05/2023 00:12</t>
+          <t>12/05/2023 00:42</t>
         </is>
       </c>
       <c r="P60" t="n">
-        <v>3.83</v>
+        <v>3.29</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
@@ -5956,15 +5956,15 @@
         </is>
       </c>
       <c r="R60" t="n">
-        <v>5.07</v>
+        <v>2.5</v>
       </c>
       <c r="S60" t="inlineStr">
         <is>
-          <t>12/05/2023 00:12</t>
+          <t>12/05/2023 00:42</t>
         </is>
       </c>
       <c r="T60" t="n">
-        <v>6.41</v>
+        <v>2.4</v>
       </c>
       <c r="U60" t="inlineStr">
         <is>
@@ -5973,7 +5973,7 @@
       </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/athletico-pr-coritiba/6PiqnRAD/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/goias-botafogo-rj/MyjXlTQf/</t>
         </is>
       </c>
     </row>
@@ -6277,30 +6277,30 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Sao Paulo</t>
+          <t>Botafogo RJ</t>
         </is>
       </c>
       <c r="G64" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Vasco</t>
+          <t>Fluminense</t>
         </is>
       </c>
       <c r="I64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J64" t="n">
-        <v>1.94</v>
+        <v>2.78</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>15/05/2023 04:42</t>
+          <t>14/05/2023 23:42</t>
         </is>
       </c>
       <c r="L64" t="n">
-        <v>1.87</v>
+        <v>2.77</v>
       </c>
       <c r="M64" t="inlineStr">
         <is>
@@ -6308,15 +6308,15 @@
         </is>
       </c>
       <c r="N64" t="n">
-        <v>3.59</v>
+        <v>3.31</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>15/05/2023 04:42</t>
+          <t>14/05/2023 23:42</t>
         </is>
       </c>
       <c r="P64" t="n">
-        <v>3.44</v>
+        <v>3.32</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
@@ -6324,24 +6324,24 @@
         </is>
       </c>
       <c r="R64" t="n">
-        <v>4.03</v>
+        <v>2.72</v>
       </c>
       <c r="S64" t="inlineStr">
         <is>
-          <t>15/05/2023 04:42</t>
+          <t>14/05/2023 23:42</t>
         </is>
       </c>
       <c r="T64" t="n">
-        <v>4.88</v>
+        <v>2.74</v>
       </c>
       <c r="U64" t="inlineStr">
         <is>
-          <t>20/05/2023 23:29</t>
+          <t>20/05/2023 22:51</t>
         </is>
       </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/sao-paulo-vasco/zuG63Sul/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/botafogo-rj-fluminense/hGQ148Qs/</t>
         </is>
       </c>
     </row>
@@ -6461,71 +6461,71 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Bragantino</t>
+          <t>Sao Paulo</t>
         </is>
       </c>
       <c r="G66" t="n">
+        <v>4</v>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>Vasco</t>
+        </is>
+      </c>
+      <c r="I66" t="n">
         <v>2</v>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>Athletico-PR</t>
-        </is>
-      </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
       <c r="J66" t="n">
-        <v>2.05</v>
+        <v>1.94</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>14/05/2023 23:42</t>
+          <t>15/05/2023 04:42</t>
         </is>
       </c>
       <c r="L66" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>20/05/2023 23:06</t>
+          <t>20/05/2023 23:29</t>
         </is>
       </c>
       <c r="N66" t="n">
-        <v>3.43</v>
+        <v>3.59</v>
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>14/05/2023 23:42</t>
+          <t>15/05/2023 04:42</t>
         </is>
       </c>
       <c r="P66" t="n">
-        <v>3.64</v>
+        <v>3.44</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>20/05/2023 23:28</t>
+          <t>20/05/2023 23:29</t>
         </is>
       </c>
       <c r="R66" t="n">
-        <v>3.83</v>
+        <v>4.03</v>
       </c>
       <c r="S66" t="inlineStr">
         <is>
-          <t>14/05/2023 23:42</t>
+          <t>15/05/2023 04:42</t>
         </is>
       </c>
       <c r="T66" t="n">
-        <v>4.63</v>
+        <v>4.88</v>
       </c>
       <c r="U66" t="inlineStr">
         <is>
-          <t>20/05/2023 23:28</t>
+          <t>20/05/2023 23:29</t>
         </is>
       </c>
       <c r="V66" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/bragantino-athletico-pr/MeEE16A0/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/sao-paulo-vasco/zuG63Sul/</t>
         </is>
       </c>
     </row>
@@ -6553,22 +6553,22 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Botafogo RJ</t>
+          <t>Bragantino</t>
         </is>
       </c>
       <c r="G67" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Fluminense</t>
+          <t>Athletico-PR</t>
         </is>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
       <c r="J67" t="n">
-        <v>2.78</v>
+        <v>2.05</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
@@ -6576,15 +6576,15 @@
         </is>
       </c>
       <c r="L67" t="n">
-        <v>2.77</v>
+        <v>1.85</v>
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>20/05/2023 23:29</t>
+          <t>20/05/2023 23:06</t>
         </is>
       </c>
       <c r="N67" t="n">
-        <v>3.31</v>
+        <v>3.43</v>
       </c>
       <c r="O67" t="inlineStr">
         <is>
@@ -6592,15 +6592,15 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>3.32</v>
+        <v>3.64</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>20/05/2023 23:29</t>
+          <t>20/05/2023 23:28</t>
         </is>
       </c>
       <c r="R67" t="n">
-        <v>2.72</v>
+        <v>3.83</v>
       </c>
       <c r="S67" t="inlineStr">
         <is>
@@ -6608,16 +6608,16 @@
         </is>
       </c>
       <c r="T67" t="n">
-        <v>2.74</v>
+        <v>4.63</v>
       </c>
       <c r="U67" t="inlineStr">
         <is>
-          <t>20/05/2023 22:51</t>
+          <t>20/05/2023 23:28</t>
         </is>
       </c>
       <c r="V67" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/botafogo-rj-fluminense/hGQ148Qs/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/bragantino-athletico-pr/MeEE16A0/</t>
         </is>
       </c>
     </row>
@@ -7013,22 +7013,22 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Athletico-PR</t>
+          <t>Fortaleza</t>
         </is>
       </c>
       <c r="G72" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Gremio</t>
+          <t>Vasco</t>
         </is>
       </c>
       <c r="I72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J72" t="n">
-        <v>2.02</v>
+        <v>1.75</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
@@ -7036,15 +7036,15 @@
         </is>
       </c>
       <c r="L72" t="n">
-        <v>1.64</v>
+        <v>1.68</v>
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>27/05/2023 20:54</t>
+          <t>27/05/2023 20:28</t>
         </is>
       </c>
       <c r="N72" t="n">
-        <v>3.5</v>
+        <v>3.77</v>
       </c>
       <c r="O72" t="inlineStr">
         <is>
@@ -7052,15 +7052,15 @@
         </is>
       </c>
       <c r="P72" t="n">
-        <v>4</v>
+        <v>4.03</v>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>27/05/2023 20:54</t>
+          <t>27/05/2023 20:29</t>
         </is>
       </c>
       <c r="R72" t="n">
-        <v>3.97</v>
+        <v>5.06</v>
       </c>
       <c r="S72" t="inlineStr">
         <is>
@@ -7068,16 +7068,16 @@
         </is>
       </c>
       <c r="T72" t="n">
-        <v>5.9</v>
+        <v>5.3</v>
       </c>
       <c r="U72" t="inlineStr">
         <is>
-          <t>27/05/2023 20:54</t>
+          <t>27/05/2023 20:29</t>
         </is>
       </c>
       <c r="V72" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/athletico-pr-gremio/Uup8BsvP/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/fortaleza-vasco/YDAlKZsP/</t>
         </is>
       </c>
     </row>
@@ -7105,22 +7105,22 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Fortaleza</t>
+          <t>Athletico-PR</t>
         </is>
       </c>
       <c r="G73" t="n">
+        <v>1</v>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>Gremio</t>
+        </is>
+      </c>
+      <c r="I73" t="n">
         <v>2</v>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>Vasco</t>
-        </is>
-      </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
       <c r="J73" t="n">
-        <v>1.75</v>
+        <v>2.02</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
@@ -7128,15 +7128,15 @@
         </is>
       </c>
       <c r="L73" t="n">
-        <v>1.68</v>
+        <v>1.64</v>
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>27/05/2023 20:28</t>
+          <t>27/05/2023 20:54</t>
         </is>
       </c>
       <c r="N73" t="n">
-        <v>3.77</v>
+        <v>3.5</v>
       </c>
       <c r="O73" t="inlineStr">
         <is>
@@ -7144,15 +7144,15 @@
         </is>
       </c>
       <c r="P73" t="n">
-        <v>4.03</v>
+        <v>4</v>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>27/05/2023 20:29</t>
+          <t>27/05/2023 20:54</t>
         </is>
       </c>
       <c r="R73" t="n">
-        <v>5.06</v>
+        <v>3.97</v>
       </c>
       <c r="S73" t="inlineStr">
         <is>
@@ -7160,16 +7160,16 @@
         </is>
       </c>
       <c r="T73" t="n">
-        <v>5.3</v>
+        <v>5.9</v>
       </c>
       <c r="U73" t="inlineStr">
         <is>
-          <t>27/05/2023 20:29</t>
+          <t>27/05/2023 20:54</t>
         </is>
       </c>
       <c r="V73" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/fortaleza-vasco/YDAlKZsP/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/athletico-pr-gremio/Uup8BsvP/</t>
         </is>
       </c>
     </row>
@@ -11245,71 +11245,71 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>Bragantino</t>
+          <t>America MG</t>
         </is>
       </c>
       <c r="G118" t="n">
+        <v>1</v>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>Internacional</t>
+        </is>
+      </c>
+      <c r="I118" t="n">
         <v>2</v>
       </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>Goias</t>
-        </is>
-      </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
       <c r="J118" t="n">
-        <v>1.43</v>
+        <v>2.43</v>
       </c>
       <c r="K118" t="inlineStr">
         <is>
-          <t>18/06/2023 23:41</t>
+          <t>23/06/2023 01:11</t>
         </is>
       </c>
       <c r="L118" t="n">
-        <v>1.43</v>
+        <v>2.01</v>
       </c>
       <c r="M118" t="inlineStr">
         <is>
-          <t>25/06/2023 23:26</t>
+          <t>25/06/2023 23:25</t>
         </is>
       </c>
       <c r="N118" t="n">
-        <v>4.8</v>
+        <v>3.32</v>
       </c>
       <c r="O118" t="inlineStr">
         <is>
-          <t>18/06/2023 23:41</t>
+          <t>23/06/2023 01:11</t>
         </is>
       </c>
       <c r="P118" t="n">
-        <v>4.79</v>
+        <v>3.46</v>
       </c>
       <c r="Q118" t="inlineStr">
         <is>
+          <t>25/06/2023 23:27</t>
+        </is>
+      </c>
+      <c r="R118" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="S118" t="inlineStr">
+        <is>
+          <t>23/06/2023 01:11</t>
+        </is>
+      </c>
+      <c r="T118" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="U118" t="inlineStr">
+        <is>
           <t>25/06/2023 23:28</t>
         </is>
       </c>
-      <c r="R118" t="n">
-        <v>7.69</v>
-      </c>
-      <c r="S118" t="inlineStr">
-        <is>
-          <t>18/06/2023 23:41</t>
-        </is>
-      </c>
-      <c r="T118" t="n">
-        <v>8.140000000000001</v>
-      </c>
-      <c r="U118" t="inlineStr">
-        <is>
-          <t>25/06/2023 23:28</t>
-        </is>
-      </c>
       <c r="V118" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/bragantino-goias/hKp0WxXl/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/america-mg-internacional/IJiiiv9E/</t>
         </is>
       </c>
     </row>
@@ -11337,62 +11337,62 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>America MG</t>
+          <t>Bragantino</t>
         </is>
       </c>
       <c r="G119" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Internacional</t>
+          <t>Goias</t>
         </is>
       </c>
       <c r="I119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J119" t="n">
-        <v>2.43</v>
+        <v>1.43</v>
       </c>
       <c r="K119" t="inlineStr">
         <is>
-          <t>23/06/2023 01:11</t>
+          <t>18/06/2023 23:41</t>
         </is>
       </c>
       <c r="L119" t="n">
-        <v>2.01</v>
+        <v>1.43</v>
       </c>
       <c r="M119" t="inlineStr">
         <is>
-          <t>25/06/2023 23:25</t>
+          <t>25/06/2023 23:26</t>
         </is>
       </c>
       <c r="N119" t="n">
-        <v>3.32</v>
+        <v>4.8</v>
       </c>
       <c r="O119" t="inlineStr">
         <is>
-          <t>23/06/2023 01:11</t>
+          <t>18/06/2023 23:41</t>
         </is>
       </c>
       <c r="P119" t="n">
-        <v>3.46</v>
+        <v>4.79</v>
       </c>
       <c r="Q119" t="inlineStr">
         <is>
-          <t>25/06/2023 23:27</t>
+          <t>25/06/2023 23:28</t>
         </is>
       </c>
       <c r="R119" t="n">
-        <v>3.13</v>
+        <v>7.69</v>
       </c>
       <c r="S119" t="inlineStr">
         <is>
-          <t>23/06/2023 01:11</t>
+          <t>18/06/2023 23:41</t>
         </is>
       </c>
       <c r="T119" t="n">
-        <v>4.14</v>
+        <v>8.140000000000001</v>
       </c>
       <c r="U119" t="inlineStr">
         <is>
@@ -11401,7 +11401,7 @@
       </c>
       <c r="V119" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/america-mg-internacional/IJiiiv9E/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/bragantino-goias/hKp0WxXl/</t>
         </is>
       </c>
     </row>
@@ -12165,7 +12165,7 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>Atletico-MG</t>
+          <t>Botafogo RJ</t>
         </is>
       </c>
       <c r="G128" t="n">
@@ -12173,63 +12173,63 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>America MG</t>
+          <t>Vasco</t>
         </is>
       </c>
       <c r="I128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J128" t="n">
-        <v>1.37</v>
+        <v>1.75</v>
       </c>
       <c r="K128" t="inlineStr">
         <is>
-          <t>25/06/2023 23:41</t>
+          <t>27/06/2023 02:11</t>
         </is>
       </c>
       <c r="L128" t="n">
-        <v>1.54</v>
+        <v>1.97</v>
       </c>
       <c r="M128" t="inlineStr">
         <is>
-          <t>02/07/2023 20:53</t>
+          <t>02/07/2023 20:58</t>
         </is>
       </c>
       <c r="N128" t="n">
-        <v>5.28</v>
+        <v>3.68</v>
       </c>
       <c r="O128" t="inlineStr">
         <is>
-          <t>25/06/2023 23:41</t>
+          <t>27/06/2023 02:11</t>
         </is>
       </c>
       <c r="P128" t="n">
-        <v>4.01</v>
+        <v>3.41</v>
       </c>
       <c r="Q128" t="inlineStr">
         <is>
-          <t>02/07/2023 20:54</t>
+          <t>02/07/2023 20:58</t>
         </is>
       </c>
       <c r="R128" t="n">
-        <v>8.81</v>
+        <v>5.27</v>
       </c>
       <c r="S128" t="inlineStr">
         <is>
-          <t>25/06/2023 23:41</t>
+          <t>27/06/2023 02:11</t>
         </is>
       </c>
       <c r="T128" t="n">
-        <v>7.6</v>
+        <v>4.37</v>
       </c>
       <c r="U128" t="inlineStr">
         <is>
-          <t>02/07/2023 20:54</t>
+          <t>02/07/2023 20:58</t>
         </is>
       </c>
       <c r="V128" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/atletico-mg-america-mg/IszvrzW0/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/botafogo-rj-vasco/QqeakIwR/</t>
         </is>
       </c>
     </row>
@@ -12257,7 +12257,7 @@
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>Botafogo RJ</t>
+          <t>Atletico-MG</t>
         </is>
       </c>
       <c r="G129" t="n">
@@ -12265,63 +12265,63 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>Vasco</t>
+          <t>America MG</t>
         </is>
       </c>
       <c r="I129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J129" t="n">
-        <v>1.75</v>
+        <v>1.37</v>
       </c>
       <c r="K129" t="inlineStr">
         <is>
-          <t>27/06/2023 02:11</t>
+          <t>25/06/2023 23:41</t>
         </is>
       </c>
       <c r="L129" t="n">
-        <v>1.97</v>
+        <v>1.54</v>
       </c>
       <c r="M129" t="inlineStr">
         <is>
-          <t>02/07/2023 20:58</t>
+          <t>02/07/2023 20:53</t>
         </is>
       </c>
       <c r="N129" t="n">
-        <v>3.68</v>
+        <v>5.28</v>
       </c>
       <c r="O129" t="inlineStr">
         <is>
-          <t>27/06/2023 02:11</t>
+          <t>25/06/2023 23:41</t>
         </is>
       </c>
       <c r="P129" t="n">
-        <v>3.41</v>
+        <v>4.01</v>
       </c>
       <c r="Q129" t="inlineStr">
         <is>
-          <t>02/07/2023 20:58</t>
+          <t>02/07/2023 20:54</t>
         </is>
       </c>
       <c r="R129" t="n">
-        <v>5.27</v>
+        <v>8.81</v>
       </c>
       <c r="S129" t="inlineStr">
         <is>
-          <t>27/06/2023 02:11</t>
+          <t>25/06/2023 23:41</t>
         </is>
       </c>
       <c r="T129" t="n">
-        <v>4.37</v>
+        <v>7.6</v>
       </c>
       <c r="U129" t="inlineStr">
         <is>
-          <t>02/07/2023 20:58</t>
+          <t>02/07/2023 20:54</t>
         </is>
       </c>
       <c r="V129" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/botafogo-rj-vasco/QqeakIwR/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/atletico-mg-america-mg/IszvrzW0/</t>
         </is>
       </c>
     </row>
@@ -13085,71 +13085,71 @@
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>Fluminense</t>
+          <t>Bragantino</t>
         </is>
       </c>
       <c r="G138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Internacional</t>
+          <t>Sao Paulo</t>
         </is>
       </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
       <c r="J138" t="n">
-        <v>1.65</v>
+        <v>1.82</v>
       </c>
       <c r="K138" t="inlineStr">
         <is>
-          <t>02/07/2023 06:12</t>
+          <t>02/07/2023 21:12</t>
         </is>
       </c>
       <c r="L138" t="n">
-        <v>1.93</v>
+        <v>1.68</v>
       </c>
       <c r="M138" t="inlineStr">
         <is>
-          <t>09/07/2023 20:57</t>
+          <t>09/07/2023 20:59</t>
         </is>
       </c>
       <c r="N138" t="n">
-        <v>3.91</v>
+        <v>3.77</v>
       </c>
       <c r="O138" t="inlineStr">
         <is>
-          <t>02/07/2023 06:12</t>
+          <t>02/07/2023 21:12</t>
         </is>
       </c>
       <c r="P138" t="n">
-        <v>3.44</v>
+        <v>3.81</v>
       </c>
       <c r="Q138" t="inlineStr">
         <is>
-          <t>09/07/2023 20:57</t>
+          <t>09/07/2023 20:44</t>
         </is>
       </c>
       <c r="R138" t="n">
-        <v>5.79</v>
+        <v>4.42</v>
       </c>
       <c r="S138" t="inlineStr">
         <is>
-          <t>02/07/2023 06:12</t>
+          <t>02/07/2023 21:12</t>
         </is>
       </c>
       <c r="T138" t="n">
-        <v>4.58</v>
+        <v>5.75</v>
       </c>
       <c r="U138" t="inlineStr">
         <is>
-          <t>09/07/2023 20:57</t>
+          <t>09/07/2023 20:59</t>
         </is>
       </c>
       <c r="V138" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/fluminense-internacional/8MPx3y8Q/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/bragantino-sao-paulo/0K4Heg00/</t>
         </is>
       </c>
     </row>
@@ -13177,71 +13177,71 @@
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>Bragantino</t>
+          <t>Fluminense</t>
         </is>
       </c>
       <c r="G139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>Sao Paulo</t>
+          <t>Internacional</t>
         </is>
       </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
       <c r="J139" t="n">
-        <v>1.82</v>
+        <v>1.65</v>
       </c>
       <c r="K139" t="inlineStr">
         <is>
-          <t>02/07/2023 21:12</t>
+          <t>02/07/2023 06:12</t>
         </is>
       </c>
       <c r="L139" t="n">
-        <v>1.68</v>
+        <v>1.93</v>
       </c>
       <c r="M139" t="inlineStr">
         <is>
-          <t>09/07/2023 20:59</t>
+          <t>09/07/2023 20:57</t>
         </is>
       </c>
       <c r="N139" t="n">
-        <v>3.77</v>
+        <v>3.91</v>
       </c>
       <c r="O139" t="inlineStr">
         <is>
-          <t>02/07/2023 21:12</t>
+          <t>02/07/2023 06:12</t>
         </is>
       </c>
       <c r="P139" t="n">
-        <v>3.81</v>
+        <v>3.44</v>
       </c>
       <c r="Q139" t="inlineStr">
         <is>
-          <t>09/07/2023 20:44</t>
+          <t>09/07/2023 20:57</t>
         </is>
       </c>
       <c r="R139" t="n">
-        <v>4.42</v>
+        <v>5.79</v>
       </c>
       <c r="S139" t="inlineStr">
         <is>
-          <t>02/07/2023 21:12</t>
+          <t>02/07/2023 06:12</t>
         </is>
       </c>
       <c r="T139" t="n">
-        <v>5.75</v>
+        <v>4.58</v>
       </c>
       <c r="U139" t="inlineStr">
         <is>
-          <t>09/07/2023 20:59</t>
+          <t>09/07/2023 20:57</t>
         </is>
       </c>
       <c r="V139" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/bragantino-sao-paulo/0K4Heg00/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/fluminense-internacional/8MPx3y8Q/</t>
         </is>
       </c>
     </row>
@@ -14189,71 +14189,71 @@
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>Palmeiras</t>
+          <t>Flamengo RJ</t>
         </is>
       </c>
       <c r="G150" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>Fortaleza</t>
+          <t>America MG</t>
         </is>
       </c>
       <c r="I150" t="n">
         <v>1</v>
       </c>
       <c r="J150" t="n">
-        <v>1.58</v>
+        <v>1.38</v>
       </c>
       <c r="K150" t="inlineStr">
         <is>
-          <t>16/07/2023 23:42</t>
+          <t>16/07/2023 21:12</t>
         </is>
       </c>
       <c r="L150" t="n">
-        <v>1.55</v>
+        <v>1.35</v>
       </c>
       <c r="M150" t="inlineStr">
         <is>
-          <t>22/07/2023 20:50</t>
+          <t>22/07/2023 20:57</t>
         </is>
       </c>
       <c r="N150" t="n">
-        <v>4.23</v>
+        <v>5.28</v>
       </c>
       <c r="O150" t="inlineStr">
         <is>
-          <t>16/07/2023 23:42</t>
+          <t>16/07/2023 21:12</t>
         </is>
       </c>
       <c r="P150" t="n">
-        <v>4.05</v>
+        <v>5.17</v>
       </c>
       <c r="Q150" t="inlineStr">
         <is>
-          <t>22/07/2023 20:50</t>
+          <t>22/07/2023 20:59</t>
         </is>
       </c>
       <c r="R150" t="n">
-        <v>5.78</v>
+        <v>7.6</v>
       </c>
       <c r="S150" t="inlineStr">
         <is>
-          <t>16/07/2023 23:42</t>
+          <t>16/07/2023 21:12</t>
         </is>
       </c>
       <c r="T150" t="n">
-        <v>7.15</v>
+        <v>10.13</v>
       </c>
       <c r="U150" t="inlineStr">
         <is>
-          <t>22/07/2023 20:50</t>
+          <t>22/07/2023 20:59</t>
         </is>
       </c>
       <c r="V150" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/palmeiras-fortaleza/GEPZ9qLA/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/flamengo-rj-america-mg/8lMRB5jb/</t>
         </is>
       </c>
     </row>
@@ -14281,71 +14281,71 @@
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>Flamengo RJ</t>
+          <t>Palmeiras</t>
         </is>
       </c>
       <c r="G151" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>America MG</t>
+          <t>Fortaleza</t>
         </is>
       </c>
       <c r="I151" t="n">
         <v>1</v>
       </c>
       <c r="J151" t="n">
-        <v>1.38</v>
+        <v>1.58</v>
       </c>
       <c r="K151" t="inlineStr">
         <is>
-          <t>16/07/2023 21:12</t>
+          <t>16/07/2023 23:42</t>
         </is>
       </c>
       <c r="L151" t="n">
-        <v>1.35</v>
+        <v>1.55</v>
       </c>
       <c r="M151" t="inlineStr">
         <is>
-          <t>22/07/2023 20:57</t>
+          <t>22/07/2023 20:50</t>
         </is>
       </c>
       <c r="N151" t="n">
-        <v>5.28</v>
+        <v>4.23</v>
       </c>
       <c r="O151" t="inlineStr">
         <is>
-          <t>16/07/2023 21:12</t>
+          <t>16/07/2023 23:42</t>
         </is>
       </c>
       <c r="P151" t="n">
-        <v>5.17</v>
+        <v>4.05</v>
       </c>
       <c r="Q151" t="inlineStr">
         <is>
-          <t>22/07/2023 20:59</t>
+          <t>22/07/2023 20:50</t>
         </is>
       </c>
       <c r="R151" t="n">
-        <v>7.6</v>
+        <v>5.78</v>
       </c>
       <c r="S151" t="inlineStr">
         <is>
-          <t>16/07/2023 21:12</t>
+          <t>16/07/2023 23:42</t>
         </is>
       </c>
       <c r="T151" t="n">
-        <v>10.13</v>
+        <v>7.15</v>
       </c>
       <c r="U151" t="inlineStr">
         <is>
-          <t>22/07/2023 20:59</t>
+          <t>22/07/2023 20:50</t>
         </is>
       </c>
       <c r="V151" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/flamengo-rj-america-mg/8lMRB5jb/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/palmeiras-fortaleza/GEPZ9qLA/</t>
         </is>
       </c>
     </row>
@@ -14649,71 +14649,71 @@
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>Santos</t>
+          <t>Cruzeiro</t>
         </is>
       </c>
       <c r="G155" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>Botafogo RJ</t>
+          <t>Goias</t>
         </is>
       </c>
       <c r="I155" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J155" t="n">
-        <v>2.87</v>
+        <v>1.63</v>
       </c>
       <c r="K155" t="inlineStr">
         <is>
-          <t>16/07/2023 21:12</t>
+          <t>18/07/2023 01:12</t>
         </is>
       </c>
       <c r="L155" t="n">
-        <v>2.99</v>
+        <v>1.54</v>
       </c>
       <c r="M155" t="inlineStr">
         <is>
-          <t>23/07/2023 20:59</t>
+          <t>23/07/2023 20:53</t>
         </is>
       </c>
       <c r="N155" t="n">
-        <v>3</v>
+        <v>3.82</v>
       </c>
       <c r="O155" t="inlineStr">
         <is>
-          <t>16/07/2023 21:12</t>
+          <t>18/07/2023 01:12</t>
         </is>
       </c>
       <c r="P155" t="n">
-        <v>2.97</v>
+        <v>4.05</v>
       </c>
       <c r="Q155" t="inlineStr">
         <is>
-          <t>23/07/2023 20:48</t>
+          <t>23/07/2023 20:55</t>
         </is>
       </c>
       <c r="R155" t="n">
-        <v>2.8</v>
+        <v>5.9</v>
       </c>
       <c r="S155" t="inlineStr">
         <is>
-          <t>16/07/2023 21:12</t>
+          <t>18/07/2023 01:12</t>
         </is>
       </c>
       <c r="T155" t="n">
-        <v>2.81</v>
+        <v>7.32</v>
       </c>
       <c r="U155" t="inlineStr">
         <is>
-          <t>23/07/2023 20:58</t>
+          <t>23/07/2023 20:55</t>
         </is>
       </c>
       <c r="V155" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/santos-botafogo-rj/f5Ow93zH/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/cruzeiro-goias/0Igv7s5T/</t>
         </is>
       </c>
     </row>
@@ -14741,7 +14741,7 @@
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>Cruzeiro</t>
+          <t>Bragantino</t>
         </is>
       </c>
       <c r="G156" t="n">
@@ -14749,63 +14749,63 @@
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>Goias</t>
+          <t>Internacional</t>
         </is>
       </c>
       <c r="I156" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J156" t="n">
-        <v>1.63</v>
+        <v>1.83</v>
       </c>
       <c r="K156" t="inlineStr">
         <is>
-          <t>18/07/2023 01:12</t>
+          <t>16/07/2023 23:42</t>
         </is>
       </c>
       <c r="L156" t="n">
-        <v>1.54</v>
+        <v>1.75</v>
       </c>
       <c r="M156" t="inlineStr">
         <is>
-          <t>23/07/2023 20:53</t>
+          <t>23/07/2023 20:59</t>
         </is>
       </c>
       <c r="N156" t="n">
-        <v>3.82</v>
+        <v>3.62</v>
       </c>
       <c r="O156" t="inlineStr">
         <is>
-          <t>18/07/2023 01:12</t>
+          <t>16/07/2023 23:42</t>
         </is>
       </c>
       <c r="P156" t="n">
-        <v>4.05</v>
+        <v>3.72</v>
       </c>
       <c r="Q156" t="inlineStr">
         <is>
-          <t>23/07/2023 20:55</t>
+          <t>23/07/2023 20:59</t>
         </is>
       </c>
       <c r="R156" t="n">
-        <v>5.9</v>
+        <v>4.59</v>
       </c>
       <c r="S156" t="inlineStr">
         <is>
-          <t>18/07/2023 01:12</t>
+          <t>16/07/2023 23:42</t>
         </is>
       </c>
       <c r="T156" t="n">
-        <v>7.32</v>
+        <v>5.31</v>
       </c>
       <c r="U156" t="inlineStr">
         <is>
-          <t>23/07/2023 20:55</t>
+          <t>23/07/2023 20:59</t>
         </is>
       </c>
       <c r="V156" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/cruzeiro-goias/0Igv7s5T/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/bragantino-internacional/MRfz8NkN/</t>
         </is>
       </c>
     </row>
@@ -14833,30 +14833,30 @@
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>Bragantino</t>
+          <t>Santos</t>
         </is>
       </c>
       <c r="G157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>Internacional</t>
+          <t>Botafogo RJ</t>
         </is>
       </c>
       <c r="I157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J157" t="n">
-        <v>1.83</v>
+        <v>2.87</v>
       </c>
       <c r="K157" t="inlineStr">
         <is>
-          <t>16/07/2023 23:42</t>
+          <t>16/07/2023 21:12</t>
         </is>
       </c>
       <c r="L157" t="n">
-        <v>1.75</v>
+        <v>2.99</v>
       </c>
       <c r="M157" t="inlineStr">
         <is>
@@ -14864,40 +14864,40 @@
         </is>
       </c>
       <c r="N157" t="n">
-        <v>3.62</v>
+        <v>3</v>
       </c>
       <c r="O157" t="inlineStr">
         <is>
-          <t>16/07/2023 23:42</t>
+          <t>16/07/2023 21:12</t>
         </is>
       </c>
       <c r="P157" t="n">
-        <v>3.72</v>
+        <v>2.97</v>
       </c>
       <c r="Q157" t="inlineStr">
         <is>
-          <t>23/07/2023 20:59</t>
+          <t>23/07/2023 20:48</t>
         </is>
       </c>
       <c r="R157" t="n">
-        <v>4.59</v>
+        <v>2.8</v>
       </c>
       <c r="S157" t="inlineStr">
         <is>
-          <t>16/07/2023 23:42</t>
+          <t>16/07/2023 21:12</t>
         </is>
       </c>
       <c r="T157" t="n">
-        <v>5.31</v>
+        <v>2.81</v>
       </c>
       <c r="U157" t="inlineStr">
         <is>
-          <t>23/07/2023 20:59</t>
+          <t>23/07/2023 20:58</t>
         </is>
       </c>
       <c r="V157" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/bragantino-internacional/MRfz8NkN/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/santos-botafogo-rj/f5Ow93zH/</t>
         </is>
       </c>
     </row>
@@ -15385,30 +15385,30 @@
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>Corinthians</t>
+          <t>Fortaleza</t>
         </is>
       </c>
       <c r="G163" t="n">
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>Bragantino</t>
+        </is>
+      </c>
+      <c r="I163" t="n">
         <v>3</v>
       </c>
-      <c r="H163" t="inlineStr">
-        <is>
-          <t>Vasco</t>
-        </is>
-      </c>
-      <c r="I163" t="n">
-        <v>1</v>
-      </c>
       <c r="J163" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="K163" t="inlineStr">
         <is>
-          <t>23/07/2023 23:42</t>
+          <t>24/07/2023 04:12</t>
         </is>
       </c>
       <c r="L163" t="n">
-        <v>2.1</v>
+        <v>2.22</v>
       </c>
       <c r="M163" t="inlineStr">
         <is>
@@ -15416,15 +15416,15 @@
         </is>
       </c>
       <c r="N163" t="n">
-        <v>3.33</v>
+        <v>3.49</v>
       </c>
       <c r="O163" t="inlineStr">
         <is>
-          <t>23/07/2023 23:42</t>
+          <t>24/07/2023 04:12</t>
         </is>
       </c>
       <c r="P163" t="n">
-        <v>3.13</v>
+        <v>3.35</v>
       </c>
       <c r="Q163" t="inlineStr">
         <is>
@@ -15432,24 +15432,24 @@
         </is>
       </c>
       <c r="R163" t="n">
-        <v>4.66</v>
+        <v>4.2</v>
       </c>
       <c r="S163" t="inlineStr">
         <is>
-          <t>23/07/2023 23:42</t>
+          <t>24/07/2023 04:12</t>
         </is>
       </c>
       <c r="T163" t="n">
-        <v>4.32</v>
+        <v>3.59</v>
       </c>
       <c r="U163" t="inlineStr">
         <is>
-          <t>29/07/2023 23:26</t>
+          <t>29/07/2023 23:28</t>
         </is>
       </c>
       <c r="V163" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/corinthians-vasco/ELJDLtKM/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/fortaleza-bragantino/KMnzwrkc/</t>
         </is>
       </c>
     </row>
@@ -15477,30 +15477,30 @@
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>Fortaleza</t>
+          <t>Corinthians</t>
         </is>
       </c>
       <c r="G164" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>Bragantino</t>
+          <t>Vasco</t>
         </is>
       </c>
       <c r="I164" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J164" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="K164" t="inlineStr">
         <is>
-          <t>24/07/2023 04:12</t>
+          <t>23/07/2023 23:42</t>
         </is>
       </c>
       <c r="L164" t="n">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="M164" t="inlineStr">
         <is>
@@ -15508,15 +15508,15 @@
         </is>
       </c>
       <c r="N164" t="n">
-        <v>3.49</v>
+        <v>3.33</v>
       </c>
       <c r="O164" t="inlineStr">
         <is>
-          <t>24/07/2023 04:12</t>
+          <t>23/07/2023 23:42</t>
         </is>
       </c>
       <c r="P164" t="n">
-        <v>3.35</v>
+        <v>3.13</v>
       </c>
       <c r="Q164" t="inlineStr">
         <is>
@@ -15524,24 +15524,24 @@
         </is>
       </c>
       <c r="R164" t="n">
-        <v>4.2</v>
+        <v>4.66</v>
       </c>
       <c r="S164" t="inlineStr">
         <is>
-          <t>24/07/2023 04:12</t>
+          <t>23/07/2023 23:42</t>
         </is>
       </c>
       <c r="T164" t="n">
-        <v>3.59</v>
+        <v>4.32</v>
       </c>
       <c r="U164" t="inlineStr">
         <is>
-          <t>29/07/2023 23:28</t>
+          <t>29/07/2023 23:26</t>
         </is>
       </c>
       <c r="V164" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/fortaleza-bragantino/KMnzwrkc/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/corinthians-vasco/ELJDLtKM/</t>
         </is>
       </c>
     </row>
@@ -16121,22 +16121,22 @@
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>Internacional</t>
+          <t>Goias</t>
         </is>
       </c>
       <c r="G171" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>Corinthians</t>
+          <t>Fortaleza</t>
         </is>
       </c>
       <c r="I171" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J171" t="n">
-        <v>1.98</v>
+        <v>2.76</v>
       </c>
       <c r="K171" t="inlineStr">
         <is>
@@ -16144,15 +16144,15 @@
         </is>
       </c>
       <c r="L171" t="n">
-        <v>2.32</v>
+        <v>2.73</v>
       </c>
       <c r="M171" t="inlineStr">
         <is>
-          <t>05/08/2023 23:25</t>
+          <t>05/08/2023 23:21</t>
         </is>
       </c>
       <c r="N171" t="n">
-        <v>3.23</v>
+        <v>3.35</v>
       </c>
       <c r="O171" t="inlineStr">
         <is>
@@ -16160,15 +16160,15 @@
         </is>
       </c>
       <c r="P171" t="n">
-        <v>2.97</v>
+        <v>3.05</v>
       </c>
       <c r="Q171" t="inlineStr">
         <is>
-          <t>05/08/2023 23:25</t>
+          <t>05/08/2023 23:21</t>
         </is>
       </c>
       <c r="R171" t="n">
-        <v>4.45</v>
+        <v>2.65</v>
       </c>
       <c r="S171" t="inlineStr">
         <is>
@@ -16176,16 +16176,16 @@
         </is>
       </c>
       <c r="T171" t="n">
-        <v>3.83</v>
+        <v>3</v>
       </c>
       <c r="U171" t="inlineStr">
         <is>
-          <t>05/08/2023 23:29</t>
+          <t>05/08/2023 23:28</t>
         </is>
       </c>
       <c r="V171" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/internacional-corinthians/f3JVRHtd/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/goias-fortaleza/nwGNTwCq/</t>
         </is>
       </c>
     </row>
@@ -16213,22 +16213,22 @@
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>Goias</t>
+          <t>Internacional</t>
         </is>
       </c>
       <c r="G172" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>Fortaleza</t>
+          <t>Corinthians</t>
         </is>
       </c>
       <c r="I172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J172" t="n">
-        <v>2.76</v>
+        <v>1.98</v>
       </c>
       <c r="K172" t="inlineStr">
         <is>
@@ -16236,15 +16236,15 @@
         </is>
       </c>
       <c r="L172" t="n">
-        <v>2.73</v>
+        <v>2.32</v>
       </c>
       <c r="M172" t="inlineStr">
         <is>
-          <t>05/08/2023 23:21</t>
+          <t>05/08/2023 23:25</t>
         </is>
       </c>
       <c r="N172" t="n">
-        <v>3.35</v>
+        <v>3.23</v>
       </c>
       <c r="O172" t="inlineStr">
         <is>
@@ -16252,15 +16252,15 @@
         </is>
       </c>
       <c r="P172" t="n">
-        <v>3.05</v>
+        <v>2.97</v>
       </c>
       <c r="Q172" t="inlineStr">
         <is>
-          <t>05/08/2023 23:21</t>
+          <t>05/08/2023 23:25</t>
         </is>
       </c>
       <c r="R172" t="n">
-        <v>2.65</v>
+        <v>4.45</v>
       </c>
       <c r="S172" t="inlineStr">
         <is>
@@ -16268,16 +16268,16 @@
         </is>
       </c>
       <c r="T172" t="n">
-        <v>3</v>
+        <v>3.83</v>
       </c>
       <c r="U172" t="inlineStr">
         <is>
-          <t>05/08/2023 23:28</t>
+          <t>05/08/2023 23:29</t>
         </is>
       </c>
       <c r="V172" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/goias-fortaleza/nwGNTwCq/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/internacional-corinthians/f3JVRHtd/</t>
         </is>
       </c>
     </row>
@@ -16397,71 +16397,71 @@
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>Vasco</t>
+          <t>Sao Paulo</t>
         </is>
       </c>
       <c r="G174" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>Gremio</t>
+          <t>Atletico-MG</t>
         </is>
       </c>
       <c r="I174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J174" t="n">
-        <v>2.82</v>
+        <v>2.21</v>
       </c>
       <c r="K174" t="inlineStr">
         <is>
-          <t>30/07/2023 23:41</t>
+          <t>31/07/2023 02:12</t>
         </is>
       </c>
       <c r="L174" t="n">
-        <v>2.74</v>
+        <v>1.99</v>
       </c>
       <c r="M174" t="inlineStr">
         <is>
-          <t>06/08/2023 20:58</t>
+          <t>06/08/2023 20:31</t>
         </is>
       </c>
       <c r="N174" t="n">
-        <v>3.24</v>
+        <v>3.17</v>
       </c>
       <c r="O174" t="inlineStr">
         <is>
-          <t>30/07/2023 23:41</t>
+          <t>31/07/2023 02:12</t>
         </is>
       </c>
       <c r="P174" t="n">
-        <v>3.11</v>
+        <v>3.36</v>
       </c>
       <c r="Q174" t="inlineStr">
         <is>
-          <t>06/08/2023 20:59</t>
+          <t>06/08/2023 20:55</t>
         </is>
       </c>
       <c r="R174" t="n">
-        <v>2.72</v>
+        <v>3.7</v>
       </c>
       <c r="S174" t="inlineStr">
         <is>
-          <t>30/07/2023 23:41</t>
+          <t>31/07/2023 02:12</t>
         </is>
       </c>
       <c r="T174" t="n">
-        <v>2.93</v>
+        <v>4.7</v>
       </c>
       <c r="U174" t="inlineStr">
         <is>
-          <t>06/08/2023 20:58</t>
+          <t>06/08/2023 20:57</t>
         </is>
       </c>
       <c r="V174" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/vasco-gremio/fuumztZF/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/sao-paulo-atletico-mg/25viZalM/</t>
         </is>
       </c>
     </row>
@@ -16489,71 +16489,71 @@
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>Sao Paulo</t>
+          <t>Vasco</t>
         </is>
       </c>
       <c r="G175" t="n">
+        <v>1</v>
+      </c>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>Gremio</t>
+        </is>
+      </c>
+      <c r="I175" t="n">
         <v>0</v>
       </c>
-      <c r="H175" t="inlineStr">
-        <is>
-          <t>Atletico-MG</t>
-        </is>
-      </c>
-      <c r="I175" t="n">
-        <v>2</v>
-      </c>
       <c r="J175" t="n">
-        <v>2.21</v>
+        <v>2.82</v>
       </c>
       <c r="K175" t="inlineStr">
         <is>
-          <t>31/07/2023 02:12</t>
+          <t>30/07/2023 23:41</t>
         </is>
       </c>
       <c r="L175" t="n">
-        <v>1.99</v>
+        <v>2.74</v>
       </c>
       <c r="M175" t="inlineStr">
         <is>
-          <t>06/08/2023 20:31</t>
+          <t>06/08/2023 20:58</t>
         </is>
       </c>
       <c r="N175" t="n">
-        <v>3.17</v>
+        <v>3.24</v>
       </c>
       <c r="O175" t="inlineStr">
         <is>
-          <t>31/07/2023 02:12</t>
+          <t>30/07/2023 23:41</t>
         </is>
       </c>
       <c r="P175" t="n">
-        <v>3.36</v>
+        <v>3.11</v>
       </c>
       <c r="Q175" t="inlineStr">
         <is>
-          <t>06/08/2023 20:55</t>
+          <t>06/08/2023 20:59</t>
         </is>
       </c>
       <c r="R175" t="n">
-        <v>3.7</v>
+        <v>2.72</v>
       </c>
       <c r="S175" t="inlineStr">
         <is>
-          <t>31/07/2023 02:12</t>
+          <t>30/07/2023 23:41</t>
         </is>
       </c>
       <c r="T175" t="n">
-        <v>4.7</v>
+        <v>2.93</v>
       </c>
       <c r="U175" t="inlineStr">
         <is>
-          <t>06/08/2023 20:57</t>
+          <t>06/08/2023 20:58</t>
         </is>
       </c>
       <c r="V175" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/sao-paulo-atletico-mg/25viZalM/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/vasco-gremio/fuumztZF/</t>
         </is>
       </c>
     </row>
@@ -17869,7 +17869,7 @@
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>Internacional</t>
+          <t>Sao Paulo</t>
         </is>
       </c>
       <c r="G190" t="n">
@@ -17877,14 +17877,14 @@
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>Fortaleza</t>
+          <t>Botafogo RJ</t>
         </is>
       </c>
       <c r="I190" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J190" t="n">
-        <v>2.13</v>
+        <v>1.97</v>
       </c>
       <c r="K190" t="inlineStr">
         <is>
@@ -17892,15 +17892,15 @@
         </is>
       </c>
       <c r="L190" t="n">
-        <v>2.43</v>
+        <v>1.95</v>
       </c>
       <c r="M190" t="inlineStr">
         <is>
-          <t>19/08/2023 20:56</t>
+          <t>19/08/2023 20:59</t>
         </is>
       </c>
       <c r="N190" t="n">
-        <v>3.28</v>
+        <v>3.41</v>
       </c>
       <c r="O190" t="inlineStr">
         <is>
@@ -17908,15 +17908,15 @@
         </is>
       </c>
       <c r="P190" t="n">
-        <v>3.14</v>
+        <v>3.52</v>
       </c>
       <c r="Q190" t="inlineStr">
         <is>
-          <t>19/08/2023 20:58</t>
+          <t>19/08/2023 20:59</t>
         </is>
       </c>
       <c r="R190" t="n">
-        <v>3.88</v>
+        <v>4.31</v>
       </c>
       <c r="S190" t="inlineStr">
         <is>
@@ -17924,16 +17924,16 @@
         </is>
       </c>
       <c r="T190" t="n">
-        <v>3.37</v>
+        <v>4.28</v>
       </c>
       <c r="U190" t="inlineStr">
         <is>
-          <t>19/08/2023 20:56</t>
+          <t>19/08/2023 20:59</t>
         </is>
       </c>
       <c r="V190" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/internacional-fortaleza/vm1nOfcI/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/sao-paulo-botafogo-rj/ze4VRxbg/</t>
         </is>
       </c>
     </row>
@@ -17961,7 +17961,7 @@
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>Sao Paulo</t>
+          <t>Internacional</t>
         </is>
       </c>
       <c r="G191" t="n">
@@ -17969,14 +17969,14 @@
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>Botafogo RJ</t>
+          <t>Fortaleza</t>
         </is>
       </c>
       <c r="I191" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J191" t="n">
-        <v>1.97</v>
+        <v>2.13</v>
       </c>
       <c r="K191" t="inlineStr">
         <is>
@@ -17984,15 +17984,15 @@
         </is>
       </c>
       <c r="L191" t="n">
-        <v>1.95</v>
+        <v>2.43</v>
       </c>
       <c r="M191" t="inlineStr">
         <is>
-          <t>19/08/2023 20:59</t>
+          <t>19/08/2023 20:56</t>
         </is>
       </c>
       <c r="N191" t="n">
-        <v>3.41</v>
+        <v>3.28</v>
       </c>
       <c r="O191" t="inlineStr">
         <is>
@@ -18000,15 +18000,15 @@
         </is>
       </c>
       <c r="P191" t="n">
-        <v>3.52</v>
+        <v>3.14</v>
       </c>
       <c r="Q191" t="inlineStr">
         <is>
-          <t>19/08/2023 20:59</t>
+          <t>19/08/2023 20:58</t>
         </is>
       </c>
       <c r="R191" t="n">
-        <v>4.31</v>
+        <v>3.88</v>
       </c>
       <c r="S191" t="inlineStr">
         <is>
@@ -18016,16 +18016,16 @@
         </is>
       </c>
       <c r="T191" t="n">
-        <v>4.28</v>
+        <v>3.37</v>
       </c>
       <c r="U191" t="inlineStr">
         <is>
-          <t>19/08/2023 20:59</t>
+          <t>19/08/2023 20:56</t>
         </is>
       </c>
       <c r="V191" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/sao-paulo-botafogo-rj/ze4VRxbg/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/internacional-fortaleza/vm1nOfcI/</t>
         </is>
       </c>
     </row>
@@ -20537,71 +20537,71 @@
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t>Internacional</t>
+          <t>Flamengo RJ</t>
         </is>
       </c>
       <c r="G219" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H219" t="inlineStr">
         <is>
-          <t>Sao Paulo</t>
+          <t>Athletico-PR</t>
         </is>
       </c>
       <c r="I219" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J219" t="n">
-        <v>2.35</v>
+        <v>1.72</v>
       </c>
       <c r="K219" t="inlineStr">
         <is>
-          <t>04/09/2023 18:12</t>
+          <t>04/09/2023 08:42</t>
         </is>
       </c>
       <c r="L219" t="n">
-        <v>2.71</v>
+        <v>1.81</v>
       </c>
       <c r="M219" t="inlineStr">
         <is>
+          <t>14/09/2023 02:21</t>
+        </is>
+      </c>
+      <c r="N219" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="O219" t="inlineStr">
+        <is>
+          <t>04/09/2023 08:42</t>
+        </is>
+      </c>
+      <c r="P219" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="Q219" t="inlineStr">
+        <is>
+          <t>14/09/2023 02:22</t>
+        </is>
+      </c>
+      <c r="R219" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="S219" t="inlineStr">
+        <is>
+          <t>04/09/2023 08:42</t>
+        </is>
+      </c>
+      <c r="T219" t="n">
+        <v>5.02</v>
+      </c>
+      <c r="U219" t="inlineStr">
+        <is>
           <t>14/09/2023 02:29</t>
         </is>
       </c>
-      <c r="N219" t="n">
-        <v>3.16</v>
-      </c>
-      <c r="O219" t="inlineStr">
-        <is>
-          <t>04/09/2023 18:12</t>
-        </is>
-      </c>
-      <c r="P219" t="n">
-        <v>3.06</v>
-      </c>
-      <c r="Q219" t="inlineStr">
-        <is>
-          <t>14/09/2023 02:21</t>
-        </is>
-      </c>
-      <c r="R219" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="S219" t="inlineStr">
-        <is>
-          <t>04/09/2023 18:12</t>
-        </is>
-      </c>
-      <c r="T219" t="n">
-        <v>3.01</v>
-      </c>
-      <c r="U219" t="inlineStr">
-        <is>
-          <t>14/09/2023 02:29</t>
-        </is>
-      </c>
       <c r="V219" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/internacional-sao-paulo/bVhBq2Pe/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/flamengo-rj-athletico-pr/CEMT5htb/</t>
         </is>
       </c>
     </row>
@@ -20629,62 +20629,62 @@
       </c>
       <c r="F220" t="inlineStr">
         <is>
-          <t>Flamengo RJ</t>
+          <t>Internacional</t>
         </is>
       </c>
       <c r="G220" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H220" t="inlineStr">
         <is>
-          <t>Athletico-PR</t>
+          <t>Sao Paulo</t>
         </is>
       </c>
       <c r="I220" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J220" t="n">
-        <v>1.72</v>
+        <v>2.35</v>
       </c>
       <c r="K220" t="inlineStr">
         <is>
-          <t>04/09/2023 08:42</t>
+          <t>04/09/2023 18:12</t>
         </is>
       </c>
       <c r="L220" t="n">
-        <v>1.81</v>
+        <v>2.71</v>
       </c>
       <c r="M220" t="inlineStr">
         <is>
+          <t>14/09/2023 02:29</t>
+        </is>
+      </c>
+      <c r="N220" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="O220" t="inlineStr">
+        <is>
+          <t>04/09/2023 18:12</t>
+        </is>
+      </c>
+      <c r="P220" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="Q220" t="inlineStr">
+        <is>
           <t>14/09/2023 02:21</t>
         </is>
       </c>
-      <c r="N220" t="n">
-        <v>3.99</v>
-      </c>
-      <c r="O220" t="inlineStr">
-        <is>
-          <t>04/09/2023 08:42</t>
-        </is>
-      </c>
-      <c r="P220" t="n">
-        <v>3.58</v>
-      </c>
-      <c r="Q220" t="inlineStr">
-        <is>
-          <t>14/09/2023 02:22</t>
-        </is>
-      </c>
       <c r="R220" t="n">
-        <v>4.75</v>
+        <v>3.38</v>
       </c>
       <c r="S220" t="inlineStr">
         <is>
-          <t>04/09/2023 08:42</t>
+          <t>04/09/2023 18:12</t>
         </is>
       </c>
       <c r="T220" t="n">
-        <v>5.02</v>
+        <v>3.01</v>
       </c>
       <c r="U220" t="inlineStr">
         <is>
@@ -20693,7 +20693,7 @@
       </c>
       <c r="V220" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/flamengo-rj-athletico-pr/CEMT5htb/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/internacional-sao-paulo/bVhBq2Pe/</t>
         </is>
       </c>
     </row>
@@ -22653,7 +22653,7 @@
       </c>
       <c r="F242" t="inlineStr">
         <is>
-          <t>Fortaleza</t>
+          <t>Flamengo RJ</t>
         </is>
       </c>
       <c r="G242" t="n">
@@ -22661,14 +22661,14 @@
       </c>
       <c r="H242" t="inlineStr">
         <is>
-          <t>Gremio</t>
+          <t>Bahia</t>
         </is>
       </c>
       <c r="I242" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J242" t="n">
-        <v>2</v>
+        <v>1.37</v>
       </c>
       <c r="K242" t="inlineStr">
         <is>
@@ -22676,48 +22676,48 @@
         </is>
       </c>
       <c r="L242" t="n">
-        <v>2.64</v>
+        <v>1.54</v>
       </c>
       <c r="M242" t="inlineStr">
         <is>
+          <t>30/09/2023 20:37</t>
+        </is>
+      </c>
+      <c r="N242" t="n">
+        <v>5.38</v>
+      </c>
+      <c r="O242" t="inlineStr">
+        <is>
+          <t>22/09/2023 20:42</t>
+        </is>
+      </c>
+      <c r="P242" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="Q242" t="inlineStr">
+        <is>
+          <t>30/09/2023 20:56</t>
+        </is>
+      </c>
+      <c r="R242" t="n">
+        <v>7.89</v>
+      </c>
+      <c r="S242" t="inlineStr">
+        <is>
+          <t>22/09/2023 20:42</t>
+        </is>
+      </c>
+      <c r="T242" t="n">
+        <v>6.51</v>
+      </c>
+      <c r="U242" t="inlineStr">
+        <is>
           <t>30/09/2023 20:46</t>
         </is>
       </c>
-      <c r="N242" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="O242" t="inlineStr">
-        <is>
-          <t>22/09/2023 20:42</t>
-        </is>
-      </c>
-      <c r="P242" t="n">
-        <v>3.29</v>
-      </c>
-      <c r="Q242" t="inlineStr">
-        <is>
-          <t>30/09/2023 19:43</t>
-        </is>
-      </c>
-      <c r="R242" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="S242" t="inlineStr">
-        <is>
-          <t>22/09/2023 20:42</t>
-        </is>
-      </c>
-      <c r="T242" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="U242" t="inlineStr">
-        <is>
-          <t>30/09/2023 20:55</t>
-        </is>
-      </c>
       <c r="V242" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/fortaleza-gremio/EuYLWLpE/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/flamengo-rj-bahia/KICnIMVK/</t>
         </is>
       </c>
     </row>
@@ -22745,7 +22745,7 @@
       </c>
       <c r="F243" t="inlineStr">
         <is>
-          <t>Flamengo RJ</t>
+          <t>Fortaleza</t>
         </is>
       </c>
       <c r="G243" t="n">
@@ -22753,14 +22753,14 @@
       </c>
       <c r="H243" t="inlineStr">
         <is>
-          <t>Bahia</t>
+          <t>Gremio</t>
         </is>
       </c>
       <c r="I243" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J243" t="n">
-        <v>1.37</v>
+        <v>2</v>
       </c>
       <c r="K243" t="inlineStr">
         <is>
@@ -22768,15 +22768,15 @@
         </is>
       </c>
       <c r="L243" t="n">
-        <v>1.54</v>
+        <v>2.64</v>
       </c>
       <c r="M243" t="inlineStr">
         <is>
-          <t>30/09/2023 20:37</t>
+          <t>30/09/2023 20:46</t>
         </is>
       </c>
       <c r="N243" t="n">
-        <v>5.38</v>
+        <v>3.55</v>
       </c>
       <c r="O243" t="inlineStr">
         <is>
@@ -22784,15 +22784,15 @@
         </is>
       </c>
       <c r="P243" t="n">
-        <v>4.35</v>
+        <v>3.29</v>
       </c>
       <c r="Q243" t="inlineStr">
         <is>
-          <t>30/09/2023 20:56</t>
+          <t>30/09/2023 19:43</t>
         </is>
       </c>
       <c r="R243" t="n">
-        <v>7.89</v>
+        <v>3.86</v>
       </c>
       <c r="S243" t="inlineStr">
         <is>
@@ -22800,16 +22800,16 @@
         </is>
       </c>
       <c r="T243" t="n">
-        <v>6.51</v>
+        <v>2.9</v>
       </c>
       <c r="U243" t="inlineStr">
         <is>
-          <t>30/09/2023 20:46</t>
+          <t>30/09/2023 20:55</t>
         </is>
       </c>
       <c r="V243" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/flamengo-rj-bahia/KICnIMVK/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/fortaleza-gremio/EuYLWLpE/</t>
         </is>
       </c>
     </row>
@@ -22837,71 +22837,71 @@
       </c>
       <c r="F244" t="inlineStr">
         <is>
-          <t>Sao Paulo</t>
+          <t>Cuiaba</t>
         </is>
       </c>
       <c r="G244" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H244" t="inlineStr">
         <is>
-          <t>Corinthians</t>
+          <t>Fluminense</t>
         </is>
       </c>
       <c r="I244" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J244" t="n">
-        <v>1.64</v>
+        <v>2.64</v>
       </c>
       <c r="K244" t="inlineStr">
         <is>
-          <t>27/09/2023 23:12</t>
+          <t>24/09/2023 01:12</t>
         </is>
       </c>
       <c r="L244" t="n">
-        <v>1.52</v>
+        <v>2.33</v>
       </c>
       <c r="M244" t="inlineStr">
         <is>
-          <t>30/09/2023 23:20</t>
+          <t>30/09/2023 23:04</t>
         </is>
       </c>
       <c r="N244" t="n">
-        <v>3.73</v>
+        <v>3.09</v>
       </c>
       <c r="O244" t="inlineStr">
         <is>
-          <t>27/09/2023 23:12</t>
+          <t>24/09/2023 01:12</t>
         </is>
       </c>
       <c r="P244" t="n">
-        <v>3.96</v>
+        <v>3.1</v>
       </c>
       <c r="Q244" t="inlineStr">
         <is>
-          <t>30/09/2023 23:26</t>
+          <t>30/09/2023 23:04</t>
         </is>
       </c>
       <c r="R244" t="n">
-        <v>6.33</v>
+        <v>3.04</v>
       </c>
       <c r="S244" t="inlineStr">
         <is>
-          <t>27/09/2023 23:12</t>
+          <t>24/09/2023 01:12</t>
         </is>
       </c>
       <c r="T244" t="n">
-        <v>8.24</v>
+        <v>3.62</v>
       </c>
       <c r="U244" t="inlineStr">
         <is>
-          <t>30/09/2023 23:28</t>
+          <t>30/09/2023 23:04</t>
         </is>
       </c>
       <c r="V244" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/sao-paulo-corinthians/v3gJC0gr/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/cuiaba-fluminense/hWWPVu0K/</t>
         </is>
       </c>
     </row>
@@ -22929,71 +22929,71 @@
       </c>
       <c r="F245" t="inlineStr">
         <is>
-          <t>Cuiaba</t>
+          <t>Sao Paulo</t>
         </is>
       </c>
       <c r="G245" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H245" t="inlineStr">
         <is>
-          <t>Fluminense</t>
+          <t>Corinthians</t>
         </is>
       </c>
       <c r="I245" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J245" t="n">
-        <v>2.64</v>
+        <v>1.64</v>
       </c>
       <c r="K245" t="inlineStr">
         <is>
-          <t>24/09/2023 01:12</t>
+          <t>27/09/2023 23:12</t>
         </is>
       </c>
       <c r="L245" t="n">
-        <v>2.33</v>
+        <v>1.52</v>
       </c>
       <c r="M245" t="inlineStr">
         <is>
-          <t>30/09/2023 23:04</t>
+          <t>30/09/2023 23:20</t>
         </is>
       </c>
       <c r="N245" t="n">
-        <v>3.09</v>
+        <v>3.73</v>
       </c>
       <c r="O245" t="inlineStr">
         <is>
-          <t>24/09/2023 01:12</t>
+          <t>27/09/2023 23:12</t>
         </is>
       </c>
       <c r="P245" t="n">
-        <v>3.1</v>
+        <v>3.96</v>
       </c>
       <c r="Q245" t="inlineStr">
         <is>
-          <t>30/09/2023 23:04</t>
+          <t>30/09/2023 23:26</t>
         </is>
       </c>
       <c r="R245" t="n">
-        <v>3.04</v>
+        <v>6.33</v>
       </c>
       <c r="S245" t="inlineStr">
         <is>
-          <t>24/09/2023 01:12</t>
+          <t>27/09/2023 23:12</t>
         </is>
       </c>
       <c r="T245" t="n">
-        <v>3.62</v>
+        <v>8.24</v>
       </c>
       <c r="U245" t="inlineStr">
         <is>
-          <t>30/09/2023 23:04</t>
+          <t>30/09/2023 23:28</t>
         </is>
       </c>
       <c r="V245" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/cuiaba-fluminense/hWWPVu0K/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/sao-paulo-corinthians/v3gJC0gr/</t>
         </is>
       </c>
     </row>
@@ -23113,22 +23113,22 @@
       </c>
       <c r="F247" t="inlineStr">
         <is>
-          <t>Santos</t>
+          <t>Cruzeiro</t>
         </is>
       </c>
       <c r="G247" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H247" t="inlineStr">
         <is>
-          <t>Vasco</t>
+          <t>America MG</t>
         </is>
       </c>
       <c r="I247" t="n">
         <v>1</v>
       </c>
       <c r="J247" t="n">
-        <v>2.25</v>
+        <v>1.71</v>
       </c>
       <c r="K247" t="inlineStr">
         <is>
@@ -23136,15 +23136,15 @@
         </is>
       </c>
       <c r="L247" t="n">
-        <v>2.6</v>
+        <v>1.74</v>
       </c>
       <c r="M247" t="inlineStr">
         <is>
-          <t>01/10/2023 20:30</t>
+          <t>01/10/2023 20:59</t>
         </is>
       </c>
       <c r="N247" t="n">
-        <v>3.29</v>
+        <v>3.88</v>
       </c>
       <c r="O247" t="inlineStr">
         <is>
@@ -23152,15 +23152,15 @@
         </is>
       </c>
       <c r="P247" t="n">
-        <v>3.11</v>
+        <v>3.8</v>
       </c>
       <c r="Q247" t="inlineStr">
         <is>
-          <t>01/10/2023 20:57</t>
+          <t>01/10/2023 20:59</t>
         </is>
       </c>
       <c r="R247" t="n">
-        <v>3.44</v>
+        <v>5.17</v>
       </c>
       <c r="S247" t="inlineStr">
         <is>
@@ -23168,16 +23168,16 @@
         </is>
       </c>
       <c r="T247" t="n">
-        <v>3.11</v>
+        <v>5.18</v>
       </c>
       <c r="U247" t="inlineStr">
         <is>
-          <t>01/10/2023 20:30</t>
+          <t>01/10/2023 20:59</t>
         </is>
       </c>
       <c r="V247" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/santos-vasco/IghNBK8l/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/cruzeiro-america-mg/4AjV9bw1/</t>
         </is>
       </c>
     </row>
@@ -23205,22 +23205,22 @@
       </c>
       <c r="F248" t="inlineStr">
         <is>
-          <t>Cruzeiro</t>
+          <t>Santos</t>
         </is>
       </c>
       <c r="G248" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H248" t="inlineStr">
         <is>
-          <t>America MG</t>
+          <t>Vasco</t>
         </is>
       </c>
       <c r="I248" t="n">
         <v>1</v>
       </c>
       <c r="J248" t="n">
-        <v>1.71</v>
+        <v>2.25</v>
       </c>
       <c r="K248" t="inlineStr">
         <is>
@@ -23228,15 +23228,15 @@
         </is>
       </c>
       <c r="L248" t="n">
-        <v>1.74</v>
+        <v>2.6</v>
       </c>
       <c r="M248" t="inlineStr">
         <is>
-          <t>01/10/2023 20:59</t>
+          <t>01/10/2023 20:30</t>
         </is>
       </c>
       <c r="N248" t="n">
-        <v>3.88</v>
+        <v>3.29</v>
       </c>
       <c r="O248" t="inlineStr">
         <is>
@@ -23244,15 +23244,15 @@
         </is>
       </c>
       <c r="P248" t="n">
-        <v>3.8</v>
+        <v>3.11</v>
       </c>
       <c r="Q248" t="inlineStr">
         <is>
-          <t>01/10/2023 20:59</t>
+          <t>01/10/2023 20:57</t>
         </is>
       </c>
       <c r="R248" t="n">
-        <v>5.17</v>
+        <v>3.44</v>
       </c>
       <c r="S248" t="inlineStr">
         <is>
@@ -23260,16 +23260,16 @@
         </is>
       </c>
       <c r="T248" t="n">
-        <v>5.18</v>
+        <v>3.11</v>
       </c>
       <c r="U248" t="inlineStr">
         <is>
-          <t>01/10/2023 20:59</t>
+          <t>01/10/2023 20:30</t>
         </is>
       </c>
       <c r="V248" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/cruzeiro-america-mg/4AjV9bw1/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/santos-vasco/IghNBK8l/</t>
         </is>
       </c>
     </row>
@@ -23849,71 +23849,71 @@
       </c>
       <c r="F255" t="inlineStr">
         <is>
-          <t>Internacional</t>
+          <t>Palmeiras</t>
         </is>
       </c>
       <c r="G255" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H255" t="inlineStr">
         <is>
-          <t>Gremio</t>
+          <t>Santos</t>
         </is>
       </c>
       <c r="I255" t="n">
         <v>2</v>
       </c>
       <c r="J255" t="n">
-        <v>2.29</v>
+        <v>1.35</v>
       </c>
       <c r="K255" t="inlineStr">
         <is>
-          <t>01/10/2023 01:12</t>
+          <t>01/10/2023 22:42</t>
         </is>
       </c>
       <c r="L255" t="n">
-        <v>2.29</v>
+        <v>1.44</v>
       </c>
       <c r="M255" t="inlineStr">
         <is>
-          <t>08/10/2023 20:56</t>
+          <t>08/10/2023 20:49</t>
         </is>
       </c>
       <c r="N255" t="n">
-        <v>3.3</v>
+        <v>5.12</v>
       </c>
       <c r="O255" t="inlineStr">
         <is>
-          <t>01/10/2023 01:12</t>
+          <t>01/10/2023 22:42</t>
         </is>
       </c>
       <c r="P255" t="n">
-        <v>3.26</v>
+        <v>4.48</v>
       </c>
       <c r="Q255" t="inlineStr">
         <is>
-          <t>08/10/2023 20:51</t>
+          <t>08/10/2023 20:58</t>
         </is>
       </c>
       <c r="R255" t="n">
-        <v>3.43</v>
+        <v>9.890000000000001</v>
       </c>
       <c r="S255" t="inlineStr">
         <is>
-          <t>01/10/2023 01:12</t>
+          <t>01/10/2023 22:42</t>
         </is>
       </c>
       <c r="T255" t="n">
-        <v>3.53</v>
+        <v>8.73</v>
       </c>
       <c r="U255" t="inlineStr">
         <is>
-          <t>08/10/2023 20:56</t>
+          <t>08/10/2023 20:58</t>
         </is>
       </c>
       <c r="V255" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/internacional-gremio/829HLexD/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/palmeiras-santos/6wD0Pwwl/</t>
         </is>
       </c>
     </row>
@@ -23941,71 +23941,71 @@
       </c>
       <c r="F256" t="inlineStr">
         <is>
-          <t>Palmeiras</t>
+          <t>Internacional</t>
         </is>
       </c>
       <c r="G256" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H256" t="inlineStr">
         <is>
-          <t>Santos</t>
+          <t>Gremio</t>
         </is>
       </c>
       <c r="I256" t="n">
         <v>2</v>
       </c>
       <c r="J256" t="n">
-        <v>1.35</v>
+        <v>2.29</v>
       </c>
       <c r="K256" t="inlineStr">
         <is>
-          <t>01/10/2023 22:42</t>
+          <t>01/10/2023 01:12</t>
         </is>
       </c>
       <c r="L256" t="n">
-        <v>1.44</v>
+        <v>2.29</v>
       </c>
       <c r="M256" t="inlineStr">
         <is>
-          <t>08/10/2023 20:49</t>
+          <t>08/10/2023 20:56</t>
         </is>
       </c>
       <c r="N256" t="n">
-        <v>5.12</v>
+        <v>3.3</v>
       </c>
       <c r="O256" t="inlineStr">
         <is>
-          <t>01/10/2023 22:42</t>
+          <t>01/10/2023 01:12</t>
         </is>
       </c>
       <c r="P256" t="n">
-        <v>4.48</v>
+        <v>3.26</v>
       </c>
       <c r="Q256" t="inlineStr">
         <is>
-          <t>08/10/2023 20:58</t>
+          <t>08/10/2023 20:51</t>
         </is>
       </c>
       <c r="R256" t="n">
-        <v>9.890000000000001</v>
+        <v>3.43</v>
       </c>
       <c r="S256" t="inlineStr">
         <is>
-          <t>01/10/2023 22:42</t>
+          <t>01/10/2023 01:12</t>
         </is>
       </c>
       <c r="T256" t="n">
-        <v>8.73</v>
+        <v>3.53</v>
       </c>
       <c r="U256" t="inlineStr">
         <is>
-          <t>08/10/2023 20:58</t>
+          <t>08/10/2023 20:56</t>
         </is>
       </c>
       <c r="V256" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/palmeiras-santos/6wD0Pwwl/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/internacional-gremio/829HLexD/</t>
         </is>
       </c>
     </row>
@@ -25045,7 +25045,7 @@
       </c>
       <c r="F268" t="inlineStr">
         <is>
-          <t>Palmeiras</t>
+          <t>Cruzeiro</t>
         </is>
       </c>
       <c r="G268" t="n">
@@ -25053,63 +25053,63 @@
       </c>
       <c r="H268" t="inlineStr">
         <is>
-          <t>Atletico-MG</t>
+          <t>Flamengo RJ</t>
         </is>
       </c>
       <c r="I268" t="n">
         <v>2</v>
       </c>
       <c r="J268" t="n">
-        <v>1.84</v>
+        <v>3.04</v>
       </c>
       <c r="K268" t="inlineStr">
         <is>
-          <t>11/10/2023 23:42</t>
+          <t>15/10/2023 01:12</t>
         </is>
       </c>
       <c r="L268" t="n">
-        <v>1.74</v>
+        <v>3.55</v>
       </c>
       <c r="M268" t="inlineStr">
         <is>
-          <t>19/10/2023 23:59</t>
+          <t>19/10/2023 23:33</t>
         </is>
       </c>
       <c r="N268" t="n">
-        <v>3.49</v>
+        <v>3.3</v>
       </c>
       <c r="O268" t="inlineStr">
         <is>
-          <t>11/10/2023 23:42</t>
+          <t>15/10/2023 01:12</t>
         </is>
       </c>
       <c r="P268" t="n">
-        <v>3.51</v>
+        <v>3.22</v>
       </c>
       <c r="Q268" t="inlineStr">
         <is>
-          <t>19/10/2023 23:59</t>
+          <t>19/10/2023 23:33</t>
         </is>
       </c>
       <c r="R268" t="n">
-        <v>4.74</v>
+        <v>2.46</v>
       </c>
       <c r="S268" t="inlineStr">
         <is>
-          <t>11/10/2023 23:42</t>
+          <t>15/10/2023 01:12</t>
         </is>
       </c>
       <c r="T268" t="n">
-        <v>5.87</v>
+        <v>2.3</v>
       </c>
       <c r="U268" t="inlineStr">
         <is>
-          <t>19/10/2023 23:59</t>
+          <t>19/10/2023 23:33</t>
         </is>
       </c>
       <c r="V268" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/palmeiras-atletico-mg/Qg8zxHMg/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/cruzeiro-flamengo-rj/CAAnZE6C/</t>
         </is>
       </c>
     </row>
@@ -25137,7 +25137,7 @@
       </c>
       <c r="F269" t="inlineStr">
         <is>
-          <t>Cruzeiro</t>
+          <t>Palmeiras</t>
         </is>
       </c>
       <c r="G269" t="n">
@@ -25145,63 +25145,63 @@
       </c>
       <c r="H269" t="inlineStr">
         <is>
-          <t>Flamengo RJ</t>
+          <t>Atletico-MG</t>
         </is>
       </c>
       <c r="I269" t="n">
         <v>2</v>
       </c>
       <c r="J269" t="n">
-        <v>3.04</v>
+        <v>1.84</v>
       </c>
       <c r="K269" t="inlineStr">
         <is>
-          <t>15/10/2023 01:12</t>
+          <t>11/10/2023 23:42</t>
         </is>
       </c>
       <c r="L269" t="n">
-        <v>3.55</v>
+        <v>1.74</v>
       </c>
       <c r="M269" t="inlineStr">
         <is>
-          <t>19/10/2023 23:33</t>
+          <t>19/10/2023 23:59</t>
         </is>
       </c>
       <c r="N269" t="n">
-        <v>3.3</v>
+        <v>3.49</v>
       </c>
       <c r="O269" t="inlineStr">
         <is>
-          <t>15/10/2023 01:12</t>
+          <t>11/10/2023 23:42</t>
         </is>
       </c>
       <c r="P269" t="n">
-        <v>3.22</v>
+        <v>3.51</v>
       </c>
       <c r="Q269" t="inlineStr">
         <is>
-          <t>19/10/2023 23:33</t>
+          <t>19/10/2023 23:59</t>
         </is>
       </c>
       <c r="R269" t="n">
-        <v>2.46</v>
+        <v>4.74</v>
       </c>
       <c r="S269" t="inlineStr">
         <is>
-          <t>15/10/2023 01:12</t>
+          <t>11/10/2023 23:42</t>
         </is>
       </c>
       <c r="T269" t="n">
-        <v>2.3</v>
+        <v>5.87</v>
       </c>
       <c r="U269" t="inlineStr">
         <is>
-          <t>19/10/2023 23:33</t>
+          <t>19/10/2023 23:59</t>
         </is>
       </c>
       <c r="V269" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/cruzeiro-flamengo-rj/CAAnZE6C/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/palmeiras-atletico-mg/Qg8zxHMg/</t>
         </is>
       </c>
     </row>
@@ -25781,71 +25781,71 @@
       </c>
       <c r="F276" t="inlineStr">
         <is>
-          <t>Atletico-MG</t>
+          <t>Internacional</t>
         </is>
       </c>
       <c r="G276" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H276" t="inlineStr">
         <is>
-          <t>Cruzeiro</t>
+          <t>Santos</t>
         </is>
       </c>
       <c r="I276" t="n">
         <v>1</v>
       </c>
       <c r="J276" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="K276" t="inlineStr">
         <is>
-          <t>19/10/2023 23:12</t>
+          <t>20/10/2023 00:12</t>
         </is>
       </c>
       <c r="L276" t="n">
-        <v>1.92</v>
+        <v>1.54</v>
       </c>
       <c r="M276" t="inlineStr">
         <is>
-          <t>22/10/2023 20:52</t>
+          <t>22/10/2023 20:51</t>
         </is>
       </c>
       <c r="N276" t="n">
-        <v>3.66</v>
+        <v>3.54</v>
       </c>
       <c r="O276" t="inlineStr">
         <is>
-          <t>19/10/2023 23:12</t>
+          <t>20/10/2023 00:12</t>
         </is>
       </c>
       <c r="P276" t="n">
-        <v>3.17</v>
+        <v>4.08</v>
       </c>
       <c r="Q276" t="inlineStr">
         <is>
-          <t>22/10/2023 20:52</t>
+          <t>22/10/2023 20:55</t>
         </is>
       </c>
       <c r="R276" t="n">
-        <v>5.43</v>
+        <v>5.08</v>
       </c>
       <c r="S276" t="inlineStr">
         <is>
-          <t>19/10/2023 23:12</t>
+          <t>20/10/2023 00:12</t>
         </is>
       </c>
       <c r="T276" t="n">
-        <v>5.2</v>
+        <v>7.28</v>
       </c>
       <c r="U276" t="inlineStr">
         <is>
-          <t>22/10/2023 20:56</t>
+          <t>22/10/2023 20:55</t>
         </is>
       </c>
       <c r="V276" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/atletico-mg-cruzeiro/Mq0WY5CT/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/internacional-santos/vPnbUPKp/</t>
         </is>
       </c>
     </row>
@@ -25873,71 +25873,71 @@
       </c>
       <c r="F277" t="inlineStr">
         <is>
-          <t>Flamengo RJ</t>
+          <t>Atletico-MG</t>
         </is>
       </c>
       <c r="G277" t="n">
+        <v>0</v>
+      </c>
+      <c r="H277" t="inlineStr">
+        <is>
+          <t>Cruzeiro</t>
+        </is>
+      </c>
+      <c r="I277" t="n">
         <v>1</v>
       </c>
-      <c r="H277" t="inlineStr">
-        <is>
-          <t>Vasco</t>
-        </is>
-      </c>
-      <c r="I277" t="n">
-        <v>0</v>
-      </c>
       <c r="J277" t="n">
-        <v>1.61</v>
+        <v>1.75</v>
       </c>
       <c r="K277" t="inlineStr">
         <is>
-          <t>19/10/2023 23:13</t>
+          <t>19/10/2023 23:12</t>
         </is>
       </c>
       <c r="L277" t="n">
-        <v>1.7</v>
+        <v>1.92</v>
       </c>
       <c r="M277" t="inlineStr">
         <is>
-          <t>22/10/2023 20:53</t>
+          <t>22/10/2023 20:52</t>
         </is>
       </c>
       <c r="N277" t="n">
-        <v>4.1</v>
+        <v>3.66</v>
       </c>
       <c r="O277" t="inlineStr">
         <is>
-          <t>19/10/2023 23:13</t>
+          <t>19/10/2023 23:12</t>
         </is>
       </c>
       <c r="P277" t="n">
-        <v>3.77</v>
+        <v>3.17</v>
       </c>
       <c r="Q277" t="inlineStr">
         <is>
-          <t>22/10/2023 20:53</t>
+          <t>22/10/2023 20:52</t>
         </is>
       </c>
       <c r="R277" t="n">
-        <v>5.59</v>
+        <v>5.43</v>
       </c>
       <c r="S277" t="inlineStr">
         <is>
-          <t>19/10/2023 23:13</t>
+          <t>19/10/2023 23:12</t>
         </is>
       </c>
       <c r="T277" t="n">
-        <v>5.61</v>
+        <v>5.2</v>
       </c>
       <c r="U277" t="inlineStr">
         <is>
-          <t>22/10/2023 20:53</t>
+          <t>22/10/2023 20:56</t>
         </is>
       </c>
       <c r="V277" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/flamengo-rj-vasco/tU4BwUcb/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/atletico-mg-cruzeiro/Mq0WY5CT/</t>
         </is>
       </c>
     </row>
@@ -25965,71 +25965,71 @@
       </c>
       <c r="F278" t="inlineStr">
         <is>
-          <t>Internacional</t>
+          <t>Flamengo RJ</t>
         </is>
       </c>
       <c r="G278" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H278" t="inlineStr">
         <is>
-          <t>Santos</t>
+          <t>Vasco</t>
         </is>
       </c>
       <c r="I278" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J278" t="n">
-        <v>1.8</v>
+        <v>1.61</v>
       </c>
       <c r="K278" t="inlineStr">
         <is>
-          <t>20/10/2023 00:12</t>
+          <t>19/10/2023 23:13</t>
         </is>
       </c>
       <c r="L278" t="n">
-        <v>1.54</v>
+        <v>1.7</v>
       </c>
       <c r="M278" t="inlineStr">
         <is>
-          <t>22/10/2023 20:51</t>
+          <t>22/10/2023 20:53</t>
         </is>
       </c>
       <c r="N278" t="n">
-        <v>3.54</v>
+        <v>4.1</v>
       </c>
       <c r="O278" t="inlineStr">
         <is>
-          <t>20/10/2023 00:12</t>
+          <t>19/10/2023 23:13</t>
         </is>
       </c>
       <c r="P278" t="n">
-        <v>4.08</v>
+        <v>3.77</v>
       </c>
       <c r="Q278" t="inlineStr">
         <is>
-          <t>22/10/2023 20:55</t>
+          <t>22/10/2023 20:53</t>
         </is>
       </c>
       <c r="R278" t="n">
-        <v>5.08</v>
+        <v>5.59</v>
       </c>
       <c r="S278" t="inlineStr">
         <is>
-          <t>20/10/2023 00:12</t>
+          <t>19/10/2023 23:13</t>
         </is>
       </c>
       <c r="T278" t="n">
-        <v>7.28</v>
+        <v>5.61</v>
       </c>
       <c r="U278" t="inlineStr">
         <is>
-          <t>22/10/2023 20:55</t>
+          <t>22/10/2023 20:53</t>
         </is>
       </c>
       <c r="V278" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/internacional-santos/vPnbUPKp/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/flamengo-rj-vasco/tU4BwUcb/</t>
         </is>
       </c>
     </row>
@@ -26057,71 +26057,71 @@
       </c>
       <c r="F279" t="inlineStr">
         <is>
-          <t>Coritiba</t>
+          <t>Bragantino</t>
         </is>
       </c>
       <c r="G279" t="n">
+        <v>1</v>
+      </c>
+      <c r="H279" t="inlineStr">
+        <is>
+          <t>Fluminense</t>
+        </is>
+      </c>
+      <c r="I279" t="n">
         <v>0</v>
       </c>
-      <c r="H279" t="inlineStr">
-        <is>
-          <t>Palmeiras</t>
-        </is>
-      </c>
-      <c r="I279" t="n">
-        <v>2</v>
-      </c>
       <c r="J279" t="n">
-        <v>4.43</v>
+        <v>1.84</v>
       </c>
       <c r="K279" t="inlineStr">
         <is>
-          <t>19/10/2023 23:13</t>
+          <t>20/10/2023 01:42</t>
         </is>
       </c>
       <c r="L279" t="n">
-        <v>5.19</v>
+        <v>1.76</v>
       </c>
       <c r="M279" t="inlineStr">
         <is>
+          <t>22/10/2023 23:24</t>
+        </is>
+      </c>
+      <c r="N279" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="O279" t="inlineStr">
+        <is>
+          <t>20/10/2023 01:42</t>
+        </is>
+      </c>
+      <c r="P279" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="Q279" t="inlineStr">
+        <is>
+          <t>22/10/2023 23:24</t>
+        </is>
+      </c>
+      <c r="R279" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="S279" t="inlineStr">
+        <is>
+          <t>20/10/2023 01:42</t>
+        </is>
+      </c>
+      <c r="T279" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="U279" t="inlineStr">
+        <is>
           <t>22/10/2023 23:29</t>
         </is>
       </c>
-      <c r="N279" t="n">
-        <v>3.67</v>
-      </c>
-      <c r="O279" t="inlineStr">
-        <is>
-          <t>19/10/2023 23:13</t>
-        </is>
-      </c>
-      <c r="P279" t="n">
-        <v>3.57</v>
-      </c>
-      <c r="Q279" t="inlineStr">
-        <is>
-          <t>22/10/2023 23:27</t>
-        </is>
-      </c>
-      <c r="R279" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="S279" t="inlineStr">
-        <is>
-          <t>19/10/2023 23:13</t>
-        </is>
-      </c>
-      <c r="T279" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="U279" t="inlineStr">
-        <is>
-          <t>22/10/2023 23:29</t>
-        </is>
-      </c>
       <c r="V279" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/coritiba-palmeiras/hSj2Tqzi/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/bragantino-fluminense/rg1SZocN/</t>
         </is>
       </c>
     </row>
@@ -26149,7 +26149,7 @@
       </c>
       <c r="F280" t="inlineStr">
         <is>
-          <t>Bragantino</t>
+          <t>Corinthians</t>
         </is>
       </c>
       <c r="G280" t="n">
@@ -26157,14 +26157,14 @@
       </c>
       <c r="H280" t="inlineStr">
         <is>
-          <t>Fluminense</t>
+          <t>America MG</t>
         </is>
       </c>
       <c r="I280" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J280" t="n">
-        <v>1.84</v>
+        <v>1.75</v>
       </c>
       <c r="K280" t="inlineStr">
         <is>
@@ -26172,15 +26172,15 @@
         </is>
       </c>
       <c r="L280" t="n">
-        <v>1.76</v>
+        <v>2.09</v>
       </c>
       <c r="M280" t="inlineStr">
         <is>
-          <t>22/10/2023 23:24</t>
+          <t>22/10/2023 23:25</t>
         </is>
       </c>
       <c r="N280" t="n">
-        <v>3.7</v>
+        <v>3.78</v>
       </c>
       <c r="O280" t="inlineStr">
         <is>
@@ -26188,15 +26188,15 @@
         </is>
       </c>
       <c r="P280" t="n">
-        <v>3.9</v>
+        <v>3.29</v>
       </c>
       <c r="Q280" t="inlineStr">
         <is>
-          <t>22/10/2023 23:24</t>
+          <t>22/10/2023 23:27</t>
         </is>
       </c>
       <c r="R280" t="n">
-        <v>4.55</v>
+        <v>5.03</v>
       </c>
       <c r="S280" t="inlineStr">
         <is>
@@ -26204,7 +26204,7 @@
         </is>
       </c>
       <c r="T280" t="n">
-        <v>4.85</v>
+        <v>4.08</v>
       </c>
       <c r="U280" t="inlineStr">
         <is>
@@ -26213,7 +26213,7 @@
       </c>
       <c r="V280" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/bragantino-fluminense/rg1SZocN/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/corinthians-america-mg/QH6NzSsH/</t>
         </is>
       </c>
     </row>
@@ -26241,46 +26241,46 @@
       </c>
       <c r="F281" t="inlineStr">
         <is>
-          <t>Corinthians</t>
+          <t>Coritiba</t>
         </is>
       </c>
       <c r="G281" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H281" t="inlineStr">
         <is>
-          <t>America MG</t>
+          <t>Palmeiras</t>
         </is>
       </c>
       <c r="I281" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J281" t="n">
-        <v>1.75</v>
+        <v>4.43</v>
       </c>
       <c r="K281" t="inlineStr">
         <is>
-          <t>20/10/2023 01:42</t>
+          <t>19/10/2023 23:13</t>
         </is>
       </c>
       <c r="L281" t="n">
-        <v>2.09</v>
+        <v>5.19</v>
       </c>
       <c r="M281" t="inlineStr">
         <is>
-          <t>22/10/2023 23:25</t>
+          <t>22/10/2023 23:29</t>
         </is>
       </c>
       <c r="N281" t="n">
-        <v>3.78</v>
+        <v>3.67</v>
       </c>
       <c r="O281" t="inlineStr">
         <is>
-          <t>20/10/2023 01:42</t>
+          <t>19/10/2023 23:13</t>
         </is>
       </c>
       <c r="P281" t="n">
-        <v>3.29</v>
+        <v>3.57</v>
       </c>
       <c r="Q281" t="inlineStr">
         <is>
@@ -26288,15 +26288,15 @@
         </is>
       </c>
       <c r="R281" t="n">
-        <v>5.03</v>
+        <v>1.84</v>
       </c>
       <c r="S281" t="inlineStr">
         <is>
-          <t>20/10/2023 01:42</t>
+          <t>19/10/2023 23:13</t>
         </is>
       </c>
       <c r="T281" t="n">
-        <v>4.08</v>
+        <v>1.79</v>
       </c>
       <c r="U281" t="inlineStr">
         <is>
@@ -26305,7 +26305,7 @@
       </c>
       <c r="V281" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/corinthians-america-mg/QH6NzSsH/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/coritiba-palmeiras/hSj2Tqzi/</t>
         </is>
       </c>
     </row>
@@ -26793,71 +26793,71 @@
       </c>
       <c r="F287" t="inlineStr">
         <is>
-          <t>Cuiaba</t>
+          <t>Gremio</t>
         </is>
       </c>
       <c r="G287" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H287" t="inlineStr">
         <is>
-          <t>Corinthians</t>
+          <t>Flamengo RJ</t>
         </is>
       </c>
       <c r="I287" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J287" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>22/10/2023 20:12</t>
+        </is>
+      </c>
+      <c r="L287" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="M287" t="inlineStr">
+        <is>
+          <t>26/10/2023 02:27</t>
+        </is>
+      </c>
+      <c r="N287" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="O287" t="inlineStr">
+        <is>
+          <t>22/10/2023 20:12</t>
+        </is>
+      </c>
+      <c r="P287" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q287" t="inlineStr">
+        <is>
+          <t>26/10/2023 02:22</t>
+        </is>
+      </c>
+      <c r="R287" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="S287" t="inlineStr">
+        <is>
+          <t>22/10/2023 20:12</t>
+        </is>
+      </c>
+      <c r="T287" t="n">
         <v>2.03</v>
       </c>
-      <c r="K287" t="inlineStr">
-        <is>
-          <t>22/10/2023 22:42</t>
-        </is>
-      </c>
-      <c r="L287" t="n">
-        <v>2.23</v>
-      </c>
-      <c r="M287" t="inlineStr">
-        <is>
-          <t>26/10/2023 02:29</t>
-        </is>
-      </c>
-      <c r="N287" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="O287" t="inlineStr">
-        <is>
-          <t>22/10/2023 22:42</t>
-        </is>
-      </c>
-      <c r="P287" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="Q287" t="inlineStr">
+      <c r="U287" t="inlineStr">
         <is>
           <t>26/10/2023 02:27</t>
         </is>
       </c>
-      <c r="R287" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="S287" t="inlineStr">
-        <is>
-          <t>22/10/2023 22:42</t>
-        </is>
-      </c>
-      <c r="T287" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="U287" t="inlineStr">
-        <is>
-          <t>26/10/2023 02:29</t>
-        </is>
-      </c>
       <c r="V287" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/cuiaba-corinthians/MLgTmZx3/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/gremio-flamengo-rj/WtlvRBVk/</t>
         </is>
       </c>
     </row>
@@ -26885,71 +26885,71 @@
       </c>
       <c r="F288" t="inlineStr">
         <is>
-          <t>Gremio</t>
+          <t>Cuiaba</t>
         </is>
       </c>
       <c r="G288" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H288" t="inlineStr">
         <is>
-          <t>Flamengo RJ</t>
+          <t>Corinthians</t>
         </is>
       </c>
       <c r="I288" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J288" t="n">
-        <v>2.54</v>
+        <v>2.03</v>
       </c>
       <c r="K288" t="inlineStr">
         <is>
-          <t>22/10/2023 20:12</t>
+          <t>22/10/2023 22:42</t>
         </is>
       </c>
       <c r="L288" t="n">
-        <v>4.14</v>
+        <v>2.23</v>
       </c>
       <c r="M288" t="inlineStr">
         <is>
+          <t>26/10/2023 02:29</t>
+        </is>
+      </c>
+      <c r="N288" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="O288" t="inlineStr">
+        <is>
+          <t>22/10/2023 22:42</t>
+        </is>
+      </c>
+      <c r="P288" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Q288" t="inlineStr">
+        <is>
           <t>26/10/2023 02:27</t>
         </is>
       </c>
-      <c r="N288" t="n">
-        <v>3.37</v>
-      </c>
-      <c r="O288" t="inlineStr">
-        <is>
-          <t>22/10/2023 20:12</t>
-        </is>
-      </c>
-      <c r="P288" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Q288" t="inlineStr">
-        <is>
-          <t>26/10/2023 02:22</t>
-        </is>
-      </c>
       <c r="R288" t="n">
-        <v>2.93</v>
+        <v>4.27</v>
       </c>
       <c r="S288" t="inlineStr">
         <is>
-          <t>22/10/2023 20:12</t>
+          <t>22/10/2023 22:42</t>
         </is>
       </c>
       <c r="T288" t="n">
-        <v>2.03</v>
+        <v>3.88</v>
       </c>
       <c r="U288" t="inlineStr">
         <is>
-          <t>26/10/2023 02:27</t>
+          <t>26/10/2023 02:29</t>
         </is>
       </c>
       <c r="V288" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/gremio-flamengo-rj/WtlvRBVk/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/cuiaba-corinthians/MLgTmZx3/</t>
         </is>
       </c>
     </row>
@@ -27134,6 +27134,742 @@
       <c r="V290" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/brazil/serie-a/santos-coritiba/IZ73XDhM/</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" s="1" t="n">
+        <v>290</v>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>brazil</t>
+        </is>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>serie-a</t>
+        </is>
+      </c>
+      <c r="D291" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E291" s="2" t="n">
+        <v>45228</v>
+      </c>
+      <c r="F291" t="inlineStr">
+        <is>
+          <t>America MG</t>
+        </is>
+      </c>
+      <c r="G291" t="n">
+        <v>3</v>
+      </c>
+      <c r="H291" t="inlineStr">
+        <is>
+          <t>Gremio</t>
+        </is>
+      </c>
+      <c r="I291" t="n">
+        <v>4</v>
+      </c>
+      <c r="J291" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>26/10/2023 02:42</t>
+        </is>
+      </c>
+      <c r="L291" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="M291" t="inlineStr">
+        <is>
+          <t>28/10/2023 23:59</t>
+        </is>
+      </c>
+      <c r="N291" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="O291" t="inlineStr">
+        <is>
+          <t>26/10/2023 02:42</t>
+        </is>
+      </c>
+      <c r="P291" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="Q291" t="inlineStr">
+        <is>
+          <t>28/10/2023 23:59</t>
+        </is>
+      </c>
+      <c r="R291" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="S291" t="inlineStr">
+        <is>
+          <t>26/10/2023 02:42</t>
+        </is>
+      </c>
+      <c r="T291" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="U291" t="inlineStr">
+        <is>
+          <t>28/10/2023 23:59</t>
+        </is>
+      </c>
+      <c r="V291" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/america-mg-gremio/MsV30CM8/</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" s="1" t="n">
+        <v>291</v>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>brazil</t>
+        </is>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>serie-a</t>
+        </is>
+      </c>
+      <c r="D292" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E292" s="2" t="n">
+        <v>45228</v>
+      </c>
+      <c r="F292" t="inlineStr">
+        <is>
+          <t>Palmeiras</t>
+        </is>
+      </c>
+      <c r="G292" t="n">
+        <v>1</v>
+      </c>
+      <c r="H292" t="inlineStr">
+        <is>
+          <t>Bahia</t>
+        </is>
+      </c>
+      <c r="I292" t="n">
+        <v>0</v>
+      </c>
+      <c r="J292" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>26/10/2023 01:12</t>
+        </is>
+      </c>
+      <c r="L292" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="M292" t="inlineStr">
+        <is>
+          <t>28/10/2023 23:52</t>
+        </is>
+      </c>
+      <c r="N292" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="O292" t="inlineStr">
+        <is>
+          <t>26/10/2023 01:12</t>
+        </is>
+      </c>
+      <c r="P292" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="Q292" t="inlineStr">
+        <is>
+          <t>28/10/2023 23:53</t>
+        </is>
+      </c>
+      <c r="R292" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="S292" t="inlineStr">
+        <is>
+          <t>26/10/2023 01:12</t>
+        </is>
+      </c>
+      <c r="T292" t="n">
+        <v>10.94</v>
+      </c>
+      <c r="U292" t="inlineStr">
+        <is>
+          <t>28/10/2023 23:53</t>
+        </is>
+      </c>
+      <c r="V292" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/palmeiras-bahia/CAntoXML/</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="1" t="n">
+        <v>292</v>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>brazil</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>serie-a</t>
+        </is>
+      </c>
+      <c r="D293" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E293" s="2" t="n">
+        <v>45228.08333333334</v>
+      </c>
+      <c r="F293" t="inlineStr">
+        <is>
+          <t>Atletico-MG</t>
+        </is>
+      </c>
+      <c r="G293" t="n">
+        <v>2</v>
+      </c>
+      <c r="H293" t="inlineStr">
+        <is>
+          <t>Fluminense</t>
+        </is>
+      </c>
+      <c r="I293" t="n">
+        <v>0</v>
+      </c>
+      <c r="J293" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>26/10/2023 00:13</t>
+        </is>
+      </c>
+      <c r="L293" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="M293" t="inlineStr">
+        <is>
+          <t>29/10/2023 01:58</t>
+        </is>
+      </c>
+      <c r="N293" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="O293" t="inlineStr">
+        <is>
+          <t>26/10/2023 00:13</t>
+        </is>
+      </c>
+      <c r="P293" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="Q293" t="inlineStr">
+        <is>
+          <t>29/10/2023 01:58</t>
+        </is>
+      </c>
+      <c r="R293" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="S293" t="inlineStr">
+        <is>
+          <t>26/10/2023 00:13</t>
+        </is>
+      </c>
+      <c r="T293" t="n">
+        <v>5.37</v>
+      </c>
+      <c r="U293" t="inlineStr">
+        <is>
+          <t>29/10/2023 02:00</t>
+        </is>
+      </c>
+      <c r="V293" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/atletico-mg-fluminense/AoSGvVak/</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="1" t="n">
+        <v>293</v>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>brazil</t>
+        </is>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>serie-a</t>
+        </is>
+      </c>
+      <c r="D294" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E294" s="2" t="n">
+        <v>45228.83333333334</v>
+      </c>
+      <c r="F294" t="inlineStr">
+        <is>
+          <t>Athletico-PR</t>
+        </is>
+      </c>
+      <c r="G294" t="n">
+        <v>1</v>
+      </c>
+      <c r="H294" t="inlineStr">
+        <is>
+          <t>Sao Paulo</t>
+        </is>
+      </c>
+      <c r="I294" t="n">
+        <v>1</v>
+      </c>
+      <c r="J294" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>26/10/2023 01:12</t>
+        </is>
+      </c>
+      <c r="L294" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="M294" t="inlineStr">
+        <is>
+          <t>29/10/2023 19:57</t>
+        </is>
+      </c>
+      <c r="N294" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="O294" t="inlineStr">
+        <is>
+          <t>26/10/2023 01:12</t>
+        </is>
+      </c>
+      <c r="P294" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q294" t="inlineStr">
+        <is>
+          <t>29/10/2023 19:52</t>
+        </is>
+      </c>
+      <c r="R294" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="S294" t="inlineStr">
+        <is>
+          <t>26/10/2023 01:12</t>
+        </is>
+      </c>
+      <c r="T294" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="U294" t="inlineStr">
+        <is>
+          <t>29/10/2023 19:59</t>
+        </is>
+      </c>
+      <c r="V294" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/athletico-pr-sao-paulo/raQOx9U1/</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" s="1" t="n">
+        <v>294</v>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>brazil</t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>serie-a</t>
+        </is>
+      </c>
+      <c r="D295" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E295" s="2" t="n">
+        <v>45228.83333333334</v>
+      </c>
+      <c r="F295" t="inlineStr">
+        <is>
+          <t>Goias</t>
+        </is>
+      </c>
+      <c r="G295" t="n">
+        <v>1</v>
+      </c>
+      <c r="H295" t="inlineStr">
+        <is>
+          <t>Vasco</t>
+        </is>
+      </c>
+      <c r="I295" t="n">
+        <v>1</v>
+      </c>
+      <c r="J295" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>27/10/2023 00:12</t>
+        </is>
+      </c>
+      <c r="L295" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="M295" t="inlineStr">
+        <is>
+          <t>29/10/2023 19:55</t>
+        </is>
+      </c>
+      <c r="N295" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="O295" t="inlineStr">
+        <is>
+          <t>27/10/2023 00:12</t>
+        </is>
+      </c>
+      <c r="P295" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="Q295" t="inlineStr">
+        <is>
+          <t>29/10/2023 19:53</t>
+        </is>
+      </c>
+      <c r="R295" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="S295" t="inlineStr">
+        <is>
+          <t>27/10/2023 00:12</t>
+        </is>
+      </c>
+      <c r="T295" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="U295" t="inlineStr">
+        <is>
+          <t>29/10/2023 19:55</t>
+        </is>
+      </c>
+      <c r="V295" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/goias-vasco/drOCuBpq/</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" s="1" t="n">
+        <v>295</v>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>brazil</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>serie-a</t>
+        </is>
+      </c>
+      <c r="D296" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E296" s="2" t="n">
+        <v>45228.9375</v>
+      </c>
+      <c r="F296" t="inlineStr">
+        <is>
+          <t>Corinthians</t>
+        </is>
+      </c>
+      <c r="G296" t="n">
+        <v>1</v>
+      </c>
+      <c r="H296" t="inlineStr">
+        <is>
+          <t>Santos</t>
+        </is>
+      </c>
+      <c r="I296" t="n">
+        <v>1</v>
+      </c>
+      <c r="J296" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>27/10/2023 02:42</t>
+        </is>
+      </c>
+      <c r="L296" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="M296" t="inlineStr">
+        <is>
+          <t>29/10/2023 22:29</t>
+        </is>
+      </c>
+      <c r="N296" t="n">
+        <v>3.71</v>
+      </c>
+      <c r="O296" t="inlineStr">
+        <is>
+          <t>27/10/2023 02:42</t>
+        </is>
+      </c>
+      <c r="P296" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q296" t="inlineStr">
+        <is>
+          <t>29/10/2023 22:20</t>
+        </is>
+      </c>
+      <c r="R296" t="n">
+        <v>4.59</v>
+      </c>
+      <c r="S296" t="inlineStr">
+        <is>
+          <t>27/10/2023 02:42</t>
+        </is>
+      </c>
+      <c r="T296" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="U296" t="inlineStr">
+        <is>
+          <t>29/10/2023 22:29</t>
+        </is>
+      </c>
+      <c r="V296" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/corinthians-santos/j1oppixS/</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" s="1" t="n">
+        <v>296</v>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>brazil</t>
+        </is>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>serie-a</t>
+        </is>
+      </c>
+      <c r="D297" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E297" s="2" t="n">
+        <v>45228.9375</v>
+      </c>
+      <c r="F297" t="inlineStr">
+        <is>
+          <t>Internacional</t>
+        </is>
+      </c>
+      <c r="G297" t="n">
+        <v>3</v>
+      </c>
+      <c r="H297" t="inlineStr">
+        <is>
+          <t>Coritiba</t>
+        </is>
+      </c>
+      <c r="I297" t="n">
+        <v>4</v>
+      </c>
+      <c r="J297" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>27/10/2023 02:42</t>
+        </is>
+      </c>
+      <c r="L297" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="M297" t="inlineStr">
+        <is>
+          <t>29/10/2023 22:17</t>
+        </is>
+      </c>
+      <c r="N297" t="n">
+        <v>5.24</v>
+      </c>
+      <c r="O297" t="inlineStr">
+        <is>
+          <t>27/10/2023 02:42</t>
+        </is>
+      </c>
+      <c r="P297" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="Q297" t="inlineStr">
+        <is>
+          <t>29/10/2023 22:29</t>
+        </is>
+      </c>
+      <c r="R297" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="S297" t="inlineStr">
+        <is>
+          <t>27/10/2023 02:42</t>
+        </is>
+      </c>
+      <c r="T297" t="n">
+        <v>8.619999999999999</v>
+      </c>
+      <c r="U297" t="inlineStr">
+        <is>
+          <t>29/10/2023 22:29</t>
+        </is>
+      </c>
+      <c r="V297" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/internacional-coritiba/48RKwkFe/</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" s="1" t="n">
+        <v>297</v>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>brazil</t>
+        </is>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>serie-a</t>
+        </is>
+      </c>
+      <c r="D298" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E298" s="2" t="n">
+        <v>45229</v>
+      </c>
+      <c r="F298" t="inlineStr">
+        <is>
+          <t>Botafogo RJ</t>
+        </is>
+      </c>
+      <c r="G298" t="n">
+        <v>0</v>
+      </c>
+      <c r="H298" t="inlineStr">
+        <is>
+          <t>Cuiaba</t>
+        </is>
+      </c>
+      <c r="I298" t="n">
+        <v>1</v>
+      </c>
+      <c r="J298" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>26/10/2023 02:42</t>
+        </is>
+      </c>
+      <c r="L298" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="M298" t="inlineStr">
+        <is>
+          <t>29/10/2023 23:49</t>
+        </is>
+      </c>
+      <c r="N298" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="O298" t="inlineStr">
+        <is>
+          <t>26/10/2023 02:42</t>
+        </is>
+      </c>
+      <c r="P298" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="Q298" t="inlineStr">
+        <is>
+          <t>29/10/2023 23:59</t>
+        </is>
+      </c>
+      <c r="R298" t="n">
+        <v>5.69</v>
+      </c>
+      <c r="S298" t="inlineStr">
+        <is>
+          <t>26/10/2023 02:42</t>
+        </is>
+      </c>
+      <c r="T298" t="n">
+        <v>6.14</v>
+      </c>
+      <c r="U298" t="inlineStr">
+        <is>
+          <t>29/10/2023 23:59</t>
+        </is>
+      </c>
+      <c r="V298" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/botafogo-rj-cuiaba/ryrxnD7F/</t>
         </is>
       </c>
     </row>

--- a/2023/brazil_serie-a_2023.xlsx
+++ b/2023/brazil_serie-a_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V298"/>
+  <dimension ref="A1:V299"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26793,71 +26793,71 @@
       </c>
       <c r="F287" t="inlineStr">
         <is>
-          <t>Gremio</t>
+          <t>Cuiaba</t>
         </is>
       </c>
       <c r="G287" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H287" t="inlineStr">
         <is>
-          <t>Flamengo RJ</t>
+          <t>Corinthians</t>
         </is>
       </c>
       <c r="I287" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J287" t="n">
-        <v>2.54</v>
+        <v>2.03</v>
       </c>
       <c r="K287" t="inlineStr">
         <is>
-          <t>22/10/2023 20:12</t>
+          <t>22/10/2023 22:42</t>
         </is>
       </c>
       <c r="L287" t="n">
-        <v>4.14</v>
+        <v>2.23</v>
       </c>
       <c r="M287" t="inlineStr">
         <is>
+          <t>26/10/2023 02:29</t>
+        </is>
+      </c>
+      <c r="N287" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="O287" t="inlineStr">
+        <is>
+          <t>22/10/2023 22:42</t>
+        </is>
+      </c>
+      <c r="P287" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Q287" t="inlineStr">
+        <is>
           <t>26/10/2023 02:27</t>
         </is>
       </c>
-      <c r="N287" t="n">
-        <v>3.37</v>
-      </c>
-      <c r="O287" t="inlineStr">
-        <is>
-          <t>22/10/2023 20:12</t>
-        </is>
-      </c>
-      <c r="P287" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Q287" t="inlineStr">
-        <is>
-          <t>26/10/2023 02:22</t>
-        </is>
-      </c>
       <c r="R287" t="n">
-        <v>2.93</v>
+        <v>4.27</v>
       </c>
       <c r="S287" t="inlineStr">
         <is>
-          <t>22/10/2023 20:12</t>
+          <t>22/10/2023 22:42</t>
         </is>
       </c>
       <c r="T287" t="n">
-        <v>2.03</v>
+        <v>3.88</v>
       </c>
       <c r="U287" t="inlineStr">
         <is>
-          <t>26/10/2023 02:27</t>
+          <t>26/10/2023 02:29</t>
         </is>
       </c>
       <c r="V287" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/gremio-flamengo-rj/WtlvRBVk/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/cuiaba-corinthians/MLgTmZx3/</t>
         </is>
       </c>
     </row>
@@ -26885,71 +26885,71 @@
       </c>
       <c r="F288" t="inlineStr">
         <is>
-          <t>Cuiaba</t>
+          <t>Gremio</t>
         </is>
       </c>
       <c r="G288" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H288" t="inlineStr">
         <is>
-          <t>Corinthians</t>
+          <t>Flamengo RJ</t>
         </is>
       </c>
       <c r="I288" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J288" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>22/10/2023 20:12</t>
+        </is>
+      </c>
+      <c r="L288" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="M288" t="inlineStr">
+        <is>
+          <t>26/10/2023 02:27</t>
+        </is>
+      </c>
+      <c r="N288" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="O288" t="inlineStr">
+        <is>
+          <t>22/10/2023 20:12</t>
+        </is>
+      </c>
+      <c r="P288" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q288" t="inlineStr">
+        <is>
+          <t>26/10/2023 02:22</t>
+        </is>
+      </c>
+      <c r="R288" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="S288" t="inlineStr">
+        <is>
+          <t>22/10/2023 20:12</t>
+        </is>
+      </c>
+      <c r="T288" t="n">
         <v>2.03</v>
       </c>
-      <c r="K288" t="inlineStr">
-        <is>
-          <t>22/10/2023 22:42</t>
-        </is>
-      </c>
-      <c r="L288" t="n">
-        <v>2.23</v>
-      </c>
-      <c r="M288" t="inlineStr">
-        <is>
-          <t>26/10/2023 02:29</t>
-        </is>
-      </c>
-      <c r="N288" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="O288" t="inlineStr">
-        <is>
-          <t>22/10/2023 22:42</t>
-        </is>
-      </c>
-      <c r="P288" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="Q288" t="inlineStr">
+      <c r="U288" t="inlineStr">
         <is>
           <t>26/10/2023 02:27</t>
         </is>
       </c>
-      <c r="R288" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="S288" t="inlineStr">
-        <is>
-          <t>22/10/2023 22:42</t>
-        </is>
-      </c>
-      <c r="T288" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="U288" t="inlineStr">
-        <is>
-          <t>26/10/2023 02:29</t>
-        </is>
-      </c>
       <c r="V288" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/cuiaba-corinthians/MLgTmZx3/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/gremio-flamengo-rj/WtlvRBVk/</t>
         </is>
       </c>
     </row>
@@ -27870,6 +27870,98 @@
       <c r="V298" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/brazil/serie-a/botafogo-rj-cuiaba/ryrxnD7F/</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" s="1" t="n">
+        <v>298</v>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>brazil</t>
+        </is>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>serie-a</t>
+        </is>
+      </c>
+      <c r="D299" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E299" s="2" t="n">
+        <v>45230.95833333334</v>
+      </c>
+      <c r="F299" t="inlineStr">
+        <is>
+          <t>Bahia</t>
+        </is>
+      </c>
+      <c r="G299" t="n">
+        <v>1</v>
+      </c>
+      <c r="H299" t="inlineStr">
+        <is>
+          <t>Fluminense</t>
+        </is>
+      </c>
+      <c r="I299" t="n">
+        <v>0</v>
+      </c>
+      <c r="J299" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>29/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="L299" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M299" t="inlineStr">
+        <is>
+          <t>31/10/2023 22:55</t>
+        </is>
+      </c>
+      <c r="N299" t="n">
+        <v>4.09</v>
+      </c>
+      <c r="O299" t="inlineStr">
+        <is>
+          <t>29/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="P299" t="n">
+        <v>4.49</v>
+      </c>
+      <c r="Q299" t="inlineStr">
+        <is>
+          <t>31/10/2023 22:57</t>
+        </is>
+      </c>
+      <c r="R299" t="n">
+        <v>5.43</v>
+      </c>
+      <c r="S299" t="inlineStr">
+        <is>
+          <t>29/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="T299" t="n">
+        <v>7.16</v>
+      </c>
+      <c r="U299" t="inlineStr">
+        <is>
+          <t>31/10/2023 22:57</t>
+        </is>
+      </c>
+      <c r="V299" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/bahia-fluminense/U7fsEVj8/</t>
         </is>
       </c>
     </row>

--- a/2023/brazil_serie-a_2023.xlsx
+++ b/2023/brazil_serie-a_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V299"/>
+  <dimension ref="A1:V305"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -941,7 +941,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Athletico-PR</t>
+          <t>Botafogo RJ</t>
         </is>
       </c>
       <c r="G6" t="n">
@@ -949,63 +949,63 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Goias</t>
+          <t>Sao Paulo</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>1.64</v>
+        <v>2.69</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>09/04/2023 08:36</t>
+          <t>08/04/2023 23:42</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>1.64</v>
+        <v>2.46</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>15/04/2023 23:27</t>
+          <t>15/04/2023 23:22</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>4.15</v>
+        <v>3.05</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>09/04/2023 08:36</t>
+          <t>08/04/2023 23:42</t>
         </is>
       </c>
       <c r="P6" t="n">
-        <v>3.69</v>
+        <v>3.17</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>15/04/2023 23:27</t>
+          <t>15/04/2023 23:25</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>5.21</v>
+        <v>3</v>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>09/04/2023 08:36</t>
+          <t>08/04/2023 23:42</t>
         </is>
       </c>
       <c r="T6" t="n">
-        <v>6.64</v>
+        <v>3.26</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>15/04/2023 23:28</t>
+          <t>15/04/2023 23:25</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/athletico-pr-goias/Sv02EkgD/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/botafogo-rj-sao-paulo/vFRENgWQ/</t>
         </is>
       </c>
     </row>
@@ -1033,7 +1033,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Botafogo RJ</t>
+          <t>Athletico-PR</t>
         </is>
       </c>
       <c r="G7" t="n">
@@ -1041,63 +1041,63 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Sao Paulo</t>
+          <t>Goias</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>2.69</v>
+        <v>1.64</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>08/04/2023 23:42</t>
+          <t>09/04/2023 08:36</t>
         </is>
       </c>
       <c r="L7" t="n">
-        <v>2.46</v>
+        <v>1.64</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>15/04/2023 23:22</t>
+          <t>15/04/2023 23:27</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>3.05</v>
+        <v>4.15</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>08/04/2023 23:42</t>
+          <t>09/04/2023 08:36</t>
         </is>
       </c>
       <c r="P7" t="n">
-        <v>3.17</v>
+        <v>3.69</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>15/04/2023 23:25</t>
+          <t>15/04/2023 23:27</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>3</v>
+        <v>5.21</v>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>08/04/2023 23:42</t>
+          <t>09/04/2023 08:36</t>
         </is>
       </c>
       <c r="T7" t="n">
-        <v>3.26</v>
+        <v>6.64</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>15/04/2023 23:25</t>
+          <t>15/04/2023 23:28</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/botafogo-rj-sao-paulo/vFRENgWQ/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/athletico-pr-goias/Sv02EkgD/</t>
         </is>
       </c>
     </row>
@@ -1585,22 +1585,22 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Sao Paulo</t>
+          <t>Cuiaba</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>America MG</t>
+          <t>Bragantino</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" t="n">
-        <v>1.66</v>
+        <v>2.32</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
@@ -1608,15 +1608,15 @@
         </is>
       </c>
       <c r="L13" t="n">
-        <v>1.94</v>
+        <v>2.65</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>22/04/2023 23:18</t>
+          <t>22/04/2023 22:56</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>3.92</v>
+        <v>3.25</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1624,32 +1624,32 @@
         </is>
       </c>
       <c r="P13" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>22/04/2023 20:05</t>
+        </is>
+      </c>
+      <c r="R13" t="n">
         <v>3.42</v>
       </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>22/04/2023 23:18</t>
-        </is>
-      </c>
-      <c r="R13" t="n">
-        <v>5.68</v>
-      </c>
       <c r="S13" t="inlineStr">
         <is>
           <t>17/04/2023 18:42</t>
         </is>
       </c>
       <c r="T13" t="n">
-        <v>4.51</v>
+        <v>3.04</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>22/04/2023 23:18</t>
+          <t>22/04/2023 22:54</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/sao-paulo-america-mg/WWQII4pa/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/cuiaba-bragantino/xO6mYqpn/</t>
         </is>
       </c>
     </row>
@@ -1677,22 +1677,22 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Cuiaba</t>
+          <t>Sao Paulo</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Bragantino</t>
+          <t>America MG</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>2.32</v>
+        <v>1.66</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
@@ -1700,15 +1700,15 @@
         </is>
       </c>
       <c r="L14" t="n">
-        <v>2.65</v>
+        <v>1.94</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>22/04/2023 22:56</t>
+          <t>22/04/2023 23:18</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>3.25</v>
+        <v>3.92</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1716,15 +1716,15 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>3.11</v>
+        <v>3.42</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>22/04/2023 20:05</t>
+          <t>22/04/2023 23:18</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>3.42</v>
+        <v>5.68</v>
       </c>
       <c r="S14" t="inlineStr">
         <is>
@@ -1732,16 +1732,16 @@
         </is>
       </c>
       <c r="T14" t="n">
-        <v>3.04</v>
+        <v>4.51</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>22/04/2023 22:54</t>
+          <t>22/04/2023 23:18</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/cuiaba-bragantino/xO6mYqpn/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/sao-paulo-america-mg/WWQII4pa/</t>
         </is>
       </c>
     </row>
@@ -2413,71 +2413,71 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Fortaleza</t>
+          <t>Coritiba</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Fluminense</t>
+          <t>Sao Paulo</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J22" t="n">
-        <v>2.69</v>
+        <v>3.08</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>24/04/2023 05:12</t>
+          <t>23/04/2023 23:42</t>
         </is>
       </c>
       <c r="L22" t="n">
-        <v>2.16</v>
+        <v>3.03</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>29/04/2023 21:29</t>
+          <t>29/04/2023 21:23</t>
         </is>
       </c>
       <c r="N22" t="n">
-        <v>3.27</v>
+        <v>3.36</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>24/04/2023 05:12</t>
+          <t>23/04/2023 23:42</t>
         </is>
       </c>
       <c r="P22" t="n">
-        <v>3.34</v>
+        <v>3.18</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>29/04/2023 21:29</t>
+          <t>29/04/2023 21:16</t>
         </is>
       </c>
       <c r="R22" t="n">
-        <v>2.77</v>
+        <v>2.4</v>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>24/04/2023 05:12</t>
+          <t>23/04/2023 23:42</t>
         </is>
       </c>
       <c r="T22" t="n">
-        <v>3.76</v>
+        <v>2.61</v>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>29/04/2023 21:29</t>
+          <t>29/04/2023 21:23</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/fortaleza-fluminense/Q7RQo3Eo/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/coritiba-sao-paulo/b1wqNJyo/</t>
         </is>
       </c>
     </row>
@@ -2505,71 +2505,71 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Coritiba</t>
+          <t>Fortaleza</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Sao Paulo</t>
+          <t>Fluminense</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J23" t="n">
-        <v>3.08</v>
+        <v>2.69</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>23/04/2023 23:42</t>
+          <t>24/04/2023 05:12</t>
         </is>
       </c>
       <c r="L23" t="n">
-        <v>3.03</v>
+        <v>2.16</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>29/04/2023 21:23</t>
+          <t>29/04/2023 21:29</t>
         </is>
       </c>
       <c r="N23" t="n">
-        <v>3.36</v>
+        <v>3.27</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>23/04/2023 23:42</t>
+          <t>24/04/2023 05:12</t>
         </is>
       </c>
       <c r="P23" t="n">
-        <v>3.18</v>
+        <v>3.34</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>29/04/2023 21:16</t>
+          <t>29/04/2023 21:29</t>
         </is>
       </c>
       <c r="R23" t="n">
-        <v>2.4</v>
+        <v>2.77</v>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>23/04/2023 23:42</t>
+          <t>24/04/2023 05:12</t>
         </is>
       </c>
       <c r="T23" t="n">
-        <v>2.61</v>
+        <v>3.76</v>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>29/04/2023 21:23</t>
+          <t>29/04/2023 21:29</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/coritiba-sao-paulo/b1wqNJyo/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/fortaleza-fluminense/Q7RQo3Eo/</t>
         </is>
       </c>
     </row>
@@ -3609,46 +3609,46 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Bahia</t>
+          <t>Sao Paulo</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Coritiba</t>
+          <t>Internacional</t>
         </is>
       </c>
       <c r="I35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>1.77</v>
+        <v>1.87</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>02/05/2023 01:11</t>
+          <t>01/05/2023 04:41</t>
         </is>
       </c>
       <c r="L35" t="n">
-        <v>1.74</v>
+        <v>2.05</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>07/05/2023 20:50</t>
+          <t>07/05/2023 20:59</t>
         </is>
       </c>
       <c r="N35" t="n">
-        <v>3.72</v>
+        <v>3.79</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>02/05/2023 01:11</t>
+          <t>01/05/2023 04:41</t>
         </is>
       </c>
       <c r="P35" t="n">
-        <v>3.76</v>
+        <v>3.47</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
@@ -3656,24 +3656,24 @@
         </is>
       </c>
       <c r="R35" t="n">
-        <v>4.97</v>
+        <v>4.1</v>
       </c>
       <c r="S35" t="inlineStr">
         <is>
-          <t>02/05/2023 01:11</t>
+          <t>01/05/2023 04:41</t>
         </is>
       </c>
       <c r="T35" t="n">
-        <v>5.35</v>
+        <v>3.95</v>
       </c>
       <c r="U35" t="inlineStr">
         <is>
-          <t>07/05/2023 20:50</t>
+          <t>07/05/2023 20:59</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/bahia-coritiba/0Qu9btbi/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/sao-paulo-internacional/fmJsrLDA/</t>
         </is>
       </c>
     </row>
@@ -3701,71 +3701,71 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Athletico-PR</t>
+          <t>Bahia</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Flamengo RJ</t>
+          <t>Coritiba</t>
         </is>
       </c>
       <c r="I36" t="n">
         <v>1</v>
       </c>
       <c r="J36" t="n">
-        <v>3.45</v>
+        <v>1.77</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>01/05/2023 02:12</t>
+          <t>02/05/2023 01:11</t>
         </is>
       </c>
       <c r="L36" t="n">
-        <v>3.01</v>
+        <v>1.74</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>07/05/2023 20:57</t>
+          <t>07/05/2023 20:50</t>
         </is>
       </c>
       <c r="N36" t="n">
-        <v>3.43</v>
+        <v>3.72</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>01/05/2023 02:12</t>
+          <t>02/05/2023 01:11</t>
         </is>
       </c>
       <c r="P36" t="n">
-        <v>3.22</v>
+        <v>3.76</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>07/05/2023 20:56</t>
+          <t>07/05/2023 20:59</t>
         </is>
       </c>
       <c r="R36" t="n">
-        <v>2.22</v>
+        <v>4.97</v>
       </c>
       <c r="S36" t="inlineStr">
         <is>
-          <t>01/05/2023 02:12</t>
+          <t>02/05/2023 01:11</t>
         </is>
       </c>
       <c r="T36" t="n">
-        <v>2.61</v>
+        <v>5.35</v>
       </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>07/05/2023 20:57</t>
+          <t>07/05/2023 20:50</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/athletico-pr-flamengo-rj/bL1QZdLj/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/bahia-coritiba/0Qu9btbi/</t>
         </is>
       </c>
     </row>
@@ -3793,7 +3793,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Sao Paulo</t>
+          <t>Athletico-PR</t>
         </is>
       </c>
       <c r="G37" t="n">
@@ -3801,63 +3801,63 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Internacional</t>
+          <t>Flamengo RJ</t>
         </is>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J37" t="n">
-        <v>1.87</v>
+        <v>3.45</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>01/05/2023 04:41</t>
+          <t>01/05/2023 02:12</t>
         </is>
       </c>
       <c r="L37" t="n">
-        <v>2.05</v>
+        <v>3.01</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>07/05/2023 20:59</t>
+          <t>07/05/2023 20:57</t>
         </is>
       </c>
       <c r="N37" t="n">
-        <v>3.79</v>
+        <v>3.43</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>01/05/2023 04:41</t>
+          <t>01/05/2023 02:12</t>
         </is>
       </c>
       <c r="P37" t="n">
-        <v>3.47</v>
+        <v>3.22</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>07/05/2023 20:59</t>
+          <t>07/05/2023 20:56</t>
         </is>
       </c>
       <c r="R37" t="n">
-        <v>4.1</v>
+        <v>2.22</v>
       </c>
       <c r="S37" t="inlineStr">
         <is>
-          <t>01/05/2023 04:41</t>
+          <t>01/05/2023 02:12</t>
         </is>
       </c>
       <c r="T37" t="n">
-        <v>3.95</v>
+        <v>2.61</v>
       </c>
       <c r="U37" t="inlineStr">
         <is>
-          <t>07/05/2023 20:59</t>
+          <t>07/05/2023 20:57</t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/sao-paulo-internacional/fmJsrLDA/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/athletico-pr-flamengo-rj/bL1QZdLj/</t>
         </is>
       </c>
     </row>
@@ -3885,22 +3885,22 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Goias</t>
+          <t>Botafogo RJ</t>
         </is>
       </c>
       <c r="G38" t="n">
+        <v>2</v>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Atletico-MG</t>
+        </is>
+      </c>
+      <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>Palmeiras</t>
-        </is>
-      </c>
-      <c r="I38" t="n">
-        <v>5</v>
-      </c>
       <c r="J38" t="n">
-        <v>4.55</v>
+        <v>2.85</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -3908,15 +3908,15 @@
         </is>
       </c>
       <c r="L38" t="n">
-        <v>5.53</v>
+        <v>3.72</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>07/05/2023 23:20</t>
+          <t>07/05/2023 23:29</t>
         </is>
       </c>
       <c r="N38" t="n">
-        <v>3.7</v>
+        <v>3.66</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
@@ -3924,15 +3924,15 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>3.99</v>
+        <v>3.33</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>07/05/2023 23:20</t>
+          <t>07/05/2023 23:29</t>
         </is>
       </c>
       <c r="R38" t="n">
-        <v>1.81</v>
+        <v>2.46</v>
       </c>
       <c r="S38" t="inlineStr">
         <is>
@@ -3940,16 +3940,16 @@
         </is>
       </c>
       <c r="T38" t="n">
-        <v>1.67</v>
+        <v>2.18</v>
       </c>
       <c r="U38" t="inlineStr">
         <is>
-          <t>07/05/2023 23:20</t>
+          <t>07/05/2023 23:29</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/goias-palmeiras/jFCjtarN/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/botafogo-rj-atletico-mg/0QJwq1b4/</t>
         </is>
       </c>
     </row>
@@ -3977,22 +3977,22 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Botafogo RJ</t>
+          <t>Gremio</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Atletico-MG</t>
+          <t>Bragantino</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J39" t="n">
-        <v>2.85</v>
+        <v>1.88</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -4000,15 +4000,15 @@
         </is>
       </c>
       <c r="L39" t="n">
-        <v>3.72</v>
+        <v>1.91</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>07/05/2023 23:29</t>
+          <t>07/05/2023 23:27</t>
         </is>
       </c>
       <c r="N39" t="n">
-        <v>3.66</v>
+        <v>3.71</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
@@ -4016,15 +4016,15 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>3.33</v>
+        <v>3.6</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>07/05/2023 23:29</t>
+          <t>07/05/2023 23:23</t>
         </is>
       </c>
       <c r="R39" t="n">
-        <v>2.46</v>
+        <v>4.19</v>
       </c>
       <c r="S39" t="inlineStr">
         <is>
@@ -4032,16 +4032,16 @@
         </is>
       </c>
       <c r="T39" t="n">
-        <v>2.18</v>
+        <v>4.41</v>
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>07/05/2023 23:29</t>
+          <t>07/05/2023 23:27</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/botafogo-rj-atletico-mg/0QJwq1b4/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/gremio-bragantino/nobMzw6p/</t>
         </is>
       </c>
     </row>
@@ -4069,22 +4069,22 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Gremio</t>
+          <t>Goias</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Bragantino</t>
+          <t>Palmeiras</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J40" t="n">
-        <v>1.88</v>
+        <v>4.55</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -4092,15 +4092,15 @@
         </is>
       </c>
       <c r="L40" t="n">
-        <v>1.91</v>
+        <v>5.53</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>07/05/2023 23:27</t>
+          <t>07/05/2023 23:20</t>
         </is>
       </c>
       <c r="N40" t="n">
-        <v>3.71</v>
+        <v>3.7</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
@@ -4108,15 +4108,15 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>3.6</v>
+        <v>3.99</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>07/05/2023 23:23</t>
+          <t>07/05/2023 23:20</t>
         </is>
       </c>
       <c r="R40" t="n">
-        <v>4.19</v>
+        <v>1.81</v>
       </c>
       <c r="S40" t="inlineStr">
         <is>
@@ -4124,16 +4124,16 @@
         </is>
       </c>
       <c r="T40" t="n">
-        <v>4.41</v>
+        <v>1.67</v>
       </c>
       <c r="U40" t="inlineStr">
         <is>
-          <t>07/05/2023 23:27</t>
+          <t>07/05/2023 23:20</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/gremio-bragantino/nobMzw6p/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/goias-palmeiras/jFCjtarN/</t>
         </is>
       </c>
     </row>
@@ -4253,22 +4253,22 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Internacional</t>
+          <t>Santos</t>
         </is>
       </c>
       <c r="G42" t="n">
+        <v>3</v>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Bahia</t>
+        </is>
+      </c>
+      <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>Athletico-PR</t>
-        </is>
-      </c>
-      <c r="I42" t="n">
-        <v>2</v>
-      </c>
       <c r="J42" t="n">
-        <v>1.79</v>
+        <v>1.95</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -4276,15 +4276,15 @@
         </is>
       </c>
       <c r="L42" t="n">
-        <v>1.82</v>
+        <v>2.3</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>10/05/2023 23:55</t>
+          <t>10/05/2023 23:51</t>
         </is>
       </c>
       <c r="N42" t="n">
-        <v>3.69</v>
+        <v>3.64</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
@@ -4292,15 +4292,15 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>3.61</v>
+        <v>3.14</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>10/05/2023 23:55</t>
+          <t>10/05/2023 23:59</t>
         </is>
       </c>
       <c r="R42" t="n">
-        <v>4.86</v>
+        <v>3.93</v>
       </c>
       <c r="S42" t="inlineStr">
         <is>
@@ -4308,16 +4308,16 @@
         </is>
       </c>
       <c r="T42" t="n">
-        <v>4.93</v>
+        <v>3.65</v>
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>10/05/2023 23:55</t>
+          <t>10/05/2023 23:59</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/internacional-athletico-pr/61gdmGkj/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/santos-bahia/r9yUgICM/</t>
         </is>
       </c>
     </row>
@@ -4345,71 +4345,71 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Bragantino</t>
+          <t>Internacional</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>America MG</t>
+          <t>Athletico-PR</t>
         </is>
       </c>
       <c r="I43" t="n">
         <v>2</v>
       </c>
       <c r="J43" t="n">
-        <v>1.86</v>
+        <v>1.79</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>07/05/2023 23:42</t>
+          <t>07/05/2023 21:12</t>
         </is>
       </c>
       <c r="L43" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>10/05/2023 23:45</t>
+          <t>10/05/2023 23:55</t>
         </is>
       </c>
       <c r="N43" t="n">
-        <v>3.68</v>
+        <v>3.69</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>07/05/2023 23:42</t>
+          <t>07/05/2023 21:12</t>
         </is>
       </c>
       <c r="P43" t="n">
-        <v>3.77</v>
+        <v>3.61</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>10/05/2023 23:45</t>
+          <t>10/05/2023 23:55</t>
         </is>
       </c>
       <c r="R43" t="n">
-        <v>4.31</v>
+        <v>4.86</v>
       </c>
       <c r="S43" t="inlineStr">
         <is>
-          <t>07/05/2023 23:42</t>
+          <t>07/05/2023 21:12</t>
         </is>
       </c>
       <c r="T43" t="n">
-        <v>4.62</v>
+        <v>4.93</v>
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>10/05/2023 23:48</t>
+          <t>10/05/2023 23:55</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/bragantino-america-mg/xWzYhxSS/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/internacional-athletico-pr/61gdmGkj/</t>
         </is>
       </c>
     </row>
@@ -4437,71 +4437,71 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Santos</t>
+          <t>Bragantino</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Bahia</t>
+          <t>America MG</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J44" t="n">
-        <v>1.95</v>
+        <v>1.86</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>07/05/2023 21:12</t>
+          <t>07/05/2023 23:42</t>
         </is>
       </c>
       <c r="L44" t="n">
-        <v>2.3</v>
+        <v>1.83</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>10/05/2023 23:51</t>
+          <t>10/05/2023 23:45</t>
         </is>
       </c>
       <c r="N44" t="n">
-        <v>3.64</v>
+        <v>3.68</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>07/05/2023 21:12</t>
+          <t>07/05/2023 23:42</t>
         </is>
       </c>
       <c r="P44" t="n">
-        <v>3.14</v>
+        <v>3.77</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>10/05/2023 23:59</t>
+          <t>10/05/2023 23:45</t>
         </is>
       </c>
       <c r="R44" t="n">
-        <v>3.93</v>
+        <v>4.31</v>
       </c>
       <c r="S44" t="inlineStr">
         <is>
-          <t>07/05/2023 21:12</t>
+          <t>07/05/2023 23:42</t>
         </is>
       </c>
       <c r="T44" t="n">
-        <v>3.65</v>
+        <v>4.62</v>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>10/05/2023 23:59</t>
+          <t>10/05/2023 23:48</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/santos-bahia/r9yUgICM/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/bragantino-america-mg/xWzYhxSS/</t>
         </is>
       </c>
     </row>
@@ -4713,71 +4713,71 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Cruzeiro</t>
+          <t>Palmeiras</t>
         </is>
       </c>
       <c r="G47" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Fluminense</t>
+          <t>Gremio</t>
         </is>
       </c>
       <c r="I47" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J47" t="n">
-        <v>2.76</v>
+        <v>1.45</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>07/05/2023 02:12</t>
+          <t>07/05/2023 23:42</t>
         </is>
       </c>
       <c r="L47" t="n">
-        <v>2.74</v>
+        <v>1.41</v>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>11/05/2023 02:27</t>
+          <t>11/05/2023 02:29</t>
         </is>
       </c>
       <c r="N47" t="n">
-        <v>3.42</v>
+        <v>4.72</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>07/05/2023 02:12</t>
+          <t>07/05/2023 23:42</t>
         </is>
       </c>
       <c r="P47" t="n">
-        <v>3.21</v>
+        <v>4.71</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>11/05/2023 02:25</t>
+          <t>11/05/2023 02:12</t>
         </is>
       </c>
       <c r="R47" t="n">
-        <v>2.6</v>
+        <v>7.37</v>
       </c>
       <c r="S47" t="inlineStr">
         <is>
-          <t>07/05/2023 02:12</t>
+          <t>07/05/2023 23:42</t>
         </is>
       </c>
       <c r="T47" t="n">
-        <v>2.85</v>
+        <v>8.65</v>
       </c>
       <c r="U47" t="inlineStr">
         <is>
-          <t>11/05/2023 02:27</t>
+          <t>11/05/2023 02:12</t>
         </is>
       </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/cruzeiro-fluminense/vuNaldzp/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/palmeiras-gremio/U5XPfbcG/</t>
         </is>
       </c>
     </row>
@@ -4805,71 +4805,71 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Palmeiras</t>
+          <t>Cruzeiro</t>
         </is>
       </c>
       <c r="G48" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Gremio</t>
+          <t>Fluminense</t>
         </is>
       </c>
       <c r="I48" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J48" t="n">
-        <v>1.45</v>
+        <v>2.76</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>07/05/2023 23:42</t>
+          <t>07/05/2023 02:12</t>
         </is>
       </c>
       <c r="L48" t="n">
-        <v>1.41</v>
+        <v>2.74</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>11/05/2023 02:29</t>
+          <t>11/05/2023 02:27</t>
         </is>
       </c>
       <c r="N48" t="n">
-        <v>4.72</v>
+        <v>3.42</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>07/05/2023 23:42</t>
+          <t>07/05/2023 02:12</t>
         </is>
       </c>
       <c r="P48" t="n">
-        <v>4.71</v>
+        <v>3.21</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>11/05/2023 02:12</t>
+          <t>11/05/2023 02:25</t>
         </is>
       </c>
       <c r="R48" t="n">
-        <v>7.37</v>
+        <v>2.6</v>
       </c>
       <c r="S48" t="inlineStr">
         <is>
-          <t>07/05/2023 23:42</t>
+          <t>07/05/2023 02:12</t>
         </is>
       </c>
       <c r="T48" t="n">
-        <v>8.65</v>
+        <v>2.85</v>
       </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t>11/05/2023 02:12</t>
+          <t>11/05/2023 02:27</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/palmeiras-gremio/U5XPfbcG/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/cruzeiro-fluminense/vuNaldzp/</t>
         </is>
       </c>
     </row>
@@ -5541,7 +5541,7 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Vasco</t>
+          <t>Gremio</t>
         </is>
       </c>
       <c r="G56" t="n">
@@ -5549,63 +5549,63 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Santos</t>
+          <t>Fortaleza</t>
         </is>
       </c>
       <c r="I56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J56" t="n">
-        <v>1.74</v>
+        <v>2.26</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>12/05/2023 00:12</t>
+          <t>12/05/2023 01:12</t>
         </is>
       </c>
       <c r="L56" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>14/05/2023 20:50</t>
+          <t>14/05/2023 20:59</t>
         </is>
       </c>
       <c r="N56" t="n">
-        <v>3.77</v>
+        <v>3.44</v>
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>12/05/2023 00:12</t>
+          <t>12/05/2023 01:12</t>
         </is>
       </c>
       <c r="P56" t="n">
-        <v>3.33</v>
+        <v>3.64</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>14/05/2023 20:58</t>
+          <t>14/05/2023 20:59</t>
         </is>
       </c>
       <c r="R56" t="n">
-        <v>4.95</v>
+        <v>3.27</v>
       </c>
       <c r="S56" t="inlineStr">
         <is>
-          <t>12/05/2023 00:12</t>
+          <t>12/05/2023 01:12</t>
         </is>
       </c>
       <c r="T56" t="n">
-        <v>4.73</v>
+        <v>4.38</v>
       </c>
       <c r="U56" t="inlineStr">
         <is>
-          <t>14/05/2023 20:58</t>
+          <t>14/05/2023 20:59</t>
         </is>
       </c>
       <c r="V56" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/vasco-santos/YDYf8HRF/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/gremio-fortaleza/SYhum7e7/</t>
         </is>
       </c>
     </row>
@@ -5633,7 +5633,7 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Gremio</t>
+          <t>Vasco</t>
         </is>
       </c>
       <c r="G57" t="n">
@@ -5641,63 +5641,63 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Fortaleza</t>
+          <t>Santos</t>
         </is>
       </c>
       <c r="I57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J57" t="n">
-        <v>2.26</v>
+        <v>1.74</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>12/05/2023 01:12</t>
+          <t>12/05/2023 00:12</t>
         </is>
       </c>
       <c r="L57" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>14/05/2023 20:59</t>
+          <t>14/05/2023 20:50</t>
         </is>
       </c>
       <c r="N57" t="n">
-        <v>3.44</v>
+        <v>3.77</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>12/05/2023 01:12</t>
+          <t>12/05/2023 00:12</t>
         </is>
       </c>
       <c r="P57" t="n">
-        <v>3.64</v>
+        <v>3.33</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>14/05/2023 20:59</t>
+          <t>14/05/2023 20:58</t>
         </is>
       </c>
       <c r="R57" t="n">
-        <v>3.27</v>
+        <v>4.95</v>
       </c>
       <c r="S57" t="inlineStr">
         <is>
-          <t>12/05/2023 01:12</t>
+          <t>12/05/2023 00:12</t>
         </is>
       </c>
       <c r="T57" t="n">
-        <v>4.38</v>
+        <v>4.73</v>
       </c>
       <c r="U57" t="inlineStr">
         <is>
-          <t>14/05/2023 20:59</t>
+          <t>14/05/2023 20:58</t>
         </is>
       </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/gremio-fortaleza/SYhum7e7/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/vasco-santos/YDYf8HRF/</t>
         </is>
       </c>
     </row>
@@ -5909,71 +5909,71 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Goias</t>
+          <t>America MG</t>
         </is>
       </c>
       <c r="G60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Botafogo RJ</t>
+          <t>Cruzeiro</t>
         </is>
       </c>
       <c r="I60" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J60" t="n">
-        <v>2.91</v>
+        <v>2.16</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>12/05/2023 00:42</t>
+          <t>11/05/2023 02:42</t>
         </is>
       </c>
       <c r="L60" t="n">
-        <v>3.27</v>
+        <v>2.56</v>
       </c>
       <c r="M60" t="inlineStr">
         <is>
+          <t>14/05/2023 23:27</t>
+        </is>
+      </c>
+      <c r="N60" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>11/05/2023 02:42</t>
+        </is>
+      </c>
+      <c r="P60" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="Q60" t="inlineStr">
+        <is>
           <t>14/05/2023 23:29</t>
         </is>
       </c>
-      <c r="N60" t="n">
-        <v>3.46</v>
-      </c>
-      <c r="O60" t="inlineStr">
-        <is>
-          <t>12/05/2023 00:42</t>
-        </is>
-      </c>
-      <c r="P60" t="n">
-        <v>3.29</v>
-      </c>
-      <c r="Q60" t="inlineStr">
-        <is>
-          <t>14/05/2023 23:29</t>
-        </is>
-      </c>
       <c r="R60" t="n">
-        <v>2.5</v>
+        <v>3.44</v>
       </c>
       <c r="S60" t="inlineStr">
         <is>
-          <t>12/05/2023 00:42</t>
+          <t>11/05/2023 02:42</t>
         </is>
       </c>
       <c r="T60" t="n">
-        <v>2.4</v>
+        <v>2.87</v>
       </c>
       <c r="U60" t="inlineStr">
         <is>
-          <t>14/05/2023 23:29</t>
+          <t>14/05/2023 23:27</t>
         </is>
       </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/goias-botafogo-rj/MyjXlTQf/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/america-mg-cruzeiro/MXZV9U2K/</t>
         </is>
       </c>
     </row>
@@ -6001,46 +6001,46 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>America MG</t>
+          <t>Goias</t>
         </is>
       </c>
       <c r="G61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Cruzeiro</t>
+          <t>Botafogo RJ</t>
         </is>
       </c>
       <c r="I61" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J61" t="n">
-        <v>2.16</v>
+        <v>2.91</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>11/05/2023 02:42</t>
+          <t>12/05/2023 00:42</t>
         </is>
       </c>
       <c r="L61" t="n">
-        <v>2.56</v>
+        <v>3.27</v>
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>14/05/2023 23:27</t>
+          <t>14/05/2023 23:29</t>
         </is>
       </c>
       <c r="N61" t="n">
-        <v>3.59</v>
+        <v>3.46</v>
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>11/05/2023 02:42</t>
+          <t>12/05/2023 00:42</t>
         </is>
       </c>
       <c r="P61" t="n">
-        <v>3.47</v>
+        <v>3.29</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
@@ -6048,24 +6048,24 @@
         </is>
       </c>
       <c r="R61" t="n">
-        <v>3.44</v>
+        <v>2.5</v>
       </c>
       <c r="S61" t="inlineStr">
         <is>
-          <t>11/05/2023 02:42</t>
+          <t>12/05/2023 00:42</t>
         </is>
       </c>
       <c r="T61" t="n">
-        <v>2.87</v>
+        <v>2.4</v>
       </c>
       <c r="U61" t="inlineStr">
         <is>
-          <t>14/05/2023 23:27</t>
+          <t>14/05/2023 23:29</t>
         </is>
       </c>
       <c r="V61" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/america-mg-cruzeiro/MXZV9U2K/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/goias-botafogo-rj/MyjXlTQf/</t>
         </is>
       </c>
     </row>
@@ -6277,30 +6277,30 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Botafogo RJ</t>
+          <t>Sao Paulo</t>
         </is>
       </c>
       <c r="G64" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Fluminense</t>
+          <t>Vasco</t>
         </is>
       </c>
       <c r="I64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J64" t="n">
-        <v>2.78</v>
+        <v>1.94</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>14/05/2023 23:42</t>
+          <t>15/05/2023 04:42</t>
         </is>
       </c>
       <c r="L64" t="n">
-        <v>2.77</v>
+        <v>1.87</v>
       </c>
       <c r="M64" t="inlineStr">
         <is>
@@ -6308,15 +6308,15 @@
         </is>
       </c>
       <c r="N64" t="n">
-        <v>3.31</v>
+        <v>3.59</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>14/05/2023 23:42</t>
+          <t>15/05/2023 04:42</t>
         </is>
       </c>
       <c r="P64" t="n">
-        <v>3.32</v>
+        <v>3.44</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
@@ -6324,24 +6324,24 @@
         </is>
       </c>
       <c r="R64" t="n">
-        <v>2.72</v>
+        <v>4.03</v>
       </c>
       <c r="S64" t="inlineStr">
         <is>
-          <t>14/05/2023 23:42</t>
+          <t>15/05/2023 04:42</t>
         </is>
       </c>
       <c r="T64" t="n">
-        <v>2.74</v>
+        <v>4.88</v>
       </c>
       <c r="U64" t="inlineStr">
         <is>
-          <t>20/05/2023 22:51</t>
+          <t>20/05/2023 23:29</t>
         </is>
       </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/botafogo-rj-fluminense/hGQ148Qs/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/sao-paulo-vasco/zuG63Sul/</t>
         </is>
       </c>
     </row>
@@ -6461,71 +6461,71 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Sao Paulo</t>
+          <t>Bragantino</t>
         </is>
       </c>
       <c r="G66" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Vasco</t>
+          <t>Athletico-PR</t>
         </is>
       </c>
       <c r="I66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J66" t="n">
-        <v>1.94</v>
+        <v>2.05</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>15/05/2023 04:42</t>
+          <t>14/05/2023 23:42</t>
         </is>
       </c>
       <c r="L66" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>20/05/2023 23:29</t>
+          <t>20/05/2023 23:06</t>
         </is>
       </c>
       <c r="N66" t="n">
-        <v>3.59</v>
+        <v>3.43</v>
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>15/05/2023 04:42</t>
+          <t>14/05/2023 23:42</t>
         </is>
       </c>
       <c r="P66" t="n">
-        <v>3.44</v>
+        <v>3.64</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>20/05/2023 23:29</t>
+          <t>20/05/2023 23:28</t>
         </is>
       </c>
       <c r="R66" t="n">
-        <v>4.03</v>
+        <v>3.83</v>
       </c>
       <c r="S66" t="inlineStr">
         <is>
-          <t>15/05/2023 04:42</t>
+          <t>14/05/2023 23:42</t>
         </is>
       </c>
       <c r="T66" t="n">
-        <v>4.88</v>
+        <v>4.63</v>
       </c>
       <c r="U66" t="inlineStr">
         <is>
-          <t>20/05/2023 23:29</t>
+          <t>20/05/2023 23:28</t>
         </is>
       </c>
       <c r="V66" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/sao-paulo-vasco/zuG63Sul/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/bragantino-athletico-pr/MeEE16A0/</t>
         </is>
       </c>
     </row>
@@ -6553,22 +6553,22 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Bragantino</t>
+          <t>Botafogo RJ</t>
         </is>
       </c>
       <c r="G67" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Athletico-PR</t>
+          <t>Fluminense</t>
         </is>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
       <c r="J67" t="n">
-        <v>2.05</v>
+        <v>2.78</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
@@ -6576,15 +6576,15 @@
         </is>
       </c>
       <c r="L67" t="n">
-        <v>1.85</v>
+        <v>2.77</v>
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>20/05/2023 23:06</t>
+          <t>20/05/2023 23:29</t>
         </is>
       </c>
       <c r="N67" t="n">
-        <v>3.43</v>
+        <v>3.31</v>
       </c>
       <c r="O67" t="inlineStr">
         <is>
@@ -6592,15 +6592,15 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>3.64</v>
+        <v>3.32</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>20/05/2023 23:28</t>
+          <t>20/05/2023 23:29</t>
         </is>
       </c>
       <c r="R67" t="n">
-        <v>3.83</v>
+        <v>2.72</v>
       </c>
       <c r="S67" t="inlineStr">
         <is>
@@ -6608,16 +6608,16 @@
         </is>
       </c>
       <c r="T67" t="n">
-        <v>4.63</v>
+        <v>2.74</v>
       </c>
       <c r="U67" t="inlineStr">
         <is>
-          <t>20/05/2023 23:28</t>
+          <t>20/05/2023 22:51</t>
         </is>
       </c>
       <c r="V67" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/bragantino-athletico-pr/MeEE16A0/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/botafogo-rj-fluminense/hGQ148Qs/</t>
         </is>
       </c>
     </row>
@@ -7473,7 +7473,7 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Corinthians</t>
+          <t>Internacional</t>
         </is>
       </c>
       <c r="G77" t="n">
@@ -7481,14 +7481,14 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Fluminense</t>
+          <t>Bahia</t>
         </is>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
       <c r="J77" t="n">
-        <v>2.79</v>
+        <v>1.75</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -7496,15 +7496,15 @@
         </is>
       </c>
       <c r="L77" t="n">
-        <v>2.81</v>
+        <v>2.12</v>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>28/05/2023 20:59</t>
+          <t>28/05/2023 20:51</t>
         </is>
       </c>
       <c r="N77" t="n">
-        <v>3.2</v>
+        <v>3.98</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
@@ -7512,15 +7512,15 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>3.19</v>
+        <v>3.52</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>28/05/2023 20:59</t>
+          <t>28/05/2023 20:51</t>
         </is>
       </c>
       <c r="R77" t="n">
-        <v>2.73</v>
+        <v>4.58</v>
       </c>
       <c r="S77" t="inlineStr">
         <is>
@@ -7528,16 +7528,16 @@
         </is>
       </c>
       <c r="T77" t="n">
-        <v>2.79</v>
+        <v>3.67</v>
       </c>
       <c r="U77" t="inlineStr">
         <is>
-          <t>28/05/2023 20:57</t>
+          <t>28/05/2023 20:51</t>
         </is>
       </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/corinthians-fluminense/00hiFPv0/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/internacional-bahia/jko4CNOI/</t>
         </is>
       </c>
     </row>
@@ -7565,7 +7565,7 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Internacional</t>
+          <t>Corinthians</t>
         </is>
       </c>
       <c r="G78" t="n">
@@ -7573,14 +7573,14 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Bahia</t>
+          <t>Fluminense</t>
         </is>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
       <c r="J78" t="n">
-        <v>1.75</v>
+        <v>2.79</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
@@ -7588,15 +7588,15 @@
         </is>
       </c>
       <c r="L78" t="n">
-        <v>2.12</v>
+        <v>2.81</v>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>28/05/2023 20:51</t>
+          <t>28/05/2023 20:59</t>
         </is>
       </c>
       <c r="N78" t="n">
-        <v>3.98</v>
+        <v>3.2</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
@@ -7604,15 +7604,15 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>3.52</v>
+        <v>3.19</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>28/05/2023 20:51</t>
+          <t>28/05/2023 20:59</t>
         </is>
       </c>
       <c r="R78" t="n">
-        <v>4.58</v>
+        <v>2.73</v>
       </c>
       <c r="S78" t="inlineStr">
         <is>
@@ -7620,16 +7620,16 @@
         </is>
       </c>
       <c r="T78" t="n">
-        <v>3.67</v>
+        <v>2.79</v>
       </c>
       <c r="U78" t="inlineStr">
         <is>
-          <t>28/05/2023 20:51</t>
+          <t>28/05/2023 20:57</t>
         </is>
       </c>
       <c r="V78" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/internacional-bahia/jko4CNOI/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/corinthians-fluminense/00hiFPv0/</t>
         </is>
       </c>
     </row>
@@ -8393,7 +8393,7 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Fluminense</t>
+          <t>Gremio</t>
         </is>
       </c>
       <c r="G87" t="n">
@@ -8401,63 +8401,63 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Bragantino</t>
+          <t>Sao Paulo</t>
         </is>
       </c>
       <c r="I87" t="n">
         <v>1</v>
       </c>
       <c r="J87" t="n">
-        <v>1.76</v>
+        <v>2.1</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>29/05/2023 10:12</t>
+          <t>29/05/2023 20:12</t>
         </is>
       </c>
       <c r="L87" t="n">
-        <v>1.77</v>
+        <v>2.09</v>
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>04/06/2023 20:35</t>
+          <t>04/06/2023 20:59</t>
         </is>
       </c>
       <c r="N87" t="n">
-        <v>3.97</v>
+        <v>3.36</v>
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>29/05/2023 10:12</t>
+          <t>29/05/2023 20:12</t>
         </is>
       </c>
       <c r="P87" t="n">
-        <v>3.73</v>
+        <v>3.32</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>04/06/2023 20:58</t>
+          <t>04/06/2023 20:59</t>
         </is>
       </c>
       <c r="R87" t="n">
-        <v>4.51</v>
+        <v>3.75</v>
       </c>
       <c r="S87" t="inlineStr">
         <is>
-          <t>29/05/2023 10:12</t>
+          <t>29/05/2023 20:12</t>
         </is>
       </c>
       <c r="T87" t="n">
-        <v>4.99</v>
+        <v>4.01</v>
       </c>
       <c r="U87" t="inlineStr">
         <is>
-          <t>04/06/2023 20:36</t>
+          <t>04/06/2023 20:59</t>
         </is>
       </c>
       <c r="V87" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/fluminense-bragantino/4d1KED5n/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/gremio-sao-paulo/hv9x99ZN/</t>
         </is>
       </c>
     </row>
@@ -8485,7 +8485,7 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Gremio</t>
+          <t>Fluminense</t>
         </is>
       </c>
       <c r="G88" t="n">
@@ -8493,63 +8493,63 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Sao Paulo</t>
+          <t>Bragantino</t>
         </is>
       </c>
       <c r="I88" t="n">
         <v>1</v>
       </c>
       <c r="J88" t="n">
-        <v>2.1</v>
+        <v>1.76</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>29/05/2023 20:12</t>
+          <t>29/05/2023 10:12</t>
         </is>
       </c>
       <c r="L88" t="n">
-        <v>2.09</v>
+        <v>1.77</v>
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>04/06/2023 20:59</t>
+          <t>04/06/2023 20:35</t>
         </is>
       </c>
       <c r="N88" t="n">
-        <v>3.36</v>
+        <v>3.97</v>
       </c>
       <c r="O88" t="inlineStr">
         <is>
-          <t>29/05/2023 20:12</t>
+          <t>29/05/2023 10:12</t>
         </is>
       </c>
       <c r="P88" t="n">
-        <v>3.32</v>
+        <v>3.73</v>
       </c>
       <c r="Q88" t="inlineStr">
         <is>
-          <t>04/06/2023 20:59</t>
+          <t>04/06/2023 20:58</t>
         </is>
       </c>
       <c r="R88" t="n">
-        <v>3.75</v>
+        <v>4.51</v>
       </c>
       <c r="S88" t="inlineStr">
         <is>
-          <t>29/05/2023 20:12</t>
+          <t>29/05/2023 10:12</t>
         </is>
       </c>
       <c r="T88" t="n">
-        <v>4.01</v>
+        <v>4.99</v>
       </c>
       <c r="U88" t="inlineStr">
         <is>
-          <t>04/06/2023 20:59</t>
+          <t>04/06/2023 20:36</t>
         </is>
       </c>
       <c r="V88" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/gremio-sao-paulo/hv9x99ZN/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/fluminense-bragantino/4d1KED5n/</t>
         </is>
       </c>
     </row>
@@ -8945,7 +8945,7 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Atletico-MG</t>
+          <t>Corinthians</t>
         </is>
       </c>
       <c r="G93" t="n">
@@ -8953,14 +8953,14 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Bragantino</t>
+          <t>Cuiaba</t>
         </is>
       </c>
       <c r="I93" t="n">
         <v>1</v>
       </c>
       <c r="J93" t="n">
-        <v>1.62</v>
+        <v>1.75</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
@@ -8972,11 +8972,11 @@
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>10/06/2023 23:25</t>
+          <t>10/06/2023 23:28</t>
         </is>
       </c>
       <c r="N93" t="n">
-        <v>4.04</v>
+        <v>3.65</v>
       </c>
       <c r="O93" t="inlineStr">
         <is>
@@ -8984,15 +8984,15 @@
         </is>
       </c>
       <c r="P93" t="n">
-        <v>3.43</v>
+        <v>3.29</v>
       </c>
       <c r="Q93" t="inlineStr">
         <is>
-          <t>10/06/2023 23:25</t>
+          <t>10/06/2023 23:29</t>
         </is>
       </c>
       <c r="R93" t="n">
-        <v>5.9</v>
+        <v>5.08</v>
       </c>
       <c r="S93" t="inlineStr">
         <is>
@@ -9000,7 +9000,7 @@
         </is>
       </c>
       <c r="T93" t="n">
-        <v>5.3</v>
+        <v>5.68</v>
       </c>
       <c r="U93" t="inlineStr">
         <is>
@@ -9009,7 +9009,7 @@
       </c>
       <c r="V93" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/atletico-mg-bragantino/r7du6tJq/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/corinthians-cuiaba/l6v7OlZA/</t>
         </is>
       </c>
     </row>
@@ -9037,30 +9037,30 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Corinthians</t>
+          <t>Bahia</t>
         </is>
       </c>
       <c r="G94" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Cuiaba</t>
+          <t>Cruzeiro</t>
         </is>
       </c>
       <c r="I94" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J94" t="n">
-        <v>1.75</v>
+        <v>2.29</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>05/06/2023 02:42</t>
+          <t>03/06/2023 23:42</t>
         </is>
       </c>
       <c r="L94" t="n">
-        <v>1.82</v>
+        <v>2.87</v>
       </c>
       <c r="M94" t="inlineStr">
         <is>
@@ -9068,40 +9068,40 @@
         </is>
       </c>
       <c r="N94" t="n">
-        <v>3.65</v>
+        <v>3.38</v>
       </c>
       <c r="O94" t="inlineStr">
         <is>
-          <t>05/06/2023 02:42</t>
+          <t>03/06/2023 23:42</t>
         </is>
       </c>
       <c r="P94" t="n">
-        <v>3.29</v>
+        <v>3.27</v>
       </c>
       <c r="Q94" t="inlineStr">
         <is>
-          <t>10/06/2023 23:29</t>
+          <t>10/06/2023 23:21</t>
         </is>
       </c>
       <c r="R94" t="n">
-        <v>5.08</v>
+        <v>3.27</v>
       </c>
       <c r="S94" t="inlineStr">
         <is>
-          <t>05/06/2023 02:42</t>
+          <t>03/06/2023 23:42</t>
         </is>
       </c>
       <c r="T94" t="n">
-        <v>5.68</v>
+        <v>2.68</v>
       </c>
       <c r="U94" t="inlineStr">
         <is>
-          <t>10/06/2023 23:29</t>
+          <t>10/06/2023 23:28</t>
         </is>
       </c>
       <c r="V94" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/corinthians-cuiaba/l6v7OlZA/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/bahia-cruzeiro/hxvWS3Qd/</t>
         </is>
       </c>
     </row>
@@ -9129,71 +9129,71 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Bahia</t>
+          <t>Atletico-MG</t>
         </is>
       </c>
       <c r="G95" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Cruzeiro</t>
+          <t>Bragantino</t>
         </is>
       </c>
       <c r="I95" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J95" t="n">
-        <v>2.29</v>
+        <v>1.62</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>03/06/2023 23:42</t>
+          <t>05/06/2023 02:42</t>
         </is>
       </c>
       <c r="L95" t="n">
-        <v>2.87</v>
+        <v>1.82</v>
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>10/06/2023 23:28</t>
+          <t>10/06/2023 23:25</t>
         </is>
       </c>
       <c r="N95" t="n">
-        <v>3.38</v>
+        <v>4.04</v>
       </c>
       <c r="O95" t="inlineStr">
         <is>
-          <t>03/06/2023 23:42</t>
+          <t>05/06/2023 02:42</t>
         </is>
       </c>
       <c r="P95" t="n">
-        <v>3.27</v>
+        <v>3.43</v>
       </c>
       <c r="Q95" t="inlineStr">
         <is>
-          <t>10/06/2023 23:21</t>
+          <t>10/06/2023 23:25</t>
         </is>
       </c>
       <c r="R95" t="n">
-        <v>3.27</v>
+        <v>5.9</v>
       </c>
       <c r="S95" t="inlineStr">
         <is>
-          <t>03/06/2023 23:42</t>
+          <t>05/06/2023 02:42</t>
         </is>
       </c>
       <c r="T95" t="n">
-        <v>2.68</v>
+        <v>5.3</v>
       </c>
       <c r="U95" t="inlineStr">
         <is>
-          <t>10/06/2023 23:28</t>
+          <t>10/06/2023 23:29</t>
         </is>
       </c>
       <c r="V95" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/bahia-cruzeiro/hxvWS3Qd/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/atletico-mg-bragantino/r7du6tJq/</t>
         </is>
       </c>
     </row>
@@ -14189,71 +14189,71 @@
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>Flamengo RJ</t>
+          <t>Palmeiras</t>
         </is>
       </c>
       <c r="G150" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>America MG</t>
+          <t>Fortaleza</t>
         </is>
       </c>
       <c r="I150" t="n">
         <v>1</v>
       </c>
       <c r="J150" t="n">
-        <v>1.38</v>
+        <v>1.58</v>
       </c>
       <c r="K150" t="inlineStr">
         <is>
-          <t>16/07/2023 21:12</t>
+          <t>16/07/2023 23:42</t>
         </is>
       </c>
       <c r="L150" t="n">
-        <v>1.35</v>
+        <v>1.55</v>
       </c>
       <c r="M150" t="inlineStr">
         <is>
-          <t>22/07/2023 20:57</t>
+          <t>22/07/2023 20:50</t>
         </is>
       </c>
       <c r="N150" t="n">
-        <v>5.28</v>
+        <v>4.23</v>
       </c>
       <c r="O150" t="inlineStr">
         <is>
-          <t>16/07/2023 21:12</t>
+          <t>16/07/2023 23:42</t>
         </is>
       </c>
       <c r="P150" t="n">
-        <v>5.17</v>
+        <v>4.05</v>
       </c>
       <c r="Q150" t="inlineStr">
         <is>
-          <t>22/07/2023 20:59</t>
+          <t>22/07/2023 20:50</t>
         </is>
       </c>
       <c r="R150" t="n">
-        <v>7.6</v>
+        <v>5.78</v>
       </c>
       <c r="S150" t="inlineStr">
         <is>
-          <t>16/07/2023 21:12</t>
+          <t>16/07/2023 23:42</t>
         </is>
       </c>
       <c r="T150" t="n">
-        <v>10.13</v>
+        <v>7.15</v>
       </c>
       <c r="U150" t="inlineStr">
         <is>
-          <t>22/07/2023 20:59</t>
+          <t>22/07/2023 20:50</t>
         </is>
       </c>
       <c r="V150" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/flamengo-rj-america-mg/8lMRB5jb/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/palmeiras-fortaleza/GEPZ9qLA/</t>
         </is>
       </c>
     </row>
@@ -14281,71 +14281,71 @@
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>Palmeiras</t>
+          <t>Flamengo RJ</t>
         </is>
       </c>
       <c r="G151" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>Fortaleza</t>
+          <t>America MG</t>
         </is>
       </c>
       <c r="I151" t="n">
         <v>1</v>
       </c>
       <c r="J151" t="n">
-        <v>1.58</v>
+        <v>1.38</v>
       </c>
       <c r="K151" t="inlineStr">
         <is>
-          <t>16/07/2023 23:42</t>
+          <t>16/07/2023 21:12</t>
         </is>
       </c>
       <c r="L151" t="n">
-        <v>1.55</v>
+        <v>1.35</v>
       </c>
       <c r="M151" t="inlineStr">
         <is>
-          <t>22/07/2023 20:50</t>
+          <t>22/07/2023 20:57</t>
         </is>
       </c>
       <c r="N151" t="n">
-        <v>4.23</v>
+        <v>5.28</v>
       </c>
       <c r="O151" t="inlineStr">
         <is>
-          <t>16/07/2023 23:42</t>
+          <t>16/07/2023 21:12</t>
         </is>
       </c>
       <c r="P151" t="n">
-        <v>4.05</v>
+        <v>5.17</v>
       </c>
       <c r="Q151" t="inlineStr">
         <is>
-          <t>22/07/2023 20:50</t>
+          <t>22/07/2023 20:59</t>
         </is>
       </c>
       <c r="R151" t="n">
-        <v>5.78</v>
+        <v>7.6</v>
       </c>
       <c r="S151" t="inlineStr">
         <is>
-          <t>16/07/2023 23:42</t>
+          <t>16/07/2023 21:12</t>
         </is>
       </c>
       <c r="T151" t="n">
-        <v>7.15</v>
+        <v>10.13</v>
       </c>
       <c r="U151" t="inlineStr">
         <is>
-          <t>22/07/2023 20:50</t>
+          <t>22/07/2023 20:59</t>
         </is>
       </c>
       <c r="V151" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/palmeiras-fortaleza/GEPZ9qLA/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/flamengo-rj-america-mg/8lMRB5jb/</t>
         </is>
       </c>
     </row>
@@ -14649,7 +14649,7 @@
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>Cruzeiro</t>
+          <t>Bragantino</t>
         </is>
       </c>
       <c r="G155" t="n">
@@ -14657,63 +14657,63 @@
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>Goias</t>
+          <t>Internacional</t>
         </is>
       </c>
       <c r="I155" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J155" t="n">
-        <v>1.63</v>
+        <v>1.83</v>
       </c>
       <c r="K155" t="inlineStr">
         <is>
-          <t>18/07/2023 01:12</t>
+          <t>16/07/2023 23:42</t>
         </is>
       </c>
       <c r="L155" t="n">
-        <v>1.54</v>
+        <v>1.75</v>
       </c>
       <c r="M155" t="inlineStr">
         <is>
-          <t>23/07/2023 20:53</t>
+          <t>23/07/2023 20:59</t>
         </is>
       </c>
       <c r="N155" t="n">
-        <v>3.82</v>
+        <v>3.62</v>
       </c>
       <c r="O155" t="inlineStr">
         <is>
-          <t>18/07/2023 01:12</t>
+          <t>16/07/2023 23:42</t>
         </is>
       </c>
       <c r="P155" t="n">
-        <v>4.05</v>
+        <v>3.72</v>
       </c>
       <c r="Q155" t="inlineStr">
         <is>
-          <t>23/07/2023 20:55</t>
+          <t>23/07/2023 20:59</t>
         </is>
       </c>
       <c r="R155" t="n">
-        <v>5.9</v>
+        <v>4.59</v>
       </c>
       <c r="S155" t="inlineStr">
         <is>
-          <t>18/07/2023 01:12</t>
+          <t>16/07/2023 23:42</t>
         </is>
       </c>
       <c r="T155" t="n">
-        <v>7.32</v>
+        <v>5.31</v>
       </c>
       <c r="U155" t="inlineStr">
         <is>
-          <t>23/07/2023 20:55</t>
+          <t>23/07/2023 20:59</t>
         </is>
       </c>
       <c r="V155" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/cruzeiro-goias/0Igv7s5T/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/bragantino-internacional/MRfz8NkN/</t>
         </is>
       </c>
     </row>
@@ -14741,30 +14741,30 @@
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>Bragantino</t>
+          <t>Santos</t>
         </is>
       </c>
       <c r="G156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>Internacional</t>
+          <t>Botafogo RJ</t>
         </is>
       </c>
       <c r="I156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J156" t="n">
-        <v>1.83</v>
+        <v>2.87</v>
       </c>
       <c r="K156" t="inlineStr">
         <is>
-          <t>16/07/2023 23:42</t>
+          <t>16/07/2023 21:12</t>
         </is>
       </c>
       <c r="L156" t="n">
-        <v>1.75</v>
+        <v>2.99</v>
       </c>
       <c r="M156" t="inlineStr">
         <is>
@@ -14772,40 +14772,40 @@
         </is>
       </c>
       <c r="N156" t="n">
-        <v>3.62</v>
+        <v>3</v>
       </c>
       <c r="O156" t="inlineStr">
         <is>
-          <t>16/07/2023 23:42</t>
+          <t>16/07/2023 21:12</t>
         </is>
       </c>
       <c r="P156" t="n">
-        <v>3.72</v>
+        <v>2.97</v>
       </c>
       <c r="Q156" t="inlineStr">
         <is>
-          <t>23/07/2023 20:59</t>
+          <t>23/07/2023 20:48</t>
         </is>
       </c>
       <c r="R156" t="n">
-        <v>4.59</v>
+        <v>2.8</v>
       </c>
       <c r="S156" t="inlineStr">
         <is>
-          <t>16/07/2023 23:42</t>
+          <t>16/07/2023 21:12</t>
         </is>
       </c>
       <c r="T156" t="n">
-        <v>5.31</v>
+        <v>2.81</v>
       </c>
       <c r="U156" t="inlineStr">
         <is>
-          <t>23/07/2023 20:59</t>
+          <t>23/07/2023 20:58</t>
         </is>
       </c>
       <c r="V156" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/bragantino-internacional/MRfz8NkN/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/santos-botafogo-rj/f5Ow93zH/</t>
         </is>
       </c>
     </row>
@@ -14833,71 +14833,71 @@
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>Santos</t>
+          <t>Cruzeiro</t>
         </is>
       </c>
       <c r="G157" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>Botafogo RJ</t>
+          <t>Goias</t>
         </is>
       </c>
       <c r="I157" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J157" t="n">
-        <v>2.87</v>
+        <v>1.63</v>
       </c>
       <c r="K157" t="inlineStr">
         <is>
-          <t>16/07/2023 21:12</t>
+          <t>18/07/2023 01:12</t>
         </is>
       </c>
       <c r="L157" t="n">
-        <v>2.99</v>
+        <v>1.54</v>
       </c>
       <c r="M157" t="inlineStr">
         <is>
-          <t>23/07/2023 20:59</t>
+          <t>23/07/2023 20:53</t>
         </is>
       </c>
       <c r="N157" t="n">
-        <v>3</v>
+        <v>3.82</v>
       </c>
       <c r="O157" t="inlineStr">
         <is>
-          <t>16/07/2023 21:12</t>
+          <t>18/07/2023 01:12</t>
         </is>
       </c>
       <c r="P157" t="n">
-        <v>2.97</v>
+        <v>4.05</v>
       </c>
       <c r="Q157" t="inlineStr">
         <is>
-          <t>23/07/2023 20:48</t>
+          <t>23/07/2023 20:55</t>
         </is>
       </c>
       <c r="R157" t="n">
-        <v>2.8</v>
+        <v>5.9</v>
       </c>
       <c r="S157" t="inlineStr">
         <is>
-          <t>16/07/2023 21:12</t>
+          <t>18/07/2023 01:12</t>
         </is>
       </c>
       <c r="T157" t="n">
-        <v>2.81</v>
+        <v>7.32</v>
       </c>
       <c r="U157" t="inlineStr">
         <is>
-          <t>23/07/2023 20:58</t>
+          <t>23/07/2023 20:55</t>
         </is>
       </c>
       <c r="V157" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/santos-botafogo-rj/f5Ow93zH/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/cruzeiro-goias/0Igv7s5T/</t>
         </is>
       </c>
     </row>
@@ -15109,71 +15109,71 @@
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>Athletico-PR</t>
+          <t>Internacional</t>
         </is>
       </c>
       <c r="G160" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>Cruzeiro</t>
+          <t>Cuiaba</t>
         </is>
       </c>
       <c r="I160" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J160" t="n">
-        <v>2.03</v>
+        <v>1.88</v>
       </c>
       <c r="K160" t="inlineStr">
         <is>
-          <t>23/07/2023 23:42</t>
+          <t>23/07/2023 21:12</t>
         </is>
       </c>
       <c r="L160" t="n">
-        <v>1.86</v>
+        <v>1.81</v>
       </c>
       <c r="M160" t="inlineStr">
         <is>
-          <t>29/07/2023 20:45</t>
+          <t>29/07/2023 20:51</t>
         </is>
       </c>
       <c r="N160" t="n">
-        <v>3.38</v>
+        <v>3.23</v>
       </c>
       <c r="O160" t="inlineStr">
         <is>
-          <t>23/07/2023 23:42</t>
+          <t>23/07/2023 21:12</t>
         </is>
       </c>
       <c r="P160" t="n">
-        <v>3.49</v>
+        <v>3.44</v>
       </c>
       <c r="Q160" t="inlineStr">
         <is>
-          <t>29/07/2023 20:45</t>
+          <t>29/07/2023 20:59</t>
         </is>
       </c>
       <c r="R160" t="n">
-        <v>3.98</v>
+        <v>4.99</v>
       </c>
       <c r="S160" t="inlineStr">
         <is>
-          <t>23/07/2023 23:42</t>
+          <t>23/07/2023 21:12</t>
         </is>
       </c>
       <c r="T160" t="n">
-        <v>4.87</v>
+        <v>5.41</v>
       </c>
       <c r="U160" t="inlineStr">
         <is>
-          <t>29/07/2023 20:58</t>
+          <t>29/07/2023 20:59</t>
         </is>
       </c>
       <c r="V160" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/athletico-pr-cruzeiro/6JbhEbCd/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/internacional-cuiaba/SSalFvcj/</t>
         </is>
       </c>
     </row>
@@ -15201,7 +15201,7 @@
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>Internacional</t>
+          <t>Fluminense</t>
         </is>
       </c>
       <c r="G161" t="n">
@@ -15209,38 +15209,38 @@
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>Cuiaba</t>
+          <t>Santos</t>
         </is>
       </c>
       <c r="I161" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J161" t="n">
-        <v>1.88</v>
+        <v>1.62</v>
       </c>
       <c r="K161" t="inlineStr">
         <is>
-          <t>23/07/2023 21:12</t>
+          <t>25/07/2023 00:12</t>
         </is>
       </c>
       <c r="L161" t="n">
-        <v>1.81</v>
+        <v>1.55</v>
       </c>
       <c r="M161" t="inlineStr">
         <is>
-          <t>29/07/2023 20:51</t>
+          <t>29/07/2023 20:58</t>
         </is>
       </c>
       <c r="N161" t="n">
-        <v>3.23</v>
+        <v>3.83</v>
       </c>
       <c r="O161" t="inlineStr">
         <is>
-          <t>23/07/2023 21:12</t>
+          <t>25/07/2023 00:12</t>
         </is>
       </c>
       <c r="P161" t="n">
-        <v>3.44</v>
+        <v>3.98</v>
       </c>
       <c r="Q161" t="inlineStr">
         <is>
@@ -15248,15 +15248,15 @@
         </is>
       </c>
       <c r="R161" t="n">
-        <v>4.99</v>
+        <v>6.02</v>
       </c>
       <c r="S161" t="inlineStr">
         <is>
-          <t>23/07/2023 21:12</t>
+          <t>25/07/2023 00:12</t>
         </is>
       </c>
       <c r="T161" t="n">
-        <v>5.41</v>
+        <v>7.47</v>
       </c>
       <c r="U161" t="inlineStr">
         <is>
@@ -15265,7 +15265,7 @@
       </c>
       <c r="V161" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/internacional-cuiaba/SSalFvcj/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/fluminense-santos/tWR0Orz4/</t>
         </is>
       </c>
     </row>
@@ -15293,71 +15293,71 @@
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>Fluminense</t>
+          <t>Athletico-PR</t>
         </is>
       </c>
       <c r="G162" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>Santos</t>
+          <t>Cruzeiro</t>
         </is>
       </c>
       <c r="I162" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J162" t="n">
-        <v>1.62</v>
+        <v>2.03</v>
       </c>
       <c r="K162" t="inlineStr">
         <is>
-          <t>25/07/2023 00:12</t>
+          <t>23/07/2023 23:42</t>
         </is>
       </c>
       <c r="L162" t="n">
-        <v>1.55</v>
+        <v>1.86</v>
       </c>
       <c r="M162" t="inlineStr">
         <is>
+          <t>29/07/2023 20:45</t>
+        </is>
+      </c>
+      <c r="N162" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="O162" t="inlineStr">
+        <is>
+          <t>23/07/2023 23:42</t>
+        </is>
+      </c>
+      <c r="P162" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="Q162" t="inlineStr">
+        <is>
+          <t>29/07/2023 20:45</t>
+        </is>
+      </c>
+      <c r="R162" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="S162" t="inlineStr">
+        <is>
+          <t>23/07/2023 23:42</t>
+        </is>
+      </c>
+      <c r="T162" t="n">
+        <v>4.87</v>
+      </c>
+      <c r="U162" t="inlineStr">
+        <is>
           <t>29/07/2023 20:58</t>
         </is>
       </c>
-      <c r="N162" t="n">
-        <v>3.83</v>
-      </c>
-      <c r="O162" t="inlineStr">
-        <is>
-          <t>25/07/2023 00:12</t>
-        </is>
-      </c>
-      <c r="P162" t="n">
-        <v>3.98</v>
-      </c>
-      <c r="Q162" t="inlineStr">
-        <is>
-          <t>29/07/2023 20:59</t>
-        </is>
-      </c>
-      <c r="R162" t="n">
-        <v>6.02</v>
-      </c>
-      <c r="S162" t="inlineStr">
-        <is>
-          <t>25/07/2023 00:12</t>
-        </is>
-      </c>
-      <c r="T162" t="n">
-        <v>7.47</v>
-      </c>
-      <c r="U162" t="inlineStr">
-        <is>
-          <t>29/07/2023 20:59</t>
-        </is>
-      </c>
       <c r="V162" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/fluminense-santos/tWR0Orz4/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/athletico-pr-cruzeiro/6JbhEbCd/</t>
         </is>
       </c>
     </row>
@@ -16581,71 +16581,71 @@
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>Coritiba</t>
+          <t>Bahia</t>
         </is>
       </c>
       <c r="G176" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>Bragantino</t>
+          <t>America MG</t>
         </is>
       </c>
       <c r="I176" t="n">
         <v>1</v>
       </c>
       <c r="J176" t="n">
-        <v>2.97</v>
+        <v>2.02</v>
       </c>
       <c r="K176" t="inlineStr">
         <is>
-          <t>30/07/2023 21:12</t>
+          <t>31/07/2023 03:12</t>
         </is>
       </c>
       <c r="L176" t="n">
-        <v>3.58</v>
+        <v>1.94</v>
       </c>
       <c r="M176" t="inlineStr">
         <is>
-          <t>06/08/2023 23:25</t>
+          <t>06/08/2023 23:29</t>
         </is>
       </c>
       <c r="N176" t="n">
-        <v>3.29</v>
+        <v>3.55</v>
       </c>
       <c r="O176" t="inlineStr">
         <is>
-          <t>30/07/2023 21:12</t>
+          <t>31/07/2023 03:12</t>
         </is>
       </c>
       <c r="P176" t="n">
-        <v>3.33</v>
+        <v>3.68</v>
       </c>
       <c r="Q176" t="inlineStr">
         <is>
-          <t>06/08/2023 23:26</t>
+          <t>06/08/2023 23:29</t>
         </is>
       </c>
       <c r="R176" t="n">
-        <v>2.51</v>
+        <v>3.92</v>
       </c>
       <c r="S176" t="inlineStr">
         <is>
-          <t>30/07/2023 21:12</t>
+          <t>31/07/2023 03:12</t>
         </is>
       </c>
       <c r="T176" t="n">
-        <v>2.23</v>
+        <v>4.12</v>
       </c>
       <c r="U176" t="inlineStr">
         <is>
-          <t>06/08/2023 23:22</t>
+          <t>06/08/2023 23:29</t>
         </is>
       </c>
       <c r="V176" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/coritiba-bragantino/YgIZQyd2/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/bahia-america-mg/CvlGZTa2/</t>
         </is>
       </c>
     </row>
@@ -16765,71 +16765,71 @@
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>Bahia</t>
+          <t>Coritiba</t>
         </is>
       </c>
       <c r="G178" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>America MG</t>
+          <t>Bragantino</t>
         </is>
       </c>
       <c r="I178" t="n">
         <v>1</v>
       </c>
       <c r="J178" t="n">
-        <v>2.02</v>
+        <v>2.97</v>
       </c>
       <c r="K178" t="inlineStr">
         <is>
-          <t>31/07/2023 03:12</t>
+          <t>30/07/2023 21:12</t>
         </is>
       </c>
       <c r="L178" t="n">
-        <v>1.94</v>
+        <v>3.58</v>
       </c>
       <c r="M178" t="inlineStr">
         <is>
-          <t>06/08/2023 23:29</t>
+          <t>06/08/2023 23:25</t>
         </is>
       </c>
       <c r="N178" t="n">
-        <v>3.55</v>
+        <v>3.29</v>
       </c>
       <c r="O178" t="inlineStr">
         <is>
-          <t>31/07/2023 03:12</t>
+          <t>30/07/2023 21:12</t>
         </is>
       </c>
       <c r="P178" t="n">
-        <v>3.68</v>
+        <v>3.33</v>
       </c>
       <c r="Q178" t="inlineStr">
         <is>
-          <t>06/08/2023 23:29</t>
+          <t>06/08/2023 23:26</t>
         </is>
       </c>
       <c r="R178" t="n">
-        <v>3.92</v>
+        <v>2.51</v>
       </c>
       <c r="S178" t="inlineStr">
         <is>
-          <t>31/07/2023 03:12</t>
+          <t>30/07/2023 21:12</t>
         </is>
       </c>
       <c r="T178" t="n">
-        <v>4.12</v>
+        <v>2.23</v>
       </c>
       <c r="U178" t="inlineStr">
         <is>
-          <t>06/08/2023 23:29</t>
+          <t>06/08/2023 23:22</t>
         </is>
       </c>
       <c r="V178" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/bahia-america-mg/CvlGZTa2/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/coritiba-bragantino/YgIZQyd2/</t>
         </is>
       </c>
     </row>
@@ -20077,22 +20077,22 @@
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>Corinthians</t>
+          <t>Fluminense</t>
         </is>
       </c>
       <c r="G214" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>Palmeiras</t>
+          <t>Fortaleza</t>
         </is>
       </c>
       <c r="I214" t="n">
         <v>0</v>
       </c>
       <c r="J214" t="n">
-        <v>3.34</v>
+        <v>1.84</v>
       </c>
       <c r="K214" t="inlineStr">
         <is>
@@ -20100,15 +20100,15 @@
         </is>
       </c>
       <c r="L214" t="n">
-        <v>4.92</v>
+        <v>1.95</v>
       </c>
       <c r="M214" t="inlineStr">
         <is>
-          <t>03/09/2023 20:58</t>
+          <t>03/09/2023 20:56</t>
         </is>
       </c>
       <c r="N214" t="n">
-        <v>3.13</v>
+        <v>3.66</v>
       </c>
       <c r="O214" t="inlineStr">
         <is>
@@ -20116,32 +20116,32 @@
         </is>
       </c>
       <c r="P214" t="n">
-        <v>3.25</v>
+        <v>3.45</v>
       </c>
       <c r="Q214" t="inlineStr">
         <is>
+          <t>03/09/2023 20:55</t>
+        </is>
+      </c>
+      <c r="R214" t="n">
+        <v>4.62</v>
+      </c>
+      <c r="S214" t="inlineStr">
+        <is>
+          <t>27/08/2023 22:42</t>
+        </is>
+      </c>
+      <c r="T214" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="U214" t="inlineStr">
+        <is>
           <t>03/09/2023 20:56</t>
         </is>
       </c>
-      <c r="R214" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="S214" t="inlineStr">
-        <is>
-          <t>27/08/2023 22:42</t>
-        </is>
-      </c>
-      <c r="T214" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="U214" t="inlineStr">
-        <is>
-          <t>03/09/2023 20:56</t>
-        </is>
-      </c>
       <c r="V214" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/corinthians-palmeiras/x2ebjDtB/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/fluminense-fortaleza/jogngFdh/</t>
         </is>
       </c>
     </row>
@@ -20169,22 +20169,22 @@
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>Fluminense</t>
+          <t>Corinthians</t>
         </is>
       </c>
       <c r="G215" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>Fortaleza</t>
+          <t>Palmeiras</t>
         </is>
       </c>
       <c r="I215" t="n">
         <v>0</v>
       </c>
       <c r="J215" t="n">
-        <v>1.84</v>
+        <v>3.34</v>
       </c>
       <c r="K215" t="inlineStr">
         <is>
@@ -20192,39 +20192,39 @@
         </is>
       </c>
       <c r="L215" t="n">
-        <v>1.95</v>
+        <v>4.92</v>
       </c>
       <c r="M215" t="inlineStr">
         <is>
+          <t>03/09/2023 20:58</t>
+        </is>
+      </c>
+      <c r="N215" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="O215" t="inlineStr">
+        <is>
+          <t>27/08/2023 22:42</t>
+        </is>
+      </c>
+      <c r="P215" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q215" t="inlineStr">
+        <is>
           <t>03/09/2023 20:56</t>
         </is>
       </c>
-      <c r="N215" t="n">
-        <v>3.66</v>
-      </c>
-      <c r="O215" t="inlineStr">
+      <c r="R215" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="S215" t="inlineStr">
         <is>
           <t>27/08/2023 22:42</t>
         </is>
       </c>
-      <c r="P215" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="Q215" t="inlineStr">
-        <is>
-          <t>03/09/2023 20:55</t>
-        </is>
-      </c>
-      <c r="R215" t="n">
-        <v>4.62</v>
-      </c>
-      <c r="S215" t="inlineStr">
-        <is>
-          <t>27/08/2023 22:42</t>
-        </is>
-      </c>
       <c r="T215" t="n">
-        <v>4.41</v>
+        <v>1.93</v>
       </c>
       <c r="U215" t="inlineStr">
         <is>
@@ -20233,7 +20233,7 @@
       </c>
       <c r="V215" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/fluminense-fortaleza/jogngFdh/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/corinthians-palmeiras/x2ebjDtB/</t>
         </is>
       </c>
     </row>
@@ -20261,71 +20261,71 @@
       </c>
       <c r="F216" t="inlineStr">
         <is>
-          <t>America MG</t>
+          <t>Bahia</t>
         </is>
       </c>
       <c r="G216" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>Santos</t>
+          <t>Vasco</t>
         </is>
       </c>
       <c r="I216" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J216" t="n">
-        <v>2.1</v>
+        <v>2.02</v>
       </c>
       <c r="K216" t="inlineStr">
         <is>
-          <t>27/08/2023 20:12</t>
+          <t>27/08/2023 22:42</t>
         </is>
       </c>
       <c r="L216" t="n">
-        <v>2.21</v>
+        <v>2.11</v>
       </c>
       <c r="M216" t="inlineStr">
         <is>
-          <t>03/09/2023 23:28</t>
+          <t>03/09/2023 23:26</t>
         </is>
       </c>
       <c r="N216" t="n">
-        <v>3.35</v>
+        <v>3.43</v>
       </c>
       <c r="O216" t="inlineStr">
         <is>
-          <t>27/08/2023 20:12</t>
+          <t>27/08/2023 22:42</t>
         </is>
       </c>
       <c r="P216" t="n">
-        <v>3.2</v>
+        <v>3.33</v>
       </c>
       <c r="Q216" t="inlineStr">
         <is>
-          <t>03/09/2023 23:28</t>
+          <t>03/09/2023 23:29</t>
         </is>
       </c>
       <c r="R216" t="n">
-        <v>3.88</v>
+        <v>4.04</v>
       </c>
       <c r="S216" t="inlineStr">
         <is>
-          <t>27/08/2023 20:12</t>
+          <t>27/08/2023 22:42</t>
         </is>
       </c>
       <c r="T216" t="n">
-        <v>3.8</v>
+        <v>3.95</v>
       </c>
       <c r="U216" t="inlineStr">
         <is>
-          <t>03/09/2023 23:28</t>
+          <t>03/09/2023 23:29</t>
         </is>
       </c>
       <c r="V216" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/america-mg-santos/ruIP6YQi/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/bahia-vasco/4lJL7EBo/</t>
         </is>
       </c>
     </row>
@@ -20353,71 +20353,71 @@
       </c>
       <c r="F217" t="inlineStr">
         <is>
-          <t>Bahia</t>
+          <t>America MG</t>
         </is>
       </c>
       <c r="G217" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>Vasco</t>
+          <t>Santos</t>
         </is>
       </c>
       <c r="I217" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J217" t="n">
-        <v>2.02</v>
+        <v>2.1</v>
       </c>
       <c r="K217" t="inlineStr">
         <is>
-          <t>27/08/2023 22:42</t>
+          <t>27/08/2023 20:12</t>
         </is>
       </c>
       <c r="L217" t="n">
-        <v>2.11</v>
+        <v>2.21</v>
       </c>
       <c r="M217" t="inlineStr">
         <is>
-          <t>03/09/2023 23:26</t>
+          <t>03/09/2023 23:28</t>
         </is>
       </c>
       <c r="N217" t="n">
-        <v>3.43</v>
+        <v>3.35</v>
       </c>
       <c r="O217" t="inlineStr">
         <is>
-          <t>27/08/2023 22:42</t>
+          <t>27/08/2023 20:12</t>
         </is>
       </c>
       <c r="P217" t="n">
-        <v>3.33</v>
+        <v>3.2</v>
       </c>
       <c r="Q217" t="inlineStr">
         <is>
-          <t>03/09/2023 23:29</t>
+          <t>03/09/2023 23:28</t>
         </is>
       </c>
       <c r="R217" t="n">
-        <v>4.04</v>
+        <v>3.88</v>
       </c>
       <c r="S217" t="inlineStr">
         <is>
-          <t>27/08/2023 22:42</t>
+          <t>27/08/2023 20:12</t>
         </is>
       </c>
       <c r="T217" t="n">
-        <v>3.95</v>
+        <v>3.8</v>
       </c>
       <c r="U217" t="inlineStr">
         <is>
-          <t>03/09/2023 23:29</t>
+          <t>03/09/2023 23:28</t>
         </is>
       </c>
       <c r="V217" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/bahia-vasco/4lJL7EBo/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/america-mg-santos/ruIP6YQi/</t>
         </is>
       </c>
     </row>
@@ -20721,22 +20721,22 @@
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t>Santos</t>
+          <t>Fortaleza</t>
         </is>
       </c>
       <c r="G221" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H221" t="inlineStr">
         <is>
-          <t>Cruzeiro</t>
+          <t>Corinthians</t>
         </is>
       </c>
       <c r="I221" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J221" t="n">
-        <v>2.7</v>
+        <v>1.74</v>
       </c>
       <c r="K221" t="inlineStr">
         <is>
@@ -20744,15 +20744,15 @@
         </is>
       </c>
       <c r="L221" t="n">
-        <v>2.4</v>
+        <v>1.6</v>
       </c>
       <c r="M221" t="inlineStr">
         <is>
-          <t>14/09/2023 23:55</t>
+          <t>14/09/2023 23:53</t>
         </is>
       </c>
       <c r="N221" t="n">
-        <v>3.08</v>
+        <v>3.74</v>
       </c>
       <c r="O221" t="inlineStr">
         <is>
@@ -20760,15 +20760,15 @@
         </is>
       </c>
       <c r="P221" t="n">
-        <v>3.12</v>
+        <v>3.87</v>
       </c>
       <c r="Q221" t="inlineStr">
         <is>
-          <t>14/09/2023 23:55</t>
+          <t>14/09/2023 23:57</t>
         </is>
       </c>
       <c r="R221" t="n">
-        <v>2.92</v>
+        <v>5.21</v>
       </c>
       <c r="S221" t="inlineStr">
         <is>
@@ -20776,16 +20776,16 @@
         </is>
       </c>
       <c r="T221" t="n">
-        <v>3.44</v>
+        <v>6.84</v>
       </c>
       <c r="U221" t="inlineStr">
         <is>
-          <t>14/09/2023 23:54</t>
+          <t>14/09/2023 23:57</t>
         </is>
       </c>
       <c r="V221" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/santos-cruzeiro/nXEt3jQG/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/fortaleza-corinthians/jPuc75H2/</t>
         </is>
       </c>
     </row>
@@ -20813,22 +20813,22 @@
       </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t>Fortaleza</t>
+          <t>Santos</t>
         </is>
       </c>
       <c r="G222" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H222" t="inlineStr">
         <is>
-          <t>Corinthians</t>
+          <t>Cruzeiro</t>
         </is>
       </c>
       <c r="I222" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J222" t="n">
-        <v>1.74</v>
+        <v>2.7</v>
       </c>
       <c r="K222" t="inlineStr">
         <is>
@@ -20836,15 +20836,15 @@
         </is>
       </c>
       <c r="L222" t="n">
-        <v>1.6</v>
+        <v>2.4</v>
       </c>
       <c r="M222" t="inlineStr">
         <is>
-          <t>14/09/2023 23:53</t>
+          <t>14/09/2023 23:55</t>
         </is>
       </c>
       <c r="N222" t="n">
-        <v>3.74</v>
+        <v>3.08</v>
       </c>
       <c r="O222" t="inlineStr">
         <is>
@@ -20852,15 +20852,15 @@
         </is>
       </c>
       <c r="P222" t="n">
-        <v>3.87</v>
+        <v>3.12</v>
       </c>
       <c r="Q222" t="inlineStr">
         <is>
-          <t>14/09/2023 23:57</t>
+          <t>14/09/2023 23:55</t>
         </is>
       </c>
       <c r="R222" t="n">
-        <v>5.21</v>
+        <v>2.92</v>
       </c>
       <c r="S222" t="inlineStr">
         <is>
@@ -20868,16 +20868,16 @@
         </is>
       </c>
       <c r="T222" t="n">
-        <v>6.84</v>
+        <v>3.44</v>
       </c>
       <c r="U222" t="inlineStr">
         <is>
-          <t>14/09/2023 23:57</t>
+          <t>14/09/2023 23:54</t>
         </is>
       </c>
       <c r="V222" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/fortaleza-corinthians/jPuc75H2/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/santos-cruzeiro/nXEt3jQG/</t>
         </is>
       </c>
     </row>
@@ -21825,7 +21825,7 @@
       </c>
       <c r="F233" t="inlineStr">
         <is>
-          <t>Sao Paulo</t>
+          <t>Fluminense</t>
         </is>
       </c>
       <c r="G233" t="n">
@@ -21833,63 +21833,63 @@
       </c>
       <c r="H233" t="inlineStr">
         <is>
-          <t>Fortaleza</t>
+          <t>Cruzeiro</t>
         </is>
       </c>
       <c r="I233" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J233" t="n">
-        <v>1.93</v>
+        <v>1.78</v>
       </c>
       <c r="K233" t="inlineStr">
         <is>
-          <t>14/09/2023 23:13</t>
+          <t>16/09/2023 20:12</t>
         </is>
       </c>
       <c r="L233" t="n">
-        <v>2.4</v>
+        <v>1.83</v>
       </c>
       <c r="M233" t="inlineStr">
         <is>
+          <t>21/09/2023 02:20</t>
+        </is>
+      </c>
+      <c r="N233" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="O233" t="inlineStr">
+        <is>
+          <t>16/09/2023 20:12</t>
+        </is>
+      </c>
+      <c r="P233" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="Q233" t="inlineStr">
+        <is>
+          <t>21/09/2023 02:20</t>
+        </is>
+      </c>
+      <c r="R233" t="n">
+        <v>4.66</v>
+      </c>
+      <c r="S233" t="inlineStr">
+        <is>
+          <t>16/09/2023 20:12</t>
+        </is>
+      </c>
+      <c r="T233" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="U233" t="inlineStr">
+        <is>
           <t>21/09/2023 02:22</t>
         </is>
       </c>
-      <c r="N233" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="O233" t="inlineStr">
-        <is>
-          <t>14/09/2023 23:13</t>
-        </is>
-      </c>
-      <c r="P233" t="n">
-        <v>3.22</v>
-      </c>
-      <c r="Q233" t="inlineStr">
-        <is>
-          <t>21/09/2023 02:22</t>
-        </is>
-      </c>
-      <c r="R233" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="S233" t="inlineStr">
-        <is>
-          <t>14/09/2023 23:13</t>
-        </is>
-      </c>
-      <c r="T233" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="U233" t="inlineStr">
-        <is>
-          <t>21/09/2023 02:28</t>
-        </is>
-      </c>
       <c r="V233" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/sao-paulo-fortaleza/fHxE3NGR/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/fluminense-cruzeiro/niZ55qnF/</t>
         </is>
       </c>
     </row>
@@ -21917,7 +21917,7 @@
       </c>
       <c r="F234" t="inlineStr">
         <is>
-          <t>Fluminense</t>
+          <t>Sao Paulo</t>
         </is>
       </c>
       <c r="G234" t="n">
@@ -21925,63 +21925,63 @@
       </c>
       <c r="H234" t="inlineStr">
         <is>
-          <t>Cruzeiro</t>
+          <t>Fortaleza</t>
         </is>
       </c>
       <c r="I234" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J234" t="n">
-        <v>1.78</v>
+        <v>1.93</v>
       </c>
       <c r="K234" t="inlineStr">
         <is>
-          <t>16/09/2023 20:12</t>
+          <t>14/09/2023 23:13</t>
         </is>
       </c>
       <c r="L234" t="n">
-        <v>1.83</v>
+        <v>2.4</v>
       </c>
       <c r="M234" t="inlineStr">
         <is>
-          <t>21/09/2023 02:20</t>
+          <t>21/09/2023 02:22</t>
         </is>
       </c>
       <c r="N234" t="n">
-        <v>3.76</v>
+        <v>3.55</v>
       </c>
       <c r="O234" t="inlineStr">
         <is>
-          <t>16/09/2023 20:12</t>
+          <t>14/09/2023 23:13</t>
         </is>
       </c>
       <c r="P234" t="n">
-        <v>3.59</v>
+        <v>3.22</v>
       </c>
       <c r="Q234" t="inlineStr">
         <is>
-          <t>21/09/2023 02:20</t>
+          <t>21/09/2023 02:22</t>
         </is>
       </c>
       <c r="R234" t="n">
-        <v>4.66</v>
+        <v>4.3</v>
       </c>
       <c r="S234" t="inlineStr">
         <is>
-          <t>16/09/2023 20:12</t>
+          <t>14/09/2023 23:13</t>
         </is>
       </c>
       <c r="T234" t="n">
-        <v>4.9</v>
+        <v>3.3</v>
       </c>
       <c r="U234" t="inlineStr">
         <is>
-          <t>21/09/2023 02:22</t>
+          <t>21/09/2023 02:28</t>
         </is>
       </c>
       <c r="V234" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/fluminense-cruzeiro/niZ55qnF/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/sao-paulo-fortaleza/fHxE3NGR/</t>
         </is>
       </c>
     </row>
@@ -23113,71 +23113,71 @@
       </c>
       <c r="F247" t="inlineStr">
         <is>
-          <t>Cruzeiro</t>
+          <t>Coritiba</t>
         </is>
       </c>
       <c r="G247" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H247" t="inlineStr">
         <is>
-          <t>America MG</t>
+          <t>Athletico-PR</t>
         </is>
       </c>
       <c r="I247" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J247" t="n">
-        <v>1.71</v>
+        <v>3.07</v>
       </c>
       <c r="K247" t="inlineStr">
         <is>
-          <t>26/09/2023 00:12</t>
+          <t>27/09/2023 23:12</t>
         </is>
       </c>
       <c r="L247" t="n">
-        <v>1.74</v>
+        <v>3.68</v>
       </c>
       <c r="M247" t="inlineStr">
         <is>
-          <t>01/10/2023 20:59</t>
+          <t>01/10/2023 20:56</t>
         </is>
       </c>
       <c r="N247" t="n">
-        <v>3.88</v>
+        <v>3.23</v>
       </c>
       <c r="O247" t="inlineStr">
         <is>
-          <t>26/09/2023 00:12</t>
+          <t>27/09/2023 23:12</t>
         </is>
       </c>
       <c r="P247" t="n">
-        <v>3.8</v>
+        <v>3.26</v>
       </c>
       <c r="Q247" t="inlineStr">
         <is>
-          <t>01/10/2023 20:59</t>
+          <t>01/10/2023 20:29</t>
         </is>
       </c>
       <c r="R247" t="n">
-        <v>5.17</v>
+        <v>2.48</v>
       </c>
       <c r="S247" t="inlineStr">
         <is>
-          <t>26/09/2023 00:12</t>
+          <t>27/09/2023 23:12</t>
         </is>
       </c>
       <c r="T247" t="n">
-        <v>5.18</v>
+        <v>2.22</v>
       </c>
       <c r="U247" t="inlineStr">
         <is>
-          <t>01/10/2023 20:59</t>
+          <t>01/10/2023 20:56</t>
         </is>
       </c>
       <c r="V247" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/cruzeiro-america-mg/4AjV9bw1/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/coritiba-athletico-pr/0xpv8x8D/</t>
         </is>
       </c>
     </row>
@@ -23205,22 +23205,22 @@
       </c>
       <c r="F248" t="inlineStr">
         <is>
-          <t>Santos</t>
+          <t>Cruzeiro</t>
         </is>
       </c>
       <c r="G248" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H248" t="inlineStr">
         <is>
-          <t>Vasco</t>
+          <t>America MG</t>
         </is>
       </c>
       <c r="I248" t="n">
         <v>1</v>
       </c>
       <c r="J248" t="n">
-        <v>2.25</v>
+        <v>1.71</v>
       </c>
       <c r="K248" t="inlineStr">
         <is>
@@ -23228,15 +23228,15 @@
         </is>
       </c>
       <c r="L248" t="n">
-        <v>2.6</v>
+        <v>1.74</v>
       </c>
       <c r="M248" t="inlineStr">
         <is>
-          <t>01/10/2023 20:30</t>
+          <t>01/10/2023 20:59</t>
         </is>
       </c>
       <c r="N248" t="n">
-        <v>3.29</v>
+        <v>3.88</v>
       </c>
       <c r="O248" t="inlineStr">
         <is>
@@ -23244,15 +23244,15 @@
         </is>
       </c>
       <c r="P248" t="n">
-        <v>3.11</v>
+        <v>3.8</v>
       </c>
       <c r="Q248" t="inlineStr">
         <is>
-          <t>01/10/2023 20:57</t>
+          <t>01/10/2023 20:59</t>
         </is>
       </c>
       <c r="R248" t="n">
-        <v>3.44</v>
+        <v>5.17</v>
       </c>
       <c r="S248" t="inlineStr">
         <is>
@@ -23260,16 +23260,16 @@
         </is>
       </c>
       <c r="T248" t="n">
-        <v>3.11</v>
+        <v>5.18</v>
       </c>
       <c r="U248" t="inlineStr">
         <is>
-          <t>01/10/2023 20:30</t>
+          <t>01/10/2023 20:59</t>
         </is>
       </c>
       <c r="V248" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/santos-vasco/IghNBK8l/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/cruzeiro-america-mg/4AjV9bw1/</t>
         </is>
       </c>
     </row>
@@ -23297,71 +23297,71 @@
       </c>
       <c r="F249" t="inlineStr">
         <is>
-          <t>Coritiba</t>
+          <t>Santos</t>
         </is>
       </c>
       <c r="G249" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H249" t="inlineStr">
         <is>
-          <t>Athletico-PR</t>
+          <t>Vasco</t>
         </is>
       </c>
       <c r="I249" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J249" t="n">
-        <v>3.07</v>
+        <v>2.25</v>
       </c>
       <c r="K249" t="inlineStr">
         <is>
-          <t>27/09/2023 23:12</t>
+          <t>26/09/2023 00:12</t>
         </is>
       </c>
       <c r="L249" t="n">
-        <v>3.68</v>
+        <v>2.6</v>
       </c>
       <c r="M249" t="inlineStr">
         <is>
-          <t>01/10/2023 20:56</t>
+          <t>01/10/2023 20:30</t>
         </is>
       </c>
       <c r="N249" t="n">
-        <v>3.23</v>
+        <v>3.29</v>
       </c>
       <c r="O249" t="inlineStr">
         <is>
-          <t>27/09/2023 23:12</t>
+          <t>26/09/2023 00:12</t>
         </is>
       </c>
       <c r="P249" t="n">
-        <v>3.26</v>
+        <v>3.11</v>
       </c>
       <c r="Q249" t="inlineStr">
         <is>
-          <t>01/10/2023 20:29</t>
+          <t>01/10/2023 20:57</t>
         </is>
       </c>
       <c r="R249" t="n">
-        <v>2.48</v>
+        <v>3.44</v>
       </c>
       <c r="S249" t="inlineStr">
         <is>
-          <t>27/09/2023 23:12</t>
+          <t>26/09/2023 00:12</t>
         </is>
       </c>
       <c r="T249" t="n">
-        <v>2.22</v>
+        <v>3.11</v>
       </c>
       <c r="U249" t="inlineStr">
         <is>
-          <t>01/10/2023 20:56</t>
+          <t>01/10/2023 20:30</t>
         </is>
       </c>
       <c r="V249" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/coritiba-athletico-pr/0xpv8x8D/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/santos-vasco/IghNBK8l/</t>
         </is>
       </c>
     </row>
@@ -23849,71 +23849,71 @@
       </c>
       <c r="F255" t="inlineStr">
         <is>
-          <t>Palmeiras</t>
+          <t>Fluminense</t>
         </is>
       </c>
       <c r="G255" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H255" t="inlineStr">
         <is>
-          <t>Santos</t>
+          <t>Botafogo RJ</t>
         </is>
       </c>
       <c r="I255" t="n">
         <v>2</v>
       </c>
       <c r="J255" t="n">
-        <v>1.35</v>
+        <v>2.08</v>
       </c>
       <c r="K255" t="inlineStr">
         <is>
-          <t>01/10/2023 22:42</t>
+          <t>03/10/2023 00:13</t>
         </is>
       </c>
       <c r="L255" t="n">
-        <v>1.44</v>
+        <v>1.95</v>
       </c>
       <c r="M255" t="inlineStr">
         <is>
-          <t>08/10/2023 20:49</t>
+          <t>08/10/2023 20:59</t>
         </is>
       </c>
       <c r="N255" t="n">
-        <v>5.12</v>
+        <v>3.21</v>
       </c>
       <c r="O255" t="inlineStr">
         <is>
-          <t>01/10/2023 22:42</t>
+          <t>03/10/2023 00:13</t>
         </is>
       </c>
       <c r="P255" t="n">
-        <v>4.48</v>
+        <v>3.52</v>
       </c>
       <c r="Q255" t="inlineStr">
         <is>
-          <t>08/10/2023 20:58</t>
+          <t>08/10/2023 20:59</t>
         </is>
       </c>
       <c r="R255" t="n">
-        <v>9.890000000000001</v>
+        <v>4.03</v>
       </c>
       <c r="S255" t="inlineStr">
         <is>
-          <t>01/10/2023 22:42</t>
+          <t>03/10/2023 00:13</t>
         </is>
       </c>
       <c r="T255" t="n">
-        <v>8.73</v>
+        <v>4.29</v>
       </c>
       <c r="U255" t="inlineStr">
         <is>
-          <t>08/10/2023 20:58</t>
+          <t>08/10/2023 20:59</t>
         </is>
       </c>
       <c r="V255" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/palmeiras-santos/6wD0Pwwl/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/fluminense-botafogo-rj/A7RUUaFQ/</t>
         </is>
       </c>
     </row>
@@ -24033,71 +24033,71 @@
       </c>
       <c r="F257" t="inlineStr">
         <is>
-          <t>Fluminense</t>
+          <t>Palmeiras</t>
         </is>
       </c>
       <c r="G257" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H257" t="inlineStr">
         <is>
-          <t>Botafogo RJ</t>
+          <t>Santos</t>
         </is>
       </c>
       <c r="I257" t="n">
         <v>2</v>
       </c>
       <c r="J257" t="n">
-        <v>2.08</v>
+        <v>1.35</v>
       </c>
       <c r="K257" t="inlineStr">
         <is>
-          <t>03/10/2023 00:13</t>
+          <t>01/10/2023 22:42</t>
         </is>
       </c>
       <c r="L257" t="n">
-        <v>1.95</v>
+        <v>1.44</v>
       </c>
       <c r="M257" t="inlineStr">
         <is>
-          <t>08/10/2023 20:59</t>
+          <t>08/10/2023 20:49</t>
         </is>
       </c>
       <c r="N257" t="n">
-        <v>3.21</v>
+        <v>5.12</v>
       </c>
       <c r="O257" t="inlineStr">
         <is>
-          <t>03/10/2023 00:13</t>
+          <t>01/10/2023 22:42</t>
         </is>
       </c>
       <c r="P257" t="n">
-        <v>3.52</v>
+        <v>4.48</v>
       </c>
       <c r="Q257" t="inlineStr">
         <is>
-          <t>08/10/2023 20:59</t>
+          <t>08/10/2023 20:58</t>
         </is>
       </c>
       <c r="R257" t="n">
-        <v>4.03</v>
+        <v>9.890000000000001</v>
       </c>
       <c r="S257" t="inlineStr">
         <is>
-          <t>03/10/2023 00:13</t>
+          <t>01/10/2023 22:42</t>
         </is>
       </c>
       <c r="T257" t="n">
-        <v>4.29</v>
+        <v>8.73</v>
       </c>
       <c r="U257" t="inlineStr">
         <is>
-          <t>08/10/2023 20:59</t>
+          <t>08/10/2023 20:58</t>
         </is>
       </c>
       <c r="V257" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/fluminense-botafogo-rj/A7RUUaFQ/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/palmeiras-santos/6wD0Pwwl/</t>
         </is>
       </c>
     </row>
@@ -24769,7 +24769,7 @@
       </c>
       <c r="F265" t="inlineStr">
         <is>
-          <t>Bahia</t>
+          <t>Vasco</t>
         </is>
       </c>
       <c r="G265" t="n">
@@ -24777,14 +24777,14 @@
       </c>
       <c r="H265" t="inlineStr">
         <is>
-          <t>Internacional</t>
+          <t>Fortaleza</t>
         </is>
       </c>
       <c r="I265" t="n">
         <v>0</v>
       </c>
       <c r="J265" t="n">
-        <v>2.23</v>
+        <v>2.26</v>
       </c>
       <c r="K265" t="inlineStr">
         <is>
@@ -24792,15 +24792,15 @@
         </is>
       </c>
       <c r="L265" t="n">
-        <v>2.07</v>
+        <v>2.32</v>
       </c>
       <c r="M265" t="inlineStr">
         <is>
-          <t>19/10/2023 02:29</t>
+          <t>19/10/2023 02:28</t>
         </is>
       </c>
       <c r="N265" t="n">
-        <v>3.32</v>
+        <v>3.3</v>
       </c>
       <c r="O265" t="inlineStr">
         <is>
@@ -24808,15 +24808,15 @@
         </is>
       </c>
       <c r="P265" t="n">
-        <v>3.37</v>
+        <v>3.19</v>
       </c>
       <c r="Q265" t="inlineStr">
         <is>
-          <t>19/10/2023 02:21</t>
+          <t>19/10/2023 02:27</t>
         </is>
       </c>
       <c r="R265" t="n">
-        <v>3.54</v>
+        <v>3.49</v>
       </c>
       <c r="S265" t="inlineStr">
         <is>
@@ -24824,16 +24824,16 @@
         </is>
       </c>
       <c r="T265" t="n">
-        <v>4.04</v>
+        <v>3.53</v>
       </c>
       <c r="U265" t="inlineStr">
         <is>
-          <t>19/10/2023 02:29</t>
+          <t>19/10/2023 02:28</t>
         </is>
       </c>
       <c r="V265" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/bahia-internacional/KEG2ujTo/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/vasco-fortaleza/bXyvwc7m/</t>
         </is>
       </c>
     </row>
@@ -24953,7 +24953,7 @@
       </c>
       <c r="F267" t="inlineStr">
         <is>
-          <t>Vasco</t>
+          <t>Bahia</t>
         </is>
       </c>
       <c r="G267" t="n">
@@ -24961,14 +24961,14 @@
       </c>
       <c r="H267" t="inlineStr">
         <is>
-          <t>Fortaleza</t>
+          <t>Internacional</t>
         </is>
       </c>
       <c r="I267" t="n">
         <v>0</v>
       </c>
       <c r="J267" t="n">
-        <v>2.26</v>
+        <v>2.23</v>
       </c>
       <c r="K267" t="inlineStr">
         <is>
@@ -24976,15 +24976,15 @@
         </is>
       </c>
       <c r="L267" t="n">
-        <v>2.32</v>
+        <v>2.07</v>
       </c>
       <c r="M267" t="inlineStr">
         <is>
-          <t>19/10/2023 02:28</t>
+          <t>19/10/2023 02:29</t>
         </is>
       </c>
       <c r="N267" t="n">
-        <v>3.3</v>
+        <v>3.32</v>
       </c>
       <c r="O267" t="inlineStr">
         <is>
@@ -24992,15 +24992,15 @@
         </is>
       </c>
       <c r="P267" t="n">
-        <v>3.19</v>
+        <v>3.37</v>
       </c>
       <c r="Q267" t="inlineStr">
         <is>
-          <t>19/10/2023 02:27</t>
+          <t>19/10/2023 02:21</t>
         </is>
       </c>
       <c r="R267" t="n">
-        <v>3.49</v>
+        <v>3.54</v>
       </c>
       <c r="S267" t="inlineStr">
         <is>
@@ -25008,16 +25008,16 @@
         </is>
       </c>
       <c r="T267" t="n">
-        <v>3.53</v>
+        <v>4.04</v>
       </c>
       <c r="U267" t="inlineStr">
         <is>
-          <t>19/10/2023 02:28</t>
+          <t>19/10/2023 02:29</t>
         </is>
       </c>
       <c r="V267" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/vasco-fortaleza/bXyvwc7m/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/bahia-internacional/KEG2ujTo/</t>
         </is>
       </c>
     </row>
@@ -25781,71 +25781,71 @@
       </c>
       <c r="F276" t="inlineStr">
         <is>
-          <t>Internacional</t>
+          <t>Atletico-MG</t>
         </is>
       </c>
       <c r="G276" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H276" t="inlineStr">
         <is>
-          <t>Santos</t>
+          <t>Cruzeiro</t>
         </is>
       </c>
       <c r="I276" t="n">
         <v>1</v>
       </c>
       <c r="J276" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="K276" t="inlineStr">
         <is>
-          <t>20/10/2023 00:12</t>
+          <t>19/10/2023 23:12</t>
         </is>
       </c>
       <c r="L276" t="n">
-        <v>1.54</v>
+        <v>1.92</v>
       </c>
       <c r="M276" t="inlineStr">
         <is>
-          <t>22/10/2023 20:51</t>
+          <t>22/10/2023 20:52</t>
         </is>
       </c>
       <c r="N276" t="n">
-        <v>3.54</v>
+        <v>3.66</v>
       </c>
       <c r="O276" t="inlineStr">
         <is>
-          <t>20/10/2023 00:12</t>
+          <t>19/10/2023 23:12</t>
         </is>
       </c>
       <c r="P276" t="n">
-        <v>4.08</v>
+        <v>3.17</v>
       </c>
       <c r="Q276" t="inlineStr">
         <is>
-          <t>22/10/2023 20:55</t>
+          <t>22/10/2023 20:52</t>
         </is>
       </c>
       <c r="R276" t="n">
-        <v>5.08</v>
+        <v>5.43</v>
       </c>
       <c r="S276" t="inlineStr">
         <is>
-          <t>20/10/2023 00:12</t>
+          <t>19/10/2023 23:12</t>
         </is>
       </c>
       <c r="T276" t="n">
-        <v>7.28</v>
+        <v>5.2</v>
       </c>
       <c r="U276" t="inlineStr">
         <is>
-          <t>22/10/2023 20:55</t>
+          <t>22/10/2023 20:56</t>
         </is>
       </c>
       <c r="V276" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/internacional-santos/vPnbUPKp/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/atletico-mg-cruzeiro/Mq0WY5CT/</t>
         </is>
       </c>
     </row>
@@ -25873,71 +25873,71 @@
       </c>
       <c r="F277" t="inlineStr">
         <is>
-          <t>Atletico-MG</t>
+          <t>Internacional</t>
         </is>
       </c>
       <c r="G277" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H277" t="inlineStr">
         <is>
-          <t>Cruzeiro</t>
+          <t>Santos</t>
         </is>
       </c>
       <c r="I277" t="n">
         <v>1</v>
       </c>
       <c r="J277" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="K277" t="inlineStr">
         <is>
-          <t>19/10/2023 23:12</t>
+          <t>20/10/2023 00:12</t>
         </is>
       </c>
       <c r="L277" t="n">
-        <v>1.92</v>
+        <v>1.54</v>
       </c>
       <c r="M277" t="inlineStr">
         <is>
-          <t>22/10/2023 20:52</t>
+          <t>22/10/2023 20:51</t>
         </is>
       </c>
       <c r="N277" t="n">
-        <v>3.66</v>
+        <v>3.54</v>
       </c>
       <c r="O277" t="inlineStr">
         <is>
-          <t>19/10/2023 23:12</t>
+          <t>20/10/2023 00:12</t>
         </is>
       </c>
       <c r="P277" t="n">
-        <v>3.17</v>
+        <v>4.08</v>
       </c>
       <c r="Q277" t="inlineStr">
         <is>
-          <t>22/10/2023 20:52</t>
+          <t>22/10/2023 20:55</t>
         </is>
       </c>
       <c r="R277" t="n">
-        <v>5.43</v>
+        <v>5.08</v>
       </c>
       <c r="S277" t="inlineStr">
         <is>
-          <t>19/10/2023 23:12</t>
+          <t>20/10/2023 00:12</t>
         </is>
       </c>
       <c r="T277" t="n">
-        <v>5.2</v>
+        <v>7.28</v>
       </c>
       <c r="U277" t="inlineStr">
         <is>
-          <t>22/10/2023 20:56</t>
+          <t>22/10/2023 20:55</t>
         </is>
       </c>
       <c r="V277" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/atletico-mg-cruzeiro/Mq0WY5CT/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/internacional-santos/vPnbUPKp/</t>
         </is>
       </c>
     </row>
@@ -26057,62 +26057,62 @@
       </c>
       <c r="F279" t="inlineStr">
         <is>
-          <t>Bragantino</t>
+          <t>Coritiba</t>
         </is>
       </c>
       <c r="G279" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H279" t="inlineStr">
         <is>
-          <t>Fluminense</t>
+          <t>Palmeiras</t>
         </is>
       </c>
       <c r="I279" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J279" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>19/10/2023 23:13</t>
+        </is>
+      </c>
+      <c r="L279" t="n">
+        <v>5.19</v>
+      </c>
+      <c r="M279" t="inlineStr">
+        <is>
+          <t>22/10/2023 23:29</t>
+        </is>
+      </c>
+      <c r="N279" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="O279" t="inlineStr">
+        <is>
+          <t>19/10/2023 23:13</t>
+        </is>
+      </c>
+      <c r="P279" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="Q279" t="inlineStr">
+        <is>
+          <t>22/10/2023 23:27</t>
+        </is>
+      </c>
+      <c r="R279" t="n">
         <v>1.84</v>
       </c>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t>20/10/2023 01:42</t>
-        </is>
-      </c>
-      <c r="L279" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="M279" t="inlineStr">
-        <is>
-          <t>22/10/2023 23:24</t>
-        </is>
-      </c>
-      <c r="N279" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="O279" t="inlineStr">
-        <is>
-          <t>20/10/2023 01:42</t>
-        </is>
-      </c>
-      <c r="P279" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="Q279" t="inlineStr">
-        <is>
-          <t>22/10/2023 23:24</t>
-        </is>
-      </c>
-      <c r="R279" t="n">
-        <v>4.55</v>
-      </c>
       <c r="S279" t="inlineStr">
         <is>
-          <t>20/10/2023 01:42</t>
+          <t>19/10/2023 23:13</t>
         </is>
       </c>
       <c r="T279" t="n">
-        <v>4.85</v>
+        <v>1.79</v>
       </c>
       <c r="U279" t="inlineStr">
         <is>
@@ -26121,7 +26121,7 @@
       </c>
       <c r="V279" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/bragantino-fluminense/rg1SZocN/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/coritiba-palmeiras/hSj2Tqzi/</t>
         </is>
       </c>
     </row>
@@ -26241,71 +26241,71 @@
       </c>
       <c r="F281" t="inlineStr">
         <is>
-          <t>Coritiba</t>
+          <t>Bragantino</t>
         </is>
       </c>
       <c r="G281" t="n">
+        <v>1</v>
+      </c>
+      <c r="H281" t="inlineStr">
+        <is>
+          <t>Fluminense</t>
+        </is>
+      </c>
+      <c r="I281" t="n">
         <v>0</v>
       </c>
-      <c r="H281" t="inlineStr">
-        <is>
-          <t>Palmeiras</t>
-        </is>
-      </c>
-      <c r="I281" t="n">
-        <v>2</v>
-      </c>
       <c r="J281" t="n">
-        <v>4.43</v>
+        <v>1.84</v>
       </c>
       <c r="K281" t="inlineStr">
         <is>
-          <t>19/10/2023 23:13</t>
+          <t>20/10/2023 01:42</t>
         </is>
       </c>
       <c r="L281" t="n">
-        <v>5.19</v>
+        <v>1.76</v>
       </c>
       <c r="M281" t="inlineStr">
         <is>
+          <t>22/10/2023 23:24</t>
+        </is>
+      </c>
+      <c r="N281" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="O281" t="inlineStr">
+        <is>
+          <t>20/10/2023 01:42</t>
+        </is>
+      </c>
+      <c r="P281" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="Q281" t="inlineStr">
+        <is>
+          <t>22/10/2023 23:24</t>
+        </is>
+      </c>
+      <c r="R281" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="S281" t="inlineStr">
+        <is>
+          <t>20/10/2023 01:42</t>
+        </is>
+      </c>
+      <c r="T281" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="U281" t="inlineStr">
+        <is>
           <t>22/10/2023 23:29</t>
         </is>
       </c>
-      <c r="N281" t="n">
-        <v>3.67</v>
-      </c>
-      <c r="O281" t="inlineStr">
-        <is>
-          <t>19/10/2023 23:13</t>
-        </is>
-      </c>
-      <c r="P281" t="n">
-        <v>3.57</v>
-      </c>
-      <c r="Q281" t="inlineStr">
-        <is>
-          <t>22/10/2023 23:27</t>
-        </is>
-      </c>
-      <c r="R281" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="S281" t="inlineStr">
-        <is>
-          <t>19/10/2023 23:13</t>
-        </is>
-      </c>
-      <c r="T281" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="U281" t="inlineStr">
-        <is>
-          <t>22/10/2023 23:29</t>
-        </is>
-      </c>
       <c r="V281" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/coritiba-palmeiras/hSj2Tqzi/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/bragantino-fluminense/rg1SZocN/</t>
         </is>
       </c>
     </row>
@@ -26609,71 +26609,71 @@
       </c>
       <c r="F285" t="inlineStr">
         <is>
-          <t>Palmeiras</t>
+          <t>Cruzeiro</t>
         </is>
       </c>
       <c r="G285" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H285" t="inlineStr">
         <is>
-          <t>Sao Paulo</t>
+          <t>Bahia</t>
         </is>
       </c>
       <c r="I285" t="n">
         <v>0</v>
       </c>
       <c r="J285" t="n">
-        <v>1.75</v>
+        <v>1.92</v>
       </c>
       <c r="K285" t="inlineStr">
         <is>
-          <t>22/10/2023 22:42</t>
+          <t>22/10/2023 20:12</t>
         </is>
       </c>
       <c r="L285" t="n">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="M285" t="inlineStr">
         <is>
-          <t>26/10/2023 00:59</t>
+          <t>26/10/2023 00:54</t>
         </is>
       </c>
       <c r="N285" t="n">
-        <v>3.78</v>
+        <v>3.59</v>
       </c>
       <c r="O285" t="inlineStr">
         <is>
-          <t>22/10/2023 22:42</t>
+          <t>22/10/2023 20:12</t>
         </is>
       </c>
       <c r="P285" t="n">
-        <v>3.25</v>
+        <v>3.26</v>
       </c>
       <c r="Q285" t="inlineStr">
         <is>
-          <t>26/10/2023 00:59</t>
+          <t>26/10/2023 00:54</t>
         </is>
       </c>
       <c r="R285" t="n">
-        <v>5.03</v>
+        <v>4.3</v>
       </c>
       <c r="S285" t="inlineStr">
         <is>
-          <t>22/10/2023 22:42</t>
+          <t>22/10/2023 20:12</t>
         </is>
       </c>
       <c r="T285" t="n">
-        <v>4.15</v>
+        <v>4.51</v>
       </c>
       <c r="U285" t="inlineStr">
         <is>
-          <t>26/10/2023 00:59</t>
+          <t>26/10/2023 00:54</t>
         </is>
       </c>
       <c r="V285" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/palmeiras-sao-paulo/4W3aYgwG/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/cruzeiro-bahia/E5gZRiGq/</t>
         </is>
       </c>
     </row>
@@ -26701,71 +26701,71 @@
       </c>
       <c r="F286" t="inlineStr">
         <is>
-          <t>Cruzeiro</t>
+          <t>Palmeiras</t>
         </is>
       </c>
       <c r="G286" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H286" t="inlineStr">
         <is>
-          <t>Bahia</t>
+          <t>Sao Paulo</t>
         </is>
       </c>
       <c r="I286" t="n">
         <v>0</v>
       </c>
       <c r="J286" t="n">
-        <v>1.92</v>
+        <v>1.75</v>
       </c>
       <c r="K286" t="inlineStr">
         <is>
-          <t>22/10/2023 20:12</t>
+          <t>22/10/2023 22:42</t>
         </is>
       </c>
       <c r="L286" t="n">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="M286" t="inlineStr">
         <is>
-          <t>26/10/2023 00:54</t>
+          <t>26/10/2023 00:59</t>
         </is>
       </c>
       <c r="N286" t="n">
-        <v>3.59</v>
+        <v>3.78</v>
       </c>
       <c r="O286" t="inlineStr">
         <is>
-          <t>22/10/2023 20:12</t>
+          <t>22/10/2023 22:42</t>
         </is>
       </c>
       <c r="P286" t="n">
-        <v>3.26</v>
+        <v>3.25</v>
       </c>
       <c r="Q286" t="inlineStr">
         <is>
-          <t>26/10/2023 00:54</t>
+          <t>26/10/2023 00:59</t>
         </is>
       </c>
       <c r="R286" t="n">
-        <v>4.3</v>
+        <v>5.03</v>
       </c>
       <c r="S286" t="inlineStr">
         <is>
-          <t>22/10/2023 20:12</t>
+          <t>22/10/2023 22:42</t>
         </is>
       </c>
       <c r="T286" t="n">
-        <v>4.51</v>
+        <v>4.15</v>
       </c>
       <c r="U286" t="inlineStr">
         <is>
-          <t>26/10/2023 00:54</t>
+          <t>26/10/2023 00:59</t>
         </is>
       </c>
       <c r="V286" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/cruzeiro-bahia/E5gZRiGq/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/palmeiras-sao-paulo/4W3aYgwG/</t>
         </is>
       </c>
     </row>
@@ -27161,71 +27161,71 @@
       </c>
       <c r="F291" t="inlineStr">
         <is>
-          <t>America MG</t>
+          <t>Palmeiras</t>
         </is>
       </c>
       <c r="G291" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H291" t="inlineStr">
         <is>
-          <t>Gremio</t>
+          <t>Bahia</t>
         </is>
       </c>
       <c r="I291" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J291" t="n">
-        <v>2.54</v>
+        <v>1.51</v>
       </c>
       <c r="K291" t="inlineStr">
         <is>
-          <t>26/10/2023 02:42</t>
+          <t>26/10/2023 01:12</t>
         </is>
       </c>
       <c r="L291" t="n">
-        <v>2.32</v>
+        <v>1.34</v>
       </c>
       <c r="M291" t="inlineStr">
         <is>
-          <t>28/10/2023 23:59</t>
+          <t>28/10/2023 23:52</t>
         </is>
       </c>
       <c r="N291" t="n">
-        <v>3.43</v>
+        <v>4.44</v>
       </c>
       <c r="O291" t="inlineStr">
         <is>
-          <t>26/10/2023 02:42</t>
+          <t>26/10/2023 01:12</t>
         </is>
       </c>
       <c r="P291" t="n">
-        <v>3.56</v>
+        <v>5.16</v>
       </c>
       <c r="Q291" t="inlineStr">
         <is>
-          <t>28/10/2023 23:59</t>
+          <t>28/10/2023 23:53</t>
         </is>
       </c>
       <c r="R291" t="n">
-        <v>2.89</v>
+        <v>6.84</v>
       </c>
       <c r="S291" t="inlineStr">
         <is>
-          <t>26/10/2023 02:42</t>
+          <t>26/10/2023 01:12</t>
         </is>
       </c>
       <c r="T291" t="n">
-        <v>3.16</v>
+        <v>10.94</v>
       </c>
       <c r="U291" t="inlineStr">
         <is>
-          <t>28/10/2023 23:59</t>
+          <t>28/10/2023 23:53</t>
         </is>
       </c>
       <c r="V291" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/america-mg-gremio/MsV30CM8/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/palmeiras-bahia/CAntoXML/</t>
         </is>
       </c>
     </row>
@@ -27253,71 +27253,71 @@
       </c>
       <c r="F292" t="inlineStr">
         <is>
-          <t>Palmeiras</t>
+          <t>America MG</t>
         </is>
       </c>
       <c r="G292" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H292" t="inlineStr">
         <is>
-          <t>Bahia</t>
+          <t>Gremio</t>
         </is>
       </c>
       <c r="I292" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J292" t="n">
-        <v>1.51</v>
+        <v>2.54</v>
       </c>
       <c r="K292" t="inlineStr">
         <is>
-          <t>26/10/2023 01:12</t>
+          <t>26/10/2023 02:42</t>
         </is>
       </c>
       <c r="L292" t="n">
-        <v>1.34</v>
+        <v>2.32</v>
       </c>
       <c r="M292" t="inlineStr">
         <is>
-          <t>28/10/2023 23:52</t>
+          <t>28/10/2023 23:59</t>
         </is>
       </c>
       <c r="N292" t="n">
-        <v>4.44</v>
+        <v>3.43</v>
       </c>
       <c r="O292" t="inlineStr">
         <is>
-          <t>26/10/2023 01:12</t>
+          <t>26/10/2023 02:42</t>
         </is>
       </c>
       <c r="P292" t="n">
-        <v>5.16</v>
+        <v>3.56</v>
       </c>
       <c r="Q292" t="inlineStr">
         <is>
-          <t>28/10/2023 23:53</t>
+          <t>28/10/2023 23:59</t>
         </is>
       </c>
       <c r="R292" t="n">
-        <v>6.84</v>
+        <v>2.89</v>
       </c>
       <c r="S292" t="inlineStr">
         <is>
-          <t>26/10/2023 01:12</t>
+          <t>26/10/2023 02:42</t>
         </is>
       </c>
       <c r="T292" t="n">
-        <v>10.94</v>
+        <v>3.16</v>
       </c>
       <c r="U292" t="inlineStr">
         <is>
-          <t>28/10/2023 23:53</t>
+          <t>28/10/2023 23:59</t>
         </is>
       </c>
       <c r="V292" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/palmeiras-bahia/CAntoXML/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/america-mg-gremio/MsV30CM8/</t>
         </is>
       </c>
     </row>
@@ -27962,6 +27962,558 @@
       <c r="V299" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/brazil/serie-a/bahia-fluminense/U7fsEVj8/</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" s="1" t="n">
+        <v>299</v>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>brazil</t>
+        </is>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>serie-a</t>
+        </is>
+      </c>
+      <c r="D300" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E300" s="2" t="n">
+        <v>45231.95833333334</v>
+      </c>
+      <c r="F300" t="inlineStr">
+        <is>
+          <t>Corinthians</t>
+        </is>
+      </c>
+      <c r="G300" t="n">
+        <v>1</v>
+      </c>
+      <c r="H300" t="inlineStr">
+        <is>
+          <t>Athletico-PR</t>
+        </is>
+      </c>
+      <c r="I300" t="n">
+        <v>0</v>
+      </c>
+      <c r="J300" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>29/10/2023 22:42</t>
+        </is>
+      </c>
+      <c r="L300" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="M300" t="inlineStr">
+        <is>
+          <t>01/11/2023 22:51</t>
+        </is>
+      </c>
+      <c r="N300" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="O300" t="inlineStr">
+        <is>
+          <t>29/10/2023 22:42</t>
+        </is>
+      </c>
+      <c r="P300" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q300" t="inlineStr">
+        <is>
+          <t>01/11/2023 22:50</t>
+        </is>
+      </c>
+      <c r="R300" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="S300" t="inlineStr">
+        <is>
+          <t>29/10/2023 22:42</t>
+        </is>
+      </c>
+      <c r="T300" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="U300" t="inlineStr">
+        <is>
+          <t>01/11/2023 22:51</t>
+        </is>
+      </c>
+      <c r="V300" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/corinthians-athletico-pr/EuArgUEr/</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" s="1" t="n">
+        <v>300</v>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>brazil</t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>serie-a</t>
+        </is>
+      </c>
+      <c r="D301" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E301" s="2" t="n">
+        <v>45231.95833333334</v>
+      </c>
+      <c r="F301" t="inlineStr">
+        <is>
+          <t>Internacional</t>
+        </is>
+      </c>
+      <c r="G301" t="n">
+        <v>1</v>
+      </c>
+      <c r="H301" t="inlineStr">
+        <is>
+          <t>America MG</t>
+        </is>
+      </c>
+      <c r="I301" t="n">
+        <v>1</v>
+      </c>
+      <c r="J301" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>29/10/2023 22:42</t>
+        </is>
+      </c>
+      <c r="L301" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="M301" t="inlineStr">
+        <is>
+          <t>01/11/2023 22:58</t>
+        </is>
+      </c>
+      <c r="N301" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="O301" t="inlineStr">
+        <is>
+          <t>29/10/2023 22:42</t>
+        </is>
+      </c>
+      <c r="P301" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="Q301" t="inlineStr">
+        <is>
+          <t>01/11/2023 22:58</t>
+        </is>
+      </c>
+      <c r="R301" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="S301" t="inlineStr">
+        <is>
+          <t>29/10/2023 22:42</t>
+        </is>
+      </c>
+      <c r="T301" t="n">
+        <v>5.87</v>
+      </c>
+      <c r="U301" t="inlineStr">
+        <is>
+          <t>01/11/2023 22:58</t>
+        </is>
+      </c>
+      <c r="V301" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/internacional-america-mg/4U2ejSb1/</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" s="1" t="n">
+        <v>301</v>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>brazil</t>
+        </is>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>serie-a</t>
+        </is>
+      </c>
+      <c r="D302" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E302" s="2" t="n">
+        <v>45232</v>
+      </c>
+      <c r="F302" t="inlineStr">
+        <is>
+          <t>Coritiba</t>
+        </is>
+      </c>
+      <c r="G302" t="n">
+        <v>1</v>
+      </c>
+      <c r="H302" t="inlineStr">
+        <is>
+          <t>Gremio</t>
+        </is>
+      </c>
+      <c r="I302" t="n">
+        <v>2</v>
+      </c>
+      <c r="J302" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>29/10/2023 22:42</t>
+        </is>
+      </c>
+      <c r="L302" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="M302" t="inlineStr">
+        <is>
+          <t>01/11/2023 23:58</t>
+        </is>
+      </c>
+      <c r="N302" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="O302" t="inlineStr">
+        <is>
+          <t>29/10/2023 22:42</t>
+        </is>
+      </c>
+      <c r="P302" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="Q302" t="inlineStr">
+        <is>
+          <t>01/11/2023 23:58</t>
+        </is>
+      </c>
+      <c r="R302" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="S302" t="inlineStr">
+        <is>
+          <t>29/10/2023 22:42</t>
+        </is>
+      </c>
+      <c r="T302" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="U302" t="inlineStr">
+        <is>
+          <t>01/11/2023 23:58</t>
+        </is>
+      </c>
+      <c r="V302" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/coritiba-gremio/G46aknE7/</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" s="1" t="n">
+        <v>302</v>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>brazil</t>
+        </is>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>serie-a</t>
+        </is>
+      </c>
+      <c r="D303" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E303" s="2" t="n">
+        <v>45232</v>
+      </c>
+      <c r="F303" t="inlineStr">
+        <is>
+          <t>Flamengo RJ</t>
+        </is>
+      </c>
+      <c r="G303" t="n">
+        <v>1</v>
+      </c>
+      <c r="H303" t="inlineStr">
+        <is>
+          <t>Santos</t>
+        </is>
+      </c>
+      <c r="I303" t="n">
+        <v>2</v>
+      </c>
+      <c r="J303" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>29/10/2023 22:42</t>
+        </is>
+      </c>
+      <c r="L303" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="M303" t="inlineStr">
+        <is>
+          <t>01/11/2023 23:55</t>
+        </is>
+      </c>
+      <c r="N303" t="n">
+        <v>5.05</v>
+      </c>
+      <c r="O303" t="inlineStr">
+        <is>
+          <t>29/10/2023 22:42</t>
+        </is>
+      </c>
+      <c r="P303" t="n">
+        <v>4.52</v>
+      </c>
+      <c r="Q303" t="inlineStr">
+        <is>
+          <t>01/11/2023 23:59</t>
+        </is>
+      </c>
+      <c r="R303" t="n">
+        <v>8.69</v>
+      </c>
+      <c r="S303" t="inlineStr">
+        <is>
+          <t>29/10/2023 22:42</t>
+        </is>
+      </c>
+      <c r="T303" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="U303" t="inlineStr">
+        <is>
+          <t>01/11/2023 23:57</t>
+        </is>
+      </c>
+      <c r="V303" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/flamengo-rj-santos/G4U7aWyF/</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" s="1" t="n">
+        <v>303</v>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>brazil</t>
+        </is>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>serie-a</t>
+        </is>
+      </c>
+      <c r="D304" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E304" s="2" t="n">
+        <v>45232.0625</v>
+      </c>
+      <c r="F304" t="inlineStr">
+        <is>
+          <t>Atletico-MG</t>
+        </is>
+      </c>
+      <c r="G304" t="n">
+        <v>3</v>
+      </c>
+      <c r="H304" t="inlineStr">
+        <is>
+          <t>Fortaleza</t>
+        </is>
+      </c>
+      <c r="I304" t="n">
+        <v>1</v>
+      </c>
+      <c r="J304" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>29/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="L304" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="M304" t="inlineStr">
+        <is>
+          <t>02/11/2023 01:28</t>
+        </is>
+      </c>
+      <c r="N304" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="O304" t="inlineStr">
+        <is>
+          <t>29/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="P304" t="n">
+        <v>3.71</v>
+      </c>
+      <c r="Q304" t="inlineStr">
+        <is>
+          <t>02/11/2023 01:28</t>
+        </is>
+      </c>
+      <c r="R304" t="n">
+        <v>5.23</v>
+      </c>
+      <c r="S304" t="inlineStr">
+        <is>
+          <t>29/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="T304" t="n">
+        <v>5.48</v>
+      </c>
+      <c r="U304" t="inlineStr">
+        <is>
+          <t>02/11/2023 01:28</t>
+        </is>
+      </c>
+      <c r="V304" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/atletico-mg-fortaleza/M5Dji8qe/</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" s="1" t="n">
+        <v>304</v>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>brazil</t>
+        </is>
+      </c>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t>serie-a</t>
+        </is>
+      </c>
+      <c r="D305" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E305" s="2" t="n">
+        <v>45232.0625</v>
+      </c>
+      <c r="F305" t="inlineStr">
+        <is>
+          <t>Botafogo RJ</t>
+        </is>
+      </c>
+      <c r="G305" t="n">
+        <v>3</v>
+      </c>
+      <c r="H305" t="inlineStr">
+        <is>
+          <t>Palmeiras</t>
+        </is>
+      </c>
+      <c r="I305" t="n">
+        <v>4</v>
+      </c>
+      <c r="J305" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>30/10/2023 00:12</t>
+        </is>
+      </c>
+      <c r="L305" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="M305" t="inlineStr">
+        <is>
+          <t>02/11/2023 01:28</t>
+        </is>
+      </c>
+      <c r="N305" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="O305" t="inlineStr">
+        <is>
+          <t>30/10/2023 00:12</t>
+        </is>
+      </c>
+      <c r="P305" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Q305" t="inlineStr">
+        <is>
+          <t>02/11/2023 01:28</t>
+        </is>
+      </c>
+      <c r="R305" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="S305" t="inlineStr">
+        <is>
+          <t>30/10/2023 00:12</t>
+        </is>
+      </c>
+      <c r="T305" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="U305" t="inlineStr">
+        <is>
+          <t>02/11/2023 01:23</t>
+        </is>
+      </c>
+      <c r="V305" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/botafogo-rj-palmeiras/U7YBbjiL/</t>
         </is>
       </c>
     </row>

--- a/2023/brazil_serie-a_2023.xlsx
+++ b/2023/brazil_serie-a_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V305"/>
+  <dimension ref="A1:V308"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1585,22 +1585,22 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Cuiaba</t>
+          <t>Sao Paulo</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Bragantino</t>
+          <t>America MG</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>2.32</v>
+        <v>1.66</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
@@ -1608,15 +1608,15 @@
         </is>
       </c>
       <c r="L13" t="n">
-        <v>2.65</v>
+        <v>1.94</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>22/04/2023 22:56</t>
+          <t>22/04/2023 23:18</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>3.25</v>
+        <v>3.92</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1624,15 +1624,15 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>3.11</v>
+        <v>3.42</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>22/04/2023 20:05</t>
+          <t>22/04/2023 23:18</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>3.42</v>
+        <v>5.68</v>
       </c>
       <c r="S13" t="inlineStr">
         <is>
@@ -1640,16 +1640,16 @@
         </is>
       </c>
       <c r="T13" t="n">
-        <v>3.04</v>
+        <v>4.51</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>22/04/2023 22:54</t>
+          <t>22/04/2023 23:18</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/cuiaba-bragantino/xO6mYqpn/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/sao-paulo-america-mg/WWQII4pa/</t>
         </is>
       </c>
     </row>
@@ -1677,22 +1677,22 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Sao Paulo</t>
+          <t>Cuiaba</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>America MG</t>
+          <t>Bragantino</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" t="n">
-        <v>1.66</v>
+        <v>2.32</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
@@ -1700,15 +1700,15 @@
         </is>
       </c>
       <c r="L14" t="n">
-        <v>1.94</v>
+        <v>2.65</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>22/04/2023 23:18</t>
+          <t>22/04/2023 22:56</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>3.92</v>
+        <v>3.25</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1716,32 +1716,32 @@
         </is>
       </c>
       <c r="P14" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>22/04/2023 20:05</t>
+        </is>
+      </c>
+      <c r="R14" t="n">
         <v>3.42</v>
       </c>
-      <c r="Q14" t="inlineStr">
-        <is>
-          <t>22/04/2023 23:18</t>
-        </is>
-      </c>
-      <c r="R14" t="n">
-        <v>5.68</v>
-      </c>
       <c r="S14" t="inlineStr">
         <is>
           <t>17/04/2023 18:42</t>
         </is>
       </c>
       <c r="T14" t="n">
-        <v>4.51</v>
+        <v>3.04</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>22/04/2023 23:18</t>
+          <t>22/04/2023 22:54</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/sao-paulo-america-mg/WWQII4pa/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/cuiaba-bragantino/xO6mYqpn/</t>
         </is>
       </c>
     </row>
@@ -2597,71 +2597,71 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Santos</t>
+          <t>Bragantino</t>
         </is>
       </c>
       <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Cruzeiro</t>
+        </is>
+      </c>
+      <c r="I24" t="n">
         <v>3</v>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>America MG</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
-        <v>2</v>
-      </c>
       <c r="J24" t="n">
-        <v>2.04</v>
+        <v>1.75</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>24/04/2023 05:42</t>
+          <t>23/04/2023 05:13</t>
         </is>
       </c>
       <c r="L24" t="n">
-        <v>2.41</v>
+        <v>1.82</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>29/04/2023 23:26</t>
+          <t>29/04/2023 23:29</t>
         </is>
       </c>
       <c r="N24" t="n">
-        <v>3.54</v>
+        <v>3.77</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>24/04/2023 05:42</t>
+          <t>23/04/2023 05:13</t>
         </is>
       </c>
       <c r="P24" t="n">
-        <v>3.22</v>
+        <v>3.67</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>29/04/2023 23:26</t>
+          <t>29/04/2023 23:29</t>
         </is>
       </c>
       <c r="R24" t="n">
-        <v>3.73</v>
+        <v>5.06</v>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>24/04/2023 05:42</t>
+          <t>23/04/2023 05:13</t>
         </is>
       </c>
       <c r="T24" t="n">
-        <v>3.31</v>
+        <v>4.81</v>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>29/04/2023 23:26</t>
+          <t>29/04/2023 23:29</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/santos-america-mg/63b4U1qB/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/bragantino-cruzeiro/0Qc8TLbH/</t>
         </is>
       </c>
     </row>
@@ -2781,71 +2781,71 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Bragantino</t>
+          <t>Santos</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Cruzeiro</t>
+          <t>America MG</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J26" t="n">
-        <v>1.75</v>
+        <v>2.04</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>23/04/2023 05:13</t>
+          <t>24/04/2023 05:42</t>
         </is>
       </c>
       <c r="L26" t="n">
-        <v>1.82</v>
+        <v>2.41</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>29/04/2023 23:29</t>
+          <t>29/04/2023 23:26</t>
         </is>
       </c>
       <c r="N26" t="n">
-        <v>3.77</v>
+        <v>3.54</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>23/04/2023 05:13</t>
+          <t>24/04/2023 05:42</t>
         </is>
       </c>
       <c r="P26" t="n">
-        <v>3.67</v>
+        <v>3.22</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>29/04/2023 23:29</t>
+          <t>29/04/2023 23:26</t>
         </is>
       </c>
       <c r="R26" t="n">
-        <v>5.06</v>
+        <v>3.73</v>
       </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t>23/04/2023 05:13</t>
+          <t>24/04/2023 05:42</t>
         </is>
       </c>
       <c r="T26" t="n">
-        <v>4.81</v>
+        <v>3.31</v>
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>29/04/2023 23:29</t>
+          <t>29/04/2023 23:26</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/bragantino-cruzeiro/0Qc8TLbH/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/santos-america-mg/63b4U1qB/</t>
         </is>
       </c>
     </row>
@@ -3057,7 +3057,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Cuiaba</t>
+          <t>Internacional</t>
         </is>
       </c>
       <c r="G29" t="n">
@@ -3065,63 +3065,63 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Gremio</t>
+          <t>Goias</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>2.66</v>
+        <v>1.48</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>23/04/2023 05:13</t>
+          <t>24/04/2023 00:12</t>
         </is>
       </c>
       <c r="L29" t="n">
-        <v>2.79</v>
+        <v>1.64</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>30/04/2023 23:26</t>
+          <t>30/04/2023 23:25</t>
         </is>
       </c>
       <c r="N29" t="n">
-        <v>3.21</v>
+        <v>4.48</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>23/04/2023 05:13</t>
+          <t>24/04/2023 00:12</t>
         </is>
       </c>
       <c r="P29" t="n">
-        <v>3.12</v>
+        <v>3.98</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>30/04/2023 23:20</t>
+          <t>30/04/2023 23:25</t>
         </is>
       </c>
       <c r="R29" t="n">
-        <v>2.9</v>
+        <v>7.36</v>
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>23/04/2023 05:13</t>
+          <t>24/04/2023 00:12</t>
         </is>
       </c>
       <c r="T29" t="n">
-        <v>2.87</v>
+        <v>5.91</v>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>30/04/2023 23:26</t>
+          <t>30/04/2023 23:25</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/cuiaba-gremio/4bQUpNTi/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/internacional-goias/dhiHRaTT/</t>
         </is>
       </c>
     </row>
@@ -3149,7 +3149,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Internacional</t>
+          <t>Cuiaba</t>
         </is>
       </c>
       <c r="G30" t="n">
@@ -3157,63 +3157,63 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Goias</t>
+          <t>Gremio</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J30" t="n">
-        <v>1.48</v>
+        <v>2.66</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>24/04/2023 00:12</t>
+          <t>23/04/2023 05:13</t>
         </is>
       </c>
       <c r="L30" t="n">
-        <v>1.64</v>
+        <v>2.79</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>30/04/2023 23:25</t>
+          <t>30/04/2023 23:26</t>
         </is>
       </c>
       <c r="N30" t="n">
-        <v>4.48</v>
+        <v>3.21</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>24/04/2023 00:12</t>
+          <t>23/04/2023 05:13</t>
         </is>
       </c>
       <c r="P30" t="n">
-        <v>3.98</v>
+        <v>3.12</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>30/04/2023 23:25</t>
+          <t>30/04/2023 23:20</t>
         </is>
       </c>
       <c r="R30" t="n">
-        <v>7.36</v>
+        <v>2.9</v>
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>24/04/2023 00:12</t>
+          <t>23/04/2023 05:13</t>
         </is>
       </c>
       <c r="T30" t="n">
-        <v>5.91</v>
+        <v>2.87</v>
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>30/04/2023 23:25</t>
+          <t>30/04/2023 23:26</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/internacional-goias/dhiHRaTT/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/cuiaba-gremio/4bQUpNTi/</t>
         </is>
       </c>
     </row>
@@ -3609,71 +3609,71 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Sao Paulo</t>
+          <t>Bahia</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Internacional</t>
+          <t>Coritiba</t>
         </is>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35" t="n">
-        <v>1.87</v>
+        <v>1.77</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>01/05/2023 04:41</t>
+          <t>02/05/2023 01:11</t>
         </is>
       </c>
       <c r="L35" t="n">
-        <v>2.05</v>
+        <v>1.74</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
+          <t>07/05/2023 20:50</t>
+        </is>
+      </c>
+      <c r="N35" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>02/05/2023 01:11</t>
+        </is>
+      </c>
+      <c r="P35" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="Q35" t="inlineStr">
+        <is>
           <t>07/05/2023 20:59</t>
         </is>
       </c>
-      <c r="N35" t="n">
-        <v>3.79</v>
-      </c>
-      <c r="O35" t="inlineStr">
-        <is>
-          <t>01/05/2023 04:41</t>
-        </is>
-      </c>
-      <c r="P35" t="n">
-        <v>3.47</v>
-      </c>
-      <c r="Q35" t="inlineStr">
-        <is>
-          <t>07/05/2023 20:59</t>
-        </is>
-      </c>
       <c r="R35" t="n">
-        <v>4.1</v>
+        <v>4.97</v>
       </c>
       <c r="S35" t="inlineStr">
         <is>
-          <t>01/05/2023 04:41</t>
+          <t>02/05/2023 01:11</t>
         </is>
       </c>
       <c r="T35" t="n">
-        <v>3.95</v>
+        <v>5.35</v>
       </c>
       <c r="U35" t="inlineStr">
         <is>
-          <t>07/05/2023 20:59</t>
+          <t>07/05/2023 20:50</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/sao-paulo-internacional/fmJsrLDA/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/bahia-coritiba/0Qu9btbi/</t>
         </is>
       </c>
     </row>
@@ -3701,71 +3701,71 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Bahia</t>
+          <t>Athletico-PR</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Coritiba</t>
+          <t>Flamengo RJ</t>
         </is>
       </c>
       <c r="I36" t="n">
         <v>1</v>
       </c>
       <c r="J36" t="n">
-        <v>1.77</v>
+        <v>3.45</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>02/05/2023 01:11</t>
+          <t>01/05/2023 02:12</t>
         </is>
       </c>
       <c r="L36" t="n">
-        <v>1.74</v>
+        <v>3.01</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>07/05/2023 20:50</t>
+          <t>07/05/2023 20:57</t>
         </is>
       </c>
       <c r="N36" t="n">
-        <v>3.72</v>
+        <v>3.43</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>02/05/2023 01:11</t>
+          <t>01/05/2023 02:12</t>
         </is>
       </c>
       <c r="P36" t="n">
-        <v>3.76</v>
+        <v>3.22</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>07/05/2023 20:59</t>
+          <t>07/05/2023 20:56</t>
         </is>
       </c>
       <c r="R36" t="n">
-        <v>4.97</v>
+        <v>2.22</v>
       </c>
       <c r="S36" t="inlineStr">
         <is>
-          <t>02/05/2023 01:11</t>
+          <t>01/05/2023 02:12</t>
         </is>
       </c>
       <c r="T36" t="n">
-        <v>5.35</v>
+        <v>2.61</v>
       </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>07/05/2023 20:50</t>
+          <t>07/05/2023 20:57</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/bahia-coritiba/0Qu9btbi/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/athletico-pr-flamengo-rj/bL1QZdLj/</t>
         </is>
       </c>
     </row>
@@ -3793,7 +3793,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Athletico-PR</t>
+          <t>Sao Paulo</t>
         </is>
       </c>
       <c r="G37" t="n">
@@ -3801,63 +3801,63 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Flamengo RJ</t>
+          <t>Internacional</t>
         </is>
       </c>
       <c r="I37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>3.45</v>
+        <v>1.87</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>01/05/2023 02:12</t>
+          <t>01/05/2023 04:41</t>
         </is>
       </c>
       <c r="L37" t="n">
-        <v>3.01</v>
+        <v>2.05</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>07/05/2023 20:57</t>
+          <t>07/05/2023 20:59</t>
         </is>
       </c>
       <c r="N37" t="n">
-        <v>3.43</v>
+        <v>3.79</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>01/05/2023 02:12</t>
+          <t>01/05/2023 04:41</t>
         </is>
       </c>
       <c r="P37" t="n">
-        <v>3.22</v>
+        <v>3.47</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>07/05/2023 20:56</t>
+          <t>07/05/2023 20:59</t>
         </is>
       </c>
       <c r="R37" t="n">
-        <v>2.22</v>
+        <v>4.1</v>
       </c>
       <c r="S37" t="inlineStr">
         <is>
-          <t>01/05/2023 02:12</t>
+          <t>01/05/2023 04:41</t>
         </is>
       </c>
       <c r="T37" t="n">
-        <v>2.61</v>
+        <v>3.95</v>
       </c>
       <c r="U37" t="inlineStr">
         <is>
-          <t>07/05/2023 20:57</t>
+          <t>07/05/2023 20:59</t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/athletico-pr-flamengo-rj/bL1QZdLj/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/sao-paulo-internacional/fmJsrLDA/</t>
         </is>
       </c>
     </row>
@@ -3885,22 +3885,22 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Botafogo RJ</t>
+          <t>Gremio</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Atletico-MG</t>
+          <t>Bragantino</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J38" t="n">
-        <v>2.85</v>
+        <v>1.88</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -3908,15 +3908,15 @@
         </is>
       </c>
       <c r="L38" t="n">
-        <v>3.72</v>
+        <v>1.91</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>07/05/2023 23:29</t>
+          <t>07/05/2023 23:27</t>
         </is>
       </c>
       <c r="N38" t="n">
-        <v>3.66</v>
+        <v>3.71</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
@@ -3924,15 +3924,15 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>3.33</v>
+        <v>3.6</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>07/05/2023 23:29</t>
+          <t>07/05/2023 23:23</t>
         </is>
       </c>
       <c r="R38" t="n">
-        <v>2.46</v>
+        <v>4.19</v>
       </c>
       <c r="S38" t="inlineStr">
         <is>
@@ -3940,16 +3940,16 @@
         </is>
       </c>
       <c r="T38" t="n">
-        <v>2.18</v>
+        <v>4.41</v>
       </c>
       <c r="U38" t="inlineStr">
         <is>
-          <t>07/05/2023 23:29</t>
+          <t>07/05/2023 23:27</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/botafogo-rj-atletico-mg/0QJwq1b4/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/gremio-bragantino/nobMzw6p/</t>
         </is>
       </c>
     </row>
@@ -3977,22 +3977,22 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Gremio</t>
+          <t>Botafogo RJ</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Bragantino</t>
+          <t>Atletico-MG</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>1.88</v>
+        <v>2.85</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -4000,15 +4000,15 @@
         </is>
       </c>
       <c r="L39" t="n">
-        <v>1.91</v>
+        <v>3.72</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>07/05/2023 23:27</t>
+          <t>07/05/2023 23:29</t>
         </is>
       </c>
       <c r="N39" t="n">
-        <v>3.71</v>
+        <v>3.66</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
@@ -4016,15 +4016,15 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>3.6</v>
+        <v>3.33</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>07/05/2023 23:23</t>
+          <t>07/05/2023 23:29</t>
         </is>
       </c>
       <c r="R39" t="n">
-        <v>4.19</v>
+        <v>2.46</v>
       </c>
       <c r="S39" t="inlineStr">
         <is>
@@ -4032,16 +4032,16 @@
         </is>
       </c>
       <c r="T39" t="n">
-        <v>4.41</v>
+        <v>2.18</v>
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>07/05/2023 23:27</t>
+          <t>07/05/2023 23:29</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/gremio-bragantino/nobMzw6p/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/botafogo-rj-atletico-mg/0QJwq1b4/</t>
         </is>
       </c>
     </row>
@@ -5541,22 +5541,22 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Gremio</t>
+          <t>Corinthians</t>
         </is>
       </c>
       <c r="G56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Fortaleza</t>
+          <t>Sao Paulo</t>
         </is>
       </c>
       <c r="I56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J56" t="n">
-        <v>2.26</v>
+        <v>2.42</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
@@ -5564,15 +5564,15 @@
         </is>
       </c>
       <c r="L56" t="n">
-        <v>1.9</v>
+        <v>2.57</v>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>14/05/2023 20:59</t>
+          <t>14/05/2023 20:57</t>
         </is>
       </c>
       <c r="N56" t="n">
-        <v>3.44</v>
+        <v>3.24</v>
       </c>
       <c r="O56" t="inlineStr">
         <is>
@@ -5580,15 +5580,15 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>3.64</v>
+        <v>3.02</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>14/05/2023 20:59</t>
+          <t>14/05/2023 20:57</t>
         </is>
       </c>
       <c r="R56" t="n">
-        <v>3.27</v>
+        <v>3.23</v>
       </c>
       <c r="S56" t="inlineStr">
         <is>
@@ -5596,16 +5596,16 @@
         </is>
       </c>
       <c r="T56" t="n">
-        <v>4.38</v>
+        <v>3.25</v>
       </c>
       <c r="U56" t="inlineStr">
         <is>
-          <t>14/05/2023 20:59</t>
+          <t>14/05/2023 20:57</t>
         </is>
       </c>
       <c r="V56" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/gremio-fortaleza/SYhum7e7/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/corinthians-sao-paulo/vD0Sk9Bl/</t>
         </is>
       </c>
     </row>
@@ -5633,7 +5633,7 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Vasco</t>
+          <t>Gremio</t>
         </is>
       </c>
       <c r="G57" t="n">
@@ -5641,63 +5641,63 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Santos</t>
+          <t>Fortaleza</t>
         </is>
       </c>
       <c r="I57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J57" t="n">
-        <v>1.74</v>
+        <v>2.26</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>12/05/2023 00:12</t>
+          <t>12/05/2023 01:12</t>
         </is>
       </c>
       <c r="L57" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>14/05/2023 20:50</t>
+          <t>14/05/2023 20:59</t>
         </is>
       </c>
       <c r="N57" t="n">
-        <v>3.77</v>
+        <v>3.44</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>12/05/2023 00:12</t>
+          <t>12/05/2023 01:12</t>
         </is>
       </c>
       <c r="P57" t="n">
-        <v>3.33</v>
+        <v>3.64</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>14/05/2023 20:58</t>
+          <t>14/05/2023 20:59</t>
         </is>
       </c>
       <c r="R57" t="n">
-        <v>4.95</v>
+        <v>3.27</v>
       </c>
       <c r="S57" t="inlineStr">
         <is>
-          <t>12/05/2023 00:12</t>
+          <t>12/05/2023 01:12</t>
         </is>
       </c>
       <c r="T57" t="n">
-        <v>4.73</v>
+        <v>4.38</v>
       </c>
       <c r="U57" t="inlineStr">
         <is>
-          <t>14/05/2023 20:58</t>
+          <t>14/05/2023 20:59</t>
         </is>
       </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/vasco-santos/YDYf8HRF/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/gremio-fortaleza/SYhum7e7/</t>
         </is>
       </c>
     </row>
@@ -5725,71 +5725,71 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Corinthians</t>
+          <t>Vasco</t>
         </is>
       </c>
       <c r="G58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Sao Paulo</t>
+          <t>Santos</t>
         </is>
       </c>
       <c r="I58" t="n">
         <v>1</v>
       </c>
       <c r="J58" t="n">
-        <v>2.42</v>
+        <v>1.74</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>12/05/2023 01:12</t>
+          <t>12/05/2023 00:12</t>
         </is>
       </c>
       <c r="L58" t="n">
-        <v>2.57</v>
+        <v>1.93</v>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>14/05/2023 20:57</t>
+          <t>14/05/2023 20:50</t>
         </is>
       </c>
       <c r="N58" t="n">
-        <v>3.24</v>
+        <v>3.77</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>12/05/2023 01:12</t>
+          <t>12/05/2023 00:12</t>
         </is>
       </c>
       <c r="P58" t="n">
-        <v>3.02</v>
+        <v>3.33</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>14/05/2023 20:57</t>
+          <t>14/05/2023 20:58</t>
         </is>
       </c>
       <c r="R58" t="n">
-        <v>3.23</v>
+        <v>4.95</v>
       </c>
       <c r="S58" t="inlineStr">
         <is>
-          <t>12/05/2023 01:12</t>
+          <t>12/05/2023 00:12</t>
         </is>
       </c>
       <c r="T58" t="n">
-        <v>3.25</v>
+        <v>4.73</v>
       </c>
       <c r="U58" t="inlineStr">
         <is>
-          <t>14/05/2023 20:57</t>
+          <t>14/05/2023 20:58</t>
         </is>
       </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/corinthians-sao-paulo/vD0Sk9Bl/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/vasco-santos/YDYf8HRF/</t>
         </is>
       </c>
     </row>
@@ -5817,30 +5817,30 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Athletico-PR</t>
+          <t>Goias</t>
         </is>
       </c>
       <c r="G59" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Coritiba</t>
+          <t>Botafogo RJ</t>
         </is>
       </c>
       <c r="I59" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J59" t="n">
-        <v>1.68</v>
+        <v>2.91</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>12/05/2023 00:12</t>
+          <t>12/05/2023 00:42</t>
         </is>
       </c>
       <c r="L59" t="n">
-        <v>1.63</v>
+        <v>3.27</v>
       </c>
       <c r="M59" t="inlineStr">
         <is>
@@ -5848,15 +5848,15 @@
         </is>
       </c>
       <c r="N59" t="n">
-        <v>3.98</v>
+        <v>3.46</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>12/05/2023 00:12</t>
+          <t>12/05/2023 00:42</t>
         </is>
       </c>
       <c r="P59" t="n">
-        <v>3.83</v>
+        <v>3.29</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
@@ -5864,15 +5864,15 @@
         </is>
       </c>
       <c r="R59" t="n">
-        <v>5.07</v>
+        <v>2.5</v>
       </c>
       <c r="S59" t="inlineStr">
         <is>
-          <t>12/05/2023 00:12</t>
+          <t>12/05/2023 00:42</t>
         </is>
       </c>
       <c r="T59" t="n">
-        <v>6.41</v>
+        <v>2.4</v>
       </c>
       <c r="U59" t="inlineStr">
         <is>
@@ -5881,7 +5881,7 @@
       </c>
       <c r="V59" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/athletico-pr-coritiba/6PiqnRAD/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/goias-botafogo-rj/MyjXlTQf/</t>
         </is>
       </c>
     </row>
@@ -5909,46 +5909,46 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>America MG</t>
+          <t>Athletico-PR</t>
         </is>
       </c>
       <c r="G60" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Cruzeiro</t>
+          <t>Coritiba</t>
         </is>
       </c>
       <c r="I60" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J60" t="n">
-        <v>2.16</v>
+        <v>1.68</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>11/05/2023 02:42</t>
+          <t>12/05/2023 00:12</t>
         </is>
       </c>
       <c r="L60" t="n">
-        <v>2.56</v>
+        <v>1.63</v>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>14/05/2023 23:27</t>
+          <t>14/05/2023 23:29</t>
         </is>
       </c>
       <c r="N60" t="n">
-        <v>3.59</v>
+        <v>3.98</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>11/05/2023 02:42</t>
+          <t>12/05/2023 00:12</t>
         </is>
       </c>
       <c r="P60" t="n">
-        <v>3.47</v>
+        <v>3.83</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
@@ -5956,24 +5956,24 @@
         </is>
       </c>
       <c r="R60" t="n">
-        <v>3.44</v>
+        <v>5.07</v>
       </c>
       <c r="S60" t="inlineStr">
         <is>
-          <t>11/05/2023 02:42</t>
+          <t>12/05/2023 00:12</t>
         </is>
       </c>
       <c r="T60" t="n">
-        <v>2.87</v>
+        <v>6.41</v>
       </c>
       <c r="U60" t="inlineStr">
         <is>
-          <t>14/05/2023 23:27</t>
+          <t>14/05/2023 23:29</t>
         </is>
       </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/america-mg-cruzeiro/MXZV9U2K/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/athletico-pr-coritiba/6PiqnRAD/</t>
         </is>
       </c>
     </row>
@@ -6001,71 +6001,71 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Goias</t>
+          <t>America MG</t>
         </is>
       </c>
       <c r="G61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Botafogo RJ</t>
+          <t>Cruzeiro</t>
         </is>
       </c>
       <c r="I61" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J61" t="n">
-        <v>2.91</v>
+        <v>2.16</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>12/05/2023 00:42</t>
+          <t>11/05/2023 02:42</t>
         </is>
       </c>
       <c r="L61" t="n">
-        <v>3.27</v>
+        <v>2.56</v>
       </c>
       <c r="M61" t="inlineStr">
         <is>
+          <t>14/05/2023 23:27</t>
+        </is>
+      </c>
+      <c r="N61" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>11/05/2023 02:42</t>
+        </is>
+      </c>
+      <c r="P61" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="Q61" t="inlineStr">
+        <is>
           <t>14/05/2023 23:29</t>
         </is>
       </c>
-      <c r="N61" t="n">
-        <v>3.46</v>
-      </c>
-      <c r="O61" t="inlineStr">
-        <is>
-          <t>12/05/2023 00:42</t>
-        </is>
-      </c>
-      <c r="P61" t="n">
-        <v>3.29</v>
-      </c>
-      <c r="Q61" t="inlineStr">
-        <is>
-          <t>14/05/2023 23:29</t>
-        </is>
-      </c>
       <c r="R61" t="n">
-        <v>2.5</v>
+        <v>3.44</v>
       </c>
       <c r="S61" t="inlineStr">
         <is>
-          <t>12/05/2023 00:42</t>
+          <t>11/05/2023 02:42</t>
         </is>
       </c>
       <c r="T61" t="n">
-        <v>2.4</v>
+        <v>2.87</v>
       </c>
       <c r="U61" t="inlineStr">
         <is>
-          <t>14/05/2023 23:29</t>
+          <t>14/05/2023 23:27</t>
         </is>
       </c>
       <c r="V61" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/goias-botafogo-rj/MyjXlTQf/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/america-mg-cruzeiro/MXZV9U2K/</t>
         </is>
       </c>
     </row>
@@ -6185,30 +6185,30 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>America MG</t>
+          <t>Botafogo RJ</t>
         </is>
       </c>
       <c r="G63" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Fortaleza</t>
+          <t>Fluminense</t>
         </is>
       </c>
       <c r="I63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J63" t="n">
-        <v>2.63</v>
+        <v>2.78</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>15/05/2023 09:42</t>
+          <t>14/05/2023 23:42</t>
         </is>
       </c>
       <c r="L63" t="n">
-        <v>3.05</v>
+        <v>2.77</v>
       </c>
       <c r="M63" t="inlineStr">
         <is>
@@ -6216,40 +6216,40 @@
         </is>
       </c>
       <c r="N63" t="n">
-        <v>3.48</v>
+        <v>3.31</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>15/05/2023 09:42</t>
+          <t>14/05/2023 23:42</t>
         </is>
       </c>
       <c r="P63" t="n">
-        <v>3.39</v>
+        <v>3.32</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>20/05/2023 23:26</t>
+          <t>20/05/2023 23:29</t>
         </is>
       </c>
       <c r="R63" t="n">
-        <v>2.69</v>
+        <v>2.72</v>
       </c>
       <c r="S63" t="inlineStr">
         <is>
-          <t>15/05/2023 09:42</t>
+          <t>14/05/2023 23:42</t>
         </is>
       </c>
       <c r="T63" t="n">
-        <v>2.47</v>
+        <v>2.74</v>
       </c>
       <c r="U63" t="inlineStr">
         <is>
-          <t>20/05/2023 23:29</t>
+          <t>20/05/2023 22:51</t>
         </is>
       </c>
       <c r="V63" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/america-mg-fortaleza/l8gDM7nQ/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/botafogo-rj-fluminense/hGQ148Qs/</t>
         </is>
       </c>
     </row>
@@ -6277,71 +6277,71 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Sao Paulo</t>
+          <t>Bragantino</t>
         </is>
       </c>
       <c r="G64" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Vasco</t>
+          <t>Athletico-PR</t>
         </is>
       </c>
       <c r="I64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J64" t="n">
-        <v>1.94</v>
+        <v>2.05</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>15/05/2023 04:42</t>
+          <t>14/05/2023 23:42</t>
         </is>
       </c>
       <c r="L64" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>20/05/2023 23:29</t>
+          <t>20/05/2023 23:06</t>
         </is>
       </c>
       <c r="N64" t="n">
-        <v>3.59</v>
+        <v>3.43</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>15/05/2023 04:42</t>
+          <t>14/05/2023 23:42</t>
         </is>
       </c>
       <c r="P64" t="n">
-        <v>3.44</v>
+        <v>3.64</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>20/05/2023 23:29</t>
+          <t>20/05/2023 23:28</t>
         </is>
       </c>
       <c r="R64" t="n">
-        <v>4.03</v>
+        <v>3.83</v>
       </c>
       <c r="S64" t="inlineStr">
         <is>
-          <t>15/05/2023 04:42</t>
+          <t>14/05/2023 23:42</t>
         </is>
       </c>
       <c r="T64" t="n">
-        <v>4.88</v>
+        <v>4.63</v>
       </c>
       <c r="U64" t="inlineStr">
         <is>
-          <t>20/05/2023 23:29</t>
+          <t>20/05/2023 23:28</t>
         </is>
       </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/sao-paulo-vasco/zuG63Sul/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/bragantino-athletico-pr/MeEE16A0/</t>
         </is>
       </c>
     </row>
@@ -6369,22 +6369,22 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Coritiba</t>
+          <t>Sao Paulo</t>
         </is>
       </c>
       <c r="G65" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Atletico-MG</t>
+          <t>Vasco</t>
         </is>
       </c>
       <c r="I65" t="n">
         <v>2</v>
       </c>
       <c r="J65" t="n">
-        <v>4.39</v>
+        <v>1.94</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
@@ -6392,7 +6392,7 @@
         </is>
       </c>
       <c r="L65" t="n">
-        <v>4.83</v>
+        <v>1.87</v>
       </c>
       <c r="M65" t="inlineStr">
         <is>
@@ -6400,7 +6400,7 @@
         </is>
       </c>
       <c r="N65" t="n">
-        <v>3.46</v>
+        <v>3.59</v>
       </c>
       <c r="O65" t="inlineStr">
         <is>
@@ -6408,7 +6408,7 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>3.45</v>
+        <v>3.44</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
@@ -6416,7 +6416,7 @@
         </is>
       </c>
       <c r="R65" t="n">
-        <v>1.91</v>
+        <v>4.03</v>
       </c>
       <c r="S65" t="inlineStr">
         <is>
@@ -6424,7 +6424,7 @@
         </is>
       </c>
       <c r="T65" t="n">
-        <v>1.88</v>
+        <v>4.88</v>
       </c>
       <c r="U65" t="inlineStr">
         <is>
@@ -6433,7 +6433,7 @@
       </c>
       <c r="V65" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/coritiba-atletico-mg/dE6Rb4fJ/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/sao-paulo-vasco/zuG63Sul/</t>
         </is>
       </c>
     </row>
@@ -6461,71 +6461,71 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Bragantino</t>
+          <t>Coritiba</t>
         </is>
       </c>
       <c r="G66" t="n">
+        <v>1</v>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>Atletico-MG</t>
+        </is>
+      </c>
+      <c r="I66" t="n">
         <v>2</v>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>Athletico-PR</t>
-        </is>
-      </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
       <c r="J66" t="n">
-        <v>2.05</v>
+        <v>4.39</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>14/05/2023 23:42</t>
+          <t>15/05/2023 04:42</t>
         </is>
       </c>
       <c r="L66" t="n">
-        <v>1.85</v>
+        <v>4.83</v>
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>20/05/2023 23:06</t>
+          <t>20/05/2023 23:29</t>
         </is>
       </c>
       <c r="N66" t="n">
-        <v>3.43</v>
+        <v>3.46</v>
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>14/05/2023 23:42</t>
+          <t>15/05/2023 04:42</t>
         </is>
       </c>
       <c r="P66" t="n">
-        <v>3.64</v>
+        <v>3.45</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>20/05/2023 23:28</t>
+          <t>20/05/2023 23:29</t>
         </is>
       </c>
       <c r="R66" t="n">
-        <v>3.83</v>
+        <v>1.91</v>
       </c>
       <c r="S66" t="inlineStr">
         <is>
-          <t>14/05/2023 23:42</t>
+          <t>15/05/2023 04:42</t>
         </is>
       </c>
       <c r="T66" t="n">
-        <v>4.63</v>
+        <v>1.88</v>
       </c>
       <c r="U66" t="inlineStr">
         <is>
-          <t>20/05/2023 23:28</t>
+          <t>20/05/2023 23:29</t>
         </is>
       </c>
       <c r="V66" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/bragantino-athletico-pr/MeEE16A0/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/coritiba-atletico-mg/dE6Rb4fJ/</t>
         </is>
       </c>
     </row>
@@ -6553,30 +6553,30 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Botafogo RJ</t>
+          <t>America MG</t>
         </is>
       </c>
       <c r="G67" t="n">
+        <v>2</v>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>Fortaleza</t>
+        </is>
+      </c>
+      <c r="I67" t="n">
         <v>1</v>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>Fluminense</t>
-        </is>
-      </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
       <c r="J67" t="n">
-        <v>2.78</v>
+        <v>2.63</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>14/05/2023 23:42</t>
+          <t>15/05/2023 09:42</t>
         </is>
       </c>
       <c r="L67" t="n">
-        <v>2.77</v>
+        <v>3.05</v>
       </c>
       <c r="M67" t="inlineStr">
         <is>
@@ -6584,40 +6584,40 @@
         </is>
       </c>
       <c r="N67" t="n">
-        <v>3.31</v>
+        <v>3.48</v>
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>14/05/2023 23:42</t>
+          <t>15/05/2023 09:42</t>
         </is>
       </c>
       <c r="P67" t="n">
-        <v>3.32</v>
+        <v>3.39</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
+          <t>20/05/2023 23:26</t>
+        </is>
+      </c>
+      <c r="R67" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="S67" t="inlineStr">
+        <is>
+          <t>15/05/2023 09:42</t>
+        </is>
+      </c>
+      <c r="T67" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="U67" t="inlineStr">
+        <is>
           <t>20/05/2023 23:29</t>
         </is>
       </c>
-      <c r="R67" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="S67" t="inlineStr">
-        <is>
-          <t>14/05/2023 23:42</t>
-        </is>
-      </c>
-      <c r="T67" t="n">
-        <v>2.74</v>
-      </c>
-      <c r="U67" t="inlineStr">
-        <is>
-          <t>20/05/2023 22:51</t>
-        </is>
-      </c>
       <c r="V67" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/botafogo-rj-fluminense/hGQ148Qs/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/america-mg-fortaleza/l8gDM7nQ/</t>
         </is>
       </c>
     </row>
@@ -7657,71 +7657,71 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Bragantino</t>
+          <t>Atletico-MG</t>
         </is>
       </c>
       <c r="G79" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Santos</t>
+          <t>Palmeiras</t>
         </is>
       </c>
       <c r="I79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J79" t="n">
-        <v>1.75</v>
+        <v>2.19</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>21/05/2023 09:12</t>
+          <t>22/05/2023 03:42</t>
         </is>
       </c>
       <c r="L79" t="n">
-        <v>1.78</v>
+        <v>2.29</v>
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>28/05/2023 23:27</t>
+          <t>28/05/2023 23:29</t>
         </is>
       </c>
       <c r="N79" t="n">
-        <v>3.71</v>
+        <v>3.38</v>
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>21/05/2023 09:12</t>
+          <t>22/05/2023 03:42</t>
         </is>
       </c>
       <c r="P79" t="n">
-        <v>3.52</v>
+        <v>3.3</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>28/05/2023 23:15</t>
+          <t>28/05/2023 23:29</t>
         </is>
       </c>
       <c r="R79" t="n">
-        <v>5.18</v>
+        <v>3.58</v>
       </c>
       <c r="S79" t="inlineStr">
         <is>
-          <t>21/05/2023 09:12</t>
+          <t>22/05/2023 03:42</t>
         </is>
       </c>
       <c r="T79" t="n">
-        <v>5.46</v>
+        <v>3.43</v>
       </c>
       <c r="U79" t="inlineStr">
         <is>
-          <t>28/05/2023 23:27</t>
+          <t>28/05/2023 23:21</t>
         </is>
       </c>
       <c r="V79" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/bragantino-santos/rPsdEqf6/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/atletico-mg-palmeiras/MFt0D39C/</t>
         </is>
       </c>
     </row>
@@ -7749,71 +7749,71 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Atletico-MG</t>
+          <t>Bragantino</t>
         </is>
       </c>
       <c r="G80" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Palmeiras</t>
+          <t>Santos</t>
         </is>
       </c>
       <c r="I80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J80" t="n">
-        <v>2.19</v>
+        <v>1.75</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>22/05/2023 03:42</t>
+          <t>21/05/2023 09:12</t>
         </is>
       </c>
       <c r="L80" t="n">
-        <v>2.29</v>
+        <v>1.78</v>
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>28/05/2023 23:29</t>
+          <t>28/05/2023 23:27</t>
         </is>
       </c>
       <c r="N80" t="n">
-        <v>3.38</v>
+        <v>3.71</v>
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>22/05/2023 03:42</t>
+          <t>21/05/2023 09:12</t>
         </is>
       </c>
       <c r="P80" t="n">
-        <v>3.3</v>
+        <v>3.52</v>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>28/05/2023 23:29</t>
+          <t>28/05/2023 23:15</t>
         </is>
       </c>
       <c r="R80" t="n">
-        <v>3.58</v>
+        <v>5.18</v>
       </c>
       <c r="S80" t="inlineStr">
         <is>
-          <t>22/05/2023 03:42</t>
+          <t>21/05/2023 09:12</t>
         </is>
       </c>
       <c r="T80" t="n">
-        <v>3.43</v>
+        <v>5.46</v>
       </c>
       <c r="U80" t="inlineStr">
         <is>
-          <t>28/05/2023 23:21</t>
+          <t>28/05/2023 23:27</t>
         </is>
       </c>
       <c r="V80" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/atletico-mg-palmeiras/MFt0D39C/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/bragantino-santos/rPsdEqf6/</t>
         </is>
       </c>
     </row>
@@ -14373,30 +14373,30 @@
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>Bahia</t>
+          <t>Cuiaba</t>
         </is>
       </c>
       <c r="G152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>Corinthians</t>
+          <t>Sao Paulo</t>
         </is>
       </c>
       <c r="I152" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J152" t="n">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="K152" t="inlineStr">
         <is>
-          <t>16/07/2023 23:42</t>
+          <t>16/07/2023 21:12</t>
         </is>
       </c>
       <c r="L152" t="n">
-        <v>2.28</v>
+        <v>2.86</v>
       </c>
       <c r="M152" t="inlineStr">
         <is>
@@ -14404,15 +14404,15 @@
         </is>
       </c>
       <c r="N152" t="n">
-        <v>3.13</v>
+        <v>3.2</v>
       </c>
       <c r="O152" t="inlineStr">
         <is>
-          <t>16/07/2023 23:42</t>
+          <t>16/07/2023 21:12</t>
         </is>
       </c>
       <c r="P152" t="n">
-        <v>3.11</v>
+        <v>3.01</v>
       </c>
       <c r="Q152" t="inlineStr">
         <is>
@@ -14420,15 +14420,15 @@
         </is>
       </c>
       <c r="R152" t="n">
-        <v>3.32</v>
+        <v>2.81</v>
       </c>
       <c r="S152" t="inlineStr">
         <is>
-          <t>16/07/2023 23:42</t>
+          <t>16/07/2023 21:12</t>
         </is>
       </c>
       <c r="T152" t="n">
-        <v>3.74</v>
+        <v>2.9</v>
       </c>
       <c r="U152" t="inlineStr">
         <is>
@@ -14437,7 +14437,7 @@
       </c>
       <c r="V152" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/bahia-corinthians/Y5OhQ45i/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/cuiaba-sao-paulo/CdNdPOKc/</t>
         </is>
       </c>
     </row>
@@ -14465,30 +14465,30 @@
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>Cuiaba</t>
+          <t>Bahia</t>
         </is>
       </c>
       <c r="G153" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>Sao Paulo</t>
+          <t>Corinthians</t>
         </is>
       </c>
       <c r="I153" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J153" t="n">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="K153" t="inlineStr">
         <is>
-          <t>16/07/2023 21:12</t>
+          <t>16/07/2023 23:42</t>
         </is>
       </c>
       <c r="L153" t="n">
-        <v>2.86</v>
+        <v>2.28</v>
       </c>
       <c r="M153" t="inlineStr">
         <is>
@@ -14496,15 +14496,15 @@
         </is>
       </c>
       <c r="N153" t="n">
-        <v>3.2</v>
+        <v>3.13</v>
       </c>
       <c r="O153" t="inlineStr">
         <is>
-          <t>16/07/2023 21:12</t>
+          <t>16/07/2023 23:42</t>
         </is>
       </c>
       <c r="P153" t="n">
-        <v>3.01</v>
+        <v>3.11</v>
       </c>
       <c r="Q153" t="inlineStr">
         <is>
@@ -14512,15 +14512,15 @@
         </is>
       </c>
       <c r="R153" t="n">
-        <v>2.81</v>
+        <v>3.32</v>
       </c>
       <c r="S153" t="inlineStr">
         <is>
-          <t>16/07/2023 21:12</t>
+          <t>16/07/2023 23:42</t>
         </is>
       </c>
       <c r="T153" t="n">
-        <v>2.9</v>
+        <v>3.74</v>
       </c>
       <c r="U153" t="inlineStr">
         <is>
@@ -14529,7 +14529,7 @@
       </c>
       <c r="V153" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/cuiaba-sao-paulo/CdNdPOKc/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/bahia-corinthians/Y5OhQ45i/</t>
         </is>
       </c>
     </row>
@@ -14649,7 +14649,7 @@
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>Bragantino</t>
+          <t>Cruzeiro</t>
         </is>
       </c>
       <c r="G155" t="n">
@@ -14657,63 +14657,63 @@
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>Internacional</t>
+          <t>Goias</t>
         </is>
       </c>
       <c r="I155" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J155" t="n">
-        <v>1.83</v>
+        <v>1.63</v>
       </c>
       <c r="K155" t="inlineStr">
         <is>
-          <t>16/07/2023 23:42</t>
+          <t>18/07/2023 01:12</t>
         </is>
       </c>
       <c r="L155" t="n">
-        <v>1.75</v>
+        <v>1.54</v>
       </c>
       <c r="M155" t="inlineStr">
         <is>
-          <t>23/07/2023 20:59</t>
+          <t>23/07/2023 20:53</t>
         </is>
       </c>
       <c r="N155" t="n">
-        <v>3.62</v>
+        <v>3.82</v>
       </c>
       <c r="O155" t="inlineStr">
         <is>
-          <t>16/07/2023 23:42</t>
+          <t>18/07/2023 01:12</t>
         </is>
       </c>
       <c r="P155" t="n">
-        <v>3.72</v>
+        <v>4.05</v>
       </c>
       <c r="Q155" t="inlineStr">
         <is>
-          <t>23/07/2023 20:59</t>
+          <t>23/07/2023 20:55</t>
         </is>
       </c>
       <c r="R155" t="n">
-        <v>4.59</v>
+        <v>5.9</v>
       </c>
       <c r="S155" t="inlineStr">
         <is>
-          <t>16/07/2023 23:42</t>
+          <t>18/07/2023 01:12</t>
         </is>
       </c>
       <c r="T155" t="n">
-        <v>5.31</v>
+        <v>7.32</v>
       </c>
       <c r="U155" t="inlineStr">
         <is>
-          <t>23/07/2023 20:59</t>
+          <t>23/07/2023 20:55</t>
         </is>
       </c>
       <c r="V155" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/bragantino-internacional/MRfz8NkN/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/cruzeiro-goias/0Igv7s5T/</t>
         </is>
       </c>
     </row>
@@ -14741,30 +14741,30 @@
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>Santos</t>
+          <t>Bragantino</t>
         </is>
       </c>
       <c r="G156" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>Botafogo RJ</t>
+          <t>Internacional</t>
         </is>
       </c>
       <c r="I156" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J156" t="n">
-        <v>2.87</v>
+        <v>1.83</v>
       </c>
       <c r="K156" t="inlineStr">
         <is>
-          <t>16/07/2023 21:12</t>
+          <t>16/07/2023 23:42</t>
         </is>
       </c>
       <c r="L156" t="n">
-        <v>2.99</v>
+        <v>1.75</v>
       </c>
       <c r="M156" t="inlineStr">
         <is>
@@ -14772,40 +14772,40 @@
         </is>
       </c>
       <c r="N156" t="n">
-        <v>3</v>
+        <v>3.62</v>
       </c>
       <c r="O156" t="inlineStr">
         <is>
-          <t>16/07/2023 21:12</t>
+          <t>16/07/2023 23:42</t>
         </is>
       </c>
       <c r="P156" t="n">
-        <v>2.97</v>
+        <v>3.72</v>
       </c>
       <c r="Q156" t="inlineStr">
         <is>
-          <t>23/07/2023 20:48</t>
+          <t>23/07/2023 20:59</t>
         </is>
       </c>
       <c r="R156" t="n">
-        <v>2.8</v>
+        <v>4.59</v>
       </c>
       <c r="S156" t="inlineStr">
         <is>
-          <t>16/07/2023 21:12</t>
+          <t>16/07/2023 23:42</t>
         </is>
       </c>
       <c r="T156" t="n">
-        <v>2.81</v>
+        <v>5.31</v>
       </c>
       <c r="U156" t="inlineStr">
         <is>
-          <t>23/07/2023 20:58</t>
+          <t>23/07/2023 20:59</t>
         </is>
       </c>
       <c r="V156" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/santos-botafogo-rj/f5Ow93zH/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/bragantino-internacional/MRfz8NkN/</t>
         </is>
       </c>
     </row>
@@ -14833,71 +14833,71 @@
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>Cruzeiro</t>
+          <t>Santos</t>
         </is>
       </c>
       <c r="G157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>Goias</t>
+          <t>Botafogo RJ</t>
         </is>
       </c>
       <c r="I157" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J157" t="n">
-        <v>1.63</v>
+        <v>2.87</v>
       </c>
       <c r="K157" t="inlineStr">
         <is>
-          <t>18/07/2023 01:12</t>
+          <t>16/07/2023 21:12</t>
         </is>
       </c>
       <c r="L157" t="n">
-        <v>1.54</v>
+        <v>2.99</v>
       </c>
       <c r="M157" t="inlineStr">
         <is>
-          <t>23/07/2023 20:53</t>
+          <t>23/07/2023 20:59</t>
         </is>
       </c>
       <c r="N157" t="n">
-        <v>3.82</v>
+        <v>3</v>
       </c>
       <c r="O157" t="inlineStr">
         <is>
-          <t>18/07/2023 01:12</t>
+          <t>16/07/2023 21:12</t>
         </is>
       </c>
       <c r="P157" t="n">
-        <v>4.05</v>
+        <v>2.97</v>
       </c>
       <c r="Q157" t="inlineStr">
         <is>
-          <t>23/07/2023 20:55</t>
+          <t>23/07/2023 20:48</t>
         </is>
       </c>
       <c r="R157" t="n">
-        <v>5.9</v>
+        <v>2.8</v>
       </c>
       <c r="S157" t="inlineStr">
         <is>
-          <t>18/07/2023 01:12</t>
+          <t>16/07/2023 21:12</t>
         </is>
       </c>
       <c r="T157" t="n">
-        <v>7.32</v>
+        <v>2.81</v>
       </c>
       <c r="U157" t="inlineStr">
         <is>
-          <t>23/07/2023 20:55</t>
+          <t>23/07/2023 20:58</t>
         </is>
       </c>
       <c r="V157" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/cruzeiro-goias/0Igv7s5T/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/santos-botafogo-rj/f5Ow93zH/</t>
         </is>
       </c>
     </row>
@@ -15109,7 +15109,7 @@
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>Internacional</t>
+          <t>Fluminense</t>
         </is>
       </c>
       <c r="G160" t="n">
@@ -15117,38 +15117,38 @@
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>Cuiaba</t>
+          <t>Santos</t>
         </is>
       </c>
       <c r="I160" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J160" t="n">
-        <v>1.88</v>
+        <v>1.62</v>
       </c>
       <c r="K160" t="inlineStr">
         <is>
-          <t>23/07/2023 21:12</t>
+          <t>25/07/2023 00:12</t>
         </is>
       </c>
       <c r="L160" t="n">
-        <v>1.81</v>
+        <v>1.55</v>
       </c>
       <c r="M160" t="inlineStr">
         <is>
-          <t>29/07/2023 20:51</t>
+          <t>29/07/2023 20:58</t>
         </is>
       </c>
       <c r="N160" t="n">
-        <v>3.23</v>
+        <v>3.83</v>
       </c>
       <c r="O160" t="inlineStr">
         <is>
-          <t>23/07/2023 21:12</t>
+          <t>25/07/2023 00:12</t>
         </is>
       </c>
       <c r="P160" t="n">
-        <v>3.44</v>
+        <v>3.98</v>
       </c>
       <c r="Q160" t="inlineStr">
         <is>
@@ -15156,15 +15156,15 @@
         </is>
       </c>
       <c r="R160" t="n">
-        <v>4.99</v>
+        <v>6.02</v>
       </c>
       <c r="S160" t="inlineStr">
         <is>
-          <t>23/07/2023 21:12</t>
+          <t>25/07/2023 00:12</t>
         </is>
       </c>
       <c r="T160" t="n">
-        <v>5.41</v>
+        <v>7.47</v>
       </c>
       <c r="U160" t="inlineStr">
         <is>
@@ -15173,7 +15173,7 @@
       </c>
       <c r="V160" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/internacional-cuiaba/SSalFvcj/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/fluminense-santos/tWR0Orz4/</t>
         </is>
       </c>
     </row>
@@ -15201,71 +15201,71 @@
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>Fluminense</t>
+          <t>Athletico-PR</t>
         </is>
       </c>
       <c r="G161" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>Santos</t>
+          <t>Cruzeiro</t>
         </is>
       </c>
       <c r="I161" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J161" t="n">
-        <v>1.62</v>
+        <v>2.03</v>
       </c>
       <c r="K161" t="inlineStr">
         <is>
-          <t>25/07/2023 00:12</t>
+          <t>23/07/2023 23:42</t>
         </is>
       </c>
       <c r="L161" t="n">
-        <v>1.55</v>
+        <v>1.86</v>
       </c>
       <c r="M161" t="inlineStr">
         <is>
+          <t>29/07/2023 20:45</t>
+        </is>
+      </c>
+      <c r="N161" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="O161" t="inlineStr">
+        <is>
+          <t>23/07/2023 23:42</t>
+        </is>
+      </c>
+      <c r="P161" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="Q161" t="inlineStr">
+        <is>
+          <t>29/07/2023 20:45</t>
+        </is>
+      </c>
+      <c r="R161" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="S161" t="inlineStr">
+        <is>
+          <t>23/07/2023 23:42</t>
+        </is>
+      </c>
+      <c r="T161" t="n">
+        <v>4.87</v>
+      </c>
+      <c r="U161" t="inlineStr">
+        <is>
           <t>29/07/2023 20:58</t>
         </is>
       </c>
-      <c r="N161" t="n">
-        <v>3.83</v>
-      </c>
-      <c r="O161" t="inlineStr">
-        <is>
-          <t>25/07/2023 00:12</t>
-        </is>
-      </c>
-      <c r="P161" t="n">
-        <v>3.98</v>
-      </c>
-      <c r="Q161" t="inlineStr">
-        <is>
-          <t>29/07/2023 20:59</t>
-        </is>
-      </c>
-      <c r="R161" t="n">
-        <v>6.02</v>
-      </c>
-      <c r="S161" t="inlineStr">
-        <is>
-          <t>25/07/2023 00:12</t>
-        </is>
-      </c>
-      <c r="T161" t="n">
-        <v>7.47</v>
-      </c>
-      <c r="U161" t="inlineStr">
-        <is>
-          <t>29/07/2023 20:59</t>
-        </is>
-      </c>
       <c r="V161" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/fluminense-santos/tWR0Orz4/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/athletico-pr-cruzeiro/6JbhEbCd/</t>
         </is>
       </c>
     </row>
@@ -15293,71 +15293,71 @@
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>Athletico-PR</t>
+          <t>Internacional</t>
         </is>
       </c>
       <c r="G162" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>Cruzeiro</t>
+          <t>Cuiaba</t>
         </is>
       </c>
       <c r="I162" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J162" t="n">
-        <v>2.03</v>
+        <v>1.88</v>
       </c>
       <c r="K162" t="inlineStr">
         <is>
-          <t>23/07/2023 23:42</t>
+          <t>23/07/2023 21:12</t>
         </is>
       </c>
       <c r="L162" t="n">
-        <v>1.86</v>
+        <v>1.81</v>
       </c>
       <c r="M162" t="inlineStr">
         <is>
-          <t>29/07/2023 20:45</t>
+          <t>29/07/2023 20:51</t>
         </is>
       </c>
       <c r="N162" t="n">
-        <v>3.38</v>
+        <v>3.23</v>
       </c>
       <c r="O162" t="inlineStr">
         <is>
-          <t>23/07/2023 23:42</t>
+          <t>23/07/2023 21:12</t>
         </is>
       </c>
       <c r="P162" t="n">
-        <v>3.49</v>
+        <v>3.44</v>
       </c>
       <c r="Q162" t="inlineStr">
         <is>
-          <t>29/07/2023 20:45</t>
+          <t>29/07/2023 20:59</t>
         </is>
       </c>
       <c r="R162" t="n">
-        <v>3.98</v>
+        <v>4.99</v>
       </c>
       <c r="S162" t="inlineStr">
         <is>
-          <t>23/07/2023 23:42</t>
+          <t>23/07/2023 21:12</t>
         </is>
       </c>
       <c r="T162" t="n">
-        <v>4.87</v>
+        <v>5.41</v>
       </c>
       <c r="U162" t="inlineStr">
         <is>
-          <t>29/07/2023 20:58</t>
+          <t>29/07/2023 20:59</t>
         </is>
       </c>
       <c r="V162" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/athletico-pr-cruzeiro/6JbhEbCd/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/internacional-cuiaba/SSalFvcj/</t>
         </is>
       </c>
     </row>
@@ -16581,71 +16581,71 @@
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>Bahia</t>
+          <t>Cruzeiro</t>
         </is>
       </c>
       <c r="G176" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>America MG</t>
+          <t>Botafogo RJ</t>
         </is>
       </c>
       <c r="I176" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J176" t="n">
-        <v>2.02</v>
+        <v>2.19</v>
       </c>
       <c r="K176" t="inlineStr">
         <is>
-          <t>31/07/2023 03:12</t>
+          <t>31/07/2023 00:42</t>
         </is>
       </c>
       <c r="L176" t="n">
-        <v>1.94</v>
+        <v>2.35</v>
       </c>
       <c r="M176" t="inlineStr">
         <is>
+          <t>06/08/2023 23:25</t>
+        </is>
+      </c>
+      <c r="N176" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="O176" t="inlineStr">
+        <is>
+          <t>31/07/2023 00:42</t>
+        </is>
+      </c>
+      <c r="P176" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="Q176" t="inlineStr">
+        <is>
           <t>06/08/2023 23:29</t>
         </is>
       </c>
-      <c r="N176" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="O176" t="inlineStr">
-        <is>
-          <t>31/07/2023 03:12</t>
-        </is>
-      </c>
-      <c r="P176" t="n">
-        <v>3.68</v>
-      </c>
-      <c r="Q176" t="inlineStr">
-        <is>
-          <t>06/08/2023 23:29</t>
-        </is>
-      </c>
       <c r="R176" t="n">
-        <v>3.92</v>
+        <v>3.71</v>
       </c>
       <c r="S176" t="inlineStr">
         <is>
-          <t>31/07/2023 03:12</t>
+          <t>31/07/2023 00:42</t>
         </is>
       </c>
       <c r="T176" t="n">
-        <v>4.12</v>
+        <v>3.41</v>
       </c>
       <c r="U176" t="inlineStr">
         <is>
-          <t>06/08/2023 23:29</t>
+          <t>06/08/2023 23:25</t>
         </is>
       </c>
       <c r="V176" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/bahia-america-mg/CvlGZTa2/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/cruzeiro-botafogo-rj/0tKRScRk/</t>
         </is>
       </c>
     </row>
@@ -16673,7 +16673,7 @@
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>Cruzeiro</t>
+          <t>Coritiba</t>
         </is>
       </c>
       <c r="G177" t="n">
@@ -16681,22 +16681,22 @@
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>Botafogo RJ</t>
+          <t>Bragantino</t>
         </is>
       </c>
       <c r="I177" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J177" t="n">
-        <v>2.19</v>
+        <v>2.97</v>
       </c>
       <c r="K177" t="inlineStr">
         <is>
-          <t>31/07/2023 00:42</t>
+          <t>30/07/2023 21:12</t>
         </is>
       </c>
       <c r="L177" t="n">
-        <v>2.35</v>
+        <v>3.58</v>
       </c>
       <c r="M177" t="inlineStr">
         <is>
@@ -16704,40 +16704,40 @@
         </is>
       </c>
       <c r="N177" t="n">
-        <v>3.26</v>
+        <v>3.29</v>
       </c>
       <c r="O177" t="inlineStr">
         <is>
-          <t>31/07/2023 00:42</t>
+          <t>30/07/2023 21:12</t>
         </is>
       </c>
       <c r="P177" t="n">
-        <v>3.23</v>
+        <v>3.33</v>
       </c>
       <c r="Q177" t="inlineStr">
         <is>
-          <t>06/08/2023 23:29</t>
+          <t>06/08/2023 23:26</t>
         </is>
       </c>
       <c r="R177" t="n">
-        <v>3.71</v>
+        <v>2.51</v>
       </c>
       <c r="S177" t="inlineStr">
         <is>
-          <t>31/07/2023 00:42</t>
+          <t>30/07/2023 21:12</t>
         </is>
       </c>
       <c r="T177" t="n">
-        <v>3.41</v>
+        <v>2.23</v>
       </c>
       <c r="U177" t="inlineStr">
         <is>
-          <t>06/08/2023 23:25</t>
+          <t>06/08/2023 23:22</t>
         </is>
       </c>
       <c r="V177" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/cruzeiro-botafogo-rj/0tKRScRk/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/coritiba-bragantino/YgIZQyd2/</t>
         </is>
       </c>
     </row>
@@ -16765,71 +16765,71 @@
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>Coritiba</t>
+          <t>Bahia</t>
         </is>
       </c>
       <c r="G178" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>Bragantino</t>
+          <t>America MG</t>
         </is>
       </c>
       <c r="I178" t="n">
         <v>1</v>
       </c>
       <c r="J178" t="n">
-        <v>2.97</v>
+        <v>2.02</v>
       </c>
       <c r="K178" t="inlineStr">
         <is>
-          <t>30/07/2023 21:12</t>
+          <t>31/07/2023 03:12</t>
         </is>
       </c>
       <c r="L178" t="n">
-        <v>3.58</v>
+        <v>1.94</v>
       </c>
       <c r="M178" t="inlineStr">
         <is>
-          <t>06/08/2023 23:25</t>
+          <t>06/08/2023 23:29</t>
         </is>
       </c>
       <c r="N178" t="n">
-        <v>3.29</v>
+        <v>3.55</v>
       </c>
       <c r="O178" t="inlineStr">
         <is>
-          <t>30/07/2023 21:12</t>
+          <t>31/07/2023 03:12</t>
         </is>
       </c>
       <c r="P178" t="n">
-        <v>3.33</v>
+        <v>3.68</v>
       </c>
       <c r="Q178" t="inlineStr">
         <is>
-          <t>06/08/2023 23:26</t>
+          <t>06/08/2023 23:29</t>
         </is>
       </c>
       <c r="R178" t="n">
-        <v>2.51</v>
+        <v>3.92</v>
       </c>
       <c r="S178" t="inlineStr">
         <is>
-          <t>30/07/2023 21:12</t>
+          <t>31/07/2023 03:12</t>
         </is>
       </c>
       <c r="T178" t="n">
-        <v>2.23</v>
+        <v>4.12</v>
       </c>
       <c r="U178" t="inlineStr">
         <is>
-          <t>06/08/2023 23:22</t>
+          <t>06/08/2023 23:29</t>
         </is>
       </c>
       <c r="V178" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/coritiba-bragantino/YgIZQyd2/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/bahia-america-mg/CvlGZTa2/</t>
         </is>
       </c>
     </row>
@@ -17133,62 +17133,62 @@
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>Gremio</t>
+          <t>America MG</t>
         </is>
       </c>
       <c r="G182" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>Fluminense</t>
+          <t>Goias</t>
         </is>
       </c>
       <c r="I182" t="n">
         <v>1</v>
       </c>
       <c r="J182" t="n">
-        <v>2.26</v>
+        <v>1.8</v>
       </c>
       <c r="K182" t="inlineStr">
         <is>
-          <t>06/08/2023 21:12</t>
+          <t>06/08/2023 23:42</t>
         </is>
       </c>
       <c r="L182" t="n">
-        <v>2.32</v>
+        <v>2</v>
       </c>
       <c r="M182" t="inlineStr">
         <is>
-          <t>13/08/2023 20:51</t>
+          <t>13/08/2023 20:58</t>
         </is>
       </c>
       <c r="N182" t="n">
-        <v>3.52</v>
+        <v>3.73</v>
       </c>
       <c r="O182" t="inlineStr">
         <is>
-          <t>06/08/2023 21:12</t>
+          <t>06/08/2023 23:42</t>
         </is>
       </c>
       <c r="P182" t="n">
-        <v>3.35</v>
+        <v>3.46</v>
       </c>
       <c r="Q182" t="inlineStr">
         <is>
-          <t>13/08/2023 20:55</t>
+          <t>13/08/2023 20:58</t>
         </is>
       </c>
       <c r="R182" t="n">
-        <v>3.19</v>
+        <v>4.59</v>
       </c>
       <c r="S182" t="inlineStr">
         <is>
-          <t>06/08/2023 21:12</t>
+          <t>06/08/2023 23:42</t>
         </is>
       </c>
       <c r="T182" t="n">
-        <v>3.36</v>
+        <v>4.17</v>
       </c>
       <c r="U182" t="inlineStr">
         <is>
@@ -17197,7 +17197,7 @@
       </c>
       <c r="V182" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/gremio-fluminense/hGACBHDC/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/america-mg-goias/bD12YvLP/</t>
         </is>
       </c>
     </row>
@@ -17225,34 +17225,34 @@
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>Corinthians</t>
+          <t>Gremio</t>
         </is>
       </c>
       <c r="G183" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>Coritiba</t>
+          <t>Fluminense</t>
         </is>
       </c>
       <c r="I183" t="n">
         <v>1</v>
       </c>
       <c r="J183" t="n">
-        <v>1.82</v>
+        <v>2.26</v>
       </c>
       <c r="K183" t="inlineStr">
         <is>
-          <t>06/08/2023 23:42</t>
+          <t>06/08/2023 21:12</t>
         </is>
       </c>
       <c r="L183" t="n">
-        <v>1.73</v>
+        <v>2.32</v>
       </c>
       <c r="M183" t="inlineStr">
         <is>
-          <t>13/08/2023 20:58</t>
+          <t>13/08/2023 20:51</t>
         </is>
       </c>
       <c r="N183" t="n">
@@ -17260,27 +17260,27 @@
       </c>
       <c r="O183" t="inlineStr">
         <is>
-          <t>06/08/2023 23:42</t>
+          <t>06/08/2023 21:12</t>
         </is>
       </c>
       <c r="P183" t="n">
-        <v>3.59</v>
+        <v>3.35</v>
       </c>
       <c r="Q183" t="inlineStr">
         <is>
-          <t>13/08/2023 20:56</t>
+          <t>13/08/2023 20:55</t>
         </is>
       </c>
       <c r="R183" t="n">
-        <v>4.82</v>
+        <v>3.19</v>
       </c>
       <c r="S183" t="inlineStr">
         <is>
-          <t>06/08/2023 23:42</t>
+          <t>06/08/2023 21:12</t>
         </is>
       </c>
       <c r="T183" t="n">
-        <v>5.72</v>
+        <v>3.36</v>
       </c>
       <c r="U183" t="inlineStr">
         <is>
@@ -17289,7 +17289,7 @@
       </c>
       <c r="V183" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/corinthians-coritiba/2RHaEJTg/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/gremio-fluminense/hGACBHDC/</t>
         </is>
       </c>
     </row>
@@ -17317,22 +17317,22 @@
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>America MG</t>
+          <t>Corinthians</t>
         </is>
       </c>
       <c r="G184" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>Goias</t>
+          <t>Coritiba</t>
         </is>
       </c>
       <c r="I184" t="n">
         <v>1</v>
       </c>
       <c r="J184" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="K184" t="inlineStr">
         <is>
@@ -17340,7 +17340,7 @@
         </is>
       </c>
       <c r="L184" t="n">
-        <v>2</v>
+        <v>1.73</v>
       </c>
       <c r="M184" t="inlineStr">
         <is>
@@ -17348,7 +17348,7 @@
         </is>
       </c>
       <c r="N184" t="n">
-        <v>3.73</v>
+        <v>3.52</v>
       </c>
       <c r="O184" t="inlineStr">
         <is>
@@ -17356,32 +17356,32 @@
         </is>
       </c>
       <c r="P184" t="n">
-        <v>3.46</v>
+        <v>3.59</v>
       </c>
       <c r="Q184" t="inlineStr">
         <is>
+          <t>13/08/2023 20:56</t>
+        </is>
+      </c>
+      <c r="R184" t="n">
+        <v>4.82</v>
+      </c>
+      <c r="S184" t="inlineStr">
+        <is>
+          <t>06/08/2023 23:42</t>
+        </is>
+      </c>
+      <c r="T184" t="n">
+        <v>5.72</v>
+      </c>
+      <c r="U184" t="inlineStr">
+        <is>
           <t>13/08/2023 20:58</t>
         </is>
       </c>
-      <c r="R184" t="n">
-        <v>4.59</v>
-      </c>
-      <c r="S184" t="inlineStr">
-        <is>
-          <t>06/08/2023 23:42</t>
-        </is>
-      </c>
-      <c r="T184" t="n">
-        <v>4.17</v>
-      </c>
-      <c r="U184" t="inlineStr">
-        <is>
-          <t>13/08/2023 20:58</t>
-        </is>
-      </c>
       <c r="V184" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/america-mg-goias/bD12YvLP/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/corinthians-coritiba/2RHaEJTg/</t>
         </is>
       </c>
     </row>
@@ -17409,71 +17409,71 @@
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>Fortaleza</t>
+          <t>Flamengo RJ</t>
         </is>
       </c>
       <c r="G185" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>Santos</t>
+          <t>Sao Paulo</t>
         </is>
       </c>
       <c r="I185" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J185" t="n">
-        <v>1.6</v>
+        <v>1.79</v>
       </c>
       <c r="K185" t="inlineStr">
         <is>
-          <t>10/08/2023 22:32</t>
+          <t>07/08/2023 03:42</t>
         </is>
       </c>
       <c r="L185" t="n">
-        <v>1.55</v>
+        <v>1.8</v>
       </c>
       <c r="M185" t="inlineStr">
         <is>
+          <t>13/08/2023 23:28</t>
+        </is>
+      </c>
+      <c r="N185" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="O185" t="inlineStr">
+        <is>
+          <t>07/08/2023 03:42</t>
+        </is>
+      </c>
+      <c r="P185" t="n">
+        <v>3.73</v>
+      </c>
+      <c r="Q185" t="inlineStr">
+        <is>
           <t>13/08/2023 23:29</t>
         </is>
       </c>
-      <c r="N185" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="O185" t="inlineStr">
-        <is>
-          <t>10/08/2023 22:32</t>
-        </is>
-      </c>
-      <c r="P185" t="n">
-        <v>3.98</v>
-      </c>
-      <c r="Q185" t="inlineStr">
+      <c r="R185" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="S185" t="inlineStr">
+        <is>
+          <t>07/08/2023 03:42</t>
+        </is>
+      </c>
+      <c r="T185" t="n">
+        <v>4.87</v>
+      </c>
+      <c r="U185" t="inlineStr">
         <is>
           <t>13/08/2023 23:29</t>
         </is>
       </c>
-      <c r="R185" t="n">
-        <v>6.23</v>
-      </c>
-      <c r="S185" t="inlineStr">
-        <is>
-          <t>10/08/2023 22:32</t>
-        </is>
-      </c>
-      <c r="T185" t="n">
-        <v>7.47</v>
-      </c>
-      <c r="U185" t="inlineStr">
-        <is>
-          <t>13/08/2023 23:29</t>
-        </is>
-      </c>
       <c r="V185" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/fortaleza-santos/KM2bZK5J/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/flamengo-rj-sao-paulo/phnOX7UE/</t>
         </is>
       </c>
     </row>
@@ -17501,46 +17501,46 @@
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>Flamengo RJ</t>
+          <t>Fortaleza</t>
         </is>
       </c>
       <c r="G186" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>Sao Paulo</t>
+          <t>Santos</t>
         </is>
       </c>
       <c r="I186" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J186" t="n">
-        <v>1.79</v>
+        <v>1.6</v>
       </c>
       <c r="K186" t="inlineStr">
         <is>
-          <t>07/08/2023 03:42</t>
+          <t>10/08/2023 22:32</t>
         </is>
       </c>
       <c r="L186" t="n">
-        <v>1.8</v>
+        <v>1.55</v>
       </c>
       <c r="M186" t="inlineStr">
         <is>
-          <t>13/08/2023 23:28</t>
+          <t>13/08/2023 23:29</t>
         </is>
       </c>
       <c r="N186" t="n">
-        <v>3.43</v>
+        <v>3.9</v>
       </c>
       <c r="O186" t="inlineStr">
         <is>
-          <t>07/08/2023 03:42</t>
+          <t>10/08/2023 22:32</t>
         </is>
       </c>
       <c r="P186" t="n">
-        <v>3.73</v>
+        <v>3.98</v>
       </c>
       <c r="Q186" t="inlineStr">
         <is>
@@ -17548,15 +17548,15 @@
         </is>
       </c>
       <c r="R186" t="n">
-        <v>5.16</v>
+        <v>6.23</v>
       </c>
       <c r="S186" t="inlineStr">
         <is>
-          <t>07/08/2023 03:42</t>
+          <t>10/08/2023 22:32</t>
         </is>
       </c>
       <c r="T186" t="n">
-        <v>4.87</v>
+        <v>7.47</v>
       </c>
       <c r="U186" t="inlineStr">
         <is>
@@ -17565,7 +17565,7 @@
       </c>
       <c r="V186" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/flamengo-rj-sao-paulo/phnOX7UE/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/fortaleza-santos/KM2bZK5J/</t>
         </is>
       </c>
     </row>
@@ -20077,22 +20077,22 @@
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>Fluminense</t>
+          <t>Corinthians</t>
         </is>
       </c>
       <c r="G214" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>Fortaleza</t>
+          <t>Palmeiras</t>
         </is>
       </c>
       <c r="I214" t="n">
         <v>0</v>
       </c>
       <c r="J214" t="n">
-        <v>1.84</v>
+        <v>3.34</v>
       </c>
       <c r="K214" t="inlineStr">
         <is>
@@ -20100,39 +20100,39 @@
         </is>
       </c>
       <c r="L214" t="n">
-        <v>1.95</v>
+        <v>4.92</v>
       </c>
       <c r="M214" t="inlineStr">
         <is>
+          <t>03/09/2023 20:58</t>
+        </is>
+      </c>
+      <c r="N214" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="O214" t="inlineStr">
+        <is>
+          <t>27/08/2023 22:42</t>
+        </is>
+      </c>
+      <c r="P214" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q214" t="inlineStr">
+        <is>
           <t>03/09/2023 20:56</t>
         </is>
       </c>
-      <c r="N214" t="n">
-        <v>3.66</v>
-      </c>
-      <c r="O214" t="inlineStr">
+      <c r="R214" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="S214" t="inlineStr">
         <is>
           <t>27/08/2023 22:42</t>
         </is>
       </c>
-      <c r="P214" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="Q214" t="inlineStr">
-        <is>
-          <t>03/09/2023 20:55</t>
-        </is>
-      </c>
-      <c r="R214" t="n">
-        <v>4.62</v>
-      </c>
-      <c r="S214" t="inlineStr">
-        <is>
-          <t>27/08/2023 22:42</t>
-        </is>
-      </c>
       <c r="T214" t="n">
-        <v>4.41</v>
+        <v>1.93</v>
       </c>
       <c r="U214" t="inlineStr">
         <is>
@@ -20141,7 +20141,7 @@
       </c>
       <c r="V214" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/fluminense-fortaleza/jogngFdh/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/corinthians-palmeiras/x2ebjDtB/</t>
         </is>
       </c>
     </row>
@@ -20169,22 +20169,22 @@
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>Corinthians</t>
+          <t>Fluminense</t>
         </is>
       </c>
       <c r="G215" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>Palmeiras</t>
+          <t>Fortaleza</t>
         </is>
       </c>
       <c r="I215" t="n">
         <v>0</v>
       </c>
       <c r="J215" t="n">
-        <v>3.34</v>
+        <v>1.84</v>
       </c>
       <c r="K215" t="inlineStr">
         <is>
@@ -20192,15 +20192,15 @@
         </is>
       </c>
       <c r="L215" t="n">
-        <v>4.92</v>
+        <v>1.95</v>
       </c>
       <c r="M215" t="inlineStr">
         <is>
-          <t>03/09/2023 20:58</t>
+          <t>03/09/2023 20:56</t>
         </is>
       </c>
       <c r="N215" t="n">
-        <v>3.13</v>
+        <v>3.66</v>
       </c>
       <c r="O215" t="inlineStr">
         <is>
@@ -20208,32 +20208,32 @@
         </is>
       </c>
       <c r="P215" t="n">
-        <v>3.25</v>
+        <v>3.45</v>
       </c>
       <c r="Q215" t="inlineStr">
         <is>
+          <t>03/09/2023 20:55</t>
+        </is>
+      </c>
+      <c r="R215" t="n">
+        <v>4.62</v>
+      </c>
+      <c r="S215" t="inlineStr">
+        <is>
+          <t>27/08/2023 22:42</t>
+        </is>
+      </c>
+      <c r="T215" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="U215" t="inlineStr">
+        <is>
           <t>03/09/2023 20:56</t>
         </is>
       </c>
-      <c r="R215" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="S215" t="inlineStr">
-        <is>
-          <t>27/08/2023 22:42</t>
-        </is>
-      </c>
-      <c r="T215" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="U215" t="inlineStr">
-        <is>
-          <t>03/09/2023 20:56</t>
-        </is>
-      </c>
       <c r="V215" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/corinthians-palmeiras/x2ebjDtB/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/fluminense-fortaleza/jogngFdh/</t>
         </is>
       </c>
     </row>
@@ -20261,71 +20261,71 @@
       </c>
       <c r="F216" t="inlineStr">
         <is>
-          <t>Bahia</t>
+          <t>Cruzeiro</t>
         </is>
       </c>
       <c r="G216" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>Vasco</t>
+          <t>Bragantino</t>
         </is>
       </c>
       <c r="I216" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J216" t="n">
-        <v>2.02</v>
+        <v>2.26</v>
       </c>
       <c r="K216" t="inlineStr">
         <is>
-          <t>27/08/2023 22:42</t>
+          <t>27/08/2023 23:12</t>
         </is>
       </c>
       <c r="L216" t="n">
-        <v>2.11</v>
+        <v>2.47</v>
       </c>
       <c r="M216" t="inlineStr">
         <is>
-          <t>03/09/2023 23:26</t>
+          <t>03/09/2023 23:19</t>
         </is>
       </c>
       <c r="N216" t="n">
-        <v>3.43</v>
+        <v>3.32</v>
       </c>
       <c r="O216" t="inlineStr">
         <is>
-          <t>27/08/2023 22:42</t>
+          <t>27/08/2023 23:12</t>
         </is>
       </c>
       <c r="P216" t="n">
-        <v>3.33</v>
+        <v>3.14</v>
       </c>
       <c r="Q216" t="inlineStr">
         <is>
-          <t>03/09/2023 23:29</t>
+          <t>03/09/2023 23:09</t>
         </is>
       </c>
       <c r="R216" t="n">
-        <v>4.04</v>
+        <v>3.47</v>
       </c>
       <c r="S216" t="inlineStr">
         <is>
-          <t>27/08/2023 22:42</t>
+          <t>27/08/2023 23:12</t>
         </is>
       </c>
       <c r="T216" t="n">
-        <v>3.95</v>
+        <v>3.29</v>
       </c>
       <c r="U216" t="inlineStr">
         <is>
-          <t>03/09/2023 23:29</t>
+          <t>03/09/2023 23:07</t>
         </is>
       </c>
       <c r="V216" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/bahia-vasco/4lJL7EBo/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/cruzeiro-bragantino/YTl7liBN/</t>
         </is>
       </c>
     </row>
@@ -20353,71 +20353,71 @@
       </c>
       <c r="F217" t="inlineStr">
         <is>
-          <t>America MG</t>
+          <t>Bahia</t>
         </is>
       </c>
       <c r="G217" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>Santos</t>
+          <t>Vasco</t>
         </is>
       </c>
       <c r="I217" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J217" t="n">
-        <v>2.1</v>
+        <v>2.02</v>
       </c>
       <c r="K217" t="inlineStr">
         <is>
-          <t>27/08/2023 20:12</t>
+          <t>27/08/2023 22:42</t>
         </is>
       </c>
       <c r="L217" t="n">
-        <v>2.21</v>
+        <v>2.11</v>
       </c>
       <c r="M217" t="inlineStr">
         <is>
-          <t>03/09/2023 23:28</t>
+          <t>03/09/2023 23:26</t>
         </is>
       </c>
       <c r="N217" t="n">
-        <v>3.35</v>
+        <v>3.43</v>
       </c>
       <c r="O217" t="inlineStr">
         <is>
-          <t>27/08/2023 20:12</t>
+          <t>27/08/2023 22:42</t>
         </is>
       </c>
       <c r="P217" t="n">
-        <v>3.2</v>
+        <v>3.33</v>
       </c>
       <c r="Q217" t="inlineStr">
         <is>
-          <t>03/09/2023 23:28</t>
+          <t>03/09/2023 23:29</t>
         </is>
       </c>
       <c r="R217" t="n">
-        <v>3.88</v>
+        <v>4.04</v>
       </c>
       <c r="S217" t="inlineStr">
         <is>
-          <t>27/08/2023 20:12</t>
+          <t>27/08/2023 22:42</t>
         </is>
       </c>
       <c r="T217" t="n">
-        <v>3.8</v>
+        <v>3.95</v>
       </c>
       <c r="U217" t="inlineStr">
         <is>
-          <t>03/09/2023 23:28</t>
+          <t>03/09/2023 23:29</t>
         </is>
       </c>
       <c r="V217" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/america-mg-santos/ruIP6YQi/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/bahia-vasco/4lJL7EBo/</t>
         </is>
       </c>
     </row>
@@ -20445,71 +20445,71 @@
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t>Cruzeiro</t>
+          <t>America MG</t>
         </is>
       </c>
       <c r="G218" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>Bragantino</t>
+          <t>Santos</t>
         </is>
       </c>
       <c r="I218" t="n">
         <v>0</v>
       </c>
       <c r="J218" t="n">
-        <v>2.26</v>
+        <v>2.1</v>
       </c>
       <c r="K218" t="inlineStr">
         <is>
-          <t>27/08/2023 23:12</t>
+          <t>27/08/2023 20:12</t>
         </is>
       </c>
       <c r="L218" t="n">
-        <v>2.47</v>
+        <v>2.21</v>
       </c>
       <c r="M218" t="inlineStr">
         <is>
-          <t>03/09/2023 23:19</t>
+          <t>03/09/2023 23:28</t>
         </is>
       </c>
       <c r="N218" t="n">
-        <v>3.32</v>
+        <v>3.35</v>
       </c>
       <c r="O218" t="inlineStr">
         <is>
-          <t>27/08/2023 23:12</t>
+          <t>27/08/2023 20:12</t>
         </is>
       </c>
       <c r="P218" t="n">
-        <v>3.14</v>
+        <v>3.2</v>
       </c>
       <c r="Q218" t="inlineStr">
         <is>
-          <t>03/09/2023 23:09</t>
+          <t>03/09/2023 23:28</t>
         </is>
       </c>
       <c r="R218" t="n">
-        <v>3.47</v>
+        <v>3.88</v>
       </c>
       <c r="S218" t="inlineStr">
         <is>
-          <t>27/08/2023 23:12</t>
+          <t>27/08/2023 20:12</t>
         </is>
       </c>
       <c r="T218" t="n">
-        <v>3.29</v>
+        <v>3.8</v>
       </c>
       <c r="U218" t="inlineStr">
         <is>
-          <t>03/09/2023 23:07</t>
+          <t>03/09/2023 23:28</t>
         </is>
       </c>
       <c r="V218" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/cruzeiro-bragantino/YTl7liBN/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/america-mg-santos/ruIP6YQi/</t>
         </is>
       </c>
     </row>
@@ -24585,71 +24585,71 @@
       </c>
       <c r="F263" t="inlineStr">
         <is>
-          <t>America MG</t>
+          <t>Coritiba</t>
         </is>
       </c>
       <c r="G263" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H263" t="inlineStr">
         <is>
-          <t>Botafogo RJ</t>
+          <t>Cuiaba</t>
         </is>
       </c>
       <c r="I263" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J263" t="n">
-        <v>3.13</v>
+        <v>2.53</v>
       </c>
       <c r="K263" t="inlineStr">
         <is>
-          <t>09/10/2023 14:12</t>
+          <t>15/10/2023 01:12</t>
         </is>
       </c>
       <c r="L263" t="n">
-        <v>2.9</v>
+        <v>2.61</v>
       </c>
       <c r="M263" t="inlineStr">
         <is>
-          <t>19/10/2023 00:53</t>
+          <t>19/10/2023 00:34</t>
         </is>
       </c>
       <c r="N263" t="n">
-        <v>3.31</v>
+        <v>3.12</v>
       </c>
       <c r="O263" t="inlineStr">
         <is>
-          <t>09/10/2023 14:12</t>
+          <t>15/10/2023 01:12</t>
         </is>
       </c>
       <c r="P263" t="n">
-        <v>3.26</v>
+        <v>2.94</v>
       </c>
       <c r="Q263" t="inlineStr">
         <is>
-          <t>19/10/2023 00:51</t>
+          <t>18/10/2023 23:34</t>
         </is>
       </c>
       <c r="R263" t="n">
-        <v>2.4</v>
+        <v>3.18</v>
       </c>
       <c r="S263" t="inlineStr">
         <is>
-          <t>09/10/2023 14:12</t>
+          <t>15/10/2023 01:12</t>
         </is>
       </c>
       <c r="T263" t="n">
-        <v>2.67</v>
+        <v>3.29</v>
       </c>
       <c r="U263" t="inlineStr">
         <is>
-          <t>19/10/2023 00:51</t>
+          <t>19/10/2023 00:06</t>
         </is>
       </c>
       <c r="V263" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/america-mg-botafogo-rj/b5F6vArh/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/coritiba-cuiaba/WbNKG6jo/</t>
         </is>
       </c>
     </row>
@@ -24677,71 +24677,71 @@
       </c>
       <c r="F264" t="inlineStr">
         <is>
-          <t>Coritiba</t>
+          <t>America MG</t>
         </is>
       </c>
       <c r="G264" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H264" t="inlineStr">
         <is>
-          <t>Cuiaba</t>
+          <t>Botafogo RJ</t>
         </is>
       </c>
       <c r="I264" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J264" t="n">
-        <v>2.53</v>
+        <v>3.13</v>
       </c>
       <c r="K264" t="inlineStr">
         <is>
-          <t>15/10/2023 01:12</t>
+          <t>09/10/2023 14:12</t>
         </is>
       </c>
       <c r="L264" t="n">
-        <v>2.61</v>
+        <v>2.9</v>
       </c>
       <c r="M264" t="inlineStr">
         <is>
-          <t>19/10/2023 00:34</t>
+          <t>19/10/2023 00:53</t>
         </is>
       </c>
       <c r="N264" t="n">
-        <v>3.12</v>
+        <v>3.31</v>
       </c>
       <c r="O264" t="inlineStr">
         <is>
-          <t>15/10/2023 01:12</t>
+          <t>09/10/2023 14:12</t>
         </is>
       </c>
       <c r="P264" t="n">
-        <v>2.94</v>
+        <v>3.26</v>
       </c>
       <c r="Q264" t="inlineStr">
         <is>
-          <t>18/10/2023 23:34</t>
+          <t>19/10/2023 00:51</t>
         </is>
       </c>
       <c r="R264" t="n">
-        <v>3.18</v>
+        <v>2.4</v>
       </c>
       <c r="S264" t="inlineStr">
         <is>
-          <t>15/10/2023 01:12</t>
+          <t>09/10/2023 14:12</t>
         </is>
       </c>
       <c r="T264" t="n">
-        <v>3.29</v>
+        <v>2.67</v>
       </c>
       <c r="U264" t="inlineStr">
         <is>
-          <t>19/10/2023 00:06</t>
+          <t>19/10/2023 00:51</t>
         </is>
       </c>
       <c r="V264" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/coritiba-cuiaba/WbNKG6jo/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/america-mg-botafogo-rj/b5F6vArh/</t>
         </is>
       </c>
     </row>
@@ -24769,22 +24769,22 @@
       </c>
       <c r="F265" t="inlineStr">
         <is>
-          <t>Vasco</t>
+          <t>Goias</t>
         </is>
       </c>
       <c r="G265" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H265" t="inlineStr">
         <is>
-          <t>Fortaleza</t>
+          <t>Sao Paulo</t>
         </is>
       </c>
       <c r="I265" t="n">
         <v>0</v>
       </c>
       <c r="J265" t="n">
-        <v>2.26</v>
+        <v>3.02</v>
       </c>
       <c r="K265" t="inlineStr">
         <is>
@@ -24792,15 +24792,15 @@
         </is>
       </c>
       <c r="L265" t="n">
-        <v>2.32</v>
+        <v>3.79</v>
       </c>
       <c r="M265" t="inlineStr">
         <is>
-          <t>19/10/2023 02:28</t>
+          <t>19/10/2023 02:27</t>
         </is>
       </c>
       <c r="N265" t="n">
-        <v>3.3</v>
+        <v>3.09</v>
       </c>
       <c r="O265" t="inlineStr">
         <is>
@@ -24816,7 +24816,7 @@
         </is>
       </c>
       <c r="R265" t="n">
-        <v>3.49</v>
+        <v>2.66</v>
       </c>
       <c r="S265" t="inlineStr">
         <is>
@@ -24824,16 +24824,16 @@
         </is>
       </c>
       <c r="T265" t="n">
-        <v>3.53</v>
+        <v>2.22</v>
       </c>
       <c r="U265" t="inlineStr">
         <is>
-          <t>19/10/2023 02:28</t>
+          <t>19/10/2023 02:27</t>
         </is>
       </c>
       <c r="V265" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/vasco-fortaleza/bXyvwc7m/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/goias-sao-paulo/b76rzei6/</t>
         </is>
       </c>
     </row>
@@ -24861,22 +24861,22 @@
       </c>
       <c r="F266" t="inlineStr">
         <is>
-          <t>Goias</t>
+          <t>Vasco</t>
         </is>
       </c>
       <c r="G266" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H266" t="inlineStr">
         <is>
-          <t>Sao Paulo</t>
+          <t>Fortaleza</t>
         </is>
       </c>
       <c r="I266" t="n">
         <v>0</v>
       </c>
       <c r="J266" t="n">
-        <v>3.02</v>
+        <v>2.26</v>
       </c>
       <c r="K266" t="inlineStr">
         <is>
@@ -24884,15 +24884,15 @@
         </is>
       </c>
       <c r="L266" t="n">
-        <v>3.79</v>
+        <v>2.32</v>
       </c>
       <c r="M266" t="inlineStr">
         <is>
-          <t>19/10/2023 02:27</t>
+          <t>19/10/2023 02:28</t>
         </is>
       </c>
       <c r="N266" t="n">
-        <v>3.09</v>
+        <v>3.3</v>
       </c>
       <c r="O266" t="inlineStr">
         <is>
@@ -24908,7 +24908,7 @@
         </is>
       </c>
       <c r="R266" t="n">
-        <v>2.66</v>
+        <v>3.49</v>
       </c>
       <c r="S266" t="inlineStr">
         <is>
@@ -24916,16 +24916,16 @@
         </is>
       </c>
       <c r="T266" t="n">
-        <v>2.22</v>
+        <v>3.53</v>
       </c>
       <c r="U266" t="inlineStr">
         <is>
-          <t>19/10/2023 02:27</t>
+          <t>19/10/2023 02:28</t>
         </is>
       </c>
       <c r="V266" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/goias-sao-paulo/b76rzei6/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/vasco-fortaleza/bXyvwc7m/</t>
         </is>
       </c>
     </row>
@@ -25413,22 +25413,22 @@
       </c>
       <c r="F272" t="inlineStr">
         <is>
-          <t>Bahia</t>
+          <t>Sao Paulo</t>
         </is>
       </c>
       <c r="G272" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H272" t="inlineStr">
         <is>
-          <t>Fortaleza</t>
+          <t>Gremio</t>
         </is>
       </c>
       <c r="I272" t="n">
         <v>0</v>
       </c>
       <c r="J272" t="n">
-        <v>2.3</v>
+        <v>1.95</v>
       </c>
       <c r="K272" t="inlineStr">
         <is>
@@ -25436,15 +25436,15 @@
         </is>
       </c>
       <c r="L272" t="n">
-        <v>2.09</v>
+        <v>1.6</v>
       </c>
       <c r="M272" t="inlineStr">
         <is>
-          <t>21/10/2023 23:22</t>
+          <t>21/10/2023 23:29</t>
         </is>
       </c>
       <c r="N272" t="n">
-        <v>3.33</v>
+        <v>3.59</v>
       </c>
       <c r="O272" t="inlineStr">
         <is>
@@ -25452,15 +25452,15 @@
         </is>
       </c>
       <c r="P272" t="n">
-        <v>3.39</v>
+        <v>4.04</v>
       </c>
       <c r="Q272" t="inlineStr">
         <is>
-          <t>21/10/2023 23:18</t>
+          <t>21/10/2023 23:29</t>
         </is>
       </c>
       <c r="R272" t="n">
-        <v>3.36</v>
+        <v>4.14</v>
       </c>
       <c r="S272" t="inlineStr">
         <is>
@@ -25468,16 +25468,16 @@
         </is>
       </c>
       <c r="T272" t="n">
-        <v>3.93</v>
+        <v>6.32</v>
       </c>
       <c r="U272" t="inlineStr">
         <is>
-          <t>21/10/2023 23:22</t>
+          <t>21/10/2023 23:29</t>
         </is>
       </c>
       <c r="V272" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/bahia-fortaleza/d0Hrxxvi/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/sao-paulo-gremio/nR7Jy8SA/</t>
         </is>
       </c>
     </row>
@@ -25505,22 +25505,22 @@
       </c>
       <c r="F273" t="inlineStr">
         <is>
-          <t>Cuiaba</t>
+          <t>Bahia</t>
         </is>
       </c>
       <c r="G273" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H273" t="inlineStr">
         <is>
-          <t>Goias</t>
+          <t>Fortaleza</t>
         </is>
       </c>
       <c r="I273" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J273" t="n">
-        <v>1.81</v>
+        <v>2.3</v>
       </c>
       <c r="K273" t="inlineStr">
         <is>
@@ -25528,15 +25528,15 @@
         </is>
       </c>
       <c r="L273" t="n">
-        <v>2.05</v>
+        <v>2.09</v>
       </c>
       <c r="M273" t="inlineStr">
         <is>
-          <t>21/10/2023 23:28</t>
+          <t>21/10/2023 23:22</t>
         </is>
       </c>
       <c r="N273" t="n">
-        <v>3.48</v>
+        <v>3.33</v>
       </c>
       <c r="O273" t="inlineStr">
         <is>
@@ -25544,15 +25544,15 @@
         </is>
       </c>
       <c r="P273" t="n">
-        <v>3.18</v>
+        <v>3.39</v>
       </c>
       <c r="Q273" t="inlineStr">
         <is>
-          <t>21/10/2023 23:28</t>
+          <t>21/10/2023 23:18</t>
         </is>
       </c>
       <c r="R273" t="n">
-        <v>4.93</v>
+        <v>3.36</v>
       </c>
       <c r="S273" t="inlineStr">
         <is>
@@ -25560,16 +25560,16 @@
         </is>
       </c>
       <c r="T273" t="n">
-        <v>4.4</v>
+        <v>3.93</v>
       </c>
       <c r="U273" t="inlineStr">
         <is>
-          <t>21/10/2023 23:28</t>
+          <t>21/10/2023 23:22</t>
         </is>
       </c>
       <c r="V273" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/cuiaba-goias/ziGnydgc/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/bahia-fortaleza/d0Hrxxvi/</t>
         </is>
       </c>
     </row>
@@ -25597,22 +25597,22 @@
       </c>
       <c r="F274" t="inlineStr">
         <is>
-          <t>Sao Paulo</t>
+          <t>Cuiaba</t>
         </is>
       </c>
       <c r="G274" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H274" t="inlineStr">
         <is>
-          <t>Gremio</t>
+          <t>Goias</t>
         </is>
       </c>
       <c r="I274" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J274" t="n">
-        <v>1.95</v>
+        <v>1.81</v>
       </c>
       <c r="K274" t="inlineStr">
         <is>
@@ -25620,15 +25620,15 @@
         </is>
       </c>
       <c r="L274" t="n">
-        <v>1.6</v>
+        <v>2.05</v>
       </c>
       <c r="M274" t="inlineStr">
         <is>
-          <t>21/10/2023 23:29</t>
+          <t>21/10/2023 23:28</t>
         </is>
       </c>
       <c r="N274" t="n">
-        <v>3.59</v>
+        <v>3.48</v>
       </c>
       <c r="O274" t="inlineStr">
         <is>
@@ -25636,15 +25636,15 @@
         </is>
       </c>
       <c r="P274" t="n">
-        <v>4.04</v>
+        <v>3.18</v>
       </c>
       <c r="Q274" t="inlineStr">
         <is>
-          <t>21/10/2023 23:29</t>
+          <t>21/10/2023 23:28</t>
         </is>
       </c>
       <c r="R274" t="n">
-        <v>4.14</v>
+        <v>4.93</v>
       </c>
       <c r="S274" t="inlineStr">
         <is>
@@ -25652,16 +25652,16 @@
         </is>
       </c>
       <c r="T274" t="n">
-        <v>6.32</v>
+        <v>4.4</v>
       </c>
       <c r="U274" t="inlineStr">
         <is>
-          <t>21/10/2023 23:29</t>
+          <t>21/10/2023 23:28</t>
         </is>
       </c>
       <c r="V274" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/sao-paulo-gremio/nR7Jy8SA/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/cuiaba-goias/ziGnydgc/</t>
         </is>
       </c>
     </row>
@@ -25781,71 +25781,71 @@
       </c>
       <c r="F276" t="inlineStr">
         <is>
-          <t>Atletico-MG</t>
+          <t>Internacional</t>
         </is>
       </c>
       <c r="G276" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H276" t="inlineStr">
         <is>
-          <t>Cruzeiro</t>
+          <t>Santos</t>
         </is>
       </c>
       <c r="I276" t="n">
         <v>1</v>
       </c>
       <c r="J276" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="K276" t="inlineStr">
         <is>
-          <t>19/10/2023 23:12</t>
+          <t>20/10/2023 00:12</t>
         </is>
       </c>
       <c r="L276" t="n">
-        <v>1.92</v>
+        <v>1.54</v>
       </c>
       <c r="M276" t="inlineStr">
         <is>
-          <t>22/10/2023 20:52</t>
+          <t>22/10/2023 20:51</t>
         </is>
       </c>
       <c r="N276" t="n">
-        <v>3.66</v>
+        <v>3.54</v>
       </c>
       <c r="O276" t="inlineStr">
         <is>
-          <t>19/10/2023 23:12</t>
+          <t>20/10/2023 00:12</t>
         </is>
       </c>
       <c r="P276" t="n">
-        <v>3.17</v>
+        <v>4.08</v>
       </c>
       <c r="Q276" t="inlineStr">
         <is>
-          <t>22/10/2023 20:52</t>
+          <t>22/10/2023 20:55</t>
         </is>
       </c>
       <c r="R276" t="n">
-        <v>5.43</v>
+        <v>5.08</v>
       </c>
       <c r="S276" t="inlineStr">
         <is>
-          <t>19/10/2023 23:12</t>
+          <t>20/10/2023 00:12</t>
         </is>
       </c>
       <c r="T276" t="n">
-        <v>5.2</v>
+        <v>7.28</v>
       </c>
       <c r="U276" t="inlineStr">
         <is>
-          <t>22/10/2023 20:56</t>
+          <t>22/10/2023 20:55</t>
         </is>
       </c>
       <c r="V276" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/atletico-mg-cruzeiro/Mq0WY5CT/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/internacional-santos/vPnbUPKp/</t>
         </is>
       </c>
     </row>
@@ -25873,71 +25873,71 @@
       </c>
       <c r="F277" t="inlineStr">
         <is>
-          <t>Internacional</t>
+          <t>Atletico-MG</t>
         </is>
       </c>
       <c r="G277" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H277" t="inlineStr">
         <is>
-          <t>Santos</t>
+          <t>Cruzeiro</t>
         </is>
       </c>
       <c r="I277" t="n">
         <v>1</v>
       </c>
       <c r="J277" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="K277" t="inlineStr">
         <is>
-          <t>20/10/2023 00:12</t>
+          <t>19/10/2023 23:12</t>
         </is>
       </c>
       <c r="L277" t="n">
-        <v>1.54</v>
+        <v>1.92</v>
       </c>
       <c r="M277" t="inlineStr">
         <is>
-          <t>22/10/2023 20:51</t>
+          <t>22/10/2023 20:52</t>
         </is>
       </c>
       <c r="N277" t="n">
-        <v>3.54</v>
+        <v>3.66</v>
       </c>
       <c r="O277" t="inlineStr">
         <is>
-          <t>20/10/2023 00:12</t>
+          <t>19/10/2023 23:12</t>
         </is>
       </c>
       <c r="P277" t="n">
-        <v>4.08</v>
+        <v>3.17</v>
       </c>
       <c r="Q277" t="inlineStr">
         <is>
-          <t>22/10/2023 20:55</t>
+          <t>22/10/2023 20:52</t>
         </is>
       </c>
       <c r="R277" t="n">
-        <v>5.08</v>
+        <v>5.43</v>
       </c>
       <c r="S277" t="inlineStr">
         <is>
-          <t>20/10/2023 00:12</t>
+          <t>19/10/2023 23:12</t>
         </is>
       </c>
       <c r="T277" t="n">
-        <v>7.28</v>
+        <v>5.2</v>
       </c>
       <c r="U277" t="inlineStr">
         <is>
-          <t>22/10/2023 20:55</t>
+          <t>22/10/2023 20:56</t>
         </is>
       </c>
       <c r="V277" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/internacional-santos/vPnbUPKp/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/atletico-mg-cruzeiro/Mq0WY5CT/</t>
         </is>
       </c>
     </row>
@@ -28514,6 +28514,282 @@
       <c r="V305" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/brazil/serie-a/botafogo-rj-palmeiras/U7YBbjiL/</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" s="1" t="n">
+        <v>305</v>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>brazil</t>
+        </is>
+      </c>
+      <c r="C306" t="inlineStr">
+        <is>
+          <t>serie-a</t>
+        </is>
+      </c>
+      <c r="D306" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E306" s="2" t="n">
+        <v>45232.875</v>
+      </c>
+      <c r="F306" t="inlineStr">
+        <is>
+          <t>Cuiaba</t>
+        </is>
+      </c>
+      <c r="G306" t="n">
+        <v>0</v>
+      </c>
+      <c r="H306" t="inlineStr">
+        <is>
+          <t>Vasco</t>
+        </is>
+      </c>
+      <c r="I306" t="n">
+        <v>2</v>
+      </c>
+      <c r="J306" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>30/10/2023 00:12</t>
+        </is>
+      </c>
+      <c r="L306" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="M306" t="inlineStr">
+        <is>
+          <t>02/11/2023 20:59</t>
+        </is>
+      </c>
+      <c r="N306" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="O306" t="inlineStr">
+        <is>
+          <t>30/10/2023 00:12</t>
+        </is>
+      </c>
+      <c r="P306" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="Q306" t="inlineStr">
+        <is>
+          <t>02/11/2023 20:52</t>
+        </is>
+      </c>
+      <c r="R306" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="S306" t="inlineStr">
+        <is>
+          <t>30/10/2023 00:12</t>
+        </is>
+      </c>
+      <c r="T306" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U306" t="inlineStr">
+        <is>
+          <t>02/11/2023 20:59</t>
+        </is>
+      </c>
+      <c r="V306" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/cuiaba-vasco/8bgoDk6E/</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" s="1" t="n">
+        <v>306</v>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>brazil</t>
+        </is>
+      </c>
+      <c r="C307" t="inlineStr">
+        <is>
+          <t>serie-a</t>
+        </is>
+      </c>
+      <c r="D307" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E307" s="2" t="n">
+        <v>45232.91666666666</v>
+      </c>
+      <c r="F307" t="inlineStr">
+        <is>
+          <t>Goias</t>
+        </is>
+      </c>
+      <c r="G307" t="n">
+        <v>0</v>
+      </c>
+      <c r="H307" t="inlineStr">
+        <is>
+          <t>Bragantino</t>
+        </is>
+      </c>
+      <c r="I307" t="n">
+        <v>2</v>
+      </c>
+      <c r="J307" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>29/10/2023 20:12</t>
+        </is>
+      </c>
+      <c r="L307" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="M307" t="inlineStr">
+        <is>
+          <t>02/11/2023 21:52</t>
+        </is>
+      </c>
+      <c r="N307" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="O307" t="inlineStr">
+        <is>
+          <t>29/10/2023 20:12</t>
+        </is>
+      </c>
+      <c r="P307" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="Q307" t="inlineStr">
+        <is>
+          <t>02/11/2023 21:52</t>
+        </is>
+      </c>
+      <c r="R307" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="S307" t="inlineStr">
+        <is>
+          <t>29/10/2023 20:12</t>
+        </is>
+      </c>
+      <c r="T307" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="U307" t="inlineStr">
+        <is>
+          <t>02/11/2023 21:47</t>
+        </is>
+      </c>
+      <c r="V307" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/goias-bragantino/rFEnhlUl/</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" s="1" t="n">
+        <v>307</v>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>brazil</t>
+        </is>
+      </c>
+      <c r="C308" t="inlineStr">
+        <is>
+          <t>serie-a</t>
+        </is>
+      </c>
+      <c r="D308" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E308" s="2" t="n">
+        <v>45233</v>
+      </c>
+      <c r="F308" t="inlineStr">
+        <is>
+          <t>Sao Paulo</t>
+        </is>
+      </c>
+      <c r="G308" t="n">
+        <v>1</v>
+      </c>
+      <c r="H308" t="inlineStr">
+        <is>
+          <t>Cruzeiro</t>
+        </is>
+      </c>
+      <c r="I308" t="n">
+        <v>0</v>
+      </c>
+      <c r="J308" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>29/10/2023 20:12</t>
+        </is>
+      </c>
+      <c r="L308" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="M308" t="inlineStr">
+        <is>
+          <t>02/11/2023 23:54</t>
+        </is>
+      </c>
+      <c r="N308" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="O308" t="inlineStr">
+        <is>
+          <t>29/10/2023 20:12</t>
+        </is>
+      </c>
+      <c r="P308" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="Q308" t="inlineStr">
+        <is>
+          <t>02/11/2023 23:54</t>
+        </is>
+      </c>
+      <c r="R308" t="n">
+        <v>5.34</v>
+      </c>
+      <c r="S308" t="inlineStr">
+        <is>
+          <t>29/10/2023 20:12</t>
+        </is>
+      </c>
+      <c r="T308" t="n">
+        <v>4.86</v>
+      </c>
+      <c r="U308" t="inlineStr">
+        <is>
+          <t>02/11/2023 23:54</t>
+        </is>
+      </c>
+      <c r="V308" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/sao-paulo-cruzeiro/CWNGcA6R/</t>
         </is>
       </c>
     </row>

--- a/2023/brazil_serie-a_2023.xlsx
+++ b/2023/brazil_serie-a_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V308"/>
+  <dimension ref="A1:V311"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4529,22 +4529,22 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Flamengo RJ</t>
+          <t>Cuiaba</t>
         </is>
       </c>
       <c r="G45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Goias</t>
+          <t>Atletico-MG</t>
         </is>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J45" t="n">
-        <v>1.32</v>
+        <v>3.36</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
@@ -4552,15 +4552,15 @@
         </is>
       </c>
       <c r="L45" t="n">
-        <v>1.25</v>
+        <v>3.86</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>11/05/2023 00:43</t>
+          <t>11/05/2023 00:59</t>
         </is>
       </c>
       <c r="N45" t="n">
-        <v>5.65</v>
+        <v>3.3</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
@@ -4568,15 +4568,15 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>6.22</v>
+        <v>3.3</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>11/05/2023 00:58</t>
+          <t>11/05/2023 00:57</t>
         </is>
       </c>
       <c r="R45" t="n">
-        <v>9.16</v>
+        <v>2.32</v>
       </c>
       <c r="S45" t="inlineStr">
         <is>
@@ -4584,16 +4584,16 @@
         </is>
       </c>
       <c r="T45" t="n">
-        <v>12.58</v>
+        <v>2.15</v>
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>11/05/2023 00:58</t>
+          <t>11/05/2023 00:59</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/flamengo-rj-goias/8jqHdKS3/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/cuiaba-atletico-mg/CbpnAwc3/</t>
         </is>
       </c>
     </row>
@@ -4621,22 +4621,22 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Cuiaba</t>
+          <t>Flamengo RJ</t>
         </is>
       </c>
       <c r="G46" t="n">
+        <v>2</v>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Goias</t>
+        </is>
+      </c>
+      <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>Atletico-MG</t>
-        </is>
-      </c>
-      <c r="I46" t="n">
-        <v>4</v>
-      </c>
       <c r="J46" t="n">
-        <v>3.36</v>
+        <v>1.32</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
@@ -4644,15 +4644,15 @@
         </is>
       </c>
       <c r="L46" t="n">
-        <v>3.86</v>
+        <v>1.25</v>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>11/05/2023 00:59</t>
+          <t>11/05/2023 00:43</t>
         </is>
       </c>
       <c r="N46" t="n">
-        <v>3.3</v>
+        <v>5.65</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
@@ -4660,15 +4660,15 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>3.3</v>
+        <v>6.22</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>11/05/2023 00:57</t>
+          <t>11/05/2023 00:58</t>
         </is>
       </c>
       <c r="R46" t="n">
-        <v>2.32</v>
+        <v>9.16</v>
       </c>
       <c r="S46" t="inlineStr">
         <is>
@@ -4676,16 +4676,16 @@
         </is>
       </c>
       <c r="T46" t="n">
-        <v>2.15</v>
+        <v>12.58</v>
       </c>
       <c r="U46" t="inlineStr">
         <is>
-          <t>11/05/2023 00:59</t>
+          <t>11/05/2023 00:58</t>
         </is>
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/cuiaba-atletico-mg/CbpnAwc3/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/flamengo-rj-goias/8jqHdKS3/</t>
         </is>
       </c>
     </row>
@@ -22653,7 +22653,7 @@
       </c>
       <c r="F242" t="inlineStr">
         <is>
-          <t>Flamengo RJ</t>
+          <t>Fortaleza</t>
         </is>
       </c>
       <c r="G242" t="n">
@@ -22661,14 +22661,14 @@
       </c>
       <c r="H242" t="inlineStr">
         <is>
-          <t>Bahia</t>
+          <t>Gremio</t>
         </is>
       </c>
       <c r="I242" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J242" t="n">
-        <v>1.37</v>
+        <v>2</v>
       </c>
       <c r="K242" t="inlineStr">
         <is>
@@ -22676,15 +22676,15 @@
         </is>
       </c>
       <c r="L242" t="n">
-        <v>1.54</v>
+        <v>2.64</v>
       </c>
       <c r="M242" t="inlineStr">
         <is>
-          <t>30/09/2023 20:37</t>
+          <t>30/09/2023 20:46</t>
         </is>
       </c>
       <c r="N242" t="n">
-        <v>5.38</v>
+        <v>3.55</v>
       </c>
       <c r="O242" t="inlineStr">
         <is>
@@ -22692,15 +22692,15 @@
         </is>
       </c>
       <c r="P242" t="n">
-        <v>4.35</v>
+        <v>3.29</v>
       </c>
       <c r="Q242" t="inlineStr">
         <is>
-          <t>30/09/2023 20:56</t>
+          <t>30/09/2023 19:43</t>
         </is>
       </c>
       <c r="R242" t="n">
-        <v>7.89</v>
+        <v>3.86</v>
       </c>
       <c r="S242" t="inlineStr">
         <is>
@@ -22708,16 +22708,16 @@
         </is>
       </c>
       <c r="T242" t="n">
-        <v>6.51</v>
+        <v>2.9</v>
       </c>
       <c r="U242" t="inlineStr">
         <is>
-          <t>30/09/2023 20:46</t>
+          <t>30/09/2023 20:55</t>
         </is>
       </c>
       <c r="V242" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/flamengo-rj-bahia/KICnIMVK/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/fortaleza-gremio/EuYLWLpE/</t>
         </is>
       </c>
     </row>
@@ -22745,7 +22745,7 @@
       </c>
       <c r="F243" t="inlineStr">
         <is>
-          <t>Fortaleza</t>
+          <t>Flamengo RJ</t>
         </is>
       </c>
       <c r="G243" t="n">
@@ -22753,14 +22753,14 @@
       </c>
       <c r="H243" t="inlineStr">
         <is>
-          <t>Gremio</t>
+          <t>Bahia</t>
         </is>
       </c>
       <c r="I243" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J243" t="n">
-        <v>2</v>
+        <v>1.37</v>
       </c>
       <c r="K243" t="inlineStr">
         <is>
@@ -22768,48 +22768,48 @@
         </is>
       </c>
       <c r="L243" t="n">
-        <v>2.64</v>
+        <v>1.54</v>
       </c>
       <c r="M243" t="inlineStr">
         <is>
+          <t>30/09/2023 20:37</t>
+        </is>
+      </c>
+      <c r="N243" t="n">
+        <v>5.38</v>
+      </c>
+      <c r="O243" t="inlineStr">
+        <is>
+          <t>22/09/2023 20:42</t>
+        </is>
+      </c>
+      <c r="P243" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="Q243" t="inlineStr">
+        <is>
+          <t>30/09/2023 20:56</t>
+        </is>
+      </c>
+      <c r="R243" t="n">
+        <v>7.89</v>
+      </c>
+      <c r="S243" t="inlineStr">
+        <is>
+          <t>22/09/2023 20:42</t>
+        </is>
+      </c>
+      <c r="T243" t="n">
+        <v>6.51</v>
+      </c>
+      <c r="U243" t="inlineStr">
+        <is>
           <t>30/09/2023 20:46</t>
         </is>
       </c>
-      <c r="N243" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="O243" t="inlineStr">
-        <is>
-          <t>22/09/2023 20:42</t>
-        </is>
-      </c>
-      <c r="P243" t="n">
-        <v>3.29</v>
-      </c>
-      <c r="Q243" t="inlineStr">
-        <is>
-          <t>30/09/2023 19:43</t>
-        </is>
-      </c>
-      <c r="R243" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="S243" t="inlineStr">
-        <is>
-          <t>22/09/2023 20:42</t>
-        </is>
-      </c>
-      <c r="T243" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="U243" t="inlineStr">
-        <is>
-          <t>30/09/2023 20:55</t>
-        </is>
-      </c>
       <c r="V243" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/fortaleza-gremio/EuYLWLpE/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/flamengo-rj-bahia/KICnIMVK/</t>
         </is>
       </c>
     </row>
@@ -23849,71 +23849,71 @@
       </c>
       <c r="F255" t="inlineStr">
         <is>
-          <t>Fluminense</t>
+          <t>Palmeiras</t>
         </is>
       </c>
       <c r="G255" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H255" t="inlineStr">
         <is>
-          <t>Botafogo RJ</t>
+          <t>Santos</t>
         </is>
       </c>
       <c r="I255" t="n">
         <v>2</v>
       </c>
       <c r="J255" t="n">
-        <v>2.08</v>
+        <v>1.35</v>
       </c>
       <c r="K255" t="inlineStr">
         <is>
-          <t>03/10/2023 00:13</t>
+          <t>01/10/2023 22:42</t>
         </is>
       </c>
       <c r="L255" t="n">
-        <v>1.95</v>
+        <v>1.44</v>
       </c>
       <c r="M255" t="inlineStr">
         <is>
-          <t>08/10/2023 20:59</t>
+          <t>08/10/2023 20:49</t>
         </is>
       </c>
       <c r="N255" t="n">
-        <v>3.21</v>
+        <v>5.12</v>
       </c>
       <c r="O255" t="inlineStr">
         <is>
-          <t>03/10/2023 00:13</t>
+          <t>01/10/2023 22:42</t>
         </is>
       </c>
       <c r="P255" t="n">
-        <v>3.52</v>
+        <v>4.48</v>
       </c>
       <c r="Q255" t="inlineStr">
         <is>
-          <t>08/10/2023 20:59</t>
+          <t>08/10/2023 20:58</t>
         </is>
       </c>
       <c r="R255" t="n">
-        <v>4.03</v>
+        <v>9.890000000000001</v>
       </c>
       <c r="S255" t="inlineStr">
         <is>
-          <t>03/10/2023 00:13</t>
+          <t>01/10/2023 22:42</t>
         </is>
       </c>
       <c r="T255" t="n">
-        <v>4.29</v>
+        <v>8.73</v>
       </c>
       <c r="U255" t="inlineStr">
         <is>
-          <t>08/10/2023 20:59</t>
+          <t>08/10/2023 20:58</t>
         </is>
       </c>
       <c r="V255" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/fluminense-botafogo-rj/A7RUUaFQ/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/palmeiras-santos/6wD0Pwwl/</t>
         </is>
       </c>
     </row>
@@ -23941,71 +23941,71 @@
       </c>
       <c r="F256" t="inlineStr">
         <is>
-          <t>Internacional</t>
+          <t>Fluminense</t>
         </is>
       </c>
       <c r="G256" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H256" t="inlineStr">
         <is>
-          <t>Gremio</t>
+          <t>Botafogo RJ</t>
         </is>
       </c>
       <c r="I256" t="n">
         <v>2</v>
       </c>
       <c r="J256" t="n">
-        <v>2.29</v>
+        <v>2.08</v>
       </c>
       <c r="K256" t="inlineStr">
         <is>
-          <t>01/10/2023 01:12</t>
+          <t>03/10/2023 00:13</t>
         </is>
       </c>
       <c r="L256" t="n">
-        <v>2.29</v>
+        <v>1.95</v>
       </c>
       <c r="M256" t="inlineStr">
         <is>
-          <t>08/10/2023 20:56</t>
+          <t>08/10/2023 20:59</t>
         </is>
       </c>
       <c r="N256" t="n">
-        <v>3.3</v>
+        <v>3.21</v>
       </c>
       <c r="O256" t="inlineStr">
         <is>
-          <t>01/10/2023 01:12</t>
+          <t>03/10/2023 00:13</t>
         </is>
       </c>
       <c r="P256" t="n">
-        <v>3.26</v>
+        <v>3.52</v>
       </c>
       <c r="Q256" t="inlineStr">
         <is>
-          <t>08/10/2023 20:51</t>
+          <t>08/10/2023 20:59</t>
         </is>
       </c>
       <c r="R256" t="n">
-        <v>3.43</v>
+        <v>4.03</v>
       </c>
       <c r="S256" t="inlineStr">
         <is>
-          <t>01/10/2023 01:12</t>
+          <t>03/10/2023 00:13</t>
         </is>
       </c>
       <c r="T256" t="n">
-        <v>3.53</v>
+        <v>4.29</v>
       </c>
       <c r="U256" t="inlineStr">
         <is>
-          <t>08/10/2023 20:56</t>
+          <t>08/10/2023 20:59</t>
         </is>
       </c>
       <c r="V256" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/internacional-gremio/829HLexD/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/fluminense-botafogo-rj/A7RUUaFQ/</t>
         </is>
       </c>
     </row>
@@ -24033,71 +24033,71 @@
       </c>
       <c r="F257" t="inlineStr">
         <is>
-          <t>Palmeiras</t>
+          <t>Internacional</t>
         </is>
       </c>
       <c r="G257" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H257" t="inlineStr">
         <is>
-          <t>Santos</t>
+          <t>Gremio</t>
         </is>
       </c>
       <c r="I257" t="n">
         <v>2</v>
       </c>
       <c r="J257" t="n">
-        <v>1.35</v>
+        <v>2.29</v>
       </c>
       <c r="K257" t="inlineStr">
         <is>
-          <t>01/10/2023 22:42</t>
+          <t>01/10/2023 01:12</t>
         </is>
       </c>
       <c r="L257" t="n">
-        <v>1.44</v>
+        <v>2.29</v>
       </c>
       <c r="M257" t="inlineStr">
         <is>
-          <t>08/10/2023 20:49</t>
+          <t>08/10/2023 20:56</t>
         </is>
       </c>
       <c r="N257" t="n">
-        <v>5.12</v>
+        <v>3.3</v>
       </c>
       <c r="O257" t="inlineStr">
         <is>
-          <t>01/10/2023 22:42</t>
+          <t>01/10/2023 01:12</t>
         </is>
       </c>
       <c r="P257" t="n">
-        <v>4.48</v>
+        <v>3.26</v>
       </c>
       <c r="Q257" t="inlineStr">
         <is>
-          <t>08/10/2023 20:58</t>
+          <t>08/10/2023 20:51</t>
         </is>
       </c>
       <c r="R257" t="n">
-        <v>9.890000000000001</v>
+        <v>3.43</v>
       </c>
       <c r="S257" t="inlineStr">
         <is>
-          <t>01/10/2023 22:42</t>
+          <t>01/10/2023 01:12</t>
         </is>
       </c>
       <c r="T257" t="n">
-        <v>8.73</v>
+        <v>3.53</v>
       </c>
       <c r="U257" t="inlineStr">
         <is>
-          <t>08/10/2023 20:58</t>
+          <t>08/10/2023 20:56</t>
         </is>
       </c>
       <c r="V257" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/palmeiras-santos/6wD0Pwwl/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/internacional-gremio/829HLexD/</t>
         </is>
       </c>
     </row>
@@ -24585,71 +24585,71 @@
       </c>
       <c r="F263" t="inlineStr">
         <is>
-          <t>Coritiba</t>
+          <t>America MG</t>
         </is>
       </c>
       <c r="G263" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H263" t="inlineStr">
         <is>
-          <t>Cuiaba</t>
+          <t>Botafogo RJ</t>
         </is>
       </c>
       <c r="I263" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J263" t="n">
-        <v>2.53</v>
+        <v>3.13</v>
       </c>
       <c r="K263" t="inlineStr">
         <is>
-          <t>15/10/2023 01:12</t>
+          <t>09/10/2023 14:12</t>
         </is>
       </c>
       <c r="L263" t="n">
-        <v>2.61</v>
+        <v>2.9</v>
       </c>
       <c r="M263" t="inlineStr">
         <is>
-          <t>19/10/2023 00:34</t>
+          <t>19/10/2023 00:53</t>
         </is>
       </c>
       <c r="N263" t="n">
-        <v>3.12</v>
+        <v>3.31</v>
       </c>
       <c r="O263" t="inlineStr">
         <is>
-          <t>15/10/2023 01:12</t>
+          <t>09/10/2023 14:12</t>
         </is>
       </c>
       <c r="P263" t="n">
-        <v>2.94</v>
+        <v>3.26</v>
       </c>
       <c r="Q263" t="inlineStr">
         <is>
-          <t>18/10/2023 23:34</t>
+          <t>19/10/2023 00:51</t>
         </is>
       </c>
       <c r="R263" t="n">
-        <v>3.18</v>
+        <v>2.4</v>
       </c>
       <c r="S263" t="inlineStr">
         <is>
-          <t>15/10/2023 01:12</t>
+          <t>09/10/2023 14:12</t>
         </is>
       </c>
       <c r="T263" t="n">
-        <v>3.29</v>
+        <v>2.67</v>
       </c>
       <c r="U263" t="inlineStr">
         <is>
-          <t>19/10/2023 00:06</t>
+          <t>19/10/2023 00:51</t>
         </is>
       </c>
       <c r="V263" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/coritiba-cuiaba/WbNKG6jo/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/america-mg-botafogo-rj/b5F6vArh/</t>
         </is>
       </c>
     </row>
@@ -24677,71 +24677,71 @@
       </c>
       <c r="F264" t="inlineStr">
         <is>
-          <t>America MG</t>
+          <t>Coritiba</t>
         </is>
       </c>
       <c r="G264" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H264" t="inlineStr">
         <is>
-          <t>Botafogo RJ</t>
+          <t>Cuiaba</t>
         </is>
       </c>
       <c r="I264" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J264" t="n">
-        <v>3.13</v>
+        <v>2.53</v>
       </c>
       <c r="K264" t="inlineStr">
         <is>
-          <t>09/10/2023 14:12</t>
+          <t>15/10/2023 01:12</t>
         </is>
       </c>
       <c r="L264" t="n">
-        <v>2.9</v>
+        <v>2.61</v>
       </c>
       <c r="M264" t="inlineStr">
         <is>
-          <t>19/10/2023 00:53</t>
+          <t>19/10/2023 00:34</t>
         </is>
       </c>
       <c r="N264" t="n">
-        <v>3.31</v>
+        <v>3.12</v>
       </c>
       <c r="O264" t="inlineStr">
         <is>
-          <t>09/10/2023 14:12</t>
+          <t>15/10/2023 01:12</t>
         </is>
       </c>
       <c r="P264" t="n">
-        <v>3.26</v>
+        <v>2.94</v>
       </c>
       <c r="Q264" t="inlineStr">
         <is>
-          <t>19/10/2023 00:51</t>
+          <t>18/10/2023 23:34</t>
         </is>
       </c>
       <c r="R264" t="n">
-        <v>2.4</v>
+        <v>3.18</v>
       </c>
       <c r="S264" t="inlineStr">
         <is>
-          <t>09/10/2023 14:12</t>
+          <t>15/10/2023 01:12</t>
         </is>
       </c>
       <c r="T264" t="n">
-        <v>2.67</v>
+        <v>3.29</v>
       </c>
       <c r="U264" t="inlineStr">
         <is>
-          <t>19/10/2023 00:51</t>
+          <t>19/10/2023 00:06</t>
         </is>
       </c>
       <c r="V264" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/america-mg-botafogo-rj/b5F6vArh/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/coritiba-cuiaba/WbNKG6jo/</t>
         </is>
       </c>
     </row>
@@ -24769,22 +24769,22 @@
       </c>
       <c r="F265" t="inlineStr">
         <is>
-          <t>Goias</t>
+          <t>Bahia</t>
         </is>
       </c>
       <c r="G265" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H265" t="inlineStr">
         <is>
-          <t>Sao Paulo</t>
+          <t>Internacional</t>
         </is>
       </c>
       <c r="I265" t="n">
         <v>0</v>
       </c>
       <c r="J265" t="n">
-        <v>3.02</v>
+        <v>2.23</v>
       </c>
       <c r="K265" t="inlineStr">
         <is>
@@ -24792,15 +24792,15 @@
         </is>
       </c>
       <c r="L265" t="n">
-        <v>3.79</v>
+        <v>2.07</v>
       </c>
       <c r="M265" t="inlineStr">
         <is>
-          <t>19/10/2023 02:27</t>
+          <t>19/10/2023 02:29</t>
         </is>
       </c>
       <c r="N265" t="n">
-        <v>3.09</v>
+        <v>3.32</v>
       </c>
       <c r="O265" t="inlineStr">
         <is>
@@ -24808,15 +24808,15 @@
         </is>
       </c>
       <c r="P265" t="n">
-        <v>3.19</v>
+        <v>3.37</v>
       </c>
       <c r="Q265" t="inlineStr">
         <is>
-          <t>19/10/2023 02:27</t>
+          <t>19/10/2023 02:21</t>
         </is>
       </c>
       <c r="R265" t="n">
-        <v>2.66</v>
+        <v>3.54</v>
       </c>
       <c r="S265" t="inlineStr">
         <is>
@@ -24824,16 +24824,16 @@
         </is>
       </c>
       <c r="T265" t="n">
-        <v>2.22</v>
+        <v>4.04</v>
       </c>
       <c r="U265" t="inlineStr">
         <is>
-          <t>19/10/2023 02:27</t>
+          <t>19/10/2023 02:29</t>
         </is>
       </c>
       <c r="V265" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/goias-sao-paulo/b76rzei6/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/bahia-internacional/KEG2ujTo/</t>
         </is>
       </c>
     </row>
@@ -24861,22 +24861,22 @@
       </c>
       <c r="F266" t="inlineStr">
         <is>
-          <t>Vasco</t>
+          <t>Goias</t>
         </is>
       </c>
       <c r="G266" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H266" t="inlineStr">
         <is>
-          <t>Fortaleza</t>
+          <t>Sao Paulo</t>
         </is>
       </c>
       <c r="I266" t="n">
         <v>0</v>
       </c>
       <c r="J266" t="n">
-        <v>2.26</v>
+        <v>3.02</v>
       </c>
       <c r="K266" t="inlineStr">
         <is>
@@ -24884,15 +24884,15 @@
         </is>
       </c>
       <c r="L266" t="n">
-        <v>2.32</v>
+        <v>3.79</v>
       </c>
       <c r="M266" t="inlineStr">
         <is>
-          <t>19/10/2023 02:28</t>
+          <t>19/10/2023 02:27</t>
         </is>
       </c>
       <c r="N266" t="n">
-        <v>3.3</v>
+        <v>3.09</v>
       </c>
       <c r="O266" t="inlineStr">
         <is>
@@ -24908,7 +24908,7 @@
         </is>
       </c>
       <c r="R266" t="n">
-        <v>3.49</v>
+        <v>2.66</v>
       </c>
       <c r="S266" t="inlineStr">
         <is>
@@ -24916,16 +24916,16 @@
         </is>
       </c>
       <c r="T266" t="n">
-        <v>3.53</v>
+        <v>2.22</v>
       </c>
       <c r="U266" t="inlineStr">
         <is>
-          <t>19/10/2023 02:28</t>
+          <t>19/10/2023 02:27</t>
         </is>
       </c>
       <c r="V266" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/vasco-fortaleza/bXyvwc7m/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/goias-sao-paulo/b76rzei6/</t>
         </is>
       </c>
     </row>
@@ -24953,7 +24953,7 @@
       </c>
       <c r="F267" t="inlineStr">
         <is>
-          <t>Bahia</t>
+          <t>Vasco</t>
         </is>
       </c>
       <c r="G267" t="n">
@@ -24961,14 +24961,14 @@
       </c>
       <c r="H267" t="inlineStr">
         <is>
-          <t>Internacional</t>
+          <t>Fortaleza</t>
         </is>
       </c>
       <c r="I267" t="n">
         <v>0</v>
       </c>
       <c r="J267" t="n">
-        <v>2.23</v>
+        <v>2.26</v>
       </c>
       <c r="K267" t="inlineStr">
         <is>
@@ -24976,15 +24976,15 @@
         </is>
       </c>
       <c r="L267" t="n">
-        <v>2.07</v>
+        <v>2.32</v>
       </c>
       <c r="M267" t="inlineStr">
         <is>
-          <t>19/10/2023 02:29</t>
+          <t>19/10/2023 02:28</t>
         </is>
       </c>
       <c r="N267" t="n">
-        <v>3.32</v>
+        <v>3.3</v>
       </c>
       <c r="O267" t="inlineStr">
         <is>
@@ -24992,15 +24992,15 @@
         </is>
       </c>
       <c r="P267" t="n">
-        <v>3.37</v>
+        <v>3.19</v>
       </c>
       <c r="Q267" t="inlineStr">
         <is>
-          <t>19/10/2023 02:21</t>
+          <t>19/10/2023 02:27</t>
         </is>
       </c>
       <c r="R267" t="n">
-        <v>3.54</v>
+        <v>3.49</v>
       </c>
       <c r="S267" t="inlineStr">
         <is>
@@ -25008,16 +25008,16 @@
         </is>
       </c>
       <c r="T267" t="n">
-        <v>4.04</v>
+        <v>3.53</v>
       </c>
       <c r="U267" t="inlineStr">
         <is>
-          <t>19/10/2023 02:29</t>
+          <t>19/10/2023 02:28</t>
         </is>
       </c>
       <c r="V267" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/bahia-internacional/KEG2ujTo/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/vasco-fortaleza/bXyvwc7m/</t>
         </is>
       </c>
     </row>
@@ -25413,22 +25413,22 @@
       </c>
       <c r="F272" t="inlineStr">
         <is>
-          <t>Sao Paulo</t>
+          <t>Bahia</t>
         </is>
       </c>
       <c r="G272" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H272" t="inlineStr">
         <is>
-          <t>Gremio</t>
+          <t>Fortaleza</t>
         </is>
       </c>
       <c r="I272" t="n">
         <v>0</v>
       </c>
       <c r="J272" t="n">
-        <v>1.95</v>
+        <v>2.3</v>
       </c>
       <c r="K272" t="inlineStr">
         <is>
@@ -25436,15 +25436,15 @@
         </is>
       </c>
       <c r="L272" t="n">
-        <v>1.6</v>
+        <v>2.09</v>
       </c>
       <c r="M272" t="inlineStr">
         <is>
-          <t>21/10/2023 23:29</t>
+          <t>21/10/2023 23:22</t>
         </is>
       </c>
       <c r="N272" t="n">
-        <v>3.59</v>
+        <v>3.33</v>
       </c>
       <c r="O272" t="inlineStr">
         <is>
@@ -25452,15 +25452,15 @@
         </is>
       </c>
       <c r="P272" t="n">
-        <v>4.04</v>
+        <v>3.39</v>
       </c>
       <c r="Q272" t="inlineStr">
         <is>
-          <t>21/10/2023 23:29</t>
+          <t>21/10/2023 23:18</t>
         </is>
       </c>
       <c r="R272" t="n">
-        <v>4.14</v>
+        <v>3.36</v>
       </c>
       <c r="S272" t="inlineStr">
         <is>
@@ -25468,16 +25468,16 @@
         </is>
       </c>
       <c r="T272" t="n">
-        <v>6.32</v>
+        <v>3.93</v>
       </c>
       <c r="U272" t="inlineStr">
         <is>
-          <t>21/10/2023 23:29</t>
+          <t>21/10/2023 23:22</t>
         </is>
       </c>
       <c r="V272" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/sao-paulo-gremio/nR7Jy8SA/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/bahia-fortaleza/d0Hrxxvi/</t>
         </is>
       </c>
     </row>
@@ -25505,22 +25505,22 @@
       </c>
       <c r="F273" t="inlineStr">
         <is>
-          <t>Bahia</t>
+          <t>Cuiaba</t>
         </is>
       </c>
       <c r="G273" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H273" t="inlineStr">
         <is>
-          <t>Fortaleza</t>
+          <t>Goias</t>
         </is>
       </c>
       <c r="I273" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J273" t="n">
-        <v>2.3</v>
+        <v>1.81</v>
       </c>
       <c r="K273" t="inlineStr">
         <is>
@@ -25528,15 +25528,15 @@
         </is>
       </c>
       <c r="L273" t="n">
-        <v>2.09</v>
+        <v>2.05</v>
       </c>
       <c r="M273" t="inlineStr">
         <is>
-          <t>21/10/2023 23:22</t>
+          <t>21/10/2023 23:28</t>
         </is>
       </c>
       <c r="N273" t="n">
-        <v>3.33</v>
+        <v>3.48</v>
       </c>
       <c r="O273" t="inlineStr">
         <is>
@@ -25544,15 +25544,15 @@
         </is>
       </c>
       <c r="P273" t="n">
-        <v>3.39</v>
+        <v>3.18</v>
       </c>
       <c r="Q273" t="inlineStr">
         <is>
-          <t>21/10/2023 23:18</t>
+          <t>21/10/2023 23:28</t>
         </is>
       </c>
       <c r="R273" t="n">
-        <v>3.36</v>
+        <v>4.93</v>
       </c>
       <c r="S273" t="inlineStr">
         <is>
@@ -25560,16 +25560,16 @@
         </is>
       </c>
       <c r="T273" t="n">
-        <v>3.93</v>
+        <v>4.4</v>
       </c>
       <c r="U273" t="inlineStr">
         <is>
-          <t>21/10/2023 23:22</t>
+          <t>21/10/2023 23:28</t>
         </is>
       </c>
       <c r="V273" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/bahia-fortaleza/d0Hrxxvi/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/cuiaba-goias/ziGnydgc/</t>
         </is>
       </c>
     </row>
@@ -25597,22 +25597,22 @@
       </c>
       <c r="F274" t="inlineStr">
         <is>
-          <t>Cuiaba</t>
+          <t>Sao Paulo</t>
         </is>
       </c>
       <c r="G274" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H274" t="inlineStr">
         <is>
-          <t>Goias</t>
+          <t>Gremio</t>
         </is>
       </c>
       <c r="I274" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J274" t="n">
-        <v>1.81</v>
+        <v>1.95</v>
       </c>
       <c r="K274" t="inlineStr">
         <is>
@@ -25620,15 +25620,15 @@
         </is>
       </c>
       <c r="L274" t="n">
-        <v>2.05</v>
+        <v>1.6</v>
       </c>
       <c r="M274" t="inlineStr">
         <is>
-          <t>21/10/2023 23:28</t>
+          <t>21/10/2023 23:29</t>
         </is>
       </c>
       <c r="N274" t="n">
-        <v>3.48</v>
+        <v>3.59</v>
       </c>
       <c r="O274" t="inlineStr">
         <is>
@@ -25636,15 +25636,15 @@
         </is>
       </c>
       <c r="P274" t="n">
-        <v>3.18</v>
+        <v>4.04</v>
       </c>
       <c r="Q274" t="inlineStr">
         <is>
-          <t>21/10/2023 23:28</t>
+          <t>21/10/2023 23:29</t>
         </is>
       </c>
       <c r="R274" t="n">
-        <v>4.93</v>
+        <v>4.14</v>
       </c>
       <c r="S274" t="inlineStr">
         <is>
@@ -25652,16 +25652,16 @@
         </is>
       </c>
       <c r="T274" t="n">
-        <v>4.4</v>
+        <v>6.32</v>
       </c>
       <c r="U274" t="inlineStr">
         <is>
-          <t>21/10/2023 23:28</t>
+          <t>21/10/2023 23:29</t>
         </is>
       </c>
       <c r="V274" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/cuiaba-goias/ziGnydgc/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/sao-paulo-gremio/nR7Jy8SA/</t>
         </is>
       </c>
     </row>
@@ -25781,71 +25781,71 @@
       </c>
       <c r="F276" t="inlineStr">
         <is>
-          <t>Internacional</t>
+          <t>Atletico-MG</t>
         </is>
       </c>
       <c r="G276" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H276" t="inlineStr">
         <is>
-          <t>Santos</t>
+          <t>Cruzeiro</t>
         </is>
       </c>
       <c r="I276" t="n">
         <v>1</v>
       </c>
       <c r="J276" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="K276" t="inlineStr">
         <is>
-          <t>20/10/2023 00:12</t>
+          <t>19/10/2023 23:12</t>
         </is>
       </c>
       <c r="L276" t="n">
-        <v>1.54</v>
+        <v>1.92</v>
       </c>
       <c r="M276" t="inlineStr">
         <is>
-          <t>22/10/2023 20:51</t>
+          <t>22/10/2023 20:52</t>
         </is>
       </c>
       <c r="N276" t="n">
-        <v>3.54</v>
+        <v>3.66</v>
       </c>
       <c r="O276" t="inlineStr">
         <is>
-          <t>20/10/2023 00:12</t>
+          <t>19/10/2023 23:12</t>
         </is>
       </c>
       <c r="P276" t="n">
-        <v>4.08</v>
+        <v>3.17</v>
       </c>
       <c r="Q276" t="inlineStr">
         <is>
-          <t>22/10/2023 20:55</t>
+          <t>22/10/2023 20:52</t>
         </is>
       </c>
       <c r="R276" t="n">
-        <v>5.08</v>
+        <v>5.43</v>
       </c>
       <c r="S276" t="inlineStr">
         <is>
-          <t>20/10/2023 00:12</t>
+          <t>19/10/2023 23:12</t>
         </is>
       </c>
       <c r="T276" t="n">
-        <v>7.28</v>
+        <v>5.2</v>
       </c>
       <c r="U276" t="inlineStr">
         <is>
-          <t>22/10/2023 20:55</t>
+          <t>22/10/2023 20:56</t>
         </is>
       </c>
       <c r="V276" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/internacional-santos/vPnbUPKp/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/atletico-mg-cruzeiro/Mq0WY5CT/</t>
         </is>
       </c>
     </row>
@@ -25873,71 +25873,71 @@
       </c>
       <c r="F277" t="inlineStr">
         <is>
-          <t>Atletico-MG</t>
+          <t>Flamengo RJ</t>
         </is>
       </c>
       <c r="G277" t="n">
+        <v>1</v>
+      </c>
+      <c r="H277" t="inlineStr">
+        <is>
+          <t>Vasco</t>
+        </is>
+      </c>
+      <c r="I277" t="n">
         <v>0</v>
       </c>
-      <c r="H277" t="inlineStr">
-        <is>
-          <t>Cruzeiro</t>
-        </is>
-      </c>
-      <c r="I277" t="n">
-        <v>1</v>
-      </c>
       <c r="J277" t="n">
-        <v>1.75</v>
+        <v>1.61</v>
       </c>
       <c r="K277" t="inlineStr">
         <is>
-          <t>19/10/2023 23:12</t>
+          <t>19/10/2023 23:13</t>
         </is>
       </c>
       <c r="L277" t="n">
-        <v>1.92</v>
+        <v>1.7</v>
       </c>
       <c r="M277" t="inlineStr">
         <is>
-          <t>22/10/2023 20:52</t>
+          <t>22/10/2023 20:53</t>
         </is>
       </c>
       <c r="N277" t="n">
-        <v>3.66</v>
+        <v>4.1</v>
       </c>
       <c r="O277" t="inlineStr">
         <is>
-          <t>19/10/2023 23:12</t>
+          <t>19/10/2023 23:13</t>
         </is>
       </c>
       <c r="P277" t="n">
-        <v>3.17</v>
+        <v>3.77</v>
       </c>
       <c r="Q277" t="inlineStr">
         <is>
-          <t>22/10/2023 20:52</t>
+          <t>22/10/2023 20:53</t>
         </is>
       </c>
       <c r="R277" t="n">
-        <v>5.43</v>
+        <v>5.59</v>
       </c>
       <c r="S277" t="inlineStr">
         <is>
-          <t>19/10/2023 23:12</t>
+          <t>19/10/2023 23:13</t>
         </is>
       </c>
       <c r="T277" t="n">
-        <v>5.2</v>
+        <v>5.61</v>
       </c>
       <c r="U277" t="inlineStr">
         <is>
-          <t>22/10/2023 20:56</t>
+          <t>22/10/2023 20:53</t>
         </is>
       </c>
       <c r="V277" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/atletico-mg-cruzeiro/Mq0WY5CT/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/flamengo-rj-vasco/tU4BwUcb/</t>
         </is>
       </c>
     </row>
@@ -25965,71 +25965,71 @@
       </c>
       <c r="F278" t="inlineStr">
         <is>
-          <t>Flamengo RJ</t>
+          <t>Internacional</t>
         </is>
       </c>
       <c r="G278" t="n">
+        <v>7</v>
+      </c>
+      <c r="H278" t="inlineStr">
+        <is>
+          <t>Santos</t>
+        </is>
+      </c>
+      <c r="I278" t="n">
         <v>1</v>
       </c>
-      <c r="H278" t="inlineStr">
-        <is>
-          <t>Vasco</t>
-        </is>
-      </c>
-      <c r="I278" t="n">
-        <v>0</v>
-      </c>
       <c r="J278" t="n">
-        <v>1.61</v>
+        <v>1.8</v>
       </c>
       <c r="K278" t="inlineStr">
         <is>
-          <t>19/10/2023 23:13</t>
+          <t>20/10/2023 00:12</t>
         </is>
       </c>
       <c r="L278" t="n">
-        <v>1.7</v>
+        <v>1.54</v>
       </c>
       <c r="M278" t="inlineStr">
         <is>
-          <t>22/10/2023 20:53</t>
+          <t>22/10/2023 20:51</t>
         </is>
       </c>
       <c r="N278" t="n">
-        <v>4.1</v>
+        <v>3.54</v>
       </c>
       <c r="O278" t="inlineStr">
         <is>
-          <t>19/10/2023 23:13</t>
+          <t>20/10/2023 00:12</t>
         </is>
       </c>
       <c r="P278" t="n">
-        <v>3.77</v>
+        <v>4.08</v>
       </c>
       <c r="Q278" t="inlineStr">
         <is>
-          <t>22/10/2023 20:53</t>
+          <t>22/10/2023 20:55</t>
         </is>
       </c>
       <c r="R278" t="n">
-        <v>5.59</v>
+        <v>5.08</v>
       </c>
       <c r="S278" t="inlineStr">
         <is>
-          <t>19/10/2023 23:13</t>
+          <t>20/10/2023 00:12</t>
         </is>
       </c>
       <c r="T278" t="n">
-        <v>5.61</v>
+        <v>7.28</v>
       </c>
       <c r="U278" t="inlineStr">
         <is>
-          <t>22/10/2023 20:53</t>
+          <t>22/10/2023 20:55</t>
         </is>
       </c>
       <c r="V278" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/flamengo-rj-vasco/tU4BwUcb/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/internacional-santos/vPnbUPKp/</t>
         </is>
       </c>
     </row>
@@ -26057,71 +26057,71 @@
       </c>
       <c r="F279" t="inlineStr">
         <is>
-          <t>Coritiba</t>
+          <t>Bragantino</t>
         </is>
       </c>
       <c r="G279" t="n">
+        <v>1</v>
+      </c>
+      <c r="H279" t="inlineStr">
+        <is>
+          <t>Fluminense</t>
+        </is>
+      </c>
+      <c r="I279" t="n">
         <v>0</v>
       </c>
-      <c r="H279" t="inlineStr">
-        <is>
-          <t>Palmeiras</t>
-        </is>
-      </c>
-      <c r="I279" t="n">
-        <v>2</v>
-      </c>
       <c r="J279" t="n">
-        <v>4.43</v>
+        <v>1.84</v>
       </c>
       <c r="K279" t="inlineStr">
         <is>
-          <t>19/10/2023 23:13</t>
+          <t>20/10/2023 01:42</t>
         </is>
       </c>
       <c r="L279" t="n">
-        <v>5.19</v>
+        <v>1.76</v>
       </c>
       <c r="M279" t="inlineStr">
         <is>
+          <t>22/10/2023 23:24</t>
+        </is>
+      </c>
+      <c r="N279" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="O279" t="inlineStr">
+        <is>
+          <t>20/10/2023 01:42</t>
+        </is>
+      </c>
+      <c r="P279" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="Q279" t="inlineStr">
+        <is>
+          <t>22/10/2023 23:24</t>
+        </is>
+      </c>
+      <c r="R279" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="S279" t="inlineStr">
+        <is>
+          <t>20/10/2023 01:42</t>
+        </is>
+      </c>
+      <c r="T279" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="U279" t="inlineStr">
+        <is>
           <t>22/10/2023 23:29</t>
         </is>
       </c>
-      <c r="N279" t="n">
-        <v>3.67</v>
-      </c>
-      <c r="O279" t="inlineStr">
-        <is>
-          <t>19/10/2023 23:13</t>
-        </is>
-      </c>
-      <c r="P279" t="n">
-        <v>3.57</v>
-      </c>
-      <c r="Q279" t="inlineStr">
-        <is>
-          <t>22/10/2023 23:27</t>
-        </is>
-      </c>
-      <c r="R279" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="S279" t="inlineStr">
-        <is>
-          <t>19/10/2023 23:13</t>
-        </is>
-      </c>
-      <c r="T279" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="U279" t="inlineStr">
-        <is>
-          <t>22/10/2023 23:29</t>
-        </is>
-      </c>
       <c r="V279" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/coritiba-palmeiras/hSj2Tqzi/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/bragantino-fluminense/rg1SZocN/</t>
         </is>
       </c>
     </row>
@@ -26241,62 +26241,62 @@
       </c>
       <c r="F281" t="inlineStr">
         <is>
-          <t>Bragantino</t>
+          <t>Coritiba</t>
         </is>
       </c>
       <c r="G281" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H281" t="inlineStr">
         <is>
-          <t>Fluminense</t>
+          <t>Palmeiras</t>
         </is>
       </c>
       <c r="I281" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J281" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>19/10/2023 23:13</t>
+        </is>
+      </c>
+      <c r="L281" t="n">
+        <v>5.19</v>
+      </c>
+      <c r="M281" t="inlineStr">
+        <is>
+          <t>22/10/2023 23:29</t>
+        </is>
+      </c>
+      <c r="N281" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="O281" t="inlineStr">
+        <is>
+          <t>19/10/2023 23:13</t>
+        </is>
+      </c>
+      <c r="P281" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="Q281" t="inlineStr">
+        <is>
+          <t>22/10/2023 23:27</t>
+        </is>
+      </c>
+      <c r="R281" t="n">
         <v>1.84</v>
       </c>
-      <c r="K281" t="inlineStr">
-        <is>
-          <t>20/10/2023 01:42</t>
-        </is>
-      </c>
-      <c r="L281" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="M281" t="inlineStr">
-        <is>
-          <t>22/10/2023 23:24</t>
-        </is>
-      </c>
-      <c r="N281" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="O281" t="inlineStr">
-        <is>
-          <t>20/10/2023 01:42</t>
-        </is>
-      </c>
-      <c r="P281" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="Q281" t="inlineStr">
-        <is>
-          <t>22/10/2023 23:24</t>
-        </is>
-      </c>
-      <c r="R281" t="n">
-        <v>4.55</v>
-      </c>
       <c r="S281" t="inlineStr">
         <is>
-          <t>20/10/2023 01:42</t>
+          <t>19/10/2023 23:13</t>
         </is>
       </c>
       <c r="T281" t="n">
-        <v>4.85</v>
+        <v>1.79</v>
       </c>
       <c r="U281" t="inlineStr">
         <is>
@@ -26305,7 +26305,7 @@
       </c>
       <c r="V281" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/bragantino-fluminense/rg1SZocN/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/coritiba-palmeiras/hSj2Tqzi/</t>
         </is>
       </c>
     </row>
@@ -26333,22 +26333,22 @@
       </c>
       <c r="F282" t="inlineStr">
         <is>
-          <t>Athletico-PR</t>
+          <t>Bragantino</t>
         </is>
       </c>
       <c r="G282" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H282" t="inlineStr">
         <is>
-          <t>America MG</t>
+          <t>Atletico-MG</t>
         </is>
       </c>
       <c r="I282" t="n">
         <v>2</v>
       </c>
       <c r="J282" t="n">
-        <v>1.58</v>
+        <v>1.96</v>
       </c>
       <c r="K282" t="inlineStr">
         <is>
@@ -26356,15 +26356,15 @@
         </is>
       </c>
       <c r="L282" t="n">
-        <v>1.58</v>
+        <v>1.88</v>
       </c>
       <c r="M282" t="inlineStr">
         <is>
-          <t>25/10/2023 23:27</t>
+          <t>25/10/2023 23:59</t>
         </is>
       </c>
       <c r="N282" t="n">
-        <v>4.26</v>
+        <v>3.5</v>
       </c>
       <c r="O282" t="inlineStr">
         <is>
@@ -26372,15 +26372,15 @@
         </is>
       </c>
       <c r="P282" t="n">
-        <v>4.31</v>
+        <v>3.47</v>
       </c>
       <c r="Q282" t="inlineStr">
         <is>
-          <t>25/10/2023 23:33</t>
+          <t>25/10/2023 23:59</t>
         </is>
       </c>
       <c r="R282" t="n">
-        <v>6.01</v>
+        <v>4.2</v>
       </c>
       <c r="S282" t="inlineStr">
         <is>
@@ -26388,16 +26388,16 @@
         </is>
       </c>
       <c r="T282" t="n">
-        <v>6.03</v>
+        <v>4.8</v>
       </c>
       <c r="U282" t="inlineStr">
         <is>
-          <t>25/10/2023 23:30</t>
+          <t>25/10/2023 23:59</t>
         </is>
       </c>
       <c r="V282" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/athletico-pr-america-mg/AXnrQVpd/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/bragantino-atletico-mg/Cd77WX7S/</t>
         </is>
       </c>
     </row>
@@ -26425,22 +26425,22 @@
       </c>
       <c r="F283" t="inlineStr">
         <is>
-          <t>Bragantino</t>
+          <t>Athletico-PR</t>
         </is>
       </c>
       <c r="G283" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H283" t="inlineStr">
         <is>
-          <t>Atletico-MG</t>
+          <t>America MG</t>
         </is>
       </c>
       <c r="I283" t="n">
         <v>2</v>
       </c>
       <c r="J283" t="n">
-        <v>1.96</v>
+        <v>1.58</v>
       </c>
       <c r="K283" t="inlineStr">
         <is>
@@ -26448,15 +26448,15 @@
         </is>
       </c>
       <c r="L283" t="n">
-        <v>1.88</v>
+        <v>1.58</v>
       </c>
       <c r="M283" t="inlineStr">
         <is>
-          <t>25/10/2023 23:59</t>
+          <t>25/10/2023 23:27</t>
         </is>
       </c>
       <c r="N283" t="n">
-        <v>3.5</v>
+        <v>4.26</v>
       </c>
       <c r="O283" t="inlineStr">
         <is>
@@ -26464,15 +26464,15 @@
         </is>
       </c>
       <c r="P283" t="n">
-        <v>3.47</v>
+        <v>4.31</v>
       </c>
       <c r="Q283" t="inlineStr">
         <is>
-          <t>25/10/2023 23:59</t>
+          <t>25/10/2023 23:33</t>
         </is>
       </c>
       <c r="R283" t="n">
-        <v>4.2</v>
+        <v>6.01</v>
       </c>
       <c r="S283" t="inlineStr">
         <is>
@@ -26480,16 +26480,16 @@
         </is>
       </c>
       <c r="T283" t="n">
-        <v>4.8</v>
+        <v>6.03</v>
       </c>
       <c r="U283" t="inlineStr">
         <is>
-          <t>25/10/2023 23:59</t>
+          <t>25/10/2023 23:30</t>
         </is>
       </c>
       <c r="V283" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/bragantino-atletico-mg/Cd77WX7S/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/athletico-pr-america-mg/AXnrQVpd/</t>
         </is>
       </c>
     </row>
@@ -26609,71 +26609,71 @@
       </c>
       <c r="F285" t="inlineStr">
         <is>
-          <t>Cruzeiro</t>
+          <t>Palmeiras</t>
         </is>
       </c>
       <c r="G285" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H285" t="inlineStr">
         <is>
-          <t>Bahia</t>
+          <t>Sao Paulo</t>
         </is>
       </c>
       <c r="I285" t="n">
         <v>0</v>
       </c>
       <c r="J285" t="n">
-        <v>1.92</v>
+        <v>1.75</v>
       </c>
       <c r="K285" t="inlineStr">
         <is>
-          <t>22/10/2023 20:12</t>
+          <t>22/10/2023 22:42</t>
         </is>
       </c>
       <c r="L285" t="n">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="M285" t="inlineStr">
         <is>
-          <t>26/10/2023 00:54</t>
+          <t>26/10/2023 00:59</t>
         </is>
       </c>
       <c r="N285" t="n">
-        <v>3.59</v>
+        <v>3.78</v>
       </c>
       <c r="O285" t="inlineStr">
         <is>
-          <t>22/10/2023 20:12</t>
+          <t>22/10/2023 22:42</t>
         </is>
       </c>
       <c r="P285" t="n">
-        <v>3.26</v>
+        <v>3.25</v>
       </c>
       <c r="Q285" t="inlineStr">
         <is>
-          <t>26/10/2023 00:54</t>
+          <t>26/10/2023 00:59</t>
         </is>
       </c>
       <c r="R285" t="n">
-        <v>4.3</v>
+        <v>5.03</v>
       </c>
       <c r="S285" t="inlineStr">
         <is>
-          <t>22/10/2023 20:12</t>
+          <t>22/10/2023 22:42</t>
         </is>
       </c>
       <c r="T285" t="n">
-        <v>4.51</v>
+        <v>4.15</v>
       </c>
       <c r="U285" t="inlineStr">
         <is>
-          <t>26/10/2023 00:54</t>
+          <t>26/10/2023 00:59</t>
         </is>
       </c>
       <c r="V285" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/cruzeiro-bahia/E5gZRiGq/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/palmeiras-sao-paulo/4W3aYgwG/</t>
         </is>
       </c>
     </row>
@@ -26701,71 +26701,71 @@
       </c>
       <c r="F286" t="inlineStr">
         <is>
-          <t>Palmeiras</t>
+          <t>Cruzeiro</t>
         </is>
       </c>
       <c r="G286" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H286" t="inlineStr">
         <is>
-          <t>Sao Paulo</t>
+          <t>Bahia</t>
         </is>
       </c>
       <c r="I286" t="n">
         <v>0</v>
       </c>
       <c r="J286" t="n">
-        <v>1.75</v>
+        <v>1.92</v>
       </c>
       <c r="K286" t="inlineStr">
         <is>
-          <t>22/10/2023 22:42</t>
+          <t>22/10/2023 20:12</t>
         </is>
       </c>
       <c r="L286" t="n">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="M286" t="inlineStr">
         <is>
-          <t>26/10/2023 00:59</t>
+          <t>26/10/2023 00:54</t>
         </is>
       </c>
       <c r="N286" t="n">
-        <v>3.78</v>
+        <v>3.59</v>
       </c>
       <c r="O286" t="inlineStr">
         <is>
-          <t>22/10/2023 22:42</t>
+          <t>22/10/2023 20:12</t>
         </is>
       </c>
       <c r="P286" t="n">
-        <v>3.25</v>
+        <v>3.26</v>
       </c>
       <c r="Q286" t="inlineStr">
         <is>
-          <t>26/10/2023 00:59</t>
+          <t>26/10/2023 00:54</t>
         </is>
       </c>
       <c r="R286" t="n">
-        <v>5.03</v>
+        <v>4.3</v>
       </c>
       <c r="S286" t="inlineStr">
         <is>
-          <t>22/10/2023 22:42</t>
+          <t>22/10/2023 20:12</t>
         </is>
       </c>
       <c r="T286" t="n">
-        <v>4.15</v>
+        <v>4.51</v>
       </c>
       <c r="U286" t="inlineStr">
         <is>
-          <t>26/10/2023 00:59</t>
+          <t>26/10/2023 00:54</t>
         </is>
       </c>
       <c r="V286" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/palmeiras-sao-paulo/4W3aYgwG/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/cruzeiro-bahia/E5gZRiGq/</t>
         </is>
       </c>
     </row>
@@ -26793,71 +26793,71 @@
       </c>
       <c r="F287" t="inlineStr">
         <is>
-          <t>Cuiaba</t>
+          <t>Gremio</t>
         </is>
       </c>
       <c r="G287" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H287" t="inlineStr">
         <is>
-          <t>Corinthians</t>
+          <t>Flamengo RJ</t>
         </is>
       </c>
       <c r="I287" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J287" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>22/10/2023 20:12</t>
+        </is>
+      </c>
+      <c r="L287" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="M287" t="inlineStr">
+        <is>
+          <t>26/10/2023 02:27</t>
+        </is>
+      </c>
+      <c r="N287" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="O287" t="inlineStr">
+        <is>
+          <t>22/10/2023 20:12</t>
+        </is>
+      </c>
+      <c r="P287" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q287" t="inlineStr">
+        <is>
+          <t>26/10/2023 02:22</t>
+        </is>
+      </c>
+      <c r="R287" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="S287" t="inlineStr">
+        <is>
+          <t>22/10/2023 20:12</t>
+        </is>
+      </c>
+      <c r="T287" t="n">
         <v>2.03</v>
       </c>
-      <c r="K287" t="inlineStr">
-        <is>
-          <t>22/10/2023 22:42</t>
-        </is>
-      </c>
-      <c r="L287" t="n">
-        <v>2.23</v>
-      </c>
-      <c r="M287" t="inlineStr">
-        <is>
-          <t>26/10/2023 02:29</t>
-        </is>
-      </c>
-      <c r="N287" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="O287" t="inlineStr">
-        <is>
-          <t>22/10/2023 22:42</t>
-        </is>
-      </c>
-      <c r="P287" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="Q287" t="inlineStr">
+      <c r="U287" t="inlineStr">
         <is>
           <t>26/10/2023 02:27</t>
         </is>
       </c>
-      <c r="R287" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="S287" t="inlineStr">
-        <is>
-          <t>22/10/2023 22:42</t>
-        </is>
-      </c>
-      <c r="T287" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="U287" t="inlineStr">
-        <is>
-          <t>26/10/2023 02:29</t>
-        </is>
-      </c>
       <c r="V287" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/cuiaba-corinthians/MLgTmZx3/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/gremio-flamengo-rj/WtlvRBVk/</t>
         </is>
       </c>
     </row>
@@ -26885,71 +26885,71 @@
       </c>
       <c r="F288" t="inlineStr">
         <is>
-          <t>Gremio</t>
+          <t>Cuiaba</t>
         </is>
       </c>
       <c r="G288" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H288" t="inlineStr">
         <is>
-          <t>Flamengo RJ</t>
+          <t>Corinthians</t>
         </is>
       </c>
       <c r="I288" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J288" t="n">
-        <v>2.54</v>
+        <v>2.03</v>
       </c>
       <c r="K288" t="inlineStr">
         <is>
-          <t>22/10/2023 20:12</t>
+          <t>22/10/2023 22:42</t>
         </is>
       </c>
       <c r="L288" t="n">
-        <v>4.14</v>
+        <v>2.23</v>
       </c>
       <c r="M288" t="inlineStr">
         <is>
+          <t>26/10/2023 02:29</t>
+        </is>
+      </c>
+      <c r="N288" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="O288" t="inlineStr">
+        <is>
+          <t>22/10/2023 22:42</t>
+        </is>
+      </c>
+      <c r="P288" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Q288" t="inlineStr">
+        <is>
           <t>26/10/2023 02:27</t>
         </is>
       </c>
-      <c r="N288" t="n">
-        <v>3.37</v>
-      </c>
-      <c r="O288" t="inlineStr">
-        <is>
-          <t>22/10/2023 20:12</t>
-        </is>
-      </c>
-      <c r="P288" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Q288" t="inlineStr">
-        <is>
-          <t>26/10/2023 02:22</t>
-        </is>
-      </c>
       <c r="R288" t="n">
-        <v>2.93</v>
+        <v>4.27</v>
       </c>
       <c r="S288" t="inlineStr">
         <is>
-          <t>22/10/2023 20:12</t>
+          <t>22/10/2023 22:42</t>
         </is>
       </c>
       <c r="T288" t="n">
-        <v>2.03</v>
+        <v>3.88</v>
       </c>
       <c r="U288" t="inlineStr">
         <is>
-          <t>26/10/2023 02:27</t>
+          <t>26/10/2023 02:29</t>
         </is>
       </c>
       <c r="V288" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/gremio-flamengo-rj/WtlvRBVk/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/cuiaba-corinthians/MLgTmZx3/</t>
         </is>
       </c>
     </row>
@@ -27621,22 +27621,22 @@
       </c>
       <c r="F296" t="inlineStr">
         <is>
-          <t>Corinthians</t>
+          <t>Internacional</t>
         </is>
       </c>
       <c r="G296" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H296" t="inlineStr">
         <is>
-          <t>Santos</t>
+          <t>Coritiba</t>
         </is>
       </c>
       <c r="I296" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J296" t="n">
-        <v>1.81</v>
+        <v>1.32</v>
       </c>
       <c r="K296" t="inlineStr">
         <is>
@@ -27644,39 +27644,39 @@
         </is>
       </c>
       <c r="L296" t="n">
-        <v>2.18</v>
+        <v>1.41</v>
       </c>
       <c r="M296" t="inlineStr">
         <is>
+          <t>29/10/2023 22:17</t>
+        </is>
+      </c>
+      <c r="N296" t="n">
+        <v>5.24</v>
+      </c>
+      <c r="O296" t="inlineStr">
+        <is>
+          <t>27/10/2023 02:42</t>
+        </is>
+      </c>
+      <c r="P296" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="Q296" t="inlineStr">
+        <is>
           <t>29/10/2023 22:29</t>
         </is>
       </c>
-      <c r="N296" t="n">
-        <v>3.71</v>
-      </c>
-      <c r="O296" t="inlineStr">
+      <c r="R296" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="S296" t="inlineStr">
         <is>
           <t>27/10/2023 02:42</t>
         </is>
       </c>
-      <c r="P296" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Q296" t="inlineStr">
-        <is>
-          <t>29/10/2023 22:20</t>
-        </is>
-      </c>
-      <c r="R296" t="n">
-        <v>4.59</v>
-      </c>
-      <c r="S296" t="inlineStr">
-        <is>
-          <t>27/10/2023 02:42</t>
-        </is>
-      </c>
       <c r="T296" t="n">
-        <v>3.83</v>
+        <v>8.619999999999999</v>
       </c>
       <c r="U296" t="inlineStr">
         <is>
@@ -27685,7 +27685,7 @@
       </c>
       <c r="V296" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/corinthians-santos/j1oppixS/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/internacional-coritiba/48RKwkFe/</t>
         </is>
       </c>
     </row>
@@ -27713,22 +27713,22 @@
       </c>
       <c r="F297" t="inlineStr">
         <is>
-          <t>Internacional</t>
+          <t>Corinthians</t>
         </is>
       </c>
       <c r="G297" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H297" t="inlineStr">
         <is>
-          <t>Coritiba</t>
+          <t>Santos</t>
         </is>
       </c>
       <c r="I297" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J297" t="n">
-        <v>1.32</v>
+        <v>1.81</v>
       </c>
       <c r="K297" t="inlineStr">
         <is>
@@ -27736,15 +27736,15 @@
         </is>
       </c>
       <c r="L297" t="n">
-        <v>1.41</v>
+        <v>2.18</v>
       </c>
       <c r="M297" t="inlineStr">
         <is>
-          <t>29/10/2023 22:17</t>
+          <t>29/10/2023 22:29</t>
         </is>
       </c>
       <c r="N297" t="n">
-        <v>5.24</v>
+        <v>3.71</v>
       </c>
       <c r="O297" t="inlineStr">
         <is>
@@ -27752,32 +27752,32 @@
         </is>
       </c>
       <c r="P297" t="n">
-        <v>4.85</v>
+        <v>3.25</v>
       </c>
       <c r="Q297" t="inlineStr">
         <is>
+          <t>29/10/2023 22:20</t>
+        </is>
+      </c>
+      <c r="R297" t="n">
+        <v>4.59</v>
+      </c>
+      <c r="S297" t="inlineStr">
+        <is>
+          <t>27/10/2023 02:42</t>
+        </is>
+      </c>
+      <c r="T297" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="U297" t="inlineStr">
+        <is>
           <t>29/10/2023 22:29</t>
         </is>
       </c>
-      <c r="R297" t="n">
-        <v>10.2</v>
-      </c>
-      <c r="S297" t="inlineStr">
-        <is>
-          <t>27/10/2023 02:42</t>
-        </is>
-      </c>
-      <c r="T297" t="n">
-        <v>8.619999999999999</v>
-      </c>
-      <c r="U297" t="inlineStr">
-        <is>
-          <t>29/10/2023 22:29</t>
-        </is>
-      </c>
       <c r="V297" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/internacional-coritiba/48RKwkFe/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/corinthians-santos/j1oppixS/</t>
         </is>
       </c>
     </row>
@@ -28790,6 +28790,282 @@
       <c r="V308" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/brazil/serie-a/sao-paulo-cruzeiro/CWNGcA6R/</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" s="1" t="n">
+        <v>308</v>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>brazil</t>
+        </is>
+      </c>
+      <c r="C309" t="inlineStr">
+        <is>
+          <t>serie-a</t>
+        </is>
+      </c>
+      <c r="D309" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E309" s="2" t="n">
+        <v>45234.97916666666</v>
+      </c>
+      <c r="F309" t="inlineStr">
+        <is>
+          <t>America MG</t>
+        </is>
+      </c>
+      <c r="G309" t="n">
+        <v>1</v>
+      </c>
+      <c r="H309" t="inlineStr">
+        <is>
+          <t>Atletico-MG</t>
+        </is>
+      </c>
+      <c r="I309" t="n">
+        <v>1</v>
+      </c>
+      <c r="J309" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>02/11/2023 01:42</t>
+        </is>
+      </c>
+      <c r="L309" t="n">
+        <v>4.61</v>
+      </c>
+      <c r="M309" t="inlineStr">
+        <is>
+          <t>04/11/2023 23:29</t>
+        </is>
+      </c>
+      <c r="N309" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="O309" t="inlineStr">
+        <is>
+          <t>02/11/2023 01:42</t>
+        </is>
+      </c>
+      <c r="P309" t="n">
+        <v>3.73</v>
+      </c>
+      <c r="Q309" t="inlineStr">
+        <is>
+          <t>04/11/2023 23:29</t>
+        </is>
+      </c>
+      <c r="R309" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="S309" t="inlineStr">
+        <is>
+          <t>02/11/2023 01:42</t>
+        </is>
+      </c>
+      <c r="T309" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="U309" t="inlineStr">
+        <is>
+          <t>04/11/2023 23:01</t>
+        </is>
+      </c>
+      <c r="V309" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/america-mg-atletico-mg/rXoh9t5t/</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" s="1" t="n">
+        <v>309</v>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>brazil</t>
+        </is>
+      </c>
+      <c r="C310" t="inlineStr">
+        <is>
+          <t>serie-a</t>
+        </is>
+      </c>
+      <c r="D310" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E310" s="2" t="n">
+        <v>45234.97916666666</v>
+      </c>
+      <c r="F310" t="inlineStr">
+        <is>
+          <t>Gremio</t>
+        </is>
+      </c>
+      <c r="G310" t="n">
+        <v>1</v>
+      </c>
+      <c r="H310" t="inlineStr">
+        <is>
+          <t>Bahia</t>
+        </is>
+      </c>
+      <c r="I310" t="n">
+        <v>0</v>
+      </c>
+      <c r="J310" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>02/11/2023 00:12</t>
+        </is>
+      </c>
+      <c r="L310" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="M310" t="inlineStr">
+        <is>
+          <t>04/11/2023 23:05</t>
+        </is>
+      </c>
+      <c r="N310" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="O310" t="inlineStr">
+        <is>
+          <t>02/11/2023 00:12</t>
+        </is>
+      </c>
+      <c r="P310" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="Q310" t="inlineStr">
+        <is>
+          <t>04/11/2023 23:29</t>
+        </is>
+      </c>
+      <c r="R310" t="n">
+        <v>4.46</v>
+      </c>
+      <c r="S310" t="inlineStr">
+        <is>
+          <t>02/11/2023 00:12</t>
+        </is>
+      </c>
+      <c r="T310" t="n">
+        <v>4.79</v>
+      </c>
+      <c r="U310" t="inlineStr">
+        <is>
+          <t>04/11/2023 23:29</t>
+        </is>
+      </c>
+      <c r="V310" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/gremio-bahia/QFHwjJ4I/</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" s="1" t="n">
+        <v>310</v>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>brazil</t>
+        </is>
+      </c>
+      <c r="C311" t="inlineStr">
+        <is>
+          <t>serie-a</t>
+        </is>
+      </c>
+      <c r="D311" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E311" s="2" t="n">
+        <v>45235.0625</v>
+      </c>
+      <c r="F311" t="inlineStr">
+        <is>
+          <t>Palmeiras</t>
+        </is>
+      </c>
+      <c r="G311" t="n">
+        <v>1</v>
+      </c>
+      <c r="H311" t="inlineStr">
+        <is>
+          <t>Athletico-PR</t>
+        </is>
+      </c>
+      <c r="I311" t="n">
+        <v>0</v>
+      </c>
+      <c r="J311" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>02/11/2023 01:42</t>
+        </is>
+      </c>
+      <c r="L311" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="M311" t="inlineStr">
+        <is>
+          <t>05/11/2023 01:25</t>
+        </is>
+      </c>
+      <c r="N311" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="O311" t="inlineStr">
+        <is>
+          <t>02/11/2023 01:42</t>
+        </is>
+      </c>
+      <c r="P311" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="Q311" t="inlineStr">
+        <is>
+          <t>05/11/2023 01:29</t>
+        </is>
+      </c>
+      <c r="R311" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="S311" t="inlineStr">
+        <is>
+          <t>02/11/2023 01:42</t>
+        </is>
+      </c>
+      <c r="T311" t="n">
+        <v>5.44</v>
+      </c>
+      <c r="U311" t="inlineStr">
+        <is>
+          <t>05/11/2023 01:29</t>
+        </is>
+      </c>
+      <c r="V311" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/palmeiras-athletico-pr/dMANg15g/</t>
         </is>
       </c>
     </row>

--- a/2023/brazil_serie-a_2023.xlsx
+++ b/2023/brazil_serie-a_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V311"/>
+  <dimension ref="A1:V314"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -941,7 +941,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Botafogo RJ</t>
+          <t>Athletico-PR</t>
         </is>
       </c>
       <c r="G6" t="n">
@@ -949,63 +949,63 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Sao Paulo</t>
+          <t>Goias</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>2.69</v>
+        <v>1.64</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>08/04/2023 23:42</t>
+          <t>09/04/2023 08:36</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>2.46</v>
+        <v>1.64</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>15/04/2023 23:22</t>
+          <t>15/04/2023 23:27</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>3.05</v>
+        <v>4.15</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>08/04/2023 23:42</t>
+          <t>09/04/2023 08:36</t>
         </is>
       </c>
       <c r="P6" t="n">
-        <v>3.17</v>
+        <v>3.69</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>15/04/2023 23:25</t>
+          <t>15/04/2023 23:27</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>3</v>
+        <v>5.21</v>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>08/04/2023 23:42</t>
+          <t>09/04/2023 08:36</t>
         </is>
       </c>
       <c r="T6" t="n">
-        <v>3.26</v>
+        <v>6.64</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>15/04/2023 23:25</t>
+          <t>15/04/2023 23:28</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/botafogo-rj-sao-paulo/vFRENgWQ/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/athletico-pr-goias/Sv02EkgD/</t>
         </is>
       </c>
     </row>
@@ -1033,7 +1033,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Athletico-PR</t>
+          <t>Botafogo RJ</t>
         </is>
       </c>
       <c r="G7" t="n">
@@ -1041,63 +1041,63 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Goias</t>
+          <t>Sao Paulo</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>1.64</v>
+        <v>2.69</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>09/04/2023 08:36</t>
+          <t>08/04/2023 23:42</t>
         </is>
       </c>
       <c r="L7" t="n">
-        <v>1.64</v>
+        <v>2.46</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>15/04/2023 23:27</t>
+          <t>15/04/2023 23:22</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>4.15</v>
+        <v>3.05</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>09/04/2023 08:36</t>
+          <t>08/04/2023 23:42</t>
         </is>
       </c>
       <c r="P7" t="n">
-        <v>3.69</v>
+        <v>3.17</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>15/04/2023 23:27</t>
+          <t>15/04/2023 23:25</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>5.21</v>
+        <v>3</v>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>09/04/2023 08:36</t>
+          <t>08/04/2023 23:42</t>
         </is>
       </c>
       <c r="T7" t="n">
-        <v>6.64</v>
+        <v>3.26</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>15/04/2023 23:28</t>
+          <t>15/04/2023 23:25</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/athletico-pr-goias/Sv02EkgD/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/botafogo-rj-sao-paulo/vFRENgWQ/</t>
         </is>
       </c>
     </row>
@@ -1953,22 +1953,22 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Vasco</t>
+          <t>Santos</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Palmeiras</t>
+          <t>Atletico-MG</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>3.35</v>
+        <v>3.42</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -1976,15 +1976,15 @@
         </is>
       </c>
       <c r="L17" t="n">
-        <v>3.28</v>
+        <v>3.42</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>23/04/2023 20:56</t>
+          <t>23/04/2023 20:32</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>3.39</v>
+        <v>3.27</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1992,15 +1992,15 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>3.19</v>
+        <v>3.13</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>23/04/2023 20:51</t>
+          <t>23/04/2023 20:26</t>
         </is>
       </c>
       <c r="R17" t="n">
-        <v>2.28</v>
+        <v>2.31</v>
       </c>
       <c r="S17" t="inlineStr">
         <is>
@@ -2008,16 +2008,16 @@
         </is>
       </c>
       <c r="T17" t="n">
-        <v>2.44</v>
+        <v>2.41</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>23/04/2023 20:53</t>
+          <t>23/04/2023 20:26</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/vasco-palmeiras/xAREJpVh/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/santos-atletico-mg/pzVMHOa5/</t>
         </is>
       </c>
     </row>
@@ -2045,22 +2045,22 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Santos</t>
+          <t>Vasco</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Atletico-MG</t>
+          <t>Palmeiras</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J18" t="n">
-        <v>3.42</v>
+        <v>3.35</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -2068,15 +2068,15 @@
         </is>
       </c>
       <c r="L18" t="n">
-        <v>3.42</v>
+        <v>3.28</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>23/04/2023 20:32</t>
+          <t>23/04/2023 20:56</t>
         </is>
       </c>
       <c r="N18" t="n">
-        <v>3.27</v>
+        <v>3.39</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -2084,15 +2084,15 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>3.13</v>
+        <v>3.19</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>23/04/2023 20:26</t>
+          <t>23/04/2023 20:51</t>
         </is>
       </c>
       <c r="R18" t="n">
-        <v>2.31</v>
+        <v>2.28</v>
       </c>
       <c r="S18" t="inlineStr">
         <is>
@@ -2100,16 +2100,16 @@
         </is>
       </c>
       <c r="T18" t="n">
-        <v>2.41</v>
+        <v>2.44</v>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>23/04/2023 20:26</t>
+          <t>23/04/2023 20:53</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/santos-atletico-mg/pzVMHOa5/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/vasco-palmeiras/xAREJpVh/</t>
         </is>
       </c>
     </row>
@@ -2413,71 +2413,71 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Coritiba</t>
+          <t>Fortaleza</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Sao Paulo</t>
+          <t>Fluminense</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J22" t="n">
-        <v>3.08</v>
+        <v>2.69</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>23/04/2023 23:42</t>
+          <t>24/04/2023 05:12</t>
         </is>
       </c>
       <c r="L22" t="n">
-        <v>3.03</v>
+        <v>2.16</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>29/04/2023 21:23</t>
+          <t>29/04/2023 21:29</t>
         </is>
       </c>
       <c r="N22" t="n">
-        <v>3.36</v>
+        <v>3.27</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>23/04/2023 23:42</t>
+          <t>24/04/2023 05:12</t>
         </is>
       </c>
       <c r="P22" t="n">
-        <v>3.18</v>
+        <v>3.34</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>29/04/2023 21:16</t>
+          <t>29/04/2023 21:29</t>
         </is>
       </c>
       <c r="R22" t="n">
-        <v>2.4</v>
+        <v>2.77</v>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>23/04/2023 23:42</t>
+          <t>24/04/2023 05:12</t>
         </is>
       </c>
       <c r="T22" t="n">
-        <v>2.61</v>
+        <v>3.76</v>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>29/04/2023 21:23</t>
+          <t>29/04/2023 21:29</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/coritiba-sao-paulo/b1wqNJyo/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/fortaleza-fluminense/Q7RQo3Eo/</t>
         </is>
       </c>
     </row>
@@ -2505,71 +2505,71 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Fortaleza</t>
+          <t>Coritiba</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Fluminense</t>
+          <t>Sao Paulo</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J23" t="n">
-        <v>2.69</v>
+        <v>3.08</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>24/04/2023 05:12</t>
+          <t>23/04/2023 23:42</t>
         </is>
       </c>
       <c r="L23" t="n">
-        <v>2.16</v>
+        <v>3.03</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>29/04/2023 21:29</t>
+          <t>29/04/2023 21:23</t>
         </is>
       </c>
       <c r="N23" t="n">
-        <v>3.27</v>
+        <v>3.36</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>24/04/2023 05:12</t>
+          <t>23/04/2023 23:42</t>
         </is>
       </c>
       <c r="P23" t="n">
-        <v>3.34</v>
+        <v>3.18</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>29/04/2023 21:29</t>
+          <t>29/04/2023 21:16</t>
         </is>
       </c>
       <c r="R23" t="n">
-        <v>2.77</v>
+        <v>2.4</v>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>24/04/2023 05:12</t>
+          <t>23/04/2023 23:42</t>
         </is>
       </c>
       <c r="T23" t="n">
-        <v>3.76</v>
+        <v>2.61</v>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>29/04/2023 21:29</t>
+          <t>29/04/2023 21:23</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/fortaleza-fluminense/Q7RQo3Eo/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/coritiba-sao-paulo/b1wqNJyo/</t>
         </is>
       </c>
     </row>
@@ -3609,71 +3609,71 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Bahia</t>
+          <t>Athletico-PR</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Coritiba</t>
+          <t>Flamengo RJ</t>
         </is>
       </c>
       <c r="I35" t="n">
         <v>1</v>
       </c>
       <c r="J35" t="n">
-        <v>1.77</v>
+        <v>3.45</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>02/05/2023 01:11</t>
+          <t>01/05/2023 02:12</t>
         </is>
       </c>
       <c r="L35" t="n">
-        <v>1.74</v>
+        <v>3.01</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>07/05/2023 20:50</t>
+          <t>07/05/2023 20:57</t>
         </is>
       </c>
       <c r="N35" t="n">
-        <v>3.72</v>
+        <v>3.43</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>02/05/2023 01:11</t>
+          <t>01/05/2023 02:12</t>
         </is>
       </c>
       <c r="P35" t="n">
-        <v>3.76</v>
+        <v>3.22</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>07/05/2023 20:59</t>
+          <t>07/05/2023 20:56</t>
         </is>
       </c>
       <c r="R35" t="n">
-        <v>4.97</v>
+        <v>2.22</v>
       </c>
       <c r="S35" t="inlineStr">
         <is>
-          <t>02/05/2023 01:11</t>
+          <t>01/05/2023 02:12</t>
         </is>
       </c>
       <c r="T35" t="n">
-        <v>5.35</v>
+        <v>2.61</v>
       </c>
       <c r="U35" t="inlineStr">
         <is>
-          <t>07/05/2023 20:50</t>
+          <t>07/05/2023 20:57</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/bahia-coritiba/0Qu9btbi/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/athletico-pr-flamengo-rj/bL1QZdLj/</t>
         </is>
       </c>
     </row>
@@ -3701,7 +3701,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Athletico-PR</t>
+          <t>Sao Paulo</t>
         </is>
       </c>
       <c r="G36" t="n">
@@ -3709,63 +3709,63 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Flamengo RJ</t>
+          <t>Internacional</t>
         </is>
       </c>
       <c r="I36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>3.45</v>
+        <v>1.87</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>01/05/2023 02:12</t>
+          <t>01/05/2023 04:41</t>
         </is>
       </c>
       <c r="L36" t="n">
-        <v>3.01</v>
+        <v>2.05</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>07/05/2023 20:57</t>
+          <t>07/05/2023 20:59</t>
         </is>
       </c>
       <c r="N36" t="n">
-        <v>3.43</v>
+        <v>3.79</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>01/05/2023 02:12</t>
+          <t>01/05/2023 04:41</t>
         </is>
       </c>
       <c r="P36" t="n">
-        <v>3.22</v>
+        <v>3.47</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>07/05/2023 20:56</t>
+          <t>07/05/2023 20:59</t>
         </is>
       </c>
       <c r="R36" t="n">
-        <v>2.22</v>
+        <v>4.1</v>
       </c>
       <c r="S36" t="inlineStr">
         <is>
-          <t>01/05/2023 02:12</t>
+          <t>01/05/2023 04:41</t>
         </is>
       </c>
       <c r="T36" t="n">
-        <v>2.61</v>
+        <v>3.95</v>
       </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>07/05/2023 20:57</t>
+          <t>07/05/2023 20:59</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/athletico-pr-flamengo-rj/bL1QZdLj/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/sao-paulo-internacional/fmJsrLDA/</t>
         </is>
       </c>
     </row>
@@ -3793,71 +3793,71 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Sao Paulo</t>
+          <t>Bahia</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Internacional</t>
+          <t>Coritiba</t>
         </is>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J37" t="n">
-        <v>1.87</v>
+        <v>1.77</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>01/05/2023 04:41</t>
+          <t>02/05/2023 01:11</t>
         </is>
       </c>
       <c r="L37" t="n">
-        <v>2.05</v>
+        <v>1.74</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
+          <t>07/05/2023 20:50</t>
+        </is>
+      </c>
+      <c r="N37" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>02/05/2023 01:11</t>
+        </is>
+      </c>
+      <c r="P37" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="Q37" t="inlineStr">
+        <is>
           <t>07/05/2023 20:59</t>
         </is>
       </c>
-      <c r="N37" t="n">
-        <v>3.79</v>
-      </c>
-      <c r="O37" t="inlineStr">
-        <is>
-          <t>01/05/2023 04:41</t>
-        </is>
-      </c>
-      <c r="P37" t="n">
-        <v>3.47</v>
-      </c>
-      <c r="Q37" t="inlineStr">
-        <is>
-          <t>07/05/2023 20:59</t>
-        </is>
-      </c>
       <c r="R37" t="n">
-        <v>4.1</v>
+        <v>4.97</v>
       </c>
       <c r="S37" t="inlineStr">
         <is>
-          <t>01/05/2023 04:41</t>
+          <t>02/05/2023 01:11</t>
         </is>
       </c>
       <c r="T37" t="n">
-        <v>3.95</v>
+        <v>5.35</v>
       </c>
       <c r="U37" t="inlineStr">
         <is>
-          <t>07/05/2023 20:59</t>
+          <t>07/05/2023 20:50</t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/sao-paulo-internacional/fmJsrLDA/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/bahia-coritiba/0Qu9btbi/</t>
         </is>
       </c>
     </row>
@@ -3885,22 +3885,22 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Gremio</t>
+          <t>Botafogo RJ</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Bragantino</t>
+          <t>Atletico-MG</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>1.88</v>
+        <v>2.85</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -3908,15 +3908,15 @@
         </is>
       </c>
       <c r="L38" t="n">
-        <v>1.91</v>
+        <v>3.72</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>07/05/2023 23:27</t>
+          <t>07/05/2023 23:29</t>
         </is>
       </c>
       <c r="N38" t="n">
-        <v>3.71</v>
+        <v>3.66</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
@@ -3924,15 +3924,15 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>3.6</v>
+        <v>3.33</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>07/05/2023 23:23</t>
+          <t>07/05/2023 23:29</t>
         </is>
       </c>
       <c r="R38" t="n">
-        <v>4.19</v>
+        <v>2.46</v>
       </c>
       <c r="S38" t="inlineStr">
         <is>
@@ -3940,16 +3940,16 @@
         </is>
       </c>
       <c r="T38" t="n">
-        <v>4.41</v>
+        <v>2.18</v>
       </c>
       <c r="U38" t="inlineStr">
         <is>
-          <t>07/05/2023 23:27</t>
+          <t>07/05/2023 23:29</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/gremio-bragantino/nobMzw6p/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/botafogo-rj-atletico-mg/0QJwq1b4/</t>
         </is>
       </c>
     </row>
@@ -3977,22 +3977,22 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Botafogo RJ</t>
+          <t>Gremio</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Atletico-MG</t>
+          <t>Bragantino</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J39" t="n">
-        <v>2.85</v>
+        <v>1.88</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -4000,15 +4000,15 @@
         </is>
       </c>
       <c r="L39" t="n">
-        <v>3.72</v>
+        <v>1.91</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>07/05/2023 23:29</t>
+          <t>07/05/2023 23:27</t>
         </is>
       </c>
       <c r="N39" t="n">
-        <v>3.66</v>
+        <v>3.71</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
@@ -4016,15 +4016,15 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>3.33</v>
+        <v>3.6</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>07/05/2023 23:29</t>
+          <t>07/05/2023 23:23</t>
         </is>
       </c>
       <c r="R39" t="n">
-        <v>2.46</v>
+        <v>4.19</v>
       </c>
       <c r="S39" t="inlineStr">
         <is>
@@ -4032,16 +4032,16 @@
         </is>
       </c>
       <c r="T39" t="n">
-        <v>2.18</v>
+        <v>4.41</v>
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>07/05/2023 23:29</t>
+          <t>07/05/2023 23:27</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/botafogo-rj-atletico-mg/0QJwq1b4/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/gremio-bragantino/nobMzw6p/</t>
         </is>
       </c>
     </row>
@@ -4253,71 +4253,71 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Santos</t>
+          <t>Bragantino</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Bahia</t>
+          <t>America MG</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J42" t="n">
-        <v>1.95</v>
+        <v>1.86</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>07/05/2023 21:12</t>
+          <t>07/05/2023 23:42</t>
         </is>
       </c>
       <c r="L42" t="n">
-        <v>2.3</v>
+        <v>1.83</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>10/05/2023 23:51</t>
+          <t>10/05/2023 23:45</t>
         </is>
       </c>
       <c r="N42" t="n">
-        <v>3.64</v>
+        <v>3.68</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>07/05/2023 21:12</t>
+          <t>07/05/2023 23:42</t>
         </is>
       </c>
       <c r="P42" t="n">
-        <v>3.14</v>
+        <v>3.77</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>10/05/2023 23:59</t>
+          <t>10/05/2023 23:45</t>
         </is>
       </c>
       <c r="R42" t="n">
-        <v>3.93</v>
+        <v>4.31</v>
       </c>
       <c r="S42" t="inlineStr">
         <is>
-          <t>07/05/2023 21:12</t>
+          <t>07/05/2023 23:42</t>
         </is>
       </c>
       <c r="T42" t="n">
-        <v>3.65</v>
+        <v>4.62</v>
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>10/05/2023 23:59</t>
+          <t>10/05/2023 23:48</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/santos-bahia/r9yUgICM/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/bragantino-america-mg/xWzYhxSS/</t>
         </is>
       </c>
     </row>
@@ -4345,22 +4345,22 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Internacional</t>
+          <t>Santos</t>
         </is>
       </c>
       <c r="G43" t="n">
+        <v>3</v>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Bahia</t>
+        </is>
+      </c>
+      <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>Athletico-PR</t>
-        </is>
-      </c>
-      <c r="I43" t="n">
-        <v>2</v>
-      </c>
       <c r="J43" t="n">
-        <v>1.79</v>
+        <v>1.95</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
@@ -4368,15 +4368,15 @@
         </is>
       </c>
       <c r="L43" t="n">
-        <v>1.82</v>
+        <v>2.3</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>10/05/2023 23:55</t>
+          <t>10/05/2023 23:51</t>
         </is>
       </c>
       <c r="N43" t="n">
-        <v>3.69</v>
+        <v>3.64</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -4384,15 +4384,15 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>3.61</v>
+        <v>3.14</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>10/05/2023 23:55</t>
+          <t>10/05/2023 23:59</t>
         </is>
       </c>
       <c r="R43" t="n">
-        <v>4.86</v>
+        <v>3.93</v>
       </c>
       <c r="S43" t="inlineStr">
         <is>
@@ -4400,16 +4400,16 @@
         </is>
       </c>
       <c r="T43" t="n">
-        <v>4.93</v>
+        <v>3.65</v>
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>10/05/2023 23:55</t>
+          <t>10/05/2023 23:59</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/internacional-athletico-pr/61gdmGkj/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/santos-bahia/r9yUgICM/</t>
         </is>
       </c>
     </row>
@@ -4437,71 +4437,71 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Bragantino</t>
+          <t>Internacional</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>America MG</t>
+          <t>Athletico-PR</t>
         </is>
       </c>
       <c r="I44" t="n">
         <v>2</v>
       </c>
       <c r="J44" t="n">
-        <v>1.86</v>
+        <v>1.79</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>07/05/2023 23:42</t>
+          <t>07/05/2023 21:12</t>
         </is>
       </c>
       <c r="L44" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>10/05/2023 23:45</t>
+          <t>10/05/2023 23:55</t>
         </is>
       </c>
       <c r="N44" t="n">
-        <v>3.68</v>
+        <v>3.69</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>07/05/2023 23:42</t>
+          <t>07/05/2023 21:12</t>
         </is>
       </c>
       <c r="P44" t="n">
-        <v>3.77</v>
+        <v>3.61</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>10/05/2023 23:45</t>
+          <t>10/05/2023 23:55</t>
         </is>
       </c>
       <c r="R44" t="n">
-        <v>4.31</v>
+        <v>4.86</v>
       </c>
       <c r="S44" t="inlineStr">
         <is>
-          <t>07/05/2023 23:42</t>
+          <t>07/05/2023 21:12</t>
         </is>
       </c>
       <c r="T44" t="n">
-        <v>4.62</v>
+        <v>4.93</v>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>10/05/2023 23:48</t>
+          <t>10/05/2023 23:55</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/bragantino-america-mg/xWzYhxSS/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/internacional-athletico-pr/61gdmGkj/</t>
         </is>
       </c>
     </row>
@@ -4529,22 +4529,22 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Cuiaba</t>
+          <t>Flamengo RJ</t>
         </is>
       </c>
       <c r="G45" t="n">
+        <v>2</v>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Goias</t>
+        </is>
+      </c>
+      <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>Atletico-MG</t>
-        </is>
-      </c>
-      <c r="I45" t="n">
-        <v>4</v>
-      </c>
       <c r="J45" t="n">
-        <v>3.36</v>
+        <v>1.32</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
@@ -4552,15 +4552,15 @@
         </is>
       </c>
       <c r="L45" t="n">
-        <v>3.86</v>
+        <v>1.25</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>11/05/2023 00:59</t>
+          <t>11/05/2023 00:43</t>
         </is>
       </c>
       <c r="N45" t="n">
-        <v>3.3</v>
+        <v>5.65</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
@@ -4568,15 +4568,15 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>3.3</v>
+        <v>6.22</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>11/05/2023 00:57</t>
+          <t>11/05/2023 00:58</t>
         </is>
       </c>
       <c r="R45" t="n">
-        <v>2.32</v>
+        <v>9.16</v>
       </c>
       <c r="S45" t="inlineStr">
         <is>
@@ -4584,16 +4584,16 @@
         </is>
       </c>
       <c r="T45" t="n">
-        <v>2.15</v>
+        <v>12.58</v>
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>11/05/2023 00:59</t>
+          <t>11/05/2023 00:58</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/cuiaba-atletico-mg/CbpnAwc3/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/flamengo-rj-goias/8jqHdKS3/</t>
         </is>
       </c>
     </row>
@@ -4621,22 +4621,22 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Flamengo RJ</t>
+          <t>Cuiaba</t>
         </is>
       </c>
       <c r="G46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Goias</t>
+          <t>Atletico-MG</t>
         </is>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J46" t="n">
-        <v>1.32</v>
+        <v>3.36</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
@@ -4644,15 +4644,15 @@
         </is>
       </c>
       <c r="L46" t="n">
-        <v>1.25</v>
+        <v>3.86</v>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>11/05/2023 00:43</t>
+          <t>11/05/2023 00:59</t>
         </is>
       </c>
       <c r="N46" t="n">
-        <v>5.65</v>
+        <v>3.3</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
@@ -4660,15 +4660,15 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>6.22</v>
+        <v>3.3</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>11/05/2023 00:58</t>
+          <t>11/05/2023 00:57</t>
         </is>
       </c>
       <c r="R46" t="n">
-        <v>9.16</v>
+        <v>2.32</v>
       </c>
       <c r="S46" t="inlineStr">
         <is>
@@ -4676,16 +4676,16 @@
         </is>
       </c>
       <c r="T46" t="n">
-        <v>12.58</v>
+        <v>2.15</v>
       </c>
       <c r="U46" t="inlineStr">
         <is>
-          <t>11/05/2023 00:58</t>
+          <t>11/05/2023 00:59</t>
         </is>
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/flamengo-rj-goias/8jqHdKS3/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/cuiaba-atletico-mg/CbpnAwc3/</t>
         </is>
       </c>
     </row>
@@ -4713,71 +4713,71 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Palmeiras</t>
+          <t>Cruzeiro</t>
         </is>
       </c>
       <c r="G47" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Gremio</t>
+          <t>Fluminense</t>
         </is>
       </c>
       <c r="I47" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J47" t="n">
-        <v>1.45</v>
+        <v>2.76</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>07/05/2023 23:42</t>
+          <t>07/05/2023 02:12</t>
         </is>
       </c>
       <c r="L47" t="n">
-        <v>1.41</v>
+        <v>2.74</v>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>11/05/2023 02:29</t>
+          <t>11/05/2023 02:27</t>
         </is>
       </c>
       <c r="N47" t="n">
-        <v>4.72</v>
+        <v>3.42</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>07/05/2023 23:42</t>
+          <t>07/05/2023 02:12</t>
         </is>
       </c>
       <c r="P47" t="n">
-        <v>4.71</v>
+        <v>3.21</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>11/05/2023 02:12</t>
+          <t>11/05/2023 02:25</t>
         </is>
       </c>
       <c r="R47" t="n">
-        <v>7.37</v>
+        <v>2.6</v>
       </c>
       <c r="S47" t="inlineStr">
         <is>
-          <t>07/05/2023 23:42</t>
+          <t>07/05/2023 02:12</t>
         </is>
       </c>
       <c r="T47" t="n">
-        <v>8.65</v>
+        <v>2.85</v>
       </c>
       <c r="U47" t="inlineStr">
         <is>
-          <t>11/05/2023 02:12</t>
+          <t>11/05/2023 02:27</t>
         </is>
       </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/palmeiras-gremio/U5XPfbcG/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/cruzeiro-fluminense/vuNaldzp/</t>
         </is>
       </c>
     </row>
@@ -4805,71 +4805,71 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Cruzeiro</t>
+          <t>Palmeiras</t>
         </is>
       </c>
       <c r="G48" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Fluminense</t>
+          <t>Gremio</t>
         </is>
       </c>
       <c r="I48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J48" t="n">
-        <v>2.76</v>
+        <v>1.45</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>07/05/2023 02:12</t>
+          <t>07/05/2023 23:42</t>
         </is>
       </c>
       <c r="L48" t="n">
-        <v>2.74</v>
+        <v>1.41</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>11/05/2023 02:27</t>
+          <t>11/05/2023 02:29</t>
         </is>
       </c>
       <c r="N48" t="n">
-        <v>3.42</v>
+        <v>4.72</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>07/05/2023 02:12</t>
+          <t>07/05/2023 23:42</t>
         </is>
       </c>
       <c r="P48" t="n">
-        <v>3.21</v>
+        <v>4.71</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>11/05/2023 02:25</t>
+          <t>11/05/2023 02:12</t>
         </is>
       </c>
       <c r="R48" t="n">
-        <v>2.6</v>
+        <v>7.37</v>
       </c>
       <c r="S48" t="inlineStr">
         <is>
-          <t>07/05/2023 02:12</t>
+          <t>07/05/2023 23:42</t>
         </is>
       </c>
       <c r="T48" t="n">
-        <v>2.85</v>
+        <v>8.65</v>
       </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t>11/05/2023 02:27</t>
+          <t>11/05/2023 02:12</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/cruzeiro-fluminense/vuNaldzp/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/palmeiras-gremio/U5XPfbcG/</t>
         </is>
       </c>
     </row>
@@ -5633,7 +5633,7 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Gremio</t>
+          <t>Vasco</t>
         </is>
       </c>
       <c r="G57" t="n">
@@ -5641,63 +5641,63 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Fortaleza</t>
+          <t>Santos</t>
         </is>
       </c>
       <c r="I57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J57" t="n">
-        <v>2.26</v>
+        <v>1.74</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>12/05/2023 01:12</t>
+          <t>12/05/2023 00:12</t>
         </is>
       </c>
       <c r="L57" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>14/05/2023 20:59</t>
+          <t>14/05/2023 20:50</t>
         </is>
       </c>
       <c r="N57" t="n">
-        <v>3.44</v>
+        <v>3.77</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>12/05/2023 01:12</t>
+          <t>12/05/2023 00:12</t>
         </is>
       </c>
       <c r="P57" t="n">
-        <v>3.64</v>
+        <v>3.33</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>14/05/2023 20:59</t>
+          <t>14/05/2023 20:58</t>
         </is>
       </c>
       <c r="R57" t="n">
-        <v>3.27</v>
+        <v>4.95</v>
       </c>
       <c r="S57" t="inlineStr">
         <is>
-          <t>12/05/2023 01:12</t>
+          <t>12/05/2023 00:12</t>
         </is>
       </c>
       <c r="T57" t="n">
-        <v>4.38</v>
+        <v>4.73</v>
       </c>
       <c r="U57" t="inlineStr">
         <is>
-          <t>14/05/2023 20:59</t>
+          <t>14/05/2023 20:58</t>
         </is>
       </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/gremio-fortaleza/SYhum7e7/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/vasco-santos/YDYf8HRF/</t>
         </is>
       </c>
     </row>
@@ -5725,7 +5725,7 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Vasco</t>
+          <t>Gremio</t>
         </is>
       </c>
       <c r="G58" t="n">
@@ -5733,63 +5733,63 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Santos</t>
+          <t>Fortaleza</t>
         </is>
       </c>
       <c r="I58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J58" t="n">
-        <v>1.74</v>
+        <v>2.26</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>12/05/2023 00:12</t>
+          <t>12/05/2023 01:12</t>
         </is>
       </c>
       <c r="L58" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>14/05/2023 20:50</t>
+          <t>14/05/2023 20:59</t>
         </is>
       </c>
       <c r="N58" t="n">
-        <v>3.77</v>
+        <v>3.44</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>12/05/2023 00:12</t>
+          <t>12/05/2023 01:12</t>
         </is>
       </c>
       <c r="P58" t="n">
-        <v>3.33</v>
+        <v>3.64</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>14/05/2023 20:58</t>
+          <t>14/05/2023 20:59</t>
         </is>
       </c>
       <c r="R58" t="n">
-        <v>4.95</v>
+        <v>3.27</v>
       </c>
       <c r="S58" t="inlineStr">
         <is>
-          <t>12/05/2023 00:12</t>
+          <t>12/05/2023 01:12</t>
         </is>
       </c>
       <c r="T58" t="n">
-        <v>4.73</v>
+        <v>4.38</v>
       </c>
       <c r="U58" t="inlineStr">
         <is>
-          <t>14/05/2023 20:58</t>
+          <t>14/05/2023 20:59</t>
         </is>
       </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/vasco-santos/YDYf8HRF/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/gremio-fortaleza/SYhum7e7/</t>
         </is>
       </c>
     </row>
@@ -6185,30 +6185,30 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Botafogo RJ</t>
+          <t>America MG</t>
         </is>
       </c>
       <c r="G63" t="n">
+        <v>2</v>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>Fortaleza</t>
+        </is>
+      </c>
+      <c r="I63" t="n">
         <v>1</v>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>Fluminense</t>
-        </is>
-      </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
       <c r="J63" t="n">
-        <v>2.78</v>
+        <v>2.63</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>14/05/2023 23:42</t>
+          <t>15/05/2023 09:42</t>
         </is>
       </c>
       <c r="L63" t="n">
-        <v>2.77</v>
+        <v>3.05</v>
       </c>
       <c r="M63" t="inlineStr">
         <is>
@@ -6216,40 +6216,40 @@
         </is>
       </c>
       <c r="N63" t="n">
-        <v>3.31</v>
+        <v>3.48</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>14/05/2023 23:42</t>
+          <t>15/05/2023 09:42</t>
         </is>
       </c>
       <c r="P63" t="n">
-        <v>3.32</v>
+        <v>3.39</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
+          <t>20/05/2023 23:26</t>
+        </is>
+      </c>
+      <c r="R63" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="S63" t="inlineStr">
+        <is>
+          <t>15/05/2023 09:42</t>
+        </is>
+      </c>
+      <c r="T63" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="U63" t="inlineStr">
+        <is>
           <t>20/05/2023 23:29</t>
         </is>
       </c>
-      <c r="R63" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="S63" t="inlineStr">
-        <is>
-          <t>14/05/2023 23:42</t>
-        </is>
-      </c>
-      <c r="T63" t="n">
-        <v>2.74</v>
-      </c>
-      <c r="U63" t="inlineStr">
-        <is>
-          <t>20/05/2023 22:51</t>
-        </is>
-      </c>
       <c r="V63" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/botafogo-rj-fluminense/hGQ148Qs/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/america-mg-fortaleza/l8gDM7nQ/</t>
         </is>
       </c>
     </row>
@@ -6277,22 +6277,22 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Bragantino</t>
+          <t>Botafogo RJ</t>
         </is>
       </c>
       <c r="G64" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Athletico-PR</t>
+          <t>Fluminense</t>
         </is>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
       <c r="J64" t="n">
-        <v>2.05</v>
+        <v>2.78</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
@@ -6300,15 +6300,15 @@
         </is>
       </c>
       <c r="L64" t="n">
-        <v>1.85</v>
+        <v>2.77</v>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>20/05/2023 23:06</t>
+          <t>20/05/2023 23:29</t>
         </is>
       </c>
       <c r="N64" t="n">
-        <v>3.43</v>
+        <v>3.31</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
@@ -6316,15 +6316,15 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>3.64</v>
+        <v>3.32</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>20/05/2023 23:28</t>
+          <t>20/05/2023 23:29</t>
         </is>
       </c>
       <c r="R64" t="n">
-        <v>3.83</v>
+        <v>2.72</v>
       </c>
       <c r="S64" t="inlineStr">
         <is>
@@ -6332,16 +6332,16 @@
         </is>
       </c>
       <c r="T64" t="n">
-        <v>4.63</v>
+        <v>2.74</v>
       </c>
       <c r="U64" t="inlineStr">
         <is>
-          <t>20/05/2023 23:28</t>
+          <t>20/05/2023 22:51</t>
         </is>
       </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/bragantino-athletico-pr/MeEE16A0/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/botafogo-rj-fluminense/hGQ148Qs/</t>
         </is>
       </c>
     </row>
@@ -6553,7 +6553,7 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>America MG</t>
+          <t>Bragantino</t>
         </is>
       </c>
       <c r="G67" t="n">
@@ -6561,63 +6561,63 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Fortaleza</t>
+          <t>Athletico-PR</t>
         </is>
       </c>
       <c r="I67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J67" t="n">
-        <v>2.63</v>
+        <v>2.05</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>15/05/2023 09:42</t>
+          <t>14/05/2023 23:42</t>
         </is>
       </c>
       <c r="L67" t="n">
-        <v>3.05</v>
+        <v>1.85</v>
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>20/05/2023 23:29</t>
+          <t>20/05/2023 23:06</t>
         </is>
       </c>
       <c r="N67" t="n">
-        <v>3.48</v>
+        <v>3.43</v>
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>15/05/2023 09:42</t>
+          <t>14/05/2023 23:42</t>
         </is>
       </c>
       <c r="P67" t="n">
-        <v>3.39</v>
+        <v>3.64</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>20/05/2023 23:26</t>
+          <t>20/05/2023 23:28</t>
         </is>
       </c>
       <c r="R67" t="n">
-        <v>2.69</v>
+        <v>3.83</v>
       </c>
       <c r="S67" t="inlineStr">
         <is>
-          <t>15/05/2023 09:42</t>
+          <t>14/05/2023 23:42</t>
         </is>
       </c>
       <c r="T67" t="n">
-        <v>2.47</v>
+        <v>4.63</v>
       </c>
       <c r="U67" t="inlineStr">
         <is>
-          <t>20/05/2023 23:29</t>
+          <t>20/05/2023 23:28</t>
         </is>
       </c>
       <c r="V67" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/america-mg-fortaleza/l8gDM7nQ/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/bragantino-athletico-pr/MeEE16A0/</t>
         </is>
       </c>
     </row>
@@ -7657,71 +7657,71 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Atletico-MG</t>
+          <t>Bragantino</t>
         </is>
       </c>
       <c r="G79" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Palmeiras</t>
+          <t>Santos</t>
         </is>
       </c>
       <c r="I79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J79" t="n">
-        <v>2.19</v>
+        <v>1.75</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>22/05/2023 03:42</t>
+          <t>21/05/2023 09:12</t>
         </is>
       </c>
       <c r="L79" t="n">
-        <v>2.29</v>
+        <v>1.78</v>
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>28/05/2023 23:29</t>
+          <t>28/05/2023 23:27</t>
         </is>
       </c>
       <c r="N79" t="n">
-        <v>3.38</v>
+        <v>3.71</v>
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>22/05/2023 03:42</t>
+          <t>21/05/2023 09:12</t>
         </is>
       </c>
       <c r="P79" t="n">
-        <v>3.3</v>
+        <v>3.52</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>28/05/2023 23:29</t>
+          <t>28/05/2023 23:15</t>
         </is>
       </c>
       <c r="R79" t="n">
-        <v>3.58</v>
+        <v>5.18</v>
       </c>
       <c r="S79" t="inlineStr">
         <is>
-          <t>22/05/2023 03:42</t>
+          <t>21/05/2023 09:12</t>
         </is>
       </c>
       <c r="T79" t="n">
-        <v>3.43</v>
+        <v>5.46</v>
       </c>
       <c r="U79" t="inlineStr">
         <is>
-          <t>28/05/2023 23:21</t>
+          <t>28/05/2023 23:27</t>
         </is>
       </c>
       <c r="V79" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/atletico-mg-palmeiras/MFt0D39C/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/bragantino-santos/rPsdEqf6/</t>
         </is>
       </c>
     </row>
@@ -7749,71 +7749,71 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Bragantino</t>
+          <t>Atletico-MG</t>
         </is>
       </c>
       <c r="G80" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Santos</t>
+          <t>Palmeiras</t>
         </is>
       </c>
       <c r="I80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J80" t="n">
-        <v>1.75</v>
+        <v>2.19</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>21/05/2023 09:12</t>
+          <t>22/05/2023 03:42</t>
         </is>
       </c>
       <c r="L80" t="n">
-        <v>1.78</v>
+        <v>2.29</v>
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>28/05/2023 23:27</t>
+          <t>28/05/2023 23:29</t>
         </is>
       </c>
       <c r="N80" t="n">
-        <v>3.71</v>
+        <v>3.38</v>
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>21/05/2023 09:12</t>
+          <t>22/05/2023 03:42</t>
         </is>
       </c>
       <c r="P80" t="n">
-        <v>3.52</v>
+        <v>3.3</v>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>28/05/2023 23:15</t>
+          <t>28/05/2023 23:29</t>
         </is>
       </c>
       <c r="R80" t="n">
-        <v>5.18</v>
+        <v>3.58</v>
       </c>
       <c r="S80" t="inlineStr">
         <is>
-          <t>21/05/2023 09:12</t>
+          <t>22/05/2023 03:42</t>
         </is>
       </c>
       <c r="T80" t="n">
-        <v>5.46</v>
+        <v>3.43</v>
       </c>
       <c r="U80" t="inlineStr">
         <is>
-          <t>28/05/2023 23:27</t>
+          <t>28/05/2023 23:21</t>
         </is>
       </c>
       <c r="V80" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/bragantino-santos/rPsdEqf6/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/atletico-mg-palmeiras/MFt0D39C/</t>
         </is>
       </c>
     </row>
@@ -8393,7 +8393,7 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Gremio</t>
+          <t>Fluminense</t>
         </is>
       </c>
       <c r="G87" t="n">
@@ -8401,63 +8401,63 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Sao Paulo</t>
+          <t>Bragantino</t>
         </is>
       </c>
       <c r="I87" t="n">
         <v>1</v>
       </c>
       <c r="J87" t="n">
-        <v>2.1</v>
+        <v>1.76</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>29/05/2023 20:12</t>
+          <t>29/05/2023 10:12</t>
         </is>
       </c>
       <c r="L87" t="n">
-        <v>2.09</v>
+        <v>1.77</v>
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>04/06/2023 20:59</t>
+          <t>04/06/2023 20:35</t>
         </is>
       </c>
       <c r="N87" t="n">
-        <v>3.36</v>
+        <v>3.97</v>
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>29/05/2023 20:12</t>
+          <t>29/05/2023 10:12</t>
         </is>
       </c>
       <c r="P87" t="n">
-        <v>3.32</v>
+        <v>3.73</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>04/06/2023 20:59</t>
+          <t>04/06/2023 20:58</t>
         </is>
       </c>
       <c r="R87" t="n">
-        <v>3.75</v>
+        <v>4.51</v>
       </c>
       <c r="S87" t="inlineStr">
         <is>
-          <t>29/05/2023 20:12</t>
+          <t>29/05/2023 10:12</t>
         </is>
       </c>
       <c r="T87" t="n">
-        <v>4.01</v>
+        <v>4.99</v>
       </c>
       <c r="U87" t="inlineStr">
         <is>
-          <t>04/06/2023 20:59</t>
+          <t>04/06/2023 20:36</t>
         </is>
       </c>
       <c r="V87" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/gremio-sao-paulo/hv9x99ZN/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/fluminense-bragantino/4d1KED5n/</t>
         </is>
       </c>
     </row>
@@ -8485,7 +8485,7 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Fluminense</t>
+          <t>Gremio</t>
         </is>
       </c>
       <c r="G88" t="n">
@@ -8493,63 +8493,63 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Bragantino</t>
+          <t>Sao Paulo</t>
         </is>
       </c>
       <c r="I88" t="n">
         <v>1</v>
       </c>
       <c r="J88" t="n">
-        <v>1.76</v>
+        <v>2.1</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>29/05/2023 10:12</t>
+          <t>29/05/2023 20:12</t>
         </is>
       </c>
       <c r="L88" t="n">
-        <v>1.77</v>
+        <v>2.09</v>
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>04/06/2023 20:35</t>
+          <t>04/06/2023 20:59</t>
         </is>
       </c>
       <c r="N88" t="n">
-        <v>3.97</v>
+        <v>3.36</v>
       </c>
       <c r="O88" t="inlineStr">
         <is>
-          <t>29/05/2023 10:12</t>
+          <t>29/05/2023 20:12</t>
         </is>
       </c>
       <c r="P88" t="n">
-        <v>3.73</v>
+        <v>3.32</v>
       </c>
       <c r="Q88" t="inlineStr">
         <is>
-          <t>04/06/2023 20:58</t>
+          <t>04/06/2023 20:59</t>
         </is>
       </c>
       <c r="R88" t="n">
-        <v>4.51</v>
+        <v>3.75</v>
       </c>
       <c r="S88" t="inlineStr">
         <is>
-          <t>29/05/2023 10:12</t>
+          <t>29/05/2023 20:12</t>
         </is>
       </c>
       <c r="T88" t="n">
-        <v>4.99</v>
+        <v>4.01</v>
       </c>
       <c r="U88" t="inlineStr">
         <is>
-          <t>04/06/2023 20:36</t>
+          <t>04/06/2023 20:59</t>
         </is>
       </c>
       <c r="V88" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/fluminense-bragantino/4d1KED5n/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/gremio-sao-paulo/hv9x99ZN/</t>
         </is>
       </c>
     </row>
@@ -8945,7 +8945,7 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Corinthians</t>
+          <t>Atletico-MG</t>
         </is>
       </c>
       <c r="G93" t="n">
@@ -8953,14 +8953,14 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Cuiaba</t>
+          <t>Bragantino</t>
         </is>
       </c>
       <c r="I93" t="n">
         <v>1</v>
       </c>
       <c r="J93" t="n">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
@@ -8972,11 +8972,11 @@
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>10/06/2023 23:28</t>
+          <t>10/06/2023 23:25</t>
         </is>
       </c>
       <c r="N93" t="n">
-        <v>3.65</v>
+        <v>4.04</v>
       </c>
       <c r="O93" t="inlineStr">
         <is>
@@ -8984,32 +8984,32 @@
         </is>
       </c>
       <c r="P93" t="n">
-        <v>3.29</v>
+        <v>3.43</v>
       </c>
       <c r="Q93" t="inlineStr">
         <is>
+          <t>10/06/2023 23:25</t>
+        </is>
+      </c>
+      <c r="R93" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="S93" t="inlineStr">
+        <is>
+          <t>05/06/2023 02:42</t>
+        </is>
+      </c>
+      <c r="T93" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="U93" t="inlineStr">
+        <is>
           <t>10/06/2023 23:29</t>
         </is>
       </c>
-      <c r="R93" t="n">
-        <v>5.08</v>
-      </c>
-      <c r="S93" t="inlineStr">
-        <is>
-          <t>05/06/2023 02:42</t>
-        </is>
-      </c>
-      <c r="T93" t="n">
-        <v>5.68</v>
-      </c>
-      <c r="U93" t="inlineStr">
-        <is>
-          <t>10/06/2023 23:29</t>
-        </is>
-      </c>
       <c r="V93" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/corinthians-cuiaba/l6v7OlZA/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/atletico-mg-bragantino/r7du6tJq/</t>
         </is>
       </c>
     </row>
@@ -9037,30 +9037,30 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Bahia</t>
+          <t>Corinthians</t>
         </is>
       </c>
       <c r="G94" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Cruzeiro</t>
+          <t>Cuiaba</t>
         </is>
       </c>
       <c r="I94" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J94" t="n">
-        <v>2.29</v>
+        <v>1.75</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>03/06/2023 23:42</t>
+          <t>05/06/2023 02:42</t>
         </is>
       </c>
       <c r="L94" t="n">
-        <v>2.87</v>
+        <v>1.82</v>
       </c>
       <c r="M94" t="inlineStr">
         <is>
@@ -9068,40 +9068,40 @@
         </is>
       </c>
       <c r="N94" t="n">
-        <v>3.38</v>
+        <v>3.65</v>
       </c>
       <c r="O94" t="inlineStr">
         <is>
-          <t>03/06/2023 23:42</t>
+          <t>05/06/2023 02:42</t>
         </is>
       </c>
       <c r="P94" t="n">
-        <v>3.27</v>
+        <v>3.29</v>
       </c>
       <c r="Q94" t="inlineStr">
         <is>
-          <t>10/06/2023 23:21</t>
+          <t>10/06/2023 23:29</t>
         </is>
       </c>
       <c r="R94" t="n">
-        <v>3.27</v>
+        <v>5.08</v>
       </c>
       <c r="S94" t="inlineStr">
         <is>
-          <t>03/06/2023 23:42</t>
+          <t>05/06/2023 02:42</t>
         </is>
       </c>
       <c r="T94" t="n">
-        <v>2.68</v>
+        <v>5.68</v>
       </c>
       <c r="U94" t="inlineStr">
         <is>
-          <t>10/06/2023 23:28</t>
+          <t>10/06/2023 23:29</t>
         </is>
       </c>
       <c r="V94" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/bahia-cruzeiro/hxvWS3Qd/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/corinthians-cuiaba/l6v7OlZA/</t>
         </is>
       </c>
     </row>
@@ -9129,71 +9129,71 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Atletico-MG</t>
+          <t>Bahia</t>
         </is>
       </c>
       <c r="G95" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Bragantino</t>
+          <t>Cruzeiro</t>
         </is>
       </c>
       <c r="I95" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J95" t="n">
-        <v>1.62</v>
+        <v>2.29</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>05/06/2023 02:42</t>
+          <t>03/06/2023 23:42</t>
         </is>
       </c>
       <c r="L95" t="n">
-        <v>1.82</v>
+        <v>2.87</v>
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>10/06/2023 23:25</t>
+          <t>10/06/2023 23:28</t>
         </is>
       </c>
       <c r="N95" t="n">
-        <v>4.04</v>
+        <v>3.38</v>
       </c>
       <c r="O95" t="inlineStr">
         <is>
-          <t>05/06/2023 02:42</t>
+          <t>03/06/2023 23:42</t>
         </is>
       </c>
       <c r="P95" t="n">
-        <v>3.43</v>
+        <v>3.27</v>
       </c>
       <c r="Q95" t="inlineStr">
         <is>
-          <t>10/06/2023 23:25</t>
+          <t>10/06/2023 23:21</t>
         </is>
       </c>
       <c r="R95" t="n">
-        <v>5.9</v>
+        <v>3.27</v>
       </c>
       <c r="S95" t="inlineStr">
         <is>
-          <t>05/06/2023 02:42</t>
+          <t>03/06/2023 23:42</t>
         </is>
       </c>
       <c r="T95" t="n">
-        <v>5.3</v>
+        <v>2.68</v>
       </c>
       <c r="U95" t="inlineStr">
         <is>
-          <t>10/06/2023 23:29</t>
+          <t>10/06/2023 23:28</t>
         </is>
       </c>
       <c r="V95" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/atletico-mg-bragantino/r7du6tJq/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/bahia-cruzeiro/hxvWS3Qd/</t>
         </is>
       </c>
     </row>
@@ -14373,30 +14373,30 @@
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>Cuiaba</t>
+          <t>Bahia</t>
         </is>
       </c>
       <c r="G152" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>Sao Paulo</t>
+          <t>Corinthians</t>
         </is>
       </c>
       <c r="I152" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J152" t="n">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="K152" t="inlineStr">
         <is>
-          <t>16/07/2023 21:12</t>
+          <t>16/07/2023 23:42</t>
         </is>
       </c>
       <c r="L152" t="n">
-        <v>2.86</v>
+        <v>2.28</v>
       </c>
       <c r="M152" t="inlineStr">
         <is>
@@ -14404,15 +14404,15 @@
         </is>
       </c>
       <c r="N152" t="n">
-        <v>3.2</v>
+        <v>3.13</v>
       </c>
       <c r="O152" t="inlineStr">
         <is>
-          <t>16/07/2023 21:12</t>
+          <t>16/07/2023 23:42</t>
         </is>
       </c>
       <c r="P152" t="n">
-        <v>3.01</v>
+        <v>3.11</v>
       </c>
       <c r="Q152" t="inlineStr">
         <is>
@@ -14420,15 +14420,15 @@
         </is>
       </c>
       <c r="R152" t="n">
-        <v>2.81</v>
+        <v>3.32</v>
       </c>
       <c r="S152" t="inlineStr">
         <is>
-          <t>16/07/2023 21:12</t>
+          <t>16/07/2023 23:42</t>
         </is>
       </c>
       <c r="T152" t="n">
-        <v>2.9</v>
+        <v>3.74</v>
       </c>
       <c r="U152" t="inlineStr">
         <is>
@@ -14437,7 +14437,7 @@
       </c>
       <c r="V152" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/cuiaba-sao-paulo/CdNdPOKc/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/bahia-corinthians/Y5OhQ45i/</t>
         </is>
       </c>
     </row>
@@ -14465,30 +14465,30 @@
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>Bahia</t>
+          <t>Cuiaba</t>
         </is>
       </c>
       <c r="G153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>Corinthians</t>
+          <t>Sao Paulo</t>
         </is>
       </c>
       <c r="I153" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J153" t="n">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="K153" t="inlineStr">
         <is>
-          <t>16/07/2023 23:42</t>
+          <t>16/07/2023 21:12</t>
         </is>
       </c>
       <c r="L153" t="n">
-        <v>2.28</v>
+        <v>2.86</v>
       </c>
       <c r="M153" t="inlineStr">
         <is>
@@ -14496,15 +14496,15 @@
         </is>
       </c>
       <c r="N153" t="n">
-        <v>3.13</v>
+        <v>3.2</v>
       </c>
       <c r="O153" t="inlineStr">
         <is>
-          <t>16/07/2023 23:42</t>
+          <t>16/07/2023 21:12</t>
         </is>
       </c>
       <c r="P153" t="n">
-        <v>3.11</v>
+        <v>3.01</v>
       </c>
       <c r="Q153" t="inlineStr">
         <is>
@@ -14512,15 +14512,15 @@
         </is>
       </c>
       <c r="R153" t="n">
-        <v>3.32</v>
+        <v>2.81</v>
       </c>
       <c r="S153" t="inlineStr">
         <is>
-          <t>16/07/2023 23:42</t>
+          <t>16/07/2023 21:12</t>
         </is>
       </c>
       <c r="T153" t="n">
-        <v>3.74</v>
+        <v>2.9</v>
       </c>
       <c r="U153" t="inlineStr">
         <is>
@@ -14529,7 +14529,7 @@
       </c>
       <c r="V153" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/bahia-corinthians/Y5OhQ45i/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/cuiaba-sao-paulo/CdNdPOKc/</t>
         </is>
       </c>
     </row>
@@ -15201,71 +15201,71 @@
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>Athletico-PR</t>
+          <t>Internacional</t>
         </is>
       </c>
       <c r="G161" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>Cruzeiro</t>
+          <t>Cuiaba</t>
         </is>
       </c>
       <c r="I161" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J161" t="n">
-        <v>2.03</v>
+        <v>1.88</v>
       </c>
       <c r="K161" t="inlineStr">
         <is>
-          <t>23/07/2023 23:42</t>
+          <t>23/07/2023 21:12</t>
         </is>
       </c>
       <c r="L161" t="n">
-        <v>1.86</v>
+        <v>1.81</v>
       </c>
       <c r="M161" t="inlineStr">
         <is>
-          <t>29/07/2023 20:45</t>
+          <t>29/07/2023 20:51</t>
         </is>
       </c>
       <c r="N161" t="n">
-        <v>3.38</v>
+        <v>3.23</v>
       </c>
       <c r="O161" t="inlineStr">
         <is>
-          <t>23/07/2023 23:42</t>
+          <t>23/07/2023 21:12</t>
         </is>
       </c>
       <c r="P161" t="n">
-        <v>3.49</v>
+        <v>3.44</v>
       </c>
       <c r="Q161" t="inlineStr">
         <is>
-          <t>29/07/2023 20:45</t>
+          <t>29/07/2023 20:59</t>
         </is>
       </c>
       <c r="R161" t="n">
-        <v>3.98</v>
+        <v>4.99</v>
       </c>
       <c r="S161" t="inlineStr">
         <is>
-          <t>23/07/2023 23:42</t>
+          <t>23/07/2023 21:12</t>
         </is>
       </c>
       <c r="T161" t="n">
-        <v>4.87</v>
+        <v>5.41</v>
       </c>
       <c r="U161" t="inlineStr">
         <is>
-          <t>29/07/2023 20:58</t>
+          <t>29/07/2023 20:59</t>
         </is>
       </c>
       <c r="V161" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/athletico-pr-cruzeiro/6JbhEbCd/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/internacional-cuiaba/SSalFvcj/</t>
         </is>
       </c>
     </row>
@@ -15293,71 +15293,71 @@
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>Internacional</t>
+          <t>Athletico-PR</t>
         </is>
       </c>
       <c r="G162" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>Cuiaba</t>
+          <t>Cruzeiro</t>
         </is>
       </c>
       <c r="I162" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J162" t="n">
-        <v>1.88</v>
+        <v>2.03</v>
       </c>
       <c r="K162" t="inlineStr">
         <is>
-          <t>23/07/2023 21:12</t>
+          <t>23/07/2023 23:42</t>
         </is>
       </c>
       <c r="L162" t="n">
-        <v>1.81</v>
+        <v>1.86</v>
       </c>
       <c r="M162" t="inlineStr">
         <is>
-          <t>29/07/2023 20:51</t>
+          <t>29/07/2023 20:45</t>
         </is>
       </c>
       <c r="N162" t="n">
-        <v>3.23</v>
+        <v>3.38</v>
       </c>
       <c r="O162" t="inlineStr">
         <is>
-          <t>23/07/2023 21:12</t>
+          <t>23/07/2023 23:42</t>
         </is>
       </c>
       <c r="P162" t="n">
-        <v>3.44</v>
+        <v>3.49</v>
       </c>
       <c r="Q162" t="inlineStr">
         <is>
-          <t>29/07/2023 20:59</t>
+          <t>29/07/2023 20:45</t>
         </is>
       </c>
       <c r="R162" t="n">
-        <v>4.99</v>
+        <v>3.98</v>
       </c>
       <c r="S162" t="inlineStr">
         <is>
-          <t>23/07/2023 21:12</t>
+          <t>23/07/2023 23:42</t>
         </is>
       </c>
       <c r="T162" t="n">
-        <v>5.41</v>
+        <v>4.87</v>
       </c>
       <c r="U162" t="inlineStr">
         <is>
-          <t>29/07/2023 20:59</t>
+          <t>29/07/2023 20:58</t>
         </is>
       </c>
       <c r="V162" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/internacional-cuiaba/SSalFvcj/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/athletico-pr-cruzeiro/6JbhEbCd/</t>
         </is>
       </c>
     </row>
@@ -16581,46 +16581,46 @@
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>Cruzeiro</t>
+          <t>Bahia</t>
         </is>
       </c>
       <c r="G176" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>Botafogo RJ</t>
+          <t>America MG</t>
         </is>
       </c>
       <c r="I176" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J176" t="n">
-        <v>2.19</v>
+        <v>2.02</v>
       </c>
       <c r="K176" t="inlineStr">
         <is>
-          <t>31/07/2023 00:42</t>
+          <t>31/07/2023 03:12</t>
         </is>
       </c>
       <c r="L176" t="n">
-        <v>2.35</v>
+        <v>1.94</v>
       </c>
       <c r="M176" t="inlineStr">
         <is>
-          <t>06/08/2023 23:25</t>
+          <t>06/08/2023 23:29</t>
         </is>
       </c>
       <c r="N176" t="n">
-        <v>3.26</v>
+        <v>3.55</v>
       </c>
       <c r="O176" t="inlineStr">
         <is>
-          <t>31/07/2023 00:42</t>
+          <t>31/07/2023 03:12</t>
         </is>
       </c>
       <c r="P176" t="n">
-        <v>3.23</v>
+        <v>3.68</v>
       </c>
       <c r="Q176" t="inlineStr">
         <is>
@@ -16628,24 +16628,24 @@
         </is>
       </c>
       <c r="R176" t="n">
-        <v>3.71</v>
+        <v>3.92</v>
       </c>
       <c r="S176" t="inlineStr">
         <is>
-          <t>31/07/2023 00:42</t>
+          <t>31/07/2023 03:12</t>
         </is>
       </c>
       <c r="T176" t="n">
-        <v>3.41</v>
+        <v>4.12</v>
       </c>
       <c r="U176" t="inlineStr">
         <is>
-          <t>06/08/2023 23:25</t>
+          <t>06/08/2023 23:29</t>
         </is>
       </c>
       <c r="V176" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/cruzeiro-botafogo-rj/0tKRScRk/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/bahia-america-mg/CvlGZTa2/</t>
         </is>
       </c>
     </row>
@@ -16673,7 +16673,7 @@
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>Coritiba</t>
+          <t>Cruzeiro</t>
         </is>
       </c>
       <c r="G177" t="n">
@@ -16681,22 +16681,22 @@
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>Bragantino</t>
+          <t>Botafogo RJ</t>
         </is>
       </c>
       <c r="I177" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J177" t="n">
-        <v>2.97</v>
+        <v>2.19</v>
       </c>
       <c r="K177" t="inlineStr">
         <is>
-          <t>30/07/2023 21:12</t>
+          <t>31/07/2023 00:42</t>
         </is>
       </c>
       <c r="L177" t="n">
-        <v>3.58</v>
+        <v>2.35</v>
       </c>
       <c r="M177" t="inlineStr">
         <is>
@@ -16704,40 +16704,40 @@
         </is>
       </c>
       <c r="N177" t="n">
-        <v>3.29</v>
+        <v>3.26</v>
       </c>
       <c r="O177" t="inlineStr">
         <is>
-          <t>30/07/2023 21:12</t>
+          <t>31/07/2023 00:42</t>
         </is>
       </c>
       <c r="P177" t="n">
-        <v>3.33</v>
+        <v>3.23</v>
       </c>
       <c r="Q177" t="inlineStr">
         <is>
-          <t>06/08/2023 23:26</t>
+          <t>06/08/2023 23:29</t>
         </is>
       </c>
       <c r="R177" t="n">
-        <v>2.51</v>
+        <v>3.71</v>
       </c>
       <c r="S177" t="inlineStr">
         <is>
-          <t>30/07/2023 21:12</t>
+          <t>31/07/2023 00:42</t>
         </is>
       </c>
       <c r="T177" t="n">
-        <v>2.23</v>
+        <v>3.41</v>
       </c>
       <c r="U177" t="inlineStr">
         <is>
-          <t>06/08/2023 23:22</t>
+          <t>06/08/2023 23:25</t>
         </is>
       </c>
       <c r="V177" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/coritiba-bragantino/YgIZQyd2/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/cruzeiro-botafogo-rj/0tKRScRk/</t>
         </is>
       </c>
     </row>
@@ -16765,71 +16765,71 @@
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>Bahia</t>
+          <t>Coritiba</t>
         </is>
       </c>
       <c r="G178" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>America MG</t>
+          <t>Bragantino</t>
         </is>
       </c>
       <c r="I178" t="n">
         <v>1</v>
       </c>
       <c r="J178" t="n">
-        <v>2.02</v>
+        <v>2.97</v>
       </c>
       <c r="K178" t="inlineStr">
         <is>
-          <t>31/07/2023 03:12</t>
+          <t>30/07/2023 21:12</t>
         </is>
       </c>
       <c r="L178" t="n">
-        <v>1.94</v>
+        <v>3.58</v>
       </c>
       <c r="M178" t="inlineStr">
         <is>
-          <t>06/08/2023 23:29</t>
+          <t>06/08/2023 23:25</t>
         </is>
       </c>
       <c r="N178" t="n">
-        <v>3.55</v>
+        <v>3.29</v>
       </c>
       <c r="O178" t="inlineStr">
         <is>
-          <t>31/07/2023 03:12</t>
+          <t>30/07/2023 21:12</t>
         </is>
       </c>
       <c r="P178" t="n">
-        <v>3.68</v>
+        <v>3.33</v>
       </c>
       <c r="Q178" t="inlineStr">
         <is>
-          <t>06/08/2023 23:29</t>
+          <t>06/08/2023 23:26</t>
         </is>
       </c>
       <c r="R178" t="n">
-        <v>3.92</v>
+        <v>2.51</v>
       </c>
       <c r="S178" t="inlineStr">
         <is>
-          <t>31/07/2023 03:12</t>
+          <t>30/07/2023 21:12</t>
         </is>
       </c>
       <c r="T178" t="n">
-        <v>4.12</v>
+        <v>2.23</v>
       </c>
       <c r="U178" t="inlineStr">
         <is>
-          <t>06/08/2023 23:29</t>
+          <t>06/08/2023 23:22</t>
         </is>
       </c>
       <c r="V178" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/bahia-america-mg/CvlGZTa2/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/coritiba-bragantino/YgIZQyd2/</t>
         </is>
       </c>
     </row>
@@ -17133,71 +17133,71 @@
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>America MG</t>
+          <t>Gremio</t>
         </is>
       </c>
       <c r="G182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>Goias</t>
+          <t>Fluminense</t>
         </is>
       </c>
       <c r="I182" t="n">
         <v>1</v>
       </c>
       <c r="J182" t="n">
-        <v>1.8</v>
+        <v>2.26</v>
       </c>
       <c r="K182" t="inlineStr">
         <is>
-          <t>06/08/2023 23:42</t>
+          <t>06/08/2023 21:12</t>
         </is>
       </c>
       <c r="L182" t="n">
-        <v>2</v>
+        <v>2.32</v>
       </c>
       <c r="M182" t="inlineStr">
         <is>
+          <t>13/08/2023 20:51</t>
+        </is>
+      </c>
+      <c r="N182" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="O182" t="inlineStr">
+        <is>
+          <t>06/08/2023 21:12</t>
+        </is>
+      </c>
+      <c r="P182" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="Q182" t="inlineStr">
+        <is>
+          <t>13/08/2023 20:55</t>
+        </is>
+      </c>
+      <c r="R182" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="S182" t="inlineStr">
+        <is>
+          <t>06/08/2023 21:12</t>
+        </is>
+      </c>
+      <c r="T182" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="U182" t="inlineStr">
+        <is>
           <t>13/08/2023 20:58</t>
         </is>
       </c>
-      <c r="N182" t="n">
-        <v>3.73</v>
-      </c>
-      <c r="O182" t="inlineStr">
-        <is>
-          <t>06/08/2023 23:42</t>
-        </is>
-      </c>
-      <c r="P182" t="n">
-        <v>3.46</v>
-      </c>
-      <c r="Q182" t="inlineStr">
-        <is>
-          <t>13/08/2023 20:58</t>
-        </is>
-      </c>
-      <c r="R182" t="n">
-        <v>4.59</v>
-      </c>
-      <c r="S182" t="inlineStr">
-        <is>
-          <t>06/08/2023 23:42</t>
-        </is>
-      </c>
-      <c r="T182" t="n">
-        <v>4.17</v>
-      </c>
-      <c r="U182" t="inlineStr">
-        <is>
-          <t>13/08/2023 20:58</t>
-        </is>
-      </c>
       <c r="V182" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/america-mg-goias/bD12YvLP/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/gremio-fluminense/hGACBHDC/</t>
         </is>
       </c>
     </row>
@@ -17225,34 +17225,34 @@
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>Gremio</t>
+          <t>Corinthians</t>
         </is>
       </c>
       <c r="G183" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>Fluminense</t>
+          <t>Coritiba</t>
         </is>
       </c>
       <c r="I183" t="n">
         <v>1</v>
       </c>
       <c r="J183" t="n">
-        <v>2.26</v>
+        <v>1.82</v>
       </c>
       <c r="K183" t="inlineStr">
         <is>
-          <t>06/08/2023 21:12</t>
+          <t>06/08/2023 23:42</t>
         </is>
       </c>
       <c r="L183" t="n">
-        <v>2.32</v>
+        <v>1.73</v>
       </c>
       <c r="M183" t="inlineStr">
         <is>
-          <t>13/08/2023 20:51</t>
+          <t>13/08/2023 20:58</t>
         </is>
       </c>
       <c r="N183" t="n">
@@ -17260,27 +17260,27 @@
       </c>
       <c r="O183" t="inlineStr">
         <is>
-          <t>06/08/2023 21:12</t>
+          <t>06/08/2023 23:42</t>
         </is>
       </c>
       <c r="P183" t="n">
-        <v>3.35</v>
+        <v>3.59</v>
       </c>
       <c r="Q183" t="inlineStr">
         <is>
-          <t>13/08/2023 20:55</t>
+          <t>13/08/2023 20:56</t>
         </is>
       </c>
       <c r="R183" t="n">
-        <v>3.19</v>
+        <v>4.82</v>
       </c>
       <c r="S183" t="inlineStr">
         <is>
-          <t>06/08/2023 21:12</t>
+          <t>06/08/2023 23:42</t>
         </is>
       </c>
       <c r="T183" t="n">
-        <v>3.36</v>
+        <v>5.72</v>
       </c>
       <c r="U183" t="inlineStr">
         <is>
@@ -17289,7 +17289,7 @@
       </c>
       <c r="V183" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/gremio-fluminense/hGACBHDC/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/corinthians-coritiba/2RHaEJTg/</t>
         </is>
       </c>
     </row>
@@ -17317,22 +17317,22 @@
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>Corinthians</t>
+          <t>America MG</t>
         </is>
       </c>
       <c r="G184" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>Coritiba</t>
+          <t>Goias</t>
         </is>
       </c>
       <c r="I184" t="n">
         <v>1</v>
       </c>
       <c r="J184" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="K184" t="inlineStr">
         <is>
@@ -17340,7 +17340,7 @@
         </is>
       </c>
       <c r="L184" t="n">
-        <v>1.73</v>
+        <v>2</v>
       </c>
       <c r="M184" t="inlineStr">
         <is>
@@ -17348,7 +17348,7 @@
         </is>
       </c>
       <c r="N184" t="n">
-        <v>3.52</v>
+        <v>3.73</v>
       </c>
       <c r="O184" t="inlineStr">
         <is>
@@ -17356,15 +17356,15 @@
         </is>
       </c>
       <c r="P184" t="n">
-        <v>3.59</v>
+        <v>3.46</v>
       </c>
       <c r="Q184" t="inlineStr">
         <is>
-          <t>13/08/2023 20:56</t>
+          <t>13/08/2023 20:58</t>
         </is>
       </c>
       <c r="R184" t="n">
-        <v>4.82</v>
+        <v>4.59</v>
       </c>
       <c r="S184" t="inlineStr">
         <is>
@@ -17372,7 +17372,7 @@
         </is>
       </c>
       <c r="T184" t="n">
-        <v>5.72</v>
+        <v>4.17</v>
       </c>
       <c r="U184" t="inlineStr">
         <is>
@@ -17381,7 +17381,7 @@
       </c>
       <c r="V184" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/corinthians-coritiba/2RHaEJTg/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/america-mg-goias/bD12YvLP/</t>
         </is>
       </c>
     </row>
@@ -17409,46 +17409,46 @@
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>Flamengo RJ</t>
+          <t>Fortaleza</t>
         </is>
       </c>
       <c r="G185" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>Sao Paulo</t>
+          <t>Santos</t>
         </is>
       </c>
       <c r="I185" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J185" t="n">
-        <v>1.79</v>
+        <v>1.6</v>
       </c>
       <c r="K185" t="inlineStr">
         <is>
-          <t>07/08/2023 03:42</t>
+          <t>10/08/2023 22:32</t>
         </is>
       </c>
       <c r="L185" t="n">
-        <v>1.8</v>
+        <v>1.55</v>
       </c>
       <c r="M185" t="inlineStr">
         <is>
-          <t>13/08/2023 23:28</t>
+          <t>13/08/2023 23:29</t>
         </is>
       </c>
       <c r="N185" t="n">
-        <v>3.43</v>
+        <v>3.9</v>
       </c>
       <c r="O185" t="inlineStr">
         <is>
-          <t>07/08/2023 03:42</t>
+          <t>10/08/2023 22:32</t>
         </is>
       </c>
       <c r="P185" t="n">
-        <v>3.73</v>
+        <v>3.98</v>
       </c>
       <c r="Q185" t="inlineStr">
         <is>
@@ -17456,15 +17456,15 @@
         </is>
       </c>
       <c r="R185" t="n">
-        <v>5.16</v>
+        <v>6.23</v>
       </c>
       <c r="S185" t="inlineStr">
         <is>
-          <t>07/08/2023 03:42</t>
+          <t>10/08/2023 22:32</t>
         </is>
       </c>
       <c r="T185" t="n">
-        <v>4.87</v>
+        <v>7.47</v>
       </c>
       <c r="U185" t="inlineStr">
         <is>
@@ -17473,7 +17473,7 @@
       </c>
       <c r="V185" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/flamengo-rj-sao-paulo/phnOX7UE/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/fortaleza-santos/KM2bZK5J/</t>
         </is>
       </c>
     </row>
@@ -17501,71 +17501,71 @@
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>Fortaleza</t>
+          <t>Flamengo RJ</t>
         </is>
       </c>
       <c r="G186" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>Santos</t>
+          <t>Sao Paulo</t>
         </is>
       </c>
       <c r="I186" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J186" t="n">
-        <v>1.6</v>
+        <v>1.79</v>
       </c>
       <c r="K186" t="inlineStr">
         <is>
-          <t>10/08/2023 22:32</t>
+          <t>07/08/2023 03:42</t>
         </is>
       </c>
       <c r="L186" t="n">
-        <v>1.55</v>
+        <v>1.8</v>
       </c>
       <c r="M186" t="inlineStr">
         <is>
+          <t>13/08/2023 23:28</t>
+        </is>
+      </c>
+      <c r="N186" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="O186" t="inlineStr">
+        <is>
+          <t>07/08/2023 03:42</t>
+        </is>
+      </c>
+      <c r="P186" t="n">
+        <v>3.73</v>
+      </c>
+      <c r="Q186" t="inlineStr">
+        <is>
           <t>13/08/2023 23:29</t>
         </is>
       </c>
-      <c r="N186" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="O186" t="inlineStr">
-        <is>
-          <t>10/08/2023 22:32</t>
-        </is>
-      </c>
-      <c r="P186" t="n">
-        <v>3.98</v>
-      </c>
-      <c r="Q186" t="inlineStr">
+      <c r="R186" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="S186" t="inlineStr">
+        <is>
+          <t>07/08/2023 03:42</t>
+        </is>
+      </c>
+      <c r="T186" t="n">
+        <v>4.87</v>
+      </c>
+      <c r="U186" t="inlineStr">
         <is>
           <t>13/08/2023 23:29</t>
         </is>
       </c>
-      <c r="R186" t="n">
-        <v>6.23</v>
-      </c>
-      <c r="S186" t="inlineStr">
-        <is>
-          <t>10/08/2023 22:32</t>
-        </is>
-      </c>
-      <c r="T186" t="n">
-        <v>7.47</v>
-      </c>
-      <c r="U186" t="inlineStr">
-        <is>
-          <t>13/08/2023 23:29</t>
-        </is>
-      </c>
       <c r="V186" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/fortaleza-santos/KM2bZK5J/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/flamengo-rj-sao-paulo/phnOX7UE/</t>
         </is>
       </c>
     </row>
@@ -23849,71 +23849,71 @@
       </c>
       <c r="F255" t="inlineStr">
         <is>
-          <t>Palmeiras</t>
+          <t>Internacional</t>
         </is>
       </c>
       <c r="G255" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H255" t="inlineStr">
         <is>
-          <t>Santos</t>
+          <t>Gremio</t>
         </is>
       </c>
       <c r="I255" t="n">
         <v>2</v>
       </c>
       <c r="J255" t="n">
-        <v>1.35</v>
+        <v>2.29</v>
       </c>
       <c r="K255" t="inlineStr">
         <is>
-          <t>01/10/2023 22:42</t>
+          <t>01/10/2023 01:12</t>
         </is>
       </c>
       <c r="L255" t="n">
-        <v>1.44</v>
+        <v>2.29</v>
       </c>
       <c r="M255" t="inlineStr">
         <is>
-          <t>08/10/2023 20:49</t>
+          <t>08/10/2023 20:56</t>
         </is>
       </c>
       <c r="N255" t="n">
-        <v>5.12</v>
+        <v>3.3</v>
       </c>
       <c r="O255" t="inlineStr">
         <is>
-          <t>01/10/2023 22:42</t>
+          <t>01/10/2023 01:12</t>
         </is>
       </c>
       <c r="P255" t="n">
-        <v>4.48</v>
+        <v>3.26</v>
       </c>
       <c r="Q255" t="inlineStr">
         <is>
-          <t>08/10/2023 20:58</t>
+          <t>08/10/2023 20:51</t>
         </is>
       </c>
       <c r="R255" t="n">
-        <v>9.890000000000001</v>
+        <v>3.43</v>
       </c>
       <c r="S255" t="inlineStr">
         <is>
-          <t>01/10/2023 22:42</t>
+          <t>01/10/2023 01:12</t>
         </is>
       </c>
       <c r="T255" t="n">
-        <v>8.73</v>
+        <v>3.53</v>
       </c>
       <c r="U255" t="inlineStr">
         <is>
-          <t>08/10/2023 20:58</t>
+          <t>08/10/2023 20:56</t>
         </is>
       </c>
       <c r="V255" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/palmeiras-santos/6wD0Pwwl/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/internacional-gremio/829HLexD/</t>
         </is>
       </c>
     </row>
@@ -23941,71 +23941,71 @@
       </c>
       <c r="F256" t="inlineStr">
         <is>
-          <t>Fluminense</t>
+          <t>Palmeiras</t>
         </is>
       </c>
       <c r="G256" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H256" t="inlineStr">
         <is>
-          <t>Botafogo RJ</t>
+          <t>Santos</t>
         </is>
       </c>
       <c r="I256" t="n">
         <v>2</v>
       </c>
       <c r="J256" t="n">
-        <v>2.08</v>
+        <v>1.35</v>
       </c>
       <c r="K256" t="inlineStr">
         <is>
-          <t>03/10/2023 00:13</t>
+          <t>01/10/2023 22:42</t>
         </is>
       </c>
       <c r="L256" t="n">
-        <v>1.95</v>
+        <v>1.44</v>
       </c>
       <c r="M256" t="inlineStr">
         <is>
-          <t>08/10/2023 20:59</t>
+          <t>08/10/2023 20:49</t>
         </is>
       </c>
       <c r="N256" t="n">
-        <v>3.21</v>
+        <v>5.12</v>
       </c>
       <c r="O256" t="inlineStr">
         <is>
-          <t>03/10/2023 00:13</t>
+          <t>01/10/2023 22:42</t>
         </is>
       </c>
       <c r="P256" t="n">
-        <v>3.52</v>
+        <v>4.48</v>
       </c>
       <c r="Q256" t="inlineStr">
         <is>
-          <t>08/10/2023 20:59</t>
+          <t>08/10/2023 20:58</t>
         </is>
       </c>
       <c r="R256" t="n">
-        <v>4.03</v>
+        <v>9.890000000000001</v>
       </c>
       <c r="S256" t="inlineStr">
         <is>
-          <t>03/10/2023 00:13</t>
+          <t>01/10/2023 22:42</t>
         </is>
       </c>
       <c r="T256" t="n">
-        <v>4.29</v>
+        <v>8.73</v>
       </c>
       <c r="U256" t="inlineStr">
         <is>
-          <t>08/10/2023 20:59</t>
+          <t>08/10/2023 20:58</t>
         </is>
       </c>
       <c r="V256" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/fluminense-botafogo-rj/A7RUUaFQ/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/palmeiras-santos/6wD0Pwwl/</t>
         </is>
       </c>
     </row>
@@ -24033,71 +24033,71 @@
       </c>
       <c r="F257" t="inlineStr">
         <is>
-          <t>Internacional</t>
+          <t>Fluminense</t>
         </is>
       </c>
       <c r="G257" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H257" t="inlineStr">
         <is>
-          <t>Gremio</t>
+          <t>Botafogo RJ</t>
         </is>
       </c>
       <c r="I257" t="n">
         <v>2</v>
       </c>
       <c r="J257" t="n">
-        <v>2.29</v>
+        <v>2.08</v>
       </c>
       <c r="K257" t="inlineStr">
         <is>
-          <t>01/10/2023 01:12</t>
+          <t>03/10/2023 00:13</t>
         </is>
       </c>
       <c r="L257" t="n">
-        <v>2.29</v>
+        <v>1.95</v>
       </c>
       <c r="M257" t="inlineStr">
         <is>
-          <t>08/10/2023 20:56</t>
+          <t>08/10/2023 20:59</t>
         </is>
       </c>
       <c r="N257" t="n">
-        <v>3.3</v>
+        <v>3.21</v>
       </c>
       <c r="O257" t="inlineStr">
         <is>
-          <t>01/10/2023 01:12</t>
+          <t>03/10/2023 00:13</t>
         </is>
       </c>
       <c r="P257" t="n">
-        <v>3.26</v>
+        <v>3.52</v>
       </c>
       <c r="Q257" t="inlineStr">
         <is>
-          <t>08/10/2023 20:51</t>
+          <t>08/10/2023 20:59</t>
         </is>
       </c>
       <c r="R257" t="n">
-        <v>3.43</v>
+        <v>4.03</v>
       </c>
       <c r="S257" t="inlineStr">
         <is>
-          <t>01/10/2023 01:12</t>
+          <t>03/10/2023 00:13</t>
         </is>
       </c>
       <c r="T257" t="n">
-        <v>3.53</v>
+        <v>4.29</v>
       </c>
       <c r="U257" t="inlineStr">
         <is>
-          <t>08/10/2023 20:56</t>
+          <t>08/10/2023 20:59</t>
         </is>
       </c>
       <c r="V257" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/internacional-gremio/829HLexD/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/fluminense-botafogo-rj/A7RUUaFQ/</t>
         </is>
       </c>
     </row>
@@ -26425,22 +26425,22 @@
       </c>
       <c r="F283" t="inlineStr">
         <is>
-          <t>Athletico-PR</t>
+          <t>Fluminense</t>
         </is>
       </c>
       <c r="G283" t="n">
+        <v>5</v>
+      </c>
+      <c r="H283" t="inlineStr">
+        <is>
+          <t>Goias</t>
+        </is>
+      </c>
+      <c r="I283" t="n">
         <v>3</v>
       </c>
-      <c r="H283" t="inlineStr">
-        <is>
-          <t>America MG</t>
-        </is>
-      </c>
-      <c r="I283" t="n">
-        <v>2</v>
-      </c>
       <c r="J283" t="n">
-        <v>1.58</v>
+        <v>1.53</v>
       </c>
       <c r="K283" t="inlineStr">
         <is>
@@ -26448,15 +26448,15 @@
         </is>
       </c>
       <c r="L283" t="n">
-        <v>1.58</v>
+        <v>1.61</v>
       </c>
       <c r="M283" t="inlineStr">
         <is>
-          <t>25/10/2023 23:27</t>
+          <t>25/10/2023 23:34</t>
         </is>
       </c>
       <c r="N283" t="n">
-        <v>4.26</v>
+        <v>4.28</v>
       </c>
       <c r="O283" t="inlineStr">
         <is>
@@ -26464,15 +26464,15 @@
         </is>
       </c>
       <c r="P283" t="n">
-        <v>4.31</v>
+        <v>4.15</v>
       </c>
       <c r="Q283" t="inlineStr">
         <is>
-          <t>25/10/2023 23:33</t>
+          <t>25/10/2023 23:34</t>
         </is>
       </c>
       <c r="R283" t="n">
-        <v>6.01</v>
+        <v>6.81</v>
       </c>
       <c r="S283" t="inlineStr">
         <is>
@@ -26480,16 +26480,16 @@
         </is>
       </c>
       <c r="T283" t="n">
-        <v>6.03</v>
+        <v>5.9</v>
       </c>
       <c r="U283" t="inlineStr">
         <is>
-          <t>25/10/2023 23:30</t>
+          <t>25/10/2023 23:34</t>
         </is>
       </c>
       <c r="V283" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/athletico-pr-america-mg/AXnrQVpd/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/fluminense-goias/rHFjzG83/</t>
         </is>
       </c>
     </row>
@@ -26517,22 +26517,22 @@
       </c>
       <c r="F284" t="inlineStr">
         <is>
-          <t>Fluminense</t>
+          <t>Athletico-PR</t>
         </is>
       </c>
       <c r="G284" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H284" t="inlineStr">
         <is>
-          <t>Goias</t>
+          <t>America MG</t>
         </is>
       </c>
       <c r="I284" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J284" t="n">
-        <v>1.53</v>
+        <v>1.58</v>
       </c>
       <c r="K284" t="inlineStr">
         <is>
@@ -26540,15 +26540,15 @@
         </is>
       </c>
       <c r="L284" t="n">
-        <v>1.61</v>
+        <v>1.58</v>
       </c>
       <c r="M284" t="inlineStr">
         <is>
-          <t>25/10/2023 23:34</t>
+          <t>25/10/2023 23:27</t>
         </is>
       </c>
       <c r="N284" t="n">
-        <v>4.28</v>
+        <v>4.26</v>
       </c>
       <c r="O284" t="inlineStr">
         <is>
@@ -26556,15 +26556,15 @@
         </is>
       </c>
       <c r="P284" t="n">
-        <v>4.15</v>
+        <v>4.31</v>
       </c>
       <c r="Q284" t="inlineStr">
         <is>
-          <t>25/10/2023 23:34</t>
+          <t>25/10/2023 23:33</t>
         </is>
       </c>
       <c r="R284" t="n">
-        <v>6.81</v>
+        <v>6.01</v>
       </c>
       <c r="S284" t="inlineStr">
         <is>
@@ -26572,16 +26572,16 @@
         </is>
       </c>
       <c r="T284" t="n">
-        <v>5.9</v>
+        <v>6.03</v>
       </c>
       <c r="U284" t="inlineStr">
         <is>
-          <t>25/10/2023 23:34</t>
+          <t>25/10/2023 23:30</t>
         </is>
       </c>
       <c r="V284" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/fluminense-goias/rHFjzG83/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/athletico-pr-america-mg/AXnrQVpd/</t>
         </is>
       </c>
     </row>
@@ -26793,71 +26793,71 @@
       </c>
       <c r="F287" t="inlineStr">
         <is>
-          <t>Gremio</t>
+          <t>Cuiaba</t>
         </is>
       </c>
       <c r="G287" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H287" t="inlineStr">
         <is>
-          <t>Flamengo RJ</t>
+          <t>Corinthians</t>
         </is>
       </c>
       <c r="I287" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J287" t="n">
-        <v>2.54</v>
+        <v>2.03</v>
       </c>
       <c r="K287" t="inlineStr">
         <is>
-          <t>22/10/2023 20:12</t>
+          <t>22/10/2023 22:42</t>
         </is>
       </c>
       <c r="L287" t="n">
-        <v>4.14</v>
+        <v>2.23</v>
       </c>
       <c r="M287" t="inlineStr">
         <is>
+          <t>26/10/2023 02:29</t>
+        </is>
+      </c>
+      <c r="N287" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="O287" t="inlineStr">
+        <is>
+          <t>22/10/2023 22:42</t>
+        </is>
+      </c>
+      <c r="P287" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Q287" t="inlineStr">
+        <is>
           <t>26/10/2023 02:27</t>
         </is>
       </c>
-      <c r="N287" t="n">
-        <v>3.37</v>
-      </c>
-      <c r="O287" t="inlineStr">
-        <is>
-          <t>22/10/2023 20:12</t>
-        </is>
-      </c>
-      <c r="P287" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Q287" t="inlineStr">
-        <is>
-          <t>26/10/2023 02:22</t>
-        </is>
-      </c>
       <c r="R287" t="n">
-        <v>2.93</v>
+        <v>4.27</v>
       </c>
       <c r="S287" t="inlineStr">
         <is>
-          <t>22/10/2023 20:12</t>
+          <t>22/10/2023 22:42</t>
         </is>
       </c>
       <c r="T287" t="n">
-        <v>2.03</v>
+        <v>3.88</v>
       </c>
       <c r="U287" t="inlineStr">
         <is>
-          <t>26/10/2023 02:27</t>
+          <t>26/10/2023 02:29</t>
         </is>
       </c>
       <c r="V287" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/gremio-flamengo-rj/WtlvRBVk/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/cuiaba-corinthians/MLgTmZx3/</t>
         </is>
       </c>
     </row>
@@ -26885,71 +26885,71 @@
       </c>
       <c r="F288" t="inlineStr">
         <is>
-          <t>Cuiaba</t>
+          <t>Gremio</t>
         </is>
       </c>
       <c r="G288" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H288" t="inlineStr">
         <is>
-          <t>Corinthians</t>
+          <t>Flamengo RJ</t>
         </is>
       </c>
       <c r="I288" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J288" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>22/10/2023 20:12</t>
+        </is>
+      </c>
+      <c r="L288" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="M288" t="inlineStr">
+        <is>
+          <t>26/10/2023 02:27</t>
+        </is>
+      </c>
+      <c r="N288" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="O288" t="inlineStr">
+        <is>
+          <t>22/10/2023 20:12</t>
+        </is>
+      </c>
+      <c r="P288" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q288" t="inlineStr">
+        <is>
+          <t>26/10/2023 02:22</t>
+        </is>
+      </c>
+      <c r="R288" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="S288" t="inlineStr">
+        <is>
+          <t>22/10/2023 20:12</t>
+        </is>
+      </c>
+      <c r="T288" t="n">
         <v>2.03</v>
       </c>
-      <c r="K288" t="inlineStr">
-        <is>
-          <t>22/10/2023 22:42</t>
-        </is>
-      </c>
-      <c r="L288" t="n">
-        <v>2.23</v>
-      </c>
-      <c r="M288" t="inlineStr">
-        <is>
-          <t>26/10/2023 02:29</t>
-        </is>
-      </c>
-      <c r="N288" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="O288" t="inlineStr">
-        <is>
-          <t>22/10/2023 22:42</t>
-        </is>
-      </c>
-      <c r="P288" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="Q288" t="inlineStr">
+      <c r="U288" t="inlineStr">
         <is>
           <t>26/10/2023 02:27</t>
         </is>
       </c>
-      <c r="R288" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="S288" t="inlineStr">
-        <is>
-          <t>22/10/2023 22:42</t>
-        </is>
-      </c>
-      <c r="T288" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="U288" t="inlineStr">
-        <is>
-          <t>26/10/2023 02:29</t>
-        </is>
-      </c>
       <c r="V288" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/cuiaba-corinthians/MLgTmZx3/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/gremio-flamengo-rj/WtlvRBVk/</t>
         </is>
       </c>
     </row>
@@ -27621,22 +27621,22 @@
       </c>
       <c r="F296" t="inlineStr">
         <is>
-          <t>Internacional</t>
+          <t>Corinthians</t>
         </is>
       </c>
       <c r="G296" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H296" t="inlineStr">
         <is>
-          <t>Coritiba</t>
+          <t>Santos</t>
         </is>
       </c>
       <c r="I296" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J296" t="n">
-        <v>1.32</v>
+        <v>1.81</v>
       </c>
       <c r="K296" t="inlineStr">
         <is>
@@ -27644,15 +27644,15 @@
         </is>
       </c>
       <c r="L296" t="n">
-        <v>1.41</v>
+        <v>2.18</v>
       </c>
       <c r="M296" t="inlineStr">
         <is>
-          <t>29/10/2023 22:17</t>
+          <t>29/10/2023 22:29</t>
         </is>
       </c>
       <c r="N296" t="n">
-        <v>5.24</v>
+        <v>3.71</v>
       </c>
       <c r="O296" t="inlineStr">
         <is>
@@ -27660,32 +27660,32 @@
         </is>
       </c>
       <c r="P296" t="n">
-        <v>4.85</v>
+        <v>3.25</v>
       </c>
       <c r="Q296" t="inlineStr">
         <is>
+          <t>29/10/2023 22:20</t>
+        </is>
+      </c>
+      <c r="R296" t="n">
+        <v>4.59</v>
+      </c>
+      <c r="S296" t="inlineStr">
+        <is>
+          <t>27/10/2023 02:42</t>
+        </is>
+      </c>
+      <c r="T296" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="U296" t="inlineStr">
+        <is>
           <t>29/10/2023 22:29</t>
         </is>
       </c>
-      <c r="R296" t="n">
-        <v>10.2</v>
-      </c>
-      <c r="S296" t="inlineStr">
-        <is>
-          <t>27/10/2023 02:42</t>
-        </is>
-      </c>
-      <c r="T296" t="n">
-        <v>8.619999999999999</v>
-      </c>
-      <c r="U296" t="inlineStr">
-        <is>
-          <t>29/10/2023 22:29</t>
-        </is>
-      </c>
       <c r="V296" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/internacional-coritiba/48RKwkFe/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/corinthians-santos/j1oppixS/</t>
         </is>
       </c>
     </row>
@@ -27713,22 +27713,22 @@
       </c>
       <c r="F297" t="inlineStr">
         <is>
-          <t>Corinthians</t>
+          <t>Internacional</t>
         </is>
       </c>
       <c r="G297" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H297" t="inlineStr">
         <is>
-          <t>Santos</t>
+          <t>Coritiba</t>
         </is>
       </c>
       <c r="I297" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J297" t="n">
-        <v>1.81</v>
+        <v>1.32</v>
       </c>
       <c r="K297" t="inlineStr">
         <is>
@@ -27736,39 +27736,39 @@
         </is>
       </c>
       <c r="L297" t="n">
-        <v>2.18</v>
+        <v>1.41</v>
       </c>
       <c r="M297" t="inlineStr">
         <is>
+          <t>29/10/2023 22:17</t>
+        </is>
+      </c>
+      <c r="N297" t="n">
+        <v>5.24</v>
+      </c>
+      <c r="O297" t="inlineStr">
+        <is>
+          <t>27/10/2023 02:42</t>
+        </is>
+      </c>
+      <c r="P297" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="Q297" t="inlineStr">
+        <is>
           <t>29/10/2023 22:29</t>
         </is>
       </c>
-      <c r="N297" t="n">
-        <v>3.71</v>
-      </c>
-      <c r="O297" t="inlineStr">
+      <c r="R297" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="S297" t="inlineStr">
         <is>
           <t>27/10/2023 02:42</t>
         </is>
       </c>
-      <c r="P297" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Q297" t="inlineStr">
-        <is>
-          <t>29/10/2023 22:20</t>
-        </is>
-      </c>
-      <c r="R297" t="n">
-        <v>4.59</v>
-      </c>
-      <c r="S297" t="inlineStr">
-        <is>
-          <t>27/10/2023 02:42</t>
-        </is>
-      </c>
       <c r="T297" t="n">
-        <v>3.83</v>
+        <v>8.619999999999999</v>
       </c>
       <c r="U297" t="inlineStr">
         <is>
@@ -27777,7 +27777,7 @@
       </c>
       <c r="V297" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/corinthians-santos/j1oppixS/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/internacional-coritiba/48RKwkFe/</t>
         </is>
       </c>
     </row>
@@ -29066,6 +29066,282 @@
       <c r="V311" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/brazil/serie-a/palmeiras-athletico-pr/dMANg15g/</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" s="1" t="n">
+        <v>311</v>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>brazil</t>
+        </is>
+      </c>
+      <c r="C312" t="inlineStr">
+        <is>
+          <t>serie-a</t>
+        </is>
+      </c>
+      <c r="D312" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E312" s="2" t="n">
+        <v>45235.83333333334</v>
+      </c>
+      <c r="F312" t="inlineStr">
+        <is>
+          <t>Cruzeiro</t>
+        </is>
+      </c>
+      <c r="G312" t="n">
+        <v>1</v>
+      </c>
+      <c r="H312" t="inlineStr">
+        <is>
+          <t>Internacional</t>
+        </is>
+      </c>
+      <c r="I312" t="n">
+        <v>2</v>
+      </c>
+      <c r="J312" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>03/11/2023 00:12</t>
+        </is>
+      </c>
+      <c r="L312" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="M312" t="inlineStr">
+        <is>
+          <t>05/11/2023 19:57</t>
+        </is>
+      </c>
+      <c r="N312" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="O312" t="inlineStr">
+        <is>
+          <t>03/11/2023 00:12</t>
+        </is>
+      </c>
+      <c r="P312" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="Q312" t="inlineStr">
+        <is>
+          <t>05/11/2023 19:59</t>
+        </is>
+      </c>
+      <c r="R312" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="S312" t="inlineStr">
+        <is>
+          <t>03/11/2023 00:12</t>
+        </is>
+      </c>
+      <c r="T312" t="n">
+        <v>4.02</v>
+      </c>
+      <c r="U312" t="inlineStr">
+        <is>
+          <t>05/11/2023 19:57</t>
+        </is>
+      </c>
+      <c r="V312" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/cruzeiro-internacional/Wv3ziakC/</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" s="1" t="n">
+        <v>312</v>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>brazil</t>
+        </is>
+      </c>
+      <c r="C313" t="inlineStr">
+        <is>
+          <t>serie-a</t>
+        </is>
+      </c>
+      <c r="D313" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E313" s="2" t="n">
+        <v>45235.83333333334</v>
+      </c>
+      <c r="F313" t="inlineStr">
+        <is>
+          <t>Bragantino</t>
+        </is>
+      </c>
+      <c r="G313" t="n">
+        <v>1</v>
+      </c>
+      <c r="H313" t="inlineStr">
+        <is>
+          <t>Corinthians</t>
+        </is>
+      </c>
+      <c r="I313" t="n">
+        <v>0</v>
+      </c>
+      <c r="J313" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>02/11/2023 22:12</t>
+        </is>
+      </c>
+      <c r="L313" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="M313" t="inlineStr">
+        <is>
+          <t>05/11/2023 19:53</t>
+        </is>
+      </c>
+      <c r="N313" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="O313" t="inlineStr">
+        <is>
+          <t>02/11/2023 22:12</t>
+        </is>
+      </c>
+      <c r="P313" t="n">
+        <v>4.22</v>
+      </c>
+      <c r="Q313" t="inlineStr">
+        <is>
+          <t>05/11/2023 19:58</t>
+        </is>
+      </c>
+      <c r="R313" t="n">
+        <v>6.35</v>
+      </c>
+      <c r="S313" t="inlineStr">
+        <is>
+          <t>02/11/2023 22:12</t>
+        </is>
+      </c>
+      <c r="T313" t="n">
+        <v>5.87</v>
+      </c>
+      <c r="U313" t="inlineStr">
+        <is>
+          <t>05/11/2023 19:57</t>
+        </is>
+      </c>
+      <c r="V313" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/bragantino-corinthians/hl4Wiuz6/</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" s="1" t="n">
+        <v>313</v>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>brazil</t>
+        </is>
+      </c>
+      <c r="C314" t="inlineStr">
+        <is>
+          <t>serie-a</t>
+        </is>
+      </c>
+      <c r="D314" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E314" s="2" t="n">
+        <v>45235.83333333334</v>
+      </c>
+      <c r="F314" t="inlineStr">
+        <is>
+          <t>Fortaleza</t>
+        </is>
+      </c>
+      <c r="G314" t="n">
+        <v>0</v>
+      </c>
+      <c r="H314" t="inlineStr">
+        <is>
+          <t>Flamengo RJ</t>
+        </is>
+      </c>
+      <c r="I314" t="n">
+        <v>2</v>
+      </c>
+      <c r="J314" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>02/11/2023 01:42</t>
+        </is>
+      </c>
+      <c r="L314" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="M314" t="inlineStr">
+        <is>
+          <t>05/11/2023 19:58</t>
+        </is>
+      </c>
+      <c r="N314" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="O314" t="inlineStr">
+        <is>
+          <t>02/11/2023 01:42</t>
+        </is>
+      </c>
+      <c r="P314" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="Q314" t="inlineStr">
+        <is>
+          <t>05/11/2023 19:52</t>
+        </is>
+      </c>
+      <c r="R314" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="S314" t="inlineStr">
+        <is>
+          <t>02/11/2023 01:42</t>
+        </is>
+      </c>
+      <c r="T314" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="U314" t="inlineStr">
+        <is>
+          <t>05/11/2023 19:58</t>
+        </is>
+      </c>
+      <c r="V314" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/fortaleza-flamengo-rj/6BfQDMdP/</t>
         </is>
       </c>
     </row>

--- a/2023/brazil_serie-a_2023.xlsx
+++ b/2023/brazil_serie-a_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V314"/>
+  <dimension ref="A1:V315"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26333,22 +26333,22 @@
       </c>
       <c r="F282" t="inlineStr">
         <is>
-          <t>Bragantino</t>
+          <t>Athletico-PR</t>
         </is>
       </c>
       <c r="G282" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H282" t="inlineStr">
         <is>
-          <t>Atletico-MG</t>
+          <t>America MG</t>
         </is>
       </c>
       <c r="I282" t="n">
         <v>2</v>
       </c>
       <c r="J282" t="n">
-        <v>1.96</v>
+        <v>1.58</v>
       </c>
       <c r="K282" t="inlineStr">
         <is>
@@ -26356,15 +26356,15 @@
         </is>
       </c>
       <c r="L282" t="n">
-        <v>1.88</v>
+        <v>1.58</v>
       </c>
       <c r="M282" t="inlineStr">
         <is>
-          <t>25/10/2023 23:59</t>
+          <t>25/10/2023 23:27</t>
         </is>
       </c>
       <c r="N282" t="n">
-        <v>3.5</v>
+        <v>4.26</v>
       </c>
       <c r="O282" t="inlineStr">
         <is>
@@ -26372,15 +26372,15 @@
         </is>
       </c>
       <c r="P282" t="n">
-        <v>3.47</v>
+        <v>4.31</v>
       </c>
       <c r="Q282" t="inlineStr">
         <is>
-          <t>25/10/2023 23:59</t>
+          <t>25/10/2023 23:33</t>
         </is>
       </c>
       <c r="R282" t="n">
-        <v>4.2</v>
+        <v>6.01</v>
       </c>
       <c r="S282" t="inlineStr">
         <is>
@@ -26388,16 +26388,16 @@
         </is>
       </c>
       <c r="T282" t="n">
-        <v>4.8</v>
+        <v>6.03</v>
       </c>
       <c r="U282" t="inlineStr">
         <is>
-          <t>25/10/2023 23:59</t>
+          <t>25/10/2023 23:30</t>
         </is>
       </c>
       <c r="V282" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/bragantino-atletico-mg/Cd77WX7S/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/athletico-pr-america-mg/AXnrQVpd/</t>
         </is>
       </c>
     </row>
@@ -26425,22 +26425,22 @@
       </c>
       <c r="F283" t="inlineStr">
         <is>
-          <t>Fluminense</t>
+          <t>Bragantino</t>
         </is>
       </c>
       <c r="G283" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H283" t="inlineStr">
         <is>
-          <t>Goias</t>
+          <t>Atletico-MG</t>
         </is>
       </c>
       <c r="I283" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J283" t="n">
-        <v>1.53</v>
+        <v>1.96</v>
       </c>
       <c r="K283" t="inlineStr">
         <is>
@@ -26448,15 +26448,15 @@
         </is>
       </c>
       <c r="L283" t="n">
-        <v>1.61</v>
+        <v>1.88</v>
       </c>
       <c r="M283" t="inlineStr">
         <is>
-          <t>25/10/2023 23:34</t>
+          <t>25/10/2023 23:59</t>
         </is>
       </c>
       <c r="N283" t="n">
-        <v>4.28</v>
+        <v>3.5</v>
       </c>
       <c r="O283" t="inlineStr">
         <is>
@@ -26464,15 +26464,15 @@
         </is>
       </c>
       <c r="P283" t="n">
-        <v>4.15</v>
+        <v>3.47</v>
       </c>
       <c r="Q283" t="inlineStr">
         <is>
-          <t>25/10/2023 23:34</t>
+          <t>25/10/2023 23:59</t>
         </is>
       </c>
       <c r="R283" t="n">
-        <v>6.81</v>
+        <v>4.2</v>
       </c>
       <c r="S283" t="inlineStr">
         <is>
@@ -26480,16 +26480,16 @@
         </is>
       </c>
       <c r="T283" t="n">
-        <v>5.9</v>
+        <v>4.8</v>
       </c>
       <c r="U283" t="inlineStr">
         <is>
-          <t>25/10/2023 23:34</t>
+          <t>25/10/2023 23:59</t>
         </is>
       </c>
       <c r="V283" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/fluminense-goias/rHFjzG83/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/bragantino-atletico-mg/Cd77WX7S/</t>
         </is>
       </c>
     </row>
@@ -26517,22 +26517,22 @@
       </c>
       <c r="F284" t="inlineStr">
         <is>
-          <t>Athletico-PR</t>
+          <t>Fluminense</t>
         </is>
       </c>
       <c r="G284" t="n">
+        <v>5</v>
+      </c>
+      <c r="H284" t="inlineStr">
+        <is>
+          <t>Goias</t>
+        </is>
+      </c>
+      <c r="I284" t="n">
         <v>3</v>
       </c>
-      <c r="H284" t="inlineStr">
-        <is>
-          <t>America MG</t>
-        </is>
-      </c>
-      <c r="I284" t="n">
-        <v>2</v>
-      </c>
       <c r="J284" t="n">
-        <v>1.58</v>
+        <v>1.53</v>
       </c>
       <c r="K284" t="inlineStr">
         <is>
@@ -26540,15 +26540,15 @@
         </is>
       </c>
       <c r="L284" t="n">
-        <v>1.58</v>
+        <v>1.61</v>
       </c>
       <c r="M284" t="inlineStr">
         <is>
-          <t>25/10/2023 23:27</t>
+          <t>25/10/2023 23:34</t>
         </is>
       </c>
       <c r="N284" t="n">
-        <v>4.26</v>
+        <v>4.28</v>
       </c>
       <c r="O284" t="inlineStr">
         <is>
@@ -26556,15 +26556,15 @@
         </is>
       </c>
       <c r="P284" t="n">
-        <v>4.31</v>
+        <v>4.15</v>
       </c>
       <c r="Q284" t="inlineStr">
         <is>
-          <t>25/10/2023 23:33</t>
+          <t>25/10/2023 23:34</t>
         </is>
       </c>
       <c r="R284" t="n">
-        <v>6.01</v>
+        <v>6.81</v>
       </c>
       <c r="S284" t="inlineStr">
         <is>
@@ -26572,16 +26572,16 @@
         </is>
       </c>
       <c r="T284" t="n">
-        <v>6.03</v>
+        <v>5.9</v>
       </c>
       <c r="U284" t="inlineStr">
         <is>
-          <t>25/10/2023 23:30</t>
+          <t>25/10/2023 23:34</t>
         </is>
       </c>
       <c r="V284" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/athletico-pr-america-mg/AXnrQVpd/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/fluminense-goias/rHFjzG83/</t>
         </is>
       </c>
     </row>
@@ -26793,71 +26793,71 @@
       </c>
       <c r="F287" t="inlineStr">
         <is>
-          <t>Cuiaba</t>
+          <t>Gremio</t>
         </is>
       </c>
       <c r="G287" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H287" t="inlineStr">
         <is>
-          <t>Corinthians</t>
+          <t>Flamengo RJ</t>
         </is>
       </c>
       <c r="I287" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J287" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>22/10/2023 20:12</t>
+        </is>
+      </c>
+      <c r="L287" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="M287" t="inlineStr">
+        <is>
+          <t>26/10/2023 02:27</t>
+        </is>
+      </c>
+      <c r="N287" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="O287" t="inlineStr">
+        <is>
+          <t>22/10/2023 20:12</t>
+        </is>
+      </c>
+      <c r="P287" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q287" t="inlineStr">
+        <is>
+          <t>26/10/2023 02:22</t>
+        </is>
+      </c>
+      <c r="R287" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="S287" t="inlineStr">
+        <is>
+          <t>22/10/2023 20:12</t>
+        </is>
+      </c>
+      <c r="T287" t="n">
         <v>2.03</v>
       </c>
-      <c r="K287" t="inlineStr">
-        <is>
-          <t>22/10/2023 22:42</t>
-        </is>
-      </c>
-      <c r="L287" t="n">
-        <v>2.23</v>
-      </c>
-      <c r="M287" t="inlineStr">
-        <is>
-          <t>26/10/2023 02:29</t>
-        </is>
-      </c>
-      <c r="N287" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="O287" t="inlineStr">
-        <is>
-          <t>22/10/2023 22:42</t>
-        </is>
-      </c>
-      <c r="P287" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="Q287" t="inlineStr">
+      <c r="U287" t="inlineStr">
         <is>
           <t>26/10/2023 02:27</t>
         </is>
       </c>
-      <c r="R287" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="S287" t="inlineStr">
-        <is>
-          <t>22/10/2023 22:42</t>
-        </is>
-      </c>
-      <c r="T287" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="U287" t="inlineStr">
-        <is>
-          <t>26/10/2023 02:29</t>
-        </is>
-      </c>
       <c r="V287" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/cuiaba-corinthians/MLgTmZx3/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/gremio-flamengo-rj/WtlvRBVk/</t>
         </is>
       </c>
     </row>
@@ -26885,71 +26885,71 @@
       </c>
       <c r="F288" t="inlineStr">
         <is>
-          <t>Gremio</t>
+          <t>Cuiaba</t>
         </is>
       </c>
       <c r="G288" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H288" t="inlineStr">
         <is>
-          <t>Flamengo RJ</t>
+          <t>Corinthians</t>
         </is>
       </c>
       <c r="I288" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J288" t="n">
-        <v>2.54</v>
+        <v>2.03</v>
       </c>
       <c r="K288" t="inlineStr">
         <is>
-          <t>22/10/2023 20:12</t>
+          <t>22/10/2023 22:42</t>
         </is>
       </c>
       <c r="L288" t="n">
-        <v>4.14</v>
+        <v>2.23</v>
       </c>
       <c r="M288" t="inlineStr">
         <is>
+          <t>26/10/2023 02:29</t>
+        </is>
+      </c>
+      <c r="N288" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="O288" t="inlineStr">
+        <is>
+          <t>22/10/2023 22:42</t>
+        </is>
+      </c>
+      <c r="P288" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Q288" t="inlineStr">
+        <is>
           <t>26/10/2023 02:27</t>
         </is>
       </c>
-      <c r="N288" t="n">
-        <v>3.37</v>
-      </c>
-      <c r="O288" t="inlineStr">
-        <is>
-          <t>22/10/2023 20:12</t>
-        </is>
-      </c>
-      <c r="P288" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Q288" t="inlineStr">
-        <is>
-          <t>26/10/2023 02:22</t>
-        </is>
-      </c>
       <c r="R288" t="n">
-        <v>2.93</v>
+        <v>4.27</v>
       </c>
       <c r="S288" t="inlineStr">
         <is>
-          <t>22/10/2023 20:12</t>
+          <t>22/10/2023 22:42</t>
         </is>
       </c>
       <c r="T288" t="n">
-        <v>2.03</v>
+        <v>3.88</v>
       </c>
       <c r="U288" t="inlineStr">
         <is>
-          <t>26/10/2023 02:27</t>
+          <t>26/10/2023 02:29</t>
         </is>
       </c>
       <c r="V288" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/gremio-flamengo-rj/WtlvRBVk/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/cuiaba-corinthians/MLgTmZx3/</t>
         </is>
       </c>
     </row>
@@ -27161,71 +27161,71 @@
       </c>
       <c r="F291" t="inlineStr">
         <is>
-          <t>Palmeiras</t>
+          <t>America MG</t>
         </is>
       </c>
       <c r="G291" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H291" t="inlineStr">
         <is>
-          <t>Bahia</t>
+          <t>Gremio</t>
         </is>
       </c>
       <c r="I291" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J291" t="n">
-        <v>1.51</v>
+        <v>2.54</v>
       </c>
       <c r="K291" t="inlineStr">
         <is>
-          <t>26/10/2023 01:12</t>
+          <t>26/10/2023 02:42</t>
         </is>
       </c>
       <c r="L291" t="n">
-        <v>1.34</v>
+        <v>2.32</v>
       </c>
       <c r="M291" t="inlineStr">
         <is>
-          <t>28/10/2023 23:52</t>
+          <t>28/10/2023 23:59</t>
         </is>
       </c>
       <c r="N291" t="n">
-        <v>4.44</v>
+        <v>3.43</v>
       </c>
       <c r="O291" t="inlineStr">
         <is>
-          <t>26/10/2023 01:12</t>
+          <t>26/10/2023 02:42</t>
         </is>
       </c>
       <c r="P291" t="n">
-        <v>5.16</v>
+        <v>3.56</v>
       </c>
       <c r="Q291" t="inlineStr">
         <is>
-          <t>28/10/2023 23:53</t>
+          <t>28/10/2023 23:59</t>
         </is>
       </c>
       <c r="R291" t="n">
-        <v>6.84</v>
+        <v>2.89</v>
       </c>
       <c r="S291" t="inlineStr">
         <is>
-          <t>26/10/2023 01:12</t>
+          <t>26/10/2023 02:42</t>
         </is>
       </c>
       <c r="T291" t="n">
-        <v>10.94</v>
+        <v>3.16</v>
       </c>
       <c r="U291" t="inlineStr">
         <is>
-          <t>28/10/2023 23:53</t>
+          <t>28/10/2023 23:59</t>
         </is>
       </c>
       <c r="V291" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/palmeiras-bahia/CAntoXML/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/america-mg-gremio/MsV30CM8/</t>
         </is>
       </c>
     </row>
@@ -27253,71 +27253,71 @@
       </c>
       <c r="F292" t="inlineStr">
         <is>
-          <t>America MG</t>
+          <t>Palmeiras</t>
         </is>
       </c>
       <c r="G292" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H292" t="inlineStr">
         <is>
-          <t>Gremio</t>
+          <t>Bahia</t>
         </is>
       </c>
       <c r="I292" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J292" t="n">
-        <v>2.54</v>
+        <v>1.51</v>
       </c>
       <c r="K292" t="inlineStr">
         <is>
-          <t>26/10/2023 02:42</t>
+          <t>26/10/2023 01:12</t>
         </is>
       </c>
       <c r="L292" t="n">
-        <v>2.32</v>
+        <v>1.34</v>
       </c>
       <c r="M292" t="inlineStr">
         <is>
-          <t>28/10/2023 23:59</t>
+          <t>28/10/2023 23:52</t>
         </is>
       </c>
       <c r="N292" t="n">
-        <v>3.43</v>
+        <v>4.44</v>
       </c>
       <c r="O292" t="inlineStr">
         <is>
-          <t>26/10/2023 02:42</t>
+          <t>26/10/2023 01:12</t>
         </is>
       </c>
       <c r="P292" t="n">
-        <v>3.56</v>
+        <v>5.16</v>
       </c>
       <c r="Q292" t="inlineStr">
         <is>
-          <t>28/10/2023 23:59</t>
+          <t>28/10/2023 23:53</t>
         </is>
       </c>
       <c r="R292" t="n">
-        <v>2.89</v>
+        <v>6.84</v>
       </c>
       <c r="S292" t="inlineStr">
         <is>
-          <t>26/10/2023 02:42</t>
+          <t>26/10/2023 01:12</t>
         </is>
       </c>
       <c r="T292" t="n">
-        <v>3.16</v>
+        <v>10.94</v>
       </c>
       <c r="U292" t="inlineStr">
         <is>
-          <t>28/10/2023 23:59</t>
+          <t>28/10/2023 23:53</t>
         </is>
       </c>
       <c r="V292" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/america-mg-gremio/MsV30CM8/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/palmeiras-bahia/CAntoXML/</t>
         </is>
       </c>
     </row>
@@ -29185,71 +29185,71 @@
       </c>
       <c r="F313" t="inlineStr">
         <is>
-          <t>Bragantino</t>
+          <t>Fortaleza</t>
         </is>
       </c>
       <c r="G313" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H313" t="inlineStr">
         <is>
-          <t>Corinthians</t>
+          <t>Flamengo RJ</t>
         </is>
       </c>
       <c r="I313" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J313" t="n">
-        <v>1.58</v>
+        <v>2.84</v>
       </c>
       <c r="K313" t="inlineStr">
         <is>
-          <t>02/11/2023 22:12</t>
+          <t>02/11/2023 01:42</t>
         </is>
       </c>
       <c r="L313" t="n">
-        <v>1.6</v>
+        <v>2.58</v>
       </c>
       <c r="M313" t="inlineStr">
         <is>
-          <t>05/11/2023 19:53</t>
+          <t>05/11/2023 19:58</t>
         </is>
       </c>
       <c r="N313" t="n">
-        <v>4.08</v>
+        <v>3.27</v>
       </c>
       <c r="O313" t="inlineStr">
         <is>
-          <t>02/11/2023 22:12</t>
+          <t>02/11/2023 01:42</t>
         </is>
       </c>
       <c r="P313" t="n">
-        <v>4.22</v>
+        <v>3.16</v>
       </c>
       <c r="Q313" t="inlineStr">
         <is>
+          <t>05/11/2023 19:52</t>
+        </is>
+      </c>
+      <c r="R313" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="S313" t="inlineStr">
+        <is>
+          <t>02/11/2023 01:42</t>
+        </is>
+      </c>
+      <c r="T313" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="U313" t="inlineStr">
+        <is>
           <t>05/11/2023 19:58</t>
         </is>
       </c>
-      <c r="R313" t="n">
-        <v>6.35</v>
-      </c>
-      <c r="S313" t="inlineStr">
-        <is>
-          <t>02/11/2023 22:12</t>
-        </is>
-      </c>
-      <c r="T313" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="U313" t="inlineStr">
-        <is>
-          <t>05/11/2023 19:57</t>
-        </is>
-      </c>
       <c r="V313" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/bragantino-corinthians/hl4Wiuz6/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/fortaleza-flamengo-rj/6BfQDMdP/</t>
         </is>
       </c>
     </row>
@@ -29277,71 +29277,163 @@
       </c>
       <c r="F314" t="inlineStr">
         <is>
-          <t>Fortaleza</t>
+          <t>Bragantino</t>
         </is>
       </c>
       <c r="G314" t="n">
+        <v>1</v>
+      </c>
+      <c r="H314" t="inlineStr">
+        <is>
+          <t>Corinthians</t>
+        </is>
+      </c>
+      <c r="I314" t="n">
         <v>0</v>
       </c>
-      <c r="H314" t="inlineStr">
-        <is>
-          <t>Flamengo RJ</t>
-        </is>
-      </c>
-      <c r="I314" t="n">
-        <v>2</v>
-      </c>
       <c r="J314" t="n">
-        <v>2.84</v>
+        <v>1.58</v>
       </c>
       <c r="K314" t="inlineStr">
         <is>
-          <t>02/11/2023 01:42</t>
+          <t>02/11/2023 22:12</t>
         </is>
       </c>
       <c r="L314" t="n">
-        <v>2.58</v>
+        <v>1.6</v>
       </c>
       <c r="M314" t="inlineStr">
         <is>
+          <t>05/11/2023 19:53</t>
+        </is>
+      </c>
+      <c r="N314" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="O314" t="inlineStr">
+        <is>
+          <t>02/11/2023 22:12</t>
+        </is>
+      </c>
+      <c r="P314" t="n">
+        <v>4.22</v>
+      </c>
+      <c r="Q314" t="inlineStr">
+        <is>
           <t>05/11/2023 19:58</t>
         </is>
       </c>
-      <c r="N314" t="n">
-        <v>3.27</v>
-      </c>
-      <c r="O314" t="inlineStr">
-        <is>
-          <t>02/11/2023 01:42</t>
-        </is>
-      </c>
-      <c r="P314" t="n">
-        <v>3.16</v>
-      </c>
-      <c r="Q314" t="inlineStr">
-        <is>
-          <t>05/11/2023 19:52</t>
-        </is>
-      </c>
       <c r="R314" t="n">
-        <v>2.63</v>
+        <v>6.35</v>
       </c>
       <c r="S314" t="inlineStr">
         <is>
-          <t>02/11/2023 01:42</t>
+          <t>02/11/2023 22:12</t>
         </is>
       </c>
       <c r="T314" t="n">
-        <v>3.09</v>
+        <v>5.87</v>
       </c>
       <c r="U314" t="inlineStr">
         <is>
-          <t>05/11/2023 19:58</t>
+          <t>05/11/2023 19:57</t>
         </is>
       </c>
       <c r="V314" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/fortaleza-flamengo-rj/6BfQDMdP/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/bragantino-corinthians/hl4Wiuz6/</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" s="1" t="n">
+        <v>314</v>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>brazil</t>
+        </is>
+      </c>
+      <c r="C315" t="inlineStr">
+        <is>
+          <t>serie-a</t>
+        </is>
+      </c>
+      <c r="D315" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E315" s="2" t="n">
+        <v>45235.9375</v>
+      </c>
+      <c r="F315" t="inlineStr">
+        <is>
+          <t>Coritiba</t>
+        </is>
+      </c>
+      <c r="G315" t="n">
+        <v>0</v>
+      </c>
+      <c r="H315" t="inlineStr">
+        <is>
+          <t>Goias</t>
+        </is>
+      </c>
+      <c r="I315" t="n">
+        <v>1</v>
+      </c>
+      <c r="J315" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>02/11/2023 22:12</t>
+        </is>
+      </c>
+      <c r="L315" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="M315" t="inlineStr">
+        <is>
+          <t>05/11/2023 22:28</t>
+        </is>
+      </c>
+      <c r="N315" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="O315" t="inlineStr">
+        <is>
+          <t>02/11/2023 22:12</t>
+        </is>
+      </c>
+      <c r="P315" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="Q315" t="inlineStr">
+        <is>
+          <t>05/11/2023 22:28</t>
+        </is>
+      </c>
+      <c r="R315" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="S315" t="inlineStr">
+        <is>
+          <t>02/11/2023 22:12</t>
+        </is>
+      </c>
+      <c r="T315" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="U315" t="inlineStr">
+        <is>
+          <t>05/11/2023 22:28</t>
+        </is>
+      </c>
+      <c r="V315" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/coritiba-goias/46GskwKO/</t>
         </is>
       </c>
     </row>

--- a/2023/brazil_serie-a_2023.xlsx
+++ b/2023/brazil_serie-a_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V315"/>
+  <dimension ref="A1:V317"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -941,7 +941,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Athletico-PR</t>
+          <t>Botafogo RJ</t>
         </is>
       </c>
       <c r="G6" t="n">
@@ -949,63 +949,63 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Goias</t>
+          <t>Sao Paulo</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>1.64</v>
+        <v>2.69</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>09/04/2023 08:36</t>
+          <t>08/04/2023 23:42</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>1.64</v>
+        <v>2.46</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>15/04/2023 23:27</t>
+          <t>15/04/2023 23:22</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>4.15</v>
+        <v>3.05</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>09/04/2023 08:36</t>
+          <t>08/04/2023 23:42</t>
         </is>
       </c>
       <c r="P6" t="n">
-        <v>3.69</v>
+        <v>3.17</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>15/04/2023 23:27</t>
+          <t>15/04/2023 23:25</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>5.21</v>
+        <v>3</v>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>09/04/2023 08:36</t>
+          <t>08/04/2023 23:42</t>
         </is>
       </c>
       <c r="T6" t="n">
-        <v>6.64</v>
+        <v>3.26</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>15/04/2023 23:28</t>
+          <t>15/04/2023 23:25</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/athletico-pr-goias/Sv02EkgD/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/botafogo-rj-sao-paulo/vFRENgWQ/</t>
         </is>
       </c>
     </row>
@@ -1033,7 +1033,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Botafogo RJ</t>
+          <t>Athletico-PR</t>
         </is>
       </c>
       <c r="G7" t="n">
@@ -1041,63 +1041,63 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Sao Paulo</t>
+          <t>Goias</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>2.69</v>
+        <v>1.64</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>08/04/2023 23:42</t>
+          <t>09/04/2023 08:36</t>
         </is>
       </c>
       <c r="L7" t="n">
-        <v>2.46</v>
+        <v>1.64</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>15/04/2023 23:22</t>
+          <t>15/04/2023 23:27</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>3.05</v>
+        <v>4.15</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>08/04/2023 23:42</t>
+          <t>09/04/2023 08:36</t>
         </is>
       </c>
       <c r="P7" t="n">
-        <v>3.17</v>
+        <v>3.69</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>15/04/2023 23:25</t>
+          <t>15/04/2023 23:27</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>3</v>
+        <v>5.21</v>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>08/04/2023 23:42</t>
+          <t>09/04/2023 08:36</t>
         </is>
       </c>
       <c r="T7" t="n">
-        <v>3.26</v>
+        <v>6.64</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>15/04/2023 23:25</t>
+          <t>15/04/2023 23:28</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/botafogo-rj-sao-paulo/vFRENgWQ/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/athletico-pr-goias/Sv02EkgD/</t>
         </is>
       </c>
     </row>
@@ -2413,71 +2413,71 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Fortaleza</t>
+          <t>Coritiba</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Fluminense</t>
+          <t>Sao Paulo</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J22" t="n">
-        <v>2.69</v>
+        <v>3.08</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>24/04/2023 05:12</t>
+          <t>23/04/2023 23:42</t>
         </is>
       </c>
       <c r="L22" t="n">
-        <v>2.16</v>
+        <v>3.03</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>29/04/2023 21:29</t>
+          <t>29/04/2023 21:23</t>
         </is>
       </c>
       <c r="N22" t="n">
-        <v>3.27</v>
+        <v>3.36</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>24/04/2023 05:12</t>
+          <t>23/04/2023 23:42</t>
         </is>
       </c>
       <c r="P22" t="n">
-        <v>3.34</v>
+        <v>3.18</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>29/04/2023 21:29</t>
+          <t>29/04/2023 21:16</t>
         </is>
       </c>
       <c r="R22" t="n">
-        <v>2.77</v>
+        <v>2.4</v>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>24/04/2023 05:12</t>
+          <t>23/04/2023 23:42</t>
         </is>
       </c>
       <c r="T22" t="n">
-        <v>3.76</v>
+        <v>2.61</v>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>29/04/2023 21:29</t>
+          <t>29/04/2023 21:23</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/fortaleza-fluminense/Q7RQo3Eo/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/coritiba-sao-paulo/b1wqNJyo/</t>
         </is>
       </c>
     </row>
@@ -2505,71 +2505,71 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Coritiba</t>
+          <t>Fortaleza</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Sao Paulo</t>
+          <t>Fluminense</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J23" t="n">
-        <v>3.08</v>
+        <v>2.69</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>23/04/2023 23:42</t>
+          <t>24/04/2023 05:12</t>
         </is>
       </c>
       <c r="L23" t="n">
-        <v>3.03</v>
+        <v>2.16</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>29/04/2023 21:23</t>
+          <t>29/04/2023 21:29</t>
         </is>
       </c>
       <c r="N23" t="n">
-        <v>3.36</v>
+        <v>3.27</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>23/04/2023 23:42</t>
+          <t>24/04/2023 05:12</t>
         </is>
       </c>
       <c r="P23" t="n">
-        <v>3.18</v>
+        <v>3.34</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>29/04/2023 21:16</t>
+          <t>29/04/2023 21:29</t>
         </is>
       </c>
       <c r="R23" t="n">
-        <v>2.4</v>
+        <v>2.77</v>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>23/04/2023 23:42</t>
+          <t>24/04/2023 05:12</t>
         </is>
       </c>
       <c r="T23" t="n">
-        <v>2.61</v>
+        <v>3.76</v>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>29/04/2023 21:23</t>
+          <t>29/04/2023 21:29</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/coritiba-sao-paulo/b1wqNJyo/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/fortaleza-fluminense/Q7RQo3Eo/</t>
         </is>
       </c>
     </row>
@@ -2597,71 +2597,71 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Bragantino</t>
+          <t>Palmeiras</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Cruzeiro</t>
+          <t>Corinthians</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J24" t="n">
-        <v>1.75</v>
+        <v>1.68</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>23/04/2023 05:13</t>
+          <t>24/04/2023 00:12</t>
         </is>
       </c>
       <c r="L24" t="n">
-        <v>1.82</v>
+        <v>1.5</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>29/04/2023 23:29</t>
+          <t>29/04/2023 23:06</t>
         </is>
       </c>
       <c r="N24" t="n">
-        <v>3.77</v>
+        <v>3.88</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>23/04/2023 05:13</t>
+          <t>24/04/2023 00:12</t>
         </is>
       </c>
       <c r="P24" t="n">
-        <v>3.67</v>
+        <v>4.07</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>29/04/2023 23:29</t>
+          <t>29/04/2023 22:36</t>
         </is>
       </c>
       <c r="R24" t="n">
-        <v>5.06</v>
+        <v>5.49</v>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>23/04/2023 05:13</t>
+          <t>24/04/2023 00:12</t>
         </is>
       </c>
       <c r="T24" t="n">
-        <v>4.81</v>
+        <v>8.26</v>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>29/04/2023 23:29</t>
+          <t>29/04/2023 23:06</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/bragantino-cruzeiro/0Qc8TLbH/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/palmeiras-corinthians/SCa0VsU4/</t>
         </is>
       </c>
     </row>
@@ -2689,71 +2689,71 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Palmeiras</t>
+          <t>Santos</t>
         </is>
       </c>
       <c r="G25" t="n">
+        <v>3</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>America MG</t>
+        </is>
+      </c>
+      <c r="I25" t="n">
         <v>2</v>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>Corinthians</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
-        <v>1</v>
-      </c>
       <c r="J25" t="n">
-        <v>1.68</v>
+        <v>2.04</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>24/04/2023 00:12</t>
+          <t>24/04/2023 05:42</t>
         </is>
       </c>
       <c r="L25" t="n">
-        <v>1.5</v>
+        <v>2.41</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>29/04/2023 23:06</t>
+          <t>29/04/2023 23:26</t>
         </is>
       </c>
       <c r="N25" t="n">
-        <v>3.88</v>
+        <v>3.54</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>24/04/2023 00:12</t>
+          <t>24/04/2023 05:42</t>
         </is>
       </c>
       <c r="P25" t="n">
-        <v>4.07</v>
+        <v>3.22</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>29/04/2023 22:36</t>
+          <t>29/04/2023 23:26</t>
         </is>
       </c>
       <c r="R25" t="n">
-        <v>5.49</v>
+        <v>3.73</v>
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>24/04/2023 00:12</t>
+          <t>24/04/2023 05:42</t>
         </is>
       </c>
       <c r="T25" t="n">
-        <v>8.26</v>
+        <v>3.31</v>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>29/04/2023 23:06</t>
+          <t>29/04/2023 23:26</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/palmeiras-corinthians/SCa0VsU4/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/santos-america-mg/63b4U1qB/</t>
         </is>
       </c>
     </row>
@@ -2781,71 +2781,71 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Santos</t>
+          <t>Bragantino</t>
         </is>
       </c>
       <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Cruzeiro</t>
+        </is>
+      </c>
+      <c r="I26" t="n">
         <v>3</v>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>America MG</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
-        <v>2</v>
-      </c>
       <c r="J26" t="n">
-        <v>2.04</v>
+        <v>1.75</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>24/04/2023 05:42</t>
+          <t>23/04/2023 05:13</t>
         </is>
       </c>
       <c r="L26" t="n">
-        <v>2.41</v>
+        <v>1.82</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>29/04/2023 23:26</t>
+          <t>29/04/2023 23:29</t>
         </is>
       </c>
       <c r="N26" t="n">
-        <v>3.54</v>
+        <v>3.77</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>24/04/2023 05:42</t>
+          <t>23/04/2023 05:13</t>
         </is>
       </c>
       <c r="P26" t="n">
-        <v>3.22</v>
+        <v>3.67</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>29/04/2023 23:26</t>
+          <t>29/04/2023 23:29</t>
         </is>
       </c>
       <c r="R26" t="n">
-        <v>3.73</v>
+        <v>5.06</v>
       </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t>24/04/2023 05:42</t>
+          <t>23/04/2023 05:13</t>
         </is>
       </c>
       <c r="T26" t="n">
-        <v>3.31</v>
+        <v>4.81</v>
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>29/04/2023 23:26</t>
+          <t>29/04/2023 23:29</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/santos-america-mg/63b4U1qB/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/bragantino-cruzeiro/0Qc8TLbH/</t>
         </is>
       </c>
     </row>
@@ -3057,7 +3057,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Internacional</t>
+          <t>Cuiaba</t>
         </is>
       </c>
       <c r="G29" t="n">
@@ -3065,63 +3065,63 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Goias</t>
+          <t>Gremio</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J29" t="n">
-        <v>1.48</v>
+        <v>2.66</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>24/04/2023 00:12</t>
+          <t>23/04/2023 05:13</t>
         </is>
       </c>
       <c r="L29" t="n">
-        <v>1.64</v>
+        <v>2.79</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>30/04/2023 23:25</t>
+          <t>30/04/2023 23:26</t>
         </is>
       </c>
       <c r="N29" t="n">
-        <v>4.48</v>
+        <v>3.21</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>24/04/2023 00:12</t>
+          <t>23/04/2023 05:13</t>
         </is>
       </c>
       <c r="P29" t="n">
-        <v>3.98</v>
+        <v>3.12</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>30/04/2023 23:25</t>
+          <t>30/04/2023 23:20</t>
         </is>
       </c>
       <c r="R29" t="n">
-        <v>7.36</v>
+        <v>2.9</v>
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>24/04/2023 00:12</t>
+          <t>23/04/2023 05:13</t>
         </is>
       </c>
       <c r="T29" t="n">
-        <v>5.91</v>
+        <v>2.87</v>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>30/04/2023 23:25</t>
+          <t>30/04/2023 23:26</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/internacional-goias/dhiHRaTT/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/cuiaba-gremio/4bQUpNTi/</t>
         </is>
       </c>
     </row>
@@ -3149,7 +3149,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Cuiaba</t>
+          <t>Internacional</t>
         </is>
       </c>
       <c r="G30" t="n">
@@ -3157,63 +3157,63 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Gremio</t>
+          <t>Goias</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>2.66</v>
+        <v>1.48</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>23/04/2023 05:13</t>
+          <t>24/04/2023 00:12</t>
         </is>
       </c>
       <c r="L30" t="n">
-        <v>2.79</v>
+        <v>1.64</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>30/04/2023 23:26</t>
+          <t>30/04/2023 23:25</t>
         </is>
       </c>
       <c r="N30" t="n">
-        <v>3.21</v>
+        <v>4.48</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>23/04/2023 05:13</t>
+          <t>24/04/2023 00:12</t>
         </is>
       </c>
       <c r="P30" t="n">
-        <v>3.12</v>
+        <v>3.98</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>30/04/2023 23:20</t>
+          <t>30/04/2023 23:25</t>
         </is>
       </c>
       <c r="R30" t="n">
-        <v>2.9</v>
+        <v>7.36</v>
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>23/04/2023 05:13</t>
+          <t>24/04/2023 00:12</t>
         </is>
       </c>
       <c r="T30" t="n">
-        <v>2.87</v>
+        <v>5.91</v>
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>30/04/2023 23:26</t>
+          <t>30/04/2023 23:25</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/cuiaba-gremio/4bQUpNTi/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/internacional-goias/dhiHRaTT/</t>
         </is>
       </c>
     </row>
@@ -3609,7 +3609,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Athletico-PR</t>
+          <t>Sao Paulo</t>
         </is>
       </c>
       <c r="G35" t="n">
@@ -3617,63 +3617,63 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Flamengo RJ</t>
+          <t>Internacional</t>
         </is>
       </c>
       <c r="I35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>3.45</v>
+        <v>1.87</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>01/05/2023 02:12</t>
+          <t>01/05/2023 04:41</t>
         </is>
       </c>
       <c r="L35" t="n">
-        <v>3.01</v>
+        <v>2.05</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>07/05/2023 20:57</t>
+          <t>07/05/2023 20:59</t>
         </is>
       </c>
       <c r="N35" t="n">
-        <v>3.43</v>
+        <v>3.79</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>01/05/2023 02:12</t>
+          <t>01/05/2023 04:41</t>
         </is>
       </c>
       <c r="P35" t="n">
-        <v>3.22</v>
+        <v>3.47</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>07/05/2023 20:56</t>
+          <t>07/05/2023 20:59</t>
         </is>
       </c>
       <c r="R35" t="n">
-        <v>2.22</v>
+        <v>4.1</v>
       </c>
       <c r="S35" t="inlineStr">
         <is>
-          <t>01/05/2023 02:12</t>
+          <t>01/05/2023 04:41</t>
         </is>
       </c>
       <c r="T35" t="n">
-        <v>2.61</v>
+        <v>3.95</v>
       </c>
       <c r="U35" t="inlineStr">
         <is>
-          <t>07/05/2023 20:57</t>
+          <t>07/05/2023 20:59</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/athletico-pr-flamengo-rj/bL1QZdLj/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/sao-paulo-internacional/fmJsrLDA/</t>
         </is>
       </c>
     </row>
@@ -3701,71 +3701,71 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Sao Paulo</t>
+          <t>Bahia</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Internacional</t>
+          <t>Coritiba</t>
         </is>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J36" t="n">
-        <v>1.87</v>
+        <v>1.77</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>01/05/2023 04:41</t>
+          <t>02/05/2023 01:11</t>
         </is>
       </c>
       <c r="L36" t="n">
-        <v>2.05</v>
+        <v>1.74</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
+          <t>07/05/2023 20:50</t>
+        </is>
+      </c>
+      <c r="N36" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>02/05/2023 01:11</t>
+        </is>
+      </c>
+      <c r="P36" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="Q36" t="inlineStr">
+        <is>
           <t>07/05/2023 20:59</t>
         </is>
       </c>
-      <c r="N36" t="n">
-        <v>3.79</v>
-      </c>
-      <c r="O36" t="inlineStr">
-        <is>
-          <t>01/05/2023 04:41</t>
-        </is>
-      </c>
-      <c r="P36" t="n">
-        <v>3.47</v>
-      </c>
-      <c r="Q36" t="inlineStr">
-        <is>
-          <t>07/05/2023 20:59</t>
-        </is>
-      </c>
       <c r="R36" t="n">
-        <v>4.1</v>
+        <v>4.97</v>
       </c>
       <c r="S36" t="inlineStr">
         <is>
-          <t>01/05/2023 04:41</t>
+          <t>02/05/2023 01:11</t>
         </is>
       </c>
       <c r="T36" t="n">
-        <v>3.95</v>
+        <v>5.35</v>
       </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>07/05/2023 20:59</t>
+          <t>07/05/2023 20:50</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/sao-paulo-internacional/fmJsrLDA/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/bahia-coritiba/0Qu9btbi/</t>
         </is>
       </c>
     </row>
@@ -3793,71 +3793,71 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Bahia</t>
+          <t>Athletico-PR</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Coritiba</t>
+          <t>Flamengo RJ</t>
         </is>
       </c>
       <c r="I37" t="n">
         <v>1</v>
       </c>
       <c r="J37" t="n">
-        <v>1.77</v>
+        <v>3.45</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>02/05/2023 01:11</t>
+          <t>01/05/2023 02:12</t>
         </is>
       </c>
       <c r="L37" t="n">
-        <v>1.74</v>
+        <v>3.01</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>07/05/2023 20:50</t>
+          <t>07/05/2023 20:57</t>
         </is>
       </c>
       <c r="N37" t="n">
-        <v>3.72</v>
+        <v>3.43</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>02/05/2023 01:11</t>
+          <t>01/05/2023 02:12</t>
         </is>
       </c>
       <c r="P37" t="n">
-        <v>3.76</v>
+        <v>3.22</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>07/05/2023 20:59</t>
+          <t>07/05/2023 20:56</t>
         </is>
       </c>
       <c r="R37" t="n">
-        <v>4.97</v>
+        <v>2.22</v>
       </c>
       <c r="S37" t="inlineStr">
         <is>
-          <t>02/05/2023 01:11</t>
+          <t>01/05/2023 02:12</t>
         </is>
       </c>
       <c r="T37" t="n">
-        <v>5.35</v>
+        <v>2.61</v>
       </c>
       <c r="U37" t="inlineStr">
         <is>
-          <t>07/05/2023 20:50</t>
+          <t>07/05/2023 20:57</t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/bahia-coritiba/0Qu9btbi/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/athletico-pr-flamengo-rj/bL1QZdLj/</t>
         </is>
       </c>
     </row>
@@ -4253,71 +4253,71 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Bragantino</t>
+          <t>Internacional</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>America MG</t>
+          <t>Athletico-PR</t>
         </is>
       </c>
       <c r="I42" t="n">
         <v>2</v>
       </c>
       <c r="J42" t="n">
-        <v>1.86</v>
+        <v>1.79</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>07/05/2023 23:42</t>
+          <t>07/05/2023 21:12</t>
         </is>
       </c>
       <c r="L42" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>10/05/2023 23:45</t>
+          <t>10/05/2023 23:55</t>
         </is>
       </c>
       <c r="N42" t="n">
-        <v>3.68</v>
+        <v>3.69</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>07/05/2023 23:42</t>
+          <t>07/05/2023 21:12</t>
         </is>
       </c>
       <c r="P42" t="n">
-        <v>3.77</v>
+        <v>3.61</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>10/05/2023 23:45</t>
+          <t>10/05/2023 23:55</t>
         </is>
       </c>
       <c r="R42" t="n">
-        <v>4.31</v>
+        <v>4.86</v>
       </c>
       <c r="S42" t="inlineStr">
         <is>
-          <t>07/05/2023 23:42</t>
+          <t>07/05/2023 21:12</t>
         </is>
       </c>
       <c r="T42" t="n">
-        <v>4.62</v>
+        <v>4.93</v>
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>10/05/2023 23:48</t>
+          <t>10/05/2023 23:55</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/bragantino-america-mg/xWzYhxSS/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/internacional-athletico-pr/61gdmGkj/</t>
         </is>
       </c>
     </row>
@@ -4345,71 +4345,71 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Santos</t>
+          <t>Bragantino</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Bahia</t>
+          <t>America MG</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J43" t="n">
-        <v>1.95</v>
+        <v>1.86</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>07/05/2023 21:12</t>
+          <t>07/05/2023 23:42</t>
         </is>
       </c>
       <c r="L43" t="n">
-        <v>2.3</v>
+        <v>1.83</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>10/05/2023 23:51</t>
+          <t>10/05/2023 23:45</t>
         </is>
       </c>
       <c r="N43" t="n">
-        <v>3.64</v>
+        <v>3.68</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>07/05/2023 21:12</t>
+          <t>07/05/2023 23:42</t>
         </is>
       </c>
       <c r="P43" t="n">
-        <v>3.14</v>
+        <v>3.77</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>10/05/2023 23:59</t>
+          <t>10/05/2023 23:45</t>
         </is>
       </c>
       <c r="R43" t="n">
-        <v>3.93</v>
+        <v>4.31</v>
       </c>
       <c r="S43" t="inlineStr">
         <is>
-          <t>07/05/2023 21:12</t>
+          <t>07/05/2023 23:42</t>
         </is>
       </c>
       <c r="T43" t="n">
-        <v>3.65</v>
+        <v>4.62</v>
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>10/05/2023 23:59</t>
+          <t>10/05/2023 23:48</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/santos-bahia/r9yUgICM/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/bragantino-america-mg/xWzYhxSS/</t>
         </is>
       </c>
     </row>
@@ -4437,22 +4437,22 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Internacional</t>
+          <t>Santos</t>
         </is>
       </c>
       <c r="G44" t="n">
+        <v>3</v>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Bahia</t>
+        </is>
+      </c>
+      <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>Athletico-PR</t>
-        </is>
-      </c>
-      <c r="I44" t="n">
-        <v>2</v>
-      </c>
       <c r="J44" t="n">
-        <v>1.79</v>
+        <v>1.95</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
@@ -4460,15 +4460,15 @@
         </is>
       </c>
       <c r="L44" t="n">
-        <v>1.82</v>
+        <v>2.3</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>10/05/2023 23:55</t>
+          <t>10/05/2023 23:51</t>
         </is>
       </c>
       <c r="N44" t="n">
-        <v>3.69</v>
+        <v>3.64</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
@@ -4476,15 +4476,15 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>3.61</v>
+        <v>3.14</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>10/05/2023 23:55</t>
+          <t>10/05/2023 23:59</t>
         </is>
       </c>
       <c r="R44" t="n">
-        <v>4.86</v>
+        <v>3.93</v>
       </c>
       <c r="S44" t="inlineStr">
         <is>
@@ -4492,16 +4492,16 @@
         </is>
       </c>
       <c r="T44" t="n">
-        <v>4.93</v>
+        <v>3.65</v>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>10/05/2023 23:55</t>
+          <t>10/05/2023 23:59</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/internacional-athletico-pr/61gdmGkj/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/santos-bahia/r9yUgICM/</t>
         </is>
       </c>
     </row>
@@ -4713,71 +4713,71 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Cruzeiro</t>
+          <t>Palmeiras</t>
         </is>
       </c>
       <c r="G47" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Fluminense</t>
+          <t>Gremio</t>
         </is>
       </c>
       <c r="I47" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J47" t="n">
-        <v>2.76</v>
+        <v>1.45</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>07/05/2023 02:12</t>
+          <t>07/05/2023 23:42</t>
         </is>
       </c>
       <c r="L47" t="n">
-        <v>2.74</v>
+        <v>1.41</v>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>11/05/2023 02:27</t>
+          <t>11/05/2023 02:29</t>
         </is>
       </c>
       <c r="N47" t="n">
-        <v>3.42</v>
+        <v>4.72</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>07/05/2023 02:12</t>
+          <t>07/05/2023 23:42</t>
         </is>
       </c>
       <c r="P47" t="n">
-        <v>3.21</v>
+        <v>4.71</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>11/05/2023 02:25</t>
+          <t>11/05/2023 02:12</t>
         </is>
       </c>
       <c r="R47" t="n">
-        <v>2.6</v>
+        <v>7.37</v>
       </c>
       <c r="S47" t="inlineStr">
         <is>
-          <t>07/05/2023 02:12</t>
+          <t>07/05/2023 23:42</t>
         </is>
       </c>
       <c r="T47" t="n">
-        <v>2.85</v>
+        <v>8.65</v>
       </c>
       <c r="U47" t="inlineStr">
         <is>
-          <t>11/05/2023 02:27</t>
+          <t>11/05/2023 02:12</t>
         </is>
       </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/cruzeiro-fluminense/vuNaldzp/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/palmeiras-gremio/U5XPfbcG/</t>
         </is>
       </c>
     </row>
@@ -4805,71 +4805,71 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Palmeiras</t>
+          <t>Cruzeiro</t>
         </is>
       </c>
       <c r="G48" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Gremio</t>
+          <t>Fluminense</t>
         </is>
       </c>
       <c r="I48" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J48" t="n">
-        <v>1.45</v>
+        <v>2.76</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>07/05/2023 23:42</t>
+          <t>07/05/2023 02:12</t>
         </is>
       </c>
       <c r="L48" t="n">
-        <v>1.41</v>
+        <v>2.74</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>11/05/2023 02:29</t>
+          <t>11/05/2023 02:27</t>
         </is>
       </c>
       <c r="N48" t="n">
-        <v>4.72</v>
+        <v>3.42</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>07/05/2023 23:42</t>
+          <t>07/05/2023 02:12</t>
         </is>
       </c>
       <c r="P48" t="n">
-        <v>4.71</v>
+        <v>3.21</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>11/05/2023 02:12</t>
+          <t>11/05/2023 02:25</t>
         </is>
       </c>
       <c r="R48" t="n">
-        <v>7.37</v>
+        <v>2.6</v>
       </c>
       <c r="S48" t="inlineStr">
         <is>
-          <t>07/05/2023 23:42</t>
+          <t>07/05/2023 02:12</t>
         </is>
       </c>
       <c r="T48" t="n">
-        <v>8.65</v>
+        <v>2.85</v>
       </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t>11/05/2023 02:12</t>
+          <t>11/05/2023 02:27</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/palmeiras-gremio/U5XPfbcG/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/cruzeiro-fluminense/vuNaldzp/</t>
         </is>
       </c>
     </row>
@@ -5541,22 +5541,22 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Corinthians</t>
+          <t>Gremio</t>
         </is>
       </c>
       <c r="G56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Sao Paulo</t>
+          <t>Fortaleza</t>
         </is>
       </c>
       <c r="I56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J56" t="n">
-        <v>2.42</v>
+        <v>2.26</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
@@ -5564,15 +5564,15 @@
         </is>
       </c>
       <c r="L56" t="n">
-        <v>2.57</v>
+        <v>1.9</v>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>14/05/2023 20:57</t>
+          <t>14/05/2023 20:59</t>
         </is>
       </c>
       <c r="N56" t="n">
-        <v>3.24</v>
+        <v>3.44</v>
       </c>
       <c r="O56" t="inlineStr">
         <is>
@@ -5580,15 +5580,15 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>3.02</v>
+        <v>3.64</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>14/05/2023 20:57</t>
+          <t>14/05/2023 20:59</t>
         </is>
       </c>
       <c r="R56" t="n">
-        <v>3.23</v>
+        <v>3.27</v>
       </c>
       <c r="S56" t="inlineStr">
         <is>
@@ -5596,16 +5596,16 @@
         </is>
       </c>
       <c r="T56" t="n">
-        <v>3.25</v>
+        <v>4.38</v>
       </c>
       <c r="U56" t="inlineStr">
         <is>
-          <t>14/05/2023 20:57</t>
+          <t>14/05/2023 20:59</t>
         </is>
       </c>
       <c r="V56" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/corinthians-sao-paulo/vD0Sk9Bl/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/gremio-fortaleza/SYhum7e7/</t>
         </is>
       </c>
     </row>
@@ -5725,22 +5725,22 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Gremio</t>
+          <t>Corinthians</t>
         </is>
       </c>
       <c r="G58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Fortaleza</t>
+          <t>Sao Paulo</t>
         </is>
       </c>
       <c r="I58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J58" t="n">
-        <v>2.26</v>
+        <v>2.42</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
@@ -5748,15 +5748,15 @@
         </is>
       </c>
       <c r="L58" t="n">
-        <v>1.9</v>
+        <v>2.57</v>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>14/05/2023 20:59</t>
+          <t>14/05/2023 20:57</t>
         </is>
       </c>
       <c r="N58" t="n">
-        <v>3.44</v>
+        <v>3.24</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
@@ -5764,15 +5764,15 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>3.64</v>
+        <v>3.02</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>14/05/2023 20:59</t>
+          <t>14/05/2023 20:57</t>
         </is>
       </c>
       <c r="R58" t="n">
-        <v>3.27</v>
+        <v>3.23</v>
       </c>
       <c r="S58" t="inlineStr">
         <is>
@@ -5780,16 +5780,16 @@
         </is>
       </c>
       <c r="T58" t="n">
-        <v>4.38</v>
+        <v>3.25</v>
       </c>
       <c r="U58" t="inlineStr">
         <is>
-          <t>14/05/2023 20:59</t>
+          <t>14/05/2023 20:57</t>
         </is>
       </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/gremio-fortaleza/SYhum7e7/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/corinthians-sao-paulo/vD0Sk9Bl/</t>
         </is>
       </c>
     </row>
@@ -5817,30 +5817,30 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Goias</t>
+          <t>Athletico-PR</t>
         </is>
       </c>
       <c r="G59" t="n">
+        <v>3</v>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>Coritiba</t>
+        </is>
+      </c>
+      <c r="I59" t="n">
         <v>2</v>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>Botafogo RJ</t>
-        </is>
-      </c>
-      <c r="I59" t="n">
-        <v>1</v>
-      </c>
       <c r="J59" t="n">
-        <v>2.91</v>
+        <v>1.68</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>12/05/2023 00:42</t>
+          <t>12/05/2023 00:12</t>
         </is>
       </c>
       <c r="L59" t="n">
-        <v>3.27</v>
+        <v>1.63</v>
       </c>
       <c r="M59" t="inlineStr">
         <is>
@@ -5848,15 +5848,15 @@
         </is>
       </c>
       <c r="N59" t="n">
-        <v>3.46</v>
+        <v>3.98</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>12/05/2023 00:42</t>
+          <t>12/05/2023 00:12</t>
         </is>
       </c>
       <c r="P59" t="n">
-        <v>3.29</v>
+        <v>3.83</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
@@ -5864,15 +5864,15 @@
         </is>
       </c>
       <c r="R59" t="n">
-        <v>2.5</v>
+        <v>5.07</v>
       </c>
       <c r="S59" t="inlineStr">
         <is>
-          <t>12/05/2023 00:42</t>
+          <t>12/05/2023 00:12</t>
         </is>
       </c>
       <c r="T59" t="n">
-        <v>2.4</v>
+        <v>6.41</v>
       </c>
       <c r="U59" t="inlineStr">
         <is>
@@ -5881,7 +5881,7 @@
       </c>
       <c r="V59" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/goias-botafogo-rj/MyjXlTQf/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/athletico-pr-coritiba/6PiqnRAD/</t>
         </is>
       </c>
     </row>
@@ -5909,71 +5909,71 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Athletico-PR</t>
+          <t>America MG</t>
         </is>
       </c>
       <c r="G60" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Coritiba</t>
+          <t>Cruzeiro</t>
         </is>
       </c>
       <c r="I60" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J60" t="n">
-        <v>1.68</v>
+        <v>2.16</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>12/05/2023 00:12</t>
+          <t>11/05/2023 02:42</t>
         </is>
       </c>
       <c r="L60" t="n">
-        <v>1.63</v>
+        <v>2.56</v>
       </c>
       <c r="M60" t="inlineStr">
         <is>
+          <t>14/05/2023 23:27</t>
+        </is>
+      </c>
+      <c r="N60" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>11/05/2023 02:42</t>
+        </is>
+      </c>
+      <c r="P60" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="Q60" t="inlineStr">
+        <is>
           <t>14/05/2023 23:29</t>
         </is>
       </c>
-      <c r="N60" t="n">
-        <v>3.98</v>
-      </c>
-      <c r="O60" t="inlineStr">
-        <is>
-          <t>12/05/2023 00:12</t>
-        </is>
-      </c>
-      <c r="P60" t="n">
-        <v>3.83</v>
-      </c>
-      <c r="Q60" t="inlineStr">
-        <is>
-          <t>14/05/2023 23:29</t>
-        </is>
-      </c>
       <c r="R60" t="n">
-        <v>5.07</v>
+        <v>3.44</v>
       </c>
       <c r="S60" t="inlineStr">
         <is>
-          <t>12/05/2023 00:12</t>
+          <t>11/05/2023 02:42</t>
         </is>
       </c>
       <c r="T60" t="n">
-        <v>6.41</v>
+        <v>2.87</v>
       </c>
       <c r="U60" t="inlineStr">
         <is>
-          <t>14/05/2023 23:29</t>
+          <t>14/05/2023 23:27</t>
         </is>
       </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/athletico-pr-coritiba/6PiqnRAD/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/america-mg-cruzeiro/MXZV9U2K/</t>
         </is>
       </c>
     </row>
@@ -6001,46 +6001,46 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>America MG</t>
+          <t>Goias</t>
         </is>
       </c>
       <c r="G61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Cruzeiro</t>
+          <t>Botafogo RJ</t>
         </is>
       </c>
       <c r="I61" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J61" t="n">
-        <v>2.16</v>
+        <v>2.91</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>11/05/2023 02:42</t>
+          <t>12/05/2023 00:42</t>
         </is>
       </c>
       <c r="L61" t="n">
-        <v>2.56</v>
+        <v>3.27</v>
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>14/05/2023 23:27</t>
+          <t>14/05/2023 23:29</t>
         </is>
       </c>
       <c r="N61" t="n">
-        <v>3.59</v>
+        <v>3.46</v>
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>11/05/2023 02:42</t>
+          <t>12/05/2023 00:42</t>
         </is>
       </c>
       <c r="P61" t="n">
-        <v>3.47</v>
+        <v>3.29</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
@@ -6048,24 +6048,24 @@
         </is>
       </c>
       <c r="R61" t="n">
-        <v>3.44</v>
+        <v>2.5</v>
       </c>
       <c r="S61" t="inlineStr">
         <is>
-          <t>11/05/2023 02:42</t>
+          <t>12/05/2023 00:42</t>
         </is>
       </c>
       <c r="T61" t="n">
-        <v>2.87</v>
+        <v>2.4</v>
       </c>
       <c r="U61" t="inlineStr">
         <is>
-          <t>14/05/2023 23:27</t>
+          <t>14/05/2023 23:29</t>
         </is>
       </c>
       <c r="V61" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/america-mg-cruzeiro/MXZV9U2K/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/goias-botafogo-rj/MyjXlTQf/</t>
         </is>
       </c>
     </row>
@@ -6277,30 +6277,30 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Botafogo RJ</t>
+          <t>Sao Paulo</t>
         </is>
       </c>
       <c r="G64" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Fluminense</t>
+          <t>Vasco</t>
         </is>
       </c>
       <c r="I64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J64" t="n">
-        <v>2.78</v>
+        <v>1.94</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>14/05/2023 23:42</t>
+          <t>15/05/2023 04:42</t>
         </is>
       </c>
       <c r="L64" t="n">
-        <v>2.77</v>
+        <v>1.87</v>
       </c>
       <c r="M64" t="inlineStr">
         <is>
@@ -6308,15 +6308,15 @@
         </is>
       </c>
       <c r="N64" t="n">
-        <v>3.31</v>
+        <v>3.59</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>14/05/2023 23:42</t>
+          <t>15/05/2023 04:42</t>
         </is>
       </c>
       <c r="P64" t="n">
-        <v>3.32</v>
+        <v>3.44</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
@@ -6324,24 +6324,24 @@
         </is>
       </c>
       <c r="R64" t="n">
-        <v>2.72</v>
+        <v>4.03</v>
       </c>
       <c r="S64" t="inlineStr">
         <is>
-          <t>14/05/2023 23:42</t>
+          <t>15/05/2023 04:42</t>
         </is>
       </c>
       <c r="T64" t="n">
-        <v>2.74</v>
+        <v>4.88</v>
       </c>
       <c r="U64" t="inlineStr">
         <is>
-          <t>20/05/2023 22:51</t>
+          <t>20/05/2023 23:29</t>
         </is>
       </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/botafogo-rj-fluminense/hGQ148Qs/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/sao-paulo-vasco/zuG63Sul/</t>
         </is>
       </c>
     </row>
@@ -6369,22 +6369,22 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Sao Paulo</t>
+          <t>Coritiba</t>
         </is>
       </c>
       <c r="G65" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Vasco</t>
+          <t>Atletico-MG</t>
         </is>
       </c>
       <c r="I65" t="n">
         <v>2</v>
       </c>
       <c r="J65" t="n">
-        <v>1.94</v>
+        <v>4.39</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
@@ -6392,7 +6392,7 @@
         </is>
       </c>
       <c r="L65" t="n">
-        <v>1.87</v>
+        <v>4.83</v>
       </c>
       <c r="M65" t="inlineStr">
         <is>
@@ -6400,7 +6400,7 @@
         </is>
       </c>
       <c r="N65" t="n">
-        <v>3.59</v>
+        <v>3.46</v>
       </c>
       <c r="O65" t="inlineStr">
         <is>
@@ -6408,7 +6408,7 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>3.44</v>
+        <v>3.45</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
@@ -6416,7 +6416,7 @@
         </is>
       </c>
       <c r="R65" t="n">
-        <v>4.03</v>
+        <v>1.91</v>
       </c>
       <c r="S65" t="inlineStr">
         <is>
@@ -6424,7 +6424,7 @@
         </is>
       </c>
       <c r="T65" t="n">
-        <v>4.88</v>
+        <v>1.88</v>
       </c>
       <c r="U65" t="inlineStr">
         <is>
@@ -6433,7 +6433,7 @@
       </c>
       <c r="V65" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/sao-paulo-vasco/zuG63Sul/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/coritiba-atletico-mg/dE6Rb4fJ/</t>
         </is>
       </c>
     </row>
@@ -6461,71 +6461,71 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Coritiba</t>
+          <t>Bragantino</t>
         </is>
       </c>
       <c r="G66" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Atletico-MG</t>
+          <t>Athletico-PR</t>
         </is>
       </c>
       <c r="I66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J66" t="n">
-        <v>4.39</v>
+        <v>2.05</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>15/05/2023 04:42</t>
+          <t>14/05/2023 23:42</t>
         </is>
       </c>
       <c r="L66" t="n">
-        <v>4.83</v>
+        <v>1.85</v>
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>20/05/2023 23:29</t>
+          <t>20/05/2023 23:06</t>
         </is>
       </c>
       <c r="N66" t="n">
-        <v>3.46</v>
+        <v>3.43</v>
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>15/05/2023 04:42</t>
+          <t>14/05/2023 23:42</t>
         </is>
       </c>
       <c r="P66" t="n">
-        <v>3.45</v>
+        <v>3.64</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>20/05/2023 23:29</t>
+          <t>20/05/2023 23:28</t>
         </is>
       </c>
       <c r="R66" t="n">
-        <v>1.91</v>
+        <v>3.83</v>
       </c>
       <c r="S66" t="inlineStr">
         <is>
-          <t>15/05/2023 04:42</t>
+          <t>14/05/2023 23:42</t>
         </is>
       </c>
       <c r="T66" t="n">
-        <v>1.88</v>
+        <v>4.63</v>
       </c>
       <c r="U66" t="inlineStr">
         <is>
-          <t>20/05/2023 23:29</t>
+          <t>20/05/2023 23:28</t>
         </is>
       </c>
       <c r="V66" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/coritiba-atletico-mg/dE6Rb4fJ/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/bragantino-athletico-pr/MeEE16A0/</t>
         </is>
       </c>
     </row>
@@ -6553,22 +6553,22 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Bragantino</t>
+          <t>Botafogo RJ</t>
         </is>
       </c>
       <c r="G67" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Athletico-PR</t>
+          <t>Fluminense</t>
         </is>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
       <c r="J67" t="n">
-        <v>2.05</v>
+        <v>2.78</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
@@ -6576,15 +6576,15 @@
         </is>
       </c>
       <c r="L67" t="n">
-        <v>1.85</v>
+        <v>2.77</v>
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>20/05/2023 23:06</t>
+          <t>20/05/2023 23:29</t>
         </is>
       </c>
       <c r="N67" t="n">
-        <v>3.43</v>
+        <v>3.31</v>
       </c>
       <c r="O67" t="inlineStr">
         <is>
@@ -6592,15 +6592,15 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>3.64</v>
+        <v>3.32</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>20/05/2023 23:28</t>
+          <t>20/05/2023 23:29</t>
         </is>
       </c>
       <c r="R67" t="n">
-        <v>3.83</v>
+        <v>2.72</v>
       </c>
       <c r="S67" t="inlineStr">
         <is>
@@ -6608,16 +6608,16 @@
         </is>
       </c>
       <c r="T67" t="n">
-        <v>4.63</v>
+        <v>2.74</v>
       </c>
       <c r="U67" t="inlineStr">
         <is>
-          <t>20/05/2023 23:28</t>
+          <t>20/05/2023 22:51</t>
         </is>
       </c>
       <c r="V67" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/bragantino-athletico-pr/MeEE16A0/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/botafogo-rj-fluminense/hGQ148Qs/</t>
         </is>
       </c>
     </row>
@@ -8393,7 +8393,7 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Fluminense</t>
+          <t>Gremio</t>
         </is>
       </c>
       <c r="G87" t="n">
@@ -8401,63 +8401,63 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Bragantino</t>
+          <t>Sao Paulo</t>
         </is>
       </c>
       <c r="I87" t="n">
         <v>1</v>
       </c>
       <c r="J87" t="n">
-        <v>1.76</v>
+        <v>2.1</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>29/05/2023 10:12</t>
+          <t>29/05/2023 20:12</t>
         </is>
       </c>
       <c r="L87" t="n">
-        <v>1.77</v>
+        <v>2.09</v>
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>04/06/2023 20:35</t>
+          <t>04/06/2023 20:59</t>
         </is>
       </c>
       <c r="N87" t="n">
-        <v>3.97</v>
+        <v>3.36</v>
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>29/05/2023 10:12</t>
+          <t>29/05/2023 20:12</t>
         </is>
       </c>
       <c r="P87" t="n">
-        <v>3.73</v>
+        <v>3.32</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>04/06/2023 20:58</t>
+          <t>04/06/2023 20:59</t>
         </is>
       </c>
       <c r="R87" t="n">
-        <v>4.51</v>
+        <v>3.75</v>
       </c>
       <c r="S87" t="inlineStr">
         <is>
-          <t>29/05/2023 10:12</t>
+          <t>29/05/2023 20:12</t>
         </is>
       </c>
       <c r="T87" t="n">
-        <v>4.99</v>
+        <v>4.01</v>
       </c>
       <c r="U87" t="inlineStr">
         <is>
-          <t>04/06/2023 20:36</t>
+          <t>04/06/2023 20:59</t>
         </is>
       </c>
       <c r="V87" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/fluminense-bragantino/4d1KED5n/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/gremio-sao-paulo/hv9x99ZN/</t>
         </is>
       </c>
     </row>
@@ -8485,7 +8485,7 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Gremio</t>
+          <t>Fluminense</t>
         </is>
       </c>
       <c r="G88" t="n">
@@ -8493,63 +8493,63 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Sao Paulo</t>
+          <t>Bragantino</t>
         </is>
       </c>
       <c r="I88" t="n">
         <v>1</v>
       </c>
       <c r="J88" t="n">
-        <v>2.1</v>
+        <v>1.76</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>29/05/2023 20:12</t>
+          <t>29/05/2023 10:12</t>
         </is>
       </c>
       <c r="L88" t="n">
-        <v>2.09</v>
+        <v>1.77</v>
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>04/06/2023 20:59</t>
+          <t>04/06/2023 20:35</t>
         </is>
       </c>
       <c r="N88" t="n">
-        <v>3.36</v>
+        <v>3.97</v>
       </c>
       <c r="O88" t="inlineStr">
         <is>
-          <t>29/05/2023 20:12</t>
+          <t>29/05/2023 10:12</t>
         </is>
       </c>
       <c r="P88" t="n">
-        <v>3.32</v>
+        <v>3.73</v>
       </c>
       <c r="Q88" t="inlineStr">
         <is>
-          <t>04/06/2023 20:59</t>
+          <t>04/06/2023 20:58</t>
         </is>
       </c>
       <c r="R88" t="n">
-        <v>3.75</v>
+        <v>4.51</v>
       </c>
       <c r="S88" t="inlineStr">
         <is>
-          <t>29/05/2023 20:12</t>
+          <t>29/05/2023 10:12</t>
         </is>
       </c>
       <c r="T88" t="n">
-        <v>4.01</v>
+        <v>4.99</v>
       </c>
       <c r="U88" t="inlineStr">
         <is>
-          <t>04/06/2023 20:59</t>
+          <t>04/06/2023 20:36</t>
         </is>
       </c>
       <c r="V88" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/gremio-sao-paulo/hv9x99ZN/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/fluminense-bragantino/4d1KED5n/</t>
         </is>
       </c>
     </row>
@@ -8945,7 +8945,7 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Atletico-MG</t>
+          <t>Corinthians</t>
         </is>
       </c>
       <c r="G93" t="n">
@@ -8953,14 +8953,14 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Bragantino</t>
+          <t>Cuiaba</t>
         </is>
       </c>
       <c r="I93" t="n">
         <v>1</v>
       </c>
       <c r="J93" t="n">
-        <v>1.62</v>
+        <v>1.75</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
@@ -8972,11 +8972,11 @@
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>10/06/2023 23:25</t>
+          <t>10/06/2023 23:28</t>
         </is>
       </c>
       <c r="N93" t="n">
-        <v>4.04</v>
+        <v>3.65</v>
       </c>
       <c r="O93" t="inlineStr">
         <is>
@@ -8984,15 +8984,15 @@
         </is>
       </c>
       <c r="P93" t="n">
-        <v>3.43</v>
+        <v>3.29</v>
       </c>
       <c r="Q93" t="inlineStr">
         <is>
-          <t>10/06/2023 23:25</t>
+          <t>10/06/2023 23:29</t>
         </is>
       </c>
       <c r="R93" t="n">
-        <v>5.9</v>
+        <v>5.08</v>
       </c>
       <c r="S93" t="inlineStr">
         <is>
@@ -9000,7 +9000,7 @@
         </is>
       </c>
       <c r="T93" t="n">
-        <v>5.3</v>
+        <v>5.68</v>
       </c>
       <c r="U93" t="inlineStr">
         <is>
@@ -9009,7 +9009,7 @@
       </c>
       <c r="V93" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/atletico-mg-bragantino/r7du6tJq/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/corinthians-cuiaba/l6v7OlZA/</t>
         </is>
       </c>
     </row>
@@ -9037,30 +9037,30 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Corinthians</t>
+          <t>Bahia</t>
         </is>
       </c>
       <c r="G94" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Cuiaba</t>
+          <t>Cruzeiro</t>
         </is>
       </c>
       <c r="I94" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J94" t="n">
-        <v>1.75</v>
+        <v>2.29</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>05/06/2023 02:42</t>
+          <t>03/06/2023 23:42</t>
         </is>
       </c>
       <c r="L94" t="n">
-        <v>1.82</v>
+        <v>2.87</v>
       </c>
       <c r="M94" t="inlineStr">
         <is>
@@ -9068,40 +9068,40 @@
         </is>
       </c>
       <c r="N94" t="n">
-        <v>3.65</v>
+        <v>3.38</v>
       </c>
       <c r="O94" t="inlineStr">
         <is>
-          <t>05/06/2023 02:42</t>
+          <t>03/06/2023 23:42</t>
         </is>
       </c>
       <c r="P94" t="n">
-        <v>3.29</v>
+        <v>3.27</v>
       </c>
       <c r="Q94" t="inlineStr">
         <is>
-          <t>10/06/2023 23:29</t>
+          <t>10/06/2023 23:21</t>
         </is>
       </c>
       <c r="R94" t="n">
-        <v>5.08</v>
+        <v>3.27</v>
       </c>
       <c r="S94" t="inlineStr">
         <is>
-          <t>05/06/2023 02:42</t>
+          <t>03/06/2023 23:42</t>
         </is>
       </c>
       <c r="T94" t="n">
-        <v>5.68</v>
+        <v>2.68</v>
       </c>
       <c r="U94" t="inlineStr">
         <is>
-          <t>10/06/2023 23:29</t>
+          <t>10/06/2023 23:28</t>
         </is>
       </c>
       <c r="V94" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/corinthians-cuiaba/l6v7OlZA/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/bahia-cruzeiro/hxvWS3Qd/</t>
         </is>
       </c>
     </row>
@@ -9129,71 +9129,71 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Bahia</t>
+          <t>Atletico-MG</t>
         </is>
       </c>
       <c r="G95" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Cruzeiro</t>
+          <t>Bragantino</t>
         </is>
       </c>
       <c r="I95" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J95" t="n">
-        <v>2.29</v>
+        <v>1.62</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>03/06/2023 23:42</t>
+          <t>05/06/2023 02:42</t>
         </is>
       </c>
       <c r="L95" t="n">
-        <v>2.87</v>
+        <v>1.82</v>
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>10/06/2023 23:28</t>
+          <t>10/06/2023 23:25</t>
         </is>
       </c>
       <c r="N95" t="n">
-        <v>3.38</v>
+        <v>4.04</v>
       </c>
       <c r="O95" t="inlineStr">
         <is>
-          <t>03/06/2023 23:42</t>
+          <t>05/06/2023 02:42</t>
         </is>
       </c>
       <c r="P95" t="n">
-        <v>3.27</v>
+        <v>3.43</v>
       </c>
       <c r="Q95" t="inlineStr">
         <is>
-          <t>10/06/2023 23:21</t>
+          <t>10/06/2023 23:25</t>
         </is>
       </c>
       <c r="R95" t="n">
-        <v>3.27</v>
+        <v>5.9</v>
       </c>
       <c r="S95" t="inlineStr">
         <is>
-          <t>03/06/2023 23:42</t>
+          <t>05/06/2023 02:42</t>
         </is>
       </c>
       <c r="T95" t="n">
-        <v>2.68</v>
+        <v>5.3</v>
       </c>
       <c r="U95" t="inlineStr">
         <is>
-          <t>10/06/2023 23:28</t>
+          <t>10/06/2023 23:29</t>
         </is>
       </c>
       <c r="V95" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/bahia-cruzeiro/hxvWS3Qd/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/atletico-mg-bragantino/r7du6tJq/</t>
         </is>
       </c>
     </row>
@@ -14649,7 +14649,7 @@
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>Cruzeiro</t>
+          <t>Bragantino</t>
         </is>
       </c>
       <c r="G155" t="n">
@@ -14657,63 +14657,63 @@
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>Goias</t>
+          <t>Internacional</t>
         </is>
       </c>
       <c r="I155" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J155" t="n">
-        <v>1.63</v>
+        <v>1.83</v>
       </c>
       <c r="K155" t="inlineStr">
         <is>
-          <t>18/07/2023 01:12</t>
+          <t>16/07/2023 23:42</t>
         </is>
       </c>
       <c r="L155" t="n">
-        <v>1.54</v>
+        <v>1.75</v>
       </c>
       <c r="M155" t="inlineStr">
         <is>
-          <t>23/07/2023 20:53</t>
+          <t>23/07/2023 20:59</t>
         </is>
       </c>
       <c r="N155" t="n">
-        <v>3.82</v>
+        <v>3.62</v>
       </c>
       <c r="O155" t="inlineStr">
         <is>
-          <t>18/07/2023 01:12</t>
+          <t>16/07/2023 23:42</t>
         </is>
       </c>
       <c r="P155" t="n">
-        <v>4.05</v>
+        <v>3.72</v>
       </c>
       <c r="Q155" t="inlineStr">
         <is>
-          <t>23/07/2023 20:55</t>
+          <t>23/07/2023 20:59</t>
         </is>
       </c>
       <c r="R155" t="n">
-        <v>5.9</v>
+        <v>4.59</v>
       </c>
       <c r="S155" t="inlineStr">
         <is>
-          <t>18/07/2023 01:12</t>
+          <t>16/07/2023 23:42</t>
         </is>
       </c>
       <c r="T155" t="n">
-        <v>7.32</v>
+        <v>5.31</v>
       </c>
       <c r="U155" t="inlineStr">
         <is>
-          <t>23/07/2023 20:55</t>
+          <t>23/07/2023 20:59</t>
         </is>
       </c>
       <c r="V155" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/cruzeiro-goias/0Igv7s5T/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/bragantino-internacional/MRfz8NkN/</t>
         </is>
       </c>
     </row>
@@ -14741,30 +14741,30 @@
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>Bragantino</t>
+          <t>Santos</t>
         </is>
       </c>
       <c r="G156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>Internacional</t>
+          <t>Botafogo RJ</t>
         </is>
       </c>
       <c r="I156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J156" t="n">
-        <v>1.83</v>
+        <v>2.87</v>
       </c>
       <c r="K156" t="inlineStr">
         <is>
-          <t>16/07/2023 23:42</t>
+          <t>16/07/2023 21:12</t>
         </is>
       </c>
       <c r="L156" t="n">
-        <v>1.75</v>
+        <v>2.99</v>
       </c>
       <c r="M156" t="inlineStr">
         <is>
@@ -14772,40 +14772,40 @@
         </is>
       </c>
       <c r="N156" t="n">
-        <v>3.62</v>
+        <v>3</v>
       </c>
       <c r="O156" t="inlineStr">
         <is>
-          <t>16/07/2023 23:42</t>
+          <t>16/07/2023 21:12</t>
         </is>
       </c>
       <c r="P156" t="n">
-        <v>3.72</v>
+        <v>2.97</v>
       </c>
       <c r="Q156" t="inlineStr">
         <is>
-          <t>23/07/2023 20:59</t>
+          <t>23/07/2023 20:48</t>
         </is>
       </c>
       <c r="R156" t="n">
-        <v>4.59</v>
+        <v>2.8</v>
       </c>
       <c r="S156" t="inlineStr">
         <is>
-          <t>16/07/2023 23:42</t>
+          <t>16/07/2023 21:12</t>
         </is>
       </c>
       <c r="T156" t="n">
-        <v>5.31</v>
+        <v>2.81</v>
       </c>
       <c r="U156" t="inlineStr">
         <is>
-          <t>23/07/2023 20:59</t>
+          <t>23/07/2023 20:58</t>
         </is>
       </c>
       <c r="V156" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/bragantino-internacional/MRfz8NkN/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/santos-botafogo-rj/f5Ow93zH/</t>
         </is>
       </c>
     </row>
@@ -14833,71 +14833,71 @@
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>Santos</t>
+          <t>Cruzeiro</t>
         </is>
       </c>
       <c r="G157" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>Botafogo RJ</t>
+          <t>Goias</t>
         </is>
       </c>
       <c r="I157" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J157" t="n">
-        <v>2.87</v>
+        <v>1.63</v>
       </c>
       <c r="K157" t="inlineStr">
         <is>
-          <t>16/07/2023 21:12</t>
+          <t>18/07/2023 01:12</t>
         </is>
       </c>
       <c r="L157" t="n">
-        <v>2.99</v>
+        <v>1.54</v>
       </c>
       <c r="M157" t="inlineStr">
         <is>
-          <t>23/07/2023 20:59</t>
+          <t>23/07/2023 20:53</t>
         </is>
       </c>
       <c r="N157" t="n">
-        <v>3</v>
+        <v>3.82</v>
       </c>
       <c r="O157" t="inlineStr">
         <is>
-          <t>16/07/2023 21:12</t>
+          <t>18/07/2023 01:12</t>
         </is>
       </c>
       <c r="P157" t="n">
-        <v>2.97</v>
+        <v>4.05</v>
       </c>
       <c r="Q157" t="inlineStr">
         <is>
-          <t>23/07/2023 20:48</t>
+          <t>23/07/2023 20:55</t>
         </is>
       </c>
       <c r="R157" t="n">
-        <v>2.8</v>
+        <v>5.9</v>
       </c>
       <c r="S157" t="inlineStr">
         <is>
-          <t>16/07/2023 21:12</t>
+          <t>18/07/2023 01:12</t>
         </is>
       </c>
       <c r="T157" t="n">
-        <v>2.81</v>
+        <v>7.32</v>
       </c>
       <c r="U157" t="inlineStr">
         <is>
-          <t>23/07/2023 20:58</t>
+          <t>23/07/2023 20:55</t>
         </is>
       </c>
       <c r="V157" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/santos-botafogo-rj/f5Ow93zH/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/cruzeiro-goias/0Igv7s5T/</t>
         </is>
       </c>
     </row>
@@ -15109,7 +15109,7 @@
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>Fluminense</t>
+          <t>Internacional</t>
         </is>
       </c>
       <c r="G160" t="n">
@@ -15117,38 +15117,38 @@
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>Santos</t>
+          <t>Cuiaba</t>
         </is>
       </c>
       <c r="I160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J160" t="n">
-        <v>1.62</v>
+        <v>1.88</v>
       </c>
       <c r="K160" t="inlineStr">
         <is>
-          <t>25/07/2023 00:12</t>
+          <t>23/07/2023 21:12</t>
         </is>
       </c>
       <c r="L160" t="n">
-        <v>1.55</v>
+        <v>1.81</v>
       </c>
       <c r="M160" t="inlineStr">
         <is>
-          <t>29/07/2023 20:58</t>
+          <t>29/07/2023 20:51</t>
         </is>
       </c>
       <c r="N160" t="n">
-        <v>3.83</v>
+        <v>3.23</v>
       </c>
       <c r="O160" t="inlineStr">
         <is>
-          <t>25/07/2023 00:12</t>
+          <t>23/07/2023 21:12</t>
         </is>
       </c>
       <c r="P160" t="n">
-        <v>3.98</v>
+        <v>3.44</v>
       </c>
       <c r="Q160" t="inlineStr">
         <is>
@@ -15156,15 +15156,15 @@
         </is>
       </c>
       <c r="R160" t="n">
-        <v>6.02</v>
+        <v>4.99</v>
       </c>
       <c r="S160" t="inlineStr">
         <is>
-          <t>25/07/2023 00:12</t>
+          <t>23/07/2023 21:12</t>
         </is>
       </c>
       <c r="T160" t="n">
-        <v>7.47</v>
+        <v>5.41</v>
       </c>
       <c r="U160" t="inlineStr">
         <is>
@@ -15173,7 +15173,7 @@
       </c>
       <c r="V160" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/fluminense-santos/tWR0Orz4/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/internacional-cuiaba/SSalFvcj/</t>
         </is>
       </c>
     </row>
@@ -15201,7 +15201,7 @@
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>Internacional</t>
+          <t>Fluminense</t>
         </is>
       </c>
       <c r="G161" t="n">
@@ -15209,38 +15209,38 @@
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>Cuiaba</t>
+          <t>Santos</t>
         </is>
       </c>
       <c r="I161" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J161" t="n">
-        <v>1.88</v>
+        <v>1.62</v>
       </c>
       <c r="K161" t="inlineStr">
         <is>
-          <t>23/07/2023 21:12</t>
+          <t>25/07/2023 00:12</t>
         </is>
       </c>
       <c r="L161" t="n">
-        <v>1.81</v>
+        <v>1.55</v>
       </c>
       <c r="M161" t="inlineStr">
         <is>
-          <t>29/07/2023 20:51</t>
+          <t>29/07/2023 20:58</t>
         </is>
       </c>
       <c r="N161" t="n">
-        <v>3.23</v>
+        <v>3.83</v>
       </c>
       <c r="O161" t="inlineStr">
         <is>
-          <t>23/07/2023 21:12</t>
+          <t>25/07/2023 00:12</t>
         </is>
       </c>
       <c r="P161" t="n">
-        <v>3.44</v>
+        <v>3.98</v>
       </c>
       <c r="Q161" t="inlineStr">
         <is>
@@ -15248,15 +15248,15 @@
         </is>
       </c>
       <c r="R161" t="n">
-        <v>4.99</v>
+        <v>6.02</v>
       </c>
       <c r="S161" t="inlineStr">
         <is>
-          <t>23/07/2023 21:12</t>
+          <t>25/07/2023 00:12</t>
         </is>
       </c>
       <c r="T161" t="n">
-        <v>5.41</v>
+        <v>7.47</v>
       </c>
       <c r="U161" t="inlineStr">
         <is>
@@ -15265,7 +15265,7 @@
       </c>
       <c r="V161" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/internacional-cuiaba/SSalFvcj/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/fluminense-santos/tWR0Orz4/</t>
         </is>
       </c>
     </row>
@@ -22837,71 +22837,71 @@
       </c>
       <c r="F244" t="inlineStr">
         <is>
-          <t>Cuiaba</t>
+          <t>Sao Paulo</t>
         </is>
       </c>
       <c r="G244" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H244" t="inlineStr">
         <is>
-          <t>Fluminense</t>
+          <t>Corinthians</t>
         </is>
       </c>
       <c r="I244" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J244" t="n">
-        <v>2.64</v>
+        <v>1.64</v>
       </c>
       <c r="K244" t="inlineStr">
         <is>
-          <t>24/09/2023 01:12</t>
+          <t>27/09/2023 23:12</t>
         </is>
       </c>
       <c r="L244" t="n">
-        <v>2.33</v>
+        <v>1.52</v>
       </c>
       <c r="M244" t="inlineStr">
         <is>
-          <t>30/09/2023 23:04</t>
+          <t>30/09/2023 23:20</t>
         </is>
       </c>
       <c r="N244" t="n">
-        <v>3.09</v>
+        <v>3.73</v>
       </c>
       <c r="O244" t="inlineStr">
         <is>
-          <t>24/09/2023 01:12</t>
+          <t>27/09/2023 23:12</t>
         </is>
       </c>
       <c r="P244" t="n">
-        <v>3.1</v>
+        <v>3.96</v>
       </c>
       <c r="Q244" t="inlineStr">
         <is>
-          <t>30/09/2023 23:04</t>
+          <t>30/09/2023 23:26</t>
         </is>
       </c>
       <c r="R244" t="n">
-        <v>3.04</v>
+        <v>6.33</v>
       </c>
       <c r="S244" t="inlineStr">
         <is>
-          <t>24/09/2023 01:12</t>
+          <t>27/09/2023 23:12</t>
         </is>
       </c>
       <c r="T244" t="n">
-        <v>3.62</v>
+        <v>8.24</v>
       </c>
       <c r="U244" t="inlineStr">
         <is>
-          <t>30/09/2023 23:04</t>
+          <t>30/09/2023 23:28</t>
         </is>
       </c>
       <c r="V244" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/cuiaba-fluminense/hWWPVu0K/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/sao-paulo-corinthians/v3gJC0gr/</t>
         </is>
       </c>
     </row>
@@ -22929,71 +22929,71 @@
       </c>
       <c r="F245" t="inlineStr">
         <is>
-          <t>Sao Paulo</t>
+          <t>Cuiaba</t>
         </is>
       </c>
       <c r="G245" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H245" t="inlineStr">
         <is>
-          <t>Corinthians</t>
+          <t>Fluminense</t>
         </is>
       </c>
       <c r="I245" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J245" t="n">
-        <v>1.64</v>
+        <v>2.64</v>
       </c>
       <c r="K245" t="inlineStr">
         <is>
-          <t>27/09/2023 23:12</t>
+          <t>24/09/2023 01:12</t>
         </is>
       </c>
       <c r="L245" t="n">
-        <v>1.52</v>
+        <v>2.33</v>
       </c>
       <c r="M245" t="inlineStr">
         <is>
-          <t>30/09/2023 23:20</t>
+          <t>30/09/2023 23:04</t>
         </is>
       </c>
       <c r="N245" t="n">
-        <v>3.73</v>
+        <v>3.09</v>
       </c>
       <c r="O245" t="inlineStr">
         <is>
-          <t>27/09/2023 23:12</t>
+          <t>24/09/2023 01:12</t>
         </is>
       </c>
       <c r="P245" t="n">
-        <v>3.96</v>
+        <v>3.1</v>
       </c>
       <c r="Q245" t="inlineStr">
         <is>
-          <t>30/09/2023 23:26</t>
+          <t>30/09/2023 23:04</t>
         </is>
       </c>
       <c r="R245" t="n">
-        <v>6.33</v>
+        <v>3.04</v>
       </c>
       <c r="S245" t="inlineStr">
         <is>
-          <t>27/09/2023 23:12</t>
+          <t>24/09/2023 01:12</t>
         </is>
       </c>
       <c r="T245" t="n">
-        <v>8.24</v>
+        <v>3.62</v>
       </c>
       <c r="U245" t="inlineStr">
         <is>
-          <t>30/09/2023 23:28</t>
+          <t>30/09/2023 23:04</t>
         </is>
       </c>
       <c r="V245" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/sao-paulo-corinthians/v3gJC0gr/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/cuiaba-fluminense/hWWPVu0K/</t>
         </is>
       </c>
     </row>
@@ -23113,71 +23113,71 @@
       </c>
       <c r="F247" t="inlineStr">
         <is>
-          <t>Coritiba</t>
+          <t>Cruzeiro</t>
         </is>
       </c>
       <c r="G247" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H247" t="inlineStr">
         <is>
-          <t>Athletico-PR</t>
+          <t>America MG</t>
         </is>
       </c>
       <c r="I247" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J247" t="n">
-        <v>3.07</v>
+        <v>1.71</v>
       </c>
       <c r="K247" t="inlineStr">
         <is>
-          <t>27/09/2023 23:12</t>
+          <t>26/09/2023 00:12</t>
         </is>
       </c>
       <c r="L247" t="n">
-        <v>3.68</v>
+        <v>1.74</v>
       </c>
       <c r="M247" t="inlineStr">
         <is>
-          <t>01/10/2023 20:56</t>
+          <t>01/10/2023 20:59</t>
         </is>
       </c>
       <c r="N247" t="n">
-        <v>3.23</v>
+        <v>3.88</v>
       </c>
       <c r="O247" t="inlineStr">
         <is>
-          <t>27/09/2023 23:12</t>
+          <t>26/09/2023 00:12</t>
         </is>
       </c>
       <c r="P247" t="n">
-        <v>3.26</v>
+        <v>3.8</v>
       </c>
       <c r="Q247" t="inlineStr">
         <is>
-          <t>01/10/2023 20:29</t>
+          <t>01/10/2023 20:59</t>
         </is>
       </c>
       <c r="R247" t="n">
-        <v>2.48</v>
+        <v>5.17</v>
       </c>
       <c r="S247" t="inlineStr">
         <is>
-          <t>27/09/2023 23:12</t>
+          <t>26/09/2023 00:12</t>
         </is>
       </c>
       <c r="T247" t="n">
-        <v>2.22</v>
+        <v>5.18</v>
       </c>
       <c r="U247" t="inlineStr">
         <is>
-          <t>01/10/2023 20:56</t>
+          <t>01/10/2023 20:59</t>
         </is>
       </c>
       <c r="V247" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/coritiba-athletico-pr/0xpv8x8D/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/cruzeiro-america-mg/4AjV9bw1/</t>
         </is>
       </c>
     </row>
@@ -23205,71 +23205,71 @@
       </c>
       <c r="F248" t="inlineStr">
         <is>
-          <t>Cruzeiro</t>
+          <t>Coritiba</t>
         </is>
       </c>
       <c r="G248" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H248" t="inlineStr">
         <is>
-          <t>America MG</t>
+          <t>Athletico-PR</t>
         </is>
       </c>
       <c r="I248" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J248" t="n">
-        <v>1.71</v>
+        <v>3.07</v>
       </c>
       <c r="K248" t="inlineStr">
         <is>
-          <t>26/09/2023 00:12</t>
+          <t>27/09/2023 23:12</t>
         </is>
       </c>
       <c r="L248" t="n">
-        <v>1.74</v>
+        <v>3.68</v>
       </c>
       <c r="M248" t="inlineStr">
         <is>
-          <t>01/10/2023 20:59</t>
+          <t>01/10/2023 20:56</t>
         </is>
       </c>
       <c r="N248" t="n">
-        <v>3.88</v>
+        <v>3.23</v>
       </c>
       <c r="O248" t="inlineStr">
         <is>
-          <t>26/09/2023 00:12</t>
+          <t>27/09/2023 23:12</t>
         </is>
       </c>
       <c r="P248" t="n">
-        <v>3.8</v>
+        <v>3.26</v>
       </c>
       <c r="Q248" t="inlineStr">
         <is>
-          <t>01/10/2023 20:59</t>
+          <t>01/10/2023 20:29</t>
         </is>
       </c>
       <c r="R248" t="n">
-        <v>5.17</v>
+        <v>2.48</v>
       </c>
       <c r="S248" t="inlineStr">
         <is>
-          <t>26/09/2023 00:12</t>
+          <t>27/09/2023 23:12</t>
         </is>
       </c>
       <c r="T248" t="n">
-        <v>5.18</v>
+        <v>2.22</v>
       </c>
       <c r="U248" t="inlineStr">
         <is>
-          <t>01/10/2023 20:59</t>
+          <t>01/10/2023 20:56</t>
         </is>
       </c>
       <c r="V248" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/cruzeiro-america-mg/4AjV9bw1/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/coritiba-athletico-pr/0xpv8x8D/</t>
         </is>
       </c>
     </row>
@@ -23849,71 +23849,71 @@
       </c>
       <c r="F255" t="inlineStr">
         <is>
-          <t>Internacional</t>
+          <t>Palmeiras</t>
         </is>
       </c>
       <c r="G255" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H255" t="inlineStr">
         <is>
-          <t>Gremio</t>
+          <t>Santos</t>
         </is>
       </c>
       <c r="I255" t="n">
         <v>2</v>
       </c>
       <c r="J255" t="n">
-        <v>2.29</v>
+        <v>1.35</v>
       </c>
       <c r="K255" t="inlineStr">
         <is>
-          <t>01/10/2023 01:12</t>
+          <t>01/10/2023 22:42</t>
         </is>
       </c>
       <c r="L255" t="n">
-        <v>2.29</v>
+        <v>1.44</v>
       </c>
       <c r="M255" t="inlineStr">
         <is>
-          <t>08/10/2023 20:56</t>
+          <t>08/10/2023 20:49</t>
         </is>
       </c>
       <c r="N255" t="n">
-        <v>3.3</v>
+        <v>5.12</v>
       </c>
       <c r="O255" t="inlineStr">
         <is>
-          <t>01/10/2023 01:12</t>
+          <t>01/10/2023 22:42</t>
         </is>
       </c>
       <c r="P255" t="n">
-        <v>3.26</v>
+        <v>4.48</v>
       </c>
       <c r="Q255" t="inlineStr">
         <is>
-          <t>08/10/2023 20:51</t>
+          <t>08/10/2023 20:58</t>
         </is>
       </c>
       <c r="R255" t="n">
-        <v>3.43</v>
+        <v>9.890000000000001</v>
       </c>
       <c r="S255" t="inlineStr">
         <is>
-          <t>01/10/2023 01:12</t>
+          <t>01/10/2023 22:42</t>
         </is>
       </c>
       <c r="T255" t="n">
-        <v>3.53</v>
+        <v>8.73</v>
       </c>
       <c r="U255" t="inlineStr">
         <is>
-          <t>08/10/2023 20:56</t>
+          <t>08/10/2023 20:58</t>
         </is>
       </c>
       <c r="V255" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/internacional-gremio/829HLexD/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/palmeiras-santos/6wD0Pwwl/</t>
         </is>
       </c>
     </row>
@@ -23941,71 +23941,71 @@
       </c>
       <c r="F256" t="inlineStr">
         <is>
-          <t>Palmeiras</t>
+          <t>Fluminense</t>
         </is>
       </c>
       <c r="G256" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H256" t="inlineStr">
         <is>
-          <t>Santos</t>
+          <t>Botafogo RJ</t>
         </is>
       </c>
       <c r="I256" t="n">
         <v>2</v>
       </c>
       <c r="J256" t="n">
-        <v>1.35</v>
+        <v>2.08</v>
       </c>
       <c r="K256" t="inlineStr">
         <is>
-          <t>01/10/2023 22:42</t>
+          <t>03/10/2023 00:13</t>
         </is>
       </c>
       <c r="L256" t="n">
-        <v>1.44</v>
+        <v>1.95</v>
       </c>
       <c r="M256" t="inlineStr">
         <is>
-          <t>08/10/2023 20:49</t>
+          <t>08/10/2023 20:59</t>
         </is>
       </c>
       <c r="N256" t="n">
-        <v>5.12</v>
+        <v>3.21</v>
       </c>
       <c r="O256" t="inlineStr">
         <is>
-          <t>01/10/2023 22:42</t>
+          <t>03/10/2023 00:13</t>
         </is>
       </c>
       <c r="P256" t="n">
-        <v>4.48</v>
+        <v>3.52</v>
       </c>
       <c r="Q256" t="inlineStr">
         <is>
-          <t>08/10/2023 20:58</t>
+          <t>08/10/2023 20:59</t>
         </is>
       </c>
       <c r="R256" t="n">
-        <v>9.890000000000001</v>
+        <v>4.03</v>
       </c>
       <c r="S256" t="inlineStr">
         <is>
-          <t>01/10/2023 22:42</t>
+          <t>03/10/2023 00:13</t>
         </is>
       </c>
       <c r="T256" t="n">
-        <v>8.73</v>
+        <v>4.29</v>
       </c>
       <c r="U256" t="inlineStr">
         <is>
-          <t>08/10/2023 20:58</t>
+          <t>08/10/2023 20:59</t>
         </is>
       </c>
       <c r="V256" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/palmeiras-santos/6wD0Pwwl/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/fluminense-botafogo-rj/A7RUUaFQ/</t>
         </is>
       </c>
     </row>
@@ -24033,71 +24033,71 @@
       </c>
       <c r="F257" t="inlineStr">
         <is>
-          <t>Fluminense</t>
+          <t>Internacional</t>
         </is>
       </c>
       <c r="G257" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H257" t="inlineStr">
         <is>
-          <t>Botafogo RJ</t>
+          <t>Gremio</t>
         </is>
       </c>
       <c r="I257" t="n">
         <v>2</v>
       </c>
       <c r="J257" t="n">
-        <v>2.08</v>
+        <v>2.29</v>
       </c>
       <c r="K257" t="inlineStr">
         <is>
-          <t>03/10/2023 00:13</t>
+          <t>01/10/2023 01:12</t>
         </is>
       </c>
       <c r="L257" t="n">
-        <v>1.95</v>
+        <v>2.29</v>
       </c>
       <c r="M257" t="inlineStr">
         <is>
-          <t>08/10/2023 20:59</t>
+          <t>08/10/2023 20:56</t>
         </is>
       </c>
       <c r="N257" t="n">
-        <v>3.21</v>
+        <v>3.3</v>
       </c>
       <c r="O257" t="inlineStr">
         <is>
-          <t>03/10/2023 00:13</t>
+          <t>01/10/2023 01:12</t>
         </is>
       </c>
       <c r="P257" t="n">
-        <v>3.52</v>
+        <v>3.26</v>
       </c>
       <c r="Q257" t="inlineStr">
         <is>
-          <t>08/10/2023 20:59</t>
+          <t>08/10/2023 20:51</t>
         </is>
       </c>
       <c r="R257" t="n">
-        <v>4.03</v>
+        <v>3.43</v>
       </c>
       <c r="S257" t="inlineStr">
         <is>
-          <t>03/10/2023 00:13</t>
+          <t>01/10/2023 01:12</t>
         </is>
       </c>
       <c r="T257" t="n">
-        <v>4.29</v>
+        <v>3.53</v>
       </c>
       <c r="U257" t="inlineStr">
         <is>
-          <t>08/10/2023 20:59</t>
+          <t>08/10/2023 20:56</t>
         </is>
       </c>
       <c r="V257" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/fluminense-botafogo-rj/A7RUUaFQ/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/internacional-gremio/829HLexD/</t>
         </is>
       </c>
     </row>
@@ -24125,71 +24125,71 @@
       </c>
       <c r="F258" t="inlineStr">
         <is>
-          <t>Athletico-PR</t>
+          <t>Fortaleza</t>
         </is>
       </c>
       <c r="G258" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H258" t="inlineStr">
         <is>
-          <t>Bragantino</t>
+          <t>America MG</t>
         </is>
       </c>
       <c r="I258" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J258" t="n">
-        <v>2.09</v>
+        <v>1.57</v>
       </c>
       <c r="K258" t="inlineStr">
         <is>
-          <t>01/10/2023 22:42</t>
+          <t>01/10/2023 20:12</t>
         </is>
       </c>
       <c r="L258" t="n">
-        <v>2.76</v>
+        <v>1.53</v>
       </c>
       <c r="M258" t="inlineStr">
         <is>
-          <t>08/10/2023 23:26</t>
+          <t>08/10/2023 22:46</t>
         </is>
       </c>
       <c r="N258" t="n">
-        <v>3.44</v>
+        <v>4.3</v>
       </c>
       <c r="O258" t="inlineStr">
         <is>
-          <t>01/10/2023 22:42</t>
+          <t>01/10/2023 20:12</t>
         </is>
       </c>
       <c r="P258" t="n">
-        <v>3.22</v>
+        <v>4.43</v>
       </c>
       <c r="Q258" t="inlineStr">
         <is>
-          <t>08/10/2023 23:26</t>
+          <t>08/10/2023 23:29</t>
         </is>
       </c>
       <c r="R258" t="n">
-        <v>3.7</v>
+        <v>5.96</v>
       </c>
       <c r="S258" t="inlineStr">
         <is>
-          <t>01/10/2023 22:42</t>
+          <t>01/10/2023 20:12</t>
         </is>
       </c>
       <c r="T258" t="n">
-        <v>2.82</v>
+        <v>6.46</v>
       </c>
       <c r="U258" t="inlineStr">
         <is>
-          <t>08/10/2023 23:26</t>
+          <t>08/10/2023 23:29</t>
         </is>
       </c>
       <c r="V258" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/athletico-pr-bragantino/ng8LKFiJ/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/fortaleza-america-mg/lbn4qaUJ/</t>
         </is>
       </c>
     </row>
@@ -24217,7 +24217,7 @@
       </c>
       <c r="F259" t="inlineStr">
         <is>
-          <t>Atletico-MG</t>
+          <t>Athletico-PR</t>
         </is>
       </c>
       <c r="G259" t="n">
@@ -24225,63 +24225,63 @@
       </c>
       <c r="H259" t="inlineStr">
         <is>
-          <t>Coritiba</t>
+          <t>Bragantino</t>
         </is>
       </c>
       <c r="I259" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J259" t="n">
-        <v>1.35</v>
+        <v>2.09</v>
       </c>
       <c r="K259" t="inlineStr">
         <is>
-          <t>01/10/2023 20:12</t>
+          <t>01/10/2023 22:42</t>
         </is>
       </c>
       <c r="L259" t="n">
-        <v>1.39</v>
+        <v>2.76</v>
       </c>
       <c r="M259" t="inlineStr">
         <is>
-          <t>08/10/2023 23:23</t>
+          <t>08/10/2023 23:26</t>
         </is>
       </c>
       <c r="N259" t="n">
-        <v>4.9</v>
+        <v>3.44</v>
       </c>
       <c r="O259" t="inlineStr">
         <is>
-          <t>01/10/2023 20:12</t>
+          <t>01/10/2023 22:42</t>
         </is>
       </c>
       <c r="P259" t="n">
-        <v>4.75</v>
+        <v>3.22</v>
       </c>
       <c r="Q259" t="inlineStr">
         <is>
-          <t>08/10/2023 23:23</t>
+          <t>08/10/2023 23:26</t>
         </is>
       </c>
       <c r="R259" t="n">
-        <v>10.08</v>
+        <v>3.7</v>
       </c>
       <c r="S259" t="inlineStr">
         <is>
-          <t>01/10/2023 20:12</t>
+          <t>01/10/2023 22:42</t>
         </is>
       </c>
       <c r="T259" t="n">
-        <v>9.800000000000001</v>
+        <v>2.82</v>
       </c>
       <c r="U259" t="inlineStr">
         <is>
-          <t>08/10/2023 23:25</t>
+          <t>08/10/2023 23:26</t>
         </is>
       </c>
       <c r="V259" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/atletico-mg-coritiba/vT4DMyN6/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/athletico-pr-bragantino/ng8LKFiJ/</t>
         </is>
       </c>
     </row>
@@ -24309,22 +24309,22 @@
       </c>
       <c r="F260" t="inlineStr">
         <is>
-          <t>Fortaleza</t>
+          <t>Atletico-MG</t>
         </is>
       </c>
       <c r="G260" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H260" t="inlineStr">
         <is>
-          <t>America MG</t>
+          <t>Coritiba</t>
         </is>
       </c>
       <c r="I260" t="n">
         <v>2</v>
       </c>
       <c r="J260" t="n">
-        <v>1.57</v>
+        <v>1.35</v>
       </c>
       <c r="K260" t="inlineStr">
         <is>
@@ -24332,15 +24332,15 @@
         </is>
       </c>
       <c r="L260" t="n">
-        <v>1.53</v>
+        <v>1.39</v>
       </c>
       <c r="M260" t="inlineStr">
         <is>
-          <t>08/10/2023 22:46</t>
+          <t>08/10/2023 23:23</t>
         </is>
       </c>
       <c r="N260" t="n">
-        <v>4.3</v>
+        <v>4.9</v>
       </c>
       <c r="O260" t="inlineStr">
         <is>
@@ -24348,15 +24348,15 @@
         </is>
       </c>
       <c r="P260" t="n">
-        <v>4.43</v>
+        <v>4.75</v>
       </c>
       <c r="Q260" t="inlineStr">
         <is>
-          <t>08/10/2023 23:29</t>
+          <t>08/10/2023 23:23</t>
         </is>
       </c>
       <c r="R260" t="n">
-        <v>5.96</v>
+        <v>10.08</v>
       </c>
       <c r="S260" t="inlineStr">
         <is>
@@ -24364,16 +24364,16 @@
         </is>
       </c>
       <c r="T260" t="n">
-        <v>6.46</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="U260" t="inlineStr">
         <is>
-          <t>08/10/2023 23:29</t>
+          <t>08/10/2023 23:25</t>
         </is>
       </c>
       <c r="V260" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/fortaleza-america-mg/lbn4qaUJ/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/atletico-mg-coritiba/vT4DMyN6/</t>
         </is>
       </c>
     </row>
@@ -25413,22 +25413,22 @@
       </c>
       <c r="F272" t="inlineStr">
         <is>
-          <t>Bahia</t>
+          <t>Sao Paulo</t>
         </is>
       </c>
       <c r="G272" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H272" t="inlineStr">
         <is>
-          <t>Fortaleza</t>
+          <t>Gremio</t>
         </is>
       </c>
       <c r="I272" t="n">
         <v>0</v>
       </c>
       <c r="J272" t="n">
-        <v>2.3</v>
+        <v>1.95</v>
       </c>
       <c r="K272" t="inlineStr">
         <is>
@@ -25436,15 +25436,15 @@
         </is>
       </c>
       <c r="L272" t="n">
-        <v>2.09</v>
+        <v>1.6</v>
       </c>
       <c r="M272" t="inlineStr">
         <is>
-          <t>21/10/2023 23:22</t>
+          <t>21/10/2023 23:29</t>
         </is>
       </c>
       <c r="N272" t="n">
-        <v>3.33</v>
+        <v>3.59</v>
       </c>
       <c r="O272" t="inlineStr">
         <is>
@@ -25452,15 +25452,15 @@
         </is>
       </c>
       <c r="P272" t="n">
-        <v>3.39</v>
+        <v>4.04</v>
       </c>
       <c r="Q272" t="inlineStr">
         <is>
-          <t>21/10/2023 23:18</t>
+          <t>21/10/2023 23:29</t>
         </is>
       </c>
       <c r="R272" t="n">
-        <v>3.36</v>
+        <v>4.14</v>
       </c>
       <c r="S272" t="inlineStr">
         <is>
@@ -25468,16 +25468,16 @@
         </is>
       </c>
       <c r="T272" t="n">
-        <v>3.93</v>
+        <v>6.32</v>
       </c>
       <c r="U272" t="inlineStr">
         <is>
-          <t>21/10/2023 23:22</t>
+          <t>21/10/2023 23:29</t>
         </is>
       </c>
       <c r="V272" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/bahia-fortaleza/d0Hrxxvi/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/sao-paulo-gremio/nR7Jy8SA/</t>
         </is>
       </c>
     </row>
@@ -25597,22 +25597,22 @@
       </c>
       <c r="F274" t="inlineStr">
         <is>
-          <t>Sao Paulo</t>
+          <t>Bahia</t>
         </is>
       </c>
       <c r="G274" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H274" t="inlineStr">
         <is>
-          <t>Gremio</t>
+          <t>Fortaleza</t>
         </is>
       </c>
       <c r="I274" t="n">
         <v>0</v>
       </c>
       <c r="J274" t="n">
-        <v>1.95</v>
+        <v>2.3</v>
       </c>
       <c r="K274" t="inlineStr">
         <is>
@@ -25620,15 +25620,15 @@
         </is>
       </c>
       <c r="L274" t="n">
-        <v>1.6</v>
+        <v>2.09</v>
       </c>
       <c r="M274" t="inlineStr">
         <is>
-          <t>21/10/2023 23:29</t>
+          <t>21/10/2023 23:22</t>
         </is>
       </c>
       <c r="N274" t="n">
-        <v>3.59</v>
+        <v>3.33</v>
       </c>
       <c r="O274" t="inlineStr">
         <is>
@@ -25636,15 +25636,15 @@
         </is>
       </c>
       <c r="P274" t="n">
-        <v>4.04</v>
+        <v>3.39</v>
       </c>
       <c r="Q274" t="inlineStr">
         <is>
-          <t>21/10/2023 23:29</t>
+          <t>21/10/2023 23:18</t>
         </is>
       </c>
       <c r="R274" t="n">
-        <v>4.14</v>
+        <v>3.36</v>
       </c>
       <c r="S274" t="inlineStr">
         <is>
@@ -25652,16 +25652,16 @@
         </is>
       </c>
       <c r="T274" t="n">
-        <v>6.32</v>
+        <v>3.93</v>
       </c>
       <c r="U274" t="inlineStr">
         <is>
-          <t>21/10/2023 23:29</t>
+          <t>21/10/2023 23:22</t>
         </is>
       </c>
       <c r="V274" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/sao-paulo-gremio/nR7Jy8SA/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/bahia-fortaleza/d0Hrxxvi/</t>
         </is>
       </c>
     </row>
@@ -25781,71 +25781,71 @@
       </c>
       <c r="F276" t="inlineStr">
         <is>
-          <t>Atletico-MG</t>
+          <t>Internacional</t>
         </is>
       </c>
       <c r="G276" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H276" t="inlineStr">
         <is>
-          <t>Cruzeiro</t>
+          <t>Santos</t>
         </is>
       </c>
       <c r="I276" t="n">
         <v>1</v>
       </c>
       <c r="J276" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="K276" t="inlineStr">
         <is>
-          <t>19/10/2023 23:12</t>
+          <t>20/10/2023 00:12</t>
         </is>
       </c>
       <c r="L276" t="n">
-        <v>1.92</v>
+        <v>1.54</v>
       </c>
       <c r="M276" t="inlineStr">
         <is>
-          <t>22/10/2023 20:52</t>
+          <t>22/10/2023 20:51</t>
         </is>
       </c>
       <c r="N276" t="n">
-        <v>3.66</v>
+        <v>3.54</v>
       </c>
       <c r="O276" t="inlineStr">
         <is>
-          <t>19/10/2023 23:12</t>
+          <t>20/10/2023 00:12</t>
         </is>
       </c>
       <c r="P276" t="n">
-        <v>3.17</v>
+        <v>4.08</v>
       </c>
       <c r="Q276" t="inlineStr">
         <is>
-          <t>22/10/2023 20:52</t>
+          <t>22/10/2023 20:55</t>
         </is>
       </c>
       <c r="R276" t="n">
-        <v>5.43</v>
+        <v>5.08</v>
       </c>
       <c r="S276" t="inlineStr">
         <is>
-          <t>19/10/2023 23:12</t>
+          <t>20/10/2023 00:12</t>
         </is>
       </c>
       <c r="T276" t="n">
-        <v>5.2</v>
+        <v>7.28</v>
       </c>
       <c r="U276" t="inlineStr">
         <is>
-          <t>22/10/2023 20:56</t>
+          <t>22/10/2023 20:55</t>
         </is>
       </c>
       <c r="V276" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/atletico-mg-cruzeiro/Mq0WY5CT/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/internacional-santos/vPnbUPKp/</t>
         </is>
       </c>
     </row>
@@ -25873,71 +25873,71 @@
       </c>
       <c r="F277" t="inlineStr">
         <is>
-          <t>Flamengo RJ</t>
+          <t>Atletico-MG</t>
         </is>
       </c>
       <c r="G277" t="n">
+        <v>0</v>
+      </c>
+      <c r="H277" t="inlineStr">
+        <is>
+          <t>Cruzeiro</t>
+        </is>
+      </c>
+      <c r="I277" t="n">
         <v>1</v>
       </c>
-      <c r="H277" t="inlineStr">
-        <is>
-          <t>Vasco</t>
-        </is>
-      </c>
-      <c r="I277" t="n">
-        <v>0</v>
-      </c>
       <c r="J277" t="n">
-        <v>1.61</v>
+        <v>1.75</v>
       </c>
       <c r="K277" t="inlineStr">
         <is>
-          <t>19/10/2023 23:13</t>
+          <t>19/10/2023 23:12</t>
         </is>
       </c>
       <c r="L277" t="n">
-        <v>1.7</v>
+        <v>1.92</v>
       </c>
       <c r="M277" t="inlineStr">
         <is>
-          <t>22/10/2023 20:53</t>
+          <t>22/10/2023 20:52</t>
         </is>
       </c>
       <c r="N277" t="n">
-        <v>4.1</v>
+        <v>3.66</v>
       </c>
       <c r="O277" t="inlineStr">
         <is>
-          <t>19/10/2023 23:13</t>
+          <t>19/10/2023 23:12</t>
         </is>
       </c>
       <c r="P277" t="n">
-        <v>3.77</v>
+        <v>3.17</v>
       </c>
       <c r="Q277" t="inlineStr">
         <is>
-          <t>22/10/2023 20:53</t>
+          <t>22/10/2023 20:52</t>
         </is>
       </c>
       <c r="R277" t="n">
-        <v>5.59</v>
+        <v>5.43</v>
       </c>
       <c r="S277" t="inlineStr">
         <is>
-          <t>19/10/2023 23:13</t>
+          <t>19/10/2023 23:12</t>
         </is>
       </c>
       <c r="T277" t="n">
-        <v>5.61</v>
+        <v>5.2</v>
       </c>
       <c r="U277" t="inlineStr">
         <is>
-          <t>22/10/2023 20:53</t>
+          <t>22/10/2023 20:56</t>
         </is>
       </c>
       <c r="V277" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/flamengo-rj-vasco/tU4BwUcb/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/atletico-mg-cruzeiro/Mq0WY5CT/</t>
         </is>
       </c>
     </row>
@@ -25965,71 +25965,71 @@
       </c>
       <c r="F278" t="inlineStr">
         <is>
-          <t>Internacional</t>
+          <t>Flamengo RJ</t>
         </is>
       </c>
       <c r="G278" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H278" t="inlineStr">
         <is>
-          <t>Santos</t>
+          <t>Vasco</t>
         </is>
       </c>
       <c r="I278" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J278" t="n">
-        <v>1.8</v>
+        <v>1.61</v>
       </c>
       <c r="K278" t="inlineStr">
         <is>
-          <t>20/10/2023 00:12</t>
+          <t>19/10/2023 23:13</t>
         </is>
       </c>
       <c r="L278" t="n">
-        <v>1.54</v>
+        <v>1.7</v>
       </c>
       <c r="M278" t="inlineStr">
         <is>
-          <t>22/10/2023 20:51</t>
+          <t>22/10/2023 20:53</t>
         </is>
       </c>
       <c r="N278" t="n">
-        <v>3.54</v>
+        <v>4.1</v>
       </c>
       <c r="O278" t="inlineStr">
         <is>
-          <t>20/10/2023 00:12</t>
+          <t>19/10/2023 23:13</t>
         </is>
       </c>
       <c r="P278" t="n">
-        <v>4.08</v>
+        <v>3.77</v>
       </c>
       <c r="Q278" t="inlineStr">
         <is>
-          <t>22/10/2023 20:55</t>
+          <t>22/10/2023 20:53</t>
         </is>
       </c>
       <c r="R278" t="n">
-        <v>5.08</v>
+        <v>5.59</v>
       </c>
       <c r="S278" t="inlineStr">
         <is>
-          <t>20/10/2023 00:12</t>
+          <t>19/10/2023 23:13</t>
         </is>
       </c>
       <c r="T278" t="n">
-        <v>7.28</v>
+        <v>5.61</v>
       </c>
       <c r="U278" t="inlineStr">
         <is>
-          <t>22/10/2023 20:55</t>
+          <t>22/10/2023 20:53</t>
         </is>
       </c>
       <c r="V278" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/internacional-santos/vPnbUPKp/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/flamengo-rj-vasco/tU4BwUcb/</t>
         </is>
       </c>
     </row>
@@ -26333,22 +26333,22 @@
       </c>
       <c r="F282" t="inlineStr">
         <is>
-          <t>Athletico-PR</t>
+          <t>Bragantino</t>
         </is>
       </c>
       <c r="G282" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H282" t="inlineStr">
         <is>
-          <t>America MG</t>
+          <t>Atletico-MG</t>
         </is>
       </c>
       <c r="I282" t="n">
         <v>2</v>
       </c>
       <c r="J282" t="n">
-        <v>1.58</v>
+        <v>1.96</v>
       </c>
       <c r="K282" t="inlineStr">
         <is>
@@ -26356,15 +26356,15 @@
         </is>
       </c>
       <c r="L282" t="n">
-        <v>1.58</v>
+        <v>1.88</v>
       </c>
       <c r="M282" t="inlineStr">
         <is>
-          <t>25/10/2023 23:27</t>
+          <t>25/10/2023 23:59</t>
         </is>
       </c>
       <c r="N282" t="n">
-        <v>4.26</v>
+        <v>3.5</v>
       </c>
       <c r="O282" t="inlineStr">
         <is>
@@ -26372,15 +26372,15 @@
         </is>
       </c>
       <c r="P282" t="n">
-        <v>4.31</v>
+        <v>3.47</v>
       </c>
       <c r="Q282" t="inlineStr">
         <is>
-          <t>25/10/2023 23:33</t>
+          <t>25/10/2023 23:59</t>
         </is>
       </c>
       <c r="R282" t="n">
-        <v>6.01</v>
+        <v>4.2</v>
       </c>
       <c r="S282" t="inlineStr">
         <is>
@@ -26388,16 +26388,16 @@
         </is>
       </c>
       <c r="T282" t="n">
-        <v>6.03</v>
+        <v>4.8</v>
       </c>
       <c r="U282" t="inlineStr">
         <is>
-          <t>25/10/2023 23:30</t>
+          <t>25/10/2023 23:59</t>
         </is>
       </c>
       <c r="V282" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/athletico-pr-america-mg/AXnrQVpd/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/bragantino-atletico-mg/Cd77WX7S/</t>
         </is>
       </c>
     </row>
@@ -26425,22 +26425,22 @@
       </c>
       <c r="F283" t="inlineStr">
         <is>
-          <t>Bragantino</t>
+          <t>Fluminense</t>
         </is>
       </c>
       <c r="G283" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H283" t="inlineStr">
         <is>
-          <t>Atletico-MG</t>
+          <t>Goias</t>
         </is>
       </c>
       <c r="I283" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J283" t="n">
-        <v>1.96</v>
+        <v>1.53</v>
       </c>
       <c r="K283" t="inlineStr">
         <is>
@@ -26448,15 +26448,15 @@
         </is>
       </c>
       <c r="L283" t="n">
-        <v>1.88</v>
+        <v>1.61</v>
       </c>
       <c r="M283" t="inlineStr">
         <is>
-          <t>25/10/2023 23:59</t>
+          <t>25/10/2023 23:34</t>
         </is>
       </c>
       <c r="N283" t="n">
-        <v>3.5</v>
+        <v>4.28</v>
       </c>
       <c r="O283" t="inlineStr">
         <is>
@@ -26464,15 +26464,15 @@
         </is>
       </c>
       <c r="P283" t="n">
-        <v>3.47</v>
+        <v>4.15</v>
       </c>
       <c r="Q283" t="inlineStr">
         <is>
-          <t>25/10/2023 23:59</t>
+          <t>25/10/2023 23:34</t>
         </is>
       </c>
       <c r="R283" t="n">
-        <v>4.2</v>
+        <v>6.81</v>
       </c>
       <c r="S283" t="inlineStr">
         <is>
@@ -26480,16 +26480,16 @@
         </is>
       </c>
       <c r="T283" t="n">
-        <v>4.8</v>
+        <v>5.9</v>
       </c>
       <c r="U283" t="inlineStr">
         <is>
-          <t>25/10/2023 23:59</t>
+          <t>25/10/2023 23:34</t>
         </is>
       </c>
       <c r="V283" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/bragantino-atletico-mg/Cd77WX7S/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/fluminense-goias/rHFjzG83/</t>
         </is>
       </c>
     </row>
@@ -26517,22 +26517,22 @@
       </c>
       <c r="F284" t="inlineStr">
         <is>
-          <t>Fluminense</t>
+          <t>Athletico-PR</t>
         </is>
       </c>
       <c r="G284" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H284" t="inlineStr">
         <is>
-          <t>Goias</t>
+          <t>America MG</t>
         </is>
       </c>
       <c r="I284" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J284" t="n">
-        <v>1.53</v>
+        <v>1.58</v>
       </c>
       <c r="K284" t="inlineStr">
         <is>
@@ -26540,15 +26540,15 @@
         </is>
       </c>
       <c r="L284" t="n">
-        <v>1.61</v>
+        <v>1.58</v>
       </c>
       <c r="M284" t="inlineStr">
         <is>
-          <t>25/10/2023 23:34</t>
+          <t>25/10/2023 23:27</t>
         </is>
       </c>
       <c r="N284" t="n">
-        <v>4.28</v>
+        <v>4.26</v>
       </c>
       <c r="O284" t="inlineStr">
         <is>
@@ -26556,15 +26556,15 @@
         </is>
       </c>
       <c r="P284" t="n">
-        <v>4.15</v>
+        <v>4.31</v>
       </c>
       <c r="Q284" t="inlineStr">
         <is>
-          <t>25/10/2023 23:34</t>
+          <t>25/10/2023 23:33</t>
         </is>
       </c>
       <c r="R284" t="n">
-        <v>6.81</v>
+        <v>6.01</v>
       </c>
       <c r="S284" t="inlineStr">
         <is>
@@ -26572,16 +26572,16 @@
         </is>
       </c>
       <c r="T284" t="n">
-        <v>5.9</v>
+        <v>6.03</v>
       </c>
       <c r="U284" t="inlineStr">
         <is>
-          <t>25/10/2023 23:34</t>
+          <t>25/10/2023 23:30</t>
         </is>
       </c>
       <c r="V284" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/fluminense-goias/rHFjzG83/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/athletico-pr-america-mg/AXnrQVpd/</t>
         </is>
       </c>
     </row>
@@ -26609,71 +26609,71 @@
       </c>
       <c r="F285" t="inlineStr">
         <is>
-          <t>Palmeiras</t>
+          <t>Cruzeiro</t>
         </is>
       </c>
       <c r="G285" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H285" t="inlineStr">
         <is>
-          <t>Sao Paulo</t>
+          <t>Bahia</t>
         </is>
       </c>
       <c r="I285" t="n">
         <v>0</v>
       </c>
       <c r="J285" t="n">
-        <v>1.75</v>
+        <v>1.92</v>
       </c>
       <c r="K285" t="inlineStr">
         <is>
-          <t>22/10/2023 22:42</t>
+          <t>22/10/2023 20:12</t>
         </is>
       </c>
       <c r="L285" t="n">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="M285" t="inlineStr">
         <is>
-          <t>26/10/2023 00:59</t>
+          <t>26/10/2023 00:54</t>
         </is>
       </c>
       <c r="N285" t="n">
-        <v>3.78</v>
+        <v>3.59</v>
       </c>
       <c r="O285" t="inlineStr">
         <is>
-          <t>22/10/2023 22:42</t>
+          <t>22/10/2023 20:12</t>
         </is>
       </c>
       <c r="P285" t="n">
-        <v>3.25</v>
+        <v>3.26</v>
       </c>
       <c r="Q285" t="inlineStr">
         <is>
-          <t>26/10/2023 00:59</t>
+          <t>26/10/2023 00:54</t>
         </is>
       </c>
       <c r="R285" t="n">
-        <v>5.03</v>
+        <v>4.3</v>
       </c>
       <c r="S285" t="inlineStr">
         <is>
-          <t>22/10/2023 22:42</t>
+          <t>22/10/2023 20:12</t>
         </is>
       </c>
       <c r="T285" t="n">
-        <v>4.15</v>
+        <v>4.51</v>
       </c>
       <c r="U285" t="inlineStr">
         <is>
-          <t>26/10/2023 00:59</t>
+          <t>26/10/2023 00:54</t>
         </is>
       </c>
       <c r="V285" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/palmeiras-sao-paulo/4W3aYgwG/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/cruzeiro-bahia/E5gZRiGq/</t>
         </is>
       </c>
     </row>
@@ -26701,71 +26701,71 @@
       </c>
       <c r="F286" t="inlineStr">
         <is>
-          <t>Cruzeiro</t>
+          <t>Palmeiras</t>
         </is>
       </c>
       <c r="G286" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H286" t="inlineStr">
         <is>
-          <t>Bahia</t>
+          <t>Sao Paulo</t>
         </is>
       </c>
       <c r="I286" t="n">
         <v>0</v>
       </c>
       <c r="J286" t="n">
-        <v>1.92</v>
+        <v>1.75</v>
       </c>
       <c r="K286" t="inlineStr">
         <is>
-          <t>22/10/2023 20:12</t>
+          <t>22/10/2023 22:42</t>
         </is>
       </c>
       <c r="L286" t="n">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="M286" t="inlineStr">
         <is>
-          <t>26/10/2023 00:54</t>
+          <t>26/10/2023 00:59</t>
         </is>
       </c>
       <c r="N286" t="n">
-        <v>3.59</v>
+        <v>3.78</v>
       </c>
       <c r="O286" t="inlineStr">
         <is>
-          <t>22/10/2023 20:12</t>
+          <t>22/10/2023 22:42</t>
         </is>
       </c>
       <c r="P286" t="n">
-        <v>3.26</v>
+        <v>3.25</v>
       </c>
       <c r="Q286" t="inlineStr">
         <is>
-          <t>26/10/2023 00:54</t>
+          <t>26/10/2023 00:59</t>
         </is>
       </c>
       <c r="R286" t="n">
-        <v>4.3</v>
+        <v>5.03</v>
       </c>
       <c r="S286" t="inlineStr">
         <is>
-          <t>22/10/2023 20:12</t>
+          <t>22/10/2023 22:42</t>
         </is>
       </c>
       <c r="T286" t="n">
-        <v>4.51</v>
+        <v>4.15</v>
       </c>
       <c r="U286" t="inlineStr">
         <is>
-          <t>26/10/2023 00:54</t>
+          <t>26/10/2023 00:59</t>
         </is>
       </c>
       <c r="V286" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/cruzeiro-bahia/E5gZRiGq/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/palmeiras-sao-paulo/4W3aYgwG/</t>
         </is>
       </c>
     </row>
@@ -27989,7 +27989,7 @@
       </c>
       <c r="F300" t="inlineStr">
         <is>
-          <t>Corinthians</t>
+          <t>Internacional</t>
         </is>
       </c>
       <c r="G300" t="n">
@@ -27997,14 +27997,14 @@
       </c>
       <c r="H300" t="inlineStr">
         <is>
-          <t>Athletico-PR</t>
+          <t>America MG</t>
         </is>
       </c>
       <c r="I300" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J300" t="n">
-        <v>2.7</v>
+        <v>1.65</v>
       </c>
       <c r="K300" t="inlineStr">
         <is>
@@ -28012,15 +28012,15 @@
         </is>
       </c>
       <c r="L300" t="n">
-        <v>2.73</v>
+        <v>1.58</v>
       </c>
       <c r="M300" t="inlineStr">
         <is>
-          <t>01/11/2023 22:51</t>
+          <t>01/11/2023 22:58</t>
         </is>
       </c>
       <c r="N300" t="n">
-        <v>3.14</v>
+        <v>4.12</v>
       </c>
       <c r="O300" t="inlineStr">
         <is>
@@ -28028,15 +28028,15 @@
         </is>
       </c>
       <c r="P300" t="n">
-        <v>3</v>
+        <v>4.38</v>
       </c>
       <c r="Q300" t="inlineStr">
         <is>
-          <t>01/11/2023 22:50</t>
+          <t>01/11/2023 22:58</t>
         </is>
       </c>
       <c r="R300" t="n">
-        <v>2.86</v>
+        <v>5.2</v>
       </c>
       <c r="S300" t="inlineStr">
         <is>
@@ -28044,16 +28044,16 @@
         </is>
       </c>
       <c r="T300" t="n">
-        <v>3.05</v>
+        <v>5.87</v>
       </c>
       <c r="U300" t="inlineStr">
         <is>
-          <t>01/11/2023 22:51</t>
+          <t>01/11/2023 22:58</t>
         </is>
       </c>
       <c r="V300" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/corinthians-athletico-pr/EuArgUEr/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/internacional-america-mg/4U2ejSb1/</t>
         </is>
       </c>
     </row>
@@ -28081,7 +28081,7 @@
       </c>
       <c r="F301" t="inlineStr">
         <is>
-          <t>Internacional</t>
+          <t>Corinthians</t>
         </is>
       </c>
       <c r="G301" t="n">
@@ -28089,14 +28089,14 @@
       </c>
       <c r="H301" t="inlineStr">
         <is>
-          <t>America MG</t>
+          <t>Athletico-PR</t>
         </is>
       </c>
       <c r="I301" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J301" t="n">
-        <v>1.65</v>
+        <v>2.7</v>
       </c>
       <c r="K301" t="inlineStr">
         <is>
@@ -28104,15 +28104,15 @@
         </is>
       </c>
       <c r="L301" t="n">
-        <v>1.58</v>
+        <v>2.73</v>
       </c>
       <c r="M301" t="inlineStr">
         <is>
-          <t>01/11/2023 22:58</t>
+          <t>01/11/2023 22:51</t>
         </is>
       </c>
       <c r="N301" t="n">
-        <v>4.12</v>
+        <v>3.14</v>
       </c>
       <c r="O301" t="inlineStr">
         <is>
@@ -28120,15 +28120,15 @@
         </is>
       </c>
       <c r="P301" t="n">
-        <v>4.38</v>
+        <v>3</v>
       </c>
       <c r="Q301" t="inlineStr">
         <is>
-          <t>01/11/2023 22:58</t>
+          <t>01/11/2023 22:50</t>
         </is>
       </c>
       <c r="R301" t="n">
-        <v>5.2</v>
+        <v>2.86</v>
       </c>
       <c r="S301" t="inlineStr">
         <is>
@@ -28136,16 +28136,16 @@
         </is>
       </c>
       <c r="T301" t="n">
-        <v>5.87</v>
+        <v>3.05</v>
       </c>
       <c r="U301" t="inlineStr">
         <is>
-          <t>01/11/2023 22:58</t>
+          <t>01/11/2023 22:51</t>
         </is>
       </c>
       <c r="V301" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/internacional-america-mg/4U2ejSb1/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/corinthians-athletico-pr/EuArgUEr/</t>
         </is>
       </c>
     </row>
@@ -28357,7 +28357,7 @@
       </c>
       <c r="F304" t="inlineStr">
         <is>
-          <t>Atletico-MG</t>
+          <t>Botafogo RJ</t>
         </is>
       </c>
       <c r="G304" t="n">
@@ -28365,22 +28365,22 @@
       </c>
       <c r="H304" t="inlineStr">
         <is>
-          <t>Fortaleza</t>
+          <t>Palmeiras</t>
         </is>
       </c>
       <c r="I304" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J304" t="n">
-        <v>1.78</v>
+        <v>2.74</v>
       </c>
       <c r="K304" t="inlineStr">
         <is>
-          <t>29/10/2023 02:13</t>
+          <t>30/10/2023 00:12</t>
         </is>
       </c>
       <c r="L304" t="n">
-        <v>1.73</v>
+        <v>3.14</v>
       </c>
       <c r="M304" t="inlineStr">
         <is>
@@ -28388,15 +28388,15 @@
         </is>
       </c>
       <c r="N304" t="n">
-        <v>3.56</v>
+        <v>3.15</v>
       </c>
       <c r="O304" t="inlineStr">
         <is>
-          <t>29/10/2023 02:13</t>
+          <t>30/10/2023 00:12</t>
         </is>
       </c>
       <c r="P304" t="n">
-        <v>3.71</v>
+        <v>3.2</v>
       </c>
       <c r="Q304" t="inlineStr">
         <is>
@@ -28404,24 +28404,24 @@
         </is>
       </c>
       <c r="R304" t="n">
-        <v>5.23</v>
+        <v>2.86</v>
       </c>
       <c r="S304" t="inlineStr">
         <is>
-          <t>29/10/2023 02:13</t>
+          <t>30/10/2023 00:12</t>
         </is>
       </c>
       <c r="T304" t="n">
-        <v>5.48</v>
+        <v>2.52</v>
       </c>
       <c r="U304" t="inlineStr">
         <is>
-          <t>02/11/2023 01:28</t>
+          <t>02/11/2023 01:23</t>
         </is>
       </c>
       <c r="V304" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/atletico-mg-fortaleza/M5Dji8qe/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/botafogo-rj-palmeiras/U7YBbjiL/</t>
         </is>
       </c>
     </row>
@@ -28449,7 +28449,7 @@
       </c>
       <c r="F305" t="inlineStr">
         <is>
-          <t>Botafogo RJ</t>
+          <t>Atletico-MG</t>
         </is>
       </c>
       <c r="G305" t="n">
@@ -28457,22 +28457,22 @@
       </c>
       <c r="H305" t="inlineStr">
         <is>
-          <t>Palmeiras</t>
+          <t>Fortaleza</t>
         </is>
       </c>
       <c r="I305" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J305" t="n">
-        <v>2.74</v>
+        <v>1.78</v>
       </c>
       <c r="K305" t="inlineStr">
         <is>
-          <t>30/10/2023 00:12</t>
+          <t>29/10/2023 02:13</t>
         </is>
       </c>
       <c r="L305" t="n">
-        <v>3.14</v>
+        <v>1.73</v>
       </c>
       <c r="M305" t="inlineStr">
         <is>
@@ -28480,15 +28480,15 @@
         </is>
       </c>
       <c r="N305" t="n">
-        <v>3.15</v>
+        <v>3.56</v>
       </c>
       <c r="O305" t="inlineStr">
         <is>
-          <t>30/10/2023 00:12</t>
+          <t>29/10/2023 02:13</t>
         </is>
       </c>
       <c r="P305" t="n">
-        <v>3.2</v>
+        <v>3.71</v>
       </c>
       <c r="Q305" t="inlineStr">
         <is>
@@ -28496,24 +28496,24 @@
         </is>
       </c>
       <c r="R305" t="n">
-        <v>2.86</v>
+        <v>5.23</v>
       </c>
       <c r="S305" t="inlineStr">
         <is>
-          <t>30/10/2023 00:12</t>
+          <t>29/10/2023 02:13</t>
         </is>
       </c>
       <c r="T305" t="n">
-        <v>2.52</v>
+        <v>5.48</v>
       </c>
       <c r="U305" t="inlineStr">
         <is>
-          <t>02/11/2023 01:23</t>
+          <t>02/11/2023 01:28</t>
         </is>
       </c>
       <c r="V305" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/botafogo-rj-palmeiras/U7YBbjiL/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/atletico-mg-fortaleza/M5Dji8qe/</t>
         </is>
       </c>
     </row>
@@ -29093,7 +29093,7 @@
       </c>
       <c r="F312" t="inlineStr">
         <is>
-          <t>Cruzeiro</t>
+          <t>Bragantino</t>
         </is>
       </c>
       <c r="G312" t="n">
@@ -29101,63 +29101,63 @@
       </c>
       <c r="H312" t="inlineStr">
         <is>
-          <t>Internacional</t>
+          <t>Corinthians</t>
         </is>
       </c>
       <c r="I312" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J312" t="n">
-        <v>2.14</v>
+        <v>1.58</v>
       </c>
       <c r="K312" t="inlineStr">
         <is>
-          <t>03/11/2023 00:12</t>
+          <t>02/11/2023 22:12</t>
         </is>
       </c>
       <c r="L312" t="n">
-        <v>2.21</v>
+        <v>1.6</v>
       </c>
       <c r="M312" t="inlineStr">
         <is>
+          <t>05/11/2023 19:53</t>
+        </is>
+      </c>
+      <c r="N312" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="O312" t="inlineStr">
+        <is>
+          <t>02/11/2023 22:12</t>
+        </is>
+      </c>
+      <c r="P312" t="n">
+        <v>4.22</v>
+      </c>
+      <c r="Q312" t="inlineStr">
+        <is>
+          <t>05/11/2023 19:58</t>
+        </is>
+      </c>
+      <c r="R312" t="n">
+        <v>6.35</v>
+      </c>
+      <c r="S312" t="inlineStr">
+        <is>
+          <t>02/11/2023 22:12</t>
+        </is>
+      </c>
+      <c r="T312" t="n">
+        <v>5.87</v>
+      </c>
+      <c r="U312" t="inlineStr">
+        <is>
           <t>05/11/2023 19:57</t>
         </is>
       </c>
-      <c r="N312" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="O312" t="inlineStr">
-        <is>
-          <t>03/11/2023 00:12</t>
-        </is>
-      </c>
-      <c r="P312" t="n">
-        <v>3.06</v>
-      </c>
-      <c r="Q312" t="inlineStr">
-        <is>
-          <t>05/11/2023 19:59</t>
-        </is>
-      </c>
-      <c r="R312" t="n">
-        <v>3.76</v>
-      </c>
-      <c r="S312" t="inlineStr">
-        <is>
-          <t>03/11/2023 00:12</t>
-        </is>
-      </c>
-      <c r="T312" t="n">
-        <v>4.02</v>
-      </c>
-      <c r="U312" t="inlineStr">
-        <is>
-          <t>05/11/2023 19:57</t>
-        </is>
-      </c>
       <c r="V312" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/cruzeiro-internacional/Wv3ziakC/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/bragantino-corinthians/hl4Wiuz6/</t>
         </is>
       </c>
     </row>
@@ -29185,71 +29185,71 @@
       </c>
       <c r="F313" t="inlineStr">
         <is>
-          <t>Fortaleza</t>
+          <t>Cruzeiro</t>
         </is>
       </c>
       <c r="G313" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H313" t="inlineStr">
         <is>
-          <t>Flamengo RJ</t>
+          <t>Internacional</t>
         </is>
       </c>
       <c r="I313" t="n">
         <v>2</v>
       </c>
       <c r="J313" t="n">
-        <v>2.84</v>
+        <v>2.14</v>
       </c>
       <c r="K313" t="inlineStr">
         <is>
-          <t>02/11/2023 01:42</t>
+          <t>03/11/2023 00:12</t>
         </is>
       </c>
       <c r="L313" t="n">
-        <v>2.58</v>
+        <v>2.21</v>
       </c>
       <c r="M313" t="inlineStr">
         <is>
-          <t>05/11/2023 19:58</t>
+          <t>05/11/2023 19:57</t>
         </is>
       </c>
       <c r="N313" t="n">
-        <v>3.27</v>
+        <v>3.34</v>
       </c>
       <c r="O313" t="inlineStr">
         <is>
-          <t>02/11/2023 01:42</t>
+          <t>03/11/2023 00:12</t>
         </is>
       </c>
       <c r="P313" t="n">
-        <v>3.16</v>
+        <v>3.06</v>
       </c>
       <c r="Q313" t="inlineStr">
         <is>
-          <t>05/11/2023 19:52</t>
+          <t>05/11/2023 19:59</t>
         </is>
       </c>
       <c r="R313" t="n">
-        <v>2.63</v>
+        <v>3.76</v>
       </c>
       <c r="S313" t="inlineStr">
         <is>
-          <t>02/11/2023 01:42</t>
+          <t>03/11/2023 00:12</t>
         </is>
       </c>
       <c r="T313" t="n">
-        <v>3.09</v>
+        <v>4.02</v>
       </c>
       <c r="U313" t="inlineStr">
         <is>
-          <t>05/11/2023 19:58</t>
+          <t>05/11/2023 19:57</t>
         </is>
       </c>
       <c r="V313" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/fortaleza-flamengo-rj/6BfQDMdP/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/cruzeiro-internacional/Wv3ziakC/</t>
         </is>
       </c>
     </row>
@@ -29277,71 +29277,71 @@
       </c>
       <c r="F314" t="inlineStr">
         <is>
-          <t>Bragantino</t>
+          <t>Fortaleza</t>
         </is>
       </c>
       <c r="G314" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H314" t="inlineStr">
         <is>
-          <t>Corinthians</t>
+          <t>Flamengo RJ</t>
         </is>
       </c>
       <c r="I314" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J314" t="n">
-        <v>1.58</v>
+        <v>2.84</v>
       </c>
       <c r="K314" t="inlineStr">
         <is>
-          <t>02/11/2023 22:12</t>
+          <t>02/11/2023 01:42</t>
         </is>
       </c>
       <c r="L314" t="n">
-        <v>1.6</v>
+        <v>2.58</v>
       </c>
       <c r="M314" t="inlineStr">
         <is>
-          <t>05/11/2023 19:53</t>
+          <t>05/11/2023 19:58</t>
         </is>
       </c>
       <c r="N314" t="n">
-        <v>4.08</v>
+        <v>3.27</v>
       </c>
       <c r="O314" t="inlineStr">
         <is>
-          <t>02/11/2023 22:12</t>
+          <t>02/11/2023 01:42</t>
         </is>
       </c>
       <c r="P314" t="n">
-        <v>4.22</v>
+        <v>3.16</v>
       </c>
       <c r="Q314" t="inlineStr">
         <is>
+          <t>05/11/2023 19:52</t>
+        </is>
+      </c>
+      <c r="R314" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="S314" t="inlineStr">
+        <is>
+          <t>02/11/2023 01:42</t>
+        </is>
+      </c>
+      <c r="T314" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="U314" t="inlineStr">
+        <is>
           <t>05/11/2023 19:58</t>
         </is>
       </c>
-      <c r="R314" t="n">
-        <v>6.35</v>
-      </c>
-      <c r="S314" t="inlineStr">
-        <is>
-          <t>02/11/2023 22:12</t>
-        </is>
-      </c>
-      <c r="T314" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="U314" t="inlineStr">
-        <is>
-          <t>05/11/2023 19:57</t>
-        </is>
-      </c>
       <c r="V314" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/bragantino-corinthians/hl4Wiuz6/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/fortaleza-flamengo-rj/6BfQDMdP/</t>
         </is>
       </c>
     </row>
@@ -29434,6 +29434,190 @@
       <c r="V315" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/brazil/serie-a/coritiba-goias/46GskwKO/</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" s="1" t="n">
+        <v>315</v>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>brazil</t>
+        </is>
+      </c>
+      <c r="C316" t="inlineStr">
+        <is>
+          <t>serie-a</t>
+        </is>
+      </c>
+      <c r="D316" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E316" s="2" t="n">
+        <v>45236.95833333334</v>
+      </c>
+      <c r="F316" t="inlineStr">
+        <is>
+          <t>Vasco</t>
+        </is>
+      </c>
+      <c r="G316" t="n">
+        <v>1</v>
+      </c>
+      <c r="H316" t="inlineStr">
+        <is>
+          <t>Botafogo RJ</t>
+        </is>
+      </c>
+      <c r="I316" t="n">
+        <v>0</v>
+      </c>
+      <c r="J316" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>02/11/2023 21:12</t>
+        </is>
+      </c>
+      <c r="L316" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="M316" t="inlineStr">
+        <is>
+          <t>06/11/2023 22:55</t>
+        </is>
+      </c>
+      <c r="N316" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="O316" t="inlineStr">
+        <is>
+          <t>02/11/2023 21:12</t>
+        </is>
+      </c>
+      <c r="P316" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="Q316" t="inlineStr">
+        <is>
+          <t>06/11/2023 22:59</t>
+        </is>
+      </c>
+      <c r="R316" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="S316" t="inlineStr">
+        <is>
+          <t>02/11/2023 21:12</t>
+        </is>
+      </c>
+      <c r="T316" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="U316" t="inlineStr">
+        <is>
+          <t>06/11/2023 22:59</t>
+        </is>
+      </c>
+      <c r="V316" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/vasco-botafogo-rj/2aBJfsjm/</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" s="1" t="n">
+        <v>316</v>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>brazil</t>
+        </is>
+      </c>
+      <c r="C317" t="inlineStr">
+        <is>
+          <t>serie-a</t>
+        </is>
+      </c>
+      <c r="D317" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E317" s="2" t="n">
+        <v>45237.04166666666</v>
+      </c>
+      <c r="F317" t="inlineStr">
+        <is>
+          <t>Santos</t>
+        </is>
+      </c>
+      <c r="G317" t="n">
+        <v>0</v>
+      </c>
+      <c r="H317" t="inlineStr">
+        <is>
+          <t>Cuiaba</t>
+        </is>
+      </c>
+      <c r="I317" t="n">
+        <v>0</v>
+      </c>
+      <c r="J317" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>02/11/2023 21:12</t>
+        </is>
+      </c>
+      <c r="L317" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="M317" t="inlineStr">
+        <is>
+          <t>07/11/2023 00:59</t>
+        </is>
+      </c>
+      <c r="N317" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="O317" t="inlineStr">
+        <is>
+          <t>02/11/2023 21:12</t>
+        </is>
+      </c>
+      <c r="P317" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="Q317" t="inlineStr">
+        <is>
+          <t>07/11/2023 00:59</t>
+        </is>
+      </c>
+      <c r="R317" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="S317" t="inlineStr">
+        <is>
+          <t>02/11/2023 21:12</t>
+        </is>
+      </c>
+      <c r="T317" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="U317" t="inlineStr">
+        <is>
+          <t>07/11/2023 00:59</t>
+        </is>
+      </c>
+      <c r="V317" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/santos-cuiaba/APERhLKa/</t>
         </is>
       </c>
     </row>

--- a/2023/brazil_serie-a_2023.xlsx
+++ b/2023/brazil_serie-a_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V317"/>
+  <dimension ref="A1:V322"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1953,22 +1953,22 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Santos</t>
+          <t>Vasco</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Atletico-MG</t>
+          <t>Palmeiras</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J17" t="n">
-        <v>3.42</v>
+        <v>3.35</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -1976,15 +1976,15 @@
         </is>
       </c>
       <c r="L17" t="n">
-        <v>3.42</v>
+        <v>3.28</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>23/04/2023 20:32</t>
+          <t>23/04/2023 20:56</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>3.27</v>
+        <v>3.39</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1992,15 +1992,15 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>3.13</v>
+        <v>3.19</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>23/04/2023 20:26</t>
+          <t>23/04/2023 20:51</t>
         </is>
       </c>
       <c r="R17" t="n">
-        <v>2.31</v>
+        <v>2.28</v>
       </c>
       <c r="S17" t="inlineStr">
         <is>
@@ -2008,16 +2008,16 @@
         </is>
       </c>
       <c r="T17" t="n">
-        <v>2.41</v>
+        <v>2.44</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>23/04/2023 20:26</t>
+          <t>23/04/2023 20:53</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/santos-atletico-mg/pzVMHOa5/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/vasco-palmeiras/xAREJpVh/</t>
         </is>
       </c>
     </row>
@@ -2045,22 +2045,22 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Vasco</t>
+          <t>Santos</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Palmeiras</t>
+          <t>Atletico-MG</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>3.35</v>
+        <v>3.42</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -2068,15 +2068,15 @@
         </is>
       </c>
       <c r="L18" t="n">
-        <v>3.28</v>
+        <v>3.42</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>23/04/2023 20:56</t>
+          <t>23/04/2023 20:32</t>
         </is>
       </c>
       <c r="N18" t="n">
-        <v>3.39</v>
+        <v>3.27</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -2084,15 +2084,15 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>3.19</v>
+        <v>3.13</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>23/04/2023 20:51</t>
+          <t>23/04/2023 20:26</t>
         </is>
       </c>
       <c r="R18" t="n">
-        <v>2.28</v>
+        <v>2.31</v>
       </c>
       <c r="S18" t="inlineStr">
         <is>
@@ -2100,16 +2100,16 @@
         </is>
       </c>
       <c r="T18" t="n">
-        <v>2.44</v>
+        <v>2.41</v>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>23/04/2023 20:53</t>
+          <t>23/04/2023 20:26</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/vasco-palmeiras/xAREJpVh/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/santos-atletico-mg/pzVMHOa5/</t>
         </is>
       </c>
     </row>
@@ -2413,71 +2413,71 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Coritiba</t>
+          <t>Fortaleza</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Sao Paulo</t>
+          <t>Fluminense</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J22" t="n">
-        <v>3.08</v>
+        <v>2.69</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>23/04/2023 23:42</t>
+          <t>24/04/2023 05:12</t>
         </is>
       </c>
       <c r="L22" t="n">
-        <v>3.03</v>
+        <v>2.16</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>29/04/2023 21:23</t>
+          <t>29/04/2023 21:29</t>
         </is>
       </c>
       <c r="N22" t="n">
-        <v>3.36</v>
+        <v>3.27</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>23/04/2023 23:42</t>
+          <t>24/04/2023 05:12</t>
         </is>
       </c>
       <c r="P22" t="n">
-        <v>3.18</v>
+        <v>3.34</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>29/04/2023 21:16</t>
+          <t>29/04/2023 21:29</t>
         </is>
       </c>
       <c r="R22" t="n">
-        <v>2.4</v>
+        <v>2.77</v>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>23/04/2023 23:42</t>
+          <t>24/04/2023 05:12</t>
         </is>
       </c>
       <c r="T22" t="n">
-        <v>2.61</v>
+        <v>3.76</v>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>29/04/2023 21:23</t>
+          <t>29/04/2023 21:29</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/coritiba-sao-paulo/b1wqNJyo/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/fortaleza-fluminense/Q7RQo3Eo/</t>
         </is>
       </c>
     </row>
@@ -2505,71 +2505,71 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Fortaleza</t>
+          <t>Coritiba</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Fluminense</t>
+          <t>Sao Paulo</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J23" t="n">
-        <v>2.69</v>
+        <v>3.08</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>24/04/2023 05:12</t>
+          <t>23/04/2023 23:42</t>
         </is>
       </c>
       <c r="L23" t="n">
-        <v>2.16</v>
+        <v>3.03</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>29/04/2023 21:29</t>
+          <t>29/04/2023 21:23</t>
         </is>
       </c>
       <c r="N23" t="n">
-        <v>3.27</v>
+        <v>3.36</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>24/04/2023 05:12</t>
+          <t>23/04/2023 23:42</t>
         </is>
       </c>
       <c r="P23" t="n">
-        <v>3.34</v>
+        <v>3.18</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>29/04/2023 21:29</t>
+          <t>29/04/2023 21:16</t>
         </is>
       </c>
       <c r="R23" t="n">
-        <v>2.77</v>
+        <v>2.4</v>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>24/04/2023 05:12</t>
+          <t>23/04/2023 23:42</t>
         </is>
       </c>
       <c r="T23" t="n">
-        <v>3.76</v>
+        <v>2.61</v>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>29/04/2023 21:29</t>
+          <t>29/04/2023 21:23</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/fortaleza-fluminense/Q7RQo3Eo/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/coritiba-sao-paulo/b1wqNJyo/</t>
         </is>
       </c>
     </row>
@@ -2597,71 +2597,71 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Palmeiras</t>
+          <t>Bragantino</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Corinthians</t>
+          <t>Cruzeiro</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J24" t="n">
-        <v>1.68</v>
+        <v>1.75</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>24/04/2023 00:12</t>
+          <t>23/04/2023 05:13</t>
         </is>
       </c>
       <c r="L24" t="n">
-        <v>1.5</v>
+        <v>1.82</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>29/04/2023 23:06</t>
+          <t>29/04/2023 23:29</t>
         </is>
       </c>
       <c r="N24" t="n">
-        <v>3.88</v>
+        <v>3.77</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>24/04/2023 00:12</t>
+          <t>23/04/2023 05:13</t>
         </is>
       </c>
       <c r="P24" t="n">
-        <v>4.07</v>
+        <v>3.67</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>29/04/2023 22:36</t>
+          <t>29/04/2023 23:29</t>
         </is>
       </c>
       <c r="R24" t="n">
-        <v>5.49</v>
+        <v>5.06</v>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>24/04/2023 00:12</t>
+          <t>23/04/2023 05:13</t>
         </is>
       </c>
       <c r="T24" t="n">
-        <v>8.26</v>
+        <v>4.81</v>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>29/04/2023 23:06</t>
+          <t>29/04/2023 23:29</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/palmeiras-corinthians/SCa0VsU4/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/bragantino-cruzeiro/0Qc8TLbH/</t>
         </is>
       </c>
     </row>
@@ -2781,71 +2781,71 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Bragantino</t>
+          <t>Palmeiras</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Cruzeiro</t>
+          <t>Corinthians</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J26" t="n">
-        <v>1.75</v>
+        <v>1.68</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>23/04/2023 05:13</t>
+          <t>24/04/2023 00:12</t>
         </is>
       </c>
       <c r="L26" t="n">
-        <v>1.82</v>
+        <v>1.5</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>29/04/2023 23:29</t>
+          <t>29/04/2023 23:06</t>
         </is>
       </c>
       <c r="N26" t="n">
-        <v>3.77</v>
+        <v>3.88</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>23/04/2023 05:13</t>
+          <t>24/04/2023 00:12</t>
         </is>
       </c>
       <c r="P26" t="n">
-        <v>3.67</v>
+        <v>4.07</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>29/04/2023 23:29</t>
+          <t>29/04/2023 22:36</t>
         </is>
       </c>
       <c r="R26" t="n">
-        <v>5.06</v>
+        <v>5.49</v>
       </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t>23/04/2023 05:13</t>
+          <t>24/04/2023 00:12</t>
         </is>
       </c>
       <c r="T26" t="n">
-        <v>4.81</v>
+        <v>8.26</v>
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>29/04/2023 23:29</t>
+          <t>29/04/2023 23:06</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/bragantino-cruzeiro/0Qc8TLbH/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/palmeiras-corinthians/SCa0VsU4/</t>
         </is>
       </c>
     </row>
@@ -3057,7 +3057,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Cuiaba</t>
+          <t>Internacional</t>
         </is>
       </c>
       <c r="G29" t="n">
@@ -3065,63 +3065,63 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Gremio</t>
+          <t>Goias</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>2.66</v>
+        <v>1.48</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>23/04/2023 05:13</t>
+          <t>24/04/2023 00:12</t>
         </is>
       </c>
       <c r="L29" t="n">
-        <v>2.79</v>
+        <v>1.64</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>30/04/2023 23:26</t>
+          <t>30/04/2023 23:25</t>
         </is>
       </c>
       <c r="N29" t="n">
-        <v>3.21</v>
+        <v>4.48</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>23/04/2023 05:13</t>
+          <t>24/04/2023 00:12</t>
         </is>
       </c>
       <c r="P29" t="n">
-        <v>3.12</v>
+        <v>3.98</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>30/04/2023 23:20</t>
+          <t>30/04/2023 23:25</t>
         </is>
       </c>
       <c r="R29" t="n">
-        <v>2.9</v>
+        <v>7.36</v>
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>23/04/2023 05:13</t>
+          <t>24/04/2023 00:12</t>
         </is>
       </c>
       <c r="T29" t="n">
-        <v>2.87</v>
+        <v>5.91</v>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>30/04/2023 23:26</t>
+          <t>30/04/2023 23:25</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/cuiaba-gremio/4bQUpNTi/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/internacional-goias/dhiHRaTT/</t>
         </is>
       </c>
     </row>
@@ -3149,7 +3149,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Internacional</t>
+          <t>Cuiaba</t>
         </is>
       </c>
       <c r="G30" t="n">
@@ -3157,63 +3157,63 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Goias</t>
+          <t>Gremio</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J30" t="n">
-        <v>1.48</v>
+        <v>2.66</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>24/04/2023 00:12</t>
+          <t>23/04/2023 05:13</t>
         </is>
       </c>
       <c r="L30" t="n">
-        <v>1.64</v>
+        <v>2.79</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>30/04/2023 23:25</t>
+          <t>30/04/2023 23:26</t>
         </is>
       </c>
       <c r="N30" t="n">
-        <v>4.48</v>
+        <v>3.21</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>24/04/2023 00:12</t>
+          <t>23/04/2023 05:13</t>
         </is>
       </c>
       <c r="P30" t="n">
-        <v>3.98</v>
+        <v>3.12</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>30/04/2023 23:25</t>
+          <t>30/04/2023 23:20</t>
         </is>
       </c>
       <c r="R30" t="n">
-        <v>7.36</v>
+        <v>2.9</v>
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>24/04/2023 00:12</t>
+          <t>23/04/2023 05:13</t>
         </is>
       </c>
       <c r="T30" t="n">
-        <v>5.91</v>
+        <v>2.87</v>
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>30/04/2023 23:25</t>
+          <t>30/04/2023 23:26</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/internacional-goias/dhiHRaTT/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/cuiaba-gremio/4bQUpNTi/</t>
         </is>
       </c>
     </row>
@@ -3885,22 +3885,22 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Botafogo RJ</t>
+          <t>Gremio</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Atletico-MG</t>
+          <t>Bragantino</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J38" t="n">
-        <v>2.85</v>
+        <v>1.88</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -3908,15 +3908,15 @@
         </is>
       </c>
       <c r="L38" t="n">
-        <v>3.72</v>
+        <v>1.91</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>07/05/2023 23:29</t>
+          <t>07/05/2023 23:27</t>
         </is>
       </c>
       <c r="N38" t="n">
-        <v>3.66</v>
+        <v>3.71</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
@@ -3924,15 +3924,15 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>3.33</v>
+        <v>3.6</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>07/05/2023 23:29</t>
+          <t>07/05/2023 23:23</t>
         </is>
       </c>
       <c r="R38" t="n">
-        <v>2.46</v>
+        <v>4.19</v>
       </c>
       <c r="S38" t="inlineStr">
         <is>
@@ -3940,16 +3940,16 @@
         </is>
       </c>
       <c r="T38" t="n">
-        <v>2.18</v>
+        <v>4.41</v>
       </c>
       <c r="U38" t="inlineStr">
         <is>
-          <t>07/05/2023 23:29</t>
+          <t>07/05/2023 23:27</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/botafogo-rj-atletico-mg/0QJwq1b4/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/gremio-bragantino/nobMzw6p/</t>
         </is>
       </c>
     </row>
@@ -3977,22 +3977,22 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Gremio</t>
+          <t>Goias</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Bragantino</t>
+          <t>Palmeiras</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J39" t="n">
-        <v>1.88</v>
+        <v>4.55</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -4000,15 +4000,15 @@
         </is>
       </c>
       <c r="L39" t="n">
-        <v>1.91</v>
+        <v>5.53</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>07/05/2023 23:27</t>
+          <t>07/05/2023 23:20</t>
         </is>
       </c>
       <c r="N39" t="n">
-        <v>3.71</v>
+        <v>3.7</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
@@ -4016,15 +4016,15 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>3.6</v>
+        <v>3.99</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>07/05/2023 23:23</t>
+          <t>07/05/2023 23:20</t>
         </is>
       </c>
       <c r="R39" t="n">
-        <v>4.19</v>
+        <v>1.81</v>
       </c>
       <c r="S39" t="inlineStr">
         <is>
@@ -4032,16 +4032,16 @@
         </is>
       </c>
       <c r="T39" t="n">
-        <v>4.41</v>
+        <v>1.67</v>
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>07/05/2023 23:27</t>
+          <t>07/05/2023 23:20</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/gremio-bragantino/nobMzw6p/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/goias-palmeiras/jFCjtarN/</t>
         </is>
       </c>
     </row>
@@ -4069,22 +4069,22 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Goias</t>
+          <t>Botafogo RJ</t>
         </is>
       </c>
       <c r="G40" t="n">
+        <v>2</v>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Atletico-MG</t>
+        </is>
+      </c>
+      <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>Palmeiras</t>
-        </is>
-      </c>
-      <c r="I40" t="n">
-        <v>5</v>
-      </c>
       <c r="J40" t="n">
-        <v>4.55</v>
+        <v>2.85</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -4092,15 +4092,15 @@
         </is>
       </c>
       <c r="L40" t="n">
-        <v>5.53</v>
+        <v>3.72</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>07/05/2023 23:20</t>
+          <t>07/05/2023 23:29</t>
         </is>
       </c>
       <c r="N40" t="n">
-        <v>3.7</v>
+        <v>3.66</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
@@ -4108,15 +4108,15 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>3.99</v>
+        <v>3.33</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>07/05/2023 23:20</t>
+          <t>07/05/2023 23:29</t>
         </is>
       </c>
       <c r="R40" t="n">
-        <v>1.81</v>
+        <v>2.46</v>
       </c>
       <c r="S40" t="inlineStr">
         <is>
@@ -4124,16 +4124,16 @@
         </is>
       </c>
       <c r="T40" t="n">
-        <v>1.67</v>
+        <v>2.18</v>
       </c>
       <c r="U40" t="inlineStr">
         <is>
-          <t>07/05/2023 23:20</t>
+          <t>07/05/2023 23:29</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/goias-palmeiras/jFCjtarN/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/botafogo-rj-atletico-mg/0QJwq1b4/</t>
         </is>
       </c>
     </row>
@@ -4253,71 +4253,71 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Internacional</t>
+          <t>Bragantino</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Athletico-PR</t>
+          <t>America MG</t>
         </is>
       </c>
       <c r="I42" t="n">
         <v>2</v>
       </c>
       <c r="J42" t="n">
-        <v>1.79</v>
+        <v>1.86</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>07/05/2023 21:12</t>
+          <t>07/05/2023 23:42</t>
         </is>
       </c>
       <c r="L42" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>10/05/2023 23:55</t>
+          <t>10/05/2023 23:45</t>
         </is>
       </c>
       <c r="N42" t="n">
-        <v>3.69</v>
+        <v>3.68</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>07/05/2023 21:12</t>
+          <t>07/05/2023 23:42</t>
         </is>
       </c>
       <c r="P42" t="n">
-        <v>3.61</v>
+        <v>3.77</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>10/05/2023 23:55</t>
+          <t>10/05/2023 23:45</t>
         </is>
       </c>
       <c r="R42" t="n">
-        <v>4.86</v>
+        <v>4.31</v>
       </c>
       <c r="S42" t="inlineStr">
         <is>
-          <t>07/05/2023 21:12</t>
+          <t>07/05/2023 23:42</t>
         </is>
       </c>
       <c r="T42" t="n">
-        <v>4.93</v>
+        <v>4.62</v>
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>10/05/2023 23:55</t>
+          <t>10/05/2023 23:48</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/internacional-athletico-pr/61gdmGkj/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/bragantino-america-mg/xWzYhxSS/</t>
         </is>
       </c>
     </row>
@@ -4345,71 +4345,71 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Bragantino</t>
+          <t>Santos</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>America MG</t>
+          <t>Bahia</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>1.86</v>
+        <v>1.95</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>07/05/2023 23:42</t>
+          <t>07/05/2023 21:12</t>
         </is>
       </c>
       <c r="L43" t="n">
-        <v>1.83</v>
+        <v>2.3</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>10/05/2023 23:45</t>
+          <t>10/05/2023 23:51</t>
         </is>
       </c>
       <c r="N43" t="n">
-        <v>3.68</v>
+        <v>3.64</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>07/05/2023 23:42</t>
+          <t>07/05/2023 21:12</t>
         </is>
       </c>
       <c r="P43" t="n">
-        <v>3.77</v>
+        <v>3.14</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>10/05/2023 23:45</t>
+          <t>10/05/2023 23:59</t>
         </is>
       </c>
       <c r="R43" t="n">
-        <v>4.31</v>
+        <v>3.93</v>
       </c>
       <c r="S43" t="inlineStr">
         <is>
-          <t>07/05/2023 23:42</t>
+          <t>07/05/2023 21:12</t>
         </is>
       </c>
       <c r="T43" t="n">
-        <v>4.62</v>
+        <v>3.65</v>
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>10/05/2023 23:48</t>
+          <t>10/05/2023 23:59</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/bragantino-america-mg/xWzYhxSS/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/santos-bahia/r9yUgICM/</t>
         </is>
       </c>
     </row>
@@ -4437,22 +4437,22 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Santos</t>
+          <t>Internacional</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Bahia</t>
+          <t>Athletico-PR</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J44" t="n">
-        <v>1.95</v>
+        <v>1.79</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
@@ -4460,15 +4460,15 @@
         </is>
       </c>
       <c r="L44" t="n">
-        <v>2.3</v>
+        <v>1.82</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>10/05/2023 23:51</t>
+          <t>10/05/2023 23:55</t>
         </is>
       </c>
       <c r="N44" t="n">
-        <v>3.64</v>
+        <v>3.69</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
@@ -4476,15 +4476,15 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>3.14</v>
+        <v>3.61</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>10/05/2023 23:59</t>
+          <t>10/05/2023 23:55</t>
         </is>
       </c>
       <c r="R44" t="n">
-        <v>3.93</v>
+        <v>4.86</v>
       </c>
       <c r="S44" t="inlineStr">
         <is>
@@ -4492,16 +4492,16 @@
         </is>
       </c>
       <c r="T44" t="n">
-        <v>3.65</v>
+        <v>4.93</v>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>10/05/2023 23:59</t>
+          <t>10/05/2023 23:55</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/santos-bahia/r9yUgICM/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/internacional-athletico-pr/61gdmGkj/</t>
         </is>
       </c>
     </row>
@@ -4529,22 +4529,22 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Flamengo RJ</t>
+          <t>Cuiaba</t>
         </is>
       </c>
       <c r="G45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Goias</t>
+          <t>Atletico-MG</t>
         </is>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J45" t="n">
-        <v>1.32</v>
+        <v>3.36</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
@@ -4552,15 +4552,15 @@
         </is>
       </c>
       <c r="L45" t="n">
-        <v>1.25</v>
+        <v>3.86</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>11/05/2023 00:43</t>
+          <t>11/05/2023 00:59</t>
         </is>
       </c>
       <c r="N45" t="n">
-        <v>5.65</v>
+        <v>3.3</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
@@ -4568,15 +4568,15 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>6.22</v>
+        <v>3.3</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>11/05/2023 00:58</t>
+          <t>11/05/2023 00:57</t>
         </is>
       </c>
       <c r="R45" t="n">
-        <v>9.16</v>
+        <v>2.32</v>
       </c>
       <c r="S45" t="inlineStr">
         <is>
@@ -4584,16 +4584,16 @@
         </is>
       </c>
       <c r="T45" t="n">
-        <v>12.58</v>
+        <v>2.15</v>
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>11/05/2023 00:58</t>
+          <t>11/05/2023 00:59</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/flamengo-rj-goias/8jqHdKS3/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/cuiaba-atletico-mg/CbpnAwc3/</t>
         </is>
       </c>
     </row>
@@ -4621,22 +4621,22 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Cuiaba</t>
+          <t>Flamengo RJ</t>
         </is>
       </c>
       <c r="G46" t="n">
+        <v>2</v>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Goias</t>
+        </is>
+      </c>
+      <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>Atletico-MG</t>
-        </is>
-      </c>
-      <c r="I46" t="n">
-        <v>4</v>
-      </c>
       <c r="J46" t="n">
-        <v>3.36</v>
+        <v>1.32</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
@@ -4644,15 +4644,15 @@
         </is>
       </c>
       <c r="L46" t="n">
-        <v>3.86</v>
+        <v>1.25</v>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>11/05/2023 00:59</t>
+          <t>11/05/2023 00:43</t>
         </is>
       </c>
       <c r="N46" t="n">
-        <v>3.3</v>
+        <v>5.65</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
@@ -4660,15 +4660,15 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>3.3</v>
+        <v>6.22</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>11/05/2023 00:57</t>
+          <t>11/05/2023 00:58</t>
         </is>
       </c>
       <c r="R46" t="n">
-        <v>2.32</v>
+        <v>9.16</v>
       </c>
       <c r="S46" t="inlineStr">
         <is>
@@ -4676,16 +4676,16 @@
         </is>
       </c>
       <c r="T46" t="n">
-        <v>2.15</v>
+        <v>12.58</v>
       </c>
       <c r="U46" t="inlineStr">
         <is>
-          <t>11/05/2023 00:59</t>
+          <t>11/05/2023 00:58</t>
         </is>
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/cuiaba-atletico-mg/CbpnAwc3/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/flamengo-rj-goias/8jqHdKS3/</t>
         </is>
       </c>
     </row>
@@ -5541,7 +5541,7 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Gremio</t>
+          <t>Vasco</t>
         </is>
       </c>
       <c r="G56" t="n">
@@ -5549,63 +5549,63 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Fortaleza</t>
+          <t>Santos</t>
         </is>
       </c>
       <c r="I56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J56" t="n">
-        <v>2.26</v>
+        <v>1.74</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>12/05/2023 01:12</t>
+          <t>12/05/2023 00:12</t>
         </is>
       </c>
       <c r="L56" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>14/05/2023 20:59</t>
+          <t>14/05/2023 20:50</t>
         </is>
       </c>
       <c r="N56" t="n">
-        <v>3.44</v>
+        <v>3.77</v>
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>12/05/2023 01:12</t>
+          <t>12/05/2023 00:12</t>
         </is>
       </c>
       <c r="P56" t="n">
-        <v>3.64</v>
+        <v>3.33</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>14/05/2023 20:59</t>
+          <t>14/05/2023 20:58</t>
         </is>
       </c>
       <c r="R56" t="n">
-        <v>3.27</v>
+        <v>4.95</v>
       </c>
       <c r="S56" t="inlineStr">
         <is>
-          <t>12/05/2023 01:12</t>
+          <t>12/05/2023 00:12</t>
         </is>
       </c>
       <c r="T56" t="n">
-        <v>4.38</v>
+        <v>4.73</v>
       </c>
       <c r="U56" t="inlineStr">
         <is>
-          <t>14/05/2023 20:59</t>
+          <t>14/05/2023 20:58</t>
         </is>
       </c>
       <c r="V56" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/gremio-fortaleza/SYhum7e7/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/vasco-santos/YDYf8HRF/</t>
         </is>
       </c>
     </row>
@@ -5633,7 +5633,7 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Vasco</t>
+          <t>Gremio</t>
         </is>
       </c>
       <c r="G57" t="n">
@@ -5641,63 +5641,63 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Santos</t>
+          <t>Fortaleza</t>
         </is>
       </c>
       <c r="I57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J57" t="n">
-        <v>1.74</v>
+        <v>2.26</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>12/05/2023 00:12</t>
+          <t>12/05/2023 01:12</t>
         </is>
       </c>
       <c r="L57" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>14/05/2023 20:50</t>
+          <t>14/05/2023 20:59</t>
         </is>
       </c>
       <c r="N57" t="n">
-        <v>3.77</v>
+        <v>3.44</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>12/05/2023 00:12</t>
+          <t>12/05/2023 01:12</t>
         </is>
       </c>
       <c r="P57" t="n">
-        <v>3.33</v>
+        <v>3.64</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>14/05/2023 20:58</t>
+          <t>14/05/2023 20:59</t>
         </is>
       </c>
       <c r="R57" t="n">
-        <v>4.95</v>
+        <v>3.27</v>
       </c>
       <c r="S57" t="inlineStr">
         <is>
-          <t>12/05/2023 00:12</t>
+          <t>12/05/2023 01:12</t>
         </is>
       </c>
       <c r="T57" t="n">
-        <v>4.73</v>
+        <v>4.38</v>
       </c>
       <c r="U57" t="inlineStr">
         <is>
-          <t>14/05/2023 20:58</t>
+          <t>14/05/2023 20:59</t>
         </is>
       </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/vasco-santos/YDYf8HRF/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/gremio-fortaleza/SYhum7e7/</t>
         </is>
       </c>
     </row>
@@ -5817,30 +5817,30 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Athletico-PR</t>
+          <t>Goias</t>
         </is>
       </c>
       <c r="G59" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Coritiba</t>
+          <t>Botafogo RJ</t>
         </is>
       </c>
       <c r="I59" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J59" t="n">
-        <v>1.68</v>
+        <v>2.91</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>12/05/2023 00:12</t>
+          <t>12/05/2023 00:42</t>
         </is>
       </c>
       <c r="L59" t="n">
-        <v>1.63</v>
+        <v>3.27</v>
       </c>
       <c r="M59" t="inlineStr">
         <is>
@@ -5848,15 +5848,15 @@
         </is>
       </c>
       <c r="N59" t="n">
-        <v>3.98</v>
+        <v>3.46</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>12/05/2023 00:12</t>
+          <t>12/05/2023 00:42</t>
         </is>
       </c>
       <c r="P59" t="n">
-        <v>3.83</v>
+        <v>3.29</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
@@ -5864,15 +5864,15 @@
         </is>
       </c>
       <c r="R59" t="n">
-        <v>5.07</v>
+        <v>2.5</v>
       </c>
       <c r="S59" t="inlineStr">
         <is>
-          <t>12/05/2023 00:12</t>
+          <t>12/05/2023 00:42</t>
         </is>
       </c>
       <c r="T59" t="n">
-        <v>6.41</v>
+        <v>2.4</v>
       </c>
       <c r="U59" t="inlineStr">
         <is>
@@ -5881,7 +5881,7 @@
       </c>
       <c r="V59" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/athletico-pr-coritiba/6PiqnRAD/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/goias-botafogo-rj/MyjXlTQf/</t>
         </is>
       </c>
     </row>
@@ -6001,30 +6001,30 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Goias</t>
+          <t>Athletico-PR</t>
         </is>
       </c>
       <c r="G61" t="n">
+        <v>3</v>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>Coritiba</t>
+        </is>
+      </c>
+      <c r="I61" t="n">
         <v>2</v>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>Botafogo RJ</t>
-        </is>
-      </c>
-      <c r="I61" t="n">
-        <v>1</v>
-      </c>
       <c r="J61" t="n">
-        <v>2.91</v>
+        <v>1.68</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>12/05/2023 00:42</t>
+          <t>12/05/2023 00:12</t>
         </is>
       </c>
       <c r="L61" t="n">
-        <v>3.27</v>
+        <v>1.63</v>
       </c>
       <c r="M61" t="inlineStr">
         <is>
@@ -6032,15 +6032,15 @@
         </is>
       </c>
       <c r="N61" t="n">
-        <v>3.46</v>
+        <v>3.98</v>
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>12/05/2023 00:42</t>
+          <t>12/05/2023 00:12</t>
         </is>
       </c>
       <c r="P61" t="n">
-        <v>3.29</v>
+        <v>3.83</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
@@ -6048,15 +6048,15 @@
         </is>
       </c>
       <c r="R61" t="n">
-        <v>2.5</v>
+        <v>5.07</v>
       </c>
       <c r="S61" t="inlineStr">
         <is>
-          <t>12/05/2023 00:42</t>
+          <t>12/05/2023 00:12</t>
         </is>
       </c>
       <c r="T61" t="n">
-        <v>2.4</v>
+        <v>6.41</v>
       </c>
       <c r="U61" t="inlineStr">
         <is>
@@ -6065,7 +6065,7 @@
       </c>
       <c r="V61" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/goias-botafogo-rj/MyjXlTQf/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/athletico-pr-coritiba/6PiqnRAD/</t>
         </is>
       </c>
     </row>
@@ -6185,30 +6185,30 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>America MG</t>
+          <t>Sao Paulo</t>
         </is>
       </c>
       <c r="G63" t="n">
+        <v>4</v>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>Vasco</t>
+        </is>
+      </c>
+      <c r="I63" t="n">
         <v>2</v>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>Fortaleza</t>
-        </is>
-      </c>
-      <c r="I63" t="n">
-        <v>1</v>
-      </c>
       <c r="J63" t="n">
-        <v>2.63</v>
+        <v>1.94</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>15/05/2023 09:42</t>
+          <t>15/05/2023 04:42</t>
         </is>
       </c>
       <c r="L63" t="n">
-        <v>3.05</v>
+        <v>1.87</v>
       </c>
       <c r="M63" t="inlineStr">
         <is>
@@ -6216,31 +6216,31 @@
         </is>
       </c>
       <c r="N63" t="n">
-        <v>3.48</v>
+        <v>3.59</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>15/05/2023 09:42</t>
+          <t>15/05/2023 04:42</t>
         </is>
       </c>
       <c r="P63" t="n">
-        <v>3.39</v>
+        <v>3.44</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>20/05/2023 23:26</t>
+          <t>20/05/2023 23:29</t>
         </is>
       </c>
       <c r="R63" t="n">
-        <v>2.69</v>
+        <v>4.03</v>
       </c>
       <c r="S63" t="inlineStr">
         <is>
-          <t>15/05/2023 09:42</t>
+          <t>15/05/2023 04:42</t>
         </is>
       </c>
       <c r="T63" t="n">
-        <v>2.47</v>
+        <v>4.88</v>
       </c>
       <c r="U63" t="inlineStr">
         <is>
@@ -6249,7 +6249,7 @@
       </c>
       <c r="V63" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/america-mg-fortaleza/l8gDM7nQ/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/sao-paulo-vasco/zuG63Sul/</t>
         </is>
       </c>
     </row>
@@ -6277,22 +6277,22 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Sao Paulo</t>
+          <t>Coritiba</t>
         </is>
       </c>
       <c r="G64" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Vasco</t>
+          <t>Atletico-MG</t>
         </is>
       </c>
       <c r="I64" t="n">
         <v>2</v>
       </c>
       <c r="J64" t="n">
-        <v>1.94</v>
+        <v>4.39</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
@@ -6300,7 +6300,7 @@
         </is>
       </c>
       <c r="L64" t="n">
-        <v>1.87</v>
+        <v>4.83</v>
       </c>
       <c r="M64" t="inlineStr">
         <is>
@@ -6308,7 +6308,7 @@
         </is>
       </c>
       <c r="N64" t="n">
-        <v>3.59</v>
+        <v>3.46</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
@@ -6316,7 +6316,7 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>3.44</v>
+        <v>3.45</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
@@ -6324,7 +6324,7 @@
         </is>
       </c>
       <c r="R64" t="n">
-        <v>4.03</v>
+        <v>1.91</v>
       </c>
       <c r="S64" t="inlineStr">
         <is>
@@ -6332,7 +6332,7 @@
         </is>
       </c>
       <c r="T64" t="n">
-        <v>4.88</v>
+        <v>1.88</v>
       </c>
       <c r="U64" t="inlineStr">
         <is>
@@ -6341,7 +6341,7 @@
       </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/sao-paulo-vasco/zuG63Sul/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/coritiba-atletico-mg/dE6Rb4fJ/</t>
         </is>
       </c>
     </row>
@@ -6369,71 +6369,71 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Coritiba</t>
+          <t>Bragantino</t>
         </is>
       </c>
       <c r="G65" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Atletico-MG</t>
+          <t>Athletico-PR</t>
         </is>
       </c>
       <c r="I65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J65" t="n">
-        <v>4.39</v>
+        <v>2.05</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>15/05/2023 04:42</t>
+          <t>14/05/2023 23:42</t>
         </is>
       </c>
       <c r="L65" t="n">
-        <v>4.83</v>
+        <v>1.85</v>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>20/05/2023 23:29</t>
+          <t>20/05/2023 23:06</t>
         </is>
       </c>
       <c r="N65" t="n">
-        <v>3.46</v>
+        <v>3.43</v>
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>15/05/2023 04:42</t>
+          <t>14/05/2023 23:42</t>
         </is>
       </c>
       <c r="P65" t="n">
-        <v>3.45</v>
+        <v>3.64</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>20/05/2023 23:29</t>
+          <t>20/05/2023 23:28</t>
         </is>
       </c>
       <c r="R65" t="n">
-        <v>1.91</v>
+        <v>3.83</v>
       </c>
       <c r="S65" t="inlineStr">
         <is>
-          <t>15/05/2023 04:42</t>
+          <t>14/05/2023 23:42</t>
         </is>
       </c>
       <c r="T65" t="n">
-        <v>1.88</v>
+        <v>4.63</v>
       </c>
       <c r="U65" t="inlineStr">
         <is>
-          <t>20/05/2023 23:29</t>
+          <t>20/05/2023 23:28</t>
         </is>
       </c>
       <c r="V65" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/coritiba-atletico-mg/dE6Rb4fJ/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/bragantino-athletico-pr/MeEE16A0/</t>
         </is>
       </c>
     </row>
@@ -6461,22 +6461,22 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Bragantino</t>
+          <t>Botafogo RJ</t>
         </is>
       </c>
       <c r="G66" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Athletico-PR</t>
+          <t>Fluminense</t>
         </is>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
       <c r="J66" t="n">
-        <v>2.05</v>
+        <v>2.78</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
@@ -6484,15 +6484,15 @@
         </is>
       </c>
       <c r="L66" t="n">
-        <v>1.85</v>
+        <v>2.77</v>
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>20/05/2023 23:06</t>
+          <t>20/05/2023 23:29</t>
         </is>
       </c>
       <c r="N66" t="n">
-        <v>3.43</v>
+        <v>3.31</v>
       </c>
       <c r="O66" t="inlineStr">
         <is>
@@ -6500,15 +6500,15 @@
         </is>
       </c>
       <c r="P66" t="n">
-        <v>3.64</v>
+        <v>3.32</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>20/05/2023 23:28</t>
+          <t>20/05/2023 23:29</t>
         </is>
       </c>
       <c r="R66" t="n">
-        <v>3.83</v>
+        <v>2.72</v>
       </c>
       <c r="S66" t="inlineStr">
         <is>
@@ -6516,16 +6516,16 @@
         </is>
       </c>
       <c r="T66" t="n">
-        <v>4.63</v>
+        <v>2.74</v>
       </c>
       <c r="U66" t="inlineStr">
         <is>
-          <t>20/05/2023 23:28</t>
+          <t>20/05/2023 22:51</t>
         </is>
       </c>
       <c r="V66" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/bragantino-athletico-pr/MeEE16A0/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/botafogo-rj-fluminense/hGQ148Qs/</t>
         </is>
       </c>
     </row>
@@ -6553,30 +6553,30 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Botafogo RJ</t>
+          <t>America MG</t>
         </is>
       </c>
       <c r="G67" t="n">
+        <v>2</v>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>Fortaleza</t>
+        </is>
+      </c>
+      <c r="I67" t="n">
         <v>1</v>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>Fluminense</t>
-        </is>
-      </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
       <c r="J67" t="n">
-        <v>2.78</v>
+        <v>2.63</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>14/05/2023 23:42</t>
+          <t>15/05/2023 09:42</t>
         </is>
       </c>
       <c r="L67" t="n">
-        <v>2.77</v>
+        <v>3.05</v>
       </c>
       <c r="M67" t="inlineStr">
         <is>
@@ -6584,40 +6584,40 @@
         </is>
       </c>
       <c r="N67" t="n">
-        <v>3.31</v>
+        <v>3.48</v>
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>14/05/2023 23:42</t>
+          <t>15/05/2023 09:42</t>
         </is>
       </c>
       <c r="P67" t="n">
-        <v>3.32</v>
+        <v>3.39</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
+          <t>20/05/2023 23:26</t>
+        </is>
+      </c>
+      <c r="R67" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="S67" t="inlineStr">
+        <is>
+          <t>15/05/2023 09:42</t>
+        </is>
+      </c>
+      <c r="T67" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="U67" t="inlineStr">
+        <is>
           <t>20/05/2023 23:29</t>
         </is>
       </c>
-      <c r="R67" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="S67" t="inlineStr">
-        <is>
-          <t>14/05/2023 23:42</t>
-        </is>
-      </c>
-      <c r="T67" t="n">
-        <v>2.74</v>
-      </c>
-      <c r="U67" t="inlineStr">
-        <is>
-          <t>20/05/2023 22:51</t>
-        </is>
-      </c>
       <c r="V67" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/botafogo-rj-fluminense/hGQ148Qs/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/america-mg-fortaleza/l8gDM7nQ/</t>
         </is>
       </c>
     </row>
@@ -7013,22 +7013,22 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Fortaleza</t>
+          <t>Athletico-PR</t>
         </is>
       </c>
       <c r="G72" t="n">
+        <v>1</v>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>Gremio</t>
+        </is>
+      </c>
+      <c r="I72" t="n">
         <v>2</v>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>Vasco</t>
-        </is>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
       <c r="J72" t="n">
-        <v>1.75</v>
+        <v>2.02</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
@@ -7036,15 +7036,15 @@
         </is>
       </c>
       <c r="L72" t="n">
-        <v>1.68</v>
+        <v>1.64</v>
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>27/05/2023 20:28</t>
+          <t>27/05/2023 20:54</t>
         </is>
       </c>
       <c r="N72" t="n">
-        <v>3.77</v>
+        <v>3.5</v>
       </c>
       <c r="O72" t="inlineStr">
         <is>
@@ -7052,15 +7052,15 @@
         </is>
       </c>
       <c r="P72" t="n">
-        <v>4.03</v>
+        <v>4</v>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>27/05/2023 20:29</t>
+          <t>27/05/2023 20:54</t>
         </is>
       </c>
       <c r="R72" t="n">
-        <v>5.06</v>
+        <v>3.97</v>
       </c>
       <c r="S72" t="inlineStr">
         <is>
@@ -7068,16 +7068,16 @@
         </is>
       </c>
       <c r="T72" t="n">
-        <v>5.3</v>
+        <v>5.9</v>
       </c>
       <c r="U72" t="inlineStr">
         <is>
-          <t>27/05/2023 20:29</t>
+          <t>27/05/2023 20:54</t>
         </is>
       </c>
       <c r="V72" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/fortaleza-vasco/YDAlKZsP/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/athletico-pr-gremio/Uup8BsvP/</t>
         </is>
       </c>
     </row>
@@ -7105,22 +7105,22 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Athletico-PR</t>
+          <t>Fortaleza</t>
         </is>
       </c>
       <c r="G73" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Gremio</t>
+          <t>Vasco</t>
         </is>
       </c>
       <c r="I73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J73" t="n">
-        <v>2.02</v>
+        <v>1.75</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
@@ -7128,15 +7128,15 @@
         </is>
       </c>
       <c r="L73" t="n">
-        <v>1.64</v>
+        <v>1.68</v>
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>27/05/2023 20:54</t>
+          <t>27/05/2023 20:28</t>
         </is>
       </c>
       <c r="N73" t="n">
-        <v>3.5</v>
+        <v>3.77</v>
       </c>
       <c r="O73" t="inlineStr">
         <is>
@@ -7144,15 +7144,15 @@
         </is>
       </c>
       <c r="P73" t="n">
-        <v>4</v>
+        <v>4.03</v>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>27/05/2023 20:54</t>
+          <t>27/05/2023 20:29</t>
         </is>
       </c>
       <c r="R73" t="n">
-        <v>3.97</v>
+        <v>5.06</v>
       </c>
       <c r="S73" t="inlineStr">
         <is>
@@ -7160,16 +7160,16 @@
         </is>
       </c>
       <c r="T73" t="n">
-        <v>5.9</v>
+        <v>5.3</v>
       </c>
       <c r="U73" t="inlineStr">
         <is>
-          <t>27/05/2023 20:54</t>
+          <t>27/05/2023 20:29</t>
         </is>
       </c>
       <c r="V73" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/athletico-pr-gremio/Uup8BsvP/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/fortaleza-vasco/YDAlKZsP/</t>
         </is>
       </c>
     </row>
@@ -8025,71 +8025,71 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Cruzeiro</t>
+          <t>America MG</t>
         </is>
       </c>
       <c r="G83" t="n">
+        <v>2</v>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>Corinthians</t>
+        </is>
+      </c>
+      <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>Atletico-MG</t>
-        </is>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
       <c r="J83" t="n">
-        <v>3.12</v>
+        <v>2.32</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>29/05/2023 07:12</t>
+          <t>29/05/2023 00:12</t>
         </is>
       </c>
       <c r="L83" t="n">
-        <v>3.53</v>
+        <v>2.93</v>
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>03/06/2023 23:26</t>
+          <t>03/06/2023 23:20</t>
         </is>
       </c>
       <c r="N83" t="n">
-        <v>3.3</v>
+        <v>3.34</v>
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>29/05/2023 07:12</t>
+          <t>29/05/2023 00:12</t>
         </is>
       </c>
       <c r="P83" t="n">
-        <v>3.11</v>
+        <v>3.14</v>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>03/06/2023 23:29</t>
+          <t>03/06/2023 23:20</t>
         </is>
       </c>
       <c r="R83" t="n">
-        <v>2.41</v>
+        <v>3.24</v>
       </c>
       <c r="S83" t="inlineStr">
         <is>
-          <t>29/05/2023 07:12</t>
+          <t>29/05/2023 00:12</t>
         </is>
       </c>
       <c r="T83" t="n">
-        <v>2.37</v>
+        <v>2.72</v>
       </c>
       <c r="U83" t="inlineStr">
         <is>
-          <t>03/06/2023 23:26</t>
+          <t>03/06/2023 23:20</t>
         </is>
       </c>
       <c r="V83" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/cruzeiro-atletico-mg/AFJX9kKH/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/america-mg-corinthians/MgmjSWZo/</t>
         </is>
       </c>
     </row>
@@ -8117,71 +8117,71 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Athletico-PR</t>
+          <t>Cruzeiro</t>
         </is>
       </c>
       <c r="G84" t="n">
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>Atletico-MG</t>
+        </is>
+      </c>
+      <c r="I84" t="n">
         <v>1</v>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>Botafogo RJ</t>
-        </is>
-      </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
       <c r="J84" t="n">
-        <v>2.23</v>
+        <v>3.12</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>29/05/2023 02:12</t>
+          <t>29/05/2023 07:12</t>
         </is>
       </c>
       <c r="L84" t="n">
-        <v>1.99</v>
+        <v>3.53</v>
       </c>
       <c r="M84" t="inlineStr">
         <is>
+          <t>03/06/2023 23:26</t>
+        </is>
+      </c>
+      <c r="N84" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>29/05/2023 07:12</t>
+        </is>
+      </c>
+      <c r="P84" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="Q84" t="inlineStr">
+        <is>
           <t>03/06/2023 23:29</t>
         </is>
       </c>
-      <c r="N84" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="O84" t="inlineStr">
-        <is>
-          <t>29/05/2023 02:12</t>
-        </is>
-      </c>
-      <c r="P84" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q84" t="inlineStr">
-        <is>
-          <t>03/06/2023 23:29</t>
-        </is>
-      </c>
       <c r="R84" t="n">
-        <v>3.38</v>
+        <v>2.41</v>
       </c>
       <c r="S84" t="inlineStr">
         <is>
-          <t>29/05/2023 02:12</t>
+          <t>29/05/2023 07:12</t>
         </is>
       </c>
       <c r="T84" t="n">
-        <v>4.16</v>
+        <v>2.37</v>
       </c>
       <c r="U84" t="inlineStr">
         <is>
-          <t>03/06/2023 23:29</t>
+          <t>03/06/2023 23:26</t>
         </is>
       </c>
       <c r="V84" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/athletico-pr-botafogo-rj/WU7t8TlU/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/cruzeiro-atletico-mg/AFJX9kKH/</t>
         </is>
       </c>
     </row>
@@ -8209,71 +8209,71 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>America MG</t>
+          <t>Athletico-PR</t>
         </is>
       </c>
       <c r="G85" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Corinthians</t>
+          <t>Botafogo RJ</t>
         </is>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
       <c r="J85" t="n">
-        <v>2.32</v>
+        <v>2.23</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>29/05/2023 00:12</t>
+          <t>29/05/2023 02:12</t>
         </is>
       </c>
       <c r="L85" t="n">
-        <v>2.93</v>
+        <v>1.99</v>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>03/06/2023 23:20</t>
+          <t>03/06/2023 23:29</t>
         </is>
       </c>
       <c r="N85" t="n">
-        <v>3.34</v>
+        <v>3.38</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>29/05/2023 00:12</t>
+          <t>29/05/2023 02:12</t>
         </is>
       </c>
       <c r="P85" t="n">
-        <v>3.14</v>
+        <v>3.5</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>03/06/2023 23:20</t>
+          <t>03/06/2023 23:29</t>
         </is>
       </c>
       <c r="R85" t="n">
-        <v>3.24</v>
+        <v>3.38</v>
       </c>
       <c r="S85" t="inlineStr">
         <is>
-          <t>29/05/2023 00:12</t>
+          <t>29/05/2023 02:12</t>
         </is>
       </c>
       <c r="T85" t="n">
-        <v>2.72</v>
+        <v>4.16</v>
       </c>
       <c r="U85" t="inlineStr">
         <is>
-          <t>03/06/2023 23:20</t>
+          <t>03/06/2023 23:29</t>
         </is>
       </c>
       <c r="V85" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/america-mg-corinthians/MgmjSWZo/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/athletico-pr-botafogo-rj/WU7t8TlU/</t>
         </is>
       </c>
     </row>
@@ -8945,7 +8945,7 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Corinthians</t>
+          <t>Atletico-MG</t>
         </is>
       </c>
       <c r="G93" t="n">
@@ -8953,14 +8953,14 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Cuiaba</t>
+          <t>Bragantino</t>
         </is>
       </c>
       <c r="I93" t="n">
         <v>1</v>
       </c>
       <c r="J93" t="n">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
@@ -8972,11 +8972,11 @@
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>10/06/2023 23:28</t>
+          <t>10/06/2023 23:25</t>
         </is>
       </c>
       <c r="N93" t="n">
-        <v>3.65</v>
+        <v>4.04</v>
       </c>
       <c r="O93" t="inlineStr">
         <is>
@@ -8984,32 +8984,32 @@
         </is>
       </c>
       <c r="P93" t="n">
-        <v>3.29</v>
+        <v>3.43</v>
       </c>
       <c r="Q93" t="inlineStr">
         <is>
+          <t>10/06/2023 23:25</t>
+        </is>
+      </c>
+      <c r="R93" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="S93" t="inlineStr">
+        <is>
+          <t>05/06/2023 02:42</t>
+        </is>
+      </c>
+      <c r="T93" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="U93" t="inlineStr">
+        <is>
           <t>10/06/2023 23:29</t>
         </is>
       </c>
-      <c r="R93" t="n">
-        <v>5.08</v>
-      </c>
-      <c r="S93" t="inlineStr">
-        <is>
-          <t>05/06/2023 02:42</t>
-        </is>
-      </c>
-      <c r="T93" t="n">
-        <v>5.68</v>
-      </c>
-      <c r="U93" t="inlineStr">
-        <is>
-          <t>10/06/2023 23:29</t>
-        </is>
-      </c>
       <c r="V93" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/corinthians-cuiaba/l6v7OlZA/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/atletico-mg-bragantino/r7du6tJq/</t>
         </is>
       </c>
     </row>
@@ -9037,30 +9037,30 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Bahia</t>
+          <t>Corinthians</t>
         </is>
       </c>
       <c r="G94" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Cruzeiro</t>
+          <t>Cuiaba</t>
         </is>
       </c>
       <c r="I94" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J94" t="n">
-        <v>2.29</v>
+        <v>1.75</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>03/06/2023 23:42</t>
+          <t>05/06/2023 02:42</t>
         </is>
       </c>
       <c r="L94" t="n">
-        <v>2.87</v>
+        <v>1.82</v>
       </c>
       <c r="M94" t="inlineStr">
         <is>
@@ -9068,40 +9068,40 @@
         </is>
       </c>
       <c r="N94" t="n">
-        <v>3.38</v>
+        <v>3.65</v>
       </c>
       <c r="O94" t="inlineStr">
         <is>
-          <t>03/06/2023 23:42</t>
+          <t>05/06/2023 02:42</t>
         </is>
       </c>
       <c r="P94" t="n">
-        <v>3.27</v>
+        <v>3.29</v>
       </c>
       <c r="Q94" t="inlineStr">
         <is>
-          <t>10/06/2023 23:21</t>
+          <t>10/06/2023 23:29</t>
         </is>
       </c>
       <c r="R94" t="n">
-        <v>3.27</v>
+        <v>5.08</v>
       </c>
       <c r="S94" t="inlineStr">
         <is>
-          <t>03/06/2023 23:42</t>
+          <t>05/06/2023 02:42</t>
         </is>
       </c>
       <c r="T94" t="n">
-        <v>2.68</v>
+        <v>5.68</v>
       </c>
       <c r="U94" t="inlineStr">
         <is>
-          <t>10/06/2023 23:28</t>
+          <t>10/06/2023 23:29</t>
         </is>
       </c>
       <c r="V94" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/bahia-cruzeiro/hxvWS3Qd/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/corinthians-cuiaba/l6v7OlZA/</t>
         </is>
       </c>
     </row>
@@ -9129,71 +9129,71 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Atletico-MG</t>
+          <t>Bahia</t>
         </is>
       </c>
       <c r="G95" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Bragantino</t>
+          <t>Cruzeiro</t>
         </is>
       </c>
       <c r="I95" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J95" t="n">
-        <v>1.62</v>
+        <v>2.29</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>05/06/2023 02:42</t>
+          <t>03/06/2023 23:42</t>
         </is>
       </c>
       <c r="L95" t="n">
-        <v>1.82</v>
+        <v>2.87</v>
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>10/06/2023 23:25</t>
+          <t>10/06/2023 23:28</t>
         </is>
       </c>
       <c r="N95" t="n">
-        <v>4.04</v>
+        <v>3.38</v>
       </c>
       <c r="O95" t="inlineStr">
         <is>
-          <t>05/06/2023 02:42</t>
+          <t>03/06/2023 23:42</t>
         </is>
       </c>
       <c r="P95" t="n">
-        <v>3.43</v>
+        <v>3.27</v>
       </c>
       <c r="Q95" t="inlineStr">
         <is>
-          <t>10/06/2023 23:25</t>
+          <t>10/06/2023 23:21</t>
         </is>
       </c>
       <c r="R95" t="n">
-        <v>5.9</v>
+        <v>3.27</v>
       </c>
       <c r="S95" t="inlineStr">
         <is>
-          <t>05/06/2023 02:42</t>
+          <t>03/06/2023 23:42</t>
         </is>
       </c>
       <c r="T95" t="n">
-        <v>5.3</v>
+        <v>2.68</v>
       </c>
       <c r="U95" t="inlineStr">
         <is>
-          <t>10/06/2023 23:29</t>
+          <t>10/06/2023 23:28</t>
         </is>
       </c>
       <c r="V95" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/atletico-mg-bragantino/r7du6tJq/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/bahia-cruzeiro/hxvWS3Qd/</t>
         </is>
       </c>
     </row>
@@ -9405,71 +9405,71 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Internacional</t>
+          <t>Sao Paulo</t>
         </is>
       </c>
       <c r="G98" t="n">
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>Palmeiras</t>
+        </is>
+      </c>
+      <c r="I98" t="n">
         <v>2</v>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>Vasco</t>
-        </is>
-      </c>
-      <c r="I98" t="n">
-        <v>1</v>
-      </c>
       <c r="J98" t="n">
-        <v>1.86</v>
+        <v>3.39</v>
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>06/06/2023 07:41</t>
+          <t>05/06/2023 02:42</t>
         </is>
       </c>
       <c r="L98" t="n">
-        <v>1.83</v>
+        <v>3.19</v>
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>11/06/2023 20:49</t>
+          <t>11/06/2023 20:58</t>
         </is>
       </c>
       <c r="N98" t="n">
-        <v>3.65</v>
+        <v>3.33</v>
       </c>
       <c r="O98" t="inlineStr">
         <is>
-          <t>06/06/2023 07:41</t>
+          <t>05/06/2023 02:42</t>
         </is>
       </c>
       <c r="P98" t="n">
-        <v>3.55</v>
+        <v>3.25</v>
       </c>
       <c r="Q98" t="inlineStr">
         <is>
-          <t>11/06/2023 20:49</t>
+          <t>11/06/2023 20:58</t>
         </is>
       </c>
       <c r="R98" t="n">
-        <v>4.58</v>
+        <v>2.29</v>
       </c>
       <c r="S98" t="inlineStr">
         <is>
-          <t>06/06/2023 07:41</t>
+          <t>05/06/2023 02:42</t>
         </is>
       </c>
       <c r="T98" t="n">
-        <v>4.98</v>
+        <v>2.47</v>
       </c>
       <c r="U98" t="inlineStr">
         <is>
-          <t>11/06/2023 20:57</t>
+          <t>11/06/2023 20:58</t>
         </is>
       </c>
       <c r="V98" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/internacional-vasco/xUeq50Yk/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/sao-paulo-palmeiras/AFu3PUJ4/</t>
         </is>
       </c>
     </row>
@@ -9497,71 +9497,71 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Sao Paulo</t>
+          <t>Internacional</t>
         </is>
       </c>
       <c r="G99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Palmeiras</t>
+          <t>Vasco</t>
         </is>
       </c>
       <c r="I99" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J99" t="n">
-        <v>3.39</v>
+        <v>1.86</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>05/06/2023 02:42</t>
+          <t>06/06/2023 07:41</t>
         </is>
       </c>
       <c r="L99" t="n">
-        <v>3.19</v>
+        <v>1.83</v>
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>11/06/2023 20:58</t>
+          <t>11/06/2023 20:49</t>
         </is>
       </c>
       <c r="N99" t="n">
-        <v>3.33</v>
+        <v>3.65</v>
       </c>
       <c r="O99" t="inlineStr">
         <is>
-          <t>05/06/2023 02:42</t>
+          <t>06/06/2023 07:41</t>
         </is>
       </c>
       <c r="P99" t="n">
-        <v>3.25</v>
+        <v>3.55</v>
       </c>
       <c r="Q99" t="inlineStr">
         <is>
-          <t>11/06/2023 20:58</t>
+          <t>11/06/2023 20:49</t>
         </is>
       </c>
       <c r="R99" t="n">
-        <v>2.29</v>
+        <v>4.58</v>
       </c>
       <c r="S99" t="inlineStr">
         <is>
-          <t>05/06/2023 02:42</t>
+          <t>06/06/2023 07:41</t>
         </is>
       </c>
       <c r="T99" t="n">
-        <v>2.47</v>
+        <v>4.98</v>
       </c>
       <c r="U99" t="inlineStr">
         <is>
-          <t>11/06/2023 20:58</t>
+          <t>11/06/2023 20:57</t>
         </is>
       </c>
       <c r="V99" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/sao-paulo-palmeiras/AFu3PUJ4/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/internacional-vasco/xUeq50Yk/</t>
         </is>
       </c>
     </row>
@@ -10049,7 +10049,7 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Fluminense</t>
+          <t>Bahia</t>
         </is>
       </c>
       <c r="G105" t="n">
@@ -10057,22 +10057,22 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Atletico-MG</t>
+          <t>Palmeiras</t>
         </is>
       </c>
       <c r="I105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J105" t="n">
-        <v>2.06</v>
+        <v>4.31</v>
       </c>
       <c r="K105" t="inlineStr">
         <is>
-          <t>14/06/2023 13:12</t>
+          <t>14/06/2023 10:42</t>
         </is>
       </c>
       <c r="L105" t="n">
-        <v>2.97</v>
+        <v>3.68</v>
       </c>
       <c r="M105" t="inlineStr">
         <is>
@@ -10080,15 +10080,15 @@
         </is>
       </c>
       <c r="N105" t="n">
-        <v>3.47</v>
+        <v>3.63</v>
       </c>
       <c r="O105" t="inlineStr">
         <is>
-          <t>14/06/2023 13:12</t>
+          <t>14/06/2023 10:42</t>
         </is>
       </c>
       <c r="P105" t="n">
-        <v>3.22</v>
+        <v>3.5</v>
       </c>
       <c r="Q105" t="inlineStr">
         <is>
@@ -10096,15 +10096,15 @@
         </is>
       </c>
       <c r="R105" t="n">
-        <v>3.74</v>
+        <v>1.9</v>
       </c>
       <c r="S105" t="inlineStr">
         <is>
-          <t>14/06/2023 13:12</t>
+          <t>14/06/2023 10:42</t>
         </is>
       </c>
       <c r="T105" t="n">
-        <v>2.63</v>
+        <v>2.12</v>
       </c>
       <c r="U105" t="inlineStr">
         <is>
@@ -10113,7 +10113,7 @@
       </c>
       <c r="V105" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/fluminense-atletico-mg/Q3iwRse9/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/bahia-palmeiras/6NCCusA2/</t>
         </is>
       </c>
     </row>
@@ -10141,7 +10141,7 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Bahia</t>
+          <t>Fluminense</t>
         </is>
       </c>
       <c r="G106" t="n">
@@ -10149,22 +10149,22 @@
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Palmeiras</t>
+          <t>Atletico-MG</t>
         </is>
       </c>
       <c r="I106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J106" t="n">
-        <v>4.31</v>
+        <v>2.06</v>
       </c>
       <c r="K106" t="inlineStr">
         <is>
-          <t>14/06/2023 10:42</t>
+          <t>14/06/2023 13:12</t>
         </is>
       </c>
       <c r="L106" t="n">
-        <v>3.68</v>
+        <v>2.97</v>
       </c>
       <c r="M106" t="inlineStr">
         <is>
@@ -10172,15 +10172,15 @@
         </is>
       </c>
       <c r="N106" t="n">
-        <v>3.63</v>
+        <v>3.47</v>
       </c>
       <c r="O106" t="inlineStr">
         <is>
-          <t>14/06/2023 10:42</t>
+          <t>14/06/2023 13:12</t>
         </is>
       </c>
       <c r="P106" t="n">
-        <v>3.5</v>
+        <v>3.22</v>
       </c>
       <c r="Q106" t="inlineStr">
         <is>
@@ -10188,15 +10188,15 @@
         </is>
       </c>
       <c r="R106" t="n">
-        <v>1.9</v>
+        <v>3.74</v>
       </c>
       <c r="S106" t="inlineStr">
         <is>
-          <t>14/06/2023 10:42</t>
+          <t>14/06/2023 13:12</t>
         </is>
       </c>
       <c r="T106" t="n">
-        <v>2.12</v>
+        <v>2.63</v>
       </c>
       <c r="U106" t="inlineStr">
         <is>
@@ -10205,7 +10205,7 @@
       </c>
       <c r="V106" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/bahia-palmeiras/6NCCusA2/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/fluminense-atletico-mg/Q3iwRse9/</t>
         </is>
       </c>
     </row>
@@ -10325,7 +10325,7 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Cuiaba</t>
+          <t>Vasco</t>
         </is>
       </c>
       <c r="G108" t="n">
@@ -10333,54 +10333,54 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Botafogo RJ</t>
+          <t>Goias</t>
         </is>
       </c>
       <c r="I108" t="n">
         <v>1</v>
       </c>
       <c r="J108" t="n">
-        <v>3.01</v>
+        <v>1.75</v>
       </c>
       <c r="K108" t="inlineStr">
         <is>
-          <t>17/06/2023 22:12</t>
+          <t>19/06/2023 02:11</t>
         </is>
       </c>
       <c r="L108" t="n">
-        <v>2.73</v>
+        <v>1.99</v>
       </c>
       <c r="M108" t="inlineStr">
         <is>
+          <t>23/06/2023 00:56</t>
+        </is>
+      </c>
+      <c r="N108" t="n">
+        <v>3.73</v>
+      </c>
+      <c r="O108" t="inlineStr">
+        <is>
+          <t>19/06/2023 02:11</t>
+        </is>
+      </c>
+      <c r="P108" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="Q108" t="inlineStr">
+        <is>
           <t>23/06/2023 00:59</t>
         </is>
       </c>
-      <c r="N108" t="n">
-        <v>3.16</v>
-      </c>
-      <c r="O108" t="inlineStr">
-        <is>
-          <t>17/06/2023 22:12</t>
-        </is>
-      </c>
-      <c r="P108" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="Q108" t="inlineStr">
-        <is>
-          <t>23/06/2023 00:58</t>
-        </is>
-      </c>
       <c r="R108" t="n">
-        <v>2.61</v>
+        <v>5.14</v>
       </c>
       <c r="S108" t="inlineStr">
         <is>
-          <t>17/06/2023 22:12</t>
+          <t>19/06/2023 02:11</t>
         </is>
       </c>
       <c r="T108" t="n">
-        <v>3.08</v>
+        <v>4.46</v>
       </c>
       <c r="U108" t="inlineStr">
         <is>
@@ -10389,7 +10389,7 @@
       </c>
       <c r="V108" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/cuiaba-botafogo-rj/IcGGv1P8/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/vasco-goias/4fjsQ1AF/</t>
         </is>
       </c>
     </row>
@@ -10417,7 +10417,7 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>Coritiba</t>
+          <t>Cuiaba</t>
         </is>
       </c>
       <c r="G109" t="n">
@@ -10425,22 +10425,22 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Internacional</t>
+          <t>Botafogo RJ</t>
         </is>
       </c>
       <c r="I109" t="n">
         <v>1</v>
       </c>
       <c r="J109" t="n">
-        <v>3</v>
+        <v>3.01</v>
       </c>
       <c r="K109" t="inlineStr">
         <is>
-          <t>19/06/2023 02:11</t>
+          <t>17/06/2023 22:12</t>
         </is>
       </c>
       <c r="L109" t="n">
-        <v>2.75</v>
+        <v>2.73</v>
       </c>
       <c r="M109" t="inlineStr">
         <is>
@@ -10448,15 +10448,15 @@
         </is>
       </c>
       <c r="N109" t="n">
-        <v>3.12</v>
+        <v>3.16</v>
       </c>
       <c r="O109" t="inlineStr">
         <is>
-          <t>19/06/2023 02:11</t>
+          <t>17/06/2023 22:12</t>
         </is>
       </c>
       <c r="P109" t="n">
-        <v>3.01</v>
+        <v>2.98</v>
       </c>
       <c r="Q109" t="inlineStr">
         <is>
@@ -10464,15 +10464,15 @@
         </is>
       </c>
       <c r="R109" t="n">
-        <v>2.6</v>
+        <v>2.61</v>
       </c>
       <c r="S109" t="inlineStr">
         <is>
-          <t>19/06/2023 02:11</t>
+          <t>17/06/2023 22:12</t>
         </is>
       </c>
       <c r="T109" t="n">
-        <v>3.02</v>
+        <v>3.08</v>
       </c>
       <c r="U109" t="inlineStr">
         <is>
@@ -10481,7 +10481,7 @@
       </c>
       <c r="V109" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/coritiba-internacional/hKOUGcX1/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/cuiaba-botafogo-rj/IcGGv1P8/</t>
         </is>
       </c>
     </row>
@@ -10509,7 +10509,7 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>Vasco</t>
+          <t>Coritiba</t>
         </is>
       </c>
       <c r="G110" t="n">
@@ -10517,14 +10517,14 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Goias</t>
+          <t>Internacional</t>
         </is>
       </c>
       <c r="I110" t="n">
         <v>1</v>
       </c>
       <c r="J110" t="n">
-        <v>1.75</v>
+        <v>3</v>
       </c>
       <c r="K110" t="inlineStr">
         <is>
@@ -10532,15 +10532,15 @@
         </is>
       </c>
       <c r="L110" t="n">
-        <v>1.99</v>
+        <v>2.75</v>
       </c>
       <c r="M110" t="inlineStr">
         <is>
-          <t>23/06/2023 00:56</t>
+          <t>23/06/2023 00:59</t>
         </is>
       </c>
       <c r="N110" t="n">
-        <v>3.73</v>
+        <v>3.12</v>
       </c>
       <c r="O110" t="inlineStr">
         <is>
@@ -10548,32 +10548,32 @@
         </is>
       </c>
       <c r="P110" t="n">
-        <v>3.31</v>
+        <v>3.01</v>
       </c>
       <c r="Q110" t="inlineStr">
         <is>
+          <t>23/06/2023 00:58</t>
+        </is>
+      </c>
+      <c r="R110" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="S110" t="inlineStr">
+        <is>
+          <t>19/06/2023 02:11</t>
+        </is>
+      </c>
+      <c r="T110" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="U110" t="inlineStr">
+        <is>
           <t>23/06/2023 00:59</t>
         </is>
       </c>
-      <c r="R110" t="n">
-        <v>5.14</v>
-      </c>
-      <c r="S110" t="inlineStr">
-        <is>
-          <t>19/06/2023 02:11</t>
-        </is>
-      </c>
-      <c r="T110" t="n">
-        <v>4.46</v>
-      </c>
-      <c r="U110" t="inlineStr">
-        <is>
-          <t>23/06/2023 00:59</t>
-        </is>
-      </c>
       <c r="V110" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/vasco-goias/4fjsQ1AF/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/coritiba-internacional/hKOUGcX1/</t>
         </is>
       </c>
     </row>
@@ -10785,7 +10785,7 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>Fortaleza</t>
+          <t>Fluminense</t>
         </is>
       </c>
       <c r="G113" t="n">
@@ -10793,14 +10793,14 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Atletico-MG</t>
+          <t>Bahia</t>
         </is>
       </c>
       <c r="I113" t="n">
         <v>1</v>
       </c>
       <c r="J113" t="n">
-        <v>2.56</v>
+        <v>1.68</v>
       </c>
       <c r="K113" t="inlineStr">
         <is>
@@ -10808,15 +10808,15 @@
         </is>
       </c>
       <c r="L113" t="n">
-        <v>2.86</v>
+        <v>1.55</v>
       </c>
       <c r="M113" t="inlineStr">
         <is>
-          <t>24/06/2023 23:21</t>
+          <t>24/06/2023 23:25</t>
         </is>
       </c>
       <c r="N113" t="n">
-        <v>3.18</v>
+        <v>3.93</v>
       </c>
       <c r="O113" t="inlineStr">
         <is>
@@ -10824,15 +10824,15 @@
         </is>
       </c>
       <c r="P113" t="n">
-        <v>3.12</v>
+        <v>4.18</v>
       </c>
       <c r="Q113" t="inlineStr">
         <is>
-          <t>24/06/2023 23:28</t>
+          <t>24/06/2023 23:29</t>
         </is>
       </c>
       <c r="R113" t="n">
-        <v>3</v>
+        <v>5.18</v>
       </c>
       <c r="S113" t="inlineStr">
         <is>
@@ -10840,7 +10840,7 @@
         </is>
       </c>
       <c r="T113" t="n">
-        <v>2.81</v>
+        <v>6.78</v>
       </c>
       <c r="U113" t="inlineStr">
         <is>
@@ -10849,7 +10849,7 @@
       </c>
       <c r="V113" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/fortaleza-atletico-mg/vThmhKg8/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/fluminense-bahia/0M5LwLvF/</t>
         </is>
       </c>
     </row>
@@ -10877,7 +10877,7 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>Fluminense</t>
+          <t>Fortaleza</t>
         </is>
       </c>
       <c r="G114" t="n">
@@ -10885,14 +10885,14 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Bahia</t>
+          <t>Atletico-MG</t>
         </is>
       </c>
       <c r="I114" t="n">
         <v>1</v>
       </c>
       <c r="J114" t="n">
-        <v>1.68</v>
+        <v>2.56</v>
       </c>
       <c r="K114" t="inlineStr">
         <is>
@@ -10900,48 +10900,48 @@
         </is>
       </c>
       <c r="L114" t="n">
-        <v>1.55</v>
+        <v>2.86</v>
       </c>
       <c r="M114" t="inlineStr">
         <is>
+          <t>24/06/2023 23:21</t>
+        </is>
+      </c>
+      <c r="N114" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="O114" t="inlineStr">
+        <is>
+          <t>22/06/2023 02:42</t>
+        </is>
+      </c>
+      <c r="P114" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="Q114" t="inlineStr">
+        <is>
+          <t>24/06/2023 23:28</t>
+        </is>
+      </c>
+      <c r="R114" t="n">
+        <v>3</v>
+      </c>
+      <c r="S114" t="inlineStr">
+        <is>
+          <t>22/06/2023 02:42</t>
+        </is>
+      </c>
+      <c r="T114" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="U114" t="inlineStr">
+        <is>
           <t>24/06/2023 23:25</t>
         </is>
       </c>
-      <c r="N114" t="n">
-        <v>3.93</v>
-      </c>
-      <c r="O114" t="inlineStr">
-        <is>
-          <t>22/06/2023 02:42</t>
-        </is>
-      </c>
-      <c r="P114" t="n">
-        <v>4.18</v>
-      </c>
-      <c r="Q114" t="inlineStr">
-        <is>
-          <t>24/06/2023 23:29</t>
-        </is>
-      </c>
-      <c r="R114" t="n">
-        <v>5.18</v>
-      </c>
-      <c r="S114" t="inlineStr">
-        <is>
-          <t>22/06/2023 02:42</t>
-        </is>
-      </c>
-      <c r="T114" t="n">
-        <v>6.78</v>
-      </c>
-      <c r="U114" t="inlineStr">
-        <is>
-          <t>24/06/2023 23:25</t>
-        </is>
-      </c>
       <c r="V114" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/fluminense-bahia/0M5LwLvF/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/fortaleza-atletico-mg/vThmhKg8/</t>
         </is>
       </c>
     </row>
@@ -11061,22 +11061,22 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>Gremio</t>
+          <t>Palmeiras</t>
         </is>
       </c>
       <c r="G116" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Coritiba</t>
+          <t>Botafogo RJ</t>
         </is>
       </c>
       <c r="I116" t="n">
         <v>1</v>
       </c>
       <c r="J116" t="n">
-        <v>1.61</v>
+        <v>1.58</v>
       </c>
       <c r="K116" t="inlineStr">
         <is>
@@ -11084,15 +11084,15 @@
         </is>
       </c>
       <c r="L116" t="n">
-        <v>1.53</v>
+        <v>1.45</v>
       </c>
       <c r="M116" t="inlineStr">
         <is>
-          <t>25/06/2023 20:56</t>
+          <t>25/06/2023 20:59</t>
         </is>
       </c>
       <c r="N116" t="n">
-        <v>4.14</v>
+        <v>4.24</v>
       </c>
       <c r="O116" t="inlineStr">
         <is>
@@ -11100,15 +11100,15 @@
         </is>
       </c>
       <c r="P116" t="n">
-        <v>4.33</v>
+        <v>4.73</v>
       </c>
       <c r="Q116" t="inlineStr">
         <is>
-          <t>25/06/2023 20:56</t>
+          <t>25/06/2023 20:59</t>
         </is>
       </c>
       <c r="R116" t="n">
-        <v>5.53</v>
+        <v>5.72</v>
       </c>
       <c r="S116" t="inlineStr">
         <is>
@@ -11116,16 +11116,16 @@
         </is>
       </c>
       <c r="T116" t="n">
-        <v>6.7</v>
+        <v>7.59</v>
       </c>
       <c r="U116" t="inlineStr">
         <is>
-          <t>25/06/2023 20:56</t>
+          <t>25/06/2023 20:59</t>
         </is>
       </c>
       <c r="V116" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/gremio-coritiba/0pl8UG11/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/palmeiras-botafogo-rj/8n9Tya9R/</t>
         </is>
       </c>
     </row>
@@ -11153,22 +11153,22 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>Palmeiras</t>
+          <t>Gremio</t>
         </is>
       </c>
       <c r="G117" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Botafogo RJ</t>
+          <t>Coritiba</t>
         </is>
       </c>
       <c r="I117" t="n">
         <v>1</v>
       </c>
       <c r="J117" t="n">
-        <v>1.58</v>
+        <v>1.61</v>
       </c>
       <c r="K117" t="inlineStr">
         <is>
@@ -11176,15 +11176,15 @@
         </is>
       </c>
       <c r="L117" t="n">
-        <v>1.45</v>
+        <v>1.53</v>
       </c>
       <c r="M117" t="inlineStr">
         <is>
-          <t>25/06/2023 20:59</t>
+          <t>25/06/2023 20:56</t>
         </is>
       </c>
       <c r="N117" t="n">
-        <v>4.24</v>
+        <v>4.14</v>
       </c>
       <c r="O117" t="inlineStr">
         <is>
@@ -11192,15 +11192,15 @@
         </is>
       </c>
       <c r="P117" t="n">
-        <v>4.73</v>
+        <v>4.33</v>
       </c>
       <c r="Q117" t="inlineStr">
         <is>
-          <t>25/06/2023 20:59</t>
+          <t>25/06/2023 20:56</t>
         </is>
       </c>
       <c r="R117" t="n">
-        <v>5.72</v>
+        <v>5.53</v>
       </c>
       <c r="S117" t="inlineStr">
         <is>
@@ -11208,16 +11208,16 @@
         </is>
       </c>
       <c r="T117" t="n">
-        <v>7.59</v>
+        <v>6.7</v>
       </c>
       <c r="U117" t="inlineStr">
         <is>
-          <t>25/06/2023 20:59</t>
+          <t>25/06/2023 20:56</t>
         </is>
       </c>
       <c r="V117" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/palmeiras-botafogo-rj/8n9Tya9R/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/gremio-coritiba/0pl8UG11/</t>
         </is>
       </c>
     </row>
@@ -11245,62 +11245,62 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>America MG</t>
+          <t>Santos</t>
         </is>
       </c>
       <c r="G118" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Internacional</t>
+          <t>Flamengo RJ</t>
         </is>
       </c>
       <c r="I118" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J118" t="n">
-        <v>2.43</v>
+        <v>3.96</v>
       </c>
       <c r="K118" t="inlineStr">
         <is>
-          <t>23/06/2023 01:11</t>
+          <t>23/06/2023 02:42</t>
         </is>
       </c>
       <c r="L118" t="n">
-        <v>2.01</v>
+        <v>3.48</v>
       </c>
       <c r="M118" t="inlineStr">
         <is>
-          <t>25/06/2023 23:25</t>
+          <t>25/06/2023 23:29</t>
         </is>
       </c>
       <c r="N118" t="n">
-        <v>3.32</v>
+        <v>3.4</v>
       </c>
       <c r="O118" t="inlineStr">
         <is>
-          <t>23/06/2023 01:11</t>
+          <t>23/06/2023 02:42</t>
         </is>
       </c>
       <c r="P118" t="n">
-        <v>3.46</v>
+        <v>3.21</v>
       </c>
       <c r="Q118" t="inlineStr">
         <is>
-          <t>25/06/2023 23:27</t>
+          <t>25/06/2023 23:28</t>
         </is>
       </c>
       <c r="R118" t="n">
-        <v>3.13</v>
+        <v>2.03</v>
       </c>
       <c r="S118" t="inlineStr">
         <is>
-          <t>23/06/2023 01:11</t>
+          <t>23/06/2023 02:42</t>
         </is>
       </c>
       <c r="T118" t="n">
-        <v>4.14</v>
+        <v>2.33</v>
       </c>
       <c r="U118" t="inlineStr">
         <is>
@@ -11309,7 +11309,7 @@
       </c>
       <c r="V118" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/america-mg-internacional/IJiiiv9E/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/santos-flamengo-rj/AeeeXIHr/</t>
         </is>
       </c>
     </row>
@@ -11429,71 +11429,71 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>Santos</t>
+          <t>America MG</t>
         </is>
       </c>
       <c r="G120" t="n">
+        <v>1</v>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>Internacional</t>
+        </is>
+      </c>
+      <c r="I120" t="n">
         <v>2</v>
       </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>Flamengo RJ</t>
-        </is>
-      </c>
-      <c r="I120" t="n">
-        <v>3</v>
-      </c>
       <c r="J120" t="n">
-        <v>3.96</v>
+        <v>2.43</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>
-          <t>23/06/2023 02:42</t>
+          <t>23/06/2023 01:11</t>
         </is>
       </c>
       <c r="L120" t="n">
-        <v>3.48</v>
+        <v>2.01</v>
       </c>
       <c r="M120" t="inlineStr">
         <is>
-          <t>25/06/2023 23:29</t>
+          <t>25/06/2023 23:25</t>
         </is>
       </c>
       <c r="N120" t="n">
-        <v>3.4</v>
+        <v>3.32</v>
       </c>
       <c r="O120" t="inlineStr">
         <is>
-          <t>23/06/2023 02:42</t>
+          <t>23/06/2023 01:11</t>
         </is>
       </c>
       <c r="P120" t="n">
-        <v>3.21</v>
+        <v>3.46</v>
       </c>
       <c r="Q120" t="inlineStr">
         <is>
+          <t>25/06/2023 23:27</t>
+        </is>
+      </c>
+      <c r="R120" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="S120" t="inlineStr">
+        <is>
+          <t>23/06/2023 01:11</t>
+        </is>
+      </c>
+      <c r="T120" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="U120" t="inlineStr">
+        <is>
           <t>25/06/2023 23:28</t>
         </is>
       </c>
-      <c r="R120" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="S120" t="inlineStr">
-        <is>
-          <t>23/06/2023 02:42</t>
-        </is>
-      </c>
-      <c r="T120" t="n">
-        <v>2.33</v>
-      </c>
-      <c r="U120" t="inlineStr">
-        <is>
-          <t>25/06/2023 23:28</t>
-        </is>
-      </c>
       <c r="V120" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/santos-flamengo-rj/AeeeXIHr/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/america-mg-internacional/IJiiiv9E/</t>
         </is>
       </c>
     </row>
@@ -12073,7 +12073,7 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>Athletico-PR</t>
+          <t>Botafogo RJ</t>
         </is>
       </c>
       <c r="G127" t="n">
@@ -12081,63 +12081,63 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Palmeiras</t>
+          <t>Vasco</t>
         </is>
       </c>
       <c r="I127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J127" t="n">
-        <v>2.99</v>
+        <v>1.75</v>
       </c>
       <c r="K127" t="inlineStr">
         <is>
-          <t>25/06/2023 21:11</t>
+          <t>27/06/2023 02:11</t>
         </is>
       </c>
       <c r="L127" t="n">
-        <v>2.35</v>
+        <v>1.97</v>
       </c>
       <c r="M127" t="inlineStr">
         <is>
-          <t>02/07/2023 20:59</t>
+          <t>02/07/2023 20:58</t>
         </is>
       </c>
       <c r="N127" t="n">
-        <v>3.23</v>
+        <v>3.68</v>
       </c>
       <c r="O127" t="inlineStr">
         <is>
-          <t>25/06/2023 21:11</t>
+          <t>27/06/2023 02:11</t>
         </is>
       </c>
       <c r="P127" t="n">
-        <v>3.24</v>
+        <v>3.41</v>
       </c>
       <c r="Q127" t="inlineStr">
         <is>
-          <t>02/07/2023 20:55</t>
+          <t>02/07/2023 20:58</t>
         </is>
       </c>
       <c r="R127" t="n">
-        <v>2.53</v>
+        <v>5.27</v>
       </c>
       <c r="S127" t="inlineStr">
         <is>
-          <t>25/06/2023 21:11</t>
+          <t>27/06/2023 02:11</t>
         </is>
       </c>
       <c r="T127" t="n">
-        <v>3.4</v>
+        <v>4.37</v>
       </c>
       <c r="U127" t="inlineStr">
         <is>
-          <t>02/07/2023 20:59</t>
+          <t>02/07/2023 20:58</t>
         </is>
       </c>
       <c r="V127" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/athletico-pr-palmeiras/birntE0D/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/botafogo-rj-vasco/QqeakIwR/</t>
         </is>
       </c>
     </row>
@@ -12165,7 +12165,7 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>Botafogo RJ</t>
+          <t>Atletico-MG</t>
         </is>
       </c>
       <c r="G128" t="n">
@@ -12173,63 +12173,63 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Vasco</t>
+          <t>America MG</t>
         </is>
       </c>
       <c r="I128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J128" t="n">
-        <v>1.75</v>
+        <v>1.37</v>
       </c>
       <c r="K128" t="inlineStr">
         <is>
-          <t>27/06/2023 02:11</t>
+          <t>25/06/2023 23:41</t>
         </is>
       </c>
       <c r="L128" t="n">
-        <v>1.97</v>
+        <v>1.54</v>
       </c>
       <c r="M128" t="inlineStr">
         <is>
-          <t>02/07/2023 20:58</t>
+          <t>02/07/2023 20:53</t>
         </is>
       </c>
       <c r="N128" t="n">
-        <v>3.68</v>
+        <v>5.28</v>
       </c>
       <c r="O128" t="inlineStr">
         <is>
-          <t>27/06/2023 02:11</t>
+          <t>25/06/2023 23:41</t>
         </is>
       </c>
       <c r="P128" t="n">
-        <v>3.41</v>
+        <v>4.01</v>
       </c>
       <c r="Q128" t="inlineStr">
         <is>
-          <t>02/07/2023 20:58</t>
+          <t>02/07/2023 20:54</t>
         </is>
       </c>
       <c r="R128" t="n">
-        <v>5.27</v>
+        <v>8.81</v>
       </c>
       <c r="S128" t="inlineStr">
         <is>
-          <t>27/06/2023 02:11</t>
+          <t>25/06/2023 23:41</t>
         </is>
       </c>
       <c r="T128" t="n">
-        <v>4.37</v>
+        <v>7.6</v>
       </c>
       <c r="U128" t="inlineStr">
         <is>
-          <t>02/07/2023 20:58</t>
+          <t>02/07/2023 20:54</t>
         </is>
       </c>
       <c r="V128" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/botafogo-rj-vasco/QqeakIwR/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/atletico-mg-america-mg/IszvrzW0/</t>
         </is>
       </c>
     </row>
@@ -12257,7 +12257,7 @@
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>Atletico-MG</t>
+          <t>Athletico-PR</t>
         </is>
       </c>
       <c r="G129" t="n">
@@ -12265,63 +12265,63 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>America MG</t>
+          <t>Palmeiras</t>
         </is>
       </c>
       <c r="I129" t="n">
         <v>2</v>
       </c>
       <c r="J129" t="n">
-        <v>1.37</v>
+        <v>2.99</v>
       </c>
       <c r="K129" t="inlineStr">
         <is>
-          <t>25/06/2023 23:41</t>
+          <t>25/06/2023 21:11</t>
         </is>
       </c>
       <c r="L129" t="n">
-        <v>1.54</v>
+        <v>2.35</v>
       </c>
       <c r="M129" t="inlineStr">
         <is>
-          <t>02/07/2023 20:53</t>
+          <t>02/07/2023 20:59</t>
         </is>
       </c>
       <c r="N129" t="n">
-        <v>5.28</v>
+        <v>3.23</v>
       </c>
       <c r="O129" t="inlineStr">
         <is>
-          <t>25/06/2023 23:41</t>
+          <t>25/06/2023 21:11</t>
         </is>
       </c>
       <c r="P129" t="n">
-        <v>4.01</v>
+        <v>3.24</v>
       </c>
       <c r="Q129" t="inlineStr">
         <is>
-          <t>02/07/2023 20:54</t>
+          <t>02/07/2023 20:55</t>
         </is>
       </c>
       <c r="R129" t="n">
-        <v>8.81</v>
+        <v>2.53</v>
       </c>
       <c r="S129" t="inlineStr">
         <is>
-          <t>25/06/2023 23:41</t>
+          <t>25/06/2023 21:11</t>
         </is>
       </c>
       <c r="T129" t="n">
-        <v>7.6</v>
+        <v>3.4</v>
       </c>
       <c r="U129" t="inlineStr">
         <is>
-          <t>02/07/2023 20:54</t>
+          <t>02/07/2023 20:59</t>
         </is>
       </c>
       <c r="V129" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/atletico-mg-america-mg/IszvrzW0/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/athletico-pr-palmeiras/birntE0D/</t>
         </is>
       </c>
     </row>
@@ -13269,71 +13269,71 @@
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>Fortaleza</t>
+          <t>Gremio</t>
         </is>
       </c>
       <c r="G140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Athletico-PR</t>
+          <t>Botafogo RJ</t>
         </is>
       </c>
       <c r="I140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J140" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>02/07/2023 21:12</t>
+        </is>
+      </c>
+      <c r="L140" t="n">
         <v>1.85</v>
       </c>
-      <c r="K140" t="inlineStr">
+      <c r="M140" t="inlineStr">
+        <is>
+          <t>09/07/2023 23:28</t>
+        </is>
+      </c>
+      <c r="N140" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="O140" t="inlineStr">
         <is>
           <t>02/07/2023 21:12</t>
         </is>
       </c>
-      <c r="L140" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="M140" t="inlineStr">
-        <is>
-          <t>09/07/2023 23:26</t>
-        </is>
-      </c>
-      <c r="N140" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="O140" t="inlineStr">
+      <c r="P140" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="Q140" t="inlineStr">
+        <is>
+          <t>09/07/2023 23:06</t>
+        </is>
+      </c>
+      <c r="R140" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="S140" t="inlineStr">
         <is>
           <t>02/07/2023 21:12</t>
         </is>
       </c>
-      <c r="P140" t="n">
-        <v>4.11</v>
-      </c>
-      <c r="Q140" t="inlineStr">
-        <is>
-          <t>09/07/2023 23:26</t>
-        </is>
-      </c>
-      <c r="R140" t="n">
-        <v>4.51</v>
-      </c>
-      <c r="S140" t="inlineStr">
-        <is>
-          <t>02/07/2023 21:12</t>
-        </is>
-      </c>
       <c r="T140" t="n">
-        <v>7.49</v>
+        <v>4.76</v>
       </c>
       <c r="U140" t="inlineStr">
         <is>
-          <t>09/07/2023 23:26</t>
+          <t>09/07/2023 23:04</t>
         </is>
       </c>
       <c r="V140" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/fortaleza-athletico-pr/Q54y1lxt/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/gremio-botafogo-rj/ny3PgXUC/</t>
         </is>
       </c>
     </row>
@@ -13361,22 +13361,22 @@
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>Gremio</t>
+          <t>Fortaleza</t>
         </is>
       </c>
       <c r="G141" t="n">
+        <v>1</v>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>Athletico-PR</t>
+        </is>
+      </c>
+      <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>Botafogo RJ</t>
-        </is>
-      </c>
-      <c r="I141" t="n">
-        <v>2</v>
-      </c>
       <c r="J141" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="K141" t="inlineStr">
         <is>
@@ -13384,15 +13384,15 @@
         </is>
       </c>
       <c r="L141" t="n">
-        <v>1.85</v>
+        <v>1.53</v>
       </c>
       <c r="M141" t="inlineStr">
         <is>
-          <t>09/07/2023 23:28</t>
+          <t>09/07/2023 23:26</t>
         </is>
       </c>
       <c r="N141" t="n">
-        <v>3.66</v>
+        <v>3.6</v>
       </c>
       <c r="O141" t="inlineStr">
         <is>
@@ -13400,15 +13400,15 @@
         </is>
       </c>
       <c r="P141" t="n">
-        <v>3.69</v>
+        <v>4.11</v>
       </c>
       <c r="Q141" t="inlineStr">
         <is>
-          <t>09/07/2023 23:06</t>
+          <t>09/07/2023 23:26</t>
         </is>
       </c>
       <c r="R141" t="n">
-        <v>4.27</v>
+        <v>4.51</v>
       </c>
       <c r="S141" t="inlineStr">
         <is>
@@ -13416,16 +13416,16 @@
         </is>
       </c>
       <c r="T141" t="n">
-        <v>4.76</v>
+        <v>7.49</v>
       </c>
       <c r="U141" t="inlineStr">
         <is>
-          <t>09/07/2023 23:04</t>
+          <t>09/07/2023 23:26</t>
         </is>
       </c>
       <c r="V141" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/gremio-botafogo-rj/ny3PgXUC/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/fortaleza-athletico-pr/Q54y1lxt/</t>
         </is>
       </c>
     </row>
@@ -14649,30 +14649,30 @@
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>Bragantino</t>
+          <t>Santos</t>
         </is>
       </c>
       <c r="G155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>Internacional</t>
+          <t>Botafogo RJ</t>
         </is>
       </c>
       <c r="I155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J155" t="n">
-        <v>1.83</v>
+        <v>2.87</v>
       </c>
       <c r="K155" t="inlineStr">
         <is>
-          <t>16/07/2023 23:42</t>
+          <t>16/07/2023 21:12</t>
         </is>
       </c>
       <c r="L155" t="n">
-        <v>1.75</v>
+        <v>2.99</v>
       </c>
       <c r="M155" t="inlineStr">
         <is>
@@ -14680,40 +14680,40 @@
         </is>
       </c>
       <c r="N155" t="n">
-        <v>3.62</v>
+        <v>3</v>
       </c>
       <c r="O155" t="inlineStr">
         <is>
-          <t>16/07/2023 23:42</t>
+          <t>16/07/2023 21:12</t>
         </is>
       </c>
       <c r="P155" t="n">
-        <v>3.72</v>
+        <v>2.97</v>
       </c>
       <c r="Q155" t="inlineStr">
         <is>
-          <t>23/07/2023 20:59</t>
+          <t>23/07/2023 20:48</t>
         </is>
       </c>
       <c r="R155" t="n">
-        <v>4.59</v>
+        <v>2.8</v>
       </c>
       <c r="S155" t="inlineStr">
         <is>
-          <t>16/07/2023 23:42</t>
+          <t>16/07/2023 21:12</t>
         </is>
       </c>
       <c r="T155" t="n">
-        <v>5.31</v>
+        <v>2.81</v>
       </c>
       <c r="U155" t="inlineStr">
         <is>
-          <t>23/07/2023 20:59</t>
+          <t>23/07/2023 20:58</t>
         </is>
       </c>
       <c r="V155" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/bragantino-internacional/MRfz8NkN/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/santos-botafogo-rj/f5Ow93zH/</t>
         </is>
       </c>
     </row>
@@ -14741,71 +14741,71 @@
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>Santos</t>
+          <t>Cruzeiro</t>
         </is>
       </c>
       <c r="G156" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>Botafogo RJ</t>
+          <t>Goias</t>
         </is>
       </c>
       <c r="I156" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J156" t="n">
-        <v>2.87</v>
+        <v>1.63</v>
       </c>
       <c r="K156" t="inlineStr">
         <is>
-          <t>16/07/2023 21:12</t>
+          <t>18/07/2023 01:12</t>
         </is>
       </c>
       <c r="L156" t="n">
-        <v>2.99</v>
+        <v>1.54</v>
       </c>
       <c r="M156" t="inlineStr">
         <is>
-          <t>23/07/2023 20:59</t>
+          <t>23/07/2023 20:53</t>
         </is>
       </c>
       <c r="N156" t="n">
-        <v>3</v>
+        <v>3.82</v>
       </c>
       <c r="O156" t="inlineStr">
         <is>
-          <t>16/07/2023 21:12</t>
+          <t>18/07/2023 01:12</t>
         </is>
       </c>
       <c r="P156" t="n">
-        <v>2.97</v>
+        <v>4.05</v>
       </c>
       <c r="Q156" t="inlineStr">
         <is>
-          <t>23/07/2023 20:48</t>
+          <t>23/07/2023 20:55</t>
         </is>
       </c>
       <c r="R156" t="n">
-        <v>2.8</v>
+        <v>5.9</v>
       </c>
       <c r="S156" t="inlineStr">
         <is>
-          <t>16/07/2023 21:12</t>
+          <t>18/07/2023 01:12</t>
         </is>
       </c>
       <c r="T156" t="n">
-        <v>2.81</v>
+        <v>7.32</v>
       </c>
       <c r="U156" t="inlineStr">
         <is>
-          <t>23/07/2023 20:58</t>
+          <t>23/07/2023 20:55</t>
         </is>
       </c>
       <c r="V156" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/santos-botafogo-rj/f5Ow93zH/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/cruzeiro-goias/0Igv7s5T/</t>
         </is>
       </c>
     </row>
@@ -14833,7 +14833,7 @@
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>Cruzeiro</t>
+          <t>Bragantino</t>
         </is>
       </c>
       <c r="G157" t="n">
@@ -14841,63 +14841,63 @@
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>Goias</t>
+          <t>Internacional</t>
         </is>
       </c>
       <c r="I157" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J157" t="n">
-        <v>1.63</v>
+        <v>1.83</v>
       </c>
       <c r="K157" t="inlineStr">
         <is>
-          <t>18/07/2023 01:12</t>
+          <t>16/07/2023 23:42</t>
         </is>
       </c>
       <c r="L157" t="n">
-        <v>1.54</v>
+        <v>1.75</v>
       </c>
       <c r="M157" t="inlineStr">
         <is>
-          <t>23/07/2023 20:53</t>
+          <t>23/07/2023 20:59</t>
         </is>
       </c>
       <c r="N157" t="n">
-        <v>3.82</v>
+        <v>3.62</v>
       </c>
       <c r="O157" t="inlineStr">
         <is>
-          <t>18/07/2023 01:12</t>
+          <t>16/07/2023 23:42</t>
         </is>
       </c>
       <c r="P157" t="n">
-        <v>4.05</v>
+        <v>3.72</v>
       </c>
       <c r="Q157" t="inlineStr">
         <is>
-          <t>23/07/2023 20:55</t>
+          <t>23/07/2023 20:59</t>
         </is>
       </c>
       <c r="R157" t="n">
-        <v>5.9</v>
+        <v>4.59</v>
       </c>
       <c r="S157" t="inlineStr">
         <is>
-          <t>18/07/2023 01:12</t>
+          <t>16/07/2023 23:42</t>
         </is>
       </c>
       <c r="T157" t="n">
-        <v>7.32</v>
+        <v>5.31</v>
       </c>
       <c r="U157" t="inlineStr">
         <is>
-          <t>23/07/2023 20:55</t>
+          <t>23/07/2023 20:59</t>
         </is>
       </c>
       <c r="V157" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/cruzeiro-goias/0Igv7s5T/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/bragantino-internacional/MRfz8NkN/</t>
         </is>
       </c>
     </row>
@@ -15109,71 +15109,71 @@
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>Internacional</t>
+          <t>Athletico-PR</t>
         </is>
       </c>
       <c r="G160" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>Cuiaba</t>
+          <t>Cruzeiro</t>
         </is>
       </c>
       <c r="I160" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J160" t="n">
-        <v>1.88</v>
+        <v>2.03</v>
       </c>
       <c r="K160" t="inlineStr">
         <is>
-          <t>23/07/2023 21:12</t>
+          <t>23/07/2023 23:42</t>
         </is>
       </c>
       <c r="L160" t="n">
-        <v>1.81</v>
+        <v>1.86</v>
       </c>
       <c r="M160" t="inlineStr">
         <is>
-          <t>29/07/2023 20:51</t>
+          <t>29/07/2023 20:45</t>
         </is>
       </c>
       <c r="N160" t="n">
-        <v>3.23</v>
+        <v>3.38</v>
       </c>
       <c r="O160" t="inlineStr">
         <is>
-          <t>23/07/2023 21:12</t>
+          <t>23/07/2023 23:42</t>
         </is>
       </c>
       <c r="P160" t="n">
-        <v>3.44</v>
+        <v>3.49</v>
       </c>
       <c r="Q160" t="inlineStr">
         <is>
-          <t>29/07/2023 20:59</t>
+          <t>29/07/2023 20:45</t>
         </is>
       </c>
       <c r="R160" t="n">
-        <v>4.99</v>
+        <v>3.98</v>
       </c>
       <c r="S160" t="inlineStr">
         <is>
-          <t>23/07/2023 21:12</t>
+          <t>23/07/2023 23:42</t>
         </is>
       </c>
       <c r="T160" t="n">
-        <v>5.41</v>
+        <v>4.87</v>
       </c>
       <c r="U160" t="inlineStr">
         <is>
-          <t>29/07/2023 20:59</t>
+          <t>29/07/2023 20:58</t>
         </is>
       </c>
       <c r="V160" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/internacional-cuiaba/SSalFvcj/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/athletico-pr-cruzeiro/6JbhEbCd/</t>
         </is>
       </c>
     </row>
@@ -15293,71 +15293,71 @@
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>Athletico-PR</t>
+          <t>Internacional</t>
         </is>
       </c>
       <c r="G162" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>Cruzeiro</t>
+          <t>Cuiaba</t>
         </is>
       </c>
       <c r="I162" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J162" t="n">
-        <v>2.03</v>
+        <v>1.88</v>
       </c>
       <c r="K162" t="inlineStr">
         <is>
-          <t>23/07/2023 23:42</t>
+          <t>23/07/2023 21:12</t>
         </is>
       </c>
       <c r="L162" t="n">
-        <v>1.86</v>
+        <v>1.81</v>
       </c>
       <c r="M162" t="inlineStr">
         <is>
-          <t>29/07/2023 20:45</t>
+          <t>29/07/2023 20:51</t>
         </is>
       </c>
       <c r="N162" t="n">
-        <v>3.38</v>
+        <v>3.23</v>
       </c>
       <c r="O162" t="inlineStr">
         <is>
-          <t>23/07/2023 23:42</t>
+          <t>23/07/2023 21:12</t>
         </is>
       </c>
       <c r="P162" t="n">
-        <v>3.49</v>
+        <v>3.44</v>
       </c>
       <c r="Q162" t="inlineStr">
         <is>
-          <t>29/07/2023 20:45</t>
+          <t>29/07/2023 20:59</t>
         </is>
       </c>
       <c r="R162" t="n">
-        <v>3.98</v>
+        <v>4.99</v>
       </c>
       <c r="S162" t="inlineStr">
         <is>
-          <t>23/07/2023 23:42</t>
+          <t>23/07/2023 21:12</t>
         </is>
       </c>
       <c r="T162" t="n">
-        <v>4.87</v>
+        <v>5.41</v>
       </c>
       <c r="U162" t="inlineStr">
         <is>
-          <t>29/07/2023 20:58</t>
+          <t>29/07/2023 20:59</t>
         </is>
       </c>
       <c r="V162" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/athletico-pr-cruzeiro/6JbhEbCd/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/internacional-cuiaba/SSalFvcj/</t>
         </is>
       </c>
     </row>
@@ -15753,71 +15753,71 @@
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>Botafogo RJ</t>
+          <t>America MG</t>
         </is>
       </c>
       <c r="G167" t="n">
+        <v>1</v>
+      </c>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>Palmeiras</t>
+        </is>
+      </c>
+      <c r="I167" t="n">
         <v>4</v>
       </c>
-      <c r="H167" t="inlineStr">
-        <is>
-          <t>Coritiba</t>
-        </is>
-      </c>
-      <c r="I167" t="n">
-        <v>1</v>
-      </c>
       <c r="J167" t="n">
-        <v>1.55</v>
+        <v>3.36</v>
       </c>
       <c r="K167" t="inlineStr">
         <is>
-          <t>25/07/2023 00:12</t>
+          <t>24/07/2023 04:12</t>
         </is>
       </c>
       <c r="L167" t="n">
-        <v>1.7</v>
+        <v>3.68</v>
       </c>
       <c r="M167" t="inlineStr">
         <is>
-          <t>30/07/2023 20:59</t>
+          <t>30/07/2023 20:41</t>
         </is>
       </c>
       <c r="N167" t="n">
-        <v>4.12</v>
+        <v>3.34</v>
       </c>
       <c r="O167" t="inlineStr">
         <is>
-          <t>25/07/2023 00:12</t>
+          <t>24/07/2023 04:12</t>
         </is>
       </c>
       <c r="P167" t="n">
-        <v>3.69</v>
+        <v>3.45</v>
       </c>
       <c r="Q167" t="inlineStr">
         <is>
-          <t>30/07/2023 20:59</t>
+          <t>30/07/2023 20:41</t>
         </is>
       </c>
       <c r="R167" t="n">
-        <v>6.36</v>
+        <v>2.26</v>
       </c>
       <c r="S167" t="inlineStr">
         <is>
-          <t>25/07/2023 00:12</t>
+          <t>24/07/2023 04:12</t>
         </is>
       </c>
       <c r="T167" t="n">
-        <v>5.79</v>
+        <v>2.14</v>
       </c>
       <c r="U167" t="inlineStr">
         <is>
-          <t>30/07/2023 20:59</t>
+          <t>30/07/2023 20:41</t>
         </is>
       </c>
       <c r="V167" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/botafogo-rj-coritiba/KMQ4N2kA/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/america-mg-palmeiras/YPjvx243/</t>
         </is>
       </c>
     </row>
@@ -15845,71 +15845,71 @@
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>America MG</t>
+          <t>Botafogo RJ</t>
         </is>
       </c>
       <c r="G168" t="n">
+        <v>4</v>
+      </c>
+      <c r="H168" t="inlineStr">
+        <is>
+          <t>Coritiba</t>
+        </is>
+      </c>
+      <c r="I168" t="n">
         <v>1</v>
       </c>
-      <c r="H168" t="inlineStr">
-        <is>
-          <t>Palmeiras</t>
-        </is>
-      </c>
-      <c r="I168" t="n">
-        <v>4</v>
-      </c>
       <c r="J168" t="n">
-        <v>3.36</v>
+        <v>1.55</v>
       </c>
       <c r="K168" t="inlineStr">
         <is>
-          <t>24/07/2023 04:12</t>
+          <t>25/07/2023 00:12</t>
         </is>
       </c>
       <c r="L168" t="n">
-        <v>3.68</v>
+        <v>1.7</v>
       </c>
       <c r="M168" t="inlineStr">
         <is>
-          <t>30/07/2023 20:41</t>
+          <t>30/07/2023 20:59</t>
         </is>
       </c>
       <c r="N168" t="n">
-        <v>3.34</v>
+        <v>4.12</v>
       </c>
       <c r="O168" t="inlineStr">
         <is>
-          <t>24/07/2023 04:12</t>
+          <t>25/07/2023 00:12</t>
         </is>
       </c>
       <c r="P168" t="n">
-        <v>3.45</v>
+        <v>3.69</v>
       </c>
       <c r="Q168" t="inlineStr">
         <is>
-          <t>30/07/2023 20:41</t>
+          <t>30/07/2023 20:59</t>
         </is>
       </c>
       <c r="R168" t="n">
-        <v>2.26</v>
+        <v>6.36</v>
       </c>
       <c r="S168" t="inlineStr">
         <is>
-          <t>24/07/2023 04:12</t>
+          <t>25/07/2023 00:12</t>
         </is>
       </c>
       <c r="T168" t="n">
-        <v>2.14</v>
+        <v>5.79</v>
       </c>
       <c r="U168" t="inlineStr">
         <is>
-          <t>30/07/2023 20:41</t>
+          <t>30/07/2023 20:59</t>
         </is>
       </c>
       <c r="V168" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/america-mg-palmeiras/YPjvx243/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/botafogo-rj-coritiba/KMQ4N2kA/</t>
         </is>
       </c>
     </row>
@@ -16581,71 +16581,71 @@
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>Bahia</t>
+          <t>Cruzeiro</t>
         </is>
       </c>
       <c r="G176" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>America MG</t>
+          <t>Botafogo RJ</t>
         </is>
       </c>
       <c r="I176" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J176" t="n">
-        <v>2.02</v>
+        <v>2.19</v>
       </c>
       <c r="K176" t="inlineStr">
         <is>
-          <t>31/07/2023 03:12</t>
+          <t>31/07/2023 00:42</t>
         </is>
       </c>
       <c r="L176" t="n">
-        <v>1.94</v>
+        <v>2.35</v>
       </c>
       <c r="M176" t="inlineStr">
         <is>
+          <t>06/08/2023 23:25</t>
+        </is>
+      </c>
+      <c r="N176" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="O176" t="inlineStr">
+        <is>
+          <t>31/07/2023 00:42</t>
+        </is>
+      </c>
+      <c r="P176" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="Q176" t="inlineStr">
+        <is>
           <t>06/08/2023 23:29</t>
         </is>
       </c>
-      <c r="N176" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="O176" t="inlineStr">
-        <is>
-          <t>31/07/2023 03:12</t>
-        </is>
-      </c>
-      <c r="P176" t="n">
-        <v>3.68</v>
-      </c>
-      <c r="Q176" t="inlineStr">
-        <is>
-          <t>06/08/2023 23:29</t>
-        </is>
-      </c>
       <c r="R176" t="n">
-        <v>3.92</v>
+        <v>3.71</v>
       </c>
       <c r="S176" t="inlineStr">
         <is>
-          <t>31/07/2023 03:12</t>
+          <t>31/07/2023 00:42</t>
         </is>
       </c>
       <c r="T176" t="n">
-        <v>4.12</v>
+        <v>3.41</v>
       </c>
       <c r="U176" t="inlineStr">
         <is>
-          <t>06/08/2023 23:29</t>
+          <t>06/08/2023 23:25</t>
         </is>
       </c>
       <c r="V176" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/bahia-america-mg/CvlGZTa2/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/cruzeiro-botafogo-rj/0tKRScRk/</t>
         </is>
       </c>
     </row>
@@ -16673,7 +16673,7 @@
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>Cruzeiro</t>
+          <t>Coritiba</t>
         </is>
       </c>
       <c r="G177" t="n">
@@ -16681,22 +16681,22 @@
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>Botafogo RJ</t>
+          <t>Bragantino</t>
         </is>
       </c>
       <c r="I177" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J177" t="n">
-        <v>2.19</v>
+        <v>2.97</v>
       </c>
       <c r="K177" t="inlineStr">
         <is>
-          <t>31/07/2023 00:42</t>
+          <t>30/07/2023 21:12</t>
         </is>
       </c>
       <c r="L177" t="n">
-        <v>2.35</v>
+        <v>3.58</v>
       </c>
       <c r="M177" t="inlineStr">
         <is>
@@ -16704,40 +16704,40 @@
         </is>
       </c>
       <c r="N177" t="n">
-        <v>3.26</v>
+        <v>3.29</v>
       </c>
       <c r="O177" t="inlineStr">
         <is>
-          <t>31/07/2023 00:42</t>
+          <t>30/07/2023 21:12</t>
         </is>
       </c>
       <c r="P177" t="n">
-        <v>3.23</v>
+        <v>3.33</v>
       </c>
       <c r="Q177" t="inlineStr">
         <is>
-          <t>06/08/2023 23:29</t>
+          <t>06/08/2023 23:26</t>
         </is>
       </c>
       <c r="R177" t="n">
-        <v>3.71</v>
+        <v>2.51</v>
       </c>
       <c r="S177" t="inlineStr">
         <is>
-          <t>31/07/2023 00:42</t>
+          <t>30/07/2023 21:12</t>
         </is>
       </c>
       <c r="T177" t="n">
-        <v>3.41</v>
+        <v>2.23</v>
       </c>
       <c r="U177" t="inlineStr">
         <is>
-          <t>06/08/2023 23:25</t>
+          <t>06/08/2023 23:22</t>
         </is>
       </c>
       <c r="V177" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/cruzeiro-botafogo-rj/0tKRScRk/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/coritiba-bragantino/YgIZQyd2/</t>
         </is>
       </c>
     </row>
@@ -16765,71 +16765,71 @@
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>Coritiba</t>
+          <t>Bahia</t>
         </is>
       </c>
       <c r="G178" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>Bragantino</t>
+          <t>America MG</t>
         </is>
       </c>
       <c r="I178" t="n">
         <v>1</v>
       </c>
       <c r="J178" t="n">
-        <v>2.97</v>
+        <v>2.02</v>
       </c>
       <c r="K178" t="inlineStr">
         <is>
-          <t>30/07/2023 21:12</t>
+          <t>31/07/2023 03:12</t>
         </is>
       </c>
       <c r="L178" t="n">
-        <v>3.58</v>
+        <v>1.94</v>
       </c>
       <c r="M178" t="inlineStr">
         <is>
-          <t>06/08/2023 23:25</t>
+          <t>06/08/2023 23:29</t>
         </is>
       </c>
       <c r="N178" t="n">
-        <v>3.29</v>
+        <v>3.55</v>
       </c>
       <c r="O178" t="inlineStr">
         <is>
-          <t>30/07/2023 21:12</t>
+          <t>31/07/2023 03:12</t>
         </is>
       </c>
       <c r="P178" t="n">
-        <v>3.33</v>
+        <v>3.68</v>
       </c>
       <c r="Q178" t="inlineStr">
         <is>
-          <t>06/08/2023 23:26</t>
+          <t>06/08/2023 23:29</t>
         </is>
       </c>
       <c r="R178" t="n">
-        <v>2.51</v>
+        <v>3.92</v>
       </c>
       <c r="S178" t="inlineStr">
         <is>
-          <t>30/07/2023 21:12</t>
+          <t>31/07/2023 03:12</t>
         </is>
       </c>
       <c r="T178" t="n">
-        <v>2.23</v>
+        <v>4.12</v>
       </c>
       <c r="U178" t="inlineStr">
         <is>
-          <t>06/08/2023 23:22</t>
+          <t>06/08/2023 23:29</t>
         </is>
       </c>
       <c r="V178" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/coritiba-bragantino/YgIZQyd2/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/bahia-america-mg/CvlGZTa2/</t>
         </is>
       </c>
     </row>
@@ -17133,62 +17133,62 @@
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>Gremio</t>
+          <t>America MG</t>
         </is>
       </c>
       <c r="G182" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>Fluminense</t>
+          <t>Goias</t>
         </is>
       </c>
       <c r="I182" t="n">
         <v>1</v>
       </c>
       <c r="J182" t="n">
-        <v>2.26</v>
+        <v>1.8</v>
       </c>
       <c r="K182" t="inlineStr">
         <is>
-          <t>06/08/2023 21:12</t>
+          <t>06/08/2023 23:42</t>
         </is>
       </c>
       <c r="L182" t="n">
-        <v>2.32</v>
+        <v>2</v>
       </c>
       <c r="M182" t="inlineStr">
         <is>
-          <t>13/08/2023 20:51</t>
+          <t>13/08/2023 20:58</t>
         </is>
       </c>
       <c r="N182" t="n">
-        <v>3.52</v>
+        <v>3.73</v>
       </c>
       <c r="O182" t="inlineStr">
         <is>
-          <t>06/08/2023 21:12</t>
+          <t>06/08/2023 23:42</t>
         </is>
       </c>
       <c r="P182" t="n">
-        <v>3.35</v>
+        <v>3.46</v>
       </c>
       <c r="Q182" t="inlineStr">
         <is>
-          <t>13/08/2023 20:55</t>
+          <t>13/08/2023 20:58</t>
         </is>
       </c>
       <c r="R182" t="n">
-        <v>3.19</v>
+        <v>4.59</v>
       </c>
       <c r="S182" t="inlineStr">
         <is>
-          <t>06/08/2023 21:12</t>
+          <t>06/08/2023 23:42</t>
         </is>
       </c>
       <c r="T182" t="n">
-        <v>3.36</v>
+        <v>4.17</v>
       </c>
       <c r="U182" t="inlineStr">
         <is>
@@ -17197,7 +17197,7 @@
       </c>
       <c r="V182" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/gremio-fluminense/hGACBHDC/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/america-mg-goias/bD12YvLP/</t>
         </is>
       </c>
     </row>
@@ -17317,71 +17317,71 @@
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>America MG</t>
+          <t>Gremio</t>
         </is>
       </c>
       <c r="G184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>Goias</t>
+          <t>Fluminense</t>
         </is>
       </c>
       <c r="I184" t="n">
         <v>1</v>
       </c>
       <c r="J184" t="n">
-        <v>1.8</v>
+        <v>2.26</v>
       </c>
       <c r="K184" t="inlineStr">
         <is>
-          <t>06/08/2023 23:42</t>
+          <t>06/08/2023 21:12</t>
         </is>
       </c>
       <c r="L184" t="n">
-        <v>2</v>
+        <v>2.32</v>
       </c>
       <c r="M184" t="inlineStr">
         <is>
+          <t>13/08/2023 20:51</t>
+        </is>
+      </c>
+      <c r="N184" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="O184" t="inlineStr">
+        <is>
+          <t>06/08/2023 21:12</t>
+        </is>
+      </c>
+      <c r="P184" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="Q184" t="inlineStr">
+        <is>
+          <t>13/08/2023 20:55</t>
+        </is>
+      </c>
+      <c r="R184" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="S184" t="inlineStr">
+        <is>
+          <t>06/08/2023 21:12</t>
+        </is>
+      </c>
+      <c r="T184" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="U184" t="inlineStr">
+        <is>
           <t>13/08/2023 20:58</t>
         </is>
       </c>
-      <c r="N184" t="n">
-        <v>3.73</v>
-      </c>
-      <c r="O184" t="inlineStr">
-        <is>
-          <t>06/08/2023 23:42</t>
-        </is>
-      </c>
-      <c r="P184" t="n">
-        <v>3.46</v>
-      </c>
-      <c r="Q184" t="inlineStr">
-        <is>
-          <t>13/08/2023 20:58</t>
-        </is>
-      </c>
-      <c r="R184" t="n">
-        <v>4.59</v>
-      </c>
-      <c r="S184" t="inlineStr">
-        <is>
-          <t>06/08/2023 23:42</t>
-        </is>
-      </c>
-      <c r="T184" t="n">
-        <v>4.17</v>
-      </c>
-      <c r="U184" t="inlineStr">
-        <is>
-          <t>13/08/2023 20:58</t>
-        </is>
-      </c>
       <c r="V184" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/america-mg-goias/bD12YvLP/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/gremio-fluminense/hGACBHDC/</t>
         </is>
       </c>
     </row>
@@ -23849,71 +23849,71 @@
       </c>
       <c r="F255" t="inlineStr">
         <is>
-          <t>Palmeiras</t>
+          <t>Fluminense</t>
         </is>
       </c>
       <c r="G255" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H255" t="inlineStr">
         <is>
-          <t>Santos</t>
+          <t>Botafogo RJ</t>
         </is>
       </c>
       <c r="I255" t="n">
         <v>2</v>
       </c>
       <c r="J255" t="n">
-        <v>1.35</v>
+        <v>2.08</v>
       </c>
       <c r="K255" t="inlineStr">
         <is>
-          <t>01/10/2023 22:42</t>
+          <t>03/10/2023 00:13</t>
         </is>
       </c>
       <c r="L255" t="n">
-        <v>1.44</v>
+        <v>1.95</v>
       </c>
       <c r="M255" t="inlineStr">
         <is>
-          <t>08/10/2023 20:49</t>
+          <t>08/10/2023 20:59</t>
         </is>
       </c>
       <c r="N255" t="n">
-        <v>5.12</v>
+        <v>3.21</v>
       </c>
       <c r="O255" t="inlineStr">
         <is>
-          <t>01/10/2023 22:42</t>
+          <t>03/10/2023 00:13</t>
         </is>
       </c>
       <c r="P255" t="n">
-        <v>4.48</v>
+        <v>3.52</v>
       </c>
       <c r="Q255" t="inlineStr">
         <is>
-          <t>08/10/2023 20:58</t>
+          <t>08/10/2023 20:59</t>
         </is>
       </c>
       <c r="R255" t="n">
-        <v>9.890000000000001</v>
+        <v>4.03</v>
       </c>
       <c r="S255" t="inlineStr">
         <is>
-          <t>01/10/2023 22:42</t>
+          <t>03/10/2023 00:13</t>
         </is>
       </c>
       <c r="T255" t="n">
-        <v>8.73</v>
+        <v>4.29</v>
       </c>
       <c r="U255" t="inlineStr">
         <is>
-          <t>08/10/2023 20:58</t>
+          <t>08/10/2023 20:59</t>
         </is>
       </c>
       <c r="V255" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/palmeiras-santos/6wD0Pwwl/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/fluminense-botafogo-rj/A7RUUaFQ/</t>
         </is>
       </c>
     </row>
@@ -23941,71 +23941,71 @@
       </c>
       <c r="F256" t="inlineStr">
         <is>
-          <t>Fluminense</t>
+          <t>Internacional</t>
         </is>
       </c>
       <c r="G256" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H256" t="inlineStr">
         <is>
-          <t>Botafogo RJ</t>
+          <t>Gremio</t>
         </is>
       </c>
       <c r="I256" t="n">
         <v>2</v>
       </c>
       <c r="J256" t="n">
-        <v>2.08</v>
+        <v>2.29</v>
       </c>
       <c r="K256" t="inlineStr">
         <is>
-          <t>03/10/2023 00:13</t>
+          <t>01/10/2023 01:12</t>
         </is>
       </c>
       <c r="L256" t="n">
-        <v>1.95</v>
+        <v>2.29</v>
       </c>
       <c r="M256" t="inlineStr">
         <is>
-          <t>08/10/2023 20:59</t>
+          <t>08/10/2023 20:56</t>
         </is>
       </c>
       <c r="N256" t="n">
-        <v>3.21</v>
+        <v>3.3</v>
       </c>
       <c r="O256" t="inlineStr">
         <is>
-          <t>03/10/2023 00:13</t>
+          <t>01/10/2023 01:12</t>
         </is>
       </c>
       <c r="P256" t="n">
-        <v>3.52</v>
+        <v>3.26</v>
       </c>
       <c r="Q256" t="inlineStr">
         <is>
-          <t>08/10/2023 20:59</t>
+          <t>08/10/2023 20:51</t>
         </is>
       </c>
       <c r="R256" t="n">
-        <v>4.03</v>
+        <v>3.43</v>
       </c>
       <c r="S256" t="inlineStr">
         <is>
-          <t>03/10/2023 00:13</t>
+          <t>01/10/2023 01:12</t>
         </is>
       </c>
       <c r="T256" t="n">
-        <v>4.29</v>
+        <v>3.53</v>
       </c>
       <c r="U256" t="inlineStr">
         <is>
-          <t>08/10/2023 20:59</t>
+          <t>08/10/2023 20:56</t>
         </is>
       </c>
       <c r="V256" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/fluminense-botafogo-rj/A7RUUaFQ/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/internacional-gremio/829HLexD/</t>
         </is>
       </c>
     </row>
@@ -24033,71 +24033,71 @@
       </c>
       <c r="F257" t="inlineStr">
         <is>
-          <t>Internacional</t>
+          <t>Palmeiras</t>
         </is>
       </c>
       <c r="G257" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H257" t="inlineStr">
         <is>
-          <t>Gremio</t>
+          <t>Santos</t>
         </is>
       </c>
       <c r="I257" t="n">
         <v>2</v>
       </c>
       <c r="J257" t="n">
-        <v>2.29</v>
+        <v>1.35</v>
       </c>
       <c r="K257" t="inlineStr">
         <is>
-          <t>01/10/2023 01:12</t>
+          <t>01/10/2023 22:42</t>
         </is>
       </c>
       <c r="L257" t="n">
-        <v>2.29</v>
+        <v>1.44</v>
       </c>
       <c r="M257" t="inlineStr">
         <is>
-          <t>08/10/2023 20:56</t>
+          <t>08/10/2023 20:49</t>
         </is>
       </c>
       <c r="N257" t="n">
-        <v>3.3</v>
+        <v>5.12</v>
       </c>
       <c r="O257" t="inlineStr">
         <is>
-          <t>01/10/2023 01:12</t>
+          <t>01/10/2023 22:42</t>
         </is>
       </c>
       <c r="P257" t="n">
-        <v>3.26</v>
+        <v>4.48</v>
       </c>
       <c r="Q257" t="inlineStr">
         <is>
-          <t>08/10/2023 20:51</t>
+          <t>08/10/2023 20:58</t>
         </is>
       </c>
       <c r="R257" t="n">
-        <v>3.43</v>
+        <v>9.890000000000001</v>
       </c>
       <c r="S257" t="inlineStr">
         <is>
-          <t>01/10/2023 01:12</t>
+          <t>01/10/2023 22:42</t>
         </is>
       </c>
       <c r="T257" t="n">
-        <v>3.53</v>
+        <v>8.73</v>
       </c>
       <c r="U257" t="inlineStr">
         <is>
-          <t>08/10/2023 20:56</t>
+          <t>08/10/2023 20:58</t>
         </is>
       </c>
       <c r="V257" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/internacional-gremio/829HLexD/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/palmeiras-santos/6wD0Pwwl/</t>
         </is>
       </c>
     </row>
@@ -24125,22 +24125,22 @@
       </c>
       <c r="F258" t="inlineStr">
         <is>
-          <t>Fortaleza</t>
+          <t>Atletico-MG</t>
         </is>
       </c>
       <c r="G258" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H258" t="inlineStr">
         <is>
-          <t>America MG</t>
+          <t>Coritiba</t>
         </is>
       </c>
       <c r="I258" t="n">
         <v>2</v>
       </c>
       <c r="J258" t="n">
-        <v>1.57</v>
+        <v>1.35</v>
       </c>
       <c r="K258" t="inlineStr">
         <is>
@@ -24148,15 +24148,15 @@
         </is>
       </c>
       <c r="L258" t="n">
-        <v>1.53</v>
+        <v>1.39</v>
       </c>
       <c r="M258" t="inlineStr">
         <is>
-          <t>08/10/2023 22:46</t>
+          <t>08/10/2023 23:23</t>
         </is>
       </c>
       <c r="N258" t="n">
-        <v>4.3</v>
+        <v>4.9</v>
       </c>
       <c r="O258" t="inlineStr">
         <is>
@@ -24164,15 +24164,15 @@
         </is>
       </c>
       <c r="P258" t="n">
-        <v>4.43</v>
+        <v>4.75</v>
       </c>
       <c r="Q258" t="inlineStr">
         <is>
-          <t>08/10/2023 23:29</t>
+          <t>08/10/2023 23:23</t>
         </is>
       </c>
       <c r="R258" t="n">
-        <v>5.96</v>
+        <v>10.08</v>
       </c>
       <c r="S258" t="inlineStr">
         <is>
@@ -24180,16 +24180,16 @@
         </is>
       </c>
       <c r="T258" t="n">
-        <v>6.46</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="U258" t="inlineStr">
         <is>
-          <t>08/10/2023 23:29</t>
+          <t>08/10/2023 23:25</t>
         </is>
       </c>
       <c r="V258" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/fortaleza-america-mg/lbn4qaUJ/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/atletico-mg-coritiba/vT4DMyN6/</t>
         </is>
       </c>
     </row>
@@ -24309,22 +24309,22 @@
       </c>
       <c r="F260" t="inlineStr">
         <is>
-          <t>Atletico-MG</t>
+          <t>Fortaleza</t>
         </is>
       </c>
       <c r="G260" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H260" t="inlineStr">
         <is>
-          <t>Coritiba</t>
+          <t>America MG</t>
         </is>
       </c>
       <c r="I260" t="n">
         <v>2</v>
       </c>
       <c r="J260" t="n">
-        <v>1.35</v>
+        <v>1.57</v>
       </c>
       <c r="K260" t="inlineStr">
         <is>
@@ -24332,15 +24332,15 @@
         </is>
       </c>
       <c r="L260" t="n">
-        <v>1.39</v>
+        <v>1.53</v>
       </c>
       <c r="M260" t="inlineStr">
         <is>
-          <t>08/10/2023 23:23</t>
+          <t>08/10/2023 22:46</t>
         </is>
       </c>
       <c r="N260" t="n">
-        <v>4.9</v>
+        <v>4.3</v>
       </c>
       <c r="O260" t="inlineStr">
         <is>
@@ -24348,15 +24348,15 @@
         </is>
       </c>
       <c r="P260" t="n">
-        <v>4.75</v>
+        <v>4.43</v>
       </c>
       <c r="Q260" t="inlineStr">
         <is>
-          <t>08/10/2023 23:23</t>
+          <t>08/10/2023 23:29</t>
         </is>
       </c>
       <c r="R260" t="n">
-        <v>10.08</v>
+        <v>5.96</v>
       </c>
       <c r="S260" t="inlineStr">
         <is>
@@ -24364,16 +24364,16 @@
         </is>
       </c>
       <c r="T260" t="n">
-        <v>9.800000000000001</v>
+        <v>6.46</v>
       </c>
       <c r="U260" t="inlineStr">
         <is>
-          <t>08/10/2023 23:25</t>
+          <t>08/10/2023 23:29</t>
         </is>
       </c>
       <c r="V260" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/atletico-mg-coritiba/vT4DMyN6/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/fortaleza-america-mg/lbn4qaUJ/</t>
         </is>
       </c>
     </row>
@@ -25413,22 +25413,22 @@
       </c>
       <c r="F272" t="inlineStr">
         <is>
-          <t>Sao Paulo</t>
+          <t>Bahia</t>
         </is>
       </c>
       <c r="G272" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H272" t="inlineStr">
         <is>
-          <t>Gremio</t>
+          <t>Fortaleza</t>
         </is>
       </c>
       <c r="I272" t="n">
         <v>0</v>
       </c>
       <c r="J272" t="n">
-        <v>1.95</v>
+        <v>2.3</v>
       </c>
       <c r="K272" t="inlineStr">
         <is>
@@ -25436,15 +25436,15 @@
         </is>
       </c>
       <c r="L272" t="n">
-        <v>1.6</v>
+        <v>2.09</v>
       </c>
       <c r="M272" t="inlineStr">
         <is>
-          <t>21/10/2023 23:29</t>
+          <t>21/10/2023 23:22</t>
         </is>
       </c>
       <c r="N272" t="n">
-        <v>3.59</v>
+        <v>3.33</v>
       </c>
       <c r="O272" t="inlineStr">
         <is>
@@ -25452,15 +25452,15 @@
         </is>
       </c>
       <c r="P272" t="n">
-        <v>4.04</v>
+        <v>3.39</v>
       </c>
       <c r="Q272" t="inlineStr">
         <is>
-          <t>21/10/2023 23:29</t>
+          <t>21/10/2023 23:18</t>
         </is>
       </c>
       <c r="R272" t="n">
-        <v>4.14</v>
+        <v>3.36</v>
       </c>
       <c r="S272" t="inlineStr">
         <is>
@@ -25468,16 +25468,16 @@
         </is>
       </c>
       <c r="T272" t="n">
-        <v>6.32</v>
+        <v>3.93</v>
       </c>
       <c r="U272" t="inlineStr">
         <is>
-          <t>21/10/2023 23:29</t>
+          <t>21/10/2023 23:22</t>
         </is>
       </c>
       <c r="V272" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/sao-paulo-gremio/nR7Jy8SA/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/bahia-fortaleza/d0Hrxxvi/</t>
         </is>
       </c>
     </row>
@@ -25597,22 +25597,22 @@
       </c>
       <c r="F274" t="inlineStr">
         <is>
-          <t>Bahia</t>
+          <t>Sao Paulo</t>
         </is>
       </c>
       <c r="G274" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H274" t="inlineStr">
         <is>
-          <t>Fortaleza</t>
+          <t>Gremio</t>
         </is>
       </c>
       <c r="I274" t="n">
         <v>0</v>
       </c>
       <c r="J274" t="n">
-        <v>2.3</v>
+        <v>1.95</v>
       </c>
       <c r="K274" t="inlineStr">
         <is>
@@ -25620,15 +25620,15 @@
         </is>
       </c>
       <c r="L274" t="n">
-        <v>2.09</v>
+        <v>1.6</v>
       </c>
       <c r="M274" t="inlineStr">
         <is>
-          <t>21/10/2023 23:22</t>
+          <t>21/10/2023 23:29</t>
         </is>
       </c>
       <c r="N274" t="n">
-        <v>3.33</v>
+        <v>3.59</v>
       </c>
       <c r="O274" t="inlineStr">
         <is>
@@ -25636,15 +25636,15 @@
         </is>
       </c>
       <c r="P274" t="n">
-        <v>3.39</v>
+        <v>4.04</v>
       </c>
       <c r="Q274" t="inlineStr">
         <is>
-          <t>21/10/2023 23:18</t>
+          <t>21/10/2023 23:29</t>
         </is>
       </c>
       <c r="R274" t="n">
-        <v>3.36</v>
+        <v>4.14</v>
       </c>
       <c r="S274" t="inlineStr">
         <is>
@@ -25652,16 +25652,16 @@
         </is>
       </c>
       <c r="T274" t="n">
-        <v>3.93</v>
+        <v>6.32</v>
       </c>
       <c r="U274" t="inlineStr">
         <is>
-          <t>21/10/2023 23:22</t>
+          <t>21/10/2023 23:29</t>
         </is>
       </c>
       <c r="V274" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/bahia-fortaleza/d0Hrxxvi/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/sao-paulo-gremio/nR7Jy8SA/</t>
         </is>
       </c>
     </row>
@@ -25781,71 +25781,71 @@
       </c>
       <c r="F276" t="inlineStr">
         <is>
-          <t>Internacional</t>
+          <t>Flamengo RJ</t>
         </is>
       </c>
       <c r="G276" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H276" t="inlineStr">
         <is>
-          <t>Santos</t>
+          <t>Vasco</t>
         </is>
       </c>
       <c r="I276" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J276" t="n">
-        <v>1.8</v>
+        <v>1.61</v>
       </c>
       <c r="K276" t="inlineStr">
         <is>
-          <t>20/10/2023 00:12</t>
+          <t>19/10/2023 23:13</t>
         </is>
       </c>
       <c r="L276" t="n">
-        <v>1.54</v>
+        <v>1.7</v>
       </c>
       <c r="M276" t="inlineStr">
         <is>
-          <t>22/10/2023 20:51</t>
+          <t>22/10/2023 20:53</t>
         </is>
       </c>
       <c r="N276" t="n">
-        <v>3.54</v>
+        <v>4.1</v>
       </c>
       <c r="O276" t="inlineStr">
         <is>
-          <t>20/10/2023 00:12</t>
+          <t>19/10/2023 23:13</t>
         </is>
       </c>
       <c r="P276" t="n">
-        <v>4.08</v>
+        <v>3.77</v>
       </c>
       <c r="Q276" t="inlineStr">
         <is>
-          <t>22/10/2023 20:55</t>
+          <t>22/10/2023 20:53</t>
         </is>
       </c>
       <c r="R276" t="n">
-        <v>5.08</v>
+        <v>5.59</v>
       </c>
       <c r="S276" t="inlineStr">
         <is>
-          <t>20/10/2023 00:12</t>
+          <t>19/10/2023 23:13</t>
         </is>
       </c>
       <c r="T276" t="n">
-        <v>7.28</v>
+        <v>5.61</v>
       </c>
       <c r="U276" t="inlineStr">
         <is>
-          <t>22/10/2023 20:55</t>
+          <t>22/10/2023 20:53</t>
         </is>
       </c>
       <c r="V276" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/internacional-santos/vPnbUPKp/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/flamengo-rj-vasco/tU4BwUcb/</t>
         </is>
       </c>
     </row>
@@ -25873,71 +25873,71 @@
       </c>
       <c r="F277" t="inlineStr">
         <is>
-          <t>Atletico-MG</t>
+          <t>Internacional</t>
         </is>
       </c>
       <c r="G277" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H277" t="inlineStr">
         <is>
-          <t>Cruzeiro</t>
+          <t>Santos</t>
         </is>
       </c>
       <c r="I277" t="n">
         <v>1</v>
       </c>
       <c r="J277" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="K277" t="inlineStr">
         <is>
-          <t>19/10/2023 23:12</t>
+          <t>20/10/2023 00:12</t>
         </is>
       </c>
       <c r="L277" t="n">
-        <v>1.92</v>
+        <v>1.54</v>
       </c>
       <c r="M277" t="inlineStr">
         <is>
-          <t>22/10/2023 20:52</t>
+          <t>22/10/2023 20:51</t>
         </is>
       </c>
       <c r="N277" t="n">
-        <v>3.66</v>
+        <v>3.54</v>
       </c>
       <c r="O277" t="inlineStr">
         <is>
-          <t>19/10/2023 23:12</t>
+          <t>20/10/2023 00:12</t>
         </is>
       </c>
       <c r="P277" t="n">
-        <v>3.17</v>
+        <v>4.08</v>
       </c>
       <c r="Q277" t="inlineStr">
         <is>
-          <t>22/10/2023 20:52</t>
+          <t>22/10/2023 20:55</t>
         </is>
       </c>
       <c r="R277" t="n">
-        <v>5.43</v>
+        <v>5.08</v>
       </c>
       <c r="S277" t="inlineStr">
         <is>
-          <t>19/10/2023 23:12</t>
+          <t>20/10/2023 00:12</t>
         </is>
       </c>
       <c r="T277" t="n">
-        <v>5.2</v>
+        <v>7.28</v>
       </c>
       <c r="U277" t="inlineStr">
         <is>
-          <t>22/10/2023 20:56</t>
+          <t>22/10/2023 20:55</t>
         </is>
       </c>
       <c r="V277" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/atletico-mg-cruzeiro/Mq0WY5CT/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/internacional-santos/vPnbUPKp/</t>
         </is>
       </c>
     </row>
@@ -25965,71 +25965,71 @@
       </c>
       <c r="F278" t="inlineStr">
         <is>
-          <t>Flamengo RJ</t>
+          <t>Atletico-MG</t>
         </is>
       </c>
       <c r="G278" t="n">
+        <v>0</v>
+      </c>
+      <c r="H278" t="inlineStr">
+        <is>
+          <t>Cruzeiro</t>
+        </is>
+      </c>
+      <c r="I278" t="n">
         <v>1</v>
       </c>
-      <c r="H278" t="inlineStr">
-        <is>
-          <t>Vasco</t>
-        </is>
-      </c>
-      <c r="I278" t="n">
-        <v>0</v>
-      </c>
       <c r="J278" t="n">
-        <v>1.61</v>
+        <v>1.75</v>
       </c>
       <c r="K278" t="inlineStr">
         <is>
-          <t>19/10/2023 23:13</t>
+          <t>19/10/2023 23:12</t>
         </is>
       </c>
       <c r="L278" t="n">
-        <v>1.7</v>
+        <v>1.92</v>
       </c>
       <c r="M278" t="inlineStr">
         <is>
-          <t>22/10/2023 20:53</t>
+          <t>22/10/2023 20:52</t>
         </is>
       </c>
       <c r="N278" t="n">
-        <v>4.1</v>
+        <v>3.66</v>
       </c>
       <c r="O278" t="inlineStr">
         <is>
-          <t>19/10/2023 23:13</t>
+          <t>19/10/2023 23:12</t>
         </is>
       </c>
       <c r="P278" t="n">
-        <v>3.77</v>
+        <v>3.17</v>
       </c>
       <c r="Q278" t="inlineStr">
         <is>
-          <t>22/10/2023 20:53</t>
+          <t>22/10/2023 20:52</t>
         </is>
       </c>
       <c r="R278" t="n">
-        <v>5.59</v>
+        <v>5.43</v>
       </c>
       <c r="S278" t="inlineStr">
         <is>
-          <t>19/10/2023 23:13</t>
+          <t>19/10/2023 23:12</t>
         </is>
       </c>
       <c r="T278" t="n">
-        <v>5.61</v>
+        <v>5.2</v>
       </c>
       <c r="U278" t="inlineStr">
         <is>
-          <t>22/10/2023 20:53</t>
+          <t>22/10/2023 20:56</t>
         </is>
       </c>
       <c r="V278" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/flamengo-rj-vasco/tU4BwUcb/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/atletico-mg-cruzeiro/Mq0WY5CT/</t>
         </is>
       </c>
     </row>
@@ -26333,22 +26333,22 @@
       </c>
       <c r="F282" t="inlineStr">
         <is>
-          <t>Bragantino</t>
+          <t>Athletico-PR</t>
         </is>
       </c>
       <c r="G282" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H282" t="inlineStr">
         <is>
-          <t>Atletico-MG</t>
+          <t>America MG</t>
         </is>
       </c>
       <c r="I282" t="n">
         <v>2</v>
       </c>
       <c r="J282" t="n">
-        <v>1.96</v>
+        <v>1.58</v>
       </c>
       <c r="K282" t="inlineStr">
         <is>
@@ -26356,15 +26356,15 @@
         </is>
       </c>
       <c r="L282" t="n">
-        <v>1.88</v>
+        <v>1.58</v>
       </c>
       <c r="M282" t="inlineStr">
         <is>
-          <t>25/10/2023 23:59</t>
+          <t>25/10/2023 23:27</t>
         </is>
       </c>
       <c r="N282" t="n">
-        <v>3.5</v>
+        <v>4.26</v>
       </c>
       <c r="O282" t="inlineStr">
         <is>
@@ -26372,15 +26372,15 @@
         </is>
       </c>
       <c r="P282" t="n">
-        <v>3.47</v>
+        <v>4.31</v>
       </c>
       <c r="Q282" t="inlineStr">
         <is>
-          <t>25/10/2023 23:59</t>
+          <t>25/10/2023 23:33</t>
         </is>
       </c>
       <c r="R282" t="n">
-        <v>4.2</v>
+        <v>6.01</v>
       </c>
       <c r="S282" t="inlineStr">
         <is>
@@ -26388,16 +26388,16 @@
         </is>
       </c>
       <c r="T282" t="n">
-        <v>4.8</v>
+        <v>6.03</v>
       </c>
       <c r="U282" t="inlineStr">
         <is>
-          <t>25/10/2023 23:59</t>
+          <t>25/10/2023 23:30</t>
         </is>
       </c>
       <c r="V282" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/bragantino-atletico-mg/Cd77WX7S/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/athletico-pr-america-mg/AXnrQVpd/</t>
         </is>
       </c>
     </row>
@@ -26425,22 +26425,22 @@
       </c>
       <c r="F283" t="inlineStr">
         <is>
-          <t>Fluminense</t>
+          <t>Bragantino</t>
         </is>
       </c>
       <c r="G283" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H283" t="inlineStr">
         <is>
-          <t>Goias</t>
+          <t>Atletico-MG</t>
         </is>
       </c>
       <c r="I283" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J283" t="n">
-        <v>1.53</v>
+        <v>1.96</v>
       </c>
       <c r="K283" t="inlineStr">
         <is>
@@ -26448,15 +26448,15 @@
         </is>
       </c>
       <c r="L283" t="n">
-        <v>1.61</v>
+        <v>1.88</v>
       </c>
       <c r="M283" t="inlineStr">
         <is>
-          <t>25/10/2023 23:34</t>
+          <t>25/10/2023 23:59</t>
         </is>
       </c>
       <c r="N283" t="n">
-        <v>4.28</v>
+        <v>3.5</v>
       </c>
       <c r="O283" t="inlineStr">
         <is>
@@ -26464,15 +26464,15 @@
         </is>
       </c>
       <c r="P283" t="n">
-        <v>4.15</v>
+        <v>3.47</v>
       </c>
       <c r="Q283" t="inlineStr">
         <is>
-          <t>25/10/2023 23:34</t>
+          <t>25/10/2023 23:59</t>
         </is>
       </c>
       <c r="R283" t="n">
-        <v>6.81</v>
+        <v>4.2</v>
       </c>
       <c r="S283" t="inlineStr">
         <is>
@@ -26480,16 +26480,16 @@
         </is>
       </c>
       <c r="T283" t="n">
-        <v>5.9</v>
+        <v>4.8</v>
       </c>
       <c r="U283" t="inlineStr">
         <is>
-          <t>25/10/2023 23:34</t>
+          <t>25/10/2023 23:59</t>
         </is>
       </c>
       <c r="V283" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/fluminense-goias/rHFjzG83/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/bragantino-atletico-mg/Cd77WX7S/</t>
         </is>
       </c>
     </row>
@@ -26517,22 +26517,22 @@
       </c>
       <c r="F284" t="inlineStr">
         <is>
-          <t>Athletico-PR</t>
+          <t>Fluminense</t>
         </is>
       </c>
       <c r="G284" t="n">
+        <v>5</v>
+      </c>
+      <c r="H284" t="inlineStr">
+        <is>
+          <t>Goias</t>
+        </is>
+      </c>
+      <c r="I284" t="n">
         <v>3</v>
       </c>
-      <c r="H284" t="inlineStr">
-        <is>
-          <t>America MG</t>
-        </is>
-      </c>
-      <c r="I284" t="n">
-        <v>2</v>
-      </c>
       <c r="J284" t="n">
-        <v>1.58</v>
+        <v>1.53</v>
       </c>
       <c r="K284" t="inlineStr">
         <is>
@@ -26540,15 +26540,15 @@
         </is>
       </c>
       <c r="L284" t="n">
-        <v>1.58</v>
+        <v>1.61</v>
       </c>
       <c r="M284" t="inlineStr">
         <is>
-          <t>25/10/2023 23:27</t>
+          <t>25/10/2023 23:34</t>
         </is>
       </c>
       <c r="N284" t="n">
-        <v>4.26</v>
+        <v>4.28</v>
       </c>
       <c r="O284" t="inlineStr">
         <is>
@@ -26556,15 +26556,15 @@
         </is>
       </c>
       <c r="P284" t="n">
-        <v>4.31</v>
+        <v>4.15</v>
       </c>
       <c r="Q284" t="inlineStr">
         <is>
-          <t>25/10/2023 23:33</t>
+          <t>25/10/2023 23:34</t>
         </is>
       </c>
       <c r="R284" t="n">
-        <v>6.01</v>
+        <v>6.81</v>
       </c>
       <c r="S284" t="inlineStr">
         <is>
@@ -26572,16 +26572,16 @@
         </is>
       </c>
       <c r="T284" t="n">
-        <v>6.03</v>
+        <v>5.9</v>
       </c>
       <c r="U284" t="inlineStr">
         <is>
-          <t>25/10/2023 23:30</t>
+          <t>25/10/2023 23:34</t>
         </is>
       </c>
       <c r="V284" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/athletico-pr-america-mg/AXnrQVpd/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/fluminense-goias/rHFjzG83/</t>
         </is>
       </c>
     </row>
@@ -26793,71 +26793,71 @@
       </c>
       <c r="F287" t="inlineStr">
         <is>
-          <t>Gremio</t>
+          <t>Cuiaba</t>
         </is>
       </c>
       <c r="G287" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H287" t="inlineStr">
         <is>
-          <t>Flamengo RJ</t>
+          <t>Corinthians</t>
         </is>
       </c>
       <c r="I287" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J287" t="n">
-        <v>2.54</v>
+        <v>2.03</v>
       </c>
       <c r="K287" t="inlineStr">
         <is>
-          <t>22/10/2023 20:12</t>
+          <t>22/10/2023 22:42</t>
         </is>
       </c>
       <c r="L287" t="n">
-        <v>4.14</v>
+        <v>2.23</v>
       </c>
       <c r="M287" t="inlineStr">
         <is>
+          <t>26/10/2023 02:29</t>
+        </is>
+      </c>
+      <c r="N287" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="O287" t="inlineStr">
+        <is>
+          <t>22/10/2023 22:42</t>
+        </is>
+      </c>
+      <c r="P287" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Q287" t="inlineStr">
+        <is>
           <t>26/10/2023 02:27</t>
         </is>
       </c>
-      <c r="N287" t="n">
-        <v>3.37</v>
-      </c>
-      <c r="O287" t="inlineStr">
-        <is>
-          <t>22/10/2023 20:12</t>
-        </is>
-      </c>
-      <c r="P287" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Q287" t="inlineStr">
-        <is>
-          <t>26/10/2023 02:22</t>
-        </is>
-      </c>
       <c r="R287" t="n">
-        <v>2.93</v>
+        <v>4.27</v>
       </c>
       <c r="S287" t="inlineStr">
         <is>
-          <t>22/10/2023 20:12</t>
+          <t>22/10/2023 22:42</t>
         </is>
       </c>
       <c r="T287" t="n">
-        <v>2.03</v>
+        <v>3.88</v>
       </c>
       <c r="U287" t="inlineStr">
         <is>
-          <t>26/10/2023 02:27</t>
+          <t>26/10/2023 02:29</t>
         </is>
       </c>
       <c r="V287" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/gremio-flamengo-rj/WtlvRBVk/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/cuiaba-corinthians/MLgTmZx3/</t>
         </is>
       </c>
     </row>
@@ -26885,71 +26885,71 @@
       </c>
       <c r="F288" t="inlineStr">
         <is>
-          <t>Cuiaba</t>
+          <t>Gremio</t>
         </is>
       </c>
       <c r="G288" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H288" t="inlineStr">
         <is>
-          <t>Corinthians</t>
+          <t>Flamengo RJ</t>
         </is>
       </c>
       <c r="I288" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J288" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>22/10/2023 20:12</t>
+        </is>
+      </c>
+      <c r="L288" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="M288" t="inlineStr">
+        <is>
+          <t>26/10/2023 02:27</t>
+        </is>
+      </c>
+      <c r="N288" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="O288" t="inlineStr">
+        <is>
+          <t>22/10/2023 20:12</t>
+        </is>
+      </c>
+      <c r="P288" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q288" t="inlineStr">
+        <is>
+          <t>26/10/2023 02:22</t>
+        </is>
+      </c>
+      <c r="R288" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="S288" t="inlineStr">
+        <is>
+          <t>22/10/2023 20:12</t>
+        </is>
+      </c>
+      <c r="T288" t="n">
         <v>2.03</v>
       </c>
-      <c r="K288" t="inlineStr">
-        <is>
-          <t>22/10/2023 22:42</t>
-        </is>
-      </c>
-      <c r="L288" t="n">
-        <v>2.23</v>
-      </c>
-      <c r="M288" t="inlineStr">
-        <is>
-          <t>26/10/2023 02:29</t>
-        </is>
-      </c>
-      <c r="N288" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="O288" t="inlineStr">
-        <is>
-          <t>22/10/2023 22:42</t>
-        </is>
-      </c>
-      <c r="P288" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="Q288" t="inlineStr">
+      <c r="U288" t="inlineStr">
         <is>
           <t>26/10/2023 02:27</t>
         </is>
       </c>
-      <c r="R288" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="S288" t="inlineStr">
-        <is>
-          <t>22/10/2023 22:42</t>
-        </is>
-      </c>
-      <c r="T288" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="U288" t="inlineStr">
-        <is>
-          <t>26/10/2023 02:29</t>
-        </is>
-      </c>
       <c r="V288" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/cuiaba-corinthians/MLgTmZx3/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/gremio-flamengo-rj/WtlvRBVk/</t>
         </is>
       </c>
     </row>
@@ -27161,71 +27161,71 @@
       </c>
       <c r="F291" t="inlineStr">
         <is>
-          <t>America MG</t>
+          <t>Palmeiras</t>
         </is>
       </c>
       <c r="G291" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H291" t="inlineStr">
         <is>
-          <t>Gremio</t>
+          <t>Bahia</t>
         </is>
       </c>
       <c r="I291" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J291" t="n">
-        <v>2.54</v>
+        <v>1.51</v>
       </c>
       <c r="K291" t="inlineStr">
         <is>
-          <t>26/10/2023 02:42</t>
+          <t>26/10/2023 01:12</t>
         </is>
       </c>
       <c r="L291" t="n">
-        <v>2.32</v>
+        <v>1.34</v>
       </c>
       <c r="M291" t="inlineStr">
         <is>
-          <t>28/10/2023 23:59</t>
+          <t>28/10/2023 23:52</t>
         </is>
       </c>
       <c r="N291" t="n">
-        <v>3.43</v>
+        <v>4.44</v>
       </c>
       <c r="O291" t="inlineStr">
         <is>
-          <t>26/10/2023 02:42</t>
+          <t>26/10/2023 01:12</t>
         </is>
       </c>
       <c r="P291" t="n">
-        <v>3.56</v>
+        <v>5.16</v>
       </c>
       <c r="Q291" t="inlineStr">
         <is>
-          <t>28/10/2023 23:59</t>
+          <t>28/10/2023 23:53</t>
         </is>
       </c>
       <c r="R291" t="n">
-        <v>2.89</v>
+        <v>6.84</v>
       </c>
       <c r="S291" t="inlineStr">
         <is>
-          <t>26/10/2023 02:42</t>
+          <t>26/10/2023 01:12</t>
         </is>
       </c>
       <c r="T291" t="n">
-        <v>3.16</v>
+        <v>10.94</v>
       </c>
       <c r="U291" t="inlineStr">
         <is>
-          <t>28/10/2023 23:59</t>
+          <t>28/10/2023 23:53</t>
         </is>
       </c>
       <c r="V291" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/america-mg-gremio/MsV30CM8/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/palmeiras-bahia/CAntoXML/</t>
         </is>
       </c>
     </row>
@@ -27253,71 +27253,71 @@
       </c>
       <c r="F292" t="inlineStr">
         <is>
-          <t>Palmeiras</t>
+          <t>America MG</t>
         </is>
       </c>
       <c r="G292" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H292" t="inlineStr">
         <is>
-          <t>Bahia</t>
+          <t>Gremio</t>
         </is>
       </c>
       <c r="I292" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J292" t="n">
-        <v>1.51</v>
+        <v>2.54</v>
       </c>
       <c r="K292" t="inlineStr">
         <is>
-          <t>26/10/2023 01:12</t>
+          <t>26/10/2023 02:42</t>
         </is>
       </c>
       <c r="L292" t="n">
-        <v>1.34</v>
+        <v>2.32</v>
       </c>
       <c r="M292" t="inlineStr">
         <is>
-          <t>28/10/2023 23:52</t>
+          <t>28/10/2023 23:59</t>
         </is>
       </c>
       <c r="N292" t="n">
-        <v>4.44</v>
+        <v>3.43</v>
       </c>
       <c r="O292" t="inlineStr">
         <is>
-          <t>26/10/2023 01:12</t>
+          <t>26/10/2023 02:42</t>
         </is>
       </c>
       <c r="P292" t="n">
-        <v>5.16</v>
+        <v>3.56</v>
       </c>
       <c r="Q292" t="inlineStr">
         <is>
-          <t>28/10/2023 23:53</t>
+          <t>28/10/2023 23:59</t>
         </is>
       </c>
       <c r="R292" t="n">
-        <v>6.84</v>
+        <v>2.89</v>
       </c>
       <c r="S292" t="inlineStr">
         <is>
-          <t>26/10/2023 01:12</t>
+          <t>26/10/2023 02:42</t>
         </is>
       </c>
       <c r="T292" t="n">
-        <v>10.94</v>
+        <v>3.16</v>
       </c>
       <c r="U292" t="inlineStr">
         <is>
-          <t>28/10/2023 23:53</t>
+          <t>28/10/2023 23:59</t>
         </is>
       </c>
       <c r="V292" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/palmeiras-bahia/CAntoXML/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/america-mg-gremio/MsV30CM8/</t>
         </is>
       </c>
     </row>
@@ -27989,7 +27989,7 @@
       </c>
       <c r="F300" t="inlineStr">
         <is>
-          <t>Internacional</t>
+          <t>Corinthians</t>
         </is>
       </c>
       <c r="G300" t="n">
@@ -27997,14 +27997,14 @@
       </c>
       <c r="H300" t="inlineStr">
         <is>
-          <t>America MG</t>
+          <t>Athletico-PR</t>
         </is>
       </c>
       <c r="I300" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J300" t="n">
-        <v>1.65</v>
+        <v>2.7</v>
       </c>
       <c r="K300" t="inlineStr">
         <is>
@@ -28012,15 +28012,15 @@
         </is>
       </c>
       <c r="L300" t="n">
-        <v>1.58</v>
+        <v>2.73</v>
       </c>
       <c r="M300" t="inlineStr">
         <is>
-          <t>01/11/2023 22:58</t>
+          <t>01/11/2023 22:51</t>
         </is>
       </c>
       <c r="N300" t="n">
-        <v>4.12</v>
+        <v>3.14</v>
       </c>
       <c r="O300" t="inlineStr">
         <is>
@@ -28028,15 +28028,15 @@
         </is>
       </c>
       <c r="P300" t="n">
-        <v>4.38</v>
+        <v>3</v>
       </c>
       <c r="Q300" t="inlineStr">
         <is>
-          <t>01/11/2023 22:58</t>
+          <t>01/11/2023 22:50</t>
         </is>
       </c>
       <c r="R300" t="n">
-        <v>5.2</v>
+        <v>2.86</v>
       </c>
       <c r="S300" t="inlineStr">
         <is>
@@ -28044,16 +28044,16 @@
         </is>
       </c>
       <c r="T300" t="n">
-        <v>5.87</v>
+        <v>3.05</v>
       </c>
       <c r="U300" t="inlineStr">
         <is>
-          <t>01/11/2023 22:58</t>
+          <t>01/11/2023 22:51</t>
         </is>
       </c>
       <c r="V300" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/internacional-america-mg/4U2ejSb1/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/corinthians-athletico-pr/EuArgUEr/</t>
         </is>
       </c>
     </row>
@@ -28081,7 +28081,7 @@
       </c>
       <c r="F301" t="inlineStr">
         <is>
-          <t>Corinthians</t>
+          <t>Internacional</t>
         </is>
       </c>
       <c r="G301" t="n">
@@ -28089,14 +28089,14 @@
       </c>
       <c r="H301" t="inlineStr">
         <is>
-          <t>Athletico-PR</t>
+          <t>America MG</t>
         </is>
       </c>
       <c r="I301" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J301" t="n">
-        <v>2.7</v>
+        <v>1.65</v>
       </c>
       <c r="K301" t="inlineStr">
         <is>
@@ -28104,15 +28104,15 @@
         </is>
       </c>
       <c r="L301" t="n">
-        <v>2.73</v>
+        <v>1.58</v>
       </c>
       <c r="M301" t="inlineStr">
         <is>
-          <t>01/11/2023 22:51</t>
+          <t>01/11/2023 22:58</t>
         </is>
       </c>
       <c r="N301" t="n">
-        <v>3.14</v>
+        <v>4.12</v>
       </c>
       <c r="O301" t="inlineStr">
         <is>
@@ -28120,15 +28120,15 @@
         </is>
       </c>
       <c r="P301" t="n">
-        <v>3</v>
+        <v>4.38</v>
       </c>
       <c r="Q301" t="inlineStr">
         <is>
-          <t>01/11/2023 22:50</t>
+          <t>01/11/2023 22:58</t>
         </is>
       </c>
       <c r="R301" t="n">
-        <v>2.86</v>
+        <v>5.2</v>
       </c>
       <c r="S301" t="inlineStr">
         <is>
@@ -28136,16 +28136,16 @@
         </is>
       </c>
       <c r="T301" t="n">
-        <v>3.05</v>
+        <v>5.87</v>
       </c>
       <c r="U301" t="inlineStr">
         <is>
-          <t>01/11/2023 22:51</t>
+          <t>01/11/2023 22:58</t>
         </is>
       </c>
       <c r="V301" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/corinthians-athletico-pr/EuArgUEr/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/internacional-america-mg/4U2ejSb1/</t>
         </is>
       </c>
     </row>
@@ -28357,7 +28357,7 @@
       </c>
       <c r="F304" t="inlineStr">
         <is>
-          <t>Botafogo RJ</t>
+          <t>Atletico-MG</t>
         </is>
       </c>
       <c r="G304" t="n">
@@ -28365,22 +28365,22 @@
       </c>
       <c r="H304" t="inlineStr">
         <is>
-          <t>Palmeiras</t>
+          <t>Fortaleza</t>
         </is>
       </c>
       <c r="I304" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J304" t="n">
-        <v>2.74</v>
+        <v>1.78</v>
       </c>
       <c r="K304" t="inlineStr">
         <is>
-          <t>30/10/2023 00:12</t>
+          <t>29/10/2023 02:13</t>
         </is>
       </c>
       <c r="L304" t="n">
-        <v>3.14</v>
+        <v>1.73</v>
       </c>
       <c r="M304" t="inlineStr">
         <is>
@@ -28388,15 +28388,15 @@
         </is>
       </c>
       <c r="N304" t="n">
-        <v>3.15</v>
+        <v>3.56</v>
       </c>
       <c r="O304" t="inlineStr">
         <is>
-          <t>30/10/2023 00:12</t>
+          <t>29/10/2023 02:13</t>
         </is>
       </c>
       <c r="P304" t="n">
-        <v>3.2</v>
+        <v>3.71</v>
       </c>
       <c r="Q304" t="inlineStr">
         <is>
@@ -28404,24 +28404,24 @@
         </is>
       </c>
       <c r="R304" t="n">
-        <v>2.86</v>
+        <v>5.23</v>
       </c>
       <c r="S304" t="inlineStr">
         <is>
-          <t>30/10/2023 00:12</t>
+          <t>29/10/2023 02:13</t>
         </is>
       </c>
       <c r="T304" t="n">
-        <v>2.52</v>
+        <v>5.48</v>
       </c>
       <c r="U304" t="inlineStr">
         <is>
-          <t>02/11/2023 01:23</t>
+          <t>02/11/2023 01:28</t>
         </is>
       </c>
       <c r="V304" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/botafogo-rj-palmeiras/U7YBbjiL/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/atletico-mg-fortaleza/M5Dji8qe/</t>
         </is>
       </c>
     </row>
@@ -28449,7 +28449,7 @@
       </c>
       <c r="F305" t="inlineStr">
         <is>
-          <t>Atletico-MG</t>
+          <t>Botafogo RJ</t>
         </is>
       </c>
       <c r="G305" t="n">
@@ -28457,22 +28457,22 @@
       </c>
       <c r="H305" t="inlineStr">
         <is>
-          <t>Fortaleza</t>
+          <t>Palmeiras</t>
         </is>
       </c>
       <c r="I305" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J305" t="n">
-        <v>1.78</v>
+        <v>2.74</v>
       </c>
       <c r="K305" t="inlineStr">
         <is>
-          <t>29/10/2023 02:13</t>
+          <t>30/10/2023 00:12</t>
         </is>
       </c>
       <c r="L305" t="n">
-        <v>1.73</v>
+        <v>3.14</v>
       </c>
       <c r="M305" t="inlineStr">
         <is>
@@ -28480,15 +28480,15 @@
         </is>
       </c>
       <c r="N305" t="n">
-        <v>3.56</v>
+        <v>3.15</v>
       </c>
       <c r="O305" t="inlineStr">
         <is>
-          <t>29/10/2023 02:13</t>
+          <t>30/10/2023 00:12</t>
         </is>
       </c>
       <c r="P305" t="n">
-        <v>3.71</v>
+        <v>3.2</v>
       </c>
       <c r="Q305" t="inlineStr">
         <is>
@@ -28496,24 +28496,24 @@
         </is>
       </c>
       <c r="R305" t="n">
-        <v>5.23</v>
+        <v>2.86</v>
       </c>
       <c r="S305" t="inlineStr">
         <is>
-          <t>29/10/2023 02:13</t>
+          <t>30/10/2023 00:12</t>
         </is>
       </c>
       <c r="T305" t="n">
-        <v>5.48</v>
+        <v>2.52</v>
       </c>
       <c r="U305" t="inlineStr">
         <is>
-          <t>02/11/2023 01:28</t>
+          <t>02/11/2023 01:23</t>
         </is>
       </c>
       <c r="V305" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/atletico-mg-fortaleza/M5Dji8qe/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/botafogo-rj-palmeiras/U7YBbjiL/</t>
         </is>
       </c>
     </row>
@@ -29618,6 +29618,466 @@
       <c r="V317" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/brazil/serie-a/santos-cuiaba/APERhLKa/</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" s="1" t="n">
+        <v>317</v>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>brazil</t>
+        </is>
+      </c>
+      <c r="C318" t="inlineStr">
+        <is>
+          <t>serie-a</t>
+        </is>
+      </c>
+      <c r="D318" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E318" s="2" t="n">
+        <v>45238.95833333334</v>
+      </c>
+      <c r="F318" t="inlineStr">
+        <is>
+          <t>America MG</t>
+        </is>
+      </c>
+      <c r="G318" t="n">
+        <v>0</v>
+      </c>
+      <c r="H318" t="inlineStr">
+        <is>
+          <t>Coritiba</t>
+        </is>
+      </c>
+      <c r="I318" t="n">
+        <v>3</v>
+      </c>
+      <c r="J318" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>05/11/2023 22:42</t>
+        </is>
+      </c>
+      <c r="L318" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="M318" t="inlineStr">
+        <is>
+          <t>08/11/2023 21:05</t>
+        </is>
+      </c>
+      <c r="N318" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="O318" t="inlineStr">
+        <is>
+          <t>05/11/2023 22:42</t>
+        </is>
+      </c>
+      <c r="P318" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="Q318" t="inlineStr">
+        <is>
+          <t>08/11/2023 22:49</t>
+        </is>
+      </c>
+      <c r="R318" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="S318" t="inlineStr">
+        <is>
+          <t>05/11/2023 22:42</t>
+        </is>
+      </c>
+      <c r="T318" t="n">
+        <v>4.77</v>
+      </c>
+      <c r="U318" t="inlineStr">
+        <is>
+          <t>08/11/2023 22:55</t>
+        </is>
+      </c>
+      <c r="V318" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/america-mg-coritiba/UmAZLJln/</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" s="1" t="n">
+        <v>318</v>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>brazil</t>
+        </is>
+      </c>
+      <c r="C319" t="inlineStr">
+        <is>
+          <t>serie-a</t>
+        </is>
+      </c>
+      <c r="D319" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E319" s="2" t="n">
+        <v>45238.95833333334</v>
+      </c>
+      <c r="F319" t="inlineStr">
+        <is>
+          <t>Internacional</t>
+        </is>
+      </c>
+      <c r="G319" t="n">
+        <v>0</v>
+      </c>
+      <c r="H319" t="inlineStr">
+        <is>
+          <t>Fluminense</t>
+        </is>
+      </c>
+      <c r="I319" t="n">
+        <v>0</v>
+      </c>
+      <c r="J319" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>05/11/2023 20:13</t>
+        </is>
+      </c>
+      <c r="L319" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="M319" t="inlineStr">
+        <is>
+          <t>08/11/2023 22:57</t>
+        </is>
+      </c>
+      <c r="N319" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="O319" t="inlineStr">
+        <is>
+          <t>05/11/2023 20:13</t>
+        </is>
+      </c>
+      <c r="P319" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="Q319" t="inlineStr">
+        <is>
+          <t>08/11/2023 22:52</t>
+        </is>
+      </c>
+      <c r="R319" t="n">
+        <v>4.92</v>
+      </c>
+      <c r="S319" t="inlineStr">
+        <is>
+          <t>05/11/2023 20:13</t>
+        </is>
+      </c>
+      <c r="T319" t="n">
+        <v>4.52</v>
+      </c>
+      <c r="U319" t="inlineStr">
+        <is>
+          <t>08/11/2023 22:57</t>
+        </is>
+      </c>
+      <c r="V319" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/internacional-fluminense/0YVL2dlO/</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" s="1" t="n">
+        <v>319</v>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>brazil</t>
+        </is>
+      </c>
+      <c r="C320" t="inlineStr">
+        <is>
+          <t>serie-a</t>
+        </is>
+      </c>
+      <c r="D320" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E320" s="2" t="n">
+        <v>45239</v>
+      </c>
+      <c r="F320" t="inlineStr">
+        <is>
+          <t>Athletico-PR</t>
+        </is>
+      </c>
+      <c r="G320" t="n">
+        <v>1</v>
+      </c>
+      <c r="H320" t="inlineStr">
+        <is>
+          <t>Fortaleza</t>
+        </is>
+      </c>
+      <c r="I320" t="n">
+        <v>1</v>
+      </c>
+      <c r="J320" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>05/11/2023 20:13</t>
+        </is>
+      </c>
+      <c r="L320" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="M320" t="inlineStr">
+        <is>
+          <t>08/11/2023 23:44</t>
+        </is>
+      </c>
+      <c r="N320" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="O320" t="inlineStr">
+        <is>
+          <t>05/11/2023 20:13</t>
+        </is>
+      </c>
+      <c r="P320" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="Q320" t="inlineStr">
+        <is>
+          <t>08/11/2023 23:59</t>
+        </is>
+      </c>
+      <c r="R320" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="S320" t="inlineStr">
+        <is>
+          <t>05/11/2023 20:13</t>
+        </is>
+      </c>
+      <c r="T320" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="U320" t="inlineStr">
+        <is>
+          <t>08/11/2023 23:53</t>
+        </is>
+      </c>
+      <c r="V320" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/athletico-pr-fortaleza/vPUP1G3U/</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" s="1" t="n">
+        <v>320</v>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>brazil</t>
+        </is>
+      </c>
+      <c r="C321" t="inlineStr">
+        <is>
+          <t>serie-a</t>
+        </is>
+      </c>
+      <c r="D321" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E321" s="2" t="n">
+        <v>45239</v>
+      </c>
+      <c r="F321" t="inlineStr">
+        <is>
+          <t>Sao Paulo</t>
+        </is>
+      </c>
+      <c r="G321" t="n">
+        <v>1</v>
+      </c>
+      <c r="H321" t="inlineStr">
+        <is>
+          <t>Bragantino</t>
+        </is>
+      </c>
+      <c r="I321" t="n">
+        <v>0</v>
+      </c>
+      <c r="J321" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>05/11/2023 20:13</t>
+        </is>
+      </c>
+      <c r="L321" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="M321" t="inlineStr">
+        <is>
+          <t>08/11/2023 23:55</t>
+        </is>
+      </c>
+      <c r="N321" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="O321" t="inlineStr">
+        <is>
+          <t>05/11/2023 20:13</t>
+        </is>
+      </c>
+      <c r="P321" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="Q321" t="inlineStr">
+        <is>
+          <t>08/11/2023 23:57</t>
+        </is>
+      </c>
+      <c r="R321" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="S321" t="inlineStr">
+        <is>
+          <t>05/11/2023 20:13</t>
+        </is>
+      </c>
+      <c r="T321" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U321" t="inlineStr">
+        <is>
+          <t>08/11/2023 23:42</t>
+        </is>
+      </c>
+      <c r="V321" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/sao-paulo-bragantino/YLv56vka/</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" s="1" t="n">
+        <v>321</v>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>brazil</t>
+        </is>
+      </c>
+      <c r="C322" t="inlineStr">
+        <is>
+          <t>serie-a</t>
+        </is>
+      </c>
+      <c r="D322" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E322" s="2" t="n">
+        <v>45239.0625</v>
+      </c>
+      <c r="F322" t="inlineStr">
+        <is>
+          <t>Flamengo RJ</t>
+        </is>
+      </c>
+      <c r="G322" t="n">
+        <v>3</v>
+      </c>
+      <c r="H322" t="inlineStr">
+        <is>
+          <t>Palmeiras</t>
+        </is>
+      </c>
+      <c r="I322" t="n">
+        <v>0</v>
+      </c>
+      <c r="J322" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>05/11/2023 20:13</t>
+        </is>
+      </c>
+      <c r="L322" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="M322" t="inlineStr">
+        <is>
+          <t>09/11/2023 01:21</t>
+        </is>
+      </c>
+      <c r="N322" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="O322" t="inlineStr">
+        <is>
+          <t>05/11/2023 20:13</t>
+        </is>
+      </c>
+      <c r="P322" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="Q322" t="inlineStr">
+        <is>
+          <t>09/11/2023 01:21</t>
+        </is>
+      </c>
+      <c r="R322" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="S322" t="inlineStr">
+        <is>
+          <t>05/11/2023 20:13</t>
+        </is>
+      </c>
+      <c r="T322" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="U322" t="inlineStr">
+        <is>
+          <t>09/11/2023 01:21</t>
+        </is>
+      </c>
+      <c r="V322" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/flamengo-rj-palmeiras/xfod80Kn/</t>
         </is>
       </c>
     </row>

--- a/2023/brazil_serie-a_2023.xlsx
+++ b/2023/brazil_serie-a_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V322"/>
+  <dimension ref="A1:V326"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -941,7 +941,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Botafogo RJ</t>
+          <t>Athletico-PR</t>
         </is>
       </c>
       <c r="G6" t="n">
@@ -949,63 +949,63 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Sao Paulo</t>
+          <t>Goias</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>2.69</v>
+        <v>1.64</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>08/04/2023 23:42</t>
+          <t>09/04/2023 08:36</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>2.46</v>
+        <v>1.64</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>15/04/2023 23:22</t>
+          <t>15/04/2023 23:27</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>3.05</v>
+        <v>4.15</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>08/04/2023 23:42</t>
+          <t>09/04/2023 08:36</t>
         </is>
       </c>
       <c r="P6" t="n">
-        <v>3.17</v>
+        <v>3.69</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>15/04/2023 23:25</t>
+          <t>15/04/2023 23:27</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>3</v>
+        <v>5.21</v>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>08/04/2023 23:42</t>
+          <t>09/04/2023 08:36</t>
         </is>
       </c>
       <c r="T6" t="n">
-        <v>3.26</v>
+        <v>6.64</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>15/04/2023 23:25</t>
+          <t>15/04/2023 23:28</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/botafogo-rj-sao-paulo/vFRENgWQ/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/athletico-pr-goias/Sv02EkgD/</t>
         </is>
       </c>
     </row>
@@ -1033,7 +1033,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Athletico-PR</t>
+          <t>Botafogo RJ</t>
         </is>
       </c>
       <c r="G7" t="n">
@@ -1041,63 +1041,63 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Goias</t>
+          <t>Sao Paulo</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>1.64</v>
+        <v>2.69</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>09/04/2023 08:36</t>
+          <t>08/04/2023 23:42</t>
         </is>
       </c>
       <c r="L7" t="n">
-        <v>1.64</v>
+        <v>2.46</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>15/04/2023 23:27</t>
+          <t>15/04/2023 23:22</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>4.15</v>
+        <v>3.05</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>09/04/2023 08:36</t>
+          <t>08/04/2023 23:42</t>
         </is>
       </c>
       <c r="P7" t="n">
-        <v>3.69</v>
+        <v>3.17</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>15/04/2023 23:27</t>
+          <t>15/04/2023 23:25</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>5.21</v>
+        <v>3</v>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>09/04/2023 08:36</t>
+          <t>08/04/2023 23:42</t>
         </is>
       </c>
       <c r="T7" t="n">
-        <v>6.64</v>
+        <v>3.26</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>15/04/2023 23:28</t>
+          <t>15/04/2023 23:25</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/athletico-pr-goias/Sv02EkgD/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/botafogo-rj-sao-paulo/vFRENgWQ/</t>
         </is>
       </c>
     </row>
@@ -1585,22 +1585,22 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Sao Paulo</t>
+          <t>Cuiaba</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>America MG</t>
+          <t>Bragantino</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" t="n">
-        <v>1.66</v>
+        <v>2.32</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
@@ -1608,15 +1608,15 @@
         </is>
       </c>
       <c r="L13" t="n">
-        <v>1.94</v>
+        <v>2.65</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>22/04/2023 23:18</t>
+          <t>22/04/2023 22:56</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>3.92</v>
+        <v>3.25</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1624,32 +1624,32 @@
         </is>
       </c>
       <c r="P13" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>22/04/2023 20:05</t>
+        </is>
+      </c>
+      <c r="R13" t="n">
         <v>3.42</v>
       </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>22/04/2023 23:18</t>
-        </is>
-      </c>
-      <c r="R13" t="n">
-        <v>5.68</v>
-      </c>
       <c r="S13" t="inlineStr">
         <is>
           <t>17/04/2023 18:42</t>
         </is>
       </c>
       <c r="T13" t="n">
-        <v>4.51</v>
+        <v>3.04</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>22/04/2023 23:18</t>
+          <t>22/04/2023 22:54</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/sao-paulo-america-mg/WWQII4pa/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/cuiaba-bragantino/xO6mYqpn/</t>
         </is>
       </c>
     </row>
@@ -1677,22 +1677,22 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Cuiaba</t>
+          <t>Sao Paulo</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Bragantino</t>
+          <t>America MG</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>2.32</v>
+        <v>1.66</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
@@ -1700,15 +1700,15 @@
         </is>
       </c>
       <c r="L14" t="n">
-        <v>2.65</v>
+        <v>1.94</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>22/04/2023 22:56</t>
+          <t>22/04/2023 23:18</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>3.25</v>
+        <v>3.92</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1716,15 +1716,15 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>3.11</v>
+        <v>3.42</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>22/04/2023 20:05</t>
+          <t>22/04/2023 23:18</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>3.42</v>
+        <v>5.68</v>
       </c>
       <c r="S14" t="inlineStr">
         <is>
@@ -1732,16 +1732,16 @@
         </is>
       </c>
       <c r="T14" t="n">
-        <v>3.04</v>
+        <v>4.51</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>22/04/2023 22:54</t>
+          <t>22/04/2023 23:18</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/cuiaba-bragantino/xO6mYqpn/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/sao-paulo-america-mg/WWQII4pa/</t>
         </is>
       </c>
     </row>
@@ -2413,71 +2413,71 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Fortaleza</t>
+          <t>Coritiba</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Fluminense</t>
+          <t>Sao Paulo</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J22" t="n">
-        <v>2.69</v>
+        <v>3.08</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>24/04/2023 05:12</t>
+          <t>23/04/2023 23:42</t>
         </is>
       </c>
       <c r="L22" t="n">
-        <v>2.16</v>
+        <v>3.03</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>29/04/2023 21:29</t>
+          <t>29/04/2023 21:23</t>
         </is>
       </c>
       <c r="N22" t="n">
-        <v>3.27</v>
+        <v>3.36</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>24/04/2023 05:12</t>
+          <t>23/04/2023 23:42</t>
         </is>
       </c>
       <c r="P22" t="n">
-        <v>3.34</v>
+        <v>3.18</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>29/04/2023 21:29</t>
+          <t>29/04/2023 21:16</t>
         </is>
       </c>
       <c r="R22" t="n">
-        <v>2.77</v>
+        <v>2.4</v>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>24/04/2023 05:12</t>
+          <t>23/04/2023 23:42</t>
         </is>
       </c>
       <c r="T22" t="n">
-        <v>3.76</v>
+        <v>2.61</v>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>29/04/2023 21:29</t>
+          <t>29/04/2023 21:23</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/fortaleza-fluminense/Q7RQo3Eo/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/coritiba-sao-paulo/b1wqNJyo/</t>
         </is>
       </c>
     </row>
@@ -2505,71 +2505,71 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Coritiba</t>
+          <t>Fortaleza</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Sao Paulo</t>
+          <t>Fluminense</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J23" t="n">
-        <v>3.08</v>
+        <v>2.69</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>23/04/2023 23:42</t>
+          <t>24/04/2023 05:12</t>
         </is>
       </c>
       <c r="L23" t="n">
-        <v>3.03</v>
+        <v>2.16</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>29/04/2023 21:23</t>
+          <t>29/04/2023 21:29</t>
         </is>
       </c>
       <c r="N23" t="n">
-        <v>3.36</v>
+        <v>3.27</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>23/04/2023 23:42</t>
+          <t>24/04/2023 05:12</t>
         </is>
       </c>
       <c r="P23" t="n">
-        <v>3.18</v>
+        <v>3.34</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>29/04/2023 21:16</t>
+          <t>29/04/2023 21:29</t>
         </is>
       </c>
       <c r="R23" t="n">
-        <v>2.4</v>
+        <v>2.77</v>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>23/04/2023 23:42</t>
+          <t>24/04/2023 05:12</t>
         </is>
       </c>
       <c r="T23" t="n">
-        <v>2.61</v>
+        <v>3.76</v>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>29/04/2023 21:23</t>
+          <t>29/04/2023 21:29</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/coritiba-sao-paulo/b1wqNJyo/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/fortaleza-fluminense/Q7RQo3Eo/</t>
         </is>
       </c>
     </row>
@@ -2689,71 +2689,71 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Santos</t>
+          <t>Palmeiras</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>America MG</t>
+          <t>Corinthians</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J25" t="n">
-        <v>2.04</v>
+        <v>1.68</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>24/04/2023 05:42</t>
+          <t>24/04/2023 00:12</t>
         </is>
       </c>
       <c r="L25" t="n">
-        <v>2.41</v>
+        <v>1.5</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>29/04/2023 23:26</t>
+          <t>29/04/2023 23:06</t>
         </is>
       </c>
       <c r="N25" t="n">
-        <v>3.54</v>
+        <v>3.88</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>24/04/2023 05:42</t>
+          <t>24/04/2023 00:12</t>
         </is>
       </c>
       <c r="P25" t="n">
-        <v>3.22</v>
+        <v>4.07</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>29/04/2023 23:26</t>
+          <t>29/04/2023 22:36</t>
         </is>
       </c>
       <c r="R25" t="n">
-        <v>3.73</v>
+        <v>5.49</v>
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>24/04/2023 05:42</t>
+          <t>24/04/2023 00:12</t>
         </is>
       </c>
       <c r="T25" t="n">
-        <v>3.31</v>
+        <v>8.26</v>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>29/04/2023 23:26</t>
+          <t>29/04/2023 23:06</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/santos-america-mg/63b4U1qB/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/palmeiras-corinthians/SCa0VsU4/</t>
         </is>
       </c>
     </row>
@@ -2781,71 +2781,71 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Palmeiras</t>
+          <t>Santos</t>
         </is>
       </c>
       <c r="G26" t="n">
+        <v>3</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>America MG</t>
+        </is>
+      </c>
+      <c r="I26" t="n">
         <v>2</v>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>Corinthians</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
-        <v>1</v>
-      </c>
       <c r="J26" t="n">
-        <v>1.68</v>
+        <v>2.04</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>24/04/2023 00:12</t>
+          <t>24/04/2023 05:42</t>
         </is>
       </c>
       <c r="L26" t="n">
-        <v>1.5</v>
+        <v>2.41</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>29/04/2023 23:06</t>
+          <t>29/04/2023 23:26</t>
         </is>
       </c>
       <c r="N26" t="n">
-        <v>3.88</v>
+        <v>3.54</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>24/04/2023 00:12</t>
+          <t>24/04/2023 05:42</t>
         </is>
       </c>
       <c r="P26" t="n">
-        <v>4.07</v>
+        <v>3.22</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>29/04/2023 22:36</t>
+          <t>29/04/2023 23:26</t>
         </is>
       </c>
       <c r="R26" t="n">
-        <v>5.49</v>
+        <v>3.73</v>
       </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t>24/04/2023 00:12</t>
+          <t>24/04/2023 05:42</t>
         </is>
       </c>
       <c r="T26" t="n">
-        <v>8.26</v>
+        <v>3.31</v>
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>29/04/2023 23:06</t>
+          <t>29/04/2023 23:26</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/palmeiras-corinthians/SCa0VsU4/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/santos-america-mg/63b4U1qB/</t>
         </is>
       </c>
     </row>
@@ -4253,71 +4253,71 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Bragantino</t>
+          <t>Santos</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>America MG</t>
+          <t>Bahia</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>1.86</v>
+        <v>1.95</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>07/05/2023 23:42</t>
+          <t>07/05/2023 21:12</t>
         </is>
       </c>
       <c r="L42" t="n">
-        <v>1.83</v>
+        <v>2.3</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>10/05/2023 23:45</t>
+          <t>10/05/2023 23:51</t>
         </is>
       </c>
       <c r="N42" t="n">
-        <v>3.68</v>
+        <v>3.64</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>07/05/2023 23:42</t>
+          <t>07/05/2023 21:12</t>
         </is>
       </c>
       <c r="P42" t="n">
-        <v>3.77</v>
+        <v>3.14</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>10/05/2023 23:45</t>
+          <t>10/05/2023 23:59</t>
         </is>
       </c>
       <c r="R42" t="n">
-        <v>4.31</v>
+        <v>3.93</v>
       </c>
       <c r="S42" t="inlineStr">
         <is>
-          <t>07/05/2023 23:42</t>
+          <t>07/05/2023 21:12</t>
         </is>
       </c>
       <c r="T42" t="n">
-        <v>4.62</v>
+        <v>3.65</v>
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>10/05/2023 23:48</t>
+          <t>10/05/2023 23:59</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/bragantino-america-mg/xWzYhxSS/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/santos-bahia/r9yUgICM/</t>
         </is>
       </c>
     </row>
@@ -4345,22 +4345,22 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Santos</t>
+          <t>Internacional</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Bahia</t>
+          <t>Athletico-PR</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J43" t="n">
-        <v>1.95</v>
+        <v>1.79</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
@@ -4368,15 +4368,15 @@
         </is>
       </c>
       <c r="L43" t="n">
-        <v>2.3</v>
+        <v>1.82</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>10/05/2023 23:51</t>
+          <t>10/05/2023 23:55</t>
         </is>
       </c>
       <c r="N43" t="n">
-        <v>3.64</v>
+        <v>3.69</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -4384,15 +4384,15 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>3.14</v>
+        <v>3.61</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>10/05/2023 23:59</t>
+          <t>10/05/2023 23:55</t>
         </is>
       </c>
       <c r="R43" t="n">
-        <v>3.93</v>
+        <v>4.86</v>
       </c>
       <c r="S43" t="inlineStr">
         <is>
@@ -4400,16 +4400,16 @@
         </is>
       </c>
       <c r="T43" t="n">
-        <v>3.65</v>
+        <v>4.93</v>
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>10/05/2023 23:59</t>
+          <t>10/05/2023 23:55</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/santos-bahia/r9yUgICM/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/internacional-athletico-pr/61gdmGkj/</t>
         </is>
       </c>
     </row>
@@ -4437,71 +4437,71 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Internacional</t>
+          <t>Bragantino</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Athletico-PR</t>
+          <t>America MG</t>
         </is>
       </c>
       <c r="I44" t="n">
         <v>2</v>
       </c>
       <c r="J44" t="n">
-        <v>1.79</v>
+        <v>1.86</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>07/05/2023 21:12</t>
+          <t>07/05/2023 23:42</t>
         </is>
       </c>
       <c r="L44" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>10/05/2023 23:55</t>
+          <t>10/05/2023 23:45</t>
         </is>
       </c>
       <c r="N44" t="n">
-        <v>3.69</v>
+        <v>3.68</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>07/05/2023 21:12</t>
+          <t>07/05/2023 23:42</t>
         </is>
       </c>
       <c r="P44" t="n">
-        <v>3.61</v>
+        <v>3.77</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>10/05/2023 23:55</t>
+          <t>10/05/2023 23:45</t>
         </is>
       </c>
       <c r="R44" t="n">
-        <v>4.86</v>
+        <v>4.31</v>
       </c>
       <c r="S44" t="inlineStr">
         <is>
-          <t>07/05/2023 21:12</t>
+          <t>07/05/2023 23:42</t>
         </is>
       </c>
       <c r="T44" t="n">
-        <v>4.93</v>
+        <v>4.62</v>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>10/05/2023 23:55</t>
+          <t>10/05/2023 23:48</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/internacional-athletico-pr/61gdmGkj/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/bragantino-america-mg/xWzYhxSS/</t>
         </is>
       </c>
     </row>
@@ -4529,22 +4529,22 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Cuiaba</t>
+          <t>Flamengo RJ</t>
         </is>
       </c>
       <c r="G45" t="n">
+        <v>2</v>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Goias</t>
+        </is>
+      </c>
+      <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>Atletico-MG</t>
-        </is>
-      </c>
-      <c r="I45" t="n">
-        <v>4</v>
-      </c>
       <c r="J45" t="n">
-        <v>3.36</v>
+        <v>1.32</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
@@ -4552,15 +4552,15 @@
         </is>
       </c>
       <c r="L45" t="n">
-        <v>3.86</v>
+        <v>1.25</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>11/05/2023 00:59</t>
+          <t>11/05/2023 00:43</t>
         </is>
       </c>
       <c r="N45" t="n">
-        <v>3.3</v>
+        <v>5.65</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
@@ -4568,15 +4568,15 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>3.3</v>
+        <v>6.22</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>11/05/2023 00:57</t>
+          <t>11/05/2023 00:58</t>
         </is>
       </c>
       <c r="R45" t="n">
-        <v>2.32</v>
+        <v>9.16</v>
       </c>
       <c r="S45" t="inlineStr">
         <is>
@@ -4584,16 +4584,16 @@
         </is>
       </c>
       <c r="T45" t="n">
-        <v>2.15</v>
+        <v>12.58</v>
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>11/05/2023 00:59</t>
+          <t>11/05/2023 00:58</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/cuiaba-atletico-mg/CbpnAwc3/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/flamengo-rj-goias/8jqHdKS3/</t>
         </is>
       </c>
     </row>
@@ -4621,22 +4621,22 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Flamengo RJ</t>
+          <t>Cuiaba</t>
         </is>
       </c>
       <c r="G46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Goias</t>
+          <t>Atletico-MG</t>
         </is>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J46" t="n">
-        <v>1.32</v>
+        <v>3.36</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
@@ -4644,15 +4644,15 @@
         </is>
       </c>
       <c r="L46" t="n">
-        <v>1.25</v>
+        <v>3.86</v>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>11/05/2023 00:43</t>
+          <t>11/05/2023 00:59</t>
         </is>
       </c>
       <c r="N46" t="n">
-        <v>5.65</v>
+        <v>3.3</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
@@ -4660,15 +4660,15 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>6.22</v>
+        <v>3.3</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>11/05/2023 00:58</t>
+          <t>11/05/2023 00:57</t>
         </is>
       </c>
       <c r="R46" t="n">
-        <v>9.16</v>
+        <v>2.32</v>
       </c>
       <c r="S46" t="inlineStr">
         <is>
@@ -4676,16 +4676,16 @@
         </is>
       </c>
       <c r="T46" t="n">
-        <v>12.58</v>
+        <v>2.15</v>
       </c>
       <c r="U46" t="inlineStr">
         <is>
-          <t>11/05/2023 00:58</t>
+          <t>11/05/2023 00:59</t>
         </is>
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/flamengo-rj-goias/8jqHdKS3/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/cuiaba-atletico-mg/CbpnAwc3/</t>
         </is>
       </c>
     </row>
@@ -5817,71 +5817,71 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Goias</t>
+          <t>America MG</t>
         </is>
       </c>
       <c r="G59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Botafogo RJ</t>
+          <t>Cruzeiro</t>
         </is>
       </c>
       <c r="I59" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J59" t="n">
-        <v>2.91</v>
+        <v>2.16</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>12/05/2023 00:42</t>
+          <t>11/05/2023 02:42</t>
         </is>
       </c>
       <c r="L59" t="n">
-        <v>3.27</v>
+        <v>2.56</v>
       </c>
       <c r="M59" t="inlineStr">
         <is>
+          <t>14/05/2023 23:27</t>
+        </is>
+      </c>
+      <c r="N59" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>11/05/2023 02:42</t>
+        </is>
+      </c>
+      <c r="P59" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="Q59" t="inlineStr">
+        <is>
           <t>14/05/2023 23:29</t>
         </is>
       </c>
-      <c r="N59" t="n">
-        <v>3.46</v>
-      </c>
-      <c r="O59" t="inlineStr">
-        <is>
-          <t>12/05/2023 00:42</t>
-        </is>
-      </c>
-      <c r="P59" t="n">
-        <v>3.29</v>
-      </c>
-      <c r="Q59" t="inlineStr">
-        <is>
-          <t>14/05/2023 23:29</t>
-        </is>
-      </c>
       <c r="R59" t="n">
-        <v>2.5</v>
+        <v>3.44</v>
       </c>
       <c r="S59" t="inlineStr">
         <is>
-          <t>12/05/2023 00:42</t>
+          <t>11/05/2023 02:42</t>
         </is>
       </c>
       <c r="T59" t="n">
-        <v>2.4</v>
+        <v>2.87</v>
       </c>
       <c r="U59" t="inlineStr">
         <is>
-          <t>14/05/2023 23:29</t>
+          <t>14/05/2023 23:27</t>
         </is>
       </c>
       <c r="V59" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/goias-botafogo-rj/MyjXlTQf/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/america-mg-cruzeiro/MXZV9U2K/</t>
         </is>
       </c>
     </row>
@@ -5909,46 +5909,46 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>America MG</t>
+          <t>Athletico-PR</t>
         </is>
       </c>
       <c r="G60" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Cruzeiro</t>
+          <t>Coritiba</t>
         </is>
       </c>
       <c r="I60" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J60" t="n">
-        <v>2.16</v>
+        <v>1.68</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>11/05/2023 02:42</t>
+          <t>12/05/2023 00:12</t>
         </is>
       </c>
       <c r="L60" t="n">
-        <v>2.56</v>
+        <v>1.63</v>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>14/05/2023 23:27</t>
+          <t>14/05/2023 23:29</t>
         </is>
       </c>
       <c r="N60" t="n">
-        <v>3.59</v>
+        <v>3.98</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>11/05/2023 02:42</t>
+          <t>12/05/2023 00:12</t>
         </is>
       </c>
       <c r="P60" t="n">
-        <v>3.47</v>
+        <v>3.83</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
@@ -5956,24 +5956,24 @@
         </is>
       </c>
       <c r="R60" t="n">
-        <v>3.44</v>
+        <v>5.07</v>
       </c>
       <c r="S60" t="inlineStr">
         <is>
-          <t>11/05/2023 02:42</t>
+          <t>12/05/2023 00:12</t>
         </is>
       </c>
       <c r="T60" t="n">
-        <v>2.87</v>
+        <v>6.41</v>
       </c>
       <c r="U60" t="inlineStr">
         <is>
-          <t>14/05/2023 23:27</t>
+          <t>14/05/2023 23:29</t>
         </is>
       </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/foo